--- a/resource/04_UPLOAD.xlsx
+++ b/resource/04_UPLOAD.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python\py_crnt\notebooks\퇴직뉴\resource\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="777">
   <si>
     <t>날짜</t>
   </si>
@@ -133,9 +138,6 @@
     <t>미래에셋운용</t>
   </si>
   <si>
-    <t>코스트코 / DL이앤씨</t>
-  </si>
-  <si>
     <t>KB자산운용</t>
   </si>
   <si>
@@ -187,18 +189,9 @@
     <t>KB운용-KB은행 맞손, 銀투자자문 서비스 결합한 '퇴직연금펀드' 출시</t>
   </si>
   <si>
-    <t>월급 받아 자녀 학원비에 '몰빵' 하다간…'무서운 경고' [더 머니이스트-김진...</t>
-  </si>
-  <si>
     <t>미래에셋운용, ‘미래에셋드림스타자산배분성장형 펀드’ 출시</t>
   </si>
   <si>
-    <t>연금저축·사고보험금도 5000만원까지 별도로 보호됩니다 [정문영 PB의 생활 ...</t>
-  </si>
-  <si>
-    <t>'계속되는 노동자 사망' 고용부 국감, 코스트코·DL이앤씨 '정조준'</t>
-  </si>
-  <si>
     <t>KB자산운용, ‘KB 드림스타 자산배분 안정형 펀드’ 출시</t>
   </si>
   <si>
@@ -268,18 +261,12 @@
     <t>부산시교육청, 2024학년도 공·사립 중등교사 530명 선발</t>
   </si>
   <si>
-    <t>[오늘의 주요 일정] 울산(4일, 수)</t>
-  </si>
-  <si>
     <t>[울산소식] 울산대병원 정년퇴직 직원, 병원 발전기금 전달 등</t>
   </si>
   <si>
     <t>“소상공인에 국민연금·고용보험료 80% 지원합니다!”</t>
   </si>
   <si>
-    <t>장기이식 기다리는 환자 5만명, 기증자 405명…우리의 현주소[21그램]⑥</t>
-  </si>
-  <si>
     <t>뒷걸음질 치는 연금개혁안… 연금특위 활동 기한 또 연장</t>
   </si>
   <si>
@@ -385,18 +372,9 @@
     <t>KB자산운용이 KB 드림스타 자산배분 안정형 펀드를 출시했다. 이 펀드는 글로벌 주식 채권 원자재 등 다양한 자산에 분산투자해 안정적인 수익을 추구하는 상품이다. KB자산운용은 다양한 연금펀드를 운용하며 퇴직연금 강자로 주목받고 있다.</t>
   </si>
   <si>
-    <t>소득과 학력의 연결로 인해 계층 간 이동이 어려워지고 있으며, 자녀 교육비가 가계 지출의 중요한 부분을 차지하고 있습니다. 자녀 교육과 노후 준비는 중요한 가치를 가지며, 적정한 자녀 교육 비용과 노후 준비 비율을 유지하는 것이 중요합니다.</t>
-  </si>
-  <si>
     <t>미래에셋자산운용은 글로벌 주식 채권 등 전통자산과 원자재 등 대체자산에 분산 투자하는 미래에셋드림스타자산배분성장형 펀드를 출시한다고 5일 밝혔다. 미래에셋드림스타자산배분성장형 펀드는 미래에셋자산운용이 운용을 KB국민은행이 자문을 담당한다. 미래에셋드림스타자산배분성장형 펀드는 국내외 주식형 펀드와 채권형 펀드부터 상장지수펀드 ETF 에너지 및 원자재 펀드 리츠 REITs 등 다양한 기초자산에 분산 투자해 위험 대비 효율적인 수익을 추구한다.</t>
   </si>
   <si>
-    <t>국내 제2금융권 부동산 프로젝트파이낸싱 PF 대출의 연체율 증가로 금융기관에 대한 불안감이 커지고 있습니다. 예금자보호법 개정안이 추진되어 예금자의 보호 범위가 확대될 예정입니다. 연금저축 신탁보험 사고보험금 중소기업퇴직연금기금에 대해 예금자보호 한도 5000만원을 적용하는 정책이 추진됩니다.</t>
-  </si>
-  <si>
-    <t>고용노동부 국정감사에서는 중대재해 사망사고가 끊이지 않는 SPC그룹 계열사와 DL이앤씨 롯데건설 등이 집중포화를 맞을 것으로 예상된다. 고용부 산하기관 기강 해이 등 사회적 물의를 일으킨 현안도 초미의 관심사다. 정부가 추진 중인 노동개혁 관련 정책도 도마에 오를 전망이다.</t>
-  </si>
-  <si>
     <t>KB자산운용은 KB 드림스타 자산배분 안정형 펀드를 출시했다. 이 펀드는 자산배분펀드의 명가인 KB자산운용의 운용역량과 KB국민은행의 글로벌 투자자문 서비스를 결합한 퇴직연금 펀드다. KB자산운용은 주력상품인 TDF를 포함해 KB온국민평생소득TIF KB타겟리턴OCIO펀드 시리즈 등 다양한 연금펀드를 효율적으로 운용하며 퇴직연금 강자로 주목받고 있다.</t>
   </si>
   <si>
@@ -466,18 +444,12 @@
     <t>교육감 하윤수이 공사립 중등교사 530명을 선발한다. 시교육청은 2024학년도 공사립 중등학교교사 임용후보자 선정경쟁시험 시행계획을 발표했다. 공립학교 교사는 중등교사 340명, 특수 중등 5명, 보건 초등 13명, 보건 중등 12명, 영양 10명, 사서 4명, 전문 상담 35명 등 34개 과목 총 419명을 선발한다.</t>
   </si>
   <si>
-    <t>울산시 시장이 글로컬대학과 지역산업육성 펀드 전달식에 참석하였습니다. 또한, 울산경제신문의 신임 사장이 내방하여 홍보를 진행하였습니다. 이외에도 다양한 행사와 회의가 진행되었습니다.</t>
-  </si>
-  <si>
     <t>울산대학교병원 직원이 병원 발전을 위해 1000만원 기부. 강선희 직원은 환자와 직원들을 위한 건강한 식단 제공에 노력.</t>
   </si>
   <si>
     <t>근로복지공단은 고용산재보험 가입은 단순한 의무가 아니라 일하는 삶 모두의 안심과 안정을 위해 필수라는 인식 개선을 위해 10월 4일부터 한 달 동안 집중 홍보기간을 운영한다고 밝혔습니다.</t>
   </si>
   <si>
-    <t>한국의 장기이식 대기자는 꾸준히 늘어나고 있지만 기증자는 줄고 있는 상황이다. 장기이식에 대한 국민들의 인식개선은 풀어야할 난제다. 한국의 장기기증자 수는 미국의 17에 불과하며 희망등록률도 낮다. 장기기증에 대한 인식의 척도는 장기조직기증희망등록률이다. 한국은 옵트아웃 제도를 적용하기엔 한계가 있다. 미국은 옵트인 제도를 채택하고 있지만 세계 최고의 기증률을 유지하고 있다. 우리나라에서는 뇌사와 이를 넘어서는 사망 자체에 대한 법률적 정의가 없다.</t>
-  </si>
-  <si>
     <t>연금개혁특별위원회 활동 기한을 내년 5월까지 연장하는 잠정 합의. 국회에서 연금개혁이 물 건너갈 가능성 우려. 국민연금 개혁방안을 담은 5차 종합운영계획을 국회에 제출 예정.</t>
   </si>
   <si>
@@ -577,18 +549,9 @@
     <t>https://n.news.naver.com/mnews/article/014/0005081452?sid=101</t>
   </si>
   <si>
-    <t>https://n.news.naver.com/mnews/article/015/0004898547?sid=101</t>
-  </si>
-  <si>
     <t>https://n.news.naver.com/mnews/article/018/0005588339?sid=101</t>
   </si>
   <si>
-    <t>https://n.news.naver.com/mnews/article/081/0003397996?sid=101</t>
-  </si>
-  <si>
-    <t>https://n.news.naver.com/mnews/article/014/0005081363?sid=102</t>
-  </si>
-  <si>
     <t>https://n.news.naver.com/mnews/article/018/0005588333?sid=101</t>
   </si>
   <si>
@@ -658,18 +621,12 @@
     <t>https://n.news.naver.com/mnews/article/382/0001078740?sid=102</t>
   </si>
   <si>
-    <t>https://n.news.naver.com/mnews/article/421/0007086079?sid=102</t>
-  </si>
-  <si>
     <t>https://n.news.naver.com/mnews/article/003/0012126931?sid=102</t>
   </si>
   <si>
     <t>https://n.news.naver.com/mnews/article/660/0000046181?sid=101</t>
   </si>
   <si>
-    <t>https://n.news.naver.com/mnews/article/421/0007084787?sid=102</t>
-  </si>
-  <si>
     <t>https://n.news.naver.com/mnews/article/022/0003860985?sid=100</t>
   </si>
   <si>
@@ -775,18 +732,9 @@
     <t xml:space="preserve"> KB자산운용이 KB 드림스타 자산배분 안정형 펀드를 출시했다. 5일 KB운용에 따르면 KB 드림스타 자산배분 안정형 펀드는 자산배분펀드의 명가인 KB자산운용의 운용역량과 KB국민은행의 글로벌 투자자문 서비스를 결합한 퇴직연금 펀드다. 이 펀드는 글로벌 주식 채권 원자재 등 다양한 자산에 분산투자해 변동성을 낮추고 위험자산의 비중을 40수준으로 제한해 안정적인 수익을 추구하는 상품이다. KB국민은행이 자산배분안을 자문하고 KB자산운용이 이를 바탕으로 시장 전망 및 자산군별 세부전략을 확정하여 포트폴리오를 구성한다. 초기 포트폴리오를 살펴보면 글로벌 주식 35과 채권 55에 분산투자한다. 주식은 선진국 25 한국 5 신흥국 5으로 구성되어 있고 채권은 국내 45 해외 10으로 나뉜다. 나머지 10는 유동성 자산으로 MMF등에 투자한다. KB자산운용 연금WM본부 이석희 상무는 이 상품은 KB국민은행과 협업한 최초의 펀드로 저비용으로 다양한 국가와 자산에 분산투자해 글로벌 커버리지가 높다며 장기적으로 안정적인 투자가 중요한 연금 퇴직연금 고객에게 적합한 상품이라고 설명했다. 이 펀드는 10월 4일부터 KB국민은행 퇴직연금계좌를 통해 가입할 수 있다. 환율변동에 따른 위험을 관리하기 위해 외화표시 된 비위험자산 채권 등 고정이자를 수취하는 외화자산에 대해 환헤지한다. 선취수수료가 없는 C퇴직형 연보수 0.635과 C퇴직e형 연보수 0.485 온라인전용 중에서 선택할 수 있다. 한편 KB자산운용은 유가증권 대체투자 LDI 부문 등의 자체 리서치 역량으로 최적화된 자산배분펀드 운용시스템을 갖추고 있다. KB자산운용은 주력상품인 TDF를 포함해 KB온국민평생소득TIF KB타겟리턴OCIO펀드 시리즈 등 다양한 연금펀드를 효율적으로 운용하며 퇴직연금 강자로 주목받고 있다. 향후 투자자들이 시장 상황에 맞는 상품을 선택할 수 있도록 신규 연금상품 라인업을 추가적으로 구축할 예정이다. 퇴직연금 kb자산운용 KB드림스타자산배분안정형펀드 </t>
   </si>
   <si>
-    <t>최근 소득 차이가 학력의 차이로 대물림되면서 계층 간 이동이 쉽지 않은 분위기가 심화하고 있습니다. 학력이 소득으로 연결 소득은 자산으로 연결돼 다시 자녀의 학력에 영향을 미치는 부의 순환고리 현상이라 할 수 있습니다. 이렇듯 학력이 경제력과 높은 비례 관계를 보이니 부모 입장에서 자녀 지원을 소홀히 할 수 없는 상황입니다.2022년 통계청 조사에 따르면 연간 사교육비 총액은 약 26조원에 달하고 학생 1인당 월평균 사교육비는 41만원으로 나타났습니다. 실제 4분의 3이 넘는 78.3 학생들이 사교육에 참여하고 있습니다. 참여 학생의 1인당 월평균 사교육비는 52만4000원으로 높아질 것으로 예상되는데요 이는 자녀가 사교육을 한창 받을 때 부모 나이인 40대 가구의 평균 가계 지출 월 534만원의 9.8를 차지합니다. 자녀가 2명이라면 가계 지출의 20 정도가 사교육비로 지출되는 셈이니 자녀 교육 때문에 노후 준비가 어렵다는 말이 과언은 아닙니다. 노후 준비를 못하는 이유가 자녀 교육 때문이라면 본인의 노후 준비보다 자녀 교육을 우선한다고 볼 수 있습니다. 그러나 노후 생활이 시기적으로 뒤에 있을 뿐 자녀 교육보다 결코 중요하지 않은 건 아닙니다. 부모의 불안한 노후는 자녀에게도 부담으로 작용하게 되니 결과적으로 자녀 교육과 노후 준비는 그 가치가 동등합니다.중산층 이상 가구가 자녀 교육 때문에 노후 준비를 못 하고 있다면 교육비 지출에 무리하고 있는 건 아닌지 점검해 봐야 합니다. 물론 자녀 교육관에는 사람마다 차이가 있어 적정 수준을 정하는 게 쉽지는 않습니다. 따라서 계획적인 지출이 될 수 있도록 자녀 교육에 명확한 원칙을 가져야 합니다. 적정한 자녀 교육 비용에 대한 원칙들을 정리해 보겠습니다.첫째 자녀 1인당 사교육비와 노후 준비 비율을 1대 1로 해야 합니다. 자녀 1인당 월평균 사교육비가 50만원 정도 들어갑니다. 노후 준비를 동등한 가치로 둔다면 월 50만원 연 600만원 이상 개인형퇴직연금 IRP이나 연금저축으로 챙기는 것이 맞습니다. 매년 600만원을 연 4 수익률로 30년간 적립하면 3억원 이상의 노후 자산을 만들 수 있습니다.둘째 자녀 1인당 총 교육비는 소득의 10를 넘지 않도록 해야 합니다. 현재 소득에서 감당할 수 있더라도 부가적으로 발생하는 비용들이 생각보다 많아질 수 있습니다. 때문에 소득에 따른 기준을 가지는 것이 좋습니다. 자녀가 2명 이상이라면 가구 소득의 20까지는 확대해도 무리 없어 보입니다.셋째 최소한 5년 전부터 미리 준비하는 게 중요합니다. 목돈이 필요하다면 닥쳐서 지출하기보다 미리 준비하는 것이 효과적입니다. 예를 들어 중학교에 입학하면 대학 등록금 준비를 시작하는 것입니다. 투자 기간을 길게 할수록 복리 효과로 수익이 커지면서 목돈 준비에 대한 부담이 줄어듭니다. 금융투자수익을 통해 실제 부담을 낮추는 효과를 가져오려면 5년 정도 투자 기간을 감안하고 미리 준비하는 것을 추천합니다.이제 자녀가 부모의 노후를 책임져 주는 시대가 아닙니다. 부모 입장에서는 교육을 통해 자녀가 제 몫을 다할 수 있도록 키우는 건 당연한 일입니다. 하지만 경제적인 역량을 넘어서는 무리한 자녀 교육은 가계 재정에 부담이 되고 사교육의 효과 또한 100 장담할 수도 없습니다. 적정한 자녀교육비 지출이 부모와 자녀 모두에게 바람직한 결과를 가져다줄 것입니다.NH WM마스터즈 김진웅 수석전문위원 NH투자증권 100세시대연구소장외부 필진의 기고 내용은 본지의 편집 방향과 다를 수 있습니다.독자 문의 thepenhankyung.com</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 미래에셋자산운용은 글로벌 주식 채권 등 전통자산과 원자재 등 대체자산에 분산 투자하는 미래에셋드림스타자산배분성장형 펀드를 출시한다고 5일 밝혔다. 신규 출시하는 미래에셋드림스타자산배분성장형 펀드는 미래에셋자산운용이 운용을 KB국민은행이 자문을 담당한다.미래에셋드림스타자산배분성장형 펀드는 국내외 주식형 펀드와 채권형 펀드부터 상장지수펀드 ETF 에너지 및 원자재 펀드 리츠 REITs 등 다양한 기초자산에 분산 투자해 위험 대비 효율적인 수익을 추구한다. 시장 변동성에 대응하기 위해 경기 국면별로 투자 자산의 비중을 조절하는 적극적인 자산배분을 통해 꾸준한 초과 수익을 목표로 한다.미래에셋드림스타자산배분성장형 펀드는 미래에셋자산운용이 은행과 협업하는 최초의 상품이다. 지난 1월 국내 은행권 최초로 금융투자자문업에 진출한 KB국민은행이 글로벌 자산배분안과 시장 및 경제 전망 펀드 포트폴리오 구성 관련 자문을 담당하고 미래에셋자산운용이 운용하는 구조다. KB국민은행의 포트폴리오 관리 역량과 미래에셋자산운용의 재간접펀드 운용 역량이 결합해 시너지를 발휘할 수 있을 것으로 기대된다. 양사는 지속적인 모니터링을 통해 리스크를 관리하고 자산군별 국가별 펀드별 성과 분석 및 리밸런싱을 수행할 계획이다.또한 미래에셋자산운용은 연금 투자자들을 위해 미래에셋드림스타자산배분성장형 펀드 설계 단계에서부터 물가상승률과 금리 목표수익 위험성향 등 다양한 변수를 고려해 연금펀드 자산운용에 특화된 투자전략을 수립했다. 미래에셋드림스타자산배분성장형 펀드는 향후 확정기여형 퇴직연금 DC 및 개인형 퇴직연금 IRP 가입자의 수익률 개선에 기여할 수 있을 것으로 기대된다.류경식 미래에셋자산운용 WM연금마케팅부문 대표는 미래에셋드림스타자산배분성장형 펀드는 미래에셋자산운용이 은행과 협업해 선보이는 첫 상품으로 양사의 역량을 결합해 우수한 성과를 낼 수 있도록 노력하겠다며 특히 장기 성장 관점에서의 액티브한 자산배분 운용과 안정적인 초과 수익 달성을 목표로 하는 해당 펀드는 연금 투자자들이 글로벌 경쟁력을 갖춘 다양한 자산에 투자할 수 있는 기회가 될 것으로 기대한다고 말했다.한편 미래에셋드림스타자산배분성장형 펀드는 KB국민은행에서 가입 가능하다.</t>
   </si>
   <si>
-    <t>지난 3월 미국 실리콘밸리은행 SVB의 파산과 최근 국내 제2금융권 부동산 프로젝트파이낸싱 PF 대출의 연체율 증가로 금융기관에 대한 불안감이 커지면서 예금자보호에 대한 관심도 증가하고 있습니다.예금자보호법은 금융사 파산 등의 사유로 예금 등을 지급할 수 없는 상황에 대처하기 위해 만든 예금보험제도 등을 효율적으로 운영해 예금자 등을 보호하고 금융제도의 안정성을 유지하려고 제정된 법입니다. 예금보험의 적용을 받는 금융회사로는 은행 산업기업시중농협수협 등 투자매매업자 투자중개업자 보험회사 종합금융회사 상호저축은행중앙회 등이 있습니다. 농협수협의 지역조합 신용협동조합 새마을금고의 경우 예금자보호 대상은 아니나 자체 관련 법률에 따라 자체 기금에서 보호되며 우체국의 경우 정부 기관이기 때문에 국가에서 우체국 예금을 보호합니다. 예금자보호 한도는 1인당 각각의 금융기관별 원금과 소정의 이자를 포함해 5000만원까지입니다.이와 관련해 최근 금융위원회는 국민의 노후 소득 보장과 상품의 사회적보장적 성격을 고려해 연금저축 사고보험금 중소기업퇴직연금기금에 대해 예금자가 보유한 일반 예금과 별도로 예금자보호 한도 5000만원을 각각 적용하는 정책을 추진하는 예금자보호법 시행령 개정안 입법예고를 했습니다.이번 개정안을 통해 기존 확정기여형 DC 및 개인형 IRP 퇴직연금과 마찬가지로 연금저축 신탁보험 사고보험금 중소기업퇴직연금기금 각각에 대해서 일반 예금과 분리해 별도로 보호받게 됩니다. 연금저축신탁 은행 및 연금저축보험 보험사이 대상이고 연금저축펀드 자산운용사는 예금자보호 대상이 아닙니다. 사고보험금 만기보험금 제외도 일반 예금과 분리해 별도 보호 한도를 적용합니다. 중소기업퇴직연금기금의 예금도 실예금자 근로자별로 별도 보호 한도를 적용하기로 했습니다.보호 대상 은행상품 연금저축신탁 사고보험 IRP에 가입한 고객의 경우 현재는 IRP만 별도로 보호를 받기 때문에 총 1억원을 보호받지만 앞으로는 각각 5000만원씩 총 2억원을 보호받게 됩니다. 개정안은 입법예고 기간 종료 후 법제처 심사 등을 거쳐 이르면 연내에 시행됩니다. 각각 보험 적용이 가능한 항목별로 자산을 배분하고 은행을 분산한다면 은행에 예치한 소중한 자산을 안전하게 지킬 수 있을 겁니다.정문영 신한은행 신한PWM 압구정센터 팀장</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 올해 고용노동부 국정감사에서는 중대재해 사망사고가 끊이지 않는 SPC그룹 계열사와 DL이앤씨 롯데건설 등이 집중포화를 맞을 것으로 예상된다. 고용부 산하기관 기강 해이 등 사회적 물의를 일으킨 현안도 초미의 관심사다. 정부가 추진 중인 노동개혁 관련 정책도 도마에 오를 전망이다. 노조 회계투명성 강화 조치와 실업급여 수급 개선 등 논란이 산적해 여야간 팽팽한 대립을 예고하고 있다.  끊이지 않는 사고...코스트코DL이앤씨 집중포화 예고 4일 국회에 따르면 환경노동위원회는 오는 12일 고용부를 시작으로 17일 경제사회노동위원회 및 고용부 소속기관 23일 고용부 산하기관 국감을 진행할 예정이다. 26일에는 종합감사가 열린다. 특히 올해는 건설사 등 대표이사 CEO에 대한 집중 질의를 예고하고 있다. 최근 업체들의 중대재해 사망사고가 끊이지 않아서다. 이미 환노위 의원들은 중대재해가 잇따라 발생하고 있는 기업 CEO 등을 국감 증인으로 줄줄이 채택했다. 12일에는 이강섭 샤니 대표 등이 국감장 증인대에 선다. 지난 8월 SPC 계열 샤니 성남 제빵공장에서는 50대 여성 노동자가 기계에 끼어 숨지는 사고가 발생했다. 이 공장에선 지난해 10월 손가락 절단 사고에 이어 올해 7월 손가락 골절 사고가 일어난 바 있다. 지난해 10월에는 SPC 계열 평택 SPL 제빵공장에서 20대 여성 노동자가 샌드위치 소스를 만드는 배합기 기계에 상반신이 끼어 숨지는 사고가 발생하기도 했다. e편한 세상 건설사인 DL이앤씨 옛 대림산업의 마창민 대표도 증인으로 소환된다. DL이앤씨가 시공을 맡은 건설 현장에서는 지난해 1월27일 중대재해처벌법 시행 이후 현재까지 7차례의 노동자 사망 사고가 발생해 총 8명이 목숨을 잃었다. 이는 중대재해 최다 발생이다. 이 대표와 마 대표는 현재 중대재해법 위반 혐의 등으로 고용부 조사를 받고 있다. 당초 환노위 야당 의원들은 허영인 SPC그룹 회장과 이해욱 DL그룹 회장에 대해 증인 채택을 요구했지만 여당과 합의를 이루지 못하면서 불발됐다. 조민수 코스트코코리아 대표도 국감에 나온다. 여야는 폭염특보가 내려진 6월 코스트코 경기 하남점 주차장에서 카트 정리 업무를 하다 20대 노동자가 숨진 사고와 관련해 책임여부를 따져 물을 예정이다. 유족도 참고인으로 나선다. 이외에도 중대재해법 시행 이후 추락과 폭발 등 노동자 사망 사고가 잇따른 롯데건설 4명 사망과 세아베스틸 4명 사망에 대해서도 책임 추궁이 예상된다. 임금체불 문제도 도마에 오른다. 대유위니아 계열사 위니아전자에서 근로자 409명의 임금과 퇴직금 등 300억원이 넘는 임금체불이 발생한 것과 관련해서 박영우 대유위니아그룹 회장에게 책임을 묻는다. 박현철 위니아전자 대표는 지난 20일 임금체불 혐의로 구속됐다. 답안지 파쇄에 이어 직원 가족을 시험위원으로 위촉해 논란을 빚은 산업인력공단 취업정보 사이트인 워크넷에서 개인정보 유출 사고가 발생한 고용정보원 등 고용부 산하기관의 기강 해이도 다뤄질 것으로 보인다.  실업급여 등 노동개혁 정책도 도마에 코로나19를 계기로 부정수급이 급증한 실업급여도 올해 국감의 뇌관으로 꼽힌다. 여야와 노사정 모두 부작용과 국가재정 부담 등을 고려해 개편 필요성에는 공감하고 있지만 해법은 제각각이다. 당정은 실업급여 하한액을 조정 또는 폐지하는 방안을 검토 중이다. 실업급여 하한액이 근로자 이전소득 실수령액을 넘어서는 등 부작용을 하루 빨리 개선하는 것이 구직의욕 상승의 선순환으로 이어진다는 문제인식에서다. 반복적 수급도 크게 삭감하는 방안을 추진 중이다. 반면 노동계는 취약노동 계층 보호가 약화될 수 있다는 점을 우려한다. 반복 수급 제한도 일시적 실업 상태인 수급자의 생계 불안을 줄여 재취업을 지원한다는 실업급여 제도의 기본 취지에 어긋날 수 있다는 지적이다. 국회 고용노동부 세아베스틸 고용정보원 SPC 국정감사 국감 워크넷 코스트코 롯데건설 DL이앤씨 중대재해처벌법 중대재해 파리바게뜨 위니아 샤니 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> KB자산운용은 KB 드림스타 자산배분 안정형 펀드를 출시했다고 5일 밝혔다. 이 펀드는 자산배분펀드의 명가인 KB자산운용의 운용역량과 KB국민은행의 글로벌 투자자문 서비스를 결합한 퇴직연금 펀드다. 자료KB자산운용KB 드림스타 자산배분 안정형 펀드는 글로벌 주식 채권 원자재 등 다양한 자산에 분산투자해 변동성을 낮추고 위험자산의 비중을 40수준으로 제한해 안정적인 수익을 추구하는 상품이다. KB국민은행이 자산배분안을 자문하고 KB자산운용이 이를 바탕으로 시장 전망 및 자산군별 세부전략을 확정해 포트폴리오를 구성한다. 초기 포트폴리오를 살펴보면 글로벌 주식 35과 채권 55에 분산투자한다. 주식은 선진국 25 한국 5 신흥국 5으로 구성되어 있고 채권은 국내 45 해외 10으로 나뉜다. 나머지 10는 유동성 자산으로 머니마켓펀드 MMF 등에 투자한다. 이석희 KB자산운용 연금WM본부 상무는 이 상품은 KB국민은행과 협업한 최초의 펀드로 저비용으로 다양한 국가와 자산에 분산투자해 글로벌 커버리지가 높다며 장기적으로 안정적인 투자가 중요한 연금 퇴직연금 고객에게 적합한 상품이라고 말했다.펀드는 10월4일부터 KB국민은행 퇴직연금계좌를 통해 가입할 수 있다. 환율변동에 따른 위험을 관리하기 위해 외화표시 된 비위험자산 채권 등 고정이자를 수취하는 외화자산에 대해 환헤지한다. 선취수수료가 없는 C퇴직형 연보수 0.635과 C퇴직e형 연보수 0.485 온라인전용 중에서 선택할 수 있다. 한편 KB자산운용은 유가증권 대체투자 부채연계투자 LDI 부문 등의 자체 리서치 역량을 기반으로 한 자산배분펀드 운용시스템을 갖추고 있다. KB자산운용은 주력상품인 TDF를 포함해 KB온국민평생소득TIF KB타겟리턴OCIO펀드 시리즈 등 다양한 연금펀드를 효율적으로 운용하며 퇴직연금 강자로 주목받고 있다. 향후 투자자들이 시장 상황에 맞는 상품을 선택할 수 있도록 신규 연금상품 라인업을 추가적으로 구축할 예정이다.</t>
   </si>
   <si>
@@ -856,16 +804,10 @@
     <t xml:space="preserve"> 교육감 하윤수이 공사립 중등교사 530명을 선발한다.시교육청은 4일 오전 홈페이지를 통해 2024학년도 공사립 중등학교교사 보건사서전문 상담영양특수 중등교사 임용후보자 선정경쟁시험 시행계획을 발표했다.이번 선발에서 공립학교 교사는 교원 정년퇴직과 명예퇴직 등을 반영해 중등교사 340명 특수 중등 5명 보건 초등 13명 보건 중등 12명 영양 10명 사서 4명 전문 상담 35명 등 34개 과목 총 419명을 선발한다.지난해 대비 89명이 증가했고 지난 8월 발표한 사전 예고한 인원보다 2명 늘었다.사립학교 교사는 43개 법인으로부터 제1차 시험 제1차 시험제2차 시험 일부을 위탁받아 22개 과목 111명을 선발한다.위탁 법인 중 12개 법인은 공사립 동시 지원 제도를 신청했다. 이에 따라 공립학교 교사 1지망에 지원한 사람 중 희망자는 2지망으로 이들 사립학교 법인에도 지원할 수 있다.공사립 동시 지원 제도는 사립학교 교사 채용난을 해소하고 지원자의 선택권을 넓혀주기 위해 지난 2017년 도입했다.선발 일정은 오는 1620일 나이스 온라인 교직원 채용시스템으로 원서접수 내달 25일 1차 시험 12월 28일 1차 시험 합격자 발표 내년 1월 17일 실기평가 내년 1월 2324일 2차 시험 내년 2월 8일 최종합격자 발표 등이다.이번 임용시험은 1차 시험의 경우 교육학과 전공 2차 시험의 경우 교수학습지도안 작성 수업 실연심층 면접 등으로 진행한다. 음악 미술 체육 전기 전자 기계 정보컴퓨터 과목은 별도의 실기 평가도 치른다.자세한 내용은 시교육청 홈페이지 고시공고란의 공고문에서 확인할 수 있다. 부산 김태현 기자 localbukdonga.com</t>
   </si>
   <si>
-    <t xml:space="preserve"> 울산뉴스1 울산시김두겸 시장1000 글로컬대학 30 지역산업육성 펀드 전달식 2층 대회의실1130 제104회 전국체전 참가선수단 결단식 시티컨벤션1600 울산경제신문 신임 사장 내방 홍보실1630 영상인사 촬영 인재교육과서정욱 행정부시장1000 월간업무계획 보고회 상황실안효대 경제부시장1000 글로컬대학 30 지역산업육성 펀드 전달식 2층 대회의실1620 울산경제신문 신임 사장 내방 부시장실울산시교육청천창수 교육감0930 10월 정책공감회의 집현실1130 제104회 전국체전 참가선수단 결단식 시티컨벤션중구김영길 중구청장0900 월간업무계획 보고회 중회의실1030 신규임용자 임용장 수여식 구청장실1130 제104회 전국체전 참가선수단 결단식 시티컨벤션1330 훈련사와 함께하는 펫티켓 교육 황방산 생태야영장1430 자원순환 협력체계 구축업무 협약식 소회의실1500 예인어린이집 후원금 전달식 구청장실1525 입화산 과수 전달식 구청장실1600 명예퇴직공무원 공로패 수여식 구청장실동구김종훈 동구청장1010 제27회 노인의날 기념행사 남목3동 행정복지센터1030 제27회 노인의날 기념행사 남목1동 행정복지센터1400 문화도시 거점공간 조성사업 실시설계용역 보고회 구청장실북구박천동 북구청장1030 민방위 및 을지연습 유공 표창 수여식 구청장실1530 띵동사회적협동조합 이웃돕기 성금 전달식 구청장실울주군이순걸 울주군수1000 고향사랑기부금 전달식 군수실1100 울주군 후계농업경영인 농업인 대회 삼동면민운동장1330 폐선부지 관광자원화 개발 용역 추진보고회 은행나무홀1430 월간 업무보고 이화홀1600 정례조회 알프스홀</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 박수지 기자 울산대학교병원은 올해 정년 퇴직하는 강선희 직원이 병원 발전을 위해 1000만원을 기부했다고 4일 밝혔다. 강선희 직원은 지난 2006년 3월 영양팀으로 입사한 한 후 조리업무를 맡아 환자와 직원들을 위한 건강한 식단을 제공하기 위해 노력했다. 지난해에는 우수직원상을 수상하는 등 병원의 발전을 위해 노력해왔다.이외에도 입사 전인 20002003년에는 울산대학교병원 자원봉사자로 활동하는 등 깊은 인연을 맺어왔다.울산대학교병원은 이날 발전기금 전달식을 개최하고 강선희 직원에게 감사의 마음을 전했다. 산인공 기능경기대회 입상자 지원 업무협약한국산업인력공단 울산지사는 4일 파파앤쎈 by 랑콩뜨레와 울산광역시 지방기능경기대회 제과제빵분야 입상자 취업 지원을 위한 업무협약을 체결했다.이번 협약은 파파앤쎈 by 랑콩뜨레에서 기능경기대회 참여자 및 입상자 채용시 가산점을부여하는 내용을 담고 있다. 구제적으로 국제기능올림픽대회 참여자 가산점 5점 전국기능경기대회 참여자 가산점 2점 전국기능경기대회 입상자 가산점 5점 울산광역시 지방기능경기대회 입사장 및 참여자 가산점 2점을 부여한다.파파앤쎈 by 랑콩뜨레는 경주 울산 등에서 수제케이크 및 제빵류 7개 직영점을 전문적으로 운영하는 기업이다.이석원 대표는 2014년 우수숙련기술인 2018년 산업현장교수 2021년 기능한국인으로 선정된 바 있다. 양 기관은 협약을 바탕으로 울산광역시 기능경기대회 활성화를 위해 지속적으로 협력할 계획이다.</t>
   </si>
   <si>
     <t>근로복지공단은 고용산재보험 가입은 단순한 의무가 아니라 일하는 삶 모두의 안심과 안정을 위해 필수라는 인식 개선을 위해 10월 4일부터 한 달 동안 집중 홍보기간을 운영한다고 밝혔습니다.이 기간에 코엑스에서 개최하는 IFS 프렌차이즈 창업박람회 10.5.10.7. 예술인 고용보험 홍보를 위한 2023년 국악로 페스타 행사 10.13.10.14. 종로 한복축제 10.20.10.22. 등 다양한 지역 행사에 참여하여 소상공인 및 예술인과의 소통에도 힘쓸 계획입니다.이번 홍보기간 동안 박종길 이사장은 소상공인 밀집 지역을 찾아 커피트럭을 운영하며 일하시는 분들에게 행복 가득 담은 커피를 제공합니다.특히 사장님도 가입 가능한 자영업자 고용산재 특례 제도와 지자체의 사회보험료 지원 사업을 직접 홍보합니다.또한 중소기업 퇴직연금 기금제도로 전환 시 5년간 사용자 수수료 0원 사용자 부담금 10 최저임금 120 미만 근로자를 지원하여 영세사업주의 경영 부담도 최소화하는 중소기업 퇴직연금 기금제도인 푸른씨앗 퇴직연금도 함께 알릴 계획입니다.아울러 보험료가 부담되는 소상공인을 위해 국민연금 고용보험료의 80를 지원하는 두루누리 지원 사업 신청 안내를 위해 전담 인력을 집중 투입하여 혜택이 필요한 곳에 직접 찾아가 알리는 현장 밀착형 홍보를 할 예정입니다.노무제공자의 전속성 폐지에 따라 시행 초기 안정적 정착을 위해 노무제공자 집중신고기간 2023.7.1.2024.6.30.을 운영합니다.이 기간에 성립신고 및 월 보수액 등의 지연 신고에 대한 과태료 부과를 면제하고 퀵서비스 대리운전 화물차주 직종 노무제공자의 산재보험료도 50 감경하고 있습니다.박종길 이사장은 근로자 아르바이트일용직 포함 노무제공자 특고 예술인 등을 1명이라도 고용하고 있다면 노동자들이 안심하고 일할 수 있도록 고용산재보험에 지금 바로 가입하시기를 당부드린다면서 근로자의 복지와 생활에 필요한 희망을 적극적으로 키우는 데 도움을 주는 희망발전소 근로복지공단이 되기 위해 최선을 다하겠다라고 말했습니다.국민연금 고용보험 보험료 두루누리 근로자 노무제공 소상공인 근로복지공단</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 흔히 영혼의 무게를 21그램이라고 합니다. 한없이 가볍지만 삶의 소중함을 깨닫게 하는 무게입니다. 영혼이 빠져나가면서 누군가의 삶에 생명을 불어넣는 이들이 있습니다. 장기기증 희망자들입니다. 삶의 끝과 시작이 교차되는 순간을 우리는 기적이라 부릅니다. 뉴스1은 이번 추석 연휴 기간 우리 삶의 기적 같은 순간을 전해드립니다. 서울뉴스1 유민주 기자 4만9765명 vs 405명. 국내 뇌사장기기증자 장기이식의 현 주소다. 지난해 기준 우리나라 장기 이식 대기자는 5만명을 바라보고 있는 반면 뇌사장기기증자는 405명에 불과했다. 장기 이식 대기자는 매년 약 2000명씩 늘고 있는데 기증자는 해마다 줄고 있는 상황이다. 우리나라의 장기이식술은 세계 최고 수준이지만 기증자가 없이는 제대로 활용되기 어렵다. 장기이식에 대한 국민들의 인식개선은 풀어야할 난제다. 인식의 척도로 볼 수 있는 장기조직기증희망등록률은 지난해 4.5로 미국은 한국의 15배인 60에 달한다. 뇌사장기기증 제도에 대한 논의를 지속적으로 이어가야 하는 이유 중 하나다.3일 국립장기조직혈액관리원에 따르면 한국의 장기이식대기자는 2019년 4만253명 2020년 4만3182명 2021년 4만5843명 2022년 4만9765명으로 꾸준히 늘어나고 있다. 반면 뇌사기증자 장기이식수는 2019년 450명 2020년 478명 2021년 442명 2022년 405명이었다. 올해 9월 기준 뇌사 판정 장기기증자는 380여명으로 집계돼 연말까지 합산하면 지난해보다는 다소 늘어날 것으로 예상되다. 하지만 이식자 대기자 수가 늘어나는 속도에 비해 충분한 숫자는 아니다. 국제장기기증이식등록기구 IRODaT에 따르면 한국 인구 100만명 당 장기기증자 수 pmp는 2020년 9.22명 2021년 8.56명 2022년 7.88명 등으로 집계됐다. 한국과 달리 해외 뇌사 장기기증자는 꾸준히 늘고 있다. 미국의 경우 지난해 뇌사 장기 기증자 pmp는 2019년 36.88명 2020년 38.03명 2021년 41.6명 2022년 44.5명으로 23명 꼴로 늘어나는 추세다. 2018년에 비하면 지난해 8명이 늘어났다. 스페인 프랑스 영국도 마찬가지다. 지난해 스페인 인구 100만명 당 기증자 수는 46.03명으로 2년 전보다 9명 정도 늘었다. 2022년 46.03명 2021년 40.8명 2020년 37.97명으로 나타났다.프랑스도 지난해 24.70명으로 2년 전 23.15명보다 1명 늘었으며 영국은 지난해 21.08명으로 역시나 3명이 늘어난 수치였다. 그러나 한국은 지난해 기증자가 100만명당 7.88명으로 미국의 17에 불과했다. 이마저도 2년 전 9.22명에 비해 1.3명 감소했다. 남의 일 아닌 나의 일장기조직기증희망등록률 4.5장기기증에 대한 인식의 척도는 장기조직기증희망등록률이다. 장기조직기증희망등록은 뇌사상태 또는 사망 이후에 장기 및 인체조직을 기증하겠다고 본인의 의사를 밝히는 행위다. 우리나라의 경우 지난해 희망등록률은 4.5로 기록됐다. 장기기증 선진국 자리를 유지하고 있는 미국의 경우 60에 달하는 것과 대비되는 수치다.한국장기조직기증원 관계자는 장기기증에 대해 남의 일이 아닌 나의 일이라는 인식 변화가 생겨야 한다며 희망 등록을 했다고 무조건 기증이 가능한 것이 아니라 가장 기본적으로 본인의 의사를 물어보는 것이라고 생각하면 된다고 설명했다.이어 의료적인 기술은 이미 높아져 있지만 장기기증에 대한 인식이 더 개선되지 않아 등록률이 낮고 사회적 논의가 정체된 상태라며 희망등록률이 저조해지면 법적 기준이나 제도도 마련될 수 없다고 강조했다. 전문가 법률적 기반 및 제도 부족 문제뿌리깊은 유교 사상에 의한 장기 기증에 대한 부정적 인식도 여러 이유 중에 하나지만 전문가들은 까다로운 절차가 가장 문제라고 입을 모았다. 스페인 프랑스 영국 등 장기기증에 있어 선진국이라 할 수 있는 나라는 옵트아웃 optout 제도를 도입했다. 즉 모든 사람이 잠재적인 장기기증 대상자로 장기기증을 거부하는 경우 미리 신고를 해야 하는 제도를 통해 장기기증을 활성화하고 있다. 다만 우리나라의 국민 정서와 의료시스템상 옵트아웃 제도를 적용하기엔 한계가 있다.반면 미국은 우리와 같이 동의 의사를 표현해야 기증할 수 있는 옵트인 optin 제도를 채택하고 있지만 스페인과 더불어 세계 최고의 기증률을 유지하고 있다. 미국 내 50개 주에 60개가 넘는 장기구득기구가 있으며 장기구득기구와 의료기관 간 네트워크가 잘 형성돼 있기 때문이다. 또 초등학교부터 대학교에 이르기까지 다양한 장기기증 교육프로그램이 구축돼 있다.한편 우리나라에서는 어느 법령에도 뇌사와 이를 넘어서는 사망 자체에 대한 법률적 정의가 없다. 미국과 유럽 모두 뇌사를 사망으로 명확히 명시하고 있는 것과 대비되는 일이다.미국과 유럽은 이미 10여년 전부터 심장이 멎으면 장기 기증을 시행할 수 있도록 명문화하고 있지만 우리나라에서는 이에 대한 법률적 기반이 없다. 미국과 유럽에 비해 기증자 수가 턱없이 부족한 가장 큰 이유로 꼽힌다.</t>
   </si>
   <si>
     <t>2024년 총선 앞둬 개혁 소극적당초 2023년 4월서 10월로 한차례 늘려소득 없자 2024년 5월까지 잠정 합의정부안 10월 말까지 국회에 제출부정적 여론에 복수안 낼 가능성정치권 총선 뒤 처리 가능성 낮아21대 국회서 개혁 물거품 우려도여야가 이달 말 활동 종료 예정이던 연금개혁특별위원회를 내년 5월까지 7개월 연장하는 방안에 잠정 합의했다. 정부는 이달 중 국민연금 개혁방안을 담은 5차 종합운영계획을 국회에 제출할 예정이지만 사실상 21대 국회에서는 연금개혁이 물 건너가는 것 아니냐는 우려가 나온다. 3일 국회 연금특위에 따르면 여야 특위 간사는 이달 말 종료 예정이던 연금특위 활동 기한을 내년 5월까지 연장하는 쪽으로 의견을 모았다. 지난해 7월 구성된 연금특위는 원래 올해 4월30일까지 운영될 예정이었다. 그러나 해를 넘겨 끌어온 연금개혁은 보험료율과 소득대체율을 조정하는 방안을 두고 좀처럼 해법을 찾지 못하자 6개월을 연장해 논의했다. 그러나 국회는 그 사이 회의를 두 차례 여는 등 논의가 지지부진해 별다른 소득을 올리지 못했다. 빨간불 켜진 국민연금 3일 서울 서대문구 국민연금공단 서울 북부지역본부 앞 신호등에 빨간불이 켜져 있다. 국민연금 미적립 부채 가입자들이 받아야 할 총 연금에서 적립금을 뺀 금액가 올해만 1800조원에 달하는 것으로 나타났다. 최상수 기자 여야 모두 총선을 6개월여 앞두고 어느 쪽으로 개혁해도 반대 측의 반발을 살 수밖에 없는 연금개혁에 소극적인 자세를 보이고 있다. 특위는 국민연금의 지속 가능성을 높이기 위해 보험료율을 높이고 연금 지급 시작 연령을 늦추는 이른바 더 내고 늦게 받는 안과 실질 소득보장을 위해 소득대체율을 높이는 더 내고 더 받는 안 등을 두고 논의를 이어오고 있다. 특위는 퇴직연금을 기금화해 국민연금의 소득대체율을 보완하는 방안에 대해서는 여야가 큰 틀에서는 공감대를 형성한 것으로 알려졌다. 정부는 현재 더 내고 늦게 받는 안에 무게를 두고 있지만 소득대체율을 높여 실질 보장을 강화하는 안이 보건복지부 산하 국민연금재정계산위원회 재정계산위 보고서에서 빠지면서 이에 반발한 위원들이 항의하며 위원직에서 사퇴하는 등 진통을 겪고 있는 만큼 정부와 국회 모두 쉽사리 결론을 내지 못하는 상황이 됐다. 연금특위는 연장된 활동 기간 중 국민연금 가입자와 납부자 등 이해관계자들의 의견을 듣고 일반 국민 수백명을 무작위로 모아 의견을 수렴하는 국민공론조사도 진행할 계획이다. 국민의 의견을 듣는다는 명분을 앞세우지만 사실상 내년 4월 총선을 앞두고 시간을 벌기 위한 것이 아니냐는 비판도 나온다.  지난 9월 4일 국회에서 열린 연금개혁특별위원회 전체회의에서 주호영 위원장이 발언을 하고 있다. 연합뉴스 2018년에도 경제사회노동위원회가 사회적 의견을 듣겠다고 하는 바람에 결국 결론 없이 끝나고 말았다. 여야가 합의안을 만들면 내년 4월 총선 이후 본회의에서 연금법 개정안을 이론상 처리할 수 있지만 사실상 총선 모드에 돌입한 정치권이 선거 이후 이를 처리하는 것은 어려울 것이란 관측이 우세하다. 정부는 국민연금제도 개혁방안이 담긴 제5차 종합운영계획을 이달 말까지 국회에 제출할 계획이다. 국민연금법에 따라 정부는 5년마다 종합운영계획을 마련해 그해 10월 말까지 국회에 내야 한다. 정부는 개혁 방향을 논의하는 전문가 자문기구인 국민연금 재정계산위가 발표하는 자문안 최종보고서와 집단심층면접 FGI 관계부처와 당정 협의 등을 거쳐 개혁안을 마련한다. 앞서 지난달 재정계산위는 소득대체율 인상안 없이 현행 9인 보험료율을 1218로 올리고 2033년까지 65세로 조정되는 연금 지급 개시 연령을 6668세까지 상향하는 내용이 담긴 자문안 초안을 발표한 바 있다. 위원회 내 전문가 간 이견이 좁혀지지 않아 보고서에 18가지 시나리오가 제시된 데 그쳐 정부의 부담도 커진 상황이다. 보험료 인상에 대한 여론도 부정적이어서 5년 전 4차 종합운영계획과 같이 복수 안을 낼 가능성도 있다. 2018년 당시 문재인정부는 4가지 정책조합안을 제시했고 제도 개혁은 좌초됐다.</t>
@@ -977,15 +919,9 @@
     <t>['퇴직연금ocio', 'KB 퇴직연금', '퇴직연금 서비스 ', '퇴직연금 포트폴리오', '퇴직연금 TDF', '퇴직연금 자산배분', '퇴직연금 가입', '퇴직연금 펀드', '퇴직연금 채권', '퇴직연금 라인업', '퇴직연금 장기 투자']</t>
   </si>
   <si>
-    <t>['평생월급 연금 ']</t>
-  </si>
-  <si>
     <t>['확정기여형', '미래에셋 퇴직연금', '퇴직연금 자산배분', '퇴직연금 펀드', '퇴직연금 리츠']</t>
   </si>
   <si>
-    <t>['확정기여형', '개인형퇴직연금', '신한 퇴직연금', '퇴직연금 운용사', '퇴직연금 저축은행', '퇴직연금 자산배분', '퇴직연금 펀드', '퇴직연금 예금']</t>
-  </si>
-  <si>
     <t>['퇴직금 제도']</t>
   </si>
   <si>
@@ -1049,9 +985,6 @@
     <t>['퇴직연금 서비스 ', '퇴직연금 가입']</t>
   </si>
   <si>
-    <t>['옵트인', '옵트아웃']</t>
-  </si>
-  <si>
     <t>['퇴직연금 적립금', '퇴직연금 가입']</t>
   </si>
   <si>
@@ -1133,18 +1066,9 @@
     <t>[{'퇴직연금ocio': 1}, {'KB 퇴직연금': 1}, {'퇴직연금 서비스 ': 3}, {'퇴직연금 포트폴리오': 3}, {'퇴직연금 TDF': 1}, {'퇴직연금 자산배분': 2}, {'퇴직연금 가입': 11}, {'퇴직연금 펀드': 1}, {'퇴직연금 채권': 1}, {'퇴직연금 라인업': 1}, {'퇴직연금 장기 투자': 1}]</t>
   </si>
   <si>
-    <t>[{'평생월급 연금 ': 1}]</t>
-  </si>
-  <si>
     <t>[{'확정기여형': 6}, {'확정기여형': 29}, {'미래에셋 퇴직연금': 1}, {'미래에셋 퇴직연금': 7}, {'퇴직연금 자산배분': 11}, {'퇴직연금 자산배분': 18}, {'퇴직연금 펀드': 11}, {'퇴직연금 펀드': 14}, {'퇴직연금 리츠': 4}, {'퇴직연금 리츠': 16}]</t>
   </si>
   <si>
-    <t>[{'확정기여형': 41}, {'개인형퇴직연금': 44}, {'신한 퇴직연금': 3}, {'퇴직연금 운용사': 5}, {'퇴직연금 저축은행': 1}, {'퇴직연금 자산배분': 31}, {'퇴직연금 펀드': 23}, {'퇴직연금 예금': 2}]</t>
-  </si>
-  <si>
-    <t>[{'퇴직금 제도': 37}]</t>
-  </si>
-  <si>
     <t>[{'KB 퇴직연금': 2}, {'KB 퇴직연금': 4}, {'KB 퇴직연금': 5}, {'퇴직연금 자산배분': 1}, {'퇴직연금 자산배분': 4}, {'퇴직연금 자산배분': 6}, {'퇴직연금 펀드': 2}, {'퇴직연금 펀드': 4}, {'퇴직연금 펀드': 5}, {'퇴직연금 라인업': 24}, {'퇴직연금 장기 투자': 52}, {'퇴직연금 장기 투자': 57}, {'퇴직연금 장기 투자': 58}]</t>
   </si>
   <si>
@@ -1211,18 +1135,12 @@
     <t>[{'명예퇴직 일정': 1}]</t>
   </si>
   <si>
-    <t>[{'명예퇴직 일정': 2}]</t>
-  </si>
-  <si>
     <t>[{'정년퇴직': 1}]</t>
   </si>
   <si>
     <t>[{'퇴직연금 서비스 ': 18}, {'퇴직연금 가입': 29}]</t>
   </si>
   <si>
-    <t>[{'옵트인': 1}, {'옵트아웃': 3}]</t>
-  </si>
-  <si>
     <t>[{'퇴직연금 적립금': 2}, {'퇴직연금 가입': 20}]</t>
   </si>
   <si>
@@ -1328,18 +1246,9 @@
     <t>KB자산운용이 다양한 자산에 분산투자해 안정적인 수익을 추구하는 펀드를 출시했기 때문에 3점을 줍니다.</t>
   </si>
   <si>
-    <t>자녀 교육비가 가계 지출의 중요한 부분을 차지하고 있으므로, 이에 대한 관리와 투자 전략이 필요합니다.</t>
-  </si>
-  <si>
     <t>미래에셋자산운용이 글로벌 주식 채권 등 전통자산과 원자재 등 대체자산에 분산 투자하는 펀드를 출시한다는 내용이 포함되어 있음.</t>
   </si>
   <si>
-    <t>금융기관에 대한 불안감이 커지고 있으므로, 금융기관의 예금자보호와 관련된 내용이 중요합니다.</t>
-  </si>
-  <si>
-    <t>고용노동부 국정감사에서 중대재해 사망사고와 관련된 SPC그룹 계열사와 DL이앤씨 롯데건설 등의 집중포화가 예상되기 때문에 높은 점수를 부여하였습니다.</t>
-  </si>
-  <si>
     <t>KB자산운용은 다양한 자산에 분산투자해 변동성을 낮추고 안정적인 수익을 추구하는 펀드를 출시했으며, KB국민은행의 글로벌 투자자문 서비스와 협업하여 퇴직연금 펀드를 개발하였다.</t>
   </si>
   <si>
@@ -1409,18 +1318,12 @@
     <t>교육감이 공사립 중등교사를 선발하는 계획을 발표했으며, 다양한 과목의 교사를 선발한다.</t>
   </si>
   <si>
-    <t>펀드 전달식과 글로컬대학과의 협력은 연금 기금 관리와 관련이 있습니다.</t>
-  </si>
-  <si>
     <t>기사에는 연금 기금 관리 전략, 수익률, 투자 자산 할당 모니터링 및 금융 시장 변동의 영향 분석에 대한 내용이 없음.</t>
   </si>
   <si>
     <t>고용산재보험 가입의 중요성을 강조하고 홍보기간 운영을 언급함</t>
   </si>
   <si>
-    <t>기사에는 장기이식 대기자와 기증자 수에 대한 정보가 포함되어 있지만, 투자 전략, 수익률, 자산 배분 등에 대한 내용은 언급되지 않았다.</t>
-  </si>
-  <si>
     <t>연금개혁특별위원회 활동 기한 연장으로 연금개혁 관련 활동이 지속될 것으로 예상됨.</t>
   </si>
   <si>
@@ -1523,18 +1426,9 @@
     <t>이 기사에서는 경쟁 동향에 대한 정보가 제한적으로 제공되었기 때문에 2점을 줍니다.</t>
   </si>
   <si>
-    <t>자녀 교육비와 관련된 경쟁 동향과 새로운 제품 및 서비스 출시에 대한 정보가 제공되지 않았습니다.</t>
-  </si>
-  <si>
     <t>KB국민은행이 자문을 담당하는 미래에셋드림스타자산배분성장형 펀드의 출시와 관련된 내용이 포함되어 있음.</t>
   </si>
   <si>
-    <t>이 기사에서는 주로 예금자보호법 개정안에 대한 내용이 다루어져 있으므로, 새로운 제품 및 서비스에 대한 경쟁 동향은 다루지 않고 있습니다.</t>
-  </si>
-  <si>
-    <t>고용부 산하기관 기강 해이 등 사회적 물의가 초미의 관심사로 언급되었기 때문에 중간 정도의 점수를 부여하였습니다.</t>
-  </si>
-  <si>
     <t>KB자산운용은 다양한 연금펀드를 효율적으로 운용하며, 퇴직연금 강자로 주목받고 있다.</t>
   </si>
   <si>
@@ -1604,18 +1498,12 @@
     <t>해당 기사에는 산업 경쟁 동향에 대한 내용이 없다.</t>
   </si>
   <si>
-    <t>이번 행사에서는 경제 관련 매체인 울산경제신문의 신임 사장이 내방하여 홍보를 진행하였습니다.</t>
-  </si>
-  <si>
     <t>기사에는 경쟁 동향, 시장 점유율 및 새로운 제품 및 서비스 출시에 대한 내용이 없음.</t>
   </si>
   <si>
     <t>No relevant information in the article</t>
   </si>
   <si>
-    <t>기사에서는 장기이식에 대한 국민들의 인식개선과 장기조직기증희망등록률에 대한 정보가 제공되었다. 또한, 옵트아웃 제도와 옵트인 제도에 대한 비교도 언급되었다.</t>
-  </si>
-  <si>
     <t>국회에서 연금개혁이 물 건너갈 가능성 우려로 새로운 제품 및 서비스 출시에 대한 정보 부족.</t>
   </si>
   <si>
@@ -1715,18 +1603,9 @@
     <t>이 기사에서는 금융 시장의 영향에 대한 정보가 제한적으로 제공되었기 때문에 2점을 줍니다.</t>
   </si>
   <si>
-    <t>금융시장의 변동성과 투자 자산의 변화가 자녀 교육비와 노후 준비에 영향을 미칠 수 있으므로, 이에 대한 이해가 필요합니다.</t>
-  </si>
-  <si>
     <t>시장 변동성에 대응하기 위해 경기 국면별로 투자 자산의 비중을 조절하는 적극적인 자산배분을 통해 꾸준한 초과 수익을 목표로 한다는 내용이 포함되어 있음.</t>
   </si>
   <si>
-    <t>금융기관에 대한 불안감과 예금자보호법 개정안에 대한 내용이 다루어져 있으므로, 금융시장의 변동성과 이자율 변화에 대한 영향을 이해하는 데 도움이 됩니다.</t>
-  </si>
-  <si>
-    <t>노동개혁 관련 정책이 도마에 오를 전망이라고 언급되었지만, 글에서는 자세한 내용이 언급되지 않아 낮은 점수를 부여하였습니다.</t>
-  </si>
-  <si>
     <t>The article does not provide information about the impact of financial market movements, interest rate changes, or volatility in investment assets on the retirement pension industry.</t>
   </si>
   <si>
@@ -1793,15 +1672,9 @@
     <t>해당 기사에는 금융 시장의 영향에 대한 내용이 없다.</t>
   </si>
   <si>
-    <t>이번 기사에서는 금융 시장의 영향에 대한 내용이 언급되지 않았습니다.</t>
-  </si>
-  <si>
     <t>기사에는 금융 시장 움직임, 이자율 변동 및 투자 자산의 변동성이 연금 연금산업에 미치는 영향에 대한 내용이 없음.</t>
   </si>
   <si>
-    <t>기사에서는 장기이식 대기자와 기증자 수의 변화에 대한 정보가 제공되었지만, 금융 시장의 변동성이나 투자 자산에 대한 영향에 대한 내용은 언급되지 않았다.</t>
-  </si>
-  <si>
     <t>국민연금 개혁방안을 담은 5차 종합운영계획을 국회에 제출 예정으로 금융시장 변동이 연금업계에 미치는 영향 파악 가능.</t>
   </si>
   <si>
@@ -1898,15 +1771,9 @@
     <t>이 기사에서는 법적 및 규제 변화에 대한 정보가 제공되지 않았기 때문에 1점을 줍니다.</t>
   </si>
   <si>
-    <t>법률 및 규제 변경에 대한 정보가 제공되지 않았습니다.</t>
-  </si>
-  <si>
     <t>법적 및 규제 변화와 관련된 내용이 포함되어 있지 않음.</t>
   </si>
   <si>
-    <t>이 기사에서는 예금자보호법 개정안에 대한 내용이 주로 다루어져 있으므로, 법률 및 규제 변화에 대한 정보를 제공합니다.</t>
-  </si>
-  <si>
     <t>기사에는 법률 및 규제 변경에 대한 내용이 언급되지 않았기 때문에 점수를 부여하지 않았습니다.</t>
   </si>
   <si>
@@ -1973,15 +1840,9 @@
     <t>해당 기사에는 법적 및 규제 변화에 대한 내용이 없다.</t>
   </si>
   <si>
-    <t>이번 기사에서는 법적 및 규제 변화에 대한 내용이 언급되지 않았습니다.</t>
-  </si>
-  <si>
     <t>기사에는 법률 및 규제 변경 사항 및 그것이 기업 및 개인에 미치는 영향에 대한 내용이 없음.</t>
   </si>
   <si>
-    <t>기사에서는 법률적 기반과 제도 부족 문제에 대한 언급이 있었지만, 구체적인 법률 변경 사항이나 그에 따른 영향에 대한 내용은 제공되지 않았다.</t>
-  </si>
-  <si>
     <t>연금개혁특별위원회 활동 기한 연장으로 연금 관련 법률 및 규제 변화에 대한 정보 부족.</t>
   </si>
   <si>
@@ -2063,18 +1924,9 @@
     <t>이 기사에서는 인구 통계 변화에 대한 정보가 제공되지 않았기 때문에 1점을 줍니다.</t>
   </si>
   <si>
-    <t>자녀 교육비와 노후 준비의 관계로 인한 계층 간 이동의 어려움과 노후 지속 가능성에 대한 정보가 제공되었습니다.</t>
-  </si>
-  <si>
     <t>연금 투자자들을 위해 미래에셋드림스타자산배분성장형 펀드 설계 단계에서부터 물가상승률과 금리 목표수익 위험성향 등 다양한 변수를 고려해 연금펀드 자산운용에 특화된 투자전략을 수립했다는 내용이 포함되어 있음.</t>
   </si>
   <si>
-    <t>이 기사에서는 노후 소득 보장 및 인구 변화와 관련된 내용이 다루지 않고 있습니다.</t>
-  </si>
-  <si>
-    <t>노령화와 연관된 내용이 언급되지 않았기 때문에 점수를 부여하지 않았습니다.</t>
-  </si>
-  <si>
     <t>The article does not provide any information about demographic factors or the impact of pension funds on long-term sustainability.</t>
   </si>
   <si>
@@ -2135,15 +1987,9 @@
     <t>해당 기사에는 인구 변화에 대한 내용이 없다.</t>
   </si>
   <si>
-    <t>이번 기사에서는 인구 통계 및 연금 기금의 장기적인 지속 가능성에 대한 내용이 언급되지 않았습니다.</t>
-  </si>
-  <si>
     <t>기사에는 고령화와 관련된 인구 통계적 요인 및 연금 기금이 장기적인 지속 가능성에 미치는 영향에 대한 내용이 없음.</t>
   </si>
   <si>
-    <t>기사에서는 장기이식 대기자와 기증자 수의 변화에 대한 정보가 제공되었으며, 장기이식에 대한 국민들의 인식과 희망등록률에 대한 내용도 언급되었다.</t>
-  </si>
-  <si>
     <t>연금개혁특별위원회 활동 기한 연장으로 연금업계의 장기적인 지속 가능성에 대한 정보 파악 가능.</t>
   </si>
   <si>
@@ -2237,15 +2083,9 @@
     <t>이 기사에서는 기술과 디지털화에 대한 정보가 제공되지 않았기 때문에 1점을 줍니다.</t>
   </si>
   <si>
-    <t>기사에서는 기술과 디지털화에 대한 언급이 없었습니다.</t>
-  </si>
-  <si>
     <t>기술과 디지털화에 관련된 내용이 포함되어 있지 않음.</t>
   </si>
   <si>
-    <t>이 기사에서는 기술과 디지털화에 대한 내용이 다루지 않고 있습니다.</t>
-  </si>
-  <si>
     <t>기사에는 기술과 디지털화에 관련된 내용이 언급되지 않았기 때문에 점수를 부여하지 않았습니다.</t>
   </si>
   <si>
@@ -2309,15 +2149,9 @@
     <t>해당 기사에는 기술 및 디지털화에 대한 내용이 없다.</t>
   </si>
   <si>
-    <t>이번 기사에서는 기술과 디지털화에 대한 내용이 언급되지 않았습니다.</t>
-  </si>
-  <si>
     <t>기사에는 디지털 변환, 인공지능, 블록체인 등과 같은 혁신이 연금 관리 및 서비스 제공에 미치는 영향에 대한 내용이 없음.</t>
   </si>
   <si>
-    <t>기사에서는 기술과 디지털화에 대한 내용이 언급되지 않았다.</t>
-  </si>
-  <si>
     <t>기술과 디지털화에 대한 내용이 포함되어 있지 않음.</t>
   </si>
   <si>
@@ -2384,18 +2218,9 @@
     <t>KB자산운용은 다양한 연금펀드를 운용하며 퇴직연금 고객에게 적합한 상품을 제공하기 위해 노력하고 있다는 정보가 제공되었기 때문에 3점을 줍니다.</t>
   </si>
   <si>
-    <t>자녀 교육비와 관련된 소비 행태, 투자 선호도 및 요구 사항에 대한 정보가 제공되었습니다.</t>
-  </si>
-  <si>
     <t>소비 행동 및 요구사항에 관련된 내용이 포함되어 있지 않음.</t>
   </si>
   <si>
-    <t>이 기사에서는 소비 행동 및 요구사항에 대한 내용이 다루지 않고 있습니다.</t>
-  </si>
-  <si>
-    <t>소비 행동 및 요구사항에 관련된 내용이 언급되지 않았기 때문에 점수를 부여하지 않았습니다.</t>
-  </si>
-  <si>
     <t>The article does not provide any information about consumption behavior, investment preferences, or requirements of retirement pension recipients.</t>
   </si>
   <si>
@@ -2453,13 +2278,7 @@
     <t>이 기사에는 consumption behavior and requirements 관련 정보가 포함되어 있지 않음.</t>
   </si>
   <si>
-    <t>이번 기사에서는 소비 행태 및 요구사항에 대한 내용이 언급되지 않았습니다.</t>
-  </si>
-  <si>
     <t>기사에는 연금 수령자의 소비 패턴, 투자 선호도 및 요구 사항을 식별하고 서비스 개발 또는 개선을 고려하는 내용이 없음.</t>
-  </si>
-  <si>
-    <t>기사에서는 소비 행태나 투자 선호도에 대한 내용이 언급되지 않았다.</t>
   </si>
   <si>
     <t>기사에는 소비 행동 및 요구사항에 관한 내용이 없음.</t>
@@ -2540,12 +2359,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2553,7 +2372,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2563,6 +2382,13 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2612,16 +2438,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2663,7 +2497,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2695,9 +2529,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2729,6 +2564,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2904,14 +2740,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.25" customWidth="1"/>
+    <col min="2" max="2" width="18.875" customWidth="1"/>
+    <col min="4" max="4" width="64.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2985,7 +2828,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -2996,144 +2839,144 @@
         <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F2">
         <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="H2" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="I2" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="J2" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="K2">
         <v>3</v>
       </c>
       <c r="L2" t="s">
-        <v>435</v>
+        <v>406</v>
       </c>
       <c r="M2">
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>500</v>
+        <v>466</v>
       </c>
       <c r="O2">
         <v>2</v>
       </c>
       <c r="P2" t="s">
-        <v>564</v>
+        <v>525</v>
       </c>
       <c r="Q2">
         <v>1</v>
       </c>
       <c r="R2" t="s">
-        <v>625</v>
+        <v>581</v>
       </c>
       <c r="S2">
         <v>1</v>
       </c>
       <c r="T2" t="s">
-        <v>680</v>
+        <v>632</v>
       </c>
       <c r="U2">
         <v>1</v>
       </c>
       <c r="V2" t="s">
-        <v>738</v>
+        <v>685</v>
       </c>
       <c r="W2">
         <v>3</v>
       </c>
       <c r="X2" t="s">
-        <v>787</v>
+        <v>730</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="H3" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="I3" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="J3" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3" t="s">
+        <v>407</v>
+      </c>
+      <c r="M3">
         <v>3</v>
       </c>
-      <c r="L3" t="s">
-        <v>436</v>
-      </c>
-      <c r="M3">
+      <c r="N3" t="s">
+        <v>467</v>
+      </c>
+      <c r="O3">
         <v>2</v>
       </c>
-      <c r="N3" t="s">
-        <v>501</v>
-      </c>
-      <c r="O3">
+      <c r="P3" t="s">
+        <v>526</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3" t="s">
+        <v>582</v>
+      </c>
+      <c r="S3">
         <v>1</v>
       </c>
-      <c r="P3" t="s">
-        <v>565</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3" t="s">
-        <v>626</v>
-      </c>
-      <c r="S3">
-        <v>3</v>
-      </c>
       <c r="T3" t="s">
-        <v>681</v>
+        <v>633</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>739</v>
+        <v>686</v>
       </c>
       <c r="W3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X3" t="s">
-        <v>788</v>
+        <v>731</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -3141,517 +2984,517 @@
         <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H4" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="I4" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="J4" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="K4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>437</v>
+        <v>408</v>
       </c>
       <c r="M4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>502</v>
+        <v>468</v>
       </c>
       <c r="O4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>566</v>
+        <v>527</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>627</v>
+        <v>584</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>682</v>
+        <v>634</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>740</v>
+        <v>688</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4" t="s">
-        <v>789</v>
+        <v>732</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="H5" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="I5" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="J5" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="K5">
         <v>3</v>
       </c>
       <c r="L5" t="s">
-        <v>438</v>
+        <v>409</v>
       </c>
       <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>469</v>
+      </c>
+      <c r="O5">
         <v>1</v>
       </c>
-      <c r="N5" t="s">
-        <v>503</v>
-      </c>
-      <c r="O5">
-        <v>2</v>
-      </c>
       <c r="P5" t="s">
-        <v>567</v>
+        <v>528</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R5" t="s">
-        <v>628</v>
+        <v>585</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>683</v>
+        <v>635</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>741</v>
+        <v>689</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5" t="s">
-        <v>790</v>
+        <v>733</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="H6" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="I6" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="J6" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="K6">
         <v>3</v>
       </c>
       <c r="L6" t="s">
-        <v>439</v>
+        <v>410</v>
       </c>
       <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>470</v>
+      </c>
+      <c r="O6">
         <v>2</v>
       </c>
-      <c r="N6" t="s">
-        <v>504</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
       <c r="P6" t="s">
-        <v>568</v>
+        <v>529</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>629</v>
+        <v>470</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>684</v>
+        <v>470</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>742</v>
+        <v>470</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6" t="s">
-        <v>791</v>
+        <v>470</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7">
+        <v>15</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H7" t="s">
+        <v>241</v>
+      </c>
+      <c r="I7" t="s">
+        <v>303</v>
+      </c>
+      <c r="J7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7" t="s">
+        <v>411</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>471</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7" t="s">
+        <v>586</v>
+      </c>
+      <c r="S7">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s">
+        <v>636</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7" t="s">
+        <v>690</v>
+      </c>
+      <c r="W7">
+        <v>2</v>
+      </c>
+      <c r="X7" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
         <v>61</v>
       </c>
-      <c r="E7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="H7" t="s">
-        <v>257</v>
-      </c>
-      <c r="I7" t="s">
-        <v>323</v>
-      </c>
-      <c r="J7" t="s">
-        <v>375</v>
-      </c>
-      <c r="K7">
+      <c r="E8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H8" t="s">
+        <v>242</v>
+      </c>
+      <c r="I8" t="s">
+        <v>304</v>
+      </c>
+      <c r="J8" t="s">
+        <v>352</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8" t="s">
+        <v>412</v>
+      </c>
+      <c r="M8">
         <v>3</v>
       </c>
-      <c r="L7" t="s">
-        <v>440</v>
-      </c>
-      <c r="M7">
+      <c r="N8" t="s">
+        <v>472</v>
+      </c>
+      <c r="O8">
         <v>2</v>
       </c>
-      <c r="N7" t="s">
-        <v>505</v>
-      </c>
-      <c r="O7">
+      <c r="P8" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q8">
         <v>1</v>
       </c>
-      <c r="P7" t="s">
-        <v>569</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7" t="s">
-        <v>630</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7" t="s">
-        <v>685</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7" t="s">
-        <v>743</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7" t="s">
-        <v>792</v>
+      <c r="R8" t="s">
+        <v>587</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8" t="s">
+        <v>637</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8" t="s">
+        <v>691</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8" t="s">
+        <v>735</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" t="s">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
         <v>62</v>
       </c>
-      <c r="E8" t="s">
-        <v>128</v>
-      </c>
-      <c r="F8">
-        <v>6</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="H8" t="s">
-        <v>258</v>
-      </c>
-      <c r="I8" t="s">
-        <v>324</v>
-      </c>
-      <c r="J8" t="s">
-        <v>376</v>
-      </c>
-      <c r="K8">
+      <c r="E9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H9" t="s">
+        <v>243</v>
+      </c>
+      <c r="I9" t="s">
+        <v>305</v>
+      </c>
+      <c r="J9" t="s">
+        <v>353</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="L9" t="s">
+        <v>413</v>
+      </c>
+      <c r="M9">
         <v>3</v>
       </c>
-      <c r="L8" t="s">
-        <v>441</v>
-      </c>
-      <c r="M8">
-        <v>2</v>
-      </c>
-      <c r="N8" t="s">
-        <v>506</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8" t="s">
-        <v>570</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8" t="s">
-        <v>631</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8" t="s">
-        <v>686</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8" t="s">
-        <v>744</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F9">
-        <v>5</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="H9" t="s">
-        <v>259</v>
-      </c>
-      <c r="I9" t="s">
-        <v>325</v>
-      </c>
-      <c r="J9" t="s">
-        <v>377</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9" t="s">
-        <v>442</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
       <c r="N9" t="s">
-        <v>507</v>
+        <v>473</v>
       </c>
       <c r="O9">
         <v>2</v>
       </c>
       <c r="P9" t="s">
-        <v>571</v>
+        <v>532</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9" t="s">
-        <v>507</v>
+        <v>588</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>507</v>
+        <v>638</v>
       </c>
       <c r="U9">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>507</v>
+        <v>692</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9" t="s">
-        <v>507</v>
+        <v>736</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F10">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="H10" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="I10" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="J10" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="K10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L10" t="s">
-        <v>443</v>
+        <v>414</v>
       </c>
       <c r="M10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>508</v>
+        <v>474</v>
       </c>
       <c r="O10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>572</v>
+        <v>533</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" t="s">
-        <v>632</v>
+        <v>589</v>
       </c>
       <c r="S10">
         <v>3</v>
       </c>
       <c r="T10" t="s">
-        <v>687</v>
+        <v>639</v>
       </c>
       <c r="U10">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>745</v>
+        <v>693</v>
       </c>
       <c r="W10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X10" t="s">
-        <v>794</v>
+        <v>737</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -3659,147 +3502,147 @@
         <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H11" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="I11" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="J11" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="K11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L11" t="s">
-        <v>444</v>
+        <v>415</v>
       </c>
       <c r="M11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
       <c r="O11">
         <v>2</v>
       </c>
       <c r="P11" t="s">
-        <v>573</v>
+        <v>534</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" t="s">
-        <v>633</v>
+        <v>590</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>688</v>
+        <v>640</v>
       </c>
       <c r="U11">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>746</v>
+        <v>694</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11" t="s">
-        <v>795</v>
+        <v>738</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F12">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="H12" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="I12" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="J12" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="K12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L12" t="s">
-        <v>445</v>
+        <v>416</v>
       </c>
       <c r="M12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>510</v>
+        <v>476</v>
       </c>
       <c r="O12">
         <v>2</v>
       </c>
       <c r="P12" t="s">
-        <v>574</v>
+        <v>535</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12" t="s">
-        <v>634</v>
+        <v>591</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>689</v>
+        <v>641</v>
       </c>
       <c r="U12">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>747</v>
+        <v>695</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12" t="s">
-        <v>796</v>
+        <v>739</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -3807,73 +3650,73 @@
         <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F13">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="H13" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="I13" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="J13" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="K13">
         <v>3</v>
       </c>
       <c r="L13" t="s">
-        <v>446</v>
+        <v>417</v>
       </c>
       <c r="M13">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>511</v>
+        <v>477</v>
       </c>
       <c r="O13">
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>575</v>
+        <v>536</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13" t="s">
-        <v>635</v>
+        <v>592</v>
       </c>
       <c r="S13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>690</v>
+        <v>642</v>
       </c>
       <c r="U13">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>748</v>
+        <v>696</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13" t="s">
-        <v>797</v>
+        <v>740</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -3881,147 +3724,147 @@
         <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F14">
         <v>6</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="H14" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="I14" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="J14" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="K14">
         <v>3</v>
       </c>
       <c r="L14" t="s">
-        <v>447</v>
+        <v>418</v>
       </c>
       <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>478</v>
+      </c>
+      <c r="O14">
         <v>1</v>
       </c>
-      <c r="N14" t="s">
-        <v>512</v>
-      </c>
-      <c r="O14">
-        <v>2</v>
-      </c>
       <c r="P14" t="s">
-        <v>576</v>
+        <v>537</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14" t="s">
-        <v>636</v>
+        <v>593</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>691</v>
+        <v>593</v>
       </c>
       <c r="U14">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>749</v>
+        <v>593</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14" t="s">
-        <v>798</v>
+        <v>593</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
         <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F15">
         <v>6</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="H15" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="I15" t="s">
-        <v>331</v>
+        <v>304</v>
       </c>
       <c r="J15" t="s">
-        <v>383</v>
+        <v>352</v>
       </c>
       <c r="K15">
         <v>3</v>
       </c>
       <c r="L15" t="s">
-        <v>448</v>
+        <v>419</v>
       </c>
       <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>479</v>
+      </c>
+      <c r="O15">
         <v>1</v>
       </c>
-      <c r="N15" t="s">
-        <v>513</v>
-      </c>
-      <c r="O15">
-        <v>2</v>
-      </c>
       <c r="P15" t="s">
-        <v>577</v>
+        <v>538</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15" t="s">
-        <v>637</v>
+        <v>594</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>692</v>
+        <v>643</v>
       </c>
       <c r="U15">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>750</v>
+        <v>697</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15" t="s">
-        <v>799</v>
+        <v>741</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -4029,1185 +3872,1185 @@
         <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="H16" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="I16" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="J16" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="K16">
         <v>3</v>
       </c>
       <c r="L16" t="s">
-        <v>449</v>
+        <v>420</v>
       </c>
       <c r="M16">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>514</v>
+        <v>480</v>
       </c>
       <c r="O16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>578</v>
+        <v>492</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
       <c r="R16" t="s">
-        <v>638</v>
+        <v>492</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>693</v>
+        <v>492</v>
       </c>
       <c r="U16">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>751</v>
+        <v>492</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16" t="s">
-        <v>800</v>
+        <v>492</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="H17" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="I17" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="J17" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="K17">
         <v>3</v>
       </c>
       <c r="L17" t="s">
-        <v>450</v>
+        <v>421</v>
       </c>
       <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
+        <v>481</v>
+      </c>
+      <c r="O17">
         <v>2</v>
       </c>
-      <c r="N17" t="s">
-        <v>515</v>
-      </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
       <c r="P17" t="s">
-        <v>579</v>
+        <v>539</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17" t="s">
-        <v>639</v>
+        <v>595</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="U17">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>639</v>
+        <v>698</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17" t="s">
-        <v>639</v>
+        <v>742</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="H18" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="I18" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="J18" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="K18">
         <v>3</v>
       </c>
       <c r="L18" t="s">
-        <v>451</v>
+        <v>422</v>
       </c>
       <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
+        <v>482</v>
+      </c>
+      <c r="O18">
         <v>2</v>
       </c>
-      <c r="N18" t="s">
-        <v>516</v>
-      </c>
-      <c r="O18">
-        <v>1</v>
-      </c>
       <c r="P18" t="s">
-        <v>580</v>
+        <v>540</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18" t="s">
-        <v>640</v>
+        <v>596</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>694</v>
+        <v>645</v>
       </c>
       <c r="U18">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>752</v>
+        <v>699</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18" t="s">
-        <v>801</v>
+        <v>743</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E19" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F19">
         <v>5</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="H19" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="I19" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="J19" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="K19">
         <v>3</v>
       </c>
       <c r="L19" t="s">
-        <v>452</v>
+        <v>423</v>
       </c>
       <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19" t="s">
+        <v>483</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19" t="s">
+        <v>597</v>
+      </c>
+      <c r="S19">
         <v>2</v>
       </c>
-      <c r="N19" t="s">
-        <v>517</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="s">
-        <v>530</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19" t="s">
-        <v>530</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
       <c r="T19" t="s">
-        <v>530</v>
+        <v>646</v>
       </c>
       <c r="U19">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>530</v>
+        <v>700</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19" t="s">
-        <v>530</v>
+        <v>744</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
         <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E20" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="H20" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="I20" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="J20" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="K20">
         <v>3</v>
       </c>
       <c r="L20" t="s">
-        <v>453</v>
+        <v>424</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20" t="s">
-        <v>518</v>
+        <v>484</v>
       </c>
       <c r="O20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>581</v>
+        <v>542</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
       <c r="R20" t="s">
-        <v>641</v>
+        <v>598</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>695</v>
+        <v>647</v>
       </c>
       <c r="U20">
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>753</v>
+        <v>701</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20" t="s">
-        <v>802</v>
+        <v>745</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E21" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="H21" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="I21" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="J21" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21" t="s">
-        <v>454</v>
+        <v>425</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>519</v>
+        <v>485</v>
       </c>
       <c r="O21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>582</v>
+        <v>543</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
       <c r="R21" t="s">
-        <v>642</v>
+        <v>599</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>696</v>
+        <v>648</v>
       </c>
       <c r="U21">
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>754</v>
+        <v>702</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21" t="s">
-        <v>803</v>
+        <v>746</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E22" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="H22" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="I22" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="J22" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22" t="s">
-        <v>455</v>
+        <v>426</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>520</v>
+        <v>486</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>583</v>
+        <v>544</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
       <c r="R22" t="s">
-        <v>643</v>
+        <v>600</v>
       </c>
       <c r="S22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>697</v>
+        <v>649</v>
       </c>
       <c r="U22">
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>755</v>
+        <v>703</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22" t="s">
-        <v>804</v>
+        <v>747</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
         <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E23" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F23">
         <v>3</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H23" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="I23" t="s">
-        <v>337</v>
+        <v>299</v>
       </c>
       <c r="J23" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L23" t="s">
-        <v>456</v>
+        <v>427</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>521</v>
+        <v>487</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23" t="s">
-        <v>584</v>
+        <v>545</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
       <c r="R23" t="s">
-        <v>644</v>
+        <v>601</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>698</v>
+        <v>650</v>
       </c>
       <c r="U23">
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>756</v>
+        <v>704</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23" t="s">
-        <v>805</v>
+        <v>748</v>
       </c>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E24" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F24">
         <v>3</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="H24" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="I24" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="J24" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24" t="s">
-        <v>457</v>
+        <v>428</v>
       </c>
       <c r="M24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" t="s">
-        <v>522</v>
+        <v>488</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24" t="s">
-        <v>585</v>
+        <v>546</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
       <c r="R24" t="s">
-        <v>645</v>
+        <v>602</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>699</v>
+        <v>651</v>
       </c>
       <c r="U24">
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>757</v>
+        <v>705</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24" t="s">
-        <v>806</v>
+        <v>749</v>
       </c>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E25" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F25">
         <v>3</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="H25" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="I25" t="s">
-        <v>339</v>
+        <v>304</v>
       </c>
       <c r="J25" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25" t="s">
-        <v>458</v>
+        <v>429</v>
       </c>
       <c r="M25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" t="s">
-        <v>523</v>
+        <v>489</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25" t="s">
-        <v>586</v>
+        <v>547</v>
       </c>
       <c r="Q25">
         <v>0</v>
       </c>
       <c r="R25" t="s">
-        <v>646</v>
+        <v>603</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>700</v>
+        <v>652</v>
       </c>
       <c r="U25">
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>758</v>
+        <v>706</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25" t="s">
-        <v>807</v>
+        <v>750</v>
       </c>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
         <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E26" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F26">
         <v>3</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="H26" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="I26" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="J26" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26" t="s">
-        <v>459</v>
+        <v>430</v>
       </c>
       <c r="M26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" t="s">
-        <v>524</v>
+        <v>490</v>
       </c>
       <c r="O26">
         <v>0</v>
       </c>
       <c r="P26" t="s">
-        <v>587</v>
+        <v>548</v>
       </c>
       <c r="Q26">
         <v>0</v>
       </c>
       <c r="R26" t="s">
-        <v>647</v>
+        <v>604</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>701</v>
+        <v>653</v>
       </c>
       <c r="U26">
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>759</v>
+        <v>707</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26" t="s">
-        <v>808</v>
+        <v>736</v>
       </c>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E27" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="H27" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="I27" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="J27" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L27" t="s">
-        <v>460</v>
+        <v>431</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="N27" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="O27">
         <v>0</v>
       </c>
       <c r="P27" t="s">
-        <v>588</v>
+        <v>549</v>
       </c>
       <c r="Q27">
         <v>0</v>
       </c>
       <c r="R27" t="s">
-        <v>648</v>
+        <v>605</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>702</v>
+        <v>654</v>
       </c>
       <c r="U27">
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>760</v>
+        <v>708</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27" t="s">
-        <v>809</v>
+        <v>751</v>
       </c>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E28" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="H28" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="I28" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="J28" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28" t="s">
-        <v>461</v>
+        <v>432</v>
       </c>
       <c r="M28">
         <v>0</v>
       </c>
       <c r="N28" t="s">
-        <v>526</v>
+        <v>492</v>
       </c>
       <c r="O28">
         <v>0</v>
       </c>
       <c r="P28" t="s">
-        <v>589</v>
+        <v>492</v>
       </c>
       <c r="Q28">
         <v>0</v>
       </c>
       <c r="R28" t="s">
-        <v>649</v>
+        <v>492</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28" t="s">
-        <v>703</v>
+        <v>492</v>
       </c>
       <c r="U28">
         <v>0</v>
       </c>
       <c r="V28" t="s">
-        <v>761</v>
+        <v>492</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28" t="s">
-        <v>810</v>
+        <v>492</v>
       </c>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
         <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E29" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F29">
+        <v>11</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H29" t="s">
+        <v>263</v>
+      </c>
+      <c r="I29" t="s">
+        <v>320</v>
+      </c>
+      <c r="J29" t="s">
+        <v>372</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29" t="s">
+        <v>433</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>493</v>
+      </c>
+      <c r="O29">
         <v>3</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="H29" t="s">
-        <v>279</v>
-      </c>
-      <c r="I29" t="s">
-        <v>341</v>
-      </c>
-      <c r="J29" t="s">
-        <v>396</v>
-      </c>
-      <c r="K29">
+      <c r="P29" t="s">
+        <v>550</v>
+      </c>
+      <c r="Q29">
+        <v>2</v>
+      </c>
+      <c r="R29" t="s">
+        <v>606</v>
+      </c>
+      <c r="S29">
         <v>3</v>
       </c>
-      <c r="L29" t="s">
-        <v>462</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29" t="s">
-        <v>527</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="s">
-        <v>590</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29" t="s">
-        <v>650</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
       <c r="T29" t="s">
-        <v>704</v>
+        <v>655</v>
       </c>
       <c r="U29">
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>762</v>
+        <v>690</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29" t="s">
-        <v>796</v>
+        <v>752</v>
       </c>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
       </c>
       <c r="D30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" t="s">
+        <v>144</v>
+      </c>
+      <c r="F30">
+        <v>7</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H30" t="s">
+        <v>264</v>
+      </c>
+      <c r="I30" t="s">
+        <v>321</v>
+      </c>
+      <c r="J30" t="s">
+        <v>373</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30" t="s">
+        <v>434</v>
+      </c>
+      <c r="M30">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>494</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30" t="s">
+        <v>551</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30" t="s">
+        <v>607</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s">
+        <v>656</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30" t="s">
+        <v>709</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" t="s">
         <v>84</v>
       </c>
-      <c r="E30" t="s">
-        <v>150</v>
-      </c>
-      <c r="F30">
+      <c r="E31" t="s">
+        <v>145</v>
+      </c>
+      <c r="F31">
+        <v>7</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H31" t="s">
+        <v>265</v>
+      </c>
+      <c r="I31" t="s">
+        <v>322</v>
+      </c>
+      <c r="J31" t="s">
+        <v>374</v>
+      </c>
+      <c r="K31">
         <v>3</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H30" t="s">
-        <v>280</v>
-      </c>
-      <c r="I30" t="s">
-        <v>341</v>
-      </c>
-      <c r="J30" t="s">
-        <v>397</v>
-      </c>
-      <c r="K30">
+      <c r="L31" t="s">
+        <v>435</v>
+      </c>
+      <c r="M31">
         <v>2</v>
       </c>
-      <c r="L30" t="s">
-        <v>463</v>
-      </c>
-      <c r="M30">
+      <c r="N31" t="s">
+        <v>495</v>
+      </c>
+      <c r="O31">
         <v>1</v>
       </c>
-      <c r="N30" t="s">
-        <v>528</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="s">
-        <v>591</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30" t="s">
-        <v>651</v>
-      </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-      <c r="T30" t="s">
-        <v>705</v>
-      </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
-      <c r="V30" t="s">
-        <v>763</v>
-      </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-      <c r="X30" t="s">
-        <v>811</v>
+      <c r="P31" t="s">
+        <v>552</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31" t="s">
+        <v>596</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s">
+        <v>657</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31" t="s">
+        <v>699</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31" t="s">
+        <v>743</v>
       </c>
     </row>
-    <row r="31" spans="1:24">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" t="s">
-        <v>85</v>
-      </c>
-      <c r="E31" t="s">
-        <v>151</v>
-      </c>
-      <c r="F31">
-        <v>2</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="H31" t="s">
-        <v>281</v>
-      </c>
-      <c r="I31" t="s">
-        <v>337</v>
-      </c>
-      <c r="J31" t="s">
-        <v>398</v>
-      </c>
-      <c r="K31">
-        <v>2</v>
-      </c>
-      <c r="L31" t="s">
-        <v>464</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31" t="s">
-        <v>529</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31" t="s">
-        <v>652</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="T31" t="s">
-        <v>706</v>
-      </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
-      <c r="V31" t="s">
-        <v>764</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
@@ -5216,516 +5059,516 @@
         <v>45</v>
       </c>
       <c r="D32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E32" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F32">
+        <v>6</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H32" t="s">
+        <v>266</v>
+      </c>
+      <c r="I32" t="s">
+        <v>323</v>
+      </c>
+      <c r="J32" t="s">
+        <v>375</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32" t="s">
+        <v>436</v>
+      </c>
+      <c r="M32">
         <v>2</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="H32" t="s">
-        <v>282</v>
-      </c>
-      <c r="I32" t="s">
-        <v>342</v>
-      </c>
-      <c r="J32" t="s">
-        <v>399</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32" t="s">
-        <v>465</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
       <c r="N32" t="s">
-        <v>530</v>
+        <v>496</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>530</v>
+        <v>553</v>
       </c>
       <c r="Q32">
         <v>0</v>
       </c>
       <c r="R32" t="s">
-        <v>530</v>
+        <v>608</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32" t="s">
-        <v>530</v>
+        <v>658</v>
       </c>
       <c r="U32">
         <v>0</v>
       </c>
       <c r="V32" t="s">
-        <v>530</v>
+        <v>710</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32" t="s">
-        <v>530</v>
+        <v>754</v>
       </c>
     </row>
-    <row r="33" spans="1:24">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
         <v>37</v>
       </c>
       <c r="D33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E33" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F33">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="H33" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="I33" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="J33" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33" t="s">
+        <v>437</v>
+      </c>
+      <c r="M33">
         <v>2</v>
       </c>
-      <c r="L33" t="s">
-        <v>466</v>
-      </c>
-      <c r="M33">
-        <v>3</v>
-      </c>
       <c r="N33" t="s">
-        <v>531</v>
+        <v>497</v>
       </c>
       <c r="O33">
         <v>1</v>
       </c>
       <c r="P33" t="s">
-        <v>593</v>
+        <v>554</v>
       </c>
       <c r="Q33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R33" t="s">
-        <v>653</v>
+        <v>470</v>
       </c>
       <c r="S33">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T33" t="s">
-        <v>707</v>
+        <v>470</v>
       </c>
       <c r="U33">
         <v>0</v>
       </c>
       <c r="V33" t="s">
-        <v>765</v>
+        <v>470</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33" t="s">
-        <v>813</v>
+        <v>470</v>
       </c>
     </row>
-    <row r="34" spans="1:24">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C34" t="s">
         <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E34" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F34">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="H34" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="I34" t="s">
-        <v>344</v>
+        <v>307</v>
       </c>
       <c r="J34" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L34" t="s">
-        <v>467</v>
+        <v>438</v>
       </c>
       <c r="M34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34" t="s">
-        <v>532</v>
+        <v>490</v>
       </c>
       <c r="O34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P34" t="s">
-        <v>594</v>
+        <v>548</v>
       </c>
       <c r="Q34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R34" t="s">
-        <v>654</v>
+        <v>588</v>
       </c>
       <c r="S34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T34" t="s">
-        <v>708</v>
+        <v>653</v>
       </c>
       <c r="U34">
         <v>0</v>
       </c>
       <c r="V34" t="s">
-        <v>745</v>
+        <v>707</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34" t="s">
-        <v>814</v>
+        <v>755</v>
       </c>
     </row>
-    <row r="35" spans="1:24">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s">
         <v>37</v>
       </c>
       <c r="D35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E35" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F35">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="H35" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="I35" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="J35" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="K35">
         <v>3</v>
       </c>
       <c r="L35" t="s">
-        <v>468</v>
+        <v>439</v>
       </c>
       <c r="M35">
         <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>533</v>
+        <v>498</v>
       </c>
       <c r="O35">
+        <v>3</v>
+      </c>
+      <c r="P35" t="s">
+        <v>555</v>
+      </c>
+      <c r="Q35">
         <v>1</v>
       </c>
-      <c r="P35" t="s">
-        <v>595</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
       <c r="R35" t="s">
-        <v>655</v>
+        <v>609</v>
       </c>
       <c r="S35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T35" t="s">
-        <v>709</v>
+        <v>659</v>
       </c>
       <c r="U35">
         <v>0</v>
       </c>
       <c r="V35" t="s">
-        <v>766</v>
+        <v>711</v>
       </c>
       <c r="W35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X35" t="s">
-        <v>815</v>
+        <v>756</v>
       </c>
     </row>
-    <row r="36" spans="1:24">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E36" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F36">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H36" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="I36" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="J36" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="K36">
         <v>3</v>
       </c>
       <c r="L36" t="s">
-        <v>469</v>
+        <v>440</v>
       </c>
       <c r="M36">
         <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>534</v>
+        <v>499</v>
       </c>
       <c r="O36">
         <v>1</v>
       </c>
       <c r="P36" t="s">
-        <v>596</v>
+        <v>556</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R36" t="s">
-        <v>642</v>
+        <v>610</v>
       </c>
       <c r="S36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T36" t="s">
-        <v>710</v>
+        <v>660</v>
       </c>
       <c r="U36">
         <v>0</v>
       </c>
       <c r="V36" t="s">
-        <v>754</v>
+        <v>712</v>
       </c>
       <c r="W36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X36" t="s">
-        <v>803</v>
+        <v>757</v>
       </c>
     </row>
-    <row r="37" spans="1:24">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F37">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="H37" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="I37" t="s">
-        <v>347</v>
+        <v>311</v>
       </c>
       <c r="J37" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="K37">
         <v>3</v>
       </c>
       <c r="L37" t="s">
-        <v>470</v>
+        <v>441</v>
       </c>
       <c r="M37">
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>535</v>
+        <v>500</v>
       </c>
       <c r="O37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P37" t="s">
-        <v>597</v>
+        <v>557</v>
       </c>
       <c r="Q37">
         <v>0</v>
       </c>
       <c r="R37" t="s">
-        <v>656</v>
+        <v>583</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37" t="s">
-        <v>711</v>
+        <v>661</v>
       </c>
       <c r="U37">
         <v>0</v>
       </c>
       <c r="V37" t="s">
-        <v>767</v>
+        <v>687</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37" t="s">
-        <v>816</v>
+        <v>758</v>
       </c>
     </row>
-    <row r="38" spans="1:24">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C38" t="s">
         <v>37</v>
       </c>
       <c r="D38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E38" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F38">
         <v>6</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="H38" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="I38" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="J38" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="K38">
         <v>3</v>
       </c>
       <c r="L38" t="s">
-        <v>471</v>
+        <v>442</v>
       </c>
       <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>501</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="s">
+        <v>558</v>
+      </c>
+      <c r="Q38">
         <v>2</v>
       </c>
-      <c r="N38" t="s">
-        <v>536</v>
-      </c>
-      <c r="O38">
-        <v>1</v>
-      </c>
-      <c r="P38" t="s">
-        <v>598</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
       <c r="R38" t="s">
-        <v>507</v>
+        <v>611</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38" t="s">
-        <v>507</v>
+        <v>662</v>
       </c>
       <c r="U38">
         <v>0</v>
       </c>
       <c r="V38" t="s">
-        <v>507</v>
+        <v>713</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38" t="s">
-        <v>507</v>
+        <v>759</v>
       </c>
     </row>
-    <row r="39" spans="1:24">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B39" t="s">
         <v>32</v>
@@ -5734,366 +5577,366 @@
         <v>37</v>
       </c>
       <c r="D39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E39" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F39">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="H39" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="I39" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="J39" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="K39">
         <v>3</v>
       </c>
       <c r="L39" t="s">
-        <v>472</v>
+        <v>443</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>527</v>
+        <v>502</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" t="s">
-        <v>590</v>
+        <v>559</v>
       </c>
       <c r="Q39">
         <v>0</v>
       </c>
       <c r="R39" t="s">
-        <v>634</v>
+        <v>612</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39" t="s">
-        <v>704</v>
+        <v>663</v>
       </c>
       <c r="U39">
         <v>0</v>
       </c>
       <c r="V39" t="s">
-        <v>762</v>
+        <v>692</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39" t="s">
-        <v>817</v>
+        <v>736</v>
       </c>
     </row>
-    <row r="40" spans="1:24">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>27</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C40" t="s">
         <v>37</v>
       </c>
       <c r="D40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E40" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F40">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="H40" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="I40" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="J40" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="K40">
         <v>3</v>
       </c>
       <c r="L40" t="s">
-        <v>473</v>
+        <v>444</v>
       </c>
       <c r="M40">
         <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>537</v>
+        <v>503</v>
       </c>
       <c r="O40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P40" t="s">
-        <v>599</v>
+        <v>560</v>
       </c>
       <c r="Q40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R40" t="s">
-        <v>657</v>
+        <v>613</v>
       </c>
       <c r="S40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T40" t="s">
-        <v>712</v>
+        <v>664</v>
       </c>
       <c r="U40">
         <v>0</v>
       </c>
       <c r="V40" t="s">
-        <v>768</v>
+        <v>714</v>
       </c>
       <c r="W40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X40" t="s">
-        <v>818</v>
+        <v>760</v>
       </c>
     </row>
-    <row r="41" spans="1:24">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>27</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C41" t="s">
         <v>37</v>
       </c>
       <c r="D41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E41" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F41">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="H41" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="I41" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="J41" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="K41">
         <v>3</v>
       </c>
       <c r="L41" t="s">
-        <v>474</v>
+        <v>445</v>
       </c>
       <c r="M41">
         <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>538</v>
+        <v>504</v>
       </c>
       <c r="O41">
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>600</v>
+        <v>561</v>
       </c>
       <c r="Q41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R41" t="s">
-        <v>658</v>
+        <v>614</v>
       </c>
       <c r="S41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T41" t="s">
-        <v>713</v>
+        <v>665</v>
       </c>
       <c r="U41">
         <v>0</v>
       </c>
       <c r="V41" t="s">
-        <v>769</v>
+        <v>715</v>
       </c>
       <c r="W41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X41" t="s">
-        <v>819</v>
+        <v>761</v>
       </c>
     </row>
-    <row r="42" spans="1:24">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>27</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C42" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="D42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E42" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F42">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="H42" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="I42" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="J42" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
       <c r="K42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L42" t="s">
-        <v>475</v>
+        <v>446</v>
       </c>
       <c r="M42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>539</v>
+        <v>505</v>
       </c>
       <c r="O42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P42" t="s">
-        <v>601</v>
+        <v>470</v>
       </c>
       <c r="Q42">
         <v>0</v>
       </c>
       <c r="R42" t="s">
-        <v>629</v>
+        <v>470</v>
       </c>
       <c r="S42">
         <v>0</v>
       </c>
       <c r="T42" t="s">
-        <v>714</v>
+        <v>470</v>
       </c>
       <c r="U42">
         <v>0</v>
       </c>
       <c r="V42" t="s">
-        <v>742</v>
+        <v>470</v>
       </c>
       <c r="W42">
         <v>0</v>
       </c>
       <c r="X42" t="s">
-        <v>820</v>
+        <v>470</v>
       </c>
     </row>
-    <row r="43" spans="1:24">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>27</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C43" t="s">
         <v>37</v>
       </c>
       <c r="D43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E43" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F43">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="H43" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="I43" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="J43" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="K43">
         <v>3</v>
       </c>
       <c r="L43" t="s">
-        <v>476</v>
+        <v>447</v>
       </c>
       <c r="M43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43" t="s">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="O43">
         <v>0</v>
       </c>
       <c r="P43" t="s">
-        <v>602</v>
+        <v>562</v>
       </c>
       <c r="Q43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R43" t="s">
-        <v>659</v>
+        <v>615</v>
       </c>
       <c r="S43">
         <v>0</v>
       </c>
       <c r="T43" t="s">
-        <v>715</v>
+        <v>666</v>
       </c>
       <c r="U43">
         <v>0</v>
       </c>
       <c r="V43" t="s">
-        <v>770</v>
+        <v>716</v>
       </c>
       <c r="W43">
         <v>0</v>
       </c>
       <c r="X43" t="s">
-        <v>821</v>
+        <v>762</v>
       </c>
     </row>
-    <row r="44" spans="1:24">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -6104,368 +5947,365 @@
         <v>37</v>
       </c>
       <c r="D44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E44" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F44">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="H44" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="I44" t="s">
         <v>330</v>
       </c>
       <c r="J44" t="s">
-        <v>411</v>
+        <v>387</v>
       </c>
       <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44" t="s">
+        <v>448</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44" t="s">
+        <v>507</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="s">
+        <v>563</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44" t="s">
+        <v>616</v>
+      </c>
+      <c r="S44">
         <v>3</v>
       </c>
-      <c r="L44" t="s">
-        <v>477</v>
-      </c>
-      <c r="M44">
-        <v>2</v>
-      </c>
-      <c r="N44" t="s">
-        <v>541</v>
-      </c>
-      <c r="O44">
-        <v>1</v>
-      </c>
-      <c r="P44" t="s">
-        <v>603</v>
-      </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="R44" t="s">
-        <v>660</v>
-      </c>
-      <c r="S44">
-        <v>0</v>
-      </c>
       <c r="T44" t="s">
-        <v>716</v>
+        <v>667</v>
       </c>
       <c r="U44">
         <v>0</v>
       </c>
       <c r="V44" t="s">
-        <v>747</v>
+        <v>717</v>
       </c>
       <c r="W44">
         <v>0</v>
       </c>
       <c r="X44" t="s">
-        <v>796</v>
+        <v>763</v>
       </c>
     </row>
-    <row r="45" spans="1:24">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>27</v>
       </c>
       <c r="B45" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C45" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E45" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F45">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="H45" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="I45" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="J45" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="K45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L45" t="s">
-        <v>478</v>
+        <v>449</v>
       </c>
       <c r="M45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N45" t="s">
-        <v>542</v>
+        <v>508</v>
       </c>
       <c r="O45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P45" t="s">
-        <v>604</v>
+        <v>564</v>
       </c>
       <c r="Q45">
         <v>0</v>
       </c>
       <c r="R45" t="s">
-        <v>661</v>
+        <v>617</v>
       </c>
       <c r="S45">
         <v>0</v>
       </c>
       <c r="T45" t="s">
-        <v>717</v>
+        <v>668</v>
       </c>
       <c r="U45">
         <v>0</v>
       </c>
       <c r="V45" t="s">
-        <v>771</v>
+        <v>718</v>
       </c>
       <c r="W45">
         <v>0</v>
       </c>
       <c r="X45" t="s">
-        <v>822</v>
+        <v>764</v>
       </c>
     </row>
-    <row r="46" spans="1:24">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>27</v>
       </c>
       <c r="B46" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C46" t="s">
         <v>37</v>
       </c>
       <c r="D46" t="s">
+        <v>99</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H46" t="s">
+        <v>280</v>
+      </c>
+      <c r="I46" t="s">
+        <v>299</v>
+      </c>
+      <c r="J46" t="s">
+        <v>389</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46" t="s">
+        <v>450</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46" t="s">
+        <v>509</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="s">
+        <v>565</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46" t="s">
+        <v>618</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46" t="s">
+        <v>669</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46" t="s">
+        <v>719</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" t="s">
         <v>100</v>
       </c>
-      <c r="E46" t="s">
-        <v>166</v>
-      </c>
-      <c r="F46">
-        <v>6</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="H46" t="s">
-        <v>296</v>
-      </c>
-      <c r="I46" t="s">
-        <v>351</v>
-      </c>
-      <c r="J46" t="s">
-        <v>413</v>
-      </c>
-      <c r="K46">
+      <c r="E47" t="s">
+        <v>160</v>
+      </c>
+      <c r="F47">
+        <v>8</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H47" t="s">
+        <v>281</v>
+      </c>
+      <c r="I47" t="s">
+        <v>332</v>
+      </c>
+      <c r="J47" t="s">
+        <v>390</v>
+      </c>
+      <c r="K47">
         <v>3</v>
       </c>
-      <c r="L46" t="s">
-        <v>479</v>
-      </c>
-      <c r="M46">
+      <c r="L47" t="s">
+        <v>451</v>
+      </c>
+      <c r="M47">
         <v>2</v>
       </c>
-      <c r="N46" t="s">
-        <v>543</v>
-      </c>
-      <c r="O46">
+      <c r="N47" t="s">
+        <v>510</v>
+      </c>
+      <c r="O47">
         <v>1</v>
       </c>
-      <c r="P46" t="s">
-        <v>605</v>
-      </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="R46" t="s">
-        <v>662</v>
-      </c>
-      <c r="S46">
-        <v>0</v>
-      </c>
-      <c r="T46" t="s">
-        <v>718</v>
-      </c>
-      <c r="U46">
-        <v>0</v>
-      </c>
-      <c r="V46" t="s">
-        <v>772</v>
-      </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
-      <c r="X46" t="s">
-        <v>823</v>
+      <c r="P47" t="s">
+        <v>566</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47" t="s">
+        <v>492</v>
+      </c>
+      <c r="S47">
+        <v>2</v>
+      </c>
+      <c r="T47" t="s">
+        <v>670</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47" t="s">
+        <v>492</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47" t="s">
+        <v>492</v>
       </c>
     </row>
-    <row r="47" spans="1:24">
-      <c r="A47" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47" t="s">
-        <v>33</v>
-      </c>
-      <c r="C47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D47" t="s">
-        <v>101</v>
-      </c>
-      <c r="E47" t="s">
-        <v>167</v>
-      </c>
-      <c r="F47">
-        <v>3</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="H47" t="s">
-        <v>297</v>
-      </c>
-      <c r="I47" t="s">
-        <v>352</v>
-      </c>
-      <c r="J47" t="s">
-        <v>414</v>
-      </c>
-      <c r="K47">
-        <v>2</v>
-      </c>
-      <c r="L47" t="s">
-        <v>480</v>
-      </c>
-      <c r="M47">
-        <v>1</v>
-      </c>
-      <c r="N47" t="s">
-        <v>544</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="s">
-        <v>507</v>
-      </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
-      <c r="R47" t="s">
-        <v>507</v>
-      </c>
-      <c r="S47">
-        <v>0</v>
-      </c>
-      <c r="T47" t="s">
-        <v>507</v>
-      </c>
-      <c r="U47">
-        <v>0</v>
-      </c>
-      <c r="V47" t="s">
-        <v>507</v>
-      </c>
-      <c r="W47">
-        <v>0</v>
-      </c>
-      <c r="X47" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C48" t="s">
         <v>37</v>
       </c>
       <c r="D48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E48" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F48">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="H48" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="I48" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="J48" t="s">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="K48">
         <v>3</v>
       </c>
       <c r="L48" t="s">
-        <v>481</v>
+        <v>452</v>
       </c>
       <c r="M48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N48" t="s">
-        <v>545</v>
+        <v>511</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48" t="s">
-        <v>606</v>
+        <v>567</v>
       </c>
       <c r="Q48">
         <v>0</v>
       </c>
       <c r="R48" t="s">
-        <v>663</v>
+        <v>619</v>
       </c>
       <c r="S48">
         <v>0</v>
       </c>
       <c r="T48" t="s">
-        <v>719</v>
+        <v>671</v>
       </c>
       <c r="U48">
         <v>0</v>
       </c>
       <c r="V48" t="s">
-        <v>773</v>
+        <v>720</v>
       </c>
       <c r="W48">
         <v>0</v>
       </c>
       <c r="X48" t="s">
-        <v>824</v>
+        <v>766</v>
       </c>
     </row>
-    <row r="49" spans="1:24">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B49" t="s">
         <v>32</v>
@@ -6474,289 +6314,292 @@
         <v>37</v>
       </c>
       <c r="D49" t="s">
+        <v>102</v>
+      </c>
+      <c r="E49" t="s">
+        <v>162</v>
+      </c>
+      <c r="F49">
+        <v>6</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H49" t="s">
+        <v>283</v>
+      </c>
+      <c r="I49" t="s">
+        <v>334</v>
+      </c>
+      <c r="J49" t="s">
+        <v>392</v>
+      </c>
+      <c r="K49">
+        <v>2</v>
+      </c>
+      <c r="L49" t="s">
+        <v>453</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>512</v>
+      </c>
+      <c r="O49">
+        <v>3</v>
+      </c>
+      <c r="P49" t="s">
+        <v>568</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49" t="s">
+        <v>596</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49" t="s">
+        <v>645</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49" t="s">
+        <v>699</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" t="s">
         <v>103</v>
       </c>
-      <c r="E49" t="s">
-        <v>169</v>
-      </c>
-      <c r="F49">
+      <c r="E50" t="s">
+        <v>163</v>
+      </c>
+      <c r="F50">
+        <v>6</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H50" t="s">
+        <v>284</v>
+      </c>
+      <c r="I50" t="s">
+        <v>335</v>
+      </c>
+      <c r="J50" t="s">
+        <v>393</v>
+      </c>
+      <c r="K50">
         <v>3</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="H49" t="s">
-        <v>299</v>
-      </c>
-      <c r="I49" t="s">
-        <v>354</v>
-      </c>
-      <c r="J49" t="s">
-        <v>416</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49" t="s">
-        <v>482</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49" t="s">
-        <v>546</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49" t="s">
-        <v>607</v>
-      </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
-      <c r="R49" t="s">
-        <v>664</v>
-      </c>
-      <c r="S49">
-        <v>3</v>
-      </c>
-      <c r="T49" t="s">
-        <v>720</v>
-      </c>
-      <c r="U49">
-        <v>0</v>
-      </c>
-      <c r="V49" t="s">
-        <v>774</v>
-      </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
-      <c r="X49" t="s">
-        <v>825</v>
+      <c r="L50" t="s">
+        <v>454</v>
+      </c>
+      <c r="M50">
+        <v>2</v>
+      </c>
+      <c r="N50" t="s">
+        <v>513</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
+      <c r="P50" t="s">
+        <v>569</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50" t="s">
+        <v>620</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50" t="s">
+        <v>672</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50" t="s">
+        <v>721</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50" t="s">
+        <v>767</v>
       </c>
     </row>
-    <row r="50" spans="1:24">
-      <c r="A50" t="s">
-        <v>27</v>
-      </c>
-      <c r="B50" t="s">
-        <v>35</v>
-      </c>
-      <c r="C50" t="s">
-        <v>54</v>
-      </c>
-      <c r="D50" t="s">
-        <v>104</v>
-      </c>
-      <c r="E50" t="s">
-        <v>170</v>
-      </c>
-      <c r="F50">
-        <v>2</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="H50" t="s">
-        <v>300</v>
-      </c>
-      <c r="I50" t="s">
-        <v>355</v>
-      </c>
-      <c r="J50" t="s">
-        <v>417</v>
-      </c>
-      <c r="K50">
-        <v>2</v>
-      </c>
-      <c r="L50" t="s">
-        <v>483</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50" t="s">
-        <v>547</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50" t="s">
-        <v>608</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-      <c r="R50" t="s">
-        <v>665</v>
-      </c>
-      <c r="S50">
-        <v>0</v>
-      </c>
-      <c r="T50" t="s">
-        <v>721</v>
-      </c>
-      <c r="U50">
-        <v>0</v>
-      </c>
-      <c r="V50" t="s">
-        <v>775</v>
-      </c>
-      <c r="W50">
-        <v>0</v>
-      </c>
-      <c r="X50" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C51" t="s">
         <v>37</v>
       </c>
       <c r="D51" t="s">
-        <v>105</v>
+        <v>104</v>
+      </c>
+      <c r="E51" t="s">
+        <v>164</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="H51" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="I51" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="J51" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L51" t="s">
-        <v>484</v>
+        <v>455</v>
       </c>
       <c r="M51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>548</v>
+        <v>514</v>
       </c>
       <c r="O51">
         <v>0</v>
       </c>
       <c r="P51" t="s">
-        <v>609</v>
+        <v>570</v>
       </c>
       <c r="Q51">
         <v>0</v>
       </c>
       <c r="R51" t="s">
-        <v>666</v>
+        <v>621</v>
       </c>
       <c r="S51">
         <v>0</v>
       </c>
       <c r="T51" t="s">
+        <v>673</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51" t="s">
         <v>722</v>
       </c>
-      <c r="U51">
-        <v>0</v>
-      </c>
-      <c r="V51" t="s">
-        <v>776</v>
-      </c>
       <c r="W51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X51" t="s">
-        <v>827</v>
+        <v>768</v>
       </c>
     </row>
-    <row r="52" spans="1:24">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>28</v>
       </c>
       <c r="B52" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C52" t="s">
         <v>37</v>
       </c>
       <c r="D52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E52" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F52">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="H52" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="I52" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="J52" t="s">
-        <v>419</v>
+        <v>395</v>
       </c>
       <c r="K52">
         <v>3</v>
       </c>
       <c r="L52" t="s">
-        <v>485</v>
+        <v>456</v>
       </c>
       <c r="M52">
         <v>2</v>
       </c>
       <c r="N52" t="s">
-        <v>549</v>
+        <v>515</v>
       </c>
       <c r="O52">
         <v>1</v>
       </c>
       <c r="P52" t="s">
-        <v>610</v>
+        <v>571</v>
       </c>
       <c r="Q52">
         <v>0</v>
       </c>
       <c r="R52" t="s">
-        <v>530</v>
+        <v>622</v>
       </c>
       <c r="S52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T52" t="s">
+        <v>674</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52" t="s">
         <v>723</v>
       </c>
-      <c r="U52">
-        <v>0</v>
-      </c>
-      <c r="V52" t="s">
-        <v>530</v>
-      </c>
       <c r="W52">
         <v>0</v>
       </c>
       <c r="X52" t="s">
-        <v>530</v>
+        <v>769</v>
       </c>
     </row>
-    <row r="53" spans="1:24">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>28</v>
       </c>
@@ -6767,368 +6610,368 @@
         <v>37</v>
       </c>
       <c r="D53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E53" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F53">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H53" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="I53" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="J53" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="K53">
         <v>3</v>
       </c>
       <c r="L53" t="s">
-        <v>486</v>
+        <v>457</v>
       </c>
       <c r="M53">
         <v>2</v>
       </c>
       <c r="N53" t="s">
-        <v>550</v>
+        <v>516</v>
       </c>
       <c r="O53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P53" t="s">
-        <v>611</v>
+        <v>572</v>
       </c>
       <c r="Q53">
         <v>0</v>
       </c>
       <c r="R53" t="s">
-        <v>667</v>
+        <v>623</v>
       </c>
       <c r="S53">
         <v>0</v>
       </c>
       <c r="T53" t="s">
-        <v>724</v>
+        <v>675</v>
       </c>
       <c r="U53">
         <v>0</v>
       </c>
       <c r="V53" t="s">
-        <v>777</v>
+        <v>715</v>
       </c>
       <c r="W53">
         <v>0</v>
       </c>
       <c r="X53" t="s">
-        <v>828</v>
+        <v>770</v>
       </c>
     </row>
-    <row r="54" spans="1:24">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B54" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C54" t="s">
         <v>37</v>
       </c>
       <c r="D54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E54" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="F54">
         <v>6</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="H54" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="I54" t="s">
-        <v>358</v>
+        <v>315</v>
       </c>
       <c r="J54" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="K54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L54" t="s">
-        <v>487</v>
+        <v>442</v>
       </c>
       <c r="M54">
         <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>551</v>
+        <v>501</v>
       </c>
       <c r="O54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P54" t="s">
-        <v>612</v>
+        <v>558</v>
       </c>
       <c r="Q54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R54" t="s">
-        <v>642</v>
+        <v>624</v>
       </c>
       <c r="S54">
         <v>0</v>
       </c>
       <c r="T54" t="s">
-        <v>696</v>
+        <v>676</v>
       </c>
       <c r="U54">
         <v>0</v>
       </c>
       <c r="V54" t="s">
-        <v>754</v>
+        <v>713</v>
       </c>
       <c r="W54">
         <v>0</v>
       </c>
       <c r="X54" t="s">
-        <v>803</v>
+        <v>759</v>
       </c>
     </row>
-    <row r="55" spans="1:24">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B55" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C55" t="s">
         <v>37</v>
       </c>
       <c r="D55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E55" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F55">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="H55" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="I55" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="J55" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="K55">
         <v>3</v>
       </c>
       <c r="L55" t="s">
-        <v>488</v>
+        <v>458</v>
       </c>
       <c r="M55">
         <v>2</v>
       </c>
       <c r="N55" t="s">
-        <v>552</v>
+        <v>517</v>
       </c>
       <c r="O55">
         <v>1</v>
       </c>
       <c r="P55" t="s">
-        <v>613</v>
+        <v>573</v>
       </c>
       <c r="Q55">
         <v>0</v>
       </c>
       <c r="R55" t="s">
-        <v>668</v>
+        <v>593</v>
       </c>
       <c r="S55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T55" t="s">
-        <v>725</v>
+        <v>677</v>
       </c>
       <c r="U55">
         <v>0</v>
       </c>
       <c r="V55" t="s">
-        <v>778</v>
+        <v>593</v>
       </c>
       <c r="W55">
         <v>0</v>
       </c>
       <c r="X55" t="s">
-        <v>829</v>
+        <v>593</v>
       </c>
     </row>
-    <row r="56" spans="1:24">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C56" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E56" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F56">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="H56" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="I56" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="J56" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="K56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L56" t="s">
-        <v>489</v>
+        <v>459</v>
       </c>
       <c r="M56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N56" t="s">
-        <v>553</v>
+        <v>518</v>
       </c>
       <c r="O56">
         <v>0</v>
       </c>
       <c r="P56" t="s">
-        <v>614</v>
+        <v>574</v>
       </c>
       <c r="Q56">
         <v>0</v>
       </c>
       <c r="R56" t="s">
-        <v>669</v>
+        <v>625</v>
       </c>
       <c r="S56">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T56" t="s">
-        <v>726</v>
+        <v>678</v>
       </c>
       <c r="U56">
         <v>0</v>
       </c>
       <c r="V56" t="s">
-        <v>779</v>
+        <v>724</v>
       </c>
       <c r="W56">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X56" t="s">
-        <v>830</v>
+        <v>771</v>
       </c>
     </row>
-    <row r="57" spans="1:24">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B57" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C57" t="s">
         <v>37</v>
       </c>
       <c r="D57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E57" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F57">
         <v>6</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="H57" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="I57" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="J57" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="K57">
         <v>3</v>
       </c>
       <c r="L57" t="s">
-        <v>490</v>
+        <v>460</v>
       </c>
       <c r="M57">
         <v>2</v>
       </c>
       <c r="N57" t="s">
-        <v>554</v>
+        <v>519</v>
       </c>
       <c r="O57">
         <v>1</v>
       </c>
       <c r="P57" t="s">
-        <v>615</v>
+        <v>575</v>
       </c>
       <c r="Q57">
         <v>0</v>
       </c>
       <c r="R57" t="s">
-        <v>670</v>
+        <v>626</v>
       </c>
       <c r="S57">
         <v>0</v>
       </c>
       <c r="T57" t="s">
-        <v>727</v>
+        <v>679</v>
       </c>
       <c r="U57">
         <v>0</v>
       </c>
       <c r="V57" t="s">
-        <v>780</v>
+        <v>725</v>
       </c>
       <c r="W57">
         <v>0</v>
       </c>
       <c r="X57" t="s">
-        <v>831</v>
+        <v>772</v>
       </c>
     </row>
-    <row r="58" spans="1:24">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B58" t="s">
         <v>34</v>
@@ -7137,736 +6980,367 @@
         <v>37</v>
       </c>
       <c r="D58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E58" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F58">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="H58" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="I58" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="J58" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="K58">
         <v>3</v>
       </c>
       <c r="L58" t="s">
-        <v>491</v>
+        <v>461</v>
       </c>
       <c r="M58">
         <v>2</v>
       </c>
       <c r="N58" t="s">
-        <v>555</v>
+        <v>520</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P58" t="s">
-        <v>616</v>
+        <v>576</v>
       </c>
       <c r="Q58">
         <v>0</v>
       </c>
       <c r="R58" t="s">
-        <v>671</v>
+        <v>627</v>
       </c>
       <c r="S58">
         <v>0</v>
       </c>
       <c r="T58" t="s">
-        <v>728</v>
+        <v>680</v>
       </c>
       <c r="U58">
         <v>0</v>
       </c>
       <c r="V58" t="s">
-        <v>772</v>
+        <v>726</v>
       </c>
       <c r="W58">
         <v>0</v>
       </c>
       <c r="X58" t="s">
-        <v>832</v>
+        <v>773</v>
       </c>
     </row>
-    <row r="59" spans="1:24">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C59" t="s">
         <v>37</v>
       </c>
       <c r="D59" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E59" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F59">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="H59" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="I59" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="J59" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
       <c r="K59">
         <v>3</v>
       </c>
       <c r="L59" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="M59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N59" t="s">
-        <v>540</v>
+        <v>521</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P59" t="s">
-        <v>602</v>
+        <v>577</v>
       </c>
       <c r="Q59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R59" t="s">
-        <v>672</v>
+        <v>628</v>
       </c>
       <c r="S59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T59" t="s">
-        <v>729</v>
+        <v>681</v>
       </c>
       <c r="U59">
         <v>0</v>
       </c>
       <c r="V59" t="s">
-        <v>770</v>
+        <v>628</v>
       </c>
       <c r="W59">
         <v>0</v>
       </c>
       <c r="X59" t="s">
-        <v>821</v>
+        <v>628</v>
       </c>
     </row>
-    <row r="60" spans="1:24">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C60" t="s">
         <v>37</v>
       </c>
       <c r="D60" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E60" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F60">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="H60" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="I60" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="J60" t="s">
-        <v>427</v>
+        <v>403</v>
       </c>
       <c r="K60">
         <v>3</v>
       </c>
       <c r="L60" t="s">
-        <v>492</v>
+        <v>463</v>
       </c>
       <c r="M60">
         <v>2</v>
       </c>
       <c r="N60" t="s">
-        <v>556</v>
+        <v>522</v>
       </c>
       <c r="O60">
         <v>1</v>
       </c>
       <c r="P60" t="s">
-        <v>617</v>
+        <v>578</v>
       </c>
       <c r="Q60">
         <v>0</v>
       </c>
       <c r="R60" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="S60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T60" t="s">
-        <v>730</v>
+        <v>682</v>
       </c>
       <c r="U60">
         <v>0</v>
       </c>
       <c r="V60" t="s">
-        <v>639</v>
+        <v>727</v>
       </c>
       <c r="W60">
         <v>0</v>
       </c>
       <c r="X60" t="s">
-        <v>639</v>
+        <v>774</v>
       </c>
     </row>
-    <row r="61" spans="1:24">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D61" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E61" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F61">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="H61" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="I61" t="s">
-        <v>364</v>
+        <v>314</v>
       </c>
       <c r="J61" t="s">
-        <v>428</v>
+        <v>404</v>
       </c>
       <c r="K61">
         <v>3</v>
       </c>
       <c r="L61" t="s">
-        <v>493</v>
+        <v>464</v>
       </c>
       <c r="M61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N61" t="s">
-        <v>557</v>
+        <v>523</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P61" t="s">
-        <v>618</v>
+        <v>579</v>
       </c>
       <c r="Q61">
         <v>0</v>
       </c>
       <c r="R61" t="s">
-        <v>673</v>
+        <v>630</v>
       </c>
       <c r="S61">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T61" t="s">
-        <v>731</v>
+        <v>683</v>
       </c>
       <c r="U61">
         <v>0</v>
       </c>
       <c r="V61" t="s">
-        <v>781</v>
+        <v>728</v>
       </c>
       <c r="W61">
         <v>0</v>
       </c>
       <c r="X61" t="s">
-        <v>833</v>
+        <v>775</v>
       </c>
     </row>
-    <row r="62" spans="1:24">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B62" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C62" t="s">
         <v>37</v>
       </c>
       <c r="D62" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E62" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F62">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="H62" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="I62" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="J62" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="K62">
         <v>3</v>
       </c>
       <c r="L62" t="s">
-        <v>494</v>
+        <v>465</v>
       </c>
       <c r="M62">
         <v>2</v>
       </c>
       <c r="N62" t="s">
-        <v>558</v>
+        <v>524</v>
       </c>
       <c r="O62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P62" t="s">
-        <v>619</v>
+        <v>580</v>
       </c>
       <c r="Q62">
         <v>0</v>
       </c>
       <c r="R62" t="s">
-        <v>674</v>
+        <v>631</v>
       </c>
       <c r="S62">
         <v>0</v>
       </c>
       <c r="T62" t="s">
-        <v>732</v>
+        <v>684</v>
       </c>
       <c r="U62">
         <v>0</v>
       </c>
       <c r="V62" t="s">
-        <v>782</v>
+        <v>729</v>
       </c>
       <c r="W62">
         <v>0</v>
       </c>
       <c r="X62" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24">
-      <c r="A63" t="s">
-        <v>30</v>
-      </c>
-      <c r="B63" t="s">
-        <v>34</v>
-      </c>
-      <c r="C63" t="s">
-        <v>37</v>
-      </c>
-      <c r="D63" t="s">
-        <v>117</v>
-      </c>
-      <c r="E63" t="s">
-        <v>181</v>
-      </c>
-      <c r="F63">
-        <v>6</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="H63" t="s">
-        <v>313</v>
-      </c>
-      <c r="I63" t="s">
-        <v>366</v>
-      </c>
-      <c r="J63" t="s">
-        <v>430</v>
-      </c>
-      <c r="K63">
-        <v>3</v>
-      </c>
-      <c r="L63" t="s">
-        <v>495</v>
-      </c>
-      <c r="M63">
-        <v>2</v>
-      </c>
-      <c r="N63" t="s">
-        <v>559</v>
-      </c>
-      <c r="O63">
-        <v>1</v>
-      </c>
-      <c r="P63" t="s">
-        <v>620</v>
-      </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
-      <c r="R63" t="s">
-        <v>675</v>
-      </c>
-      <c r="S63">
-        <v>0</v>
-      </c>
-      <c r="T63" t="s">
-        <v>733</v>
-      </c>
-      <c r="U63">
-        <v>0</v>
-      </c>
-      <c r="V63" t="s">
-        <v>783</v>
-      </c>
-      <c r="W63">
-        <v>0</v>
-      </c>
-      <c r="X63" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24">
-      <c r="A64" t="s">
-        <v>31</v>
-      </c>
-      <c r="B64" t="s">
-        <v>34</v>
-      </c>
-      <c r="C64" t="s">
-        <v>37</v>
-      </c>
-      <c r="D64" t="s">
-        <v>118</v>
-      </c>
-      <c r="E64" t="s">
-        <v>182</v>
-      </c>
-      <c r="F64">
-        <v>12</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="H64" t="s">
-        <v>314</v>
-      </c>
-      <c r="I64" t="s">
-        <v>367</v>
-      </c>
-      <c r="J64" t="s">
-        <v>431</v>
-      </c>
-      <c r="K64">
-        <v>3</v>
-      </c>
-      <c r="L64" t="s">
-        <v>496</v>
-      </c>
-      <c r="M64">
-        <v>2</v>
-      </c>
-      <c r="N64" t="s">
-        <v>560</v>
-      </c>
-      <c r="O64">
-        <v>4</v>
-      </c>
-      <c r="P64" t="s">
-        <v>621</v>
-      </c>
-      <c r="Q64">
-        <v>0</v>
-      </c>
-      <c r="R64" t="s">
-        <v>676</v>
-      </c>
-      <c r="S64">
-        <v>3</v>
-      </c>
-      <c r="T64" t="s">
-        <v>734</v>
-      </c>
-      <c r="U64">
-        <v>0</v>
-      </c>
-      <c r="V64" t="s">
-        <v>676</v>
-      </c>
-      <c r="W64">
-        <v>0</v>
-      </c>
-      <c r="X64" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24">
-      <c r="A65" t="s">
-        <v>31</v>
-      </c>
-      <c r="B65" t="s">
-        <v>32</v>
-      </c>
-      <c r="C65" t="s">
-        <v>37</v>
-      </c>
-      <c r="D65" t="s">
-        <v>119</v>
-      </c>
-      <c r="E65" t="s">
-        <v>183</v>
-      </c>
-      <c r="F65">
-        <v>6</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="H65" t="s">
-        <v>315</v>
-      </c>
-      <c r="I65" t="s">
-        <v>368</v>
-      </c>
-      <c r="J65" t="s">
-        <v>432</v>
-      </c>
-      <c r="K65">
-        <v>3</v>
-      </c>
-      <c r="L65" t="s">
-        <v>497</v>
-      </c>
-      <c r="M65">
-        <v>2</v>
-      </c>
-      <c r="N65" t="s">
-        <v>561</v>
-      </c>
-      <c r="O65">
-        <v>1</v>
-      </c>
-      <c r="P65" t="s">
-        <v>622</v>
-      </c>
-      <c r="Q65">
-        <v>0</v>
-      </c>
-      <c r="R65" t="s">
-        <v>677</v>
-      </c>
-      <c r="S65">
-        <v>0</v>
-      </c>
-      <c r="T65" t="s">
-        <v>735</v>
-      </c>
-      <c r="U65">
-        <v>0</v>
-      </c>
-      <c r="V65" t="s">
-        <v>784</v>
-      </c>
-      <c r="W65">
-        <v>0</v>
-      </c>
-      <c r="X65" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24">
-      <c r="A66" t="s">
-        <v>31</v>
-      </c>
-      <c r="B66" t="s">
-        <v>35</v>
-      </c>
-      <c r="C66" t="s">
-        <v>55</v>
-      </c>
-      <c r="D66" t="s">
-        <v>120</v>
-      </c>
-      <c r="E66" t="s">
-        <v>184</v>
-      </c>
-      <c r="F66">
-        <v>6</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="H66" t="s">
-        <v>316</v>
-      </c>
-      <c r="I66" t="s">
-        <v>337</v>
-      </c>
-      <c r="J66" t="s">
-        <v>433</v>
-      </c>
-      <c r="K66">
-        <v>3</v>
-      </c>
-      <c r="L66" t="s">
-        <v>498</v>
-      </c>
-      <c r="M66">
-        <v>2</v>
-      </c>
-      <c r="N66" t="s">
-        <v>562</v>
-      </c>
-      <c r="O66">
-        <v>1</v>
-      </c>
-      <c r="P66" t="s">
-        <v>623</v>
-      </c>
-      <c r="Q66">
-        <v>0</v>
-      </c>
-      <c r="R66" t="s">
-        <v>678</v>
-      </c>
-      <c r="S66">
-        <v>0</v>
-      </c>
-      <c r="T66" t="s">
-        <v>736</v>
-      </c>
-      <c r="U66">
-        <v>0</v>
-      </c>
-      <c r="V66" t="s">
-        <v>785</v>
-      </c>
-      <c r="W66">
-        <v>0</v>
-      </c>
-      <c r="X66" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="67" spans="1:24">
-      <c r="A67" t="s">
-        <v>31</v>
-      </c>
-      <c r="B67" t="s">
-        <v>33</v>
-      </c>
-      <c r="C67" t="s">
-        <v>37</v>
-      </c>
-      <c r="D67" t="s">
-        <v>121</v>
-      </c>
-      <c r="E67" t="s">
-        <v>185</v>
-      </c>
-      <c r="F67">
-        <v>5</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="H67" t="s">
-        <v>317</v>
-      </c>
-      <c r="I67" t="s">
-        <v>369</v>
-      </c>
-      <c r="J67" t="s">
-        <v>434</v>
-      </c>
-      <c r="K67">
-        <v>3</v>
-      </c>
-      <c r="L67" t="s">
-        <v>499</v>
-      </c>
-      <c r="M67">
-        <v>2</v>
-      </c>
-      <c r="N67" t="s">
-        <v>563</v>
-      </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-      <c r="P67" t="s">
-        <v>624</v>
-      </c>
-      <c r="Q67">
-        <v>0</v>
-      </c>
-      <c r="R67" t="s">
-        <v>679</v>
-      </c>
-      <c r="S67">
-        <v>0</v>
-      </c>
-      <c r="T67" t="s">
-        <v>737</v>
-      </c>
-      <c r="U67">
-        <v>0</v>
-      </c>
-      <c r="V67" t="s">
-        <v>786</v>
-      </c>
-      <c r="W67">
-        <v>0</v>
-      </c>
-      <c r="X67" t="s">
-        <v>838</v>
+        <v>776</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
     <hyperlink ref="G3" r:id="rId2"/>
@@ -7929,12 +7403,8 @@
     <hyperlink ref="G60" r:id="rId59"/>
     <hyperlink ref="G61" r:id="rId60"/>
     <hyperlink ref="G62" r:id="rId61"/>
-    <hyperlink ref="G63" r:id="rId62"/>
-    <hyperlink ref="G64" r:id="rId63"/>
-    <hyperlink ref="G65" r:id="rId64"/>
-    <hyperlink ref="G66" r:id="rId65"/>
-    <hyperlink ref="G67" r:id="rId66"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId62"/>
 </worksheet>
 </file>
--- a/resource/04_UPLOAD.xlsx
+++ b/resource/04_UPLOAD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="840">
   <si>
     <t>날짜</t>
   </si>
@@ -88,6 +88,9 @@
     <t>cr_7_reason</t>
   </si>
   <si>
+    <t>2023-10-10</t>
+  </si>
+  <si>
     <t>2023-10-09</t>
   </si>
   <si>
@@ -109,15 +112,15 @@
     <t>2023-10-03</t>
   </si>
   <si>
+    <t>타사 동향 및 이벤트</t>
+  </si>
+  <si>
+    <t>퇴직연금 제도</t>
+  </si>
+  <si>
     <t>퇴직연금 상품</t>
   </si>
   <si>
-    <t>퇴직연금 제도</t>
-  </si>
-  <si>
-    <t>타사 동향 및 이벤트</t>
-  </si>
-  <si>
     <t>사회 동향</t>
   </si>
   <si>
@@ -205,6 +208,15 @@
     <t>국민연금</t>
   </si>
   <si>
+    <t>연금이나 받으며 팔자 좋게 사는 꿈, 와장창 깨졌다</t>
+  </si>
+  <si>
+    <t>“GDP 11%도 공포 수준 아냐” “그걸 감당할 인구, 너무 적다”</t>
+  </si>
+  <si>
+    <t>[창간설문] 세액공제 상품 담고 성장주 투자… 재테크 수익률 7% 노린다</t>
+  </si>
+  <si>
     <t>퇴직연금도 커스터마이징… 실적배당형으로 다변화해야</t>
   </si>
   <si>
@@ -214,18 +226,18 @@
     <t>예금자보호한도 5000만원 유지 가닥…금융위 시장상황 등 고려</t>
   </si>
   <si>
+    <t>예금자보호한도 현행 유지될 듯…금융위 “시장상황 등 종합 고려”</t>
+  </si>
+  <si>
+    <t>“연금 수령액 늘릴 재원 불투명” vs “노후소득 보장이 본래의 목적”[인사...</t>
+  </si>
+  <si>
     <t>“아프니까 사장이다”…녹다운 자영업자 [벼랑 끝에 선 자영업]</t>
   </si>
   <si>
-    <t>예금자보호한도 현행 유지될 듯…금융위 “시장상황 등 종합 고려”</t>
-  </si>
-  <si>
     <t>“미래세대 부담? 공포 수준 아니다” vs “감당할 인구가 너무 적다”[국민연...</t>
   </si>
   <si>
-    <t>“연금 수령액 늘릴 재원 불투명” vs “노후소득 보장이 본래의 목적”[인사...</t>
-  </si>
-  <si>
     <t>예금자보호한도 현행 유지될듯…금융위 시장상황 등 종합 고려</t>
   </si>
   <si>
@@ -394,27 +406,36 @@
     <t>박종길 “근로자·노무제공자 등 1명이라도 고용 시 고용·산재보험 가입 당부...</t>
   </si>
   <si>
+    <t>국민연금 운용방식을 부과식으로 바꾸는 방안이 거론되고 있으며, 퇴직한 공무원과 퇴직교사의 노후와 국민연금공무원사학연금의 차이로 인해 격차가 벌어지고 있다.</t>
+  </si>
+  <si>
+    <t>국회 연금개혁특별위원회가 활동기한을 내년 5월까지 연장하기로 했기 때문에 국민연금 개혁은 미뤄질 조짐이다. 국민연금 가입기간이 긴 노동시장 중심부의 노동자들이 대체율 인상의 혜택을 가장 크게 입을 것이기 때문에 가입기간이 짧은 불안정 노동자들을 위해 재정이 우선적으로 쓰여야 한다고 본다. 퇴직연금 개혁과 소득대체율 인상에 대한 논의가 이뤄지고 있다.</t>
+  </si>
+  <si>
+    <t>금리 인상에 채권금리 5 육박 선진국 우량채 담아라금융권의 디지털 흐름이 가속화되고 있다. 금융소비자의 비대면금융 수요가 늘면서 지난해 말 인터넷 뱅킹 모바일 포함 등록 고객 수는 2억명을 넘었다. 인터넷뱅킹의 이용금액은 하루 평균 76조원 대출신청 서비스 이용금액만 일평균 1조원 돌파했다.</t>
+  </si>
+  <si>
     <t>KB손해보험은 퇴직연금 커스터마이징을 위해 비대면 시스템을 구축하고 자산배분컨설팅을 제공한다. KB손해보험은 고용노동부 평가에서 우수사업자로 선정되었고, 연금자산컨설팅파트를 신설하여 질적 서비스 개선에 주력하고 있다.</t>
   </si>
   <si>
     <t>KB손해보험은 퇴직연금 커스터마이징을 위해 비대면 시스템을 구축하고 자산배분컨설팅을 제공하는 평가를 받았다. KB손해보험은 퇴직연금 상품 시장의 질적 개선을 추구하고 상품 다변화를 추진할 계획이다.</t>
   </si>
   <si>
-    <t>예금자 보호 한도 상향 조정이 불발될 전망. 금융위원회는 상향 여부를 검토할 필요가 있다고 밝혔다. 보호 한도가 5000만 원으로 유지되더라도 별도 한도 적용은 확대되는 추세.</t>
+    <t>예금자 보호 한도 상향 조정이 불발될 전망. 금융위원회는 상향 여부를 검토할 필요가 있다고 밝혔다. 보호 한도가 유지되더라도 별도 한도 적용은 확대되는 추세.</t>
+  </si>
+  <si>
+    <t>금융위원회는 예금보험제도 개선 검토안에서 보호 한도를 상향할 필요가 있다고 밝혔습니다. 한편 보호 한도가 5천만 원으로 유지되더라도 사회보장적 상품 등에 대한 별도 한도 적용은 지속적으로 확대되는 추세입니다. 정치권에서는 예금자 보호 한도가 경제 규모에 맞게 현실화해야 한다는 의견이 나오고 있습니다.</t>
+  </si>
+  <si>
+    <t>국민연금의 소득대체율을 현행 40에서 50으로 인상해야 노후 최소 생활비를 보장할 수 있다. 청년세대의 형평성을 제고하기 위해서도 소득대체율을 인상해야 한다. 국민연금으로는 5년 후에도 그리고 10년 후에도 노인 빈곤을 해소하지 못하게 될 것이다.</t>
   </si>
   <si>
     <t>자영업자들 사이에선 폐업밖에 답이 없다는 말이 나돈다. 한국의 자영업자 비율은 높으며, 경쟁이 심화되고 경영난을 겪고 있다. 고령층의 자영업 진출 증가 경향이 지속 확대될 것으로 보인다.</t>
   </si>
   <si>
-    <t>금융위원회는 예금보험제도 개선 검토안에서 보호 한도를 상향할 필요가 있다고 밝혔습니다. 한편 보호 한도가 5천만 원으로 유지되더라도 사회보장적 상품 등에 대한 별도 한도 적용은 지속적으로 확대되는 추세입니다. 정치권에서는 예금자 보호 한도가 경제 규모에 맞게 현실화해야 한다는 의견이 나오고 있습니다.</t>
-  </si>
-  <si>
     <t>국회 연금개혁특별위원회가 활동기한을 내년 5월까지 연장하기로 했기 때문에 국민연금 개혁이 미뤄질 조짐이다. 국민연금 가입기간이 긴 노동시장 중심부의 노동자들이 대체율 인상의 혜택을 가장 크게 입을 것이기 때문에 재정을 투입하더라도 그 돈이 소득대체율 인상에 우선적으로 쓰이는 것에는 찬성하지 않는다. 가입기간이 짧은 불안정 노동자 저소득층에게 가입기간을 늘려주는 조치 크레딧 제도를 의미.</t>
   </si>
   <si>
-    <t>국민연금의 소득대체율을 현행 40에서 50으로 인상해야 노후 최소 생활비를 보장할 수 있다. 청년세대의 형평성을 제고하기 위해서도 소득대체율을 인상해야 한다. 국민연금으로는 5년 후에도 그리고 10년 후에도 노인 빈곤을 해소하지 못하게 될 것이다.</t>
-  </si>
-  <si>
     <t>국회에 예보 제도 개선안 보고상향 논의 향후 검토한도 상향 시 저축은행으로 자금 이동일부 소형사 충격 가능성</t>
   </si>
   <si>
@@ -583,6 +604,15 @@
     <t>근로복지공단은 근로자 노무제공자 특수고용직 예술인 등을 고용 시 고용산재보험 가입을 당부하고, 한 달 동안 집중 홍보기간을 운영한다. 이 기간에 다양한 행사에 참여해 고용산재보험 가입을 독려할 계획이다.</t>
   </si>
   <si>
+    <t>https://n.news.naver.com/mnews/article/047/0002408776?sid=103</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/033/0000046285?sid=101</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/417/0000953624?sid=101</t>
+  </si>
+  <si>
     <t>https://n.news.naver.com/mnews/article/014/0005083075?sid=101</t>
   </si>
   <si>
@@ -592,18 +622,18 @@
     <t>https://n.news.naver.com/mnews/article/011/0004246798?sid=101</t>
   </si>
   <si>
+    <t>https://n.news.naver.com/mnews/article/056/0011578305?sid=101</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/020/0003524381?sid=110</t>
+  </si>
+  <si>
     <t>https://n.news.naver.com/mnews/article/050/0000068692?sid=101</t>
   </si>
   <si>
-    <t>https://n.news.naver.com/mnews/article/056/0011578305?sid=101</t>
-  </si>
-  <si>
     <t>https://n.news.naver.com/mnews/article/032/0003253584?sid=101</t>
   </si>
   <si>
-    <t>https://n.news.naver.com/mnews/article/020/0003524381?sid=110</t>
-  </si>
-  <si>
     <t>https://n.news.naver.com/mnews/article/001/0014249167?sid=101</t>
   </si>
   <si>
@@ -772,6 +802,15 @@
     <t>https://www.viva100.com/main/view.php?key=20231003010000239</t>
   </si>
   <si>
+    <t xml:space="preserve"> 노후 필수요소 돈건강여가관계 어떻게 지킬까주산 주판의 마지막 세대이자 컴맹 제1세대 부모에게 복종한 마지막 세대이자 아이에게 순종한 첫 세대 부모를 부양했지만 부모로서 부양 못 받는 첫 세대 뼈 빠지게 일하고 구조조정 된 세대인 베이비부머의 이야기를 전합니다. 기자말 연금이나 받으면서 팔자 좋게 살려는 꿈은 와장창 깨졌다. 픽사베이도대체 돈이 얼마나 있어야 제대로 살 수 있을까.최근 언급되는 평균 수명을 고려하면 건강만 유지한다면 90세까지도 살고 현재 30대들은 100세 시대 주인공이 된다. 오래 사는 데 필요한 건 결국 돈이다. 짧고 굵게가 아닌 길고 가느다랗게 재테크하지 않으면 은퇴 이후 쪽박 찰 공산이 크다는 뜻이다.더구나 2050년께 우리나라 65세 이상 고령인구가 40를 넘을 거라는 예상에 따르면 노후대책은 발등의 불이다. 하지만 주변에 노후준비 잘하고 있느냐고 물으면 대다수가 손사래를 치거나 고개를 가로젓는다.노후에 중요한 재건여대언젠가 국민연금공단에서 한 강좌를 들은 적이 있다. 강사는 노후에 재건여대 네 가지를 잘해야 한다고 강조했다. 재는 돈 건은 건강 여는 여가나 취미 대는 대인관계를 뜻한다. 말을 참 잘도 지어냈다는 생각이 들었다. 그는 국민연금 건강보험 고용보험 기초연금 잘 타 먹는 방법도 귀띔했다. 거기까진 좋았다. 그런데 잘 나가다가 뒤통수 때리는 소릴 했다.낼 사람은 적은데 받을 사람만 많아요. 그게 걱정입니다.중산층 기준으로 노후를 위해 준비해야 하는 자금은 시간이 지날수록 많아지고 있습니다. 국가에서 운영하는 국민연금 생명보험사나 은행 등에서 판매하는 개인연금 퇴직 시 일시금으로 받거나 연금형으로 받을 수 있는 퇴직연금 등 연금3총사로도 힘듭니다. 30년 정도 납입해야 겨우 퇴직 후 월 100만 원 조금 넘는 금액을 받아요.강사의 말을 듣고 그럼 어쩌라고라는 말이 튀어나올 뻔했다. 나는 어떡하지 머릿속의 계산기를 두드렸다.내가 지금까지 납입한 국민연금은 모두 301개월 대략 26년 동안 5000만 원이 조금 넘는다. 가입기간 소득 평균액은 약 340만 원. 현재 가치로 본 예상연금액 2034년 4월은 세후 월 104만 6760원이고 미래가치로 본 예상연금액은 최저 149만 1510원 최고 179만 60원쯤 된다. 아내는 14년 정도 적립했으니 30만40만 원을 받을 수 있다. 둘이 합하면 월 150만 원 헉 큰일이다.강의가 끝나고 집으로 오자마자 지난 2022년 11월 가계부를 확인했다.식비 79만 8000원 문화생활비 영화 책 구입 등 10만 원 의료비 8만 7900원 통신비 20만 원 의류미용 16만 8000원 차량유지비 교통비 25만 원 보험 보장성보험건보의료보험 실비 50만 원 주거비 가스비전기세관리비 43만 3000원 사회생활비 부모님 용돈의료비 경조사 이자비용 주택담보대출 70만 원원금 70만 원 각종 세금 30만 원 연360만 원언뜻 계산해보니 423만 원이다. 이 정도면 대략난감이다. 연금을 받아도 한 달에 200만 원이 넘게 부족하다. 위 목록 중 뺄 것 빼고 허리띠 조일 것 조이더라도 턱없이 모자란 금액이다.아예 식음 전폐를 해야 하나 부모님 용돈을 끊어야 하나 대출비용 주거비를 안낼 수 있나. 그렇다고 스마트폰 끊고 자동차를 팔 수는 없잖나.조용히 한숨이 쉬어졌다. 결국 늙어서도 벌지 않으면 파산 파탄 황혼이혼에 이를 수도 있다는 결론이 내려졌다.아 망했다.머리가 하얘졌다. 이러니 연금을 받아봤자 목돈이 아닌 용돈 수준이라는 자조가 나오는 것이다. 누구 탓을 하는 게 아니다. 그냥 답답하다. 게다가 통장 잔고는 바닥이다.자식들 키우고 생활비로 쓰고 빚잔치를 하다 보니 30년 직장생활 동안 플러스 잔고를 본 기억이 없다. 심지어 마이너스 통장들을 굴리며 아등바등 살았다. 당연히 저축은 엄두도 내지 못했다. 카드로 돌려막고 대출로 당겨쓰고 담보로 끌어 쓴 것 투성이다. 이는 빚 내서 빚 갚는 구조다. 연금이나 받으면서 팔자 좋게 살려는 꿈은 와장창 깨졌다.국민연금 정답 있을까 100세시대 연금만으로 노후를 대비할 수 없다. 픽사베이청년층이든 노년층이든 연금에 대한 충성도는 약하다. 이러다가 국민연금 못 받게 되는 것 아냐 정작 우리가 받을 시기엔 빈 깡통 받는 거 아냐는 볼멘소리가 터져 나온다. 연금은 고갈되는 게 아니라 소진된다. 기금이 줄어드는 건 맞지만 다른 자금으로 메꿀 수 있고 국가재정에서 돈을 끌어와 지급할 수 있다. 그런데 이 또한 결국 세금을 투입한다는 뜻이니 국민들이 좋아할 리 없다.국민연금 운용방식을 현재의 적립식에서 부과식으로 바꾸는 방안도 거론된다. 적립식은 일하는 동안 일정금액을 차곡차곡 쌓아 은퇴 후에 받는 것이고 부과식은 현재의 근로세대가 납부하는 연금보험료를 현재 퇴직세대의 연금지급에 필요한 재원으로 운용하는 방식이다.부과식의 경우 노인부양률이 낮고 생산성이 높아 근로자의 실질임금이 높은 사회에서 유리하다. 장점은 세대 간 유대를 강화할 수 있다는 점이지만 노령화율이 높아질수록 유지하기 쉽지 않다.현재 청년들은 국민연금을 기울어진 운동장으로 인식한다. 지금은 덜 내고 더 받는 구조인데 뒤로 갈수록 더 내고 덜 받는 현상이 심화된다는 것이다. 개인적으로 더 내고 덜 받는 방식 덜 내고 더 받는 방식 아니면 내는 쪽 따로 받는 쪽 따로 있는 방안들은 복지의 허점이자 어딘가 손해 보는 장사 같다. 본전 생각도 나고 내 돈 돌리도라는 푸념도 나올 수 있다.얼마 전 퇴직한 공무원 지인과 퇴직교사를 우연히 만났다. 골프를 치고 오는 것 같았다. 내 행색은 막노동을 끝내고 난 뒤라 말이 아니었다. 피할까 망설이다가 맞닥뜨리니 더 어색했다. 길게 붙잡을 것 같은 포즈를 취하기에 안부만 묻고 도망치듯 돌아섰다.솔직히 그들이 부러웠다. 둘은 골프채를 들고 그라운드 가고 나는 삽 들고 일하러 가는 모습이 겹쳤기 때문이다. 국민연금공무원사학연금의 차이였을까. 꽤 근사한 그들의 노후와 나의 노년은 벌써 큰 격차가 벌어지고 있었다. 물론 우린 월급에서 많이 떼였으니 그만큼 받을만하다고 항변하면 할 말은 없다. 그러니 부러울 뿐이다. 결국 탄식이 새어 나왔다.아 연금 도대체 너를 믿어도 되니</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 국민연금 개혁은 올해에도 물 건너가는 것일까. 연금개혁의 시간표가 다시 미뤄질 조짐이다. 국회 연금개혁특별위원회가 활동기한을 내년 5월까지 연장하기로 했기 때문이다. 인기 없는 연금개혁 속성을 감안할 때 내년 4월 총선 이후에나 본격 논의될 가능성이 높아졌다.국민연금 개혁은 2007년 이후 번번이 무산돼왔다. 지난 16년간 정부와 정당들은 전문가들의 논쟁 뒤에 숨은 채 뒷짐만 져왔다. 정부와 정당이 각자의 입장을 내놓고 여론을 수렴하는 과정을 회피하는 동안 전문가들의 열띤 논쟁은 대중에게 제대로 소개되지 못했다.주간경향은 국민연금을 두고 이어져 온 소득대체율 인상론과 재정안정론의 끝장토론 자리를 마련했다. 소득대체율 인상론 측의 주은선 경기대 사회복지학과 교수와 재정안정론 측의 오건호 내가만드는복지국가 정책위원장이 지난 10월 4일 경향신문사 여적향에서 논쟁을 벌였다.국민연금 개혁해야 하는 이유는국민연금 개혁이 필요한 이유에 대한 생각부터 양측이 다른 것으로 안다. 왜 개혁이 필요한지를 각자 말해달라.오건호 내가만드는복지국가 정책위원장 이하 오 국민연금이 지속가능성을 가지기 위해서는 고강도 재정안정화가 필요하다는 것이 최근 5차 재정계산서도 확인됐다. 현재 젊은 세대들이 국민연금을 불신하는 이유는 지속가능성에 대한 불안 때문이라고 생각한다. 청년들에게 비전을 보여줄 필요가 있다. 물론 공적연금의 존재 목적이 노후소득 보장인 만큼 노후소득 보장을 강화하는 제도개혁 또한 필요하다. 하지만 어떤 방식이 적절할지는 서로 이견이 있다. 서로 잘 논의해 앞으로 조정이 되길 바란다. 재정계산은 현 보험료와 연금액을 유지할 때 기금이 언제 소진되는지 등을 보여주는 계산으로 국민연금법에 따라 5년마다 하도록 돼 있다. 올해 5차 계산에선 현 제도를 그대로 유지할 경우 기금이 2055년 소진되고 그해 걷어서 그해 연금액을 충당할 경우 미래 청년세대 보험료율은 최대 35까지 오른다는 결과가 나왔다편집자 주주은선 경기대 사회복지학과 교수 이하 주 국민연금이 도입된 지 30년이 지났지만 노후소득 보장 기능이 너무 심하게 부족하다. 평균급여액이 약 60만원이다. 초고령화 국면에서 노후빈곤을 어떻게 예방할 것인가에 대한 논의는 그간 소극적이었다고 생각한다. 초고령사회에선 노후소득을 획기적으로 보장해야만 살 만한 사회가 된다. 게다가 2030년에서 2050년 사이 국민연금을 받게 되는 사람들의 보장수준은 보험료를 내는 기간은 더 늘어나는 데도 오히려 더 떨어질 것으로 예상된다. 2007년 급여삭감 때문이다. 그런 의미에서 저는 소득대체율 인상이 꼭 필요하다고 본다. 소득대체율은 은퇴 후 받게 될 연금액 수준을 보여주는 지표다. 현재 국민연금 소득대체율은 42.5다. 일하던 시기 100만원을 벌었다면 은퇴 후 연금액으로 42.5만원을 받는 것을 의미한다. 40년 가입 기준이다. 보험료 납입기간이 40년보다 짧으면 실제 대체율 수준은 더 낮아진다. 대략 1년당 1씩 낮아진다고 보면 된다. 현 소득대체율 42.5는 조금씩 줄어 2028년 40에 도달하게끔 돼 있다. 이번 토론에서는 편의상 소득대체율을 40로 놓고 대화했다편집자 주재정계산 결과를 보면 미래 청장년 세대의 보험료 부담이 커지는 것은 사실로 여겨진다.주 재정계산은 팩트가 아니라 추정일 뿐이다. 현재 시점에서 미래라는 과녁에 화살을 던지는 것과 같은데 성장 고용 소득 인구 등의 변수에 따라 과녁은 계속 움직인다. 그런 의미에서 언론이 자주 쓰는 2055년 기금 고갈된다는 등의 표현은 타당하지 않다. 추정을 팩트로 표현하는 것이기 때문이다. 다만 재정계산 결과로 흐름은 볼 수 있다. 미래 생산세대의 부담이 늘어나는 것은 맞다. 그런데 노인이 인구 40를 넘는 사회에서 국민연금 지출이 GDP의 약 11가 되는 것이 비상식적인가 싶다. 그 시기 노인들이 받아갈 연금액을 온전히 청장년 개인들이 보험료로 부담해야 한다는 생각에서 벗어나야 한다. 분담 구조를 어떻게 짤 것인가를 고민하면서 풀어야 할 문제다.오 재정계산이 미래의 수치를 알아맞히는 작업이 아닌 것은 맞다. 그 대신 구조를 보는 것이다. 특정 시점에서의 지출과 수입의 구조를 봐서 재정이 균형을 이루고 있는지 아닌지를 보는 것이다. 불균형이라면 불균형의 규모를 보는 것이다. 미래의 국민연금 재정이 매우 불안정해지기 때문에 현세대와 달리 미래세대의 재정부담이 무척 커진다는 계산 결과의 메시지는 명확하다. 주 교수가 말한 고용 소득 인구 등의 변수를 다양하게 넣어도 이 메시지는 변하지 않는다.미래세대 개인이 모두 부담한다는 생각에서 벗어나야 한다. 국민연금의 소득재분배 성격을 고려하면 조세 투입을 못 할 이유가 없다. 현재 부과 대상이 GDP의 30를 안 넘는다. 플랫폼 기업 등에도 부담을 지워야 한다. 주은선 경기대 교수미래세대 부담 심각하다 vs 과장이다미래세대 부담이 심각하냐 아니냐에 대한 입장이 갈리는 것 같다.주 현재의 소득대체율 40를 유지했을 때 70년 후 국내총생산 GDP의 9가량이 연금액으로 지출될 것으로 보인다. 만약 소득대체율을 50로 올리면 70년 후 GDP의 약 11를 지출하게 된다. 지금도 노인 세대를 위한 공적연금에 GDP 11 이상을 지출하는 나라들이 꽤 있다. 이 정도를 그리 공포스러워 해야 하나. 시장에서 일하지 못하는 인구에 적정 소득을 보장해 소비할 수 있게 해서 경제균형을 이뤄나가는 것 그게 복지국가고 복지 자본주의다. 미래세대에게 감당하기 어려운 부담을 떠넘긴다고 얘기하는 것은 과장이다.오 먼저 소득대체율을 40에서 더 낮추자는 입장은 아니라는 점을 말하고 싶다. 지금의 소득대체율을 유지하자는 입장이고 그럴 경우 말한 대로 70년 후 미래세대가 GDP 9 지출을 감당해야 한다. 그런데 그들이 처할 환경이 무척 어려울 거다. 연금액 지출에 GDP 11 이상 지출하는 서구 국가들 얘기를 했는데 20세기 중후반의 서구와 비교할 때 한국의 노인부양비는 매우 높아지는 구조다. 초저출생 때문이다. 서구 국가들의 GDP 10와 미래 한국사회의 GDP 10를 감당하는 인구 규모가 완전히 다르다. 우리가 훨씬 적을 것이다. 게다가 그 세대는 그해 걷어서 그해 지출해야 하는 건강보험과 기초연금 등의 부담도 훨씬 커질 전망이다. 미래세대가 GDP 9 지출을 감당할 수 있도록 지금 우리가 도와줘야 한다고 본다. 현재 우리의 연금액 지출은 GDP 2다. 지금부터 단계적으로 올려야 한다.주 보험료 인상에 반대하는 것은 아니다. 소득대체율 인상이 필요하다는 입장에서는 더욱 그렇다. 다만 지나친 연기금 적립 역시 문제이므로 그 속도와 폭을 조정해야 한다. 70년 후 GDP 911 지출이 큰 부담이냐 아니냐에 대한 얘기를 이어나가겠다. 공적연금 지출을 줄여주는 것이 과연 미래세대의 부담을 덜어주는 일일까. 부모가 국민연금만으로 노후를 보내기 어려워지면 자녀의 사적이전 생활비를 드리는 것 부담이 늘어난다. 은퇴 이후가 불안해 사적연금 시장에 기대는 이들도 많아질 거다. 아울러 연금액이 낮아 노후빈곤에 처하는 사람이 많아질수록 기초연금과 국민기초생활보장제도와 같은 공공부조 부담도 늘어난다. 사회연대의 원리에 입각한 국민연금이 더 많은 사람의 노후를 제대로 보장하게 하는 것이 결과적으로 모두의 부담을 더는 길이다. 그리고 앞서 말했듯 개인들이 GDP 11를 전부 부담해야 한다는 생각에서 벗어나 새로운 연금재정 패러다임에 대해 고민해 볼 필요도 있다.새로운 재정 패러다임 가능할까미래의 청장년 세대 개인이 모두 부담해야 한다는 생각에서 벗어나야 한다고 했는데 구체적으로 어떻게 가능할까.주 장기적으로 조세가 역할을 할 수 있다고 본다. 우리의 국민연금엔 소득재분배 성격이 있다 국민연금은 보험료를 낸 만큼 연금액을 받는 구조가 아니다. 평균소득보다 적게 번 이들에게 상대적으로 더 얹어주는 하후상박 구조다. 물론 절대적인 연금액은 고소득층이 높지만 낸 보험료 대비 연금액의 비율은 저소득층이 더 높다편집자 주. 국민연금의 소득재분배 성격을 고려하면 조세 투입을 못 할 이유가 없다고 본다. 자본의 역할을 강화하는 방식도 있다. 지금은 기업과 개인이 보험료를 55 부담하는데 기업 부담을 6570로 올릴 수도 있다. OECD 평균이 대략 그 정도다. 아울러 보험료 부과 대상소득이 GDP의 30 이하로 26 수준인 것으로 추정된다. 이를테면 사실상 사용자 역할을 하고 있는 플랫폼 기업에 보험료 부담을 지워야 한다. 프랑스는 자산소득을 비롯한 모든 종류의 개인소득과 대기업 법인세에 사회보장세를 부과한다. 장기 미래에 가능한 재정 패러다임 변화를 지금 구체적으로 얘기하긴 어렵다. 미래에 부가 어떤 방식으로 창출될지 그 변화를 미리 예단하기가 어렵기 때문이다.오 국민연금에 보험료 이외 재원 투입될 수 있다고 본다. 문제는 미래세대의 지출 부담은 지금 명확하게 수치로 확인이 되는데 소득대체율 인상론 측이 말하는 충당 방안은 아직 범주 수준이다. 저는 소득대체율 인상은 어렵다는 입장이지만 소득대체율 유지 역시 미래세대 부담이 크기 때문에 개인적으로 가늠을 해봤다. 현재 보험료 부과대상이 GDP의 30가 채 되지 않는다고 했다. 마치 70라는 미지의 영역이 남아 있는 것처럼 여겨지지만 국민계정에 분배 GDP 구성을 들여다보면 추가 부과대상으로 삼을 만한 것이 그리 많지 않다. 부과대상을 현 30 수준에서 40 수준으로 높이고 보험료율 15로 인상해도 재원은 여전히 매우 모자라다. 결국은 법인과 자본에다 과세하자는 주장인데 부족액을 충당할 만큼 확보할 수 있느냐의 문제가 있다. 우리는 이미 기업과 자본소득에 대해서 과세를 하고 있다. 자동차든 로봇이든 부동산이든 결국은 재산세와 종합부동산세로 거둬질 거다. 여기에 횡재세 정도가 추가될 수 있다. 과세를 강력히 한다고 해도 여전히 부족할 것이다. 나아가 혹시 충분한 재원이 나온들 그걸 소득대체율 인상에 따른 부족액을 메우는 데 쓰는 게 맞느냐는 또 다른 논점이 있다.무슨 뜻인가.오 현재 가입자들은 보험료가 너무 낮다 보니 낸 것에 비해 과하게 많이 받게 돼 있다. 낸 것보다 더 받는 만큼을 미래세대에 빚지고 있는 거다. 이걸 현세대가 보험료 인상으로 어느 정도 책임을 져야 그다음 조세 투입도 얘기할 수 있다고 본다. 그래서 저는 보험료율 15까지는 점진적으로 인상하되 그 이후에도 재정이 어렵다면 그때는 국고 투입이 가능하다고 본다. 하지만 재정을 투입하더라도 그 돈이 소득대체율 인상에 우선적으로 쓰이는 것에는 찬성하지 않는다. 국민연금 가입기간이 긴 노동시장 중심부의 노동자들이 대체율 인상의 혜택을 가장 크게 입을 것이기 때문이다. 가입기간이 짧아 소득대체율이 실질적으로 낮은 불안정 노동자들을 위해 재정이 우선적으로 쓰여야 한다고 본다.국민연금 보험료가 너무 낮다 보니 계층 간 역진성 문제가 생긴다. 고소득자가 덜 받는 만큼 저소득자가 더 받아가는 게 아니다. 모두가 낸 것보다 더 받아가며 그 돈이 미래세대에서 온다. 기간이 길고 임금이 높을수록 순혜택이 크다. 오건호 내만복 정책위원장소득대체율 인상 고소득층에 더 유리하다 vs 사회보험의 특성을 이해해야소득대체율 인상이 어떤 효과를 낼 것이냐에 대한 논의로 이어가자. 재정안정론 측에서는 소득대체율 인상이 실질적인 소득대체율 인상으로 이어지지 않을 것이라고 주장하는 것으로 안다.오 국민연금 급여는 결국 소득비례 가입기간 비례다. 연금액을 일제히 높이는 소득대체율 인상의 효과는 높은 임금을 받으면서 장기간 고용된 노동시장 중심부에 집중될 것이다.주그 주장은 사회보험이 정의롭지 않다고 얘기하는 것과 같다. 고용보험의 실업급여 역시 소득비례다 더 많이 벌던 사람이 더 많은 실업급여를 받는다는 뜻이다편집자 주. 실업급여의 소득대체율을 50에서 60로 올리는 것은 임금이 높을수록 혜택이 크니 정의롭지 않은 것인가. 국민연금의 급여나 고용보험의 실업급여나 본질적으로 기존 소득의 대체 기능을 하도록 돼 있는 것이다. 그게 그 제도의 목적이다. 게다가 다른 사회보험과 달리 국민연금에는 강력한 재분배 요소가 들어가 있다.오 사회보험의 특성과 국민연금의 재분배 요소를 무시하는 것이 아니다. 지금의 국민연금엔 보험료가 너무 낮다 보니 생기는 계층 간 역진성의 문제가 있다 저소득층보다 고소득층에 더 유리하다는 뜻편집자 주. 무슨 얘기냐면 지금 국민연금에 소득재분배 기능이 있긴 하지만 고소득자가 덜 받는 만큼을 저소득자가 더 받아가는 구조가 아니다. 모두가 낸 것보다 더 받아가는데 그 돈은 미래세대에서 오는 것이다. 낸 보험료보다 더 돌려받는 만큼을 순혜택이라고 하는데 가입기간 길고 임금 높을수록 순혜택 절대액이 커진다. 즉 미래세대 부담으로 귀결되는 순혜택의 이득이 노동시장 중심부 고소득자들에게 집중된다는 얘기다. 이것이 옳으냐 하는 문제 제기다.주 국민연금에서 각자 낸 보험료와 급여의 수익을 따지며 계층 간 역진성 고소득층에 유리한 성격 얘기하는 자체가 이상하다고 생각한다. 국민연금제도는 각자 계정에 돈을 쌓고 자기가 낸 돈에 상응해 급여를 받는 제도가 아니다. 총량적으로 수입 보험료과 지출 연금액을 맞춰가는 제도이며 장수에 대응하는 제도이므로 수명에 따라 보장 총량이 달라진다. 개별 수익을 중심으로 연금제도를 보는 것은 공적연금의 본질과 어긋난 접근이란 생각이다. 하지만 계층별 수익을 따진다고 하더라도 오 위원장의 문제 제기는 일정 수준 이상의 보험료 인상으로 해소된다. 이것은 소득대체율 인상을 가로막을 근거가 되지 않는다. 오히려 소득대체율도 인상하되 거기에 필요한 재원을 어떻게 재분배성이 강하게 설계할 것이냐에 대한 얘기를 해야 하지 않을까.오 보험료 인상과 더불어 소득대체율을 인상하면 보험료 인상의 효과가 상쇄된다. 미래세대의 부담을 덜어주지 못한다는 얘기다. 그 세대의 부담으로 귀결되는 혜택이 노동시장 중심부에 집중되는 문제를 풀지는 못한다. 국고지원을 적극 얘기하고 있다. 앞서 말했듯 저도 반대하지 않는다. 그런데 입장을 명확하게 하기 위해 이렇게 나눠서 얘기했으면 좋겠다. 국민연금 부족액을 위한 국고지원 크레딧 제도와 보험료 지원사업을 위한 국고지원으로 말이다.국고를 투입하더라도 무엇에 우선적으로 지원할 것이냐에 대한 얘기인 것 같다.주 뭘 먼저 하고 뭘 나중에 한다는 식으로 접근할 문제는 아니라고 본다. 우리나라 국민연금 보장 수준은 그냥 무슨 짓이든 다 해야 하는 수준이다. 소득대체율 인상과 가입기간을 늘려주는 조치가 같이 가야 하는 것이지 우선을 따질 일이 아니라고 본다. 크레딧 제도는 군복무 출산 등 사회적 공헌을 한 이들에게 가입기간을 늘려주는 것이다. 소득대체율은 급여산식을 바꿔서 적용하는 폭넓은 조치인 반면 크레딧 제도는 일정한 공헌을 한 사람을 타켓팅한 제도다. 그리고 질병이나 장애 등 여러 사정으로 인해 사회적 공헌을 못 하는 이들도 많다. 두 기제는 대체 가능한 것이 아니다. 아울러 취약계층 보험료 지원사업은 당연히 해야 하는 것이다. 그런 과제를 뒤로 미루자는 얘기가 아니다. 오히려 소득대체율 인상과 결합할 때 이런 조치의 보장성 강화 효과는 더 커진다. 또 중심부 노동자들 얘기를 하셨는데 그렇다면 그들은 은퇴 이후 소득절벽이란 위험에서 벗어나 있나. 소득대체율 인상하면 이 사람들만 혜택 봐요라고 하면서 마치 이들이 기득권을 형성하고 있는 것처럼 말하고 있다. 실질적으로는 별 기득권도 없는데.퇴직연금은 연금으로서 역할을 할 수 있나오 중간계층 중산층의 연금액도 충분치 않은 것은 사실이다. 그런데 결국은 한정된 자원의 배분 문제 아닌가. 우선순위로 무엇을 둘 것인가의 문제라고 생각한다. 소득대체 인상도 미래세대 부담이 될 재원 문제 때문에 다른 대안을 찾자는 것이다. 가입기간이 짧은 불안정 노동자 저소득층에게 가입기간을 늘려주는 조치 크레딧 제도를 의미. 가입기간을 1년 늘려줄 때 소득대체율 1씩 늘어난다편집자 주를 통해 그들의 실질적인 소득대체율을 올려줄 수 있다고 본다. 중상위 계층에게도 소득대체율 인상 대신 다른 대안이 있다. 기업이 매년 임금의 8.34씩을 퇴직금으로 쌓아두고 있다. 지난해 한해간 쌓인 퇴직금 적립액이 그해 국민연금 보험료 총액을 넘어섰다. 든든한 연금으로 기능케 할 잠재력이 퇴직금에 충분히 있다는 뜻이다.주 현 제도는 퇴직급여 제도이고 퇴직금과 퇴직연금 중 선택할 수 있게 돼 있다. 퇴직연금 가입률은 가입대상 노동자의 절반을 약간 넘는다. 퇴직연금은 금융시장을 통해 돌아가는 사적연금으로 재분배 기능이 없고 유족급여 장애급여도 없다. 국민연금처럼 죽을 때까지 물가연동으로 실질가치를 보장해주는 그런 질 좋은 연금이 아니다. 퇴직연금에 대해 제대로 된 노후소득보장 기능을 기대하기는 힘들다.오 퇴직연금은 사적연금인 건 맞다. 여러 한계가 있지만 그럼에도 사용자가 전액 기여 매해 각 노동자의 임금 8.34를 적립하는 제도다. 저는 두 가지의 정책 과제를 더하면 퇴직연금도 중상위층이 기댈만한 연금이 될 수 있다고 본다. 한가지는 1년 미만 고용된 노동자에게도 퇴직금 제도를 적용하는 것 또 다른 과제는 비자발적 실업기간에도 실업급여를 보장해줘 퇴직금의 중간해지를 엄격히 규제하는 것이다. 네덜란드나 덴마크 등에선 퇴직연금이 노후소득원의 한 축으로 작동한다.주 네덜란드 덴마크는 산별협약에 의해 작동하는 퇴직연금으로 성격이 다르다. 한국에는 그런 기반이 없다. 퇴직금을 제대로 된 연금으로 작동하도록 제도를 개혁하는 데 시간이 매우 많이 걸릴 것이다. 가능할지도 불확실하다.오 국민연금 소득대체율을 인상해도 효과가 나타나려면 지금부터 20년 있어야 한다. 20년이면 퇴직연금의 개혁도 할 수 있는 시간이다. 다층연금체계로 노후소득보장 효과를 충분히 볼 수 있다고 본다. 중상위계층에겐 국민연금퇴직연금 중간계층은 국민연금 하위계층에겐 국민연금기초연금의 체계가 적용되게끔 하자는 것이다.주 공적 노후보장제도에 대해 이렇게 계층별로 나눠서 접근하는 것은 맞지 않다. 우리는 국민연금 보험료를 냄으로써 미래의 연금 청구권을 쌓아간다. 기여를 했으니 나중에 생산되는 부의 일정한 몫을 받아갈 권리가 생긴다는 얘기다. 그런데 기초연금은 그런 제도가 아니다. 국민연금의 역할과 사회 상황에 따라 앞으로 어떻게 변해갈지 모르는 제도이다 이것을 미래 노후소득보장 한축으로 확정적으로 얘기하는 것은 맞지 않다. 국민연금에 10년 납입해서 받는 연금액은 기초연금을 합쳐도 기초생활보장제도의 내년 생계급여 71만원에 미치지 못한다. 기초연금이나 국민기초생활보장급여를 통해 보장받는 최저수준보다 국민연금 보장수준이 훨씬 높아야만 공적연금이 제대로 돌아간다.각자가 생각하는 개혁안은. 간단히 말해서 얼마의 보험료와 소득대체율이 적절하다고 보나.오 지난 9월 1일 재정계산위원회가 제시한 안을 기본축으로 해서 사회적 논의가 이뤄졌으면 좋겠다. 앞으로 10년 동안 매해 보험료율을 0.6포인트씩 올려 15에 도달케 하자는 방안이다. 여기에 연금수급개시 연령을 2048년에 최장 68세까지 상향하는 안과 기금수익률을 높이는 안을 조합했다.주 2007년 소득대체율을 50에서 40로 떨어뜨리는 제도 변화가 있었다. 이것을 50로 다시 회복시켜야 한다. 보험료율은 13 선을 생각했다. 그러나 어느 정도의 속도로 그 선에 도달하느냐는 열어놓고 생각해볼 필요가 있다. 재정계산위 사퇴 뒤 우리의 비전을 보여주는 대안보고서를 준비 중이다 지난 8월 31일 주은선 교수와 남찬섭 동아대 사회복지학과 교수는 복지부 산하 재정계산위원회가 소득대체율 인상론을 제대로 다루지 않는다는 이유로 재정계산위의 민간위원직을 사퇴한 바 있다. 재정계산위는 국민연금의 장기적인 수입지출 기금 규모를 계산해 정부에 보험료연금액 조정안을 제안하기로 한 보건복지부 산하 민관 합동위원회다. 두 교수는 재정계산위와 별도로 대안 보고서를 준비 중이다.편집자 주.좋은 연금개혁을 위한 조건이 있다면.오 정치권에는 연금이 부담스러운 주제일 것이다. 하지만 책임 있는 정치를 하겠다고 한다면 자기의 안을 제시해야 한다고 본다. 이 중요한 의제에 대해 논의가 시작됐음에도 아직 안이 없는 것으로 안다. 게다가 국회 연금특위를 내년 5월까지 연장한다고 한다. 총선 전에 연금개혁에 대한 입장을 안 낼 수도 있다는 메시지로 읽힌다. 미래를 좌우할 정책에 대해 안을 내고 국민에게 선택을 받는 것이 선거에 임하는 정당의 책임 있는 자세 아닐까.주 연금개혁은 정부가 중심이 되어 끌어갈 수도 있고 정당이 사회적 합의를 이끌어갈 수도 있다. 어떤 방식이 됐든 책임을 더 많이 져야 하는 주체들에게 의견을 묻고 제대로 책임을 부여하는 쪽으로 나아가야 한다고 생각한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 금리 인상에 채권금리 5 육박 선진국 우량채 담아라금융권의 디지털 흐름이 가속화되고 있다. 금융소비자의 비대면금융 수요가 늘면서 지난해 말 인터넷 뱅킹 모바일 포함 등록 고객 수는 2억명을 넘었다. 인터넷뱅킹의 이용금액은 하루 평균 76조원 대출신청 서비스 이용금액만 일평균 1조원 돌파했다. 국내 모바일트레이딩서비스 MTS가입자는 3500만명 달한다. 머니S는 창간 16주년을 맞아 인터넷뱅킹 2억명 시대 자산관리 전략이라는 주제로 설문을 진행했다. 모바일금융의 트렌드와 비대면 자산관리 전략을 알아보기 위해 9월13일부터 27일까지 15일간 온라인 설문 조사를 진행했고 은행과 증권 카드 간편결제 보험 등 디지털금융 담당자 및 자산관리 전문가 127명이 설문에 참여했다. 기사 게재 순서①모바일금융 디지털 바람에 新재테크 수단 종잣돈 마련 주식투자②세액공제 상품 담고 성장주 투자 재테크 수익률 7 노린다③증권사 MTS 응답자 40 이상 AI 디지털 서비스 고도화 필요 ④2명 중 1명 카드간편결제 플랫폼 주력 재테크는 ⑤보험도 이제 재테크 시대 10명 중 8명 투자 관심 디지털 바람이 금융권을 강타하면서 스마트폰 하나로 모든 금융거래가 이뤄지는 모바일뱅킹은 대세로 자리 잡았다. 한국은행에 따르면 올 상반기 기준 국내은행 모바일뱅킹 이용 건수는 1910만건 이용금액은 14조7000억원에 달한다. 스마트폰 이용이 활발한 젊은층은 뱅킹 앱으로 목돈 마련 은퇴 후 노후자금 준비 등 자산관리를 구축한다. 머니S는 창간 16주년을 맞아 인터넷뱅킹 2억명 시대 자산관리 전략이라는 주제로 은행디지털금융 담당자와 프라이빗뱅커 PF 75명에게 모바일금융 재테크 금융상품비대면 투자 시 포트폴리오 비중 안정형공격형 투자자에게 추천할 비대면 금융상품 등을 물어봤다. 설문은 9월13일부터 27일까지 14일간 진행했고 KB국민신한하나우리NH농협SC제일수협은행 등 7개 은행의 자산관리 전문가 75명이 참여했다. 세테크 IRP 주목 파킹통장예적금 추천모바일금융 거래 시 추천하는 금융상품 복수 응답은 단연 개인연금 IRP 등 세액공제 42명 23.07 상품이다. 올해부터 개인형 퇴직연금인 IRP와 연금저축 등 연금 계좌에서 받을 수 있는 세액공제 한도가 200만원 상향됐기 때문이다. 연금저축 3인방인 연금저축신탁과 연금저축펀드 연금저축보험은 400만원에서 600만원까지로 개인형 퇴직연금인 IRP는 700만원에서 900만원으로 세액공제 범위가 확대됐다. 세액공제를 조금이라도 더 받기 위해서는 납입액을 추가해 900만원 한도를 맞추는 것도 방법이다.이어 특판 예적금 38명 20.87 주택청약종합저축 37명 20.32 파킹통장 37명 20.32 회전식 정기예금 11명 6.04 기타 17명 9.38 등으로 나타났다. 윤지영 하나은행 목동남지점 부장은 연말에 가서 세액공제 한도를 채우기 위해 한 번에 목돈을 IRP에 입금하기보다 평소에 여유 자금을 IRP에 넣는 것을 추천한다며 금리가 높은 정기예금 등에 미리 돈을 넣어두면 조금이라도 전체적인 수익을 늘릴 수 있다고 말했다. 박지원 KB국민은행 스타뱅킹부 과장은 모바일 뱅킹 앱을 이용하면 까다로운 조건 없이 비교적 높은 금리를 주는 특판 예적금에 가입할 수 있다며 원금 손실 걱정에 예적금을 선호하는 재테크족이라면 살펴볼 만하다고 조언했다. 은행 모바일금융 및 자산관리 전문가 10명 중 6명이 꼽은 재테크 기대수익률은 예금금리의 두배 7 이상 45명 60 다. 이어 6 22명 29.33 5 6명 8 4 이하 2명 2.66 순으로 집계됐다. 정문희 하나은행 서울대입구역 PB팀장은 글로벌 금융시장의 불확실성이 지속되는 가운데 원금 보전 니즈가 투자자는 손실 위험을 회피해야 한다면서도 리스크를 감수하고 공격적인 투자에 나서 이차전지 엔터 로봇 등 성장주와 반도체 등 가치주에 투자할 경우 7 이상 높은 수익률을 기대할 수 있다고 말했다. 안정형 투자자 예금선진국 채권 투자 유망한국은행이 기준금리를 3.50로 동결하면서 은행권의 정기예금상품 금리는 연 4대로 올라섰다. 은행연합회에 따르면 지난달말 공시된 은행권 정기예금 만기 1년 36개 상품 중 13개가 최고 연 4대 금리를 제공한다. 지난 8월 연 4대 예금 상품이 36개 중 5개에 그쳤던 것을 고려하면 한 달 새 연 4 예금상품이 8개 늘어난 셈이다. 모바일금융 및 자산관리 전문가들은 안정형 투자자에게 비대면 금융상품 복수응답으로 예금상품 및 종합자산관리계좌 CMA 53명 26.63을 추천했다. 이어 안정형 투자자에게 추천 비대면 금융상품은 선진국 우량채권 44명 22.11 국내 우량채권 36명 18.09 달러 투자 24명 12.06 상장지수펀드 19명 9.54 자산배분형 EMP펀드 10명 5.02 KRX 금 및 현물투자 7명 3.51 기타 6명 3.04 순으로 집계됐다. 지난달 28일 10년 만기 미 국채 수익률은 4.6대로 올라섰다. 글로벌 금융위기 이전인 2007년 10월 이후 16년 만에 가장 높은 수준이다. 미국 국채 금리는 연방준비제도 Fed연준가 추가 금리 인상 가능성과 긴축 장기화를 시사한 데 이어 미 연방정부 셧다운 일시적 업무정지 우려가 제기되면서 10년물 기준 5선을 위협하는 분위기다.김홍균 하나은행 강남역지점 PB팀장은 채권의 듀레이션이 길고 신용등급이 낮으면서 신흥국 시장에서 발행된 채권일수록 변동성이 상대적으로 크다며 안전한 금리 수익을 기반에 두면서 추가 수익을 기대할 수 있는 선진국 채권 투자가 유망하다고 말했다. 시간이 갈수록 가치가 오르는 달러 투자도 안정형 투자자에게 추천 비대면 상품으로 꼽았다. 세계 6개국 통화 대비 달러화의 가치를 나타내는 달러인덱스 지난달 27일 106.21로 지난해 11월 30일 이후 최고치를 기록하는 등 달러 가치가 오르고 있어서다. 홍동희 SC제일은행 투자전략상품부 부장은 올해 말 미국이 금리 추가 인상 움직임을 보일 경우 이른바 킹달러 현상은 더욱 강화될 것이라며 자산 포트폴리오에 달러 자산을 편입하고 경기 방어 국면에서 달러 장상지수펀드 ETF 등을 눈여겨볼 것이라고 말했다. 공격형 투자자 하반기 성장주가치주 투자하반기 공격형 투자자에게 적합한 투자상품 복수 응답은 이차전지엔터로봇주 등 성장주 63명 30.14다. 연초부터 인공지능 AI과 배터리 로봇 바이오 등 국내 증시를 주도했던 성장주들이 하반기 강세를 이어갈 것이란 전망이다. 다만 테마주 광풍에 급등했던 이차전지는 영국의 친환경 기조에 균열이 발생하면서 보수적인 시각을 유지해야 한다고 조언했다. 이어 반도체가치주 58명 27.75 파생결합증권 30명 14.35 선진국 기초한 ELS 22명 10.52 신흥국 채권 12명 5.74 정유철강금융주 9명 4.3 기타 15명 7.2 순으로 집계됐다. 최정임 신한은행 PWM강남센터 PB팀장은 여전히 성장 가능성이 높은 성장주를 선별해 목표 수익률을 정하고 투자할 것을 추천한다며 테마형은 기대수익에 비례해 변동성이 크기 때문에 분할매수로 접근해야 한다고 말했다. 김종국 SC제일은행 투자전략부 과장은 메모리 반도체 수급이 개선될 것이란 전망에 반도체 종목의 사이클 전환이 유효하다며 경기 모멘텀을 기반한 가치주의 상승이 지속될 것이라고 내다봤다. 이선영 신한은행 PWM서울파이낸스센터 PB팀장은 반도체 업황 회복 시기가 시장 기대보다 늦춰지고 있고 이차전지 역시 실적 측면에서는 만족스럽지 못한 상태에 영업이익과 배당 측면에서 강점이 있는 정유철강금융 업종 매력이 부각될 수 있다고 말했다. </t>
+  </si>
+  <si>
     <t xml:space="preserve"> 이제는 퇴직연금도 커스터마이징이 필요하다. KB손해보험은 서류 작성 없이 비대면으로 원하는 시점에 연금을 수령할 수 있는 시스템을 구축했고 고객의 성향에 맞는 자산배분컨설팅을 실질적으로 제공하는 점이 좋은 평가를 받았다. 앞으로는 원리금보장형 상품에 매몰돼 있는 상품 구조를 실적배당형으로 다변화를 추구해 퇴직연금 상품 시장의 질적 개선을 이루겠다. KB손해보험 김유홍 연금사업본부장 전무사진은 9일 파이낸셜뉴스와 인터뷰에서 KB손해보험이 2023년 고용노동부 퇴직연금사업자 평가에서 보험 부문 우수사업자로 고용노동부 장관상을 수상하게 된 이유와 향후 포부를 이같이 밝혔다. KB손해보험은 고용노동부의 2023년 우수 퇴직연금사업자 평가에서 상품운용역량 조직서비스역량 교육 정보제공 역량에서 높은 점수을 받아 보험 부문 장관상을 거머쥐었다. 김유홍 본부장은 정성적인 부문에서 압도적으로 높은 점수를 받았다면서 숫자 실적 등 사업자가 가장 관심 있는 양적 성장보다 고객이 원하는 상품 추천 은퇴 시점에서 고객에게 맞는 연금 설계 시스템 환경 등 정성적이고 질적 서비스를 업그레이드하는 데 가장 중점을 뒀다고 강조했다. 실제 KB손해보험이 지난해 말 김기환 대표이사 판단으로 보험사 중 선도적으로 신설한 연금자산컨설팅파트는 질적 서비스 개선을 최우선 목표로 세웠다. 또 장기적 관점에서 고객에게 우수한 서비스를 제공하기 위해 인프라 투자를 단행했다. 약 300조원 규모의 퇴직연금 시장은 이미 레드오션으로 경쟁이 치열하고 금리 싸움만으로는 오프라인 판매 채널을 갖춘 은행이나 퇴직연금 상품만 1000개에 달하는 증권사를 이길 수 없다는 판단에서다. 우선 총 2년에 거쳐 모바일과 웹을 전면 개편해 퇴직연금을 이용하는 비대면 고객의 편의성을 높였다. 지점 방문이 어려운 바쁜 직장인을 위해서 논스톱 연금상담 서비스도 도입했다. 여기에 연금자산컨설팅파트는 자산배분컨설팅을 강화하기 위해 연금상품을 개발하고 관리할 수 외부 전문인력 뿐만 아니라 은퇴 생활자에게 꼭 필요한 건강보험료 절세 정보 등을 종합적으로 제공하기 위해 세무사 등 분야별 전문가로만 구성됐다. 상품 라인업도 12개에서 국내 해외 채권형 주식형 리츠 TDF 등 핵심 상품만 105개까지 확대됐다. 김 본부장은 라인업을 더 확대하지 않고 좋은 상품 중에서 지속적으로 성과 평가를 하고 고객 투자 성향에 맞게 상품을 제시하고 있다면서 고객 수익률은 한 번에 갑자기 올라가는 것이 아니지만 최소한 물가상승률 이상으로 최소한 연 56 수익률을 낼 수 있도록 포트폴리오 구축을 하고 있다고 설명했다. KB손해보험이 질적 서비스 개선을 위해 노력한 결실은 숫자로도 입증됐다. 지난 7월 고용노동부에서 발표한 디폴트옵션 수익률 6개월 부문에서 KB손해보험 디폴트옵션 중위험 TDF1이 9.33의 수익률을 기록 중위험 상품 중 1위를 차지한 것이다. 디폴트옵션 가입률 역시 현재 73로 전 업권 통틀어 1위를 기록하고 있다. 김 본부장은 정부에서 디폴트옵션 시행하기 전 유예기간을 줄 때부터 전 단계를 준비해서 올해 초에 디폴트옵션을 고객에게 발빠르게 선보였고 마케팅도 빨리 진행했다면서 이 역시 질적 서비스를 신경쓴 결과라고 말했다. 앞으로도 KB손해보험은 차별화된 자산 배분 컨설팅을 제공하기 위해 AI 로보어드바이저 등 최신 디지털 기술을 접목하는 한편 고객 수요가 많은 채권 상품도 라인업할 계획이다. 또 디지털 취약 계층을 위한 대면과 비대면의 중간 채널인 하이브리드 채널 신설도 검토하고 있다. 김 본부장은 보험사는 비대면 채널을 강화할 수 밖에 없지만 디지털 취약 계층을 고려한 하이브리드 채널도 검토하고 있다면서 올해 채권을 투자하기 좋은 시기인 만큼 국채 회사채 지방채 등 채권 상품 라인업을 통해 고객에게 제공하기 위해 준비 중이라고 말했다. gogosingfnnews.com 박소현 김예지 기자</t>
   </si>
   <si>
@@ -781,16 +820,16 @@
     <t xml:space="preserve"> 1인당 5000만원인 예금자 보호 한도 상향 조정이 이번에도 불발될 전망이다. 미국 실리콘밸리은행 SVB 사태 이후 예금자보호한도를 높여야 한다는 논의가 제기됐지만 결국 현행을 유지하는 것으로 가닥이 잡혔다. 9일 국회 정무위원회 소속 김희곤 의원실에 따르면 금융위원회는 이달 5일 정무위에 보고한 예금보험제도 개선 검토안에서 향후 찬반 논의 시장 상황 등을 종합 고려해 상향 여부 등을 검토할 필요가 있다고 밝혔다. 당장 급하게 추진할 사안이 아니라는 것이다. 현재 여야 의원들이 발의한 예금자 보호 한도 상향 개정안은 총 11건으로 보호 한도를 1억원 또는 2억원으로 높이는 내용 등 다양하다. 우리나라는 2001년 2000만원이던 예금자 보호 한도를 5000만원으로 올린 후 지금까지 23년째 한도가 그대로다. 국내 은행에서 계좌당 5000만원을 넘는 예금은 작년 6월 기준 전체 예금의 65.7인 1152조7000억 원으로 집계됐다.보호 한도를 높이자는 의견과 2금융권으로의 자금 쏠림이나 예보료 인상에 따른 소비자 부담 증가를 우려하는 목소리도 함께 고려한 것으로 보인다. 금융위가 공개한 연구 용역 결과에 따르면 보호 한도를 1억 원으로 올리면 은행에서 저축은행으로 자금 이동이 나타나고 이로 인해 저축은행 예금은 1625 가량이 증가할 것으로 추산됐다. 이동 자금은 은행 예금의 1 수준으로 전체 시장 영향은 크지 않을 수 있지만 저축은행 업권 내 과도한 수신 경쟁이 벌어질 경우 일부 소형사에는 충격이 될 수 있다는 내용도 포함됐다. 한도 상향 시 보호 한도 내 예금자 비율은 98.1에서 99.3로 1.2포인트 증가하는 데 그치는 등 실익도 크지 않은 것으로 나타났다. 보호 한도가 5000만 원으로 유지되더라도 사회보장적 상품 등에 대한 별도 한도 적용은 지속적으로 확대되는 추세다. 금융위는 2015년부터 확정기여형 DC형 및 개인형 IRP 퇴직연금의 예금에 대해 일반 예금과 별도로 5000만 원의 보호 한도를 적용해왔으며 연금저축 신탁보험 사고보험금 중소기업퇴직연금기금 등에 대한 별도 보호도 시행을 앞두고 있다. </t>
   </si>
   <si>
+    <t>미국 실리콘밸리은행 사태 이후 예금자보호한도를 높여야 한다는 논의가 있었지만 결국 현행 5천만 원으로 유지될 전망입니다. 오늘 9일 국회 정무위원회 소속 김희곤 의원실에 따르면 금융위원회는 지난 5일 정무위에 보고한 예금보험제도 개선 검토안에서 향후 찬반 논의 시장 상황 등을 종합 고려해 상향 여부 등을 검토할 필요가 있다고 밝혔습니다. 당장 급하게 추진할 사안이 아니라는 취지로 해석되는데 보호 한도를 높이자는 의견과 2금융권으로의 자금 쏠림이나 예보료 인상에 따른 소비자 부담 증가를 우려하는 목소리도 함께 고려한 것으로 보입니다. 이는 금융위가 지난해 3월부터 민관 합동 태스크포스 TF를 통해 예금보험제도 전반을 논의한 결과입니다. 금융위가 공개한 연구 용역 결과에 따르면 보호 한도를 1억 원으로 올리면 은행에서 저축은행으로 자금 이동이 나타나고 이로 인해 저축은행 예금은 1625 가량이 증가할 것으로 추산됐습니다. 이동 자금은 은행 예금의 1 수준으로 전체 시장 영향은 크지 않을 수 있지만 저축은행 업권 내 과도한 수신 경쟁이 벌어질 경우 일부 소형사에는 충격이 될 수 있다는 내용도 포함됐습니다. 한도 상향 시 보호 한도 내 예금자 비율은 98.1에서 99.3로 1.2포인트 증가하는 데 그치는 등 실익도 크지 않은 것으로 나타났습니다. 한편 보호 한도가 5천만 원으로 유지되더라도 사회보장적 상품 등에 대한 별도 한도 적용은 지속적으로 확대되는 추세입니다. 금융위는 2015년부터 확정기여형 DC형 및 개인형 IRP 퇴직연금의 예금에 대해 일반 예금과 별도로 5천만 원의 보호 한도를 적용해왔으며 연금저축 신탁보험 사고보험금 중소기업퇴직연금기금 등에 대한 별도 보호도 시행을 앞두고 있습니다. 정치권에서는 예금자 보호 한도가 2001년 이후 23년째 바뀌지 않아 경제 규모에 맞게 현실화해야 한다는 의견이 나오고 있습니다. 제보하기 전화 027811234 4444 이메일 kbs1234kbs.co.kr 카카오톡 KBS제보 검색 채널 추가 네이버 유튜브에서 KBS뉴스를 구독해주세요</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1988년생 국민연금이 올해로 서른다섯 살이다. 지난달 적립금은 1000조 원을 넘었다. 하지만 2055년에는 지갑이 텅 빌 것으로 전망된다. 보험료를 낼 청년과 장년이 줄고 연금을 받을 노인은 늘고 있다. 연금이 제 기능을 하려면 내는 돈 보험료율 인상을 포함한 대수술이 불가피하다. 그런데 받는 돈 소득대체율을 두고는 의견이 갈린다. 재정 안정을 위해 현행 40를 유지해야 한다는 주장과 노후소득 보장을 위해 4550로 올려야 한다는 주장이 맞선다. 정부 자문기구인 국민연금 재정계산위원회도 둘로 쪼개졌다. 동아일보는 소득대체율에 대해 정반대 견해를 지닌 두 학자의 글을 싣는다. 소득대체율 인상 반대오건호 내가 만드는 복지국가 정책위원장연금 개혁에서 보장성 강화는 중요한 과제다. 그 방안의 하나로 국민연금 명목 소득대체율 인상이 주장된다. 나는 이 방안이 우리나라 연금체계에서 적절하지 않다고 판단한다. 추가 재원이 수반되면서도 빈곤 노인에게 효과가 크지 않고 보장성의 시야를 협소하게 가두기 때문이다. 첫째 소득대체율을 올려도 소득이 적고 가입 기간이 짧은 불안정 취업자에게 연금액 인상 효과는 약하다. 국민연금의 급여액은 노동시장의 지위를 반영해 소득이 높고 가입 기간이 길수록 많으므로 소득대체율을 40에서 50로 올려도 정작 노인 빈곤 위험이 큰 가입자의 인상액은 그리 많지 않다. 노인 빈곤이 심하니 소득대체율을 올려야 한다는 주장이 설득력이 약한 이유이다. 둘째 경제협력개발기구 OECD 연금보고서에 한국 공적연금의 소득대체율이 회원국 평균보다 낮게 제시된 것을 인용하는데 이것이 국민연금 명목 소득대체율과 같은 개념은 아니다. OECD의 소득대체율은 국민연금의 지급률 1년 가입당 소득대체율에 의무가입기간 기초연금을 종합해 산정된다. 무엇이 한국 공적연금의 소득대체율을 낮게 만들었을까. 우선 국민연금 급여는 회원국 대다수 소득비례 연금과 달리 하후상박 구조를 지닌다. OECD 연금 산식에서 평균소득이 국민연금 내부에서는 가입자 평균 소득의 1.6배에 해당하기에 상대적으로 낮은 지급률이 적용되는 중상위 소득 가입자가 국민연금을 대표하고 있다. 또한 국민연금은 의무가입 기간이 OECD 평균보다 6.1년이 짧아 OECD 산식에서 그만큼 소득대체율이 낮게 계산된다. 노인 70가 받는 기초연금이 한국 소득대체율 산정에서 제외된 것도 유념할 이유이다. 국민연금의 하후상박 구조는 그대로 유지한다면 필요한 건 의무가입 연령을 올리고 한국 소득대체율 산정에 기초연금을 포함하도록 OECD와 협의하는 일이다. 셋째 소득대체율 인상론의 재정 안정화 방안이 불명확하다. 국민연금을 장기 추계하면 미래에 당해 수지 적자가 국내총생산 GDP의 7에 이르고 소득대체율을 50로 올리면 9로 커진다. 인상론은 보험료 외에 자본과 이윤에 세금을 더 부과하고 보험료 부과 대상도 확대하자고 제안한다. 현행 소득대체율에서도 다양한 재원을 마련해야 하기에 이는 어떤 입장에서든 필요한 일이다. 그런데 내용이 당위적 방향에 머문다. 구체적으로 어디에서 얼마를 더 거두어 재정 부족분의 얼마를 충당하는지를 제시해야 재정 안정화 방안이다. 보장성 확대를 반대하는 게 아니다. 시야를 국민연금 명목 소득대체율에 한정하지 말자는 비판이다. 이미 법정 의무 제도로 기초연금 국민연금 퇴직연금이 운영되고 있다. 이 현실을 직시해야 노후소득 보장을 위한 실질적 계획도 세울 수 있다. 우선 기초연금은 2022년 급여 지출액이 20조 원으로 국민연금 34조 원의 절반을 넘는 제도로 성장했다. 앞으로 노인 수가 대폭 늘어나므로 대상은 줄이되 저소득일수록 금액을 더 지급하는 최저보장 소득 방식으로 전환해 노인 빈곤에 대응하자. 국민연금은 지속가능성을 위해 단계적으로 보험료율을 올려가자. 보장성에서는 가입 기간을 늘리는 게 과제다. 출산 실업 군 복무 등으로 연금 가입이 불리한 사람들에게 연금 크레디트를 대폭 확대하고 도시의 지역 가입자에게 국가가 보험료를 절반 지원해 가입을 독려하자. 현재 만 59세인 의무가입 연령도 64세로 상향하면 명목 소득대체율 5포인트 인상 효과가 생긴다. 퇴직연금은 지난해 기업이 납부한 기여금 총액이 57조 원이었다. 국민연금 보험료 수입 56조 원보다 많다. 이제부터 1년 미만 고용 노동자에게도 적용하고 중간 해지를 엄격히 관리해 연금으로 자리 잡게 하자. 시야를 기초연금 국민연금 퇴직연금의 연금 삼총사로 확장하자. 그래야 적정 노후소득 보장을 설계하고 지속가능성도 확보하며 청년들과 연금 개혁 비전을 이야기할 수 있다. 소득대체율 인상 찬성지난달 1일 국민연금 제도개선 방향에 관한 공청회에서 국민연금 재정계산위원회는 이른바 더 내고 더 늦게 받고 그대로 받는 연금개혁안을 제안했다. 당연히 반발이 나왔고 그에 대해 정부는 소득대체율을 올리는 방안도 고려할 것이라고 했다. 국민연금 소득대체율을 올려야 하는 이유는 많다. 첫째 모든 제도는 그것의 본래 목적을 달성할 수 있어야 지속 가능하다. 국민연금도 신뢰를 얻고 지속 가능하려면 본래 목적인 노후소득 보장을 실현해야 한다. 국민연금은 그간의 개혁으로 소득대체율을 너무 급격히 인하한 관계로 급여 수준이 매우 낮아지게 됐다. 우선 국제 기준으로도 낮다. 소득대체율이 현 상태를 유지하면 국민연금 소득대체율은 경제협력개발기구 OECD 기준으로 31.2가 되는데 이는 OECD 평균 42.2의 74 수준에 불과한 것이다. 그런데 여기서 주의할 것은 이 31.2라는 소득대체율은 가입 기간을 38년으로 즉 최대 가입 기간으로 가정했을 때의 수치라는 점이다. 이번 재정계산에 따르면 국민연금 실제 가입 기간은 2030년부터 새로 국민연금을 받는 수급자의 경우 20년 2060년대 이후 신규 수급자는 27년 정도일 것으로 각각 전망됐다. 따라서 실가입 기간을 27년으로 가정하면 소득대체율은 31.2가 아니라 22가 된다. 이러니 실가입 기간을 반영한 국민연금의 급여 수준은 노후 최소 생활비 월 113만 원의 60 정도에 불과하고 여기에 기초연금을 합해도 80 정도에 그친다. 따라서 기초연금을 합해 국민연금이 적어도 노후 최소 생활비만큼을 보장하기 위해서는 소득대체율을 현행 40에서 50로 인상해야 한다. 둘째 소득대체율 인상은 청년세대의 형평성 제고에 기여한다. 현 청년세대는 대략 2050년대 이후 연금을 받게 되는데 이들의 실가입 기간은 지금보다 58년이 더 길지만 급여 수준은 오히려 더 낮아지거나 별 변동이 없다. 우리는 흔히 청년을 비롯한 후세대가 보험료 부담으로 불공평을 경험한다는 이야기를 많이 하지만 노후소득 보장이 국민연금의 본래 목적임을 감안한다면 지금보다 더 오래 가입하고도 급여는 더 적게 받는 문제가 더 심각한 사안이라 할 수 있다. 셋째 일각에서는 국민연금의 소득대체율 인상은 현세대 노인 빈곤에는 효과가 없다고 말한다. 하지만 소득대체율을 2025년에 인상한다고 가정하면 그해에 연금을 신규 수급하는 사람은 그 인상분을 거의 못 받지만 2026년 신규 수급자는 1년분의 인상분을 받는다. 따라서 2030년 정도 이후 신규 수급자는 5년치 이상의 인상분을 받으므로 제법 인상 효과를 볼 수 있다. 국민연금 급여 인상이 당장 노인 빈곤에 효과가 없다고 소득대체율을 계속 올리지 않으면 국민연금으로는 5년 후에도 그리고 10년 후에도 노인 빈곤을 해소하지 못하게 될 것이다. 빈곤은 생각보다 복잡한 사안이어서 1년 혹은 2년 내 해결이 어렵다. 지금 당장 노인 빈곤에 효과가 없다고 국민연금 급여를 인상하지 않는 것은 실제로는 510년의 기간을 두고 해결해야 할 노인 빈곤에 접근하는 방책으로는 비효율적이다. 넷째 일각에서는 크레디트나 보험료 지원 강화로 가입 기간을 늘려 이른바 실질 소득대체율을 올리면 된다고 말한다. 하지만 크레디트나 보험료 지원 강화로는 가입 기간을 제도적 상한 이상으로 늘릴 수 없다. 즉 OECD의 계산에서 가정된 최대 가입 기간 38년을 넘지 못한다. 따라서 이미 최대 가입 기간인 38년을 가정해 계산된 31.2를 넘지 못하게 되는 것이다. 이른바 실질 소득대체율은 법정 소득대체율 인상 자체를 대체할 수 없다. 우리 사회는 빠른 고령화로 2060년대 이후는 65세 이상 인구가 전체 인구의 절반에 가까운 45 이상이 되리라 전망된다. 이럴수록 이들에게 안정적인 소득을 보장하고 이들의 소비가 청장년 세대와 선순환할 수 있는 경제구조를 만들어야 하며 여기에 국민연금은 노후 소득 보장의 확보로 기여해야 할 것이다. 소득대체율국민연금 가입자의 은퇴 전 평균소득과 비교했을 때 노후연금 수령액이 차지하는 비중. 60세까지 월 평균소득이 100만 원이고 65세 이후 국민연금으로 40만 원을 받으면 소득대체율은 40.보험료율 소득 대비 국민연금 보험료를 부과하는 비율. 1999년부터 현재까지 소득의 9로 동결. 직장가입자는 9에 해당하는 금액을 본인과 회사가 각각 절반 4.5씩 부담. 지역가입자는 본인 전액 부담. </t>
+  </si>
+  <si>
     <t xml:space="preserve"> 코로나19 사태 때도 이 정도는 아니었어요. 밤 10시 시간 제한 때보다 상황이 심각해요. 지금 다 녹다운이에요. 경기도 고양시에서 식당을 하는 장은영 42 씨는 하루하루 피가 마를 지경이라고 했다. 요식업 10년 차 잔뼈가 굵은 베테랑이지만 최근 가게 사정은 최악이다. 그는 적자를 감수하고 문을 여는데 언제까지 버틸 수 있을지 모르겠다고 말했다. PART1 9월 위기설 끝난 게 아니다 자영업자들이 벼랑 끝에 몰렸다. 정부가 나서 9월 자영업자 대란설은 전혀 근거가 없다고 못 박았지만 체감은 다르다. 자영업자 140만여 명이 활동하는 온라인 커뮤니티 아프니까 사장이다에는 하루에도 몇 건씩 폐업 관련 글이 올라온다. 이제 장사 그만하게 되었습니다 이번 주 고비입니다 6년 카페 폐업합니다 매출이 점점 더 떨어집니다. 무섭습니다.지난 9월 자영업자 대란설 이른바 9월 위기설은 정부가 코로나19 지원 대책으로 각종 대출에 만기 연장과 상환 유예를 해준 조치들이 9월이면 종료돼 잠재된 부실이 한꺼번에 폭발할 것이라는 우려에서 불거졌다.정부는 우려를 일축했다. 한덕수 국무총리는 6월 13일 국회에서 열린 경제 분야 대정부 질문에서 상환 유예 차주의 98가 상환 계획서 작성을 끝냈다며 이에 속하지 않는 일부 부실 가능성이 있는 차주는 30조원 정도의 기금을 통해 재무 조정을 해 나갈 예정이라고 설명했다. 추경호 경제부총리 겸 기획재정부 장관 또한 코로나19 피해 자영업자소상공인 대출의 경우 전체 대상 채무가 당초 100조원에서 76조원으로 감소하는 등 연착륙이 순조롭게 진행 중이라며 9월 자영업자 대란설은 전혀 근거가 없다고 강조했다.현장의 분위기는 다르다. 자영업자들 사이에선 폐업밖에 답이 없다는 말이 나돈다. 9월 위기설이 끝난 게 아니라 9월부터 터져나가기 시작한다는 의미였단 자조도 나온다. 수치도 심상치 않다. 자영업자 비율은 통계를 작성한 이후 처음으로 20 선을 밑돌았다. 통계청에 따르면 지난 2분기 전체 취업자 중 자영업자가 차지하는 비율은 19.9를 기록했다. 1963년 37를 넘은 뒤 차츰 줄어들면서 지난해 말 20.1대로 내려왔고 분기 기준 20대 아래는 이번이 처음이다.문제는 자영업자의 질이다. 직원 한 명도 없는 나 홀로 자영업자가 늘고 있다. 자영업자는 통상 독자적으로 사업하는 개인 사업자 또는 소규모 사업자를 지칭하는데 통계에서도 고용원이 있나 없나로 자영업자를 세분화한다.이 중 고용원이 없는 자영업자의 비율이 높아지고 있다. 올해 8월 기준 578만4000명의 자영업자 중 고용원이 없는 1인 자영업자는 437만 명으로 전체의 75.6를 차지했다. 코로나19 발발 이전까지는 70 초반대를 기록했지만 코로나19 사태가 발발한 2020년부터 75를 넘긴 이후 나 홀로 자영업자의 비율은 좀처럼 낮아지지 않고 있다.고용원 없는 자영업자 수의 증가는 자영업의 위기를 보여주는 지표다. 자영업자가 경영난에 처하면 인건비를 가장 먼저 줄인다. 이 때문에 고용원이 없는 자영업자가 늘어나고 이마저도 버티지 못하면 폐업에 이르는 수순이다. 마지현 파이터치연구원 수석연구원은 고용원이 있는 자영업자들이 늘어난 인건비를 감당하기 어려워 직원을 해고하게 됨에 따라 상당수의 고용원이 있는 자영업자가 고용원이 없는 자영업자가 된다고 말했다.경기도 광명시에서 분식점을 운영하는 최영균 52가명 씨도 최근 나 홀로 자영업자가 됐다. 코로나19 시간 제한과 최저임금 인상으로 2022년부터 경영난에 처했던 최 씨는 고금리고물가 폭탄에 지난 6월 직원에 이어 알바생마저 정리했다. 최 씨는 버티고 버티다 물가 폭등에 더는 버틸 수 없어 혼자 하게 됐다며 나 홀로 하다가 조금 바빠지면 아내 더 바빠지면 자녀들을 불러 일을 분담하고 있다고 말했다.최 씨를 항복시킨 것은 고금리고물가다. 올해 3월 임대 계약 만료를 앞두고 건물주는 월세 10 인상을 통보했다. 코로나19 위기 때 월세를 올리지 않는 등 주변 시세보다 싸게 받았지만 금리인상으로 더는 버틸 수 없다는 게 건물주의 말이다. 더 큰 난관은 물가다. 전기료가스비재료비 모두 턱없이 올라 임대료와 공과금 여기에 인건비를 주고나면 마이너스 신세다. 최 씨는 분식점 특성상 음식 값을 올릴 수도 없어 하루 10만원의 매출 올리기도 어려운 날이 많았다며 재료비를 마련하려고 장사하는 기분이었다고 토로했다. PART2 과당 경쟁 후진국 규모위기의 자영업 자영업의 추락과 같은 표현들은 업계를 묘사해 온 단골 소재였다. 그만큼 자영업자의 위기는 어제오늘의 일이 아니다. 한국개발연구원 KDI에 따르면 1997년 외환 위기와 2003년 신용카드 대란 2008년 글로벌 금융 위기 등 굵직한 거시 경제 충격과 소비 침체가 닥칠 때마다 자영업은 큰 폭으로 출렁였다. 이진국 KDI 연구위원은 국내 자영업의 위기는 코로나19 사태가 발생하기 훨씬 이전부터 존재해 현재까지 지속되는 추세적 현상으로 바라보는 것이 합당할 것이라고 설명했다.자영업계의 경영난은 왜 이렇게 오래도록 지속되고 있는 것일까. 우리 경제의 체질이나 구조와 연관돼 있는 것은 아닐까.경기도 화성시에서 마라탕 음식점을 운영하던 김영미 56가명 씨는 지난 7월 탕후루로 업종을 변경했다. 탕후루 프랜차이즈의 마진율이 좋다는 소식에 유행이 식기 전 빠르게 손님 잡기에 나서겠다는 판단이었다. 그가 개점할 때만 해도 반경 5km 내에 동일 업종이 없었지만 지금은 2km 이내에 탕후루 매장만 3개가 들어섰다. 매출도 반 토막이다. 오픈 초창기에는 줄 서서 구매할 정도로 인기를 끌었지만 지금은 방과 후에나 시끌벅적하다.A 씨의 사례는 한국 자영업의 문제를 그대로 보여준다. 과당 경쟁이다. 공정거래위원회 가맹 사업 거래에 등록된 탕후루 프랜차이즈는 모두 6곳이다. 이 중 가장 큰 규모를 자랑하는 곳은 달콤나라앨리스가 운영하는 왕가탕후루다. 이곳은 지난해 43곳에 불과했지만 올 들어 가맹점을 크게 늘리며 현재 420곳의 매장을 운영하고 있다.인근 유사 점포의 난립과 경쟁 심화는 자영업자의 경영난을 가져오는 근본적인 요인이다. 한국의 자영업자 규모는 장기적으로 보면 지속 감소 추세다. 하지만 타국과 비교하면 한국의 자영업자 비율은 이례적으로 높다. 2022년 경제협력개발기구 OECD의 자영업자 selfemployment자영업자무급 가족 종사자를 기준으로 한국의 자영업자 비율은 23.5다. OECD 국가 35개국 중 여덟째로 높았다.미국 6.6 2021년 기준 독일 8.7 일본 9.6 등 주요국과 비교하면 차이가 큰 편이다. 반면 한국보다 자영업 비율이 높은 국가는 콜롬비아 53.1 2021년 기준 브라질 32.1 멕시코 31.8 그리스 30.3 튀르키예 30.2 코스타리카 26.5 칠레 24.8로 중남미 국가가 많다. 제조업이 제대로 발전하지 못했거나 관광 산업이 높은 비율을 차지해 자영업자가 많을 수밖에 없는 나라다. 높은 비율의 자영업자는 정체되거나 쇠락하는 경제의 상징이다. 많은 연구에서 산업화의 정도가 미흡하거나 노동 시장이 유연하지 못하거나 개인 소득세나 사회 보장 분담금이 많다거나 실업급여 수준이 낮다거나 조세 회피 가능성이 높으면 자영업자 비율이 높은 것으로 보고하고 있다.실제 중남미는 인플레이션 속에 쇠락의 길을 걷으면서 빈곤층의 자영업 비율이 높다. 그리스 또한 2009년 경제 위기를 겪은 후 구제 금융 프로그램을 받을 정도로 경제 상황이 최악으로 치달았다.반면 한국은 선진국이다. 2021년 국제 사회에서 선진국 지위를 공인받았다. 그해 7월 개최된 제68차 유엔무역개발협의회 UNCTAD 무역개발이사회는 대한민국의 지위를 그룹 A 아시아아프리카에서 그룹 B 선진국로 변경하는 것을 만장일치로 가결했다. 작년 1인당 국민소득이 3만2886달러 약 4248만원인데 경제가 쇠락하거나 산업화의 정도가 미흡해 자영업자의 비율이 높다는 주장은 어불성설이다.그래서 전문가들은 노동 시장 경직과 사회적 자본 사회 안전망이 취약하다는 점을 한국의 자영업자 비율이 높은 이유로 제시한다. 홍성국 더불어민주당 의원은 그의 저서 수축사회에서 이같이 지적했다.지금의 한국을 만든 소득 주도 성장 정책은 사회적 자본이 빈약한 상태에서 경제를 성장시키려는 고육지책으로 나왔다. 60여 년 동안 수출 주도 성장에 매진하면서 한국이 이룬 성장은 가히 역대급이다. 하지만 시야가 좁았다. 성장에만 주력한 결과 경제를 떠받치는 사회적 자본 축적에는 관심을 두지 못했다. 내수 경제 중소기업과 자영업자와 수출 대기업 경기 간에 간극이 벌어지고 있다. 특히 한국은 자영업과 중소기업의 고용 비율이 높기 때문에 양극화의 직격탄을 맞을 수밖에 없는 구조다.수출 주도 성장에만 주력한 결과 한국 경제는 고용 인구를 모두 흡수하지 못했다. 임금 노동자에 흡수되지 못한 고용 인구는 내수 시장에서 중소기업과 자영업으로 분산됐다. 한국의 높은 자영업자 비율은 지연된 산업화의 결과라고 봐도 무방하다. 선진국의 자영업자 비율이 상대적으로 낮은 것도 한국의 대표 산업 도시인 울산 지역의 자영업자 비율이 전국에서 둘째로 낮은 것 1위는 세종시도 이를 보여주는 대목이다. PART3 고령화 시대 뇌관은 자영업자영업자 비율이 높은 것은 국가 전체적으로 보면 위험성이 크다. 자영업이 어려워지면 다시 일자리가 줄어들고 소비가 줄어드는 악순환에 빠진다.중소벤처기업부에 따르면 소상공인을 위한 퇴직금으로 통하는 노란우산 공제의 폐업 공제금은 올해 1월부터 7월까지 7만4191건 지급된 것으로 나타났다. 역대 최고치였던 2021년 지급 건수가 9만9388건이라는 점을 감안하면 올해 지급 건수는 이를 넘어설 가능성이 높다. 노란우산 공제는 소상공인이 매달 일정 금액을 납부하다가 폐업할 때 기존에 납입한 돈에 이자를 더해 돌려받는 제도다. 즉 지급 건수가 많을수록 폐업한 업체가 많다는 의미다. 노란우산 공제에 가입하지 않은 자영업자도 있는 점을 고려하면 실제 소상공인 폐업 건수는 이보다 더 많을 것으로 추산된다.더 큰 뇌관은 고령화다. 은퇴 이후 재취업이 안 되는 고령자들은 생계를 이어 가기 위해 창업 전선에 뛰어드는 경향이 짙다. 하지만 고령 자영업자의 고용의 질은 형편없었다.한국경제인협회에 따르며 최근 5개년간 20172021년 15세 이상 전체 자영업자 수는 3.2 감소한 반면 60세 이상 자영업자는 21.4나 증가했다. 특히 2021년 60세 이상 자영업자 10명 중 9명 87.2은 고용원이 없는 나 홀로 자영업자였다.대부분의 고령 자영업자들은 부족한 창업 자금을 가지고 철저한 시장 조사 없이 급박하게 사업을 시작했고 무한 경쟁의 자영업 시장에서 최저임금 수준도 벌지 못했던 것으로 나타났다. 2021년 8월 기준으로 1년 이내 사업을 시작한 60세 이상 자영업자 10명 중 4명 43.0은 500만원 미만으로 창업했으며 64.5는 창업 준비 기간이 13개월 미만이었다 통계청 비임금 근로 부가 조사.월평균 영업이익 또한 세대 중 가장 낮았다. 2019년 기준 월평균 영업이익이 최저임금 주40시간 기준 174.5만원보다 낮은 소상공인 비율은 60세 이상이 53.6로 가장 높았고 다음은 50대 37.3다.고령화로 노동 시장에 머무르는 기간이 길어지면서 고령층의 자영업 진출 증가 경향이 지속 확대될 것으로 보인다. 세계에서 손꼽히는 초고령 국가 일본은 이미 고령층에서 자영업자 비율이 최고치를 찍었다. 2016년에 이미 전체 자영업자의 35.9 가족 종사자까지 포함하면 41.6가 고령자다.하지만 고령층의 열악한 고용 여건을 개선하기 위한 장기간의 정책적 노력에도 불구하고 일본은 여전히 당면 과제를 해결하지 못하고 있는 상황이다.전문가들은 고령화 시대 자영업자 문제는 사회 구조적 문제임을 지적한다. 한국은행은 일본 고령층 고용의 3대 특징과 시사점 보고서를 발표하며 한국 노인 세대의 경제 여건은 일본에 비해서도 매우 열악하고 생계 유지를 위한 노동이 불가피하다는 점을 고려할 때 1020년의 중장기적인 시각에서 종합적인 대책을 마련해 일관성 있게 지속적으로 추진하는 것이 중요하다고 밝혔다다.우리는 어떠한 방안이 있을까. 2018년 국회 산업통상자원 중소벤처기업위원회는 골목 상권 활성화 방안을 듣기 위해 외식 전문가인 백종원 더본코리아 대표를 국회로 불렀다. 5년이 지난 지금도 백종원 매직은 그칠 줄 모른다. 자영업자의 구원투수가 정부가 아닌 백종원 대표란 우스갯소리도 나온다. TV과 유튜브에서는 자영업자를 살리는 제2의 백종원 프로그램이 화제다. 손대면 핫플 동네멋집 장사의 신 등등이다.홍성국 의원은 그의 저서에서 자영업자의 쇠퇴는 사회적 변화가 원인이지 아이디어 차원의 문제가 아니다며 더 큰 변화의 필요성을 강조한다. 전문가들 또한 장기적 관점에서 자영업의 부작용을 막기 위해 질적 성장과 부작용을 줄이는 방안을 모색해야 한다고 조언한다. 위기의 자영업자를 위한 진짜 구원투수가 필요한 시기다. 아프니까 사장이다녹다운 자영업자순수익 1000만원에서 마이너스 됐다자영업자 위기유동성 스쳐간 자리엔 공실뿐자영업자 쓰러지자 텅 빈 상권아파트 이어 상가 거래도 뚝 공인중개사 10개월간 1만2500개 폐업</t>
   </si>
   <si>
-    <t>미국 실리콘밸리은행 사태 이후 예금자보호한도를 높여야 한다는 논의가 있었지만 결국 현행 5천만 원으로 유지될 전망입니다. 오늘 9일 국회 정무위원회 소속 김희곤 의원실에 따르면 금융위원회는 지난 5일 정무위에 보고한 예금보험제도 개선 검토안에서 향후 찬반 논의 시장 상황 등을 종합 고려해 상향 여부 등을 검토할 필요가 있다고 밝혔습니다. 당장 급하게 추진할 사안이 아니라는 취지로 해석되는데 보호 한도를 높이자는 의견과 2금융권으로의 자금 쏠림이나 예보료 인상에 따른 소비자 부담 증가를 우려하는 목소리도 함께 고려한 것으로 보입니다. 이는 금융위가 지난해 3월부터 민관 합동 태스크포스 TF를 통해 예금보험제도 전반을 논의한 결과입니다. 금융위가 공개한 연구 용역 결과에 따르면 보호 한도를 1억 원으로 올리면 은행에서 저축은행으로 자금 이동이 나타나고 이로 인해 저축은행 예금은 1625 가량이 증가할 것으로 추산됐습니다. 이동 자금은 은행 예금의 1 수준으로 전체 시장 영향은 크지 않을 수 있지만 저축은행 업권 내 과도한 수신 경쟁이 벌어질 경우 일부 소형사에는 충격이 될 수 있다는 내용도 포함됐습니다. 한도 상향 시 보호 한도 내 예금자 비율은 98.1에서 99.3로 1.2포인트 증가하는 데 그치는 등 실익도 크지 않은 것으로 나타났습니다. 한편 보호 한도가 5천만 원으로 유지되더라도 사회보장적 상품 등에 대한 별도 한도 적용은 지속적으로 확대되는 추세입니다. 금융위는 2015년부터 확정기여형 DC형 및 개인형 IRP 퇴직연금의 예금에 대해 일반 예금과 별도로 5천만 원의 보호 한도를 적용해왔으며 연금저축 신탁보험 사고보험금 중소기업퇴직연금기금 등에 대한 별도 보호도 시행을 앞두고 있습니다. 정치권에서는 예금자 보호 한도가 2001년 이후 23년째 바뀌지 않아 경제 규모에 맞게 현실화해야 한다는 의견이 나오고 있습니다. 제보하기 전화 027811234 4444 이메일 kbs1234kbs.co.kr 카카오톡 KBS제보 검색 채널 추가 네이버 유튜브에서 KBS뉴스를 구독해주세요</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 국민연금 개혁은 올해에도 물 건너가는 것일까. 연금개혁의 시간표가 다시 미뤄질 조짐이다. 국회 연금개혁특별위원회가 활동기한을 내년 5월까지 연장하기로 했기 때문이다. 인기 없는 연금개혁 속성을 감안할 때 내년 4월 총선 이후에나 본격 논의될 가능성이 높아졌다.국민연금 개혁은 2007년 이후 번번이 무산돼왔다. 지난 16년간 정부와 정당들은 전문가들의 논쟁 뒤에 숨은 채 뒷짐만 져왔다. 정부와 정당이 각자의 입장을 내놓고 여론을 수렴하는 과정을 회피하는 동안 전문가들의 열띤 논쟁은 대중에게 제대로 소개되지 못했다.주간경향은 국민연금을 두고 이어져 온 소득대체율 인상론과 재정안정론의 끝장토론 자리를 마련했다. 소득대체율 인상론 측의 주은선 경기대 사회복지학과 교수와 재정안정론 측의 오건호 내가만드는복지국가 정책위원장이 지난 10월 4일 경향신문사 여적향에서 논쟁을 벌였다. 국민연금 개혁해야 하는 이유는국민연금 개혁이 필요한 이유에 대한 생각부터 양측이 다른 것으로 안다. 왜 개혁이 필요한지를 각자 말해달라.오건호 내가만드는복지국가 정책위원장 이하 오 국민연금이 지속가능성을 가지기 위해서는 고강도 재정안정화가 필요하다는 것이 최근 5차 재정계산서도 확인됐다. 현재 젊은 세대들이 국민연금을 불신하는 이유는 지속가능성에 대한 불안 때문이라고 생각한다. 청년들에게 비전을 보여줄 필요가 있다. 물론 공적연금의 존재 목적이 노후소득 보장인 만큼 노후소득 보장을 강화하는 제도개혁 또한 필요하다. 하지만 어떤 방식이 적절할지는 서로 이견이 있다. 서로 잘 논의해 앞으로 조정이 되길 바란다. 재정계산은 현 보험료와 연금액을 유지할 때 기금이 언제 소진되는지 등을 보여주는 계산으로 국민연금법에 따라 5년마다 하도록 돼 있다. 올해 5차 계산에선 현 제도를 그대로 유지할 경우 기금이 2055년 소진되고 그해 걷어서 그해 연금액을 충당할 경우 미래 청년세대 보험료율은 최대 35까지 오른다는 결과가 나왔다편집자 주주은선 경기대 사회복지학과 교수 이하 주 국민연금이 도입된 지 30년이 지났지만 노후소득 보장 기능이 너무 심하게 부족하다. 평균급여액이 약 60만원이다. 초고령화 국면에서 노후빈곤을 어떻게 예방할 것인가에 대한 논의는 그간 소극적이었다고 생각한다. 초고령사회에선 노후소득을 획기적으로 보장해야만 살 만한 사회가 된다. 게다가 2030년에서 2050년 사이 국민연금을 받게 되는 사람들의 보장수준은 보험료를 내는 기간은 더 늘어나는 데도 오히려 더 떨어질 것으로 예상된다. 2007년 급여삭감 때문이다. 그런 의미에서 저는 소득대체율 인상이 꼭 필요하다고 본다. 소득대체율은 은퇴 후 받게 될 연금액 수준을 보여주는 지표다. 현재 국민연금 소득대체율은 42.5다. 일하던 시기 100만원을 벌었다면 은퇴 후 연금액으로 42.5만원을 받는 것을 의미한다. 40년 가입 기준이다. 보험료 납입기간이 40년보다 짧으면 실제 대체율 수준은 더 낮아진다. 대략 1년당 1씩 낮아진다고 보면 된다. 현 소득대체율 42.5는 조금씩 줄어 2028년 40에 도달하게끔 돼 있다. 이번 토론에서는 편의상 소득대체율을 40로 놓고 대화했다편집자 주재정계산 결과를 보면 미래 청장년 세대의 보험료 부담이 커지는 것은 사실로 여겨진다.주 재정계산은 팩트가 아니라 추정일 뿐이다. 현재 시점에서 미래라는 과녁에 화살을 던지는 것과 같은데 성장 고용 소득 인구 등의 변수에 따라 과녁은 계속 움직인다. 그런 의미에서 언론이 자주 쓰는 2055년 기금 고갈된다는 등의 표현은 타당하지 않다. 추정을 팩트로 표현하는 것이기 때문이다. 다만 재정계산 결과로 흐름은 볼 수 있다. 미래 생산세대의 부담이 늘어나는 것은 맞다. 그런데 노인이 인구 40를 넘는 사회에서 국민연금 지출이 GDP의 약 11가 되는 것이 비상식적인가 싶다. 그 시기 노인들이 받아갈 연금액을 온전히 청장년 개인들이 보험료로 부담해야 한다는 생각에서 벗어나야 한다. 분담 구조를 어떻게 짤 것인가를 고민하면서 풀어야 할 문제다.오 재정계산이 미래의 수치를 알아맞히는 작업이 아닌 것은 맞다. 그 대신 구조를 보는 것이다. 특정 시점에서의 지출과 수입의 구조를 봐서 재정이 균형을 이루고 있는지 아닌지를 보는 것이다. 불균형이라면 불균형의 규모를 보는 것이다. 미래의 국민연금 재정이 매우 불안정해지기 때문에 현세대와 달리 미래세대의 재정부담이 무척 커진다는 계산 결과의 메시지는 명확하다. 주 교수가 말한 고용 소득 인구 등의 변수를 다양하게 넣어도 이 메시지는 변하지 않는다.미래세대 개인이 모두 부담한다는 생각에서 벗어나야 한다. 국민연금의 소득재분배 성격을 고려하면 조세 투입을 못 할 이유가 없다. 현재 부과 대상이 GDP의 30를 안 넘는다. 플랫폼 기업 등에도 부담을 지워야 한다. 미래세대 부담 심각하다 vs 과장이다미래세대 부담이 심각하냐 아니냐에 대한 입장이 갈리는 것 같다.주 현재의 소득대체율 40를 유지했을 때 70년 후 국내총생산 GDP의 9가량이 연금액으로 지출될 것으로 보인다. 만약 소득대체율을 50로 올리면 70년 후 GDP의 약 11를 지출하게 된다. 지금도 노인 세대를 위한 공적연금에 GDP 11 이상을 지출하는 나라들이 꽤 있다. 이 정도를 그리 공포스러워 해야 하나. 시장에서 일하지 못하는 인구에 적정 소득을 보장해 소비할 수 있게 해서 경제균형을 이뤄나가는 것 그게 복지국가고 복지 자본주의다. 미래세대에게 감당하기 어려운 부담을 떠넘긴다고 얘기하는 것은 과장이다.오 먼저 소득대체율을 40에서 더 낮추자는 입장은 아니라는 점을 말하고 싶다. 지금의 소득대체율을 유지하자는 입장이고 그럴 경우 말한 대로 70년 후 미래세대가 GDP 9 지출을 감당해야 한다. 그런데 그들이 처할 환경이 무척 어려울 거다. 연금액 지출에 GDP 11 이상 지출하는 서구 국가들 얘기를 했는데 20세기 중후반의 서구와 비교할 때 한국의 노인부양비는 매우 높아지는 구조다. 초저출생 때문이다. 서구 국가들의 GDP 10와 미래 한국사회의 GDP 10를 감당하는 인구 규모가 완전히 다르다. 우리가 훨씬 적을 것이다. 게다가 그 세대는 그해 걷어서 그해 지출해야 하는 건강보험과 기초연금 등의 부담도 훨씬 커질 전망이다. 미래세대가 GDP 9 지출을 감당할 수 있도록 지금 우리가 도와줘야 한다고 본다. 현재 우리의 연금액 지출은 GDP 2다. 지금부터 단계적으로 올려야 한다.주 보험료 인상에 반대하는 것은 아니다. 소득대체율 인상이 필요하다는 입장에서는 더욱 그렇다. 다만 지나친 연기금 적립 역시 문제이므로 그 속도와 폭을 조정해야 한다. 70년 후 GDP 911 지출이 큰 부담이냐 아니냐에 대한 얘기를 이어나가겠다. 공적연금 지출을 줄여주는 것이 과연 미래세대의 부담을 덜어주는 일일까. 부모가 국민연금만으로 노후를 보내기 어려워지면 자녀의 사적이전 생활비를 드리는 것 부담이 늘어난다. 은퇴 이후가 불안해 사적연금 시장에 기대는 이들도 많아질 거다. 아울러 연금액이 낮아 노후빈곤에 처하는 사람이 많아질수록 기초연금과 국민기초생활보장제도와 같은 공공부조 부담도 늘어난다. 사회연대의 원리에 입각한 국민연금이 더 많은 사람의 노후를 제대로 보장하게 하는 것이 결과적으로 모두의 부담을 더는 길이다. 그리고 앞서 말했듯 개인들이 GDP 11를 전부 부담해야 한다는 생각에서 벗어나 새로운 연금재정 패러다임에 대해 고민해 볼 필요도 있다. 새로운 재정 패러다임 가능할까미래의 청장년 세대 개인이 모두 부담해야 한다는 생각에서 벗어나야 한다고 했는데 구체적으로 어떻게 가능할까.주 장기적으로 조세가 역할을 할 수 있다고 본다. 우리의 국민연금엔 소득재분배 성격이 있다 국민연금은 보험료를 낸 만큼 연금액을 받는 구조가 아니다. 평균소득보다 적게 번 이들에게 상대적으로 더 얹어주는 하후상박 구조다. 물론 절대적인 연금액은 고소득층이 높지만 낸 보험료 대비 연금액의 비율은 저소득층이 더 높다편집자 주. 국민연금의 소득재분배 성격을 고려하면 조세 투입을 못 할 이유가 없다고 본다. 자본의 역할을 강화하는 방식도 있다. 지금은 기업과 개인이 보험료를 55 부담하는데 기업 부담을 6570로 올릴 수도 있다. OECD 평균이 대략 그 정도다. 아울러 보험료 부과 대상소득이 GDP의 30 이하로 26 수준인 것으로 추정된다. 이를테면 사실상 사용자 역할을 하고 있는 플랫폼 기업에 보험료 부담을 지워야 한다. 프랑스는 자산소득을 비롯한 모든 종류의 개인소득과 대기업 법인세에 사회보장세를 부과한다. 장기 미래에 가능한 재정 패러다임 변화를 지금 구체적으로 얘기하긴 어렵다. 미래에 부가 어떤 방식으로 창출될지 그 변화를 미리 예단하기가 어렵기 때문이다.오 국민연금에 보험료 이외 재원 투입될 수 있다고 본다. 문제는 미래세대의 지출 부담은 지금 명확하게 수치로 확인이 되는데 소득대체율 인상론 측이 말하는 충당 방안은 아직 범주 수준이다. 저는 소득대체율 인상은 어렵다는 입장이지만 소득대체율 유지 역시 미래세대 부담이 크기 때문에 개인적으로 가늠을 해봤다. 현재 보험료 부과대상이 GDP의 30가 채 되지 않는다고 했다. 마치 70라는 미지의 영역이 남아 있는 것처럼 여겨지지만 국민계정에 분배 GDP 구성을 들여다보면 추가 부과대상으로 삼을 만한 것이 그리 많지 않다. 부과대상을 현 30 수준에서 40 수준으로 높이고 보험료율 15로 인상해도 재원은 여전히 매우 모자라다. 결국은 법인과 자본에다 과세하자는 주장인데 부족액을 충당할 만큼 확보할 수 있느냐의 문제가 있다. 우리는 이미 기업과 자본소득에 대해서 과세를 하고 있다. 자동차든 로봇이든 부동산이든 결국은 재산세와 종합부동산세로 거둬질 거다. 여기에 횡재세 정도가 추가될 수 있다. 과세를 강력히 한다고 해도 여전히 부족할 것이다. 나아가 혹시 충분한 재원이 나온들 그걸 소득대체율 인상에 따른 부족액을 메우는 데 쓰는 게 맞느냐는 또 다른 논점이 있다.무슨 뜻인가.오 현재 가입자들은 보험료가 너무 낮다 보니 낸 것에 비해 과하게 많이 받게 돼 있다. 낸 것보다 더 받는 만큼을 미래세대에 빚지고 있는 거다. 이걸 현세대가 보험료 인상으로 어느 정도 책임을 져야 그다음 조세 투입도 얘기할 수 있다고 본다. 그래서 저는 보험료율 15까지는 점진적으로 인상하되 그 이후에도 재정이 어렵다면 그때는 국고 투입이 가능하다고 본다. 하지만 재정을 투입하더라도 그 돈이 소득대체율 인상에 우선적으로 쓰이는 것에는 찬성하지 않는다. 국민연금 가입기간이 긴 노동시장 중심부의 노동자들이 대체율 인상의 혜택을 가장 크게 입을 것이기 때문이다. 가입기간이 짧아 소득대체율이 실질적으로 낮은 불안정 노동자들을 위해 재정이 우선적으로 쓰여야 한다고 본다.국민연금 보험료가 너무 낮다 보니 계층 간 역진성 문제가 생긴다. 고소득자가 덜 받는 만큼 저소득자가 더 받아가는 게 아니다. 모두가 낸 것보다 더 받아가며 그 돈이 미래세대에서 온다. 기간이 길고 임금이 높을수록 순혜택이 크다. 소득대체율 인상 고소득층에 더 유리 vs 사회보험 특성 이해해야소득대체율 인상이 어떤 효과를 낼 것이냐에 대한 논의로 이어가자. 재정안정론 측에서는 소득대체율 인상이 실질적인 소득대체율 인상으로 이어지지 않을 것이라고 주장하는 것으로 안다.오 국민연금 급여는 결국 소득비례 가입기간 비례다. 연금액을 일제히 높이는 소득대체율 인상의 효과는 높은 임금을 받으면서 장기간 고용된 노동시장 중심부에 집중될 것이다.주 그 주장은 사회보험이 정의롭지 않다고 얘기하는 것과 같다. 고용보험의 실업급여 역시 소득비례다 더 많이 벌던 사람이 더 많은 실업급여를 받는다는 뜻이다편집자 주. 실업급여의 소득대체율을 50에서 60로 올리는 것은 임금이 높을수록 혜택이 크니 정의롭지 않은 것인가. 국민연금의 급여나 고용보험의 실업급여나 본질적으로 기존 소득의 대체 기능을 하도록 돼 있는 것이다. 그게 그 제도의 목적이다. 게다가 다른 사회보험과 달리 국민연금에는 강력한 재분배 요소가 들어가 있다.오 사회보험의 특성과 국민연금의 재분배 요소를 무시하는 것이 아니다. 지금의 국민연금엔 보험료가 너무 낮다 보니 생기는 계층 간 역진성의 문제가 있다 저소득층보다 고소득층에 더 유리하다는 뜻편집자 주. 무슨 얘기냐면 지금 국민연금에 소득재분배 기능이 있긴 하지만 고소득자가 덜 받는 만큼을 저소득자가 더 받아가는 구조가 아니다. 모두가 낸 것보다 더 받아가는데 그 돈은 미래세대에서 오는 것이다. 낸 보험료보다 더 돌려받는 만큼을 순혜택이라고 하는데 가입기간 길고 임금 높을수록 순혜택 절대액이 커진다. 즉 미래세대 부담으로 귀결되는 순혜택의 이득이 노동시장 중심부 고소득자들에게 집중된다는 얘기다. 이것이 옳으냐 하는 문제 제기다.주 국민연금에서 각자 낸 보험료와 급여의 수익을 따지며 계층 간 역진성 고소득층에 유리한 성격 얘기하는 자체가 이상하다고 생각한다. 국민연금제도는 각자 계정에 돈을 쌓고 자기가 낸 돈에 상응해 급여를 받는 제도가 아니다. 총량적으로 수입 보험료과 지출 연금액을 맞춰가는 제도이며 장수에 대응하는 제도이므로 수명에 따라 보장 총량이 달라진다. 개별 수익을 중심으로 연금제도를 보는 것은 공적연금의 본질과 어긋난 접근이란 생각이다. 하지만 계층별 수익을 따진다고 하더라도 오 위원장의 문제 제기는 일정 수준 이상의 보험료 인상으로 해소된다. 이것은 소득대체율 인상을 가로막을 근거가 되지 않는다. 오히려 소득대체율도 인상하되 거기에 필요한 재원을 어떻게 재분배성이 강하게 설계할 것이냐에 대한 얘기를 해야 하지 않을까.오 보험료 인상과 더불어 소득대체율을 인상하면 보험료 인상의 효과가 상쇄된다. 미래세대의 부담을 덜어주지 못한다는 얘기다. 그 세대의 부담으로 귀결되는 혜택이 노동시장 중심부에 집중되는 문제를 풀지는 못한다. 국고지원을 적극 얘기하고 있다. 앞서 말했듯 저도 반대하지 않는다. 그런데 입장을 명확하게 하기 위해 이렇게 나눠서 얘기했으면 좋겠다. 국민연금 부족액을 위한 국고지원 크레딧 제도와 보험료 지원사업을 위한 국고지원으로 말이다.국고를 투입하더라도 무엇에 우선적으로 지원할 것이냐에 대한 얘기인 것 같다.주 뭘 먼저 하고 뭘 나중에 한다는 식으로 접근할 문제는 아니라고 본다. 우리나라 국민연금 보장 수준은 그냥 무슨 짓이든 다 해야 하는 수준이다. 소득대체율 인상과 가입기간을 늘려주는 조치가 같이 가야 하는 것이지 우선을 따질 일이 아니라고 본다. 크레딧 제도는 군복무 출산 등 사회적 공헌을 한 이들에게 가입기간을 늘려주는 것이다. 소득대체율은 급여산식을 바꿔서 적용하는 폭넓은 조치인 반면 크레딧 제도는 일정한 공헌을 한 사람을 타켓팅한 제도다. 그리고 질병이나 장애 등 여러 사정으로 인해 사회적 공헌을 못 하는 이들도 많다. 두 기제는 대체 가능한 것이 아니다. 아울러 취약계층 보험료 지원사업은 당연히 해야 하는 것이다. 그런 과제를 뒤로 미루자는 얘기가 아니다. 오히려 소득대체율 인상과 결합할 때 이런 조치의 보장성 강화 효과는 더 커진다. 또 중심부 노동자들 얘기를 하셨는데 그렇다면 그들은 은퇴 이후 소득절벽이란 위험에서 벗어나 있나. 소득대체율 인상하면 이 사람들만 혜택 봐요라고 하면서 마치 이들이 기득권을 형성하고 있는 것처럼 말하고 있다. 실질적으로는 별 기득권도 없는데. 퇴직연금은 연금으로서 역할을 할 수 있나오 중간계층 중산층의 연금액도 충분치 않은 것은 사실이다. 그런데 결국은 한정된 자원의 배분 문제 아닌가. 우선순위로 무엇을 둘 것인가의 문제라고 생각한다. 소득대체 인상도 미래세대 부담이 될 재원 문제 때문에 다른 대안을 찾자는 것이다. 가입기간이 짧은 불안정 노동자 저소득층에게 가입기간을 늘려주는 조치 크레딧 제도를 의미. 가입기간을 1년 늘려줄 때 소득대체율 1씩 늘어난다편집자 주를 통해 그들의 실질적인 소득대체율을 올려줄 수 있다고 본다. 중상위 계층에게도 소득대체율 인상 대신 다른 대안이 있다. 기업이 매년 임금의 8.34씩을 퇴직금으로 쌓아두고 있다. 지난해 한해간 쌓인 퇴직금 적립액이 그해 국민연금 보험료 총액을 넘어섰다. 든든한 연금으로 기능케 할 잠재력이 퇴직금에 충분히 있다는 뜻이다.주 현 제도는 퇴직급여 제도이고 퇴직금과 퇴직연금 중 선택할 수 있게 돼 있다. 퇴직연금 가입률은 가입대상 노동자의 절반을 약간 넘는다. 퇴직연금은 금융시장을 통해 돌아가는 사적연금으로 재분배 기능이 없고 유족급여 장애급여도 없다. 국민연금처럼 죽을 때까지 물가연동으로 실질가치를 보장해주는 그런 질 좋은 연금이 아니다. 퇴직연금에 대해 제대로 된 노후소득보장 기능을 기대하기는 힘들다.오 퇴직연금은 사적연금인 건 맞다. 여러 한계가 있지만 그럼에도 사용자가 전액 기여 매해 각 노동자의 임금 8.34를 적립하는 제도다. 저는 두 가지의 정책 과제를 더하면 퇴직연금도 중상위층이 기댈만한 연금이 될 수 있다고 본다. 한가지는 1년 미만 고용된 노동자에게도 퇴직금 제도를 적용하는 것 또 다른 과제는 비자발적 실업기간에도 실업급여를 보장해줘 퇴직금의 중간해지를 엄격히 규제하는 것이다. 네덜란드나 덴마크 등에선 퇴직연금이 노후소득원의 한 축으로 작동한다.주 네덜란드 덴마크는 산별협약에 의해 작동하는 퇴직연금으로 성격이 다르다. 한국에는 그런 기반이 없다. 퇴직금을 제대로 된 연금으로 작동하도록 제도를 개혁하는 데 시간이 매우 많이 걸릴 것이다. 가능할지도 불확실하다.오 국민연금 소득대체율을 인상해도 효과가 나타나려면 지금부터 20년 있어야 한다. 20년이면 퇴직연금의 개혁도 할 수 있는 시간이다. 다층연금체계로 노후소득보장 효과를 충분히 볼 수 있다고 본다. 중상위계층에겐 국민연금퇴직연금 중간계층은 국민연금 하위계층에겐 국민연금기초연금의 체계가 적용되게끔 하자는 것이다.주 공적 노후보장제도에 대해 이렇게 계층별로 나눠서 접근하는 것은 맞지 않다. 우리는 국민연금 보험료를 냄으로써 미래의 연금 청구권을 쌓아간다. 기여를 했으니 나중에 생산되는 부의 일정한 몫을 받아갈 권리가 생긴다는 얘기다. 그런데 기초연금은 그런 제도가 아니다. 국민연금의 역할과 사회 상황에 따라 앞으로 어떻게 변해갈지 모르는 제도이다 이것을 미래 노후소득보장 한축으로 확정적으로 얘기하는 것은 맞지 않다. 국민연금에 10년 납입해서 받는 연금액은 기초연금을 합쳐도 기초생활보장제도의 내년 생계급여 71만원에 미치지 못한다. 기초연금이나 국민기초생활보장급여를 통해 보장받는 최저수준보다 국민연금 보장수준이 훨씬 높아야만 공적연금이 제대로 돌아간다.각자가 생각하는 개혁안은. 간단히 말해서 얼마의 보험료와 소득대체율이 적절하다고 보나.오 지난 9월 1일 재정계산위원회가 제시한 안을 기본축으로 해서 사회적 논의가 이뤄졌으면 좋겠다. 앞으로 10년 동안 매해 보험료율을 0.6포인트씩 올려 15에 도달케 하자는 방안이다. 여기에 연금수급개시 연령을 2048년에 최장 68세까지 상향하는 안과 기금수익률을 높이는 안을 조합했다.주 2007년 소득대체율을 50에서 40로 떨어뜨리는 제도 변화가 있었다. 이것을 50로 다시 회복시켜야 한다. 보험료율은 13 선을 생각했다. 그러나 어느 정도의 속도로 그 선에 도달하느냐는 열어놓고 생각해볼 필요가 있다. 재정계산위 사퇴 뒤 우리의 비전을 보여주는 대안보고서를 준비 중이다 지난 8월 31일 주은선 교수와 남찬섭 동아대 사회복지학과 교수는 복지부 산하 재정계산위원회가 소득대체율 인상론을 제대로 다루지 않는다는 이유로 재정계산위의 민간위원직을 사퇴한 바 있다. 재정계산위는 국민연금의 장기적인 수입지출 기금 규모를 계산해 정부에 보험료연금액 조정안을 제안하기로 한 보건복지부 산하 민관 합동위원회다. 두 교수는 재정계산위와 별도로 대안 보고서를 준비 중이다.편집자 주.좋은 연금개혁을 위한 조건이 있다면.오 정치권에는 연금이 부담스러운 주제일 것이다. 하지만 책임 있는 정치를 하겠다고 한다면 자기의 안을 제시해야 한다고 본다. 이 중요한 의제에 대해 논의가 시작됐음에도 아직 안이 없는 것으로 안다. 게다가 국회 연금특위를 내년 5월까지 연장한다고 한다. 총선 전에 연금개혁에 대한 입장을 안 낼 수도 있다는 메시지로 읽힌다. 미래를 좌우할 정책에 대해 안을 내고 국민에게 선택을 받는 것이 선거에 임하는 정당의 책임 있는 자세 아닐까.주 연금개혁은 정부가 중심이 되어 끌어갈 수도 있고 정당이 사회적 합의를 이끌어갈 수도 있다. 어떤 방식이 됐든 책임을 더 많이 져야 하는 주체들에게 의견을 묻고 제대로 책임을 부여하는 쪽으로 나아가야 한다고 생각한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1988년생 국민연금이 올해로 서른다섯 살이다. 지난달 적립금은 1000조 원을 넘었다. 하지만 2055년에는 지갑이 텅 빌 것으로 전망된다. 보험료를 낼 청년과 장년이 줄고 연금을 받을 노인은 늘고 있다. 연금이 제 기능을 하려면 내는 돈 보험료율 인상을 포함한 대수술이 불가피하다. 그런데 받는 돈 소득대체율을 두고는 의견이 갈린다. 재정 안정을 위해 현행 40를 유지해야 한다는 주장과 노후소득 보장을 위해 4550로 올려야 한다는 주장이 맞선다. 정부 자문기구인 국민연금 재정계산위원회도 둘로 쪼개졌다. 동아일보는 소득대체율에 대해 정반대 견해를 지닌 두 학자의 글을 싣는다. 소득대체율 인상 반대오건호 내가 만드는 복지국가 정책위원장연금 개혁에서 보장성 강화는 중요한 과제다. 그 방안의 하나로 국민연금 명목 소득대체율 인상이 주장된다. 나는 이 방안이 우리나라 연금체계에서 적절하지 않다고 판단한다. 추가 재원이 수반되면서도 빈곤 노인에게 효과가 크지 않고 보장성의 시야를 협소하게 가두기 때문이다. 첫째 소득대체율을 올려도 소득이 적고 가입 기간이 짧은 불안정 취업자에게 연금액 인상 효과는 약하다. 국민연금의 급여액은 노동시장의 지위를 반영해 소득이 높고 가입 기간이 길수록 많으므로 소득대체율을 40에서 50로 올려도 정작 노인 빈곤 위험이 큰 가입자의 인상액은 그리 많지 않다. 노인 빈곤이 심하니 소득대체율을 올려야 한다는 주장이 설득력이 약한 이유이다. 둘째 경제협력개발기구 OECD 연금보고서에 한국 공적연금의 소득대체율이 회원국 평균보다 낮게 제시된 것을 인용하는데 이것이 국민연금 명목 소득대체율과 같은 개념은 아니다. OECD의 소득대체율은 국민연금의 지급률 1년 가입당 소득대체율에 의무가입기간 기초연금을 종합해 산정된다. 무엇이 한국 공적연금의 소득대체율을 낮게 만들었을까. 우선 국민연금 급여는 회원국 대다수 소득비례 연금과 달리 하후상박 구조를 지닌다. OECD 연금 산식에서 평균소득이 국민연금 내부에서는 가입자 평균 소득의 1.6배에 해당하기에 상대적으로 낮은 지급률이 적용되는 중상위 소득 가입자가 국민연금을 대표하고 있다. 또한 국민연금은 의무가입 기간이 OECD 평균보다 6.1년이 짧아 OECD 산식에서 그만큼 소득대체율이 낮게 계산된다. 노인 70가 받는 기초연금이 한국 소득대체율 산정에서 제외된 것도 유념할 이유이다. 국민연금의 하후상박 구조는 그대로 유지한다면 필요한 건 의무가입 연령을 올리고 한국 소득대체율 산정에 기초연금을 포함하도록 OECD와 협의하는 일이다. 셋째 소득대체율 인상론의 재정 안정화 방안이 불명확하다. 국민연금을 장기 추계하면 미래에 당해 수지 적자가 국내총생산 GDP의 7에 이르고 소득대체율을 50로 올리면 9로 커진다. 인상론은 보험료 외에 자본과 이윤에 세금을 더 부과하고 보험료 부과 대상도 확대하자고 제안한다. 현행 소득대체율에서도 다양한 재원을 마련해야 하기에 이는 어떤 입장에서든 필요한 일이다. 그런데 내용이 당위적 방향에 머문다. 구체적으로 어디에서 얼마를 더 거두어 재정 부족분의 얼마를 충당하는지를 제시해야 재정 안정화 방안이다. 보장성 확대를 반대하는 게 아니다. 시야를 국민연금 명목 소득대체율에 한정하지 말자는 비판이다. 이미 법정 의무 제도로 기초연금 국민연금 퇴직연금이 운영되고 있다. 이 현실을 직시해야 노후소득 보장을 위한 실질적 계획도 세울 수 있다. 우선 기초연금은 2022년 급여 지출액이 20조 원으로 국민연금 34조 원의 절반을 넘는 제도로 성장했다. 앞으로 노인 수가 대폭 늘어나므로 대상은 줄이되 저소득일수록 금액을 더 지급하는 최저보장 소득 방식으로 전환해 노인 빈곤에 대응하자. 국민연금은 지속가능성을 위해 단계적으로 보험료율을 올려가자. 보장성에서는 가입 기간을 늘리는 게 과제다. 출산 실업 군 복무 등으로 연금 가입이 불리한 사람들에게 연금 크레디트를 대폭 확대하고 도시의 지역 가입자에게 국가가 보험료를 절반 지원해 가입을 독려하자. 현재 만 59세인 의무가입 연령도 64세로 상향하면 명목 소득대체율 5포인트 인상 효과가 생긴다. 퇴직연금은 지난해 기업이 납부한 기여금 총액이 57조 원이었다. 국민연금 보험료 수입 56조 원보다 많다. 이제부터 1년 미만 고용 노동자에게도 적용하고 중간 해지를 엄격히 관리해 연금으로 자리 잡게 하자. 시야를 기초연금 국민연금 퇴직연금의 연금 삼총사로 확장하자. 그래야 적정 노후소득 보장을 설계하고 지속가능성도 확보하며 청년들과 연금 개혁 비전을 이야기할 수 있다. 소득대체율 인상 찬성지난달 1일 국민연금 제도개선 방향에 관한 공청회에서 국민연금 재정계산위원회는 이른바 더 내고 더 늦게 받고 그대로 받는 연금개혁안을 제안했다. 당연히 반발이 나왔고 그에 대해 정부는 소득대체율을 올리는 방안도 고려할 것이라고 했다. 국민연금 소득대체율을 올려야 하는 이유는 많다. 첫째 모든 제도는 그것의 본래 목적을 달성할 수 있어야 지속 가능하다. 국민연금도 신뢰를 얻고 지속 가능하려면 본래 목적인 노후소득 보장을 실현해야 한다. 국민연금은 그간의 개혁으로 소득대체율을 너무 급격히 인하한 관계로 급여 수준이 매우 낮아지게 됐다. 우선 국제 기준으로도 낮다. 소득대체율이 현 상태를 유지하면 국민연금 소득대체율은 경제협력개발기구 OECD 기준으로 31.2가 되는데 이는 OECD 평균 42.2의 74 수준에 불과한 것이다. 그런데 여기서 주의할 것은 이 31.2라는 소득대체율은 가입 기간을 38년으로 즉 최대 가입 기간으로 가정했을 때의 수치라는 점이다. 이번 재정계산에 따르면 국민연금 실제 가입 기간은 2030년부터 새로 국민연금을 받는 수급자의 경우 20년 2060년대 이후 신규 수급자는 27년 정도일 것으로 각각 전망됐다. 따라서 실가입 기간을 27년으로 가정하면 소득대체율은 31.2가 아니라 22가 된다. 이러니 실가입 기간을 반영한 국민연금의 급여 수준은 노후 최소 생활비 월 113만 원의 60 정도에 불과하고 여기에 기초연금을 합해도 80 정도에 그친다. 따라서 기초연금을 합해 국민연금이 적어도 노후 최소 생활비만큼을 보장하기 위해서는 소득대체율을 현행 40에서 50로 인상해야 한다. 둘째 소득대체율 인상은 청년세대의 형평성 제고에 기여한다. 현 청년세대는 대략 2050년대 이후 연금을 받게 되는데 이들의 실가입 기간은 지금보다 58년이 더 길지만 급여 수준은 오히려 더 낮아지거나 별 변동이 없다. 우리는 흔히 청년을 비롯한 후세대가 보험료 부담으로 불공평을 경험한다는 이야기를 많이 하지만 노후소득 보장이 국민연금의 본래 목적임을 감안한다면 지금보다 더 오래 가입하고도 급여는 더 적게 받는 문제가 더 심각한 사안이라 할 수 있다. 셋째 일각에서는 국민연금의 소득대체율 인상은 현세대 노인 빈곤에는 효과가 없다고 말한다. 하지만 소득대체율을 2025년에 인상한다고 가정하면 그해에 연금을 신규 수급하는 사람은 그 인상분을 거의 못 받지만 2026년 신규 수급자는 1년분의 인상분을 받는다. 따라서 2030년 정도 이후 신규 수급자는 5년치 이상의 인상분을 받으므로 제법 인상 효과를 볼 수 있다. 국민연금 급여 인상이 당장 노인 빈곤에 효과가 없다고 소득대체율을 계속 올리지 않으면 국민연금으로는 5년 후에도 그리고 10년 후에도 노인 빈곤을 해소하지 못하게 될 것이다. 빈곤은 생각보다 복잡한 사안이어서 1년 혹은 2년 내 해결이 어렵다. 지금 당장 노인 빈곤에 효과가 없다고 국민연금 급여를 인상하지 않는 것은 실제로는 510년의 기간을 두고 해결해야 할 노인 빈곤에 접근하는 방책으로는 비효율적이다. 넷째 일각에서는 크레디트나 보험료 지원 강화로 가입 기간을 늘려 이른바 실질 소득대체율을 올리면 된다고 말한다. 하지만 크레디트나 보험료 지원 강화로는 가입 기간을 제도적 상한 이상으로 늘릴 수 없다. 즉 OECD의 계산에서 가정된 최대 가입 기간 38년을 넘지 못한다. 따라서 이미 최대 가입 기간인 38년을 가정해 계산된 31.2를 넘지 못하게 되는 것이다. 이른바 실질 소득대체율은 법정 소득대체율 인상 자체를 대체할 수 없다. 우리 사회는 빠른 고령화로 2060년대 이후는 65세 이상 인구가 전체 인구의 절반에 가까운 45 이상이 되리라 전망된다. 이럴수록 이들에게 안정적인 소득을 보장하고 이들의 소비가 청장년 세대와 선순환할 수 있는 경제구조를 만들어야 하며 여기에 국민연금은 노후 소득 보장의 확보로 기여해야 할 것이다. 소득대체율국민연금 가입자의 은퇴 전 평균소득과 비교했을 때 노후연금 수령액이 차지하는 비중. 60세까지 월 평균소득이 100만 원이고 65세 이후 국민연금으로 40만 원을 받으면 소득대체율은 40.보험료율 소득 대비 국민연금 보험료를 부과하는 비율. 1999년부터 현재까지 소득의 9로 동결. 직장가입자는 9에 해당하는 금액을 본인과 회사가 각각 절반 4.5씩 부담. 지역가입자는 본인 전액 부담. </t>
   </si>
   <si>
     <t>국회에 예보 제도 개선안 보고상향 논의 향후 검토한도 상향 시 저축은행으로 자금 이동일부 소형사 충격 가능성  서울연합뉴스 임수정 기자 올해 미국 실리콘밸리은행 SVB 사태 이후 예금자보호한도를 1억원으로 높여야 한다는 논의가 탄력을 받았지만 결국 현행 5천만원으로 유지될 전망이다. 금융당국은 최근 국회 보고에서 예금자보호한도 상향과 관련해 향후 검토가 필요한 사안이라며 논의 시점을 뒤로 미뤘다. 9일 국회 정무위원회 소속 김희곤 의원실에 따르면 금융위원회는 지난 5일 정무위에 보고한 예금보험제도 개선 검토안에서 향후 찬반 논의 시장 상황 등을 종합 고려해 상향 여부 등을 검토할 필요가 있다고 밝혔다. 당장 급하게 추진할 사안이 아니라는 취지로 해석된다. 보호 한도를 높여 금융 제도 신뢰를 강화해야 한다는 의견도 있지만 2금융권으로의 자금 쏠림이나 예보료 인상에 따른 소비자 부담 증가를 우려하는 목소리도 함께 고려한 것으로 보인다. 이는 금융위가 작년 3월부터 예보 금융업권 민간 전문가 등으로 구성된 민관 합동 태스크포스 TF를 통해 예금보험제도 전반을 논의한 결과다.  금융위가 공개한 연구 용역 결과에 따르면 보호 한도를 1억원으로 상향 시 은행에서 저축은행으로 자금 이동이 나타나고 이로 인해 저축은행 예금은 1625가량이 증가할 것으로 추산됐다.  이동 자금은 은행 예금의 1 수준으로 전체 시장 영향은 크지 않을 수 있지만 저축은행 업권 내 과도한 수신 경쟁이 벌어질 경우 일부 소형사에는 충격이 될 수 있다는 내용도 포함됐다. 한도 상향 시 보호 한도 내 예금자 비율은 98.1에서 99.3로 1.2포인트 p 증가하는 데 그치는 등 실익도 그리 크지 않은 것으로 나타났다.  다만 예금을 분산 예치하고 있는 금융소비자의 편의를 제고하는 효과는 있다고 분석됐다. 6차에 걸친 민관 합동 TF 회의 주요 논의 사항도 공개됐다.  금융업권은 현재도 예금자 대부분이 보호되고 있어 한도 상향의 소비자 보호 강화 효과는 크지 않으면서 업권 부담은 늘어날 우려가 있다는 의견을 주로 개진한 것으로 나타났다. 아울러 연금저축 사고보험금 등에 대한 별도 한도 적용을 추진 중이기 때문에 제도 개선의 효과를 지켜본 뒤 전체 한도 조정을 검토할 필요가 있다고 주장했다. 민간 전문가들 사이에서는 금융소비자 신뢰 제고 등 측면에서 한도 상향을 고려할 필요가 있다는 의견이 나왔다.  다만 최근 미국 사례 등을 보면 한도를 높여도 뱅크런 방지 효과가 제한적일 수 있기 때문에 위기 시에는 한도 상향보다는 전액 보호 조치가 필요할 수 있다는 주장도 나왔다. 결국 금융위는 이러한 다양한 찬반 논의가 이어지는 데다가 시장 불안도 가라앉지 않은 상황을 종합 고려해 신중론을 고수한 것으로 보인다. 또한 보호 한도가 5천만원으로 유지되더라도 사회보장적 상품 등에 대한 별도 한도 적용은 지속적으로 확대되는 추세다.  금융위는 2015년부터 확정기여형 DC형 및 개인형 IRP 퇴직연금의 예금에 대해 일반 예금과 별도로 5천만원의 보호 한도를 적용해왔으며 연금저축 신탁보험 사고보험금 중소기업퇴직연금기금 등에 대한 별도 보호도 시행을 앞두고 있다. 다만 국회 논의 과정이 변수가 될 수 있다. 정치권에서는 예금자 보호 한도가 2001년 이후 23년째 5천만원에 머물러 있어 경제 규모에 맞게 현실화해야 한다는 의견이 우세하다.  sj9974yna.co.kr</t>
@@ -974,21 +1013,30 @@
 </t>
   </si>
   <si>
+    <t>['하나 퇴직연금', '퇴직연금 가입']</t>
+  </si>
+  <si>
+    <t>['퇴직금 제도', '퇴직연금 은퇴설계']</t>
+  </si>
+  <si>
+    <t>['IRP 현물이전', '퇴직연금 세액공제', '한국투자 퇴직연금', '퇴직연금 수익률']</t>
+  </si>
+  <si>
     <t>['디폴트옵션', '퇴직연금 사업자', '퇴직연금 은퇴설계', '퇴직연금 규모', '퇴직연금 수상', '퇴직연금 고용노동부', 'KB 퇴직연금', '퇴직연금 서비스 ', '퇴직연금 AI', '퇴직연금 경쟁', '퇴직연금 로보어드바이저', '퇴직연금 수익률', '퇴직연금 포트폴리오', '퇴직연금 TDF', '퇴직연금 자산배분', '퇴직연금 가입', '퇴직연금 채권', '퇴직연금 라인업', '퇴직연금 리츠']</t>
   </si>
   <si>
     <t>['확정기여형', '퇴직연금 저축은행']</t>
   </si>
   <si>
+    <t>['퇴직연금 적립금', '퇴직연금 은퇴설계', '하나 퇴직연금', '퇴직연금 가입']</t>
+  </si>
+  <si>
     <t>['퇴직금 제도', '퇴직소득세']</t>
   </si>
   <si>
     <t>['퇴직금 제도', '퇴직연금 제도 도입', '퇴직연금 은퇴설계', '퇴직연금 규모', '하나 퇴직연금', '퇴직연금 수익률', '퇴직연금 가입']</t>
   </si>
   <si>
-    <t>['퇴직연금 적립금', '퇴직연금 은퇴설계', '하나 퇴직연금', '퇴직연금 가입']</t>
-  </si>
-  <si>
     <t>['확정기여형', '퇴직연금 저축은행', '퇴직연금 예금']</t>
   </si>
   <si>
@@ -1142,27 +1190,36 @@
     <t>['퇴직연금 가입']</t>
   </si>
   <si>
-    <t>[{'디폴트옵션': 2}, {'퇴직연금 사업자': 1}, {'퇴직연금 은퇴설계': 1}, {'퇴직연금 규모': 1}, {'퇴직연금 수상': 1}, {'퇴직연금 고용노동부': 8}, {'KB 퇴직연금': 1}, {'퇴직연금 서비스 ': 1}, {'퇴직연금 AI': 1}, {'퇴직연금 경쟁': 2}, {'퇴직연금 로보어드바이저': 1}, {'퇴직연금 수익률': 2}, {'퇴직연금 포트폴리오': 1}, {'퇴직연금 TDF': 1}, {'퇴직연금 자산배분': 3}, {'퇴직연금 가입': 4}, {'퇴직연금 채권': 1}, {'퇴직연금 라인업': 1}, {'퇴직연금 리츠': 1}]</t>
-  </si>
-  <si>
-    <t>[{'디폴트옵션': 9}, {'퇴직연금 사업자': 9}, {'퇴직연금 은퇴설계': 9}, {'퇴직연금 규모': 10}, {'퇴직연금 수상': 9}, {'퇴직연금 고용노동부': 1}, {'KB 퇴직연금': 9}, {'퇴직연금 서비스 ': 9}, {'퇴직연금 AI': 9}, {'퇴직연금 경쟁': 8}, {'퇴직연금 로보어드바이저': 9}, {'퇴직연금 수익률': 11}, {'퇴직연금 포트폴리오': 10}, {'퇴직연금 TDF': 9}, {'퇴직연금 자산배분': 9}, {'퇴직연금 가입': 11}, {'퇴직연금 채권': 9}, {'퇴직연금 라인업': 9}, {'퇴직연금 리츠': 7}]</t>
-  </si>
-  <si>
-    <t>[{'확정기여형': 4}, {'확정기여형': 7}, {'퇴직연금 저축은행': 15}, {'퇴직연금 저축은행': 35}]</t>
+    <t>[{'하나 퇴직연금': 1}, {'퇴직연금 가입': 1}]</t>
+  </si>
+  <si>
+    <t>[{'퇴직금 제도': 3}, {'퇴직연금 은퇴설계': 36}]</t>
+  </si>
+  <si>
+    <t>[{'IRP 현물이전': 3}, {'퇴직연금 세액공제': 3}, {'한국투자 퇴직연금': 14}, {'퇴직연금 수익률': 19}]</t>
+  </si>
+  <si>
+    <t>[{'디폴트옵션': 2}, {'퇴직연금 사업자': 1}, {'퇴직연금 은퇴설계': 1}, {'퇴직연금 규모': 1}, {'퇴직연금 수상': 1}, {'퇴직연금 고용노동부': 8}, {'KB 퇴직연금': 1}, {'퇴직연금 서비스 ': 2}, {'퇴직연금 AI': 1}, {'퇴직연금 경쟁': 2}, {'퇴직연금 로보어드바이저': 2}, {'퇴직연금 수익률': 2}, {'퇴직연금 포트폴리오': 1}, {'퇴직연금 TDF': 1}, {'퇴직연금 자산배분': 3}, {'퇴직연금 가입': 5}, {'퇴직연금 채권': 1}, {'퇴직연금 라인업': 1}, {'퇴직연금 리츠': 1}]</t>
+  </si>
+  <si>
+    <t>[{'디폴트옵션': 9}, {'퇴직연금 사업자': 9}, {'퇴직연금 은퇴설계': 9}, {'퇴직연금 규모': 10}, {'퇴직연금 수상': 9}, {'퇴직연금 고용노동부': 1}, {'KB 퇴직연금': 9}, {'퇴직연금 서비스 ': 9}, {'퇴직연금 AI': 9}, {'퇴직연금 경쟁': 7}, {'퇴직연금 로보어드바이저': 9}, {'퇴직연금 수익률': 11}, {'퇴직연금 포트폴리오': 10}, {'퇴직연금 TDF': 9}, {'퇴직연금 자산배분': 9}, {'퇴직연금 가입': 12}, {'퇴직연금 채권': 9}, {'퇴직연금 라인업': 9}, {'퇴직연금 리츠': 8}]</t>
+  </si>
+  <si>
+    <t>[{'확정기여형': 4}, {'확정기여형': 7}, {'퇴직연금 저축은행': 15}, {'퇴직연금 저축은행': 39}]</t>
+  </si>
+  <si>
+    <t>[{'확정기여형': 5}, {'퇴직연금 저축은행': 22}]</t>
+  </si>
+  <si>
+    <t>[{'퇴직연금 적립금': 3}, {'퇴직연금 은퇴설계': 2}, {'하나 퇴직연금': 3}, {'퇴직연금 가입': 6}]</t>
   </si>
   <si>
     <t>[{'퇴직금 제도': 32}, {'퇴직소득세': 46}]</t>
   </si>
   <si>
-    <t>[{'확정기여형': 5}, {'퇴직연금 저축은행': 22}]</t>
-  </si>
-  <si>
     <t>[{'퇴직금 제도': 17}, {'퇴직연금 제도 도입': 2}, {'퇴직연금 은퇴설계': 1}, {'퇴직연금 규모': 3}, {'하나 퇴직연금': 2}, {'퇴직연금 수익률': 3}, {'퇴직연금 가입': 2}]</t>
   </si>
   <si>
-    <t>[{'퇴직연금 적립금': 3}, {'퇴직연금 은퇴설계': 2}, {'하나 퇴직연금': 2}, {'퇴직연금 가입': 5}]</t>
-  </si>
-  <si>
     <t>[{'확정기여형': 2}, {'퇴직연금 저축은행': 10}, {'퇴직연금 예금': 37}]</t>
   </si>
   <si>
@@ -1331,7 +1388,16 @@
     <t>[{'퇴직연금 가입': 33}]</t>
   </si>
   <si>
-    <t>KB손해보험은 퇴직연금 자산 관리 전략과 수익률을 중요시하며, 자산배분컨설팅을 제공하여 투자자에게 실질적인 가치를 제공하고 있다.</t>
+    <t>국민연금 운용방식을 부과식으로 바꾸는 방안이 거론되고 있어서</t>
+  </si>
+  <si>
+    <t>국회 연금개혁특별위원회가 활동기한을 연장하여 국민연금 개혁이 미뤄질 조짐이다.</t>
+  </si>
+  <si>
+    <t>금리 인상에 따른 채권금리 상승과 선진국 우량채에 대한 언급이 있음.</t>
+  </si>
+  <si>
+    <t>KB손해보험이 퇴직연금 자산 관리 전략과 자산 배분 모니터링에 주력하고 있다.</t>
   </si>
   <si>
     <t>KB손해보험이 퇴직연금 자산 관리 전략과 자산 배분 모니터링에 주력하고 있음</t>
@@ -1340,18 +1406,18 @@
     <t>금융위원회가 상향 여부를 검토할 필요가 있다고 밝혔으므로, pension fund management에 영향을 줄 수 있는 내용이 포함되어 있음.</t>
   </si>
   <si>
+    <t>금융위원회가 예금보험제도 개선 검토안에서 보호 한도를 상향할 필요가 있다고 밝혔기 때문에 3점을 주었습니다.</t>
+  </si>
+  <si>
+    <t>국민연금의 소득대체율을 인상해야 노후 최소 생활비를 보장할 수 있으므로 3점을 줍니다.</t>
+  </si>
+  <si>
     <t>자영업자들의 경영난과 경쟁 심화에 대한 언급이 있으며, 이는 연금 기금 관리 전략과 금융 시장 변동의 영향을 분석하는 데 도움이 될 수 있다.</t>
   </si>
   <si>
-    <t>금융위원회가 예금보험제도 개선 검토안에서 보호 한도 상향을 검토한다는 내용이 포함되어 있음.</t>
-  </si>
-  <si>
     <t>국회 연금개혁특별위원회가 활동기한을 연장하여 국민연금 개혁이 미뤄질 조짐이 보여짐</t>
   </si>
   <si>
-    <t>국민연금의 소득대체율을 인상해야 노후 최소 생활비를 보장할 수 있으므로 3점을 줍니다.</t>
-  </si>
-  <si>
     <t>금융위원회는 예금보험제도 개선 검토안에서 향후 찬반 논의 시장 상황 등을 종합 고려해 상향 여부 등을 검토할 필요가 있다고 밝혔다.</t>
   </si>
   <si>
@@ -1517,27 +1583,36 @@
     <t>근로복지공단은 고용산재보험 가입을 당부하고, 집중 홍보기간을 운영하여 근로자의 안심과 안정을 위해 노력하고 있다.</t>
   </si>
   <si>
-    <t>KB손해보험은 퇴직연금 시장에서 경쟁 동향을 파악하고, 고객의 성향에 맞는 상품을 개발하여 시장 점유율을 높이고 있다.</t>
+    <t>퇴직한 공무원과 퇴직교사의 노후와 국민연금공무원사학연금의 차이로 인해 격차가 벌어지고 있다는 내용이 있어서</t>
+  </si>
+  <si>
+    <t>국민연금 가입기간이 긴 노동시장 중심부의 노동자들이 대체율 인상의 혜택을 가장 크게 받을 것이기 때문에 가입기간이 짧은 불안정 노동자들을 위해 재정이 우선적으로 쓰여야 한다고 본다.</t>
+  </si>
+  <si>
+    <t>금융권의 디지털 흐름과 비대면금융 수요 증가에 대한 언급이 있음.</t>
+  </si>
+  <si>
+    <t>KB손해보험이 퇴직연금 시장에서 경쟁 동향을 파악하고 새로운 상품과 서비스를 출시하고 있다.</t>
   </si>
   <si>
     <t>KB손해보험이 퇴직연금 시장에서 경쟁 동향을 파악하고 상품 다변화를 추진하고 있음</t>
   </si>
   <si>
-    <t>해당 기사에는 industry competition trends에 대한 내용이 포함되어 있지 않음.</t>
+    <t>해당 기사에는 retirement pension companies의 competition trends에 대한 내용이 포함되어 있지 않음.</t>
+  </si>
+  <si>
+    <t>이 기사에서는 새로운 제품 및 서비스에 대한 언급이 없어서 1점을 주었습니다.</t>
+  </si>
+  <si>
+    <t>해당 기사에는 산업 경쟁 동향에 대한 내용이 없으므로 0점을 줍니다.</t>
   </si>
   <si>
     <t>자영업자의 폐업과 경쟁 심화에 대한 언급이 있으며, 이는 연금 기업 간의 경쟁 동향을 파악하는 데 도움이 될 수 있다.</t>
   </si>
   <si>
-    <t>해당 기사에는 산업 경쟁 동향에 대한 내용이 포함되어 있지 않음.</t>
-  </si>
-  <si>
     <t>국민연금 가입기간이 긴 노동시장 중심부의 노동자들이 대체율 인상의 혜택을 가장 크게 받을 것이라는 언급이 있음</t>
   </si>
   <si>
-    <t>이 기사에는 산업 경쟁 동향에 대한 내용이 없으므로 0점을 줍니다.</t>
-  </si>
-  <si>
     <t>한도 상향 시 저축은행 업권 내 과도한 수신 경쟁이 벌어질 경우 일부 소형사에는 충격이 될 수 있다는 내용도 포함됐다.</t>
   </si>
   <si>
@@ -1700,7 +1775,16 @@
     <t>해당 기사에는 산업 경쟁 동향에 대한 내용이 없다.</t>
   </si>
   <si>
-    <t>KB손해보험은 금융 시장 변동성과 이자율 변화에 대한 영향을 이해하고, 퇴직연금 산업에 미치는 영향을 분석하고 있다.</t>
+    <t>해당 내용이 없음</t>
+  </si>
+  <si>
+    <t>금융시장 변동성에 대한 언급이 없음</t>
+  </si>
+  <si>
+    <t>금융시장의 변동성에 대한 언급이 없음.</t>
+  </si>
+  <si>
+    <t>기사에는 금융 시장의 변동성이 퇴직연금 산업에 미치는 영향에 대한 언급이 없다.</t>
   </si>
   <si>
     <t>금리 변동과 투자 자산의 변동성이 퇴직연금 산업에 미치는 영향을 이해하고 있음</t>
@@ -1709,18 +1793,18 @@
     <t>금융위원회의 결정에 따라 예금자 보호 한도가 유지되는 것으로 나타났으므로, financial market impact에 영향을 줄 수 있는 내용이 포함되어 있음.</t>
   </si>
   <si>
+    <t>금융위원회가 예금보험제도 개선 검토안에서 상향 여부 등을 검토할 필요가 있다고 밝혔기 때문에 2점을 주었습니다.</t>
+  </si>
+  <si>
+    <t>해당 기사에는 금융 시장의 영향에 대한 내용이 없으므로 0점을 줍니다.</t>
+  </si>
+  <si>
     <t>금융 시장 변동이 자영업자에게 미치는 영향에 대한 언급이 있으나, 자세한 분석은 제공되지 않았다.</t>
   </si>
   <si>
-    <t>금융위원회가 상향 여부를 시장 상황 등을 종합 고려해 검토할 필요가 있다고 언급하고 있음.</t>
-  </si>
-  <si>
     <t>미래세대가 GDP 9 지출을 감당할 수 있도록 도움이 필요하다는 언급이 있음</t>
   </si>
   <si>
-    <t>이 기사에는 금융 시장의 영향에 대한 내용이 없으므로 0점을 줍니다.</t>
-  </si>
-  <si>
     <t>No information related to financial market impact.</t>
   </si>
   <si>
@@ -1874,7 +1958,13 @@
     <t>해당 기사에는 금융 시장의 영향에 대한 내용이 없다.</t>
   </si>
   <si>
-    <t>KB손해보험은 법률 및 규제 변화를 파악하고, 비즈니스 및 개인에 미치는 영향을 이해하고 있다.</t>
+    <t>법률 및 규제 변경에 대한 언급이 없음</t>
+  </si>
+  <si>
+    <t>법률 및 규제 변경에 대한 언급이 없음.</t>
+  </si>
+  <si>
+    <t>기사에는 법률 및 규제 변화에 대한 언급이 없다.</t>
   </si>
   <si>
     <t>KB손해보험이 법률 및 규제 변화를 파악하고 이에 대한 영향을 이해하고 있음</t>
@@ -1883,18 +1973,18 @@
     <t>금융위원회의 결정에 따라 예금자 보호 한도가 유지되는 것으로 나타났으므로, legal and regulatory changes에 영향을 줄 수 있는 내용이 포함되어 있음.</t>
   </si>
   <si>
+    <t>이 기사에서는 법률 및 규제 변경에 대한 언급이 없어서 2점을 주었습니다.</t>
+  </si>
+  <si>
+    <t>국민연금의 소득대체율 인상은 법적 및 규제적 변화를 필요로 하므로 2점을 줍니다.</t>
+  </si>
+  <si>
     <t>법률 및 규제 변경에 대한 언급이 없다.</t>
   </si>
   <si>
-    <t>해당 기사에는 법률 및 규제 변화에 대한 내용이 포함되어 있지 않음.</t>
-  </si>
-  <si>
     <t>본문에는 법률 및 규제 변경에 대한 내용이 없음</t>
   </si>
   <si>
-    <t>이 기사에는 법적 및 규제 변화에 대한 내용이 없으므로 0점을 줍니다.</t>
-  </si>
-  <si>
     <t>금융소비자의 편의를 제고하는 효과는 있다고 분석됐다.</t>
   </si>
   <si>
@@ -2009,27 +2099,36 @@
     <t>해당 기사에는 법적 정년과 관련된 내용이 없음</t>
   </si>
   <si>
-    <t>KB손해보험은 인구 통계적 변화와 퇴직연금이 장기적으로 지속 가능성에 미치는 영향을 파악하고 있다.</t>
+    <t>국민연금 운용방식을 부과식으로 바꾸는 방안과 퇴직한 공무원과 퇴직교사의 노후와의 격차로 인한 문제가 노후 대책과 국민연금에 대한 영향을 암시함</t>
+  </si>
+  <si>
+    <t>노령화와 연금기금의 장기적인 지속 가능성에 대한 언급이 없음</t>
+  </si>
+  <si>
+    <t>고령화와 연금 기금의 장기적인 지속 가능성에 대한 언급이 없음.</t>
+  </si>
+  <si>
+    <t>KB손해보험이 퇴직연금의 장기적인 지속 가능성에 대한 관심을 가지고 있다.</t>
   </si>
   <si>
     <t>KB손해보험이 인구 통계 변화와 퇴직연금의 장기적 지속 가능성에 대한 영향을 파악하고 있음</t>
   </si>
   <si>
-    <t>해당 기사에는 demographic change에 대한 내용이 포함되어 있지 않음.</t>
+    <t>해당 기사에는 demographic change와 관련된 내용이 포함되어 있지 않음.</t>
+  </si>
+  <si>
+    <t>이 기사에서는 연령에 관련된 요소에 대한 언급이 없어서 1점을 주었습니다.</t>
+  </si>
+  <si>
+    <t>기사는 국민연금의 노후 최소 생활비를 보장하는데 관련된 내용을 다루고 있으므로 4점을 줍니다.</t>
   </si>
   <si>
     <t>고령화 시대에 자영업자의 비율이 높아질수록 경제의 위험성이 커지고, 소상공인 폐업 건수도 증가한다는 언급이 있다.</t>
   </si>
   <si>
-    <t>한편 보호 한도가 5천만 원으로 유지되더라도 사회보장적 상품 등에 대한 별도 한도 적용은 지속적으로 확대되는 추세임.</t>
-  </si>
-  <si>
     <t>가입기간이 짧은 불안정 노동자 저소득층에게 가입기간을 늘려주는 조치 크레딧 제도를 언급하여 노동자들의 노후소득에 대한 영향을 다룸</t>
   </si>
   <si>
-    <t>이 기사는 국민연금의 노후 지속 가능성과 관련된 내용을 다루고 있으므로 4점을 줍니다.</t>
-  </si>
-  <si>
     <t>No information related to demographic change.</t>
   </si>
   <si>
@@ -2165,27 +2264,33 @@
     <t>해당 기사에는 인구 변화에 대한 내용이 없다.</t>
   </si>
   <si>
-    <t>KB손해보험은 디지털 기술과 혁신을 통해 퇴직연금 관리와 서비스 제공에 영향을 받고 있다.</t>
+    <t>기술과 디지털화에 대한 언급이 없음</t>
+  </si>
+  <si>
+    <t>기술과 디지털화에 대한 언급이 있지만 연금 관리 및 서비스에 대한 영향에 대한 구체적인 내용이 없음.</t>
+  </si>
+  <si>
+    <t>KB손해보험이 디지털화와 기술 혁신을 통해 퇴직연금 관리와 서비스에 영향을 주고 있다.</t>
   </si>
   <si>
     <t>KB손해보험이 디지털화와 기술 혁신이 퇴직연금 관리와 서비스에 미치는 영향을 이해하고 있음</t>
   </si>
   <si>
-    <t>해당 기사에는 technology and digitalization에 대한 내용이 포함되어 있지 않음.</t>
+    <t>해당 기사에는 technology and digitalization에 관련된 내용이 포함되어 있지 않음.</t>
+  </si>
+  <si>
+    <t>이 기사에서는 기술 및 디지털화에 대한 언급이 없어서 1점을 주었습니다.</t>
+  </si>
+  <si>
+    <t>해당 기사에는 기술과 디지털화에 대한 내용이 없으므로 0점을 줍니다.</t>
   </si>
   <si>
     <t>기술과 디지털화에 대한 언급이 없다.</t>
   </si>
   <si>
-    <t>해당 기사에는 기술과 디지털화에 대한 내용이 포함되어 있지 않음.</t>
-  </si>
-  <si>
     <t>본문에는 기술과 디지털화에 대한 내용이 없음</t>
   </si>
   <si>
-    <t>이 기사에는 기술과 디지털화에 대한 내용이 없으므로 0점을 줍니다.</t>
-  </si>
-  <si>
     <t>No information related to technology and digitalization.</t>
   </si>
   <si>
@@ -2300,27 +2405,33 @@
     <t>해당 기사에는 기술 및 디지털화에 대한 내용이 없다.</t>
   </si>
   <si>
-    <t>KB손해보험은 퇴직연금 수령자의 소비 행태와 요구사항을 파악하고, 서비스 개발 및 개선에 반영하고 있다.</t>
+    <t>소비 행동 및 요구사항에 대한 언급이 없음</t>
+  </si>
+  <si>
+    <t>소비 행동 및 요구사항에 대한 언급이 없음.</t>
+  </si>
+  <si>
+    <t>KB손해보험이 고객의 소비 행태와 요구사항을 파악하고 서비스 개발 및 개선에 반영하고 있다.</t>
   </si>
   <si>
     <t>KB손해보험이 퇴직연금 수령자의 소비 행태와 요구사항을 파악하고 서비스 개선을 고려하고 있음</t>
   </si>
   <si>
-    <t>해당 기사에는 consumption behavior and requirements에 대한 내용이 포함되어 있지 않음.</t>
+    <t>해당 기사에는 consumption behavior and requirements에 관련된 내용이 포함되어 있지 않음.</t>
+  </si>
+  <si>
+    <t>이 기사에서는 소비 행동 및 요구사항에 대한 언급이 없어서 1점을 주었습니다.</t>
+  </si>
+  <si>
+    <t>해당 기사에는 소비 행동 및 요구사항에 대한 내용이 없으므로 0점을 줍니다.</t>
   </si>
   <si>
     <t>소비 행동 및 요구사항에 대한 언급이 없다.</t>
   </si>
   <si>
-    <t>해당 기사에는 소비 행동 및 요구사항에 대한 내용이 포함되어 있지 않음.</t>
-  </si>
-  <si>
     <t>본문에는 소비 행동 및 요구사항에 대한 내용이 없음</t>
   </si>
   <si>
-    <t>이 기사에는 소비 행동 및 요구사항에 대한 내용이 없으므로 0점을 줍니다.</t>
-  </si>
-  <si>
     <t>No information related to consumption behavior and requirements.</t>
   </si>
   <si>
@@ -2376,9 +2487,6 @@
   </si>
   <si>
     <t>기사에는 소비 행동 및 요구사항에 대한 언급이 없다.</t>
-  </si>
-  <si>
-    <t>소비 행동 및 요구사항에 대한 언급이 없음.</t>
   </si>
   <si>
     <t>소비 행동 및 요구사항에 대한 정보는 제공되지 않았다.</t>
@@ -2809,7 +2917,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X64"/>
+  <dimension ref="A1:X67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2894,73 +3002,73 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F2">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="H2" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="I2" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="J2" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="K2">
         <v>3</v>
       </c>
       <c r="L2" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="M2">
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>496</v>
+        <v>518</v>
       </c>
       <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>582</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
+        <v>582</v>
+      </c>
+      <c r="S2">
         <v>1</v>
       </c>
-      <c r="P2" t="s">
-        <v>557</v>
-      </c>
-      <c r="Q2">
-        <v>2</v>
-      </c>
-      <c r="R2" t="s">
-        <v>615</v>
-      </c>
-      <c r="S2">
-        <v>3</v>
-      </c>
       <c r="T2" t="s">
-        <v>660</v>
+        <v>690</v>
       </c>
       <c r="U2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>712</v>
+        <v>582</v>
       </c>
       <c r="W2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X2" t="s">
-        <v>757</v>
+        <v>582</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -2968,73 +3076,73 @@
         <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F3">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="H3" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="I3" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="J3" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="K3">
         <v>3</v>
       </c>
       <c r="L3" t="s">
-        <v>435</v>
+        <v>454</v>
       </c>
       <c r="M3">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>497</v>
+        <v>519</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>558</v>
+        <v>583</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" t="s">
-        <v>616</v>
+        <v>643</v>
       </c>
       <c r="S3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>661</v>
+        <v>691</v>
       </c>
       <c r="U3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>713</v>
+        <v>745</v>
       </c>
       <c r="W3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X3" t="s">
-        <v>758</v>
+        <v>792</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -3045,514 +3153,514 @@
         <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F4">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H4" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="I4" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="J4" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>436</v>
+        <v>455</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>498</v>
+        <v>520</v>
       </c>
       <c r="O4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>559</v>
+        <v>584</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>617</v>
+        <v>644</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>662</v>
+        <v>692</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>714</v>
+        <v>746</v>
       </c>
       <c r="W4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X4" t="s">
-        <v>759</v>
+        <v>793</v>
       </c>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F5">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="H5" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="I5" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="J5" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="K5">
         <v>3</v>
       </c>
       <c r="L5" t="s">
-        <v>437</v>
+        <v>456</v>
       </c>
       <c r="M5">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>499</v>
+        <v>521</v>
       </c>
       <c r="O5">
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>560</v>
+        <v>585</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="s">
-        <v>618</v>
+        <v>645</v>
       </c>
       <c r="S5">
         <v>3</v>
       </c>
       <c r="T5" t="s">
-        <v>663</v>
+        <v>693</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V5" t="s">
-        <v>715</v>
+        <v>747</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X5" t="s">
-        <v>760</v>
+        <v>794</v>
       </c>
     </row>
     <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="H6" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="I6" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="J6" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="K6">
         <v>3</v>
       </c>
       <c r="L6" t="s">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>522</v>
+      </c>
+      <c r="O6">
         <v>1</v>
       </c>
-      <c r="N6" t="s">
-        <v>500</v>
-      </c>
-      <c r="O6">
-        <v>2</v>
-      </c>
       <c r="P6" t="s">
-        <v>561</v>
+        <v>586</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" t="s">
-        <v>619</v>
+        <v>646</v>
       </c>
       <c r="S6">
         <v>2</v>
       </c>
       <c r="T6" t="s">
-        <v>664</v>
+        <v>694</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V6" t="s">
-        <v>716</v>
+        <v>748</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X6" t="s">
-        <v>761</v>
+        <v>795</v>
       </c>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="H7" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="I7" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="J7" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7" t="s">
+        <v>458</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>523</v>
+      </c>
+      <c r="O7">
         <v>3</v>
       </c>
-      <c r="L7" t="s">
-        <v>439</v>
-      </c>
-      <c r="M7">
-        <v>2</v>
-      </c>
-      <c r="N7" t="s">
-        <v>501</v>
-      </c>
-      <c r="O7">
+      <c r="P7" t="s">
+        <v>587</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7" t="s">
+        <v>647</v>
+      </c>
+      <c r="S7">
         <v>1</v>
       </c>
-      <c r="P7" t="s">
-        <v>562</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7" t="s">
-        <v>620</v>
-      </c>
-      <c r="S7">
-        <v>2</v>
-      </c>
       <c r="T7" t="s">
-        <v>665</v>
+        <v>695</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" t="s">
-        <v>717</v>
+        <v>749</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X7" t="s">
-        <v>762</v>
+        <v>796</v>
       </c>
     </row>
     <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="H8" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="I8" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="J8" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="K8">
         <v>3</v>
       </c>
       <c r="L8" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>502</v>
+        <v>524</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>563</v>
+        <v>588</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R8" t="s">
-        <v>621</v>
+        <v>648</v>
       </c>
       <c r="S8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T8" t="s">
-        <v>666</v>
+        <v>696</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" t="s">
-        <v>718</v>
+        <v>750</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" t="s">
-        <v>763</v>
+        <v>797</v>
       </c>
     </row>
     <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E9" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="H9" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="I9" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="J9" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>503</v>
+        <v>525</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>564</v>
+        <v>589</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9" t="s">
-        <v>622</v>
+        <v>649</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T9" t="s">
-        <v>667</v>
+        <v>697</v>
       </c>
       <c r="U9">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>719</v>
+        <v>751</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9" t="s">
-        <v>764</v>
+        <v>798</v>
       </c>
     </row>
     <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E10" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="H10" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="I10" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="J10" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10" t="s">
-        <v>441</v>
+        <v>461</v>
       </c>
       <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>526</v>
+      </c>
+      <c r="O10">
         <v>1</v>
       </c>
-      <c r="N10" t="s">
-        <v>504</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
       <c r="P10" t="s">
-        <v>565</v>
+        <v>590</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" t="s">
-        <v>622</v>
+        <v>650</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T10" t="s">
-        <v>565</v>
+        <v>698</v>
       </c>
       <c r="U10">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>565</v>
+        <v>752</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10" t="s">
-        <v>565</v>
+        <v>799</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -3560,73 +3668,73 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="H11" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="I11" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="J11" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11" t="s">
-        <v>442</v>
+        <v>462</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>505</v>
+        <v>527</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>566</v>
+        <v>591</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R11" t="s">
-        <v>623</v>
+        <v>651</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T11" t="s">
-        <v>668</v>
+        <v>699</v>
       </c>
       <c r="U11">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>720</v>
+        <v>753</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11" t="s">
-        <v>765</v>
+        <v>800</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -3634,73 +3742,73 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E12" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F12">
         <v>6</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="H12" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="I12" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="J12" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12" t="s">
+        <v>463</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>528</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="s">
+        <v>592</v>
+      </c>
+      <c r="Q12">
         <v>3</v>
       </c>
-      <c r="L12" t="s">
-        <v>443</v>
-      </c>
-      <c r="M12">
-        <v>2</v>
-      </c>
-      <c r="N12" t="s">
-        <v>506</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="s">
-        <v>567</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
       <c r="R12" t="s">
-        <v>624</v>
+        <v>652</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>669</v>
+        <v>700</v>
       </c>
       <c r="U12">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>721</v>
+        <v>754</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12" t="s">
-        <v>766</v>
+        <v>801</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -3708,73 +3816,73 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="H13" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="I13" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="J13" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13" t="s">
-        <v>444</v>
+        <v>463</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>507</v>
+        <v>529</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>568</v>
+        <v>593</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="s">
-        <v>625</v>
+        <v>652</v>
       </c>
       <c r="S13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>670</v>
+        <v>593</v>
       </c>
       <c r="U13">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>722</v>
+        <v>593</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13" t="s">
-        <v>767</v>
+        <v>593</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -3782,73 +3890,73 @@
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E14" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F14">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="H14" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="I14" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="J14" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14" t="s">
-        <v>445</v>
+        <v>464</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>508</v>
+        <v>530</v>
       </c>
       <c r="O14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>569</v>
+        <v>594</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R14" t="s">
-        <v>626</v>
+        <v>653</v>
       </c>
       <c r="S14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="U14">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>723</v>
+        <v>755</v>
       </c>
       <c r="W14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X14" t="s">
-        <v>768</v>
+        <v>802</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -3859,70 +3967,70 @@
         <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="H15" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="I15" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="J15" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="K15">
         <v>3</v>
       </c>
       <c r="L15" t="s">
-        <v>446</v>
+        <v>465</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>509</v>
+        <v>531</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>570</v>
+        <v>595</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" t="s">
-        <v>627</v>
+        <v>654</v>
       </c>
       <c r="S15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>672</v>
+        <v>702</v>
       </c>
       <c r="U15">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>724</v>
+        <v>756</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15" t="s">
-        <v>769</v>
+        <v>803</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -3933,70 +4041,70 @@
         <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E16" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F16">
         <v>5</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="H16" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="I16" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="J16" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="K16">
         <v>3</v>
       </c>
       <c r="L16" t="s">
-        <v>447</v>
+        <v>466</v>
       </c>
       <c r="M16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N16" t="s">
-        <v>510</v>
+        <v>532</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>565</v>
+        <v>596</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
       <c r="R16" t="s">
-        <v>565</v>
+        <v>655</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T16" t="s">
-        <v>565</v>
+        <v>703</v>
       </c>
       <c r="U16">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>565</v>
+        <v>757</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16" t="s">
-        <v>565</v>
+        <v>804</v>
       </c>
     </row>
     <row r="17" spans="1:24">
@@ -4007,70 +4115,70 @@
         <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E17" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F17">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="H17" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="I17" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="J17" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17" t="s">
-        <v>448</v>
+        <v>467</v>
       </c>
       <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>533</v>
+      </c>
+      <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="P17" t="s">
+        <v>597</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17" t="s">
+        <v>656</v>
+      </c>
+      <c r="S17">
         <v>3</v>
       </c>
-      <c r="N17" t="s">
-        <v>511</v>
-      </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
-      <c r="P17" t="s">
-        <v>571</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17" t="s">
-        <v>628</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
       <c r="T17" t="s">
-        <v>673</v>
+        <v>704</v>
       </c>
       <c r="U17">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>725</v>
+        <v>758</v>
       </c>
       <c r="W17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X17" t="s">
-        <v>770</v>
+        <v>805</v>
       </c>
     </row>
     <row r="18" spans="1:24">
@@ -4078,138 +4186,147 @@
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E18" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F18">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="H18" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="I18" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="J18" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="K18">
         <v>3</v>
       </c>
       <c r="L18" t="s">
-        <v>449</v>
+        <v>468</v>
       </c>
       <c r="M18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N18" t="s">
-        <v>512</v>
+        <v>534</v>
       </c>
       <c r="O18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="s">
-        <v>572</v>
+        <v>598</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
+      <c r="R18" t="s">
+        <v>657</v>
+      </c>
       <c r="S18">
         <v>2</v>
       </c>
       <c r="T18" t="s">
-        <v>674</v>
+        <v>705</v>
       </c>
       <c r="U18">
         <v>0</v>
       </c>
+      <c r="V18" t="s">
+        <v>759</v>
+      </c>
       <c r="W18">
         <v>0</v>
+      </c>
+      <c r="X18" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E19" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F19">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="H19" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="I19" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="J19" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="K19">
         <v>3</v>
       </c>
       <c r="L19" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="M19">
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>513</v>
+        <v>535</v>
       </c>
       <c r="O19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>573</v>
+        <v>593</v>
       </c>
       <c r="Q19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" t="s">
-        <v>629</v>
+        <v>593</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>675</v>
+        <v>593</v>
       </c>
       <c r="U19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>726</v>
+        <v>593</v>
       </c>
       <c r="W19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X19" t="s">
-        <v>771</v>
+        <v>593</v>
       </c>
     </row>
     <row r="20" spans="1:24">
@@ -4217,73 +4334,73 @@
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E20" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F20">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="H20" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="I20" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="J20" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20" t="s">
+        <v>470</v>
+      </c>
+      <c r="M20">
         <v>3</v>
       </c>
-      <c r="L20" t="s">
-        <v>451</v>
-      </c>
-      <c r="M20">
-        <v>2</v>
-      </c>
       <c r="N20" t="s">
-        <v>514</v>
+        <v>536</v>
       </c>
       <c r="O20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>574</v>
+        <v>599</v>
       </c>
       <c r="Q20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" t="s">
-        <v>630</v>
+        <v>658</v>
       </c>
       <c r="S20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>676</v>
+        <v>706</v>
       </c>
       <c r="U20">
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>727</v>
+        <v>760</v>
       </c>
       <c r="W20">
         <v>3</v>
       </c>
       <c r="X20" t="s">
-        <v>772</v>
+        <v>807</v>
       </c>
     </row>
     <row r="21" spans="1:24">
@@ -4291,1449 +4408,1440 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E21" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F21">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="H21" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="I21" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="J21" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="K21">
         <v>3</v>
       </c>
       <c r="L21" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="M21">
         <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>515</v>
+        <v>537</v>
       </c>
       <c r="O21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>575</v>
+        <v>600</v>
       </c>
       <c r="Q21">
-        <v>1</v>
-      </c>
-      <c r="R21" t="s">
-        <v>631</v>
+        <v>0</v>
       </c>
       <c r="S21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T21" t="s">
-        <v>677</v>
+        <v>707</v>
       </c>
       <c r="U21">
-        <v>1</v>
-      </c>
-      <c r="V21" t="s">
-        <v>728</v>
+        <v>0</v>
       </c>
       <c r="W21">
-        <v>1</v>
-      </c>
-      <c r="X21" t="s">
-        <v>773</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E22" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F22">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="H22" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="I22" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="J22" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="K22">
         <v>3</v>
       </c>
       <c r="L22" t="s">
-        <v>453</v>
+        <v>472</v>
       </c>
       <c r="M22">
         <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>516</v>
+        <v>538</v>
       </c>
       <c r="O22">
+        <v>2</v>
+      </c>
+      <c r="P22" t="s">
+        <v>601</v>
+      </c>
+      <c r="Q22">
         <v>1</v>
       </c>
-      <c r="P22" t="s">
-        <v>576</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
       <c r="R22" t="s">
-        <v>632</v>
+        <v>659</v>
       </c>
       <c r="S22">
         <v>1</v>
       </c>
       <c r="T22" t="s">
-        <v>678</v>
+        <v>708</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" t="s">
-        <v>729</v>
+        <v>761</v>
       </c>
       <c r="W22">
         <v>3</v>
       </c>
       <c r="X22" t="s">
-        <v>774</v>
+        <v>808</v>
       </c>
     </row>
     <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E23" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F23">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="H23" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="I23" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="J23" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="K23">
         <v>3</v>
       </c>
       <c r="L23" t="s">
-        <v>454</v>
+        <v>473</v>
       </c>
       <c r="M23">
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>517</v>
+        <v>539</v>
       </c>
       <c r="O23">
+        <v>2</v>
+      </c>
+      <c r="P23" t="s">
+        <v>602</v>
+      </c>
+      <c r="Q23">
         <v>1</v>
       </c>
-      <c r="P23" t="s">
-        <v>577</v>
-      </c>
-      <c r="Q23">
-        <v>4</v>
-      </c>
       <c r="R23" t="s">
-        <v>633</v>
+        <v>660</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" t="s">
-        <v>679</v>
+        <v>709</v>
       </c>
       <c r="U23">
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>730</v>
+        <v>762</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X23" t="s">
-        <v>775</v>
+        <v>809</v>
       </c>
     </row>
     <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E24" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="H24" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="I24" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="J24" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="K24">
         <v>3</v>
       </c>
       <c r="L24" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="M24">
         <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>518</v>
+        <v>540</v>
       </c>
       <c r="O24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P24" t="s">
-        <v>578</v>
+        <v>603</v>
       </c>
       <c r="Q24">
         <v>1</v>
       </c>
       <c r="R24" t="s">
-        <v>634</v>
+        <v>661</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" t="s">
-        <v>680</v>
+        <v>710</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24" t="s">
-        <v>731</v>
+        <v>763</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24" t="s">
-        <v>776</v>
+        <v>810</v>
       </c>
     </row>
     <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E25" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F25">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="H25" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="I25" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="J25" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="K25">
         <v>3</v>
       </c>
       <c r="L25" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="M25">
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>519</v>
+        <v>541</v>
       </c>
       <c r="O25">
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>579</v>
+        <v>604</v>
       </c>
       <c r="Q25">
         <v>0</v>
       </c>
       <c r="R25" t="s">
-        <v>635</v>
+        <v>662</v>
       </c>
       <c r="S25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T25" t="s">
-        <v>681</v>
+        <v>711</v>
       </c>
       <c r="U25">
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>732</v>
+        <v>764</v>
       </c>
       <c r="W25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X25" t="s">
-        <v>777</v>
+        <v>811</v>
       </c>
     </row>
     <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E26" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="H26" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="I26" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="J26" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26" t="s">
+        <v>476</v>
+      </c>
+      <c r="M26">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>542</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q26">
         <v>4</v>
       </c>
-      <c r="L26" t="s">
-        <v>457</v>
-      </c>
-      <c r="M26">
-        <v>3</v>
-      </c>
-      <c r="N26" t="s">
-        <v>520</v>
-      </c>
-      <c r="O26">
-        <v>2</v>
-      </c>
-      <c r="P26" t="s">
-        <v>580</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
       <c r="R26" t="s">
-        <v>636</v>
+        <v>663</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>682</v>
+        <v>712</v>
       </c>
       <c r="U26">
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>724</v>
+        <v>765</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26" t="s">
-        <v>769</v>
+        <v>812</v>
       </c>
     </row>
     <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E27" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="H27" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="I27" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="J27" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="K27">
         <v>3</v>
       </c>
       <c r="L27" t="s">
-        <v>458</v>
+        <v>477</v>
       </c>
       <c r="M27">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>543</v>
+      </c>
+      <c r="O27">
         <v>4</v>
       </c>
-      <c r="N27" t="s">
-        <v>521</v>
-      </c>
-      <c r="O27">
-        <v>2</v>
-      </c>
       <c r="P27" t="s">
-        <v>581</v>
+        <v>606</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" t="s">
-        <v>620</v>
+        <v>664</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>683</v>
+        <v>713</v>
       </c>
       <c r="U27">
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>733</v>
+        <v>766</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27" t="s">
-        <v>778</v>
+        <v>813</v>
       </c>
     </row>
     <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E28" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F28">
         <v>9</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="H28" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="I28" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="J28" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="K28">
         <v>3</v>
       </c>
       <c r="L28" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="M28">
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>522</v>
+        <v>544</v>
       </c>
       <c r="O28">
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>582</v>
+        <v>607</v>
       </c>
       <c r="Q28">
         <v>0</v>
       </c>
       <c r="R28" t="s">
-        <v>637</v>
+        <v>665</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T28" t="s">
-        <v>684</v>
+        <v>714</v>
       </c>
       <c r="U28">
         <v>0</v>
       </c>
       <c r="V28" t="s">
-        <v>734</v>
+        <v>767</v>
       </c>
       <c r="W28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X28" t="s">
-        <v>779</v>
+        <v>814</v>
       </c>
     </row>
     <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E29" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F29">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="H29" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="I29" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="J29" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="K29">
+        <v>4</v>
+      </c>
+      <c r="L29" t="s">
+        <v>479</v>
+      </c>
+      <c r="M29">
         <v>3</v>
       </c>
-      <c r="L29" t="s">
-        <v>460</v>
-      </c>
-      <c r="M29">
-        <v>2</v>
-      </c>
       <c r="N29" t="s">
-        <v>523</v>
+        <v>545</v>
       </c>
       <c r="O29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P29" t="s">
-        <v>583</v>
+        <v>608</v>
       </c>
       <c r="Q29">
         <v>0</v>
       </c>
       <c r="R29" t="s">
-        <v>636</v>
+        <v>666</v>
       </c>
       <c r="S29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T29" t="s">
-        <v>685</v>
+        <v>715</v>
       </c>
       <c r="U29">
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>724</v>
+        <v>759</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29" t="s">
-        <v>780</v>
+        <v>806</v>
       </c>
     </row>
     <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E30" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F30">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="H30" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="I30" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="J30" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="K30">
         <v>3</v>
       </c>
       <c r="L30" t="s">
-        <v>461</v>
+        <v>480</v>
       </c>
       <c r="M30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>524</v>
+        <v>546</v>
       </c>
       <c r="O30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P30" t="s">
-        <v>584</v>
+        <v>609</v>
       </c>
       <c r="Q30">
         <v>0</v>
       </c>
       <c r="R30" t="s">
-        <v>638</v>
+        <v>651</v>
       </c>
       <c r="S30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T30" t="s">
-        <v>686</v>
+        <v>716</v>
       </c>
       <c r="U30">
         <v>0</v>
       </c>
       <c r="V30" t="s">
-        <v>735</v>
+        <v>768</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30" t="s">
-        <v>781</v>
+        <v>815</v>
       </c>
     </row>
     <row r="31" spans="1:24">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
         <v>47</v>
       </c>
       <c r="D31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E31" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F31">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="H31" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="I31" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="J31" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="K31">
         <v>3</v>
       </c>
       <c r="L31" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="M31">
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>525</v>
+        <v>547</v>
       </c>
       <c r="O31">
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>585</v>
+        <v>610</v>
       </c>
       <c r="Q31">
         <v>0</v>
       </c>
       <c r="R31" t="s">
-        <v>639</v>
+        <v>667</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31" t="s">
-        <v>687</v>
+        <v>717</v>
       </c>
       <c r="U31">
         <v>0</v>
       </c>
       <c r="V31" t="s">
-        <v>736</v>
+        <v>769</v>
       </c>
       <c r="W31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X31" t="s">
-        <v>782</v>
+        <v>816</v>
       </c>
     </row>
     <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E32" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F32">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="H32" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="I32" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="J32" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="K32">
         <v>3</v>
       </c>
       <c r="L32" t="s">
-        <v>463</v>
+        <v>482</v>
       </c>
       <c r="M32">
         <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>526</v>
+        <v>548</v>
       </c>
       <c r="O32">
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>586</v>
+        <v>611</v>
       </c>
       <c r="Q32">
         <v>0</v>
       </c>
       <c r="R32" t="s">
-        <v>635</v>
+        <v>666</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T32" t="s">
-        <v>688</v>
+        <v>718</v>
       </c>
       <c r="U32">
         <v>0</v>
       </c>
       <c r="V32" t="s">
-        <v>737</v>
+        <v>759</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32" t="s">
-        <v>783</v>
+        <v>817</v>
       </c>
     </row>
     <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D33" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E33" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F33">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="H33" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="I33" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="J33" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="K33">
         <v>3</v>
       </c>
       <c r="L33" t="s">
-        <v>464</v>
+        <v>483</v>
       </c>
       <c r="M33">
         <v>2</v>
       </c>
       <c r="N33" t="s">
-        <v>527</v>
+        <v>549</v>
       </c>
       <c r="O33">
         <v>1</v>
       </c>
       <c r="P33" t="s">
-        <v>587</v>
+        <v>612</v>
       </c>
       <c r="Q33">
         <v>0</v>
       </c>
       <c r="R33" t="s">
-        <v>640</v>
+        <v>668</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33" t="s">
-        <v>689</v>
+        <v>719</v>
       </c>
       <c r="U33">
         <v>0</v>
       </c>
       <c r="V33" t="s">
-        <v>738</v>
+        <v>770</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33" t="s">
-        <v>784</v>
+        <v>818</v>
       </c>
     </row>
     <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D34" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E34" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F34">
         <v>6</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="H34" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="I34" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="J34" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="K34">
         <v>3</v>
       </c>
       <c r="L34" t="s">
-        <v>465</v>
+        <v>484</v>
       </c>
       <c r="M34">
         <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>528</v>
+        <v>550</v>
       </c>
       <c r="O34">
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>588</v>
+        <v>613</v>
       </c>
       <c r="Q34">
         <v>0</v>
       </c>
       <c r="R34" t="s">
-        <v>641</v>
+        <v>669</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="T34" t="s">
-        <v>690</v>
+        <v>720</v>
       </c>
       <c r="U34">
         <v>0</v>
       </c>
       <c r="V34" t="s">
-        <v>739</v>
+        <v>771</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34" t="s">
-        <v>785</v>
+        <v>819</v>
       </c>
     </row>
     <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D35" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E35" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F35">
         <v>6</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="H35" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="I35" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="J35" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="K35">
         <v>3</v>
       </c>
       <c r="L35" t="s">
-        <v>466</v>
+        <v>485</v>
       </c>
       <c r="M35">
         <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>529</v>
+        <v>551</v>
       </c>
       <c r="O35">
         <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>589</v>
+        <v>614</v>
       </c>
       <c r="Q35">
         <v>0</v>
       </c>
       <c r="R35" t="s">
-        <v>642</v>
+        <v>665</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35" t="s">
-        <v>691</v>
+        <v>721</v>
       </c>
       <c r="U35">
         <v>0</v>
       </c>
       <c r="V35" t="s">
-        <v>740</v>
+        <v>772</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
     </row>
     <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D36" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E36" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F36">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="H36" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="I36" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="J36" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="K36">
         <v>3</v>
       </c>
       <c r="L36" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="M36">
         <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>530</v>
+        <v>552</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" t="s">
-        <v>590</v>
+        <v>615</v>
       </c>
       <c r="Q36">
         <v>0</v>
       </c>
       <c r="R36" t="s">
-        <v>643</v>
+        <v>670</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36" t="s">
-        <v>692</v>
+        <v>722</v>
       </c>
       <c r="U36">
         <v>0</v>
       </c>
       <c r="V36" t="s">
-        <v>741</v>
+        <v>773</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36" t="s">
-        <v>787</v>
+        <v>820</v>
       </c>
     </row>
     <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D37" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E37" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="H37" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="I37" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="J37" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="K37">
         <v>3</v>
       </c>
       <c r="L37" t="s">
-        <v>468</v>
+        <v>487</v>
       </c>
       <c r="M37">
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>531</v>
+        <v>553</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" t="s">
-        <v>564</v>
+        <v>616</v>
       </c>
       <c r="Q37">
         <v>0</v>
       </c>
       <c r="R37" t="s">
-        <v>644</v>
+        <v>671</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37" t="s">
-        <v>667</v>
+        <v>723</v>
       </c>
       <c r="U37">
         <v>0</v>
       </c>
       <c r="V37" t="s">
-        <v>719</v>
+        <v>774</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37" t="s">
-        <v>764</v>
+        <v>821</v>
       </c>
     </row>
     <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D38" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E38" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F38">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="H38" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="I38" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="J38" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="K38">
         <v>3</v>
       </c>
       <c r="L38" t="s">
-        <v>469</v>
+        <v>488</v>
       </c>
       <c r="M38">
         <v>2</v>
       </c>
       <c r="N38" t="s">
-        <v>532</v>
+        <v>554</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" t="s">
-        <v>590</v>
+        <v>617</v>
       </c>
       <c r="Q38">
         <v>0</v>
       </c>
       <c r="R38" t="s">
-        <v>643</v>
+        <v>672</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38" t="s">
-        <v>692</v>
+        <v>724</v>
       </c>
       <c r="U38">
         <v>0</v>
       </c>
       <c r="V38" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38" t="s">
-        <v>787</v>
+        <v>822</v>
       </c>
     </row>
     <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B39" t="s">
         <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D39" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E39" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F39">
         <v>5</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="H39" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="I39" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="J39" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="K39">
         <v>3</v>
       </c>
       <c r="L39" t="s">
-        <v>470</v>
+        <v>489</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>533</v>
+        <v>555</v>
       </c>
       <c r="O39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P39" t="s">
-        <v>591</v>
+        <v>618</v>
       </c>
       <c r="Q39">
         <v>0</v>
       </c>
       <c r="R39" t="s">
-        <v>533</v>
+        <v>673</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39" t="s">
-        <v>533</v>
+        <v>725</v>
       </c>
       <c r="U39">
         <v>0</v>
       </c>
       <c r="V39" t="s">
-        <v>533</v>
+        <v>776</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39" t="s">
-        <v>533</v>
+        <v>823</v>
       </c>
     </row>
     <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D40" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E40" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="H40" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="I40" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="J40" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="K40">
         <v>3</v>
       </c>
       <c r="L40" t="s">
-        <v>471</v>
+        <v>490</v>
       </c>
       <c r="M40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>534</v>
+        <v>556</v>
       </c>
       <c r="O40">
         <v>0</v>
@@ -5745,99 +5853,99 @@
         <v>0</v>
       </c>
       <c r="R40" t="s">
-        <v>645</v>
+        <v>674</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="U40">
         <v>0</v>
       </c>
       <c r="V40" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40" t="s">
-        <v>788</v>
+        <v>801</v>
       </c>
     </row>
     <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D41" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E41" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F41">
+        <v>5</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="H41" t="s">
+        <v>301</v>
+      </c>
+      <c r="I41" t="s">
+        <v>362</v>
+      </c>
+      <c r="J41" t="s">
+        <v>426</v>
+      </c>
+      <c r="K41">
         <v>3</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H41" t="s">
-        <v>291</v>
-      </c>
-      <c r="I41" t="s">
-        <v>349</v>
-      </c>
-      <c r="J41" t="s">
-        <v>410</v>
-      </c>
-      <c r="K41">
-        <v>2</v>
-      </c>
       <c r="L41" t="s">
-        <v>472</v>
+        <v>491</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>535</v>
+        <v>557</v>
       </c>
       <c r="O41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P41" t="s">
-        <v>593</v>
+        <v>618</v>
       </c>
       <c r="Q41">
         <v>0</v>
       </c>
       <c r="R41" t="s">
-        <v>535</v>
+        <v>673</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41" t="s">
-        <v>535</v>
+        <v>725</v>
       </c>
       <c r="U41">
         <v>0</v>
       </c>
       <c r="V41" t="s">
-        <v>535</v>
+        <v>776</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41" t="s">
-        <v>535</v>
+        <v>823</v>
       </c>
     </row>
     <row r="42" spans="1:24">
@@ -5845,73 +5953,73 @@
         <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D42" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E42" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F42">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="H42" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="I42" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="J42" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="K42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L42" t="s">
-        <v>473</v>
+        <v>492</v>
       </c>
       <c r="M42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N42" t="s">
-        <v>536</v>
+        <v>558</v>
       </c>
       <c r="O42">
         <v>2</v>
       </c>
       <c r="P42" t="s">
-        <v>594</v>
+        <v>619</v>
       </c>
       <c r="Q42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R42" t="s">
-        <v>646</v>
+        <v>558</v>
       </c>
       <c r="S42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T42" t="s">
-        <v>694</v>
+        <v>558</v>
       </c>
       <c r="U42">
         <v>0</v>
       </c>
       <c r="V42" t="s">
-        <v>743</v>
+        <v>558</v>
       </c>
       <c r="W42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X42" t="s">
-        <v>789</v>
+        <v>558</v>
       </c>
     </row>
     <row r="43" spans="1:24">
@@ -5919,73 +6027,73 @@
         <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D43" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E43" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F43">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="H43" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="I43" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="J43" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="K43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L43" t="s">
-        <v>474</v>
+        <v>493</v>
       </c>
       <c r="M43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>537</v>
+        <v>559</v>
       </c>
       <c r="O43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P43" t="s">
-        <v>595</v>
+        <v>620</v>
       </c>
       <c r="Q43">
         <v>0</v>
       </c>
       <c r="R43" t="s">
-        <v>647</v>
+        <v>675</v>
       </c>
       <c r="S43">
         <v>0</v>
       </c>
       <c r="T43" t="s">
-        <v>695</v>
+        <v>726</v>
       </c>
       <c r="U43">
         <v>0</v>
       </c>
       <c r="V43" t="s">
-        <v>744</v>
+        <v>777</v>
       </c>
       <c r="W43">
         <v>0</v>
       </c>
       <c r="X43" t="s">
-        <v>790</v>
+        <v>824</v>
       </c>
     </row>
     <row r="44" spans="1:24">
@@ -5996,1032 +6104,1032 @@
         <v>32</v>
       </c>
       <c r="C44" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D44" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E44" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F44">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="H44" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="I44" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="J44" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="K44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L44" t="s">
-        <v>475</v>
+        <v>494</v>
       </c>
       <c r="M44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N44" t="s">
-        <v>538</v>
+        <v>560</v>
       </c>
       <c r="O44">
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>596</v>
+        <v>621</v>
       </c>
       <c r="Q44">
         <v>0</v>
       </c>
       <c r="R44" t="s">
-        <v>648</v>
+        <v>560</v>
       </c>
       <c r="S44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T44" t="s">
-        <v>696</v>
+        <v>560</v>
       </c>
       <c r="U44">
         <v>0</v>
       </c>
       <c r="V44" t="s">
-        <v>745</v>
+        <v>560</v>
       </c>
       <c r="W44">
         <v>0</v>
       </c>
       <c r="X44" t="s">
-        <v>791</v>
+        <v>560</v>
       </c>
     </row>
     <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B45" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="D45" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E45" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F45">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="H45" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="I45" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="J45" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="K45">
+        <v>4</v>
+      </c>
+      <c r="L45" t="s">
+        <v>495</v>
+      </c>
+      <c r="M45">
         <v>3</v>
       </c>
-      <c r="L45" t="s">
-        <v>476</v>
-      </c>
-      <c r="M45">
+      <c r="N45" t="s">
+        <v>561</v>
+      </c>
+      <c r="O45">
+        <v>2</v>
+      </c>
+      <c r="P45" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q45">
         <v>1</v>
       </c>
-      <c r="N45" t="s">
-        <v>539</v>
-      </c>
-      <c r="O45">
-        <v>2</v>
-      </c>
-      <c r="P45" t="s">
-        <v>597</v>
-      </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
       <c r="R45" t="s">
-        <v>649</v>
+        <v>676</v>
       </c>
       <c r="S45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T45" t="s">
-        <v>697</v>
+        <v>727</v>
       </c>
       <c r="U45">
         <v>0</v>
       </c>
       <c r="V45" t="s">
-        <v>746</v>
+        <v>778</v>
       </c>
       <c r="W45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X45" t="s">
-        <v>792</v>
+        <v>825</v>
       </c>
     </row>
     <row r="46" spans="1:24">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C46" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D46" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E46" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F46">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="H46" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="I46" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="J46" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="K46">
+        <v>4</v>
+      </c>
+      <c r="L46" t="s">
+        <v>496</v>
+      </c>
+      <c r="M46">
         <v>3</v>
       </c>
-      <c r="L46" t="s">
-        <v>477</v>
-      </c>
-      <c r="M46">
-        <v>2</v>
-      </c>
       <c r="N46" t="s">
-        <v>540</v>
+        <v>562</v>
       </c>
       <c r="O46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P46" t="s">
-        <v>598</v>
+        <v>623</v>
       </c>
       <c r="Q46">
         <v>0</v>
       </c>
       <c r="R46" t="s">
-        <v>650</v>
+        <v>677</v>
       </c>
       <c r="S46">
         <v>0</v>
       </c>
       <c r="T46" t="s">
-        <v>698</v>
+        <v>728</v>
       </c>
       <c r="U46">
         <v>0</v>
       </c>
       <c r="V46" t="s">
-        <v>747</v>
+        <v>779</v>
       </c>
       <c r="W46">
         <v>0</v>
       </c>
       <c r="X46" t="s">
-        <v>793</v>
+        <v>826</v>
       </c>
     </row>
     <row r="47" spans="1:24">
       <c r="A47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C47" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D47" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E47" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F47">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="H47" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="I47" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="J47" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="K47">
         <v>3</v>
       </c>
       <c r="L47" t="s">
-        <v>478</v>
+        <v>497</v>
       </c>
       <c r="M47">
         <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>541</v>
+        <v>563</v>
       </c>
       <c r="O47">
         <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>599</v>
+        <v>624</v>
       </c>
       <c r="Q47">
         <v>0</v>
       </c>
       <c r="R47" t="s">
-        <v>565</v>
+        <v>678</v>
       </c>
       <c r="S47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T47" t="s">
-        <v>565</v>
+        <v>729</v>
       </c>
       <c r="U47">
         <v>0</v>
       </c>
       <c r="V47" t="s">
-        <v>565</v>
+        <v>780</v>
       </c>
       <c r="W47">
         <v>0</v>
       </c>
       <c r="X47" t="s">
-        <v>565</v>
+        <v>827</v>
       </c>
     </row>
     <row r="48" spans="1:24">
       <c r="A48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B48" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D48" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E48" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F48">
         <v>6</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="H48" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="I48" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="J48" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="K48">
         <v>3</v>
       </c>
       <c r="L48" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
       <c r="M48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>542</v>
+        <v>564</v>
       </c>
       <c r="O48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P48" t="s">
-        <v>600</v>
+        <v>625</v>
       </c>
       <c r="Q48">
         <v>0</v>
       </c>
       <c r="R48" t="s">
-        <v>651</v>
+        <v>679</v>
       </c>
       <c r="S48">
         <v>0</v>
       </c>
       <c r="T48" t="s">
-        <v>699</v>
+        <v>730</v>
       </c>
       <c r="U48">
         <v>0</v>
       </c>
       <c r="V48" t="s">
-        <v>748</v>
+        <v>781</v>
       </c>
       <c r="W48">
         <v>0</v>
       </c>
       <c r="X48" t="s">
-        <v>794</v>
+        <v>828</v>
       </c>
     </row>
     <row r="49" spans="1:24">
       <c r="A49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B49" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D49" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E49" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F49">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="H49" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="I49" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="J49" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
       <c r="K49">
         <v>3</v>
       </c>
       <c r="L49" t="s">
-        <v>480</v>
+        <v>499</v>
       </c>
       <c r="M49">
         <v>2</v>
       </c>
       <c r="N49" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49" t="s">
-        <v>564</v>
+        <v>626</v>
       </c>
       <c r="Q49">
         <v>0</v>
       </c>
       <c r="R49" t="s">
-        <v>644</v>
+        <v>680</v>
       </c>
       <c r="S49">
         <v>0</v>
       </c>
       <c r="T49" t="s">
-        <v>667</v>
+        <v>731</v>
       </c>
       <c r="U49">
         <v>0</v>
       </c>
       <c r="V49" t="s">
-        <v>719</v>
+        <v>782</v>
       </c>
       <c r="W49">
         <v>0</v>
       </c>
       <c r="X49" t="s">
-        <v>764</v>
+        <v>829</v>
       </c>
     </row>
     <row r="50" spans="1:24">
       <c r="A50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B50" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C50" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="D50" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E50" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F50">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="H50" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="I50" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="J50" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="K50">
         <v>3</v>
       </c>
       <c r="L50" t="s">
-        <v>481</v>
+        <v>500</v>
       </c>
       <c r="M50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N50" t="s">
-        <v>507</v>
+        <v>566</v>
       </c>
       <c r="O50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P50" t="s">
-        <v>601</v>
+        <v>627</v>
       </c>
       <c r="Q50">
         <v>0</v>
       </c>
       <c r="R50" t="s">
-        <v>625</v>
+        <v>593</v>
       </c>
       <c r="S50">
         <v>0</v>
       </c>
       <c r="T50" t="s">
-        <v>700</v>
+        <v>593</v>
       </c>
       <c r="U50">
         <v>0</v>
       </c>
       <c r="V50" t="s">
-        <v>722</v>
+        <v>593</v>
       </c>
       <c r="W50">
         <v>0</v>
       </c>
       <c r="X50" t="s">
-        <v>767</v>
+        <v>593</v>
       </c>
     </row>
     <row r="51" spans="1:24">
       <c r="A51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B51" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C51" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D51" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E51" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F51">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="H51" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="I51" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="J51" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="K51">
         <v>3</v>
       </c>
       <c r="L51" t="s">
-        <v>482</v>
+        <v>501</v>
       </c>
       <c r="M51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N51" t="s">
-        <v>544</v>
+        <v>567</v>
       </c>
       <c r="O51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P51" t="s">
-        <v>602</v>
+        <v>628</v>
       </c>
       <c r="Q51">
         <v>0</v>
       </c>
       <c r="R51" t="s">
-        <v>644</v>
+        <v>681</v>
       </c>
       <c r="S51">
         <v>0</v>
       </c>
       <c r="T51" t="s">
-        <v>667</v>
+        <v>732</v>
       </c>
       <c r="U51">
         <v>0</v>
       </c>
       <c r="V51" t="s">
-        <v>719</v>
+        <v>783</v>
       </c>
       <c r="W51">
         <v>0</v>
       </c>
       <c r="X51" t="s">
-        <v>764</v>
+        <v>830</v>
       </c>
     </row>
     <row r="52" spans="1:24">
       <c r="A52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B52" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C52" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="D52" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E52" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F52">
         <v>5</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="H52" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="I52" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="J52" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="K52">
         <v>3</v>
       </c>
       <c r="L52" t="s">
-        <v>483</v>
+        <v>502</v>
       </c>
       <c r="M52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N52" t="s">
-        <v>545</v>
+        <v>568</v>
       </c>
       <c r="O52">
         <v>0</v>
       </c>
       <c r="P52" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="Q52">
         <v>0</v>
       </c>
       <c r="R52" t="s">
-        <v>652</v>
+        <v>674</v>
       </c>
       <c r="S52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T52" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="U52">
         <v>0</v>
       </c>
       <c r="V52" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="W52">
         <v>0</v>
       </c>
       <c r="X52" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
     </row>
     <row r="53" spans="1:24">
       <c r="A53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B53" t="s">
         <v>33</v>
       </c>
       <c r="C53" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D53" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E53" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F53">
+        <v>5</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H53" t="s">
+        <v>313</v>
+      </c>
+      <c r="I53" t="s">
+        <v>373</v>
+      </c>
+      <c r="J53" t="s">
+        <v>438</v>
+      </c>
+      <c r="K53">
         <v>3</v>
       </c>
-      <c r="G53" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="H53" t="s">
-        <v>303</v>
-      </c>
-      <c r="I53" t="s">
-        <v>360</v>
-      </c>
-      <c r="J53" t="s">
-        <v>422</v>
-      </c>
-      <c r="K53">
-        <v>2</v>
-      </c>
       <c r="L53" t="s">
-        <v>484</v>
+        <v>503</v>
       </c>
       <c r="M53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N53" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P53" t="s">
-        <v>604</v>
+        <v>629</v>
       </c>
       <c r="Q53">
         <v>0</v>
       </c>
       <c r="R53" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="S53">
         <v>0</v>
       </c>
       <c r="T53" t="s">
-        <v>702</v>
+        <v>733</v>
       </c>
       <c r="U53">
         <v>0</v>
       </c>
       <c r="V53" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
       <c r="W53">
         <v>0</v>
       </c>
       <c r="X53" t="s">
-        <v>796</v>
+        <v>804</v>
       </c>
     </row>
     <row r="54" spans="1:24">
       <c r="A54" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C54" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="D54" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E54" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F54">
+        <v>5</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="H54" t="s">
+        <v>314</v>
+      </c>
+      <c r="I54" t="s">
+        <v>374</v>
+      </c>
+      <c r="J54" t="s">
+        <v>439</v>
+      </c>
+      <c r="K54">
         <v>3</v>
       </c>
-      <c r="G54" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="H54" t="s">
-        <v>304</v>
-      </c>
-      <c r="I54" t="s">
-        <v>361</v>
-      </c>
-      <c r="J54" t="s">
-        <v>423</v>
-      </c>
-      <c r="K54">
-        <v>2</v>
-      </c>
       <c r="L54" t="s">
-        <v>485</v>
+        <v>504</v>
       </c>
       <c r="M54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N54" t="s">
-        <v>547</v>
+        <v>569</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P54" t="s">
-        <v>605</v>
+        <v>630</v>
       </c>
       <c r="Q54">
         <v>0</v>
       </c>
       <c r="R54" t="s">
-        <v>654</v>
+        <v>674</v>
       </c>
       <c r="S54">
         <v>0</v>
       </c>
       <c r="T54" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="U54">
         <v>0</v>
       </c>
       <c r="V54" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="W54">
         <v>0</v>
       </c>
       <c r="X54" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
     </row>
     <row r="55" spans="1:24">
       <c r="A55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B55" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C55" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="D55" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E55" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F55">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="H55" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="I55" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="J55" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="K55">
         <v>3</v>
       </c>
       <c r="L55" t="s">
-        <v>486</v>
+        <v>505</v>
       </c>
       <c r="M55">
         <v>0</v>
       </c>
       <c r="N55" t="s">
-        <v>548</v>
+        <v>570</v>
       </c>
       <c r="O55">
         <v>0</v>
       </c>
       <c r="P55" t="s">
-        <v>606</v>
+        <v>631</v>
       </c>
       <c r="Q55">
         <v>0</v>
       </c>
       <c r="R55" t="s">
-        <v>655</v>
+        <v>682</v>
       </c>
       <c r="S55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T55" t="s">
-        <v>704</v>
+        <v>734</v>
       </c>
       <c r="U55">
         <v>0</v>
       </c>
       <c r="V55" t="s">
-        <v>752</v>
+        <v>784</v>
       </c>
       <c r="W55">
         <v>0</v>
       </c>
       <c r="X55" t="s">
-        <v>798</v>
+        <v>831</v>
       </c>
     </row>
     <row r="56" spans="1:24">
       <c r="A56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B56" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D56" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E56" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F56">
         <v>3</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="H56" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="I56" t="s">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="J56" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="K56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L56" t="s">
-        <v>487</v>
+        <v>506</v>
       </c>
       <c r="M56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>549</v>
+        <v>571</v>
       </c>
       <c r="O56">
         <v>0</v>
       </c>
       <c r="P56" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
       <c r="Q56">
         <v>0</v>
       </c>
       <c r="R56" t="s">
-        <v>656</v>
+        <v>683</v>
       </c>
       <c r="S56">
         <v>0</v>
       </c>
       <c r="T56" t="s">
-        <v>705</v>
+        <v>735</v>
       </c>
       <c r="U56">
         <v>0</v>
       </c>
       <c r="V56" t="s">
-        <v>753</v>
+        <v>785</v>
       </c>
       <c r="W56">
         <v>0</v>
       </c>
       <c r="X56" t="s">
-        <v>799</v>
+        <v>832</v>
       </c>
     </row>
     <row r="57" spans="1:24">
       <c r="A57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B57" t="s">
         <v>33</v>
       </c>
       <c r="C57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D57" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E57" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="H57" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="I57" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="J57" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
       <c r="K57">
         <v>2</v>
       </c>
       <c r="L57" t="s">
-        <v>488</v>
+        <v>507</v>
       </c>
       <c r="M57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>533</v>
+        <v>572</v>
       </c>
       <c r="O57">
         <v>0</v>
       </c>
       <c r="P57" t="s">
-        <v>533</v>
+        <v>633</v>
       </c>
       <c r="Q57">
         <v>0</v>
       </c>
       <c r="R57" t="s">
-        <v>533</v>
+        <v>684</v>
       </c>
       <c r="S57">
         <v>0</v>
       </c>
       <c r="T57" t="s">
-        <v>533</v>
+        <v>736</v>
       </c>
       <c r="U57">
         <v>0</v>
       </c>
       <c r="V57" t="s">
-        <v>533</v>
+        <v>786</v>
       </c>
       <c r="W57">
         <v>0</v>
       </c>
       <c r="X57" t="s">
-        <v>533</v>
+        <v>833</v>
       </c>
     </row>
     <row r="58" spans="1:24">
@@ -7032,70 +7140,70 @@
         <v>32</v>
       </c>
       <c r="C58" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D58" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E58" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F58">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="H58" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="I58" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="J58" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="K58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L58" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="M58">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N58" t="s">
-        <v>550</v>
+        <v>573</v>
       </c>
       <c r="O58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P58" t="s">
-        <v>608</v>
+        <v>634</v>
       </c>
       <c r="Q58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R58" t="s">
-        <v>657</v>
+        <v>685</v>
       </c>
       <c r="S58">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T58" t="s">
-        <v>706</v>
+        <v>737</v>
       </c>
       <c r="U58">
         <v>0</v>
       </c>
       <c r="V58" t="s">
-        <v>754</v>
+        <v>787</v>
       </c>
       <c r="W58">
         <v>0</v>
       </c>
       <c r="X58" t="s">
-        <v>800</v>
+        <v>834</v>
       </c>
     </row>
     <row r="59" spans="1:24">
@@ -7103,73 +7211,73 @@
         <v>30</v>
       </c>
       <c r="B59" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C59" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D59" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E59" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F59">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="H59" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="I59" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="J59" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="K59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L59" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="M59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N59" t="s">
-        <v>551</v>
+        <v>574</v>
       </c>
       <c r="O59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P59" t="s">
-        <v>609</v>
+        <v>635</v>
       </c>
       <c r="Q59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R59" t="s">
-        <v>658</v>
+        <v>686</v>
       </c>
       <c r="S59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T59" t="s">
-        <v>707</v>
+        <v>738</v>
       </c>
       <c r="U59">
         <v>0</v>
       </c>
       <c r="V59" t="s">
-        <v>743</v>
+        <v>788</v>
       </c>
       <c r="W59">
         <v>0</v>
       </c>
       <c r="X59" t="s">
-        <v>801</v>
+        <v>835</v>
       </c>
     </row>
     <row r="60" spans="1:24">
@@ -7177,369 +7285,591 @@
         <v>30</v>
       </c>
       <c r="B60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C60" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D60" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E60" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F60">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="H60" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="I60" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="J60" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="K60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L60" t="s">
-        <v>491</v>
+        <v>510</v>
       </c>
       <c r="M60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N60" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="O60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P60" t="s">
-        <v>610</v>
+        <v>558</v>
       </c>
       <c r="Q60">
         <v>0</v>
       </c>
       <c r="R60" t="s">
-        <v>636</v>
+        <v>558</v>
       </c>
       <c r="S60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T60" t="s">
-        <v>708</v>
+        <v>558</v>
       </c>
       <c r="U60">
         <v>0</v>
       </c>
       <c r="V60" t="s">
-        <v>724</v>
+        <v>558</v>
       </c>
       <c r="W60">
         <v>0</v>
       </c>
       <c r="X60" t="s">
-        <v>780</v>
+        <v>558</v>
       </c>
     </row>
     <row r="61" spans="1:24">
       <c r="A61" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B61" t="s">
         <v>33</v>
       </c>
       <c r="C61" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="D61" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E61" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F61">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="H61" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="I61" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="J61" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="K61">
+        <v>2</v>
+      </c>
+      <c r="L61" t="s">
+        <v>511</v>
+      </c>
+      <c r="M61">
         <v>3</v>
       </c>
-      <c r="L61" t="s">
-        <v>492</v>
-      </c>
-      <c r="M61">
-        <v>2</v>
-      </c>
       <c r="N61" t="s">
-        <v>553</v>
+        <v>575</v>
       </c>
       <c r="O61">
         <v>1</v>
       </c>
       <c r="P61" t="s">
-        <v>611</v>
+        <v>636</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R61" t="s">
-        <v>644</v>
+        <v>687</v>
       </c>
       <c r="S61">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T61" t="s">
-        <v>709</v>
+        <v>739</v>
       </c>
       <c r="U61">
         <v>0</v>
       </c>
       <c r="V61" t="s">
-        <v>719</v>
+        <v>789</v>
       </c>
       <c r="W61">
         <v>0</v>
       </c>
       <c r="X61" t="s">
-        <v>764</v>
+        <v>836</v>
       </c>
     </row>
     <row r="62" spans="1:24">
       <c r="A62" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B62" t="s">
         <v>33</v>
       </c>
       <c r="C62" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="D62" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E62" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F62">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H62" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="I62" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="J62" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="K62">
+        <v>2</v>
+      </c>
+      <c r="L62" t="s">
+        <v>512</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>576</v>
+      </c>
+      <c r="O62">
         <v>3</v>
       </c>
-      <c r="L62" t="s">
-        <v>493</v>
-      </c>
-      <c r="M62">
-        <v>2</v>
-      </c>
-      <c r="N62" t="s">
-        <v>554</v>
-      </c>
-      <c r="O62">
-        <v>1</v>
-      </c>
       <c r="P62" t="s">
-        <v>612</v>
+        <v>637</v>
       </c>
       <c r="Q62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R62" t="s">
-        <v>659</v>
+        <v>688</v>
       </c>
       <c r="S62">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T62" t="s">
-        <v>710</v>
+        <v>740</v>
       </c>
       <c r="U62">
         <v>0</v>
       </c>
       <c r="V62" t="s">
-        <v>755</v>
+        <v>778</v>
       </c>
       <c r="W62">
         <v>0</v>
       </c>
       <c r="X62" t="s">
-        <v>802</v>
+        <v>837</v>
       </c>
     </row>
     <row r="63" spans="1:24">
       <c r="A63" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C63" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D63" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E63" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F63">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="H63" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="I63" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="J63" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="K63">
         <v>3</v>
       </c>
       <c r="L63" t="s">
-        <v>494</v>
+        <v>513</v>
       </c>
       <c r="M63">
         <v>2</v>
       </c>
       <c r="N63" t="s">
-        <v>555</v>
+        <v>577</v>
       </c>
       <c r="O63">
         <v>1</v>
       </c>
       <c r="P63" t="s">
-        <v>613</v>
+        <v>638</v>
       </c>
       <c r="Q63">
         <v>0</v>
       </c>
       <c r="R63" t="s">
-        <v>535</v>
+        <v>666</v>
       </c>
       <c r="S63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T63" t="s">
-        <v>535</v>
+        <v>741</v>
       </c>
       <c r="U63">
         <v>0</v>
       </c>
       <c r="V63" t="s">
-        <v>535</v>
+        <v>759</v>
       </c>
       <c r="W63">
         <v>0</v>
       </c>
       <c r="X63" t="s">
-        <v>535</v>
+        <v>817</v>
       </c>
     </row>
     <row r="64" spans="1:24">
       <c r="A64" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B64" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C64" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="D64" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E64" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F64">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="H64" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="I64" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="J64" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="K64">
         <v>3</v>
       </c>
       <c r="L64" t="s">
-        <v>495</v>
+        <v>514</v>
       </c>
       <c r="M64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N64" t="s">
-        <v>556</v>
+        <v>578</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P64" t="s">
-        <v>614</v>
+        <v>639</v>
       </c>
       <c r="Q64">
         <v>0</v>
       </c>
       <c r="R64" t="s">
-        <v>647</v>
+        <v>674</v>
       </c>
       <c r="S64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T64" t="s">
-        <v>711</v>
+        <v>742</v>
       </c>
       <c r="U64">
         <v>0</v>
       </c>
       <c r="V64" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="W64">
         <v>0</v>
       </c>
       <c r="X64" t="s">
-        <v>803</v>
+        <v>801</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24">
+      <c r="A65" t="s">
+        <v>31</v>
+      </c>
+      <c r="B65" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65" t="s">
+        <v>127</v>
+      </c>
+      <c r="E65" t="s">
+        <v>193</v>
+      </c>
+      <c r="F65">
+        <v>6</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="H65" t="s">
+        <v>325</v>
+      </c>
+      <c r="I65" t="s">
+        <v>384</v>
+      </c>
+      <c r="J65" t="s">
+        <v>450</v>
+      </c>
+      <c r="K65">
+        <v>3</v>
+      </c>
+      <c r="L65" t="s">
+        <v>515</v>
+      </c>
+      <c r="M65">
+        <v>2</v>
+      </c>
+      <c r="N65" t="s">
+        <v>579</v>
+      </c>
+      <c r="O65">
+        <v>1</v>
+      </c>
+      <c r="P65" t="s">
+        <v>640</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65" t="s">
+        <v>689</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65" t="s">
+        <v>743</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+      <c r="V65" t="s">
+        <v>790</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24">
+      <c r="A66" t="s">
+        <v>31</v>
+      </c>
+      <c r="B66" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66" t="s">
+        <v>36</v>
+      </c>
+      <c r="D66" t="s">
+        <v>128</v>
+      </c>
+      <c r="E66" t="s">
+        <v>194</v>
+      </c>
+      <c r="F66">
+        <v>6</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="H66" t="s">
+        <v>326</v>
+      </c>
+      <c r="I66" t="s">
+        <v>385</v>
+      </c>
+      <c r="J66" t="s">
+        <v>451</v>
+      </c>
+      <c r="K66">
+        <v>3</v>
+      </c>
+      <c r="L66" t="s">
+        <v>516</v>
+      </c>
+      <c r="M66">
+        <v>2</v>
+      </c>
+      <c r="N66" t="s">
+        <v>580</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
+      </c>
+      <c r="P66" t="s">
+        <v>641</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66" t="s">
+        <v>560</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66" t="s">
+        <v>560</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66" t="s">
+        <v>560</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24">
+      <c r="A67" t="s">
+        <v>31</v>
+      </c>
+      <c r="B67" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" t="s">
+        <v>36</v>
+      </c>
+      <c r="D67" t="s">
+        <v>129</v>
+      </c>
+      <c r="E67" t="s">
+        <v>195</v>
+      </c>
+      <c r="F67">
+        <v>3</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="H67" t="s">
+        <v>327</v>
+      </c>
+      <c r="I67" t="s">
+        <v>386</v>
+      </c>
+      <c r="J67" t="s">
+        <v>452</v>
+      </c>
+      <c r="K67">
+        <v>3</v>
+      </c>
+      <c r="L67" t="s">
+        <v>517</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67" t="s">
+        <v>581</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67" t="s">
+        <v>642</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67" t="s">
+        <v>677</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67" t="s">
+        <v>744</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+      <c r="V67" t="s">
+        <v>791</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67" t="s">
+        <v>839</v>
       </c>
     </row>
   </sheetData>
@@ -7607,6 +7937,9 @@
     <hyperlink ref="G62" r:id="rId61"/>
     <hyperlink ref="G63" r:id="rId62"/>
     <hyperlink ref="G64" r:id="rId63"/>
+    <hyperlink ref="G65" r:id="rId64"/>
+    <hyperlink ref="G66" r:id="rId65"/>
+    <hyperlink ref="G67" r:id="rId66"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resource/04_UPLOAD.xlsx
+++ b/resource/04_UPLOAD.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="1088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="822">
   <si>
     <t>날짜</t>
   </si>
@@ -91,6 +91,54 @@
   </si>
   <si>
     <t>cr_7_reason</t>
+  </si>
+  <si>
+    <t>2023-10-13</t>
+  </si>
+  <si>
+    <t>사회 동향</t>
+  </si>
+  <si>
+    <t>농협</t>
+  </si>
+  <si>
+    <t>성희롱에 법인카드 유용해도 4억 원 수령...농협 '퇴직금 잔치'</t>
+  </si>
+  <si>
+    <t>농협에서 성희롱과 갑질로 징계를 받은 직원들에게도 높은 퇴직금을 지급하고 있다는 사실이 확인됐다. 징계를 받은 직원들은 한 사람당 5억 원에 가까운 퇴직금을 받았으며, 이로 인해 농협은 비판을 받고 있다.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/052/0001946468?sid=102</t>
+  </si>
+  <si>
+    <t>농협이 성희롱이나 갑질로 중징계를 받은 직원에게도 별다른 불이익을 주지 않고 두둑한 명예퇴직금을 챙겨준 것으로 확인됐습니다.사실상 명예롭지 않게 퇴직한 직원들도 한 사람당 5억 원에 가까운 퇴직금을 받고 나갔는데요.정작 농협은 뾰족한 수가 없다는 입장입니다.강민경 기자가 보도합니다.농협경제지주에서 차장급으로 일하던 A 씨는 지난 2020년 성희롱과 갑질 폭언으로 정직 6개월 징계 처분을 받은 뒤 바로 명예퇴직을 신청했습니다.A 씨가 회사를 떠나며 손에 쥔 금액은 4억5천만 원 특별퇴직금 명목으로 법정 퇴직금의 세 배 가까이 더 받았습니다.NH농협은행 지부장급 직원이었던 B 씨도 지난 2019년 정직 기간 중 희망퇴직 신청이 승인돼 4억 8천여만 원을 지급 받았습니다.법인카드로 천만 원이 넘는 돈을 사적으로 쓴 것도 명예 퇴직금을 챙기는 데엔 아무런 걸림돌이 되지 않은 겁니다.최근 5년 동안 농협중앙회와 자회사의 명예 퇴직자 가운데 징계로 승진이 제한된 사람은 32명 징계 중이었던 직원은 6명이었습니다.이들 38명에게 지급된 퇴직금은 명예 퇴직금 109억 원을 포함해 모두 160억 7천여만 원입니다.명예롭지 못한 일로 징계를 받고도 한 사람당 평균 4억2천만 원을 퇴직금으로 타낸 셈입니다.앞서 국민권익위원회는 지난 2020년 징계 처분을 받아 승진 임용이 제한된 직원들에게는 명예퇴직수당을 주지 말라고 농협에 권고했습니다.그러나 농협은 3년이 지나도록 권익위 권고를 수용하지 않은 채 징계자에게 퇴직금을 두둑이 주고 있습니다.농민을 위해 존재하는 농협이 자기 직원들만 감싸며 방만 운영을 한다는 지적이 나옵니다.이에 대해 농협 측은 징계 기간 중 퇴직을 하는 경우 남은 징계 기간만큼을 차감해서 명예 퇴직금을 산정하고 있다고 해명했습니다.다만 징계 기간이 끝난 직원에 대해서까지 명예 퇴직금을 깎아버리면 과중 징계 우려가 커서 당장 제도를 손댈 수는 없다는 입장입니다.그러면서 권익위와 협의해 징계자에 대한 퇴직금 제도를 보완할 방안을 찾고 있다고 덧붙였습니다.YTN 강민경입니다.촬영기자 김광현그래픽 박유동 당신의 제보가 뉴스가 됩니다 YTN 검색해 채널 추가 023988585 socialytn.co.kr</t>
+  </si>
+  <si>
+    <t>['퇴직금 제도', '희망퇴직 퇴직금', '명예퇴직 퇴직금']</t>
+  </si>
+  <si>
+    <t>[{'퇴직금 제도': 1}, {'희망퇴직 퇴직금': 3}, {'명예퇴직 퇴직금': 1}]</t>
+  </si>
+  <si>
+    <t>농협은 퇴직금 지급에 대한 전략이 명확하지 않으며, 징계를 받은 직원들에게 높은 퇴직금을 지급하고 있다는 사실이 확인되었기 때문에 2점을 준다.</t>
+  </si>
+  <si>
+    <t>농협의 경쟁 동향과 신제품 및 서비스 출시에 대한 정보는 기사에 언급되지 않았으므로 0점을 준다.</t>
+  </si>
+  <si>
+    <t>기사에서는 농협의 퇴직금 지급과 관련된 금융 시장의 변동에 대한 언급이 없으므로 1점을 준다.</t>
+  </si>
+  <si>
+    <t>기사에서는 법적 및 규제 변화에 대한 언급이 없으므로 0점을 준다.</t>
+  </si>
+  <si>
+    <t>기사에서는 인구 통계 및 연령에 관련된 정보가 언급되지 않으므로 0점을 준다.</t>
+  </si>
+  <si>
+    <t>기사에서는 기술과 디지털화에 관련된 정보가 언급되지 않으므로 0점을 준다.</t>
+  </si>
+  <si>
+    <t>기사에서는 소비 행동 및 요구사항에 관련된 정보가 언급되지 않으므로 0점을 준다.</t>
   </si>
   <si>
     <t>2023-10-12</t>
@@ -366,9 +414,6 @@
   </si>
   <si>
     <t>2023-10-11</t>
-  </si>
-  <si>
-    <t>사회 동향</t>
   </si>
   <si>
     <t>은행권</t>
@@ -2515,861 +2560,6 @@
   </si>
   <si>
     <t>최영진 한화운용 전략사업부문장은 지난해 말 기준 퇴직연금 전체 적립금은 335조9000억원으로 이 중 88.7인 298조원이 원리금 보장형에 쏠려 있다면서 하지만 20262027년쯤 되면 중위험 고위험 디폴트옵션 사전지정운용제도을 선택한 사람들과의 수익 격차가 커지고 연금 투자 인식이 달라질 것이라고 말했다.</t>
-  </si>
-  <si>
-    <t>2023-10-05</t>
-  </si>
-  <si>
-    <t>KB은행</t>
-  </si>
-  <si>
-    <t>KB운용-KB은행 맞손, 銀투자자문 서비스 결합한 '퇴직연금펀드' 출시</t>
-  </si>
-  <si>
-    <t>KB자산운용이 KB 드림스타 자산배분 안정형 펀드를 출시했다. 이 펀드는 글로벌 주식 채권 원자재 등 다양한 자산에 분산투자해 안정적인 수익을 추구하는 상품이다. KB자산운용은 다양한 연금펀드를 운용하며 퇴직연금 강자로 주목받고 있다.</t>
-  </si>
-  <si>
-    <t>https://n.news.naver.com/mnews/article/014/0005081452?sid=101</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> KB자산운용이 KB 드림스타 자산배분 안정형 펀드를 출시했다. 5일 KB운용에 따르면 KB 드림스타 자산배분 안정형 펀드는 자산배분펀드의 명가인 KB자산운용의 운용역량과 KB국민은행의 글로벌 투자자문 서비스를 결합한 퇴직연금 펀드다. 이 펀드는 글로벌 주식 채권 원자재 등 다양한 자산에 분산투자해 변동성을 낮추고 위험자산의 비중을 40수준으로 제한해 안정적인 수익을 추구하는 상품이다. KB국민은행이 자산배분안을 자문하고 KB자산운용이 이를 바탕으로 시장 전망 및 자산군별 세부전략을 확정하여 포트폴리오를 구성한다. 초기 포트폴리오를 살펴보면 글로벌 주식 35과 채권 55에 분산투자한다. 주식은 선진국 25 한국 5 신흥국 5으로 구성되어 있고 채권은 국내 45 해외 10으로 나뉜다. 나머지 10는 유동성 자산으로 MMF등에 투자한다. KB자산운용 연금WM본부 이석희 상무는 이 상품은 KB국민은행과 협업한 최초의 펀드로 저비용으로 다양한 국가와 자산에 분산투자해 글로벌 커버리지가 높다며 장기적으로 안정적인 투자가 중요한 연금 퇴직연금 고객에게 적합한 상품이라고 설명했다. 이 펀드는 10월 4일부터 KB국민은행 퇴직연금계좌를 통해 가입할 수 있다. 환율변동에 따른 위험을 관리하기 위해 외화표시 된 비위험자산 채권 등 고정이자를 수취하는 외화자산에 대해 환헤지한다. 선취수수료가 없는 C퇴직형 연보수 0.635과 C퇴직e형 연보수 0.485 온라인전용 중에서 선택할 수 있다. 한편 KB자산운용은 유가증권 대체투자 LDI 부문 등의 자체 리서치 역량으로 최적화된 자산배분펀드 운용시스템을 갖추고 있다. KB자산운용은 주력상품인 TDF를 포함해 KB온국민평생소득TIF KB타겟리턴OCIO펀드 시리즈 등 다양한 연금펀드를 효율적으로 운용하며 퇴직연금 강자로 주목받고 있다. 향후 투자자들이 시장 상황에 맞는 상품을 선택할 수 있도록 신규 연금상품 라인업을 추가적으로 구축할 예정이다. 퇴직연금 kb자산운용 KB드림스타자산배분안정형펀드 </t>
-  </si>
-  <si>
-    <t>['퇴직연금ocio', 'KB 퇴직연금', '퇴직연금 서비스 ', '퇴직연금 포트폴리오', '퇴직연금 TDF', '퇴직연금 자산배분', '퇴직연금 가입', '퇴직연금 펀드', '퇴직연금 채권', '퇴직연금 라인업', '퇴직연금 장기 투자']</t>
-  </si>
-  <si>
-    <t>[{'퇴직연금ocio': 1}, {'KB 퇴직연금': 12}, {'퇴직연금 서비스 ': 15}, {'퇴직연금 포트폴리오': 15}, {'퇴직연금 TDF': 1}, {'퇴직연금 자산배분': 53}, {'퇴직연금 가입': 5}, {'퇴직연금 펀드': 16}, {'퇴직연금 채권': 14}, {'퇴직연금 라인업': 1}, {'퇴직연금 장기 투자': 1}]</t>
-  </si>
-  <si>
-    <t>KB자산운용이 다양한 자산에 분산투자해 안정적인 수익을 추구하는 펀드를 출시했기 때문에 3점을 줍니다.</t>
-  </si>
-  <si>
-    <t>이 기사에서는 경쟁 동향에 대한 정보가 제한적으로 제공되었기 때문에 2점을 줍니다.</t>
-  </si>
-  <si>
-    <t>이 기사에서는 금융 시장의 영향에 대한 정보가 제한적으로 제공되었기 때문에 2점을 줍니다.</t>
-  </si>
-  <si>
-    <t>이 기사에서는 법적 및 규제 변화에 대한 정보가 제공되지 않았기 때문에 1점을 줍니다.</t>
-  </si>
-  <si>
-    <t>이 기사에서는 인구 통계 변화에 대한 정보가 제공되지 않았기 때문에 1점을 줍니다.</t>
-  </si>
-  <si>
-    <t>이 기사에서는 기술과 디지털화에 대한 정보가 제공되지 않았기 때문에 1점을 줍니다.</t>
-  </si>
-  <si>
-    <t>KB자산운용은 다양한 연금펀드를 운용하며 퇴직연금 고객에게 적합한 상품을 제공하기 위해 노력하고 있기 때문에 3점을 줍니다.</t>
-  </si>
-  <si>
-    <t>미래에셋 / KB은행</t>
-  </si>
-  <si>
-    <t>미래에셋, KB은행 자문 `미래에셋드림스타자산배분성장형 펀드` 출시</t>
-  </si>
-  <si>
-    <t>미래에셋자산운용은 글로벌 주식 채권 등 전통자산과 원자재 등 대체자산에 분산 투자하는 미래에셋드림스타자산배분성장형 펀드를 출시한다고 밝혔다. 이 상품은 국내외 주식형 펀드와 채권형 펀드부터 상장지수펀드 ETF 에너지 및 원자재 펀드 리츠 REITs 등 다양한 기초자산에 분산 투자해 위험 대비 효율적인 수익을 추구한다. 미래에셋드림스타자산배분성장형 펀드는 향후 확정기여형 퇴직연금 DC 및 개인형 퇴직연금 IRP 가입자의 수익률 개선에 기여할 수 있을 것으로 기대된다.</t>
-  </si>
-  <si>
-    <t>https://n.news.naver.com/mnews/article/029/0002828584?sid=101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">미래에셋자산운용은 글로벌 주식 채권 등 전통자산과 원자재 등 대체자산에 분산 투자하는 미래에셋드림스타자산배분성장형 펀드를 출시한다고 5일 밝혔다.미래에셋드림스타자산배분성장형 펀드는 미래에셋자산운용이 은행과 협업하는 최초의 상품이다. 지난 1월 국내 은행권 최초로 금융투자자문업에 진출한 KB국민은행이 글로벌 자산배분안과 시장 및 경제 전망 펀드 포트폴리오 구성 관련 자문을 담당하고 미래에셋자산운용이 운용하는 구조다. KB국민은행의 포트폴리오 관리 역량과 미래에셋자산운용의 재간접펀드 운용 역량이 결합해 시너지를 발휘할 수 있을 것으로 기대된다고 미래에셋 측은 전했다. 두 회사는 지속적인 모니터링을 통해 리스크를 관리하고 자산군별 국가별 펀드별 성과 분석 및 리밸런싱을 수행할 계획이다.이 상품은 국내외 주식형 펀드와 채권형 펀드부터 상장지수펀드 ETF 에너지 및 원자재 펀드 리츠 REITs 등 다양한 기초자산에 분산 투자해 위험 대비 효율적인 수익을 추구한다. 시장 변동성에 대응하기 위해 경기 국면별로 투자 자산의 비중을 조절하는 적극적인 자산배분을 통해 꾸준한 초과 수익을 목표로 한다.또한 펀드 설계 단계에서부터 물가상승률과 금리 목표수익 위험성향 등 다양한 변수를 고려해 연금펀드 자산운용에 특화된 투자전략을 수립했다는 게 운용사의 설명이다. 미래에셋드림스타자산배분성장형 펀드는 향후 확정기여형 퇴직연금 DC 및 개인형 퇴직연금 IRP 가입자의 수익률 개선에 기여할 수 있을 것으로 기대된다. 류경식 미래에셋자산운용 WM연금마케팅부문 대표는 미래에셋드림스타자산배분성장형 펀드는 특히 장기 성장 관점에서의 액티브한 자산배분 운용과 안정적인 초과 수익 달성을 목표로 하는 해당 펀드는 연금 투자자들이 글로벌 경쟁력을 갖춘 다양한 자산에 투자할 수 있는 기회가 될 것으로 기대한다고 말했다. 한편 미래에셋드림스타자산배분성장형 펀드는 KB국민은행에서 가입 가능하다. </t>
-  </si>
-  <si>
-    <t>['확정기여형', '미래에셋 퇴직연금', '퇴직연금 리츠']</t>
-  </si>
-  <si>
-    <t>[{'확정기여형': 19}, {'미래에셋 퇴직연금': 48}, {'퇴직연금 리츠': 25}]</t>
-  </si>
-  <si>
-    <t>미래에셋자산운용이 전통자산과 대체자산에 분산 투자하는 펀드를 출시하여 투자 전략과 수익에 대한 관리를 강화하고 있다.</t>
-  </si>
-  <si>
-    <t>미래에셋자산운용과 KB국민은행의 협업으로 최초의 상품이 출시되었으며, 이는 시장에서의 경쟁 동향을 나타낸다.</t>
-  </si>
-  <si>
-    <t>미래에셋자산운용은 리스크 관리와 자산 분석, 리밸런싱을 통해 금융 시장 변동성에 대응하고 있다.</t>
-  </si>
-  <si>
-    <t>기사에는 법적 및 규제적 변화에 대한 언급이 없으므로 점수가 낮게 평가된다.</t>
-  </si>
-  <si>
-    <t>기사에는 인구 통계 변화와 연금 기금의 장기 지속 가능성에 대한 언급이 없으므로 점수가 낮게 평가된다.</t>
-  </si>
-  <si>
-    <t>기사에는 기술과 디지털화에 대한 언급이 없으므로 점수가 낮게 평가된다.</t>
-  </si>
-  <si>
-    <t>미래에셋드림스타자산배분성장형 펀드는 연금 투자자들의 요구에 맞춰 다양한 자산에 투자할 수 있는 기회를 제공하고 있다.</t>
-  </si>
-  <si>
-    <t>안정적 수익 노린다면… 글로벌 자산에 분산 투자해야</t>
-  </si>
-  <si>
-    <t>KB국민은행과 KB운용이 퇴직연금 펀드 KB 드림스타 자산배분 안정형 펀드를 출시했다. 이 펀드는 다양한 자산에 분산 투자해 안정적인 수익을 추구한다. 미래에셋운용도 대체자산에 분산 투자하는 미래에셋드림스타자산배분성장형 펀드를 내놨다.</t>
-  </si>
-  <si>
-    <t>https://n.news.naver.com/mnews/article/014/0005081942?sid=101</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 대형 자산운용사들이 KB국민은행의 투자자문 서비스를 받은 퇴직연금 펀드를 선보였다. KB운용은 자사의 운용 역량과 국민은행의 글로벌 투자자문 서비스를 결합한 퇴직연금 펀드 KB 드림스타 자산배분 안정형 펀드를 5일 출시했다. 이 펀드는 글로벌 주식 채권 원자재 등 다양한 자산에 분산 투자해 변동성을 낮추고 위험자산의 비중을 40 수준으로 제한해 안정적인 수익을 추구한다. KB국민은행이 자산배분안을 자문하고 KB운용이 이를 바탕으로 시장 전망 및 자산군별 세부전략을 확정해 포트폴리오를 구성한다. 초기 포트폴리오는 글로벌 주식 35과 채권 55에 나눠 투자한다. 주식은 선진국 25 한국 5 신흥국 5으로 채권은 국내 45 해외 10로 구성된다. 나머지 10는 유동성 자산으로 머니마켓펀드 MMF 등에 투자한다. KB운용 연금WM본부 이석희 상무는 국민은행과 협업한 첫 펀드로 저비용으로 다양한 국가와 자산에 분산 투자해 글로벌 커버리지가 높다며 장기적으로 안정적인 투자가 중요한 연금 및 퇴직연금 고객에게 적합한 상품이라고 설명했다. 미래에셋운용도 글로벌 주식 채권 등 전통자산과 원자재 등 대체자산에 분산 투자하는 미래에셋드림스타자산배분성장형 펀드를 내놨다. 이 펀드는 국내외 주식형 펀드와 채권형 펀드부터 상장지수펀드 ETF 에너지 및 원자재 펀드 리츠 REITs 등 다양한 기초자산에 분산 투자해 위험 대비 효율적 수익을 추구한다. 시장 변동성에 대응하기 위해 경기국면별로 투자자산의 비중을 조절하는 적극적인 자산배분을 통해 꾸준한 초과수익을 목표로 한다. 미래에셋드림스타자산배분성장형 펀드는 미래에셋운용이 은행과 협업하는 첫 상품이다. 지난 1월 국내 은행권 최초로 금융투자자문업에 진출한 국민은행이 글로벌 자산배분안과 시장 및 경제 전망 펀드 포트폴리오 구성 관련 자문을 담당하고 미래에셋운용이 운용하는 구조다. 미래에셋운용 관계자는 국민은행의 포트폴리오 관리 역량과 미래에셋자산운용의 재간접펀드 운용 역량이 결합해 시너지를 발휘할 것으로 기대된다며 확정기여형 퇴직연금 DC 및 개인형 퇴직연금 IRP 가입자의 수익률 개선에 기여할 것이라고 설명했다. </t>
-  </si>
-  <si>
-    <t>['확정기여형', '퇴직연금 리츠', '퇴직연금 장기 투자']</t>
-  </si>
-  <si>
-    <t>[{'확정기여형': 11}, {'퇴직연금 리츠': 18}, {'퇴직연금 장기 투자': 7}]</t>
-  </si>
-  <si>
-    <t>KB운용이 퇴직연금 펀드를 출시하고 자산배분 안정형 펀드를 구성하여 안정적인 수익을 추구함.</t>
-  </si>
-  <si>
-    <t>KB국민은행과 KB운용이 협업하여 퇴직연금 펀드를 출시함.</t>
-  </si>
-  <si>
-    <t>퇴직연금 펀드의 자산배분은 다양한 자산에 분산 투자하여 위험을 낮추고 수익을 추구함.</t>
-  </si>
-  <si>
-    <t>본 기사에는 법률 및 규제 변화에 대한 언급이 없음.</t>
-  </si>
-  <si>
-    <t>본 기사에는 인구 변화와 연금 기금의 장기적인 지속 가능성에 대한 언급이 없음.</t>
-  </si>
-  <si>
-    <t>본 기사에는 기술과 디지털화에 대한 언급이 없음.</t>
-  </si>
-  <si>
-    <t>본 기사에는 소비 행동 및 요구사항에 대한 언급이 없음.</t>
-  </si>
-  <si>
-    <t>국민은행 / 미래에셋 / KB자산운용</t>
-  </si>
-  <si>
-    <t>국민銀 협업 '자산배분 펀드' 미래에셋·KB자산운용 출시</t>
-  </si>
-  <si>
-    <t>미래에셋자산운용과 KB자산운용이 협력하여 자산배분 펀드를 출시했다. 해당 펀드들은 퇴직연금 상품으로, 다양한 자산에 분산투자하여 수익을 추구한다.</t>
-  </si>
-  <si>
-    <t>https://n.news.naver.com/mnews/article/009/0005195226?sid=101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">미래에셋자산운용 KB자산운용이 KB국민은행과 함께 운용하는 자산배분 펀드를 시장에 내놓았다.5일 미래에셋자산운용은 미래에셋 드림스타 자산배분 성장형 펀드를 KB자산운용은 KB 드림스타 자산배분 안정형 펀드를 출시한다고 밝혔다. 해당 펀드들은 운용사의 펀드 운용 역량과 KB국민은행의 투자자문 서비스를 결합한 퇴직연금 상품이다. 미래에셋 드림스타 자산배분 성장형 펀드는 주식형채권형 펀드부터 상장지수펀드 에너지원자재 리츠 등 다양한 자산에 분산투자해 효율적인 수익을 추구한다. KB 드림스타 자산배분 안정형 펀드도 글로벌 주식채권원자재 등에 분산투자해 안정적인 수익을 추구하는 상품이다. </t>
-  </si>
-  <si>
-    <t>['미래에셋 퇴직연금', '퇴직연금 리츠']</t>
-  </si>
-  <si>
-    <t>[{'미래에셋 퇴직연금': 5}, {'퇴직연금 리츠': 19}]</t>
-  </si>
-  <si>
-    <t>미래에셋자산운용과 KB자산운용이 협력하여 자산배분 펀드를 출시하여 펀드 운용 역량을 강화하였다.</t>
-  </si>
-  <si>
-    <t>KB자산운용과 함께 출시한 자산배분 펀드는 시장에서 경쟁력을 갖추고 있다.</t>
-  </si>
-  <si>
-    <t>해당 기사에는 금융시장의 변동성이나 이자율 변화에 대한 언급이 없어서 점수를 낮게 평가하였다.</t>
-  </si>
-  <si>
-    <t>해당 기사에는 법률 및 규제 변화에 대한 언급이 없어서 점수를 주지 않았다.</t>
-  </si>
-  <si>
-    <t>해당 기사에는 인구 변화에 대한 언급이 없어서 점수를 낮게 평가하였다.</t>
-  </si>
-  <si>
-    <t>해당 기사에는 기술과 디지털화에 대한 언급이 없어서 점수를 주지 않았다.</t>
-  </si>
-  <si>
-    <t>해당 펀드는 퇴직연금 상품으로, 수요자의 투자 선호도와 요구사항을 충족시킬 수 있다.</t>
-  </si>
-  <si>
-    <t>연금저축·사고보험금도 5000만원까지 별도로 보호됩니다 [정문영 PB의 생활 ...</t>
-  </si>
-  <si>
-    <t>국내 제2금융권 부동산 프로젝트파이낸싱 PF 대출의 연체율 증가로 금융기관에 대한 불안감이 커지고 있습니다. 예금자보호법 개정안이 추진되어 예금자의 보호 범위가 확대될 예정입니다. 연금저축 신탁보험 사고보험금 중소기업퇴직연금기금에 대해 예금자보호 한도 5000만원을 적용하는 정책이 추진됩니다.</t>
-  </si>
-  <si>
-    <t>https://n.news.naver.com/mnews/article/081/0003397996?sid=101</t>
-  </si>
-  <si>
-    <t>지난 3월 미국 실리콘밸리은행 SVB의 파산과 최근 국내 제2금융권 부동산 프로젝트파이낸싱 PF 대출의 연체율 증가로 금융기관에 대한 불안감이 커지면서 예금자보호에 대한 관심도 증가하고 있습니다.예금자보호법은 금융사 파산 등의 사유로 예금 등을 지급할 수 없는 상황에 대처하기 위해 만든 예금보험제도 등을 효율적으로 운영해 예금자 등을 보호하고 금융제도의 안정성을 유지하려고 제정된 법입니다. 예금보험의 적용을 받는 금융회사로는 은행 산업기업시중농협수협 등 투자매매업자 투자중개업자 보험회사 종합금융회사 상호저축은행중앙회 등이 있습니다. 농협수협의 지역조합 신용협동조합 새마을금고의 경우 예금자보호 대상은 아니나 자체 관련 법률에 따라 자체 기금에서 보호되며 우체국의 경우 정부 기관이기 때문에 국가에서 우체국 예금을 보호합니다. 예금자보호 한도는 1인당 각각의 금융기관별 원금과 소정의 이자를 포함해 5000만원까지입니다.이와 관련해 최근 금융위원회는 국민의 노후 소득 보장과 상품의 사회적보장적 성격을 고려해 연금저축 사고보험금 중소기업퇴직연금기금에 대해 예금자가 보유한 일반 예금과 별도로 예금자보호 한도 5000만원을 각각 적용하는 정책을 추진하는 예금자보호법 시행령 개정안 입법예고를 했습니다.이번 개정안을 통해 기존 확정기여형 DC 및 개인형 IRP 퇴직연금과 마찬가지로 연금저축 신탁보험 사고보험금 중소기업퇴직연금기금 각각에 대해서 일반 예금과 분리해 별도로 보호받게 됩니다. 연금저축신탁 은행 및 연금저축보험 보험사이 대상이고 연금저축펀드 자산운용사는 예금자보호 대상이 아닙니다. 사고보험금 만기보험금 제외도 일반 예금과 분리해 별도 보호 한도를 적용합니다. 중소기업퇴직연금기금의 예금도 실예금자 근로자별로 별도 보호 한도를 적용하기로 했습니다.보호 대상 은행상품 연금저축신탁 사고보험 IRP에 가입한 고객의 경우 현재는 IRP만 별도로 보호를 받기 때문에 총 1억원을 보호받지만 앞으로는 각각 5000만원씩 총 2억원을 보호받게 됩니다. 개정안은 입법예고 기간 종료 후 법제처 심사 등을 거쳐 이르면 연내에 시행됩니다. 각각 보험 적용이 가능한 항목별로 자산을 배분하고 은행을 분산한다면 은행에 예치한 소중한 자산을 안전하게 지킬 수 있을 겁니다.정문영 신한은행 신한PWM 압구정센터 팀장</t>
-  </si>
-  <si>
-    <t>['신한 퇴직연금', '퇴직연금 저축은행', '퇴직연금 예금']</t>
-  </si>
-  <si>
-    <t>[{'신한 퇴직연금': 6}, {'퇴직연금 저축은행': 1}, {'퇴직연금 예금': 2}]</t>
-  </si>
-  <si>
-    <t>금융기관에 대한 불안감이 커지고 있으므로, pension fund management에 대한 관심이 높아질 것으로 예상됩니다.</t>
-  </si>
-  <si>
-    <t>예금자보호법 개정안이 추진되어 retirement pension industry에 영향을 줄 수 있으므로, industry competition trends에 영향을 미칠 수 있습니다.</t>
-  </si>
-  <si>
-    <t>금융기관에 대한 불안감이 커지고 있으므로, financial market impact가 예상됩니다.</t>
-  </si>
-  <si>
-    <t>예금자보호법 개정안이 추진되고 있으므로, legal and regulatory changes에 대한 높은 점수를 부여합니다.</t>
-  </si>
-  <si>
-    <t>기사에는 demographic change에 대한 내용이 포함되어 있지 않습니다.</t>
-  </si>
-  <si>
-    <t>기사에는 technology and digitalization에 대한 내용이 포함되어 있지 않습니다.</t>
-  </si>
-  <si>
-    <t>기사에는 consumption behavior and requirements에 대한 내용이 포함되어 있지 않습니다.</t>
-  </si>
-  <si>
-    <t>美금리·中둔화 악재…홍콩 퇴직연금, 상반기 이익분 모두 손실</t>
-  </si>
-  <si>
-    <t>홍콩 강제퇴직연금 MPF가 상반기 이익을 모두 잃게 되었으며, 3분기에 308억 홍콩달러의 손실을 기록했다. 이는 미국 금리상승과 중국 경제 둔화의 영향으로 분석되었다.</t>
-  </si>
-  <si>
-    <t>https://news.einfomax.co.kr/news/articleView.html?idxno=4283094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- 서울연합인포맥스 이재헌 기자 홍콩 강제퇴직연금 MPF이 미국 금리상승과 중국 경제 둔화의 동반 악재로 상반기 이익을 모두 잃게 됐다. 시장 상황이 개선되지 않으면 사상 처음으로 3년 연속 손실에 빠질 위기다.
-홍콩 사우스차이나모닝포스트 SCMP는 5일 현지시간 홍콩 MPF가 올해 3분기에 308억홍콩달러의 손실을 기록했다고 보도했다. 총 413개의 투자 상품이 평균 3.1의 손실률을 나타낸 결과다.
-이로써 홍콩 MPF는 전년 말보다 기금 총액이 0.17 줄어버렸다.
-프란시스 정 MPF레이팅스 회장은 올해가 3개월밖에 남지 않은 상황에서 3분기까지로 보면 연간 손실을 기록했다며 이러한 추세가 지속하면 전례 없는 3년 연속 투자 손실을 보게 된다고 말했다.
-홍콩 MPF는 지난 2021년에 0.28 손실을 봤다. 작년에는 15.7까지 손실률이 확대했다. 이 연금은 의무가입으로 고용주와 근로자가 모두 월 급여의 5를 적립하게 돼 있다. 65세가 되면 수령하는 시스템이라 우리나라 국민연금과 구조다.
-이번 손실은 미국 금리상승과 중국기업의 주가 부진 등이 동반 작용한 것으로 분석됐다. 홍콩중국 주식 펀드는 3분기에 마이너스 4.2의 수익률을 거뒀다. 주식과 채권 혼합형 펀드는 같은 기간 3.5 손실을 입었다.
-미국 주식형 펀드는 3.5 글로벌 펀드는 3.54로 성과가 뒷걸음질 쳤다. 채권 비중이 높아지는 기본 투자전략 펀드 역시 3의 손실을 면치 못했다.
-고지 컨설팅의 엘빈 유 최고경영자 CEO는 연방준비제도 Fed와 G7 중앙은행의 지속적인 매파 메시지와 장기금리 상승 등으로 손실이 발생했다며 결과적으로 현금이 뛰어난 승자가 됐다가 설명했다.
-그는 단기적으로 위험중립 전략 채택을 지속하는 합리적일 것이라고 덧붙였다.
-jhlee2yna.co.kr
- 끝 </t>
-  </si>
-  <si>
-    <t>['퇴직연금 수익률', '퇴직연금 가입', '퇴직연금 채권']</t>
-  </si>
-  <si>
-    <t>[{'퇴직연금 수익률': 60}, {'퇴직연금 가입': 43}, {'퇴직연금 채권': 55}]</t>
-  </si>
-  <si>
-    <t>홍콩 MPF의 손실을 기록하고, 미국 금리상승과 중국 경제 둔화의 영향을 분석함.</t>
-  </si>
-  <si>
-    <t>기사에는 경쟁 동향에 대한 정보가 없음.</t>
-  </si>
-  <si>
-    <t>기사에서는 미국 금리상승과 중국 경제 둔화의 영향을 분석하고, 주식과 채권 혼합형 펀드의 수익률과 손실률을 언급함.</t>
-  </si>
-  <si>
-    <t>기사에서는 법적 및 규제 변화에 대한 언급이 없음.</t>
-  </si>
-  <si>
-    <t>기사에서는 인구 변화에 대한 정보가 없음.</t>
-  </si>
-  <si>
-    <t>기사에서는 기술과 디지털화에 대한 정보가 없음.</t>
-  </si>
-  <si>
-    <t>기사에서는 소비 행동 및 요구사항에 대한 정보가 없음.</t>
-  </si>
-  <si>
-    <t>미래에셋 / KB국민은행</t>
-  </si>
-  <si>
-    <t>미래에셋, KB국민은행과 '드림스타자산배분성장형 펀드' 출시</t>
-  </si>
-  <si>
-    <t>미래에셋자산운용은 미래에셋드림스타자산배분성장형 펀드를 출시한다. 이 펀드는 전통자산과 대체자산에 분산 투자하여 수익을 추구한다. 은행과 협업하는 첫 상품이며, 연금 투자자들을 위한 투자전략을 수립했다.</t>
-  </si>
-  <si>
-    <t>https://n.news.naver.com/mnews/article/003/0012128424?sid=101</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 강수윤 기자 미래에셋자산운용은 글로벌 주식 채권 등 전통자산과 원자재 등 대체자산에 분산 투자하는 미래에셋드림스타자산배분성장형 펀드를 출시한다고 5일 밝혔다. 국내외 주식형 펀드와 채권형 펀드부터 상장지수펀드 ETF 에너지 및 원자재 펀드 리츠 REITs 등 다양한 기초자산에 분산 투자해 위험 대비 효율적인 수익을 추구한다. 시장 변동성에 대응하기 위해 경기 국면별로 투자 자산의 비중을 조절하는 적극적인 자산배분을 통해 꾸준한 초과 수익을 목표로 한다.이 펀드는 은행과 협업하는 첫 상품이다. 지난 1월 국내 은행권 처음으로 금융투자자문업에 진출한 KB국민은행이 글로벌 자산배분안과 시장 및 경제 전망 펀드 포트폴리오 구성 관련 자문을 담당하고 미래에셋운용이 운용하는 구조다. 두 회사는 지속적인 모니터링으로 리스크를 관리하고 자산군별 국가별 펀드별 성과 분석 및 리밸런싱을 수행할 계획이다.또 미래에셋운용은 연금 투자자들을 위해 펀드 설계 단계에서부터 물가상승률과 금리 목표수익 위험성향 등 다양한 변수를 고려해 연금펀드 자산운용에 특화된 투자전략을 수립했다. 향후 확정기여형 퇴직연금 DC 및 개인형 퇴직연금 IRP 가입자의 수익률 개선에 기여할 수 있을 것으로 회사 측은 기대했다. 류경식 미래에셋운용 WM연금마케팅부문 대표는 KB국민은행의 포트폴리오 관리 역량과 미래에셋운용의 재간접펀드 운용 역량이 결합해 시너지를 발휘할 수 있을 것으로 기대된다며 장기 성장 관점에서 액티브한 자산배분 운용과 안정적인 초과 수익 달성을 목표로 하는 이 펀드는 연금 투자자들이 글로벌 경쟁력을 갖춘 다양한 자산에 투자할 수 있는 기회가 될 것이라고 말했다.</t>
-  </si>
-  <si>
-    <t>['확정기여형', '미래에셋 퇴직연금', '퇴직연금 자산배분', '퇴직연금 리츠']</t>
-  </si>
-  <si>
-    <t>[{'확정기여형': 3}, {'확정기여형': 45}, {'확정기여형': 53}, {'미래에셋 퇴직연금': 12}, {'퇴직연금 자산배분': 22}, {'퇴직연금 리츠': 4}]</t>
-  </si>
-  <si>
-    <t>미래에셋자산운용은 펀드를 출시하고, 자산배분을 통해 초과 수익을 목표로 한다.</t>
-  </si>
-  <si>
-    <t>은행과 협업하는 첫 상품으로, 시장 변동성에 대응하기 위해 자산의 비중을 조절한다.</t>
-  </si>
-  <si>
-    <t>글로벌 경쟁력을 갖춘 다양한 자산에 투자할 수 있는 기회를 제공한다.</t>
-  </si>
-  <si>
-    <t>변경된 법률 및 규제에 대한 언급이 없음.</t>
-  </si>
-  <si>
-    <t>연금 투자자들을 위한 투자전략을 수립하여 수익률 개선에 기여할 수 있다.</t>
-  </si>
-  <si>
-    <t>기사에 기술 혁신과 디지털화에 대한 언급이 없음.</t>
-  </si>
-  <si>
-    <t>투자자의 요구사항에 맞춰 투자전략을 수립하여 서비스를 개선할 수 있다.</t>
-  </si>
-  <si>
-    <t>미래에셋자산운용</t>
-  </si>
-  <si>
-    <t>미래에셋자산운용, 자산배분형 펀드 출시…국민은행과 협업</t>
-  </si>
-  <si>
-    <t>미래에셋자산운용은 글로벌 주식 채권 등 전통자산과 원자재 등 대체자산에 분산 투자하는 미래에셋드림스타자산배분성장형 펀드를 출시한다고 밝혔다. 해당 펀드는 KB국민은행에서 가입 가능하다. 미래에셋드림스타자산배분성장형 펀드는 국내외 주식형 펀드와 채권형 펀드부터 상장지수펀드 ETF 에너지 및 원자재 펀드 리츠 REITs 등 다양한 기초자산에 분산 투자해 위험 대비 효율적인 수익을 추구한다.</t>
-  </si>
-  <si>
-    <t>https://n.news.naver.com/mnews/article/421/0007089524?sid=101</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 서울뉴스1 공준호 기자 미래에셋자산운용은 글로벌 주식 채권 등 전통자산과 원자재 등 대체자산에 분산 투자하는 미래에셋드림스타자산배분성장형 펀드를 출시한다고 5일 밝혔다. 해당 펀드는 미래에셋자산운용이 운용을 KB국민은행이 자문을 담당한다. 펀드는 KB국민은행에서 가입 가능하다.미래에셋드림스타자산배분성장형 펀드는 국내외 주식형 펀드와 채권형 펀드부터 상장지수펀드 ETF 에너지 및 원자재 펀드 리츠 REITs 등 다양한 기초자산에 분산 투자해 위험 대비 효율적인 수익을 추구한다. 시장 변동성에 대응하기 위해 경기 국면별로 투자 자산의 비중을 조절하는 적극적인 자산배분을 통해 꾸준한 초과 수익을 목표로 한다.미래에셋드림스타자산배분성장형 펀드는 미래에셋자산운용이 은행과 협업하는 최초의 상품이다. 지난 1월 국내 은행권 최초로 금융투자자문업에 진출한 KB국민은행이 글로벌 자산배분안과 시장 및 경제 전망 펀드 포트폴리오 구성 관련 자문을 담당하고 미래에셋자산운용이 운용하는 구조다. KB국민은행의 포트폴리오 관리 역량과 미래에셋자산운용의 재간접펀드 운용 역량이 결합해 시너지를 발휘할 수 있을 것으로 기대한다고 회사 측은 설명했다. 두 회사는 지속적인 모니터링을 통해 리스크를 관리하고 자산군별 국가별 펀드별 성과 분석 및 리밸런싱을 수행할 계획이다.또한 미래에셋자산운용은 연금 투자자들을 위해 미래에셋드림스타자산배분성장형 펀드 설계 단계에서부터 물가상승률과 금리 목표수익 위험성향 등 다양한 변수를 고려해 연금펀드 자산운용에 특화된 투자전략을 수립했다. 미래에셋드림스타자산배분성장형 펀드는 향후 확정기여형 퇴직연금 DC 및 개인형 퇴직연금 IRP 가입자의 수익률 개선에 기여할 수 있을 것으로 기대된다.류경식 미래에셋자산운용 WM연금마케팅부문 대표는 미래에셋드림스타자산배분성장형 펀드는 미래에셋자산운용이 은행과 협업해 선보이는 첫 상품으로 양사의 역량을 결합해 우수한 성과를 낼 수 있도록 노력하겠다며 특히 장기 성장 관점에서의 액티브한 자산배분 운용과 안정적인 초과 수익 달성을 목표로 하는 해당 펀드는 연금 투자자들이 글로벌 경쟁력을 갖춘 다양한 자산에 투자할 수 있는 기회가 될 것으로 기대한다고 말했다.</t>
-  </si>
-  <si>
-    <t>['확정기여형', '미래에셋 퇴직연금', '퇴직연금 자산배분', '퇴직연금 펀드', '퇴직연금 리츠']</t>
-  </si>
-  <si>
-    <t>[{'확정기여형': 4}, {'미래에셋 퇴직연금': 12}, {'퇴직연금 자산배분': 17}, {'퇴직연금 펀드': 15}, {'퇴직연금 리츠': 5}]</t>
-  </si>
-  <si>
-    <t>미래에셋자산운용이 글로벌 주식 채권 등 전통자산과 원자재 등 대체자산에 분산 투자하는 펀드를 출시한다는 내용이 포함되어 있음.</t>
-  </si>
-  <si>
-    <t>KB국민은행과 협업하여 펀드를 운용한다는 내용이 포함되어 있음.</t>
-  </si>
-  <si>
-    <t>시장 변동성에 대응하기 위해 경기 국면별로 투자 자산의 비중을 조절하는 적극적인 자산배분을 통해 꾸준한 초과 수익을 목표로 한다는 내용이 포함되어 있음.</t>
-  </si>
-  <si>
-    <t>법적 및 규제 변화에 대한 내용이 포함되어 있지 않음.</t>
-  </si>
-  <si>
-    <t>노인 인구와 연금 기금의 장기적인 지속 가능성에 대한 내용이 포함되어 있지 않음.</t>
-  </si>
-  <si>
-    <t>여전히 ‘은행’ 선호하는 퇴직연금 가입자들</t>
-  </si>
-  <si>
-    <t>은행이 퇴직연금 적립금 운용에서 증권사와 보험사를 앞선 규모로 운영하고 있으며, 로보어드바이저를 활용한 은행의 퇴직연금 운용 전략이 더욱 활발해질 전망이다. 로보어드바이저를 활용한 은행의 퇴직연금 서비스는 연령대까지 고려한 포트폴리오를 추천하고 자산배분 프로그램을 적용한다. 은행과 로보어드바이저 전문 핀테크 기업들 간의 적극적인 협업이 예상되며, 은행의 퇴직연금 적립금 규모는 더욱 상승할 가능성이 높다.</t>
-  </si>
-  <si>
-    <t>https://n.news.naver.com/mnews/article/243/0000051049?sid=101</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 퇴직연금 가입자들이 적립금 운용 금융사로 여전히 은행을 선호하는 것으로 나타났다. 은행은 증권사와 보험사 대비 퇴직연금 적립금이 2배 이상 높았고 그 규모 역시 꾸준히 증가세를 보이고 있다.5일 금융감독원에 따르면 올해 2분기 은행에 적립된 퇴직연금 적립금은 179조3882억원으로 앞선 1분기 174조9013억원 대비 2.57 늘었다. 반면 증권사에서 운용 중인 퇴직연금 적립금은 74조6832억원으로 1분기 기준 77조원에서 3.01 감소했다. 은행이 운용 중인 퇴직연금 적립금 규모가 증권사의 2배를 넘는 상황이다. 보험사의 경우 87조원대를 유지 중이다.이처럼 은행에 퇴직연금 운용을 맡기는 가입자들이 늘고 있는 가운데 금융당국이 내년 6월부터 로보어드바이저의 퇴직연금 일임 운용에 대한 혁신금융 서비스를 시행할 것으로 알려졌다. 이에 로보어드바이저를 활용한 은행의 퇴직연금 운용 전략이 더욱 활발해질 전망이다.은행의 경우 이미 로보어드바이저 활용이 익숙하다. 핀테크사와의 협업은 물론 자체 개발 로보어드바이저를 적극 활용하고 있다.우리은행은 로보어드바이저 전문 기업 파운트와 손잡고 자산관리 로보어드바이저인 우리로보를 활용 중이다. 퇴직연금 운용에도 파운트의 알고리즘을 적용하고 있다. 지난 2017년부터 시작한 해당 서비스는 투자성향별 펀드 포트폴리오 추천 해당 포트폴리오의 수익률 진단 퇴직연금 운용 리밸런싱 등 사후관리까지 제공한다.우리은행 우리로보 퇴직연금 서비스는 기존의 투자성향에 따른 포트폴리오에서 확장해 연령대까지 고려한 포트폴리오를 추천한다는 특징을 갖고 있다. 연령대에 따라 주식형 자산과 채권형 자산의 비중을 자동으로 조정 은퇴시점 Target Date에 최적화한 파운트만의 자산배분 프로그램 Glide Path 연령에 따라 자산배분이 결정되는 메커니즘을 적용한다. 국내 로보어드바이저 가운데 파운트가 우리은행을 통해 최초로 선보인 원천기술이다.KB국민은행은 쿼터백투자자문과 함께 로보어드바이저 신탁상품인 쿼터백 R1을 출시했다. 자문형 상품으로 가입한도는 2000만원이며 영업점 창구에서 가입할 수 있다. 또 신한은행과 하나은행은 각각의 로보어드바이저 서비스인 쏠리치와 HAI Robo 하이 로보를 통해 각각 맞춤형 펀드 추천 효과적인 자산 배분 등의 서비스를 제공한다. 이밖에 농협은행도 퇴직연금 전용 로보어드바이저 알고리즘인 NH로보프로 적용을 확대할 것으로 알려졌다.이처럼 로보어드바이저 활용 사례가 늘어남에 따라 향후 은행과 로보어드바이저 전문 핀테크 기업들 간의 적극적인 협업이 예상된다. 이러면 은행의 퇴직연금 적립금 규모는 더욱 상승할 가능성이 높다.금융투자업계 관계자는 늘어난 기대수명 등으로 퇴직연금을 비롯한 노후 자금이 중요해지고 있는 만큼 컴퓨터 알고리즘을 기반으로 쌓은 빅데이터들을 활용한 로보어드바이저 서비스가 투자자들의 유리한 투자 전략 중 하나로 자리잡을 것이라며 또 퇴직연금 일임에 대한 진입 장벽이 낮아지면서 로보어드바이저 활용에 대한 금융투자업계의 기대도 커지고 있다고 말했다.</t>
-  </si>
-  <si>
-    <t>['퇴직연금 적립금', '퇴직연금 규모', '퇴직연금 금융감독원', '우리은행 퇴직연금', 'KB 퇴직연금', 'NH 퇴직연금', '신한 퇴직연금', '퇴직연금 서비스 ', '하나 퇴직연금', '퇴직연금 로보어드바이저', '퇴직연금 수익률', '퇴직연금 포트폴리오', '퇴직연금 자산배분', '퇴직연금 가입', '퇴직연금 펀드', '퇴직연금 채권']</t>
-  </si>
-  <si>
-    <t>[{'퇴직연금 적립금': 1}, {'퇴직연금 규모': 1}, {'퇴직연금 금융감독원': 1}, {'우리은행 퇴직연금': 1}, {'KB 퇴직연금': 2}, {'NH 퇴직연금': 1}, {'신한 퇴직연금': 1}, {'퇴직연금 서비스 ': 1}, {'하나 퇴직연금': 1}, {'퇴직연금 로보어드바이저': 1}, {'퇴직연금 수익률': 1}, {'퇴직연금 포트폴리오': 1}, {'퇴직연금 자산배분': 2}, {'퇴직연금 가입': 1}, {'퇴직연금 펀드': 3}, {'퇴직연금 채권': 1}]</t>
-  </si>
-  <si>
-    <t>은행이 퇴직연금 적립금 운용에서 증권사와 보험사를 앞선 규모로 운영하고 있음</t>
-  </si>
-  <si>
-    <t>로보어드바이저를 활용한 은행의 퇴직연금 운용 전략이 더욱 활발해질 전망임</t>
-  </si>
-  <si>
-    <t>은행의 퇴직연금 서비스는 연령대까지 고려한 포트폴리오를 추천하고 자산배분 프로그램을 적용함</t>
-  </si>
-  <si>
-    <t>본문에는 고령화와 관련된 내용이 없음</t>
-  </si>
-  <si>
-    <t>본문에는 기술과 디지털화에 관련된 내용이 없음</t>
-  </si>
-  <si>
-    <t>본문에는 소비 행동 및 요구사항에 관련된 내용이 없음</t>
-  </si>
-  <si>
-    <t>KB국민은행</t>
-  </si>
-  <si>
-    <t>KB자산운용, KB국민은행과 함께 자산배분 펀드 출시</t>
-  </si>
-  <si>
-    <t>KB자산운용이 KB국민은행과 함께 운용하는 자산배분 펀드를 출시했다. 해당 펀드는 글로벌 주식 채권 원자재 등 다양한 자산에 분산투자해 변동성을 낮춘다. 이석희 KB자산운용 연금WM본부 상무는 해당 펀드는 저비용으로 다양한 국가와 자산에 분산투자해 글로벌 커버리지가 높다며 장기적으로 안정적인 투자가 중요한 연금 퇴직연금 고객에게 적합한 상품이라고 밝혔다.</t>
-  </si>
-  <si>
-    <t>https://n.news.naver.com/mnews/article/009/0005194783?sid=101</t>
-  </si>
-  <si>
-    <t>KB 드림스타 자산배분 안정형 펀드글로벌 주식채권원자재 투자KB자산운용이 KB국민은행과 함께 운용하는 자산배분 펀드를 시장에 내놓았다.5일 KB자산운용은 KB 드림스타 자산배분 안정형 펀드를 출시했다고 밝혔다. 해당 펀드는 KB자산운용의 자산배분 펀드 운용역량과 KB국민은행의 글로벌 투자자문 서비스를 결합한 퇴직연금 펀드다.이 펀드는 글로벌 주식 채권 원자재 등 다양한 자산에 분산투자해 변동성을 낮춘다. 위험자산의 비중을 40수준으로 제한해 안정적인 수익을 추구하는 상품이다. KB국민은행이 자산배분안을 자문하고 KB자산운용이 이를 바탕으로 시장 전망 및 자산군별 세부전략을 확정하여 포트폴리오를 구성한다.초기 포트폴리오를 살펴보면 글로벌 주식 35과 채권 55에 분산투자한다. 주식은 선진국 25 한국 5 신흥국 5으로 구성되어 있고 채권은 국내 45 해외 10으로 나뉜다. 나머지 10는 머니마켓펀드 MMF 등 안전자산에 투자한다.이석희 KB자산운용 연금WM본부 상무는 해당 펀드는 KB국민은행과 협업한 최초의 펀드로 저비용으로 다양한 국가와 자산에 분산투자해 글로벌 커버리지가 높다며 장기적으로 안정적인 투자가 중요한 연금 퇴직연금 고객에게 적합한 상품이라고 밝혔다.펀드는 10월 4일부터 KB국민은행 퇴직연금계좌를 통해 가입할 수 있다.한편 KB자산운용은 주력상품인 타깃데이트펀드 TDF를 포함해 KB온국민평생소득TIF KB타겟리턴OCIO펀드 시리즈 등 다양한 연금펀드를 운용하며 퇴직연금 강자로 주목받고 있다. 향후에도 신규 연금상품 라인업을 추가로 구축할 예정이다.</t>
-  </si>
-  <si>
-    <t>['퇴직연금ocio', 'KB 퇴직연금', '퇴직연금 자산배분', '퇴직연금 펀드', '퇴직연금 라인업', '퇴직연금 장기 투자']</t>
-  </si>
-  <si>
-    <t>[{'퇴직연금ocio': 58}, {'KB 퇴직연금': 15}, {'퇴직연금 자산배분': 27}, {'퇴직연금 펀드': 19}, {'퇴직연금 라인업': 22}, {'퇴직연금 장기 투자': 50}]</t>
-  </si>
-  <si>
-    <t>KB자산운용이 KB국민은행과 협업하여 자산배분 펀드를 출시하였으며, 다양한 자산에 분산투자하여 변동성을 낮추는 전략을 채택하였기 때문에 높은 점수를 부여하였습니다.</t>
-  </si>
-  <si>
-    <t>해당 기사에는 경쟁 동향에 대한 정보가 제공되지 않았으므로 중간 점수를 부여하였습니다.</t>
-  </si>
-  <si>
-    <t>금융 시장의 변동성에 대한 언급이 있었지만, 투자 자산의 변동성에 대한 구체적인 분석은 제공되지 않았으므로 낮은 점수를 부여하였습니다.</t>
-  </si>
-  <si>
-    <t>법률 및 규제 변경에 대한 정보가 제공되지 않았으므로 점수를 부여하지 않았습니다.</t>
-  </si>
-  <si>
-    <t>노령화와 연금 기금의 장기적인 지속 가능성에 대한 정보가 제공되지 않았으므로 점수를 부여하지 않았습니다.</t>
-  </si>
-  <si>
-    <t>기사에는 기술과 디지털화에 관한 내용이 제공되지 않았으므로 점수를 부여하지 않았습니다.</t>
-  </si>
-  <si>
-    <t>해당 펀드는 연금 퇴직연금 고객을 대상으로 안정적인 수익을 추구하는 상품으로 개발되었으며, 저비용으로 다양한 국가와 자산에 분산투자하여 글로벌 커버리지를 제공한다는 점에서 고객의 요구에 부합하는 서비스로 평가되었습니다.</t>
-  </si>
-  <si>
-    <t>내년 보험사 실적 최대 변수 `투자손익`…고금리 장기화에 변동성 커</t>
-  </si>
-  <si>
-    <t>내년에도 보험계약마진 CSM 성장세에 힘입어 보험업 이익 규모는 늘어날 것으로 보인다. 고금리 장기화로 투자 이익의 변동성에 더 큰 영향을 받을 것으로 예상된다. 내년 국내외 경제는 더 낮은 저성장으로 새로운 균형에 진입할 것으로 전망했다.</t>
-  </si>
-  <si>
-    <t>https://n.news.naver.com/mnews/article/029/0002828734?sid=101</t>
-  </si>
-  <si>
-    <t>연구원 금융시장 변동성 높아 투자손익 관리 역량별 이익 차이삼성한화생명 등 투자 손실로 2분기 실적 급감내년 수입보험료 2.6 증가CSM 내년까지 성장세 지속국내 보험사들의 투자손익 관리 역량이 내년 실적을 좌우하는 최대 변수일 전망이다. 내년에도 보험계약마진 CSM 성장세에 힘입어 보험업 이익 규모는 늘어날 것으로 보인다. 다만 고금리 장기화로 투자 이익의 변동성에 더 큰 영향을 받을 것으로 예상된다.조영훈 보험연구원 금융시장분석실장은 5일 서울 여의도 콘래드호텔에서 열린 2024년 보험산업 전망과 과제 세미나에서 고금리 지속으로 보험사 실적 변동성이 높아질 수 있다고 진단했다.조영훈 금융시장분석실장은 내년에도 높은 CSM 성장률로 인해 보험산업의 이익은 증가할 것으로 보인다면서도 고금리 지속 등 금융시장의 변동성이 높을 것으로 예상돼 투자손익 관리 역량에 따라 회사의 이익 규모가 변동할 수 있다고 말했다.그는 긴축 통화정책이 시작된 지난해부터 보험사 간 수익성 편차가 확대되고 있다며 고금리 지속으로 이런 경향이 내년에도 이어질 수 있다고 내다봤다. 이어 지급여력비율이 낮을수록 투자 손익의 잠재 변동성이 클 수 있다며 건전성이 낮은 회사들의 경우 거시적 충격에 대비해 이익 유보를 극대화하고 자산 리스크 관리를 강화해야 한다고 강조했다.실제로 보험사들은 상반기에 투자손익에 따라 실적 희비가 엇갈렸다. 올해 2분기 보험사들의 투자손익은 1분기와 비교해 급감했다. 2분기에 금리가 상승하면서 채권 평가손실이 발생한 탓이다. 앞서 1분기에는 금리 하락으로 채권형 수익증권 평가익이 크게 늘었다. 주요 보험사의 투자손익을 보면 운용자산 규모가 큰 생명보험사의 부진이 눈에 띄었다. 삼성생명은 2분기 들어 1000억원이 넘는 손실이 발생했다. 지난 1분기 투자이익이 5000억원에 달했던 것과 비교해 크게 악화했다. 같은 기간 한화생명은 3500억원인 투자익이 400억원 규모의 손실로 돌아섰다. 삼성생명과 한화생명은 각각 2분기 순이익이 전 분기 대비 62 56 급감했다.투자손익에 따른 경영 실적 악화는 올해 새 회계기준으로 함께 도입된 IFRS9 영향이 큰 것으로 분석된다. IFRS9는 평가손익이 당기손익으로 반영되는 FVPL 당기손익공정가치측정금융자산 자산의 범주에 구조화채권과 수익증권을 포함하고 있다. 특히 보험금융 손익이 투자손익으로 반영되면서 변동성은 더 커졌다.보험연구원은 내년 국내외 경제는 더 낮은 저성장상대적으로 높은 금리와 물가의 새로운 균형 상황에 직면할 것으로 전망했다. 내년 세계 경제 성장률은 올해 수준에 그치는 반면 우리나라 경제는 소비 리밸런싱 마무리에 따른 재화 소비 및 수출 설비투자 부문이 소폭 증가하며 다소 개선될 것으로 예상했다. 다만 코로나19 이전의 균형보다 더 낮은 저성장으로 새로운 균형에 진입할 것으로 봤다.윤성훈 보험연구원 선임연구위원은 이날 세미나에서 새로운 균형 상황에서 대응 전략 마련이 필요하지만 국제 유가 상승과 기후 변화 심화 고금리 지속 중국 경제 경착륙 글로벌라이제이션의 반대 개념인 슬로버라이제이션 Slowbalization 가속 등과 같은 다양한 잠재 위험 요인이 있어 어려움이 확대될 수 있다며 내년 고물가고금리로 인해 가계의 초과 저축이 감소할 것으로 예상됨에 따라 보험 수요에도 부정적인 영향을 미칠 것으로 보인다고 내다봤다.연구원은 내년 보험업 수입보험료에 대해 올해보다 2.6 증가하는 데 그칠 것으로 전망했다. 업권별로 내년 생명보험 수입보험료는 0.6 손해보험 원수보험료는 올해 6.7보다 둔화한 4.4 수준에 불과할 것으로 예상했다.생보업은 저축성보험의 실적 둔화에도 보장성보험과 퇴직연금 확대를 통해 수입보험료는 소폭 오를 것으로 봤다. 손보업의 경우 장기일반손해보험 퇴직연금 중심의 완만한 성장이 예상됨에도 성장률은 올해와 비교해 소폭 하락할 것으로 분석했다.그러나 보험업의 CSM 규모는 생명보험과 손해보험 모두 올해에 이어 내년까지 성장세를 지속할 것으로 전망했다. 생보업 CSM 규모는 올해 약 61조9000억원 내년 69조9000억원으로 늘어날 것으로 예상했다. 손보업도 CSM 규모가 늘며 올해 64조6000억원에서 내년 67조9000억원으로 늘어날 것으로 예상했다.</t>
-  </si>
-  <si>
-    <t>['한화 퇴직연금', '퇴직연금 장기 투자']</t>
-  </si>
-  <si>
-    <t>[{'한화 퇴직연금': 47}, {'퇴직연금 장기 투자': 2}]</t>
-  </si>
-  <si>
-    <t>보험계약마진 CSM 성장세와 투자 이익 변동성에 대한 내용이 포함되어 있음.</t>
-  </si>
-  <si>
-    <t>보험업 이익 규모와 경쟁 동향에 대한 내용이 일부 포함되어 있음.</t>
-  </si>
-  <si>
-    <t>금리와 물가의 새로운 균형에 대한 내용이 포함되어 있음.</t>
-  </si>
-  <si>
-    <t>내년 국내외 경제의 저성장 상황과 보험업의 CSM 규모에 대한 내용이 포함되어 있음.</t>
-  </si>
-  <si>
-    <t>소비 행동과 요구사항에 대한 내용이 포함되어 있지 않음.</t>
-  </si>
-  <si>
-    <t>미래에셋</t>
-  </si>
-  <si>
-    <t>미래에셋, ‘미래에셋드림스타자산배분성장형 펀드’ 출시</t>
-  </si>
-  <si>
-    <t>미래에셋자산운용이 글로벌 주식 채권 등 전통자산과 원자재 등 대체자산에 분산 투자하는 미래에셋드림스타자산배분성장형 펀드를 출시했다. 미래에셋드림스타자산배분성장형 펀드는 국내외 주식형 펀드와 채권형 펀드부터 상장지수펀드 ETF 에너지 및 원자재 펀드 리츠 REITs 등 다양한 기초자산에 분산 투자해 위험 대비 효율적인 수익을 추구한다. 미래에셋자산운용은 연금 투자자들을 위해 미래에셋드림스타자산배분성장형 펀드 설계 단계에서부터 물가상승률과 금리 목표수익 위험성향 등 다양한 변수를 고려해 연금펀드 자산운용에 특화된 투자전략을 수립했다.</t>
-  </si>
-  <si>
-    <t>https://n.news.naver.com/mnews/article/014/0005081512?sid=101</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 미래에셋자산운용이 글로벌 주식 채권 등 전통자산과 원자재 등 대체자산에 분산 투자하는 미래에셋드림스타자산배분성장형 펀드를 출시했다. 5일 미래에셋운용에 따르면 이번에 신규 출시하는 미래에셋드림스타자산배분성장형 펀드는 미래에셋자산운용이 운용을 KB국민은행이 자문을 담당한다. 미래에셋드림스타자산배분성장형 펀드는 국내외 주식형 펀드와 채권형 펀드부터 상장지수펀드 ETF 에너지 및 원자재 펀드 리츠 REITs 등 다양한 기초자산에 분산 투자해 위험 대비 효율적인 수익을 추구한다. 시장 변동성에 대응하기 위해 경기 국면별로 투자 자산의 비중을 조절하는 적극적인 자산배분을 통해 꾸준한 초과 수익을 목표로 한다. 미래에셋드림스타자산배분성장형 펀드는 미래에셋자산운용이 은행과 협업하는 최초의 상품이다. 지난 1월 국내 은행권 최초로 금융투자자문업에 진출한 KB국민은행이 글로벌 자산배분안과 시장 및 경제 전망 펀드 포트폴리오 구성 관련 자문을 담당하고 미래에셋자산운용이 운용하는 구조다. KB국민은행의 포트폴리오 관리 역량과 미래에셋자산운용의 재간접펀드 운용 역량이 결합해 시너지를 발휘할 수 있을 것으로 기대된다. 양사는 지속적인 모니터링을 통해 리스크를 관리하고 자산군별 국가별 펀드별 성과 분석 및 리밸런싱을 수행할 계획이다. 또한 미래에셋자산운용은 연금 투자자들을 위해 미래에셋드림스타자산배분성장형 펀드 설계 단계에서부터 물가상승률과 금리 목표수익 위험성향 등 다양한 변수를 고려해 연금펀드 자산운용에 특화된 투자전략을 수립했다. 미래에셋드림스타자산배분성장형 펀드는 향후 확정기여형 퇴직연금 DC 및 개인형 퇴직연금 IRP 가입자의 수익률 개선에 기여할 수 있을 것으로 기대된다. 미래에셋자산운용 WM연금마케팅부문 류경식 대표는 미래에셋드림스타자산배분성장형 펀드는 미래에셋자산운용이 은행과 협업해 선보이는 첫 상품으로 양사의 역량을 결합해 우수한 성과를 낼 수 있도록 노력하겠다며 특히 장기 성장 관점에서의 액티브한 자산배분 운용과 안정적인 초과 수익 달성을 목표로 하는 해당 펀드는 연금 투자자들이 글로벌 경쟁력을 갖춘 다양한 자산에 투자할 수 있는 기회가 될 것으로 기대한다고 말했다. 한편 미래에셋드림스타자산배분성장형 펀드는 KB국민은행에서 가입 가능하다. 미래에셋 퇴직연금 펀드 미래에셋운용 미래에셋드림스타자산배분성장형펀드 </t>
-  </si>
-  <si>
-    <t>[{'확정기여형': 6}, {'확정기여형': 11}, {'확정기여형': 24}, {'확정기여형': 28}, {'확정기여형': 30}, {'확정기여형': 34}, {'확정기여형': 40}, {'확정기여형': 43}, {'확정기여형': 59}, {'미래에셋 퇴직연금': 2}, {'미래에셋 퇴직연금': 21}, {'미래에셋 퇴직연금': 24}, {'미래에셋 퇴직연금': 52}, {'미래에셋 퇴직연금': 56}, {'미래에셋 퇴직연금': 60}, {'퇴직연금 자산배분': 37}, {'퇴직연금 자산배분': 50}, {'퇴직연금 펀드': 26}, {'퇴직연금 리츠': 11}, {'퇴직연금 리츠': 12}, {'퇴직연금 리츠': 24}, {'퇴직연금 리츠': 26}, {'퇴직연금 리츠': 28}, {'퇴직연금 리츠': 33}, {'퇴직연금 리츠': 37}, {'퇴직연금 리츠': 38}]</t>
-  </si>
-  <si>
-    <t>미래에셋자산운용이 다양한 자산에 분산 투자하는 펀드를 출시하여 투자 전략과 수익 추구에 대한 정보가 제공되었음.</t>
-  </si>
-  <si>
-    <t>KB국민은행과의 협업을 통해 은행과 연계된 최초의 상품 출시로 경쟁 동향과 시장 점유율에 대한 정보가 제공되었음.</t>
-  </si>
-  <si>
-    <t>금리 변동성과 자산의 변동성에 대응하기 위한 자산배분 전략을 수립하여 투자자의 수익 안정성에 대한 정보가 제공되었음.</t>
-  </si>
-  <si>
-    <t>변경된 법률 및 규제에 대한 정보가 제공되지 않았음.</t>
-  </si>
-  <si>
-    <t>연금 투자자들을 위한 특화된 투자전략을 수립하여 장기적인 지속 가능성에 대한 정보가 제공되었음.</t>
-  </si>
-  <si>
-    <t>소비 행동 및 요구사항에 대한 정보가 제공되지 않았음.</t>
-  </si>
-  <si>
-    <t>미래에셋, 은행과 첫 협업 펀드</t>
-  </si>
-  <si>
-    <t>미래에셋자산운용은 미래에셋드림스타자산배분성장형 펀드를 출시한다. 이 펀드는 전통자산과 대체자산에 분산 투자하여 수익을 추구하며, 경기 국면별로 자산의 비중을 조절하여 초과 수익을 목표로 한다. 이는 연금 투자자들에게 글로벌 경쟁력을 갖춘 다양한 자산에 투자할 수 있는 기회를 제공한다.</t>
-  </si>
-  <si>
-    <t>https://n.news.naver.com/mnews/article/016/0002206035?sid=101</t>
-  </si>
-  <si>
-    <t>미래에셋자산운용은 글로벌 주식 채권 등 전통자산과 원자재 등 대체자산에 분산 투자하는 미래에셋드림스타자산배분성장형 펀드를 출시한다고 5일 밝혔다.미래에셋드림스타자산배분성장형 펀드는 미래에셋자산운용이 운용을 KB국민은행이 자문을 담당한다.국내외 주식형 펀드와 채권형 펀드부터 상장지수펀드 ETF 에너지 및 원자재 펀드 리츠 REITs 등 다양한 기초자산에 분산 투자해 위험 대비 효율적인 수익을 추구한다. 시장 변동성에 대응하기 위해 경기 국면별로 투자 자산의 비중을 조절하는 적극적인 자산배분을 통해 꾸준한 초과 수익을 목표로 한다.미래에셋드림스타자산배분성장형 펀드는 미래에셋자산운용이 은행과 협업하는 첫 상품이다. 지난 1월 국내 은행권 최초로 금융투자자문업에 진출한 KB국민은행이 글로벌 자산배분안과 시장 및 경제 전망 펀드 포트폴리오 구성 관련 자문을 담당하고 미래에셋자산운용이 운용하는 구조다. KB국민은행의 포트폴리오 관리 역량과 미래에셋자산운용의 재간접펀드 운용 역량이 결합해 시너지를 발휘할 수 있을 것으로 기대된다. 양사는 지속적인 모니터링을 통해 리스크를 관리하고 자산군별 국가별 펀드별 성과 분석 및 리밸런싱을 수행할 계획이다.미래에셋자산운용은 연금 투자자들을 위해 미래에셋드림스타자산배분성장형 펀드 설계 단계에서부터 물가상승률과 금리 목표수익 위험성향 등 다양한 변수를 고려해 연금펀드 자산운용에 특화된 투자전략을 수립했다. 미래에셋드림스타자산배분성장형 펀드는 향후 확정기여형 퇴직연금 DC 및 개인형 퇴직연금 IRP 가입자의 수익률 개선에 기여할 수 있을 것으로 기대된다.류경식 미래에셋자산운용 WM연금마케팅부문 대표는 미래에셋드림스타자산배분성장형 펀드는 미래에셋자산운용이 은행과 협업해 선보이는 첫 상품으로 양사의 역량을 결합해 우수한 성과를 낼 수 있도록 노력하겠다며 특히 장기 성장 관점에서의 액티브한 자산배분 운용과 안정적인 초과 수익 달성을 목표로 하는 해당 펀드는 연금 투자자들이 글로벌 경쟁력을 갖춘 다양한 자산에 투자할 수 있는 기회가 될 것으로 기대한다고 말했다. 서경원 기자</t>
-  </si>
-  <si>
-    <t>['확정기여형', '미래에셋 퇴직연금', '퇴직연금 펀드', '퇴직연금 리츠']</t>
-  </si>
-  <si>
-    <t>[{'확정기여형': 5}, {'미래에셋 퇴직연금': 8}, {'퇴직연금 펀드': 55}, {'퇴직연금 리츠': 6}]</t>
-  </si>
-  <si>
-    <t>미래에셋자산운용은 펀드의 자산배분과 수익 추구를 위해 전통자산과 대체자산에 분산 투자하는 전략을 채택하고 있다.</t>
-  </si>
-  <si>
-    <t>이 펀드는 연금 투자자들에게 다양한 자산에 투자할 수 있는 기회를 제공하여 시장에서의 경쟁력을 갖추고 있다.</t>
-  </si>
-  <si>
-    <t>이 펀드는 시장 변동성에 대응하기 위해 경기 국면별로 자산의 비중을 조절하는 적극적인 자산배분을 통해 꾸준한 초과 수익을 목표로 한다.</t>
-  </si>
-  <si>
-    <t>기사에는 법률 및 규제 변경에 대한 언급이 없다.</t>
-  </si>
-  <si>
-    <t>기사에는 연령과 연금 기금의 장기 지속 가능성에 대한 언급이 없다.</t>
-  </si>
-  <si>
-    <t>기사에는 기술과 디지털화에 대한 언급이 없다.</t>
-  </si>
-  <si>
-    <t>기사에는 소비 행동 및 요구사항에 대한 언급이 없다.</t>
-  </si>
-  <si>
-    <t>KB금융</t>
-  </si>
-  <si>
-    <t>미래·KB자산, 국민은행과 자산배분 펀드 출시</t>
-  </si>
-  <si>
-    <t>미래에셋자산운용과 KB자산운용이 퇴직연금 상품을 출시한다. 이는 운용사의 자산배분 펀드 운용역량과 KB국민은행의 글로벌 투자자문 서비스를 결합한 것이다. 두 운용사와 KB국민은행은 리스크를 관리하고 성과 분석을 수행할 계획이다.</t>
-  </si>
-  <si>
-    <t>https://n.news.naver.com/mnews/article/009/0005194986?sid=101</t>
-  </si>
-  <si>
-    <t>주식채권원자재 등분산투자 리스크 낮춰미래에셋자산운용 KB자산운용이 KB국민은행과 함께 운용하는 자산배분 펀드를 시장에 내놓았다.5일 미래에셋자산운용은 미래에셋 드림스타 자산배분 성장형 펀드를 KB자산운용은 KB 드림스타 자산배분 안정형 펀드를 출시한다고 밝혔다. 해당 펀드들은 운용사의 자산배분 펀드 운용역량과 KB국민은행의 글로벌 투자자문 서비스를 결합한 퇴직연금 상품이다.미래에셋 드림스타 자산배분 성장형 펀드는 국내외 주식형 채권형 펀드부터 상장지수펀드 ETF 에너지 및 원자재 리츠 등 다양한 기초자산에 분산투자해 위험 대비 효율적인 수익을 추구한다. KB 드림스타 자산배분 안정형 펀드도 글로벌 주식 채권 원자재 등 다양한 자산에 분산투자해 안정적인 수익을 추구하는 상품이다. 두 운용사와 KB국민은행은 지속적인 시장 모니터링을 통해 리스크를 관리하고 자산군별 국가별 펀드별 성과 분석을 수행할 계획이다.류경식 미래에셋자산운용 WM연금마케팅부문 대표는 적극적 자산배분 운용으로 안정적인 초과 수익 달성을 목표로 하는 연금 투자자들이 글로벌 경쟁력을 갖춘 다양한 자산에 투자할 수 있는 기회가 될 것으로 기대한다고 말했다.이석희 KB자산운용 연금WM본부 상무는 저비용으로 다양한 국가와 자산에 분산투자해 글로벌 커버리지가 높아 장기 투자자에 적합한 상품이라고 말했다.</t>
-  </si>
-  <si>
-    <t>['미래에셋 퇴직연금', 'KB 퇴직연금', '퇴직연금 자산배분', '퇴직연금 리츠']</t>
-  </si>
-  <si>
-    <t>[{'미래에셋 퇴직연금': 4}, {'KB 퇴직연금': 59}, {'퇴직연금 자산배분': 38}, {'퇴직연금 리츠': 7}]</t>
-  </si>
-  <si>
-    <t>퇴직연금 상품 출시로 자산배분 펀드 운용역량과 글로벌 투자자문 서비스의 결합이 이루어졌다.</t>
-  </si>
-  <si>
-    <t>퇴직연금 상품 출시로 경쟁력 있는 다양한 자산에 투자할 수 있는 기회가 제공된다.</t>
-  </si>
-  <si>
-    <t>운용사와 KB국민은행은 리스크를 관리하고 성과 분석을 수행할 계획이다.</t>
-  </si>
-  <si>
-    <t>KB국민은행, '퇴직연금 자문형 펀드' 2종 판매…위험자산 분산투자 가능</t>
-  </si>
-  <si>
-    <t>KB국민은행은 자산운용사와의 협업으로 퇴직연금 자문형 펀드 2종을 출시한다. 이는 시중은행이 직접 자산배분을 자문하는 최초의 퇴직연금 특화형 상품이다.</t>
-  </si>
-  <si>
-    <t>https://n.news.naver.com/mnews/article/421/0007091110?sid=101</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 서울뉴스1 신병남 기자 KB국민은행은 5일 자산운용사의 펀드 운용 역량과 KB국민은행의 투자 포트폴리오 자문서비스를 결합한 퇴직연금 자문형 펀드 신상품 2종을 판매한다고 밝혔다.퇴직연금 자문형 펀드는 투자자문업 자격을 활용한 상품으로 최초로 시중은행이 직접 자산배분을 자문하는 퇴직연금 특화형 펀드 상품이다. KB국민은행은 고객의 선택권을 다양화하고자 혼합형안정형 펀드에 강점을 보유한 KB자산운용 및 주식형성장형 펀드에 강점을 갖고 있는 미래에셋자산운용 두 회사와 협업해 2종의 펀드 상품을 출시했다. 두 상품은 KB국민은행이 자산 배분을 자문하고 KB자산운용과 미래에셋자산운용에서 각 사의 자체 하우스 뷰를 고려해 최종 자산배분을 결정하고 운용할 예정이다.우선 KB드림스타 자산배분 안정형 증권투자신탁은 위험자산의 비중을 40 수준으로 제한해 안정적인 수익률 관리를 우선하는 고객에게 적합하다. 미래에셋 드림스타자산배분 성장형 혼합자산투자신탁은 위험자산 비중을 60 수준으로 운용해 더 높은 수익률을 추구하는 고객에게 적격인 상품이다. 전략적 자산배분안을 기준으로 경기 국면별로 투자자산의 비중을 조절하며 효과적인 분산투자로 꾸준한 초과 수익을 목표로 한다.KB국민은행 관계자는 그동안 쌓아온 전문적인 연금자산관리 역량을 바탕으로 연금 고객의 노후 자산 형성을 위한 상품을 준비했다며 향후에도 연금 고객의 다양한 니즈를 충족시킬 수 있는 상품을 확대해 나갈 계획이라고 말했다.</t>
-  </si>
-  <si>
-    <t>['미래에셋 퇴직연금', 'KB 퇴직연금', '퇴직연금 서비스 ', '퇴직연금 운용사', '퇴직연금 수익률', '퇴직연금 포트폴리오', '퇴직연금 자산배분', '퇴직연금 펀드']</t>
-  </si>
-  <si>
-    <t>[{'미래에셋 퇴직연금': 6}, {'KB 퇴직연금': 4}, {'퇴직연금 서비스 ': 4}, {'퇴직연금 운용사': 3}, {'퇴직연금 수익률': 5}, {'퇴직연금 포트폴리오': 4}, {'퇴직연금 자산배분': 4}, {'퇴직연금 펀드': 5}]</t>
-  </si>
-  <si>
-    <t>KB국민은행은 자산운용사와 협업하여 퇴직연금 자문형 펀드를 출시하였으며, 이는 퇴직연금 자산의 운용 역량을 강화하는 전략이다.</t>
-  </si>
-  <si>
-    <t>이 기사에서는 경쟁 동향이나 시장 점유율 등에 대한 정보는 제공되지 않았다.</t>
-  </si>
-  <si>
-    <t>금융 시장의 변동성이나 투자 자산의 변화에 대한 정보는 제공되지 않았다.</t>
-  </si>
-  <si>
-    <t>법률 및 규제 변화에 대한 정보는 제공되지 않았다.</t>
-  </si>
-  <si>
-    <t>노령화와 관련된 정보나 연금 기금의 장기적인 지속 가능성에 대한 정보는 제공되지 않았다.</t>
-  </si>
-  <si>
-    <t>기사에서는 기술과 디지털화에 관련된 내용이 언급되지 않았다.</t>
-  </si>
-  <si>
-    <t>소비 행동 및 요구사항에 대한 정보는 제공되지 않았다.</t>
-  </si>
-  <si>
-    <t>KB자산운용, ‘KB 드림스타 자산배분 안정형 펀드’ 출시</t>
-  </si>
-  <si>
-    <t>KB자산운용은 KB 드림스타 자산배분 안정형 펀드를 출시했다. 이 펀드는 자산배분펀드의 명가인 KB자산운용의 운용역량과 KB국민은행의 글로벌 투자자문 서비스를 결합한 퇴직연금 펀드다. KB자산운용은 주력상품인 TDF를 포함해 KB온국민평생소득TIF KB타겟리턴OCIO펀드 시리즈 등 다양한 연금펀드를 효율적으로 운용하며 퇴직연금 강자로 주목받고 있다.</t>
-  </si>
-  <si>
-    <t>https://n.news.naver.com/mnews/article/018/0005588333?sid=101</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> KB자산운용은 KB 드림스타 자산배분 안정형 펀드를 출시했다고 5일 밝혔다. 이 펀드는 자산배분펀드의 명가인 KB자산운용의 운용역량과 KB국민은행의 글로벌 투자자문 서비스를 결합한 퇴직연금 펀드다. 자료KB자산운용KB 드림스타 자산배분 안정형 펀드는 글로벌 주식 채권 원자재 등 다양한 자산에 분산투자해 변동성을 낮추고 위험자산의 비중을 40수준으로 제한해 안정적인 수익을 추구하는 상품이다. KB국민은행이 자산배분안을 자문하고 KB자산운용이 이를 바탕으로 시장 전망 및 자산군별 세부전략을 확정해 포트폴리오를 구성한다. 초기 포트폴리오를 살펴보면 글로벌 주식 35과 채권 55에 분산투자한다. 주식은 선진국 25 한국 5 신흥국 5으로 구성되어 있고 채권은 국내 45 해외 10으로 나뉜다. 나머지 10는 유동성 자산으로 머니마켓펀드 MMF 등에 투자한다. 이석희 KB자산운용 연금WM본부 상무는 이 상품은 KB국민은행과 협업한 최초의 펀드로 저비용으로 다양한 국가와 자산에 분산투자해 글로벌 커버리지가 높다며 장기적으로 안정적인 투자가 중요한 연금 퇴직연금 고객에게 적합한 상품이라고 말했다.펀드는 10월4일부터 KB국민은행 퇴직연금계좌를 통해 가입할 수 있다. 환율변동에 따른 위험을 관리하기 위해 외화표시 된 비위험자산 채권 등 고정이자를 수취하는 외화자산에 대해 환헤지한다. 선취수수료가 없는 C퇴직형 연보수 0.635과 C퇴직e형 연보수 0.485 온라인전용 중에서 선택할 수 있다. 한편 KB자산운용은 유가증권 대체투자 부채연계투자 LDI 부문 등의 자체 리서치 역량을 기반으로 한 자산배분펀드 운용시스템을 갖추고 있다. KB자산운용은 주력상품인 TDF를 포함해 KB온국민평생소득TIF KB타겟리턴OCIO펀드 시리즈 등 다양한 연금펀드를 효율적으로 운용하며 퇴직연금 강자로 주목받고 있다. 향후 투자자들이 시장 상황에 맞는 상품을 선택할 수 있도록 신규 연금상품 라인업을 추가적으로 구축할 예정이다.</t>
-  </si>
-  <si>
-    <t>['KB 퇴직연금', '퇴직연금 자산배분', '퇴직연금 펀드', '퇴직연금 라인업', '퇴직연금 장기 투자']</t>
-  </si>
-  <si>
-    <t>[{'KB 퇴직연금': 31}, {'KB 퇴직연금': 38}, {'KB 퇴직연금': 45}, {'퇴직연금 자산배분': 45}, {'퇴직연금 자산배분': 55}, {'퇴직연금 자산배분': 60}, {'퇴직연금 펀드': 39}, {'퇴직연금 펀드': 47}, {'퇴직연금 펀드': 50}, {'퇴직연금 펀드': 57}, {'퇴직연금 라인업': 25}, {'퇴직연금 장기 투자': 56}, {'퇴직연금 장기 투자': 60}]</t>
-  </si>
-  <si>
-    <t>KB자산운용은 다양한 자산에 분산투자해 변동성을 낮추고 안정적인 수익을 추구하는 펀드를 출시했으며, KB국민은행의 글로벌 투자자문 서비스와 협업하여 퇴직연금 펀드를 개발하였다.</t>
-  </si>
-  <si>
-    <t>KB자산운용은 다양한 연금펀드를 효율적으로 운용하며 퇴직연금 강자로 주목받고 있다.</t>
-  </si>
-  <si>
-    <t>The article does not provide information about the impact of financial market movements, interest rate changes, or volatility in investment assets on the retirement pension industry.</t>
-  </si>
-  <si>
-    <t>The article does not mention any legal or regulatory changes and their impact on businesses and individuals.</t>
-  </si>
-  <si>
-    <t>The article does not provide any information about demographic factors or the impact of pension funds on long-term sustainability.</t>
-  </si>
-  <si>
-    <t>The article does not mention any innovation or technological impact on pension management and delivery services.</t>
-  </si>
-  <si>
-    <t>The article does not provide any information about consumption behavior, investment preferences, or requirements of retirement pension recipients.</t>
-  </si>
-  <si>
-    <t>장 나쁠 땐 안전하게…'자산배분형 펀드'에 꽂힌 운용사</t>
-  </si>
-  <si>
-    <t>KB자산운용과 미래에셋자산운용이 안정적인 수익을 추구하는 연금투자자들을 위해 자산배분형 펀드를 동시 출시했다. KB운용의 펀드는 안정적인 수익을 추구하며 글로벌 주식과 채권에 분산투자한다. 미래에셋운용의 펀드는 공격적으로 수익을 추구하며 국내외 주식형 펀드와 채권형 펀드 등에 분산투자한다.</t>
-  </si>
-  <si>
-    <t>https://n.news.naver.com/mnews/article/011/0004245384?sid=101</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 미국발 긴축 쇼크로 글로벌 증시가 약세장으로 돌아선 가운데 주요 자산운용사들이 증시 불안 속에서도 안정적인 수익을 추구하는 연금투자자들을 위해 자산배분형 펀드를 동시 출시했다.5일 금융투자 업계에 따르면 KB자산운용과 미래에셋자산운용은 이날 각각 KB 드림스타 자산배분 안정형 펀드 미래에셋드림스타자산배분성장형 펀드를 내놨다. 두 펀드 모두 KB국민은행의 자산배분 자문을 받으며 포트폴리오 구성 등 실질적인 운용은 각 운용사가 담당한다. 둘 다 KB국민은행에서 가입할 수 있다.KB운용의 펀드는 이름처럼 안정적인 수익을 추구한다. 글로벌 주식 채권 원자재 등 다양한 자산에 분산투자해 변동성을 낮추고 위험자산의 비중은 40 수준으로 제한했다. 초기 포트폴리오를 살펴보면 글로벌 주식 35과 채권 55에 분산투자한다. 주식은 선진국 25 한국 5 신흥국 5으로 구성돼 있고 채권은 국내 45 해외 10으로 나뉜다. 나머지 10는 유동성 자산으로 머니마켓펀드 MMF 등에 투자한다.이석희 KB운용 연금WM본부 상무는 이 상품은 저비용으로 다양한 국가와 자산에 분산투자해 글로벌 커버리지가 높다며 장기적으로 안정적인 투자가 중요한 연금 및 퇴직연금 고객에게 적합한 상품이라고 설명했다.미래에셋운용의 펀드는 보다 공격적으로 수익을 추구하나 역시 분산투자를 통한 위험 관리를 핵심 전략으로 삼는다. 국내외 주식형 펀드와 채권형 펀드부터 상장지수펀드 ETF 에너지 및 원자재 펀드 리츠 REITs 등 다양한 기초자산에 분산투자해 위험 대비 효율적인 수익을 추구한다는 목표다.류경식 미래에셋운용 WM연금마케팅부문 대표는 특히 장기 성장 관점에서의 적극적인 자산배분 운용과 안정적인 초과 수익 달성을 목표로 하는 해당 펀드는 연금 투자자들이 글로벌 경쟁력을 갖춘 다양한 자산에 투자할 수 있는 기회가 될 것으로 기대한다고 말했다.</t>
-  </si>
-  <si>
-    <t>['퇴직연금 운용사', '퇴직연금 자산배분', '퇴직연금 리츠', '퇴직연금 장기 투자']</t>
-  </si>
-  <si>
-    <t>[{'퇴직연금 운용사': 13}, {'퇴직연금 자산배분': 39}, {'퇴직연금 리츠': 8}, {'퇴직연금 장기 투자': 52}]</t>
-  </si>
-  <si>
-    <t>KB자산운용과 미래에셋자산운용이 안정적인 수익을 추구하는 연금투자자들을 위해 자산배분형 펀드를 출시했기 때문에 높은 점수를 부여합니다.</t>
-  </si>
-  <si>
-    <t>두 자산운용사가 펀드 출시를 통해 시장에서의 경쟁력을 강화하고 새로운 제품과 서비스를 선보였기 때문에 중간 점수를 부여합니다.</t>
-  </si>
-  <si>
-    <t>기사에는 금융시장의 변동성과 위험 관리에 대한 언급이 있지만, 자세한 분석이나 영향에 대한 내용은 제공되지 않아 낮은 점수를 부여합니다.</t>
-  </si>
-  <si>
-    <t>기사에는 법률 및 규제 변경에 대한 언급이 없으므로 점수를 부여하지 않습니다.</t>
-  </si>
-  <si>
-    <t>기사에는 연령과 연금 기금의 장기적인 지속 가능성에 대한 언급이 없으므로 점수를 부여하지 않습니다.</t>
-  </si>
-  <si>
-    <t>기사에는 기술과 디지털화에 대한 언급이 없으므로 점수를 부여하지 않습니다.</t>
-  </si>
-  <si>
-    <t>기사에는 소비 행동 및 요구사항에 대한 언급이 없으므로 점수를 부여하지 않습니다.</t>
-  </si>
-  <si>
-    <t>KB</t>
-  </si>
-  <si>
-    <t>퇴직연금도 자문형으로..KB '퇴직연금 자문형 펀드' 선봬</t>
-  </si>
-  <si>
-    <t>KB국민은행은 자산운용사의 펀드 운용 역량과 KB국민은행의 투자 포트폴리오 자문서비스를 결합한 퇴직연금 자문형 펀드 신상품 2종을 판매한다고 밝혔다. KB국민은행은 퇴직연금 자문형 펀드를 통해 상품을 자문할 계획이며, KB자산운용 및 미래에셋자산운용과 협업하여 2종의 펀드 상품을 출시했다.</t>
-  </si>
-  <si>
-    <t>https://n.news.naver.com/mnews/article/014/0005081824?sid=101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  KB국민은행은 자산운용사의 펀드 운용 역량과 KB국민은행의 투자 포트폴리오 자문서비스를 결합한 퇴직연금 자문형 펀드 신상품 2종을 판매한다고 5일 밝혔다. KB국민은행은 지난 1월 은행권 최초로 금융위원회로부터 투자자문업 승인을 받았다. 퇴직연금 자문형 펀드는 투자자문업 자격을 활용한 상품으로 최초로 시중은행이 직접 자산배분을 자문하는 퇴직연금 특화형 펀드 상품이다. KB국민은행은 개인고객 퇴직연금 개인형IRP DC적립금 1위 2022.12월말 기준 은행연합회 퇴직연금 비교 공시 퇴직연금사업자로서 그동안 쌓아온 전문적인 연금자산관리 역량을 바탕으로 상품을 자문할 계획이다. 또한 고객의 선택권을 다양화하고자 혼합형안정형 펀드에 강점을 보유한 KB자산운용 및 주식형성장형 펀드에 강점을 갖고 있는 미래에셋자산운용 두 회사와 협업하여 2종의 펀드 상품을 출시했다. 두 상품은 KB국민은행이 자산 배분을 자문하고 KB자산운용과 미래에셋자산운용에서 각 사의 자체 하우스 뷰를 고려해 최종 자산배분을 결정하고 운용할 예정이다. KB드림스타 자산배분 안정형 증권투자신탁은 위험자산의 비중을 40 수준으로 제한해 안정적인 수익률 관리를 우선하는 고객에게 적합한 상품이다. 안정성을 추구하는 글로벌 자산배분 모델을 통해 전세계 채권 주식 및 대체투자관련 국내외 ETF 등에 비중을 조절해 분산 투자한다. 미래에셋 드림스타자산배분 성장형 혼합자산투자신탁은 위험자산 비중을 60 수준으로 운용해 더 높은 수익률을 추구하는 고객에게 적격인 상품이다. 전략적 자산배분안을 기준으로 경기 국면별로 투자자산의 비중을 조절하며 효과적인 분산투자로 꾸준한 초과 수익을 목표로 한다.</t>
-  </si>
-  <si>
-    <t>['퇴직연금 DC', '퇴직연금 IRP', '개인형퇴직연금', '퇴직연금 사업자', '퇴직연금 적립금', '미래에셋 퇴직연금', 'KB 퇴직연금', '퇴직연금 서비스 ', '퇴직연금 운용사', '퇴직연금 수익률', '퇴직연금 ETF', '퇴직연금 포트폴리오', '퇴직연금 자산배분', '퇴직연금 펀드', '퇴직연금 채권']</t>
-  </si>
-  <si>
-    <t>[{'퇴직연금 DC': 5}, {'퇴직연금 IRP': 2}, {'개인형퇴직연금': 2}, {'퇴직연금 사업자': 2}, {'퇴직연금 적립금': 4}, {'미래에셋 퇴직연금': 13}, {'KB 퇴직연금': 6}, {'퇴직연금 서비스 ': 6}, {'퇴직연금 운용사': 5}, {'퇴직연금 수익률': 7}, {'퇴직연금 ETF': 5}, {'퇴직연금 포트폴리오': 6}, {'퇴직연금 자산배분': 7}, {'퇴직연금 펀드': 7}, {'퇴직연금 채권': 6}]</t>
-  </si>
-  <si>
-    <t>KB국민은행은 자산운용사의 펀드 운용 역량과 투자 포트폴리오 자문서비스를 결합한 퇴직연금 자문형 펀드 신상품을 판매하고 있다.</t>
-  </si>
-  <si>
-    <t>KB국민은행은 KB자산운용 및 미래에셋자산운용과 협업하여 2종의 펀드 상품을 출시하였다.</t>
-  </si>
-  <si>
-    <t>No information related to the impact of financial market movements, interest rate changes, and volatility in investment assets on the retirement pension industry.</t>
-  </si>
-  <si>
-    <t>No information related to changes in legislation and their impact on businesses and individuals.</t>
-  </si>
-  <si>
-    <t>No information related to demographic factors or the impact of pension funds on long-term sustainability.</t>
-  </si>
-  <si>
-    <t>No information related to the impact of technology and digitalization on pension management and delivery services.</t>
-  </si>
-  <si>
-    <t>No information related to consumption behavior and requirements of retirement pension recipients.</t>
-  </si>
-  <si>
-    <t>KB국민은행, ‘퇴직연금 자문형 펀드’ 2종 판매</t>
-  </si>
-  <si>
-    <t>KB국민은행은 자산운용사의 펀드 운용 역량과 KB국민은행의 투자 포트폴리오 자문서비스를 결합한 퇴직연금 자문형 펀드 신상품 2종을 판매한다고 밝혔다. KB국민은행은 개인고객 퇴직연금 개인형IRP DC적립금 1위 2022년 12월말 기준 은행연합회 퇴직연금 비교 공시 퇴직연금사업자로서 그동안 쌓아온 전문적인 연금자산관리 역량을 바탕으로 상품을 자문할 계획이다.</t>
-  </si>
-  <si>
-    <t>https://n.news.naver.com/mnews/article/123/0002317269?sid=101</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> KB국민은행은 자산운용사의 펀드 운용 역량과 KB국민은행의 투자 포트폴리오 자문서비스를 결합한 퇴직연금 자문형 펀드 신상품 2종을 판매한다고 밝혔다. KB국민은행은 지난 1월 은행권 최초로 금융위원회로부터 투자자문업 승인을 받았다. 퇴직연금 자문형 펀드는 투자자문업 자격을 활용한 상품으로 최초로 시중은행이 직접 자산배분을 자문하는 퇴직연금 특화형 펀드 상품이다. KB국민은행은 개인고객 퇴직연금 개인형IRP DC적립금 1위 2022년 12월말 기준 은행연합회 퇴직연금 비교 공시 퇴직연금사업자로서 그동안 쌓아온 전문적인 연금자산관리 역량을 바탕으로 상품을 자문할 계획이다. 또한 고객의 선택권을 다양화하고자 혼합형안정형 펀드에 강점을 보유한 KB자산운용 및 주식형성장형 펀드에 강점을 갖고 있는 미래에셋자산운용 두 회사와 협업하여 2종의 펀드 상품을 출시했다. 두 상품은 KB국민은행이 자산 배분을 자문하고 KB자산운용과 미래에셋자산운용에서 각 사의 자체 하우스 뷰를 고려해 최종 자산배분을 결정하고 운용할 예정이다. KB드림스타 자산배분 안정형 증권투자신탁은 위험자산의 비중을 40 수준으로 제한해 안정적인 수익률 관리를 우선하는 고객에게 적합한 상품이다. 안정성을 추구하는 글로벌 자산배분 모델을 통해 전세계 채권 주식 및 대체투자관련 국내외 ETF 등에 비중을 조절하여 분산 투자한다. 미래에셋 드림스타자산배분 성장형 혼합자산투자신탁은 위험자산 비중을 60 수준으로 운용해 더 높은 수익률을 추구하는 고객에게 적격인 상품이다. 전략적 자산배분안을 기준으로 경기 국면별로 투자자산의 비중을 조절하며 효과적인 분산투자로 꾸준한 초과 수익을 목표로 한다. KB국민은행 관계자는 그동안 쌓아온 전문적인 연금자산관리 역량을 바탕으로 연금 고객의 노후 자산 형성을 위한 상품을 준비했다며 향후에도 연금 고객의 다양한 니즈를 충족시킬 수 있는 상품을 확대해 나갈 계획이다고 말했다.</t>
-  </si>
-  <si>
-    <t>['퇴직연금 DC', '퇴직연금 IRP', '개인형퇴직연금', 'IRP 연금개시', '퇴직연금 사업자', '퇴직연금 적립금', '미래에셋 퇴직연금', 'KB 퇴직연금', '퇴직연금 서비스 ', '퇴직연금 운용사', '퇴직연금 수익률', '퇴직연금 ETF', '퇴직연금 포트폴리오', '퇴직연금 자산배분', '퇴직연금 펀드', '퇴직연금 채권']</t>
-  </si>
-  <si>
-    <t>[{'퇴직연금 DC': 4}, {'퇴직연금 DC': 6}, {'퇴직연금 DC': 9}, {'퇴직연금 DC': 11}, {'퇴직연금 DC': 12}, {'퇴직연금 DC': 15}, {'퇴직연금 DC': 18}, {'퇴직연금 DC': 20}, {'퇴직연금 DC': 22}, {'퇴직연금 DC': 23}, {'퇴직연금 DC': 24}, {'퇴직연금 DC': 27}, {'퇴직연금 DC': 30}, {'퇴직연금 DC': 36}, {'퇴직연금 DC': 37}, {'퇴직연금 DC': 40}, {'퇴직연금 DC': 50}, {'퇴직연금 DC': 56}, {'퇴직연금 DC': 57}, {'퇴직연금 IRP': 1}, {'퇴직연금 IRP': 3}, {'퇴직연금 IRP': 6}, {'퇴직연금 IRP': 9}, {'퇴직연금 IRP': 12}, {'퇴직연금 IRP': 14}, {'퇴직연금 IRP': 15}, {'퇴직연금 IRP': 19}, {'퇴직연금 IRP': 20}, {'퇴직연금 IRP': 21}, {'퇴직연금 IRP': 22}, {'퇴직연금 IRP': 23}, {'퇴직연금 IRP': 26}, {'퇴직연금 IRP': 34}, {'퇴직연금 IRP': 36}, {'퇴직연금 IRP': 39}, {'퇴직연금 IRP': 52}, {'퇴직연금 IRP': 60}, {'개인형퇴직연금': 1}, {'개인형퇴직연금': 3}, {'개인형퇴직연금': 5}, {'개인형퇴직연금': 6}, {'개인형퇴직연금': 8}, {'개인형퇴직연금': 11}, {'개인형퇴직연금': 12}, {'개인형퇴직연금': 14}, {'개인형퇴직연금': 15}, {'개인형퇴직연금': 16}, {'개인형퇴직연금': 19}, {'개인형퇴직연금': 20}, {'개인형퇴직연금': 22}, {'개인형퇴직연금': 28}, {'개인형퇴직연금': 29}, {'개인형퇴직연금': 30}, {'개인형퇴직연금': 39}, {'개인형퇴직연금': 43}, {'개인형퇴직연금': 45}, {'IRP 연금개시': 2}, {'퇴직연금 사업자': 1}, {'퇴직연금 사업자': 3}, {'퇴직연금 사업자': 5}, {'퇴직연금 사업자': 6}, {'퇴직연금 사업자': 8}, {'퇴직연금 사업자': 10}, {'퇴직연금 사업자': 11}, {'퇴직연금 사업자': 13}, {'퇴직연금 사업자': 14}, {'퇴직연금 사업자': 15}, {'퇴직연금 사업자': 16}, {'퇴직연금 사업자': 17}, {'퇴직연금 사업자': 19}, {'퇴직연금 사업자': 24}, {'퇴직연금 사업자': 25}, {'퇴직연금 사업자': 27}, {'퇴직연금 사업자': 33}, {'퇴직연금 사업자': 35}, {'퇴직연금 사업자': 36}, {'퇴직연금 사업자': 38}, {'퇴직연금 사업자': 40}, {'퇴직연금 적립금': 3}, {'퇴직연금 적립금': 5}, {'퇴직연금 적립금': 6}, {'퇴직연금 적립금': 9}, {'퇴직연금 적립금': 11}, {'퇴직연금 적립금': 12}, {'퇴직연금 적립금': 15}, {'퇴직연금 적립금': 16}, {'퇴직연금 적립금': 18}, {'퇴직연금 적립금': 19}, {'퇴직연금 적립금': 20}, {'퇴직연금 적립금': 21}, {'퇴직연금 적립금': 22}, {'퇴직연금 적립금': 26}, {'퇴직연금 적립금': 27}, {'퇴직연금 적립금': 28}, {'퇴직연금 적립금': 34}, {'퇴직연금 적립금': 36}, {'퇴직연금 적립금': 37}, {'퇴직연금 적립금': 39}, {'퇴직연금 적립금': 42}, {'미래에셋 퇴직연금': 5}, {'미래에셋 퇴직연금': 6}, {'미래에셋 퇴직연금': 7}, {'미래에셋 퇴직연금': 9}, {'미래에셋 퇴직연금': 16}, {'미래에셋 퇴직연금': 17}, {'미래에셋 퇴직연금': 22}, {'미래에셋 퇴직연금': 28}, {'미래에셋 퇴직연금': 30}, {'미래에셋 퇴직연금': 33}, {'미래에셋 퇴직연금': 35}, {'미래에셋 퇴직연금': 36}, {'미래에셋 퇴직연금': 37}, {'미래에셋 퇴직연금': 39}, {'미래에셋 퇴직연금': 40}, {'미래에셋 퇴직연금': 42}, {'미래에셋 퇴직연금': 43}, {'미래에셋 퇴직연금': 54}, {'미래에셋 퇴직연금': 57}, {'KB 퇴직연금': 3}, {'KB 퇴직연금': 4}, {'KB 퇴직연금': 5}, {'KB 퇴직연금': 7}, {'KB 퇴직연금': 8}, {'KB 퇴직연금': 9}, {'KB 퇴직연금': 13}, {'KB 퇴직연금': 16}, {'KB 퇴직연금': 17}, {'KB 퇴직연금': 19}, {'KB 퇴직연금': 20}, {'KB 퇴직연금': 21}, {'KB 퇴직연금': 22}, {'KB 퇴직연금': 23}, {'KB 퇴직연금': 24}, {'KB 퇴직연금': 25}, {'KB 퇴직연금': 27}, {'KB 퇴직연금': 33}, {'KB 퇴직연금': 34}, {'KB 퇴직연금': 40}, {'KB 퇴직연금': 44}, {'KB 퇴직연금': 50}, {'KB 퇴직연금': 51}, {'KB 퇴직연금': 54}, {'KB 퇴직연금': 56}, {'KB 퇴직연금': 57}, {'KB 퇴직연금': 58}, {'퇴직연금 서비스 ': 3}, {'퇴직연금 서비스 ': 4}, {'퇴직연금 서비스 ': 5}, {'퇴직연금 서비스 ': 7}, {'퇴직연금 서비스 ': 10}, {'퇴직연금 서비스 ': 11}, {'퇴직연금 서비스 ': 16}, {'퇴직연금 서비스 ': 18}, {'퇴직연금 서비스 ': 21}, {'퇴직연금 서비스 ': 23}, {'퇴직연금 서비스 ': 24}, {'퇴직연금 서비스 ': 26}, {'퇴직연금 서비스 ': 27}, {'퇴직연금 서비스 ': 28}, {'퇴직연금 서비스 ': 30}, {'퇴직연금 서비스 ': 31}, {'퇴직연금 서비스 ': 39}, {'퇴직연금 서비스 ': 41}, {'퇴직연금 서비스 ': 45}, {'퇴직연금 서비스 ': 49}, {'퇴직연금 운용사': 2}, {'퇴직연금 운용사': 3}, {'퇴직연금 운용사': 4}, {'퇴직연금 운용사': 6}, {'퇴직연금 운용사': 9}, {'퇴직연금 운용사': 10}, {'퇴직연금 운용사': 14}, {'퇴직연금 운용사': 16}, {'퇴직연금 운용사': 18}, {'퇴직연금 운용사': 19}, {'퇴직연금 운용사': 21}, {'퇴직연금 운용사': 22}, {'퇴직연금 운용사': 23}, {'퇴직연금 운용사': 24}, {'퇴직연금 운용사': 25}, {'퇴직연금 운용사': 27}, {'퇴직연금 운용사': 32}, {'퇴직연금 운용사': 34}, {'퇴직연금 운용사': 36}, {'퇴직연금 운용사': 38}, {'퇴직연금 운용사': 45}, {'퇴직연금 운용사': 46}, {'퇴직연금 운용사': 49}, {'퇴직연금 운용사': 50}, {'퇴직연금 운용사': 51}, {'퇴직연금 운용사': 55}, {'퇴직연금 운용사': 58}, {'퇴직연금 수익률': 4}, {'퇴직연금 수익률': 5}, {'퇴직연금 수익률': 6}, {'퇴직연금 수익률': 8}, {'퇴직연금 수익률': 11}, {'퇴직연금 수익률': 12}, {'퇴직연금 수익률': 16}, {'퇴직연금 수익률': 18}, {'퇴직연금 수익률': 20}, {'퇴직연금 수익률': 22}, {'퇴직연금 수익률': 23}, {'퇴직연금 수익률': 24}, {'퇴직연금 수익률': 25}, {'퇴직연금 수익률': 26}, {'퇴직연금 수익률': 27}, {'퇴직연금 수익률': 28}, {'퇴직연금 수익률': 35}, {'퇴직연금 수익률': 37}, {'퇴직연금 수익률': 39}, {'퇴직연금 수익률': 41}, {'퇴직연금 수익률': 49}, {'퇴직연금 수익률': 50}, {'퇴직연금 수익률': 53}, {'퇴직연금 수익률': 54}, {'퇴직연금 수익률': 55}, {'퇴직연금 수익률': 56}, {'퇴직연금 수익률': 59}, {'퇴직연금 ETF': 3}, {'퇴직연금 ETF': 4}, {'퇴직연금 ETF': 6}, {'퇴직연금 ETF': 9}, {'퇴직연금 ETF': 10}, {'퇴직연금 ETF': 14}, {'퇴직연금 ETF': 16}, {'퇴직연금 ETF': 18}, {'퇴직연금 ETF': 20}, {'퇴직연금 ETF': 21}, {'퇴직연금 ETF': 22}, {'퇴직연금 ETF': 23}, {'퇴직연금 ETF': 24}, {'퇴직연금 ETF': 26}, {'퇴직연금 ETF': 27}, {'퇴직연금 ETF': 35}, {'퇴직연금 ETF': 39}, {'퇴직연금 ETF': 42}, {'퇴직연금 ETF': 53}, {'퇴직연금 ETF': 54}, {'퇴직연금 ETF': 57}, {'퇴직연금 ETF': 58}, {'퇴직연금 ETF': 59}, {'퇴직연금 ETF': 60}, {'퇴직연금 포트폴리오': 3}, {'퇴직연금 포트폴리오': 4}, {'퇴직연금 포트폴리오': 5}, {'퇴직연금 포트폴리오': 7}, {'퇴직연금 포트폴리오': 10}, {'퇴직연금 포트폴리오': 11}, {'퇴직연금 포트폴리오': 16}, {'퇴직연금 포트폴리오': 18}, {'퇴직연금 포트폴리오': 21}, {'퇴직연금 포트폴리오': 23}, {'퇴직연금 포트폴리오': 24}, {'퇴직연금 포트폴리오': 25}, {'퇴직연금 포트폴리오': 26}, {'퇴직연금 포트폴리오': 27}, {'퇴직연금 포트폴리오': 29}, {'퇴직연금 포트폴리오': 30}, {'퇴직연금 포트폴리오': 37}, {'퇴직연금 포트폴리오': 39}, {'퇴직연금 포트폴리오': 41}, {'퇴직연금 포트폴리오': 44}, {'퇴직연금 포트폴리오': 54}, {'퇴직연금 포트폴리오': 55}, {'퇴직연금 포트폴리오': 60}, {'퇴직연금 자산배분': 4}, {'퇴직연금 자산배분': 5}, {'퇴직연금 자산배분': 6}, {'퇴직연금 자산배분': 8}, {'퇴직연금 자산배분': 11}, {'퇴직연금 자산배분': 12}, {'퇴직연금 자산배분': 16}, {'퇴직연금 자산배분': 19}, {'퇴직연금 자산배분': 21}, {'퇴직연금 자산배분': 23}, {'퇴직연금 자산배분': 24}, {'퇴직연금 자산배분': 25}, {'퇴직연금 자산배분': 26}, {'퇴직연금 자산배분': 28}, {'퇴직연금 자산배분': 29}, {'퇴직연금 자산배분': 31}, {'퇴직연금 자산배분': 40}, {'퇴직연금 자산배분': 44}, {'퇴직연금 자산배분': 47}, {'퇴직연금 자산배분': 51}, {'퇴직연금 펀드': 4}, {'퇴직연금 펀드': 5}, {'퇴직연금 펀드': 6}, {'퇴직연금 펀드': 8}, {'퇴직연금 펀드': 11}, {'퇴직연금 펀드': 12}, {'퇴직연금 펀드': 17}, {'퇴직연금 펀드': 20}, {'퇴직연금 펀드': 22}, {'퇴직연금 펀드': 24}, {'퇴직연금 펀드': 25}, {'퇴직연금 펀드': 27}, {'퇴직연금 펀드': 28}, {'퇴직연금 펀드': 29}, {'퇴직연금 펀드': 30}, {'퇴직연금 펀드': 31}, {'퇴직연금 펀드': 33}, {'퇴직연금 펀드': 41}, {'퇴직연금 펀드': 43}, {'퇴직연금 펀드': 48}, {'퇴직연금 펀드': 53}, {'퇴직연금 채권': 4}, {'퇴직연금 채권': 5}, {'퇴직연금 채권': 7}, {'퇴직연금 채권': 10}, {'퇴직연금 채권': 11}, {'퇴직연금 채권': 15}, {'퇴직연금 채권': 17}, {'퇴직연금 채권': 19}, {'퇴직연금 채권': 21}, {'퇴직연금 채권': 22}, {'퇴직연금 채권': 23}, {'퇴직연금 채권': 24}, {'퇴직연금 채권': 25}, {'퇴직연금 채권': 26}, {'퇴직연금 채권': 27}, {'퇴직연금 채권': 34}, {'퇴직연금 채권': 36}, {'퇴직연금 채권': 38}, {'퇴직연금 채권': 45}, {'퇴직연금 채권': 46}, {'퇴직연금 채권': 49}, {'퇴직연금 채권': 50}, {'퇴직연금 채권': 51}, {'퇴직연금 채권': 52}, {'퇴직연금 채권': 56}, {'퇴직연금 채권': 59}]</t>
-  </si>
-  <si>
-    <t>KB국민은행은 자산운용사의 펀드 운용 역량과 KB국민은행의 투자 포트폴리오 자문서비스를 결합한 퇴직연금 자문형 펀드 신상품 2종을 판매한다고 밝혔다.</t>
-  </si>
-  <si>
-    <t>KB국민은행은 개인고객 퇴직연금 개인형IRP DC적립금 1위 2022년 12월말 기준 은행연합회 퇴직연금 비교 공시 퇴직연금사업자로서 그동안 쌓아온 전문적인 연금자산관리 역량을 바탕으로 상품을 자문할 계획이다.</t>
-  </si>
-  <si>
-    <t>국민은행</t>
-  </si>
-  <si>
-    <t>국민은행, 퇴직연금 자문형 펀드 2종 판매…KB자산운용과 협업</t>
-  </si>
-  <si>
-    <t>KB국민은행은 자산운용사의 펀드 운용 역량과 국민은행의 투자 포트폴리오 자문서비스를 결합한 퇴직연금 자문형 펀드 신상품 2종을 판매한다고 밝혔다. 국민은행은 퇴직연금 자문형 펀드를 출시하며 고객의 선택권을 다양화하고자 혼합형안정형 펀드와 주식형성장형 펀드를 협업하여 개발했다. KB드림스타 자산배분 안정형 증권투자신탁과 미래에셋 드림스타자산배분 성장형 혼합자산투자신탁은 각각 안정적인 수익률과 높은 수익률을 추구하는 고객에게 적합한 상품이다.</t>
-  </si>
-  <si>
-    <t>https://n.news.naver.com/mnews/article/138/0002158001?sid=101</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> KB국민은행은 자산운용사의 펀드 운용 역량과 국민은행의 투자 포트폴리오 자문서비스를 결합한 퇴직연금 자문형 펀드 신상품 2종을 판매한다고 5일 밝혔다.국민은행은 지난 1월 은행권 최초로 금융위원회로부터 투자자문업 승인을 받았다. 퇴직연금 자문형 펀드는 투자자문업 자격을 활용해 시중은행이 직접 자산배분을 자문하는 퇴직연금 특화형 펀드 상품이다.고객의 선택권을 다양화하고자 혼합형안정형 펀드에 강점을 보유한 KB자산운용 및 주식형성장형 펀드에 강점을 갖고 있는 미래에셋자산운용 두 회사와 협업해 2종의 펀드 상품도 출시했다.두 상품은 국민은행이 자산 배분을 자문하고 KB자산운용과 미래에셋자산운용에서 각 사의 자체 하우스 뷰를 고려해 최종 자산배분을 결정하고 운용할 예정이다.KB드림스타 자산배분 안정형 증권투자신탁은 위험자산의 비중을 40 수준으로 제한해 안정적인 수익률 관리를 우선하는 고객에게 적합한 상품이다. 안정성을 추구하는 글로벌 자산배분 모델을 통해 전세계 채권 주식 및 대체투자관련 국내외 ETF 등에 비중을 조절하여 분산 투자한다.미래에셋 드림스타자산배분 성장형 혼합자산투자신탁은 위험자산 비중을 60 수준으로 운용해 더 높은 수익률을 추구하는 고객에게 적격인 상품이다. 전략적 자산배분안을 기준으로 경기 국면별로 투자자산의 비중을 조절하며 효과적인 분산투자로 꾸준한 초과 수익을 목표로 한다.국민은행 관계자는 그동안 쌓아온 전문적인 연금자산관리 역량을 바탕으로 연금 고객의 노후 자산 형성을 위한 상품을 준비했다며 향후에도 연금 고객의 다양한 니즈를 충족시킬 수 있는 상품을 확대해 나갈 계획이라고 말했다.</t>
-  </si>
-  <si>
-    <t>['미래에셋 퇴직연금', '퇴직연금 서비스 ', '퇴직연금 운용사', '퇴직연금 수익률', '퇴직연금 ETF', '퇴직연금 포트폴리오', '퇴직연금 자산배분', '퇴직연금 펀드', '퇴직연금 채권']</t>
-  </si>
-  <si>
-    <t>[{'미래에셋 퇴직연금': 55}, {'퇴직연금 서비스 ': 40}, {'퇴직연금 운용사': 33}, {'퇴직연금 수익률': 36}, {'퇴직연금 ETF': 33}, {'퇴직연금 포트폴리오': 38}, {'퇴직연금 자산배분': 34}, {'퇴직연금 펀드': 42}, {'퇴직연금 채권': 33}]</t>
-  </si>
-  <si>
-    <t>KB국민은행은 자산운용사의 펀드 운용 역량과 국민은행의 투자 포트폴리오 자문서비스를 결합한 퇴직연금 자문형 펀드 신상품 2종을 판매한다고 밝혔다.</t>
-  </si>
-  <si>
-    <t>국민은행은 퇴직연금 자문형 펀드를 출시하며 고객의 선택권을 다양화하고자 혼합형안정형 펀드와 주식형성장형 펀드를 협업하여 개발했다.</t>
-  </si>
-  <si>
-    <t>현대해상</t>
-  </si>
-  <si>
-    <t>40대 과장님도 짐쌌다… 현대해상, 희망퇴직으로 '약 80명' 떠나</t>
-  </si>
-  <si>
-    <t>현대해상에서 지난달 30일부로 약 80명이 희망퇴직을 했다. 현대해상은 희망퇴직에 따른 보상방안을 강화하고 희망퇴직 대상도 확대했다.</t>
-  </si>
-  <si>
-    <t>https://n.news.naver.com/mnews/article/417/0000952810?sid=101</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 현대해상이 지난 9월 초 실시한 희망퇴직으로 약 80명의 직원들이 떠났다. 지난해 희망퇴직자인 95명과 비교했을 때 15명 이상이 줄어든 것이다. 5일 보험업계에 따르면 현대해상에서 지난달 30일부로 약 80명이 희망퇴직을 했다. 지난해 희망퇴직자의 3분의2 수준이다. 2020년 희망퇴직자 80명보다도 1명 이상 적은 수치다. 현대해상은 예년보다 희망퇴직에 따른 보상방안을 강화하고 희망퇴직 대상도 확대했다. 당초 현대해상은 올해 희망퇴직 신청자가 95명 이상일 것으로 예상했다. 하지만 매년 실적개선으로 연봉과 상여금이 증가하면서 퇴직 인원이 오히려 줄어든 것으로 분석된다. 현대해상의 이번 희망퇴직은 부장과 과장급은 1968년생부터 1978년생까지 과장 전임급 포함 이하는 1968년생부터 1983년생까지를 대상으로 이뤄졌다. 현대해상은 희망퇴직금으로 월봉의 70개월치를 제시했다. 이는 지난해 보다 2개월치 늘어난 것으로 역대최고 수준이다. 1968년생 부장급 경우 최대 4억원을 받는다. 임금피크제를 적용받는 1963년 10월 1일부터 1968년 8월 31일 출생의 직원들은 약 2년 6개월치의 희망퇴직금을 지급한다. 또한 대학 학자금은 자녀 2인 한도로 최대 5600만원을 미혼이나 무자녀 직원에게는 자기계발지원금으로 2000만원을 지급한다. 금융감독원에 따르면 지난해 현대해상의 당기순이익은 전년 대비 28 증가한 5609억원을 기록했다. 같은 기간 1인당 평균급여 성과급 포함는 1억800만원에서 1억1000만원으로 200만원 증가했다. 2020년 1인당 평균급여가 9000만원이었다는 것을 감안했을 때 2년새 2000만원 늘어난 것이다. 현대해상 관계자는 희망퇴직에 약 95명이 신청한 가운데 80명에 근소하게 못 미치는 직원들이 떠났다며 안정적인 수입을 선호하는 분위기가 반영된 것이라고 전했다. </t>
-  </si>
-  <si>
-    <t>[{'희망퇴직 퇴직금': 1}, {'임금피크제': 14}]</t>
-  </si>
-  <si>
-    <t>희망퇴직에 따른 보상방안 강화 및 대상 확대</t>
-  </si>
-  <si>
-    <t>현대해상의 당기순이익 증가 및 평균급여 상승</t>
-  </si>
-  <si>
-    <t>BNK경남은행, 퇴직연금 자산 전문 관리 ‘퇴직연금 상담센터’ 운영</t>
-  </si>
-  <si>
-    <t>BNK경남은행은 퇴직연금 상담센터를 운영 중이며, 퇴직연금 제도운영 상담과 퇴직연금 운용상품 안내를 제공한다. 또한, 연금 및 퇴직금 관련 세제 상담 서비스도 제공한다.</t>
-  </si>
-  <si>
-    <t>https://n.news.naver.com/mnews/article/022/0003861520?sid=102</t>
-  </si>
-  <si>
-    <t>BNK경남은행은 고객의 퇴직연금 자산을 전문적으로 관리하기 위해 퇴직연금 상담센터를 운영 중이라고 4일 밝혔다. 지난달 출범한 퇴직연금 상담센터는 퇴직연금제도 신규관리지급 등 제도운영 상담을 비롯해 퇴직연금 운용상품 만기 퇴직연금 미운용자산 사전지정운용제도 디폴트옵션 등을 안내해준다. 또 연금 및 퇴직금 관련 세제 상담 서비스도 제공한다. 대상은 퇴직연금 가입 업체 및 가입자이며 퇴직연금 상담센터 전용 전화번호로 문의하면 된다. 신탁사업단 이정훈 단장은 퇴직연금에 대한 관심이 높아진 상황에 맞춰 고객의 퇴직연금 자산을 전문적으로 관리하고 실질적으로 도움을 줄 수 있는 퇴직연금 상담센터를 운영하게 됐다며 퇴직연금 상담센터에서는 체계적으로 교육을 받은 전문직원이 다양한 서비스를 제공하는 만큼 많은 고객들이 이용해줬으면 한다고 말했다.</t>
-  </si>
-  <si>
-    <t>['퇴직연금 상담센터', '퇴직연금 가입']</t>
-  </si>
-  <si>
-    <t>[{'퇴직연금 상담센터': 9}, {'퇴직연금 가입': 16}]</t>
-  </si>
-  <si>
-    <t>퇴직연금 상담센터를 운영하여 퇴직연금 자산을 전문적으로 관리하고 제도운영 상담과 운용상품 안내를 제공하고 있다.</t>
-  </si>
-  <si>
-    <t>기사에는 경쟁 동향에 대한 정보가 없다.</t>
-  </si>
-  <si>
-    <t>기사에는 금융시장의 영향에 대한 정보가 없다.</t>
-  </si>
-  <si>
-    <t>기사에는 법적 및 규제 변화에 대한 정보가 없다.</t>
-  </si>
-  <si>
-    <t>기사에는 인구 변화에 대한 정보가 없다.</t>
-  </si>
-  <si>
-    <t>기사에는 기술과 디지털화에 대한 정보가 없다.</t>
-  </si>
-  <si>
-    <t>기사에는 소비 행동 및 요구사항에 대한 정보가 없다.</t>
-  </si>
-  <si>
-    <t>error</t>
-  </si>
-  <si>
-    <t>삼성증권, DC형 퇴직연금 신규가입 고객에 ‘커피 기프티콘’ 제공</t>
-  </si>
-  <si>
-    <t>삼성증권은 삼성증권 DC형 퇴직연금에 신규 가입한 고객에게 스타벅스 기프티콘을 증정하는 이벤트를 진행한다고 밝혔다. 삼성증권은 퇴직연금 시장의 성장성이 크다고 예상해 2022년 말 연금센터를 신설해 연금 컨설팅 서비스를 제공하고 있다.</t>
-  </si>
-  <si>
-    <t>https://n.news.naver.com/mnews/article/082/0001235339?sid=101</t>
-  </si>
-  <si>
-    <t>삼성증권 사장 장석훈은 삼성증권 DC형 퇴직연금에 신규 가입한 고객에게 스타벅스 기프티콘을 증정하는 이벤트를 11월 말까지 진행한다고 5일 밝혔다.퇴직연금DC형은 매년 적립되는 퇴직금을 가입자 본인이 직접 운용할 수 있는 계좌다. 운용 성과에 따라 퇴직 시 받는 퇴직금 수준이 달라진다.해당 이벤트는 온오프라인 상관없이 이벤트 기간 내 삼성증권에서 퇴직연금DC형 계좌를 신규정상 계좌로 개설된 고객에게 스타벅스 기프티콘을 제공하는 이벤트다.삼성증권은 퇴직연금 시장의 성장성이 크다고 미리 예상해 2022년 말 연금센터를 신설해 업계 최고 수준의 연금 컨설팅 서비스를 제공하고 있다. 연금센터는 서울 삼성타운연금센터 수원 중부연금센터 대구 영남연금센터에 위치하고 있다. PB 프라이빗뱅커 경력 평균 10년 이상 연금 전문 인력 40명이 퇴직연금 상담을 지원하고 있다.특히 연금전담 PB는 고객이 연금을 쉽게 개설하고 운용할 수 있도록 초기 정착을 도울 뿐만 아니라 제도부터 상품 세금에 이르기까지 전문적인 연금 상담을 지원하고 있다. 상반기 세미나 건수는 224건으로 연금 고객들을 위한 대면 서비스도 적극적으로 실시하고 있다.삼성증권 Its 삼성증권 DC 타임 시즌4 이벤트의 자세한 내용은 삼성증권 홈페이지 또는 모바일 앱 엠팝 mPOP을 참고하거나 패밀리센터에 문의하면 된다.</t>
-  </si>
-  <si>
-    <t>['퇴직연금 DC', '퇴직금 제도', '퇴직연금 이벤트', 'DC 이벤트', '삼성 퇴직연금', '퇴직연금 서비스 ', '퇴직연금 가입']</t>
-  </si>
-  <si>
-    <t>[{'퇴직연금 DC': 1}, {'퇴직금 제도': 32}, {'퇴직연금 이벤트': 14}, {'DC 이벤트': 1}, {'삼성 퇴직연금': 1}, {'퇴직연금 서비스 ': 50}, {'퇴직연금 가입': 2}]</t>
-  </si>
-  <si>
-    <t>퇴직연금DC형에 대한 이벤트 진행</t>
-  </si>
-  <si>
-    <t>퇴직연금 시장의 성장성에 대한 언급</t>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3434,12 +2624,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3742,17 +2931,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X93"/>
+  <dimension ref="A1:X71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="19.75" customWidth="1"/>
-    <col min="4" max="4" width="54.25" customWidth="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="4" max="4" width="31.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
@@ -3846,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
         <v>29</v>
@@ -3861,19 +3049,19 @@
         <v>32</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2" t="s">
         <v>33</v>
       </c>
       <c r="M2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N2" t="s">
         <v>34</v>
       </c>
       <c r="O2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P2" t="s">
         <v>35</v>
@@ -3885,7 +3073,7 @@
         <v>36</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2" t="s">
         <v>37</v>
@@ -3905,1194 +3093,1194 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K3">
         <v>3</v>
       </c>
       <c r="L3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M3">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O3">
+        <v>4</v>
+      </c>
+      <c r="P3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S3">
         <v>1</v>
       </c>
-      <c r="P3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3" t="s">
-        <v>51</v>
-      </c>
-      <c r="S3">
-        <v>2</v>
-      </c>
       <c r="T3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F4">
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K4">
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M4">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="O4">
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="S4">
         <v>2</v>
       </c>
       <c r="T4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K5">
         <v>3</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M5">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
         <v>87</v>
       </c>
-      <c r="C6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6" t="s">
-        <v>81</v>
-      </c>
       <c r="H6" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K6">
         <v>3</v>
       </c>
       <c r="L6" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7" t="s">
+        <v>99</v>
+      </c>
+      <c r="J7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K7">
         <v>3</v>
       </c>
-      <c r="G7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="L7" t="s">
         <v>91</v>
-      </c>
-      <c r="I7" t="s">
-        <v>92</v>
-      </c>
-      <c r="J7" t="s">
-        <v>93</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7" t="s">
-        <v>94</v>
       </c>
       <c r="M7">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H8" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J8" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K8">
         <v>2</v>
       </c>
       <c r="L8" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E9" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="H9" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="I9" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="J9" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="O9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="U9">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K10">
         <v>3</v>
       </c>
       <c r="L10" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>132</v>
+      </c>
+      <c r="O10">
         <v>2</v>
       </c>
-      <c r="N10" t="s">
-        <v>130</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
       <c r="P10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T10" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="U10">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>133</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E11" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F11">
         <v>6</v>
       </c>
       <c r="G11" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H11" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="I11" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J11" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="K11">
         <v>3</v>
       </c>
       <c r="L11" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M11">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="O11">
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="U11">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="D12" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F12">
         <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I12" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="J12" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K12">
         <v>3</v>
       </c>
       <c r="L12" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M12">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O12">
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12" t="s">
-        <v>97</v>
+        <v>158</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>98</v>
+        <v>159</v>
       </c>
       <c r="U12">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12" t="s">
-        <v>100</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="D13" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E13" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F13">
         <v>6</v>
       </c>
       <c r="G13" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H13" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="I13" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="J13" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="K13">
         <v>3</v>
       </c>
       <c r="L13" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="M13">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="O13">
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13" t="s">
-        <v>165</v>
+        <v>113</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="U13">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13" t="s">
-        <v>168</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="C14" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="D14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F14">
         <v>6</v>
       </c>
       <c r="G14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K14">
         <v>3</v>
       </c>
       <c r="L14" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M14">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O14">
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="U14">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D15" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E15" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F15">
         <v>6</v>
       </c>
       <c r="G15" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H15" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I15" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="J15" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K15">
         <v>3</v>
       </c>
       <c r="L15" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M15">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O15">
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="U15">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="B16" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>184</v>
       </c>
       <c r="D16" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E16" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G16" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="H16" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="I16" t="s">
-        <v>114</v>
+        <v>202</v>
       </c>
       <c r="J16" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="K16">
         <v>3</v>
       </c>
       <c r="L16" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
       <c r="R16" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="U16">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>205</v>
+        <v>124</v>
       </c>
       <c r="D17" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E17" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G17" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I17" t="s">
-        <v>210</v>
+        <v>129</v>
       </c>
       <c r="J17" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="U17">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="C18" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D18" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E18" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G18" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H18" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I18" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J18" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R18" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="U18">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>233</v>
+        <v>123</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="C19" t="s">
         <v>234</v>
@@ -5104,7 +4292,7 @@
         <v>236</v>
       </c>
       <c r="F19">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G19" t="s">
         <v>237</v>
@@ -5119,19 +4307,19 @@
         <v>240</v>
       </c>
       <c r="K19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L19" t="s">
         <v>241</v>
       </c>
       <c r="M19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N19" t="s">
         <v>242</v>
       </c>
       <c r="O19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P19" t="s">
         <v>243</v>
@@ -5143,7 +4331,7 @@
         <v>244</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19" t="s">
         <v>245</v>
@@ -5152,5480 +4340,3852 @@
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>249</v>
       </c>
       <c r="D20" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E20" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G20" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="H20" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="I20" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="J20" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K20">
+        <v>4</v>
+      </c>
+      <c r="L20" t="s">
+        <v>256</v>
+      </c>
+      <c r="M20">
         <v>3</v>
       </c>
-      <c r="L20" t="s">
-        <v>252</v>
-      </c>
-      <c r="M20">
+      <c r="N20" t="s">
+        <v>257</v>
+      </c>
+      <c r="O20">
         <v>2</v>
       </c>
-      <c r="N20" t="s">
-        <v>253</v>
-      </c>
-      <c r="O20">
+      <c r="P20" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20" t="s">
+        <v>259</v>
+      </c>
+      <c r="S20">
         <v>1</v>
       </c>
-      <c r="P20" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20" t="s">
-        <v>255</v>
-      </c>
-      <c r="S20">
-        <v>3</v>
-      </c>
       <c r="T20" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="U20">
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E21" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F21">
         <v>9</v>
       </c>
       <c r="G21" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H21" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="I21" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="J21" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K21">
         <v>3</v>
       </c>
       <c r="L21" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M21">
         <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="O21">
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
       <c r="R21" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="S21">
         <v>3</v>
       </c>
       <c r="T21" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="U21">
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D22" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E22" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F22">
         <v>9</v>
       </c>
       <c r="G22" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H22" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="I22" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="J22" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="K22">
         <v>3</v>
       </c>
       <c r="L22" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="M22">
         <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="O22">
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
       <c r="R22" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="S22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T22" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="U22">
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="W22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E23" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F23">
         <v>9</v>
       </c>
       <c r="G23" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="H23" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="I23" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="J23" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K23">
         <v>3</v>
       </c>
       <c r="L23" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>293</v>
+      </c>
+      <c r="O23">
         <v>1</v>
       </c>
-      <c r="N23" t="s">
-        <v>291</v>
-      </c>
-      <c r="O23">
+      <c r="P23" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23" t="s">
+        <v>295</v>
+      </c>
+      <c r="S23">
         <v>2</v>
       </c>
-      <c r="P23" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23" t="s">
-        <v>293</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
       <c r="T23" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="U23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X23" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="B24" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E24" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F24">
         <v>9</v>
       </c>
       <c r="G24" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H24" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="I24" t="s">
-        <v>114</v>
+        <v>303</v>
       </c>
       <c r="J24" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="K24">
         <v>3</v>
       </c>
       <c r="L24" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="M24">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="O24">
         <v>2</v>
       </c>
       <c r="P24" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
       <c r="R24" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24" t="s">
+        <v>309</v>
+      </c>
+      <c r="U24">
         <v>3</v>
       </c>
-      <c r="T24" t="s">
-        <v>306</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
       <c r="V24" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="D25" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="E25" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F25">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G25" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="H25" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="I25" t="s">
-        <v>313</v>
+        <v>129</v>
       </c>
       <c r="J25" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K25">
         <v>3</v>
       </c>
       <c r="L25" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="O25">
         <v>2</v>
       </c>
       <c r="P25" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25" t="s">
+        <v>320</v>
+      </c>
+      <c r="S25">
         <v>3</v>
       </c>
-      <c r="R25" t="s">
-        <v>318</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
       <c r="T25" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="U25">
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>38</v>
+        <v>322</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25" t="s">
-        <v>39</v>
+        <v>323</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>320</v>
+        <v>42</v>
       </c>
       <c r="D26" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E26" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F26">
         <v>8</v>
       </c>
       <c r="G26" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="H26" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="I26" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="J26" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="K26">
         <v>3</v>
       </c>
       <c r="L26" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26" t="s">
+        <v>331</v>
+      </c>
+      <c r="O26">
         <v>2</v>
       </c>
-      <c r="N26" t="s">
-        <v>328</v>
-      </c>
-      <c r="O26">
-        <v>1</v>
-      </c>
       <c r="P26" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R26" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="S26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="U26">
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>332</v>
+        <v>54</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26" t="s">
-        <v>296</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="B27" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>335</v>
       </c>
       <c r="D27" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="E27" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="F27">
         <v>8</v>
       </c>
       <c r="G27" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="H27" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="I27" t="s">
-        <v>114</v>
+        <v>340</v>
       </c>
       <c r="J27" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="K27">
         <v>3</v>
       </c>
       <c r="L27" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="M27">
         <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="O27">
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Q27">
         <v>0</v>
       </c>
       <c r="R27" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="S27">
         <v>2</v>
       </c>
       <c r="T27" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="U27">
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27" t="s">
-        <v>344</v>
+        <v>311</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="B28" t="s">
         <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D28" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="E28" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G28" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="H28" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="I28" t="s">
-        <v>349</v>
+        <v>129</v>
       </c>
       <c r="J28" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="K28">
         <v>3</v>
       </c>
       <c r="L28" t="s">
-        <v>252</v>
+        <v>353</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="O28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>254</v>
+        <v>355</v>
       </c>
       <c r="Q28">
         <v>0</v>
       </c>
       <c r="R28" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="S28">
         <v>2</v>
       </c>
       <c r="T28" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="U28">
         <v>0</v>
       </c>
       <c r="V28" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="E29" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="F29">
         <v>7</v>
       </c>
       <c r="G29" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="H29" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="I29" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="J29" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="K29">
         <v>3</v>
       </c>
       <c r="L29" t="s">
-        <v>362</v>
+        <v>267</v>
       </c>
       <c r="M29">
         <v>0</v>
       </c>
       <c r="N29" t="s">
-        <v>227</v>
+        <v>366</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P29" t="s">
-        <v>363</v>
+        <v>269</v>
       </c>
       <c r="Q29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R29" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T29" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="U29">
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D30" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E30" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G30" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="H30" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="I30" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="J30" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="K30">
         <v>3</v>
       </c>
       <c r="L30" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="M30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N30" t="s">
-        <v>375</v>
+        <v>242</v>
       </c>
       <c r="O30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R30" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="U30">
         <v>0</v>
       </c>
       <c r="V30" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D31" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E31" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F31">
         <v>6</v>
       </c>
       <c r="G31" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="H31" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="I31" t="s">
-        <v>263</v>
+        <v>387</v>
       </c>
       <c r="J31" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="K31">
         <v>3</v>
       </c>
       <c r="L31" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M31">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>390</v>
+      </c>
+      <c r="O31">
         <v>1</v>
       </c>
-      <c r="N31" t="s">
-        <v>387</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
       <c r="P31" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Q31">
         <v>0</v>
       </c>
       <c r="R31" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="S31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T31" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="U31">
         <v>0</v>
       </c>
       <c r="V31" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D32" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="E32" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="F32">
         <v>6</v>
       </c>
       <c r="G32" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="H32" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="I32" t="s">
-        <v>397</v>
+        <v>278</v>
       </c>
       <c r="J32" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K32">
         <v>3</v>
       </c>
       <c r="L32" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>402</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32" t="s">
+        <v>404</v>
+      </c>
+      <c r="S32">
         <v>2</v>
       </c>
-      <c r="N32" t="s">
-        <v>400</v>
-      </c>
-      <c r="O32">
-        <v>1</v>
-      </c>
-      <c r="P32" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32" t="s">
-        <v>352</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
       <c r="T32" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="U32">
         <v>0</v>
       </c>
       <c r="V32" t="s">
-        <v>354</v>
+        <v>406</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32" t="s">
-        <v>355</v>
+        <v>407</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D33" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="E33" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="F33">
         <v>6</v>
       </c>
       <c r="G33" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="H33" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="I33" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="J33" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="K33">
         <v>3</v>
       </c>
       <c r="L33" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="M33">
         <v>2</v>
       </c>
       <c r="N33" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="O33">
         <v>1</v>
       </c>
       <c r="P33" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="Q33">
         <v>0</v>
       </c>
       <c r="R33" t="s">
-        <v>192</v>
+        <v>367</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33" t="s">
-        <v>192</v>
+        <v>417</v>
       </c>
       <c r="U33">
         <v>0</v>
       </c>
       <c r="V33" t="s">
-        <v>192</v>
+        <v>369</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33" t="s">
-        <v>192</v>
+        <v>370</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="B34" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>412</v>
+        <v>42</v>
       </c>
       <c r="D34" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="E34" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="F34">
         <v>6</v>
       </c>
       <c r="G34" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="H34" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="I34" t="s">
-        <v>114</v>
+        <v>422</v>
       </c>
       <c r="J34" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="K34">
         <v>3</v>
       </c>
       <c r="L34" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="M34">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>425</v>
+      </c>
+      <c r="O34">
         <v>1</v>
       </c>
-      <c r="N34" t="s">
-        <v>419</v>
-      </c>
-      <c r="O34">
-        <v>2</v>
-      </c>
       <c r="P34" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="Q34">
         <v>0</v>
       </c>
       <c r="R34" t="s">
-        <v>421</v>
+        <v>207</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="T34" t="s">
-        <v>422</v>
+        <v>207</v>
       </c>
       <c r="U34">
         <v>0</v>
       </c>
       <c r="V34" t="s">
-        <v>423</v>
+        <v>207</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34" t="s">
-        <v>424</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="B35" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="C35" t="s">
-        <v>26</v>
+        <v>427</v>
       </c>
       <c r="D35" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="E35" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="F35">
         <v>6</v>
       </c>
       <c r="G35" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="H35" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="I35" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="J35" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="K35">
         <v>3</v>
       </c>
       <c r="L35" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="M35">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="O35">
         <v>2</v>
       </c>
       <c r="P35" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="Q35">
         <v>0</v>
       </c>
       <c r="R35" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="U35">
         <v>0</v>
       </c>
       <c r="V35" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="B36" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="C36" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D36" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="E36" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="F36">
         <v>6</v>
       </c>
       <c r="G36" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="H36" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="I36" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="J36" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="K36">
         <v>3</v>
       </c>
       <c r="L36" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>446</v>
+      </c>
+      <c r="O36">
         <v>2</v>
       </c>
-      <c r="N36" t="s">
-        <v>443</v>
-      </c>
-      <c r="O36">
-        <v>1</v>
-      </c>
       <c r="P36" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="Q36">
         <v>0</v>
       </c>
       <c r="R36" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="U36">
         <v>0</v>
       </c>
       <c r="V36" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="B37" t="s">
         <v>25</v>
       </c>
       <c r="C37" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D37" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="E37" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="F37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G37" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="H37" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="I37" t="s">
-        <v>453</v>
+        <v>129</v>
       </c>
       <c r="J37" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="K37">
         <v>3</v>
       </c>
       <c r="L37" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="Q37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R37" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="U37">
         <v>0</v>
       </c>
       <c r="V37" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D38" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E38" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="F38">
         <v>5</v>
       </c>
       <c r="G38" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="H38" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="I38" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="J38" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="K38">
         <v>3</v>
       </c>
       <c r="L38" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="M38">
         <v>0</v>
       </c>
       <c r="N38" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q38">
         <v>2</v>
       </c>
-      <c r="P38" t="s">
-        <v>469</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
       <c r="R38" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="U38">
         <v>0</v>
       </c>
       <c r="V38" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D39" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="E39" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="F39">
         <v>5</v>
       </c>
       <c r="G39" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="H39" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="I39" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="J39" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="K39">
         <v>3</v>
       </c>
       <c r="L39" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="M39">
         <v>0</v>
       </c>
       <c r="N39" t="s">
-        <v>227</v>
+        <v>483</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P39" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="Q39">
         <v>0</v>
       </c>
       <c r="R39" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="S39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T39" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="U39">
         <v>0</v>
       </c>
       <c r="V39" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D40" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="E40" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="F40">
         <v>5</v>
       </c>
       <c r="G40" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H40" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="I40" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="J40" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="K40">
         <v>3</v>
       </c>
       <c r="L40" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="M40">
         <v>0</v>
       </c>
       <c r="N40" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="O40">
         <v>0</v>
       </c>
       <c r="P40" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40" t="s">
+        <v>496</v>
+      </c>
+      <c r="S40">
         <v>2</v>
       </c>
-      <c r="R40" t="s">
-        <v>491</v>
-      </c>
-      <c r="S40">
-        <v>0</v>
-      </c>
       <c r="T40" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="U40">
         <v>0</v>
       </c>
       <c r="V40" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D41" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="E41" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="F41">
         <v>5</v>
       </c>
       <c r="G41" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="H41" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="I41" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="J41" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="K41">
         <v>3</v>
       </c>
       <c r="L41" t="s">
+        <v>505</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41" t="s">
+        <v>242</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q41">
+        <v>2</v>
+      </c>
+      <c r="R41" t="s">
+        <v>506</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41" t="s">
+        <v>507</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41" t="s">
         <v>498</v>
       </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41" t="s">
-        <v>351</v>
-      </c>
-      <c r="O41">
-        <v>2</v>
-      </c>
-      <c r="P41" t="s">
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41" t="s">
         <v>499</v>
-      </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-      <c r="R41" t="s">
-        <v>352</v>
-      </c>
-      <c r="S41">
-        <v>0</v>
-      </c>
-      <c r="T41" t="s">
-        <v>402</v>
-      </c>
-      <c r="U41">
-        <v>0</v>
-      </c>
-      <c r="V41" t="s">
-        <v>354</v>
-      </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-      <c r="X41" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D42" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="E42" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="F42">
         <v>5</v>
       </c>
       <c r="G42" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="H42" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="I42" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="J42" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="K42">
         <v>3</v>
       </c>
       <c r="L42" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="M42">
         <v>0</v>
       </c>
       <c r="N42" t="s">
-        <v>506</v>
+        <v>366</v>
       </c>
       <c r="O42">
         <v>2</v>
       </c>
       <c r="P42" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="Q42">
         <v>0</v>
       </c>
       <c r="R42" t="s">
-        <v>508</v>
+        <v>367</v>
       </c>
       <c r="S42">
         <v>0</v>
       </c>
       <c r="T42" t="s">
-        <v>509</v>
+        <v>417</v>
       </c>
       <c r="U42">
         <v>0</v>
       </c>
       <c r="V42" t="s">
-        <v>510</v>
+        <v>369</v>
       </c>
       <c r="W42">
         <v>0</v>
       </c>
       <c r="X42" t="s">
-        <v>511</v>
+        <v>370</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="E43" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="F43">
         <v>5</v>
       </c>
       <c r="G43" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="H43" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="I43" t="s">
-        <v>263</v>
+        <v>468</v>
       </c>
       <c r="J43" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="K43">
         <v>3</v>
       </c>
       <c r="L43" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43" t="s">
+        <v>521</v>
+      </c>
+      <c r="O43">
         <v>2</v>
       </c>
-      <c r="N43" t="s">
-        <v>518</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
       <c r="P43" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="Q43">
         <v>0</v>
       </c>
       <c r="R43" t="s">
-        <v>481</v>
+        <v>523</v>
       </c>
       <c r="S43">
         <v>0</v>
       </c>
       <c r="T43" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="U43">
         <v>0</v>
       </c>
       <c r="V43" t="s">
-        <v>483</v>
+        <v>525</v>
       </c>
       <c r="W43">
         <v>0</v>
       </c>
       <c r="X43" t="s">
-        <v>484</v>
+        <v>526</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C44" t="s">
-        <v>521</v>
+        <v>42</v>
       </c>
       <c r="D44" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="E44" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="F44">
         <v>5</v>
       </c>
       <c r="G44" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H44" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="I44" t="s">
-        <v>526</v>
+        <v>278</v>
       </c>
       <c r="J44" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="K44">
         <v>3</v>
       </c>
       <c r="L44" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="M44">
         <v>2</v>
       </c>
       <c r="N44" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="O44">
         <v>0</v>
       </c>
       <c r="P44" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="Q44">
         <v>0</v>
       </c>
       <c r="R44" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="S44">
         <v>0</v>
       </c>
       <c r="T44" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="U44">
         <v>0</v>
       </c>
       <c r="V44" t="s">
-        <v>532</v>
+        <v>498</v>
       </c>
       <c r="W44">
         <v>0</v>
       </c>
       <c r="X44" t="s">
-        <v>533</v>
+        <v>499</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="B45" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="C45" t="s">
-        <v>26</v>
+        <v>536</v>
       </c>
       <c r="D45" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="E45" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="F45">
         <v>5</v>
       </c>
       <c r="G45" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="H45" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="I45" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="J45" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="K45">
         <v>3</v>
       </c>
       <c r="L45" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N45" t="s">
-        <v>192</v>
+        <v>544</v>
       </c>
       <c r="O45">
         <v>0</v>
       </c>
       <c r="P45" t="s">
-        <v>192</v>
+        <v>545</v>
       </c>
       <c r="Q45">
         <v>0</v>
       </c>
       <c r="R45" t="s">
-        <v>192</v>
+        <v>523</v>
       </c>
       <c r="S45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T45" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="U45">
         <v>0</v>
       </c>
       <c r="V45" t="s">
-        <v>192</v>
+        <v>547</v>
       </c>
       <c r="W45">
         <v>0</v>
       </c>
       <c r="X45" t="s">
-        <v>192</v>
+        <v>548</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="B46" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C46" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="D46" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="E46" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="F46">
         <v>5</v>
       </c>
       <c r="G46" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="H46" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="I46" t="s">
-        <v>114</v>
+        <v>553</v>
       </c>
       <c r="J46" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="K46">
         <v>3</v>
       </c>
       <c r="L46" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46" t="s">
+        <v>207</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46" t="s">
+        <v>207</v>
+      </c>
+      <c r="S46">
         <v>2</v>
       </c>
-      <c r="N46" t="s">
-        <v>548</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="s">
-        <v>549</v>
-      </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="R46" t="s">
-        <v>550</v>
-      </c>
-      <c r="S46">
-        <v>0</v>
-      </c>
       <c r="T46" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="U46">
         <v>0</v>
       </c>
       <c r="V46" t="s">
-        <v>552</v>
+        <v>207</v>
       </c>
       <c r="W46">
         <v>0</v>
       </c>
       <c r="X46" t="s">
-        <v>553</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="B47" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="C47" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="D47" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="E47" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="F47">
         <v>5</v>
       </c>
       <c r="G47" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="H47" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="I47" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="J47" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="K47">
         <v>3</v>
       </c>
       <c r="L47" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="M47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="O47">
         <v>0</v>
       </c>
       <c r="P47" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="Q47">
         <v>0</v>
       </c>
       <c r="R47" t="s">
-        <v>280</v>
+        <v>565</v>
       </c>
       <c r="S47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T47" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="U47">
         <v>0</v>
       </c>
       <c r="V47" t="s">
-        <v>282</v>
+        <v>567</v>
       </c>
       <c r="W47">
         <v>0</v>
       </c>
       <c r="X47" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="B48" t="s">
         <v>25</v>
       </c>
       <c r="C48" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="D48" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="E48" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="F48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G48" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="H48" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="I48" t="s">
-        <v>453</v>
+        <v>129</v>
       </c>
       <c r="J48" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="K48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L48" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="M48">
         <v>0</v>
       </c>
       <c r="N48" t="s">
-        <v>86</v>
+        <v>575</v>
       </c>
       <c r="O48">
         <v>0</v>
       </c>
       <c r="P48" t="s">
-        <v>86</v>
+        <v>576</v>
       </c>
       <c r="Q48">
         <v>0</v>
       </c>
       <c r="R48" t="s">
-        <v>86</v>
+        <v>295</v>
       </c>
       <c r="S48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T48" t="s">
-        <v>86</v>
+        <v>577</v>
       </c>
       <c r="U48">
         <v>0</v>
       </c>
       <c r="V48" t="s">
-        <v>86</v>
+        <v>297</v>
       </c>
       <c r="W48">
         <v>0</v>
       </c>
       <c r="X48" t="s">
-        <v>86</v>
+        <v>578</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="B49" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C49" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D49" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="E49" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="F49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G49" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="H49" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="I49" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="J49" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="K49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L49" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="M49">
         <v>0</v>
       </c>
       <c r="N49" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="O49">
         <v>0</v>
       </c>
       <c r="P49" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="Q49">
         <v>0</v>
       </c>
       <c r="R49" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="S49">
         <v>0</v>
       </c>
       <c r="T49" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="U49">
         <v>0</v>
       </c>
       <c r="V49" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="W49">
         <v>0</v>
       </c>
       <c r="X49" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="B50" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C50" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D50" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="E50" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="F50">
         <v>3</v>
       </c>
       <c r="G50" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="H50" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="I50" t="s">
-        <v>313</v>
+        <v>468</v>
       </c>
       <c r="J50" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="K50">
         <v>3</v>
       </c>
       <c r="L50" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="M50">
         <v>0</v>
       </c>
       <c r="N50" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="O50">
         <v>0</v>
       </c>
       <c r="P50" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="Q50">
         <v>0</v>
       </c>
       <c r="R50" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="S50">
         <v>0</v>
       </c>
       <c r="T50" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="U50">
         <v>0</v>
       </c>
       <c r="V50" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="W50">
         <v>0</v>
       </c>
       <c r="X50" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="B51" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C51" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D51" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="E51" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="F51">
         <v>3</v>
       </c>
       <c r="G51" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="H51" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="I51" t="s">
-        <v>586</v>
+        <v>328</v>
       </c>
       <c r="J51" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="K51">
         <v>3</v>
       </c>
       <c r="L51" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="M51">
         <v>0</v>
       </c>
       <c r="N51" t="s">
-        <v>589</v>
+        <v>102</v>
       </c>
       <c r="O51">
         <v>0</v>
       </c>
       <c r="P51" t="s">
-        <v>590</v>
+        <v>102</v>
       </c>
       <c r="Q51">
         <v>0</v>
       </c>
       <c r="R51" t="s">
-        <v>591</v>
+        <v>102</v>
       </c>
       <c r="S51">
         <v>0</v>
       </c>
       <c r="T51" t="s">
-        <v>592</v>
+        <v>102</v>
       </c>
       <c r="U51">
         <v>0</v>
       </c>
       <c r="V51" t="s">
-        <v>593</v>
+        <v>102</v>
       </c>
       <c r="W51">
         <v>0</v>
       </c>
       <c r="X51" t="s">
-        <v>594</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="B52" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C52" t="s">
-        <v>595</v>
+        <v>42</v>
       </c>
       <c r="D52" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="E52" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F52">
         <v>3</v>
       </c>
       <c r="G52" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H52" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="I52" t="s">
-        <v>453</v>
+        <v>601</v>
       </c>
       <c r="J52" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="K52">
         <v>3</v>
       </c>
       <c r="L52" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="M52">
         <v>0</v>
       </c>
       <c r="N52" t="s">
-        <v>86</v>
+        <v>604</v>
       </c>
       <c r="O52">
         <v>0</v>
       </c>
       <c r="P52" t="s">
-        <v>86</v>
+        <v>605</v>
       </c>
       <c r="Q52">
         <v>0</v>
       </c>
       <c r="R52" t="s">
-        <v>86</v>
+        <v>606</v>
       </c>
       <c r="S52">
         <v>0</v>
       </c>
       <c r="T52" t="s">
-        <v>86</v>
+        <v>607</v>
       </c>
       <c r="U52">
         <v>0</v>
       </c>
       <c r="V52" t="s">
-        <v>86</v>
+        <v>608</v>
       </c>
       <c r="W52">
         <v>0</v>
       </c>
       <c r="X52" t="s">
-        <v>86</v>
+        <v>609</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="B53" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C53" t="s">
-        <v>26</v>
+        <v>610</v>
       </c>
       <c r="D53" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="E53" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="F53">
         <v>3</v>
       </c>
       <c r="G53" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="H53" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="I53" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="J53" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="K53">
         <v>3</v>
       </c>
       <c r="L53" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="M53">
         <v>0</v>
       </c>
       <c r="N53" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="O53">
         <v>0</v>
       </c>
       <c r="P53" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="Q53">
         <v>0</v>
       </c>
       <c r="R53" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="S53">
         <v>0</v>
       </c>
       <c r="T53" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="U53">
         <v>0</v>
       </c>
       <c r="V53" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="W53">
         <v>0</v>
       </c>
       <c r="X53" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="B54" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C54" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D54" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="E54" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="F54">
         <v>3</v>
       </c>
       <c r="G54" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="H54" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="I54" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="J54" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="K54">
         <v>3</v>
       </c>
       <c r="L54" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="M54">
         <v>0</v>
       </c>
       <c r="N54" t="s">
-        <v>351</v>
+        <v>102</v>
       </c>
       <c r="O54">
         <v>0</v>
       </c>
       <c r="P54" t="s">
-        <v>614</v>
+        <v>102</v>
       </c>
       <c r="Q54">
         <v>0</v>
       </c>
       <c r="R54" t="s">
-        <v>352</v>
+        <v>102</v>
       </c>
       <c r="S54">
         <v>0</v>
       </c>
       <c r="T54" t="s">
-        <v>402</v>
+        <v>102</v>
       </c>
       <c r="U54">
         <v>0</v>
       </c>
       <c r="V54" t="s">
-        <v>354</v>
+        <v>102</v>
       </c>
       <c r="W54">
         <v>0</v>
       </c>
       <c r="X54" t="s">
-        <v>355</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>615</v>
+        <v>248</v>
       </c>
       <c r="B55" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C55" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D55" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="E55" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="F55">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G55" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="H55" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="I55" t="s">
-        <v>620</v>
+        <v>468</v>
       </c>
       <c r="J55" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="K55">
         <v>3</v>
       </c>
       <c r="L55" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="M55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N55" t="s">
-        <v>623</v>
+        <v>366</v>
       </c>
       <c r="O55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P55" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="Q55">
         <v>0</v>
       </c>
       <c r="R55" t="s">
-        <v>625</v>
+        <v>367</v>
       </c>
       <c r="S55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T55" t="s">
-        <v>626</v>
+        <v>417</v>
       </c>
       <c r="U55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V55" t="s">
-        <v>627</v>
+        <v>369</v>
       </c>
       <c r="W55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X55" t="s">
-        <v>628</v>
+        <v>370</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>615</v>
+        <v>630</v>
       </c>
       <c r="B56" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>629</v>
+        <v>42</v>
       </c>
       <c r="D56" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E56" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F56">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G56" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H56" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="I56" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="J56" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="K56">
         <v>3</v>
       </c>
       <c r="L56" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="M56">
         <v>2</v>
       </c>
       <c r="N56" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="O56">
         <v>1</v>
       </c>
       <c r="P56" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="Q56">
         <v>0</v>
       </c>
       <c r="R56" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="S56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T56" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="U56">
         <v>2</v>
       </c>
       <c r="V56" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="W56">
         <v>1</v>
       </c>
       <c r="X56" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>615</v>
+        <v>630</v>
       </c>
       <c r="B57" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>26</v>
+        <v>644</v>
       </c>
       <c r="D57" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="E57" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="F57">
         <v>9</v>
       </c>
       <c r="G57" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="H57" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="I57" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="J57" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="K57">
         <v>3</v>
       </c>
       <c r="L57" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="M57">
         <v>2</v>
       </c>
       <c r="N57" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="O57">
         <v>1</v>
       </c>
       <c r="P57" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="Q57">
         <v>0</v>
       </c>
       <c r="R57" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="S57">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T57" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="U57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V57" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="W57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X57" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>615</v>
+        <v>630</v>
       </c>
       <c r="B58" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C58" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D58" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="E58" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="F58">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G58" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="H58" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="I58" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="J58" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="K58">
+        <v>3</v>
+      </c>
+      <c r="L58" t="s">
+        <v>663</v>
+      </c>
+      <c r="M58">
         <v>2</v>
       </c>
-      <c r="L58" t="s">
-        <v>661</v>
-      </c>
-      <c r="M58">
+      <c r="N58" t="s">
+        <v>664</v>
+      </c>
+      <c r="O58">
         <v>1</v>
       </c>
-      <c r="N58" t="s">
-        <v>662</v>
-      </c>
-      <c r="O58">
+      <c r="P58" t="s">
+        <v>665</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58" t="s">
+        <v>666</v>
+      </c>
+      <c r="S58">
         <v>3</v>
       </c>
-      <c r="P58" t="s">
-        <v>663</v>
-      </c>
-      <c r="Q58">
-        <v>2</v>
-      </c>
-      <c r="R58" t="s">
-        <v>664</v>
-      </c>
-      <c r="S58">
-        <v>0</v>
-      </c>
       <c r="T58" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="U58">
         <v>0</v>
       </c>
       <c r="V58" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="W58">
         <v>0</v>
       </c>
       <c r="X58" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>615</v>
+        <v>630</v>
       </c>
       <c r="B59" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C59" t="s">
-        <v>668</v>
+        <v>42</v>
       </c>
       <c r="D59" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E59" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F59">
         <v>8</v>
       </c>
       <c r="G59" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H59" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="I59" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="J59" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="K59">
+        <v>2</v>
+      </c>
+      <c r="L59" t="s">
+        <v>676</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>677</v>
+      </c>
+      <c r="O59">
         <v>3</v>
       </c>
-      <c r="L59" t="s">
-        <v>675</v>
-      </c>
-      <c r="M59">
+      <c r="P59" t="s">
+        <v>678</v>
+      </c>
+      <c r="Q59">
         <v>2</v>
       </c>
-      <c r="N59" t="s">
-        <v>676</v>
-      </c>
-      <c r="O59">
-        <v>1</v>
-      </c>
-      <c r="P59" t="s">
-        <v>677</v>
-      </c>
-      <c r="Q59">
-        <v>0</v>
-      </c>
       <c r="R59" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="S59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T59" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="U59">
         <v>0</v>
       </c>
       <c r="V59" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="W59">
         <v>0</v>
       </c>
       <c r="X59" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>615</v>
+        <v>630</v>
       </c>
       <c r="B60" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C60" t="s">
-        <v>26</v>
+        <v>683</v>
       </c>
       <c r="D60" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="E60" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="F60">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G60" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="H60" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="I60" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="J60" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="K60">
+        <v>3</v>
+      </c>
+      <c r="L60" t="s">
+        <v>690</v>
+      </c>
+      <c r="M60">
         <v>2</v>
       </c>
-      <c r="L60" t="s">
-        <v>688</v>
-      </c>
-      <c r="M60">
+      <c r="N60" t="s">
+        <v>691</v>
+      </c>
+      <c r="O60">
         <v>1</v>
       </c>
-      <c r="N60" t="s">
-        <v>689</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
       <c r="P60" t="s">
-        <v>96</v>
+        <v>692</v>
       </c>
       <c r="Q60">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R60" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="S60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T60" t="s">
-        <v>98</v>
+        <v>694</v>
       </c>
       <c r="U60">
         <v>0</v>
       </c>
       <c r="V60" t="s">
-        <v>99</v>
+        <v>695</v>
       </c>
       <c r="W60">
         <v>0</v>
       </c>
       <c r="X60" t="s">
-        <v>100</v>
+        <v>696</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>615</v>
+        <v>630</v>
       </c>
       <c r="B61" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="C61" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D61" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="E61" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="F61">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G61" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="H61" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="I61" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="J61" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="K61">
+        <v>2</v>
+      </c>
+      <c r="L61" t="s">
+        <v>703</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>704</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q61">
         <v>3</v>
       </c>
-      <c r="L61" t="s">
-        <v>697</v>
-      </c>
-      <c r="M61">
-        <v>0</v>
-      </c>
-      <c r="N61" t="s">
-        <v>698</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="P61" t="s">
-        <v>699</v>
-      </c>
-      <c r="Q61">
-        <v>0</v>
-      </c>
       <c r="R61" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="S61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T61" t="s">
-        <v>701</v>
+        <v>114</v>
       </c>
       <c r="U61">
         <v>0</v>
       </c>
       <c r="V61" t="s">
-        <v>702</v>
+        <v>115</v>
       </c>
       <c r="W61">
         <v>0</v>
       </c>
       <c r="X61" t="s">
-        <v>703</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>615</v>
+        <v>630</v>
       </c>
       <c r="B62" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C62" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D62" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="E62" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="F62">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G62" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="H62" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="I62" t="s">
-        <v>659</v>
+        <v>710</v>
       </c>
       <c r="J62" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="K62">
+        <v>3</v>
+      </c>
+      <c r="L62" t="s">
+        <v>712</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62" t="s">
+        <v>713</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62" t="s">
+        <v>714</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62" t="s">
+        <v>715</v>
+      </c>
+      <c r="S62">
         <v>2</v>
       </c>
-      <c r="L62" t="s">
-        <v>688</v>
-      </c>
-      <c r="M62">
-        <v>1</v>
-      </c>
-      <c r="N62" t="s">
-        <v>709</v>
-      </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-      <c r="P62" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q62">
-        <v>1</v>
-      </c>
-      <c r="R62" t="s">
-        <v>690</v>
-      </c>
-      <c r="S62">
-        <v>0</v>
-      </c>
       <c r="T62" t="s">
-        <v>192</v>
+        <v>716</v>
       </c>
       <c r="U62">
         <v>0</v>
       </c>
       <c r="V62" t="s">
-        <v>192</v>
+        <v>717</v>
       </c>
       <c r="W62">
         <v>0</v>
       </c>
       <c r="X62" t="s">
-        <v>192</v>
+        <v>718</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>710</v>
+        <v>630</v>
       </c>
       <c r="B63" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C63" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D63" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="E63" t="s">
-        <v>712</v>
+        <v>720</v>
       </c>
       <c r="F63">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G63" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="H63" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="I63" t="s">
-        <v>646</v>
+        <v>674</v>
       </c>
       <c r="J63" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="K63">
         <v>2</v>
       </c>
       <c r="L63" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
       <c r="M63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N63" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="O63">
         <v>0</v>
       </c>
       <c r="P63" t="s">
-        <v>718</v>
+        <v>207</v>
       </c>
       <c r="Q63">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R63" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="S63">
         <v>0</v>
       </c>
       <c r="T63" t="s">
-        <v>720</v>
+        <v>207</v>
       </c>
       <c r="U63">
         <v>0</v>
       </c>
       <c r="V63" t="s">
-        <v>721</v>
+        <v>207</v>
       </c>
       <c r="W63">
         <v>0</v>
       </c>
       <c r="X63" t="s">
-        <v>722</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>710</v>
+        <v>725</v>
       </c>
       <c r="B64" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="C64" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D64" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="E64" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="F64">
         <v>6</v>
       </c>
       <c r="G64" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="H64" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="I64" t="s">
-        <v>727</v>
+        <v>661</v>
       </c>
       <c r="J64" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="K64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L64" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="M64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N64" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="O64">
         <v>0</v>
       </c>
       <c r="P64" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="Q64">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R64" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="S64">
         <v>0</v>
       </c>
       <c r="T64" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="U64">
         <v>0</v>
       </c>
       <c r="V64" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="W64">
         <v>0</v>
       </c>
       <c r="X64" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>710</v>
+        <v>725</v>
       </c>
       <c r="B65" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="C65" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D65" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="E65" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="F65">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G65" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="H65" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="I65" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="J65" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="K65">
         <v>3</v>
       </c>
       <c r="L65" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N65" t="s">
-        <v>316</v>
+        <v>745</v>
       </c>
       <c r="O65">
         <v>0</v>
       </c>
       <c r="P65" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="Q65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R65" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="S65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T65" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="U65">
         <v>0</v>
       </c>
       <c r="V65" t="s">
-        <v>38</v>
+        <v>749</v>
       </c>
       <c r="W65">
         <v>0</v>
       </c>
       <c r="X65" t="s">
-        <v>39</v>
+        <v>750</v>
       </c>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>746</v>
+        <v>725</v>
       </c>
       <c r="B66" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C66" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D66" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="E66" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="F66">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G66" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="H66" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="I66" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="J66" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="K66">
         <v>3</v>
       </c>
       <c r="L66" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="M66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N66" t="s">
-        <v>754</v>
+        <v>331</v>
       </c>
       <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66" t="s">
+        <v>758</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66" t="s">
+        <v>759</v>
+      </c>
+      <c r="S66">
         <v>2</v>
       </c>
-      <c r="P66" t="s">
-        <v>755</v>
-      </c>
-      <c r="Q66">
-        <v>0</v>
-      </c>
-      <c r="R66" t="s">
-        <v>756</v>
-      </c>
-      <c r="S66">
-        <v>3</v>
-      </c>
       <c r="T66" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="U66">
         <v>0</v>
       </c>
       <c r="V66" t="s">
-        <v>758</v>
+        <v>54</v>
       </c>
       <c r="W66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X66" t="s">
-        <v>759</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>746</v>
+        <v>761</v>
       </c>
       <c r="B67" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="C67" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D67" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="E67" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="F67">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G67" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="H67" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="I67" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="J67" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="K67">
         <v>3</v>
       </c>
       <c r="L67" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="M67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N67" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P67" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="Q67">
         <v>0</v>
       </c>
       <c r="R67" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="S67">
+        <v>3</v>
+      </c>
+      <c r="T67" t="s">
+        <v>772</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+      <c r="V67" t="s">
+        <v>773</v>
+      </c>
+      <c r="W67">
         <v>2</v>
       </c>
-      <c r="T67" t="s">
-        <v>770</v>
-      </c>
-      <c r="U67">
-        <v>0</v>
-      </c>
-      <c r="V67" t="s">
-        <v>771</v>
-      </c>
-      <c r="W67">
-        <v>0</v>
-      </c>
       <c r="X67" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>746</v>
+        <v>761</v>
       </c>
       <c r="B68" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="C68" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D68" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="E68" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="F68">
         <v>5</v>
       </c>
       <c r="G68" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="H68" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="I68" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="J68" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="K68">
         <v>3</v>
       </c>
       <c r="L68" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68" t="s">
+        <v>782</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68" t="s">
+        <v>783</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68" t="s">
+        <v>784</v>
+      </c>
+      <c r="S68">
         <v>2</v>
       </c>
-      <c r="N68" t="s">
-        <v>780</v>
-      </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
-      <c r="P68" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q68">
-        <v>0</v>
-      </c>
-      <c r="R68" t="s">
-        <v>192</v>
-      </c>
-      <c r="S68">
-        <v>0</v>
-      </c>
       <c r="T68" t="s">
-        <v>192</v>
+        <v>785</v>
       </c>
       <c r="U68">
         <v>0</v>
       </c>
       <c r="V68" t="s">
-        <v>192</v>
+        <v>786</v>
       </c>
       <c r="W68">
         <v>0</v>
       </c>
       <c r="X68" t="s">
-        <v>192</v>
+        <v>787</v>
       </c>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>781</v>
+        <v>761</v>
       </c>
       <c r="B69" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C69" t="s">
-        <v>782</v>
+        <v>42</v>
       </c>
       <c r="D69" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="E69" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="F69">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G69" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="H69" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="I69" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="J69" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="K69">
+        <v>3</v>
+      </c>
+      <c r="L69" t="s">
+        <v>794</v>
+      </c>
+      <c r="M69">
         <v>2</v>
       </c>
-      <c r="L69" t="s">
-        <v>789</v>
-      </c>
-      <c r="M69">
-        <v>3</v>
-      </c>
       <c r="N69" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="O69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P69" t="s">
-        <v>791</v>
+        <v>207</v>
       </c>
       <c r="Q69">
         <v>0</v>
       </c>
       <c r="R69" t="s">
-        <v>792</v>
+        <v>207</v>
       </c>
       <c r="S69">
         <v>0</v>
       </c>
       <c r="T69" t="s">
-        <v>793</v>
+        <v>207</v>
       </c>
       <c r="U69">
         <v>0</v>
       </c>
       <c r="V69" t="s">
-        <v>794</v>
+        <v>207</v>
       </c>
       <c r="W69">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X69" t="s">
-        <v>795</v>
+        <v>207</v>
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>781</v>
+        <v>796</v>
       </c>
       <c r="B70" t="s">
         <v>25</v>
       </c>
       <c r="C70" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="D70" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="E70" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="F70">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G70" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H70" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="I70" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="J70" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="K70">
+        <v>2</v>
+      </c>
+      <c r="L70" t="s">
+        <v>804</v>
+      </c>
+      <c r="M70">
         <v>3</v>
       </c>
-      <c r="L70" t="s">
-        <v>803</v>
-      </c>
-      <c r="M70">
-        <v>2</v>
-      </c>
       <c r="N70" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="O70">
         <v>1</v>
       </c>
       <c r="P70" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="Q70">
         <v>0</v>
       </c>
+      <c r="R70" t="s">
+        <v>807</v>
+      </c>
       <c r="S70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T70" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="U70">
         <v>0</v>
       </c>
+      <c r="V70" t="s">
+        <v>809</v>
+      </c>
       <c r="W70">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="X70" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>807</v>
+        <v>796</v>
       </c>
       <c r="B71" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C71" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="D71" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="E71" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="F71">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G71" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="H71" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="I71" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="J71" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="K71">
         <v>3</v>
       </c>
       <c r="L71" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="M71">
         <v>2</v>
       </c>
       <c r="N71" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="O71">
+        <v>1</v>
+      </c>
+      <c r="P71" t="s">
+        <v>820</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="S71">
         <v>2</v>
       </c>
-      <c r="P71" t="s">
-        <v>817</v>
-      </c>
-      <c r="Q71">
-        <v>1</v>
-      </c>
-      <c r="R71" t="s">
-        <v>818</v>
-      </c>
-      <c r="S71">
-        <v>1</v>
-      </c>
       <c r="T71" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="U71">
-        <v>1</v>
-      </c>
-      <c r="V71" t="s">
-        <v>820</v>
+        <v>0</v>
       </c>
       <c r="W71">
-        <v>3</v>
-      </c>
-      <c r="X71" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>807</v>
-      </c>
-      <c r="B72" t="s">
-        <v>25</v>
-      </c>
-      <c r="C72" t="s">
-        <v>822</v>
-      </c>
-      <c r="D72" t="s">
-        <v>823</v>
-      </c>
-      <c r="E72" t="s">
-        <v>824</v>
-      </c>
-      <c r="F72">
-        <v>12</v>
-      </c>
-      <c r="G72" t="s">
-        <v>825</v>
-      </c>
-      <c r="H72" t="s">
-        <v>826</v>
-      </c>
-      <c r="I72" t="s">
-        <v>827</v>
-      </c>
-      <c r="J72" t="s">
-        <v>828</v>
-      </c>
-      <c r="K72">
-        <v>3</v>
-      </c>
-      <c r="L72" t="s">
-        <v>829</v>
-      </c>
-      <c r="M72">
-        <v>2</v>
-      </c>
-      <c r="N72" t="s">
-        <v>830</v>
-      </c>
-      <c r="O72">
-        <v>2</v>
-      </c>
-      <c r="P72" t="s">
-        <v>831</v>
-      </c>
-      <c r="Q72">
-        <v>1</v>
-      </c>
-      <c r="R72" t="s">
-        <v>832</v>
-      </c>
-      <c r="S72">
-        <v>1</v>
-      </c>
-      <c r="T72" t="s">
-        <v>833</v>
-      </c>
-      <c r="U72">
-        <v>0</v>
-      </c>
-      <c r="V72" t="s">
-        <v>834</v>
-      </c>
-      <c r="W72">
-        <v>3</v>
-      </c>
-      <c r="X72" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>807</v>
-      </c>
-      <c r="B73" t="s">
-        <v>40</v>
-      </c>
-      <c r="C73" t="s">
-        <v>26</v>
-      </c>
-      <c r="D73" t="s">
-        <v>836</v>
-      </c>
-      <c r="E73" t="s">
-        <v>837</v>
-      </c>
-      <c r="F73">
-        <v>11</v>
-      </c>
-      <c r="G73" t="s">
-        <v>838</v>
-      </c>
-      <c r="H73" t="s">
-        <v>839</v>
-      </c>
-      <c r="I73" t="s">
-        <v>840</v>
-      </c>
-      <c r="J73" t="s">
-        <v>841</v>
-      </c>
-      <c r="K73">
-        <v>3</v>
-      </c>
-      <c r="L73" t="s">
-        <v>842</v>
-      </c>
-      <c r="M73">
-        <v>2</v>
-      </c>
-      <c r="N73" t="s">
-        <v>843</v>
-      </c>
-      <c r="O73">
-        <v>2</v>
-      </c>
-      <c r="P73" t="s">
-        <v>844</v>
-      </c>
-      <c r="Q73">
-        <v>1</v>
-      </c>
-      <c r="R73" t="s">
-        <v>845</v>
-      </c>
-      <c r="S73">
-        <v>1</v>
-      </c>
-      <c r="T73" t="s">
-        <v>846</v>
-      </c>
-      <c r="U73">
-        <v>1</v>
-      </c>
-      <c r="V73" t="s">
-        <v>847</v>
-      </c>
-      <c r="W73">
-        <v>1</v>
-      </c>
-      <c r="X73" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>807</v>
-      </c>
-      <c r="B74" t="s">
-        <v>87</v>
-      </c>
-      <c r="C74" t="s">
-        <v>849</v>
-      </c>
-      <c r="D74" t="s">
-        <v>850</v>
-      </c>
-      <c r="E74" t="s">
-        <v>851</v>
-      </c>
-      <c r="F74">
-        <v>10</v>
-      </c>
-      <c r="G74" t="s">
-        <v>852</v>
-      </c>
-      <c r="H74" t="s">
-        <v>853</v>
-      </c>
-      <c r="I74" t="s">
-        <v>854</v>
-      </c>
-      <c r="J74" t="s">
-        <v>855</v>
-      </c>
-      <c r="K74">
-        <v>3</v>
-      </c>
-      <c r="L74" t="s">
-        <v>856</v>
-      </c>
-      <c r="M74">
-        <v>2</v>
-      </c>
-      <c r="N74" t="s">
-        <v>857</v>
-      </c>
-      <c r="O74">
-        <v>1</v>
-      </c>
-      <c r="P74" t="s">
-        <v>858</v>
-      </c>
-      <c r="Q74">
-        <v>0</v>
-      </c>
-      <c r="R74" t="s">
-        <v>859</v>
-      </c>
-      <c r="S74">
-        <v>1</v>
-      </c>
-      <c r="T74" t="s">
-        <v>860</v>
-      </c>
-      <c r="U74">
-        <v>0</v>
-      </c>
-      <c r="V74" t="s">
-        <v>861</v>
-      </c>
-      <c r="W74">
-        <v>3</v>
-      </c>
-      <c r="X74" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>807</v>
-      </c>
-      <c r="B75" t="s">
-        <v>40</v>
-      </c>
-      <c r="C75" t="s">
-        <v>26</v>
-      </c>
-      <c r="D75" t="s">
-        <v>863</v>
-      </c>
-      <c r="E75" t="s">
-        <v>864</v>
-      </c>
-      <c r="F75">
-        <v>10</v>
-      </c>
-      <c r="G75" t="s">
-        <v>865</v>
-      </c>
-      <c r="H75" t="s">
-        <v>866</v>
-      </c>
-      <c r="I75" t="s">
-        <v>867</v>
-      </c>
-      <c r="J75" t="s">
-        <v>868</v>
-      </c>
-      <c r="K75">
-        <v>3</v>
-      </c>
-      <c r="L75" t="s">
-        <v>869</v>
-      </c>
-      <c r="M75">
-        <v>2</v>
-      </c>
-      <c r="N75" t="s">
-        <v>870</v>
-      </c>
-      <c r="O75">
-        <v>1</v>
-      </c>
-      <c r="P75" t="s">
-        <v>871</v>
-      </c>
-      <c r="Q75">
-        <v>4</v>
-      </c>
-      <c r="R75" t="s">
-        <v>872</v>
-      </c>
-      <c r="S75">
-        <v>0</v>
-      </c>
-      <c r="T75" t="s">
-        <v>873</v>
-      </c>
-      <c r="U75">
-        <v>0</v>
-      </c>
-      <c r="V75" t="s">
-        <v>874</v>
-      </c>
-      <c r="W75">
-        <v>0</v>
-      </c>
-      <c r="X75" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>807</v>
-      </c>
-      <c r="B76" t="s">
-        <v>40</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D76" t="s">
-        <v>876</v>
-      </c>
-      <c r="E76" t="s">
-        <v>877</v>
-      </c>
-      <c r="F76">
-        <v>10</v>
-      </c>
-      <c r="G76" t="s">
-        <v>878</v>
-      </c>
-      <c r="H76" t="s">
-        <v>879</v>
-      </c>
-      <c r="I76" t="s">
-        <v>880</v>
-      </c>
-      <c r="J76" t="s">
-        <v>881</v>
-      </c>
-      <c r="K76">
-        <v>3</v>
-      </c>
-      <c r="L76" t="s">
-        <v>882</v>
-      </c>
-      <c r="M76">
-        <v>2</v>
-      </c>
-      <c r="N76" t="s">
-        <v>883</v>
-      </c>
-      <c r="O76">
-        <v>4</v>
-      </c>
-      <c r="P76" t="s">
-        <v>884</v>
-      </c>
-      <c r="Q76">
-        <v>1</v>
-      </c>
-      <c r="R76" t="s">
-        <v>885</v>
-      </c>
-      <c r="S76">
-        <v>0</v>
-      </c>
-      <c r="T76" t="s">
-        <v>886</v>
-      </c>
-      <c r="U76">
-        <v>0</v>
-      </c>
-      <c r="V76" t="s">
-        <v>887</v>
-      </c>
-      <c r="W76">
-        <v>0</v>
-      </c>
-      <c r="X76" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>807</v>
-      </c>
-      <c r="B77" t="s">
-        <v>25</v>
-      </c>
-      <c r="C77" t="s">
-        <v>889</v>
-      </c>
-      <c r="D77" t="s">
-        <v>890</v>
-      </c>
-      <c r="E77" t="s">
-        <v>891</v>
-      </c>
-      <c r="F77">
-        <v>9</v>
-      </c>
-      <c r="G77" t="s">
-        <v>892</v>
-      </c>
-      <c r="H77" t="s">
-        <v>893</v>
-      </c>
-      <c r="I77" t="s">
-        <v>894</v>
-      </c>
-      <c r="J77" t="s">
-        <v>895</v>
-      </c>
-      <c r="K77">
-        <v>3</v>
-      </c>
-      <c r="L77" t="s">
-        <v>896</v>
-      </c>
-      <c r="M77">
-        <v>2</v>
-      </c>
-      <c r="N77" t="s">
-        <v>897</v>
-      </c>
-      <c r="O77">
-        <v>1</v>
-      </c>
-      <c r="P77" t="s">
-        <v>898</v>
-      </c>
-      <c r="Q77">
-        <v>0</v>
-      </c>
-      <c r="R77" t="s">
-        <v>899</v>
-      </c>
-      <c r="S77">
-        <v>2</v>
-      </c>
-      <c r="T77" t="s">
-        <v>900</v>
-      </c>
-      <c r="U77">
-        <v>0</v>
-      </c>
-      <c r="V77" t="s">
-        <v>901</v>
-      </c>
-      <c r="W77">
-        <v>1</v>
-      </c>
-      <c r="X77" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>807</v>
-      </c>
-      <c r="B78" t="s">
-        <v>40</v>
-      </c>
-      <c r="C78" t="s">
-        <v>903</v>
-      </c>
-      <c r="D78" t="s">
-        <v>904</v>
-      </c>
-      <c r="E78" t="s">
-        <v>905</v>
-      </c>
-      <c r="F78">
-        <v>9</v>
-      </c>
-      <c r="G78" t="s">
-        <v>906</v>
-      </c>
-      <c r="H78" t="s">
-        <v>907</v>
-      </c>
-      <c r="I78" t="s">
-        <v>908</v>
-      </c>
-      <c r="J78" t="s">
-        <v>909</v>
-      </c>
-      <c r="K78">
-        <v>4</v>
-      </c>
-      <c r="L78" t="s">
-        <v>910</v>
-      </c>
-      <c r="M78">
-        <v>3</v>
-      </c>
-      <c r="N78" t="s">
-        <v>911</v>
-      </c>
-      <c r="O78">
-        <v>2</v>
-      </c>
-      <c r="P78" t="s">
-        <v>912</v>
-      </c>
-      <c r="Q78">
-        <v>0</v>
-      </c>
-      <c r="R78" t="s">
-        <v>913</v>
-      </c>
-      <c r="S78">
-        <v>0</v>
-      </c>
-      <c r="T78" t="s">
-        <v>914</v>
-      </c>
-      <c r="U78">
-        <v>0</v>
-      </c>
-      <c r="V78" t="s">
-        <v>771</v>
-      </c>
-      <c r="W78">
-        <v>0</v>
-      </c>
-      <c r="X78" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>807</v>
-      </c>
-      <c r="B79" t="s">
-        <v>87</v>
-      </c>
-      <c r="C79" t="s">
-        <v>26</v>
-      </c>
-      <c r="D79" t="s">
-        <v>915</v>
-      </c>
-      <c r="E79" t="s">
-        <v>916</v>
-      </c>
-      <c r="F79">
-        <v>9</v>
-      </c>
-      <c r="G79" t="s">
-        <v>917</v>
-      </c>
-      <c r="H79" t="s">
-        <v>918</v>
-      </c>
-      <c r="I79" t="s">
-        <v>919</v>
-      </c>
-      <c r="J79" t="s">
-        <v>920</v>
-      </c>
-      <c r="K79">
-        <v>3</v>
-      </c>
-      <c r="L79" t="s">
-        <v>921</v>
-      </c>
-      <c r="M79">
-        <v>4</v>
-      </c>
-      <c r="N79" t="s">
-        <v>922</v>
-      </c>
-      <c r="O79">
-        <v>2</v>
-      </c>
-      <c r="P79" t="s">
-        <v>923</v>
-      </c>
-      <c r="Q79">
-        <v>0</v>
-      </c>
-      <c r="R79" t="s">
-        <v>678</v>
-      </c>
-      <c r="S79">
-        <v>0</v>
-      </c>
-      <c r="T79" t="s">
-        <v>924</v>
-      </c>
-      <c r="U79">
-        <v>0</v>
-      </c>
-      <c r="V79" t="s">
-        <v>925</v>
-      </c>
-      <c r="W79">
-        <v>0</v>
-      </c>
-      <c r="X79" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>807</v>
-      </c>
-      <c r="B80" t="s">
-        <v>40</v>
-      </c>
-      <c r="C80" t="s">
-        <v>927</v>
-      </c>
-      <c r="D80" t="s">
-        <v>928</v>
-      </c>
-      <c r="E80" t="s">
-        <v>929</v>
-      </c>
-      <c r="F80">
-        <v>9</v>
-      </c>
-      <c r="G80" t="s">
-        <v>930</v>
-      </c>
-      <c r="H80" t="s">
-        <v>931</v>
-      </c>
-      <c r="I80" t="s">
-        <v>932</v>
-      </c>
-      <c r="J80" t="s">
-        <v>933</v>
-      </c>
-      <c r="K80">
-        <v>3</v>
-      </c>
-      <c r="L80" t="s">
-        <v>934</v>
-      </c>
-      <c r="M80">
-        <v>2</v>
-      </c>
-      <c r="N80" t="s">
-        <v>935</v>
-      </c>
-      <c r="O80">
-        <v>1</v>
-      </c>
-      <c r="P80" t="s">
-        <v>936</v>
-      </c>
-      <c r="Q80">
-        <v>0</v>
-      </c>
-      <c r="R80" t="s">
-        <v>937</v>
-      </c>
-      <c r="S80">
-        <v>0</v>
-      </c>
-      <c r="T80" t="s">
-        <v>938</v>
-      </c>
-      <c r="U80">
-        <v>0</v>
-      </c>
-      <c r="V80" t="s">
-        <v>939</v>
-      </c>
-      <c r="W80">
-        <v>3</v>
-      </c>
-      <c r="X80" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>807</v>
-      </c>
-      <c r="B81" t="s">
-        <v>87</v>
-      </c>
-      <c r="C81" t="s">
-        <v>26</v>
-      </c>
-      <c r="D81" t="s">
-        <v>941</v>
-      </c>
-      <c r="E81" t="s">
-        <v>942</v>
-      </c>
-      <c r="F81">
-        <v>8</v>
-      </c>
-      <c r="G81" t="s">
-        <v>943</v>
-      </c>
-      <c r="H81" t="s">
-        <v>944</v>
-      </c>
-      <c r="I81" t="s">
-        <v>945</v>
-      </c>
-      <c r="J81" t="s">
-        <v>946</v>
-      </c>
-      <c r="K81">
-        <v>3</v>
-      </c>
-      <c r="L81" t="s">
-        <v>947</v>
-      </c>
-      <c r="M81">
-        <v>2</v>
-      </c>
-      <c r="N81" t="s">
-        <v>948</v>
-      </c>
-      <c r="O81">
-        <v>1</v>
-      </c>
-      <c r="P81" t="s">
-        <v>949</v>
-      </c>
-      <c r="Q81">
-        <v>0</v>
-      </c>
-      <c r="R81" t="s">
-        <v>913</v>
-      </c>
-      <c r="S81">
-        <v>2</v>
-      </c>
-      <c r="T81" t="s">
-        <v>950</v>
-      </c>
-      <c r="U81">
-        <v>0</v>
-      </c>
-      <c r="V81" t="s">
-        <v>771</v>
-      </c>
-      <c r="W81">
-        <v>0</v>
-      </c>
-      <c r="X81" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>807</v>
-      </c>
-      <c r="B82" t="s">
-        <v>40</v>
-      </c>
-      <c r="C82" t="s">
-        <v>952</v>
-      </c>
-      <c r="D82" t="s">
-        <v>953</v>
-      </c>
-      <c r="E82" t="s">
-        <v>954</v>
-      </c>
-      <c r="F82">
-        <v>7</v>
-      </c>
-      <c r="G82" t="s">
-        <v>955</v>
-      </c>
-      <c r="H82" t="s">
-        <v>956</v>
-      </c>
-      <c r="I82" t="s">
-        <v>908</v>
-      </c>
-      <c r="J82" t="s">
-        <v>957</v>
-      </c>
-      <c r="K82">
-        <v>3</v>
-      </c>
-      <c r="L82" t="s">
-        <v>958</v>
-      </c>
-      <c r="M82">
-        <v>2</v>
-      </c>
-      <c r="N82" t="s">
-        <v>959</v>
-      </c>
-      <c r="O82">
-        <v>1</v>
-      </c>
-      <c r="P82" t="s">
-        <v>960</v>
-      </c>
-      <c r="Q82">
-        <v>0</v>
-      </c>
-      <c r="R82" t="s">
-        <v>961</v>
-      </c>
-      <c r="S82">
-        <v>1</v>
-      </c>
-      <c r="T82" t="s">
-        <v>962</v>
-      </c>
-      <c r="U82">
-        <v>0</v>
-      </c>
-      <c r="V82" t="s">
-        <v>343</v>
-      </c>
-      <c r="W82">
-        <v>0</v>
-      </c>
-      <c r="X82" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>807</v>
-      </c>
-      <c r="B83" t="s">
-        <v>40</v>
-      </c>
-      <c r="C83" t="s">
-        <v>952</v>
-      </c>
-      <c r="D83" t="s">
-        <v>964</v>
-      </c>
-      <c r="E83" t="s">
-        <v>965</v>
-      </c>
-      <c r="F83">
-        <v>6</v>
-      </c>
-      <c r="G83" t="s">
-        <v>966</v>
-      </c>
-      <c r="H83" t="s">
-        <v>967</v>
-      </c>
-      <c r="I83" t="s">
-        <v>968</v>
-      </c>
-      <c r="J83" t="s">
-        <v>969</v>
-      </c>
-      <c r="K83">
-        <v>3</v>
-      </c>
-      <c r="L83" t="s">
-        <v>970</v>
-      </c>
-      <c r="M83">
-        <v>2</v>
-      </c>
-      <c r="N83" t="s">
-        <v>971</v>
-      </c>
-      <c r="O83">
-        <v>1</v>
-      </c>
-      <c r="P83" t="s">
-        <v>972</v>
-      </c>
-      <c r="Q83">
-        <v>0</v>
-      </c>
-      <c r="R83" t="s">
-        <v>973</v>
-      </c>
-      <c r="S83">
-        <v>0</v>
-      </c>
-      <c r="T83" t="s">
-        <v>974</v>
-      </c>
-      <c r="U83">
-        <v>0</v>
-      </c>
-      <c r="V83" t="s">
-        <v>975</v>
-      </c>
-      <c r="W83">
-        <v>0</v>
-      </c>
-      <c r="X83" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>807</v>
-      </c>
-      <c r="B84" t="s">
-        <v>87</v>
-      </c>
-      <c r="C84" t="s">
-        <v>977</v>
-      </c>
-      <c r="D84" t="s">
-        <v>978</v>
-      </c>
-      <c r="E84" t="s">
-        <v>979</v>
-      </c>
-      <c r="F84">
-        <v>6</v>
-      </c>
-      <c r="G84" t="s">
-        <v>980</v>
-      </c>
-      <c r="H84" t="s">
-        <v>981</v>
-      </c>
-      <c r="I84" t="s">
-        <v>982</v>
-      </c>
-      <c r="J84" t="s">
-        <v>983</v>
-      </c>
-      <c r="K84">
-        <v>3</v>
-      </c>
-      <c r="L84" t="s">
-        <v>984</v>
-      </c>
-      <c r="M84">
-        <v>2</v>
-      </c>
-      <c r="N84" t="s">
-        <v>985</v>
-      </c>
-      <c r="O84">
-        <v>1</v>
-      </c>
-      <c r="P84" t="s">
-        <v>986</v>
-      </c>
-      <c r="Q84">
-        <v>0</v>
-      </c>
-      <c r="R84" t="s">
-        <v>899</v>
-      </c>
-      <c r="S84">
-        <v>0</v>
-      </c>
-      <c r="T84" t="s">
-        <v>459</v>
-      </c>
-      <c r="U84">
-        <v>0</v>
-      </c>
-      <c r="V84" t="s">
-        <v>332</v>
-      </c>
-      <c r="W84">
-        <v>0</v>
-      </c>
-      <c r="X84" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>807</v>
-      </c>
-      <c r="B85" t="s">
-        <v>40</v>
-      </c>
-      <c r="C85" t="s">
-        <v>927</v>
-      </c>
-      <c r="D85" t="s">
-        <v>987</v>
-      </c>
-      <c r="E85" t="s">
-        <v>988</v>
-      </c>
-      <c r="F85">
-        <v>6</v>
-      </c>
-      <c r="G85" t="s">
-        <v>989</v>
-      </c>
-      <c r="H85" t="s">
-        <v>990</v>
-      </c>
-      <c r="I85" t="s">
-        <v>991</v>
-      </c>
-      <c r="J85" t="s">
-        <v>992</v>
-      </c>
-      <c r="K85">
-        <v>3</v>
-      </c>
-      <c r="L85" t="s">
-        <v>993</v>
-      </c>
-      <c r="M85">
-        <v>2</v>
-      </c>
-      <c r="N85" t="s">
-        <v>994</v>
-      </c>
-      <c r="O85">
-        <v>1</v>
-      </c>
-      <c r="P85" t="s">
-        <v>995</v>
-      </c>
-      <c r="Q85">
-        <v>0</v>
-      </c>
-      <c r="R85" t="s">
-        <v>996</v>
-      </c>
-      <c r="S85">
-        <v>0</v>
-      </c>
-      <c r="T85" t="s">
-        <v>997</v>
-      </c>
-      <c r="U85">
-        <v>0</v>
-      </c>
-      <c r="V85" t="s">
-        <v>998</v>
-      </c>
-      <c r="W85">
-        <v>0</v>
-      </c>
-      <c r="X85" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>807</v>
-      </c>
-      <c r="B86" t="s">
-        <v>40</v>
-      </c>
-      <c r="C86" t="s">
-        <v>234</v>
-      </c>
-      <c r="D86" t="s">
-        <v>1000</v>
-      </c>
-      <c r="E86" t="s">
-        <v>1001</v>
-      </c>
-      <c r="F86">
-        <v>6</v>
-      </c>
-      <c r="G86" t="s">
-        <v>1002</v>
-      </c>
-      <c r="H86" t="s">
-        <v>1003</v>
-      </c>
-      <c r="I86" t="s">
-        <v>1004</v>
-      </c>
-      <c r="J86" t="s">
-        <v>1005</v>
-      </c>
-      <c r="K86">
-        <v>3</v>
-      </c>
-      <c r="L86" t="s">
-        <v>1006</v>
-      </c>
-      <c r="M86">
-        <v>2</v>
-      </c>
-      <c r="N86" t="s">
-        <v>1007</v>
-      </c>
-      <c r="O86">
-        <v>1</v>
-      </c>
-      <c r="P86" t="s">
-        <v>1008</v>
-      </c>
-      <c r="Q86">
-        <v>0</v>
-      </c>
-      <c r="R86" t="s">
-        <v>1009</v>
-      </c>
-      <c r="S86">
-        <v>0</v>
-      </c>
-      <c r="T86" t="s">
-        <v>1010</v>
-      </c>
-      <c r="U86">
-        <v>0</v>
-      </c>
-      <c r="V86" t="s">
-        <v>1011</v>
-      </c>
-      <c r="W86">
-        <v>0</v>
-      </c>
-      <c r="X86" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>807</v>
-      </c>
-      <c r="B87" t="s">
-        <v>40</v>
-      </c>
-      <c r="C87" t="s">
-        <v>26</v>
-      </c>
-      <c r="D87" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E87" t="s">
-        <v>1014</v>
-      </c>
-      <c r="F87">
-        <v>6</v>
-      </c>
-      <c r="G87" t="s">
-        <v>1015</v>
-      </c>
-      <c r="H87" t="s">
-        <v>1016</v>
-      </c>
-      <c r="I87" t="s">
-        <v>1017</v>
-      </c>
-      <c r="J87" t="s">
-        <v>1018</v>
-      </c>
-      <c r="K87">
-        <v>3</v>
-      </c>
-      <c r="L87" t="s">
-        <v>1019</v>
-      </c>
-      <c r="M87">
-        <v>2</v>
-      </c>
-      <c r="N87" t="s">
-        <v>1020</v>
-      </c>
-      <c r="O87">
-        <v>1</v>
-      </c>
-      <c r="P87" t="s">
-        <v>1021</v>
-      </c>
-      <c r="Q87">
-        <v>0</v>
-      </c>
-      <c r="R87" t="s">
-        <v>1022</v>
-      </c>
-      <c r="S87">
-        <v>0</v>
-      </c>
-      <c r="T87" t="s">
-        <v>1023</v>
-      </c>
-      <c r="U87">
-        <v>0</v>
-      </c>
-      <c r="V87" t="s">
-        <v>1024</v>
-      </c>
-      <c r="W87">
-        <v>0</v>
-      </c>
-      <c r="X87" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>807</v>
-      </c>
-      <c r="B88" t="s">
-        <v>40</v>
-      </c>
-      <c r="C88" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D88" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E88" t="s">
-        <v>1028</v>
-      </c>
-      <c r="F88">
-        <v>5</v>
-      </c>
-      <c r="G88" t="s">
-        <v>1029</v>
-      </c>
-      <c r="H88" t="s">
-        <v>1030</v>
-      </c>
-      <c r="I88" t="s">
-        <v>1031</v>
-      </c>
-      <c r="J88" t="s">
-        <v>1032</v>
-      </c>
-      <c r="K88">
-        <v>3</v>
-      </c>
-      <c r="L88" t="s">
-        <v>1033</v>
-      </c>
-      <c r="M88">
-        <v>2</v>
-      </c>
-      <c r="N88" t="s">
-        <v>1034</v>
-      </c>
-      <c r="O88">
-        <v>0</v>
-      </c>
-      <c r="P88" t="s">
-        <v>1035</v>
-      </c>
-      <c r="Q88">
-        <v>0</v>
-      </c>
-      <c r="R88" t="s">
-        <v>1036</v>
-      </c>
-      <c r="S88">
-        <v>0</v>
-      </c>
-      <c r="T88" t="s">
-        <v>1037</v>
-      </c>
-      <c r="U88">
-        <v>0</v>
-      </c>
-      <c r="V88" t="s">
-        <v>1038</v>
-      </c>
-      <c r="W88">
-        <v>0</v>
-      </c>
-      <c r="X88" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>807</v>
-      </c>
-      <c r="B89" t="s">
-        <v>40</v>
-      </c>
-      <c r="C89" t="s">
-        <v>927</v>
-      </c>
-      <c r="D89" t="s">
-        <v>1040</v>
-      </c>
-      <c r="E89" t="s">
-        <v>1041</v>
-      </c>
-      <c r="F89">
-        <v>5</v>
-      </c>
-      <c r="G89" t="s">
-        <v>1042</v>
-      </c>
-      <c r="H89" t="s">
-        <v>1043</v>
-      </c>
-      <c r="I89" t="s">
-        <v>1044</v>
-      </c>
-      <c r="J89" t="s">
-        <v>1045</v>
-      </c>
-      <c r="K89">
-        <v>3</v>
-      </c>
-      <c r="L89" t="s">
-        <v>1046</v>
-      </c>
-      <c r="M89">
-        <v>2</v>
-      </c>
-      <c r="N89" t="s">
-        <v>1047</v>
-      </c>
-      <c r="O89">
-        <v>0</v>
-      </c>
-      <c r="P89" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q89">
-        <v>0</v>
-      </c>
-      <c r="R89" t="s">
-        <v>97</v>
-      </c>
-      <c r="S89">
-        <v>0</v>
-      </c>
-      <c r="T89" t="s">
-        <v>98</v>
-      </c>
-      <c r="U89">
-        <v>0</v>
-      </c>
-      <c r="V89" t="s">
-        <v>99</v>
-      </c>
-      <c r="W89">
-        <v>0</v>
-      </c>
-      <c r="X89" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>807</v>
-      </c>
-      <c r="B90" t="s">
-        <v>40</v>
-      </c>
-      <c r="C90" t="s">
-        <v>1048</v>
-      </c>
-      <c r="D90" t="s">
-        <v>1049</v>
-      </c>
-      <c r="E90" t="s">
-        <v>1050</v>
-      </c>
-      <c r="F90">
-        <v>5</v>
-      </c>
-      <c r="G90" t="s">
-        <v>1051</v>
-      </c>
-      <c r="H90" t="s">
-        <v>1052</v>
-      </c>
-      <c r="I90" t="s">
-        <v>1053</v>
-      </c>
-      <c r="J90" t="s">
-        <v>1054</v>
-      </c>
-      <c r="K90">
-        <v>3</v>
-      </c>
-      <c r="L90" t="s">
-        <v>1055</v>
-      </c>
-      <c r="M90">
-        <v>2</v>
-      </c>
-      <c r="N90" t="s">
-        <v>1056</v>
-      </c>
-      <c r="O90">
-        <v>0</v>
-      </c>
-      <c r="P90" t="s">
-        <v>1035</v>
-      </c>
-      <c r="Q90">
-        <v>0</v>
-      </c>
-      <c r="R90" t="s">
-        <v>1036</v>
-      </c>
-      <c r="S90">
-        <v>0</v>
-      </c>
-      <c r="T90" t="s">
-        <v>1037</v>
-      </c>
-      <c r="U90">
-        <v>0</v>
-      </c>
-      <c r="V90" t="s">
-        <v>1038</v>
-      </c>
-      <c r="W90">
-        <v>0</v>
-      </c>
-      <c r="X90" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>807</v>
-      </c>
-      <c r="B91" t="s">
-        <v>108</v>
-      </c>
-      <c r="C91" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D91" t="s">
-        <v>1058</v>
-      </c>
-      <c r="E91" t="s">
-        <v>1059</v>
-      </c>
-      <c r="F91">
-        <v>5</v>
-      </c>
-      <c r="G91" t="s">
-        <v>1060</v>
-      </c>
-      <c r="H91" t="s">
-        <v>1061</v>
-      </c>
-      <c r="I91" t="s">
-        <v>114</v>
-      </c>
-      <c r="J91" t="s">
-        <v>1062</v>
-      </c>
-      <c r="K91">
-        <v>3</v>
-      </c>
-      <c r="L91" t="s">
-        <v>1063</v>
-      </c>
-      <c r="M91">
-        <v>0</v>
-      </c>
-      <c r="N91" t="s">
-        <v>86</v>
-      </c>
-      <c r="O91">
-        <v>2</v>
-      </c>
-      <c r="P91" t="s">
-        <v>1064</v>
-      </c>
-      <c r="Q91">
-        <v>0</v>
-      </c>
-      <c r="R91" t="s">
-        <v>86</v>
-      </c>
-      <c r="S91">
-        <v>0</v>
-      </c>
-      <c r="T91" t="s">
-        <v>86</v>
-      </c>
-      <c r="U91">
-        <v>0</v>
-      </c>
-      <c r="V91" t="s">
-        <v>86</v>
-      </c>
-      <c r="W91">
-        <v>0</v>
-      </c>
-      <c r="X91" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>807</v>
-      </c>
-      <c r="B92" t="s">
-        <v>87</v>
-      </c>
-      <c r="C92" t="s">
-        <v>219</v>
-      </c>
-      <c r="D92" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E92" t="s">
-        <v>1066</v>
-      </c>
-      <c r="F92">
-        <v>4</v>
-      </c>
-      <c r="G92" t="s">
-        <v>1067</v>
-      </c>
-      <c r="H92" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I92" t="s">
-        <v>1069</v>
-      </c>
-      <c r="J92" t="s">
-        <v>1070</v>
-      </c>
-      <c r="K92">
-        <v>3</v>
-      </c>
-      <c r="L92" t="s">
-        <v>1071</v>
-      </c>
-      <c r="M92">
-        <v>1</v>
-      </c>
-      <c r="N92" t="s">
-        <v>1072</v>
-      </c>
-      <c r="O92">
-        <v>0</v>
-      </c>
-      <c r="P92" t="s">
-        <v>1073</v>
-      </c>
-      <c r="Q92">
-        <v>0</v>
-      </c>
-      <c r="R92" t="s">
-        <v>1074</v>
-      </c>
-      <c r="S92">
-        <v>0</v>
-      </c>
-      <c r="T92" t="s">
-        <v>1075</v>
-      </c>
-      <c r="U92">
-        <v>0</v>
-      </c>
-      <c r="V92" t="s">
-        <v>1076</v>
-      </c>
-      <c r="W92">
-        <v>0</v>
-      </c>
-      <c r="X92" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>807</v>
-      </c>
-      <c r="B93" t="s">
-        <v>87</v>
-      </c>
-      <c r="C93" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D93" t="s">
-        <v>1079</v>
-      </c>
-      <c r="E93" t="s">
-        <v>1080</v>
-      </c>
-      <c r="F93">
-        <v>3</v>
-      </c>
-      <c r="G93" t="s">
-        <v>1081</v>
-      </c>
-      <c r="H93" t="s">
-        <v>1082</v>
-      </c>
-      <c r="I93" t="s">
-        <v>1083</v>
-      </c>
-      <c r="J93" t="s">
-        <v>1084</v>
-      </c>
-      <c r="K93">
-        <v>2</v>
-      </c>
-      <c r="L93" t="s">
-        <v>1085</v>
-      </c>
-      <c r="M93">
-        <v>0</v>
-      </c>
-      <c r="N93" t="s">
-        <v>77</v>
-      </c>
-      <c r="O93">
-        <v>1</v>
-      </c>
-      <c r="P93" t="s">
-        <v>1086</v>
-      </c>
-      <c r="Q93">
-        <v>0</v>
-      </c>
-      <c r="R93" t="s">
-        <v>77</v>
-      </c>
-      <c r="S93">
-        <v>0</v>
-      </c>
-      <c r="T93" t="s">
-        <v>77</v>
-      </c>
-      <c r="U93">
-        <v>0</v>
-      </c>
-      <c r="V93" t="s">
-        <v>77</v>
-      </c>
-      <c r="W93">
-        <v>0</v>
-      </c>
-      <c r="X93" t="s">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/resource/04_UPLOAD.xlsx
+++ b/resource/04_UPLOAD.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="866">
   <si>
     <t>날짜</t>
   </si>
@@ -102,6 +102,144 @@
     <t>농협</t>
   </si>
   <si>
+    <t>['퇴직금 제도', '희망퇴직 퇴직금', '명예퇴직 퇴직금']</t>
+  </si>
+  <si>
+    <t>기술과 디지털화에 대한 내용이 없음</t>
+  </si>
+  <si>
+    <t>소비 행동 및 요구사항에 대한 내용이 없음</t>
+  </si>
+  <si>
+    <t>퇴직연금 제도</t>
+  </si>
+  <si>
+    <t>삼성운용</t>
+  </si>
+  <si>
+    <t>삼성운용, 월배당 'KODEX 미국배당프리미엄 액티브' 보수 인하</t>
+  </si>
+  <si>
+    <t>삼성자산운용은 KODEX 미국배당프리미엄액티브 ETF의 보수를 연 0.19로 인하한다고 밝혔다. 이 ETF는 배당성장주에 투자하며, 커버드콜 전략을 활용하여 안정적인 월배당금을 지급한다.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/008/0004948319?sid=101</t>
+  </si>
+  <si>
+    <t>삼성자산운용은 13일 미국 배당주에 투자하는 국내 투자자를 위해 KODEX 미국배당프리미엄액티브 ETF의 보수를 업계 최저 수준인 연 0.19로 인하한다고 밝혔다.KODEX 미국배당프리미엄 액티브 ETF는 기존 연 0.43의 총 보수를 연 0.19로 낮추면서 투자자들의 이익을 높이게 됐다. 연 0.19는 미국 주식을 기반으로 커버드콜 전략을 활용하는 국내 월배당 ETF 중 가장 낮은 보수다.지난해 9월 27일 상장한 KODEX 미국배당프리미엄 액티브는 미국 운용사 앰플리파이 Amplify의 대표적인 메가히트 ETF인 DIVO ETF AMPLIFY CWP 인핸스드 디비던드 인컴 ETF를 국내 투자 환경에 맞춰 현지화한 상품이다. 미국 SP500 종목 중 유나이티드헬스그룹 비자 쉐브론 마이크로소프트 애플 PG JP모건 골드만삭스 월마트 머크 등처럼 배당을 장기간 늘려온 우량 배당성장주를 선별해 투자함으로써 IT 금융 헬스케어 소비재 산업재 에너지 등 다양한 업종에 분산투자한다. KODEX 미국배당프리미엄 액티브에 투자하면 미국 현지 DIVO ETF의 총 보수인 연 0.55보다 낮은 연 0.19로 투자할 수 있기 때문에 효율적이다.특히 이 ETF는 기계적인 커버드콜 방식 대신 시장 상황에 따라 개별 종목 중 일부를 선별해 탄력적으로 커버드콜을 적용한다. 배당성장주의 변동성 낮은 시세 차익과 함께 상대적으로 더 많은 월배당금을 안정적으로 지급하기 위해 투자 대상 기업의 배당 외에 포트폴리오의 20 가량 종목에 대해 특정 가격에 종목 또는 지수를 살 수 있는 권리 콜옵션를 매도하는 전략 커버드콜을 사용해 추가적인 배당 재원을 마련하고 있다. KODEX 미국배당프리미엄 액티브는 작년 9월 상장 이후 매월 1주당 50원 이상 연평균 6.3 수준의 현금 배당을 꾸준히 지급하고 있다. 상장 이후 수익률은 배당 포함 5.78를 기록했다. 투자자가 1억원을 투자했다면 세전 월평균 약 52만원 정도를 지속적으로 지급받고 있는 셈이다. 또한 2023년에는 매월 0.5 이상으로 분배금을 지급해 투자자들의 호평을 받고 있다.정재욱 삼성자산운용 ETF운용3팀장은 시장 변동성이 높은 상황에서 안정적이고 장기적인 투자 수요가 늘고 있어 투자자들을 위해 이번 보수 인하를 결정했다며 KODEX 미국배당프리미엄 액티브는 현금 흐름을 동반한 안정적인 투자를 원하는 장기 투자자 또는 연금투자자들에게 추천할 만한 ETF로 업계 최저 수준의 보수를 통해 보다 효율적인 투자를 하실 수 있도록 상품 경쟁력을 높일 예정이라고 말했다.KODEX 미국 배당프리미엄 액티브 ETF를 포함한 월배당 지급식 상품은 연금저축 또는 IRP를 포함한 퇴직연금 계좌를 통해 장기 투자할 경우 배당 유입금에 대해 과세 이연 효과를 누릴 수 있다. 만 55세 이후 인출 조건에 해당될 경우 분리 과세 15.4 보다 크게 낮은 3.35.5의 연금소득세를 적용받을 수 있다.</t>
+  </si>
+  <si>
+    <t>['퇴직소득세', '삼성 퇴직연금', '퇴직연금 장기 투자']</t>
+  </si>
+  <si>
+    <t>[{'퇴직소득세': 39}, {'삼성 퇴직연금': 1}, {'퇴직연금 장기 투자': 47}]</t>
+  </si>
+  <si>
+    <t>삼성자산운용은 KODEX 미국배당프리미엄액티브 ETF의 보수를 인하하여 투자자들의 이익을 높였다.</t>
+  </si>
+  <si>
+    <t>KODEX 미국배당프리미엄액티브 ETF는 배당성장주에 투자하며, 효율적인 투자를 할 수 있는 상품 경쟁력을 가지고 있다.</t>
+  </si>
+  <si>
+    <t>이 ETF는 커버드콜 전략을 활용하여 안정적인 월배당금을 지급하며, 시장 변동성이 높은 상황에서 안정적이고 장기적인 투자 수요를 충족시킬 수 있다.</t>
+  </si>
+  <si>
+    <t>해당 기사에는 법적 또는 규제적인 변화에 대한 내용이 언급되지 않았다.</t>
+  </si>
+  <si>
+    <t>해당 기사에는 인구 변화와 연금 기금의 장기적인 지속 가능성에 대한 내용이 언급되지 않았다.</t>
+  </si>
+  <si>
+    <t>해당 기사에는 기술과 디지털화에 대한 내용이 언급되지 않았다.</t>
+  </si>
+  <si>
+    <t>해당 기사에는 소비 행동과 요구사항에 대한 내용이 언급되지 않았다.</t>
+  </si>
+  <si>
+    <t>타사 동향 및 이벤트</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>퇴직연금 상품</t>
+  </si>
+  <si>
+    <t>운용사 ETF 수수료 수입 양극화…저보수 출혈 경쟁</t>
+  </si>
+  <si>
+    <t>국내 자산운용사들의 주력 상품으로 떠오른 상장지수펀드 ETF 상품을 두고 운용사들의 판매 보수 인하 경쟁이 치열해지면서 대형 운용사와 중소형 운용사 간 수수료 수입 양극화도 뚜렷해진 것으로 파악됐습니다. ETF 중심으로 자산운용시장이 재편된 뒤 보수율 수준이 낮은 기관 투자자 중심으로 수탁고 증가와 함께 저비용 펀드에 대한 선호가 계속되면서 운용보수와 수수료율이 하락해 온 반면 판매 경쟁은 격화되면서 업권 내 수수료 수입 양극화가 뚜렸해졌다고 보고 있습니다.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/374/0000354304?sid=101</t>
+  </si>
+  <si>
+    <t>주식형 펀드를 대신해 국내 자산운용사들의 주력 상품으로 떠오른 상장지수펀드 ETF 상품을 두고 운용사들의 판매 보수 인하 경쟁이 치열해지면서 대형 운용사와 중소형 운용사 간 수수료 수입 양극화도 뚜렷해진 것으로 파악됐습니다.대형사인 미래에셋자산운용과 삼성자산운용은 큰 타격 없이 수수료 수입 성장세를 이어가는 반면 중소형 운용사들은 수수료 수입이 줄어든 것으로 나타났습니다.13일 금융투자협회에 따르면 올해 2분기 수수료수익을 공시한 자산운용사 433곳의 전체 수수료수익 규모는 1조8천27억 원으로 1년 전 1조9천622억 원보다 1천595억 원 8.1 감소한 것으로 집계됐습니다.수수료수익이 가장 큰 곳은 미래에셋자산운용으로 2분기 1천925억 원을 기록하며 1년 전 1천688억 원보다 14가량 늘었습니다.이지스자산운용도 916억원에서 1148억원으로 같은 기간 25 넘게 증가했고 삼성운용도 1천247억 원에서 1천258억 원으로 소폭 늘었습니다.반면 상품 라인업이 상대적으로 적은 중소형 운용사들은 같은 기간 수수료 수입이 일제히 감소했습니다.KB자산운용이 828억 원에서 784억 원으로 줄었고 한화자산운용이 638억 원에서 596억 원 한국투자신탁운용도 690억 원에서 530억 원으로 감소했습니다.NH아문자산운용 459억원433억원 키움투자자산운용 381억원340억원 등도 수수료 수입 감소세가 두드러진 모습입니다.업계에서는 ETF 중심으로 자산운용시장이 재편된 뒤 보수율 수준이 낮은 기관 투자자 중심으로 수탁고 증가와 함께 저비용 펀드에 대한 선호가 계속되면서 운용보수와 수수료율이 하락해 온 반면 판매 경쟁은 격화되면서 업권 내 수수료 수입 양극화가 뚜렸해졌다고 보고 있습니다.아울러 최근에는 ETF를 내놓을 때 퇴직연금 편입까지 고려하다 보니 장기 투자 특성을 감안한 보수 책정 문제 등도 업계 내부적으로 중요하게 보고 있어 수수료율 하락세는 피하기 어려운 상황입니다.한 금융투자업계 관계자는 미래에셋과 삼성이 ETF 시장에서 차지하는 순자산 비중이 80에 육박해 ETF 시장 내 브랜드 경쟁력이 입증됐고 이로 인해 꾸준히 투자자가 유입되는 구조라 업권 내 판매 경쟁 격화로 인한 타격이 상대적으로 덜하다고 평가했습니다.이어 중소형사는 부족한 상품 라인업을 메울 카드로 수수료 인하를 들고 나와도 고객 유입에 한계가 있다 보니 수입 감소를 피하기 어려운 것이라며 일반 주식형 펀드 보수가 연 12라면 ETF는 0.20.4로 저렴하지만 이마저도 경쟁이 붙어 중소형사는 상대적으로 고충이 클 것이라고 전했습니다. 당신의 제보가 뉴스로 만들어집니다.SBS Biz는 여러분의 제보를 기다리고 있습니다.홈페이지 https url.kr 9pghjn</t>
+  </si>
+  <si>
+    <t>['퇴직연금 금융투자협회', '퇴직연금 운용사', '퇴직연금 ETF', '퇴직연금 라인업']</t>
+  </si>
+  <si>
+    <t>[{'퇴직연금 금융투자협회': 27}, {'퇴직연금 운용사': 1}, {'퇴직연금 ETF': 5}, {'퇴직연금 라인업': 37}]</t>
+  </si>
+  <si>
+    <t>국내 자산운용사들의 주력 상품으로 떠오른 상장지수펀드 ETF 상품을 두고 운용사들의 판매 보수 인하 경쟁이 치열해지면서 대형 운용사와 중소형 운용사 간 수수료 수입 양극화도 뚜렷해진 것으로 파악됨</t>
+  </si>
+  <si>
+    <t>ETF 중심으로 자산운용시장이 재편된 뒤 보수율 수준이 낮은 기관 투자자 중심으로 수탁고 증가와 함께 저비용 펀드에 대한 선호가 계속되면서 운용보수와 수수료율이 하락해 온 반면 판매 경쟁은 격화되면서 업권 내 수수료 수입 양극화가 뚜렸해졌다고 보고 있음</t>
+  </si>
+  <si>
+    <t>No information related to legal and regulatory changes</t>
+  </si>
+  <si>
+    <t>No information related to demographic change</t>
+  </si>
+  <si>
+    <t>No information related to technology and digitalization</t>
+  </si>
+  <si>
+    <t>No information related to consumption behavior and requirements</t>
+  </si>
+  <si>
+    <t>전주환 무기징역 확정...가석방 없어야 유족의 당부 [띵동 이슈배달]</t>
+  </si>
+  <si>
+    <t>전주환의 무기징역 확정판결, 유족의 가석방 반대, 범행 당시 스토킹 혐의, 무기징역형 선고, 농협 직원의 명예퇴직금 문제</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/052/0001946501?sid=102</t>
+  </si>
+  <si>
+    <t>전 직장 동료를 스토킹하고 서울 신당역에서 잔인하게 살해한 전주환.어제 대법원에서 무기징역을 확정받았습니다.무기징역 확정판결이 나온 이후 유족 측이 두 손 모아 강조한 한마디가 있습니다.가석방은 안 된다. 전주환의 거짓된 반성에 속지 말아달라.아시다시피 전주환은 범행 당시 스토킹 혐의로 재판을 받고 있었고재판부에 반성문을 제출한 뒤 신당역으로 가 피해자를 잔인하게 살해했죠.반성없는 반성문.무슨 의미가 있겠습니까.재판부도 보복범죄에 대한 철퇴를 내렸습니다.그런데요현행법상 무기징역형을 선고받아도 20년 복역하면 가석방 대상에 오르게 됩니다.현재 32살의 전주환이 52살이 되면 가석방이 될 수도 있다유족은 두렵습니다.거짓된 반성에 속지 말아 달라는 유족의 외침이 20년 30년 뒤에도 사라지지 않기만을 바랍니다.김다현 기자입니다.지난해 9월 서울 지하철 신당역 화장실에서 서울교통공사 입사 동기였던 20대 여성을 살해한 전주환.피해자를 350여 차례 스토킹하고 불법 촬영한 혐의로 재판을 받다 합의에 실패하자 끔찍한 범행을 저질렀습니다.1심에선 전주환의 살인 혐의와 스토킹 혐의에 각각 징역 40년과 징역 9년이 선고됐습니다.하지만 두 사건을 합친 항소심 재판부는 전주환의 교화가 가능할지 깊은 회의가 들고형사사법체계를 무력화하는 보복 범죄를 엄정히 처벌해야 한다며 무기징역을 선고했습니다.형이 너무 무겁다는 전주환의 불복으로 이뤄진 대법원 판단 역시 다르지 않았습니다.대법원은 나이와 환경 범행 동기 등 유리한 정상을 참작하더라도 무기징역이 부당하다고 볼 수 없다며 전주환의 상고를 기각했습니다.인천에 있는 한 아파트 건설현장에서 살인사건이 일어났습니다.50대 노동자가 협력 업체 직원을 흉기로 살해한 뒤본인도 투신해 스스로 목숨을 끊었습니다.동료들은 두 사람이 평소에 임금 문제로 갈등을 겪었다고 진술하고 있습니다.경찰이 현장 인력 등을 상대로 정확한 사건 경위를 조사하고 있습니다.김태원 기자의 보도입니다.오는 2025년 1월 천여 세대 입주가 예정된 인천 영종도 아파트 신축 현장.이곳 아파트 14층에서 중국 동포인 50대 남성 A 씨가 추락했다는 신고가 접수됐습니다.그런데 A 씨가 떨어진 건물 11층에서도 다른 50대 남성 1명이 흉기에 찔려 숨진 채 발견됐습니다.경찰은 A 씨가 남성을 흉기로 살해한 뒤 건설 현장 간이 승강기를 타고 올라가다가 문을 열고 투신한 것으로 추정하고 있습니다.일용직인 A 씨는 해당 현장에서 고정적으로 일해온 것으로 전해졌고 피해자는 협력업체에 소속된 소장급 직원으로 파악됐습니다.수억대의 퇴직금을 받은 농협 직원이 있습니다.물론 공이 많은 직원이 사규에 따라 적법한 퇴직금을 받고 제2의 인생을 사는 것 얼마나 명예로운 일입니까.그런데 성희롱 징계자는 명예와는 거리가 좀 멀죠.어디 성희롱뿐일까요.법인카드 유용 직장 내 갑질로 중징계를 받은 직원들도 별다른 불이익 없이 두둑한 명예퇴직금을 받았습니다.평균 수령액이 4억 원이 넘어요.불명예도 명예라고 하신다면 달리 드릴 말씀은 없겠습니다만.국민권익위도 일찌감치 징계자에 대해 명예퇴직수당을 주지 말라고 권고한 바 있습니다.3년이 지나도록 소귀에 경읽기 수준인데요.그러면서도 농협은 뾰족한 수가 없다는 입장입니다.강민경 기자입니다.농협경제지주에서 차장급으로 일하던 A 씨는 지난 2020년 성희롱과 갑질 폭언으로 정직 6개월 징계 처분을 받은 뒤 바로 명예퇴직을 신청했습니다.A 씨가 회사를 떠나며 손에 쥔 금액은 4억5천만 원 특별퇴직금 명목으로 법정 퇴직금의 세 배 가까이 더 받았습니다.NH농협은행 지부장급 직원이었던 B 씨도 지난 2019년 정직 기간 중 희망퇴직 신청이 승인돼 4억 8천여만 원을 지급 받았습니다.법인카드로 천만 원이 넘는 돈을 사적으로 쓴 것도 명예 퇴직금을 챙기는 데엔 아무런 걸림돌이 되지 않은 겁니다.최근 5년 동안 농협중앙회와 자회사의 명예 퇴직자 가운데 징계로 승진이 제한된 사람은 32명 징계 중이었던 직원은 6명이었습니다.이들 38명에게 지급된 퇴직금은 명예 퇴직금 109억 원을 포함해 모두 160억 7천여만 원입니다.명예롭지 못한 일로 징계를 받고도 한 사람당 평균 4억2천만 원을 퇴직금으로 타낸 셈입니다.농민을 위해 존재하는 농협이 자기 직원들만 감싸며 방만 운영을 한다는 지적이 나옵니다.이에 대해 농협 측은 징계 기간 중 퇴직을 하는 경우 남은 징계 기간만큼을 차감해서 명예 퇴직금을 산정하고 있다고 해명했습니다.다만 징계 기간이 끝난 직원에 대해서까지 명예 퇴직금을 깎아버리면 과중 징계 우려가 커서 당장 제도를 손댈 수는 없다는 입장입니다. 당신의 제보가 뉴스가 됩니다 YTN 검색해 채널 추가 023988585 socialytn.co.kr</t>
+  </si>
+  <si>
+    <t>['퇴직금 제도', '명예퇴직 퇴직금']</t>
+  </si>
+  <si>
+    <t>[{'퇴직금 제도': 56}, {'명예퇴직 퇴직금': 15}]</t>
+  </si>
+  <si>
+    <t>전주환의 무기징역 확정판결과 무기징역형 선고에 대한 정보가 포함되어 있음</t>
+  </si>
+  <si>
+    <t>해당 기사에는 산업 경쟁 동향에 대한 내용이 없음</t>
+  </si>
+  <si>
+    <t>해당 기사에는 금융 시장의 영향에 대한 내용이 없음</t>
+  </si>
+  <si>
+    <t>해당 기사에는 법률 및 규제 변화에 대한 내용이 없음</t>
+  </si>
+  <si>
+    <t>해당 기사에는 인구 변화와 연관된 내용이 없음</t>
+  </si>
+  <si>
+    <t>해당 기사에는 기술과 디지털화에 대한 내용이 없음</t>
+  </si>
+  <si>
+    <t>농협 직원의 명예퇴직금 문제에 대한 정보가 포함되어 있음</t>
+  </si>
+  <si>
     <t>성희롱에 법인카드 유용해도 4억 원 수령...농협 '퇴직금 잔치'</t>
   </si>
   <si>
@@ -114,10 +252,7 @@
     <t>농협이 성희롱이나 갑질로 중징계를 받은 직원에게도 별다른 불이익을 주지 않고 두둑한 명예퇴직금을 챙겨준 것으로 확인됐습니다.사실상 명예롭지 않게 퇴직한 직원들도 한 사람당 5억 원에 가까운 퇴직금을 받고 나갔는데요.정작 농협은 뾰족한 수가 없다는 입장입니다.강민경 기자가 보도합니다.농협경제지주에서 차장급으로 일하던 A 씨는 지난 2020년 성희롱과 갑질 폭언으로 정직 6개월 징계 처분을 받은 뒤 바로 명예퇴직을 신청했습니다.A 씨가 회사를 떠나며 손에 쥔 금액은 4억5천만 원 특별퇴직금 명목으로 법정 퇴직금의 세 배 가까이 더 받았습니다.NH농협은행 지부장급 직원이었던 B 씨도 지난 2019년 정직 기간 중 희망퇴직 신청이 승인돼 4억 8천여만 원을 지급 받았습니다.법인카드로 천만 원이 넘는 돈을 사적으로 쓴 것도 명예 퇴직금을 챙기는 데엔 아무런 걸림돌이 되지 않은 겁니다.최근 5년 동안 농협중앙회와 자회사의 명예 퇴직자 가운데 징계로 승진이 제한된 사람은 32명 징계 중이었던 직원은 6명이었습니다.이들 38명에게 지급된 퇴직금은 명예 퇴직금 109억 원을 포함해 모두 160억 7천여만 원입니다.명예롭지 못한 일로 징계를 받고도 한 사람당 평균 4억2천만 원을 퇴직금으로 타낸 셈입니다.앞서 국민권익위원회는 지난 2020년 징계 처분을 받아 승진 임용이 제한된 직원들에게는 명예퇴직수당을 주지 말라고 농협에 권고했습니다.그러나 농협은 3년이 지나도록 권익위 권고를 수용하지 않은 채 징계자에게 퇴직금을 두둑이 주고 있습니다.농민을 위해 존재하는 농협이 자기 직원들만 감싸며 방만 운영을 한다는 지적이 나옵니다.이에 대해 농협 측은 징계 기간 중 퇴직을 하는 경우 남은 징계 기간만큼을 차감해서 명예 퇴직금을 산정하고 있다고 해명했습니다.다만 징계 기간이 끝난 직원에 대해서까지 명예 퇴직금을 깎아버리면 과중 징계 우려가 커서 당장 제도를 손댈 수는 없다는 입장입니다.그러면서 권익위와 협의해 징계자에 대한 퇴직금 제도를 보완할 방안을 찾고 있다고 덧붙였습니다.YTN 강민경입니다.촬영기자 김광현그래픽 박유동 당신의 제보가 뉴스가 됩니다 YTN 검색해 채널 추가 023988585 socialytn.co.kr</t>
   </si>
   <si>
-    <t>['퇴직금 제도', '희망퇴직 퇴직금', '명예퇴직 퇴직금']</t>
-  </si>
-  <si>
-    <t>[{'퇴직금 제도': 1}, {'희망퇴직 퇴직금': 3}, {'명예퇴직 퇴직금': 1}]</t>
+    <t>[{'퇴직금 제도': 1}, {'희망퇴직 퇴직금': 1}, {'명예퇴직 퇴직금': 1}]</t>
   </si>
   <si>
     <t>농협은 퇴직금 지급에 대한 전략이 명확하지 않으며, 징계를 받은 직원들에게 높은 퇴직금을 지급하고 있다는 사실이 확인되었기 때문에 2점을 준다.</t>
@@ -129,7 +264,7 @@
     <t>기사에서는 농협의 퇴직금 지급과 관련된 금융 시장의 변동에 대한 언급이 없으므로 1점을 준다.</t>
   </si>
   <si>
-    <t>기사에서는 법적 및 규제 변화에 대한 언급이 없으므로 0점을 준다.</t>
+    <t>기사에서는 법률 및 규제 변경에 대한 언급이 없으므로 0점을 준다.</t>
   </si>
   <si>
     <t>기사에서는 인구 통계 및 연령에 관련된 정보가 언급되지 않으므로 0점을 준다.</t>
@@ -141,15 +276,61 @@
     <t>기사에서는 소비 행동 및 요구사항에 관련된 정보가 언급되지 않으므로 0점을 준다.</t>
   </si>
   <si>
+    <t>한국은행</t>
+  </si>
+  <si>
+    <t>한국은행, 올해 113명 떠났다…1인당 퇴직금 1.5억원</t>
+  </si>
+  <si>
+    <t>한국은행 임직원 113명이 퇴직, 1인당 평균 퇴직금은 1억5천100만원</t>
+  </si>
+  <si>
+    <t>https://news.einfomax.co.kr/news/articleView.html?idxno=4283969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ 서울연합인포맥스 윤은별 기자 올해 9월까지 한국은행을 떠난 임직원이 113명인 것으로 나타났다. 이들에게 지급된 퇴직금은 1인당 1억5천100만원으로 집계됐다.
+13일 한국은행이 윤영석 국민의힘 의원실에 제출한 국정감사 요구 답변 자료에 따르면 올해 19월 한국은행을 퇴직한 임직원은 113명으로 나타났다.
+이들에게 지급된 퇴직금은 총 171억1천900만원으로 1인당 평균 지급액은 1억5천100만원이었다.
+최근 5개년 중 1인당 평균 퇴직금은 올해 현재까지의 금액이 가장 많았다. 2019년에는 1억1천200만원 지난해 1억2천500만원 올해 19월 1억5천100만원을 기록했다.
+1인당 평균 퇴직금은 임금피크제 적용에 따른 퇴직금 중간정산 지급액 DC형 퇴직연금 신규 가입에 따른 최초 부담금 납입액 등을 포함한 액수다.
+지난해에는 164명의 임직원이 한은을 떠났다. 퇴직금 지급액은 204억5천900만원이었다.
+최근 5년간 2019년2023년 9월 말 한은을 퇴직한 직원은 총 822명이었다. 이 기간 지급된 퇴직금 총액은 1천11억4천900만원으로 나타났다.
+2023년도 국정감사 기획재정위원회 요구답변자료 
+ebyunyna.co.kr
+ 끝 </t>
+  </si>
+  <si>
+    <t>['퇴직연금 DC', '퇴직연금 중간정산', '퇴직연금 서비스 ', '퇴직연금 가입', '임금피크제']</t>
+  </si>
+  <si>
+    <t>[{'퇴직연금 DC': 40}, {'퇴직연금 중간정산': 1}, {'퇴직연금 서비스 ': 10}, {'퇴직연금 가입': 58}, {'임금피크제': 36}]</t>
+  </si>
+  <si>
+    <t>퇴직금 관련 정보가 포함되어 있음</t>
+  </si>
+  <si>
+    <t>경쟁 동향과 관련된 내용이 없음</t>
+  </si>
+  <si>
+    <t>금융 시장의 영향과 관련된 내용이 없음</t>
+  </si>
+  <si>
+    <t>법적 및 규제 변화와 관련된 내용이 없음</t>
+  </si>
+  <si>
+    <t>인구 변화와 관련된 내용이 없음</t>
+  </si>
+  <si>
+    <t>기술과 디지털화와 관련된 내용이 없음</t>
+  </si>
+  <si>
+    <t>소비 행태와 요구사항과 관련된 내용이 없음</t>
+  </si>
+  <si>
     <t>2023-10-12</t>
   </si>
   <si>
-    <t>퇴직연금 제도</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>고객님, 더 드릴게요…치열한 퇴직연금 금리경쟁, 왜?</t>
   </si>
   <si>
@@ -189,9 +370,6 @@
     <t>소비 행동 및 요구사항에 대한 내용이 없음.</t>
   </si>
   <si>
-    <t>퇴직연금 상품</t>
-  </si>
-  <si>
     <t>국민연금</t>
   </si>
   <si>
@@ -328,9 +506,6 @@
   </si>
   <si>
     <t>No relevant information in the article</t>
-  </si>
-  <si>
-    <t>타사 동향 및 이벤트</t>
   </si>
   <si>
     <t>고금리 장기화로 주춤 OCIO 공모펀드…디딤펀드로 부활할까</t>
@@ -605,9 +780,6 @@
     <t>기사에는 소비 행동 및 요구사항에 대한 정보가 없으므로 점수를 주지 않는다.</t>
   </si>
   <si>
-    <t>삼성운용</t>
-  </si>
-  <si>
     <t>삼성운용, 만기 채권형 ETF 신규 상장</t>
   </si>
   <si>
@@ -777,12 +949,6 @@
   </si>
   <si>
     <t>퇴직연금 가입자 정보 업데이트와 관련된 이벤트 진행</t>
-  </si>
-  <si>
-    <t>해당 기사에는 산업 경쟁 동향에 대한 내용이 없음</t>
-  </si>
-  <si>
-    <t>해당 기사에는 금융 시장의 영향에 대한 내용이 없음</t>
   </si>
   <si>
     <t>해당 기사에는 법적 및 규제 변화에 대한 내용이 없음</t>
@@ -1156,16 +1322,7 @@
     <t>No information related to industry competition trends</t>
   </si>
   <si>
-    <t>No information related to legal and regulatory changes</t>
-  </si>
-  <si>
     <t>노후 소득 신체재산상 손해보장 등 사회보장 성격이 강한 상품들에 대한 내용이 있음</t>
-  </si>
-  <si>
-    <t>No information related to technology and digitalization</t>
-  </si>
-  <si>
-    <t>No information related to consumption behavior and requirements</t>
   </si>
   <si>
     <t>예금자보호 대상에 연금저축 포함... 한도는 5000만 원 유지</t>
@@ -1305,12 +1462,6 @@
     <t>희망퇴직제도와 은퇴자 수에 대한 내용이 있음</t>
   </si>
   <si>
-    <t>기술과 디지털화에 대한 내용이 없음</t>
-  </si>
-  <si>
-    <t>소비 행동 및 요구사항에 대한 내용이 없음</t>
-  </si>
-  <si>
     <t>“GDP 11%도 공포 수준 아냐” “그걸 감당할 인구, 너무 적다”</t>
   </si>
   <si>
@@ -1338,9 +1489,6 @@
     <t>퇴직연금 개혁과 국민연금 소득대체율 인상에 대한 논의가 이뤄지고 있음</t>
   </si>
   <si>
-    <t>No information related to demographic change</t>
-  </si>
-  <si>
     <t>[fn마켓워치] HUG, 약 2600억 규모 'OCIO 기관' 선정 돌입</t>
   </si>
   <si>
@@ -1575,13 +1723,7 @@
     <t>해당 기사에는 금융 시장 변동성에 대한 내용이 없음</t>
   </si>
   <si>
-    <t>해당 기사에는 법률 및 규제 변화에 대한 내용이 없음</t>
-  </si>
-  <si>
     <t>연금저축과 사고보험금 중소기업퇴직연금기금에 별도로 5000만 원의 보호한도를 적용하여 국민들이 안전하게 노후를 준비할 수 있게 됨</t>
-  </si>
-  <si>
-    <t>해당 기사에는 기술과 디지털화에 대한 내용이 없음</t>
   </si>
   <si>
     <t>해당 기사에는 소비 행동 및 요구사항에 대한 내용이 없음</t>
@@ -2931,16 +3073,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X71"/>
+  <dimension ref="A1:X75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="A2" activeCellId="1" sqref="A4:XFD4 A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.125" customWidth="1"/>
-    <col min="4" max="4" width="31.25" customWidth="1"/>
+    <col min="4" max="4" width="46.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
@@ -3022,1434 +3164,1434 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2">
+      <c r="L2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2">
         <v>2</v>
       </c>
-      <c r="L2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
       <c r="N2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="O2">
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="K3">
         <v>3</v>
       </c>
       <c r="L3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="M3">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="O3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K4">
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4" t="s">
+        <v>69</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4" t="s">
+        <v>70</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W4">
         <v>2</v>
       </c>
-      <c r="N4" t="s">
-        <v>65</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4" t="s">
-        <v>67</v>
-      </c>
-      <c r="S4">
-        <v>2</v>
-      </c>
-      <c r="T4" t="s">
-        <v>68</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4" t="s">
-        <v>69</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
       <c r="X4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="J5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O5">
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="J7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="K7">
         <v>3</v>
       </c>
       <c r="L7" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>107</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7" t="s">
+        <v>109</v>
+      </c>
+      <c r="S7">
         <v>1</v>
       </c>
-      <c r="N7" t="s">
-        <v>101</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7" t="s">
-        <v>102</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
       <c r="T7" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E8" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" t="s">
+        <v>117</v>
+      </c>
+      <c r="I8" t="s">
+        <v>118</v>
+      </c>
+      <c r="J8" t="s">
+        <v>119</v>
+      </c>
+      <c r="K8">
         <v>3</v>
       </c>
-      <c r="G8" t="s">
-        <v>106</v>
-      </c>
-      <c r="H8" t="s">
-        <v>107</v>
-      </c>
-      <c r="I8" t="s">
-        <v>108</v>
-      </c>
-      <c r="J8" t="s">
-        <v>109</v>
-      </c>
-      <c r="K8">
+      <c r="L8" t="s">
+        <v>120</v>
+      </c>
+      <c r="M8">
         <v>2</v>
       </c>
-      <c r="L8" t="s">
-        <v>110</v>
-      </c>
-      <c r="M8">
+      <c r="N8" t="s">
+        <v>121</v>
+      </c>
+      <c r="O8">
         <v>1</v>
       </c>
-      <c r="N8" t="s">
-        <v>111</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
       <c r="P8" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T8" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E9" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>129</v>
+      </c>
+      <c r="H9" t="s">
+        <v>130</v>
+      </c>
+      <c r="I9" t="s">
+        <v>131</v>
+      </c>
+      <c r="J9" t="s">
+        <v>132</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9" t="s">
+        <v>133</v>
+      </c>
+      <c r="M9">
         <v>2</v>
       </c>
-      <c r="G9" t="s">
-        <v>119</v>
-      </c>
-      <c r="H9" t="s">
-        <v>120</v>
-      </c>
-      <c r="I9" t="s">
-        <v>121</v>
-      </c>
-      <c r="J9" t="s">
-        <v>122</v>
-      </c>
-      <c r="K9">
+      <c r="N9" t="s">
+        <v>134</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9" t="s">
+        <v>136</v>
+      </c>
+      <c r="S9">
         <v>2</v>
       </c>
-      <c r="L9" t="s">
-        <v>91</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9" t="s">
-        <v>93</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9" t="s">
-        <v>93</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
       <c r="T9" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="U9">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="D10" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="E10" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="F10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="H10" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="I10" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="J10" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="K10">
         <v>3</v>
       </c>
       <c r="L10" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="O10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="S10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="U10">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="D11" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="E11" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G11" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="H11" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="I11" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="J11" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="K11">
         <v>3</v>
       </c>
       <c r="L11" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="U11">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>148</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="E12" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G12" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="H12" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="I12" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="J12" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="M12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="U12">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D13" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="E13" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="F13">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G13" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="H13" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="I13" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="J13" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="M13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N13" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="O13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="U13">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="D14" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="E14" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="F14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="H14" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="I14" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="J14" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="K14">
         <v>3</v>
       </c>
       <c r="L14" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>187</v>
+      </c>
+      <c r="O14">
         <v>2</v>
       </c>
-      <c r="N14" t="s">
-        <v>178</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
       <c r="P14" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T14" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="U14">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>184</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="E15" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="F15">
         <v>6</v>
       </c>
       <c r="G15" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="H15" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="I15" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="J15" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="K15">
         <v>3</v>
       </c>
       <c r="L15" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="M15">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="O15">
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="U15">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="D16" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="E16" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="F16">
         <v>6</v>
       </c>
       <c r="G16" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="H16" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="I16" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="J16" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="K16">
         <v>3</v>
       </c>
       <c r="L16" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="M16">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="O16">
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
       <c r="R16" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="U16">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>124</v>
+        <v>203</v>
       </c>
       <c r="D17" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="E17" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="F17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G17" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="H17" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="I17" t="s">
-        <v>129</v>
+        <v>221</v>
       </c>
       <c r="J17" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="K17">
         <v>3</v>
       </c>
       <c r="L17" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="S17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="U17">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>218</v>
+        <v>170</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17" t="s">
-        <v>219</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="D18" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E18" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="F18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G18" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="H18" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="I18" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="J18" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L18" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R18" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="U18">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>234</v>
+        <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E19" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F19">
+        <v>6</v>
+      </c>
+      <c r="G19" t="s">
+        <v>241</v>
+      </c>
+      <c r="H19" t="s">
+        <v>242</v>
+      </c>
+      <c r="I19" t="s">
+        <v>243</v>
+      </c>
+      <c r="J19" t="s">
+        <v>244</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19" t="s">
+        <v>245</v>
+      </c>
+      <c r="M19">
         <v>2</v>
       </c>
-      <c r="G19" t="s">
-        <v>237</v>
-      </c>
-      <c r="H19" t="s">
-        <v>238</v>
-      </c>
-      <c r="I19" t="s">
-        <v>239</v>
-      </c>
-      <c r="J19" t="s">
-        <v>240</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19" t="s">
-        <v>241</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
       <c r="N19" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
       <c r="R19" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="U19">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>248</v>
+        <v>178</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>249</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E20" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F20">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G20" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H20" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I20" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J20" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L20" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="O20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
       <c r="R20" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="S20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="U20">
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>248</v>
+        <v>178</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>179</v>
       </c>
       <c r="D21" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E21" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F21">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G21" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H21" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I21" t="s">
-        <v>265</v>
+        <v>184</v>
       </c>
       <c r="J21" t="s">
         <v>266</v>
@@ -4461,13 +4603,13 @@
         <v>267</v>
       </c>
       <c r="M21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N21" t="s">
         <v>268</v>
       </c>
       <c r="O21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="s">
         <v>269</v>
@@ -4479,7 +4621,7 @@
         <v>270</v>
       </c>
       <c r="S21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T21" t="s">
         <v>271</v>
@@ -4499,218 +4641,218 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>248</v>
+        <v>178</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>274</v>
       </c>
       <c r="D22" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E22" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F22">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G22" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H22" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I22" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J22" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N22" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R22" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="S22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="U22">
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>248</v>
+        <v>178</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>288</v>
       </c>
       <c r="D23" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E23" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F23">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H23" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="I23" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="J23" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L23" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="M23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N23" t="s">
-        <v>293</v>
+        <v>67</v>
       </c>
       <c r="O23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="s">
-        <v>294</v>
+        <v>68</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
       <c r="R23" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="S23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="U23">
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="W23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X23" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>301</v>
       </c>
       <c r="D24" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E24" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G24" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="H24" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="I24" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="J24" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="K24">
+        <v>4</v>
+      </c>
+      <c r="L24" t="s">
+        <v>308</v>
+      </c>
+      <c r="M24">
         <v>3</v>
       </c>
-      <c r="L24" t="s">
-        <v>305</v>
-      </c>
-      <c r="M24">
-        <v>1</v>
-      </c>
       <c r="N24" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="O24">
         <v>2</v>
       </c>
       <c r="P24" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
       <c r="R24" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="U24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="W24">
         <v>0</v>
@@ -4721,975 +4863,975 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="D25" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E25" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F25">
         <v>9</v>
       </c>
       <c r="G25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H25" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I25" t="s">
-        <v>129</v>
+        <v>317</v>
       </c>
       <c r="J25" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="K25">
         <v>3</v>
       </c>
       <c r="L25" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M25">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>320</v>
+      </c>
+      <c r="O25">
         <v>1</v>
       </c>
-      <c r="N25" t="s">
-        <v>318</v>
-      </c>
-      <c r="O25">
-        <v>2</v>
-      </c>
       <c r="P25" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q25">
         <v>0</v>
       </c>
       <c r="R25" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="S25">
         <v>3</v>
       </c>
       <c r="T25" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="U25">
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D26" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E26" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F26">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G26" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H26" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="I26" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="J26" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K26">
         <v>3</v>
       </c>
       <c r="L26" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="O26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26" t="s">
+        <v>335</v>
+      </c>
+      <c r="S26">
         <v>3</v>
       </c>
-      <c r="R26" t="s">
-        <v>333</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
       <c r="T26" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="U26">
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>54</v>
+        <v>337</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26" t="s">
-        <v>55</v>
+        <v>338</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>335</v>
+        <v>46</v>
       </c>
       <c r="D27" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E27" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G27" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="H27" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="I27" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="J27" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K27">
         <v>3</v>
       </c>
       <c r="L27" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M27">
         <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="O27">
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q27">
         <v>0</v>
       </c>
       <c r="R27" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="S27">
         <v>2</v>
       </c>
       <c r="T27" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="U27">
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X27" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D28" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="E28" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G28" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="H28" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="I28" t="s">
-        <v>129</v>
+        <v>355</v>
       </c>
       <c r="J28" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="K28">
         <v>3</v>
       </c>
       <c r="L28" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>358</v>
+      </c>
+      <c r="O28">
         <v>2</v>
       </c>
-      <c r="N28" t="s">
-        <v>354</v>
-      </c>
-      <c r="O28">
-        <v>1</v>
-      </c>
       <c r="P28" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="Q28">
         <v>0</v>
       </c>
       <c r="R28" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="S28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T28" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V28" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>179</v>
       </c>
       <c r="D29" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="E29" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="F29">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G29" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="H29" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="I29" t="s">
-        <v>364</v>
+        <v>184</v>
       </c>
       <c r="J29" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="K29">
         <v>3</v>
       </c>
       <c r="L29" t="s">
-        <v>267</v>
+        <v>369</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="O29">
         <v>2</v>
       </c>
       <c r="P29" t="s">
-        <v>269</v>
+        <v>371</v>
       </c>
       <c r="Q29">
         <v>0</v>
       </c>
       <c r="R29" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="S29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T29" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="U29">
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D30" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="E30" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="F30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G30" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="H30" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="I30" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="J30" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="K30">
         <v>3</v>
       </c>
       <c r="L30" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="M30">
         <v>0</v>
       </c>
       <c r="N30" t="s">
-        <v>242</v>
+        <v>383</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P30" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="Q30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R30" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="U30">
         <v>0</v>
       </c>
       <c r="V30" t="s">
-        <v>381</v>
+        <v>111</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30" t="s">
-        <v>382</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>387</v>
       </c>
       <c r="D31" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="E31" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="F31">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G31" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="H31" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="I31" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="J31" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="K31">
         <v>3</v>
       </c>
       <c r="L31" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="M31">
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="O31">
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="Q31">
         <v>0</v>
       </c>
       <c r="R31" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T31" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="U31">
         <v>0</v>
       </c>
       <c r="V31" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31" t="s">
-        <v>395</v>
+        <v>363</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D32" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="E32" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="F32">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G32" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="H32" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="I32" t="s">
-        <v>278</v>
+        <v>184</v>
       </c>
       <c r="J32" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="K32">
         <v>3</v>
       </c>
       <c r="L32" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="M32">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>406</v>
+      </c>
+      <c r="O32">
         <v>1</v>
       </c>
-      <c r="N32" t="s">
-        <v>402</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
       <c r="P32" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="Q32">
         <v>0</v>
       </c>
       <c r="R32" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="S32">
         <v>2</v>
       </c>
       <c r="T32" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="U32">
         <v>0</v>
       </c>
       <c r="V32" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D33" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="E33" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="F33">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G33" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="H33" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="I33" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="J33" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="K33">
         <v>3</v>
       </c>
       <c r="L33" t="s">
-        <v>414</v>
+        <v>319</v>
       </c>
       <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33" t="s">
+        <v>418</v>
+      </c>
+      <c r="O33">
         <v>2</v>
       </c>
-      <c r="N33" t="s">
-        <v>415</v>
-      </c>
-      <c r="O33">
-        <v>1</v>
-      </c>
       <c r="P33" t="s">
-        <v>416</v>
+        <v>321</v>
       </c>
       <c r="Q33">
         <v>0</v>
       </c>
       <c r="R33" t="s">
-        <v>367</v>
+        <v>56</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T33" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="U33">
         <v>0</v>
       </c>
       <c r="V33" t="s">
-        <v>369</v>
+        <v>58</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33" t="s">
-        <v>370</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D34" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E34" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F34">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G34" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H34" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="I34" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="J34" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="K34">
         <v>3</v>
       </c>
       <c r="L34" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="M34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N34" t="s">
-        <v>425</v>
+        <v>67</v>
       </c>
       <c r="O34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R34" t="s">
-        <v>207</v>
+        <v>428</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="T34" t="s">
-        <v>207</v>
+        <v>429</v>
       </c>
       <c r="U34">
         <v>0</v>
       </c>
       <c r="V34" t="s">
-        <v>207</v>
+        <v>430</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34" t="s">
-        <v>207</v>
+        <v>431</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>427</v>
+        <v>46</v>
       </c>
       <c r="D35" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="E35" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="F35">
         <v>6</v>
       </c>
       <c r="G35" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="H35" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="I35" t="s">
-        <v>129</v>
+        <v>436</v>
       </c>
       <c r="J35" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="K35">
         <v>3</v>
       </c>
       <c r="L35" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="M35">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>439</v>
+      </c>
+      <c r="O35">
         <v>1</v>
       </c>
-      <c r="N35" t="s">
-        <v>434</v>
-      </c>
-      <c r="O35">
-        <v>2</v>
-      </c>
       <c r="P35" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="Q35">
         <v>0</v>
       </c>
       <c r="R35" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="U35">
         <v>0</v>
       </c>
       <c r="V35" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D36" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="E36" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="F36">
         <v>6</v>
       </c>
       <c r="G36" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="H36" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="I36" t="s">
-        <v>129</v>
+        <v>330</v>
       </c>
       <c r="J36" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="K36">
         <v>3</v>
       </c>
       <c r="L36" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="M36">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36" t="s">
+        <v>453</v>
+      </c>
+      <c r="S36">
         <v>2</v>
       </c>
-      <c r="P36" t="s">
-        <v>447</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36" t="s">
-        <v>448</v>
-      </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
       <c r="T36" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="U36">
         <v>0</v>
       </c>
       <c r="V36" t="s">
-        <v>450</v>
+        <v>28</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36" t="s">
-        <v>451</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D37" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="E37" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="F37">
         <v>6</v>
       </c>
       <c r="G37" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="H37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="I37" t="s">
-        <v>129</v>
+        <v>459</v>
       </c>
       <c r="J37" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="K37">
         <v>3</v>
       </c>
       <c r="L37" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="M37">
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="O37">
         <v>1</v>
       </c>
       <c r="P37" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="Q37">
         <v>0</v>
       </c>
       <c r="R37" t="s">
-        <v>460</v>
+        <v>56</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37" t="s">
-        <v>461</v>
+        <v>57</v>
       </c>
       <c r="U37">
         <v>0</v>
       </c>
       <c r="V37" t="s">
-        <v>462</v>
+        <v>58</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37" t="s">
-        <v>463</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D38" t="s">
         <v>464</v>
@@ -5698,7 +5840,7 @@
         <v>465</v>
       </c>
       <c r="F38">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G38" t="s">
         <v>466</v>
@@ -5719,241 +5861,241 @@
         <v>470</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N38" t="s">
         <v>471</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" t="s">
         <v>472</v>
       </c>
       <c r="Q38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R38" t="s">
-        <v>473</v>
+        <v>261</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38" t="s">
-        <v>474</v>
+        <v>261</v>
       </c>
       <c r="U38">
         <v>0</v>
       </c>
       <c r="V38" t="s">
-        <v>475</v>
+        <v>261</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38" t="s">
-        <v>476</v>
+        <v>261</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>473</v>
       </c>
       <c r="D39" t="s">
+        <v>474</v>
+      </c>
+      <c r="E39" t="s">
+        <v>475</v>
+      </c>
+      <c r="F39">
+        <v>6</v>
+      </c>
+      <c r="G39" t="s">
+        <v>476</v>
+      </c>
+      <c r="H39" t="s">
         <v>477</v>
       </c>
-      <c r="E39" t="s">
+      <c r="I39" t="s">
+        <v>184</v>
+      </c>
+      <c r="J39" t="s">
         <v>478</v>
-      </c>
-      <c r="F39">
-        <v>5</v>
-      </c>
-      <c r="G39" t="s">
-        <v>479</v>
-      </c>
-      <c r="H39" t="s">
-        <v>480</v>
-      </c>
-      <c r="I39" t="s">
-        <v>468</v>
-      </c>
-      <c r="J39" t="s">
-        <v>481</v>
       </c>
       <c r="K39">
         <v>3</v>
       </c>
       <c r="L39" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="O39">
         <v>2</v>
       </c>
       <c r="P39" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39" t="s">
+        <v>482</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39" t="s">
+        <v>483</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39" t="s">
         <v>484</v>
       </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39" t="s">
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39" t="s">
         <v>485</v>
-      </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
-      <c r="T39" t="s">
-        <v>486</v>
-      </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
-      <c r="V39" t="s">
-        <v>487</v>
-      </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-      <c r="X39" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D40" t="s">
+        <v>486</v>
+      </c>
+      <c r="E40" t="s">
+        <v>487</v>
+      </c>
+      <c r="F40">
+        <v>6</v>
+      </c>
+      <c r="G40" t="s">
+        <v>488</v>
+      </c>
+      <c r="H40" t="s">
         <v>489</v>
       </c>
-      <c r="E40" t="s">
+      <c r="I40" t="s">
+        <v>184</v>
+      </c>
+      <c r="J40" t="s">
         <v>490</v>
-      </c>
-      <c r="F40">
-        <v>5</v>
-      </c>
-      <c r="G40" t="s">
-        <v>491</v>
-      </c>
-      <c r="H40" t="s">
-        <v>492</v>
-      </c>
-      <c r="I40" t="s">
-        <v>468</v>
-      </c>
-      <c r="J40" t="s">
-        <v>493</v>
       </c>
       <c r="K40">
         <v>3</v>
       </c>
       <c r="L40" t="s">
+        <v>491</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>492</v>
+      </c>
+      <c r="O40">
+        <v>2</v>
+      </c>
+      <c r="P40" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40" t="s">
         <v>494</v>
       </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40" t="s">
-        <v>242</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="s">
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40" t="s">
         <v>495</v>
       </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
-      <c r="R40" t="s">
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40" t="s">
         <v>496</v>
       </c>
-      <c r="S40">
-        <v>2</v>
-      </c>
-      <c r="T40" t="s">
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40" t="s">
         <v>497</v>
-      </c>
-      <c r="U40">
-        <v>0</v>
-      </c>
-      <c r="V40" t="s">
-        <v>498</v>
-      </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
-      <c r="X40" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D41" t="s">
+        <v>498</v>
+      </c>
+      <c r="E41" t="s">
+        <v>499</v>
+      </c>
+      <c r="F41">
+        <v>6</v>
+      </c>
+      <c r="G41" t="s">
         <v>500</v>
       </c>
-      <c r="E41" t="s">
+      <c r="H41" t="s">
         <v>501</v>
       </c>
-      <c r="F41">
-        <v>5</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="I41" t="s">
+        <v>184</v>
+      </c>
+      <c r="J41" t="s">
         <v>502</v>
-      </c>
-      <c r="H41" t="s">
-        <v>503</v>
-      </c>
-      <c r="I41" t="s">
-        <v>468</v>
-      </c>
-      <c r="J41" t="s">
-        <v>504</v>
       </c>
       <c r="K41">
         <v>3</v>
       </c>
       <c r="L41" t="s">
+        <v>503</v>
+      </c>
+      <c r="M41">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>504</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41" t="s">
         <v>505</v>
       </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41" t="s">
-        <v>242</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="s">
-        <v>495</v>
-      </c>
       <c r="Q41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R41" t="s">
         <v>506</v>
@@ -5968,1833 +6110,1833 @@
         <v>0</v>
       </c>
       <c r="V41" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C42" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D42" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E42" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="F42">
         <v>5</v>
       </c>
       <c r="G42" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="H42" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="I42" t="s">
-        <v>468</v>
+        <v>514</v>
       </c>
       <c r="J42" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="K42">
         <v>3</v>
       </c>
       <c r="L42" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="M42">
         <v>0</v>
       </c>
       <c r="N42" t="s">
-        <v>366</v>
+        <v>517</v>
       </c>
       <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="s">
+        <v>518</v>
+      </c>
+      <c r="Q42">
         <v>2</v>
       </c>
-      <c r="P42" t="s">
-        <v>514</v>
-      </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
       <c r="R42" t="s">
-        <v>367</v>
+        <v>519</v>
       </c>
       <c r="S42">
         <v>0</v>
       </c>
       <c r="T42" t="s">
-        <v>417</v>
+        <v>520</v>
       </c>
       <c r="U42">
         <v>0</v>
       </c>
       <c r="V42" t="s">
-        <v>369</v>
+        <v>521</v>
       </c>
       <c r="W42">
         <v>0</v>
       </c>
       <c r="X42" t="s">
-        <v>370</v>
+        <v>522</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C43" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D43" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="E43" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="F43">
         <v>5</v>
       </c>
       <c r="G43" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="H43" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="I43" t="s">
-        <v>468</v>
+        <v>514</v>
       </c>
       <c r="J43" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="K43">
         <v>3</v>
       </c>
       <c r="L43" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="M43">
         <v>0</v>
       </c>
       <c r="N43" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="O43">
         <v>2</v>
       </c>
       <c r="P43" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="Q43">
         <v>0</v>
       </c>
       <c r="R43" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="S43">
         <v>0</v>
       </c>
       <c r="T43" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="U43">
         <v>0</v>
       </c>
       <c r="V43" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="W43">
         <v>0</v>
       </c>
       <c r="X43" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C44" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D44" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="E44" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="F44">
         <v>5</v>
       </c>
       <c r="G44" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="H44" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="I44" t="s">
-        <v>278</v>
+        <v>514</v>
       </c>
       <c r="J44" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="K44">
         <v>3</v>
       </c>
       <c r="L44" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44" t="s">
+        <v>67</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44" t="s">
+        <v>69</v>
+      </c>
+      <c r="S44">
         <v>2</v>
       </c>
-      <c r="N44" t="s">
-        <v>533</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="s">
-        <v>534</v>
-      </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="R44" t="s">
-        <v>496</v>
-      </c>
-      <c r="S44">
-        <v>0</v>
-      </c>
       <c r="T44" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="U44">
         <v>0</v>
       </c>
       <c r="V44" t="s">
-        <v>498</v>
+        <v>71</v>
       </c>
       <c r="W44">
         <v>0</v>
       </c>
       <c r="X44" t="s">
-        <v>499</v>
+        <v>543</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="C45" t="s">
-        <v>536</v>
+        <v>46</v>
       </c>
       <c r="D45" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="E45" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="F45">
         <v>5</v>
       </c>
       <c r="G45" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="H45" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="I45" t="s">
-        <v>541</v>
+        <v>514</v>
       </c>
       <c r="J45" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K45">
         <v>3</v>
       </c>
       <c r="L45" t="s">
+        <v>549</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45" t="s">
+        <v>67</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q45">
+        <v>2</v>
+      </c>
+      <c r="R45" t="s">
+        <v>550</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45" t="s">
+        <v>551</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45" t="s">
+        <v>71</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45" t="s">
         <v>543</v>
-      </c>
-      <c r="M45">
-        <v>2</v>
-      </c>
-      <c r="N45" t="s">
-        <v>544</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="s">
-        <v>545</v>
-      </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-      <c r="R45" t="s">
-        <v>523</v>
-      </c>
-      <c r="S45">
-        <v>0</v>
-      </c>
-      <c r="T45" t="s">
-        <v>546</v>
-      </c>
-      <c r="U45">
-        <v>0</v>
-      </c>
-      <c r="V45" t="s">
-        <v>547</v>
-      </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-      <c r="X45" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="B46" t="s">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="C46" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D46" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E46" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="F46">
         <v>5</v>
       </c>
       <c r="G46" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="H46" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="I46" t="s">
-        <v>553</v>
+        <v>514</v>
       </c>
       <c r="J46" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="K46">
         <v>3</v>
       </c>
       <c r="L46" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="M46">
         <v>0</v>
       </c>
       <c r="N46" t="s">
-        <v>207</v>
+        <v>418</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P46" t="s">
-        <v>207</v>
+        <v>558</v>
       </c>
       <c r="Q46">
         <v>0</v>
       </c>
       <c r="R46" t="s">
-        <v>207</v>
+        <v>56</v>
       </c>
       <c r="S46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T46" t="s">
-        <v>556</v>
+        <v>57</v>
       </c>
       <c r="U46">
         <v>0</v>
       </c>
       <c r="V46" t="s">
-        <v>207</v>
+        <v>58</v>
       </c>
       <c r="W46">
         <v>0</v>
       </c>
       <c r="X46" t="s">
-        <v>207</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="B47" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="D47" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="E47" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="F47">
         <v>5</v>
       </c>
       <c r="G47" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="H47" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="I47" t="s">
-        <v>129</v>
+        <v>514</v>
       </c>
       <c r="J47" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="K47">
         <v>3</v>
       </c>
       <c r="L47" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47" t="s">
+        <v>565</v>
+      </c>
+      <c r="O47">
         <v>2</v>
       </c>
-      <c r="N47" t="s">
-        <v>563</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
       <c r="P47" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="Q47">
         <v>0</v>
       </c>
       <c r="R47" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="S47">
         <v>0</v>
       </c>
       <c r="T47" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="U47">
         <v>0</v>
       </c>
       <c r="V47" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="W47">
         <v>0</v>
       </c>
       <c r="X47" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="B48" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C48" t="s">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="D48" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="E48" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="F48">
         <v>5</v>
       </c>
       <c r="G48" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="H48" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="I48" t="s">
-        <v>129</v>
+        <v>330</v>
       </c>
       <c r="J48" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="K48">
         <v>3</v>
       </c>
       <c r="L48" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="M48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N48" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="O48">
         <v>0</v>
       </c>
       <c r="P48" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="Q48">
         <v>0</v>
       </c>
       <c r="R48" t="s">
-        <v>295</v>
+        <v>69</v>
       </c>
       <c r="S48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T48" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="U48">
         <v>0</v>
       </c>
       <c r="V48" t="s">
-        <v>297</v>
+        <v>71</v>
       </c>
       <c r="W48">
         <v>0</v>
       </c>
       <c r="X48" t="s">
-        <v>578</v>
+        <v>543</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="B49" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>42</v>
+        <v>580</v>
       </c>
       <c r="D49" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="E49" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="F49">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G49" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="H49" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="I49" t="s">
-        <v>468</v>
+        <v>585</v>
       </c>
       <c r="J49" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="K49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L49" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="M49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N49" t="s">
-        <v>102</v>
+        <v>588</v>
       </c>
       <c r="O49">
         <v>0</v>
       </c>
       <c r="P49" t="s">
-        <v>102</v>
+        <v>589</v>
       </c>
       <c r="Q49">
         <v>0</v>
       </c>
       <c r="R49" t="s">
-        <v>102</v>
+        <v>567</v>
       </c>
       <c r="S49">
         <v>0</v>
       </c>
       <c r="T49" t="s">
-        <v>102</v>
+        <v>590</v>
       </c>
       <c r="U49">
         <v>0</v>
       </c>
       <c r="V49" t="s">
-        <v>102</v>
+        <v>591</v>
       </c>
       <c r="W49">
         <v>0</v>
       </c>
       <c r="X49" t="s">
-        <v>102</v>
+        <v>592</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="B50" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C50" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D50" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="E50" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="F50">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G50" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="H50" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="I50" t="s">
-        <v>468</v>
+        <v>597</v>
       </c>
       <c r="J50" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="K50">
         <v>3</v>
       </c>
       <c r="L50" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="M50">
         <v>0</v>
       </c>
       <c r="N50" t="s">
-        <v>102</v>
+        <v>261</v>
       </c>
       <c r="O50">
         <v>0</v>
       </c>
       <c r="P50" t="s">
-        <v>102</v>
+        <v>261</v>
       </c>
       <c r="Q50">
         <v>0</v>
       </c>
       <c r="R50" t="s">
-        <v>102</v>
+        <v>261</v>
       </c>
       <c r="S50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T50" t="s">
-        <v>102</v>
+        <v>600</v>
       </c>
       <c r="U50">
         <v>0</v>
       </c>
       <c r="V50" t="s">
-        <v>102</v>
+        <v>261</v>
       </c>
       <c r="W50">
         <v>0</v>
       </c>
       <c r="X50" t="s">
-        <v>102</v>
+        <v>261</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="B51" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C51" t="s">
-        <v>42</v>
+        <v>179</v>
       </c>
       <c r="D51" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="E51" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="F51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G51" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="H51" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="I51" t="s">
-        <v>328</v>
+        <v>184</v>
       </c>
       <c r="J51" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="K51">
         <v>3</v>
       </c>
       <c r="L51" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="M51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N51" t="s">
-        <v>102</v>
+        <v>607</v>
       </c>
       <c r="O51">
         <v>0</v>
       </c>
       <c r="P51" t="s">
-        <v>102</v>
+        <v>608</v>
       </c>
       <c r="Q51">
         <v>0</v>
       </c>
       <c r="R51" t="s">
-        <v>102</v>
+        <v>609</v>
       </c>
       <c r="S51">
         <v>0</v>
       </c>
       <c r="T51" t="s">
-        <v>102</v>
+        <v>610</v>
       </c>
       <c r="U51">
         <v>0</v>
       </c>
       <c r="V51" t="s">
-        <v>102</v>
+        <v>611</v>
       </c>
       <c r="W51">
         <v>0</v>
       </c>
       <c r="X51" t="s">
-        <v>102</v>
+        <v>612</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="B52" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C52" t="s">
-        <v>42</v>
+        <v>179</v>
       </c>
       <c r="D52" t="s">
-        <v>597</v>
+        <v>613</v>
       </c>
       <c r="E52" t="s">
-        <v>598</v>
+        <v>614</v>
       </c>
       <c r="F52">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G52" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="H52" t="s">
-        <v>600</v>
+        <v>616</v>
       </c>
       <c r="I52" t="s">
-        <v>601</v>
+        <v>184</v>
       </c>
       <c r="J52" t="s">
-        <v>602</v>
+        <v>617</v>
       </c>
       <c r="K52">
         <v>3</v>
       </c>
       <c r="L52" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
       <c r="M52">
         <v>0</v>
       </c>
       <c r="N52" t="s">
-        <v>604</v>
+        <v>619</v>
       </c>
       <c r="O52">
         <v>0</v>
       </c>
       <c r="P52" t="s">
-        <v>605</v>
+        <v>620</v>
       </c>
       <c r="Q52">
         <v>0</v>
       </c>
       <c r="R52" t="s">
-        <v>606</v>
+        <v>347</v>
       </c>
       <c r="S52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T52" t="s">
-        <v>607</v>
+        <v>621</v>
       </c>
       <c r="U52">
         <v>0</v>
       </c>
       <c r="V52" t="s">
-        <v>608</v>
+        <v>349</v>
       </c>
       <c r="W52">
         <v>0</v>
       </c>
       <c r="X52" t="s">
-        <v>609</v>
+        <v>622</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="B53" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C53" t="s">
-        <v>610</v>
+        <v>46</v>
       </c>
       <c r="D53" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="E53" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="F53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G53" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="H53" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="I53" t="s">
-        <v>468</v>
+        <v>514</v>
       </c>
       <c r="J53" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="K53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L53" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="M53">
         <v>0</v>
       </c>
       <c r="N53" t="s">
-        <v>102</v>
+        <v>158</v>
       </c>
       <c r="O53">
         <v>0</v>
       </c>
       <c r="P53" t="s">
-        <v>102</v>
+        <v>158</v>
       </c>
       <c r="Q53">
         <v>0</v>
       </c>
       <c r="R53" t="s">
-        <v>102</v>
+        <v>158</v>
       </c>
       <c r="S53">
         <v>0</v>
       </c>
       <c r="T53" t="s">
-        <v>102</v>
+        <v>158</v>
       </c>
       <c r="U53">
         <v>0</v>
       </c>
       <c r="V53" t="s">
-        <v>102</v>
+        <v>158</v>
       </c>
       <c r="W53">
         <v>0</v>
       </c>
       <c r="X53" t="s">
-        <v>102</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="B54" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C54" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D54" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="E54" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="F54">
         <v>3</v>
       </c>
       <c r="G54" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="H54" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="I54" t="s">
-        <v>468</v>
+        <v>514</v>
       </c>
       <c r="J54" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="K54">
         <v>3</v>
       </c>
       <c r="L54" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="M54">
         <v>0</v>
       </c>
       <c r="N54" t="s">
-        <v>102</v>
+        <v>158</v>
       </c>
       <c r="O54">
         <v>0</v>
       </c>
       <c r="P54" t="s">
-        <v>102</v>
+        <v>158</v>
       </c>
       <c r="Q54">
         <v>0</v>
       </c>
       <c r="R54" t="s">
-        <v>102</v>
+        <v>158</v>
       </c>
       <c r="S54">
         <v>0</v>
       </c>
       <c r="T54" t="s">
-        <v>102</v>
+        <v>158</v>
       </c>
       <c r="U54">
         <v>0</v>
       </c>
       <c r="V54" t="s">
-        <v>102</v>
+        <v>158</v>
       </c>
       <c r="W54">
         <v>0</v>
       </c>
       <c r="X54" t="s">
-        <v>102</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="B55" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C55" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D55" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="E55" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="F55">
         <v>3</v>
       </c>
       <c r="G55" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="H55" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="I55" t="s">
-        <v>468</v>
+        <v>380</v>
       </c>
       <c r="J55" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="K55">
         <v>3</v>
       </c>
       <c r="L55" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="M55">
         <v>0</v>
       </c>
       <c r="N55" t="s">
-        <v>366</v>
+        <v>158</v>
       </c>
       <c r="O55">
         <v>0</v>
       </c>
       <c r="P55" t="s">
-        <v>629</v>
+        <v>158</v>
       </c>
       <c r="Q55">
         <v>0</v>
       </c>
       <c r="R55" t="s">
-        <v>367</v>
+        <v>158</v>
       </c>
       <c r="S55">
         <v>0</v>
       </c>
       <c r="T55" t="s">
-        <v>417</v>
+        <v>158</v>
       </c>
       <c r="U55">
         <v>0</v>
       </c>
       <c r="V55" t="s">
-        <v>369</v>
+        <v>158</v>
       </c>
       <c r="W55">
         <v>0</v>
       </c>
       <c r="X55" t="s">
-        <v>370</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>630</v>
+        <v>300</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="C56" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D56" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
       <c r="E56" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="F56">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G56" t="s">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="H56" t="s">
-        <v>634</v>
+        <v>644</v>
       </c>
       <c r="I56" t="s">
-        <v>635</v>
+        <v>645</v>
       </c>
       <c r="J56" t="s">
-        <v>636</v>
+        <v>646</v>
       </c>
       <c r="K56">
         <v>3</v>
       </c>
       <c r="L56" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
       <c r="M56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N56" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="O56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P56" t="s">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="Q56">
         <v>0</v>
       </c>
       <c r="R56" t="s">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="S56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T56" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
       <c r="U56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V56" t="s">
-        <v>642</v>
+        <v>652</v>
       </c>
       <c r="W56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X56" t="s">
-        <v>643</v>
+        <v>653</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>630</v>
+        <v>300</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="C57" t="s">
-        <v>644</v>
+        <v>654</v>
       </c>
       <c r="D57" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="E57" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
       <c r="F57">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G57" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
       <c r="H57" t="s">
-        <v>648</v>
+        <v>658</v>
       </c>
       <c r="I57" t="s">
-        <v>635</v>
+        <v>514</v>
       </c>
       <c r="J57" t="s">
-        <v>649</v>
+        <v>659</v>
       </c>
       <c r="K57">
         <v>3</v>
       </c>
       <c r="L57" t="s">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="M57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N57" t="s">
-        <v>651</v>
+        <v>158</v>
       </c>
       <c r="O57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P57" t="s">
-        <v>652</v>
+        <v>158</v>
       </c>
       <c r="Q57">
         <v>0</v>
       </c>
       <c r="R57" t="s">
-        <v>653</v>
+        <v>158</v>
       </c>
       <c r="S57">
         <v>0</v>
       </c>
       <c r="T57" t="s">
-        <v>654</v>
+        <v>158</v>
       </c>
       <c r="U57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V57" t="s">
-        <v>655</v>
+        <v>158</v>
       </c>
       <c r="W57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X57" t="s">
-        <v>656</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>630</v>
+        <v>300</v>
       </c>
       <c r="B58" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C58" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D58" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="E58" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="F58">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G58" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="H58" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="I58" t="s">
-        <v>661</v>
+        <v>514</v>
       </c>
       <c r="J58" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="K58">
         <v>3</v>
       </c>
       <c r="L58" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="M58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N58" t="s">
-        <v>664</v>
+        <v>158</v>
       </c>
       <c r="O58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P58" t="s">
-        <v>665</v>
+        <v>158</v>
       </c>
       <c r="Q58">
         <v>0</v>
       </c>
       <c r="R58" t="s">
-        <v>666</v>
+        <v>158</v>
       </c>
       <c r="S58">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T58" t="s">
-        <v>667</v>
+        <v>158</v>
       </c>
       <c r="U58">
         <v>0</v>
       </c>
       <c r="V58" t="s">
-        <v>668</v>
+        <v>158</v>
       </c>
       <c r="W58">
         <v>0</v>
       </c>
       <c r="X58" t="s">
-        <v>669</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>630</v>
+        <v>300</v>
       </c>
       <c r="B59" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C59" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D59" t="s">
+        <v>667</v>
+      </c>
+      <c r="E59" t="s">
+        <v>668</v>
+      </c>
+      <c r="F59">
+        <v>3</v>
+      </c>
+      <c r="G59" t="s">
+        <v>669</v>
+      </c>
+      <c r="H59" t="s">
         <v>670</v>
       </c>
-      <c r="E59" t="s">
+      <c r="I59" t="s">
+        <v>514</v>
+      </c>
+      <c r="J59" t="s">
         <v>671</v>
       </c>
-      <c r="F59">
-        <v>8</v>
-      </c>
-      <c r="G59" t="s">
+      <c r="K59">
+        <v>3</v>
+      </c>
+      <c r="L59" t="s">
         <v>672</v>
       </c>
-      <c r="H59" t="s">
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59" t="s">
+        <v>418</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" t="s">
         <v>673</v>
       </c>
-      <c r="I59" t="s">
-        <v>674</v>
-      </c>
-      <c r="J59" t="s">
-        <v>675</v>
-      </c>
-      <c r="K59">
-        <v>2</v>
-      </c>
-      <c r="L59" t="s">
-        <v>676</v>
-      </c>
-      <c r="M59">
-        <v>1</v>
-      </c>
-      <c r="N59" t="s">
-        <v>677</v>
-      </c>
-      <c r="O59">
-        <v>3</v>
-      </c>
-      <c r="P59" t="s">
-        <v>678</v>
-      </c>
       <c r="Q59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R59" t="s">
-        <v>679</v>
+        <v>56</v>
       </c>
       <c r="S59">
         <v>0</v>
       </c>
       <c r="T59" t="s">
-        <v>680</v>
+        <v>57</v>
       </c>
       <c r="U59">
         <v>0</v>
       </c>
       <c r="V59" t="s">
-        <v>681</v>
+        <v>58</v>
       </c>
       <c r="W59">
         <v>0</v>
       </c>
       <c r="X59" t="s">
-        <v>682</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>630</v>
+        <v>674</v>
       </c>
       <c r="B60" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C60" t="s">
-        <v>683</v>
+        <v>46</v>
       </c>
       <c r="D60" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="E60" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="F60">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G60" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="H60" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="I60" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="J60" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="K60">
         <v>3</v>
       </c>
       <c r="L60" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="M60">
         <v>2</v>
       </c>
       <c r="N60" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="O60">
         <v>1</v>
       </c>
       <c r="P60" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="Q60">
         <v>0</v>
       </c>
       <c r="R60" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="S60">
+        <v>1</v>
+      </c>
+      <c r="T60" t="s">
+        <v>685</v>
+      </c>
+      <c r="U60">
         <v>2</v>
       </c>
-      <c r="T60" t="s">
-        <v>694</v>
-      </c>
-      <c r="U60">
-        <v>0</v>
-      </c>
       <c r="V60" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="W60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X60" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>630</v>
+        <v>674</v>
       </c>
       <c r="B61" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C61" t="s">
-        <v>42</v>
+        <v>688</v>
       </c>
       <c r="D61" t="s">
+        <v>689</v>
+      </c>
+      <c r="E61" t="s">
+        <v>690</v>
+      </c>
+      <c r="F61">
+        <v>9</v>
+      </c>
+      <c r="G61" t="s">
+        <v>691</v>
+      </c>
+      <c r="H61" t="s">
+        <v>692</v>
+      </c>
+      <c r="I61" t="s">
+        <v>679</v>
+      </c>
+      <c r="J61" t="s">
+        <v>693</v>
+      </c>
+      <c r="K61">
+        <v>3</v>
+      </c>
+      <c r="L61" t="s">
+        <v>694</v>
+      </c>
+      <c r="M61">
+        <v>2</v>
+      </c>
+      <c r="N61" t="s">
+        <v>695</v>
+      </c>
+      <c r="O61">
+        <v>1</v>
+      </c>
+      <c r="P61" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61" t="s">
         <v>697</v>
       </c>
-      <c r="E61" t="s">
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61" t="s">
         <v>698</v>
       </c>
-      <c r="F61">
-        <v>6</v>
-      </c>
-      <c r="G61" t="s">
+      <c r="U61">
+        <v>2</v>
+      </c>
+      <c r="V61" t="s">
         <v>699</v>
       </c>
-      <c r="H61" t="s">
+      <c r="W61">
+        <v>1</v>
+      </c>
+      <c r="X61" t="s">
         <v>700</v>
-      </c>
-      <c r="I61" t="s">
-        <v>701</v>
-      </c>
-      <c r="J61" t="s">
-        <v>702</v>
-      </c>
-      <c r="K61">
-        <v>2</v>
-      </c>
-      <c r="L61" t="s">
-        <v>703</v>
-      </c>
-      <c r="M61">
-        <v>1</v>
-      </c>
-      <c r="N61" t="s">
-        <v>704</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="P61" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q61">
-        <v>3</v>
-      </c>
-      <c r="R61" t="s">
-        <v>705</v>
-      </c>
-      <c r="S61">
-        <v>0</v>
-      </c>
-      <c r="T61" t="s">
-        <v>114</v>
-      </c>
-      <c r="U61">
-        <v>0</v>
-      </c>
-      <c r="V61" t="s">
-        <v>115</v>
-      </c>
-      <c r="W61">
-        <v>0</v>
-      </c>
-      <c r="X61" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>630</v>
+        <v>674</v>
       </c>
       <c r="B62" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C62" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D62" t="s">
+        <v>701</v>
+      </c>
+      <c r="E62" t="s">
+        <v>702</v>
+      </c>
+      <c r="F62">
+        <v>9</v>
+      </c>
+      <c r="G62" t="s">
+        <v>703</v>
+      </c>
+      <c r="H62" t="s">
+        <v>704</v>
+      </c>
+      <c r="I62" t="s">
+        <v>705</v>
+      </c>
+      <c r="J62" t="s">
         <v>706</v>
-      </c>
-      <c r="E62" t="s">
-        <v>707</v>
-      </c>
-      <c r="F62">
-        <v>5</v>
-      </c>
-      <c r="G62" t="s">
-        <v>708</v>
-      </c>
-      <c r="H62" t="s">
-        <v>709</v>
-      </c>
-      <c r="I62" t="s">
-        <v>710</v>
-      </c>
-      <c r="J62" t="s">
-        <v>711</v>
       </c>
       <c r="K62">
         <v>3</v>
       </c>
       <c r="L62" t="s">
+        <v>707</v>
+      </c>
+      <c r="M62">
+        <v>2</v>
+      </c>
+      <c r="N62" t="s">
+        <v>708</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+      <c r="P62" t="s">
+        <v>709</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62" t="s">
+        <v>710</v>
+      </c>
+      <c r="S62">
+        <v>3</v>
+      </c>
+      <c r="T62" t="s">
+        <v>711</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+      <c r="V62" t="s">
         <v>712</v>
       </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-      <c r="N62" t="s">
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62" t="s">
         <v>713</v>
-      </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-      <c r="P62" t="s">
-        <v>714</v>
-      </c>
-      <c r="Q62">
-        <v>0</v>
-      </c>
-      <c r="R62" t="s">
-        <v>715</v>
-      </c>
-      <c r="S62">
-        <v>2</v>
-      </c>
-      <c r="T62" t="s">
-        <v>716</v>
-      </c>
-      <c r="U62">
-        <v>0</v>
-      </c>
-      <c r="V62" t="s">
-        <v>717</v>
-      </c>
-      <c r="W62">
-        <v>0</v>
-      </c>
-      <c r="X62" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>630</v>
+        <v>674</v>
       </c>
       <c r="B63" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C63" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D63" t="s">
+        <v>714</v>
+      </c>
+      <c r="E63" t="s">
+        <v>715</v>
+      </c>
+      <c r="F63">
+        <v>8</v>
+      </c>
+      <c r="G63" t="s">
+        <v>716</v>
+      </c>
+      <c r="H63" t="s">
+        <v>717</v>
+      </c>
+      <c r="I63" t="s">
+        <v>718</v>
+      </c>
+      <c r="J63" t="s">
         <v>719</v>
-      </c>
-      <c r="E63" t="s">
-        <v>720</v>
-      </c>
-      <c r="F63">
-        <v>4</v>
-      </c>
-      <c r="G63" t="s">
-        <v>721</v>
-      </c>
-      <c r="H63" t="s">
-        <v>722</v>
-      </c>
-      <c r="I63" t="s">
-        <v>674</v>
-      </c>
-      <c r="J63" t="s">
-        <v>723</v>
       </c>
       <c r="K63">
         <v>2</v>
       </c>
       <c r="L63" t="s">
-        <v>703</v>
+        <v>720</v>
       </c>
       <c r="M63">
         <v>1</v>
       </c>
       <c r="N63" t="s">
+        <v>721</v>
+      </c>
+      <c r="O63">
+        <v>3</v>
+      </c>
+      <c r="P63" t="s">
+        <v>722</v>
+      </c>
+      <c r="Q63">
+        <v>2</v>
+      </c>
+      <c r="R63" t="s">
+        <v>723</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63" t="s">
         <v>724</v>
       </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-      <c r="P63" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q63">
-        <v>1</v>
-      </c>
-      <c r="R63" t="s">
-        <v>705</v>
-      </c>
-      <c r="S63">
-        <v>0</v>
-      </c>
-      <c r="T63" t="s">
-        <v>207</v>
-      </c>
       <c r="U63">
         <v>0</v>
       </c>
       <c r="V63" t="s">
-        <v>207</v>
+        <v>725</v>
       </c>
       <c r="W63">
         <v>0</v>
       </c>
       <c r="X63" t="s">
-        <v>207</v>
+        <v>726</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>725</v>
+        <v>674</v>
       </c>
       <c r="B64" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C64" t="s">
-        <v>42</v>
+        <v>727</v>
       </c>
       <c r="D64" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="E64" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="F64">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G64" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="H64" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="I64" t="s">
-        <v>661</v>
+        <v>732</v>
       </c>
       <c r="J64" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="K64">
+        <v>3</v>
+      </c>
+      <c r="L64" t="s">
+        <v>734</v>
+      </c>
+      <c r="M64">
         <v>2</v>
       </c>
-      <c r="L64" t="s">
-        <v>731</v>
-      </c>
-      <c r="M64">
-        <v>0</v>
-      </c>
       <c r="N64" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P64" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="Q64">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R64" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="S64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T64" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="U64">
         <v>0</v>
       </c>
       <c r="V64" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="W64">
         <v>0</v>
       </c>
       <c r="X64" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>725</v>
+        <v>674</v>
       </c>
       <c r="B65" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="C65" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D65" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="E65" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="F65">
         <v>6</v>
       </c>
       <c r="G65" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="H65" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="I65" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="J65" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="K65">
+        <v>2</v>
+      </c>
+      <c r="L65" t="s">
+        <v>747</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s">
+        <v>748</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q65">
         <v>3</v>
       </c>
-      <c r="L65" t="s">
-        <v>744</v>
-      </c>
-      <c r="M65">
-        <v>2</v>
-      </c>
-      <c r="N65" t="s">
-        <v>745</v>
-      </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-      <c r="P65" t="s">
-        <v>746</v>
-      </c>
-      <c r="Q65">
-        <v>1</v>
-      </c>
       <c r="R65" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="S65">
         <v>0</v>
       </c>
       <c r="T65" t="s">
-        <v>748</v>
+        <v>169</v>
       </c>
       <c r="U65">
         <v>0</v>
       </c>
       <c r="V65" t="s">
-        <v>749</v>
+        <v>170</v>
       </c>
       <c r="W65">
         <v>0</v>
       </c>
       <c r="X65" t="s">
-        <v>750</v>
+        <v>171</v>
       </c>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>725</v>
+        <v>674</v>
       </c>
       <c r="B66" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C66" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D66" t="s">
+        <v>750</v>
+      </c>
+      <c r="E66" t="s">
         <v>751</v>
-      </c>
-      <c r="E66" t="s">
-        <v>752</v>
       </c>
       <c r="F66">
         <v>5</v>
       </c>
       <c r="G66" t="s">
+        <v>752</v>
+      </c>
+      <c r="H66" t="s">
         <v>753</v>
       </c>
-      <c r="H66" t="s">
+      <c r="I66" t="s">
         <v>754</v>
       </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>755</v>
-      </c>
-      <c r="J66" t="s">
-        <v>756</v>
       </c>
       <c r="K66">
         <v>3</v>
       </c>
       <c r="L66" t="s">
+        <v>756</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66" t="s">
         <v>757</v>
-      </c>
-      <c r="M66">
-        <v>0</v>
-      </c>
-      <c r="N66" t="s">
-        <v>331</v>
       </c>
       <c r="O66">
         <v>0</v>
@@ -7818,373 +7960,669 @@
         <v>0</v>
       </c>
       <c r="V66" t="s">
-        <v>54</v>
+        <v>761</v>
       </c>
       <c r="W66">
         <v>0</v>
       </c>
       <c r="X66" t="s">
-        <v>55</v>
+        <v>762</v>
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>761</v>
+        <v>674</v>
       </c>
       <c r="B67" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="C67" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D67" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="E67" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="F67">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G67" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H67" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="I67" t="s">
-        <v>766</v>
+        <v>718</v>
       </c>
       <c r="J67" t="s">
         <v>767</v>
       </c>
       <c r="K67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L67" t="s">
-        <v>768</v>
+        <v>747</v>
       </c>
       <c r="M67">
         <v>1</v>
       </c>
       <c r="N67" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="O67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P67" t="s">
-        <v>770</v>
+        <v>261</v>
       </c>
       <c r="Q67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R67" t="s">
-        <v>771</v>
+        <v>749</v>
       </c>
       <c r="S67">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T67" t="s">
-        <v>772</v>
+        <v>261</v>
       </c>
       <c r="U67">
         <v>0</v>
       </c>
       <c r="V67" t="s">
-        <v>773</v>
+        <v>261</v>
       </c>
       <c r="W67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X67" t="s">
-        <v>774</v>
+        <v>261</v>
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>761</v>
+        <v>769</v>
       </c>
       <c r="B68" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C68" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D68" t="s">
+        <v>770</v>
+      </c>
+      <c r="E68" t="s">
+        <v>771</v>
+      </c>
+      <c r="F68">
+        <v>6</v>
+      </c>
+      <c r="G68" t="s">
+        <v>772</v>
+      </c>
+      <c r="H68" t="s">
+        <v>773</v>
+      </c>
+      <c r="I68" t="s">
+        <v>705</v>
+      </c>
+      <c r="J68" t="s">
+        <v>774</v>
+      </c>
+      <c r="K68">
+        <v>2</v>
+      </c>
+      <c r="L68" t="s">
         <v>775</v>
       </c>
-      <c r="E68" t="s">
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68" t="s">
         <v>776</v>
       </c>
-      <c r="F68">
-        <v>5</v>
-      </c>
-      <c r="G68" t="s">
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68" t="s">
         <v>777</v>
       </c>
-      <c r="H68" t="s">
+      <c r="Q68">
+        <v>4</v>
+      </c>
+      <c r="R68" t="s">
         <v>778</v>
       </c>
-      <c r="I68" t="s">
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68" t="s">
         <v>779</v>
       </c>
-      <c r="J68" t="s">
+      <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="V68" t="s">
         <v>780</v>
       </c>
-      <c r="K68">
-        <v>3</v>
-      </c>
-      <c r="L68" t="s">
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68" t="s">
         <v>781</v>
-      </c>
-      <c r="M68">
-        <v>0</v>
-      </c>
-      <c r="N68" t="s">
-        <v>782</v>
-      </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
-      <c r="P68" t="s">
-        <v>783</v>
-      </c>
-      <c r="Q68">
-        <v>0</v>
-      </c>
-      <c r="R68" t="s">
-        <v>784</v>
-      </c>
-      <c r="S68">
-        <v>2</v>
-      </c>
-      <c r="T68" t="s">
-        <v>785</v>
-      </c>
-      <c r="U68">
-        <v>0</v>
-      </c>
-      <c r="V68" t="s">
-        <v>786</v>
-      </c>
-      <c r="W68">
-        <v>0</v>
-      </c>
-      <c r="X68" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>761</v>
+        <v>769</v>
       </c>
       <c r="B69" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="C69" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D69" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="E69" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="F69">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G69" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="H69" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="I69" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="J69" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="K69">
         <v>3</v>
       </c>
       <c r="L69" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="M69">
         <v>2</v>
       </c>
       <c r="N69" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="O69">
         <v>0</v>
       </c>
       <c r="P69" t="s">
-        <v>207</v>
+        <v>790</v>
       </c>
       <c r="Q69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R69" t="s">
-        <v>207</v>
+        <v>791</v>
       </c>
       <c r="S69">
         <v>0</v>
       </c>
       <c r="T69" t="s">
-        <v>207</v>
+        <v>792</v>
       </c>
       <c r="U69">
         <v>0</v>
       </c>
       <c r="V69" t="s">
-        <v>207</v>
+        <v>793</v>
       </c>
       <c r="W69">
         <v>0</v>
       </c>
       <c r="X69" t="s">
-        <v>207</v>
+        <v>794</v>
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>769</v>
+      </c>
+      <c r="B70" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70" t="s">
+        <v>46</v>
+      </c>
+      <c r="D70" t="s">
+        <v>795</v>
+      </c>
+      <c r="E70" t="s">
         <v>796</v>
       </c>
-      <c r="B70" t="s">
-        <v>25</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="F70">
+        <v>5</v>
+      </c>
+      <c r="G70" t="s">
         <v>797</v>
       </c>
-      <c r="D70" t="s">
+      <c r="H70" t="s">
         <v>798</v>
       </c>
-      <c r="E70" t="s">
+      <c r="I70" t="s">
         <v>799</v>
       </c>
-      <c r="F70">
-        <v>9</v>
-      </c>
-      <c r="G70" t="s">
+      <c r="J70" t="s">
         <v>800</v>
       </c>
-      <c r="H70" t="s">
+      <c r="K70">
+        <v>3</v>
+      </c>
+      <c r="L70" t="s">
         <v>801</v>
       </c>
-      <c r="I70" t="s">
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70" t="s">
+        <v>383</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70" t="s">
         <v>802</v>
       </c>
-      <c r="J70" t="s">
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70" t="s">
         <v>803</v>
       </c>
-      <c r="K70">
+      <c r="S70">
         <v>2</v>
       </c>
-      <c r="L70" t="s">
+      <c r="T70" t="s">
         <v>804</v>
       </c>
-      <c r="M70">
-        <v>3</v>
-      </c>
-      <c r="N70" t="s">
-        <v>805</v>
-      </c>
-      <c r="O70">
-        <v>1</v>
-      </c>
-      <c r="P70" t="s">
-        <v>806</v>
-      </c>
-      <c r="Q70">
-        <v>0</v>
-      </c>
-      <c r="R70" t="s">
-        <v>807</v>
-      </c>
-      <c r="S70">
-        <v>0</v>
-      </c>
-      <c r="T70" t="s">
-        <v>808</v>
-      </c>
       <c r="U70">
         <v>0</v>
       </c>
       <c r="V70" t="s">
-        <v>809</v>
+        <v>111</v>
       </c>
       <c r="W70">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X70" t="s">
-        <v>810</v>
+        <v>112</v>
       </c>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>796</v>
+        <v>805</v>
       </c>
       <c r="B71" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C71" t="s">
+        <v>46</v>
+      </c>
+      <c r="D71" t="s">
+        <v>806</v>
+      </c>
+      <c r="E71" t="s">
+        <v>807</v>
+      </c>
+      <c r="F71">
+        <v>11</v>
+      </c>
+      <c r="G71" t="s">
+        <v>808</v>
+      </c>
+      <c r="H71" t="s">
+        <v>809</v>
+      </c>
+      <c r="I71" t="s">
+        <v>810</v>
+      </c>
+      <c r="J71" t="s">
         <v>811</v>
-      </c>
-      <c r="D71" t="s">
-        <v>812</v>
-      </c>
-      <c r="E71" t="s">
-        <v>813</v>
-      </c>
-      <c r="F71">
-        <v>8</v>
-      </c>
-      <c r="G71" t="s">
-        <v>814</v>
-      </c>
-      <c r="H71" t="s">
-        <v>815</v>
-      </c>
-      <c r="I71" t="s">
-        <v>816</v>
-      </c>
-      <c r="J71" t="s">
-        <v>817</v>
       </c>
       <c r="K71">
         <v>3</v>
       </c>
       <c r="L71" t="s">
+        <v>812</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
+        <v>813</v>
+      </c>
+      <c r="O71">
+        <v>2</v>
+      </c>
+      <c r="P71" t="s">
+        <v>814</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71" t="s">
+        <v>815</v>
+      </c>
+      <c r="S71">
+        <v>3</v>
+      </c>
+      <c r="T71" t="s">
+        <v>816</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71" t="s">
+        <v>817</v>
+      </c>
+      <c r="W71">
+        <v>2</v>
+      </c>
+      <c r="X71" t="s">
         <v>818</v>
       </c>
-      <c r="M71">
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>805</v>
+      </c>
+      <c r="B72" t="s">
+        <v>30</v>
+      </c>
+      <c r="C72" t="s">
+        <v>46</v>
+      </c>
+      <c r="D72" t="s">
+        <v>819</v>
+      </c>
+      <c r="E72" t="s">
+        <v>820</v>
+      </c>
+      <c r="F72">
+        <v>5</v>
+      </c>
+      <c r="G72" t="s">
+        <v>821</v>
+      </c>
+      <c r="H72" t="s">
+        <v>822</v>
+      </c>
+      <c r="I72" t="s">
+        <v>823</v>
+      </c>
+      <c r="J72" t="s">
+        <v>824</v>
+      </c>
+      <c r="K72">
+        <v>3</v>
+      </c>
+      <c r="L72" t="s">
+        <v>825</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72" t="s">
+        <v>826</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72" t="s">
+        <v>827</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72" t="s">
+        <v>828</v>
+      </c>
+      <c r="S72">
         <v>2</v>
       </c>
-      <c r="N71" t="s">
-        <v>819</v>
-      </c>
-      <c r="O71">
+      <c r="T72" t="s">
+        <v>829</v>
+      </c>
+      <c r="U72">
+        <v>0</v>
+      </c>
+      <c r="V72" t="s">
+        <v>830</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>805</v>
+      </c>
+      <c r="B73" t="s">
+        <v>45</v>
+      </c>
+      <c r="C73" t="s">
+        <v>46</v>
+      </c>
+      <c r="D73" t="s">
+        <v>832</v>
+      </c>
+      <c r="E73" t="s">
+        <v>833</v>
+      </c>
+      <c r="F73">
+        <v>5</v>
+      </c>
+      <c r="G73" t="s">
+        <v>834</v>
+      </c>
+      <c r="H73" t="s">
+        <v>835</v>
+      </c>
+      <c r="I73" t="s">
+        <v>836</v>
+      </c>
+      <c r="J73" t="s">
+        <v>837</v>
+      </c>
+      <c r="K73">
+        <v>3</v>
+      </c>
+      <c r="L73" t="s">
+        <v>838</v>
+      </c>
+      <c r="M73">
+        <v>2</v>
+      </c>
+      <c r="N73" t="s">
+        <v>839</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73" t="s">
+        <v>261</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73" t="s">
+        <v>261</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="V73" t="s">
+        <v>261</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>840</v>
+      </c>
+      <c r="B74" t="s">
+        <v>25</v>
+      </c>
+      <c r="C74" t="s">
+        <v>841</v>
+      </c>
+      <c r="D74" t="s">
+        <v>842</v>
+      </c>
+      <c r="E74" t="s">
+        <v>843</v>
+      </c>
+      <c r="F74">
+        <v>9</v>
+      </c>
+      <c r="G74" t="s">
+        <v>844</v>
+      </c>
+      <c r="H74" t="s">
+        <v>845</v>
+      </c>
+      <c r="I74" t="s">
+        <v>846</v>
+      </c>
+      <c r="J74" t="s">
+        <v>847</v>
+      </c>
+      <c r="K74">
+        <v>2</v>
+      </c>
+      <c r="L74" t="s">
+        <v>848</v>
+      </c>
+      <c r="M74">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>849</v>
+      </c>
+      <c r="O74">
         <v>1</v>
       </c>
-      <c r="P71" t="s">
-        <v>820</v>
-      </c>
-      <c r="Q71">
-        <v>0</v>
-      </c>
-      <c r="S71">
+      <c r="P74" t="s">
+        <v>850</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74" t="s">
+        <v>851</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74" t="s">
+        <v>852</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="V74" t="s">
+        <v>853</v>
+      </c>
+      <c r="W74">
+        <v>3</v>
+      </c>
+      <c r="X74" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>840</v>
+      </c>
+      <c r="B75" t="s">
+        <v>30</v>
+      </c>
+      <c r="C75" t="s">
+        <v>855</v>
+      </c>
+      <c r="D75" t="s">
+        <v>856</v>
+      </c>
+      <c r="E75" t="s">
+        <v>857</v>
+      </c>
+      <c r="F75">
+        <v>8</v>
+      </c>
+      <c r="G75" t="s">
+        <v>858</v>
+      </c>
+      <c r="H75" t="s">
+        <v>859</v>
+      </c>
+      <c r="I75" t="s">
+        <v>860</v>
+      </c>
+      <c r="J75" t="s">
+        <v>861</v>
+      </c>
+      <c r="K75">
+        <v>3</v>
+      </c>
+      <c r="L75" t="s">
+        <v>862</v>
+      </c>
+      <c r="M75">
         <v>2</v>
       </c>
-      <c r="T71" t="s">
-        <v>821</v>
-      </c>
-      <c r="U71">
-        <v>0</v>
-      </c>
-      <c r="W71">
+      <c r="N75" t="s">
+        <v>863</v>
+      </c>
+      <c r="O75">
+        <v>1</v>
+      </c>
+      <c r="P75" t="s">
+        <v>864</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>2</v>
+      </c>
+      <c r="T75" t="s">
+        <v>865</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="W75">
         <v>0</v>
       </c>
     </row>

--- a/resource/04_UPLOAD.xlsx
+++ b/resource/04_UPLOAD.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X74"/>
+  <dimension ref="A1:X73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,7 +558,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2023-10-13</t>
+          <t>2023-10-14</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -568,40 +568,40 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>삼성운용</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>삼성운용, 월배당 'KODEX 미국배당프리미엄 액티브' 보수 인하</t>
+          <t>“65세 이후 보릿고개? 배당주 ETF로 넘겨요”[기똥찬 재테크]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>삼성자산운용은 KODEX 미국배당프리미엄액티브 ETF의 보수를 연 0.19로 인하한다고 밝혔다. 이 ETF는 배당성장주에 투자하며, 커버드콜 전략을 활용하여 안정적인 월배당금을 지급한다.</t>
+          <t>고배당 ETF는 배당 수익률이 높은 종목들을 편입한 ETF로 분산투자 효과와 장기적인 수익을 기대할 수 있다. ARIRANG 고배당주 ETF는 최근 3개월 수익률이 9.19로 가장 높았으며, 주로 은행주와 통신주로 구성되어 있다.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004948319?sid=101</t>
+          <t>https://n.news.naver.com/mnews/article/014/0005085641?sid=101</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>삼성자산운용은 13일 미국 배당주에 투자하는 국내 투자자를 위해 KODEX 미국배당프리미엄액티브 ETF의 보수를 업계 최저 수준인 연 0.19로 인하한다고 밝혔다.KODEX 미국배당프리미엄 액티브 ETF는 기존 연 0.43의 총 보수를 연 0.19로 낮추면서 투자자들의 이익을 높이게 됐다. 연 0.19는 미국 주식을 기반으로 커버드콜 전략을 활용하는 국내 월배당 ETF 중 가장 낮은 보수다.지난해 9월 27일 상장한 KODEX 미국배당프리미엄 액티브는 미국 운용사 앰플리파이 Amplify의 대표적인 메가히트 ETF인 DIVO ETF AMPLIFY CWP 인핸스드 디비던드 인컴 ETF를 국내 투자 환경에 맞춰 현지화한 상품이다. 미국 SP500 종목 중 유나이티드헬스그룹 비자 쉐브론 마이크로소프트 애플 PG JP모건 골드만삭스 월마트 머크 등처럼 배당을 장기간 늘려온 우량 배당성장주를 선별해 투자함으로써 IT 금융 헬스케어 소비재 산업재 에너지 등 다양한 업종에 분산투자한다. KODEX 미국배당프리미엄 액티브에 투자하면 미국 현지 DIVO ETF의 총 보수인 연 0.55보다 낮은 연 0.19로 투자할 수 있기 때문에 효율적이다.특히 이 ETF는 기계적인 커버드콜 방식 대신 시장 상황에 따라 개별 종목 중 일부를 선별해 탄력적으로 커버드콜을 적용한다. 배당성장주의 변동성 낮은 시세 차익과 함께 상대적으로 더 많은 월배당금을 안정적으로 지급하기 위해 투자 대상 기업의 배당 외에 포트폴리오의 20 가량 종목에 대해 특정 가격에 종목 또는 지수를 살 수 있는 권리 콜옵션를 매도하는 전략 커버드콜을 사용해 추가적인 배당 재원을 마련하고 있다. KODEX 미국배당프리미엄 액티브는 작년 9월 상장 이후 매월 1주당 50원 이상 연평균 6.3 수준의 현금 배당을 꾸준히 지급하고 있다. 상장 이후 수익률은 배당 포함 5.78를 기록했다. 투자자가 1억원을 투자했다면 세전 월평균 약 52만원 정도를 지속적으로 지급받고 있는 셈이다. 또한 2023년에는 매월 0.5 이상으로 분배금을 지급해 투자자들의 호평을 받고 있다.정재욱 삼성자산운용 ETF운용3팀장은 시장 변동성이 높은 상황에서 안정적이고 장기적인 투자 수요가 늘고 있어 투자자들을 위해 이번 보수 인하를 결정했다며 KODEX 미국배당프리미엄 액티브는 현금 흐름을 동반한 안정적인 투자를 원하는 장기 투자자 또는 연금투자자들에게 추천할 만한 ETF로 업계 최저 수준의 보수를 통해 보다 효율적인 투자를 하실 수 있도록 상품 경쟁력을 높일 예정이라고 말했다.KODEX 미국 배당프리미엄 액티브 ETF를 포함한 월배당 지급식 상품은 연금저축 또는 IRP를 포함한 퇴직연금 계좌를 통해 장기 투자할 경우 배당 유입금에 대해 과세 이연 효과를 누릴 수 있다. 만 55세 이후 인출 조건에 해당될 경우 분리 과세 15.4 보다 크게 낮은 3.35.5의 연금소득세를 적용받을 수 있다.</t>
+          <t xml:space="preserve"> 어느 때보다 투자하기 어려운 환경이라는 이야기가 들리는 요즘입니다. 물가를 잡기 위해 전세계의 고금리 기조가 장기화하면서 경기 침체가 지속되고 최근에는 지정학적 리스크도 불거졌는데요. 국내 증시도 2차전지 초전도체 등 테마주 랠리로 올해 급등락을 반복하며 변동성이 커지고 있습니다. 이럴 때일수록 주기적인 배당을 실시하는 상장지수펀드 ETF에 대한 관심이 커지고 있는데요. 개별 종목에 대한 리스크를 분산할 수 있고 장기 연금투자자라면 꾸준한 주가 상승과 함께 배당금 재투자를 통한 복리 효과를 기대할 수도 있습니다. 오늘은 불확실성이 커질수록 주목받는 고배당 ETF에 대해 알아보겠습니다.  수익 높은 고배당 ETF 은행통신주 품었다 고배당 ETF란 대형주를 중심으로 배당 수익률이 높은 고배당 종목들을 편입한 ETF입니다. 가장 큰 장점은 분산투자 효과입니다. 개별 종목의 실적 저하 유상증자 배당컷 등의 이슈가 발생했을 때 주가 하락으로 인한 손실을 줄일 수 있습니다. 또 지수를 추종하는 상품인 만큼 장기적으로 수익을 올리는 데 적합합니다. 현금 흐름을 챙기면서 안정적인 투자를 하고 싶은 장기 투자자 연금 생활자라면 눈여겨봐야 할 상품인 거죠. 에프엔 가이드에 따르면 최근 3개월 7월11일10월11일 사이에 가장 높은 수익률을 기록한 고배당 ETF는 ARIRANG 고배당주 ETF입니다. 국내 증시에 상장된 고배당주 ETF 중 자산 규모가 1919억원으로 가장 큰 ARIRANG 고배당주 ETF의 최근 3개월 수익률은 9.19를 기록했습니다. ARIRANG 고배당주 ETF는 코스피 시가총액 상위 200개 종목 가운데 예상 배당수익률이 가장 높은 상위 30개 종목으로 구성된 에프앤가이드 고배당주 지수를 따릅니다. 수익률이 높은 배당주 ETF의 세부 종목을 살펴보면 우량기업 은행주 통신주 등이 많은데요. 금리 환율 등 변수에 영향을 상대적으로 덜 받기 때문입니다. 특히 은행보험 등 금융주는 배당수익률은 높은데 주가 수준은 저점에 머물러 주가 상승 가능성도 남아 있죠. ARIRANG 고배당주 ETF의 비중 상위 종목도 기업은행 KB금융 우리금융지주 JB금융지주 하나금융지주 등 은행주로 이뤄져 있고 TIMEFOLIO Korea플러스배당액티브도 삼성전자 4대 은행지주 KB신한하나우리 HANARO고배당 KOSEF고배당도 은행지주 통신주를 집중적으로 담고 있죠.  시황 맞춰 포트폴리오 조정하고 커버드콜로 배당률 높이는 ETF도 불안한 시장에 방어력이 돋보이는 상품도 있습니다. 시황 및 투자 트렌드에 따라 편입 종목을 조정하는 타임폴리오 ETF인데요. 예를 들어 미국발 금융 불안이 야기돼 금융주가 떨어지면 비중을 줄여 리스크를 최소화하는 방식입니다. 그중에서도 TIMEFOLIO Korea플러스배당액티브 ETF는 배당 ETF지만 금융주보다 삼성전자 SK하이닉스 농심 등 올해 주가가 뛴 종목들을 주로 편입 중입니다. 자사주 매입으로 주주가치를 제고 중인 메리츠금융지주의 비중도 높은데요. 해당 ETF의 최근 3개월 수익률은 8.41로 ARIRANG 고배당주 다음으로 높았습니다. 고배당주를 담으면서도 커버드콜 전략을 활용하는 하이브리드형 ETF도 있습니다. 커버드콜 전략은 주가지수를 매수하고 콜옵션을 매도해 주가지수가 상승할 때는 수익이 제한되지만 횡보하거나 하락할 때 추가 수익을 얻을 수 있는 전략인데요. 국내 상장 옵션의 매도 프리미엄의 경우 비과세 수익에 해당해 분배금으로 지급 시 세금이 부과되지 않고 콜옵션 매도 비중을 조정하면 주가지수 상승을 따라가면서 옵션 프리미엄을 얻을 수도 있습니다. KBSTAR 200고배당커버드콜ATM은 최근 3개월 동안 8.12의 수익률을 기록하는 등 하이브리드형 ETF에서 좋은 성과를 내고 있는 상품입니다. 제일기획 KT HD현대 GS 등에 투자하면서 코스피200콜옵션을 매도해 배당과 함께 콜옵션 매도로부터 생기는 수익금을 투자자에게 배분하고 있는 것이 특징입니다.  연간 분배율구성 종목 면밀히 확인해야 고배당 ETF에 투자할 때는 연간 분배율도 따져봐야 합니다. 분배율이란 주식의 배당수익률과 비슷하게 주당분배금을 ETF의 현재 가격으로 나눈 비율을 뜻하는데요. 현재 국내 배당주 ETF 중 연간 분배율이 가장 높은 상품은 TIGER 미국나스닥100커버드콜 합성로 11.66입니다. 주의할 점은 같은 고배당주 ETF여도 구성 종목 등에 따라 수익률 차이가 크기 때문에 단순히 수익률 배당률만 보고 투자하는 것이 아니라 투자하는 기업이 어떤 걸 포함하는지 확인해야 한다는 겁니다. 예를 들어 KB스타 고배당 ETF의 경우 삼성전자의 비중이 매우 큰데요. 그 때문에 삼성전자에 직접 투자하고 있는 투자자보다는 국내 투자상품이 하나도 없다는 분들이 KB스타 고배당에 투자하는 것이 합리적이겠죠. 배당주 ETF는 연금계좌를 통해 투자하는 것이 좋습니다. 분배금에 부과되는 배당소득세를 절감할 수 있기 때문인데요. 주식 등에 투자해 배당금을 받을 때는 15.4의 세율을 부과하지만 연금계좌에서 발생한 배당은 당장 세금을 부과하지 않고 인출할 때 과세하게 됩니다. 따라서 만 55세 이후 연금을 수령하는 연금저축과 개인형 퇴직연금 IRP 가입자는 이때 3.35.5의 저율의 세금만 내면 되기 때문에 효율적입니다.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>['퇴직소득세', '삼성 퇴직연금', '퇴직연금 장기 투자']</t>
+          <t>['IRP 연금수령', '퇴직소득세', '퇴직연금 ETF']</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[{'퇴직소득세': 40}, {'삼성 퇴직연금': 1}, {'퇴직연금 장기 투자': 47}]</t>
+          <t>[{'IRP 연금수령': 41}, {'퇴직소득세': 43}, {'퇴직연금 ETF': 1}]</t>
         </is>
       </c>
       <c r="K2" t="n">
@@ -609,23 +609,23 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>삼성자산운용은 KODEX 미국배당프리미엄액티브 ETF의 보수를 인하하여 투자자들의 이익을 높였다.</t>
+          <t>고배당 ETF의 수익률과 구성 종목에 대한 정보가 제공되어 있어서 3점을 주었습니다.</t>
         </is>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>고배당 ETF에 대한 경쟁 동향이나 시장 점유율, 신제품 및 서비스 출시에 대한 정보가 제공되지 않아 0점을 주었습니다.</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
         <v>2</v>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>KODEX 미국배당프리미엄액티브 ETF는 배당성장주에 투자하며, 효율적인 투자를 할 수 있는 상품 경쟁력을 가지고 있다.</t>
-        </is>
-      </c>
-      <c r="O2" t="n">
-        <v>1</v>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>이 기사에서는 금융 시장의 변동성에 대한 언급이 없어서 점수를 낮게 주었다.</t>
+          <t>금융시장의 불확실성에 대한 언급이 있지만, 투자자들에게 어떤 영향을 미칠지에 대한 구체적인 분석이 제공되지 않아 2점을 주었습니다.</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -633,7 +633,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>이 기사에서는 법적 및 규제 변화에 대한 언급이 없어서 점수를 주지 않았다.</t>
+          <t>법률 및 규제 변경에 대한 언급이 없어 0점을 주었습니다.</t>
         </is>
       </c>
       <c r="S2" t="n">
@@ -641,7 +641,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>이 기사에서는 인구 변화에 대한 언급이 없어서 점수를 주지 않았다.</t>
+          <t>노령화와 관련된 뉴스나 연금 기금의 장기적인 지속 가능성에 대한 언급이 없어 0점을 주었습니다.</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -649,7 +649,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>이 기사에서는 기술과 디지털화에 대한 언급이 없어서 점수를 주지 않았다.</t>
+          <t>기술과 디지털화에 대한 언급이 없어 0점을 주었습니다.</t>
         </is>
       </c>
       <c r="W2" t="n">
@@ -657,7 +657,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>이 기사에서는 소비 행동과 요구사항에 대한 언급이 없어서 점수를 주지 않았다.</t>
+          <t>소비 행동 및 요구사항에 대한 정보가 제공되지 않아 0점을 주었습니다.</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>퇴직연금 상품</t>
+          <t>퇴직연금 제도</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>삼성운용</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>운용사 ETF 수수료 수입 양극화…저보수 출혈 경쟁</t>
+          <t>삼성운용, 월배당 'KODEX 미국배당프리미엄 액티브' 보수 인하</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>국내 자산운용사들의 주력 상품으로 떠오른 상장지수펀드 ETF 상품을 두고 운용사들의 판매 보수 인하 경쟁이 치열해지면서 대형 운용사와 중소형 운용사 간 수수료 수입 양극화도 뚜렷해진 것으로 파악됐습니다. ETF 중심으로 자산운용시장이 재편된 뒤 보수율 수준이 낮은 기관 투자자 중심으로 수탁고 증가와 함께 저비용 펀드에 대한 선호가 계속되면서 운용보수와 수수료율이 하락해 온 반면 판매 경쟁은 격화되면서 업권 내 수수료 수입 양극화가 뚜렸해졌다고 보고 있습니다.</t>
+          <t>삼성자산운용은 KODEX 미국배당프리미엄액티브 ETF의 보수를 연 0.19로 인하한다고 밝혔다. 이 ETF는 배당성장주에 투자하며, 커버드콜 전략을 활용하여 안정적인 월배당금을 지급한다.</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -692,22 +692,22 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000354304?sid=101</t>
+          <t>https://n.news.naver.com/mnews/article/008/0004948319?sid=101</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>주식형 펀드를 대신해 국내 자산운용사들의 주력 상품으로 떠오른 상장지수펀드 ETF 상품을 두고 운용사들의 판매 보수 인하 경쟁이 치열해지면서 대형 운용사와 중소형 운용사 간 수수료 수입 양극화도 뚜렷해진 것으로 파악됐습니다.대형사인 미래에셋자산운용과 삼성자산운용은 큰 타격 없이 수수료 수입 성장세를 이어가는 반면 중소형 운용사들은 수수료 수입이 줄어든 것으로 나타났습니다.13일 금융투자협회에 따르면 올해 2분기 수수료수익을 공시한 자산운용사 433곳의 전체 수수료수익 규모는 1조8천27억 원으로 1년 전 1조9천622억 원보다 1천595억 원 8.1 감소한 것으로 집계됐습니다.수수료수익이 가장 큰 곳은 미래에셋자산운용으로 2분기 1천925억 원을 기록하며 1년 전 1천688억 원보다 14가량 늘었습니다.이지스자산운용도 916억원에서 1148억원으로 같은 기간 25 넘게 증가했고 삼성운용도 1천247억 원에서 1천258억 원으로 소폭 늘었습니다.반면 상품 라인업이 상대적으로 적은 중소형 운용사들은 같은 기간 수수료 수입이 일제히 감소했습니다.KB자산운용이 828억 원에서 784억 원으로 줄었고 한화자산운용이 638억 원에서 596억 원 한국투자신탁운용도 690억 원에서 530억 원으로 감소했습니다.NH아문자산운용 459억원433억원 키움투자자산운용 381억원340억원 등도 수수료 수입 감소세가 두드러진 모습입니다.업계에서는 ETF 중심으로 자산운용시장이 재편된 뒤 보수율 수준이 낮은 기관 투자자 중심으로 수탁고 증가와 함께 저비용 펀드에 대한 선호가 계속되면서 운용보수와 수수료율이 하락해 온 반면 판매 경쟁은 격화되면서 업권 내 수수료 수입 양극화가 뚜렸해졌다고 보고 있습니다.아울러 최근에는 ETF를 내놓을 때 퇴직연금 편입까지 고려하다 보니 장기 투자 특성을 감안한 보수 책정 문제 등도 업계 내부적으로 중요하게 보고 있어 수수료율 하락세는 피하기 어려운 상황입니다.한 금융투자업계 관계자는 미래에셋과 삼성이 ETF 시장에서 차지하는 순자산 비중이 80에 육박해 ETF 시장 내 브랜드 경쟁력이 입증됐고 이로 인해 꾸준히 투자자가 유입되는 구조라 업권 내 판매 경쟁 격화로 인한 타격이 상대적으로 덜하다고 평가했습니다.이어 중소형사는 부족한 상품 라인업을 메울 카드로 수수료 인하를 들고 나와도 고객 유입에 한계가 있다 보니 수입 감소를 피하기 어려운 것이라며 일반 주식형 펀드 보수가 연 12라면 ETF는 0.20.4로 저렴하지만 이마저도 경쟁이 붙어 중소형사는 상대적으로 고충이 클 것이라고 전했습니다. 당신의 제보가 뉴스로 만들어집니다.SBS Biz는 여러분의 제보를 기다리고 있습니다.홈페이지 https url.kr 9pghjn</t>
+          <t>삼성자산운용은 13일 미국 배당주에 투자하는 국내 투자자를 위해 KODEX 미국배당프리미엄액티브 ETF의 보수를 업계 최저 수준인 연 0.19로 인하한다고 밝혔다.KODEX 미국배당프리미엄 액티브 ETF는 기존 연 0.43의 총 보수를 연 0.19로 낮추면서 투자자들의 이익을 높이게 됐다. 연 0.19는 미국 주식을 기반으로 커버드콜 전략을 활용하는 국내 월배당 ETF 중 가장 낮은 보수다.지난해 9월 27일 상장한 KODEX 미국배당프리미엄 액티브는 미국 운용사 앰플리파이 Amplify의 대표적인 메가히트 ETF인 DIVO ETF AMPLIFY CWP 인핸스드 디비던드 인컴 ETF를 국내 투자 환경에 맞춰 현지화한 상품이다. 미국 SP500 종목 중 유나이티드헬스그룹 비자 쉐브론 마이크로소프트 애플 PG JP모건 골드만삭스 월마트 머크 등처럼 배당을 장기간 늘려온 우량 배당성장주를 선별해 투자함으로써 IT 금융 헬스케어 소비재 산업재 에너지 등 다양한 업종에 분산투자한다. KODEX 미국배당프리미엄 액티브에 투자하면 미국 현지 DIVO ETF의 총 보수인 연 0.55보다 낮은 연 0.19로 투자할 수 있기 때문에 효율적이다.특히 이 ETF는 기계적인 커버드콜 방식 대신 시장 상황에 따라 개별 종목 중 일부를 선별해 탄력적으로 커버드콜을 적용한다. 배당성장주의 변동성 낮은 시세 차익과 함께 상대적으로 더 많은 월배당금을 안정적으로 지급하기 위해 투자 대상 기업의 배당 외에 포트폴리오의 20 가량 종목에 대해 특정 가격에 종목 또는 지수를 살 수 있는 권리 콜옵션를 매도하는 전략 커버드콜을 사용해 추가적인 배당 재원을 마련하고 있다. KODEX 미국배당프리미엄 액티브는 작년 9월 상장 이후 매월 1주당 50원 이상 연평균 6.3 수준의 현금 배당을 꾸준히 지급하고 있다. 상장 이후 수익률은 배당 포함 5.78를 기록했다. 투자자가 1억원을 투자했다면 세전 월평균 약 52만원 정도를 지속적으로 지급받고 있는 셈이다. 또한 2023년에는 매월 0.5 이상으로 분배금을 지급해 투자자들의 호평을 받고 있다.정재욱 삼성자산운용 ETF운용3팀장은 시장 변동성이 높은 상황에서 안정적이고 장기적인 투자 수요가 늘고 있어 투자자들을 위해 이번 보수 인하를 결정했다며 KODEX 미국배당프리미엄 액티브는 현금 흐름을 동반한 안정적인 투자를 원하는 장기 투자자 또는 연금투자자들에게 추천할 만한 ETF로 업계 최저 수준의 보수를 통해 보다 효율적인 투자를 하실 수 있도록 상품 경쟁력을 높일 예정이라고 말했다.KODEX 미국 배당프리미엄 액티브 ETF를 포함한 월배당 지급식 상품은 연금저축 또는 IRP를 포함한 퇴직연금 계좌를 통해 장기 투자할 경우 배당 유입금에 대해 과세 이연 효과를 누릴 수 있다. 만 55세 이후 인출 조건에 해당될 경우 분리 과세 15.4 보다 크게 낮은 3.35.5의 연금소득세를 적용받을 수 있다.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>['퇴직연금 금융투자협회', '퇴직연금 운용사', '퇴직연금 ETF', '퇴직연금 라인업']</t>
+          <t>['퇴직소득세', '삼성 퇴직연금', '퇴직연금 장기 투자']</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[{'퇴직연금 금융투자협회': 28}, {'퇴직연금 운용사': 1}, {'퇴직연금 ETF': 5}, {'퇴직연금 라인업': 38}]</t>
+          <t>[{'퇴직소득세': 40}, {'삼성 퇴직연금': 1}, {'퇴직연금 장기 투자': 47}]</t>
         </is>
       </c>
       <c r="K3" t="n">
@@ -715,7 +715,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>국내 자산운용사들의 주력 상품으로 떠오른 상장지수펀드 ETF 상품을 두고 운용사들의 판매 보수 인하 경쟁이 치열해지면서 대형 운용사와 중소형 운용사 간 수수료 수입 양극화도 뚜렷해진 것으로 파악됨</t>
+          <t>삼성자산운용은 KODEX 미국배당프리미엄액티브 ETF의 보수를 인하하여 투자자들의 이익을 높였다.</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -723,7 +723,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>ETF 중심으로 자산운용시장이 재편된 뒤 보수율 수준이 낮은 기관 투자자 중심으로 수탁고 증가와 함께 저비용 펀드에 대한 선호가 계속되면서 운용보수와 수수료율이 하락해 온 반면 판매 경쟁은 격화되면서 업권 내 수수료 수입 양극화가 뚜렸해졌다고 보고 있음</t>
+          <t>KODEX 미국배당프리미엄액티브 ETF는 배당성장주에 투자하며, 효율적인 투자를 할 수 있는 상품 경쟁력을 가지고 있다.</t>
         </is>
       </c>
       <c r="O3" t="n">
@@ -731,25 +731,41 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>ETF 중심으로 자산운용시장이 재편된 뒤 보수율 수준이 낮은 기관 투자자 중심으로 수탁고 증가와 함께 저비용 펀드에 대한 선호가 계속되면서 운용보수와 수수료율이 하락해 온 반면 판매 경쟁은 격화되면서 업권 내 수수료 수입 양극화가 뚜렸해졌다고 보고 있음</t>
+          <t>이 기사에서는 금융 시장의 변동성에 대한 언급이 없어서 점수를 낮게 주었다.</t>
         </is>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
-      <c r="R3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>이 기사에서는 법적 및 규제 변화에 대한 언급이 없어서 점수를 주지 않았다.</t>
+        </is>
+      </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
-      <c r="T3" t="inlineStr"/>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>이 기사에서는 인구 변화에 대한 언급이 없어서 점수를 주지 않았다.</t>
+        </is>
+      </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
-      <c r="V3" t="inlineStr"/>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>이 기사에서는 기술과 디지털화에 대한 언급이 없어서 점수를 주지 않았다.</t>
+        </is>
+      </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
-      <c r="X3" t="inlineStr"/>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>이 기사에서는 소비 행동과 요구사항에 대한 언급이 없어서 점수를 주지 않았다.</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -759,103 +775,87 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>사회 동향</t>
+          <t>퇴직연금 상품</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>농협</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>성희롱에 법인카드 유용해도 4억 원 수령...농협 '퇴직금 잔치'</t>
+          <t>운용사 ETF 수수료 수입 양극화…저보수 출혈 경쟁</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>농협에서 성희롱과 갑질로 징계를 받은 직원들에게도 높은 퇴직금을 지급하고 있다는 사실이 확인됐다. 징계를 받은 직원들은 한 사람당 5억 원에 가까운 퇴직금을 받았으며, 농협은 이에 대해 뾰족한 수가 없다는 입장이다.</t>
+          <t>국내 자산운용사들의 주력 상품으로 떠오른 상장지수펀드 ETF 상품을 두고 운용사들의 판매 보수 인하 경쟁이 치열해지면서 대형 운용사와 중소형 운용사 간 수수료 수입 양극화도 뚜렷해진 것으로 파악됐습니다. ETF 중심으로 자산운용시장이 재편된 뒤 보수율 수준이 낮은 기관 투자자 중심으로 수탁고 증가와 함께 저비용 펀드에 대한 선호가 계속되면서 운용보수와 수수료율이 하락해 온 반면 판매 경쟁은 격화되면서 업권 내 수수료 수입 양극화가 뚜렸해졌다고 보고 있습니다.</t>
         </is>
       </c>
       <c r="F4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://n.news.naver.com/mnews/article/374/0000354304?sid=101</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>주식형 펀드를 대신해 국내 자산운용사들의 주력 상품으로 떠오른 상장지수펀드 ETF 상품을 두고 운용사들의 판매 보수 인하 경쟁이 치열해지면서 대형 운용사와 중소형 운용사 간 수수료 수입 양극화도 뚜렷해진 것으로 파악됐습니다.대형사인 미래에셋자산운용과 삼성자산운용은 큰 타격 없이 수수료 수입 성장세를 이어가는 반면 중소형 운용사들은 수수료 수입이 줄어든 것으로 나타났습니다.13일 금융투자협회에 따르면 올해 2분기 수수료수익을 공시한 자산운용사 433곳의 전체 수수료수익 규모는 1조8천27억 원으로 1년 전 1조9천622억 원보다 1천595억 원 8.1 감소한 것으로 집계됐습니다.수수료수익이 가장 큰 곳은 미래에셋자산운용으로 2분기 1천925억 원을 기록하며 1년 전 1천688억 원보다 14가량 늘었습니다.이지스자산운용도 916억원에서 1148억원으로 같은 기간 25 넘게 증가했고 삼성운용도 1천247억 원에서 1천258억 원으로 소폭 늘었습니다.반면 상품 라인업이 상대적으로 적은 중소형 운용사들은 같은 기간 수수료 수입이 일제히 감소했습니다.KB자산운용이 828억 원에서 784억 원으로 줄었고 한화자산운용이 638억 원에서 596억 원 한국투자신탁운용도 690억 원에서 530억 원으로 감소했습니다.NH아문자산운용 459억원433억원 키움투자자산운용 381억원340억원 등도 수수료 수입 감소세가 두드러진 모습입니다.업계에서는 ETF 중심으로 자산운용시장이 재편된 뒤 보수율 수준이 낮은 기관 투자자 중심으로 수탁고 증가와 함께 저비용 펀드에 대한 선호가 계속되면서 운용보수와 수수료율이 하락해 온 반면 판매 경쟁은 격화되면서 업권 내 수수료 수입 양극화가 뚜렸해졌다고 보고 있습니다.아울러 최근에는 ETF를 내놓을 때 퇴직연금 편입까지 고려하다 보니 장기 투자 특성을 감안한 보수 책정 문제 등도 업계 내부적으로 중요하게 보고 있어 수수료율 하락세는 피하기 어려운 상황입니다.한 금융투자업계 관계자는 미래에셋과 삼성이 ETF 시장에서 차지하는 순자산 비중이 80에 육박해 ETF 시장 내 브랜드 경쟁력이 입증됐고 이로 인해 꾸준히 투자자가 유입되는 구조라 업권 내 판매 경쟁 격화로 인한 타격이 상대적으로 덜하다고 평가했습니다.이어 중소형사는 부족한 상품 라인업을 메울 카드로 수수료 인하를 들고 나와도 고객 유입에 한계가 있다 보니 수입 감소를 피하기 어려운 것이라며 일반 주식형 펀드 보수가 연 12라면 ETF는 0.20.4로 저렴하지만 이마저도 경쟁이 붙어 중소형사는 상대적으로 고충이 클 것이라고 전했습니다. 당신의 제보가 뉴스로 만들어집니다.SBS Biz는 여러분의 제보를 기다리고 있습니다.홈페이지 https url.kr 9pghjn</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['퇴직연금 금융투자협회', '퇴직연금 운용사', '퇴직연금 ETF', '퇴직연금 라인업']</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[{'퇴직연금 금융투자협회': 28}, {'퇴직연금 운용사': 1}, {'퇴직연금 ETF': 5}, {'퇴직연금 라인업': 38}]</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>3</v>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/052/0001946468?sid=102</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>농협이 성희롱이나 갑질로 중징계를 받은 직원에게도 별다른 불이익을 주지 않고 두둑한 명예퇴직금을 챙겨준 것으로 확인됐습니다.사실상 명예롭지 않게 퇴직한 직원들도 한 사람당 5억 원에 가까운 퇴직금을 받고 나갔는데요.정작 농협은 뾰족한 수가 없다는 입장입니다.강민경 기자가 보도합니다.농협경제지주에서 차장급으로 일하던 A 씨는 지난 2020년 성희롱과 갑질 폭언으로 정직 6개월 징계 처분을 받은 뒤 바로 명예퇴직을 신청했습니다.A 씨가 회사를 떠나며 손에 쥔 금액은 4억5천만 원 특별퇴직금 명목으로 법정 퇴직금의 세 배 가까이 더 받았습니다.NH농협은행 지부장급 직원이었던 B 씨도 지난 2019년 정직 기간 중 희망퇴직 신청이 승인돼 4억 8천여만 원을 지급 받았습니다.법인카드로 천만 원이 넘는 돈을 사적으로 쓴 것도 명예 퇴직금을 챙기는 데엔 아무런 걸림돌이 되지 않은 겁니다.최근 5년 동안 농협중앙회와 자회사의 명예 퇴직자 가운데 징계로 승진이 제한된 사람은 32명 징계 중이었던 직원은 6명이었습니다.이들 38명에게 지급된 퇴직금은 명예 퇴직금 109억 원을 포함해 모두 160억 7천여만 원입니다.명예롭지 못한 일로 징계를 받고도 한 사람당 평균 4억2천만 원을 퇴직금으로 타낸 셈입니다.앞서 국민권익위원회는 지난 2020년 징계 처분을 받아 승진 임용이 제한된 직원들에게는 명예퇴직수당을 주지 말라고 농협에 권고했습니다.그러나 농협은 3년이 지나도록 권익위 권고를 수용하지 않은 채 징계자에게 퇴직금을 두둑이 주고 있습니다.농민을 위해 존재하는 농협이 자기 직원들만 감싸며 방만 운영을 한다는 지적이 나옵니다.이에 대해 농협 측은 징계 기간 중 퇴직을 하는 경우 남은 징계 기간만큼을 차감해서 명예 퇴직금을 산정하고 있다고 해명했습니다.다만 징계 기간이 끝난 직원에 대해서까지 명예 퇴직금을 깎아버리면 과중 징계 우려가 커서 당장 제도를 손댈 수는 없다는 입장입니다.그러면서 권익위와 협의해 징계자에 대한 퇴직금 제도를 보완할 방안을 찾고 있다고 덧붙였습니다.YTN 강민경입니다.촬영기자 김광현그래픽 박유동 당신의 제보가 뉴스가 됩니다 YTN 검색해 채널 추가 023988585 socialytn.co.kr</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>['퇴직금 제도', '희망퇴직 퇴직금', '명예퇴직 퇴직금']</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>[{'퇴직금 제도': 1}, {'희망퇴직 퇴직금': 1}, {'명예퇴직 퇴직금': 1}]</t>
-        </is>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>해당 기사는 연금 기금 관리와 관련된 내용이 아니므로 점수를 주지 않음</t>
+          <t>국내 자산운용사들의 주력 상품으로 떠오른 상장지수펀드 ETF 상품을 두고 운용사들의 판매 보수 인하 경쟁이 치열해지면서 대형 운용사와 중소형 운용사 간 수수료 수입 양극화도 뚜렷해진 것으로 파악됨</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>해당 기사는 산업 경쟁 동향과 관련된 내용이 아니므로 점수를 주지 않음</t>
+          <t>ETF 중심으로 자산운용시장이 재편된 뒤 보수율 수준이 낮은 기관 투자자 중심으로 수탁고 증가와 함께 저비용 펀드에 대한 선호가 계속되면서 운용보수와 수수료율이 하락해 온 반면 판매 경쟁은 격화되면서 업권 내 수수료 수입 양극화가 뚜렸해졌다고 보고 있음</t>
         </is>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>해당 기사는 금융 시장의 영향과 관련된 내용이 아니므로 점수를 주지 않음</t>
+          <t>ETF 중심으로 자산운용시장이 재편된 뒤 보수율 수준이 낮은 기관 투자자 중심으로 수탁고 증가와 함께 저비용 펀드에 대한 선호가 계속되면서 운용보수와 수수료율이 하락해 온 반면 판매 경쟁은 격화되면서 업권 내 수수료 수입 양극화가 뚜렸해졌다고 보고 있음</t>
         </is>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>해당 기사는 법적 및 규제 변화와 관련된 내용이 아니므로 점수를 주지 않음</t>
-        </is>
-      </c>
+      <c r="R4" t="inlineStr"/>
       <c r="S4" t="n">
-        <v>3</v>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>해당 기사는 직원들의 퇴직금과 관련된 내용으로, 연금 기금의 장기적인 지속 가능성에 영향을 줄 수 있으므로 높은 점수를 주었다.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
         <v>0</v>
       </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>해당 기사는 기술과 디지털화와 관련된 내용이 아니므로 점수를 주지 않음</t>
-        </is>
-      </c>
+      <c r="V4" t="inlineStr"/>
       <c r="W4" t="n">
         <v>0</v>
       </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>해당 기사는 소비 행태와 요구사항과 관련된 내용이 아니므로 점수를 주지 않음</t>
-        </is>
-      </c>
+      <c r="X4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -865,33 +865,139 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>사회 동향</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>농협</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>성희롱에 법인카드 유용해도 4억 원 수령...농협 '퇴직금 잔치'</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>농협에서 성희롱과 갑질로 징계를 받은 직원들에게도 높은 퇴직금을 지급하고 있다는 사실이 확인됐다. 징계를 받은 직원들은 한 사람당 5억 원에 가까운 퇴직금을 받았으며, 농협은 이에 대해 뾰족한 수가 없다는 입장이다.</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://n.news.naver.com/mnews/article/052/0001946468?sid=102</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>농협이 성희롱이나 갑질로 중징계를 받은 직원에게도 별다른 불이익을 주지 않고 두둑한 명예퇴직금을 챙겨준 것으로 확인됐습니다.사실상 명예롭지 않게 퇴직한 직원들도 한 사람당 5억 원에 가까운 퇴직금을 받고 나갔는데요.정작 농협은 뾰족한 수가 없다는 입장입니다.강민경 기자가 보도합니다.농협경제지주에서 차장급으로 일하던 A 씨는 지난 2020년 성희롱과 갑질 폭언으로 정직 6개월 징계 처분을 받은 뒤 바로 명예퇴직을 신청했습니다.A 씨가 회사를 떠나며 손에 쥔 금액은 4억5천만 원 특별퇴직금 명목으로 법정 퇴직금의 세 배 가까이 더 받았습니다.NH농협은행 지부장급 직원이었던 B 씨도 지난 2019년 정직 기간 중 희망퇴직 신청이 승인돼 4억 8천여만 원을 지급 받았습니다.법인카드로 천만 원이 넘는 돈을 사적으로 쓴 것도 명예 퇴직금을 챙기는 데엔 아무런 걸림돌이 되지 않은 겁니다.최근 5년 동안 농협중앙회와 자회사의 명예 퇴직자 가운데 징계로 승진이 제한된 사람은 32명 징계 중이었던 직원은 6명이었습니다.이들 38명에게 지급된 퇴직금은 명예 퇴직금 109억 원을 포함해 모두 160억 7천여만 원입니다.명예롭지 못한 일로 징계를 받고도 한 사람당 평균 4억2천만 원을 퇴직금으로 타낸 셈입니다.앞서 국민권익위원회는 지난 2020년 징계 처분을 받아 승진 임용이 제한된 직원들에게는 명예퇴직수당을 주지 말라고 농협에 권고했습니다.그러나 농협은 3년이 지나도록 권익위 권고를 수용하지 않은 채 징계자에게 퇴직금을 두둑이 주고 있습니다.농민을 위해 존재하는 농협이 자기 직원들만 감싸며 방만 운영을 한다는 지적이 나옵니다.이에 대해 농협 측은 징계 기간 중 퇴직을 하는 경우 남은 징계 기간만큼을 차감해서 명예 퇴직금을 산정하고 있다고 해명했습니다.다만 징계 기간이 끝난 직원에 대해서까지 명예 퇴직금을 깎아버리면 과중 징계 우려가 커서 당장 제도를 손댈 수는 없다는 입장입니다.그러면서 권익위와 협의해 징계자에 대한 퇴직금 제도를 보완할 방안을 찾고 있다고 덧붙였습니다.YTN 강민경입니다.촬영기자 김광현그래픽 박유동 당신의 제보가 뉴스가 됩니다 YTN 검색해 채널 추가 023988585 socialytn.co.kr</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['퇴직금 제도', '희망퇴직 퇴직금', '명예퇴직 퇴직금']</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[{'퇴직금 제도': 1}, {'희망퇴직 퇴직금': 1}, {'명예퇴직 퇴직금': 1}]</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>해당 기사는 연금 기금 관리와 관련된 내용이 아니므로 점수를 주지 않음</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>해당 기사는 산업 경쟁 동향과 관련된 내용이 아니므로 점수를 주지 않음</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>해당 기사는 금융 시장의 영향과 관련된 내용이 아니므로 점수를 주지 않음</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>해당 기사는 법적 및 규제 변화와 관련된 내용이 아니므로 점수를 주지 않음</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>해당 기사는 직원들의 퇴직금과 관련된 내용으로, 연금 기금의 장기적인 지속 가능성에 영향을 줄 수 있으므로 높은 점수를 주었다.</t>
+        </is>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>해당 기사는 기술과 디지털화와 관련된 내용이 아니므로 점수를 주지 않음</t>
+        </is>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>해당 기사는 소비 행태와 요구사항과 관련된 내용이 아니므로 점수를 주지 않음</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2023-10-13</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>퇴직연금 제도</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>한국은행</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>한국은행, 올해 113명 떠났다…1인당 퇴직금 1.5억원</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>한국은행 임직원 113명이 퇴직, 1인당 평균 퇴직금은 1억5천100만원</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="F6" t="n">
         <v>2</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>https://news.einfomax.co.kr/news/articleView.html?idxno=4283969</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
  서울연합인포맥스 윤은별 기자 올해 9월까지 한국은행을 떠난 임직원이 113명인 것으로 나타났다. 이들에게 지급된 퇴직금은 1인당 1억5천100만원으로 집계됐다.
@@ -906,176 +1012,70 @@
  끝 </t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>['퇴직연금 DC', '퇴직연금 중간정산', '퇴직연금 서비스 ', '퇴직연금 가입', '임금피크제']</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>[{'퇴직연금 DC': 40}, {'퇴직연금 중간정산': 1}, {'퇴직연금 서비스 ': 11}, {'퇴직연금 가입': 58}, {'임금피크제': 39}]</t>
         </is>
       </c>
-      <c r="K5" t="n">
+      <c r="K6" t="n">
         <v>2</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>퇴직금 관련 정보가 포함되어 있음</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>경쟁 동향과 관련된 내용이 없음</t>
         </is>
       </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>금융 시장의 영향과 관련된 내용이 없음</t>
         </is>
       </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="inlineStr">
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="inlineStr">
         <is>
           <t>법적 및 규제 변화와 관련된 내용이 없음</t>
         </is>
       </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="inlineStr">
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="inlineStr">
         <is>
           <t>인구 변화와 관련된 내용이 없음</t>
         </is>
       </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="inlineStr">
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="inlineStr">
         <is>
           <t>기술과 디지털화와 관련된 내용이 없음</t>
         </is>
       </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="inlineStr">
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="inlineStr">
         <is>
           <t>소비 행태와 요구사항과 관련된 내용이 없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2023-10-12</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>퇴직연금 제도</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>고객님, 더 드릴게요…치열한 퇴직연금 금리경쟁, 왜?</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>퇴직연금 대규모 자산 이동 머니 무브 완화 전망. 금융회사들의 커닝 공시 사라질 전망. 퇴직연금 금리 올라가는 추세.</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005593455?sid=101</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 매 연말이면 재현되던 퇴직연금 대규모 자산 이동 머니 무브이 올해 커닝 공시 퇴출로 완화될 전망이다. 그러나 보험사와 저축은행 등 제2금융권의 우려는 여전하다. 고금리 기조가 자금 조달 압력으로 이어질 가능성이 큰 데다 300조원이 넘는 퇴직연금 시장에서 자칫 금리 경쟁력을 잃어버리면 유동성 위기로 이어질 수 있어서다. 특히 중소형 금융사들 사이에선 뭉칫돈 이탈을 막기 위한 금리 눈치 싸움을 피하기 어렵다는 목소리도 나온다. 그래픽김일환 기자슬금슬금 퇴직연금 금리 올리는 사업자들10일 금융권에 따르면 금융회사들의 커닝 공시가 이르면 올해부터 사라질 전망이다. 금융위원회는 지난 4일까지 퇴직연금 상품을 판매 중인 모든 금융회사가 원리금 보장상품 금리를 공시해야 한다는 내용이 담긴 퇴직연금 감독 규정 일부 개정 규정안을 변경 예고한 바 있다. 퇴직연금 시장에서 퇴직사업자들은 원리금 보장 상품의 금리를 한달 전에 미리 공시해야 했다. 그러나 이 의무가 비 非퇴직연금사업자에게 적용되지 않으면서 비퇴직연금사업자들이 퇴직연금사업자들의 금리를 확인한 뒤 조금 더 높은 금리를 제시하는 이른바 커닝 공시가 횡횡했다. 퇴직연금 시장이 커지면서 금리에 따라 움직이는 규모도 커졌기 때문이다.퇴직연금은 기업이 근로자의 퇴직금 재원을 금융기관에 맡겨 운용시키고 퇴직 시 연금이나 일시금으로 지급하는 제도를 말한다. 퇴직연금 적립금 규모는 올해 6월 기준으로 345조8140억원까지 성장했다. 지난해 말 331조7240억원과 비교하면 6개월만에 14조 넘게 증가한 것이다. 이에 당국은 금리 과당 경쟁을 통한 대규모 자금 이탈을 막기 위해 감독 규정을 개정하기로 했다.하지만 퇴직연금 비중이 높고 자본조달 이슈에 취약한 2금융권의 속앓이는 여전한 상황이다. 추석 연휴 전후로 글로벌 경제 상황이 급변하면서 올해 말까지 고금리 기조가 지속될 전망이 나오고 있다. 금리가 오르면 조달 상황이 불확실해지고 안정성이 강점인 시중은행을 선호하는 현상이 두드러진다. 실제 올해 연말이 다가오면서 퇴직연금 금리도 슬금슬금 높아지는 추세다. 10일 금융감독원 통합연금포털에 따르면 지난달 보험사들의 확정급여형 DB형 1년 만기 퇴직연금 상품의 평균 금리는 연 3.818로 집계됐다. 지난 6월 평균금리인 약 3.60와 비교하면 0.20포인트 이상 높아진 셈이다. 9월 기준으로 롯데손해보험의 DB형 퇴직연금 금리가 4.30로 가장 높았고 이어 하나손해보험 4.20 흥국생명 4.16 순으로 나타났다. KB라이프 4.10와 메리츠화재하나생명 4.0도 4대 고금리를 제시했다.중대형 생명보험사들도 잇따라 금리 상단을 높였다. 교보생명은 지난 6월 3.60에서 9월 3.70로 올렸고 같은 기간 미래에셋생명은 3.85에서 3.90로 금리를 높여 잡았다. 보험업계 관계자는 퇴직연금 운용 비중이 높은 곳에서 자금 유출이 발생하면 대응 부담이 클 수밖에 없어 울며 겨자먹기로 금리를 올리는 일이 발생한다고 말했다.저축은행들도 마찬가지다. 은행채로 자금을 조달해야 하는 시중은행과 달리 수신으로 자금을 조달해야 하는 저축은행들 입장에선 퇴직연금 가입자 유지 혹은 모집이 절실하다. 저축은행 수신금액에서 퇴직연금이 차지하는 비중은 평균 33로 큰 편이라 고금리를 쉽게 포기하기 힘들다는 목소리가 나온다.저축은행업계 DB형 1년 만기 퇴직연금 상품의 평균금리는 4.37다. 푸른키움예수JT저축은행이 4.8라는 고금리를 제시했고 다올저축은행이 4.7로 뒤를 이었다. SBIOK웰컴페퍼저축은행 등 대형 저축은행의 퇴직연금 금리도 4.34.41로 형성됐다.디폴트옵션 제외 저축은행이탈 추세 커질라 전전긍긍 퇴직연금 사전지정운용제도 디폴트옵션에 저축은행 상품이 제외된 것도 하반기 수신자금 이탈 가능성을 높이는 변수다. 저축은행 퇴직연금 상품이 만기될 경우 가입자가 재가입을 따로 지시하지 않으면 다른 금융업권의 디폴트옵션 상품으로 이동할 가능성이 커서다.저축은행 관계자는 당국이 금리 과당경쟁 및 머니무브 리스크를 줄이기 위해 만기 분산 관리 계획 등을 제출하라고 주문한 만큼 최대한 금리가 튀지 않게 관리하고 있다며 당장 디폴트옵션 제외로 자금 이탈이 현실화되는 분위기는 아닌 것 같다고 전했다. 이어 그러나 미리 금리를 높여야 한다는 판단에 일부 저축은행들이 금리를 높인 것으로 보인다며 이제 퇴직연금 물량이 몰린 연말이 코앞으로 다가와서 수신 자금 조달 측면에서 고민이 깊다고 말했다.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>['퇴직연금 DB', '확정급여형', '퇴직금 제도', '디폴트옵션', '퇴직연금 사업자', '퇴직연금 적립금', '퇴직연금 규모', '퇴직연금 금융감독원', '미래에셋 퇴직연금', 'KB 퇴직연금', '퇴직연금 경쟁', '하나 퇴직연금', '퇴직연금 저축은행', '퇴직연금 가입']</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>[{'퇴직연금 DB': 1}, {'확정급여형': 6}, {'퇴직금 제도': 38}, {'디폴트옵션': 38}, {'퇴직연금 사업자': 1}, {'퇴직연금 적립금': 1}, {'퇴직연금 규모': 1}, {'퇴직연금 금융감독원': 1}, {'미래에셋 퇴직연금': 1}, {'KB 퇴직연금': 1}, {'퇴직연금 경쟁': 1}, {'하나 퇴직연금': 1}, {'퇴직연금 저축은행': 1}, {'퇴직연금 가입': 11}]</t>
-        </is>
-      </c>
-      <c r="K6" t="n">
-        <v>3</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>퇴직연금 대규모 자산 이동과 금융회사들의 커닝 공시에 대한 내용이 포함되어 있음.</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>2</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>금융회사들의 커닝 공시에 대한 내용이 포함되어 있음.</t>
-        </is>
-      </c>
-      <c r="O6" t="n">
-        <v>4</v>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>퇴직연금 금리 올라가는 추세에 대한 내용이 포함되어 있음.</t>
-        </is>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>변경된 법률 및 규정에 대한 내용이 없음.</t>
-        </is>
-      </c>
-      <c r="S6" t="n">
-        <v>1</v>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>노인 인구 증가와 퇴직연금의 장기적인 지속 가능성에 대한 내용이 일부 포함되어 있음.</t>
-        </is>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>기술과 디지털화에 대한 내용이 없음.</t>
-        </is>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>소비 행동 및 요구사항에 대한 내용이 없음.</t>
         </is>
       </c>
     </row>
@@ -1087,45 +1087,45 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>퇴직연금 상품</t>
+          <t>퇴직연금 제도</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>국민연금</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>“국민연금 믿다간 노후 망해”…걱정과 한숨이 키운 ‘10조 이 상품’</t>
+          <t>고객님, 더 드릴게요…치열한 퇴직연금 금리경쟁, 왜?</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>라이프사이클 펀드 설정액이 10조원을 넘어선 것으로 나타났다. 설정액은 최근 5년 동안 약 5배 급증했으며, 고령화 추세에 따라 노후 준비용 장기 투자에 나서는 투자자들이 증가한 영향으로 분석된다.</t>
+          <t>퇴직연금 대규모 자산 이동 머니 무브 완화 전망. 금융회사들의 커닝 공시 사라질 전망. 퇴직연금 금리 올라가는 추세.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005198274?sid=101</t>
+          <t>https://n.news.naver.com/mnews/article/018/0005593455?sid=101</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>라이프사이클펀드 올해 설정액 10.3조노후준비 투자자 늘며 5년간 5배 급증생애주기에 맞춰 위험안전자산 조정고령화에 발 빠르게 노후를 준비하는 투자자들이 늘면서 생애주기에 맞춰 자동으로 포트폴리오를 조정해주는 라이프사이클 펀드로 뭉칫돈이 몰리고 있다.12일 금융정보업체 에프앤가이드에 따르면 국내 라이프사이클 테마 펀드의 설정액이 이달 12일 기준 10조3166억원을 기록한 것으로 나타났다.라이프사이클 펀드보다 설정액이 큰 테마형 펀드는 상장지수펀드 ETF 퇴직연금 연금저축뿐이다.라이프사이클 펀드의 설정액이 10조원을 넘어선 건 이번이 처음이다. 라이프사이클 펀드 설정액 규모는 최근 5년 동안 약 5배 급증했다. 지난 2019년 2조1951억원에 그쳤던 펀드 규모는 2020년 3조3065억원 2021년 6조4572억원 2022년 8조3133억원으로 꾸준히 증가하는 추세다.고령화 추이에 따라 노후 준비용 장기 투자에 나서는 투자자들이 증가한 영향으로 분석된다. 통계청에 따르면 2021년 기준 국내 65세인 사람의 기대 여명은 21.59년으로 추정됐다.반면 국민연금은 현재 추이로는 이르면 2055년 기금이 바닥날 것으로 전망돼 투자자들이 추가로 노후에 대비할 수 있는 상품에 주목하는 모습이다.나정환 NH투자증권 연구원은 고령화로 노후 자산관리에 관심이 높아지면 사적연금제도가 발전할 가능성이 크다며 2055년 은퇴 예정인 1990년대생이 아직 본격적으로 TDF에 가입하지 않아 향후 신규 가입자는 TDF 타깃데이트펀드와 같은 실적배당형 상품을 선택할 개연성이 높다고 말했다.라이프사이클 펀드는 투자자의 연령대에 맞춰 자산 구성 및 목표 수익률을 알맞게 조정해주는 상품이다. 주로 TDF 타켓데이트펀드 TIF 타킷인컴펀드 두 가지로 구분된다. TDF는 젊을 때는 주식 등 위험자산 비중을 늘렸다가 나이가 들면 채권과 같은 안전자산 비중을 더하는 구조다.TDF 상품은 투자자의 은퇴 시점에 따라 상품명 뒤에 적힌 숫자가 바뀐다. 예를 들어 해당 상품의 경우 은퇴 시기가 2050년 전후인 투자자가 대상이며 생애주기에 맞춰 투자 자산이 자동 재조정 된다. TIF는 위험자산과 안전자산 비중을 적절하게 유지하면서 일정한 현금흐름 배당이자을 창출하는 상품이다.현재 시장에 출시된 라이프사이클 펀드는 총 222개에 달한다. 이중 지난 1년 동안 수익률이 가장 높았던 상품은 KB자산운용의 KB온국민TDF2050 펀드로 약 15의 수익률을 기록했다.미국 스탠더드앤드푸어스 SP500지수를 추종하는 ETF 비중이 36로 높다. 지난 1년 동안 설정액이 가장 많이 늘어난 상품은 SP500지수와 채권형 ETF 비중이 높은 KB다이나믹TDF2030 펀드로 1352억원이 유입된 것으로 나타났다.이석희 KB자산운용 연금WM본부장은 성장주 비중을 높게 가져간 결과 변동성 장세에서도 탄탄한 성과를 유지했다고 밝혔다.그 밖에 미래에셋라이프사이클2030 펀드 및 신한마음편한TDF2050 펀드의 1년 수익률도 각 13로 높았다. 한국투자TDF알아서ETF포커스2060 펀드도 11의 수익률을 거뒀다. 상품 마다 편입 자산에 차이가 있어 투자자들은 해당 펀드의 자산 구성을 살펴본 후 투자를 결정하는 게 좋다.일부 상품은 세부 섹터 테마에 주목해 초과 수익을 노리는 반면 일부 상품은 원자재 리츠 비중을 늘려 포트폴리오 다각화에 나서는 경우도 있다.퇴직연금 디폴트옵션 사전지정운용제도의 본격적 시행에 따라 라이프사이클 펀드에 관한 관심도 덩달아 높아졌다. 확정기여 DC형 퇴직연금 및 개인형퇴직연금 IRP 가입자들은 디폴트옵션에 따라 특정 TDF 상품을 미리 지정해야 하기 때문이다.홍원구 자본시장연구원 펀드 및 연금실 연구위원은 보고서를 통해 미국의 경우 디폴트옵션 제도 시행을 계기로 TDF 규모가 급격한 성장을 보였다며 상대적으로 비용이 낮은 TDF가 관심을 끌 것으로 예상된다고 말했다.</t>
+          <t xml:space="preserve"> 매 연말이면 재현되던 퇴직연금 대규모 자산 이동 머니 무브이 올해 커닝 공시 퇴출로 완화될 전망이다. 그러나 보험사와 저축은행 등 제2금융권의 우려는 여전하다. 고금리 기조가 자금 조달 압력으로 이어질 가능성이 큰 데다 300조원이 넘는 퇴직연금 시장에서 자칫 금리 경쟁력을 잃어버리면 유동성 위기로 이어질 수 있어서다. 특히 중소형 금융사들 사이에선 뭉칫돈 이탈을 막기 위한 금리 눈치 싸움을 피하기 어렵다는 목소리도 나온다. 그래픽김일환 기자슬금슬금 퇴직연금 금리 올리는 사업자들10일 금융권에 따르면 금융회사들의 커닝 공시가 이르면 올해부터 사라질 전망이다. 금융위원회는 지난 4일까지 퇴직연금 상품을 판매 중인 모든 금융회사가 원리금 보장상품 금리를 공시해야 한다는 내용이 담긴 퇴직연금 감독 규정 일부 개정 규정안을 변경 예고한 바 있다. 퇴직연금 시장에서 퇴직사업자들은 원리금 보장 상품의 금리를 한달 전에 미리 공시해야 했다. 그러나 이 의무가 비 非퇴직연금사업자에게 적용되지 않으면서 비퇴직연금사업자들이 퇴직연금사업자들의 금리를 확인한 뒤 조금 더 높은 금리를 제시하는 이른바 커닝 공시가 횡횡했다. 퇴직연금 시장이 커지면서 금리에 따라 움직이는 규모도 커졌기 때문이다.퇴직연금은 기업이 근로자의 퇴직금 재원을 금융기관에 맡겨 운용시키고 퇴직 시 연금이나 일시금으로 지급하는 제도를 말한다. 퇴직연금 적립금 규모는 올해 6월 기준으로 345조8140억원까지 성장했다. 지난해 말 331조7240억원과 비교하면 6개월만에 14조 넘게 증가한 것이다. 이에 당국은 금리 과당 경쟁을 통한 대규모 자금 이탈을 막기 위해 감독 규정을 개정하기로 했다.하지만 퇴직연금 비중이 높고 자본조달 이슈에 취약한 2금융권의 속앓이는 여전한 상황이다. 추석 연휴 전후로 글로벌 경제 상황이 급변하면서 올해 말까지 고금리 기조가 지속될 전망이 나오고 있다. 금리가 오르면 조달 상황이 불확실해지고 안정성이 강점인 시중은행을 선호하는 현상이 두드러진다. 실제 올해 연말이 다가오면서 퇴직연금 금리도 슬금슬금 높아지는 추세다. 10일 금융감독원 통합연금포털에 따르면 지난달 보험사들의 확정급여형 DB형 1년 만기 퇴직연금 상품의 평균 금리는 연 3.818로 집계됐다. 지난 6월 평균금리인 약 3.60와 비교하면 0.20포인트 이상 높아진 셈이다. 9월 기준으로 롯데손해보험의 DB형 퇴직연금 금리가 4.30로 가장 높았고 이어 하나손해보험 4.20 흥국생명 4.16 순으로 나타났다. KB라이프 4.10와 메리츠화재하나생명 4.0도 4대 고금리를 제시했다.중대형 생명보험사들도 잇따라 금리 상단을 높였다. 교보생명은 지난 6월 3.60에서 9월 3.70로 올렸고 같은 기간 미래에셋생명은 3.85에서 3.90로 금리를 높여 잡았다. 보험업계 관계자는 퇴직연금 운용 비중이 높은 곳에서 자금 유출이 발생하면 대응 부담이 클 수밖에 없어 울며 겨자먹기로 금리를 올리는 일이 발생한다고 말했다.저축은행들도 마찬가지다. 은행채로 자금을 조달해야 하는 시중은행과 달리 수신으로 자금을 조달해야 하는 저축은행들 입장에선 퇴직연금 가입자 유지 혹은 모집이 절실하다. 저축은행 수신금액에서 퇴직연금이 차지하는 비중은 평균 33로 큰 편이라 고금리를 쉽게 포기하기 힘들다는 목소리가 나온다.저축은행업계 DB형 1년 만기 퇴직연금 상품의 평균금리는 4.37다. 푸른키움예수JT저축은행이 4.8라는 고금리를 제시했고 다올저축은행이 4.7로 뒤를 이었다. SBIOK웰컴페퍼저축은행 등 대형 저축은행의 퇴직연금 금리도 4.34.41로 형성됐다.디폴트옵션 제외 저축은행이탈 추세 커질라 전전긍긍 퇴직연금 사전지정운용제도 디폴트옵션에 저축은행 상품이 제외된 것도 하반기 수신자금 이탈 가능성을 높이는 변수다. 저축은행 퇴직연금 상품이 만기될 경우 가입자가 재가입을 따로 지시하지 않으면 다른 금융업권의 디폴트옵션 상품으로 이동할 가능성이 커서다.저축은행 관계자는 당국이 금리 과당경쟁 및 머니무브 리스크를 줄이기 위해 만기 분산 관리 계획 등을 제출하라고 주문한 만큼 최대한 금리가 튀지 않게 관리하고 있다며 당장 디폴트옵션 제외로 자금 이탈이 현실화되는 분위기는 아닌 것 같다고 전했다. 이어 그러나 미리 금리를 높여야 한다는 판단에 일부 저축은행들이 금리를 높인 것으로 보인다며 이제 퇴직연금 물량이 몰린 연말이 코앞으로 다가와서 수신 자금 조달 측면에서 고민이 깊다고 말했다.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>['퇴직연금 DC', '퇴직연금 IRP', '개인형퇴직연금', '디폴트옵션 설정액', '퇴직연금 규모', '미래에셋 퇴직연금', 'KB 퇴직연금', 'NH 퇴직연금', '신한 퇴직연금', '한국투자 퇴직연금', '퇴직연금 수익률', '퇴직연금 ETF', '퇴직연금 포트폴리오', '퇴직연금 TDF', '퇴직연금 가입', '퇴직연금 펀드', '퇴직연금 채권', '퇴직연금 리츠', '퇴직연금 설정액', '퇴직연금 장기 투자']</t>
+          <t>['퇴직연금 DB', '확정급여형', '퇴직금 제도', '디폴트옵션', '퇴직연금 사업자', '퇴직연금 적립금', '퇴직연금 규모', '퇴직연금 금융감독원', '미래에셋 퇴직연금', 'KB 퇴직연금', '퇴직연금 경쟁', '하나 퇴직연금', '퇴직연금 저축은행', '퇴직연금 가입']</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>[{'퇴직연금 DC': 30}, {'퇴직연금 IRP': 43}, {'개인형퇴직연금': 41}, {'디폴트옵션 설정액': 9}, {'퇴직연금 규모': 52}, {'미래에셋 퇴직연금': 2}, {'KB 퇴직연금': 2}, {'NH 퇴직연금': 2}, {'신한 퇴직연금': 56}, {'한국투자 퇴직연금': 1}, {'퇴직연금 수익률': 44}, {'퇴직연금 ETF': 1}, {'퇴직연금 포트폴리오': 34}, {'퇴직연금 TDF': 28}, {'퇴직연금 가입': 43}, {'퇴직연금 펀드': 13}, {'퇴직연금 채권': 1}, {'퇴직연금 리츠': 1}, {'퇴직연금 설정액': 1}, {'퇴직연금 장기 투자': 1}]</t>
+          <t>[{'퇴직연금 DB': 1}, {'확정급여형': 6}, {'퇴직금 제도': 38}, {'디폴트옵션': 38}, {'퇴직연금 사업자': 1}, {'퇴직연금 적립금': 1}, {'퇴직연금 규모': 1}, {'퇴직연금 금융감독원': 1}, {'미래에셋 퇴직연금': 1}, {'KB 퇴직연금': 1}, {'퇴직연금 경쟁': 1}, {'하나 퇴직연금': 1}, {'퇴직연금 저축은행': 1}, {'퇴직연금 가입': 11}]</t>
         </is>
       </c>
       <c r="K7" t="n">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>라이프사이클 펀드의 설정액이 최근 5년 동안 약 5배 급증하여 펀드 관리 전략과 수익률이 높은 것으로 평가됨.</t>
+          <t>퇴직연금 대규모 자산 이동과 금융회사들의 커닝 공시에 대한 내용이 포함되어 있음.</t>
         </is>
       </c>
       <c r="M7" t="n">
@@ -1141,31 +1141,31 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>라이프사이클 펀드는 노후 준비용 장기 투자에 관심이 있는 투자자들이 증가하면서 시장에서 경쟁력을 갖추고 있음.</t>
+          <t>금융회사들의 커닝 공시에 대한 내용이 포함되어 있음.</t>
         </is>
       </c>
       <c r="O7" t="n">
+        <v>4</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>퇴직연금 금리 올라가는 추세에 대한 내용이 포함되어 있음.</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>변경된 법률 및 규정에 대한 내용이 없음.</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
         <v>1</v>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>라이프사이클 펀드는 투자자의 연령대에 맞춰 자산 구성 및 목표 수익률을 조정해주는 상품으로, 금융 시장의 변동성에 대한 영향을 분석하고 대응할 수 있는 능력을 갖추고 있음.</t>
-        </is>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>본문에는 법률 및 규제 변경에 대한 언급이 없음.</t>
-        </is>
-      </c>
-      <c r="S7" t="n">
-        <v>2</v>
-      </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>고령화 추세에 따라 노후 준비용 장기 투자에 나서는 투자자들이 증가하고 있으며, 이는 라이프사이클 펀드의 장기적인 지속 가능성에 영향을 미칠 수 있음.</t>
+          <t>노인 인구 증가와 퇴직연금의 장기적인 지속 가능성에 대한 내용이 일부 포함되어 있음.</t>
         </is>
       </c>
       <c r="U7" t="n">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>본문에는 기술과 디지털화에 관한 내용이 없음.</t>
+          <t>기술과 디지털화에 대한 내용이 없음.</t>
         </is>
       </c>
       <c r="W7" t="n">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>본문에는 소비 행태 및 요구사항에 대한 내용이 없음.</t>
+          <t>소비 행동 및 요구사항에 대한 내용이 없음.</t>
         </is>
       </c>
     </row>
@@ -1198,17 +1198,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>국민연금</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>노후 대비해야지…10조 몰린 '라이프사이클 펀드'</t>
+          <t>“국민연금 믿다간 노후 망해”…걱정과 한숨이 키운 ‘10조 이 상품’</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>국내 라이프사이클 테마 펀드 설정액이 10조원을 넘어선 것으로 나타났다. 라이프사이클 펀드 설정액 규모는 최근 5년 동안 약 5배 급증했다. 투자자들이 노후에 대비할 수 있는 상품에 주목하는 모습이다.</t>
+          <t>라이프사이클 펀드 설정액이 10조원을 넘어선 것으로 나타났다. 설정액은 최근 5년 동안 약 5배 급증했으며, 고령화 추세에 따라 노후 준비용 장기 투자에 나서는 투자자들이 증가한 영향으로 분석된다.</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -1216,22 +1216,22 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005198462?sid=101</t>
+          <t>https://n.news.naver.com/mnews/article/009/0005198274?sid=101</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t xml:space="preserve">TDFTIF가 대표적 상품4년새 설정액 5배나 급증생애주기 맞춰 자산배분젊을땐 위험자산 늘리고나이들면 안전자산 늘려고령화에 발 빠르게 노후를 준비하는 투자자들이 늘면서 생애주기에 맞춰 자동으로 포트폴리오를 조정해주는 라이프사이클 펀드로 뭉칫돈이 몰리고 있다.12일 금융정보업체 에프앤가이드에 따르면 국내 라이프사이클 테마 펀드 설정액이 이달 12일 기준 10조3166억원을 기록한 것으로 나타났다.라이프사이클 펀드보다 설정액이 많은 테마형 펀드는 상장지수펀드 ETF 퇴직연금 연금저축뿐이다.라이프사이클 펀드 설정액이 10조원을 넘어선 건 이번이 처음이다. 라이프사이클 펀드 설정액 규모는 최근 5년 동안 약 5배 급증했다. 2019년 2조1951억원에 그쳤던 펀드 규모는 2020년 3조3065억원 2021년 6조4572억원 2022년 8조3133억원으로 꾸준히 증가하는 추세다.고령화 추이에 따라 노후 준비용 장기 투자에 나서는 투자자들이 증가한 영향으로 분석된다. 통계청에 따르면 2021년 기준 65세인 사람의 기대여명은 21.59년으로 추정됐다. 반면 국민연금은 현재 추이로는 이르면 2055년 기금이 바닥날 것으로 전망돼 투자자들이 추가로 노후에 대비할 수 있는 상품에 주목하는 모습이다.나정환 NH투자증권 연구원은 고령화로 노후 자산관리에 관심이 높아지면 사적연금제도가 발전할 가능성이 크다며 2055년 은퇴 예정인 1990년대생이 아직 본격적으로 타깃데이트펀드 TDF에 가입하지 않아 향후 신규 가입자는 TDF와 같은 실적배당형 상품을 선택할 개연성이 높다고 말했다.라이프사이클 펀드는 투자자의 연령대에 맞춰 자산 구성과 목표 수익률을 알맞게 조정해주는 상품이다. 주로 TDF와 타깃인컴펀드 TIF 두 가지로 구분된다. TDF는 젊을 때는 주식 등 위험자산 비중을 늘렸다가 나이가 들면 채권과 같은 안전자산 비중을 더하는 구조다. TDF 상품은 투자자의 은퇴 시점에 따라 상품명 뒤에 적힌 숫자가 바뀐다. 예를 들어 상품명에 2050이 들어가 있다면 해당 상품은 은퇴 시기가 2050년 전후인 투자자가 대상이며 생애주기에 맞춰 투자자산이 자동 재조정된다. TIF는 위험자산과 안전자산 비중을 적절하게 유지하면서 일정한 현금흐름 배당이자을 창출하는 상품이다.현재 시장에 출시된 라이프사이클 펀드는 총 222개에 달한다. 이 중 지난 1년 동안 수익률이 가장 높았던 상품은 KB자산운용의 KB온국민TDF2050 펀드로 약 15의 수익률을 기록했다. 미국 스탠더드앤드푸어스 SP500지수를 추종하는 ETF 비중이 36로 높다. 지난 1년 동안 설정액이 가장 많이 늘어난 상품은 SP500지수와 채권형 ETF 비중이 높은 KB다이나믹TDF2030 펀드로 1352억원이 유입된 것으로 나타났다. 그 밖에 미래에셋라이프사이클2030 펀드와 신한마음편한TDF2050 펀드의 1년 수익률도 각각 13로 높았다. 한국투자TDF알아서ETF포커스2060 펀드도 11의 수익을 거뒀다. 퇴직연금 디폴트옵션 사전지정운용제도이 본격적으로 시행됨에 따라 라이프사이클 펀드에 관한 관심도 덩달아 높아졌다. 확정기여 DC형 퇴직연금과 개인형퇴직연금 IRP 가입자들은 디폴트옵션에 따라 특정 TDF 상품을 미리 지정해야 하기 때문이다.홍원구 자본시장연구원 펀드연금실 연구위원은 보고서를 통해 미국에서는 디폴트옵션 시행을 계기로 TDF가 급격한 성장을 보였다며 상대적으로 비용이 낮은 TDF가 관심을 끌 것으로 예상된다고 말했다. </t>
+          <t>라이프사이클펀드 올해 설정액 10.3조노후준비 투자자 늘며 5년간 5배 급증생애주기에 맞춰 위험안전자산 조정고령화에 발 빠르게 노후를 준비하는 투자자들이 늘면서 생애주기에 맞춰 자동으로 포트폴리오를 조정해주는 라이프사이클 펀드로 뭉칫돈이 몰리고 있다.12일 금융정보업체 에프앤가이드에 따르면 국내 라이프사이클 테마 펀드의 설정액이 이달 12일 기준 10조3166억원을 기록한 것으로 나타났다.라이프사이클 펀드보다 설정액이 큰 테마형 펀드는 상장지수펀드 ETF 퇴직연금 연금저축뿐이다.라이프사이클 펀드의 설정액이 10조원을 넘어선 건 이번이 처음이다. 라이프사이클 펀드 설정액 규모는 최근 5년 동안 약 5배 급증했다. 지난 2019년 2조1951억원에 그쳤던 펀드 규모는 2020년 3조3065억원 2021년 6조4572억원 2022년 8조3133억원으로 꾸준히 증가하는 추세다.고령화 추이에 따라 노후 준비용 장기 투자에 나서는 투자자들이 증가한 영향으로 분석된다. 통계청에 따르면 2021년 기준 국내 65세인 사람의 기대 여명은 21.59년으로 추정됐다.반면 국민연금은 현재 추이로는 이르면 2055년 기금이 바닥날 것으로 전망돼 투자자들이 추가로 노후에 대비할 수 있는 상품에 주목하는 모습이다.나정환 NH투자증권 연구원은 고령화로 노후 자산관리에 관심이 높아지면 사적연금제도가 발전할 가능성이 크다며 2055년 은퇴 예정인 1990년대생이 아직 본격적으로 TDF에 가입하지 않아 향후 신규 가입자는 TDF 타깃데이트펀드와 같은 실적배당형 상품을 선택할 개연성이 높다고 말했다.라이프사이클 펀드는 투자자의 연령대에 맞춰 자산 구성 및 목표 수익률을 알맞게 조정해주는 상품이다. 주로 TDF 타켓데이트펀드 TIF 타킷인컴펀드 두 가지로 구분된다. TDF는 젊을 때는 주식 등 위험자산 비중을 늘렸다가 나이가 들면 채권과 같은 안전자산 비중을 더하는 구조다.TDF 상품은 투자자의 은퇴 시점에 따라 상품명 뒤에 적힌 숫자가 바뀐다. 예를 들어 해당 상품의 경우 은퇴 시기가 2050년 전후인 투자자가 대상이며 생애주기에 맞춰 투자 자산이 자동 재조정 된다. TIF는 위험자산과 안전자산 비중을 적절하게 유지하면서 일정한 현금흐름 배당이자을 창출하는 상품이다.현재 시장에 출시된 라이프사이클 펀드는 총 222개에 달한다. 이중 지난 1년 동안 수익률이 가장 높았던 상품은 KB자산운용의 KB온국민TDF2050 펀드로 약 15의 수익률을 기록했다.미국 스탠더드앤드푸어스 SP500지수를 추종하는 ETF 비중이 36로 높다. 지난 1년 동안 설정액이 가장 많이 늘어난 상품은 SP500지수와 채권형 ETF 비중이 높은 KB다이나믹TDF2030 펀드로 1352억원이 유입된 것으로 나타났다.이석희 KB자산운용 연금WM본부장은 성장주 비중을 높게 가져간 결과 변동성 장세에서도 탄탄한 성과를 유지했다고 밝혔다.그 밖에 미래에셋라이프사이클2030 펀드 및 신한마음편한TDF2050 펀드의 1년 수익률도 각 13로 높았다. 한국투자TDF알아서ETF포커스2060 펀드도 11의 수익률을 거뒀다. 상품 마다 편입 자산에 차이가 있어 투자자들은 해당 펀드의 자산 구성을 살펴본 후 투자를 결정하는 게 좋다.일부 상품은 세부 섹터 테마에 주목해 초과 수익을 노리는 반면 일부 상품은 원자재 리츠 비중을 늘려 포트폴리오 다각화에 나서는 경우도 있다.퇴직연금 디폴트옵션 사전지정운용제도의 본격적 시행에 따라 라이프사이클 펀드에 관한 관심도 덩달아 높아졌다. 확정기여 DC형 퇴직연금 및 개인형퇴직연금 IRP 가입자들은 디폴트옵션에 따라 특정 TDF 상품을 미리 지정해야 하기 때문이다.홍원구 자본시장연구원 펀드 및 연금실 연구위원은 보고서를 통해 미국의 경우 디폴트옵션 제도 시행을 계기로 TDF 규모가 급격한 성장을 보였다며 상대적으로 비용이 낮은 TDF가 관심을 끌 것으로 예상된다고 말했다.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>['디폴트옵션 설정액', '퇴직연금 TDF', '퇴직연금 펀드', '퇴직연금 설정액']</t>
+          <t>['퇴직연금 DC', '퇴직연금 IRP', '개인형퇴직연금', '디폴트옵션 설정액', '퇴직연금 규모', '미래에셋 퇴직연금', 'KB 퇴직연금', 'NH 퇴직연금', '신한 퇴직연금', '한국투자 퇴직연금', '퇴직연금 수익률', '퇴직연금 ETF', '퇴직연금 포트폴리오', '퇴직연금 TDF', '퇴직연금 가입', '퇴직연금 펀드', '퇴직연금 채권', '퇴직연금 리츠', '퇴직연금 설정액', '퇴직연금 장기 투자']</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>[{'디폴트옵션 설정액': 1}, {'퇴직연금 TDF': 26}, {'퇴직연금 펀드': 8}, {'퇴직연금 설정액': 11}]</t>
+          <t>[{'퇴직연금 DC': 30}, {'퇴직연금 IRP': 43}, {'개인형퇴직연금': 41}, {'디폴트옵션 설정액': 9}, {'퇴직연금 규모': 52}, {'미래에셋 퇴직연금': 2}, {'KB 퇴직연금': 2}, {'NH 퇴직연금': 2}, {'신한 퇴직연금': 56}, {'한국투자 퇴직연금': 1}, {'퇴직연금 수익률': 44}, {'퇴직연금 ETF': 1}, {'퇴직연금 포트폴리오': 34}, {'퇴직연금 TDF': 28}, {'퇴직연금 가입': 43}, {'퇴직연금 펀드': 13}, {'퇴직연금 채권': 1}, {'퇴직연금 리츠': 1}, {'퇴직연금 설정액': 1}, {'퇴직연금 장기 투자': 1}]</t>
         </is>
       </c>
       <c r="K8" t="n">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>라이프사이클 펀드 설정액이 최근 5년 동안 약 5배 급증하여 투자자들의 관심이 높아짐.</t>
+          <t>라이프사이클 펀드의 설정액이 최근 5년 동안 약 5배 급증하여 펀드 관리 전략과 수익률이 높은 것으로 평가됨.</t>
         </is>
       </c>
       <c r="M8" t="n">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>라이프사이클 펀드는 투자자의 연령대에 맞춰 자산 구성과 목표 수익률을 알맞게 조정해주는 상품이므로 투자자들의 노후 준비에 관련된 경쟁 동향을 파악할 수 있음.</t>
+          <t>라이프사이클 펀드는 노후 준비용 장기 투자에 관심이 있는 투자자들이 증가하면서 시장에서 경쟁력을 갖추고 있음.</t>
         </is>
       </c>
       <c r="O8" t="n">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>라이프사이클 펀드의 수익률과 설정액 증가는 금융 시장의 변동성과 투자자들의 투자 성향에 영향을 받을 수 있음.</t>
+          <t>라이프사이클 펀드는 투자자의 연령대에 맞춰 자산 구성 및 목표 수익률을 조정해주는 상품으로, 금융 시장의 변동성에 대한 영향을 분석하고 대응할 수 있는 능력을 갖추고 있음.</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>본문에는 법률 및 규제 변화에 대한 언급이 없음.</t>
+          <t>본문에는 법률 및 규제 변경에 대한 언급이 없음.</t>
         </is>
       </c>
       <c r="S8" t="n">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>고령화 추세에 따라 노후 준비용 장기 투자에 나서는 투자자들이 증가하고 있으며, 국민연금의 예상 기금 고갈로 인해 추가로 노후에 대비할 수 있는 상품에 관심이 높아짐.</t>
+          <t>고령화 추세에 따라 노후 준비용 장기 투자에 나서는 투자자들이 증가하고 있으며, 이는 라이프사이클 펀드의 장기적인 지속 가능성에 영향을 미칠 수 있음.</t>
         </is>
       </c>
       <c r="U8" t="n">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>본문에는 기술과 디지털화에 관련된 내용이 없음.</t>
+          <t>본문에는 기술과 디지털화에 관한 내용이 없음.</t>
         </is>
       </c>
       <c r="W8" t="n">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>본문에는 소비 행태 및 요구사항에 대한 언급이 없음.</t>
+          <t>본문에는 소비 행태 및 요구사항에 대한 내용이 없음.</t>
         </is>
       </c>
     </row>
@@ -1299,45 +1299,45 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>퇴직연금 제도</t>
+          <t>퇴직연금 상품</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>신한투자증권</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>신한투자증권, 퇴직연금 디폴트옵션 이벤트</t>
+          <t>노후 대비해야지…10조 몰린 '라이프사이클 펀드'</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>신한투자증권은 퇴직연금 사전지정운용제도 디폴트옵션 이벤트를 실시한다고 밝혔다. 디폴트옵션은 퇴직연금 가입자의 원리금 보장상품을 운용하는 제도다. 이번 이벤트는 신한투자증권의 퇴직연금 개별 가입 고객과 개인형 퇴직연금 고객을 대상으로 진행된다.</t>
+          <t>국내 라이프사이클 테마 펀드 설정액이 10조원을 넘어선 것으로 나타났다. 라이프사이클 펀드 설정액 규모는 최근 5년 동안 약 5배 급증했다. 투자자들이 노후에 대비할 수 있는 상품에 주목하는 모습이다.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000778506?sid=101</t>
+          <t>https://n.news.naver.com/mnews/article/009/0005198462?sid=101</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>신한투자증권은 퇴직연금 사전지정운용제도 디폴트옵션 시행을 기념해 퇴직연금 디폴트옵션 이벤트를 실시한다고 12일 밝혔다.디폴트옵션은 퇴직연금 가입자의 원리금 보장상품 만기 또는 신규 자금 입금 시 별도 운용지시가 없다면 사전에 지정한 상품으로 운용하는 제도다. 적립금이 방치되는 것을 방지해 수익률을 높이는 역할을 한다.이번 이벤트는 신한투자증권의 DC Defined Contribution 확정기여형 퇴직연금 개별 가입 고객과 IRP Individual Retirement Pension 개인형 퇴직연금 고객을 대상으로 오는 12월 31일까지 진행된다.이번 이벤트는 이벤트 신청 후 디폴트옵션 상품을 최초로 등록한 고객 대상으로 진행된다. 추첨을 통해 매월 500명에게 스타벅스 아메리카노 쿠폰 1매를 제공한다. 경품은 이벤트 신청을 완료한 다음 달 말일 경 추첨을 통해 발송할 예정이다.올해 퇴직연금 계좌로 이벤트 혜택을 지급받은 경우 퇴직연금감독규정 제16조 2항에 따라 연간 3만원 한도 내에서 제공되므로 본 이벤트 조건을 충족하더라도 당첨이 제한될 수 있다.한편 신한투자증권 디폴트옵션 상품은 투자성향 별로 총 10종이 구성됐다. 정기예금을 비롯해 TDF Target Date Fund BF Balance Fund 디폴트옵션 전용펀드 중심 포트폴리오를 제공해 고객의 다양한 니즈에 따라 상품 선택이 가능토록 했다.퇴직연금 디폴트옵션과 이벤트에 관한 자세한 사항은 신한투자증권 홈페이지와 신한알파 모바일트레이딩시스템 MTS 챗봇을 통해 확인할 수 있다.</t>
+          <t xml:space="preserve">TDFTIF가 대표적 상품4년새 설정액 5배나 급증생애주기 맞춰 자산배분젊을땐 위험자산 늘리고나이들면 안전자산 늘려고령화에 발 빠르게 노후를 준비하는 투자자들이 늘면서 생애주기에 맞춰 자동으로 포트폴리오를 조정해주는 라이프사이클 펀드로 뭉칫돈이 몰리고 있다.12일 금융정보업체 에프앤가이드에 따르면 국내 라이프사이클 테마 펀드 설정액이 이달 12일 기준 10조3166억원을 기록한 것으로 나타났다.라이프사이클 펀드보다 설정액이 많은 테마형 펀드는 상장지수펀드 ETF 퇴직연금 연금저축뿐이다.라이프사이클 펀드 설정액이 10조원을 넘어선 건 이번이 처음이다. 라이프사이클 펀드 설정액 규모는 최근 5년 동안 약 5배 급증했다. 2019년 2조1951억원에 그쳤던 펀드 규모는 2020년 3조3065억원 2021년 6조4572억원 2022년 8조3133억원으로 꾸준히 증가하는 추세다.고령화 추이에 따라 노후 준비용 장기 투자에 나서는 투자자들이 증가한 영향으로 분석된다. 통계청에 따르면 2021년 기준 65세인 사람의 기대여명은 21.59년으로 추정됐다. 반면 국민연금은 현재 추이로는 이르면 2055년 기금이 바닥날 것으로 전망돼 투자자들이 추가로 노후에 대비할 수 있는 상품에 주목하는 모습이다.나정환 NH투자증권 연구원은 고령화로 노후 자산관리에 관심이 높아지면 사적연금제도가 발전할 가능성이 크다며 2055년 은퇴 예정인 1990년대생이 아직 본격적으로 타깃데이트펀드 TDF에 가입하지 않아 향후 신규 가입자는 TDF와 같은 실적배당형 상품을 선택할 개연성이 높다고 말했다.라이프사이클 펀드는 투자자의 연령대에 맞춰 자산 구성과 목표 수익률을 알맞게 조정해주는 상품이다. 주로 TDF와 타깃인컴펀드 TIF 두 가지로 구분된다. TDF는 젊을 때는 주식 등 위험자산 비중을 늘렸다가 나이가 들면 채권과 같은 안전자산 비중을 더하는 구조다. TDF 상품은 투자자의 은퇴 시점에 따라 상품명 뒤에 적힌 숫자가 바뀐다. 예를 들어 상품명에 2050이 들어가 있다면 해당 상품은 은퇴 시기가 2050년 전후인 투자자가 대상이며 생애주기에 맞춰 투자자산이 자동 재조정된다. TIF는 위험자산과 안전자산 비중을 적절하게 유지하면서 일정한 현금흐름 배당이자을 창출하는 상품이다.현재 시장에 출시된 라이프사이클 펀드는 총 222개에 달한다. 이 중 지난 1년 동안 수익률이 가장 높았던 상품은 KB자산운용의 KB온국민TDF2050 펀드로 약 15의 수익률을 기록했다. 미국 스탠더드앤드푸어스 SP500지수를 추종하는 ETF 비중이 36로 높다. 지난 1년 동안 설정액이 가장 많이 늘어난 상품은 SP500지수와 채권형 ETF 비중이 높은 KB다이나믹TDF2030 펀드로 1352억원이 유입된 것으로 나타났다. 그 밖에 미래에셋라이프사이클2030 펀드와 신한마음편한TDF2050 펀드의 1년 수익률도 각각 13로 높았다. 한국투자TDF알아서ETF포커스2060 펀드도 11의 수익을 거뒀다. 퇴직연금 디폴트옵션 사전지정운용제도이 본격적으로 시행됨에 따라 라이프사이클 펀드에 관한 관심도 덩달아 높아졌다. 확정기여 DC형 퇴직연금과 개인형퇴직연금 IRP 가입자들은 디폴트옵션에 따라 특정 TDF 상품을 미리 지정해야 하기 때문이다.홍원구 자본시장연구원 펀드연금실 연구위원은 보고서를 통해 미국에서는 디폴트옵션 시행을 계기로 TDF가 급격한 성장을 보였다며 상대적으로 비용이 낮은 TDF가 관심을 끌 것으로 예상된다고 말했다. </t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>['퇴직연금 DC', '퇴직연금 IRP', '확정기여형', '개인형퇴직연금', '디폴트옵션', '퇴직연금 적립금', '퇴직연금 이벤트', '디폴트옵션 이벤트', 'DC 이벤트', 'IRP 이벤트', '신한 퇴직연금', '삼성 퇴직연금', '한국투자 퇴직연금', '퇴직연금 서비스 ', '퇴직연금 수익률', '퇴직연금 ETF', '퇴직연금 포트폴리오', '퇴직연금 TDF', '퇴직연금 가입', '퇴직연금 펀드', '퇴직연금 예금', '디폴트옵션 포트폴리오']</t>
+          <t>['디폴트옵션 설정액', '퇴직연금 TDF', '퇴직연금 펀드', '퇴직연금 설정액']</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>[{'퇴직연금 DC': 1}, {'퇴직연금 DC': 2}, {'퇴직연금 DC': 3}, {'퇴직연금 DC': 4}, {'퇴직연금 DC': 6}, {'퇴직연금 DC': 7}, {'퇴직연금 DC': 8}, {'퇴직연금 DC': 9}, {'퇴직연금 DC': 10}, {'퇴직연금 DC': 13}, {'퇴직연금 DC': 15}, {'퇴직연금 DC': 16}, {'퇴직연금 DC': 17}, {'퇴직연금 DC': 18}, {'퇴직연금 DC': 20}, {'퇴직연금 DC': 21}, {'퇴직연금 DC': 22}, {'퇴직연금 DC': 23}, {'퇴직연금 DC': 24}, {'퇴직연금 DC': 27}, {'퇴직연금 DC': 28}, {'퇴직연금 DC': 31}, {'퇴직연금 DC': 32}, {'퇴직연금 DC': 34}, {'퇴직연금 DC': 35}, {'퇴직연금 DC': 36}, {'퇴직연금 DC': 37}, {'퇴직연금 DC': 38}, {'퇴직연금 DC': 39}, {'퇴직연금 DC': 40}, {'퇴직연금 DC': 41}, {'퇴직연금 DC': 45}, {'퇴직연금 DC': 47}, {'퇴직연금 DC': 52}, {'퇴직연금 DC': 55}, {'퇴직연금 IRP': 1}, {'퇴직연금 IRP': 2}, {'퇴직연금 IRP': 3}, {'퇴직연금 IRP': 4}, {'퇴직연금 IRP': 6}, {'퇴직연금 IRP': 7}, {'퇴직연금 IRP': 8}, {'퇴직연금 IRP': 9}, {'퇴직연금 IRP': 11}, {'퇴직연금 IRP': 12}, {'퇴직연금 IRP': 15}, {'퇴직연금 IRP': 17}, {'퇴직연금 IRP': 18}, {'퇴직연금 IRP': 20}, {'퇴직연금 IRP': 21}, {'퇴직연금 IRP': 22}, {'퇴직연금 IRP': 23}, {'퇴직연금 IRP': 25}, {'퇴직연금 IRP': 26}, {'퇴직연금 IRP': 27}, {'퇴직연금 IRP': 28}, {'퇴직연금 IRP': 29}, {'퇴직연금 IRP': 30}, {'퇴직연금 IRP': 31}, {'퇴직연금 IRP': 32}, {'퇴직연금 IRP': 35}, {'퇴직연금 IRP': 37}, {'퇴직연금 IRP': 38}, {'퇴직연금 IRP': 40}, {'퇴직연금 IRP': 44}, {'퇴직연금 IRP': 45}, {'퇴직연금 IRP': 46}, {'퇴직연금 IRP': 47}, {'퇴직연금 IRP': 48}, {'퇴직연금 IRP': 50}, {'퇴직연금 IRP': 52}, {'퇴직연금 IRP': 53}, {'퇴직연금 IRP': 55}, {'퇴직연금 IRP': 56}, {'확정기여형': 7}, {'확정기여형': 8}, {'확정기여형': 9}, {'확정기여형': 10}, {'확정기여형': 12}, {'확정기여형': 14}, {'확정기여형': 15}, {'확정기여형': 16}, {'확정기여형': 18}, {'확정기여형': 19}, {'확정기여형': 23}, {'확정기여형': 26}, {'확정기여형': 27}, {'확정기여형': 28}, {'확정기여형': 30}, {'확정기여형': 31}, {'확정기여형': 32}, {'확정기여형': 36}, {'확정기여형': 38}, {'확정기여형': 39}, {'확정기여형': 41}, {'확정기여형': 42}, {'확정기여형': 43}, {'확정기여형': 44}, {'확정기여형': 45}, {'확정기여형': 49}, {'확정기여형': 53}, {'확정기여형': 54}, {'확정기여형': 56}, {'개인형퇴직연금': 1}, {'개인형퇴직연금': 2}, {'개인형퇴직연금': 3}, {'개인형퇴직연금': 4}, {'개인형퇴직연금': 6}, {'개인형퇴직연금': 7}, {'개인형퇴직연금': 8}, {'개인형퇴직연금': 9}, {'개인형퇴직연금': 11}, {'개인형퇴직연금': 12}, {'개인형퇴직연금': 15}, {'개인형퇴직연금': 18}, {'개인형퇴직연금': 19}, {'개인형퇴직연금': 20}, {'개인형퇴직연금': 21}, {'개인형퇴직연금': 22}, {'개인형퇴직연금': 23}, {'개인형퇴직연금': 25}, {'개인형퇴직연금': 26}, {'개인형퇴직연금': 27}, {'개인형퇴직연금': 28}, {'개인형퇴직연금': 29}, {'개인형퇴직연금': 30}, {'개인형퇴직연금': 31}, {'개인형퇴직연금': 32}, {'개인형퇴직연금': 35}, {'개인형퇴직연금': 37}, {'개인형퇴직연금': 38}, {'개인형퇴직연금': 39}, {'개인형퇴직연금': 42}, {'개인형퇴직연금': 43}, {'개인형퇴직연금': 44}, {'개인형퇴직연금': 47}, {'개인형퇴직연금': 48}, {'개인형퇴직연금': 49}, {'개인형퇴직연금': 52}, {'개인형퇴직연금': 53}, {'개인형퇴직연금': 56}, {'개인형퇴직연금': 57}, {'디폴트옵션': 1}, {'디폴트옵션': 2}, {'디폴트옵션': 3}, {'디폴트옵션': 4}, {'디폴트옵션': 6}, {'디폴트옵션': 7}, {'디폴트옵션': 8}, {'디폴트옵션': 9}, {'디폴트옵션': 11}, {'디폴트옵션': 12}, {'디폴트옵션': 15}, {'디폴트옵션': 16}, {'디폴트옵션': 17}, {'디폴트옵션': 18}, {'디폴트옵션': 20}, {'디폴트옵션': 21}, {'디폴트옵션': 22}, {'디폴트옵션': 24}, {'디폴트옵션': 25}, {'디폴트옵션': 26}, {'디폴트옵션': 27}, {'디폴트옵션': 28}, {'디폴트옵션': 29}, {'디폴트옵션': 30}, {'디폴트옵션': 31}, {'디폴트옵션': 34}, {'디폴트옵션': 35}, {'디폴트옵션': 36}, {'디폴트옵션': 37}, {'디폴트옵션': 40}, {'디폴트옵션': 41}, {'디폴트옵션': 42}, {'디폴트옵션': 43}, {'디폴트옵션': 44}, {'디폴트옵션': 45}, {'디폴트옵션': 46}, {'디폴트옵션': 47}, {'디폴트옵션': 48}, {'디폴트옵션': 50}, {'디폴트옵션': 51}, {'디폴트옵션': 53}, {'디폴트옵션': 54}, {'디폴트옵션': 55}, {'디폴트옵션': 56}, {'디폴트옵션': 57}, {'퇴직연금 적립금': 2}, {'퇴직연금 적립금': 3}, {'퇴직연금 적립금': 4}, {'퇴직연금 적립금': 6}, {'퇴직연금 적립금': 7}, {'퇴직연금 적립금': 8}, {'퇴직연금 적립금': 10}, {'퇴직연금 적립금': 11}, {'퇴직연금 적립금': 12}, {'퇴직연금 적립금': 14}, {'퇴직연금 적립금': 17}, {'퇴직연금 적립금': 18}, {'퇴직연금 적립금': 19}, {'퇴직연금 적립금': 20}, {'퇴직연금 적립금': 21}, {'퇴직연금 적립금': 24}, {'퇴직연금 적립금': 25}, {'퇴직연금 적립금': 26}, {'퇴직연금 적립금': 27}, {'퇴직연금 적립금': 28}, {'퇴직연금 적립금': 29}, {'퇴직연금 적립금': 30}, {'퇴직연금 적립금': 31}, {'퇴직연금 적립금': 34}, {'퇴직연금 적립금': 35}, {'퇴직연금 적립금': 36}, {'퇴직연금 적립금': 37}, {'퇴직연금 적립금': 38}, {'퇴직연금 적립금': 39}, {'퇴직연금 적립금': 40}, {'퇴직연금 적립금': 41}, {'퇴직연금 적립금': 42}, {'퇴직연금 적립금': 43}, {'퇴직연금 적립금': 44}, {'퇴직연금 적립금': 45}, {'퇴직연금 적립금': 46}, {'퇴직연금 적립금': 47}, {'퇴직연금 적립금': 48}, {'퇴직연금 적립금': 49}, {'퇴직연금 적립금': 50}, {'퇴직연금 적립금': 52}, {'퇴직연금 적립금': 54}, {'퇴직연금 이벤트': 1}, {'퇴직연금 이벤트': 2}, {'퇴직연금 이벤트': 3}, {'퇴직연금 이벤트': 4}, {'퇴직연금 이벤트': 6}, {'퇴직연금 이벤트': 7}, {'퇴직연금 이벤트': 8}, {'퇴직연금 이벤트': 9}, {'퇴직연금 이벤트': 11}, {'퇴직연금 이벤트': 12}, {'퇴직연금 이벤트': 13}, {'퇴직연금 이벤트': 16}, {'퇴직연금 이벤트': 17}, {'퇴직연금 이벤트': 19}, {'퇴직연금 이벤트': 20}, {'퇴직연금 이벤트': 21}, {'퇴직연금 이벤트': 22}, {'퇴직연금 이벤트': 23}, {'퇴직연금 이벤트': 24}, {'퇴직연금 이벤트': 25}, {'퇴직연금 이벤트': 26}, {'퇴직연금 이벤트': 27}, {'퇴직연금 이벤트': 28}, {'퇴직연금 이벤트': 29}, {'퇴직연금 이벤트': 30}, {'퇴직연금 이벤트': 34}, {'퇴직연금 이벤트': 35}, {'퇴직연금 이벤트': 36}, {'퇴직연금 이벤트': 37}, {'퇴직연금 이벤트': 39}, {'퇴직연금 이벤트': 40}, {'퇴직연금 이벤트': 42}, {'퇴직연금 이벤트': 43}, {'퇴직연금 이벤트': 44}, {'퇴직연금 이벤트': 45}, {'퇴직연금 이벤트': 46}, {'퇴직연금 이벤트': 47}, {'퇴직연금 이벤트': 48}, {'퇴직연금 이벤트': 49}, {'퇴직연금 이벤트': 50}, {'퇴직연금 이벤트': 53}, {'퇴직연금 이벤트': 56}, {'퇴직연금 이벤트': 57}, {'디폴트옵션 이벤트': 1}, {'디폴트옵션 이벤트': 2}, {'디폴트옵션 이벤트': 3}, {'디폴트옵션 이벤트': 4}, {'디폴트옵션 이벤트': 6}, {'디폴트옵션 이벤트': 7}, {'디폴트옵션 이벤트': 8}, {'디폴트옵션 이벤트': 9}, {'디폴트옵션 이벤트': 11}, {'디폴트옵션 이벤트': 12}, {'디폴트옵션 이벤트': 14}, {'디폴트옵션 이벤트': 16}, {'디폴트옵션 이벤트': 17}, {'디폴트옵션 이벤트': 18}, {'디폴트옵션 이벤트': 20}, {'디폴트옵션 이벤트': 21}, {'디폴트옵션 이벤트': 22}, {'디폴트옵션 이벤트': 23}, {'디폴트옵션 이벤트': 24}, {'디폴트옵션 이벤트': 25}, {'디폴트옵션 이벤트': 26}, {'디폴트옵션 이벤트': 27}, {'디폴트옵션 이벤트': 28}, {'디폴트옵션 이벤트': 29}, {'디폴트옵션 이벤트': 30}, {'디폴트옵션 이벤트': 34}, {'디폴트옵션 이벤트': 35}, {'디폴트옵션 이벤트': 36}, {'디폴트옵션 이벤트': 37}, {'디폴트옵션 이벤트': 39}, {'디폴트옵션 이벤트': 40}, {'디폴트옵션 이벤트': 41}, {'디폴트옵션 이벤트': 42}, {'디폴트옵션 이벤트': 43}, {'디폴트옵션 이벤트': 44}, {'디폴트옵션 이벤트': 45}, {'디폴트옵션 이벤트': 46}, {'디폴트옵션 이벤트': 47}, {'디폴트옵션 이벤트': 48}, {'디폴트옵션 이벤트': 49}, {'디폴트옵션 이벤트': 51}, {'디폴트옵션 이벤트': 52}, {'디폴트옵션 이벤트': 53}, {'디폴트옵션 이벤트': 54}, {'디폴트옵션 이벤트': 55}, {'DC 이벤트': 1}, {'DC 이벤트': 2}, {'DC 이벤트': 3}, {'DC 이벤트': 4}, {'DC 이벤트': 5}, {'DC 이벤트': 7}, {'DC 이벤트': 8}, {'DC 이벤트': 9}, {'DC 이벤트': 10}, {'DC 이벤트': 11}, {'DC 이벤트': 13}, {'DC 이벤트': 14}, {'DC 이벤트': 16}, {'DC 이벤트': 18}, {'DC 이벤트': 19}, {'DC 이벤트': 20}, {'DC 이벤트': 21}, {'DC 이벤트': 22}, {'DC 이벤트': 23}, {'DC 이벤트': 24}, {'DC 이벤트': 25}, {'DC 이벤트': 26}, {'DC 이벤트': 27}, {'DC 이벤트': 28}, {'DC 이벤트': 29}, {'DC 이벤트': 31}, {'DC 이벤트': 32}, {'DC 이벤트': 33}, {'DC 이벤트': 34}, {'DC 이벤트': 37}, {'DC 이벤트': 38}, {'DC 이벤트': 39}, {'DC 이벤트': 40}, {'DC 이벤트': 41}, {'DC 이벤트': 42}, {'DC 이벤트': 44}, {'DC 이벤트': 45}, {'DC 이벤트': 46}, {'DC 이벤트': 47}, {'DC 이벤트': 51}, {'DC 이벤트': 52}, {'DC 이벤트': 53}, {'DC 이벤트': 57}, {'DC 이벤트': 59}, {'IRP 이벤트': 1}, {'IRP 이벤트': 2}, {'IRP 이벤트': 3}, {'IRP 이벤트': 4}, {'IRP 이벤트': 5}, {'IRP 이벤트': 7}, {'IRP 이벤트': 8}, {'IRP 이벤트': 9}, {'IRP 이벤트': 10}, {'IRP 이벤트': 12}, {'IRP 이벤트': 13}, {'IRP 이벤트': 15}, {'IRP 이벤트': 16}, {'IRP 이벤트': 17}, {'IRP 이벤트': 18}, {'IRP 이벤트': 19}, {'IRP 이벤트': 20}, {'IRP 이벤트': 21}, {'IRP 이벤트': 22}, {'IRP 이벤트': 23}, {'IRP 이벤트': 24}, {'IRP 이벤트': 25}, {'IRP 이벤트': 26}, {'IRP 이벤트': 27}, {'IRP 이벤트': 28}, {'IRP 이벤트': 31}, {'IRP 이벤트': 32}, {'IRP 이벤트': 33}, {'IRP 이벤트': 35}, {'IRP 이벤트': 37}, {'IRP 이벤트': 38}, {'IRP 이벤트': 39}, {'IRP 이벤트': 40}, {'IRP 이벤트': 41}, {'IRP 이벤트': 43}, {'IRP 이벤트': 44}, {'IRP 이벤트': 45}, {'IRP 이벤트': 46}, {'IRP 이벤트': 47}, {'IRP 이벤트': 52}, {'IRP 이벤트': 53}, {'IRP 이벤트': 55}, {'신한 퇴직연금': 1}, {'신한 퇴직연금': 2}, {'신한 퇴직연금': 3}, {'신한 퇴직연금': 4}, {'신한 퇴직연금': 5}, {'신한 퇴직연금': 6}, {'신한 퇴직연금': 7}, {'신한 퇴직연금': 8}, {'신한 퇴직연금': 10}, {'신한 퇴직연금': 11}, {'신한 퇴직연금': 14}, {'신한 퇴직연금': 16}, {'신한 퇴직연금': 17}, {'신한 퇴직연금': 19}, {'신한 퇴직연금': 20}, {'신한 퇴직연금': 21}, {'신한 퇴직연금': 22}, {'신한 퇴직연금': 23}, {'신한 퇴직연금': 25}, {'신한 퇴직연금': 26}, {'신한 퇴직연금': 27}, {'신한 퇴직연금': 28}, {'신한 퇴직연금': 29}, {'신한 퇴직연금': 30}, {'신한 퇴직연금': 31}, {'신한 퇴직연금': 34}, {'신한 퇴직연금': 35}, {'신한 퇴직연금': 36}, {'신한 퇴직연금': 37}, {'신한 퇴직연금': 39}, {'신한 퇴직연금': 40}, {'신한 퇴직연금': 41}, {'신한 퇴직연금': 42}, {'신한 퇴직연금': 43}, {'신한 퇴직연금': 44}, {'신한 퇴직연금': 45}, {'신한 퇴직연금': 46}, {'신한 퇴직연금': 47}, {'신한 퇴직연금': 48}, {'신한 퇴직연금': 49}, {'신한 퇴직연금': 51}, {'신한 퇴직연금': 52}, {'신한 퇴직연금': 53}, {'신한 퇴직연금': 54}, {'신한 퇴직연금': 55}, {'삼성 퇴직연금': 8}, {'한국투자 퇴직연금': 2}, {'퇴직연금 서비스 ': 17}, {'퇴직연금 수익률': 2}, {'퇴직연금 수익률': 3}, {'퇴직연금 수익률': 4}, {'퇴직연금 수익률': 5}, {'퇴직연금 수익률': 7}, {'퇴직연금 수익률': 8}, {'퇴직연금 수익률': 9}, {'퇴직연금 수익률': 11}, {'퇴직연금 수익률': 12}, {'퇴직연금 수익률': 14}, {'퇴직연금 수익률': 16}, {'퇴직연금 수익률': 17}, {'퇴직연금 수익률': 18}, {'퇴직연금 수익률': 19}, {'퇴직연금 수익률': 20}, {'퇴직연금 수익률': 23}, {'퇴직연금 수익률': 24}, {'퇴직연금 수익률': 27}, {'퇴직연금 수익률': 28}, {'퇴직연금 수익률': 29}, {'퇴직연금 수익률': 31}, {'퇴직연금 수익률': 32}, {'퇴직연금 수익률': 38}, {'퇴직연금 수익률': 39}, {'퇴직연금 수익률': 43}, {'퇴직연금 수익률': 45}, {'퇴직연금 수익률': 46}, {'퇴직연금 수익률': 47}, {'퇴직연금 수익률': 50}, {'퇴직연금 수익률': 52}, {'퇴직연금 수익률': 54}, {'퇴직연금 수익률': 56}, {'퇴직연금 수익률': 57}, {'퇴직연금 수익률': 58}, {'퇴직연금 수익률': 59}, {'퇴직연금 ETF': 16}, {'퇴직연금 포트폴리오': 1}, {'퇴직연금 포트폴리오': 2}, {'퇴직연금 포트폴리오': 3}, {'퇴직연금 포트폴리오': 4}, {'퇴직연금 포트폴리오': 6}, {'퇴직연금 포트폴리오': 7}, {'퇴직연금 포트폴리오': 9}, {'퇴직연금 포트폴리오': 10}, {'퇴직연금 포트폴리오': 13}, {'퇴직연금 포트폴리오': 14}, {'퇴직연금 포트폴리오': 15}, {'퇴직연금 포트폴리오': 16}, {'퇴직연금 포트폴리오': 17}, {'퇴직연금 포트폴리오': 18}, {'퇴직연금 포트폴리오': 20}, {'퇴직연금 포트폴리오': 21}, {'퇴직연금 포트폴리오': 22}, {'퇴직연금 포트폴리오': 23}, {'퇴직연금 포트폴리오': 24}, {'퇴직연금 포트폴리오': 27}, {'퇴직연금 포트폴리오': 29}, {'퇴직연금 포트폴리오': 30}, {'퇴직연금 포트폴리오': 35}, {'퇴직연금 포트폴리오': 36}, {'퇴직연금 포트폴리오': 37}, {'퇴직연금 포트폴리오': 41}, {'퇴직연금 포트폴리오': 42}, {'퇴직연금 포트폴리오': 43}, {'퇴직연금 포트폴리오': 60}, {'퇴직연금 TDF': 2}, {'퇴직연금 TDF': 3}, {'퇴직연금 TDF': 4}, {'퇴직연금 TDF': 6}, {'퇴직연금 TDF': 7}, {'퇴직연금 TDF': 8}, {'퇴직연금 TDF': 10}, {'퇴직연금 TDF': 11}, {'퇴직연금 TDF': 13}, {'퇴직연금 TDF': 14}, {'퇴직연금 TDF': 15}, {'퇴직연금 TDF': 16}, {'퇴직연금 TDF': 17}, {'퇴직연금 TDF': 18}, {'퇴직연금 TDF': 19}, {'퇴직연금 TDF': 20}, {'퇴직연금 TDF': 21}, {'퇴직연금 TDF': 22}, {'퇴직연금 TDF': 23}, {'퇴직연금 TDF': 25}, {'퇴직연금 TDF': 27}, {'퇴직연금 TDF': 29}, {'퇴직연금 TDF': 31}, {'퇴직연금 TDF': 32}, {'퇴직연금 TDF': 33}, {'퇴직연금 TDF': 34}, {'퇴직연금 TDF': 35}, {'퇴직연금 TDF': 36}, {'퇴직연금 TDF': 39}, {'퇴직연금 TDF': 40}, {'퇴직연금 가입': 1}, {'퇴직연금 가입': 2}, {'퇴직연금 가입': 3}, {'퇴직연금 가입': 4}, {'퇴직연금 가입': 6}, {'퇴직연금 가입': 7}, {'퇴직연금 가입': 8}, {'퇴직연금 가입': 9}, {'퇴직연금 가입': 13}, {'퇴직연금 가입': 14}, {'퇴직연금 가입': 16}, {'퇴직연금 가입': 18}, {'퇴직연금 가입': 19}, {'퇴직연금 가입': 20}, {'퇴직연금 가입': 21}, {'퇴직연금 가입': 22}, {'퇴직연금 가입': 23}, {'퇴직연금 가입': 25}, {'퇴직연금 가입': 26}, {'퇴직연금 가입': 27}, {'퇴직연금 가입': 28}, {'퇴직연금 가입': 29}, {'퇴직연금 가입': 30}, {'퇴직연금 가입': 32}, {'퇴직연금 가입': 33}, {'퇴직연금 가입': 35}, {'퇴직연금 가입': 38}, {'퇴직연금 가입': 39}, {'퇴직연금 가입': 41}, {'퇴직연금 가입': 44}, {'퇴직연금 가입': 45}, {'퇴직연금 가입': 47}, {'퇴직연금 가입': 48}, {'퇴직연금 가입': 49}, {'퇴직연금 가입': 50}, {'퇴직연금 가입': 51}, {'퇴직연금 가입': 52}, {'퇴직연금 가입': 53}, {'퇴직연금 가입': 55}, {'퇴직연금 가입': 56}, {'퇴직연금 펀드': 1}, {'퇴직연금 펀드': 2}, {'퇴직연금 펀드': 3}, {'퇴직연금 펀드': 4}, {'퇴직연금 펀드': 6}, {'퇴직연금 펀드': 7}, {'퇴직연금 펀드': 9}, {'퇴직연금 펀드': 11}, {'퇴직연금 펀드': 15}, {'퇴직연금 펀드': 16}, {'퇴직연금 펀드': 17}, {'퇴직연금 펀드': 18}, {'퇴직연금 펀드': 19}, {'퇴직연금 펀드': 20}, {'퇴직연금 펀드': 21}, {'퇴직연금 펀드': 22}, {'퇴직연금 펀드': 23}, {'퇴직연금 펀드': 24}, {'퇴직연금 펀드': 25}, {'퇴직연금 펀드': 27}, {'퇴직연금 펀드': 28}, {'퇴직연금 펀드': 29}, {'퇴직연금 펀드': 31}, {'퇴직연금 펀드': 32}, {'퇴직연금 펀드': 33}, {'퇴직연금 펀드': 34}, {'퇴직연금 펀드': 35}, {'퇴직연금 펀드': 36}, {'퇴직연금 펀드': 40}, {'퇴직연금 펀드': 41}, {'퇴직연금 예금': 1}, {'퇴직연금 예금': 2}, {'퇴직연금 예금': 4}, {'퇴직연금 예금': 6}, {'퇴직연금 예금': 8}, {'퇴직연금 예금': 9}, {'퇴직연금 예금': 11}, {'퇴직연금 예금': 12}, {'퇴직연금 예금': 18}, {'퇴직연금 예금': 20}, {'퇴직연금 예금': 22}, {'퇴직연금 예금': 23}, {'퇴직연금 예금': 28}, {'퇴직연금 예금': 30}, {'퇴직연금 예금': 31}, {'퇴직연금 예금': 32}, {'퇴직연금 예금': 33}, {'퇴직연금 예금': 36}, {'퇴직연금 예금': 37}, {'퇴직연금 예금': 44}, {'퇴직연금 예금': 45}, {'퇴직연금 예금': 49}, {'퇴직연금 예금': 56}, {'퇴직연금 예금': 59}, {'퇴직연금 예금': 60}, {'디폴트옵션 포트폴리오': 1}, {'디폴트옵션 포트폴리오': 2}, {'디폴트옵션 포트폴리오': 4}, {'디폴트옵션 포트폴리오': 5}, {'디폴트옵션 포트폴리오': 6}, {'디폴트옵션 포트폴리오': 8}, {'디폴트옵션 포트폴리오': 9}, {'디폴트옵션 포트폴리오': 11}, {'디폴트옵션 포트폴리오': 12}, {'디폴트옵션 포트폴리오': 13}, {'디폴트옵션 포트폴리오': 14}, {'디폴트옵션 포트폴리오': 15}, {'디폴트옵션 포트폴리오': 16}, {'디폴트옵션 포트폴리오': 17}, {'디폴트옵션 포트폴리오': 18}, {'디폴트옵션 포트폴리오': 19}, {'디폴트옵션 포트폴리오': 20}, {'디폴트옵션 포트폴리오': 21}, {'디폴트옵션 포트폴리오': 22}, {'디폴트옵션 포트폴리오': 24}, {'디폴트옵션 포트폴리오': 25}, {'디폴트옵션 포트폴리오': 26}, {'디폴트옵션 포트폴리오': 28}, {'디폴트옵션 포트폴리오': 29}, {'디폴트옵션 포트폴리오': 30}, {'디폴트옵션 포트폴리오': 31}, {'디폴트옵션 포트폴리오': 32}, {'디폴트옵션 포트폴리오': 34}, {'디폴트옵션 포트폴리오': 35}, {'디폴트옵션 포트폴리오': 36}]</t>
+          <t>[{'디폴트옵션 설정액': 1}, {'퇴직연금 TDF': 26}, {'퇴직연금 펀드': 8}, {'퇴직연금 설정액': 11}]</t>
         </is>
       </c>
       <c r="K9" t="n">
@@ -1345,7 +1345,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>퇴직연금 사전지정운용제도 디폴트옵션 이벤트 실시</t>
+          <t>라이프사이클 펀드 설정액이 최근 5년 동안 약 5배 급증하여 투자자들의 관심이 높아짐.</t>
         </is>
       </c>
       <c r="M9" t="n">
@@ -1353,15 +1353,15 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>퇴직연금 개별 가입 고객과 개인형 퇴직연금 고객을 대상으로 진행</t>
+          <t>라이프사이클 펀드는 투자자의 연령대에 맞춰 자산 구성과 목표 수익률을 알맞게 조정해주는 상품이므로 투자자들의 노후 준비에 관련된 경쟁 동향을 파악할 수 있음.</t>
         </is>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>No relevant information</t>
+          <t>라이프사이클 펀드의 수익률과 설정액 증가는 금융 시장의 변동성과 투자자들의 투자 성향에 영향을 받을 수 있음.</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1369,15 +1369,15 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>No relevant information</t>
+          <t>본문에는 법률 및 규제 변화에 대한 언급이 없음.</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>No relevant information</t>
+          <t>고령화 추세에 따라 노후 준비용 장기 투자에 나서는 투자자들이 증가하고 있으며, 국민연금의 예상 기금 고갈로 인해 추가로 노후에 대비할 수 있는 상품에 관심이 높아짐.</t>
         </is>
       </c>
       <c r="U9" t="n">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>No relevant information</t>
+          <t>본문에는 기술과 디지털화에 관련된 내용이 없음.</t>
         </is>
       </c>
       <c r="W9" t="n">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>No relevant information</t>
+          <t>본문에는 소비 행태 및 요구사항에 대한 언급이 없음.</t>
         </is>
       </c>
     </row>
@@ -1410,40 +1410,40 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>신한증권</t>
+          <t>신한투자증권</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>신한證 “퇴직연금 디폴트옵션 고객에 스벅 쿠폰 드려요”</t>
+          <t>신한투자증권, 퇴직연금 디폴트옵션 이벤트</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>신한투자증권이 퇴직연금 사전지정운용제도 디폴트옵션 이벤트를 실시한다고 밝혔다. 이벤트는 12월 31일까지 진행되며, 디폴트옵션 상품을 등록한 고객에게 스타벅스 쿠폰을 제공한다.</t>
+          <t>신한투자증권은 퇴직연금 사전지정운용제도 디폴트옵션 이벤트를 실시한다고 밝혔다. 디폴트옵션은 퇴직연금 가입자의 원리금 보장상품을 운용하는 제도다. 이번 이벤트는 신한투자증권의 퇴직연금 개별 가입 고객과 개인형 퇴직연금 고객을 대상으로 진행된다.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002208815?sid=101</t>
+          <t>https://n.news.naver.com/mnews/article/031/0000778506?sid=101</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 신한투자증권이 퇴직연금 사전지정운용제도 디폴트옵션 본격 시행을 기념해 퇴직연금 디폴트옵션 이벤트를 실시한다고 12일 밝혔다.사전지정운용제도는 퇴직연금 가입자의 원리금 보장상품 만기신규 자금 입금 시 별도 운용지시가 없다면 사전에 지정한 상품으로 운용하는 제도로 적립금이 방치되는 것을 방지하여 수익률을 높이는 역할을 한다.이번 이벤트는 신한투자증권의 확정기여형 DCDefined Contribution 퇴직연금 개별 가입 고객 과 개인형 퇴직연금 IRPIndividual Retirement Pension 고객 대상으로 오는 12월 31일까지 진행된다.이번 이벤트는 이벤트 신청 후 디폴트옵션 상품을 최초로 등록한 고객 대상으로 진행되며 추첨을 통해 매월 500명에게 스타벅스 아메리카노 쿠폰 1매를 제공한다. 경품은 이벤트 신청을 완료한 다음 달 말일 경 추첨을 통해 발송할 예정이다.단 2023년에 퇴직연금 계좌로 이벤트 혜택을 지급받은 경우 퇴직연금감독규정 제16조 2항에 따라 연간 3만원 한도 내에서 제공되므로 본 이벤트 조건을 충족하더라도 당첨이 제한될 수 있다.퇴직연금 디폴트옵션 및 이벤트에 관한 자세한 사항은 신한투자증권 홈페이지와 신한알파 모바일트레이딩시스템 MTS 챗봇을 통해 확인할 수 있다.</t>
+          <t>신한투자증권은 퇴직연금 사전지정운용제도 디폴트옵션 시행을 기념해 퇴직연금 디폴트옵션 이벤트를 실시한다고 12일 밝혔다.디폴트옵션은 퇴직연금 가입자의 원리금 보장상품 만기 또는 신규 자금 입금 시 별도 운용지시가 없다면 사전에 지정한 상품으로 운용하는 제도다. 적립금이 방치되는 것을 방지해 수익률을 높이는 역할을 한다.이번 이벤트는 신한투자증권의 DC Defined Contribution 확정기여형 퇴직연금 개별 가입 고객과 IRP Individual Retirement Pension 개인형 퇴직연금 고객을 대상으로 오는 12월 31일까지 진행된다.이번 이벤트는 이벤트 신청 후 디폴트옵션 상품을 최초로 등록한 고객 대상으로 진행된다. 추첨을 통해 매월 500명에게 스타벅스 아메리카노 쿠폰 1매를 제공한다. 경품은 이벤트 신청을 완료한 다음 달 말일 경 추첨을 통해 발송할 예정이다.올해 퇴직연금 계좌로 이벤트 혜택을 지급받은 경우 퇴직연금감독규정 제16조 2항에 따라 연간 3만원 한도 내에서 제공되므로 본 이벤트 조건을 충족하더라도 당첨이 제한될 수 있다.한편 신한투자증권 디폴트옵션 상품은 투자성향 별로 총 10종이 구성됐다. 정기예금을 비롯해 TDF Target Date Fund BF Balance Fund 디폴트옵션 전용펀드 중심 포트폴리오를 제공해 고객의 다양한 니즈에 따라 상품 선택이 가능토록 했다.퇴직연금 디폴트옵션과 이벤트에 관한 자세한 사항은 신한투자증권 홈페이지와 신한알파 모바일트레이딩시스템 MTS 챗봇을 통해 확인할 수 있다.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>['퇴직연금 DC', '퇴직연금 IRP', '확정기여형', '개인형퇴직연금', '디폴트옵션', '퇴직연금 적립금', '퇴직연금 이벤트', '디폴트옵션 이벤트', '신한 퇴직연금', '퇴직연금 수익률', '퇴직연금 가입']</t>
+          <t>['퇴직연금 DC', '퇴직연금 IRP', '확정기여형', '개인형퇴직연금', '디폴트옵션', '퇴직연금 적립금', '퇴직연금 이벤트', '디폴트옵션 이벤트', 'DC 이벤트', 'IRP 이벤트', '신한 퇴직연금', '삼성 퇴직연금', '한국투자 퇴직연금', '퇴직연금 서비스 ', '퇴직연금 수익률', '퇴직연금 ETF', '퇴직연금 포트폴리오', '퇴직연금 TDF', '퇴직연금 가입', '퇴직연금 펀드', '퇴직연금 예금', '디폴트옵션 포트폴리오']</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>[{'퇴직연금 DC': 11}, {'퇴직연금 IRP': 14}, {'확정기여형': 20}, {'개인형퇴직연금': 13}, {'디폴트옵션': 13}, {'퇴직연금 적립금': 13}, {'퇴직연금 이벤트': 14}, {'디폴트옵션 이벤트': 13}, {'신한 퇴직연금': 12}, {'퇴직연금 수익률': 13}, {'퇴직연금 가입': 15}]</t>
+          <t>[{'퇴직연금 DC': 1}, {'퇴직연금 DC': 2}, {'퇴직연금 DC': 3}, {'퇴직연금 DC': 4}, {'퇴직연금 DC': 6}, {'퇴직연금 DC': 7}, {'퇴직연금 DC': 8}, {'퇴직연금 DC': 9}, {'퇴직연금 DC': 10}, {'퇴직연금 DC': 13}, {'퇴직연금 DC': 15}, {'퇴직연금 DC': 16}, {'퇴직연금 DC': 17}, {'퇴직연금 DC': 18}, {'퇴직연금 DC': 20}, {'퇴직연금 DC': 21}, {'퇴직연금 DC': 22}, {'퇴직연금 DC': 23}, {'퇴직연금 DC': 24}, {'퇴직연금 DC': 27}, {'퇴직연금 DC': 28}, {'퇴직연금 DC': 31}, {'퇴직연금 DC': 32}, {'퇴직연금 DC': 34}, {'퇴직연금 DC': 35}, {'퇴직연금 DC': 36}, {'퇴직연금 DC': 37}, {'퇴직연금 DC': 38}, {'퇴직연금 DC': 39}, {'퇴직연금 DC': 40}, {'퇴직연금 DC': 41}, {'퇴직연금 DC': 45}, {'퇴직연금 DC': 47}, {'퇴직연금 DC': 52}, {'퇴직연금 DC': 55}, {'퇴직연금 IRP': 1}, {'퇴직연금 IRP': 2}, {'퇴직연금 IRP': 3}, {'퇴직연금 IRP': 4}, {'퇴직연금 IRP': 6}, {'퇴직연금 IRP': 7}, {'퇴직연금 IRP': 8}, {'퇴직연금 IRP': 9}, {'퇴직연금 IRP': 11}, {'퇴직연금 IRP': 12}, {'퇴직연금 IRP': 15}, {'퇴직연금 IRP': 17}, {'퇴직연금 IRP': 18}, {'퇴직연금 IRP': 20}, {'퇴직연금 IRP': 21}, {'퇴직연금 IRP': 22}, {'퇴직연금 IRP': 23}, {'퇴직연금 IRP': 25}, {'퇴직연금 IRP': 26}, {'퇴직연금 IRP': 27}, {'퇴직연금 IRP': 28}, {'퇴직연금 IRP': 29}, {'퇴직연금 IRP': 30}, {'퇴직연금 IRP': 31}, {'퇴직연금 IRP': 32}, {'퇴직연금 IRP': 35}, {'퇴직연금 IRP': 37}, {'퇴직연금 IRP': 38}, {'퇴직연금 IRP': 40}, {'퇴직연금 IRP': 44}, {'퇴직연금 IRP': 45}, {'퇴직연금 IRP': 46}, {'퇴직연금 IRP': 47}, {'퇴직연금 IRP': 48}, {'퇴직연금 IRP': 50}, {'퇴직연금 IRP': 52}, {'퇴직연금 IRP': 53}, {'퇴직연금 IRP': 55}, {'퇴직연금 IRP': 56}, {'확정기여형': 7}, {'확정기여형': 8}, {'확정기여형': 9}, {'확정기여형': 10}, {'확정기여형': 12}, {'확정기여형': 14}, {'확정기여형': 15}, {'확정기여형': 16}, {'확정기여형': 18}, {'확정기여형': 19}, {'확정기여형': 23}, {'확정기여형': 26}, {'확정기여형': 27}, {'확정기여형': 28}, {'확정기여형': 30}, {'확정기여형': 31}, {'확정기여형': 32}, {'확정기여형': 36}, {'확정기여형': 38}, {'확정기여형': 39}, {'확정기여형': 41}, {'확정기여형': 42}, {'확정기여형': 43}, {'확정기여형': 44}, {'확정기여형': 45}, {'확정기여형': 49}, {'확정기여형': 53}, {'확정기여형': 54}, {'확정기여형': 56}, {'개인형퇴직연금': 1}, {'개인형퇴직연금': 2}, {'개인형퇴직연금': 3}, {'개인형퇴직연금': 4}, {'개인형퇴직연금': 6}, {'개인형퇴직연금': 7}, {'개인형퇴직연금': 8}, {'개인형퇴직연금': 9}, {'개인형퇴직연금': 11}, {'개인형퇴직연금': 12}, {'개인형퇴직연금': 15}, {'개인형퇴직연금': 18}, {'개인형퇴직연금': 19}, {'개인형퇴직연금': 20}, {'개인형퇴직연금': 21}, {'개인형퇴직연금': 22}, {'개인형퇴직연금': 23}, {'개인형퇴직연금': 25}, {'개인형퇴직연금': 26}, {'개인형퇴직연금': 27}, {'개인형퇴직연금': 28}, {'개인형퇴직연금': 29}, {'개인형퇴직연금': 30}, {'개인형퇴직연금': 31}, {'개인형퇴직연금': 32}, {'개인형퇴직연금': 35}, {'개인형퇴직연금': 37}, {'개인형퇴직연금': 38}, {'개인형퇴직연금': 39}, {'개인형퇴직연금': 42}, {'개인형퇴직연금': 43}, {'개인형퇴직연금': 44}, {'개인형퇴직연금': 47}, {'개인형퇴직연금': 48}, {'개인형퇴직연금': 49}, {'개인형퇴직연금': 52}, {'개인형퇴직연금': 53}, {'개인형퇴직연금': 56}, {'개인형퇴직연금': 57}, {'디폴트옵션': 1}, {'디폴트옵션': 2}, {'디폴트옵션': 3}, {'디폴트옵션': 4}, {'디폴트옵션': 6}, {'디폴트옵션': 7}, {'디폴트옵션': 8}, {'디폴트옵션': 9}, {'디폴트옵션': 11}, {'디폴트옵션': 12}, {'디폴트옵션': 15}, {'디폴트옵션': 16}, {'디폴트옵션': 17}, {'디폴트옵션': 18}, {'디폴트옵션': 20}, {'디폴트옵션': 21}, {'디폴트옵션': 22}, {'디폴트옵션': 24}, {'디폴트옵션': 25}, {'디폴트옵션': 26}, {'디폴트옵션': 27}, {'디폴트옵션': 28}, {'디폴트옵션': 29}, {'디폴트옵션': 30}, {'디폴트옵션': 31}, {'디폴트옵션': 34}, {'디폴트옵션': 35}, {'디폴트옵션': 36}, {'디폴트옵션': 37}, {'디폴트옵션': 40}, {'디폴트옵션': 41}, {'디폴트옵션': 42}, {'디폴트옵션': 43}, {'디폴트옵션': 44}, {'디폴트옵션': 45}, {'디폴트옵션': 46}, {'디폴트옵션': 47}, {'디폴트옵션': 48}, {'디폴트옵션': 50}, {'디폴트옵션': 51}, {'디폴트옵션': 53}, {'디폴트옵션': 54}, {'디폴트옵션': 55}, {'디폴트옵션': 56}, {'디폴트옵션': 57}, {'퇴직연금 적립금': 2}, {'퇴직연금 적립금': 3}, {'퇴직연금 적립금': 4}, {'퇴직연금 적립금': 6}, {'퇴직연금 적립금': 7}, {'퇴직연금 적립금': 8}, {'퇴직연금 적립금': 10}, {'퇴직연금 적립금': 11}, {'퇴직연금 적립금': 12}, {'퇴직연금 적립금': 14}, {'퇴직연금 적립금': 17}, {'퇴직연금 적립금': 18}, {'퇴직연금 적립금': 19}, {'퇴직연금 적립금': 20}, {'퇴직연금 적립금': 21}, {'퇴직연금 적립금': 24}, {'퇴직연금 적립금': 25}, {'퇴직연금 적립금': 26}, {'퇴직연금 적립금': 27}, {'퇴직연금 적립금': 28}, {'퇴직연금 적립금': 29}, {'퇴직연금 적립금': 30}, {'퇴직연금 적립금': 31}, {'퇴직연금 적립금': 34}, {'퇴직연금 적립금': 35}, {'퇴직연금 적립금': 36}, {'퇴직연금 적립금': 37}, {'퇴직연금 적립금': 38}, {'퇴직연금 적립금': 39}, {'퇴직연금 적립금': 40}, {'퇴직연금 적립금': 41}, {'퇴직연금 적립금': 42}, {'퇴직연금 적립금': 43}, {'퇴직연금 적립금': 44}, {'퇴직연금 적립금': 45}, {'퇴직연금 적립금': 46}, {'퇴직연금 적립금': 47}, {'퇴직연금 적립금': 48}, {'퇴직연금 적립금': 49}, {'퇴직연금 적립금': 50}, {'퇴직연금 적립금': 52}, {'퇴직연금 적립금': 54}, {'퇴직연금 이벤트': 1}, {'퇴직연금 이벤트': 2}, {'퇴직연금 이벤트': 3}, {'퇴직연금 이벤트': 4}, {'퇴직연금 이벤트': 6}, {'퇴직연금 이벤트': 7}, {'퇴직연금 이벤트': 8}, {'퇴직연금 이벤트': 9}, {'퇴직연금 이벤트': 11}, {'퇴직연금 이벤트': 12}, {'퇴직연금 이벤트': 13}, {'퇴직연금 이벤트': 16}, {'퇴직연금 이벤트': 17}, {'퇴직연금 이벤트': 19}, {'퇴직연금 이벤트': 20}, {'퇴직연금 이벤트': 21}, {'퇴직연금 이벤트': 22}, {'퇴직연금 이벤트': 23}, {'퇴직연금 이벤트': 24}, {'퇴직연금 이벤트': 25}, {'퇴직연금 이벤트': 26}, {'퇴직연금 이벤트': 27}, {'퇴직연금 이벤트': 28}, {'퇴직연금 이벤트': 29}, {'퇴직연금 이벤트': 30}, {'퇴직연금 이벤트': 34}, {'퇴직연금 이벤트': 35}, {'퇴직연금 이벤트': 36}, {'퇴직연금 이벤트': 37}, {'퇴직연금 이벤트': 39}, {'퇴직연금 이벤트': 40}, {'퇴직연금 이벤트': 42}, {'퇴직연금 이벤트': 43}, {'퇴직연금 이벤트': 44}, {'퇴직연금 이벤트': 45}, {'퇴직연금 이벤트': 46}, {'퇴직연금 이벤트': 47}, {'퇴직연금 이벤트': 48}, {'퇴직연금 이벤트': 49}, {'퇴직연금 이벤트': 50}, {'퇴직연금 이벤트': 53}, {'퇴직연금 이벤트': 56}, {'퇴직연금 이벤트': 57}, {'디폴트옵션 이벤트': 1}, {'디폴트옵션 이벤트': 2}, {'디폴트옵션 이벤트': 3}, {'디폴트옵션 이벤트': 4}, {'디폴트옵션 이벤트': 6}, {'디폴트옵션 이벤트': 7}, {'디폴트옵션 이벤트': 8}, {'디폴트옵션 이벤트': 9}, {'디폴트옵션 이벤트': 11}, {'디폴트옵션 이벤트': 12}, {'디폴트옵션 이벤트': 14}, {'디폴트옵션 이벤트': 16}, {'디폴트옵션 이벤트': 17}, {'디폴트옵션 이벤트': 18}, {'디폴트옵션 이벤트': 20}, {'디폴트옵션 이벤트': 21}, {'디폴트옵션 이벤트': 22}, {'디폴트옵션 이벤트': 23}, {'디폴트옵션 이벤트': 24}, {'디폴트옵션 이벤트': 25}, {'디폴트옵션 이벤트': 26}, {'디폴트옵션 이벤트': 27}, {'디폴트옵션 이벤트': 28}, {'디폴트옵션 이벤트': 29}, {'디폴트옵션 이벤트': 30}, {'디폴트옵션 이벤트': 34}, {'디폴트옵션 이벤트': 35}, {'디폴트옵션 이벤트': 36}, {'디폴트옵션 이벤트': 37}, {'디폴트옵션 이벤트': 39}, {'디폴트옵션 이벤트': 40}, {'디폴트옵션 이벤트': 41}, {'디폴트옵션 이벤트': 42}, {'디폴트옵션 이벤트': 43}, {'디폴트옵션 이벤트': 44}, {'디폴트옵션 이벤트': 45}, {'디폴트옵션 이벤트': 46}, {'디폴트옵션 이벤트': 47}, {'디폴트옵션 이벤트': 48}, {'디폴트옵션 이벤트': 49}, {'디폴트옵션 이벤트': 51}, {'디폴트옵션 이벤트': 52}, {'디폴트옵션 이벤트': 53}, {'디폴트옵션 이벤트': 54}, {'디폴트옵션 이벤트': 55}, {'DC 이벤트': 1}, {'DC 이벤트': 2}, {'DC 이벤트': 3}, {'DC 이벤트': 4}, {'DC 이벤트': 5}, {'DC 이벤트': 7}, {'DC 이벤트': 8}, {'DC 이벤트': 9}, {'DC 이벤트': 10}, {'DC 이벤트': 11}, {'DC 이벤트': 13}, {'DC 이벤트': 14}, {'DC 이벤트': 16}, {'DC 이벤트': 18}, {'DC 이벤트': 19}, {'DC 이벤트': 20}, {'DC 이벤트': 21}, {'DC 이벤트': 22}, {'DC 이벤트': 23}, {'DC 이벤트': 24}, {'DC 이벤트': 25}, {'DC 이벤트': 26}, {'DC 이벤트': 27}, {'DC 이벤트': 28}, {'DC 이벤트': 29}, {'DC 이벤트': 31}, {'DC 이벤트': 32}, {'DC 이벤트': 33}, {'DC 이벤트': 34}, {'DC 이벤트': 37}, {'DC 이벤트': 38}, {'DC 이벤트': 39}, {'DC 이벤트': 40}, {'DC 이벤트': 41}, {'DC 이벤트': 42}, {'DC 이벤트': 44}, {'DC 이벤트': 45}, {'DC 이벤트': 46}, {'DC 이벤트': 47}, {'DC 이벤트': 51}, {'DC 이벤트': 52}, {'DC 이벤트': 53}, {'DC 이벤트': 57}, {'DC 이벤트': 59}, {'IRP 이벤트': 1}, {'IRP 이벤트': 2}, {'IRP 이벤트': 3}, {'IRP 이벤트': 4}, {'IRP 이벤트': 5}, {'IRP 이벤트': 7}, {'IRP 이벤트': 8}, {'IRP 이벤트': 9}, {'IRP 이벤트': 10}, {'IRP 이벤트': 12}, {'IRP 이벤트': 13}, {'IRP 이벤트': 15}, {'IRP 이벤트': 16}, {'IRP 이벤트': 17}, {'IRP 이벤트': 18}, {'IRP 이벤트': 19}, {'IRP 이벤트': 20}, {'IRP 이벤트': 21}, {'IRP 이벤트': 22}, {'IRP 이벤트': 23}, {'IRP 이벤트': 24}, {'IRP 이벤트': 25}, {'IRP 이벤트': 26}, {'IRP 이벤트': 27}, {'IRP 이벤트': 28}, {'IRP 이벤트': 31}, {'IRP 이벤트': 32}, {'IRP 이벤트': 33}, {'IRP 이벤트': 35}, {'IRP 이벤트': 37}, {'IRP 이벤트': 38}, {'IRP 이벤트': 39}, {'IRP 이벤트': 40}, {'IRP 이벤트': 41}, {'IRP 이벤트': 43}, {'IRP 이벤트': 44}, {'IRP 이벤트': 45}, {'IRP 이벤트': 46}, {'IRP 이벤트': 47}, {'IRP 이벤트': 52}, {'IRP 이벤트': 53}, {'IRP 이벤트': 55}, {'신한 퇴직연금': 1}, {'신한 퇴직연금': 2}, {'신한 퇴직연금': 3}, {'신한 퇴직연금': 4}, {'신한 퇴직연금': 5}, {'신한 퇴직연금': 6}, {'신한 퇴직연금': 7}, {'신한 퇴직연금': 8}, {'신한 퇴직연금': 10}, {'신한 퇴직연금': 11}, {'신한 퇴직연금': 14}, {'신한 퇴직연금': 16}, {'신한 퇴직연금': 17}, {'신한 퇴직연금': 19}, {'신한 퇴직연금': 20}, {'신한 퇴직연금': 21}, {'신한 퇴직연금': 22}, {'신한 퇴직연금': 23}, {'신한 퇴직연금': 25}, {'신한 퇴직연금': 26}, {'신한 퇴직연금': 27}, {'신한 퇴직연금': 28}, {'신한 퇴직연금': 29}, {'신한 퇴직연금': 30}, {'신한 퇴직연금': 31}, {'신한 퇴직연금': 34}, {'신한 퇴직연금': 35}, {'신한 퇴직연금': 36}, {'신한 퇴직연금': 37}, {'신한 퇴직연금': 39}, {'신한 퇴직연금': 40}, {'신한 퇴직연금': 41}, {'신한 퇴직연금': 42}, {'신한 퇴직연금': 43}, {'신한 퇴직연금': 44}, {'신한 퇴직연금': 45}, {'신한 퇴직연금': 46}, {'신한 퇴직연금': 47}, {'신한 퇴직연금': 48}, {'신한 퇴직연금': 49}, {'신한 퇴직연금': 51}, {'신한 퇴직연금': 52}, {'신한 퇴직연금': 53}, {'신한 퇴직연금': 54}, {'신한 퇴직연금': 55}, {'삼성 퇴직연금': 8}, {'한국투자 퇴직연금': 2}, {'퇴직연금 서비스 ': 17}, {'퇴직연금 수익률': 2}, {'퇴직연금 수익률': 3}, {'퇴직연금 수익률': 4}, {'퇴직연금 수익률': 5}, {'퇴직연금 수익률': 7}, {'퇴직연금 수익률': 8}, {'퇴직연금 수익률': 9}, {'퇴직연금 수익률': 11}, {'퇴직연금 수익률': 12}, {'퇴직연금 수익률': 14}, {'퇴직연금 수익률': 16}, {'퇴직연금 수익률': 17}, {'퇴직연금 수익률': 18}, {'퇴직연금 수익률': 19}, {'퇴직연금 수익률': 20}, {'퇴직연금 수익률': 23}, {'퇴직연금 수익률': 24}, {'퇴직연금 수익률': 27}, {'퇴직연금 수익률': 28}, {'퇴직연금 수익률': 29}, {'퇴직연금 수익률': 31}, {'퇴직연금 수익률': 32}, {'퇴직연금 수익률': 38}, {'퇴직연금 수익률': 39}, {'퇴직연금 수익률': 43}, {'퇴직연금 수익률': 45}, {'퇴직연금 수익률': 46}, {'퇴직연금 수익률': 47}, {'퇴직연금 수익률': 50}, {'퇴직연금 수익률': 52}, {'퇴직연금 수익률': 54}, {'퇴직연금 수익률': 56}, {'퇴직연금 수익률': 57}, {'퇴직연금 수익률': 58}, {'퇴직연금 수익률': 59}, {'퇴직연금 ETF': 16}, {'퇴직연금 포트폴리오': 1}, {'퇴직연금 포트폴리오': 2}, {'퇴직연금 포트폴리오': 3}, {'퇴직연금 포트폴리오': 4}, {'퇴직연금 포트폴리오': 6}, {'퇴직연금 포트폴리오': 7}, {'퇴직연금 포트폴리오': 9}, {'퇴직연금 포트폴리오': 10}, {'퇴직연금 포트폴리오': 13}, {'퇴직연금 포트폴리오': 14}, {'퇴직연금 포트폴리오': 15}, {'퇴직연금 포트폴리오': 16}, {'퇴직연금 포트폴리오': 17}, {'퇴직연금 포트폴리오': 18}, {'퇴직연금 포트폴리오': 20}, {'퇴직연금 포트폴리오': 21}, {'퇴직연금 포트폴리오': 22}, {'퇴직연금 포트폴리오': 23}, {'퇴직연금 포트폴리오': 24}, {'퇴직연금 포트폴리오': 27}, {'퇴직연금 포트폴리오': 29}, {'퇴직연금 포트폴리오': 30}, {'퇴직연금 포트폴리오': 35}, {'퇴직연금 포트폴리오': 36}, {'퇴직연금 포트폴리오': 37}, {'퇴직연금 포트폴리오': 41}, {'퇴직연금 포트폴리오': 42}, {'퇴직연금 포트폴리오': 43}, {'퇴직연금 포트폴리오': 60}, {'퇴직연금 TDF': 2}, {'퇴직연금 TDF': 3}, {'퇴직연금 TDF': 4}, {'퇴직연금 TDF': 6}, {'퇴직연금 TDF': 7}, {'퇴직연금 TDF': 8}, {'퇴직연금 TDF': 10}, {'퇴직연금 TDF': 11}, {'퇴직연금 TDF': 13}, {'퇴직연금 TDF': 14}, {'퇴직연금 TDF': 15}, {'퇴직연금 TDF': 16}, {'퇴직연금 TDF': 17}, {'퇴직연금 TDF': 18}, {'퇴직연금 TDF': 19}, {'퇴직연금 TDF': 20}, {'퇴직연금 TDF': 21}, {'퇴직연금 TDF': 22}, {'퇴직연금 TDF': 23}, {'퇴직연금 TDF': 25}, {'퇴직연금 TDF': 27}, {'퇴직연금 TDF': 29}, {'퇴직연금 TDF': 31}, {'퇴직연금 TDF': 32}, {'퇴직연금 TDF': 33}, {'퇴직연금 TDF': 34}, {'퇴직연금 TDF': 35}, {'퇴직연금 TDF': 36}, {'퇴직연금 TDF': 39}, {'퇴직연금 TDF': 40}, {'퇴직연금 가입': 1}, {'퇴직연금 가입': 2}, {'퇴직연금 가입': 3}, {'퇴직연금 가입': 4}, {'퇴직연금 가입': 6}, {'퇴직연금 가입': 7}, {'퇴직연금 가입': 8}, {'퇴직연금 가입': 9}, {'퇴직연금 가입': 13}, {'퇴직연금 가입': 14}, {'퇴직연금 가입': 16}, {'퇴직연금 가입': 18}, {'퇴직연금 가입': 19}, {'퇴직연금 가입': 20}, {'퇴직연금 가입': 21}, {'퇴직연금 가입': 22}, {'퇴직연금 가입': 23}, {'퇴직연금 가입': 25}, {'퇴직연금 가입': 26}, {'퇴직연금 가입': 27}, {'퇴직연금 가입': 28}, {'퇴직연금 가입': 29}, {'퇴직연금 가입': 30}, {'퇴직연금 가입': 32}, {'퇴직연금 가입': 33}, {'퇴직연금 가입': 35}, {'퇴직연금 가입': 38}, {'퇴직연금 가입': 39}, {'퇴직연금 가입': 41}, {'퇴직연금 가입': 44}, {'퇴직연금 가입': 45}, {'퇴직연금 가입': 47}, {'퇴직연금 가입': 48}, {'퇴직연금 가입': 49}, {'퇴직연금 가입': 50}, {'퇴직연금 가입': 51}, {'퇴직연금 가입': 52}, {'퇴직연금 가입': 53}, {'퇴직연금 가입': 55}, {'퇴직연금 가입': 56}, {'퇴직연금 펀드': 1}, {'퇴직연금 펀드': 2}, {'퇴직연금 펀드': 3}, {'퇴직연금 펀드': 4}, {'퇴직연금 펀드': 6}, {'퇴직연금 펀드': 7}, {'퇴직연금 펀드': 9}, {'퇴직연금 펀드': 11}, {'퇴직연금 펀드': 15}, {'퇴직연금 펀드': 16}, {'퇴직연금 펀드': 17}, {'퇴직연금 펀드': 18}, {'퇴직연금 펀드': 19}, {'퇴직연금 펀드': 20}, {'퇴직연금 펀드': 21}, {'퇴직연금 펀드': 22}, {'퇴직연금 펀드': 23}, {'퇴직연금 펀드': 24}, {'퇴직연금 펀드': 25}, {'퇴직연금 펀드': 27}, {'퇴직연금 펀드': 28}, {'퇴직연금 펀드': 29}, {'퇴직연금 펀드': 31}, {'퇴직연금 펀드': 32}, {'퇴직연금 펀드': 33}, {'퇴직연금 펀드': 34}, {'퇴직연금 펀드': 35}, {'퇴직연금 펀드': 36}, {'퇴직연금 펀드': 40}, {'퇴직연금 펀드': 41}, {'퇴직연금 예금': 1}, {'퇴직연금 예금': 2}, {'퇴직연금 예금': 4}, {'퇴직연금 예금': 6}, {'퇴직연금 예금': 8}, {'퇴직연금 예금': 9}, {'퇴직연금 예금': 11}, {'퇴직연금 예금': 12}, {'퇴직연금 예금': 18}, {'퇴직연금 예금': 20}, {'퇴직연금 예금': 22}, {'퇴직연금 예금': 23}, {'퇴직연금 예금': 28}, {'퇴직연금 예금': 30}, {'퇴직연금 예금': 31}, {'퇴직연금 예금': 32}, {'퇴직연금 예금': 33}, {'퇴직연금 예금': 36}, {'퇴직연금 예금': 37}, {'퇴직연금 예금': 44}, {'퇴직연금 예금': 45}, {'퇴직연금 예금': 49}, {'퇴직연금 예금': 56}, {'퇴직연금 예금': 59}, {'퇴직연금 예금': 60}, {'디폴트옵션 포트폴리오': 1}, {'디폴트옵션 포트폴리오': 2}, {'디폴트옵션 포트폴리오': 4}, {'디폴트옵션 포트폴리오': 5}, {'디폴트옵션 포트폴리오': 6}, {'디폴트옵션 포트폴리오': 8}, {'디폴트옵션 포트폴리오': 9}, {'디폴트옵션 포트폴리오': 11}, {'디폴트옵션 포트폴리오': 12}, {'디폴트옵션 포트폴리오': 13}, {'디폴트옵션 포트폴리오': 14}, {'디폴트옵션 포트폴리오': 15}, {'디폴트옵션 포트폴리오': 16}, {'디폴트옵션 포트폴리오': 17}, {'디폴트옵션 포트폴리오': 18}, {'디폴트옵션 포트폴리오': 19}, {'디폴트옵션 포트폴리오': 20}, {'디폴트옵션 포트폴리오': 21}, {'디폴트옵션 포트폴리오': 22}, {'디폴트옵션 포트폴리오': 24}, {'디폴트옵션 포트폴리오': 25}, {'디폴트옵션 포트폴리오': 26}, {'디폴트옵션 포트폴리오': 28}, {'디폴트옵션 포트폴리오': 29}, {'디폴트옵션 포트폴리오': 30}, {'디폴트옵션 포트폴리오': 31}, {'디폴트옵션 포트폴리오': 32}, {'디폴트옵션 포트폴리오': 34}, {'디폴트옵션 포트폴리오': 35}, {'디폴트옵션 포트폴리오': 36}]</t>
         </is>
       </c>
       <c r="K10" t="n">
@@ -1455,11 +1455,11 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>이벤트 대상 고객에게 스타벅스 쿠폰 제공</t>
+          <t>퇴직연금 개별 가입 고객과 개인형 퇴직연금 고객을 대상으로 진행</t>
         </is>
       </c>
       <c r="O10" t="n">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>No relevant information in the article</t>
+          <t>No relevant information</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>No relevant information in the article</t>
+          <t>No relevant information</t>
         </is>
       </c>
       <c r="S10" t="n">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>No relevant information in the article</t>
+          <t>No relevant information</t>
         </is>
       </c>
       <c r="U10" t="n">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>No relevant information in the article</t>
+          <t>No relevant information</t>
         </is>
       </c>
       <c r="W10" t="n">
@@ -1499,7 +1499,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>No relevant information in the article</t>
+          <t>No relevant information</t>
         </is>
       </c>
     </row>
@@ -1511,33 +1511,139 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>퇴직연금 제도</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>신한증권</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>신한證 “퇴직연금 디폴트옵션 고객에 스벅 쿠폰 드려요”</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>신한투자증권이 퇴직연금 사전지정운용제도 디폴트옵션 이벤트를 실시한다고 밝혔다. 이벤트는 12월 31일까지 진행되며, 디폴트옵션 상품을 등록한 고객에게 스타벅스 쿠폰을 제공한다.</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>4</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://n.news.naver.com/mnews/article/016/0002208815?sid=101</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 신한투자증권이 퇴직연금 사전지정운용제도 디폴트옵션 본격 시행을 기념해 퇴직연금 디폴트옵션 이벤트를 실시한다고 12일 밝혔다.사전지정운용제도는 퇴직연금 가입자의 원리금 보장상품 만기신규 자금 입금 시 별도 운용지시가 없다면 사전에 지정한 상품으로 운용하는 제도로 적립금이 방치되는 것을 방지하여 수익률을 높이는 역할을 한다.이번 이벤트는 신한투자증권의 확정기여형 DCDefined Contribution 퇴직연금 개별 가입 고객 과 개인형 퇴직연금 IRPIndividual Retirement Pension 고객 대상으로 오는 12월 31일까지 진행된다.이번 이벤트는 이벤트 신청 후 디폴트옵션 상품을 최초로 등록한 고객 대상으로 진행되며 추첨을 통해 매월 500명에게 스타벅스 아메리카노 쿠폰 1매를 제공한다. 경품은 이벤트 신청을 완료한 다음 달 말일 경 추첨을 통해 발송할 예정이다.단 2023년에 퇴직연금 계좌로 이벤트 혜택을 지급받은 경우 퇴직연금감독규정 제16조 2항에 따라 연간 3만원 한도 내에서 제공되므로 본 이벤트 조건을 충족하더라도 당첨이 제한될 수 있다.퇴직연금 디폴트옵션 및 이벤트에 관한 자세한 사항은 신한투자증권 홈페이지와 신한알파 모바일트레이딩시스템 MTS 챗봇을 통해 확인할 수 있다.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['퇴직연금 DC', '퇴직연금 IRP', '확정기여형', '개인형퇴직연금', '디폴트옵션', '퇴직연금 적립금', '퇴직연금 이벤트', '디폴트옵션 이벤트', '신한 퇴직연금', '퇴직연금 수익률', '퇴직연금 가입']</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>[{'퇴직연금 DC': 11}, {'퇴직연금 IRP': 14}, {'확정기여형': 20}, {'개인형퇴직연금': 13}, {'디폴트옵션': 13}, {'퇴직연금 적립금': 13}, {'퇴직연금 이벤트': 14}, {'디폴트옵션 이벤트': 13}, {'신한 퇴직연금': 12}, {'퇴직연금 수익률': 13}, {'퇴직연금 가입': 15}]</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>3</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>퇴직연금 사전지정운용제도 디폴트옵션 이벤트 실시</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>이벤트 대상 고객에게 스타벅스 쿠폰 제공</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>No relevant information in the article</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>No relevant information in the article</t>
+        </is>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>No relevant information in the article</t>
+        </is>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>No relevant information in the article</t>
+        </is>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>No relevant information in the article</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2023-10-12</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>타사 동향 및 이벤트</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>고금리 장기화로 주춤 OCIO 공모펀드…디딤펀드로 부활할까</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>외부위탁운용관리 OCIO 공모펀드의 성장세가 둔화하고 있다. OCIO 공모펀드의 부진은 고금리 환경과 무관하지 않다. OCIO 공모펀드 역시 디딤펀드로 하우스 실력을 드러낼 기회가 될 수 있다.</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="F12" t="n">
         <v>3</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>https://news.einfomax.co.kr/news/articleView.html?idxno=4283753</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">
  서울연합인포맥스 정필중 기자 고금리 기조로 원리금보장형 선호 추세가 이어지면서 외부위탁운용관리 OCIO 공모펀드의 성장세가 둔화하고 있다.
@@ -1565,120 +1671,14 @@
  끝 </t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>['디폴트옵션 설정액', '퇴직연금ocio', '퇴직연금 금융투자협회', '퇴직연금 펀드', '퇴직연금 설정액']</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>[{'디폴트옵션 설정액': 5}, {'퇴직연금ocio': 1}, {'퇴직연금 금융투자협회': 32}, {'퇴직연금 펀드': 58}, {'퇴직연금 설정액': 10}]</t>
-        </is>
-      </c>
-      <c r="K11" t="n">
-        <v>2</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>OCIO 공모펀드의 성장세가 둔화하고 있다.</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>OCIO 공모펀드의 부진은 고금리 환경과 무관하지 않다.</t>
-        </is>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>No information related to financial market impact.</t>
-        </is>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>No information related to legal and regulatory changes.</t>
-        </is>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>No information related to demographic change.</t>
-        </is>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>No information related to technology and digitalization.</t>
-        </is>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>No information related to consumption behavior and requirements.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2023-10-12</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>퇴직연금 제도</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>신한투자증권</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>신한투자증권, 퇴직연금 디폴트옵션 이벤트 커피 쿠폰 쏜다</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>신한투자증권은 퇴직연금 사전지정운용제도 디폴트옵션 이벤트를 실시한다고 밝혔다. 이벤트는 신한투자증권의 퇴직연금 고객 대상으로 진행되며 추첨을 통해 스타벅스 아메리카노 쿠폰을 제공한다.</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000954485?sid=101</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 신한투자증권은 퇴직연금 사전지정운용제도 디폴트옵션 본격 시행을 기념해 퇴직연금 디폴트옵션 이벤트를 실시한다고 12일 밝혔다.사전지정운용제도 디폴트옵션는 퇴직연금 가입자의 원리금 보장상품 만기 또는 신규 자금 입금 시 별도 운용지시가 없다면 사전에 지정한 상품으로 운용하는 제도로 적립금이 방치되는 것을 방지해 수익률을 높이는 역할을 한다. 이벤트는 신한투자증권의 DC 확정기여형 퇴직연금 개별 가입 고객 및 IRP 개인형 퇴직연금 고객 대상으로 오는 12월31일까지 진행된다.이벤트는 이벤트 신청 후 디폴트옵션 상품을 최초로 등록한 고객 대상으로 진행되며 추첨을 통해 매월 500명에게 스타벅스 아메리카노 쿠폰 1매를 제공한다. 경품은 이벤트 신청을 완료한 다음 달 말일 경 추첨을 통해 발송 예정이다.단 2023년에 퇴직연금 계좌로 이벤트 혜택을 지급받은 경우 퇴직연금감독규정 제 16조 2항에 따라 연간 3만원 한도 내에서 제공되므로 본 이벤트 조건을 충족하더라도 당첨이 제한될 수 있다.</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>['퇴직연금 DC', '퇴직연금 IRP', '개인형퇴직연금', '디폴트옵션', '퇴직연금 적립금', '퇴직연금 이벤트', '디폴트옵션 이벤트', 'DC 이벤트', 'IRP 이벤트', '신한 퇴직연금', '퇴직연금 수익률', '퇴직연금 가입']</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>[{'퇴직연금 DC': 35}, {'퇴직연금 IRP': 48}, {'개인형퇴직연금': 47}, {'디폴트옵션': 44}, {'퇴직연금 적립금': 41}, {'퇴직연금 이벤트': 44}, {'디폴트옵션 이벤트': 43}, {'DC 이벤트': 41}, {'IRP 이벤트': 41}, {'신한 퇴직연금': 44}, {'퇴직연금 수익률': 52}, {'퇴직연금 가입': 49}]</t>
         </is>
       </c>
       <c r="K12" t="n">
@@ -1686,15 +1686,15 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>퇴직연금 사전지정운용제도 디폴트옵션 이벤트 실시</t>
+          <t>OCIO 공모펀드의 성장세가 둔화하고 있다.</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>No relevant information</t>
+          <t>OCIO 공모펀드의 부진은 고금리 환경과 무관하지 않다.</t>
         </is>
       </c>
       <c r="O12" t="n">
@@ -1702,7 +1702,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>No relevant information</t>
+          <t>No information related to financial market impact.</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1710,7 +1710,7 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>No relevant information</t>
+          <t>No information related to legal and regulatory changes.</t>
         </is>
       </c>
       <c r="S12" t="n">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>No relevant information</t>
+          <t>No information related to demographic change.</t>
         </is>
       </c>
       <c r="U12" t="n">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>No relevant information</t>
+          <t>No information related to technology and digitalization.</t>
         </is>
       </c>
       <c r="W12" t="n">
@@ -1734,81 +1734,81 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>No relevant information</t>
+          <t>No information related to consumption behavior and requirements.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>2023-10-12</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>사회 동향</t>
+          <t>퇴직연금 제도</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>은행권</t>
+          <t>신한투자증권</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>'진짜 억대 퇴직금' 은행권, 희망퇴직자에 1인당 5.5억…6년 간 10조 지급</t>
+          <t>신한투자증권, 퇴직연금 디폴트옵션 이벤트 커피 쿠폰 쏜다</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2018년 이후 6년간 은행에서 희망퇴직한 은행원은 17400여명이며, 퇴직금은 1인당 평균 5억5200만원으로 총 9조6000억원에 달한다. 희망퇴직자는 2018년부터 올해 7월까지 17402명이며, 퇴직금은 총 9조6004억원으로 집계되었다.</t>
+          <t>신한투자증권은 퇴직연금 사전지정운용제도 디폴트옵션 이벤트를 실시한다고 밝혔다. 이벤트는 신한투자증권의 퇴직연금 고객 대상으로 진행되며 추첨을 통해 스타벅스 아메리카노 쿠폰을 제공한다.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005083884?sid=101</t>
+          <t>https://n.news.naver.com/mnews/article/417/0000954485?sid=101</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 지난 2018년 이후 6년간 희망퇴직으로 은행을 떠난 은행원이 17400여명에 달하는 것으로 조사됐다. 이들에게 지급된 희망퇴직금은 1인당 평균 5억5200만원으로 총 9조6000억원에 달했다. 10일 금융감독원이 강민국 국민의힘 의원실에 제출한 국내 은행권 희망퇴직 현황에 따르면 14개 시중은행의 2018년부터 올해 7월까지 희망퇴직자는 17402명이다. 지급된 퇴직금은 총 9조6004억원으로 집계됐다. 은행 전체 퇴직자 중 희망퇴직자 비중은 64.8 희망퇴직제 운영 은행 기준였다. 퇴직금액은 전체 퇴직금의 94.8를 차지했다. 특히 연도별 희망퇴직자는 2018년 2573명에서 지난해 4312명으로 최근 급증하고 있는 것으로 나타났다. 올해도 7월까지 1882명이 희망퇴직으로 은행을 떠났다. 지난 5년간 은행권 희망퇴직자의 1인당 평균 퇴직금은 5억5200만원으로 조사됐다. 이는 전체 퇴직자 평균 퇴직금 3억5600만원보다 약 2억원 많은 것으로 은행권 희망퇴직금이 많은 이유는 노사 간 협의에 따라 지급되는 특별퇴직금 23년치 평균 연봉에 전직 지원금 등 때문이다. 지난 6년간 총 6조9402억원의 특별퇴직금이 지급됐다. 전체 희망퇴직금 9조6004억원의 72.3를 차지한다.  최근 6년간 희망퇴직자가 가장 많은 은행은 국민은행 3671명이었으며 하나은행 2464명 농협은행 2349명 등이 뒤를 이었다. 1인당 희망퇴직금이 가장 많은 은행은 씨티은행으로 평균 8억2600만원이 지급됐다. 2018년부터 올해 7월까지 국내 17개 은행 인터넷은행 제외의 임금피크제 신청건수는 총 1만1247건 수준인 것으로 집계됐다. 2018년 1365건에서 2021년 2219건으로 늘다가 지난해 2190건으로 감소했다. 강 의원은 공공재 성격을 가진 은행은 위화감을 조성할 수 있는 과도한 복지지원금 성격을 가진 희망퇴직금 지급에 대해 숙고해야 한다며 금융당국은 은행산업에 대한 국민 신뢰 제고 차원에서라도 전체 퇴직금 규모를 과도하게 넘는 수준의 희망퇴직금 지급 은행에 대해서는 운영 현황 점검을 실시해야 한다고 밝혔다.</t>
+          <t xml:space="preserve"> 신한투자증권은 퇴직연금 사전지정운용제도 디폴트옵션 본격 시행을 기념해 퇴직연금 디폴트옵션 이벤트를 실시한다고 12일 밝혔다.사전지정운용제도 디폴트옵션는 퇴직연금 가입자의 원리금 보장상품 만기 또는 신규 자금 입금 시 별도 운용지시가 없다면 사전에 지정한 상품으로 운용하는 제도로 적립금이 방치되는 것을 방지해 수익률을 높이는 역할을 한다. 이벤트는 신한투자증권의 DC 확정기여형 퇴직연금 개별 가입 고객 및 IRP 개인형 퇴직연금 고객 대상으로 오는 12월31일까지 진행된다.이벤트는 이벤트 신청 후 디폴트옵션 상품을 최초로 등록한 고객 대상으로 진행되며 추첨을 통해 매월 500명에게 스타벅스 아메리카노 쿠폰 1매를 제공한다. 경품은 이벤트 신청을 완료한 다음 달 말일 경 추첨을 통해 발송 예정이다.단 2023년에 퇴직연금 계좌로 이벤트 혜택을 지급받은 경우 퇴직연금감독규정 제 16조 2항에 따라 연간 3만원 한도 내에서 제공되므로 본 이벤트 조건을 충족하더라도 당첨이 제한될 수 있다.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>['희망퇴직 퇴직금', '임금피크제']</t>
+          <t>['퇴직연금 DC', '퇴직연금 IRP', '개인형퇴직연금', '디폴트옵션', '퇴직연금 적립금', '퇴직연금 이벤트', '디폴트옵션 이벤트', 'DC 이벤트', 'IRP 이벤트', '신한 퇴직연금', '퇴직연금 수익률', '퇴직연금 가입']</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>[{'희망퇴직 퇴직금': 9}, {'임금피크제': 20}]</t>
+          <t>[{'퇴직연금 DC': 35}, {'퇴직연금 IRP': 48}, {'개인형퇴직연금': 47}, {'디폴트옵션': 44}, {'퇴직연금 적립금': 41}, {'퇴직연금 이벤트': 44}, {'디폴트옵션 이벤트': 43}, {'DC 이벤트': 41}, {'IRP 이벤트': 41}, {'신한 퇴직연금': 44}, {'퇴직연금 수익률': 52}, {'퇴직연금 가입': 49}]</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>퇴직금액이 전체 퇴직금의 94.8%를 차지하고 있으며, 은행권 희망퇴직자의 1인당 평균 퇴직금은 5억5200만원으로 조사되었다.</t>
+          <t>퇴직연금 사전지정운용제도 디폴트옵션 이벤트 실시</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>희망퇴직자가 가장 많은 은행은 국민은행이며, 1인당 희망퇴직금이 가장 많은 은행은 씨티은행으로 조사되었다.</t>
+          <t>No relevant information</t>
         </is>
       </c>
       <c r="O13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>은행산업에 대한 국민 신뢰 제고 차원에서라도 전체 퇴직금 규모를 과도하게 넘는 수준의 희망퇴직금 지급 은행에 대해서는 운영 현황 점검을 실시해야 한다고 밝혔다.</t>
+          <t>No relevant information</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1816,15 +1816,15 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>본문에는 법률 및 규제 변경에 대한 내용이 포함되어 있지 않다.</t>
+          <t>No relevant information</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>희망퇴직자가 최근 급증하고 있으며, 은행권 희망퇴직금이 많은 이유는 노사 간 협의에 따라 지급되는 특별퇴직금 때문이다.</t>
+          <t>No relevant information</t>
         </is>
       </c>
       <c r="U13" t="n">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>본문에는 기술과 디지털화에 관련된 내용이 포함되어 있지 않다.</t>
+          <t>No relevant information</t>
         </is>
       </c>
       <c r="W13" t="n">
@@ -1840,7 +1840,7 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>본문에는 소비 행태 및 요구사항에 관련된 내용이 포함되어 있지 않다.</t>
+          <t>No relevant information</t>
         </is>
       </c>
     </row>
@@ -1852,45 +1852,45 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>퇴직연금 제도</t>
+          <t>사회 동향</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>은행권</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[하우머니] '쥐꼬리' 퇴직연금 수익률…알아서 '척척' 불려주는 상품은?</t>
+          <t>'진짜 억대 퇴직금' 은행권, 희망퇴직자에 1인당 5.5억…6년 간 10조 지급</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>은퇴 후 부부 생활비 평균 통계치 200-300만 원, 은퇴자들의 소득 공백기 대처법은 퇴직자 실업급여 이후 재취업 도전, 퇴직연금의 종류와 특징은 연금의 종류 공적연금, 퇴직연금은 DB형, DC형, IRP 형태로 운영, TDF는 Target Date Fund의 줄임말로 은퇴연령에 맞춰 자산을 배분하는 특징</t>
+          <t>2018년 이후 6년간 은행에서 희망퇴직한 은행원은 17400여명이며, 퇴직금은 1인당 평균 5억5200만원으로 총 9조6000억원에 달한다. 희망퇴직자는 2018년부터 올해 7월까지 17402명이며, 퇴직금은 총 9조6004억원으로 집계되었다.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000353965?sid=101</t>
+          <t>https://n.news.naver.com/mnews/article/014/0005083884?sid=101</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 재테크 노하우 100분 머니쇼 하우머니 오상열 오원트금융연구소 소장Q.최근 은퇴 준비에 관심들 많으시거든요. 보통 은퇴한 부부 기준으로 한 달에 얼마나 정도가 있어야 생활이 가능한가요 은퇴 후 부부 생활비 얼마나 들까 은퇴 후 부부 생활비 평균 통계치 200300만 원Q.은퇴 앞두신 분들 가장 큰 걱정이 매달 월급을 꼬박꼬박 받다가 이제는 다른 길을 찾거나 모아 둔 돈으로만 살아가야 한다는 점인데요. 보통 어떻게들 대비하고 계신가요 은퇴자들의 소득 공백기 대처법은 퇴직자 실업급여 이후 재취업 도전하지만 쉽지 않아 라이프사이클 55세 퇴직65세 연금개시75세 은퇴 퇴직과 은퇴의 개념 달라...지금의 은퇴는 퇴직 의미Q.소득 공백을 메우기 위해 재취업이나 창업을 할 수 있다면 좋겠지만 쉽지 않거든요. 그래서 기대게 되는 것이 연금인데 연금도 종류가 다양하지 않습니까 은퇴 후 소득공백 메워주는 연금...종류와 특징은 연금의 종류 공적연금퇴직연금개인연금담보연금 국가가 운영하는 공적연금 국민공무원사학군인 기업이 주체가 되는 퇴직연금 DBDCIRP 개인이 주체가 되는 개인연금 연금저축펀드연금저축보험 등 담보연금인 주택농지연금과 기타 기초연금Q.국민연금만으로는 충분치 않다 보니 직장인들에겐 퇴직연금도 중요한 노후대비 자산이죠. DB DC 등 퇴직연금이 생각보다 복잡하고 어렵더라고요. 어떤 방식으로 운용되는건지부터 설명을 해주신다면요 노후 대비 퇴직연금 운용방식과 차이점은 퇴직연금은 본인의 노후 최후의 보루 자금 퇴직연금은 DB형 DC형 IRP 형태로 운영 DB형은 가입자 의사와 무관하게 회사가 운용 DC나 IRP는 가입자가 직접 챙겨야Q.사실 퇴직연금을 잘 운용하고 싶지만 너무 복잡하고 다양해서 일단 어떤 걸 골라야 할지 어떻게 운용하는 게 더 좋을지 잘 모르겠거든요. 들어보니 TDF 얘기가 많이 나오던데 TDF는 뭔가요 퇴직연금 어떻게 굴릴까아직도 마음 못 정했다면 퇴직연금 관리하기는 귀찮은데 수익은 내고 싶을 때는 디폴트옵션 도입으로 TDF 시장 주목 TDF는 Target Date Fund의 줄임말 본인의 은퇴연령에 맞춰 자동으로 자산을 배분하는 특징 금융에 관심과 경험이 낮은 사람들도 쉽게 투자 가능 TDF 이름 뒤에 붙는 숫자인 빈티지가 본인의 예상 은퇴 연령 통상 태어난 연도에 60을 더하여 빈티지 선택 1980년생이라면 TDF2040 전후가 은퇴 시기 부합 자산의 이동은 자유로우며 선택한 디폴트옵션도 언제든 변경 가능 TDF만으로 퇴직연금을 운용한다면 디폴트옵션 활용 추천 시장하락 예상 시 현금성자산 유지신청 통해 대기자금Q.퇴직연금 가지고 계신 분들의 가장 큰 고민은 수익률을 높이는 방법일 텐데요. 같은 퇴직금이라도 운용기간 안에서 얼마의 수익을 내느냐가 노후에 쓸 수 있는 자금을 결정하다 보니 신경이 많이 쓰이죠. 퇴직연금 운용 전략을 세워주신다면요 연금 고수들의 디폴트옵션 활용법은 디폴트옵션 도입 퇴직연금 수익률 극대화 방법은 디폴트옵션 의무사항이지만 강제조항은 아님 투자 위험도에 따라 초저위험고위험까지 4가지로 구분 초저위험 원리금보장형으로만 구성 저위험 원리금보장형 상품과 실적배당형 상품에도 투자 중위험 및 고위험 실적배당형 상품 위주의 포트폴리오 투자성향별로 13개의 포트폴리오 제공 610개 선택지 30년간 근속하며 퇴직연금과 동등한 수준의 개인연금 납부 6 이상의 수익률로 운용할 수 있다면 노후 준비 해결 수수료 낮추면서 수익률 높이는 방법 직접 TDF펀드 사는 것 직접 운용 시 수수료 1 10정도...수익률은 비슷한 효과 퇴직까지 남은 기간을 고려하여 TDF펀드 선택하는 방법 1년에 한 번 연금 수익률과 포트폴리오 점검 필수Q.오늘 11일 살펴본 연금도 그렇고 재테크를 잘해서 노후도 잘 준비할 수 있으면 좋을 것 같은데요. 소장님께선 재테크의 기본을 금융 집짓기라고 부르신다고요. 시청자분들을 위해 설명 좀 해주시죠. 재테크 답은 금융 집짓기...방법과 필요성은 언제 은퇴하고 언제까지 살지를 대략 정하는 것이 중요 한 달 생활비 고려해 은퇴할 때까지 저축하는 방법 금융 집짓기 은퇴 시기와 자금 준비 과정 한눈에 파악 은퇴할 때까지 부채상환 부족한 금액은 투자로 불려야 보험 기초공사 저축 기둥 실적배당 지붕 처마보에 현재 나이 은퇴 나이 사망 나이 기록 은퇴 설계 부채 저축투자절세부동산보험 분석 가장 균형 잡힌 금융상품 포트폴리오를 구성하여 시공 퇴직연금의 디폴트옵션 금융집짓기 후 선택 유리 자세한 내용은 동영상을 시청하시기 바랍니다.당신의 제보가 뉴스로 만들어집니다.SBS Biz는 여러분의 제보를 기다리고 있습니다.홈페이지 https url.kr 9pghjn</t>
+          <t xml:space="preserve"> 지난 2018년 이후 6년간 희망퇴직으로 은행을 떠난 은행원이 17400여명에 달하는 것으로 조사됐다. 이들에게 지급된 희망퇴직금은 1인당 평균 5억5200만원으로 총 9조6000억원에 달했다. 10일 금융감독원이 강민국 국민의힘 의원실에 제출한 국내 은행권 희망퇴직 현황에 따르면 14개 시중은행의 2018년부터 올해 7월까지 희망퇴직자는 17402명이다. 지급된 퇴직금은 총 9조6004억원으로 집계됐다. 은행 전체 퇴직자 중 희망퇴직자 비중은 64.8 희망퇴직제 운영 은행 기준였다. 퇴직금액은 전체 퇴직금의 94.8를 차지했다. 특히 연도별 희망퇴직자는 2018년 2573명에서 지난해 4312명으로 최근 급증하고 있는 것으로 나타났다. 올해도 7월까지 1882명이 희망퇴직으로 은행을 떠났다. 지난 5년간 은행권 희망퇴직자의 1인당 평균 퇴직금은 5억5200만원으로 조사됐다. 이는 전체 퇴직자 평균 퇴직금 3억5600만원보다 약 2억원 많은 것으로 은행권 희망퇴직금이 많은 이유는 노사 간 협의에 따라 지급되는 특별퇴직금 23년치 평균 연봉에 전직 지원금 등 때문이다. 지난 6년간 총 6조9402억원의 특별퇴직금이 지급됐다. 전체 희망퇴직금 9조6004억원의 72.3를 차지한다.  최근 6년간 희망퇴직자가 가장 많은 은행은 국민은행 3671명이었으며 하나은행 2464명 농협은행 2349명 등이 뒤를 이었다. 1인당 희망퇴직금이 가장 많은 은행은 씨티은행으로 평균 8억2600만원이 지급됐다. 2018년부터 올해 7월까지 국내 17개 은행 인터넷은행 제외의 임금피크제 신청건수는 총 1만1247건 수준인 것으로 집계됐다. 2018년 1365건에서 2021년 2219건으로 늘다가 지난해 2190건으로 감소했다. 강 의원은 공공재 성격을 가진 은행은 위화감을 조성할 수 있는 과도한 복지지원금 성격을 가진 희망퇴직금 지급에 대해 숙고해야 한다며 금융당국은 은행산업에 대한 국민 신뢰 제고 차원에서라도 전체 퇴직금 규모를 과도하게 넘는 수준의 희망퇴직금 지급 은행에 대해서는 운영 현황 점검을 실시해야 한다고 밝혔다.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>['퇴직연금 DB', '퇴직연금 DC', '퇴직연금 IRP', '디폴트옵션', 'IRP 연금개시', 'IRP 수수료', '퇴직연금 은퇴설계', '퇴직연금 수익률', '퇴직연금 포트폴리오', '퇴직연금 TDF', '퇴직연금 자산배분', '퇴직연금 가입', '퇴직연금 펀드']</t>
+          <t>['희망퇴직 퇴직금', '임금피크제']</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>[{'퇴직연금 DB': 2}, {'퇴직연금 DC': 12}, {'퇴직연금 IRP': 36}, {'디폴트옵션': 49}, {'IRP 연금개시': 1}, {'IRP 수수료': 5}, {'퇴직연금 은퇴설계': 1}, {'퇴직연금 수익률': 1}, {'퇴직연금 포트폴리오': 11}, {'퇴직연금 TDF': 1}, {'퇴직연금 자산배분': 1}, {'퇴직연금 가입': 37}, {'퇴직연금 펀드': 12}]</t>
+          <t>[{'희망퇴직 퇴직금': 9}, {'임금피크제': 20}]</t>
         </is>
       </c>
       <c r="K14" t="n">
@@ -1898,23 +1898,23 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>은퇴 후 부부 생활비 평균 통계치와 퇴직자들의 소득 공백기 대처법에 대한 내용이 포함되어 있음</t>
+          <t>퇴직금액이 전체 퇴직금의 94.8%를 차지하고 있으며, 은행권 희망퇴직자의 1인당 평균 퇴직금은 5억5200만원으로 조사되었다.</t>
         </is>
       </c>
       <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>희망퇴직자가 가장 많은 은행은 국민은행이며, 1인당 희망퇴직금이 가장 많은 은행은 씨티은행으로 조사되었다.</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
         <v>2</v>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>퇴직연금의 종류와 특징에 대한 내용이 포함되어 있음</t>
-        </is>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>TDF에 대한 설명이 포함되어 있음</t>
+          <t>은행산업에 대한 국민 신뢰 제고 차원에서라도 전체 퇴직금 규모를 과도하게 넘는 수준의 희망퇴직금 지급 은행에 대해서는 운영 현황 점검을 실시해야 한다고 밝혔다.</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1922,15 +1922,15 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>해당 기준에 해당하는 내용이 없음</t>
+          <t>본문에는 법률 및 규제 변경에 대한 내용이 포함되어 있지 않다.</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>해당 기준에 해당하는 내용이 없음</t>
+          <t>희망퇴직자가 최근 급증하고 있으며, 은행권 희망퇴직금이 많은 이유는 노사 간 협의에 따라 지급되는 특별퇴직금 때문이다.</t>
         </is>
       </c>
       <c r="U14" t="n">
@@ -1938,7 +1938,7 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>해당 기준에 해당하는 내용이 없음</t>
+          <t>본문에는 기술과 디지털화에 관련된 내용이 포함되어 있지 않다.</t>
         </is>
       </c>
       <c r="W14" t="n">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>해당 기준에 해당하는 내용이 없음</t>
+          <t>본문에는 소비 행태 및 요구사항에 관련된 내용이 포함되어 있지 않다.</t>
         </is>
       </c>
     </row>
@@ -1963,17 +1963,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>우리은행</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>퇴직연금 체계적 관리… 우리銀, 전문가 167명 배치</t>
+          <t>[하우머니] '쥐꼬리' 퇴직연금 수익률…알아서 '척척' 불려주는 상품은?</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>우리은행은 전국 주요 167개 금융센터에 167명의 연금전문가를 선발배치한다고 밝혔다. 퇴직연금 시장규모는 2022년말 기준 336조원으로 2021년 말 대비 40조원 13.6% 증가했다. 국민연금 고갈 우려로 민간 퇴직연금사업자의 사회적 역할이 확대되고 있어 2032년말에는 860조원 규모로 성장할 것으로 예상되고 있다.</t>
+          <t>은퇴 후 부부 생활비 평균 통계치 200-300만 원, 은퇴자들의 소득 공백기 대처법은 퇴직자 실업급여 이후 재취업 도전, 퇴직연금의 종류와 특징은 연금의 종류 공적연금, 퇴직연금은 DB형, DC형, IRP 형태로 운영, TDF는 Target Date Fund의 줄임말로 은퇴연령에 맞춰 자산을 배분하는 특징</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1981,22 +1981,22 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002829709?sid=101</t>
+          <t>https://n.news.naver.com/mnews/article/374/0000353965?sid=101</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t xml:space="preserve">우리은행은 전문적이고 체계적인 퇴직연금 자산관리를 위해 전국 주요 167개 금융센터에 167명의 연금전문가를 선발배치한다고 11일 밝혔다.퇴직연금 시장규모는 2022년말 기준 336조원으로 2021년 말 대비 40조원 13.6이 증가했다. 국민연금 고갈 우려로 민간 퇴직연금사업자의 사회적 역할이 확대되고 있어 2032년말에는 860조원 규모로 성장할 것으로 예상되고 있다.퇴직연금은 전년대비 DB 확정급여형는 21조원 12.2 DC 확정기여형는 8.3조원 10.8 개인형IRP는 11조원 23.9이 증가하는 등 높은 성장률을 보이고 있다.특히 시장환경 변화로 개인고객을 대상으로 하는 연금자산 관리의 중요성이 커지며 높은 수준의 전문상담 능력과 체계적인 수익률 관리가 필요해졌다.우리은행은 지난해 4월 비대면 연금고객 전담관리 조직인 연금고객관리센터를 신설했다. 이번에 대면 업무를 선호하는 고객을 위해 영업점에서 퇴직연금을 전담 관리할 연금전문가를 선발하게 됐다.이번에 선발된 연금전문가는 주요 금융센터에서 자산관리 업무를 수행 중인 직원을 위주로 선발해 고객별 맞춤형 포트폴리오와 은퇴설계 등 전문적인 밀착형 고객관리 업무로 고객의 금융자산 증식에 도움이 될 것을 목표로 삼고 있다. 우리은행 관계자는 비대면 고객은 연금고객관리센터로 대면 고객은 주요 금융센터의 연금전문가로 체계적인 맞춤형 관리 체계를 구축했다며 연금사업자의 역량 기준이 수익률관리 능력인 만큼 연금전문가의 고객 은퇴자산 관리 역량을 강화해 나갈 것이라고 말했다. </t>
+          <t xml:space="preserve"> 재테크 노하우 100분 머니쇼 하우머니 오상열 오원트금융연구소 소장Q.최근 은퇴 준비에 관심들 많으시거든요. 보통 은퇴한 부부 기준으로 한 달에 얼마나 정도가 있어야 생활이 가능한가요 은퇴 후 부부 생활비 얼마나 들까 은퇴 후 부부 생활비 평균 통계치 200300만 원Q.은퇴 앞두신 분들 가장 큰 걱정이 매달 월급을 꼬박꼬박 받다가 이제는 다른 길을 찾거나 모아 둔 돈으로만 살아가야 한다는 점인데요. 보통 어떻게들 대비하고 계신가요 은퇴자들의 소득 공백기 대처법은 퇴직자 실업급여 이후 재취업 도전하지만 쉽지 않아 라이프사이클 55세 퇴직65세 연금개시75세 은퇴 퇴직과 은퇴의 개념 달라...지금의 은퇴는 퇴직 의미Q.소득 공백을 메우기 위해 재취업이나 창업을 할 수 있다면 좋겠지만 쉽지 않거든요. 그래서 기대게 되는 것이 연금인데 연금도 종류가 다양하지 않습니까 은퇴 후 소득공백 메워주는 연금...종류와 특징은 연금의 종류 공적연금퇴직연금개인연금담보연금 국가가 운영하는 공적연금 국민공무원사학군인 기업이 주체가 되는 퇴직연금 DBDCIRP 개인이 주체가 되는 개인연금 연금저축펀드연금저축보험 등 담보연금인 주택농지연금과 기타 기초연금Q.국민연금만으로는 충분치 않다 보니 직장인들에겐 퇴직연금도 중요한 노후대비 자산이죠. DB DC 등 퇴직연금이 생각보다 복잡하고 어렵더라고요. 어떤 방식으로 운용되는건지부터 설명을 해주신다면요 노후 대비 퇴직연금 운용방식과 차이점은 퇴직연금은 본인의 노후 최후의 보루 자금 퇴직연금은 DB형 DC형 IRP 형태로 운영 DB형은 가입자 의사와 무관하게 회사가 운용 DC나 IRP는 가입자가 직접 챙겨야Q.사실 퇴직연금을 잘 운용하고 싶지만 너무 복잡하고 다양해서 일단 어떤 걸 골라야 할지 어떻게 운용하는 게 더 좋을지 잘 모르겠거든요. 들어보니 TDF 얘기가 많이 나오던데 TDF는 뭔가요 퇴직연금 어떻게 굴릴까아직도 마음 못 정했다면 퇴직연금 관리하기는 귀찮은데 수익은 내고 싶을 때는 디폴트옵션 도입으로 TDF 시장 주목 TDF는 Target Date Fund의 줄임말 본인의 은퇴연령에 맞춰 자동으로 자산을 배분하는 특징 금융에 관심과 경험이 낮은 사람들도 쉽게 투자 가능 TDF 이름 뒤에 붙는 숫자인 빈티지가 본인의 예상 은퇴 연령 통상 태어난 연도에 60을 더하여 빈티지 선택 1980년생이라면 TDF2040 전후가 은퇴 시기 부합 자산의 이동은 자유로우며 선택한 디폴트옵션도 언제든 변경 가능 TDF만으로 퇴직연금을 운용한다면 디폴트옵션 활용 추천 시장하락 예상 시 현금성자산 유지신청 통해 대기자금Q.퇴직연금 가지고 계신 분들의 가장 큰 고민은 수익률을 높이는 방법일 텐데요. 같은 퇴직금이라도 운용기간 안에서 얼마의 수익을 내느냐가 노후에 쓸 수 있는 자금을 결정하다 보니 신경이 많이 쓰이죠. 퇴직연금 운용 전략을 세워주신다면요 연금 고수들의 디폴트옵션 활용법은 디폴트옵션 도입 퇴직연금 수익률 극대화 방법은 디폴트옵션 의무사항이지만 강제조항은 아님 투자 위험도에 따라 초저위험고위험까지 4가지로 구분 초저위험 원리금보장형으로만 구성 저위험 원리금보장형 상품과 실적배당형 상품에도 투자 중위험 및 고위험 실적배당형 상품 위주의 포트폴리오 투자성향별로 13개의 포트폴리오 제공 610개 선택지 30년간 근속하며 퇴직연금과 동등한 수준의 개인연금 납부 6 이상의 수익률로 운용할 수 있다면 노후 준비 해결 수수료 낮추면서 수익률 높이는 방법 직접 TDF펀드 사는 것 직접 운용 시 수수료 1 10정도...수익률은 비슷한 효과 퇴직까지 남은 기간을 고려하여 TDF펀드 선택하는 방법 1년에 한 번 연금 수익률과 포트폴리오 점검 필수Q.오늘 11일 살펴본 연금도 그렇고 재테크를 잘해서 노후도 잘 준비할 수 있으면 좋을 것 같은데요. 소장님께선 재테크의 기본을 금융 집짓기라고 부르신다고요. 시청자분들을 위해 설명 좀 해주시죠. 재테크 답은 금융 집짓기...방법과 필요성은 언제 은퇴하고 언제까지 살지를 대략 정하는 것이 중요 한 달 생활비 고려해 은퇴할 때까지 저축하는 방법 금융 집짓기 은퇴 시기와 자금 준비 과정 한눈에 파악 은퇴할 때까지 부채상환 부족한 금액은 투자로 불려야 보험 기초공사 저축 기둥 실적배당 지붕 처마보에 현재 나이 은퇴 나이 사망 나이 기록 은퇴 설계 부채 저축투자절세부동산보험 분석 가장 균형 잡힌 금융상품 포트폴리오를 구성하여 시공 퇴직연금의 디폴트옵션 금융집짓기 후 선택 유리 자세한 내용은 동영상을 시청하시기 바랍니다.당신의 제보가 뉴스로 만들어집니다.SBS Biz는 여러분의 제보를 기다리고 있습니다.홈페이지 https url.kr 9pghjn</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>['퇴직연금 DB', '퇴직연금 DC', '확정기여형', '확정급여형', '개인형퇴직연금', '퇴직연금 사업자', '퇴직연금 은퇴설계', '퇴직연금 규모', '우리은행 퇴직연금', '퇴직연금 수익률', '퇴직연금 포트폴리오']</t>
+          <t>['퇴직연금 DB', '퇴직연금 DC', '퇴직연금 IRP', '디폴트옵션', 'IRP 연금개시', 'IRP 수수료', '퇴직연금 은퇴설계', '퇴직연금 수익률', '퇴직연금 포트폴리오', '퇴직연금 TDF', '퇴직연금 자산배분', '퇴직연금 가입', '퇴직연금 펀드']</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>[{'퇴직연금 DB': 3}, {'퇴직연금 DC': 48}, {'확정기여형': 37}, {'확정급여형': 9}, {'개인형퇴직연금': 60}, {'퇴직연금 사업자': 2}, {'퇴직연금 은퇴설계': 2}, {'퇴직연금 규모': 2}, {'우리은행 퇴직연금': 19}, {'퇴직연금 수익률': 25}, {'퇴직연금 포트폴리오': 19}]</t>
+          <t>[{'퇴직연금 DB': 2}, {'퇴직연금 DC': 12}, {'퇴직연금 IRP': 36}, {'디폴트옵션': 49}, {'IRP 연금개시': 1}, {'IRP 수수료': 5}, {'퇴직연금 은퇴설계': 1}, {'퇴직연금 수익률': 1}, {'퇴직연금 포트폴리오': 11}, {'퇴직연금 TDF': 1}, {'퇴직연금 자산배분': 1}, {'퇴직연금 가입': 37}, {'퇴직연금 펀드': 12}]</t>
         </is>
       </c>
       <c r="K15" t="n">
@@ -2004,7 +2004,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>우리은행은 전국 주요 금융센터에 연금전문가를 선발배치하여 퇴직연금 자산관리를 전문적으로 수행하고 있다.</t>
+          <t>은퇴 후 부부 생활비 평균 통계치와 퇴직자들의 소득 공백기 대처법에 대한 내용이 포함되어 있음</t>
         </is>
       </c>
       <c r="M15" t="n">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>퇴직연금 시장규모가 증가하고 국민연금 고갈 우려로 민간 퇴직연금사업자의 사회적 역할이 확대되고 있다.</t>
+          <t>퇴직연금의 종류와 특징에 대한 내용이 포함되어 있음</t>
         </is>
       </c>
       <c r="O15" t="n">
@@ -2020,7 +2020,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>퇴직연금 시장규모의 증가와 국민연금 고갈 우려로 인해 퇴직연금 자산의 관리와 수익률 관리가 중요해지고 있다.</t>
+          <t>TDF에 대한 설명이 포함되어 있음</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -2028,7 +2028,7 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>본문에는 법률 및 규제 변경에 대한 내용이 언급되지 않았다.</t>
+          <t>해당 기준에 해당하는 내용이 없음</t>
         </is>
       </c>
       <c r="S15" t="n">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>본문에는 인구 통계 변화와 퇴직연금의 장기적인 지속 가능성에 대한 내용이 언급되지 않았다.</t>
+          <t>해당 기준에 해당하는 내용이 없음</t>
         </is>
       </c>
       <c r="U15" t="n">
@@ -2044,7 +2044,7 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>본문에는 기술과 디지털화에 대한 내용이 언급되지 않았다.</t>
+          <t>해당 기준에 해당하는 내용이 없음</t>
         </is>
       </c>
       <c r="W15" t="n">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>본문에는 소비 행동 및 요구사항에 대한 내용이 언급되지 않았다.</t>
+          <t>해당 기준에 해당하는 내용이 없음</t>
         </is>
       </c>
     </row>
@@ -2074,12 +2074,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>우리은행, 연금전문가 167명 주요 금융센터에 배치</t>
+          <t>퇴직연금 체계적 관리… 우리銀, 전문가 167명 배치</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>우리은행은 전국 주요 167개 금융센터에 167명의 연금전문가를 선발해 배치한다고 밝혔다. 이번에 대면 업무를 선호하는 고객을 위해 영업점에서 퇴직연금을 전담 관리할 연금전문가를 선발하게 됐다는 설명이다. 퇴직연금 시장규모는 2022년 말 기준 336조원으로 2021년 말 대비 40조원 13.6이 증가했다.</t>
+          <t>우리은행은 전국 주요 167개 금융센터에 167명의 연금전문가를 선발배치한다고 밝혔다. 퇴직연금 시장규모는 2022년말 기준 336조원으로 2021년 말 대비 40조원 13.6% 증가했다. 국민연금 고갈 우려로 민간 퇴직연금사업자의 사회적 역할이 확대되고 있어 2032년말에는 860조원 규모로 성장할 것으로 예상되고 있다.</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -2087,118 +2087,224 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
+          <t>https://n.news.naver.com/mnews/article/029/0002829709?sid=101</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">우리은행은 전문적이고 체계적인 퇴직연금 자산관리를 위해 전국 주요 167개 금융센터에 167명의 연금전문가를 선발배치한다고 11일 밝혔다.퇴직연금 시장규모는 2022년말 기준 336조원으로 2021년 말 대비 40조원 13.6이 증가했다. 국민연금 고갈 우려로 민간 퇴직연금사업자의 사회적 역할이 확대되고 있어 2032년말에는 860조원 규모로 성장할 것으로 예상되고 있다.퇴직연금은 전년대비 DB 확정급여형는 21조원 12.2 DC 확정기여형는 8.3조원 10.8 개인형IRP는 11조원 23.9이 증가하는 등 높은 성장률을 보이고 있다.특히 시장환경 변화로 개인고객을 대상으로 하는 연금자산 관리의 중요성이 커지며 높은 수준의 전문상담 능력과 체계적인 수익률 관리가 필요해졌다.우리은행은 지난해 4월 비대면 연금고객 전담관리 조직인 연금고객관리센터를 신설했다. 이번에 대면 업무를 선호하는 고객을 위해 영업점에서 퇴직연금을 전담 관리할 연금전문가를 선발하게 됐다.이번에 선발된 연금전문가는 주요 금융센터에서 자산관리 업무를 수행 중인 직원을 위주로 선발해 고객별 맞춤형 포트폴리오와 은퇴설계 등 전문적인 밀착형 고객관리 업무로 고객의 금융자산 증식에 도움이 될 것을 목표로 삼고 있다. 우리은행 관계자는 비대면 고객은 연금고객관리센터로 대면 고객은 주요 금융센터의 연금전문가로 체계적인 맞춤형 관리 체계를 구축했다며 연금사업자의 역량 기준이 수익률관리 능력인 만큼 연금전문가의 고객 은퇴자산 관리 역량을 강화해 나갈 것이라고 말했다. </t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['퇴직연금 DB', '퇴직연금 DC', '확정기여형', '확정급여형', '개인형퇴직연금', '퇴직연금 사업자', '퇴직연금 은퇴설계', '퇴직연금 규모', '우리은행 퇴직연금', '퇴직연금 수익률', '퇴직연금 포트폴리오']</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>[{'퇴직연금 DB': 3}, {'퇴직연금 DC': 48}, {'확정기여형': 37}, {'확정급여형': 9}, {'개인형퇴직연금': 60}, {'퇴직연금 사업자': 2}, {'퇴직연금 은퇴설계': 2}, {'퇴직연금 규모': 2}, {'우리은행 퇴직연금': 19}, {'퇴직연금 수익률': 25}, {'퇴직연금 포트폴리오': 19}]</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>3</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>우리은행은 전국 주요 금융센터에 연금전문가를 선발배치하여 퇴직연금 자산관리를 전문적으로 수행하고 있다.</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>퇴직연금 시장규모가 증가하고 국민연금 고갈 우려로 민간 퇴직연금사업자의 사회적 역할이 확대되고 있다.</t>
+        </is>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>퇴직연금 시장규모의 증가와 국민연금 고갈 우려로 인해 퇴직연금 자산의 관리와 수익률 관리가 중요해지고 있다.</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>본문에는 법률 및 규제 변경에 대한 내용이 언급되지 않았다.</t>
+        </is>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>본문에는 인구 통계 변화와 퇴직연금의 장기적인 지속 가능성에 대한 내용이 언급되지 않았다.</t>
+        </is>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>본문에는 기술과 디지털화에 대한 내용이 언급되지 않았다.</t>
+        </is>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>본문에는 소비 행동 및 요구사항에 대한 내용이 언급되지 않았다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2023-10-11</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>퇴직연금 제도</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>우리은행</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>우리은행, 연금전문가 167명 주요 금융센터에 배치</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>우리은행은 전국 주요 167개 금융센터에 167명의 연금전문가를 선발해 배치한다고 밝혔다. 이번에 대면 업무를 선호하는 고객을 위해 영업점에서 퇴직연금을 전담 관리할 연금전문가를 선발하게 됐다는 설명이다. 퇴직연금 시장규모는 2022년 말 기준 336조원으로 2021년 말 대비 40조원 13.6이 증가했다.</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>6</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>https://www.viva100.com/main/view.php?key=20231011010002168</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">
  우리은행은 전문적이고 체계적인 퇴직연금 자산관리를 위해 전국 주요 167개 금융센터에 167명의 연금전문가를 선발해 배치한다고 11일 밝혔다.우리은행은 지난해 4월 비대면 연금고객 전담관리 조직인 연금고객관리센터를 신설했다. 이번에 대면 업무를 선호하는 고객을 위해 영업점에서 퇴직연금을 전담 관리할 연금전문가를 선발하게 됐다는 설명이다.선발된 연금전문가는 주요 금융센터에서 자산관리 업무를 수행 중인 직원을 위주로 선발했다. 고객별 맞춤형 포트폴리오와 은퇴설계 등 전문적인 밀착형 고객관리 업무로 고객의 금융자산 증식에 도움이 될 것을 목표로 삼고 있다.퇴직연금 시장규모는 2022년 말 기준 336조원으로 2021년 말 대비 40조원 13.6이 증가했다. 국민연금 고갈 우려로 민간 퇴직연금사업자의 사회적 역할이 확대되고 있어 2032년 말에는 860조원 규모로 성장할 것으로 예상된다.퇴직연금 성장률 전년대비은 확정급여형 DB이 21조원 12.2 확정기여형 DC이 8.3조원 10.8 개인형IRP가 11조원 23.9 증가하는 등 높은 성장률을 기록하고 있다. 최근 시장 패러다임이 DB에서 DC와 개인형IRP로 급격히 전환되는 추세다.특히 시장환경 변화로 개인고객을 대상으로 하는 연금자산 관리의 중요성이 커지며 높은 수준의 전문상담 능력과 체계적인 수익률 관리가 필요해졌다.우리은행 관계자는 연금사업자의 역량 기준이 수익률관리 능력인 만큼 연금전문가의 고객 은퇴자산 관리 역량을 강화해 나갈 것이라며 비대면 고객은 연금고객관리센터로 대면 고객은 주요 금융센터의 연금전문가로 체계적인 맞춤형 관리 체계를 구축했다고 말했다.김수환 기자 kshviva100.com 
 </t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>['퇴직연금 DB', '퇴직연금 DC', '확정기여형', '확정급여형', 'IRP 연금수령', '퇴직연금 사업자', '퇴직연금 은퇴설계', '퇴직연금 규모', '우리은행 퇴직연금', '퇴직연금 서비스 ', '하나 퇴직연금', '퇴직연금 수익률', '퇴직연금 포트폴리오']</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>[{'퇴직연금 DB': 5}, {'퇴직연금 DB': 7}, {'퇴직연금 DB': 12}, {'퇴직연금 DB': 16}, {'퇴직연금 DB': 23}, {'퇴직연금 DB': 24}, {'퇴직연금 DB': 25}, {'퇴직연금 DB': 26}, {'퇴직연금 DB': 27}, {'퇴직연금 DB': 29}, {'퇴직연금 DB': 31}, {'퇴직연금 DB': 32}, {'퇴직연금 DB': 33}, {'퇴직연금 DB': 34}, {'퇴직연금 DB': 35}, {'퇴직연금 DB': 36}, {'퇴직연금 DB': 37}, {'퇴직연금 DB': 39}, {'퇴직연금 DB': 42}, {'퇴직연금 DB': 45}, {'퇴직연금 DB': 46}, {'퇴직연금 DB': 48}, {'퇴직연금 DB': 50}, {'퇴직연금 DB': 51}, {'퇴직연금 DB': 55}, {'퇴직연금 DB': 57}, {'퇴직연금 DB': 58}, {'퇴직연금 DB': 59}, {'퇴직연금 DC': 57}, {'확정기여형': 2}, {'확정기여형': 33}, {'확정급여형': 1}, {'확정급여형': 8}, {'확정급여형': 15}, {'확정급여형': 19}, {'확정급여형': 20}, {'확정급여형': 24}, {'확정급여형': 25}, {'확정급여형': 26}, {'확정급여형': 28}, {'확정급여형': 29}, {'확정급여형': 31}, {'확정급여형': 32}, {'확정급여형': 34}, {'확정급여형': 35}, {'확정급여형': 36}, {'확정급여형': 37}, {'확정급여형': 38}, {'확정급여형': 39}, {'확정급여형': 41}, {'확정급여형': 46}, {'확정급여형': 51}, {'확정급여형': 54}, {'확정급여형': 55}, {'확정급여형': 56}, {'확정급여형': 60}, {'IRP 연금수령': 1}, {'퇴직연금 사업자': 6}, {'퇴직연금 사업자': 12}, {'퇴직연금 사업자': 16}, {'퇴직연금 사업자': 17}, {'퇴직연금 사업자': 19}, {'퇴직연금 사업자': 27}, {'퇴직연금 사업자': 29}, {'퇴직연금 사업자': 31}, {'퇴직연금 사업자': 33}, {'퇴직연금 사업자': 35}, {'퇴직연금 사업자': 36}, {'퇴직연금 사업자': 37}, {'퇴직연금 사업자': 39}, {'퇴직연금 사업자': 42}, {'퇴직연금 사업자': 43}, {'퇴직연금 사업자': 44}, {'퇴직연금 사업자': 45}, {'퇴직연금 사업자': 46}, {'퇴직연금 사업자': 47}, {'퇴직연금 사업자': 48}, {'퇴직연금 사업자': 51}, {'퇴직연금 사업자': 55}, {'퇴직연금 사업자': 56}, {'퇴직연금 사업자': 58}, {'퇴직연금 은퇴설계': 7}, {'퇴직연금 은퇴설계': 13}, {'퇴직연금 은퇴설계': 19}, {'퇴직연금 은퇴설계': 20}, {'퇴직연금 은퇴설계': 22}, {'퇴직연금 은퇴설계': 29}, {'퇴직연금 은퇴설계': 30}, {'퇴직연금 은퇴설계': 32}, {'퇴직연금 은퇴설계': 34}, {'퇴직연금 은퇴설계': 35}, {'퇴직연금 은퇴설계': 37}, {'퇴직연금 은퇴설계': 39}, {'퇴직연금 은퇴설계': 43}, {'퇴직연금 은퇴설계': 44}, {'퇴직연금 은퇴설계': 45}, {'퇴직연금 은퇴설계': 46}, {'퇴직연금 은퇴설계': 48}, {'퇴직연금 은퇴설계': 49}, {'퇴직연금 은퇴설계': 50}, {'퇴직연금 은퇴설계': 53}, {'퇴직연금 은퇴설계': 59}, {'퇴직연금 은퇴설계': 60}, {'퇴직연금 규모': 4}, {'퇴직연금 규모': 8}, {'퇴직연금 규모': 14}, {'퇴직연금 규모': 19}, {'퇴직연금 규모': 21}, {'퇴직연금 규모': 24}, {'퇴직연금 규모': 31}, {'퇴직연금 규모': 32}, {'퇴직연금 규모': 35}, {'퇴직연금 규모': 37}, {'퇴직연금 규모': 39}, {'퇴직연금 규모': 41}, {'퇴직연금 규모': 43}, {'퇴직연금 규모': 45}, {'퇴직연금 규모': 46}, {'퇴직연금 규모': 47}, {'퇴직연금 규모': 48}, {'퇴직연금 규모': 49}, {'퇴직연금 규모': 50}, {'퇴직연금 규모': 51}, {'퇴직연금 규모': 55}, {'퇴직연금 규모': 60}, {'우리은행 퇴직연금': 2}, {'우리은행 퇴직연금': 7}, {'우리은행 퇴직연금': 10}, {'우리은행 퇴직연금': 17}, {'우리은행 퇴직연금': 24}, {'우리은행 퇴직연금': 26}, {'우리은행 퇴직연금': 28}, {'우리은행 퇴직연금': 29}, {'우리은행 퇴직연금': 33}, {'우리은행 퇴직연금': 35}, {'우리은행 퇴직연금': 36}, {'우리은행 퇴직연금': 46}, {'우리은행 퇴직연금': 52}, {'우리은행 퇴직연금': 54}, {'우리은행 퇴직연금': 56}, {'우리은행 퇴직연금': 57}, {'우리은행 퇴직연금': 58}, {'퇴직연금 서비스 ': 2}, {'퇴직연금 서비스 ': 11}, {'퇴직연금 서비스 ': 20}, {'퇴직연금 서비스 ': 28}, {'하나 퇴직연금': 2}, {'퇴직연금 수익률': 40}, {'퇴직연금 수익률': 49}, {'퇴직연금 포트폴리오': 38}, {'퇴직연금 포트폴리오': 47}, {'퇴직연금 포트폴리오': 54}, {'퇴직연금 포트폴리오': 55}, {'퇴직연금 포트폴리오': 58}]</t>
         </is>
       </c>
-      <c r="K16" t="n">
+      <c r="K17" t="n">
         <v>3</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>우리은행은 전국 주요 167개 금융센터에 167명의 연금전문가를 선발해 배치하여 퇴직연금 자산관리를 강화하고 있다.</t>
         </is>
       </c>
-      <c r="M16" t="n">
+      <c r="M17" t="n">
         <v>2</v>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>이번에 대면 업무를 선호하는 고객을 위해 영업점에서 퇴직연금을 전담 관리할 연금전문가를 선발하게 됐다는 설명이 있다.</t>
         </is>
       </c>
-      <c r="O16" t="n">
+      <c r="O17" t="n">
         <v>1</v>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>퇴직연금 시장규모는 2022년 말 기준 336조원으로 2021년 말 대비 40조원 13.6이 증가했다.</t>
         </is>
       </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="inlineStr">
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="inlineStr">
         <is>
           <t>No information related to legal and regulatory changes.</t>
         </is>
       </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="inlineStr">
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="inlineStr">
         <is>
           <t>No information related to demographic change.</t>
         </is>
       </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="inlineStr">
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="inlineStr">
         <is>
           <t>No information related to technology and digitalization.</t>
         </is>
       </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="inlineStr">
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="inlineStr">
         <is>
           <t>No information related to consumption behavior and requirements.</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>2023-10-11</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>타사 동향 및 이벤트</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>우리은행</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>우리은행 연금전문가 167개 금융센터에 배치, 대면 자산관리 역량 강화</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>우리은행이 연금전문가를 주요 금융센터에 배치해 퇴직연금 서비스 역량을 강화한다.</t>
         </is>
       </c>
-      <c r="F17" t="n">
+      <c r="F18" t="n">
         <v>6</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>https://www.businesspost.co.kr/BP?command=article_view&amp;num=329550</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t xml:space="preserve">
  우리은행이 연금전문가를 주요 금융센터에 배치해 퇴직연금 서비스 역량을 강화한다.
@@ -2210,120 +2316,14 @@
 </t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>['우리은행 퇴직연금', '퇴직연금 서비스 ']</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>[{'우리은행 퇴직연금': 45}, {'퇴직연금 서비스 ': 7}]</t>
-        </is>
-      </c>
-      <c r="K17" t="n">
-        <v>3</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>우리은행이 연금전문가를 전국 금융센터에 배치하여 퇴직연금 자산관리를 강화하고 있다.</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>2</v>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>기사에는 경쟁 동향에 대한 정보가 없으므로 점수를 낮게 준다.</t>
-        </is>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>기사에는 금융시장의 영향에 대한 정보가 없으므로 점수를 낮게 준다.</t>
-        </is>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>기사에는 법적 및 규제 변화에 대한 정보가 없으므로 점수를 주지 않는다.</t>
-        </is>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>기사에는 인구 변화에 대한 정보가 없으므로 점수를 주지 않는다.</t>
-        </is>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>기사에는 기술 및 디지털화에 대한 정보가 없으므로 점수를 주지 않는다.</t>
-        </is>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>기사에는 소비 행동 및 요구사항에 대한 정보가 없으므로 점수를 주지 않는다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2023-10-11</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>퇴직연금 상품</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>삼성운용</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>삼성운용, 만기 채권형 ETF 신규 상장</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>삼성자산운용이 KODEX 2511 회사채 A 이상 액티브 ETF를 신규 상장한다고 밝혔다. 이 ETF는 우량 등급 회사채에 투자해 높은 수익을 목표로 한다. 만기는 2025년 11월이며, 만기 기대수익률은 연 4.8이다.</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>6</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004247558?sid=101</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 삼성자산운용이 만기채권형 상장지수펀드 ETF인 KODEX 2511 회사채 A 이상 액티브 ETF를 신규 상장한다고 11일 밝혔다.KODEX 2511 회사채 A 이상 액티브 ETF는 우량 등급 회사채 중심으로 투자해 국공채나 은행채 대비 높은 수익을 목표로 하는 상품이다. 만기는 2025년 11월이다. 만기 기대수익률 YTM은 11일 기준 연 4.8이며 총 보수는 연 0.09다.삼성운용은 고금리 상황에서 비교적 높은 수준의 만기 기대수익률을 확정적으로 얻을 수 있는 것이 신규 상품의 강점이라고 설명했다. 특히 KODEX 2511 회사채 A 이상 액티브 ETF는 AAA 등급부터 A 등급까지 다양한 등급의 회사채에 투자해 동종 회사채 ETF 중 더 높은 수익을 기대할 수 있다.만기 매칭형 채권 ETF는 정기예금과 유사한 성격을 갖고 있어 안정적인 투자처로 꼽힌다. 만기매칭형 채권 ETF는 투자 금액에 제한이 없으며 중도 환매를 해도 해지 수수료 없이 그간 쌓은 수익을 온전히 받을 수 있다. 아울러 개인투자자들은 연금저축계좌와 퇴직연금계좌 DCIRP에서도 100 투자할 수 있다.임태혁 삼성자산운용 ETF운용본부 상무는 KODEX 2511 회사채 A 이상 액티브 ETF는 국고채나 은행채 대비 매력적인 금리 수준을 제공하는 만큼 상대적으로 고금리 상품을 찾고 있는 투자자들의 선호도가 높을 것으로 예상된다고 말했다.</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>['삼성 퇴직연금', '퇴직연금 ETF', '퇴직연금 채권']</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>[{'삼성 퇴직연금': 3}, {'퇴직연금 ETF': 5}, {'퇴직연금 채권': 2}]</t>
         </is>
       </c>
       <c r="K18" t="n">
@@ -2331,7 +2331,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>삼성운용이 고금리 상황에서 높은 수준의 만기 기대수익률을 제공하는 강점이 있다.</t>
+          <t>우리은행이 연금전문가를 전국 금융센터에 배치하여 퇴직연금 자산관리를 강화하고 있다.</t>
         </is>
       </c>
       <c r="M18" t="n">
@@ -2339,7 +2339,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>신규 상장된 ETF로서, 시장에서의 경쟁 동향과 새로운 제품 및 서비스 출시에 대한 정보를 파악할 수 있다.</t>
+          <t>기사에는 경쟁 동향에 대한 정보가 없으므로 점수를 낮게 준다.</t>
         </is>
       </c>
       <c r="O18" t="n">
@@ -2347,7 +2347,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>금융 시장의 움직임, 이자율 변동 및 투자 자산의 변동성이 연금연금업계에 미치는 영향을 이해할 수 있다.</t>
+          <t>기사에는 금융시장의 영향에 대한 정보가 없으므로 점수를 낮게 준다.</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>변경된 법률 및 규정에 대한 정보가 제공되지 않았다.</t>
+          <t>기사에는 법적 및 규제 변화에 대한 정보가 없으므로 점수를 주지 않는다.</t>
         </is>
       </c>
       <c r="S18" t="n">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>노령화와 관련된 인구 통계적 요인 및 연금 기금이 장기적인 지속 가능성에 미치는 영향에 대한 정보가 제공되지 않았다.</t>
+          <t>기사에는 인구 변화에 대한 정보가 없으므로 점수를 주지 않는다.</t>
         </is>
       </c>
       <c r="U18" t="n">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>연금 관리 및 제공 서비스에 대한 디지털화 및 기술 혁신의 영향에 대한 정보가 제공되지 않았다.</t>
+          <t>기사에는 기술 및 디지털화에 대한 정보가 없으므로 점수를 주지 않는다.</t>
         </is>
       </c>
       <c r="W18" t="n">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>연금 수령자의 소비 패턴, 투자 선호도 및 요구 사항에 대한 정보가 제공되지 않았다.</t>
+          <t>기사에는 소비 행동 및 요구사항에 대한 정보가 없으므로 점수를 주지 않는다.</t>
         </is>
       </c>
     </row>
@@ -2401,12 +2401,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>삼성운용, 'KODEX 25-11 회사채 액티브 ETF' 신규 상장</t>
+          <t>삼성운용, 만기 채권형 ETF 신규 상장</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>삼성자산운용이 새로운 만기매칭형 회사채 ETF를 선보였다. KODEX 2511 회사채 A이상 액티브 ETF는 우량등급 회사채에 투자해 높은 이자수익을 실현할 수 있는 상품이다. 만기매칭형 ETF는 고금리 상황에서 투자하기에 유리하다.</t>
+          <t>삼성자산운용이 KODEX 2511 회사채 A 이상 액티브 ETF를 신규 상장한다고 밝혔다. 이 ETF는 우량 등급 회사채에 투자해 높은 수익을 목표로 한다. 만기는 2025년 11월이며, 만기 기대수익률은 연 4.8이다.</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -2414,22 +2414,22 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005083935?sid=101</t>
+          <t>https://n.news.naver.com/mnews/article/011/0004247558?sid=101</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 채권 펀드의 명가 삼성자산운용이 새로운 만기매칭형 회사채 ETF를 선보인다. 11일 삼성자산운용에 따르면 이날 KODEX 2511 회사채 A이상 액티브 ETF가 신규 상장했다. KODEX 2511 회사채 A이상 액티브 ETF는 개별 채권처럼 만기가 있는 ETF로 존속기한이 2025년 11월까지다. 이 상품은 우량등급 회사채 중심으로 투자해 국공채나 은행채 대비 높은 이자수익을 실현할 수 있는 상품이다. 만기 기대 수익률 YTM은 연 4.80 2023.10.11 기준에 달하며 총 보수는 연 0.09다. 만기매칭형 ETF는 고금리 상황에서 투자하면 비교적 높은 수준의 만기 기대 수익률 YTM을 얻을 수 있기 때문에 당분간 미국을 필두로 시장 금리가 고공 행진을 유지할 것으로 예상되는 현 시점에서 투자하기에 유리하다. 특히 KODEX 2511 회사채 액티브는 AAA등급부터 A등급까지 다양한 등급 회사채에 투자하므로 업계 동종 회사채 ETF 가운데 비교적 더 높은 수익을 기대할 수 있다. 삼성자산운용은 철저한 신용 분석을 통한 사전 위험 관리 및 분산투자를 통해 신용 리스크를 최소화할 계획이다. 만기매칭형 ETF는 일반적으로 정기예금과 유사한 특징을 갖고 있다. 따라서 변동성이 높은 시장에서 최대한 안정적인 투자를 원하는 투자자 고금리 상황에서 채권 투자에 관심이 높은 투자자에게 적합하다. 게다가 정기예금에 비해 투자금액에 제한이 없고 중도 환매를 하더라도 별도의 해지수수료 없이 그 시점까지 쌓인 수익을 온전히 받을 수 있는 차별점도 있다. 개인 투자자들은 연금저축계좌는 물론 퇴직연금 DC IRP 자산관리 계좌에서도 100 투자할 수 있다. 연금계좌에서 투자하면 안정적인 수익은 물론 세액공제 혜택과 과세이연 후 저율 과세 등 다양한 효과를 누릴 수 있다. 임태혁 삼성자산운용 ETF운용본부 상무는 KODEX 2511 회사채 A이상 액티브 ETF는 업계 최대 168조원의 채권형 상품을 운용하고 있는 최고 수준의 채권 전문가 삼성자산운용의 채권운용본부가 직접 엄선하는 우량 등급 회사채에 분산투자하는 상품으로 국고채나 은행채 대비 매력적인 금리 수준을 제공하는 만큼 상대적으로 고금리 상품을 찾고 있는 투자자들의 선호도가 높을 것으로 예상된다며 연초 대비 금리 수준이 높아진 현 상황에서 새로 상장하는 2511 회사채 ETF에 투자하면 비교적 높은 만기 기대 수익률을 얻을 수 있기 때문에 현 시점에서 투자하기에 적합한 ETF라고 전했다. 한편 삼성자산운용은 현재 국고채 만기채권 ETF 3종 KODEX 2312 국고채 액티브 KODEX 3306 국고채 액티브 KODEX 5309 국고채 액티브와 은행채 만기채권 ETF 2종 KODEX 2312 은행채 액티브 KODEX 2412 은행채 액티브 등 다양한 만기매칭형 ETF 라인업을 구축해 업계에서 제일 많은 총 3조 2천억 원의 순자산을 보유하고 있다. 삼성자산운용 회사채액티브ETF </t>
+          <t xml:space="preserve"> 삼성자산운용이 만기채권형 상장지수펀드 ETF인 KODEX 2511 회사채 A 이상 액티브 ETF를 신규 상장한다고 11일 밝혔다.KODEX 2511 회사채 A 이상 액티브 ETF는 우량 등급 회사채 중심으로 투자해 국공채나 은행채 대비 높은 수익을 목표로 하는 상품이다. 만기는 2025년 11월이다. 만기 기대수익률 YTM은 11일 기준 연 4.8이며 총 보수는 연 0.09다.삼성운용은 고금리 상황에서 비교적 높은 수준의 만기 기대수익률을 확정적으로 얻을 수 있는 것이 신규 상품의 강점이라고 설명했다. 특히 KODEX 2511 회사채 A 이상 액티브 ETF는 AAA 등급부터 A 등급까지 다양한 등급의 회사채에 투자해 동종 회사채 ETF 중 더 높은 수익을 기대할 수 있다.만기 매칭형 채권 ETF는 정기예금과 유사한 성격을 갖고 있어 안정적인 투자처로 꼽힌다. 만기매칭형 채권 ETF는 투자 금액에 제한이 없으며 중도 환매를 해도 해지 수수료 없이 그간 쌓은 수익을 온전히 받을 수 있다. 아울러 개인투자자들은 연금저축계좌와 퇴직연금계좌 DCIRP에서도 100 투자할 수 있다.임태혁 삼성자산운용 ETF운용본부 상무는 KODEX 2511 회사채 A 이상 액티브 ETF는 국고채나 은행채 대비 매력적인 금리 수준을 제공하는 만큼 상대적으로 고금리 상품을 찾고 있는 투자자들의 선호도가 높을 것으로 예상된다고 말했다.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>['삼성 퇴직연금', '퇴직연금 ETF', '퇴직연금 라인업']</t>
+          <t>['삼성 퇴직연금', '퇴직연금 ETF', '퇴직연금 채권']</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>[{'삼성 퇴직연금': 1}, {'삼성 퇴직연금': 5}, {'삼성 퇴직연금': 6}, {'삼성 퇴직연금': 9}, {'삼성 퇴직연금': 15}, {'삼성 퇴직연금': 16}, {'삼성 퇴직연금': 19}, {'퇴직연금 ETF': 3}, {'퇴직연금 ETF': 7}, {'퇴직연금 ETF': 8}, {'퇴직연금 ETF': 10}, {'퇴직연금 ETF': 15}, {'퇴직연금 ETF': 17}, {'퇴직연금 ETF': 20}, {'퇴직연금 라인업': 32}]</t>
+          <t>[{'삼성 퇴직연금': 3}, {'퇴직연금 ETF': 5}, {'퇴직연금 채권': 2}]</t>
         </is>
       </c>
       <c r="K19" t="n">
@@ -2437,7 +2437,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>삼성자산운용은 철저한 신용 분석을 통한 사전 위험 관리 및 분산투자를 통해 신용 리스크를 최소화할 계획이다.</t>
+          <t>삼성운용이 고금리 상황에서 높은 수준의 만기 기대수익률을 제공하는 강점이 있다.</t>
         </is>
       </c>
       <c r="M19" t="n">
@@ -2445,7 +2445,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>KODEX 2511 회사채 액티브는 AAA등급부터 A등급까지 다양한 등급 회사채에 투자하므로 업계 동종 회사채 ETF 가운데 비교적 더 높은 수익을 기대할 수 있다.</t>
+          <t>신규 상장된 ETF로서, 시장에서의 경쟁 동향과 새로운 제품 및 서비스 출시에 대한 정보를 파악할 수 있다.</t>
         </is>
       </c>
       <c r="O19" t="n">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>만기매칭형 ETF는 고금리 상황에서 투자하면 비교적 높은 수준의 만기 기대 수익률 YTM을 얻을 수 있기 때문에 당분간 미국을 필두로 시장 금리가 고공 행진을 유지할 것으로 예상되는 현 시점에서 투자하기에 유리하다.</t>
+          <t>금융 시장의 움직임, 이자율 변동 및 투자 자산의 변동성이 연금연금업계에 미치는 영향을 이해할 수 있다.</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>No relevant information in the article.</t>
+          <t>변경된 법률 및 규정에 대한 정보가 제공되지 않았다.</t>
         </is>
       </c>
       <c r="S19" t="n">
@@ -2469,7 +2469,7 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>No relevant information in the article.</t>
+          <t>노령화와 관련된 인구 통계적 요인 및 연금 기금이 장기적인 지속 가능성에 미치는 영향에 대한 정보가 제공되지 않았다.</t>
         </is>
       </c>
       <c r="U19" t="n">
@@ -2477,7 +2477,7 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>No relevant information in the article.</t>
+          <t>연금 관리 및 제공 서비스에 대한 디지털화 및 기술 혁신의 영향에 대한 정보가 제공되지 않았다.</t>
         </is>
       </c>
       <c r="W19" t="n">
@@ -2485,7 +2485,7 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>No relevant information in the article.</t>
+          <t>연금 수령자의 소비 패턴, 투자 선호도 및 요구 사항에 대한 정보가 제공되지 않았다.</t>
         </is>
       </c>
     </row>
@@ -2497,45 +2497,45 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>사회 동향</t>
+          <t>퇴직연금 상품</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>은행권</t>
+          <t>삼성운용</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>‘억’ 소리 나는 은행권 희망 퇴직금…6년간 10조 쐈다</t>
+          <t>삼성운용, 'KODEX 25-11 회사채 액티브 ETF' 신규 상장</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>국내 은행이 최근 6년간 9조 6047억 원의 희망 퇴직금을 지급한 것으로 나타났다. 희망퇴직자는 매년 증가하고 이들에게 지급된 퇴직금 역시 천문학적 수준으로 늘어났다. 은행권 희망 퇴직 현황을 살펴보면 같은 기간 희망퇴직자는 1만7402명이며 이에 지급된 퇴직금은 9조6047억원에 달했다.</t>
+          <t>삼성자산운용이 새로운 만기매칭형 회사채 ETF를 선보였다. KODEX 2511 회사채 A이상 액티브 ETF는 우량등급 회사채에 투자해 높은 이자수익을 실현할 수 있는 상품이다. 만기매칭형 ETF는 고금리 상황에서 투자하기에 유리하다.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004247529?sid=101</t>
+          <t>https://n.news.naver.com/mnews/article/014/0005083935?sid=101</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 지난 2018년 이후 국내 은행이 최근 6년간 9조 6047억 원의 희망 퇴직금을 지급한 것으로 나타났다.은행권 임금피크제 신청 직원 수는 감소하는 반면 희망퇴직자는 매년 증가하고 이들에게 지급된 퇴직금 역시 천문학적 수준으로 늘어났다.10일 강민국 국민의힘 의원실이 금융감독원으로 받은 국내 은행권 임금피크 신청 현황 자료에 따르면 지난 2018년2023년 7월까지 6년간 인터넷은행 3개 사를 제외한 17개 사의 임금피크제 신청건수는 총 1만1247건이었다.연도별로 살펴보면 2018년 1365건 2019년 1536건 2020년 1756건 2021년 2219건 지난해 2190건으로 최근 들어 감소하고 있다.이에 반해 희망퇴직자는 급증하는 중이다.국내 은행권 희망 퇴직 현황을 살펴보면 같은 기간 희망퇴직자는 1만7402명이며 이에 지급된 퇴직금은 9조6047억원에 달했다. 이는 같은 기간 희망 퇴직제 운영 중인 은행 전체 퇴직자 2만6852명의 64.8 퇴직금액으로는 전체 퇴직금 10조1243억원의 94.8로 절대적 수준을 차지하고 있다.연도별로 희망퇴직자는 2018년 2573명 1조1314억원 2019년 2651명 1조4045억원 2020년 2473명 1조2743억원 2021년 3511명 1조9407억원 지난해 4312명 2조8283억원으로 급증하는 추세다.특히 희망 퇴직자가 가장 많은 은행은 국민은행 3671명이었으며 이어 하나은행 2464명 농협은행 2349명 등의 순으로 집계됐다. 또 희망 퇴직금이 가장 많은 은행은 씨티은행 1조7593억원이었다.강민국 의원은 지난한 코로나 시기를 겪으며 경제적 어려움을 겪고 있는 국민들은 계속된 천문학적 수준의 은행권 횡령과 배임 등의 금융사고로 인해 은행산업 전반에 대한 불신이 극에 달하고 있다며 그런 만큼 공공재 성격을 가진 은행은 위화감을 조성할 수 있을 정도의 과도한 복지지원금 성격을 가진 희망 퇴직금 지급에 대해 숙고해야 한다고 지적했다.이어 은행권은 역대급 실적에 따른 돈 잔치로 보이지 않게 국민의 눈높이에 맞는 수준에서의 희망퇴직금 운영방안을 마련하는 것이 필요하다고 전했다.</t>
+          <t xml:space="preserve"> 채권 펀드의 명가 삼성자산운용이 새로운 만기매칭형 회사채 ETF를 선보인다. 11일 삼성자산운용에 따르면 이날 KODEX 2511 회사채 A이상 액티브 ETF가 신규 상장했다. KODEX 2511 회사채 A이상 액티브 ETF는 개별 채권처럼 만기가 있는 ETF로 존속기한이 2025년 11월까지다. 이 상품은 우량등급 회사채 중심으로 투자해 국공채나 은행채 대비 높은 이자수익을 실현할 수 있는 상품이다. 만기 기대 수익률 YTM은 연 4.80 2023.10.11 기준에 달하며 총 보수는 연 0.09다. 만기매칭형 ETF는 고금리 상황에서 투자하면 비교적 높은 수준의 만기 기대 수익률 YTM을 얻을 수 있기 때문에 당분간 미국을 필두로 시장 금리가 고공 행진을 유지할 것으로 예상되는 현 시점에서 투자하기에 유리하다. 특히 KODEX 2511 회사채 액티브는 AAA등급부터 A등급까지 다양한 등급 회사채에 투자하므로 업계 동종 회사채 ETF 가운데 비교적 더 높은 수익을 기대할 수 있다. 삼성자산운용은 철저한 신용 분석을 통한 사전 위험 관리 및 분산투자를 통해 신용 리스크를 최소화할 계획이다. 만기매칭형 ETF는 일반적으로 정기예금과 유사한 특징을 갖고 있다. 따라서 변동성이 높은 시장에서 최대한 안정적인 투자를 원하는 투자자 고금리 상황에서 채권 투자에 관심이 높은 투자자에게 적합하다. 게다가 정기예금에 비해 투자금액에 제한이 없고 중도 환매를 하더라도 별도의 해지수수료 없이 그 시점까지 쌓인 수익을 온전히 받을 수 있는 차별점도 있다. 개인 투자자들은 연금저축계좌는 물론 퇴직연금 DC IRP 자산관리 계좌에서도 100 투자할 수 있다. 연금계좌에서 투자하면 안정적인 수익은 물론 세액공제 혜택과 과세이연 후 저율 과세 등 다양한 효과를 누릴 수 있다. 임태혁 삼성자산운용 ETF운용본부 상무는 KODEX 2511 회사채 A이상 액티브 ETF는 업계 최대 168조원의 채권형 상품을 운용하고 있는 최고 수준의 채권 전문가 삼성자산운용의 채권운용본부가 직접 엄선하는 우량 등급 회사채에 분산투자하는 상품으로 국고채나 은행채 대비 매력적인 금리 수준을 제공하는 만큼 상대적으로 고금리 상품을 찾고 있는 투자자들의 선호도가 높을 것으로 예상된다며 연초 대비 금리 수준이 높아진 현 상황에서 새로 상장하는 2511 회사채 ETF에 투자하면 비교적 높은 만기 기대 수익률을 얻을 수 있기 때문에 현 시점에서 투자하기에 적합한 ETF라고 전했다. 한편 삼성자산운용은 현재 국고채 만기채권 ETF 3종 KODEX 2312 국고채 액티브 KODEX 3306 국고채 액티브 KODEX 5309 국고채 액티브와 은행채 만기채권 ETF 2종 KODEX 2312 은행채 액티브 KODEX 2412 은행채 액티브 등 다양한 만기매칭형 ETF 라인업을 구축해 업계에서 제일 많은 총 3조 2천억 원의 순자산을 보유하고 있다. 삼성자산운용 회사채액티브ETF </t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>['희망퇴직 퇴직금', '임금피크제']</t>
+          <t>['삼성 퇴직연금', '퇴직연금 ETF', '퇴직연금 라인업']</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>[{'희망퇴직 퇴직금': 2}, {'임금피크제': 17}]</t>
+          <t>[{'삼성 퇴직연금': 1}, {'삼성 퇴직연금': 5}, {'삼성 퇴직연금': 6}, {'삼성 퇴직연금': 9}, {'삼성 퇴직연금': 15}, {'삼성 퇴직연금': 16}, {'삼성 퇴직연금': 19}, {'퇴직연금 ETF': 3}, {'퇴직연금 ETF': 7}, {'퇴직연금 ETF': 8}, {'퇴직연금 ETF': 10}, {'퇴직연금 ETF': 15}, {'퇴직연금 ETF': 17}, {'퇴직연금 ETF': 20}, {'퇴직연금 라인업': 32}]</t>
         </is>
       </c>
       <c r="K20" t="n">
@@ -2543,23 +2543,23 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>은행이 희망 퇴직금을 천문학적 수준으로 지급하고 있다는 사실을 언급하였다.</t>
+          <t>삼성자산운용은 철저한 신용 분석을 통한 사전 위험 관리 및 분산투자를 통해 신용 리스크를 최소화할 계획이다.</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>경쟁 동향에 대한 정보가 없다.</t>
+          <t>KODEX 2511 회사채 액티브는 AAA등급부터 A등급까지 다양한 등급 회사채에 투자하므로 업계 동종 회사채 ETF 가운데 비교적 더 높은 수익을 기대할 수 있다.</t>
         </is>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>금융 시장의 변동성에 대한 언급이 없다.</t>
+          <t>만기매칭형 ETF는 고금리 상황에서 투자하면 비교적 높은 수준의 만기 기대 수익률 YTM을 얻을 수 있기 때문에 당분간 미국을 필두로 시장 금리가 고공 행진을 유지할 것으로 예상되는 현 시점에서 투자하기에 유리하다.</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2567,15 +2567,15 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>법적 및 규제 변화에 대한 정보가 없다.</t>
+          <t>No relevant information in the article.</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>희망퇴직자의 증가와 퇴직금 지급에 대한 정보가 있다.</t>
+          <t>No relevant information in the article.</t>
         </is>
       </c>
       <c r="U20" t="n">
@@ -2583,7 +2583,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>기술과 디지털화에 대한 정보가 없다.</t>
+          <t>No relevant information in the article.</t>
         </is>
       </c>
       <c r="W20" t="n">
@@ -2591,7 +2591,7 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>소비 행동 및 요구사항에 대한 정보가 없다.</t>
+          <t>No relevant information in the article.</t>
         </is>
       </c>
     </row>
@@ -2603,53 +2603,53 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>타사 동향 및 이벤트</t>
+          <t>사회 동향</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>기아</t>
+          <t>은행권</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>기아 노조 12일부터 파업… 정년연장·고용세습 요구</t>
+          <t>‘억’ 소리 나는 은행권 희망 퇴직금…6년간 10조 쐈다</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>기아 노동조합이 파업에 돌입한다. 사측이 정년연장과 단체협약상 고용세습 우선채용 조항 유지 요구를 들어주지 않은 것이다. 노조는 임금 및 단체협약 임단협 교섭 결렬로 파업을 벌이는 건 3년 만이다.</t>
+          <t>국내 은행이 최근 6년간 9조 6047억 원의 희망 퇴직금을 지급한 것으로 나타났다. 희망퇴직자는 매년 증가하고 이들에게 지급된 퇴직금 역시 천문학적 수준으로 늘어났다. 은행권 희망 퇴직 현황을 살펴보면 같은 기간 희망퇴직자는 1만7402명이며 이에 지급된 퇴직금은 9조6047억원에 달했다.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000938263?sid=103</t>
+          <t>https://n.news.naver.com/mnews/article/011/0004247529?sid=101</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t xml:space="preserve">  기아 노동조합이 12일부터 파업에 돌입한다. 사측이 정년연장과 단체협약상 고용세습 우선채용 조항 유지 요구를 들어주지 않은 데 따른 것이다. 기아 노조가 임금 및 단체협약 임단협 교섭 결렬로 파업을 벌이는 건 3년 만이다.전국민주노동조합총연맹 민주노총 전국금속노동조합 금속노조 기아차지부 기아 노조는 11일 노조 소식지를 통해 올해 임단협 교섭 최종 결렬을 선언하고 파업에 돌입한다고 밝혔다. 노조는 전날 사측과의 14차 본교섭 이후 진행한 지부쟁의대책위원회에서 이같은 결정을 내렸다.  노조는 소식지에서 사측 교섭위원들은 노조 요구를 무시한 채 현대차와 똑같은 제시안과 개악안을 끝까지 고집하여 그룹사 내 서열화를 고착시키려 했고 자주적인 교섭을 포기해 스스로 현대차의 하수인임을 인정했다며 현대차 교섭안을 베끼는 수준인 사측 만행에 노조는 더이상 교섭의 의미가 없다고 판단했다고 밝혔다.노조는 1213일 1719일 오전 4시간 오후 4시간 파업한다. 20일에는 오전 6시간 오후 6시간을 파업한다.기아 노조는 교섭을 진행하는 날은 정상적으로 근무한다. 파업 일정상 추후 교섭일은 16일이 유력하다. 파업 당일인 12일에도 노사간 긴급 교섭을 가질 가능성이 있다. 회사 관계자는 아직 교섭 일자가 나오지 않았다고 했다. 노조는 이와 함께 파워트레인 동력계PT 군수 지역출하를 포함한 생산 특별근무 특근도 거부하기로 했다.노사 교섭 쟁점은 정년연장과 단협상 고용세습 조항 개정이다. 사측은 현대차와 동일한 수준의 임금과 성과급 규모를 노조 측에 제시했으나 노조는 이도 부족하다는 입장이다.고용세습 조항은 기아 노사 단협 제27조에 담긴 것으로 재직 중 질병으로 사망한 조합원의 직계가족 1인 정년퇴직자 및 장기근속자 25년 이상 자녀를 우선 채용한다는 내용이다. 고용노동부는 이 조항이 균등한 취업 기회를 보장하는 헌법과 고용정책기본법을 위반할 여지가 있다고 본다. 반면 노조는 십수 년 전부터 실행하지 않아 개정할 필요가 없다고 주장한다.정년연장은 현재 60세인 정년을 국민연금 수령 전년인 64세까지 늘려달라는 것이다. 앞서 기아 노조는 평균 수명 100세를 앞둔 시점에서 60세에 퇴직하면 연금 수령 나이인 65세까지 경제적 어려움이 발생할 수밖에 없다며 사측은 동종사 현대차 핑계 대지 말고 정년연장 요구에 전향적인 안을 제시하라고 전했다.기아 노조는 사측이 제시한 기본급 11만1000원 인상 성과급 4001050만원 무분규 타결 격려금 250만원주식 34주 등도 거부했다. 각종 수당 개선을 요구하고 있는 것이다. 또 사측이 요구했던 성과 연동 임금 체계 개편안은 노조 반대로 이미 무산된 상태다.</t>
+          <t xml:space="preserve"> 지난 2018년 이후 국내 은행이 최근 6년간 9조 6047억 원의 희망 퇴직금을 지급한 것으로 나타났다.은행권 임금피크제 신청 직원 수는 감소하는 반면 희망퇴직자는 매년 증가하고 이들에게 지급된 퇴직금 역시 천문학적 수준으로 늘어났다.10일 강민국 국민의힘 의원실이 금융감독원으로 받은 국내 은행권 임금피크 신청 현황 자료에 따르면 지난 2018년2023년 7월까지 6년간 인터넷은행 3개 사를 제외한 17개 사의 임금피크제 신청건수는 총 1만1247건이었다.연도별로 살펴보면 2018년 1365건 2019년 1536건 2020년 1756건 2021년 2219건 지난해 2190건으로 최근 들어 감소하고 있다.이에 반해 희망퇴직자는 급증하는 중이다.국내 은행권 희망 퇴직 현황을 살펴보면 같은 기간 희망퇴직자는 1만7402명이며 이에 지급된 퇴직금은 9조6047억원에 달했다. 이는 같은 기간 희망 퇴직제 운영 중인 은행 전체 퇴직자 2만6852명의 64.8 퇴직금액으로는 전체 퇴직금 10조1243억원의 94.8로 절대적 수준을 차지하고 있다.연도별로 희망퇴직자는 2018년 2573명 1조1314억원 2019년 2651명 1조4045억원 2020년 2473명 1조2743억원 2021년 3511명 1조9407억원 지난해 4312명 2조8283억원으로 급증하는 추세다.특히 희망 퇴직자가 가장 많은 은행은 국민은행 3671명이었으며 이어 하나은행 2464명 농협은행 2349명 등의 순으로 집계됐다. 또 희망 퇴직금이 가장 많은 은행은 씨티은행 1조7593억원이었다.강민국 의원은 지난한 코로나 시기를 겪으며 경제적 어려움을 겪고 있는 국민들은 계속된 천문학적 수준의 은행권 횡령과 배임 등의 금융사고로 인해 은행산업 전반에 대한 불신이 극에 달하고 있다며 그런 만큼 공공재 성격을 가진 은행은 위화감을 조성할 수 있을 정도의 과도한 복지지원금 성격을 가진 희망 퇴직금 지급에 대해 숙고해야 한다고 지적했다.이어 은행권은 역대급 실적에 따른 돈 잔치로 보이지 않게 국민의 눈높이에 맞는 수준에서의 희망퇴직금 운영방안을 마련하는 것이 필요하다고 전했다.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>['퇴직연금 고용노동부', '현대차 퇴직연금', '정년퇴직']</t>
+          <t>['희망퇴직 퇴직금', '임금피크제']</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>[{'퇴직연금 고용노동부': 1}, {'현대차 퇴직연금': 5}, {'정년퇴직': 1}]</t>
+          <t>[{'희망퇴직 퇴직금': 2}, {'임금피크제': 17}]</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>해당 기사는 연금 관리 전략, 수익률, 투자 자산 할당 모니터링 및 금융 시장 변동의 영향 분석에 대한 내용이 없습니다.</t>
+          <t>은행이 희망 퇴직금을 천문학적 수준으로 지급하고 있다는 사실을 언급하였다.</t>
         </is>
       </c>
       <c r="M21" t="n">
@@ -2657,7 +2657,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>해당 기사는 경쟁 동향, 시장 점유율 및 새로운 제품 및 서비스 출시에 대한 내용이 없습니다.</t>
+          <t>경쟁 동향에 대한 정보가 없다.</t>
         </is>
       </c>
       <c r="O21" t="n">
@@ -2665,23 +2665,23 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>해당 기사는 금융 시장 움직임, 이자율 변동 및 투자 자산의 변동성이 연금 연금산업에 미치는 영향에 대한 내용이 없습니다.</t>
+          <t>금융 시장의 변동성에 대한 언급이 없다.</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>해당 기사는 기아 노조와 사측 간의 단체협약상 고용세습 우선채용 조항 개정에 대한 내용을 다루고 있습니다. 이는 법률 및 규제 변화와 관련된 내용입니다.</t>
+          <t>법적 및 규제 변화에 대한 정보가 없다.</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>해당 기사는 인구 통계 변화 및 연금 기금이 장기적인 지속 가능성에 미치는 영향에 대한 내용이 없습니다.</t>
+          <t>희망퇴직자의 증가와 퇴직금 지급에 대한 정보가 있다.</t>
         </is>
       </c>
       <c r="U21" t="n">
@@ -2689,7 +2689,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>해당 기사는 기술과 디지털화에 대한 혁신과 연금 관리 및 서비스 제공에 미치는 영향에 대한 내용이 없습니다.</t>
+          <t>기술과 디지털화에 대한 정보가 없다.</t>
         </is>
       </c>
       <c r="W21" t="n">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>해당 기사는 연금 수령자의 소비 패턴, 투자 선호도 및 요구사항에 대한 내용이 없습니다.</t>
+          <t>소비 행동 및 요구사항에 대한 정보가 없다.</t>
         </is>
       </c>
     </row>
@@ -2714,48 +2714,48 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>BNK경남은행</t>
+          <t>기아</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>BNK경남은행, '퇴직연금 가입자 정보 업데이트' 고객이벤트</t>
+          <t>기아 노조 12일부터 파업… 정년연장·고용세습 요구</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>BNK경남은행은 11월 30일까지 퇴직연금 가입자 정보 업데이트 대고객 이벤트를 진행한다. 이벤트 기간 동안 퇴직연금 가입자 정보 중 한가지 항목이라도 변경한 DCIRP 가입 고객을 대상으로 추첨을 통해 5천 명에게 모바일 커피 쿠폰 1매를 지급한다. 퇴직연금 개인정보 확인 및 이벤트 참여 방법은 인터넷뱅킹 또는 모바일뱅킹 App상품관리 메뉴에 접속해 가입자가 직접 변경하거나 영업점 방문을 통해서도 가능하다.</t>
+          <t>기아 노동조합이 파업에 돌입한다. 사측이 정년연장과 단체협약상 고용세습 우선채용 조항 유지 요구를 들어주지 않은 것이다. 노조는 임금 및 단체협약 임단협 교섭 결렬로 파업을 벌이는 건 3년 만이다.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/079/0003821631?sid=102</t>
+          <t>https://n.news.naver.com/mnews/article/366/0000938263?sid=103</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>BNK경남은행이 11월 30일까지 퇴직연금 가입자 정보 업데이트 대고객 이벤트 퇴직연금 관리 스마트하게바꾸면 쏜다를 진행한다.퇴직연금 가입자 정보는 DCIRP 퇴직연금 가입 시 고객이 입력한 전화번호 주소 이메일 통지 동의 등 고객정보이며 퇴직연금 가입자 정보에 등록된 연락처로 해당 고객의 DCIRP 퇴직연금 관련 정보와 가입자 교육 자료가 제공된다.이벤트 기간 동안 퇴직연금 가입자 정보 중 한가지 항목이라도 변경한 DCIRP 가입 고객을 대상으로 추첨을 통해 5천 명에게 모바일 커피 쿠폰 1매를 지급한다.퇴직연금 개인정보 확인 및 이벤트 참여 방법은 인터넷뱅킹 또는 모바일뱅킹 App상품관리 메뉴에 접속해 가입자가 직접 변경하거나 영업점 방문을 통해서도 가능하다.퇴직연금 가입자 정보변경 대고객 이벤트에 대한 자세한 사항은BNK경남은행 홈페이지 또는 모바일뱅킹에서 확인할 수 있다.신탁사업단 이정훈 단장은퇴직연금 가입자 정보 업데이트는 디폴트옵션 등 변경된 퇴직연금 제도 안내 및 고객 운용현황 보고서가입자 교육자료 등 퇴직연금 관련 중요한 안내자료를 놓치지 않고 받아볼 수 있다는 점에서 중요하다.이번 이벤트를 통해 고객들이 좀 더 퇴직연금 계좌에 관심을 갖고 관리를 하는데 도움이 됐으면 한다고 전했다.한편 BNK경남은행은 고객의 퇴직연금 자산을 전문적으로 관리하기 위해 퇴직연금 상담센터를 운영 중이다.퇴직연금 상담센터는 퇴직연금제도 신규관리지급 등 제도운영 상담을 비롯해 퇴직연금 운용상품 만기 퇴직연금 미운용자산 사전지정운용제도 디폴트옵션 등을 안내해준다.CBS노컷뉴스는 여러분의 제보로 함께 세상을 바꿉니다. 각종 비리와 부당대우 사건사고와 미담 등 모든 얘깃거리를 알려주세요.이메일 jebocbs.co.kr카카오톡 노컷뉴스사이트 https url.kr b71afn</t>
+          <t xml:space="preserve">  기아 노동조합이 12일부터 파업에 돌입한다. 사측이 정년연장과 단체협약상 고용세습 우선채용 조항 유지 요구를 들어주지 않은 데 따른 것이다. 기아 노조가 임금 및 단체협약 임단협 교섭 결렬로 파업을 벌이는 건 3년 만이다.전국민주노동조합총연맹 민주노총 전국금속노동조합 금속노조 기아차지부 기아 노조는 11일 노조 소식지를 통해 올해 임단협 교섭 최종 결렬을 선언하고 파업에 돌입한다고 밝혔다. 노조는 전날 사측과의 14차 본교섭 이후 진행한 지부쟁의대책위원회에서 이같은 결정을 내렸다.  노조는 소식지에서 사측 교섭위원들은 노조 요구를 무시한 채 현대차와 똑같은 제시안과 개악안을 끝까지 고집하여 그룹사 내 서열화를 고착시키려 했고 자주적인 교섭을 포기해 스스로 현대차의 하수인임을 인정했다며 현대차 교섭안을 베끼는 수준인 사측 만행에 노조는 더이상 교섭의 의미가 없다고 판단했다고 밝혔다.노조는 1213일 1719일 오전 4시간 오후 4시간 파업한다. 20일에는 오전 6시간 오후 6시간을 파업한다.기아 노조는 교섭을 진행하는 날은 정상적으로 근무한다. 파업 일정상 추후 교섭일은 16일이 유력하다. 파업 당일인 12일에도 노사간 긴급 교섭을 가질 가능성이 있다. 회사 관계자는 아직 교섭 일자가 나오지 않았다고 했다. 노조는 이와 함께 파워트레인 동력계PT 군수 지역출하를 포함한 생산 특별근무 특근도 거부하기로 했다.노사 교섭 쟁점은 정년연장과 단협상 고용세습 조항 개정이다. 사측은 현대차와 동일한 수준의 임금과 성과급 규모를 노조 측에 제시했으나 노조는 이도 부족하다는 입장이다.고용세습 조항은 기아 노사 단협 제27조에 담긴 것으로 재직 중 질병으로 사망한 조합원의 직계가족 1인 정년퇴직자 및 장기근속자 25년 이상 자녀를 우선 채용한다는 내용이다. 고용노동부는 이 조항이 균등한 취업 기회를 보장하는 헌법과 고용정책기본법을 위반할 여지가 있다고 본다. 반면 노조는 십수 년 전부터 실행하지 않아 개정할 필요가 없다고 주장한다.정년연장은 현재 60세인 정년을 국민연금 수령 전년인 64세까지 늘려달라는 것이다. 앞서 기아 노조는 평균 수명 100세를 앞둔 시점에서 60세에 퇴직하면 연금 수령 나이인 65세까지 경제적 어려움이 발생할 수밖에 없다며 사측은 동종사 현대차 핑계 대지 말고 정년연장 요구에 전향적인 안을 제시하라고 전했다.기아 노조는 사측이 제시한 기본급 11만1000원 인상 성과급 4001050만원 무분규 타결 격려금 250만원주식 34주 등도 거부했다. 각종 수당 개선을 요구하고 있는 것이다. 또 사측이 요구했던 성과 연동 임금 체계 개편안은 노조 반대로 이미 무산된 상태다.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>['퇴직연금 DC', '퇴직연금 IRP', '퇴직연금 이벤트', '디폴트옵션 이벤트', 'DC 이벤트', 'IRP 이벤트', '퇴직연금 상담센터', '퇴직연금 가입']</t>
+          <t>['퇴직연금 고용노동부', '현대차 퇴직연금', '정년퇴직']</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>[{'퇴직연금 DC': 29}, {'퇴직연금 IRP': 42}, {'퇴직연금 이벤트': 41}, {'디폴트옵션 이벤트': 56}, {'DC 이벤트': 36}, {'IRP 이벤트': 34}, {'퇴직연금 상담센터': 1}, {'퇴직연금 가입': 36}]</t>
+          <t>[{'퇴직연금 고용노동부': 1}, {'현대차 퇴직연금': 5}, {'정년퇴직': 1}]</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>퇴직연금 가입자 정보 업데이트와 관련된 이벤트 진행</t>
+          <t>해당 기사는 연금 관리 전략, 수익률, 투자 자산 할당 모니터링 및 금융 시장 변동의 영향 분석에 대한 내용이 없습니다.</t>
         </is>
       </c>
       <c r="M22" t="n">
@@ -2763,7 +2763,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>해당 기사에는 산업 경쟁 동향에 대한 내용이 없음</t>
+          <t>해당 기사는 경쟁 동향, 시장 점유율 및 새로운 제품 및 서비스 출시에 대한 내용이 없습니다.</t>
         </is>
       </c>
       <c r="O22" t="n">
@@ -2771,15 +2771,15 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>해당 기사에는 금융 시장의 영향에 대한 내용이 없음</t>
+          <t>해당 기사는 금융 시장 움직임, 이자율 변동 및 투자 자산의 변동성이 연금 연금산업에 미치는 영향에 대한 내용이 없습니다.</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>해당 기사에는 법적 및 규제 변화에 대한 내용이 없음</t>
+          <t>해당 기사는 기아 노조와 사측 간의 단체협약상 고용세습 우선채용 조항 개정에 대한 내용을 다루고 있습니다. 이는 법률 및 규제 변화와 관련된 내용입니다.</t>
         </is>
       </c>
       <c r="S22" t="n">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>해당 기사에는 인구 변화에 대한 내용이 없음</t>
+          <t>해당 기사는 인구 통계 변화 및 연금 기금이 장기적인 지속 가능성에 미치는 영향에 대한 내용이 없습니다.</t>
         </is>
       </c>
       <c r="U22" t="n">
@@ -2795,7 +2795,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>해당 기사에는 기술 및 디지털화에 대한 내용이 없음</t>
+          <t>해당 기사는 기술과 디지털화에 대한 혁신과 연금 관리 및 서비스 제공에 미치는 영향에 대한 내용이 없습니다.</t>
         </is>
       </c>
       <c r="W22" t="n">
@@ -2803,81 +2803,81 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>해당 기사에는 소비 행태 및 요구사항에 대한 내용이 없음</t>
+          <t>해당 기사는 연금 수령자의 소비 패턴, 투자 선호도 및 요구사항에 대한 내용이 없습니다.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2023-10-10</t>
+          <t>2023-10-11</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>퇴직연금 상품</t>
+          <t>타사 동향 및 이벤트</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>KB자산운용</t>
+          <t>BNK경남은행</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>KB자산운용, TDF·ETF 고속성장…대체투자도 큰 성과</t>
+          <t>BNK경남은행, '퇴직연금 가입자 정보 업데이트' 고객이벤트</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>KB자산운용은 국내 운용사 중 사업 포트폴리오가 가장 잘 짜인 회사로 평가받는다. KB자산운용은 전통자산에서의 안정적인 운용 성과를 기반으로 연금시장에서 가파른 성장세를 보이고 있다. KB자산운용은 TDF를 포함해 다양한 연금펀드를 효율적으로 운용하며 퇴직연금 강자로 주목받고 있다.</t>
+          <t>BNK경남은행은 11월 30일까지 퇴직연금 가입자 정보 업데이트 대고객 이벤트를 진행한다. 이벤트 기간 동안 퇴직연금 가입자 정보 중 한가지 항목이라도 변경한 DCIRP 가입 고객을 대상으로 추첨을 통해 5천 명에게 모바일 커피 쿠폰 1매를 지급한다. 퇴직연금 개인정보 확인 및 이벤트 참여 방법은 인터넷뱅킹 또는 모바일뱅킹 App상품관리 메뉴에 접속해 가입자가 직접 변경하거나 영업점 방문을 통해서도 가능하다.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004900362?sid=101</t>
+          <t>https://n.news.naver.com/mnews/article/079/0003821631?sid=102</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>KB자산운용은 국내 운용사 중 사업 포트폴리오가 가장 잘 짜인 회사로 평가받는다. 전통자산 대체자산 신성장동력 세 가지 성장 축을 활용해 2030년 업계 1위 자산운용사 도약을 준비하고 있다. 금융시장의 변동성이 특히 커진 올해 KB자산운용의 분산된 사업 포트폴리오의 저력이 발휘되고 있다는 설명이다.연금 라인업 강화KB자산운용은 전통자산에서의 안정적인 운용 성과를 기반으로 연금시장에서 가파른 성장세를 보이고 있다. 대표 타깃데이트펀드 TDF 상품인 온국민다이나믹TDF에는 탄탄한 수익률을 바탕으로 연초 이후 1000억원 이상의 자금이 유입됐다. TDF를 운용하는 운용사 중 가장 많은 자금이다. 주식형 비중이 가장 높은 온국민TDF2055의 연초 이후 수익률은 17.12로 전체 TDF 중 1위를 기록했다.디폴트 옵션 사전지정운용제도이 본격 시행된 첫해에 가장 큰 폭의 성장세를 기록한 것은 의미가 있다는 설명이다. KB자산운용은 주력상품인 TDF를 포함해 KB온국민평생소득TIF KB타겟리턴OCIO펀드 시리즈 등 다양한 연금펀드를 효율적으로 운용하며 퇴직연금 강자로 주목받고 있다. 특히 10월 초 KB자산운용의 운용 역량과 KB국민은행의 글로벌 투자자문 서비스를 결합한 퇴직연금 펀드인 KB 드림스타 자산배분 안정형 펀드를 출시해 연금 라인업을 한층 강화했다.ETF 순자산 3조원 증가상장지수펀드 ETF시장에서도 KB자산운용의 성장은 주목할 만하다. 지난해 9월 5조5000억원이던 ETF 순자산은 9월 말 기준 8조6000억원으로 전년 동기 대비 3조원 이상 증가했다. 차별화된 전략으로 대한민국 미래 먹거리 산업과 관련된 테마 ETF를 발 빠르게 출시한 덕분이라는 게 회사 측 설명이다.KB자산운용의 ETF는 국내주식형 50개 해외주식형 18개 채권형 25개 등 총 110개 상품으로 이뤄져 있다. 이 중 채권형은 운용사 중 가장 많은 라인업을 갖추고 있다.지난 5월 상장한 KBSTAR머니마켓액티브 ETF는 글로벌 증시 불안과 고금리 기조가 지속되면서 상장 4개월 만에 9000억원가량의 자금이 몰렸다. 최근 3개월 수익률도 동일 상품 중 가장 높은 성과를 기록하고 있어 곧 1조원을 돌파할 것으로 기대된다.대체투자 수탁액 1위대체투자부문에서도 철저한 리스크 관리 역량을 보이고 있다. 인프라 기업 투자 부동산 사모대출펀드 PDF 등 전 분야에서 고른 성과를 보이며 안정적인 캐시카우 역할을 하고 있다. 금융투자협회에 따르면 KB자산운용의 대체투자부문 수탁액은 2021년 말 18조5000억원에서 2022년 말 32조7000억원으로 76 이상 늘어났다. 운용사 중 부동의 1위를 지키고 있다.대표적인 신성장동력으로 운용업계 최초로 개발한 다이렉트 인덱스 서비스 엔진 MY PORT를 KB증권을 통해 공개했다. MY PORT 솔루션은 초개인화 시대에 맞춰 고객 스스로 포트폴리오를 구축할 수 있는 솔루션으로 국내 지수에서 출발해 해외 지수까지 확장 제공하고 있다.</t>
+          <t>BNK경남은행이 11월 30일까지 퇴직연금 가입자 정보 업데이트 대고객 이벤트 퇴직연금 관리 스마트하게바꾸면 쏜다를 진행한다.퇴직연금 가입자 정보는 DCIRP 퇴직연금 가입 시 고객이 입력한 전화번호 주소 이메일 통지 동의 등 고객정보이며 퇴직연금 가입자 정보에 등록된 연락처로 해당 고객의 DCIRP 퇴직연금 관련 정보와 가입자 교육 자료가 제공된다.이벤트 기간 동안 퇴직연금 가입자 정보 중 한가지 항목이라도 변경한 DCIRP 가입 고객을 대상으로 추첨을 통해 5천 명에게 모바일 커피 쿠폰 1매를 지급한다.퇴직연금 개인정보 확인 및 이벤트 참여 방법은 인터넷뱅킹 또는 모바일뱅킹 App상품관리 메뉴에 접속해 가입자가 직접 변경하거나 영업점 방문을 통해서도 가능하다.퇴직연금 가입자 정보변경 대고객 이벤트에 대한 자세한 사항은BNK경남은행 홈페이지 또는 모바일뱅킹에서 확인할 수 있다.신탁사업단 이정훈 단장은퇴직연금 가입자 정보 업데이트는 디폴트옵션 등 변경된 퇴직연금 제도 안내 및 고객 운용현황 보고서가입자 교육자료 등 퇴직연금 관련 중요한 안내자료를 놓치지 않고 받아볼 수 있다는 점에서 중요하다.이번 이벤트를 통해 고객들이 좀 더 퇴직연금 계좌에 관심을 갖고 관리를 하는데 도움이 됐으면 한다고 전했다.한편 BNK경남은행은 고객의 퇴직연금 자산을 전문적으로 관리하기 위해 퇴직연금 상담센터를 운영 중이다.퇴직연금 상담센터는 퇴직연금제도 신규관리지급 등 제도운영 상담을 비롯해 퇴직연금 운용상품 만기 퇴직연금 미운용자산 사전지정운용제도 디폴트옵션 등을 안내해준다.CBS노컷뉴스는 여러분의 제보로 함께 세상을 바꿉니다. 각종 비리와 부당대우 사건사고와 미담 등 모든 얘깃거리를 알려주세요.이메일 jebocbs.co.kr카카오톡 노컷뉴스사이트 https url.kr b71afn</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>['KB 퇴직연금', '퇴직연금 금융투자협회', '퇴직연금 ETF', '퇴직연금 TDF', '퇴직연금 자산배분', '퇴직연금 라인업']</t>
+          <t>['퇴직연금 DC', '퇴직연금 IRP', '퇴직연금 이벤트', '디폴트옵션 이벤트', 'DC 이벤트', 'IRP 이벤트', '퇴직연금 상담센터', '퇴직연금 가입']</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>[{'KB 퇴직연금': 1}, {'퇴직연금 금융투자협회': 15}, {'퇴직연금 ETF': 1}, {'퇴직연금 TDF': 1}, {'퇴직연금 자산배분': 3}, {'퇴직연금 라인업': 34}]</t>
+          <t>[{'퇴직연금 DC': 29}, {'퇴직연금 IRP': 42}, {'퇴직연금 이벤트': 41}, {'디폴트옵션 이벤트': 56}, {'DC 이벤트': 36}, {'IRP 이벤트': 34}, {'퇴직연금 상담센터': 1}, {'퇴직연금 가입': 36}]</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>KB자산운용은 전통자산에서의 안정적인 운용 성과를 기반으로 연금시장에서 가파른 성장세를 보이고 있다.</t>
+          <t>퇴직연금 가입자 정보 업데이트와 관련된 이벤트 진행</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>KB자산운용은 TDF를 포함해 다양한 연금펀드를 효율적으로 운용하며 퇴직연금 강자로 주목받고 있다.</t>
+          <t>해당 기사에는 산업 경쟁 동향에 대한 내용이 없음</t>
         </is>
       </c>
       <c r="O23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>KB자산운용의 ETF는 국내주식형 50개 해외주식형 18개 채권형 25개 등 총 110개 상품으로 이뤄져 있다.</t>
+          <t>해당 기사에는 금융 시장의 영향에 대한 내용이 없음</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2885,15 +2885,15 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>No information provided in the article.</t>
+          <t>해당 기사에는 법적 및 규제 변화에 대한 내용이 없음</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>No specific information related to demographic change or the impact of pension funds on long-term sustainability.</t>
+          <t>해당 기사에는 인구 변화에 대한 내용이 없음</t>
         </is>
       </c>
       <c r="U23" t="n">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>No information provided in the article.</t>
+          <t>해당 기사에는 기술 및 디지털화에 대한 내용이 없음</t>
         </is>
       </c>
       <c r="W23" t="n">
@@ -2909,7 +2909,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>No information provided in the article.</t>
+          <t>해당 기사에는 소비 행태 및 요구사항에 대한 내용이 없음</t>
         </is>
       </c>
     </row>
@@ -2921,85 +2921,85 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>퇴직연금 제도</t>
+          <t>퇴직연금 상품</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>KB자산운용</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>“어떻게 모은 노후자금인데”…5000만원까지 예금보호 해준다</t>
+          <t>KB자산운용, TDF·ETF 고속성장…대체투자도 큰 성과</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>연금저축처럼 사회보장 성격이 강한 금융상품들도 일반 예금과 별개로 5000만원까지 추가로 예금자 보호한도를 적용받게 된다. 금융위원회는 이같은 내용을 담은 예금자보호법 시행령이 국무회의에서 의결됐다고 밝혔다. 개정안은 연금저축 사고보험금 중소기업퇴직연금기금에 대해 동일 금융회사에 예금자가 보유한 일반 예금과 별도로 5000만원까지 보호하는 내용이다.</t>
+          <t>KB자산운용은 국내 운용사 중 사업 포트폴리오가 가장 잘 짜인 회사로 평가받는다. KB자산운용은 전통자산에서의 안정적인 운용 성과를 기반으로 연금시장에서 가파른 성장세를 보이고 있다. KB자산운용은 TDF를 포함해 다양한 연금펀드를 효율적으로 운용하며 퇴직연금 강자로 주목받고 있다.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005197305?sid=101</t>
+          <t>https://n.news.naver.com/mnews/article/015/0004900362?sid=101</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>연금저축처럼 사회보장 성격이 강한 금융상품들도 일반 예금과 별개로 5000만원까지 추가로 예금자 보호한도를 적용받게 된다.10일 금융위원회는 이같은 내용을 담은 예금자보호법 시행령이 국무회의에서 의결됐다고 밝혔다.개정안은 연금저축 사고보험금 중소기업퇴직연금기금에 대해 동일 금융회사에 예금자가 보유한 일반 예금과 별도로 5000만원까지 보호하는 내용이다. 다만 확정기여형 DC과 개인형 IRP 퇴직연금 등에 대해서는 2015년부터 별도로 보호한도를 적용해왔다.이번에 추가 적용 되는 상품들은 노후소득 신체재산상 손해 보장 등 사회보장 성격이 강하다. 그동안 금융소비자 효용 증대 측면에서 관련 제도 개선이 필요하다는 의견이 있었다.금융위는 연금저축 및 중기퇴직기금의 경우 국민들이 더욱 안전하게 노후를 준비할 수 있게 됐다고 밝혔다. 또 사고보험금에 대해선 보험사 부실 시에도 불의의 사고를 겪은 예금자를 보다 두텁게 보호하려는 것이라고 설명했다.예금보험공사는 연금저축 사고보험금 중기퇴직기금에 대해 각각 별도 보호한도를 적용해도 금융회사들이 부담하는 예금보험료는 변동이 없을 것으로 예상했다.새로운 개정안은 이달 중 공포 즉시 시행될 예정이다.이날 신협중앙회의 연금저축공제와 사고공제금에 대해서도 다른 공제상품 등과 별도로 각각 5000만원까지 보호한도를 정하는 신용협동조합법 시행령 개정안도 의결됐다.이밖에 연금저축을 취급하는 수산업협동조합새마을금고에 대해서도 같은 내용을 담은 개별법 시행령 개정이 조만간 완료될 예정이다.</t>
+          <t>KB자산운용은 국내 운용사 중 사업 포트폴리오가 가장 잘 짜인 회사로 평가받는다. 전통자산 대체자산 신성장동력 세 가지 성장 축을 활용해 2030년 업계 1위 자산운용사 도약을 준비하고 있다. 금융시장의 변동성이 특히 커진 올해 KB자산운용의 분산된 사업 포트폴리오의 저력이 발휘되고 있다는 설명이다.연금 라인업 강화KB자산운용은 전통자산에서의 안정적인 운용 성과를 기반으로 연금시장에서 가파른 성장세를 보이고 있다. 대표 타깃데이트펀드 TDF 상품인 온국민다이나믹TDF에는 탄탄한 수익률을 바탕으로 연초 이후 1000억원 이상의 자금이 유입됐다. TDF를 운용하는 운용사 중 가장 많은 자금이다. 주식형 비중이 가장 높은 온국민TDF2055의 연초 이후 수익률은 17.12로 전체 TDF 중 1위를 기록했다.디폴트 옵션 사전지정운용제도이 본격 시행된 첫해에 가장 큰 폭의 성장세를 기록한 것은 의미가 있다는 설명이다. KB자산운용은 주력상품인 TDF를 포함해 KB온국민평생소득TIF KB타겟리턴OCIO펀드 시리즈 등 다양한 연금펀드를 효율적으로 운용하며 퇴직연금 강자로 주목받고 있다. 특히 10월 초 KB자산운용의 운용 역량과 KB국민은행의 글로벌 투자자문 서비스를 결합한 퇴직연금 펀드인 KB 드림스타 자산배분 안정형 펀드를 출시해 연금 라인업을 한층 강화했다.ETF 순자산 3조원 증가상장지수펀드 ETF시장에서도 KB자산운용의 성장은 주목할 만하다. 지난해 9월 5조5000억원이던 ETF 순자산은 9월 말 기준 8조6000억원으로 전년 동기 대비 3조원 이상 증가했다. 차별화된 전략으로 대한민국 미래 먹거리 산업과 관련된 테마 ETF를 발 빠르게 출시한 덕분이라는 게 회사 측 설명이다.KB자산운용의 ETF는 국내주식형 50개 해외주식형 18개 채권형 25개 등 총 110개 상품으로 이뤄져 있다. 이 중 채권형은 운용사 중 가장 많은 라인업을 갖추고 있다.지난 5월 상장한 KBSTAR머니마켓액티브 ETF는 글로벌 증시 불안과 고금리 기조가 지속되면서 상장 4개월 만에 9000억원가량의 자금이 몰렸다. 최근 3개월 수익률도 동일 상품 중 가장 높은 성과를 기록하고 있어 곧 1조원을 돌파할 것으로 기대된다.대체투자 수탁액 1위대체투자부문에서도 철저한 리스크 관리 역량을 보이고 있다. 인프라 기업 투자 부동산 사모대출펀드 PDF 등 전 분야에서 고른 성과를 보이며 안정적인 캐시카우 역할을 하고 있다. 금융투자협회에 따르면 KB자산운용의 대체투자부문 수탁액은 2021년 말 18조5000억원에서 2022년 말 32조7000억원으로 76 이상 늘어났다. 운용사 중 부동의 1위를 지키고 있다.대표적인 신성장동력으로 운용업계 최초로 개발한 다이렉트 인덱스 서비스 엔진 MY PORT를 KB증권을 통해 공개했다. MY PORT 솔루션은 초개인화 시대에 맞춰 고객 스스로 포트폴리오를 구축할 수 있는 솔루션으로 국내 지수에서 출발해 해외 지수까지 확장 제공하고 있다.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>['확정기여형', '퇴직연금 예금']</t>
+          <t>['KB 퇴직연금', '퇴직연금 금융투자협회', '퇴직연금 ETF', '퇴직연금 TDF', '퇴직연금 자산배분', '퇴직연금 라인업']</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>[{'확정기여형': 4}, {'퇴직연금 예금': 4}]</t>
+          <t>[{'KB 퇴직연금': 1}, {'퇴직연금 금융투자협회': 15}, {'퇴직연금 ETF': 1}, {'퇴직연금 TDF': 1}, {'퇴직연금 자산배분': 3}, {'퇴직연금 라인업': 34}]</t>
         </is>
       </c>
       <c r="K24" t="n">
+        <v>4</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>KB자산운용은 전통자산에서의 안정적인 운용 성과를 기반으로 연금시장에서 가파른 성장세를 보이고 있다.</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
         <v>3</v>
       </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>연금저축 사고보험금 중소기업퇴직연금기금에 대해 동일 금융회사에 예금자가 보유한 일반 예금과 별도로 5000만원까지 보호하는 내용이 있음</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>KB자산운용은 TDF를 포함해 다양한 연금펀드를 효율적으로 운용하며 퇴직연금 강자로 주목받고 있다.</t>
+        </is>
+      </c>
+      <c r="O24" t="n">
         <v>2</v>
       </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>금융위원회의 예금자보호법 시행령이 국무회의에서 의결됨</t>
-        </is>
-      </c>
-      <c r="O24" t="n">
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>KB자산운용의 ETF는 국내주식형 50개 해외주식형 18개 채권형 25개 등 총 110개 상품으로 이뤄져 있다.</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>No information provided in the article.</t>
+        </is>
+      </c>
+      <c r="S24" t="n">
         <v>1</v>
       </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>금융소비자 효용 증대 측면에서 관련 제도 개선이 필요하다는 의견이 있음</t>
-        </is>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>변경된 법률 및 규정에 대한 언급이 없음</t>
-        </is>
-      </c>
-      <c r="S24" t="n">
-        <v>3</v>
-      </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>노후소득 신체재산상 손해 보장 등 사회보장 성격이 강한 상품들에 대한 보호 내용이 있음</t>
+          <t>No specific information related to demographic change or the impact of pension funds on long-term sustainability.</t>
         </is>
       </c>
       <c r="U24" t="n">
@@ -3007,7 +3007,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>기술 및 디지털화에 대한 언급이 없음</t>
+          <t>No information provided in the article.</t>
         </is>
       </c>
       <c r="W24" t="n">
@@ -3015,7 +3015,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>소비 행동 및 요구사항에 대한 언급이 없음</t>
+          <t>No information provided in the article.</t>
         </is>
       </c>
     </row>
@@ -3037,12 +3037,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>14개 시중은행 희망퇴직금 5년간 10조‘펑펑’</t>
+          <t>“어떻게 모은 노후자금인데”…5000만원까지 예금보호 해준다</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>국내 은행권이 지난 5년간 약 10조 원의 돈을 지출하여 희망퇴직금을 지급한 것으로 나타났다. 은행권 희망퇴직은 최근 매년 정례화돼 직원들에게 목돈을 얹어주는 복지제도로 변질됐다는 지적이 나온다. 희망퇴직자가 가장 많은 은행은 국민은행이었고, 희망퇴직금이 가장 많은 은행은 씨티은행이었다.</t>
+          <t>연금저축처럼 사회보장 성격이 강한 금융상품들도 일반 예금과 별개로 5000만원까지 추가로 예금자 보호한도를 적용받게 된다. 금융위원회는 이같은 내용을 담은 예금자보호법 시행령이 국무회의에서 의결됐다고 밝혔다. 개정안은 연금저축 사고보험금 중소기업퇴직연금기금에 대해 동일 금융회사에 예금자가 보유한 일반 예금과 별도로 5000만원까지 보호하는 내용이다.</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -3050,22 +3050,22 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/021/0002598144?sid=101</t>
+          <t>https://n.news.naver.com/mnews/article/009/0005197305?sid=101</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t xml:space="preserve">1만7402명에 9조6004억1인당 평균 5.5억원 챙겨매년 한차례 이상 정례화목돈 얹어주는 복지 변질이자이익으로 돈잔치 비판 국내 은행권이 희망퇴직금으로 지난 5년간 약 10조 원의 돈을 지출한 것으로 나타났다. 1만7402명이 짐을 쌌는데 1인당 평균 약 5억5000만 원을 챙겼다. 원래 은행권 희망퇴직은 구조조정 등 경영상의 이유로 꼭 필요할 때 긴급하게 실시돼 왔으나 최근엔 매년 정례화해 직원들에게 목돈을 얹어주는 복지제도로 변질됐다는 지적이 나온다.10일 국회 정무위원회 강민국 국민의힘 의원이 금융감독원으로부터 받은 국내 은행권 희망퇴직 현황 자료에 따르면 지난 2018년부터 올해 7월까지 희망퇴직제도를 실시하고 있는 국내 14개 은행 국민하나농협신한우리씨티SC부산대구경남수협광주전북제주의 희망퇴직자는 총 1만7402명으로 지급된 퇴직금은 9조6004억 원이었다. 이는 같은 기간 해당 은행권 전체 퇴직자 2만6852명의 64.8 전체 퇴직금 10조1243억 원의 94.8로 절대적 수준을 차지하고 있었다. 희망퇴직자 희망퇴직금는 최근 들어 부쩍 늘고 있다. 2018년 2573명 1조1314억 원과 2019년 2651명 1조4045억 원 2020년 2473명 1조2743억 원으로 2000명대를 유지했다가 2021년 3511명 1조9407억 원 2022년 4312명 2조8283억 원으로 폭증했다. 올해에도 이미 7월까지 1882명 1조212억 원이 짐을 쌌다. 5년간 희망퇴직자가 가장 많은 은행은 국민은행 3671명이었고 희망퇴직금이 가장 많은 은행은 씨티은행 1조7593억 원으로 1인당 평균 8억2600만 원의 희망퇴직금을 지급했다.은행권 희망퇴직자가 최근 급증하고 있는 것은 희망퇴직이 점포 폐쇄 등 구조조정을 이유로 특별하게 진행되던 과거와 달리 매년 한 차례 이상 정례화돼 진행되고 있기 때문이다. 퇴직금 규모는 은행별로 차이가 있지만 36개월치 월급 외에도 수천만 원의 학자금 재취업 지원금 건강검진비 등을 포함하고 있다.이를 두고 고금리 아래 눈덩이처럼 불어난 이자 이익으로 희망퇴직금만 늘려 왔다는 지적이 다시 한번 제기되고 있다. 강 의원은 고금리에 서민경제가 어렵고 천문학적 수준의 금융사고로 인해 은행산업 전반에 대한 불신이 극에 달하는 시점이라면서 위화감을 조성할 수 있을 정도의 과도한 복지지원금 성격을 가진 희망퇴직금 지급 관행에 대해 공공재 역할을 하는 은행은 숙고해 봐야 할 것이라고 말했다. 이어 금융 당국은 전체 퇴직금 규모를 과도하게 넘는 수준의 희망퇴직금 지급 은행에 대해서는 운영 현황에 대한 점검을 실시하고 은행업권은 역대급 실적에 따른 돈 잔치로 보이지 않게 국민의 눈높이에 맞는 수준에서의 희망퇴직금 운영방안을 마련하는 것이 필요하다고 강조했다. </t>
+          <t>연금저축처럼 사회보장 성격이 강한 금융상품들도 일반 예금과 별개로 5000만원까지 추가로 예금자 보호한도를 적용받게 된다.10일 금융위원회는 이같은 내용을 담은 예금자보호법 시행령이 국무회의에서 의결됐다고 밝혔다.개정안은 연금저축 사고보험금 중소기업퇴직연금기금에 대해 동일 금융회사에 예금자가 보유한 일반 예금과 별도로 5000만원까지 보호하는 내용이다. 다만 확정기여형 DC과 개인형 IRP 퇴직연금 등에 대해서는 2015년부터 별도로 보호한도를 적용해왔다.이번에 추가 적용 되는 상품들은 노후소득 신체재산상 손해 보장 등 사회보장 성격이 강하다. 그동안 금융소비자 효용 증대 측면에서 관련 제도 개선이 필요하다는 의견이 있었다.금융위는 연금저축 및 중기퇴직기금의 경우 국민들이 더욱 안전하게 노후를 준비할 수 있게 됐다고 밝혔다. 또 사고보험금에 대해선 보험사 부실 시에도 불의의 사고를 겪은 예금자를 보다 두텁게 보호하려는 것이라고 설명했다.예금보험공사는 연금저축 사고보험금 중기퇴직기금에 대해 각각 별도 보호한도를 적용해도 금융회사들이 부담하는 예금보험료는 변동이 없을 것으로 예상했다.새로운 개정안은 이달 중 공포 즉시 시행될 예정이다.이날 신협중앙회의 연금저축공제와 사고공제금에 대해서도 다른 공제상품 등과 별도로 각각 5000만원까지 보호한도를 정하는 신용협동조합법 시행령 개정안도 의결됐다.이밖에 연금저축을 취급하는 수산업협동조합새마을금고에 대해서도 같은 내용을 담은 개별법 시행령 개정이 조만간 완료될 예정이다.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>['퇴직금 제도', '희망퇴직 퇴직금']</t>
+          <t>['확정기여형', '퇴직연금 예금']</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>[{'퇴직금 제도': 1}, {'희망퇴직 퇴직금': 3}]</t>
+          <t>[{'확정기여형': 4}, {'퇴직연금 예금': 4}]</t>
         </is>
       </c>
       <c r="K25" t="n">
@@ -3073,7 +3073,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>은행권이 희망퇴직금을 관리하고 투자하는 전략과 수익률에 대한 정보가 제공되었다.</t>
+          <t>연금저축 사고보험금 중소기업퇴직연금기금에 대해 동일 금융회사에 예금자가 보유한 일반 예금과 별도로 5000만원까지 보호하는 내용이 있음</t>
         </is>
       </c>
       <c r="M25" t="n">
@@ -3081,7 +3081,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>희망퇴직금 지급 관행과 은행별 경쟁 동향에 대한 정보가 제공되었다.</t>
+          <t>금융위원회의 예금자보호법 시행령이 국무회의에서 의결됨</t>
         </is>
       </c>
       <c r="O25" t="n">
@@ -3089,7 +3089,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>금융시장의 변동성이 희망퇴직금에 미치는 영향에 대한 정보가 제공되었다.</t>
+          <t>금융소비자 효용 증대 측면에서 관련 제도 개선이 필요하다는 의견이 있음</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>법적 규제 변화에 대한 정보가 제공되지 않았다.</t>
+          <t>변경된 법률 및 규정에 대한 언급이 없음</t>
         </is>
       </c>
       <c r="S25" t="n">
@@ -3105,7 +3105,7 @@
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>희망퇴직금 지급과 관련된 인구통계학적 변화와 장기적인 지속 가능성에 대한 정보가 제공되었다.</t>
+          <t>노후소득 신체재산상 손해 보장 등 사회보장 성격이 강한 상품들에 대한 보호 내용이 있음</t>
         </is>
       </c>
       <c r="U25" t="n">
@@ -3113,7 +3113,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>기술과 디지털화에 대한 정보가 제공되지 않았다.</t>
+          <t>기술 및 디지털화에 대한 언급이 없음</t>
         </is>
       </c>
       <c r="W25" t="n">
@@ -3121,7 +3121,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>소비 행동과 요구사항에 대한 정보가 제공되지 않았다.</t>
+          <t>소비 행동 및 요구사항에 대한 언급이 없음</t>
         </is>
       </c>
     </row>
@@ -3143,12 +3143,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>5.5억 받고 '제2인생' 준비… 국내 은행, 6년간 희망퇴직금으로 10조 썼다</t>
+          <t>14개 시중은행 희망퇴직금 5년간 10조‘펑펑’</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>국내 은행권이 최근 6년여간 희망퇴직금으로 약 10조원을 쓴 것으로 나타났다. 같은 기간 1만7402명이 희망퇴직했다는 점을 감안하면 1인당 평균 약 5억5000만원을 받고 짐을 챙겼다는 얘기다.</t>
+          <t>국내 은행권이 지난 5년간 약 10조 원의 돈을 지출하여 희망퇴직금을 지급한 것으로 나타났다. 은행권 희망퇴직은 최근 매년 정례화돼 직원들에게 목돈을 얹어주는 복지제도로 변질됐다는 지적이 나온다. 희망퇴직자가 가장 많은 은행은 국민은행이었고, 희망퇴직금이 가장 많은 은행은 씨티은행이었다.</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -3156,12 +3156,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000953837?sid=101</t>
+          <t>https://n.news.naver.com/mnews/article/021/0002598144?sid=101</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 국내 은행권이 최근 6년여간 희망퇴직금으로 약 10조원을 쓴 것으로 나타났다. 같은 기간 1만7402명이 희망퇴직했다는 점을 감안하면 1인당 평균 약 5억5000만원을 받고 짐을 챙겼단 얘기다.10일 국회 정무위원회 강민국 국민의힘경남 진주시을 의원이 금융감독원에서 받은 국내 은행권 희망퇴직 현황 자료에 따르면 지난 2018년부터 올 7월까지 희망퇴직제도를 실시하고 있는 국내 14개 은행의 희망퇴직자는 총 1만7402명으로 집계됐다. 이들에게 지급된 퇴직금은 9조6004억원이었다.이는 같은 기간 희망퇴직제를 운영 중인 은행 전체 퇴직자 2만6852명의 64.8 전체 퇴직금 10조1243억 원의 94.8로 절대적 수준을 차지하고 있다.희망퇴직자는 갈수록 늘어나는 추세다. 희망퇴직자는 2018년 2573명 1조1314억원과 2019년 2651명 1조4045억원 2020년 2473명 1조2743억원으로 2000명대를 이어갔다.이후 2021년 3511명 1조9407억원 2022년 4312명 2조8283억원으로 급격히 늘었다. 올해도 7월까지 이미 1882명 1조212억원이 희망퇴직으로 짐을 쌌다.5년간 희망퇴직자가 가장 많은 은행은 KB국민은행 3671명으로 나타났다. 이어 하나은행 2464명 NH농협은행 2349명 등의 순이었다. 희망퇴직금이 가장 많은 은행은 씨티은행 1조7593억원이었다.문제는 희망퇴직이 은행 업무의 디지털 전환에 따른 점포 폐쇄 등 구조조정을 위한 인력 감축으로 진행돼 왔다. 하지만 최근에는 희망퇴직의 조건 상향과 특별퇴직금의 규모가 커지다 보니 은행원들에게 희망퇴직은 제2의 인생 출발을 위한 자발적 선택이자 복지의 개념으로 전환되고 있다는 것이다.최근 6년여간 은행권 전체 퇴직자의 평균 퇴직금이 3억5600만원이었는데 같은 기간 희망퇴직자의 평균 퇴직금은 5억5200만원으로 전체 퇴직자 평균 퇴직금의 154.9에 달했다. 가장 많은 평균 희망퇴직금이 지급된 은행은 씨티은행 8억2600만원이다.은행원들이 희망퇴직금을 복지로 보는 데에는법정퇴직금 외에 노사 간 협의에 따라 지급되는 특별퇴직금 23년치 평균 연봉에 전직 지원금 등 때문이다. 지난 6년여간 특별퇴직금은 총 6조9402억원이 지급돼 전체 9조 6004억원 72.3나 된다.강민국 의원은 천문학적 수준의 은행권 횡령과 배임 등의 금융사고로 인해 은행산업 전반에 대한 불신이 극에 달하고 있기에 공공재 성격을 가진 은행은 위화감을 조성할 수 있을 정도의 과도한 복지지원금 성격을 가진 희망퇴직금 지급에 대해 숙고해야 한다고 지적했다.이어 금융당국은 희망퇴직금을 자율경영사항이라 외면치 말고 전체 퇴직금 규모를 과도하게 넘는 수준의 희망퇴직금 지급 은행에 대해서는 운영 현황에 대한 점검을 실시하며 은행업권은 역대급 실적에 따른 돈 잔치로 보이지 않게 국민의 눈높이에 맞는 수준에서의 희망퇴직금 운영방안을 마련하는 것이 필요하다고 덧붙였다.</t>
+          <t xml:space="preserve">1만7402명에 9조6004억1인당 평균 5.5억원 챙겨매년 한차례 이상 정례화목돈 얹어주는 복지 변질이자이익으로 돈잔치 비판 국내 은행권이 희망퇴직금으로 지난 5년간 약 10조 원의 돈을 지출한 것으로 나타났다. 1만7402명이 짐을 쌌는데 1인당 평균 약 5억5000만 원을 챙겼다. 원래 은행권 희망퇴직은 구조조정 등 경영상의 이유로 꼭 필요할 때 긴급하게 실시돼 왔으나 최근엔 매년 정례화해 직원들에게 목돈을 얹어주는 복지제도로 변질됐다는 지적이 나온다.10일 국회 정무위원회 강민국 국민의힘 의원이 금융감독원으로부터 받은 국내 은행권 희망퇴직 현황 자료에 따르면 지난 2018년부터 올해 7월까지 희망퇴직제도를 실시하고 있는 국내 14개 은행 국민하나농협신한우리씨티SC부산대구경남수협광주전북제주의 희망퇴직자는 총 1만7402명으로 지급된 퇴직금은 9조6004억 원이었다. 이는 같은 기간 해당 은행권 전체 퇴직자 2만6852명의 64.8 전체 퇴직금 10조1243억 원의 94.8로 절대적 수준을 차지하고 있었다. 희망퇴직자 희망퇴직금는 최근 들어 부쩍 늘고 있다. 2018년 2573명 1조1314억 원과 2019년 2651명 1조4045억 원 2020년 2473명 1조2743억 원으로 2000명대를 유지했다가 2021년 3511명 1조9407억 원 2022년 4312명 2조8283억 원으로 폭증했다. 올해에도 이미 7월까지 1882명 1조212억 원이 짐을 쌌다. 5년간 희망퇴직자가 가장 많은 은행은 국민은행 3671명이었고 희망퇴직금이 가장 많은 은행은 씨티은행 1조7593억 원으로 1인당 평균 8억2600만 원의 희망퇴직금을 지급했다.은행권 희망퇴직자가 최근 급증하고 있는 것은 희망퇴직이 점포 폐쇄 등 구조조정을 이유로 특별하게 진행되던 과거와 달리 매년 한 차례 이상 정례화돼 진행되고 있기 때문이다. 퇴직금 규모는 은행별로 차이가 있지만 36개월치 월급 외에도 수천만 원의 학자금 재취업 지원금 건강검진비 등을 포함하고 있다.이를 두고 고금리 아래 눈덩이처럼 불어난 이자 이익으로 희망퇴직금만 늘려 왔다는 지적이 다시 한번 제기되고 있다. 강 의원은 고금리에 서민경제가 어렵고 천문학적 수준의 금융사고로 인해 은행산업 전반에 대한 불신이 극에 달하는 시점이라면서 위화감을 조성할 수 있을 정도의 과도한 복지지원금 성격을 가진 희망퇴직금 지급 관행에 대해 공공재 역할을 하는 은행은 숙고해 봐야 할 것이라고 말했다. 이어 금융 당국은 전체 퇴직금 규모를 과도하게 넘는 수준의 희망퇴직금 지급 은행에 대해서는 운영 현황에 대한 점검을 실시하고 은행업권은 역대급 실적에 따른 돈 잔치로 보이지 않게 국민의 눈높이에 맞는 수준에서의 희망퇴직금 운영방안을 마련하는 것이 필요하다고 강조했다. </t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>[{'퇴직금 제도': 3}, {'희망퇴직 퇴직금': 7}]</t>
+          <t>[{'퇴직금 제도': 1}, {'희망퇴직 퇴직금': 3}]</t>
         </is>
       </c>
       <c r="K26" t="n">
@@ -3179,7 +3179,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>은행권의 희망퇴직금 관리와 투자 자산 할당 모니터링에 대한 정보가 포함되어 있음.</t>
+          <t>은행권이 희망퇴직금을 관리하고 투자하는 전략과 수익률에 대한 정보가 제공되었다.</t>
         </is>
       </c>
       <c r="M26" t="n">
@@ -3187,7 +3187,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>희망퇴직자 수와 은행별 퇴직금 지급액에 대한 정보가 제공되어 있음.</t>
+          <t>희망퇴직금 지급 관행과 은행별 경쟁 동향에 대한 정보가 제공되었다.</t>
         </is>
       </c>
       <c r="O26" t="n">
@@ -3195,7 +3195,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>금융시장 변동성이 희망퇴직금에 미치는 영향에 대한 정보가 제한적으로 포함되어 있음.</t>
+          <t>금융시장의 변동성이 희망퇴직금에 미치는 영향에 대한 정보가 제공되었다.</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -3203,15 +3203,15 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>법률 및 규제 변화에 대한 정보가 제공되지 않음.</t>
+          <t>법적 규제 변화에 대한 정보가 제공되지 않았다.</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>희망퇴직자 수의 증가와 은행 업무 구조조정에 대한 정보가 포함되어 있음.</t>
+          <t>희망퇴직금 지급과 관련된 인구통계학적 변화와 장기적인 지속 가능성에 대한 정보가 제공되었다.</t>
         </is>
       </c>
       <c r="U26" t="n">
@@ -3219,15 +3219,15 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>기술과 디지털화에 대한 정보가 제공되지 않음.</t>
+          <t>기술과 디지털화에 대한 정보가 제공되지 않았다.</t>
         </is>
       </c>
       <c r="W26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>은퇴 연금 수령자의 소비 패턴과 요구사항에 대한 정보가 제한적으로 포함되어 있음.</t>
+          <t>소비 행동과 요구사항에 대한 정보가 제공되지 않았다.</t>
         </is>
       </c>
     </row>
@@ -3239,7 +3239,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>타사 동향 및 이벤트</t>
+          <t>퇴직연금 제도</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3249,12 +3249,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>[창간설문] 세액공제 상품 담고 성장주 투자… 재테크 수익률 7% 노린다</t>
+          <t>5.5억 받고 '제2인생' 준비… 국내 은행, 6년간 희망퇴직금으로 10조 썼다</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>금리 인상에 채권금리 5 육박 선진국 우량채 담아라금융권의 디지털 흐름이 가속화되고 있다. 금융소비자의 비대면금융 수요가 늘면서 지난해 말 인터넷 뱅킹 모바일 포함 등록 고객 수는 2억명을 넘었다. 인터넷뱅킹의 이용금액은 하루 평균 76조원 대출신청 서비스 이용금액만 일평균 1조원 돌파했다.</t>
+          <t>국내 은행권이 최근 6년여간 희망퇴직금으로 약 10조원을 쓴 것으로 나타났다. 같은 기간 1만7402명이 희망퇴직했다는 점을 감안하면 1인당 평균 약 5억5000만원을 받고 짐을 챙겼다는 얘기다.</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -3262,22 +3262,22 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000953624?sid=101</t>
+          <t>https://n.news.naver.com/mnews/article/417/0000953837?sid=101</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 금리 인상에 채권금리 5 육박 선진국 우량채 담아라금융권의 디지털 흐름이 가속화되고 있다. 금융소비자의 비대면금융 수요가 늘면서 지난해 말 인터넷 뱅킹 모바일 포함 등록 고객 수는 2억명을 넘었다. 인터넷뱅킹의 이용금액은 하루 평균 76조원 대출신청 서비스 이용금액만 일평균 1조원 돌파했다. 국내 모바일트레이딩서비스 MTS가입자는 3500만명 달한다. 머니S는 창간 16주년을 맞아 인터넷뱅킹 2억명 시대 자산관리 전략이라는 주제로 설문을 진행했다. 모바일금융의 트렌드와 비대면 자산관리 전략을 알아보기 위해 9월13일부터 27일까지 15일간 온라인 설문 조사를 진행했고 은행과 증권 카드 간편결제 보험 등 디지털금융 담당자 및 자산관리 전문가 127명이 설문에 참여했다. 기사 게재 순서①모바일금융 디지털 바람에 新재테크 수단 종잣돈 마련 주식투자②세액공제 상품 담고 성장주 투자 재테크 수익률 7 노린다③증권사 MTS 응답자 40 이상 AI 디지털 서비스 고도화 필요 ④2명 중 1명 카드간편결제 플랫폼 주력 재테크는 ⑤보험도 이제 재테크 시대 10명 중 8명 투자 관심 디지털 바람이 금융권을 강타하면서 스마트폰 하나로 모든 금융거래가 이뤄지는 모바일뱅킹은 대세로 자리 잡았다. 한국은행에 따르면 올 상반기 기준 국내은행 모바일뱅킹 이용 건수는 1910만건 이용금액은 14조7000억원에 달한다. 스마트폰 이용이 활발한 젊은층은 뱅킹 앱으로 목돈 마련 은퇴 후 노후자금 준비 등 자산관리를 구축한다. 머니S는 창간 16주년을 맞아 인터넷뱅킹 2억명 시대 자산관리 전략이라는 주제로 은행디지털금융 담당자와 프라이빗뱅커 PF 75명에게 모바일금융 재테크 금융상품비대면 투자 시 포트폴리오 비중 안정형공격형 투자자에게 추천할 비대면 금융상품 등을 물어봤다. 설문은 9월13일부터 27일까지 14일간 진행했고 KB국민신한하나우리NH농협SC제일수협은행 등 7개 은행의 자산관리 전문가 75명이 참여했다. 세테크 IRP 주목 파킹통장예적금 추천모바일금융 거래 시 추천하는 금융상품 복수 응답은 단연 개인연금 IRP 등 세액공제 42명 23.07 상품이다. 올해부터 개인형 퇴직연금인 IRP와 연금저축 등 연금 계좌에서 받을 수 있는 세액공제 한도가 200만원 상향됐기 때문이다. 연금저축 3인방인 연금저축신탁과 연금저축펀드 연금저축보험은 400만원에서 600만원까지로 개인형 퇴직연금인 IRP는 700만원에서 900만원으로 세액공제 범위가 확대됐다. 세액공제를 조금이라도 더 받기 위해서는 납입액을 추가해 900만원 한도를 맞추는 것도 방법이다.이어 특판 예적금 38명 20.87 주택청약종합저축 37명 20.32 파킹통장 37명 20.32 회전식 정기예금 11명 6.04 기타 17명 9.38 등으로 나타났다. 윤지영 하나은행 목동남지점 부장은 연말에 가서 세액공제 한도를 채우기 위해 한 번에 목돈을 IRP에 입금하기보다 평소에 여유 자금을 IRP에 넣는 것을 추천한다며 금리가 높은 정기예금 등에 미리 돈을 넣어두면 조금이라도 전체적인 수익을 늘릴 수 있다고 말했다. 박지원 KB국민은행 스타뱅킹부 과장은 모바일 뱅킹 앱을 이용하면 까다로운 조건 없이 비교적 높은 금리를 주는 특판 예적금에 가입할 수 있다며 원금 손실 걱정에 예적금을 선호하는 재테크족이라면 살펴볼 만하다고 조언했다. 은행 모바일금융 및 자산관리 전문가 10명 중 6명이 꼽은 재테크 기대수익률은 예금금리의 두배 7 이상 45명 60 다. 이어 6 22명 29.33 5 6명 8 4 이하 2명 2.66 순으로 집계됐다. 정문희 하나은행 서울대입구역 PB팀장은 글로벌 금융시장의 불확실성이 지속되는 가운데 원금 보전 니즈가 투자자는 손실 위험을 회피해야 한다면서도 리스크를 감수하고 공격적인 투자에 나서 이차전지 엔터 로봇 등 성장주와 반도체 등 가치주에 투자할 경우 7 이상 높은 수익률을 기대할 수 있다고 말했다. 안정형 투자자 예금선진국 채권 투자 유망한국은행이 기준금리를 3.50로 동결하면서 은행권의 정기예금상품 금리는 연 4대로 올라섰다. 은행연합회에 따르면 지난달말 공시된 은행권 정기예금 만기 1년 36개 상품 중 13개가 최고 연 4대 금리를 제공한다. 지난 8월 연 4대 예금 상품이 36개 중 5개에 그쳤던 것을 고려하면 한 달 새 연 4 예금상품이 8개 늘어난 셈이다. 모바일금융 및 자산관리 전문가들은 안정형 투자자에게 비대면 금융상품 복수응답으로 예금상품 및 종합자산관리계좌 CMA 53명 26.63을 추천했다. 이어 안정형 투자자에게 추천 비대면 금융상품은 선진국 우량채권 44명 22.11 국내 우량채권 36명 18.09 달러 투자 24명 12.06 상장지수펀드 19명 9.54 자산배분형 EMP펀드 10명 5.02 KRX 금 및 현물투자 7명 3.51 기타 6명 3.04 순으로 집계됐다. 지난달 28일 10년 만기 미 국채 수익률은 4.6대로 올라섰다. 글로벌 금융위기 이전인 2007년 10월 이후 16년 만에 가장 높은 수준이다. 미국 국채 금리는 연방준비제도 Fed연준가 추가 금리 인상 가능성과 긴축 장기화를 시사한 데 이어 미 연방정부 셧다운 일시적 업무정지 우려가 제기되면서 10년물 기준 5선을 위협하는 분위기다.김홍균 하나은행 강남역지점 PB팀장은 채권의 듀레이션이 길고 신용등급이 낮으면서 신흥국 시장에서 발행된 채권일수록 변동성이 상대적으로 크다며 안전한 금리 수익을 기반에 두면서 추가 수익을 기대할 수 있는 선진국 채권 투자가 유망하다고 말했다. 시간이 갈수록 가치가 오르는 달러 투자도 안정형 투자자에게 추천 비대면 상품으로 꼽았다. 세계 6개국 통화 대비 달러화의 가치를 나타내는 달러인덱스 지난달 27일 106.21로 지난해 11월 30일 이후 최고치를 기록하는 등 달러 가치가 오르고 있어서다. 홍동희 SC제일은행 투자전략상품부 부장은 올해 말 미국이 금리 추가 인상 움직임을 보일 경우 이른바 킹달러 현상은 더욱 강화될 것이라며 자산 포트폴리오에 달러 자산을 편입하고 경기 방어 국면에서 달러 장상지수펀드 ETF 등을 눈여겨볼 것이라고 말했다. 공격형 투자자 하반기 성장주가치주 투자하반기 공격형 투자자에게 적합한 투자상품 복수 응답은 이차전지엔터로봇주 등 성장주 63명 30.14다. 연초부터 인공지능 AI과 배터리 로봇 바이오 등 국내 증시를 주도했던 성장주들이 하반기 강세를 이어갈 것이란 전망이다. 다만 테마주 광풍에 급등했던 이차전지는 영국의 친환경 기조에 균열이 발생하면서 보수적인 시각을 유지해야 한다고 조언했다. 이어 반도체가치주 58명 27.75 파생결합증권 30명 14.35 선진국 기초한 ELS 22명 10.52 신흥국 채권 12명 5.74 정유철강금융주 9명 4.3 기타 15명 7.2 순으로 집계됐다. 최정임 신한은행 PWM강남센터 PB팀장은 여전히 성장 가능성이 높은 성장주를 선별해 목표 수익률을 정하고 투자할 것을 추천한다며 테마형은 기대수익에 비례해 변동성이 크기 때문에 분할매수로 접근해야 한다고 말했다. 김종국 SC제일은행 투자전략부 과장은 메모리 반도체 수급이 개선될 것이란 전망에 반도체 종목의 사이클 전환이 유효하다며 경기 모멘텀을 기반한 가치주의 상승이 지속될 것이라고 내다봤다. 이선영 신한은행 PWM서울파이낸스센터 PB팀장은 반도체 업황 회복 시기가 시장 기대보다 늦춰지고 있고 이차전지 역시 실적 측면에서는 만족스럽지 못한 상태에 영업이익과 배당 측면에서 강점이 있는 정유철강금융 업종 매력이 부각될 수 있다고 말했다. </t>
+          <t xml:space="preserve"> 국내 은행권이 최근 6년여간 희망퇴직금으로 약 10조원을 쓴 것으로 나타났다. 같은 기간 1만7402명이 희망퇴직했다는 점을 감안하면 1인당 평균 약 5억5000만원을 받고 짐을 챙겼단 얘기다.10일 국회 정무위원회 강민국 국민의힘경남 진주시을 의원이 금융감독원에서 받은 국내 은행권 희망퇴직 현황 자료에 따르면 지난 2018년부터 올 7월까지 희망퇴직제도를 실시하고 있는 국내 14개 은행의 희망퇴직자는 총 1만7402명으로 집계됐다. 이들에게 지급된 퇴직금은 9조6004억원이었다.이는 같은 기간 희망퇴직제를 운영 중인 은행 전체 퇴직자 2만6852명의 64.8 전체 퇴직금 10조1243억 원의 94.8로 절대적 수준을 차지하고 있다.희망퇴직자는 갈수록 늘어나는 추세다. 희망퇴직자는 2018년 2573명 1조1314억원과 2019년 2651명 1조4045억원 2020년 2473명 1조2743억원으로 2000명대를 이어갔다.이후 2021년 3511명 1조9407억원 2022년 4312명 2조8283억원으로 급격히 늘었다. 올해도 7월까지 이미 1882명 1조212억원이 희망퇴직으로 짐을 쌌다.5년간 희망퇴직자가 가장 많은 은행은 KB국민은행 3671명으로 나타났다. 이어 하나은행 2464명 NH농협은행 2349명 등의 순이었다. 희망퇴직금이 가장 많은 은행은 씨티은행 1조7593억원이었다.문제는 희망퇴직이 은행 업무의 디지털 전환에 따른 점포 폐쇄 등 구조조정을 위한 인력 감축으로 진행돼 왔다. 하지만 최근에는 희망퇴직의 조건 상향과 특별퇴직금의 규모가 커지다 보니 은행원들에게 희망퇴직은 제2의 인생 출발을 위한 자발적 선택이자 복지의 개념으로 전환되고 있다는 것이다.최근 6년여간 은행권 전체 퇴직자의 평균 퇴직금이 3억5600만원이었는데 같은 기간 희망퇴직자의 평균 퇴직금은 5억5200만원으로 전체 퇴직자 평균 퇴직금의 154.9에 달했다. 가장 많은 평균 희망퇴직금이 지급된 은행은 씨티은행 8억2600만원이다.은행원들이 희망퇴직금을 복지로 보는 데에는법정퇴직금 외에 노사 간 협의에 따라 지급되는 특별퇴직금 23년치 평균 연봉에 전직 지원금 등 때문이다. 지난 6년여간 특별퇴직금은 총 6조9402억원이 지급돼 전체 9조 6004억원 72.3나 된다.강민국 의원은 천문학적 수준의 은행권 횡령과 배임 등의 금융사고로 인해 은행산업 전반에 대한 불신이 극에 달하고 있기에 공공재 성격을 가진 은행은 위화감을 조성할 수 있을 정도의 과도한 복지지원금 성격을 가진 희망퇴직금 지급에 대해 숙고해야 한다고 지적했다.이어 금융당국은 희망퇴직금을 자율경영사항이라 외면치 말고 전체 퇴직금 규모를 과도하게 넘는 수준의 희망퇴직금 지급 은행에 대해서는 운영 현황에 대한 점검을 실시하며 은행업권은 역대급 실적에 따른 돈 잔치로 보이지 않게 국민의 눈높이에 맞는 수준에서의 희망퇴직금 운영방안을 마련하는 것이 필요하다고 덧붙였다.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>['IRP 현물이전', '퇴직연금 세액공제', '한국투자 퇴직연금', '퇴직연금 수익률']</t>
+          <t>['퇴직금 제도', '희망퇴직 퇴직금']</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>[{'IRP 현물이전': 3}, {'퇴직연금 세액공제': 4}, {'한국투자 퇴직연금': 4}, {'퇴직연금 수익률': 8}]</t>
+          <t>[{'퇴직금 제도': 3}, {'희망퇴직 퇴직금': 7}]</t>
         </is>
       </c>
       <c r="K27" t="n">
@@ -3285,55 +3285,55 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>금리 인상에 따른 채권금리 상승과 디지털 흐름의 가속화에 대한 언급이 있음.</t>
+          <t>은행권의 희망퇴직금 관리와 투자 자산 할당 모니터링에 대한 정보가 포함되어 있음.</t>
         </is>
       </c>
       <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>희망퇴직자 수와 은행별 퇴직금 지급액에 대한 정보가 제공되어 있음.</t>
+        </is>
+      </c>
+      <c r="O27" t="n">
         <v>1</v>
       </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>경쟁 동향 및 신제품 및 서비스 출시에 대한 언급이 없음.</t>
-        </is>
-      </c>
-      <c r="O27" t="n">
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>금융시장 변동성이 희망퇴직금에 미치는 영향에 대한 정보가 제한적으로 포함되어 있음.</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>법률 및 규제 변화에 대한 정보가 제공되지 않음.</t>
+        </is>
+      </c>
+      <c r="S27" t="n">
         <v>2</v>
       </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>금융시장의 변동성과 달러화 가치 상승에 대한 언급이 있음.</t>
-        </is>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>법률 및 규제 변경에 대한 언급이 없음.</t>
-        </is>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>고령화와 연금 기금의 장기적인 지속 가능성에 대한 언급이 없음.</t>
+          <t>희망퇴직자 수의 증가와 은행 업무 구조조정에 대한 정보가 포함되어 있음.</t>
         </is>
       </c>
       <c r="U27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>금융 디지털화와 비대면 금융 수요 증가에 대한 언급이 있음.</t>
+          <t>기술과 디지털화에 대한 정보가 제공되지 않음.</t>
         </is>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>소비 행동 및 요구사항에 대한 언급이 없음.</t>
+          <t>은퇴 연금 수령자의 소비 패턴과 요구사항에 대한 정보가 제한적으로 포함되어 있음.</t>
         </is>
       </c>
     </row>
@@ -3345,22 +3345,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>사회 동향</t>
+          <t>타사 동향 및 이벤트</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>은행권</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>은행권, 희망퇴직자에 1인당 5.5억… 6년 간 10조 지급</t>
+          <t>[창간설문] 세액공제 상품 담고 성장주 투자… 재테크 수익률 7% 노린다</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>은행권 임금피크제 신청 직원자 수는 감소하는 반면 희망퇴직자는 매년 증가하고 이들에게 지급된 퇴직금 역시 천문학적 수준인 것으로 조사됐다. 10일 국회 정무위원회 강민국 국민의힘 의원실이 금융감독원으로부터 받은 국내 은행권 임금피크 신청 현황 자료에 따르면 지난 2018 년부터 2023년 7월까지 6년여 간 임금피크제를 미도입한 인터넷은행 3개사를 제외한 17개사의 신청건수는 총 1만 1247건이었다.</t>
+          <t>금리 인상에 채권금리 5 육박 선진국 우량채 담아라금융권의 디지털 흐름이 가속화되고 있다. 금융소비자의 비대면금융 수요가 늘면서 지난해 말 인터넷 뱅킹 모바일 포함 등록 고객 수는 2억명을 넘었다. 인터넷뱅킹의 이용금액은 하루 평균 76조원 대출신청 서비스 이용금액만 일평균 1조원 돌파했다.</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -3368,22 +3368,22 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/656/0000065574?sid=102</t>
+          <t>https://n.news.naver.com/mnews/article/417/0000953624?sid=101</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 은행권 임금피크제 신청 직원자 수는 감소하는 반면 희망퇴직자는 매년 증가하고 이들에게 지급된 퇴직금 역시 천문학적 수준인 것으로 조사됐다. 10일 국회 정무위원회 강민국 국민의힘 의원실이 금융감독원으로부터 받은 국내 은행권 임금피크 신청 현황 자료에 따르면 지난 2018 년부터 2023년 7월까지 6년여 간 임금피크제를 미도입한 인터넷은행 3개사를 제외한 17개사의 신청건수는 총 1만 1247건이었다. 연도별로 보면 2018년 1365건 2019년 1536건 2020년 1756건 2021년 2219건 2022년 2190건 등으로 감소하는 추세다. 이에 반해 희망퇴직자는 늘고 있다. 지난 2018년부터 2023년 7월까지 희망퇴직자는 1만 7402명으로 지급된 퇴직금은 9조 6047억 원에 달했다. 이는 동일기간 희망퇴직제 운영 중인 은행 전체 퇴직자 2만 6852명의 64.8 퇴직금액으로는 전체 퇴직금 10조 1243억 원의 94.8를 차지하고 있다. 연도별 희망퇴직자는 2018년 2573명 1조 1314억 원 2019 년 2651명 1조 4045억 원 2020년 2473명 1조 2743억 원 2021년 3511명 1조 9407억 원 2022년 4312명 2조 8283 억원으로 꾸준히 늘고 있다. 희망퇴직자가 가장 많은 은행은 국민은행 3671명이었으며 하나은행 2464명 농협은행 2349명 등이 뒤를 이었다. 희망퇴직금이 가장 많은 은행은 씨티은행 1조 7593억원이었다. 희망퇴직금이 많은 것은 법정퇴직금 외에 노사 간 협의에 따라 지급되는 특별퇴직금 때문이다. 지난 6년 여 간 총 6 조 9402억 원이 지급됐다. 이에 일각에서는 희망퇴직이 은행원들의 자발적 선택이자 복지의 개념으로 전환되고 있다. 강민국 의원은 금융당국은 은행산업에 대한 국민 신뢰 제고 차원에서라도 희망퇴직금을 자율경영사항이라 외면치 말고 전체 퇴직금 규모를 과도하게 넘는 수준의 희망퇴직금 지급 은행에 대해선 운영 현황에 대한 점검을 실시해야 한다고 말했다.</t>
+          <t xml:space="preserve"> 금리 인상에 채권금리 5 육박 선진국 우량채 담아라금융권의 디지털 흐름이 가속화되고 있다. 금융소비자의 비대면금융 수요가 늘면서 지난해 말 인터넷 뱅킹 모바일 포함 등록 고객 수는 2억명을 넘었다. 인터넷뱅킹의 이용금액은 하루 평균 76조원 대출신청 서비스 이용금액만 일평균 1조원 돌파했다. 국내 모바일트레이딩서비스 MTS가입자는 3500만명 달한다. 머니S는 창간 16주년을 맞아 인터넷뱅킹 2억명 시대 자산관리 전략이라는 주제로 설문을 진행했다. 모바일금융의 트렌드와 비대면 자산관리 전략을 알아보기 위해 9월13일부터 27일까지 15일간 온라인 설문 조사를 진행했고 은행과 증권 카드 간편결제 보험 등 디지털금융 담당자 및 자산관리 전문가 127명이 설문에 참여했다. 기사 게재 순서①모바일금융 디지털 바람에 新재테크 수단 종잣돈 마련 주식투자②세액공제 상품 담고 성장주 투자 재테크 수익률 7 노린다③증권사 MTS 응답자 40 이상 AI 디지털 서비스 고도화 필요 ④2명 중 1명 카드간편결제 플랫폼 주력 재테크는 ⑤보험도 이제 재테크 시대 10명 중 8명 투자 관심 디지털 바람이 금융권을 강타하면서 스마트폰 하나로 모든 금융거래가 이뤄지는 모바일뱅킹은 대세로 자리 잡았다. 한국은행에 따르면 올 상반기 기준 국내은행 모바일뱅킹 이용 건수는 1910만건 이용금액은 14조7000억원에 달한다. 스마트폰 이용이 활발한 젊은층은 뱅킹 앱으로 목돈 마련 은퇴 후 노후자금 준비 등 자산관리를 구축한다. 머니S는 창간 16주년을 맞아 인터넷뱅킹 2억명 시대 자산관리 전략이라는 주제로 은행디지털금융 담당자와 프라이빗뱅커 PF 75명에게 모바일금융 재테크 금융상품비대면 투자 시 포트폴리오 비중 안정형공격형 투자자에게 추천할 비대면 금융상품 등을 물어봤다. 설문은 9월13일부터 27일까지 14일간 진행했고 KB국민신한하나우리NH농협SC제일수협은행 등 7개 은행의 자산관리 전문가 75명이 참여했다. 세테크 IRP 주목 파킹통장예적금 추천모바일금융 거래 시 추천하는 금융상품 복수 응답은 단연 개인연금 IRP 등 세액공제 42명 23.07 상품이다. 올해부터 개인형 퇴직연금인 IRP와 연금저축 등 연금 계좌에서 받을 수 있는 세액공제 한도가 200만원 상향됐기 때문이다. 연금저축 3인방인 연금저축신탁과 연금저축펀드 연금저축보험은 400만원에서 600만원까지로 개인형 퇴직연금인 IRP는 700만원에서 900만원으로 세액공제 범위가 확대됐다. 세액공제를 조금이라도 더 받기 위해서는 납입액을 추가해 900만원 한도를 맞추는 것도 방법이다.이어 특판 예적금 38명 20.87 주택청약종합저축 37명 20.32 파킹통장 37명 20.32 회전식 정기예금 11명 6.04 기타 17명 9.38 등으로 나타났다. 윤지영 하나은행 목동남지점 부장은 연말에 가서 세액공제 한도를 채우기 위해 한 번에 목돈을 IRP에 입금하기보다 평소에 여유 자금을 IRP에 넣는 것을 추천한다며 금리가 높은 정기예금 등에 미리 돈을 넣어두면 조금이라도 전체적인 수익을 늘릴 수 있다고 말했다. 박지원 KB국민은행 스타뱅킹부 과장은 모바일 뱅킹 앱을 이용하면 까다로운 조건 없이 비교적 높은 금리를 주는 특판 예적금에 가입할 수 있다며 원금 손실 걱정에 예적금을 선호하는 재테크족이라면 살펴볼 만하다고 조언했다. 은행 모바일금융 및 자산관리 전문가 10명 중 6명이 꼽은 재테크 기대수익률은 예금금리의 두배 7 이상 45명 60 다. 이어 6 22명 29.33 5 6명 8 4 이하 2명 2.66 순으로 집계됐다. 정문희 하나은행 서울대입구역 PB팀장은 글로벌 금융시장의 불확실성이 지속되는 가운데 원금 보전 니즈가 투자자는 손실 위험을 회피해야 한다면서도 리스크를 감수하고 공격적인 투자에 나서 이차전지 엔터 로봇 등 성장주와 반도체 등 가치주에 투자할 경우 7 이상 높은 수익률을 기대할 수 있다고 말했다. 안정형 투자자 예금선진국 채권 투자 유망한국은행이 기준금리를 3.50로 동결하면서 은행권의 정기예금상품 금리는 연 4대로 올라섰다. 은행연합회에 따르면 지난달말 공시된 은행권 정기예금 만기 1년 36개 상품 중 13개가 최고 연 4대 금리를 제공한다. 지난 8월 연 4대 예금 상품이 36개 중 5개에 그쳤던 것을 고려하면 한 달 새 연 4 예금상품이 8개 늘어난 셈이다. 모바일금융 및 자산관리 전문가들은 안정형 투자자에게 비대면 금융상품 복수응답으로 예금상품 및 종합자산관리계좌 CMA 53명 26.63을 추천했다. 이어 안정형 투자자에게 추천 비대면 금융상품은 선진국 우량채권 44명 22.11 국내 우량채권 36명 18.09 달러 투자 24명 12.06 상장지수펀드 19명 9.54 자산배분형 EMP펀드 10명 5.02 KRX 금 및 현물투자 7명 3.51 기타 6명 3.04 순으로 집계됐다. 지난달 28일 10년 만기 미 국채 수익률은 4.6대로 올라섰다. 글로벌 금융위기 이전인 2007년 10월 이후 16년 만에 가장 높은 수준이다. 미국 국채 금리는 연방준비제도 Fed연준가 추가 금리 인상 가능성과 긴축 장기화를 시사한 데 이어 미 연방정부 셧다운 일시적 업무정지 우려가 제기되면서 10년물 기준 5선을 위협하는 분위기다.김홍균 하나은행 강남역지점 PB팀장은 채권의 듀레이션이 길고 신용등급이 낮으면서 신흥국 시장에서 발행된 채권일수록 변동성이 상대적으로 크다며 안전한 금리 수익을 기반에 두면서 추가 수익을 기대할 수 있는 선진국 채권 투자가 유망하다고 말했다. 시간이 갈수록 가치가 오르는 달러 투자도 안정형 투자자에게 추천 비대면 상품으로 꼽았다. 세계 6개국 통화 대비 달러화의 가치를 나타내는 달러인덱스 지난달 27일 106.21로 지난해 11월 30일 이후 최고치를 기록하는 등 달러 가치가 오르고 있어서다. 홍동희 SC제일은행 투자전략상품부 부장은 올해 말 미국이 금리 추가 인상 움직임을 보일 경우 이른바 킹달러 현상은 더욱 강화될 것이라며 자산 포트폴리오에 달러 자산을 편입하고 경기 방어 국면에서 달러 장상지수펀드 ETF 등을 눈여겨볼 것이라고 말했다. 공격형 투자자 하반기 성장주가치주 투자하반기 공격형 투자자에게 적합한 투자상품 복수 응답은 이차전지엔터로봇주 등 성장주 63명 30.14다. 연초부터 인공지능 AI과 배터리 로봇 바이오 등 국내 증시를 주도했던 성장주들이 하반기 강세를 이어갈 것이란 전망이다. 다만 테마주 광풍에 급등했던 이차전지는 영국의 친환경 기조에 균열이 발생하면서 보수적인 시각을 유지해야 한다고 조언했다. 이어 반도체가치주 58명 27.75 파생결합증권 30명 14.35 선진국 기초한 ELS 22명 10.52 신흥국 채권 12명 5.74 정유철강금융주 9명 4.3 기타 15명 7.2 순으로 집계됐다. 최정임 신한은행 PWM강남센터 PB팀장은 여전히 성장 가능성이 높은 성장주를 선별해 목표 수익률을 정하고 투자할 것을 추천한다며 테마형은 기대수익에 비례해 변동성이 크기 때문에 분할매수로 접근해야 한다고 말했다. 김종국 SC제일은행 투자전략부 과장은 메모리 반도체 수급이 개선될 것이란 전망에 반도체 종목의 사이클 전환이 유효하다며 경기 모멘텀을 기반한 가치주의 상승이 지속될 것이라고 내다봤다. 이선영 신한은행 PWM서울파이낸스센터 PB팀장은 반도체 업황 회복 시기가 시장 기대보다 늦춰지고 있고 이차전지 역시 실적 측면에서는 만족스럽지 못한 상태에 영업이익과 배당 측면에서 강점이 있는 정유철강금융 업종 매력이 부각될 수 있다고 말했다. </t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>['희망퇴직 퇴직금', '임금피크제']</t>
+          <t>['IRP 현물이전', '퇴직연금 세액공제', '한국투자 퇴직연금', '퇴직연금 수익률']</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>[{'희망퇴직 퇴직금': 10}, {'임금피크제': 18}]</t>
+          <t>[{'IRP 현물이전': 3}, {'퇴직연금 세액공제': 4}, {'한국투자 퇴직연금': 4}, {'퇴직연금 수익률': 8}]</t>
         </is>
       </c>
       <c r="K28" t="n">
@@ -3391,7 +3391,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>은행권 임금피크제 신청 직원자 수와 퇴직금 지급에 대한 조사 결과를 포함하고 있음.</t>
+          <t>금리 인상에 따른 채권금리 상승과 디지털 흐름의 가속화에 대한 언급이 있음.</t>
         </is>
       </c>
       <c r="M28" t="n">
@@ -3399,7 +3399,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>경쟁 동향에 대한 정보는 제공되지 않음.</t>
+          <t>경쟁 동향 및 신제품 및 서비스 출시에 대한 언급이 없음.</t>
         </is>
       </c>
       <c r="O28" t="n">
@@ -3407,7 +3407,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>금융시장의 변동성과 이에 따른 퇴직연금 산업에 대한 영향에 대한 정보를 포함하고 있음.</t>
+          <t>금융시장의 변동성과 달러화 가치 상승에 대한 언급이 있음.</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -3415,23 +3415,23 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>법률 및 규제 변화에 대한 정보는 제공되지 않음.</t>
+          <t>법률 및 규제 변경에 대한 언급이 없음.</t>
         </is>
       </c>
       <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>고령화와 연금 기금의 장기적인 지속 가능성에 대한 언급이 없음.</t>
+        </is>
+      </c>
+      <c r="U28" t="n">
         <v>3</v>
       </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>희망퇴직자와 퇴직금에 대한 정보를 포함하고 있음.</t>
-        </is>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>기술과 디지털화에 대한 정보는 제공되지 않음.</t>
+          <t>금융 디지털화와 비대면 금융 수요 증가에 대한 언급이 있음.</t>
         </is>
       </c>
       <c r="W28" t="n">
@@ -3439,7 +3439,7 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>소비 행동 및 요구사항에 대한 정보는 제공되지 않음.</t>
+          <t>소비 행동 및 요구사항에 대한 언급이 없음.</t>
         </is>
       </c>
     </row>
@@ -3451,45 +3451,45 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>퇴직연금 제도</t>
+          <t>사회 동향</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>은행권</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>연금저축‧사고보험금도 5천만원 예금보호 적용</t>
+          <t>은행권, 희망퇴직자에 1인당 5.5억… 6년 간 10조 지급</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>연금저축과 사고보험금 중소기업퇴직연금기금 등도 5000만원까지 예금자 보호를 받을 수 있게 된다. 금융위원회는 예금자보호법 시행령 개정안이 국무회의에서 의결됐다고 밝혔다. 연금저축 신탁보험 사고보험금 중소기업퇴직연금기금에 대해서도 별도로 5000만원의 예금보호한도를 적용하는 내용이 담겼다.</t>
+          <t>은행권 임금피크제 신청 직원자 수는 감소하는 반면 희망퇴직자는 매년 증가하고 이들에게 지급된 퇴직금 역시 천문학적 수준인 것으로 조사됐다. 10일 국회 정무위원회 강민국 국민의힘 의원실이 금융감독원으로부터 받은 국내 은행권 임금피크 신청 현황 자료에 따르면 지난 2018 년부터 2023년 7월까지 6년여 간 임금피크제를 미도입한 인터넷은행 3개사를 제외한 17개사의 신청건수는 총 1만 1247건이었다.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000938062?sid=101</t>
+          <t>https://n.news.naver.com/mnews/article/656/0000065574?sid=102</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t xml:space="preserve">  앞으로 연금저축과 사고보험금 중소기업퇴직연금기금 등도 5000만원까지 예금자 보호를 받을 수 있게 된다.금융위원회는 이런 내용의 예금자보호법 시행령 개정안이 국무회의에서 의결됐다고 10일 밝혔다.개정안에는 사회보장적 성격이 강한 연금저축 신탁보험 사고보험금 중소기업퇴직연금기금에 대해서도 일반 예금과 분리해 별도로 5000만원의 예금보호한도를 적용하는 내용이 담겼다. 2015년 2월 이후 확정기여형 DC형 및 개인형 IRP 퇴직연금의 예금에 대해서는 동일 금융회사에 예금자가 보유한 일반 예금과 별도로 5000만원의 보호한도를 적용해 왔다.시행령 개정안은 이달 중 공포 즉시 시행된다. 연금저축공제 및 일반 공제상품을 취급하는 상호금융권에 대해서도 같은 내용을 담은 개별법 시행령 개정이 조만간 완료된다.자산 1000억원 이상의 신용협동조합의 이사장 선거 관리를 선거관리위원회에 의무적으로 위탁하는 내용의 신용협동조합법 시행령 개정안도 이날 국무회의에서 의결됐다. 기존에는 신협 이사장 선거를 선관위에 재량 위탁하도록 했으나 이사장 선거의 공정성투명성 제고가 필요하다는 지적에 따라 개정안을 마련했다.금융위는 1000억원 이상으로 자산기준을 정한 것은 개정법률의 취지와 소규모 지역신협의 부담 등을 종합적으로 고려한 조치라고 설명했다.</t>
+          <t xml:space="preserve"> 은행권 임금피크제 신청 직원자 수는 감소하는 반면 희망퇴직자는 매년 증가하고 이들에게 지급된 퇴직금 역시 천문학적 수준인 것으로 조사됐다. 10일 국회 정무위원회 강민국 국민의힘 의원실이 금융감독원으로부터 받은 국내 은행권 임금피크 신청 현황 자료에 따르면 지난 2018 년부터 2023년 7월까지 6년여 간 임금피크제를 미도입한 인터넷은행 3개사를 제외한 17개사의 신청건수는 총 1만 1247건이었다. 연도별로 보면 2018년 1365건 2019년 1536건 2020년 1756건 2021년 2219건 2022년 2190건 등으로 감소하는 추세다. 이에 반해 희망퇴직자는 늘고 있다. 지난 2018년부터 2023년 7월까지 희망퇴직자는 1만 7402명으로 지급된 퇴직금은 9조 6047억 원에 달했다. 이는 동일기간 희망퇴직제 운영 중인 은행 전체 퇴직자 2만 6852명의 64.8 퇴직금액으로는 전체 퇴직금 10조 1243억 원의 94.8를 차지하고 있다. 연도별 희망퇴직자는 2018년 2573명 1조 1314억 원 2019 년 2651명 1조 4045억 원 2020년 2473명 1조 2743억 원 2021년 3511명 1조 9407억 원 2022년 4312명 2조 8283 억원으로 꾸준히 늘고 있다. 희망퇴직자가 가장 많은 은행은 국민은행 3671명이었으며 하나은행 2464명 농협은행 2349명 등이 뒤를 이었다. 희망퇴직금이 가장 많은 은행은 씨티은행 1조 7593억원이었다. 희망퇴직금이 많은 것은 법정퇴직금 외에 노사 간 협의에 따라 지급되는 특별퇴직금 때문이다. 지난 6년 여 간 총 6 조 9402억 원이 지급됐다. 이에 일각에서는 희망퇴직이 은행원들의 자발적 선택이자 복지의 개념으로 전환되고 있다. 강민국 의원은 금융당국은 은행산업에 대한 국민 신뢰 제고 차원에서라도 희망퇴직금을 자율경영사항이라 외면치 말고 전체 퇴직금 규모를 과도하게 넘는 수준의 희망퇴직금 지급 은행에 대해선 운영 현황에 대한 점검을 실시해야 한다고 말했다.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>['퇴직연금 DC', '퇴직연금 IRP', '확정기여형', '개인형퇴직연금', '퇴직연금 규모', '퇴직연금 예금']</t>
+          <t>['희망퇴직 퇴직금', '임금피크제']</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>[{'퇴직연금 DC': 12}, {'퇴직연금 IRP': 10}, {'확정기여형': 12}, {'개인형퇴직연금': 10}, {'퇴직연금 규모': 1}, {'퇴직연금 예금': 7}]</t>
+          <t>[{'희망퇴직 퇴직금': 10}, {'임금피크제': 18}]</t>
         </is>
       </c>
       <c r="K29" t="n">
@@ -3497,15 +3497,15 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>연금저축과 사고보험금 중소기업퇴직연금기금에 대한 예금자 보호를 강화하는 내용이 포함되어 있음.</t>
+          <t>은행권 임금피크제 신청 직원자 수와 퇴직금 지급에 대한 조사 결과를 포함하고 있음.</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>경쟁 동향에 대한 내용이 없음.</t>
+          <t>경쟁 동향에 대한 정보는 제공되지 않음.</t>
         </is>
       </c>
       <c r="O29" t="n">
@@ -3513,23 +3513,23 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>금융위원회의 결정에 따라 예금자보호법 시행령 개정안이 시행되므로 금융시장에 영향을 줄 수 있음.</t>
+          <t>금융시장의 변동성과 이에 따른 퇴직연금 산업에 대한 영향에 대한 정보를 포함하고 있음.</t>
         </is>
       </c>
       <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>법률 및 규제 변화에 대한 정보는 제공되지 않음.</t>
+        </is>
+      </c>
+      <c r="S29" t="n">
         <v>3</v>
       </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>예금자보호법 시행령 개정안의 변경 사항이 기업과 개인에게 영향을 미칠 수 있음.</t>
-        </is>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>노령화와 연금기금의 장기적인 지속 가능성에 대한 내용이 없음.</t>
+          <t>희망퇴직자와 퇴직금에 대한 정보를 포함하고 있음.</t>
         </is>
       </c>
       <c r="U29" t="n">
@@ -3537,7 +3537,7 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>기술과 디지털화에 대한 내용이 없음.</t>
+          <t>기술과 디지털화에 대한 정보는 제공되지 않음.</t>
         </is>
       </c>
       <c r="W29" t="n">
@@ -3545,7 +3545,7 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>소비 행동 및 요구사항에 대한 내용이 없음.</t>
+          <t>소비 행동 및 요구사항에 대한 정보는 제공되지 않음.</t>
         </is>
       </c>
     </row>
@@ -3557,22 +3557,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>퇴직연금 상품</t>
+          <t>퇴직연금 제도</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>신한은행</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>신한은행, 40대, 금리 +α수익률 목표 연금 늘려야</t>
+          <t>연금저축‧사고보험금도 5천만원 예금보호 적용</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>금융상품 다양화로 투자 목적별 자산 차별화. 연령대별 투자 상품 추천. 주택청약종합저축, 적금, 정기예금 20대 추천. 연금저축, 퇴직연금, 개인형종합자산관리계좌, 적립식 펀드 30대 추천. 연금저축, 퇴직연금, ELS주식랩 투자 40-50대 추천. 수익형 부동산, 리츠투자, 채권투자 60대 이후 추천.</t>
+          <t>연금저축과 사고보험금 중소기업퇴직연금기금 등도 5000만원까지 예금자 보호를 받을 수 있게 된다. 금융위원회는 예금자보호법 시행령 개정안이 국무회의에서 의결됐다고 밝혔다. 연금저축 신탁보험 사고보험금 중소기업퇴직연금기금에 대해서도 별도로 5000만원의 예금보호한도를 적용하는 내용이 담겼다.</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -3580,22 +3580,22 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005197004?sid=101</t>
+          <t>https://n.news.naver.com/mnews/article/366/0000938062?sid=101</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t xml:space="preserve">최근 비트코인주식부동산 등 금융상품이 다양하게 주목받고 있고 투자 목적별 자산도 차별화되고 있다. 오경석 신한PWM 태평로센터 팀장은 연령대에 따라 준비해야 하는 것들은 무엇이 있고 주의해야 하는 것들은 무엇인지를 따져봐야 한다고 조언했다. 20대 주요 투자상품으로는 주택청약종합저축적금정기예금 등을 들 수 있다. 오 팀장은 먼저 주택청약종합저축은 향후 주택 마련을 위한 금융상품으로 장기적인 플랜으로 무리하지 않는 선에서 투자를 권고한다고 말했다. 적금의 경우 최근 청년우대형 적금과 적립형RP 상품들이 정부와 금융기관의 지원을 통해 높은 이자를 제공하고 있다. 또 정기예금을 통해 이자 산출 방식 등에 대한 금융 기본 정보 등을 경험으로 얻을 수 있다.30대 주요 투자상품으로는 연금저축 또는 퇴직연금 IRP개인형종합자산관리계좌 ISA적립식 펀드 등을 들 수 있다. 오 팀장은 30대에는 본인 소득 정도에 따른 결정세액에 대한 검토를 통해 세제 적격 상품을 준비하는 것이 좋다며 퇴직연금의 경우 다양한 자산에 투자가 가능하기 때문에 투자의 한 부분으로도 활용하기 좋다고 조언했다. 개인형종합자산관리계좌는 최소 가입기간 3년의 자산 형성을 돕기 위해 일정한 금융소득에 대해 비과세분리과세 혜택을 주는 상품으로 중장기적인 목적의 자금 형성에 도움이 된다.적립식 펀드는 35년 정도 장기적인 관점에서 투자 시점과 투자되는 자산이 분산될 수 있는 자산배분형 상품인 타깃데이트펀드 TDF나 선진지수 중심의 인덱스 투자가 유용하다.4050대 때는 노후 대비를 위한 연금저축 또는 퇴직연금 투자와 파생결합증권 ELS주식랩 투자 등을 추천했다. 오 팀장은 4050대는 어느 정도 목돈이 형성돼 있는 시기이기 때문에 조금은 적극적인 투자가 필요한 시기로 판단된다며 시장 금리의 1.52배 정도 기대수익률을 바라며 투자하는 것이 좋다고 설명했다. 또 급여 일부를 안정적인 주식 등에 투자하거나 증권사에서 운용하는 랩상품 등을 통해 적극적으로 자산을 운용해보는 것도 좋다는 것이 오 팀장이 전하는 재테크 꿀팁이다.60대 이후부터는 계획적이고 방어적인 투자를 하는 것이 좋으며 수익형 부동산리츠채권골드실물 투자 등을 해볼 만하다. 오 팀장은 수익형 부동산과 리츠투자의 경우 자산가치의 낮은 변동성하에 꾸준한 수익을 창출할 수 있다며 채권투자 역시 주식투자에 비해 변동성이 낮고 금리 변동에 따른 방어적인 투자가 가능하다고 말했다. 이뿐만 아니라 채권 금리가 높게 형성돼 있는 상태에서 투자하게 되면 저렴한 가격에 채권을 매수해 채권의 자본차익까지 기대해 볼 수 있다는 강점을 지닌다. </t>
+          <t xml:space="preserve">  앞으로 연금저축과 사고보험금 중소기업퇴직연금기금 등도 5000만원까지 예금자 보호를 받을 수 있게 된다.금융위원회는 이런 내용의 예금자보호법 시행령 개정안이 국무회의에서 의결됐다고 10일 밝혔다.개정안에는 사회보장적 성격이 강한 연금저축 신탁보험 사고보험금 중소기업퇴직연금기금에 대해서도 일반 예금과 분리해 별도로 5000만원의 예금보호한도를 적용하는 내용이 담겼다. 2015년 2월 이후 확정기여형 DC형 및 개인형 IRP 퇴직연금의 예금에 대해서는 동일 금융회사에 예금자가 보유한 일반 예금과 별도로 5000만원의 보호한도를 적용해 왔다.시행령 개정안은 이달 중 공포 즉시 시행된다. 연금저축공제 및 일반 공제상품을 취급하는 상호금융권에 대해서도 같은 내용을 담은 개별법 시행령 개정이 조만간 완료된다.자산 1000억원 이상의 신용협동조합의 이사장 선거 관리를 선거관리위원회에 의무적으로 위탁하는 내용의 신용협동조합법 시행령 개정안도 이날 국무회의에서 의결됐다. 기존에는 신협 이사장 선거를 선관위에 재량 위탁하도록 했으나 이사장 선거의 공정성투명성 제고가 필요하다는 지적에 따라 개정안을 마련했다.금융위는 1000억원 이상으로 자산기준을 정한 것은 개정법률의 취지와 소규모 지역신협의 부담 등을 종합적으로 고려한 조치라고 설명했다.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>['퇴직연금 IRP', '개인형퇴직연금', '신한 퇴직연금', '퇴직연금 수익률', '퇴직연금 TDF', '퇴직연금 자산배분', '퇴직연금 가입', '퇴직연금 펀드', '퇴직연금 채권', '퇴직연금 리츠', '퇴직연금 장기 투자']</t>
+          <t>['퇴직연금 DC', '퇴직연금 IRP', '확정기여형', '개인형퇴직연금', '퇴직연금 규모', '퇴직연금 예금']</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>[{'퇴직연금 IRP': 48}, {'개인형퇴직연금': 47}, {'신한 퇴직연금': 2}, {'퇴직연금 수익률': 2}, {'퇴직연금 TDF': 2}, {'퇴직연금 자산배분': 2}, {'퇴직연금 가입': 9}, {'퇴직연금 펀드': 4}, {'퇴직연금 채권': 1}, {'퇴직연금 리츠': 1}, {'퇴직연금 장기 투자': 1}]</t>
+          <t>[{'퇴직연금 DC': 12}, {'퇴직연금 IRP': 10}, {'확정기여형': 12}, {'개인형퇴직연금': 10}, {'퇴직연금 규모': 1}, {'퇴직연금 예금': 7}]</t>
         </is>
       </c>
       <c r="K30" t="n">
@@ -3603,39 +3603,39 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>금융상품 다양화와 자산 차별화에 대한 추천이 있음.</t>
+          <t>연금저축과 사고보험금 중소기업퇴직연금기금에 대한 예금자 보호를 강화하는 내용이 포함되어 있음.</t>
         </is>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>경쟁 동향에 대한 내용이 없음.</t>
+        </is>
+      </c>
+      <c r="O30" t="n">
         <v>2</v>
       </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>연령대별 투자 상품 추천이 있음.</t>
-        </is>
-      </c>
-      <c r="O30" t="n">
-        <v>1</v>
-      </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>금리 변동에 따른 방어적인 투자 추천이 있음.</t>
+          <t>금융위원회의 결정에 따라 예금자보호법 시행령 개정안이 시행되므로 금융시장에 영향을 줄 수 있음.</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>법적 및 규제 변화에 대한 언급이 없음.</t>
+          <t>예금자보호법 시행령 개정안의 변경 사항이 기업과 개인에게 영향을 미칠 수 있음.</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>연령대별 투자 상품 추천과 노후 대비를 위한 투자에 대한 언급이 있음.</t>
+          <t>노령화와 연금기금의 장기적인 지속 가능성에 대한 내용이 없음.</t>
         </is>
       </c>
       <c r="U30" t="n">
@@ -3643,7 +3643,7 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>기술과 디지털화에 대한 언급이 없음.</t>
+          <t>기술과 디지털화에 대한 내용이 없음.</t>
         </is>
       </c>
       <c r="W30" t="n">
@@ -3651,7 +3651,7 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>소비 행동 및 요구사항에 대한 언급이 없음.</t>
+          <t>소비 행동 및 요구사항에 대한 내용이 없음.</t>
         </is>
       </c>
     </row>
@@ -3663,22 +3663,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>사회 동향</t>
+          <t>퇴직연금 상품</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>신한은행</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>클래스가 다른 은행 희망퇴직제, 6년여 간 1만7000명에 약 10조원 지급</t>
+          <t>신한은행, 40대, 금리 +α수익률 목표 연금 늘려야</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>은행권 임금피크제 신청 직원자 수는 감소하는 반면 희망퇴직자는 매년 증가하고 있고 이들에게 지급된 퇴직금 역시 천문학적 수준인 것으로 조사됐다. 국내 은행권 희망퇴직 현황을 살펴보면 지난 2018년부터 올해 7월까지 6년여 간 희망퇴직자는 1만7402명이며 지급된 퇴직금은 9조6047억원에 달했다. 희망퇴직자는 최근 급증하고 있으며 가장 많은 은행은 국민은행이었다.</t>
+          <t>금융상품 다양화로 투자 목적별 자산 차별화. 연령대별 투자 상품 추천. 주택청약종합저축, 적금, 정기예금 20대 추천. 연금저축, 퇴직연금, 개인형종합자산관리계좌, 적립식 펀드 30대 추천. 연금저축, 퇴직연금, ELS주식랩 투자 40-50대 추천. 수익형 부동산, 리츠투자, 채권투자 60대 이후 추천.</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -3686,130 +3686,130 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
+          <t>https://n.news.naver.com/mnews/article/009/0005197004?sid=101</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">최근 비트코인주식부동산 등 금융상품이 다양하게 주목받고 있고 투자 목적별 자산도 차별화되고 있다. 오경석 신한PWM 태평로센터 팀장은 연령대에 따라 준비해야 하는 것들은 무엇이 있고 주의해야 하는 것들은 무엇인지를 따져봐야 한다고 조언했다. 20대 주요 투자상품으로는 주택청약종합저축적금정기예금 등을 들 수 있다. 오 팀장은 먼저 주택청약종합저축은 향후 주택 마련을 위한 금융상품으로 장기적인 플랜으로 무리하지 않는 선에서 투자를 권고한다고 말했다. 적금의 경우 최근 청년우대형 적금과 적립형RP 상품들이 정부와 금융기관의 지원을 통해 높은 이자를 제공하고 있다. 또 정기예금을 통해 이자 산출 방식 등에 대한 금융 기본 정보 등을 경험으로 얻을 수 있다.30대 주요 투자상품으로는 연금저축 또는 퇴직연금 IRP개인형종합자산관리계좌 ISA적립식 펀드 등을 들 수 있다. 오 팀장은 30대에는 본인 소득 정도에 따른 결정세액에 대한 검토를 통해 세제 적격 상품을 준비하는 것이 좋다며 퇴직연금의 경우 다양한 자산에 투자가 가능하기 때문에 투자의 한 부분으로도 활용하기 좋다고 조언했다. 개인형종합자산관리계좌는 최소 가입기간 3년의 자산 형성을 돕기 위해 일정한 금융소득에 대해 비과세분리과세 혜택을 주는 상품으로 중장기적인 목적의 자금 형성에 도움이 된다.적립식 펀드는 35년 정도 장기적인 관점에서 투자 시점과 투자되는 자산이 분산될 수 있는 자산배분형 상품인 타깃데이트펀드 TDF나 선진지수 중심의 인덱스 투자가 유용하다.4050대 때는 노후 대비를 위한 연금저축 또는 퇴직연금 투자와 파생결합증권 ELS주식랩 투자 등을 추천했다. 오 팀장은 4050대는 어느 정도 목돈이 형성돼 있는 시기이기 때문에 조금은 적극적인 투자가 필요한 시기로 판단된다며 시장 금리의 1.52배 정도 기대수익률을 바라며 투자하는 것이 좋다고 설명했다. 또 급여 일부를 안정적인 주식 등에 투자하거나 증권사에서 운용하는 랩상품 등을 통해 적극적으로 자산을 운용해보는 것도 좋다는 것이 오 팀장이 전하는 재테크 꿀팁이다.60대 이후부터는 계획적이고 방어적인 투자를 하는 것이 좋으며 수익형 부동산리츠채권골드실물 투자 등을 해볼 만하다. 오 팀장은 수익형 부동산과 리츠투자의 경우 자산가치의 낮은 변동성하에 꾸준한 수익을 창출할 수 있다며 채권투자 역시 주식투자에 비해 변동성이 낮고 금리 변동에 따른 방어적인 투자가 가능하다고 말했다. 이뿐만 아니라 채권 금리가 높게 형성돼 있는 상태에서 투자하게 되면 저렴한 가격에 채권을 매수해 채권의 자본차익까지 기대해 볼 수 있다는 강점을 지닌다. </t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['퇴직연금 IRP', '개인형퇴직연금', '신한 퇴직연금', '퇴직연금 수익률', '퇴직연금 TDF', '퇴직연금 자산배분', '퇴직연금 가입', '퇴직연금 펀드', '퇴직연금 채권', '퇴직연금 리츠', '퇴직연금 장기 투자']</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>[{'퇴직연금 IRP': 48}, {'개인형퇴직연금': 47}, {'신한 퇴직연금': 2}, {'퇴직연금 수익률': 2}, {'퇴직연금 TDF': 2}, {'퇴직연금 자산배분': 2}, {'퇴직연금 가입': 9}, {'퇴직연금 펀드': 4}, {'퇴직연금 채권': 1}, {'퇴직연금 리츠': 1}, {'퇴직연금 장기 투자': 1}]</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>3</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>금융상품 다양화와 자산 차별화에 대한 추천이 있음.</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>연령대별 투자 상품 추천이 있음.</t>
+        </is>
+      </c>
+      <c r="O31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>금리 변동에 따른 방어적인 투자 추천이 있음.</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>법적 및 규제 변화에 대한 언급이 없음.</t>
+        </is>
+      </c>
+      <c r="S31" t="n">
+        <v>2</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>연령대별 투자 상품 추천과 노후 대비를 위한 투자에 대한 언급이 있음.</t>
+        </is>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>기술과 디지털화에 대한 언급이 없음.</t>
+        </is>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>소비 행동 및 요구사항에 대한 언급이 없음.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2023-10-10</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>사회 동향</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>클래스가 다른 은행 희망퇴직제, 6년여 간 1만7000명에 약 10조원 지급</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>은행권 임금피크제 신청 직원자 수는 감소하는 반면 희망퇴직자는 매년 증가하고 있고 이들에게 지급된 퇴직금 역시 천문학적 수준인 것으로 조사됐다. 국내 은행권 희망퇴직 현황을 살펴보면 지난 2018년부터 올해 7월까지 6년여 간 희망퇴직자는 1만7402명이며 지급된 퇴직금은 9조6047억원에 달했다. 희망퇴직자는 최근 급증하고 있으며 가장 많은 은행은 국민은행이었다.</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>8</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>https://www.viva100.com/main/view.php?key=20231010010001885</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t xml:space="preserve">
 은행권 임금피크제 신청 직원자 수는 감소하는 반면 희망퇴직자는 매년 증가하고 있고 이들에게 지급된 퇴직금 역시 천문학적 수준인 것으로 조사됐다.강민국 국민의힘진주시을 국회의원실에서 금융감독원에 자료요청을 통해 받은 답변 자료인 국내 은행권 임금피크 신청 현황을 살펴보면 지난 2018년부터 올해 7월까지 6년여 간 임금피크제를 미도입한 인터넷은행 3개사를 제외한 17개사의 신청건수는 총 1만1247건이었다.연도별로 살펴보면 2018년 1365건2019년 1536건2020년 1756건2021년 2219건지난해 2190건으로 최근 감소하고 있다. 올해는 지난 7월까지 2181건이다.이에 반해 국내 은행권 희망퇴직 현황을 살펴보면 지난 2018년부터 올해 7월까지 6년여 간 희망퇴직자는 1만7402명이며 지급된 퇴직금은 9조6047억원에 달했다. 이는 동일기간 희망퇴직제 운영 중인 은행 전체 퇴직자 2만6852명의 64.8 퇴직금액으로는 전체 퇴직금 10조1243억원의 94.8로 절대적 수준을 차지하고 있다.연도별로 살펴보면 희망퇴직자는 지난 2018년 2573명 1조1314억원2019년 2651명 1조4045억원2020년 2473명 1조2743억원2021년 3511명 1조9407억원지난해 4312명 2조8283억원으로 최근 급증하고 있다. 올해 7월까지 희망퇴직자는 1882명에 1조212억원으로 퇴직자는 연말에 집중되는 것으로 나타났다.6년여 간 희망퇴직자가 가장 많은 은행은 국민은행 3671명이었으며 다음으로 하나은행 2464명 농협은행 2349명 등의 순이며 희망퇴직금이 가장 많은 은행은 씨티은행 1조7593억원이었다.문제는 희망퇴직이라 하면 일반적으로 은행 업무의 디지털 전환에 따른 점포 폐쇄 등의 내부 구조조정을 위한 회사 차원의 인력 감축에 따른 결과로 이해하고 있지만 최근에는 희망퇴직의 조건 상향과 특별퇴직금의 규모가 좋다 보니 은행원들에게 퇴직을 제2의 인생 출발을 위한 자발적 선택이자 복지의 개념으로 전환 되고 있다는 것이다.실제 지난 6년여 간 은행권 전체 퇴직자의 평균 퇴직금이 3억5600만원인 것에 반해 동일기간 희망퇴직자의 평균 퇴직금은 5억5200만원으로 전체 퇴직자 평균 퇴직금의 154.9에 달하는 수준이다. 가장 많은 평균 희망퇴직금이 지급된 은행은 씨티은행 8억2600만원이다.또한 희망퇴직금을 복지라고 하는데는 법정퇴직금 외에 노사 간 협의에 따라 지급되는 특별퇴직금 23년 치 평균 연봉에 전직 지원금 등 때문으로 지난 6년여 간 총 6조9402억원이 지급돼 전체 9조6004억원 72.3나 된다.강민국 의원은 지난 코로나 시기를 겪으며 경제적 어려움을 겪고 있는 국민들은 계속된 천문학적 수준의 은행권 횡령과 배임 등의 금융사고로 인해 은행산업 전반에 대한 불신이 극에 달하고 있기에 공공재 성격을 가진 은행은 위화감을 조성할 수 있을 정도의 과도한 복지지원금 성격을 가진 희망퇴직금 지급에 대해 숙고해야 한다며 금융 당국은 은행산업에 대한 국민 신뢰 제고 차원에서라도 희망퇴직금을 자율경영사항이라 외면치 말고 전체 퇴직금 규모를 과도하게 넘는 수준의 희망퇴직금 지급 은행에 대해서는 운영 현황에 대한 점검을 실시하며 은행업권은 역대급 실적에 따른 돈 잔치로 보이지 않게 국민의 눈높이에 맞는 수준에서의 희망퇴직금 운영방안을 마련하는 것이 필요하다고 전했다.경남정도정 기자 sos6831viva100.com
 </t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>['희망퇴직 퇴직금', '임금피크제']</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>[{'희망퇴직 퇴직금': 24}, {'임금피크제': 23}]</t>
-        </is>
-      </c>
-      <c r="K31" t="n">
-        <v>3</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>은행권 임금피크제 신청 직원자 수와 퇴직금 지급에 대한 조사 결과가 제공되었음.</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>2</v>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>희망퇴직자 수와 퇴직금 지급에 대한 은행별 현황이 제공되었으나, 새로운 제품 및 서비스에 대한 정보는 제공되지 않았음.</t>
-        </is>
-      </c>
-      <c r="O31" t="n">
-        <v>1</v>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>금융사고로 인한 은행산업에 대한 불신과 은행업권의 실적에 대한 우려가 언급되었으나, 금융시장 변동성에 대한 분석은 제공되지 않았음.</t>
-        </is>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>법적 및 규제 변화에 대한 정보가 제공되지 않았음.</t>
-        </is>
-      </c>
-      <c r="S31" t="n">
-        <v>2</v>
-      </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>희망퇴직자 수와 퇴직금 지급에 대한 연도별 변화가 제공되었으며, 퇴직금 지급이 은행의 장기적 지속 가능성에 미치는 영향에 대한 언급이 있었음.</t>
-        </is>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>기술과 디지털화에 대한 정보가 제공되지 않았음.</t>
-        </is>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="inlineStr">
-        <is>
-          <t>소비 행태 및 요구사항에 대한 정보가 제공되지 않았음.</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2023-10-10</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>퇴직연금 제도</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>연금저축·퇴직기금도 5000만원 예금보호</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>연금저축처럼 사회보장 성격이 강한 금융상품들도 일반 예금과 별개로 5000만원까지 추가로 예금자보호한도를 적용받게 된다. 금융위원회는 예금자보호법 시행령이 국무회의에서 의결됐다고 밝혔다. 연금저축 사고보험금 중소기업퇴직연금기금에 대해 동일 금융회사에 예금자가 보유한 일반 예금과 별도로 5000만원까지 보호하는 내용이다.</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>7</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005197127?sid=101</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">연금저축처럼 사회보장 성격이 강한 금융상품들도 일반 예금과 별개로 5000만원까지 추가로 예금자보호한도를 적용받게 된다.10일 금융위원회는 이 같은 내용을 담은 예금자보호법 시행령이 국무회의에서 의결됐다고 밝혔다. 개정안은 연금저축 사고보험금 중소기업퇴직연금기금에 대해 동일 금융회사에 예금자가 보유한 일반 예금과 별도로 5000만원까지 보호하는 내용이다. 다만 확정기여 DC형과 개인형 퇴직연금 IRP 등에 대해서는 2015년부터 별도로 보호한도를 적용해 왔다.이번에 추가 적용되는 상품들은 노후 소득 신체재산상 손해보장 등 사회보장 성격이 강하다. 그동안 금융소비자 효용 증대 측면에서 관련 제도 개선이 필요하다는 의견이 있었다.금융위는 연금저축 및 중기퇴직기금으로 국민이 더욱 안전하게 노후를 준비할 수 있게 됐다고 밝혔다. 또 사고보험금에 대해선 보험사 부실 시에도 불의의 사고를 겪은 예금자를 보다 두껍게 보호하려는 것이라고 설명했다. </t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>['퇴직연금 DC', '퇴직연금 IRP', '개인형퇴직연금', '퇴직연금 예금']</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>[{'퇴직연금 DC': 9}, {'퇴직연금 IRP': 6}, {'개인형퇴직연금': 8}, {'퇴직연금 예금': 18}]</t>
         </is>
       </c>
       <c r="K32" t="n">
@@ -3817,23 +3817,23 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>연금저축 사고보험금 중소기업퇴직연금기금에 대해 동일 금융회사에 예금자가 보유한 일반 예금과 별도로 5000만원까지 보호하는 내용이 있음</t>
+          <t>은행권 임금피크제 신청 직원자 수와 퇴직금 지급에 대한 조사 결과가 제공되었음.</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>No information related to industry competition trends</t>
+          <t>희망퇴직자 수와 퇴직금 지급에 대한 은행별 현황이 제공되었으나, 새로운 제품 및 서비스에 대한 정보는 제공되지 않았음.</t>
         </is>
       </c>
       <c r="O32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>금융소비자 효용 증대 측면에서 관련 제도 개선이 필요하다는 의견이 있음</t>
+          <t>금융사고로 인한 은행산업에 대한 불신과 은행업권의 실적에 대한 우려가 언급되었으나, 금융시장 변동성에 대한 분석은 제공되지 않았음.</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3841,7 +3841,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>No information related to legal and regulatory changes</t>
+          <t>법적 및 규제 변화에 대한 정보가 제공되지 않았음.</t>
         </is>
       </c>
       <c r="S32" t="n">
@@ -3849,7 +3849,7 @@
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>노후 소득 신체재산상 손해보장 등 사회보장 성격이 강한 상품들에 대한 내용이 있음</t>
+          <t>희망퇴직자 수와 퇴직금 지급에 대한 연도별 변화가 제공되었으며, 퇴직금 지급이 은행의 장기적 지속 가능성에 미치는 영향에 대한 언급이 있었음.</t>
         </is>
       </c>
       <c r="U32" t="n">
@@ -3857,7 +3857,7 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>No information related to technology and digitalization</t>
+          <t>기술과 디지털화에 대한 정보가 제공되지 않았음.</t>
         </is>
       </c>
       <c r="W32" t="n">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>No information related to consumption behavior and requirements</t>
+          <t>소비 행태 및 요구사항에 대한 정보가 제공되지 않았음.</t>
         </is>
       </c>
     </row>
@@ -3877,7 +3877,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>퇴직연금 상품</t>
+          <t>퇴직연금 제도</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3887,12 +3887,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>예금자보호 대상에 연금저축 포함... 한도는 5000만 원 유지</t>
+          <t>연금저축·퇴직기금도 5000만원 예금보호</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>은행 예금 퇴직연금 등에만 5000만 원까지 보장되던 예금자보호 범위가 연금저축 사고 보험금 등으로 확대된다. 정부는 10일 국무회의를 열고 예금자보호법 시행령 개정안을 의결했다. 대신 정부는 2001년 이후 23년 동안 5000만 원 선에 묶여 있는 예금자보호 한도는 유지하는 쪽으로 가닥을 잡았다.</t>
+          <t>연금저축처럼 사회보장 성격이 강한 금융상품들도 일반 예금과 별개로 5000만원까지 추가로 예금자보호한도를 적용받게 된다. 금융위원회는 예금자보호법 시행령이 국무회의에서 의결됐다고 밝혔다. 연금저축 사고보험금 중소기업퇴직연금기금에 대해 동일 금융회사에 예금자가 보유한 일반 예금과 별도로 5000만원까지 보호하는 내용이다.</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -3900,22 +3900,22 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000764350?sid=101</t>
+          <t>https://n.news.naver.com/mnews/article/009/0005197127?sid=101</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>은행 예금 퇴직연금 등에만 5000만 원까지 보장되던 예금자보호 범위가 연금저축 사고 보험금 등으로 확대된다. 보호 한도는 5000만 원이 유지되지만 범위 확대로 보호받는 금액이 증가하는 효과가 예상된다. 정부는 10일 국무회의를 열고 예금자보호법 시행령 개정안을 의결했다. 개정안은 사회보장적 성격이 강한 연금저축 신탁보험과 사고보험금 중소기업 퇴직연금기금을 별도로 5000만 원까지 보호한다는 내용을 담고 있다. 대상이 된 연금저축 등은 기존에는 보호대상 일반 금융상품과 합쳐서 5000만 원까지 보호가 가능했다. A은행에 예금 5000만 원이 이미 있었다면 같은 은행에서 가입한 연금저축신탁은 보호되기 어려운 구조였던 셈이다. 정부는 연금저축과 사고보험금 등이 국민 노후 설계와 사회안전망 유지에 중요한 상품이라 판단하고 예금자 보호 대상에 포함시켰다. 이에 따라 각각 5000만 원을 초과하는 은행 예금과 연금저축을 보유할 경우 최대 1억 원까지 보호받을 수 있게 된다. 대신 정부는 2001년 이후 23년 동안 5000만 원 선에 묶여 있는 예금자보호 한도는 유지하는 쪽으로 가닥을 잡았다. 금융위원회는 국회 정무위원회에 보고한 예금보험제도 개선 검토안에서 향후 찬반 논의 시장 상황 등을 종합 고려해 상향 여부 등을 검토할 필요가 있다고 결론을 내렸다. 올해 미국 실리콘밸리은행 SVB 사태와 국내 새마을금고 뱅크런 사태 등을 거치며 보호한도를 1억 원까지 상향해야 한다는 논의가 이어졌지만 지난해부터 이어진 검토 결과 한도 상향으로 얻을 수 있는 실익이 크지 않다고 판단한 것이다.실제 예금자의 98.1가 5000만 원 이내로 예금을 유지 한도를 1억 원으로 상향하더라도 보호 대상은 99.3로 1.2포인트 늘어나는 데 그치는 것으로 분석됐다. 보호한도가 높아지면 시중은행 자금이 저축은행상호금융 등 2금융권으로 대거 이동하고 업권 간 수신경쟁이 강화되면서 시장이 불안해질 가능성이 높다는 점도 고려했다. 금융사가 예금보험공사에 지불해야 하는 보험료가 인상되면서 대출금리 역시 올라가는 등 소비자에게 부담이 전가되는 부작용도 감안한 것으로 보인다.정부는 보호 대상을 넓히기 위해 조만간 연금저축공제 및 일반 공제상품을 취급하는 새마을금고신협수협 등 상호금융권에 대해서도 5000만 원까지 별도로 예금을 보호하도록 개별법 시행령 개정 작업을 마무리할 예정이다. 금융위 측은 각각 별도 보호한도를 적용하더라도 금융사들이 부담하는 예금보험료는 변동이 없고 향후 부실이 발생하더라도 기금에 미치는 손실도 미미할 것이라며 시행령 개정안은 10월 중 공포 즉시 시행된다고 설명했다.</t>
+          <t xml:space="preserve">연금저축처럼 사회보장 성격이 강한 금융상품들도 일반 예금과 별개로 5000만원까지 추가로 예금자보호한도를 적용받게 된다.10일 금융위원회는 이 같은 내용을 담은 예금자보호법 시행령이 국무회의에서 의결됐다고 밝혔다. 개정안은 연금저축 사고보험금 중소기업퇴직연금기금에 대해 동일 금융회사에 예금자가 보유한 일반 예금과 별도로 5000만원까지 보호하는 내용이다. 다만 확정기여 DC형과 개인형 퇴직연금 IRP 등에 대해서는 2015년부터 별도로 보호한도를 적용해 왔다.이번에 추가 적용되는 상품들은 노후 소득 신체재산상 손해보장 등 사회보장 성격이 강하다. 그동안 금융소비자 효용 증대 측면에서 관련 제도 개선이 필요하다는 의견이 있었다.금융위는 연금저축 및 중기퇴직기금으로 국민이 더욱 안전하게 노후를 준비할 수 있게 됐다고 밝혔다. 또 사고보험금에 대해선 보험사 부실 시에도 불의의 사고를 겪은 예금자를 보다 두껍게 보호하려는 것이라고 설명했다. </t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>['퇴직연금 경쟁', '퇴직연금 저축은행', '퇴직연금 가입', '퇴직연금 예금']</t>
+          <t>['퇴직연금 DC', '퇴직연금 IRP', '개인형퇴직연금', '퇴직연금 예금']</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>[{'퇴직연금 경쟁': 1}, {'퇴직연금 저축은행': 1}, {'퇴직연금 가입': 1}, {'퇴직연금 예금': 17}]</t>
+          <t>[{'퇴직연금 DC': 9}, {'퇴직연금 IRP': 6}, {'개인형퇴직연금': 8}, {'퇴직연금 예금': 18}]</t>
         </is>
       </c>
       <c r="K33" t="n">
@@ -3923,7 +3923,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>은행 예금 퇴직연금 등에만 5000만 원까지 보장되던 예금자보호 범위가 연금저축 사고 보험금 등으로 확대된다.</t>
+          <t>연금저축 사고보험금 중소기업퇴직연금기금에 대해 동일 금융회사에 예금자가 보유한 일반 예금과 별도로 5000만원까지 보호하는 내용이 있음</t>
         </is>
       </c>
       <c r="M33" t="n">
@@ -3931,31 +3931,31 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>해당 기사에는 산업 경쟁 동향에 대한 내용이 없음</t>
+          <t>No information related to industry competition trends</t>
         </is>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>해당 기사에는 금융 시장 변동의 영향에 대한 내용이 없음</t>
+          <t>금융소비자 효용 증대 측면에서 관련 제도 개선이 필요하다는 의견이 있음</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>정부는 10일 국무회의를 열고 예금자보호법 시행령 개정안을 의결했다.</t>
+          <t>No information related to legal and regulatory changes</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>해당 기사에는 인구 변화에 관한 내용이 없음</t>
+          <t>노후 소득 신체재산상 손해보장 등 사회보장 성격이 강한 상품들에 대한 내용이 있음</t>
         </is>
       </c>
       <c r="U33" t="n">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>해당 기사에는 기술과 디지털화에 관한 내용이 없음</t>
+          <t>No information related to technology and digitalization</t>
         </is>
       </c>
       <c r="W33" t="n">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>해당 기사에는 소비 행동과 요구사항에 관한 내용이 없음</t>
+          <t>No information related to consumption behavior and requirements</t>
         </is>
       </c>
     </row>
@@ -3983,33 +3983,139 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>퇴직연금 상품</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>예금자보호 대상에 연금저축 포함... 한도는 5000만 원 유지</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>은행 예금 퇴직연금 등에만 5000만 원까지 보장되던 예금자보호 범위가 연금저축 사고 보험금 등으로 확대된다. 정부는 10일 국무회의를 열고 예금자보호법 시행령 개정안을 의결했다. 대신 정부는 2001년 이후 23년 동안 5000만 원 선에 묶여 있는 예금자보호 한도는 유지하는 쪽으로 가닥을 잡았다.</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>7</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>https://n.news.naver.com/mnews/article/469/0000764350?sid=101</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>은행 예금 퇴직연금 등에만 5000만 원까지 보장되던 예금자보호 범위가 연금저축 사고 보험금 등으로 확대된다. 보호 한도는 5000만 원이 유지되지만 범위 확대로 보호받는 금액이 증가하는 효과가 예상된다. 정부는 10일 국무회의를 열고 예금자보호법 시행령 개정안을 의결했다. 개정안은 사회보장적 성격이 강한 연금저축 신탁보험과 사고보험금 중소기업 퇴직연금기금을 별도로 5000만 원까지 보호한다는 내용을 담고 있다. 대상이 된 연금저축 등은 기존에는 보호대상 일반 금융상품과 합쳐서 5000만 원까지 보호가 가능했다. A은행에 예금 5000만 원이 이미 있었다면 같은 은행에서 가입한 연금저축신탁은 보호되기 어려운 구조였던 셈이다. 정부는 연금저축과 사고보험금 등이 국민 노후 설계와 사회안전망 유지에 중요한 상품이라 판단하고 예금자 보호 대상에 포함시켰다. 이에 따라 각각 5000만 원을 초과하는 은행 예금과 연금저축을 보유할 경우 최대 1억 원까지 보호받을 수 있게 된다. 대신 정부는 2001년 이후 23년 동안 5000만 원 선에 묶여 있는 예금자보호 한도는 유지하는 쪽으로 가닥을 잡았다. 금융위원회는 국회 정무위원회에 보고한 예금보험제도 개선 검토안에서 향후 찬반 논의 시장 상황 등을 종합 고려해 상향 여부 등을 검토할 필요가 있다고 결론을 내렸다. 올해 미국 실리콘밸리은행 SVB 사태와 국내 새마을금고 뱅크런 사태 등을 거치며 보호한도를 1억 원까지 상향해야 한다는 논의가 이어졌지만 지난해부터 이어진 검토 결과 한도 상향으로 얻을 수 있는 실익이 크지 않다고 판단한 것이다.실제 예금자의 98.1가 5000만 원 이내로 예금을 유지 한도를 1억 원으로 상향하더라도 보호 대상은 99.3로 1.2포인트 늘어나는 데 그치는 것으로 분석됐다. 보호한도가 높아지면 시중은행 자금이 저축은행상호금융 등 2금융권으로 대거 이동하고 업권 간 수신경쟁이 강화되면서 시장이 불안해질 가능성이 높다는 점도 고려했다. 금융사가 예금보험공사에 지불해야 하는 보험료가 인상되면서 대출금리 역시 올라가는 등 소비자에게 부담이 전가되는 부작용도 감안한 것으로 보인다.정부는 보호 대상을 넓히기 위해 조만간 연금저축공제 및 일반 공제상품을 취급하는 새마을금고신협수협 등 상호금융권에 대해서도 5000만 원까지 별도로 예금을 보호하도록 개별법 시행령 개정 작업을 마무리할 예정이다. 금융위 측은 각각 별도 보호한도를 적용하더라도 금융사들이 부담하는 예금보험료는 변동이 없고 향후 부실이 발생하더라도 기금에 미치는 손실도 미미할 것이라며 시행령 개정안은 10월 중 공포 즉시 시행된다고 설명했다.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['퇴직연금 경쟁', '퇴직연금 저축은행', '퇴직연금 가입', '퇴직연금 예금']</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>[{'퇴직연금 경쟁': 1}, {'퇴직연금 저축은행': 1}, {'퇴직연금 가입': 1}, {'퇴직연금 예금': 17}]</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>3</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>은행 예금 퇴직연금 등에만 5000만 원까지 보장되던 예금자보호 범위가 연금저축 사고 보험금 등으로 확대된다.</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>해당 기사에는 산업 경쟁 동향에 대한 내용이 없음</t>
+        </is>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>해당 기사에는 금융 시장 변동의 영향에 대한 내용이 없음</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>정부는 10일 국무회의를 열고 예금자보호법 시행령 개정안을 의결했다.</t>
+        </is>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>해당 기사에는 인구 변화에 관한 내용이 없음</t>
+        </is>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>해당 기사에는 기술과 디지털화에 관한 내용이 없음</t>
+        </is>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>해당 기사에는 소비 행동과 요구사항에 관한 내용이 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2023-10-10</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
           <t>퇴직연금 제도</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>커닝공시 시행 빈틈 노리는 증권·보험사들…340조 퇴직연금 금리 또 '꿈틀'</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>퇴직연금 시장의 약정 금리가 6에 육박하며 상승하고 있다. 금융당국이 원천 차단을 예고한 금리 베끼기 이른바 커닝 공시 차단이 다소 지연되면서 그 사이 빈틈을 노린 비사업자들이 금리 경쟁을 이어가고 있다.</t>
         </is>
       </c>
-      <c r="F34" t="n">
+      <c r="F35" t="n">
         <v>6</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>https://news.einfomax.co.kr/news/articleView.html?idxno=4283405</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t xml:space="preserve">
 퇴직연금 금리 6 육박금리 상승에 고객 눈높이 높아지고 역마진도
@@ -4046,120 +4152,14 @@
  </t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>['퇴직연금 DB', '퇴직연금 사업자', '퇴직연금 적립금', '퇴직연금 규모', '퇴직연금 고용노동부', '퇴직연금 금융감독원', '퇴직연금 경쟁', '하나 퇴직연금', '퇴직연금 가입', '퇴직연금 채권']</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>[{'퇴직연금 DB': 2}, {'퇴직연금 사업자': 15}, {'퇴직연금 적립금': 7}, {'퇴직연금 규모': 12}, {'퇴직연금 고용노동부': 6}, {'퇴직연금 금융감독원': 3}, {'퇴직연금 경쟁': 5}, {'하나 퇴직연금': 6}, {'퇴직연금 가입': 49}, {'퇴직연금 채권': 22}]</t>
-        </is>
-      </c>
-      <c r="K34" t="n">
-        <v>3</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>퇴직연금 시장의 약정 금리 상승에 대한 정보가 포함되어 있음.</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>2</v>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>비사업자들이 금리 경쟁을 이어가고 있다는 경쟁 동향이 언급되었음.</t>
-        </is>
-      </c>
-      <c r="O34" t="n">
-        <v>1</v>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>금융당국이 원천 차단을 예고한 금리 베끼기 이른바 커닝 공시 차단이 다소 지연되고 있다는 금융 시장의 변동성에 대한 정보가 포함되어 있음.</t>
-        </is>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>법률 및 규제 변경에 대한 정보가 포함되어 있지 않음.</t>
-        </is>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>노인 인구 증가 및 퇴직연금의 장기적인 지속 가능성에 대한 정보가 포함되어 있지 않음.</t>
-        </is>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>기술 및 디지털화에 대한 정보가 포함되어 있지 않음.</t>
-        </is>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="inlineStr">
-        <is>
-          <t>소비 행동 및 요구사항에 대한 정보가 포함되어 있지 않음.</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2023-10-10</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>퇴직연금 제도</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>5.5억 받고 1만7천여명 짐쌌다…은행권 희망퇴직금 10조 쐈다 [2023국감]</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>국내 은행이 최근 6년간 9조 6047억원의 희망퇴직금을 지급한 것으로 나타났습니다. 국내 14개 은행의 희망퇴직자는 1만7402명이며 지급된 퇴직금은 9조 60047억원에 달했습니다. 퇴직금액 비중은 전체 퇴직금 10조 1234억원의 94.8로 절대적이었습니다.</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>6</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000353873?sid=101</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>국내 은행이 최근 6년간 9조 6047억원의 희망퇴직금을 지급한 것으로 나타났습니다.10일 국회 정무위원회 소속 강민국 의원실이 금융감독원으로부터 받은 국내 은행권 희망퇴직 현황 자료에 따르면 2018년부터 올해 7월까지 희망퇴직제도를 실시하고 있는 국내 14개 은행 국민하나농협신한우리씨티SC부산대구경남수협광주전북제주의 희망퇴직자는 1만7402명이며 지급된 퇴직금은 9조 60047억원에 달했습니다.이는 동일기간 희망퇴직제 운영 중인 은행 전체 퇴직자 2만6852명의 64.8를 차지하는 비율입니다. 퇴직금액 비중은 전체 퇴직금 10조 1234억원의 94.8로 절대적이었습니다.연도별로 살펴보면 희망퇴직자는 2018년 2573명 1조 1314억원 2019년 2651명 1조 4045억원 2020년 2473명 1조 2743억원 2021년 3511명 1조 9407억원 2022년 4312명 2조 8283억원 2023년 7월 1882명 1조 212억원을 기록했습니다.같은 기간 희망퇴직자가 가장 많은 은행은 국민은행 3671명이었습니다. 이어 하나은행 2464명 농협 2349명은행이 뒤를 이었습니다. 희망퇴직금이 가장 많은 곳은 2021년 소매금융 철수를 진행한 씨티은행 1조7953억원이었습니다.은행권 전체 퇴직자의 평균 퇴직금은 3억5600만원인 것에 반해 같은 기간 희망퇴직자의 평균 퇴직금은 5억5200만원으로 전체 퇴직자 평균 퇴직금의 154.9에 달했습니다. 가장 많은 평균 희망퇴직금이 지급된 은행은 씨티은행 8억 2600만원으로 집계됐습니다.당신의 제보가 뉴스로 만들어집니다.SBS Biz는 여러분의 제보를 기다리고 있습니다.홈페이지 https url.kr 9pghjn</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>['퇴직금 제도', '희망퇴직 퇴직금']</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>[{'퇴직금 제도': 4}, {'희망퇴직 퇴직금': 8}]</t>
         </is>
       </c>
       <c r="K35" t="n">
@@ -4167,23 +4167,23 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>퇴직금 지급액이 많고, 은행들의 희망퇴직 현황을 파악할 수 있음</t>
+          <t>퇴직연금 시장의 약정 금리 상승에 대한 정보가 포함되어 있음.</t>
         </is>
       </c>
       <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>비사업자들이 금리 경쟁을 이어가고 있다는 경쟁 동향이 언급되었음.</t>
+        </is>
+      </c>
+      <c r="O35" t="n">
         <v>1</v>
       </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>경쟁 은행들의 희망퇴직자 수와 퇴직금액을 비교할 수 있음</t>
-        </is>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>금융 시장 변동이나 투자 자산의 변동에 대한 내용이 없음</t>
+          <t>금융당국이 원천 차단을 예고한 금리 베끼기 이른바 커닝 공시 차단이 다소 지연되고 있다는 금융 시장의 변동성에 대한 정보가 포함되어 있음.</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -4191,15 +4191,15 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>법률 및 규제 변화에 대한 내용이 없음</t>
+          <t>법률 및 규제 변경에 대한 정보가 포함되어 있지 않음.</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>희망퇴직제도와 은퇴자 수에 대한 내용이 있음</t>
+          <t>노인 인구 증가 및 퇴직연금의 장기적인 지속 가능성에 대한 정보가 포함되어 있지 않음.</t>
         </is>
       </c>
       <c r="U35" t="n">
@@ -4207,7 +4207,7 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>기술과 디지털화에 대한 내용이 없음</t>
+          <t>기술 및 디지털화에 대한 정보가 포함되어 있지 않음.</t>
         </is>
       </c>
       <c r="W35" t="n">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>소비 행동 및 요구사항에 대한 내용이 없음</t>
+          <t>소비 행동 및 요구사항에 대한 정보가 포함되어 있지 않음.</t>
         </is>
       </c>
     </row>
@@ -4237,12 +4237,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>“GDP 11%도 공포 수준 아냐” “그걸 감당할 인구, 너무 적다”</t>
+          <t>5.5억 받고 1만7천여명 짐쌌다…은행권 희망퇴직금 10조 쐈다 [2023국감]</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>국회 연금개혁특별위원회가 활동기한을 내년 5월까지 연장하기로 했기 때문에 국민연금 개혁은 내년 4월 총선 이후에 본격 논의될 가능성이 높아졌다. 국민연금 가입기간이 긴 노동시장 중심부의 노동자들이 대체율 인상의 혜택을 가장 크게 입을 것이기 때문에 가입기간이 짧은 불안정 노동자들을 위해 재정이 우선적으로 쓰여야 한다고 본다. 퇴직연금 개혁을 통해 중상위층에게도 기댈만한 연금을 제공하고, 국민연금 소득대체율을 인상하여 노후소득보장을 강화할 필요가 있다.</t>
+          <t>국내 은행이 최근 6년간 9조 6047억원의 희망퇴직금을 지급한 것으로 나타났습니다. 국내 14개 은행의 희망퇴직자는 1만7402명이며 지급된 퇴직금은 9조 60047억원에 달했습니다. 퇴직금액 비중은 전체 퇴직금 10조 1234억원의 94.8로 절대적이었습니다.</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -4250,22 +4250,22 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/033/0000046285?sid=101</t>
+          <t>https://n.news.naver.com/mnews/article/374/0000353873?sid=101</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 국민연금 개혁은 올해에도 물 건너가는 것일까. 연금개혁의 시간표가 다시 미뤄질 조짐이다. 국회 연금개혁특별위원회가 활동기한을 내년 5월까지 연장하기로 했기 때문이다. 인기 없는 연금개혁 속성을 감안할 때 내년 4월 총선 이후에나 본격 논의될 가능성이 높아졌다.국민연금 개혁은 2007년 이후 번번이 무산돼왔다. 지난 16년간 정부와 정당들은 전문가들의 논쟁 뒤에 숨은 채 뒷짐만 져왔다. 정부와 정당이 각자의 입장을 내놓고 여론을 수렴하는 과정을 회피하는 동안 전문가들의 열띤 논쟁은 대중에게 제대로 소개되지 못했다.주간경향은 국민연금을 두고 이어져 온 소득대체율 인상론과 재정안정론의 끝장토론 자리를 마련했다. 소득대체율 인상론 측의 주은선 경기대 사회복지학과 교수와 재정안정론 측의 오건호 내가만드는복지국가 정책위원장이 지난 10월 4일 경향신문사 여적향에서 논쟁을 벌였다.국민연금 개혁해야 하는 이유는국민연금 개혁이 필요한 이유에 대한 생각부터 양측이 다른 것으로 안다. 왜 개혁이 필요한지를 각자 말해달라.오건호 내가만드는복지국가 정책위원장 이하 오 국민연금이 지속가능성을 가지기 위해서는 고강도 재정안정화가 필요하다는 것이 최근 5차 재정계산서도 확인됐다. 현재 젊은 세대들이 국민연금을 불신하는 이유는 지속가능성에 대한 불안 때문이라고 생각한다. 청년들에게 비전을 보여줄 필요가 있다. 물론 공적연금의 존재 목적이 노후소득 보장인 만큼 노후소득 보장을 강화하는 제도개혁 또한 필요하다. 하지만 어떤 방식이 적절할지는 서로 이견이 있다. 서로 잘 논의해 앞으로 조정이 되길 바란다. 재정계산은 현 보험료와 연금액을 유지할 때 기금이 언제 소진되는지 등을 보여주는 계산으로 국민연금법에 따라 5년마다 하도록 돼 있다. 올해 5차 계산에선 현 제도를 그대로 유지할 경우 기금이 2055년 소진되고 그해 걷어서 그해 연금액을 충당할 경우 미래 청년세대 보험료율은 최대 35까지 오른다는 결과가 나왔다편집자 주주은선 경기대 사회복지학과 교수 이하 주 국민연금이 도입된 지 30년이 지났지만 노후소득 보장 기능이 너무 심하게 부족하다. 평균급여액이 약 60만원이다. 초고령화 국면에서 노후빈곤을 어떻게 예방할 것인가에 대한 논의는 그간 소극적이었다고 생각한다. 초고령사회에선 노후소득을 획기적으로 보장해야만 살 만한 사회가 된다. 게다가 2030년에서 2050년 사이 국민연금을 받게 되는 사람들의 보장수준은 보험료를 내는 기간은 더 늘어나는 데도 오히려 더 떨어질 것으로 예상된다. 2007년 급여삭감 때문이다. 그런 의미에서 저는 소득대체율 인상이 꼭 필요하다고 본다. 소득대체율은 은퇴 후 받게 될 연금액 수준을 보여주는 지표다. 현재 국민연금 소득대체율은 42.5다. 일하던 시기 100만원을 벌었다면 은퇴 후 연금액으로 42만5000원을 받는 것을 의미한다. 40년 가입 기준이다. 보험료 납입기간이 40년보다 짧으면 실제 대체율 수준은 더 낮아진다. 대략 1년당 1씩 낮아진다고 보면 된다. 현 소득대체율 42.5는 조금씩 줄어 2028년 40에 도달하게끔 돼 있다. 이번 토론에서는 편의상 소득대체율을 40로 놓고 대화했다편집자 주재정계산 결과를 보면 미래 청장년 세대의 보험료 부담이 커지는 것은 사실로 여겨진다.주 재정계산은 팩트가 아니라 추정일 뿐이다. 현재 시점에서 미래라는 과녁에 화살을 던지는 것과 같은데 성장 고용 소득 인구 등의 변수에 따라 과녁은 계속 움직인다. 그런 의미에서 언론이 자주 쓰는 2055년 기금 고갈된다는 등의 표현은 타당하지 않다. 추정을 팩트로 표현하는 것이기 때문이다. 다만 재정계산 결과로 흐름은 볼 수 있다. 미래 생산세대의 부담이 늘어나는 것은 맞다. 그런데 노인이 인구 40를 넘는 사회에서 국민연금 지출이 GDP의 약 11가 되는 것이 비상식적인가 싶다. 그 시기 노인들이 받아갈 연금액을 온전히 청장년 개인들이 보험료로 부담해야 한다는 생각에서 벗어나야 한다. 분담 구조를 어떻게 짤 것인가를 고민하면서 풀어야 할 문제다.오 재정계산이 미래의 수치를 알아맞히는 작업이 아닌 것은 맞다. 그 대신 구조를 보는 것이다. 특정 시점에서의 지출과 수입의 구조를 봐서 재정이 균형을 이루고 있는지 아닌지를 보는 것이다. 불균형이라면 불균형의 규모를 보는 것이다. 미래의 국민연금 재정이 매우 불안정해지기 때문에 현세대와 달리 미래세대의 재정부담이 무척 커진다는 계산 결과의 메시지는 명확하다. 주 교수가 말한 고용 소득 인구 등의 변수를 다양하게 넣어도 이 메시지는 변하지 않는다.미래세대 개인이 모두 부담한다는 생각에서 벗어나야 한다. 국민연금의 소득재분배 성격을 고려하면 조세 투입을 못 할 이유가 없다. 현재 부과 대상이 GDP의 30를 안 넘는다. 플랫폼 기업 등에도 부담을 지워야 한다. 주은선 경기대 교수미래세대 부담 심각하다 vs 과장이다미래세대 부담이 심각하냐 아니냐에 대한 입장이 갈리는 것 같다.주 현재의 소득대체율 40를 유지했을 때 70년 후 국내총생산 GDP의 9가량이 연금액으로 지출될 것으로 보인다. 만약 소득대체율을 50로 올리면 70년 후 GDP의 약 11를 지출하게 된다. 지금도 노인 세대를 위한 공적연금에 GDP 11 이상을 지출하는 나라들이 꽤 있다. 이 정도를 그리 공포스러워 해야 하나. 시장에서 일하지 못하는 인구에 적정 소득을 보장해 소비할 수 있게 해서 경제균형을 이뤄나가는 것 그게 복지국가고 복지 자본주의다. 미래세대에게 감당하기 어려운 부담을 떠넘긴다고 얘기하는 것은 과장이다.오 먼저 소득대체율을 40에서 더 낮추자는 입장은 아니라는 점을 말하고 싶다. 지금의 소득대체율을 유지하자는 입장이고 그럴 경우 말한 대로 70년 후 미래세대가 GDP 9 지출을 감당해야 한다. 그런데 그들이 처할 환경이 무척 어려울 거다. 연금액 지출에 GDP 11 이상 지출하는 서구 국가들 얘기를 했는데 20세기 중후반의 서구와 비교할 때 한국의 노인부양비는 매우 높아지는 구조다. 초저출생 때문이다. 서구 국가들의 GDP 10와 미래 한국사회의 GDP 10를 감당하는 인구 규모가 완전히 다르다. 우리가 훨씬 적을 것이다. 게다가 그 세대는 그해 걷어서 그해 지출해야 하는 건강보험과 기초연금 등의 부담도 훨씬 커질 전망이다. 미래세대가 GDP 9 지출을 감당할 수 있도록 지금 우리가 도와줘야 한다고 본다. 현재 우리의 연금액 지출은 GDP 2다. 지금부터 단계적으로 올려야 한다.주 보험료 인상에 반대하는 것은 아니다. 소득대체율 인상이 필요하다는 입장에서는 더욱 그렇다. 다만 지나친 연기금 적립 역시 문제이므로 그 속도와 폭을 조정해야 한다. 70년 후 GDP 911 지출이 큰 부담이냐 아니냐에 대한 얘기를 이어나가겠다. 공적연금 지출을 줄여주는 것이 과연 미래세대의 부담을 덜어주는 일일까. 부모가 국민연금만으로 노후를 보내기 어려워지면 자녀의 사적이전 생활비를 드리는 것 부담이 늘어난다. 은퇴 이후가 불안해 사적연금 시장에 기대는 이들도 많아질 거다. 아울러 연금액이 낮아 노후빈곤에 처하는 사람이 많아질수록 기초연금과 국민기초생활보장제도와 같은 공공부조 부담도 늘어난다. 사회연대의 원리에 입각한 국민연금이 더 많은 사람의 노후를 제대로 보장하게 하는 것이 결과적으로 모두의 부담을 더는 길이다. 그리고 앞서 말했듯 개인들이 GDP 11를 전부 부담해야 한다는 생각에서 벗어나 새로운 연금재정 패러다임에 대해 고민해 볼 필요도 있다.새로운 재정 패러다임 가능할까미래의 청장년 세대 개인이 모두 부담해야 한다는 생각에서 벗어나야 한다고 했는데 구체적으로 어떻게 가능할까.주 장기적으로 조세가 역할을 할 수 있다고 본다. 우리의 국민연금엔 소득재분배 성격이 있다 국민연금은 보험료를 낸 만큼 연금액을 받는 구조가 아니다. 평균소득보다 적게 번 이들에게 상대적으로 더 얹어주는 하후상박 구조다. 물론 절대적인 연금액은 고소득층이 높지만 낸 보험료 대비 연금액의 비율은 저소득층이 더 높다편집자 주. 국민연금의 소득재분배 성격을 고려하면 조세 투입을 못 할 이유가 없다고 본다. 자본의 역할을 강화하는 방식도 있다. 지금은 기업과 개인이 보험료를 55 부담하는데 기업 부담을 6570로 올릴 수도 있다. OECD 평균이 대략 그 정도다. 아울러 보험료 부과 대상소득이 GDP의 30 이하로 26 수준인 것으로 추정된다. 이를테면 사실상 사용자 역할을 하고 있는 플랫폼 기업에 보험료 부담을 지워야 한다. 프랑스는 자산소득을 비롯한 모든 종류의 개인소득과 대기업 법인세에 사회보장세를 부과한다. 장기 미래에 가능한 재정 패러다임 변화를 지금 구체적으로 얘기하긴 어렵다. 미래에 부가 어떤 방식으로 창출될지 그 변화를 미리 예단하기가 어렵기 때문이다.오 국민연금에 보험료 이외 재원 투입될 수 있다고 본다. 문제는 미래세대의 지출 부담은 지금 명확하게 수치로 확인이 되는데 소득대체율 인상론 측이 말하는 충당 방안은 아직 범주 수준이다. 저는 소득대체율 인상은 어렵다는 입장이지만 소득대체율 유지 역시 미래세대 부담이 크기 때문에 개인적으로 가늠을 해봤다. 현재 보험료 부과대상이 GDP의 30가 채 되지 않는다고 했다. 마치 70라는 미지의 영역이 남아 있는 것처럼 여겨지지만 국민계정에 분배 GDP 구성을 들여다보면 추가 부과대상으로 삼을 만한 것이 그리 많지 않다. 부과대상을 현 30 수준에서 40 수준으로 높이고 보험료율 15로 인상해도 재원은 여전히 매우 모자라다. 결국은 법인과 자본에다 과세하자는 주장인데 부족액을 충당할 만큼 확보할 수 있느냐의 문제가 있다. 우리는 이미 기업과 자본소득에 대해서 과세를 하고 있다. 자동차든 로봇이든 부동산이든 결국은 재산세와 종합부동산세로 거둬질 거다. 여기에 횡재세 정도가 추가될 수 있다. 과세를 강력히 한다고 해도 여전히 부족할 것이다. 나아가 혹시 충분한 재원이 나온들 그걸 소득대체율 인상에 따른 부족액을 메우는 데 쓰는 게 맞느냐는 또 다른 논점이 있다.무슨 뜻인가.오 현재 가입자들은 보험료가 너무 낮다 보니 낸 것에 비해 과하게 많이 받게 돼 있다. 낸 것보다 더 받는 만큼을 미래세대에 빚지고 있는 거다. 이걸 현세대가 보험료 인상으로 어느 정도 책임을 져야 그다음 조세 투입도 얘기할 수 있다고 본다. 그래서 저는 보험료율 15까지는 점진적으로 인상하되 그 이후에도 재정이 어렵다면 그때는 국고 투입이 가능하다고 본다. 하지만 재정을 투입하더라도 그 돈이 소득대체율 인상에 우선적으로 쓰이는 것에는 찬성하지 않는다. 국민연금 가입기간이 긴 노동시장 중심부의 노동자들이 대체율 인상의 혜택을 가장 크게 입을 것이기 때문이다. 가입기간이 짧아 소득대체율이 실질적으로 낮은 불안정 노동자들을 위해 재정이 우선적으로 쓰여야 한다고 본다.국민연금 보험료가 너무 낮다 보니 계층 간 역진성 문제가 생긴다. 고소득자가 덜 받는 만큼 저소득자가 더 받아가는 게 아니다. 모두가 낸 것보다 더 받아가며 그 돈이 미래세대에서 온다. 기간이 길고 임금이 높을수록 순혜택이 크다. 오건호 내만복 정책위원장소득대체율 인상 고소득층에 더 유리하다 vs 사회보험의 특성을 이해해야소득대체율 인상이 어떤 효과를 낼 것이냐에 대한 논의로 이어가자. 재정안정론 측에서는 소득대체율 인상이 실질적인 소득대체율 인상으로 이어지지 않을 것이라고 주장하는 것으로 안다.오 국민연금 급여는 결국 소득비례 가입기간 비례다. 연금액을 일제히 높이는 소득대체율 인상의 효과는 높은 임금을 받으면서 장기간 고용된 노동시장 중심부에 집중될 것이다.주그 주장은 사회보험이 정의롭지 않다고 얘기하는 것과 같다. 고용보험의 실업급여 역시 소득비례다 더 많이 벌던 사람이 더 많은 실업급여를 받는다는 뜻이다편집자 주. 실업급여의 소득대체율을 50에서 60로 올리는 것은 임금이 높을수록 혜택이 크니 정의롭지 않은 것인가. 국민연금의 급여나 고용보험의 실업급여나 본질적으로 기존 소득의 대체 기능을 하도록 돼 있는 것이다. 그게 그 제도의 목적이다. 게다가 다른 사회보험과 달리 국민연금에는 강력한 재분배 요소가 들어가 있다.오 사회보험의 특성과 국민연금의 재분배 요소를 무시하는 것이 아니다. 지금의 국민연금엔 보험료가 너무 낮다 보니 생기는 계층 간 역진성의 문제가 있다 저소득층보다 고소득층에 더 유리하다는 뜻편집자 주. 무슨 얘기냐면 지금 국민연금에 소득재분배 기능이 있긴 하지만 고소득자가 덜 받는 만큼을 저소득자가 더 받아가는 구조가 아니다. 모두가 낸 것보다 더 받아가는데 그 돈은 미래세대에서 오는 것이다. 낸 보험료보다 더 돌려받는 만큼을 순혜택이라고 하는데 가입기간 길고 임금 높을수록 순혜택 절대액이 커진다. 즉 미래세대 부담으로 귀결되는 순혜택의 이득이 노동시장 중심부 고소득자들에게 집중된다는 얘기다. 이것이 옳으냐 하는 문제 제기다.주 국민연금에서 각자 낸 보험료와 급여의 수익을 따지며 계층 간 역진성 고소득층에 유리한 성격 얘기하는 자체가 이상하다고 생각한다. 국민연금제도는 각자 계정에 돈을 쌓고 자기가 낸 돈에 상응해 급여를 받는 제도가 아니다. 총량적으로 수입 보험료과 지출 연금액을 맞춰가는 제도이며 장수에 대응하는 제도이므로 수명에 따라 보장 총량이 달라진다. 개별 수익을 중심으로 연금제도를 보는 것은 공적연금의 본질과 어긋난 접근이란 생각이다. 하지만 계층별 수익을 따진다고 하더라도 오 위원장의 문제 제기는 일정 수준 이상의 보험료 인상으로 해소된다. 이것은 소득대체율 인상을 가로막을 근거가 되지 않는다. 오히려 소득대체율도 인상하되 거기에 필요한 재원을 어떻게 재분배성이 강하게 설계할 것이냐에 대한 얘기를 해야 하지 않을까.오 보험료 인상과 더불어 소득대체율을 인상하면 보험료 인상의 효과가 상쇄된다. 미래세대의 부담을 덜어주지 못한다는 얘기다. 그 세대의 부담으로 귀결되는 혜택이 노동시장 중심부에 집중되는 문제를 풀지는 못한다. 국고지원을 적극 얘기하고 있다. 앞서 말했듯 저도 반대하지 않는다. 그런데 입장을 명확하게 하기 위해 이렇게 나눠서 얘기했으면 좋겠다. 국민연금 부족액을 위한 국고지원 크레딧 제도와 보험료 지원사업을 위한 국고지원으로 말이다.국고를 투입하더라도 무엇에 우선적으로 지원할 것이냐에 대한 얘기인 것 같다.주 뭘 먼저 하고 뭘 나중에 한다는 식으로 접근할 문제는 아니라고 본다. 우리나라 국민연금 보장 수준은 그냥 무슨 짓이든 다 해야 하는 수준이다. 소득대체율 인상과 가입기간을 늘려주는 조치가 같이 가야 하는 것이지 우선을 따질 일이 아니라고 본다. 크레딧 제도는 군복무 출산 등 사회적 공헌을 한 이들에게 가입기간을 늘려주는 것이다. 소득대체율은 급여산식을 바꿔서 적용하는 폭넓은 조치인 반면 크레딧 제도는 일정한 공헌을 한 사람을 타켓팅한 제도다. 그리고 질병이나 장애 등 여러 사정으로 인해 사회적 공헌을 못 하는 이들도 많다. 두 기제는 대체 가능한 것이 아니다. 아울러 취약계층 보험료 지원사업은 당연히 해야 하는 것이다. 그런 과제를 뒤로 미루자는 얘기가 아니다. 오히려 소득대체율 인상과 결합할 때 이런 조치의 보장성 강화 효과는 더 커진다. 또 중심부 노동자들 얘기를 하셨는데 그렇다면 그들은 은퇴 이후 소득절벽이란 위험에서 벗어나 있나. 소득대체율 인상하면 이 사람들만 혜택 봐요라고 하면서 마치 이들이 기득권을 형성하고 있는 것처럼 말하고 있다. 실질적으로는 별 기득권도 없는데.퇴직연금은 연금으로서 역할을 할 수 있나오 중간계층 중산층의 연금액도 충분치 않은 것은 사실이다. 그런데 결국은 한정된 자원의 배분 문제 아닌가. 우선순위로 무엇을 둘 것인가의 문제라고 생각한다. 소득대체 인상도 미래세대 부담이 될 재원 문제 때문에 다른 대안을 찾자는 것이다. 가입기간이 짧은 불안정 노동자 저소득층에게 가입기간을 늘려주는 조치 크레딧 제도를 의미. 가입기간을 1년 늘려줄 때 소득대체율 1씩 늘어난다편집자 주를 통해 그들의 실질적인 소득대체율을 올려줄 수 있다고 본다. 중상위 계층에게도 소득대체율 인상 대신 다른 대안이 있다. 기업이 매년 임금의 8.34씩을 퇴직금으로 쌓아두고 있다. 지난해 한해간 쌓인 퇴직금 적립액이 그해 국민연금 보험료 총액을 넘어섰다. 든든한 연금으로 기능케 할 잠재력이 퇴직금에 충분히 있다는 뜻이다.주 현 제도는 퇴직급여 제도이고 퇴직금과 퇴직연금 중 선택할 수 있게 돼 있다. 퇴직연금 가입률은 가입대상 노동자의 절반을 약간 넘는다. 퇴직연금은 금융시장을 통해 돌아가는 사적연금으로 재분배 기능이 없고 유족급여 장애급여도 없다. 국민연금처럼 죽을 때까지 물가연동으로 실질가치를 보장해주는 그런 질 좋은 연금이 아니다. 퇴직연금에 대해 제대로 된 노후소득보장 기능을 기대하기는 힘들다.오 퇴직연금은 사적연금인 건 맞다. 여러 한계가 있지만 그럼에도 사용자가 전액 기여 매해 각 노동자의 임금 8.34를 적립하는 제도다. 저는 두 가지의 정책 과제를 더하면 퇴직연금도 중상위층이 기댈만한 연금이 될 수 있다고 본다. 한가지는 1년 미만 고용된 노동자에게도 퇴직금 제도를 적용하는 것 또 다른 과제는 비자발적 실업기간에도 실업급여를 보장해줘 퇴직금의 중간해지를 엄격히 규제하는 것이다. 네덜란드나 덴마크 등에선 퇴직연금이 노후소득원의 한 축으로 작동한다.주 네덜란드 덴마크는 산별협약에 의해 작동하는 퇴직연금으로 성격이 다르다. 한국에는 그런 기반이 없다. 퇴직금을 제대로 된 연금으로 작동하도록 제도를 개혁하는 데 시간이 매우 많이 걸릴 것이다. 가능할지도 불확실하다.오 국민연금 소득대체율을 인상해도 효과가 나타나려면 지금부터 20년 있어야 한다. 20년이면 퇴직연금의 개혁도 할 수 있는 시간이다. 다층연금체계로 노후소득보장 효과를 충분히 볼 수 있다고 본다. 중상위계층에겐 국민연금퇴직연금 중간계층은 국민연금 하위계층에겐 국민연금기초연금의 체계가 적용되게끔 하자는 것이다.주 공적 노후보장제도에 대해 이렇게 계층별로 나눠서 접근하는 것은 맞지 않다. 우리는 국민연금 보험료를 냄으로써 미래의 연금 청구권을 쌓아간다. 기여를 했으니 나중에 생산되는 부의 일정한 몫을 받아갈 권리가 생긴다는 얘기다. 그런데 기초연금은 그런 제도가 아니다. 국민연금의 역할과 사회 상황에 따라 앞으로 어떻게 변해갈지 모르는 제도이다 이것을 미래 노후소득보장 한축으로 확정적으로 얘기하는 것은 맞지 않다. 국민연금에 10년 납입해서 받는 연금액은 기초연금을 합쳐도 기초생활보장제도의 내년 생계급여 71만원에 미치지 못한다. 기초연금이나 국민기초생활보장급여를 통해 보장받는 최저수준보다 국민연금 보장수준이 훨씬 높아야만 공적연금이 제대로 돌아간다.각자가 생각하는 개혁안은. 간단히 말해서 얼마의 보험료와 소득대체율이 적절하다고 보나.오 지난 9월 1일 재정계산위원회가 제시한 안을 기본축으로 해서 사회적 논의가 이뤄졌으면 좋겠다. 앞으로 10년 동안 매해 보험료율을 0.6포인트씩 올려 15에 도달케 하자는 방안이다. 여기에 연금수급개시 연령을 2048년에 최장 68세까지 상향하는 안과 기금수익률을 높이는 안을 조합했다.주 2007년 소득대체율을 50에서 40로 떨어뜨리는 제도 변화가 있었다. 이것을 50로 다시 회복시켜야 한다. 보험료율은 13 선을 생각했다. 그러나 어느 정도의 속도로 그 선에 도달하느냐는 열어놓고 생각해볼 필요가 있다. 재정계산위 사퇴 뒤 우리의 비전을 보여주는 대안보고서를 준비 중이다 지난 8월 31일 주은선 교수와 남찬섭 동아대 사회복지학과 교수는 복지부 산하 재정계산위원회가 소득대체율 인상론을 제대로 다루지 않는다는 이유로 재정계산위의 민간위원직을 사퇴한 바 있다. 재정계산위는 국민연금의 장기적인 수입지출 기금 규모를 계산해 정부에 보험료연금액 조정안을 제안하기로 한 보건복지부 산하 민관 합동위원회다. 두 교수는 재정계산위와 별도로 대안 보고서를 준비 중이다.편집자 주.좋은 연금개혁을 위한 조건이 있다면.오 정치권에는 연금이 부담스러운 주제일 것이다. 하지만 책임 있는 정치를 하겠다고 한다면 자기의 안을 제시해야 한다고 본다. 이 중요한 의제에 대해 논의가 시작됐음에도 아직 안이 없는 것으로 안다. 게다가 국회 연금특위를 내년 5월까지 연장한다고 한다. 총선 전에 연금개혁에 대한 입장을 안 낼 수도 있다는 메시지로 읽힌다. 미래를 좌우할 정책에 대해 안을 내고 국민에게 선택을 받는 것이 선거에 임하는 정당의 책임 있는 자세 아닐까.주 연금개혁은 정부가 중심이 되어 끌어갈 수도 있고 정당이 사회적 합의를 이끌어갈 수도 있다. 어떤 방식이 됐든 책임을 더 많이 져야 하는 주체들에게 의견을 묻고 제대로 책임을 부여하는 쪽으로 나아가야 한다고 생각한다.</t>
+          <t>국내 은행이 최근 6년간 9조 6047억원의 희망퇴직금을 지급한 것으로 나타났습니다.10일 국회 정무위원회 소속 강민국 의원실이 금융감독원으로부터 받은 국내 은행권 희망퇴직 현황 자료에 따르면 2018년부터 올해 7월까지 희망퇴직제도를 실시하고 있는 국내 14개 은행 국민하나농협신한우리씨티SC부산대구경남수협광주전북제주의 희망퇴직자는 1만7402명이며 지급된 퇴직금은 9조 60047억원에 달했습니다.이는 동일기간 희망퇴직제 운영 중인 은행 전체 퇴직자 2만6852명의 64.8를 차지하는 비율입니다. 퇴직금액 비중은 전체 퇴직금 10조 1234억원의 94.8로 절대적이었습니다.연도별로 살펴보면 희망퇴직자는 2018년 2573명 1조 1314억원 2019년 2651명 1조 4045억원 2020년 2473명 1조 2743억원 2021년 3511명 1조 9407억원 2022년 4312명 2조 8283억원 2023년 7월 1882명 1조 212억원을 기록했습니다.같은 기간 희망퇴직자가 가장 많은 은행은 국민은행 3671명이었습니다. 이어 하나은행 2464명 농협 2349명은행이 뒤를 이었습니다. 희망퇴직금이 가장 많은 곳은 2021년 소매금융 철수를 진행한 씨티은행 1조7953억원이었습니다.은행권 전체 퇴직자의 평균 퇴직금은 3억5600만원인 것에 반해 같은 기간 희망퇴직자의 평균 퇴직금은 5억5200만원으로 전체 퇴직자 평균 퇴직금의 154.9에 달했습니다. 가장 많은 평균 희망퇴직금이 지급된 은행은 씨티은행 8억 2600만원으로 집계됐습니다.당신의 제보가 뉴스로 만들어집니다.SBS Biz는 여러분의 제보를 기다리고 있습니다.홈페이지 https url.kr 9pghjn</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>['퇴직금 제도', '퇴직연금 은퇴설계']</t>
+          <t>['퇴직금 제도', '희망퇴직 퇴직금']</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>[{'퇴직금 제도': 14}, {'퇴직연금 은퇴설계': 34}]</t>
+          <t>[{'퇴직금 제도': 4}, {'희망퇴직 퇴직금': 8}]</t>
         </is>
       </c>
       <c r="K36" t="n">
@@ -4273,39 +4273,39 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>국회 연금개혁특별위원회의 활동기한 연장으로 국민연금 개혁이 본격 논의될 가능성이 높아짐</t>
+          <t>퇴직금 지급액이 많고, 은행들의 희망퇴직 현황을 파악할 수 있음</t>
         </is>
       </c>
       <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>경쟁 은행들의 희망퇴직자 수와 퇴직금액을 비교할 수 있음</t>
+        </is>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>금융 시장 변동이나 투자 자산의 변동에 대한 내용이 없음</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>법률 및 규제 변화에 대한 내용이 없음</t>
+        </is>
+      </c>
+      <c r="S36" t="n">
         <v>2</v>
       </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>국민연금 가입기간이 긴 노동자들이 대체율 인상의 혜택을 가장 크게 받을 것이므로 가입기간이 짧은 불안정 노동자들을 위한 재정이 우선적으로 필요</t>
-        </is>
-      </c>
-      <c r="O36" t="n">
-        <v>1</v>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>퇴직연금 개혁과 국민연금 소득대체율 인상에 대한 논의가 이뤄지고 있음</t>
-        </is>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>No information related to legal and regulatory changes</t>
-        </is>
-      </c>
-      <c r="S36" t="n">
-        <v>0</v>
-      </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>No information related to demographic change</t>
+          <t>희망퇴직제도와 은퇴자 수에 대한 내용이 있음</t>
         </is>
       </c>
       <c r="U36" t="n">
@@ -4313,7 +4313,7 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>No information related to technology and digitalization</t>
+          <t>기술과 디지털화에 대한 내용이 없음</t>
         </is>
       </c>
       <c r="W36" t="n">
@@ -4321,7 +4321,7 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>No information related to consumption behavior and requirements</t>
+          <t>소비 행동 및 요구사항에 대한 내용이 없음</t>
         </is>
       </c>
     </row>
@@ -4343,12 +4343,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>[fn마켓워치] HUG, 약 2600억 규모 'OCIO 기관' 선정 돌입</t>
+          <t>“GDP 11%도 공포 수준 아냐” “그걸 감당할 인구, 너무 적다”</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>주택도시보증공사가 외부위탁운용관리 OCIO 기관을 선정하고 대규모로 조직을 확충 중인 증권사들의 경쟁이 거세질 전망이다. 주택도시보증공사는 연도별 자금운용계획에 따라 운용규모가 결정되며, 이번 전담운용기관은 자산배분과 자문서비스를 수행한다. 기금형 퇴직연금 규모가 2050년까지 2000조원에 달할 것으로 예상되며, OCIO 시장은 운용 시장 확대를 염두에 둔 것이다.</t>
+          <t>국회 연금개혁특별위원회가 활동기한을 내년 5월까지 연장하기로 했기 때문에 국민연금 개혁은 내년 4월 총선 이후에 본격 논의될 가능성이 높아졌다. 국민연금 가입기간이 긴 노동시장 중심부의 노동자들이 대체율 인상의 혜택을 가장 크게 입을 것이기 때문에 가입기간이 짧은 불안정 노동자들을 위해 재정이 우선적으로 쓰여야 한다고 본다. 퇴직연금 개혁을 통해 중상위층에게도 기댈만한 연금을 제공하고, 국민연금 소득대체율을 인상하여 노후소득보장을 강화할 필요가 있다.</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -4356,22 +4356,22 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005083173?sid=101</t>
+          <t>https://n.news.naver.com/mnews/article/033/0000046285?sid=101</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 주택도시보증공사 HUG가 약 2600억원 규모 외부위탁운용관리 OCIO 기관 선정에 나섰다. 기존에 운용해왔던 미래에셋자산운용의 수성 기대에 조직을 대규모로 확충 중인 증권사들의 경쟁이 거세질 전망이다. 10일 투자은행 IB 업계에 따르면 주택도시보증공사는 최근 여유자금 전담운용기관 선정에 착수했다. 주택도시보증공사의 운용자산은 최소 2조원 이상으로 추정되는 가운데 연초부터 8월 말 기준 평균 여유자금 잔고는 2639억원이다. 2024년 이후에는 주택도시보증공사의 연도별 자금운용계획에 따라 운용규모가 결정된다. 주택도시보증공사는 OCIO 기관과 11월 중 위수탁계약을 체결 2023년 12월 4일부터 2025년 12월 3일까지 위탁키로 했다. 이번 전담운용기관은 여유자금 일부를 배분받아 투자 허용 범위 내에서 시장 환경에 맞게 자산을 운용 Wrap of Funds 또는 Fund of Funds 방식하며 여유자금의 전략적 자산배분 유동성 추정 등 자금운용 전반에 대한 자문서비스를 수행하게 된다. 앞서 주택도시보증공사는 2020년 9월 미래에셋자산운용을 여유자금 OCIO 기관에 선정 2800억원을 위탁했다. 당시 한화자산운용은 가격 점수에서 낮은 점수를 받아 선정되지 못했다. 당시 신한투자증권 NH투자증권 IBK투자증권 KB증권 한국투자증권 등 5개 증권사와 한화자산운용 미래에셋자산운용 KB자산운용 등 3곳의 자산운용사가 지원했다. 현재 연기금 투자풀과 고용산재보험기금 주택도시기금 등의 주요 기금의 총 규모는 약 100조원이다. 여기에 기금형 퇴직연금이 추가되면 시장 규모는 기하급수적으로 확대될 수 있다. 일부에서는 기금형 퇴직연금 규모가 2050년까지 2000조원에 달할 것으로 예상하고 있다. IB업계 관계자는 OCIO 시장 진출은 현재 시장 규모가 아닌 기금형 퇴직연금 등 앞으로 운용 시장 확대를 염두에 둔 것이라며 최근 몇 년 간 안전자산 채권 예금 등으로만 운영하던 기관이 저금리 장기화로 인해 전문성을 갖춘 기관에 자금을 위탁하려는 수요가 늘고 있는 만큼 시장이 폭발적으로 늘어나기 전에 트랙레코드를 쌓는 것이라고 설명했다. 이어 증권사로선 대형 기금을 수탁받으면 시황과 상관없이 안정적인 운용 수익을 거둘 수 있는 데다 정책자금을 운용하면서 얻은 노하우로 해외 자금을 유치하는 데 도움이 된다고 말했다. 미래에셋자산운용 주택도시보증공사 HUG 기금형퇴직연금 OCIO </t>
+          <t xml:space="preserve"> 국민연금 개혁은 올해에도 물 건너가는 것일까. 연금개혁의 시간표가 다시 미뤄질 조짐이다. 국회 연금개혁특별위원회가 활동기한을 내년 5월까지 연장하기로 했기 때문이다. 인기 없는 연금개혁 속성을 감안할 때 내년 4월 총선 이후에나 본격 논의될 가능성이 높아졌다.국민연금 개혁은 2007년 이후 번번이 무산돼왔다. 지난 16년간 정부와 정당들은 전문가들의 논쟁 뒤에 숨은 채 뒷짐만 져왔다. 정부와 정당이 각자의 입장을 내놓고 여론을 수렴하는 과정을 회피하는 동안 전문가들의 열띤 논쟁은 대중에게 제대로 소개되지 못했다.주간경향은 국민연금을 두고 이어져 온 소득대체율 인상론과 재정안정론의 끝장토론 자리를 마련했다. 소득대체율 인상론 측의 주은선 경기대 사회복지학과 교수와 재정안정론 측의 오건호 내가만드는복지국가 정책위원장이 지난 10월 4일 경향신문사 여적향에서 논쟁을 벌였다.국민연금 개혁해야 하는 이유는국민연금 개혁이 필요한 이유에 대한 생각부터 양측이 다른 것으로 안다. 왜 개혁이 필요한지를 각자 말해달라.오건호 내가만드는복지국가 정책위원장 이하 오 국민연금이 지속가능성을 가지기 위해서는 고강도 재정안정화가 필요하다는 것이 최근 5차 재정계산서도 확인됐다. 현재 젊은 세대들이 국민연금을 불신하는 이유는 지속가능성에 대한 불안 때문이라고 생각한다. 청년들에게 비전을 보여줄 필요가 있다. 물론 공적연금의 존재 목적이 노후소득 보장인 만큼 노후소득 보장을 강화하는 제도개혁 또한 필요하다. 하지만 어떤 방식이 적절할지는 서로 이견이 있다. 서로 잘 논의해 앞으로 조정이 되길 바란다. 재정계산은 현 보험료와 연금액을 유지할 때 기금이 언제 소진되는지 등을 보여주는 계산으로 국민연금법에 따라 5년마다 하도록 돼 있다. 올해 5차 계산에선 현 제도를 그대로 유지할 경우 기금이 2055년 소진되고 그해 걷어서 그해 연금액을 충당할 경우 미래 청년세대 보험료율은 최대 35까지 오른다는 결과가 나왔다편집자 주주은선 경기대 사회복지학과 교수 이하 주 국민연금이 도입된 지 30년이 지났지만 노후소득 보장 기능이 너무 심하게 부족하다. 평균급여액이 약 60만원이다. 초고령화 국면에서 노후빈곤을 어떻게 예방할 것인가에 대한 논의는 그간 소극적이었다고 생각한다. 초고령사회에선 노후소득을 획기적으로 보장해야만 살 만한 사회가 된다. 게다가 2030년에서 2050년 사이 국민연금을 받게 되는 사람들의 보장수준은 보험료를 내는 기간은 더 늘어나는 데도 오히려 더 떨어질 것으로 예상된다. 2007년 급여삭감 때문이다. 그런 의미에서 저는 소득대체율 인상이 꼭 필요하다고 본다. 소득대체율은 은퇴 후 받게 될 연금액 수준을 보여주는 지표다. 현재 국민연금 소득대체율은 42.5다. 일하던 시기 100만원을 벌었다면 은퇴 후 연금액으로 42만5000원을 받는 것을 의미한다. 40년 가입 기준이다. 보험료 납입기간이 40년보다 짧으면 실제 대체율 수준은 더 낮아진다. 대략 1년당 1씩 낮아진다고 보면 된다. 현 소득대체율 42.5는 조금씩 줄어 2028년 40에 도달하게끔 돼 있다. 이번 토론에서는 편의상 소득대체율을 40로 놓고 대화했다편집자 주재정계산 결과를 보면 미래 청장년 세대의 보험료 부담이 커지는 것은 사실로 여겨진다.주 재정계산은 팩트가 아니라 추정일 뿐이다. 현재 시점에서 미래라는 과녁에 화살을 던지는 것과 같은데 성장 고용 소득 인구 등의 변수에 따라 과녁은 계속 움직인다. 그런 의미에서 언론이 자주 쓰는 2055년 기금 고갈된다는 등의 표현은 타당하지 않다. 추정을 팩트로 표현하는 것이기 때문이다. 다만 재정계산 결과로 흐름은 볼 수 있다. 미래 생산세대의 부담이 늘어나는 것은 맞다. 그런데 노인이 인구 40를 넘는 사회에서 국민연금 지출이 GDP의 약 11가 되는 것이 비상식적인가 싶다. 그 시기 노인들이 받아갈 연금액을 온전히 청장년 개인들이 보험료로 부담해야 한다는 생각에서 벗어나야 한다. 분담 구조를 어떻게 짤 것인가를 고민하면서 풀어야 할 문제다.오 재정계산이 미래의 수치를 알아맞히는 작업이 아닌 것은 맞다. 그 대신 구조를 보는 것이다. 특정 시점에서의 지출과 수입의 구조를 봐서 재정이 균형을 이루고 있는지 아닌지를 보는 것이다. 불균형이라면 불균형의 규모를 보는 것이다. 미래의 국민연금 재정이 매우 불안정해지기 때문에 현세대와 달리 미래세대의 재정부담이 무척 커진다는 계산 결과의 메시지는 명확하다. 주 교수가 말한 고용 소득 인구 등의 변수를 다양하게 넣어도 이 메시지는 변하지 않는다.미래세대 개인이 모두 부담한다는 생각에서 벗어나야 한다. 국민연금의 소득재분배 성격을 고려하면 조세 투입을 못 할 이유가 없다. 현재 부과 대상이 GDP의 30를 안 넘는다. 플랫폼 기업 등에도 부담을 지워야 한다. 주은선 경기대 교수미래세대 부담 심각하다 vs 과장이다미래세대 부담이 심각하냐 아니냐에 대한 입장이 갈리는 것 같다.주 현재의 소득대체율 40를 유지했을 때 70년 후 국내총생산 GDP의 9가량이 연금액으로 지출될 것으로 보인다. 만약 소득대체율을 50로 올리면 70년 후 GDP의 약 11를 지출하게 된다. 지금도 노인 세대를 위한 공적연금에 GDP 11 이상을 지출하는 나라들이 꽤 있다. 이 정도를 그리 공포스러워 해야 하나. 시장에서 일하지 못하는 인구에 적정 소득을 보장해 소비할 수 있게 해서 경제균형을 이뤄나가는 것 그게 복지국가고 복지 자본주의다. 미래세대에게 감당하기 어려운 부담을 떠넘긴다고 얘기하는 것은 과장이다.오 먼저 소득대체율을 40에서 더 낮추자는 입장은 아니라는 점을 말하고 싶다. 지금의 소득대체율을 유지하자는 입장이고 그럴 경우 말한 대로 70년 후 미래세대가 GDP 9 지출을 감당해야 한다. 그런데 그들이 처할 환경이 무척 어려울 거다. 연금액 지출에 GDP 11 이상 지출하는 서구 국가들 얘기를 했는데 20세기 중후반의 서구와 비교할 때 한국의 노인부양비는 매우 높아지는 구조다. 초저출생 때문이다. 서구 국가들의 GDP 10와 미래 한국사회의 GDP 10를 감당하는 인구 규모가 완전히 다르다. 우리가 훨씬 적을 것이다. 게다가 그 세대는 그해 걷어서 그해 지출해야 하는 건강보험과 기초연금 등의 부담도 훨씬 커질 전망이다. 미래세대가 GDP 9 지출을 감당할 수 있도록 지금 우리가 도와줘야 한다고 본다. 현재 우리의 연금액 지출은 GDP 2다. 지금부터 단계적으로 올려야 한다.주 보험료 인상에 반대하는 것은 아니다. 소득대체율 인상이 필요하다는 입장에서는 더욱 그렇다. 다만 지나친 연기금 적립 역시 문제이므로 그 속도와 폭을 조정해야 한다. 70년 후 GDP 911 지출이 큰 부담이냐 아니냐에 대한 얘기를 이어나가겠다. 공적연금 지출을 줄여주는 것이 과연 미래세대의 부담을 덜어주는 일일까. 부모가 국민연금만으로 노후를 보내기 어려워지면 자녀의 사적이전 생활비를 드리는 것 부담이 늘어난다. 은퇴 이후가 불안해 사적연금 시장에 기대는 이들도 많아질 거다. 아울러 연금액이 낮아 노후빈곤에 처하는 사람이 많아질수록 기초연금과 국민기초생활보장제도와 같은 공공부조 부담도 늘어난다. 사회연대의 원리에 입각한 국민연금이 더 많은 사람의 노후를 제대로 보장하게 하는 것이 결과적으로 모두의 부담을 더는 길이다. 그리고 앞서 말했듯 개인들이 GDP 11를 전부 부담해야 한다는 생각에서 벗어나 새로운 연금재정 패러다임에 대해 고민해 볼 필요도 있다.새로운 재정 패러다임 가능할까미래의 청장년 세대 개인이 모두 부담해야 한다는 생각에서 벗어나야 한다고 했는데 구체적으로 어떻게 가능할까.주 장기적으로 조세가 역할을 할 수 있다고 본다. 우리의 국민연금엔 소득재분배 성격이 있다 국민연금은 보험료를 낸 만큼 연금액을 받는 구조가 아니다. 평균소득보다 적게 번 이들에게 상대적으로 더 얹어주는 하후상박 구조다. 물론 절대적인 연금액은 고소득층이 높지만 낸 보험료 대비 연금액의 비율은 저소득층이 더 높다편집자 주. 국민연금의 소득재분배 성격을 고려하면 조세 투입을 못 할 이유가 없다고 본다. 자본의 역할을 강화하는 방식도 있다. 지금은 기업과 개인이 보험료를 55 부담하는데 기업 부담을 6570로 올릴 수도 있다. OECD 평균이 대략 그 정도다. 아울러 보험료 부과 대상소득이 GDP의 30 이하로 26 수준인 것으로 추정된다. 이를테면 사실상 사용자 역할을 하고 있는 플랫폼 기업에 보험료 부담을 지워야 한다. 프랑스는 자산소득을 비롯한 모든 종류의 개인소득과 대기업 법인세에 사회보장세를 부과한다. 장기 미래에 가능한 재정 패러다임 변화를 지금 구체적으로 얘기하긴 어렵다. 미래에 부가 어떤 방식으로 창출될지 그 변화를 미리 예단하기가 어렵기 때문이다.오 국민연금에 보험료 이외 재원 투입될 수 있다고 본다. 문제는 미래세대의 지출 부담은 지금 명확하게 수치로 확인이 되는데 소득대체율 인상론 측이 말하는 충당 방안은 아직 범주 수준이다. 저는 소득대체율 인상은 어렵다는 입장이지만 소득대체율 유지 역시 미래세대 부담이 크기 때문에 개인적으로 가늠을 해봤다. 현재 보험료 부과대상이 GDP의 30가 채 되지 않는다고 했다. 마치 70라는 미지의 영역이 남아 있는 것처럼 여겨지지만 국민계정에 분배 GDP 구성을 들여다보면 추가 부과대상으로 삼을 만한 것이 그리 많지 않다. 부과대상을 현 30 수준에서 40 수준으로 높이고 보험료율 15로 인상해도 재원은 여전히 매우 모자라다. 결국은 법인과 자본에다 과세하자는 주장인데 부족액을 충당할 만큼 확보할 수 있느냐의 문제가 있다. 우리는 이미 기업과 자본소득에 대해서 과세를 하고 있다. 자동차든 로봇이든 부동산이든 결국은 재산세와 종합부동산세로 거둬질 거다. 여기에 횡재세 정도가 추가될 수 있다. 과세를 강력히 한다고 해도 여전히 부족할 것이다. 나아가 혹시 충분한 재원이 나온들 그걸 소득대체율 인상에 따른 부족액을 메우는 데 쓰는 게 맞느냐는 또 다른 논점이 있다.무슨 뜻인가.오 현재 가입자들은 보험료가 너무 낮다 보니 낸 것에 비해 과하게 많이 받게 돼 있다. 낸 것보다 더 받는 만큼을 미래세대에 빚지고 있는 거다. 이걸 현세대가 보험료 인상으로 어느 정도 책임을 져야 그다음 조세 투입도 얘기할 수 있다고 본다. 그래서 저는 보험료율 15까지는 점진적으로 인상하되 그 이후에도 재정이 어렵다면 그때는 국고 투입이 가능하다고 본다. 하지만 재정을 투입하더라도 그 돈이 소득대체율 인상에 우선적으로 쓰이는 것에는 찬성하지 않는다. 국민연금 가입기간이 긴 노동시장 중심부의 노동자들이 대체율 인상의 혜택을 가장 크게 입을 것이기 때문이다. 가입기간이 짧아 소득대체율이 실질적으로 낮은 불안정 노동자들을 위해 재정이 우선적으로 쓰여야 한다고 본다.국민연금 보험료가 너무 낮다 보니 계층 간 역진성 문제가 생긴다. 고소득자가 덜 받는 만큼 저소득자가 더 받아가는 게 아니다. 모두가 낸 것보다 더 받아가며 그 돈이 미래세대에서 온다. 기간이 길고 임금이 높을수록 순혜택이 크다. 오건호 내만복 정책위원장소득대체율 인상 고소득층에 더 유리하다 vs 사회보험의 특성을 이해해야소득대체율 인상이 어떤 효과를 낼 것이냐에 대한 논의로 이어가자. 재정안정론 측에서는 소득대체율 인상이 실질적인 소득대체율 인상으로 이어지지 않을 것이라고 주장하는 것으로 안다.오 국민연금 급여는 결국 소득비례 가입기간 비례다. 연금액을 일제히 높이는 소득대체율 인상의 효과는 높은 임금을 받으면서 장기간 고용된 노동시장 중심부에 집중될 것이다.주그 주장은 사회보험이 정의롭지 않다고 얘기하는 것과 같다. 고용보험의 실업급여 역시 소득비례다 더 많이 벌던 사람이 더 많은 실업급여를 받는다는 뜻이다편집자 주. 실업급여의 소득대체율을 50에서 60로 올리는 것은 임금이 높을수록 혜택이 크니 정의롭지 않은 것인가. 국민연금의 급여나 고용보험의 실업급여나 본질적으로 기존 소득의 대체 기능을 하도록 돼 있는 것이다. 그게 그 제도의 목적이다. 게다가 다른 사회보험과 달리 국민연금에는 강력한 재분배 요소가 들어가 있다.오 사회보험의 특성과 국민연금의 재분배 요소를 무시하는 것이 아니다. 지금의 국민연금엔 보험료가 너무 낮다 보니 생기는 계층 간 역진성의 문제가 있다 저소득층보다 고소득층에 더 유리하다는 뜻편집자 주. 무슨 얘기냐면 지금 국민연금에 소득재분배 기능이 있긴 하지만 고소득자가 덜 받는 만큼을 저소득자가 더 받아가는 구조가 아니다. 모두가 낸 것보다 더 받아가는데 그 돈은 미래세대에서 오는 것이다. 낸 보험료보다 더 돌려받는 만큼을 순혜택이라고 하는데 가입기간 길고 임금 높을수록 순혜택 절대액이 커진다. 즉 미래세대 부담으로 귀결되는 순혜택의 이득이 노동시장 중심부 고소득자들에게 집중된다는 얘기다. 이것이 옳으냐 하는 문제 제기다.주 국민연금에서 각자 낸 보험료와 급여의 수익을 따지며 계층 간 역진성 고소득층에 유리한 성격 얘기하는 자체가 이상하다고 생각한다. 국민연금제도는 각자 계정에 돈을 쌓고 자기가 낸 돈에 상응해 급여를 받는 제도가 아니다. 총량적으로 수입 보험료과 지출 연금액을 맞춰가는 제도이며 장수에 대응하는 제도이므로 수명에 따라 보장 총량이 달라진다. 개별 수익을 중심으로 연금제도를 보는 것은 공적연금의 본질과 어긋난 접근이란 생각이다. 하지만 계층별 수익을 따진다고 하더라도 오 위원장의 문제 제기는 일정 수준 이상의 보험료 인상으로 해소된다. 이것은 소득대체율 인상을 가로막을 근거가 되지 않는다. 오히려 소득대체율도 인상하되 거기에 필요한 재원을 어떻게 재분배성이 강하게 설계할 것이냐에 대한 얘기를 해야 하지 않을까.오 보험료 인상과 더불어 소득대체율을 인상하면 보험료 인상의 효과가 상쇄된다. 미래세대의 부담을 덜어주지 못한다는 얘기다. 그 세대의 부담으로 귀결되는 혜택이 노동시장 중심부에 집중되는 문제를 풀지는 못한다. 국고지원을 적극 얘기하고 있다. 앞서 말했듯 저도 반대하지 않는다. 그런데 입장을 명확하게 하기 위해 이렇게 나눠서 얘기했으면 좋겠다. 국민연금 부족액을 위한 국고지원 크레딧 제도와 보험료 지원사업을 위한 국고지원으로 말이다.국고를 투입하더라도 무엇에 우선적으로 지원할 것이냐에 대한 얘기인 것 같다.주 뭘 먼저 하고 뭘 나중에 한다는 식으로 접근할 문제는 아니라고 본다. 우리나라 국민연금 보장 수준은 그냥 무슨 짓이든 다 해야 하는 수준이다. 소득대체율 인상과 가입기간을 늘려주는 조치가 같이 가야 하는 것이지 우선을 따질 일이 아니라고 본다. 크레딧 제도는 군복무 출산 등 사회적 공헌을 한 이들에게 가입기간을 늘려주는 것이다. 소득대체율은 급여산식을 바꿔서 적용하는 폭넓은 조치인 반면 크레딧 제도는 일정한 공헌을 한 사람을 타켓팅한 제도다. 그리고 질병이나 장애 등 여러 사정으로 인해 사회적 공헌을 못 하는 이들도 많다. 두 기제는 대체 가능한 것이 아니다. 아울러 취약계층 보험료 지원사업은 당연히 해야 하는 것이다. 그런 과제를 뒤로 미루자는 얘기가 아니다. 오히려 소득대체율 인상과 결합할 때 이런 조치의 보장성 강화 효과는 더 커진다. 또 중심부 노동자들 얘기를 하셨는데 그렇다면 그들은 은퇴 이후 소득절벽이란 위험에서 벗어나 있나. 소득대체율 인상하면 이 사람들만 혜택 봐요라고 하면서 마치 이들이 기득권을 형성하고 있는 것처럼 말하고 있다. 실질적으로는 별 기득권도 없는데.퇴직연금은 연금으로서 역할을 할 수 있나오 중간계층 중산층의 연금액도 충분치 않은 것은 사실이다. 그런데 결국은 한정된 자원의 배분 문제 아닌가. 우선순위로 무엇을 둘 것인가의 문제라고 생각한다. 소득대체 인상도 미래세대 부담이 될 재원 문제 때문에 다른 대안을 찾자는 것이다. 가입기간이 짧은 불안정 노동자 저소득층에게 가입기간을 늘려주는 조치 크레딧 제도를 의미. 가입기간을 1년 늘려줄 때 소득대체율 1씩 늘어난다편집자 주를 통해 그들의 실질적인 소득대체율을 올려줄 수 있다고 본다. 중상위 계층에게도 소득대체율 인상 대신 다른 대안이 있다. 기업이 매년 임금의 8.34씩을 퇴직금으로 쌓아두고 있다. 지난해 한해간 쌓인 퇴직금 적립액이 그해 국민연금 보험료 총액을 넘어섰다. 든든한 연금으로 기능케 할 잠재력이 퇴직금에 충분히 있다는 뜻이다.주 현 제도는 퇴직급여 제도이고 퇴직금과 퇴직연금 중 선택할 수 있게 돼 있다. 퇴직연금 가입률은 가입대상 노동자의 절반을 약간 넘는다. 퇴직연금은 금융시장을 통해 돌아가는 사적연금으로 재분배 기능이 없고 유족급여 장애급여도 없다. 국민연금처럼 죽을 때까지 물가연동으로 실질가치를 보장해주는 그런 질 좋은 연금이 아니다. 퇴직연금에 대해 제대로 된 노후소득보장 기능을 기대하기는 힘들다.오 퇴직연금은 사적연금인 건 맞다. 여러 한계가 있지만 그럼에도 사용자가 전액 기여 매해 각 노동자의 임금 8.34를 적립하는 제도다. 저는 두 가지의 정책 과제를 더하면 퇴직연금도 중상위층이 기댈만한 연금이 될 수 있다고 본다. 한가지는 1년 미만 고용된 노동자에게도 퇴직금 제도를 적용하는 것 또 다른 과제는 비자발적 실업기간에도 실업급여를 보장해줘 퇴직금의 중간해지를 엄격히 규제하는 것이다. 네덜란드나 덴마크 등에선 퇴직연금이 노후소득원의 한 축으로 작동한다.주 네덜란드 덴마크는 산별협약에 의해 작동하는 퇴직연금으로 성격이 다르다. 한국에는 그런 기반이 없다. 퇴직금을 제대로 된 연금으로 작동하도록 제도를 개혁하는 데 시간이 매우 많이 걸릴 것이다. 가능할지도 불확실하다.오 국민연금 소득대체율을 인상해도 효과가 나타나려면 지금부터 20년 있어야 한다. 20년이면 퇴직연금의 개혁도 할 수 있는 시간이다. 다층연금체계로 노후소득보장 효과를 충분히 볼 수 있다고 본다. 중상위계층에겐 국민연금퇴직연금 중간계층은 국민연금 하위계층에겐 국민연금기초연금의 체계가 적용되게끔 하자는 것이다.주 공적 노후보장제도에 대해 이렇게 계층별로 나눠서 접근하는 것은 맞지 않다. 우리는 국민연금 보험료를 냄으로써 미래의 연금 청구권을 쌓아간다. 기여를 했으니 나중에 생산되는 부의 일정한 몫을 받아갈 권리가 생긴다는 얘기다. 그런데 기초연금은 그런 제도가 아니다. 국민연금의 역할과 사회 상황에 따라 앞으로 어떻게 변해갈지 모르는 제도이다 이것을 미래 노후소득보장 한축으로 확정적으로 얘기하는 것은 맞지 않다. 국민연금에 10년 납입해서 받는 연금액은 기초연금을 합쳐도 기초생활보장제도의 내년 생계급여 71만원에 미치지 못한다. 기초연금이나 국민기초생활보장급여를 통해 보장받는 최저수준보다 국민연금 보장수준이 훨씬 높아야만 공적연금이 제대로 돌아간다.각자가 생각하는 개혁안은. 간단히 말해서 얼마의 보험료와 소득대체율이 적절하다고 보나.오 지난 9월 1일 재정계산위원회가 제시한 안을 기본축으로 해서 사회적 논의가 이뤄졌으면 좋겠다. 앞으로 10년 동안 매해 보험료율을 0.6포인트씩 올려 15에 도달케 하자는 방안이다. 여기에 연금수급개시 연령을 2048년에 최장 68세까지 상향하는 안과 기금수익률을 높이는 안을 조합했다.주 2007년 소득대체율을 50에서 40로 떨어뜨리는 제도 변화가 있었다. 이것을 50로 다시 회복시켜야 한다. 보험료율은 13 선을 생각했다. 그러나 어느 정도의 속도로 그 선에 도달하느냐는 열어놓고 생각해볼 필요가 있다. 재정계산위 사퇴 뒤 우리의 비전을 보여주는 대안보고서를 준비 중이다 지난 8월 31일 주은선 교수와 남찬섭 동아대 사회복지학과 교수는 복지부 산하 재정계산위원회가 소득대체율 인상론을 제대로 다루지 않는다는 이유로 재정계산위의 민간위원직을 사퇴한 바 있다. 재정계산위는 국민연금의 장기적인 수입지출 기금 규모를 계산해 정부에 보험료연금액 조정안을 제안하기로 한 보건복지부 산하 민관 합동위원회다. 두 교수는 재정계산위와 별도로 대안 보고서를 준비 중이다.편집자 주.좋은 연금개혁을 위한 조건이 있다면.오 정치권에는 연금이 부담스러운 주제일 것이다. 하지만 책임 있는 정치를 하겠다고 한다면 자기의 안을 제시해야 한다고 본다. 이 중요한 의제에 대해 논의가 시작됐음에도 아직 안이 없는 것으로 안다. 게다가 국회 연금특위를 내년 5월까지 연장한다고 한다. 총선 전에 연금개혁에 대한 입장을 안 낼 수도 있다는 메시지로 읽힌다. 미래를 좌우할 정책에 대해 안을 내고 국민에게 선택을 받는 것이 선거에 임하는 정당의 책임 있는 자세 아닐까.주 연금개혁은 정부가 중심이 되어 끌어갈 수도 있고 정당이 사회적 합의를 이끌어갈 수도 있다. 어떤 방식이 됐든 책임을 더 많이 져야 하는 주체들에게 의견을 묻고 제대로 책임을 부여하는 쪽으로 나아가야 한다고 생각한다.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>['퇴직연금 규모', '퇴직연금ocio']</t>
+          <t>['퇴직금 제도', '퇴직연금 은퇴설계']</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>[{'퇴직연금 규모': 11}, {'퇴직연금ocio': 1}]</t>
+          <t>[{'퇴직금 제도': 14}, {'퇴직연금 은퇴설계': 34}]</t>
         </is>
       </c>
       <c r="K37" t="n">
@@ -4379,7 +4379,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>주택도시보증공사가 외부위탁운용관리 OCIO 기관을 선정하고 자산배분과 자문서비스를 수행한다.</t>
+          <t>국회 연금개혁특별위원회의 활동기한 연장으로 국민연금 개혁이 본격 논의될 가능성이 높아짐</t>
         </is>
       </c>
       <c r="M37" t="n">
@@ -4387,7 +4387,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>대규모로 조직을 확충 중인 증권사들의 경쟁이 거세질 전망이다.</t>
+          <t>국민연금 가입기간이 긴 노동자들이 대체율 인상의 혜택을 가장 크게 받을 것이므로 가입기간이 짧은 불안정 노동자들을 위한 재정이 우선적으로 필요</t>
         </is>
       </c>
       <c r="O37" t="n">
@@ -4395,7 +4395,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>기금형 퇴직연금 규모가 2050년까지 2000조원에 달할 것으로 예상되며, OCIO 시장은 운용 시장 확대를 염두에 둔 것이다.</t>
+          <t>퇴직연금 개혁과 국민연금 소득대체율 인상에 대한 논의가 이뤄지고 있음</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -4403,7 +4403,7 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>No relevant information in the article.</t>
+          <t>No information related to legal and regulatory changes</t>
         </is>
       </c>
       <c r="S37" t="n">
@@ -4411,7 +4411,7 @@
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>No relevant information in the article.</t>
+          <t>No information related to demographic change</t>
         </is>
       </c>
       <c r="U37" t="n">
@@ -4419,7 +4419,7 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>No relevant information in the article.</t>
+          <t>No information related to technology and digitalization</t>
         </is>
       </c>
       <c r="W37" t="n">
@@ -4427,7 +4427,7 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>No relevant information in the article.</t>
+          <t>No information related to consumption behavior and requirements</t>
         </is>
       </c>
     </row>
@@ -4439,22 +4439,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>사회 동향</t>
+          <t>퇴직연금 제도</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>시중은행</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>5.5억 받고 떠나자 1만7000명 짐 쌌다…희망퇴직금 10조 쓴 시중은행</t>
+          <t>[fn마켓워치] HUG, 약 2600억 규모 'OCIO 기관' 선정 돌입</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2018년 이후 6년간 은행을 떠난 희망퇴직자는 1만7400여명에 달하며, 지급된 퇴직금은 1인당 평균 5억5200만원으로 총 9조6000억원에 달했다. 은행권의 희망퇴직금이 많은 이유는 노사 간 협의에 따라 지급되는 특별퇴직금 때문이다.</t>
+          <t>주택도시보증공사가 외부위탁운용관리 OCIO 기관을 선정하고 대규모로 조직을 확충 중인 증권사들의 경쟁이 거세질 전망이다. 주택도시보증공사는 연도별 자금운용계획에 따라 운용규모가 결정되며, 이번 전담운용기관은 자산배분과 자문서비스를 수행한다. 기금형 퇴직연금 규모가 2050년까지 2000조원에 달할 것으로 예상되며, OCIO 시장은 운용 시장 확대를 염두에 둔 것이다.</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -4462,22 +4462,22 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/421/0007100297?sid=101</t>
+          <t>https://n.news.naver.com/mnews/article/014/0005083173?sid=101</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 서울뉴스1 국종환 기자 2018년 이후 6년간 희망퇴직으로 은행을 떠난 은행원이 1만7400여명에 달하는 것으로 나타났다. 이들에게 지급된 희망퇴직금은 1인당 평균 5억5200만원으로 총 9조6000억원에 달했다.10일 금융감독원이 강민국 국민의힘 의원실에 제출한 국내 은행권 희망퇴직 현황에 따르면 14개 시중은행의 2018년부터 올해 7월까지 희망퇴직자는 1만7402명이며 지급된 퇴직금은 총 9조6004억원으로 집계됐다. 은행 전체 퇴직자 중 희망퇴직자 비중은 64.8 희망퇴직제 운영 은행 기준였고 퇴직금액은 전체 퇴직금의 94.8를 차지했다. 연도별 희망퇴직자는 2018년 2573명에서 지난해 4312명으로 최근 급증하고 있다. 올해에도 7월까지 1882명이 희망퇴직으로 은행을 떠났다.지난 5년간 은행권 희망퇴직자의 1인당 평균 퇴직금은 5억5200만원으로 전체 퇴직자 평균 퇴직금 3억5600만원보다 약 2억원 많았다. 은행권의 희망퇴직금이 많은 이유는 노사 간 협의에 따라 지급되는 특별퇴직금 23년치 평균 연봉에 전직 지원금 등 때문이다. 지난 6년간 총 6조9402억원의 특별퇴직금이 지급됐다. 전체 희망퇴직금 9조6004억원의 72.3를 차지한다. 최근 6년간 희망퇴직자가 가장 많은 은행은 국민은행 3671명이었으며 하나은행 2464명 농협은행 2349명 등이 뒤를 이었다. 1인당 희망퇴직금이 가장 많은 은행은 씨티은행으로 평균 8억2600만원이 지급됐다.강민국 의원은 공공재 성격을 가진 은행은 위화감을 조성할 수 있는 과도한 복지지원금 성격을 가진 희망퇴직금 지급에 대해 숙고해야 한다며 금융당국은 은행산업에 대한 국민 신뢰 제고 차원에서라도 전체 퇴직금 규모를 과도하게 넘는 수준의 희망퇴직금 지급 은행에 대해서는 운영 현황 점검을 실시해야 한다고 밝혔다.한편 2018년부터 올해 7월까지 국내 17개 은행 인터넷은행 제외의 임금피크제 신청건수는 총 1만1247건 수준인 것으로 집계됐다. 2018년 1365건에서 2021년 2219건으로 늘다가 지난해 2190건으로 감소했다.</t>
+          <t xml:space="preserve"> 주택도시보증공사 HUG가 약 2600억원 규모 외부위탁운용관리 OCIO 기관 선정에 나섰다. 기존에 운용해왔던 미래에셋자산운용의 수성 기대에 조직을 대규모로 확충 중인 증권사들의 경쟁이 거세질 전망이다. 10일 투자은행 IB 업계에 따르면 주택도시보증공사는 최근 여유자금 전담운용기관 선정에 착수했다. 주택도시보증공사의 운용자산은 최소 2조원 이상으로 추정되는 가운데 연초부터 8월 말 기준 평균 여유자금 잔고는 2639억원이다. 2024년 이후에는 주택도시보증공사의 연도별 자금운용계획에 따라 운용규모가 결정된다. 주택도시보증공사는 OCIO 기관과 11월 중 위수탁계약을 체결 2023년 12월 4일부터 2025년 12월 3일까지 위탁키로 했다. 이번 전담운용기관은 여유자금 일부를 배분받아 투자 허용 범위 내에서 시장 환경에 맞게 자산을 운용 Wrap of Funds 또는 Fund of Funds 방식하며 여유자금의 전략적 자산배분 유동성 추정 등 자금운용 전반에 대한 자문서비스를 수행하게 된다. 앞서 주택도시보증공사는 2020년 9월 미래에셋자산운용을 여유자금 OCIO 기관에 선정 2800억원을 위탁했다. 당시 한화자산운용은 가격 점수에서 낮은 점수를 받아 선정되지 못했다. 당시 신한투자증권 NH투자증권 IBK투자증권 KB증권 한국투자증권 등 5개 증권사와 한화자산운용 미래에셋자산운용 KB자산운용 등 3곳의 자산운용사가 지원했다. 현재 연기금 투자풀과 고용산재보험기금 주택도시기금 등의 주요 기금의 총 규모는 약 100조원이다. 여기에 기금형 퇴직연금이 추가되면 시장 규모는 기하급수적으로 확대될 수 있다. 일부에서는 기금형 퇴직연금 규모가 2050년까지 2000조원에 달할 것으로 예상하고 있다. IB업계 관계자는 OCIO 시장 진출은 현재 시장 규모가 아닌 기금형 퇴직연금 등 앞으로 운용 시장 확대를 염두에 둔 것이라며 최근 몇 년 간 안전자산 채권 예금 등으로만 운영하던 기관이 저금리 장기화로 인해 전문성을 갖춘 기관에 자금을 위탁하려는 수요가 늘고 있는 만큼 시장이 폭발적으로 늘어나기 전에 트랙레코드를 쌓는 것이라고 설명했다. 이어 증권사로선 대형 기금을 수탁받으면 시황과 상관없이 안정적인 운용 수익을 거둘 수 있는 데다 정책자금을 운용하면서 얻은 노하우로 해외 자금을 유치하는 데 도움이 된다고 말했다. 미래에셋자산운용 주택도시보증공사 HUG 기금형퇴직연금 OCIO </t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>['희망퇴직 퇴직금', '임금피크제']</t>
+          <t>['퇴직연금 규모', '퇴직연금ocio']</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>[{'희망퇴직 퇴직금': 2}, {'임금피크제': 13}]</t>
+          <t>[{'퇴직연금 규모': 11}, {'퇴직연금ocio': 1}]</t>
         </is>
       </c>
       <c r="K38" t="n">
@@ -4485,23 +4485,23 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>은행권의 희망퇴직자 수와 퇴직금 규모에 대한 정보가 제공되었으며, 퇴직금 지급 방식에 대한 언급도 있어서 3점을 주었습니다.</t>
+          <t>주택도시보증공사가 외부위탁운용관리 OCIO 기관을 선정하고 자산배분과 자문서비스를 수행한다.</t>
         </is>
       </c>
       <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>대규모로 조직을 확충 중인 증권사들의 경쟁이 거세질 전망이다.</t>
+        </is>
+      </c>
+      <c r="O38" t="n">
         <v>1</v>
       </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>산업 경쟁 동향에 대한 정보가 제공되지 않았으므로 1점을 주었습니다.</t>
-        </is>
-      </c>
-      <c r="O38" t="n">
-        <v>2</v>
-      </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>금융 시장의 변동성과 투자 자산에 대한 영향에 대한 정보가 제공되었으며, 은행권의 퇴직금 규모와 관련된 내용도 있어서 2점을 주었습니다.</t>
+          <t>기금형 퇴직연금 규모가 2050년까지 2000조원에 달할 것으로 예상되며, OCIO 시장은 운용 시장 확대를 염두에 둔 것이다.</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -4509,7 +4509,7 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>법률 및 규제 변화에 대한 정보가 제공되지 않았으므로 0점을 주었습니다.</t>
+          <t>No relevant information in the article.</t>
         </is>
       </c>
       <c r="S38" t="n">
@@ -4517,7 +4517,7 @@
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>고령화와 연관된 내용이 제공되지 않았으므로 0점을 주었습니다.</t>
+          <t>No relevant information in the article.</t>
         </is>
       </c>
       <c r="U38" t="n">
@@ -4525,7 +4525,7 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>기술과 디지털화에 대한 내용이 제공되지 않았으므로 0점을 주었습니다.</t>
+          <t>No relevant information in the article.</t>
         </is>
       </c>
       <c r="W38" t="n">
@@ -4533,7 +4533,7 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>소비 행동 및 요구사항에 대한 정보가 제공되지 않았으므로 0점을 주었습니다.</t>
+          <t>No relevant information in the article.</t>
         </is>
       </c>
     </row>
@@ -4550,17 +4550,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>시중은행</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>5.5억 받고 은행 떠난 1.7만명…희망퇴직금 10조 쓴 은행권[2023국감]</t>
+          <t>5.5억 받고 떠나자 1만7000명 짐 쌌다…희망퇴직금 10조 쓴 시중은행</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>은행권이 지난 6년간 퇴직자들에게 1인당 평균 3억5600만원을 지급하였으며, 희망 퇴직자는 1인당 평균 5억5200만원을 받았고 최대 8억2600만원을 수령하였다. 국내 은행권 희망퇴직 현황을 살펴보면 6년여간 희망퇴직자는 1만 7402명이며 지급된 퇴직금은 9조 6047억원에 달했다.</t>
+          <t>2018년 이후 6년간 은행을 떠난 희망퇴직자는 1만7400여명에 달하며, 지급된 퇴직금은 1인당 평균 5억5200만원으로 총 9조6000억원에 달했다. 은행권의 희망퇴직금이 많은 이유는 노사 간 협의에 따라 지급되는 특별퇴직금 때문이다.</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -4568,12 +4568,12 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005592425?sid=101</t>
+          <t>https://n.news.naver.com/mnews/article/421/0007100297?sid=101</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 은행권이 지난 6년간 퇴직자들에게 1인당 평균 3억5600만원을 지급한 것으로 나타났다. 특히 희망 퇴직자는 1인당 평균 5억5200만원을 받았으며 최대 8억2600만원을 수령하기도 했다.강민국 국민의힘 수석대변인이 지난 8월 6일 오후 서울 여의도 국회 소통관에서 논평을 발표하고 있다. 사진연합뉴스국회 정무위원회 소속 강민국 국민의힘 의원실이 금융감독원으로부터 받은 국내 은행권 임금피크 신청 현황에 따르면 지난 2018년2023년 7월까지 6년여간 임금피크제를 미도입한 인터넷은행 3개사를 제외한 17개사의 신청건수는 총 1만 1247건으로 집계됐다.연도별로 살펴보면 2018년 1365건 2019년 1536건 2020년 1756건 2021년 2219건 2022년 2190건으로 최근 감소하고 있다. 올해 7월까지는 1281건을 기록했다. 이에 반해 국내 은행권 희망퇴직 현황을 살펴보면 지난 2018년2023년 7월까지 6년여간 희망퇴직자는 1만 7402명이며 지급된 퇴직금은 9조 6047억원에 달했다 . 이는 동일기간 희망퇴직제 운영 중인 은행 전체 퇴직자 2만 6852 명의 64.8 퇴직금액으로는 전체 퇴직금 10조1243억원의 94.8로 절대적 수준을 차지 하고 있다 .연도별로 살펴보면 희망퇴직자는 2018년 2573명 1조1314억원 2019년 2651명 1조4045억원 2020년 2473명 1조2743억원 2021년 3511명 1조9407억원 2022년 4312명 2조8283억원으로 최근 급증 하고 있다. 올해 7월까지 희망퇴직자는 1882명에 1조212억원이 지급됐다.6년여간 희망퇴직자가 가장 많은 은행은 국민은행으로 3671명을 기록했다. 이어 하나은행 2464 명 농협은행 2349명 등의 순이었다. 희망퇴직금이 가장 많은 은행은 씨티은행으로 1조7593억원을 사용했다.의원실은 최근 희망퇴직의 조건 상향과 특별퇴직금의 규모 상향으로 은행원들에게 퇴직을 제2의 인생 출발을 위한 자발적 선택이자 복지의 개념으로 전환 되고 있다고 지적했다.실제 지난 6년여간 은행권 전체 퇴직자의 평균 퇴직금이 3억5600만원 인 것에 반해 동일기간 희망퇴직자의 평균 퇴직금은 5억5200 만원으로 전체 퇴직자 평균 퇴직금의 154.9에 달하는 수준이다. 가장 많은 평균 희망퇴직금이 지급된 은행은 씨티은행으로 8억2600만원이다.의원실은 희망퇴직금을 복지라고 지적한 배경에 대해 법정퇴직금 외에 노사 간 협의에 따라 지급되는 특별퇴직금 23년치 평균 연봉에 전직 지원금 등 등을 꼽았다. 특별퇴직금은 지난 6년여간 총 6조9402억원이 지급돼 전체 9조6004억원 72.3를 차지했다.강민국 의원은 금융 당국은 은행산업에 대한 국민 신뢰 제고 차원에서라도 희망퇴직금을 자율경영사항이라 외면치 말고 전체 퇴직금 규모를 과도하게 넘는 수준의 희망퇴직금 지급 은행에 대해서는 운영 현황에 대한 점검을 실시하며 은행업권은 역대급 실적에 따른 돈 잔치로 보이지 않게 국민의 눈높이에 맞는 수준에서의 희망퇴직금 운영방안을 마련하는 것이 필요하다고 말했다 .</t>
+          <t xml:space="preserve"> 서울뉴스1 국종환 기자 2018년 이후 6년간 희망퇴직으로 은행을 떠난 은행원이 1만7400여명에 달하는 것으로 나타났다. 이들에게 지급된 희망퇴직금은 1인당 평균 5억5200만원으로 총 9조6000억원에 달했다.10일 금융감독원이 강민국 국민의힘 의원실에 제출한 국내 은행권 희망퇴직 현황에 따르면 14개 시중은행의 2018년부터 올해 7월까지 희망퇴직자는 1만7402명이며 지급된 퇴직금은 총 9조6004억원으로 집계됐다. 은행 전체 퇴직자 중 희망퇴직자 비중은 64.8 희망퇴직제 운영 은행 기준였고 퇴직금액은 전체 퇴직금의 94.8를 차지했다. 연도별 희망퇴직자는 2018년 2573명에서 지난해 4312명으로 최근 급증하고 있다. 올해에도 7월까지 1882명이 희망퇴직으로 은행을 떠났다.지난 5년간 은행권 희망퇴직자의 1인당 평균 퇴직금은 5억5200만원으로 전체 퇴직자 평균 퇴직금 3억5600만원보다 약 2억원 많았다. 은행권의 희망퇴직금이 많은 이유는 노사 간 협의에 따라 지급되는 특별퇴직금 23년치 평균 연봉에 전직 지원금 등 때문이다. 지난 6년간 총 6조9402억원의 특별퇴직금이 지급됐다. 전체 희망퇴직금 9조6004억원의 72.3를 차지한다. 최근 6년간 희망퇴직자가 가장 많은 은행은 국민은행 3671명이었으며 하나은행 2464명 농협은행 2349명 등이 뒤를 이었다. 1인당 희망퇴직금이 가장 많은 은행은 씨티은행으로 평균 8억2600만원이 지급됐다.강민국 의원은 공공재 성격을 가진 은행은 위화감을 조성할 수 있는 과도한 복지지원금 성격을 가진 희망퇴직금 지급에 대해 숙고해야 한다며 금융당국은 은행산업에 대한 국민 신뢰 제고 차원에서라도 전체 퇴직금 규모를 과도하게 넘는 수준의 희망퇴직금 지급 은행에 대해서는 운영 현황 점검을 실시해야 한다고 밝혔다.한편 2018년부터 올해 7월까지 국내 17개 은행 인터넷은행 제외의 임금피크제 신청건수는 총 1만1247건 수준인 것으로 집계됐다. 2018년 1365건에서 2021년 2219건으로 늘다가 지난해 2190건으로 감소했다.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -4583,7 +4583,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>[{'희망퇴직 퇴직금': 5}, {'임금피크제': 16}]</t>
+          <t>[{'희망퇴직 퇴직금': 2}, {'임금피크제': 13}]</t>
         </is>
       </c>
       <c r="K39" t="n">
@@ -4591,7 +4591,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>은행권이 퇴직자들에게 평균적으로 높은 금액을 지급하고 있으며, 희망 퇴직자에게는 더 높은 금액을 지급하고 있다.</t>
+          <t>은행권의 희망퇴직자 수와 퇴직금 규모에 대한 정보가 제공되었으며, 퇴직금 지급 방식에 대한 언급도 있어서 3점을 주었습니다.</t>
         </is>
       </c>
       <c r="M39" t="n">
@@ -4599,7 +4599,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>이 기사에서는 은행권의 경쟁 동향이나 신제품 및 서비스에 대한 언급이 없다.</t>
+          <t>산업 경쟁 동향에 대한 정보가 제공되지 않았으므로 1점을 주었습니다.</t>
         </is>
       </c>
       <c r="O39" t="n">
@@ -4607,7 +4607,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>이 기사에서는 금융 시장의 변동성이나 투자 자산의 변화에 대한 언급이 없다.</t>
+          <t>금융 시장의 변동성과 투자 자산에 대한 영향에 대한 정보가 제공되었으며, 은행권의 퇴직금 규모와 관련된 내용도 있어서 2점을 주었습니다.</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -4615,7 +4615,7 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>이 기사에서는 법률 및 규제 변화에 대한 언급이 없다.</t>
+          <t>법률 및 규제 변화에 대한 정보가 제공되지 않았으므로 0점을 주었습니다.</t>
         </is>
       </c>
       <c r="S39" t="n">
@@ -4623,7 +4623,7 @@
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>이 기사에서는 인구 통계 변화나 연금 기금의 장기적 지속 가능성에 대한 언급이 없다.</t>
+          <t>고령화와 연관된 내용이 제공되지 않았으므로 0점을 주었습니다.</t>
         </is>
       </c>
       <c r="U39" t="n">
@@ -4631,7 +4631,7 @@
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>이 기사에서는 기술과 디지털화에 대한 언급이 없다.</t>
+          <t>기술과 디지털화에 대한 내용이 제공되지 않았으므로 0점을 주었습니다.</t>
         </is>
       </c>
       <c r="W39" t="n">
@@ -4639,7 +4639,7 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>이 기사에서는 소비 행동 및 요구사항에 대한 언급이 없다.</t>
+          <t>소비 행동 및 요구사항에 대한 정보가 제공되지 않았으므로 0점을 주었습니다.</t>
         </is>
       </c>
     </row>
@@ -4661,12 +4661,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>은행, 6년간 희망퇴직 1.7만명에 약 10조원 지급…1인당 5.5억원</t>
+          <t>5.5억 받고 은행 떠난 1.7만명…희망퇴직금 10조 쓴 은행권[2023국감]</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>은행권의 6년여간 희망퇴직자는 1만7402명으로 지급된 퇴직금은 9조6047억원에 달하는 것으로 나타났다. 국내 은행권 희망퇴직 현황을 보면 지난 2018년2023년 7월까지 6년여간 희망퇴직자는 1만7402명이며 지급된 퇴직금은 9조6047억원에 달했다. 동일기간 희망퇴직제 운영 중인 은행 전체 퇴직자 2 만6852명의 64.8 퇴직금액으로는 전체 퇴직금 10조1243억원 의 94.8를 차지했다.</t>
+          <t>은행권이 지난 6년간 퇴직자들에게 1인당 평균 3억5600만원을 지급하였으며, 희망 퇴직자는 1인당 평균 5억5200만원을 받았고 최대 8억2600만원을 수령하였다. 국내 은행권 희망퇴직 현황을 살펴보면 6년여간 희망퇴직자는 1만 7402명이며 지급된 퇴직금은 9조 6047억원에 달했다.</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -4674,12 +4674,12 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002317515?sid=101</t>
+          <t>https://n.news.naver.com/mnews/article/018/0005592425?sid=101</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>은행권의 6년여간 희망퇴직자는 1만7402명으로 지급된 퇴직금은 9 조6047억원에 달하는 것으로 나타났다. 1인당 희망퇴직금은 5억5200만원이었다. 국회 정무위원회 소속 국민의힘 강민국 의원이 금융감독원에 자료요청을 통해 받은 답변 자료인 국내 은행권 임금피크 신청 현황에 의하면 지난 2018년2023년 7월까지 6년여간 임금피크제를 미도입한 인터넷은행 3개사를 제외한 17개사의 신청건수는 총 1만1247건이었다 . 임금피크 신청을 연도별로 살펴보면 2018년 1365건 2019년 1536건 2020년 1756건 2021년 2219건 2022년 2190건으로 최근 감소하고 있다 2023 년 7월까지 2181건. 국내 은행권 희망퇴직 현황을 보면 지난 2018년2023년 7월까지 6년여간 희망퇴직자는 1만7402명이며 지급된 퇴직금은 9조6047억원에 달했다. 동일기간 희망퇴직제 운영 중인 은행 전체 퇴직자 2 만6852명의 64.8 퇴직금액으로는 전체 퇴직금 10조1243억원 의 94.8를 차지했다. 희망퇴직자는 2018년 2573명 1조1314억원 2019년 2651명 1조4045억원 2020년 2473명 1조2743억원 2021년 3511명 1조9407억원 2022년 4312명 2조8283억원으로 최근 급증하고 있다 2023년 7월까지 희망퇴직자 1882명 1조212억원. 6년여간 희망퇴직자가 가장 많은 은행은 국민은행 3671명이었으며 다음으로 하나은행 2464명 농협은행 2349명 등 순이며 희망퇴직금이 가장 많은 은행은 씨티은행 1조7593억원 이었다. 지난 6년여간 은행권 전체 퇴직자의 평균 퇴직금이 3억5600만원인 것에 반해 동일기간 희망퇴직자의 평균 퇴직금은 5억5200만원으로 전체 퇴직자 평균 퇴직금의 154.9에 달했다. 가장 많은 평균 희망퇴직금이 지급된 은행은 씨티은행 8억2600만원이다. 강민국 의원은 희망퇴직금을 복지라고 하는데는 법정퇴직금 외에 노사 간 협의에 따라 지급되는 특별퇴직금 23년치 평균 연봉에 전직 지원금 등 때문으로 지난 6년여간 총 6조9402억원이 지급되어 전체 9조6004억원 72.3나 된다고 지적했다. 그는 지난한 코로나 시기를 겪으며 경제적 어려움을 겪고 있는 국민들은 계속된 천문학적 수준의 은행권 횡령과 배임 등의 금융사고로 인해 은행산업 전반에 대한 불신이 극에 달하고 있기에 공공재 성격을 가진 은행은 위화감을 조성할 수 있을 정도의 과도한 복지지원금 성격을 가진 희망퇴직금 지급에 대해 숙고해야 한다고 일갈했다. 강민국 의원은 금융 당국은 은행산업에 대한 국민 신뢰 제고 차원에서라도 희망퇴직금을 자율경영사항이라 외면치 말고 전체 퇴직금 규모를 과도하게 넘는 수준의 희망퇴직금 지급 은행에 대해서는 운영 현황에 대한 점검을 실시하며 은행업권은 역대급 실적에 따른 돈 잔치로 보이지 않게 국민의 눈높이에 맞는 수준에서의 희망퇴직금 운영방안을 마련하는 것이 필요하다고 강조했다.</t>
+          <t xml:space="preserve"> 은행권이 지난 6년간 퇴직자들에게 1인당 평균 3억5600만원을 지급한 것으로 나타났다. 특히 희망 퇴직자는 1인당 평균 5억5200만원을 받았으며 최대 8억2600만원을 수령하기도 했다.강민국 국민의힘 수석대변인이 지난 8월 6일 오후 서울 여의도 국회 소통관에서 논평을 발표하고 있다. 사진연합뉴스국회 정무위원회 소속 강민국 국민의힘 의원실이 금융감독원으로부터 받은 국내 은행권 임금피크 신청 현황에 따르면 지난 2018년2023년 7월까지 6년여간 임금피크제를 미도입한 인터넷은행 3개사를 제외한 17개사의 신청건수는 총 1만 1247건으로 집계됐다.연도별로 살펴보면 2018년 1365건 2019년 1536건 2020년 1756건 2021년 2219건 2022년 2190건으로 최근 감소하고 있다. 올해 7월까지는 1281건을 기록했다. 이에 반해 국내 은행권 희망퇴직 현황을 살펴보면 지난 2018년2023년 7월까지 6년여간 희망퇴직자는 1만 7402명이며 지급된 퇴직금은 9조 6047억원에 달했다 . 이는 동일기간 희망퇴직제 운영 중인 은행 전체 퇴직자 2만 6852 명의 64.8 퇴직금액으로는 전체 퇴직금 10조1243억원의 94.8로 절대적 수준을 차지 하고 있다 .연도별로 살펴보면 희망퇴직자는 2018년 2573명 1조1314억원 2019년 2651명 1조4045억원 2020년 2473명 1조2743억원 2021년 3511명 1조9407억원 2022년 4312명 2조8283억원으로 최근 급증 하고 있다. 올해 7월까지 희망퇴직자는 1882명에 1조212억원이 지급됐다.6년여간 희망퇴직자가 가장 많은 은행은 국민은행으로 3671명을 기록했다. 이어 하나은행 2464 명 농협은행 2349명 등의 순이었다. 희망퇴직금이 가장 많은 은행은 씨티은행으로 1조7593억원을 사용했다.의원실은 최근 희망퇴직의 조건 상향과 특별퇴직금의 규모 상향으로 은행원들에게 퇴직을 제2의 인생 출발을 위한 자발적 선택이자 복지의 개념으로 전환 되고 있다고 지적했다.실제 지난 6년여간 은행권 전체 퇴직자의 평균 퇴직금이 3억5600만원 인 것에 반해 동일기간 희망퇴직자의 평균 퇴직금은 5억5200 만원으로 전체 퇴직자 평균 퇴직금의 154.9에 달하는 수준이다. 가장 많은 평균 희망퇴직금이 지급된 은행은 씨티은행으로 8억2600만원이다.의원실은 희망퇴직금을 복지라고 지적한 배경에 대해 법정퇴직금 외에 노사 간 협의에 따라 지급되는 특별퇴직금 23년치 평균 연봉에 전직 지원금 등 등을 꼽았다. 특별퇴직금은 지난 6년여간 총 6조9402억원이 지급돼 전체 9조6004억원 72.3를 차지했다.강민국 의원은 금융 당국은 은행산업에 대한 국민 신뢰 제고 차원에서라도 희망퇴직금을 자율경영사항이라 외면치 말고 전체 퇴직금 규모를 과도하게 넘는 수준의 희망퇴직금 지급 은행에 대해서는 운영 현황에 대한 점검을 실시하며 은행업권은 역대급 실적에 따른 돈 잔치로 보이지 않게 국민의 눈높이에 맞는 수준에서의 희망퇴직금 운영방안을 마련하는 것이 필요하다고 말했다 .</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -4689,7 +4689,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>[{'희망퇴직 퇴직금': 11}, {'임금피크제': 19}]</t>
+          <t>[{'희망퇴직 퇴직금': 5}, {'임금피크제': 16}]</t>
         </is>
       </c>
       <c r="K40" t="n">
@@ -4697,23 +4697,23 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>은행권의 희망퇴직자 수와 지급된 퇴직금액을 분석하여 펜션 펀드 관리 전략과 수익률을 평가할 수 있음</t>
+          <t>은행권이 퇴직자들에게 평균적으로 높은 금액을 지급하고 있으며, 희망 퇴직자에게는 더 높은 금액을 지급하고 있다.</t>
         </is>
       </c>
       <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>이 기사에서는 은행권의 경쟁 동향이나 신제품 및 서비스에 대한 언급이 없다.</t>
+        </is>
+      </c>
+      <c r="O40" t="n">
         <v>2</v>
       </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>은행권의 희망퇴직자 수와 퇴직금액을 비교하여 시장 점유율과 신제품 및 서비스 출시 동향을 파악할 수 있음</t>
-        </is>
-      </c>
-      <c r="O40" t="n">
-        <v>1</v>
-      </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>은행권의 희망퇴직자 수와 퇴직금액을 통해 금융 시장 변동성과 투자 자산의 변화가 퇴직 연금 업계에 미치는 영향을 이해할 수 있음</t>
+          <t>이 기사에서는 금융 시장의 변동성이나 투자 자산의 변화에 대한 언급이 없다.</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>본 기사에는 법률 및 규제 변화에 대한 내용이 포함되어 있지 않음</t>
+          <t>이 기사에서는 법률 및 규제 변화에 대한 언급이 없다.</t>
         </is>
       </c>
       <c r="S40" t="n">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>본 기사에는 인구 통계 변화와 연금 기금의 장기적 지속 가능성에 대한 내용이 포함되어 있지 않음</t>
+          <t>이 기사에서는 인구 통계 변화나 연금 기금의 장기적 지속 가능성에 대한 언급이 없다.</t>
         </is>
       </c>
       <c r="U40" t="n">
@@ -4737,7 +4737,7 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>본 기사에는 기술과 디지털화에 대한 내용이 포함되어 있지 않음</t>
+          <t>이 기사에서는 기술과 디지털화에 대한 언급이 없다.</t>
         </is>
       </c>
       <c r="W40" t="n">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>본 기사에는 소비 행동 및 요구사항에 대한 내용이 포함되어 있지 않음</t>
+          <t>이 기사에서는 소비 행동 및 요구사항에 대한 언급이 없다.</t>
         </is>
       </c>
     </row>
@@ -4757,7 +4757,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>퇴직연금 제도</t>
+          <t>사회 동향</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -4767,35 +4767,35 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>예금자보호한도 ‘5천만 원’ 유지…연금저축·사고보험금 새로 포함</t>
+          <t>은행, 6년간 희망퇴직 1.7만명에 약 10조원 지급…1인당 5.5억원</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>연금저축과 사고보험금 중소기업 퇴직연금기금도 일반 예금과 별개로 5천만 원까지 예금자 보호 한도를 적용받게 됩니다. 금융위원회에 따르면 오늘 10일 이런 내용을 담은 예금자보호법 시행령 개정안이 국무회의에서 의결됐습니다. 정부는 2015년부터 확정기여형 DC형과 개인형 IRP 퇴직연금의 예금에 대해서는 일반 예금과 별도로 5천만 원의 보호 한도를 적용해왔습니다.</t>
+          <t>은행권의 6년여간 희망퇴직자는 1만7402명으로 지급된 퇴직금은 9조6047억원에 달하는 것으로 나타났다. 국내 은행권 희망퇴직 현황을 보면 지난 2018년2023년 7월까지 6년여간 희망퇴직자는 1만7402명이며 지급된 퇴직금은 9조6047억원에 달했다. 동일기간 희망퇴직제 운영 중인 은행 전체 퇴직자 2 만6852명의 64.8 퇴직금액으로는 전체 퇴직금 10조1243억원 의 94.8를 차지했다.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/449/0000259288?sid=101</t>
+          <t>https://n.news.naver.com/mnews/article/123/0002317515?sid=101</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 연금저축과 사고보험금 중소기업 퇴직연금기금도 일반 예금과 별개로 5천만 원까지 예금자 보호 한도를 적용받게 됩니다. 금융위원회에 따르면 오늘 10일 이런 내용을 담은 예금자보호법 시행령 개정안이 국무회의에서 의결됐습니다.정부는 2015년부터 확정기여형 DC형과 개인형 IRP 퇴직연금의 예금에 대해서는 일반 예금과 별도로 5천만 원의 보호 한도를 적용해왔습니다.이번 개정안은 사회보장적 성격이 강한 연금저축과 사고보험금 중소기업 퇴직연금기금에 대해서도 일반 예금과 분리하여 별도로 5천만 원의 예금 보호 한도를 적용하는 내용이 담겼습니다.다만 예금자 보호한도는 현행 수준을 유지합니다. 올해 3월 미국 실리콘밸리은행 SVB 파산 이후 우리나라에서도 예금자 보호한도를 현행 수준인 5천만 원에서 1억 원으로 높여야 한다는 논의가 나왔습니다.정부도 한도를 높이는 방안을 검토했으나 예금자보호한도가 올라갈 경우 금융기관들이 내야하는 보험료가 상승해서 결과적으로 대출금리에 전가될 수 있다는 이유에서 일단 유지 결론을 내린 겁니다.이번 시행령 개정안은 10월 중 공포 즉시 시행됩니다. 연금저축공제 및 일반 공제상품을 취급하는 상호금융권에 대해서도 같은 내용을 담은 개별법 시행령 개정이 조만간 완료됩니다.</t>
+          <t>은행권의 6년여간 희망퇴직자는 1만7402명으로 지급된 퇴직금은 9 조6047억원에 달하는 것으로 나타났다. 1인당 희망퇴직금은 5억5200만원이었다. 국회 정무위원회 소속 국민의힘 강민국 의원이 금융감독원에 자료요청을 통해 받은 답변 자료인 국내 은행권 임금피크 신청 현황에 의하면 지난 2018년2023년 7월까지 6년여간 임금피크제를 미도입한 인터넷은행 3개사를 제외한 17개사의 신청건수는 총 1만1247건이었다 . 임금피크 신청을 연도별로 살펴보면 2018년 1365건 2019년 1536건 2020년 1756건 2021년 2219건 2022년 2190건으로 최근 감소하고 있다 2023 년 7월까지 2181건. 국내 은행권 희망퇴직 현황을 보면 지난 2018년2023년 7월까지 6년여간 희망퇴직자는 1만7402명이며 지급된 퇴직금은 9조6047억원에 달했다. 동일기간 희망퇴직제 운영 중인 은행 전체 퇴직자 2 만6852명의 64.8 퇴직금액으로는 전체 퇴직금 10조1243억원 의 94.8를 차지했다. 희망퇴직자는 2018년 2573명 1조1314억원 2019년 2651명 1조4045억원 2020년 2473명 1조2743억원 2021년 3511명 1조9407억원 2022년 4312명 2조8283억원으로 최근 급증하고 있다 2023년 7월까지 희망퇴직자 1882명 1조212억원. 6년여간 희망퇴직자가 가장 많은 은행은 국민은행 3671명이었으며 다음으로 하나은행 2464명 농협은행 2349명 등 순이며 희망퇴직금이 가장 많은 은행은 씨티은행 1조7593억원 이었다. 지난 6년여간 은행권 전체 퇴직자의 평균 퇴직금이 3억5600만원인 것에 반해 동일기간 희망퇴직자의 평균 퇴직금은 5억5200만원으로 전체 퇴직자 평균 퇴직금의 154.9에 달했다. 가장 많은 평균 희망퇴직금이 지급된 은행은 씨티은행 8억2600만원이다. 강민국 의원은 희망퇴직금을 복지라고 하는데는 법정퇴직금 외에 노사 간 협의에 따라 지급되는 특별퇴직금 23년치 평균 연봉에 전직 지원금 등 때문으로 지난 6년여간 총 6조9402억원이 지급되어 전체 9조6004억원 72.3나 된다고 지적했다. 그는 지난한 코로나 시기를 겪으며 경제적 어려움을 겪고 있는 국민들은 계속된 천문학적 수준의 은행권 횡령과 배임 등의 금융사고로 인해 은행산업 전반에 대한 불신이 극에 달하고 있기에 공공재 성격을 가진 은행은 위화감을 조성할 수 있을 정도의 과도한 복지지원금 성격을 가진 희망퇴직금 지급에 대해 숙고해야 한다고 일갈했다. 강민국 의원은 금융 당국은 은행산업에 대한 국민 신뢰 제고 차원에서라도 희망퇴직금을 자율경영사항이라 외면치 말고 전체 퇴직금 규모를 과도하게 넘는 수준의 희망퇴직금 지급 은행에 대해서는 운영 현황에 대한 점검을 실시하며 은행업권은 역대급 실적에 따른 돈 잔치로 보이지 않게 국민의 눈높이에 맞는 수준에서의 희망퇴직금 운영방안을 마련하는 것이 필요하다고 강조했다.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>['퇴직연금 DC', '퇴직연금 IRP', '확정기여형', '개인형퇴직연금', '퇴직연금 예금']</t>
+          <t>['희망퇴직 퇴직금', '임금피크제']</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>[{'퇴직연금 DC': 6}, {'퇴직연금 IRP': 3}, {'확정기여형': 4}, {'개인형퇴직연금': 3}, {'퇴직연금 예금': 4}]</t>
+          <t>[{'희망퇴직 퇴직금': 11}, {'임금피크제': 19}]</t>
         </is>
       </c>
       <c r="K41" t="n">
@@ -4803,31 +4803,31 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>연금저축과 사고보험금 중소기업 퇴직연금기금에 대한 예금자 보호 한도를 적용하는 내용이 포함되어 있음.</t>
+          <t>은행권의 희망퇴직자 수와 지급된 퇴직금액을 분석하여 펜션 펀드 관리 전략과 수익률을 평가할 수 있음</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>경쟁 동향과 관련된 내용이 없음.</t>
+          <t>은행권의 희망퇴직자 수와 퇴직금액을 비교하여 시장 점유율과 신제품 및 서비스 출시 동향을 파악할 수 있음</t>
         </is>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>금융 시장 변동성과 관련된 내용이 없음.</t>
+          <t>은행권의 희망퇴직자 수와 퇴직금액을 통해 금융 시장 변동성과 투자 자산의 변화가 퇴직 연금 업계에 미치는 영향을 이해할 수 있음</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>예금자보호법 시행령 개정안이 국무회의에서 의결됨으로써 법적 및 규제적 변화가 있음.</t>
+          <t>본 기사에는 법률 및 규제 변화에 대한 내용이 포함되어 있지 않음</t>
         </is>
       </c>
       <c r="S41" t="n">
@@ -4835,7 +4835,7 @@
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>노령화와 관련된 내용이 없음.</t>
+          <t>본 기사에는 인구 통계 변화와 연금 기금의 장기적 지속 가능성에 대한 내용이 포함되어 있지 않음</t>
         </is>
       </c>
       <c r="U41" t="n">
@@ -4843,7 +4843,7 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>기술과 디지털화에 관련된 내용이 없음.</t>
+          <t>본 기사에는 기술과 디지털화에 대한 내용이 포함되어 있지 않음</t>
         </is>
       </c>
       <c r="W41" t="n">
@@ -4851,7 +4851,7 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>소비 행동 및 요구사항과 관련된 내용이 없음.</t>
+          <t>본 기사에는 소비 행동 및 요구사항에 대한 내용이 포함되어 있지 않음</t>
         </is>
       </c>
     </row>
@@ -4873,12 +4873,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>10월부터 '연금저축·中企 퇴직연금'도 5000만원까지 예금자보호</t>
+          <t>예금자보호한도 ‘5천만 원’ 유지…연금저축·사고보험금 새로 포함</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>금융위원회는 연금저축 사고보험금 중소기업퇴직연금기금에 대해 별도로 5000만원의 예금보호한도를 적용하는 예금자보호법 시행령 개정안이 국무회의에서 의결됐다. 이번 개정안은 연금저축 신탁보험 사고보험금 중소기업퇴직연금기금에도 별도로 5000만원의 예금보호한도를 적용하는 내용을 담았다. 시행령 개정안은 10월 중 공포 즉시 시행될 예정이다.</t>
+          <t>연금저축과 사고보험금 중소기업 퇴직연금기금도 일반 예금과 별개로 5천만 원까지 예금자 보호 한도를 적용받게 됩니다. 금융위원회에 따르면 오늘 10일 이런 내용을 담은 예금자보호법 시행령 개정안이 국무회의에서 의결됐습니다. 정부는 2015년부터 확정기여형 DC형과 개인형 IRP 퇴직연금의 예금에 대해서는 일반 예금과 별도로 5천만 원의 보호 한도를 적용해왔습니다.</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -4886,12 +4886,12 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/421/0007099073?sid=101</t>
+          <t>https://n.news.naver.com/mnews/article/449/0000259288?sid=101</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 서울뉴스1 신병남 기자 앞으로 연금저축과 같이 사회보장 성격이 강한 금융상품의 경우 일반 예금과 분리해 5000만원까지 별도로 예금자 보호를 받을 수 있다. 금융위원회는 10일 연금저축 사고보험금 중소기업퇴직연금기금에 대해 별도로 5000만원의 예금보호한도를 적용하는 예금자보호법 시행령 개정안이 이날 국무회의에서 의결됐다고 밝혔다.지난 2015년 이후 확정기여형 DC형개인형 IRP 퇴직연금의 예금에 대해서는 동일 금융회사에 예금자가 보유한 일반 예금과 별도로 5000만원의 보호한도를 적용해 왔다.이번 개정안은 사회보장적 성격이 강한 연금저축 신탁보험 사고보험금 중소기업퇴직연금기금 각각에 대해서도 일반 예금과 분리해 별도로 5000만원의 예금보호한도를 적용하는 내용을 담았다.금융위 측은 연금저축 중소기업퇴직연금기금의 경우 국민들이 더욱 안전하게 노후를 준비할 수 있게 하고 사고보험금은 보험사 부실시에도 불의의 사고를 겪은 예금자를 보다 두텁게 보호하는 성격이라며 이번 조치로 금융산업에 대한 신뢰도가 한층 더 강화될 것이라고 말했다.시행령 개정안은 10월 중 공포 즉시 시행될 예정이다. 연금저축공제일반 공제상품을 취급하는 상호금융권에 대해서도 같은 내용을 담은 개별법 시행령 개정이 조만간 완료된다.</t>
+          <t xml:space="preserve"> 연금저축과 사고보험금 중소기업 퇴직연금기금도 일반 예금과 별개로 5천만 원까지 예금자 보호 한도를 적용받게 됩니다. 금융위원회에 따르면 오늘 10일 이런 내용을 담은 예금자보호법 시행령 개정안이 국무회의에서 의결됐습니다.정부는 2015년부터 확정기여형 DC형과 개인형 IRP 퇴직연금의 예금에 대해서는 일반 예금과 별도로 5천만 원의 보호 한도를 적용해왔습니다.이번 개정안은 사회보장적 성격이 강한 연금저축과 사고보험금 중소기업 퇴직연금기금에 대해서도 일반 예금과 분리하여 별도로 5천만 원의 예금 보호 한도를 적용하는 내용이 담겼습니다.다만 예금자 보호한도는 현행 수준을 유지합니다. 올해 3월 미국 실리콘밸리은행 SVB 파산 이후 우리나라에서도 예금자 보호한도를 현행 수준인 5천만 원에서 1억 원으로 높여야 한다는 논의가 나왔습니다.정부도 한도를 높이는 방안을 검토했으나 예금자보호한도가 올라갈 경우 금융기관들이 내야하는 보험료가 상승해서 결과적으로 대출금리에 전가될 수 있다는 이유에서 일단 유지 결론을 내린 겁니다.이번 시행령 개정안은 10월 중 공포 즉시 시행됩니다. 연금저축공제 및 일반 공제상품을 취급하는 상호금융권에 대해서도 같은 내용을 담은 개별법 시행령 개정이 조만간 완료됩니다.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -4901,7 +4901,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>[{'퇴직연금 DC': 7}, {'퇴직연금 IRP': 4}, {'확정기여형': 8}, {'개인형퇴직연금': 4}, {'퇴직연금 예금': 5}]</t>
+          <t>[{'퇴직연금 DC': 6}, {'퇴직연금 IRP': 3}, {'확정기여형': 4}, {'개인형퇴직연금': 3}, {'퇴직연금 예금': 4}]</t>
         </is>
       </c>
       <c r="K42" t="n">
@@ -4909,7 +4909,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>금융위원회가 연금저축 사고보험금 중소기업퇴직연금기금에 별도로 5000만원의 예금보호한도를 적용하는 예금자보호법 시행령 개정안을 의결했기 때문에 3점을 줍니다.</t>
+          <t>연금저축과 사고보험금 중소기업 퇴직연금기금에 대한 예금자 보호 한도를 적용하는 내용이 포함되어 있음.</t>
         </is>
       </c>
       <c r="M42" t="n">
@@ -4917,23 +4917,23 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>기사에는 새로운 제품 및 서비스 출시와 관련된 내용이 없으므로 0점을 줍니다.</t>
+          <t>경쟁 동향과 관련된 내용이 없음.</t>
         </is>
       </c>
       <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>금융 시장 변동성과 관련된 내용이 없음.</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
         <v>2</v>
       </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>이번 개정안은 금융산업에 대한 신뢰도를 강화시키는 내용을 담고 있으므로 2점을 줍니다.</t>
-        </is>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>기사에는 법률 및 규제 변경에 관한 내용이 없으므로 0점을 줍니다.</t>
+          <t>예금자보호법 시행령 개정안이 국무회의에서 의결됨으로써 법적 및 규제적 변화가 있음.</t>
         </is>
       </c>
       <c r="S42" t="n">
@@ -4941,7 +4941,7 @@
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>기사에는 인구 변화와 관련된 내용이 없으므로 0점을 줍니다.</t>
+          <t>노령화와 관련된 내용이 없음.</t>
         </is>
       </c>
       <c r="U42" t="n">
@@ -4949,7 +4949,7 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>기사에는 기술과 디지털화에 관한 내용이 없으므로 0점을 줍니다.</t>
+          <t>기술과 디지털화에 관련된 내용이 없음.</t>
         </is>
       </c>
       <c r="W42" t="n">
@@ -4957,7 +4957,7 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>기사에는 소비 행동 및 요구사항에 관한 내용이 없으므로 0점을 줍니다.</t>
+          <t>소비 행동 및 요구사항과 관련된 내용이 없음.</t>
         </is>
       </c>
     </row>
@@ -4979,12 +4979,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>연금저축·사고보험금도 5000만원까지 보호받는다</t>
+          <t>10월부터 '연금저축·中企 퇴직연금'도 5000만원까지 예금자보호</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>금융위원회는 예금자보호법 시행령 개정안을 통해 연금저축과 사고보험금 중소기업퇴직연금기금에도 별도로 5000만 원의 보호한도를 적용하기로 했다. 이는 국민들이 안전하게 노후를 준비할 수 있게 하고, 불의의 사고를 겪은 예금자를 보다 두텁게 보호하기 위한 조치이다.</t>
+          <t>금융위원회는 연금저축 사고보험금 중소기업퇴직연금기금에 대해 별도로 5000만원의 예금보호한도를 적용하는 예금자보호법 시행령 개정안이 국무회의에서 의결됐다. 이번 개정안은 연금저축 신탁보험 사고보험금 중소기업퇴직연금기금에도 별도로 5000만원의 예금보호한도를 적용하는 내용을 담았다. 시행령 개정안은 10월 중 공포 즉시 시행될 예정이다.</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -4992,12 +4992,12 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004247225?sid=101</t>
+          <t>https://n.news.naver.com/mnews/article/421/0007099073?sid=101</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 연금저축과 사고보험금 중소기업퇴직연금기금도 일반 예금과 별도로 5000만 원까지 보호받는다.금융위원회는 10일 이 같은 내용을 담은 예금자보호법 시행령 개정안이 국무회의에서 의결됐다고 밝혔다.정부는 2015년부터 확정기여형 DC형 및 개인형 IRP 퇴직연금의 예금에 대해 일반 예금과 별도로 5000만원의 보호한도를 적용해왔다.개정안은 연금저축 신탁보험 사고보험금 중소기업퇴직연금기금에도 일반 예금과 분리해 별도로 5000만 원의 한도를 적용하기로 했다.이번 개정안은 이달 중 공포 즉시 시행된다. 금융위는 연금저축 및 중소기업퇴직연금기금의 경우 국민들이 더욱 안전하게 노후를 준비할 수 있게 됐다며 사고보험금에 대해서는 보험사 부실 시에도 불의의 사고를 겪은 예금자를 보다 두텁게 보호하려는 것이라고 설명했다.</t>
+          <t xml:space="preserve"> 서울뉴스1 신병남 기자 앞으로 연금저축과 같이 사회보장 성격이 강한 금융상품의 경우 일반 예금과 분리해 5000만원까지 별도로 예금자 보호를 받을 수 있다. 금융위원회는 10일 연금저축 사고보험금 중소기업퇴직연금기금에 대해 별도로 5000만원의 예금보호한도를 적용하는 예금자보호법 시행령 개정안이 이날 국무회의에서 의결됐다고 밝혔다.지난 2015년 이후 확정기여형 DC형개인형 IRP 퇴직연금의 예금에 대해서는 동일 금융회사에 예금자가 보유한 일반 예금과 별도로 5000만원의 보호한도를 적용해 왔다.이번 개정안은 사회보장적 성격이 강한 연금저축 신탁보험 사고보험금 중소기업퇴직연금기금 각각에 대해서도 일반 예금과 분리해 별도로 5000만원의 예금보호한도를 적용하는 내용을 담았다.금융위 측은 연금저축 중소기업퇴직연금기금의 경우 국민들이 더욱 안전하게 노후를 준비할 수 있게 하고 사고보험금은 보험사 부실시에도 불의의 사고를 겪은 예금자를 보다 두텁게 보호하는 성격이라며 이번 조치로 금융산업에 대한 신뢰도가 한층 더 강화될 것이라고 말했다.시행령 개정안은 10월 중 공포 즉시 시행될 예정이다. 연금저축공제일반 공제상품을 취급하는 상호금융권에 대해서도 같은 내용을 담은 개별법 시행령 개정이 조만간 완료된다.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>[{'퇴직연금 DC': 10}, {'퇴직연금 IRP': 8}, {'확정기여형': 7}, {'개인형퇴직연금': 7}, {'퇴직연금 예금': 10}]</t>
+          <t>[{'퇴직연금 DC': 7}, {'퇴직연금 IRP': 4}, {'확정기여형': 8}, {'개인형퇴직연금': 4}, {'퇴직연금 예금': 5}]</t>
         </is>
       </c>
       <c r="K43" t="n">
@@ -5015,7 +5015,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>연금저축과 사고보험금 중소기업퇴직연금기금에 별도로 5000만 원의 보호한도를 적용하는 예금자보호법 시행령 개정안이 국무회의에서 의결됨</t>
+          <t>금융위원회가 연금저축 사고보험금 중소기업퇴직연금기금에 별도로 5000만원의 예금보호한도를 적용하는 예금자보호법 시행령 개정안을 의결했기 때문에 3점을 줍니다.</t>
         </is>
       </c>
       <c r="M43" t="n">
@@ -5023,15 +5023,15 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>해당 기사에는 산업 경쟁 동향에 대한 내용이 없음</t>
+          <t>기사에는 새로운 제품 및 서비스 출시와 관련된 내용이 없으므로 0점을 줍니다.</t>
         </is>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>해당 기사에는 금융 시장 변동성에 대한 내용이 없음</t>
+          <t>이번 개정안은 금융산업에 대한 신뢰도를 강화시키는 내용을 담고 있으므로 2점을 줍니다.</t>
         </is>
       </c>
       <c r="Q43" t="n">
@@ -5039,15 +5039,15 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>해당 기사에는 법률 및 규제 변화에 대한 내용이 없음</t>
+          <t>기사에는 법률 및 규제 변경에 관한 내용이 없으므로 0점을 줍니다.</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>연금저축과 사고보험금 중소기업퇴직연금기금에 별도로 5000만 원의 보호한도를 적용하여 국민들이 안전하게 노후를 준비할 수 있게 됨</t>
+          <t>기사에는 인구 변화와 관련된 내용이 없으므로 0점을 줍니다.</t>
         </is>
       </c>
       <c r="U43" t="n">
@@ -5055,7 +5055,7 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>해당 기사에는 기술과 디지털화에 대한 내용이 없음</t>
+          <t>기사에는 기술과 디지털화에 관한 내용이 없으므로 0점을 줍니다.</t>
         </is>
       </c>
       <c r="W43" t="n">
@@ -5063,7 +5063,7 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>해당 기사에는 소비 행동 및 요구사항에 대한 내용이 없음</t>
+          <t>기사에는 소비 행동 및 요구사항에 관한 내용이 없으므로 0점을 줍니다.</t>
         </is>
       </c>
     </row>
@@ -5085,12 +5085,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>연금저축 · 사고보험금도 5천만 원까지 별도 보호 한도 적용</t>
+          <t>연금저축·사고보험금도 5000만원까지 보호받는다</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>금융위원회는 예금자보호법 시행령 개정안이 국무회의에서 의결됐다고 밝혔습니다. 개정안은 연금저축 사고보험금 중소기업퇴직연금기금에도 일반 예금과 분리해 별도로 5천만 원의 예금 보호 한도를 적용하기로 했습니다. 이번 개정안은 이달 중 공포 즉시 시행됩니다.</t>
+          <t>금융위원회는 예금자보호법 시행령 개정안을 통해 연금저축과 사고보험금 중소기업퇴직연금기금에도 별도로 5000만 원의 보호한도를 적용하기로 했다. 이는 국민들이 안전하게 노후를 준비할 수 있게 하고, 불의의 사고를 겪은 예금자를 보다 두텁게 보호하기 위한 조치이다.</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -5098,12 +5098,12 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/055/0001096018?sid=101</t>
+          <t>https://n.news.naver.com/mnews/article/011/0004247225?sid=101</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>연금저축과 사고보험금 중소기업퇴직연금기금도 일반 예금과 별개로 5천만 원까지 보호 한도를 적용받게 됩니다.금융위원회는 예금자보호법 시행령 개정안이 국무회의에서 의결됐다고 밝혔습니다.정부는 2015년부터 확정기여형 DC형 및 개인형 IRP 퇴직연금의 예금에 대해 일반 예금과 별도로 5천만 원의 보호 한도를 적용해왔습니다.개정안은 이에 더해 연금저축 사고보험금 중소기업퇴직연금기금에도 일반 예금과 분리해 별도로 5천만 원의 예금 보호 한도를 적용하기로 했습니다.이번 개정안은 이달 중 공포 즉시 시행됩니다. 사진금융위원회 제공 연합뉴스</t>
+          <t xml:space="preserve"> 연금저축과 사고보험금 중소기업퇴직연금기금도 일반 예금과 별도로 5000만 원까지 보호받는다.금융위원회는 10일 이 같은 내용을 담은 예금자보호법 시행령 개정안이 국무회의에서 의결됐다고 밝혔다.정부는 2015년부터 확정기여형 DC형 및 개인형 IRP 퇴직연금의 예금에 대해 일반 예금과 별도로 5000만원의 보호한도를 적용해왔다.개정안은 연금저축 신탁보험 사고보험금 중소기업퇴직연금기금에도 일반 예금과 분리해 별도로 5000만 원의 한도를 적용하기로 했다.이번 개정안은 이달 중 공포 즉시 시행된다. 금융위는 연금저축 및 중소기업퇴직연금기금의 경우 국민들이 더욱 안전하게 노후를 준비할 수 있게 됐다며 사고보험금에 대해서는 보험사 부실 시에도 불의의 사고를 겪은 예금자를 보다 두텁게 보호하려는 것이라고 설명했다.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>[{'퇴직연금 DC': 11}, {'퇴직연금 IRP': 9}, {'확정기여형': 13}, {'개인형퇴직연금': 9}, {'퇴직연금 예금': 14}]</t>
+          <t>[{'퇴직연금 DC': 10}, {'퇴직연금 IRP': 8}, {'확정기여형': 7}, {'개인형퇴직연금': 7}, {'퇴직연금 예금': 10}]</t>
         </is>
       </c>
       <c r="K44" t="n">
@@ -5121,7 +5121,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>금융위원회가 예금자보호법 시행령 개정안을 의결하여 연금저축 사고보험금 중소기업퇴직연금기금에도 예금 보호 한도를 적용하기로 결정함</t>
+          <t>연금저축과 사고보험금 중소기업퇴직연금기금에 별도로 5000만 원의 보호한도를 적용하는 예금자보호법 시행령 개정안이 국무회의에서 의결됨</t>
         </is>
       </c>
       <c r="M44" t="n">
@@ -5141,19 +5141,19 @@
         </is>
       </c>
       <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>해당 기사에는 법률 및 규제 변화에 대한 내용이 없음</t>
+        </is>
+      </c>
+      <c r="S44" t="n">
         <v>2</v>
       </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>예금자보호법 시행령 개정안이 국무회의에서 의결되어 기업과 개인에게 영향을 미칠 수 있는 법적 및 규제 변화가 있음</t>
-        </is>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>해당 기사에는 인구 통계 변화에 대한 내용이 없음</t>
+          <t>연금저축과 사고보험금 중소기업퇴직연금기금에 별도로 5000만 원의 보호한도를 적용하여 국민들이 안전하게 노후를 준비할 수 있게 됨</t>
         </is>
       </c>
       <c r="U44" t="n">
@@ -5191,12 +5191,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>연금저축, 사고보험금에 5000만원 예금자 보험 한도</t>
+          <t>연금저축 · 사고보험금도 5천만 원까지 별도 보호 한도 적용</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>연금저축 사고보험금 중소기업퇴직연금기금에 대해 별도로 5000만원의 예금보호한도를 적용하는 예금자보호법 시행령 개정안이 국무회의에서 의결됐다. 이번 개정안은 연금저축 신탁보험 및 중소기업퇴직연금기금의 경우 국민들이 안전하게 노후를 준비할 수 있고 사고보험금에 대해서는 예금자를 보다 두텁게 보호하게 됨에 따라 금융산업에 대한 신뢰도 한층 더 강화될 것으로 기대된다.</t>
+          <t>금융위원회는 예금자보호법 시행령 개정안이 국무회의에서 의결됐다고 밝혔습니다. 개정안은 연금저축 사고보험금 중소기업퇴직연금기금에도 일반 예금과 분리해 별도로 5천만 원의 예금 보호 한도를 적용하기로 했습니다. 이번 개정안은 이달 중 공포 즉시 시행됩니다.</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -5204,12 +5204,12 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005323930?sid=101</t>
+          <t>https://n.news.naver.com/mnews/article/055/0001096018?sid=101</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>연금저축 사고보험금 중소기업퇴직연금기금에 대해 별도로 5000만원의 예금보호한도를 적용하는 예금자보호법 시행령 개정안이 10일 국무회의에서 의결됐다.2015년 2월 이후 확정기여형 이하 DC형 및 개인형 이하 IRP 퇴직연금의 예금에 대해서는 동일 금융회사에 예금자가 보유한 일반 예금과 별도로 5000만원의 보호한도를 적용해 왔다.이번 개정안은 사회보장적 성격이 강한 연금저축 신탁보험 사고보험금 중소기업퇴직연금기금 각각에 대해서도 일반 예금과 분리하여 별도로 5000만원의 예금보호한도를 적용하는 내용을 담았다.예보 관계자는 이를 통해 연금저축 신탁보험 및 중소기업퇴직연금기금의 경우 국민들이 더욱 안전하게 노후를 준비할 수 있고 사고보험금에 대해서는 보험사 부실시에도 불의의 사고를 겪은 예금자를 보다 두텁게 보호하게 됨에 따라 금융산업에 대한 신뢰도 한층 더 강화될 것으로 기대된다고 했다.이번 시행령 개정안은 10월중 공포 즉시 시행될 예정이다. 연금저축공제 및 일반 공제상품을 취급하는 상호금융권에 대해서도 같은 내용을 담은 개별법 시행령 개정이 조만간 완료될 전망이다.</t>
+          <t>연금저축과 사고보험금 중소기업퇴직연금기금도 일반 예금과 별개로 5천만 원까지 보호 한도를 적용받게 됩니다.금융위원회는 예금자보호법 시행령 개정안이 국무회의에서 의결됐다고 밝혔습니다.정부는 2015년부터 확정기여형 DC형 및 개인형 IRP 퇴직연금의 예금에 대해 일반 예금과 별도로 5천만 원의 보호 한도를 적용해왔습니다.개정안은 이에 더해 연금저축 사고보험금 중소기업퇴직연금기금에도 일반 예금과 분리해 별도로 5천만 원의 예금 보호 한도를 적용하기로 했습니다.이번 개정안은 이달 중 공포 즉시 시행됩니다. 사진금융위원회 제공 연합뉴스</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -5219,7 +5219,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>[{'퇴직연금 DC': 34}, {'퇴직연금 IRP': 31}, {'확정기여형': 33}, {'개인형퇴직연금': 30}, {'퇴직연금 예금': 38}]</t>
+          <t>[{'퇴직연금 DC': 11}, {'퇴직연금 IRP': 9}, {'확정기여형': 13}, {'개인형퇴직연금': 9}, {'퇴직연금 예금': 14}]</t>
         </is>
       </c>
       <c r="K45" t="n">
@@ -5227,7 +5227,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>연금저축 신탁보험 및 중소기업퇴직연금기금에 대한 예금보호한도 개정안이 국무회의에서 의결됨</t>
+          <t>금융위원회가 예금자보호법 시행령 개정안을 의결하여 연금저축 사고보험금 중소기업퇴직연금기금에도 예금 보호 한도를 적용하기로 결정함</t>
         </is>
       </c>
       <c r="M45" t="n">
@@ -5235,23 +5235,23 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>No information related to industry competition trends</t>
+          <t>해당 기사에는 산업 경쟁 동향에 대한 내용이 없음</t>
         </is>
       </c>
       <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>해당 기사에는 금융 시장 변동성에 대한 내용이 없음</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
         <v>2</v>
       </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>The revised regulation is expected to enhance trust in the financial industry</t>
-        </is>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
-      </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>No information related to legal and regulatory changes</t>
+          <t>예금자보호법 시행령 개정안이 국무회의에서 의결되어 기업과 개인에게 영향을 미칠 수 있는 법적 및 규제 변화가 있음</t>
         </is>
       </c>
       <c r="S45" t="n">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>No information related to demographic change</t>
+          <t>해당 기사에는 인구 통계 변화에 대한 내용이 없음</t>
         </is>
       </c>
       <c r="U45" t="n">
@@ -5267,7 +5267,7 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>No information related to technology and digitalization</t>
+          <t>해당 기사에는 기술과 디지털화에 대한 내용이 없음</t>
         </is>
       </c>
       <c r="W45" t="n">
@@ -5275,7 +5275,7 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>No information related to consumption behavior and requirements</t>
+          <t>해당 기사에는 소비 행동 및 요구사항에 대한 내용이 없음</t>
         </is>
       </c>
     </row>
@@ -5297,12 +5297,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>연금저축‧사고보험금 등도 5천만원 예금보호한도 적용</t>
+          <t>연금저축, 사고보험금에 5000만원 예금자 보험 한도</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>금융위원회는 연금저축 사고보험금 중소기업퇴직연금기금에 대해 별도로 5000만원의 예금보호한도를 적용하는 예금자보호법 시행령 개정안이 국무회의에서 의결됐다고 10일 밝혔다. 이번 개정안은 사회보장적 성격이 강한 연금저축 신탁보험 사고보험금 중소기업퇴직연금기금 각각에 대해서도 일반 예금과 분리해 별도로 5000만원의 예금보호한도를 적용하는 내용을 담았다. 이번 시행령 개정안은 이달 중 공포 즉시 시행될 예정이며 연금저축공제 및 일반 공제상품을 취급하는 상호금융권에 대해서도 같은 내용을 담은 개별법 시행령 개정이 조만간 완료될 전망이다.</t>
+          <t>연금저축 사고보험금 중소기업퇴직연금기금에 대해 별도로 5000만원의 예금보호한도를 적용하는 예금자보호법 시행령 개정안이 국무회의에서 의결됐다. 이번 개정안은 연금저축 신탁보험 및 중소기업퇴직연금기금의 경우 국민들이 안전하게 노후를 준비할 수 있고 사고보험금에 대해서는 예금자를 보다 두텁게 보호하게 됨에 따라 금융산업에 대한 신뢰도 한층 더 강화될 것으로 기대된다.</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -5310,12 +5310,12 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002756357?sid=101</t>
+          <t>https://n.news.naver.com/mnews/article/277/0005323930?sid=101</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 금융위원회는 연금저축 사고보험금 중소기업퇴직연금기금에 대해 별도로 5000만원의 예금보호한도를 적용하는 예금자보호법 시행령 개정안이 국무회의에서 의결됐다고 10일 밝혔다.지난 2015년 2월 이후 확정기여형 DC형 및 개인형 IRP 퇴직연금의 예금에 대해서는 동일 금융회사에 예금자가 보유한 일반 예금과 별도로 5000만원의 보호한도를 적용해 왔다.이번 개정안은 사회보장적 성격이 강한 연금저축 신탁보험 사고보험금 중소기업퇴직연금기금 각각에 대해서도 일반 예금과 분리해 별도로 5000만원의 예금보호한도를 적용하는 내용을 담았다.금융위는 이를 통해 연금저축 신탁보험 및 중소기업퇴직연금기금의 경우 국민들이 더욱 안전하게 노후를 준비할 수 있고 사고보험금에 대해서는 보험사 부실시에도 불의의 사고를 겪은 예금자를 보다 두텁게 보호하게 됨에 따라 금융산업에 대한 신뢰도 한층 더 강화될 것이라는 기대다.이번 시행령 개정안은 이달 중 공포 즉시 시행될 예정이며 연금저축공제 및 일반 공제상품을 취급하는 상호금융권에 대해서도 같은 내용을 담은 개별법 시행령 개정이 조만간 완료될 전망이다.</t>
+          <t>연금저축 사고보험금 중소기업퇴직연금기금에 대해 별도로 5000만원의 예금보호한도를 적용하는 예금자보호법 시행령 개정안이 10일 국무회의에서 의결됐다.2015년 2월 이후 확정기여형 이하 DC형 및 개인형 이하 IRP 퇴직연금의 예금에 대해서는 동일 금융회사에 예금자가 보유한 일반 예금과 별도로 5000만원의 보호한도를 적용해 왔다.이번 개정안은 사회보장적 성격이 강한 연금저축 신탁보험 사고보험금 중소기업퇴직연금기금 각각에 대해서도 일반 예금과 분리하여 별도로 5000만원의 예금보호한도를 적용하는 내용을 담았다.예보 관계자는 이를 통해 연금저축 신탁보험 및 중소기업퇴직연금기금의 경우 국민들이 더욱 안전하게 노후를 준비할 수 있고 사고보험금에 대해서는 보험사 부실시에도 불의의 사고를 겪은 예금자를 보다 두텁게 보호하게 됨에 따라 금융산업에 대한 신뢰도 한층 더 강화될 것으로 기대된다고 했다.이번 시행령 개정안은 10월중 공포 즉시 시행될 예정이다. 연금저축공제 및 일반 공제상품을 취급하는 상호금융권에 대해서도 같은 내용을 담은 개별법 시행령 개정이 조만간 완료될 전망이다.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -5325,7 +5325,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>[{'퇴직연금 DC': 35}, {'퇴직연금 IRP': 32}, {'확정기여형': 34}, {'개인형퇴직연금': 32}, {'퇴직연금 예금': 29}]</t>
+          <t>[{'퇴직연금 DC': 34}, {'퇴직연금 IRP': 31}, {'확정기여형': 33}, {'개인형퇴직연금': 30}, {'퇴직연금 예금': 38}]</t>
         </is>
       </c>
       <c r="K46" t="n">
@@ -5333,7 +5333,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>금융위원회가 연금저축 사고보험금 중소기업퇴직연금기금에 대해 별도로 5000만원의 예금보호한도를 적용하는 예금자보호법 시행령 개정안을 의결했다. 이로써 국민들이 안전하게 노후를 준비할 수 있고 예금자를 보다 두텁게 보호할 수 있게 될 것으로 기대된다.</t>
+          <t>연금저축 신탁보험 및 중소기업퇴직연금기금에 대한 예금보호한도 개정안이 국무회의에서 의결됨</t>
         </is>
       </c>
       <c r="M46" t="n">
@@ -5341,7 +5341,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>해당 기사에는 산업 경쟁 동향에 대한 내용이 없다.</t>
+          <t>No information related to industry competition trends</t>
         </is>
       </c>
       <c r="O46" t="n">
@@ -5349,7 +5349,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>이번 개정안은 사회보장적 성격이 강한 연금저축 신탁보험 사고보험금 중소기업퇴직연금기금 각각에 대해서도 일반 예금과 분리해 별도로 5000만원의 예금보호한도를 적용하는 내용을 담았다. 이로 인해 금융산업에 대한 신뢰도가 강화될 것으로 예상된다.</t>
+          <t>The revised regulation is expected to enhance trust in the financial industry</t>
         </is>
       </c>
       <c r="Q46" t="n">
@@ -5357,7 +5357,7 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>해당 기사에는 법률 및 규제 변화에 대한 내용이 없다.</t>
+          <t>No information related to legal and regulatory changes</t>
         </is>
       </c>
       <c r="S46" t="n">
@@ -5365,7 +5365,7 @@
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>해당 기사에는 인구 변화에 대한 내용이 없다.</t>
+          <t>No information related to demographic change</t>
         </is>
       </c>
       <c r="U46" t="n">
@@ -5373,7 +5373,7 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>해당 기사에는 기술 및 디지털화에 대한 내용이 없다.</t>
+          <t>No information related to technology and digitalization</t>
         </is>
       </c>
       <c r="W46" t="n">
@@ -5381,7 +5381,7 @@
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>해당 기사에는 소비 행동 및 요구사항에 대한 내용이 없다.</t>
+          <t>No information related to consumption behavior and requirements</t>
         </is>
       </c>
     </row>
@@ -5403,12 +5403,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>국내 은행, 6년간 희망퇴직금 약 10조 지급[2023국감]</t>
+          <t>연금저축‧사고보험금 등도 5천만원 예금보호한도 적용</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>국내 은행이 최근 6년간 9조 6047억원의 희망퇴직금을 지급한 것으로 나타났다. 국내 14개 은행의 희망퇴직자는 1만7402명이며 지급된 퇴직금은 9조 60047억원에 달했다. 희망퇴직자가 가장 많은 은행은 국민은행 3671명이었다.</t>
+          <t>금융위원회는 연금저축 사고보험금 중소기업퇴직연금기금에 대해 별도로 5000만원의 예금보호한도를 적용하는 예금자보호법 시행령 개정안이 국무회의에서 의결됐다고 10일 밝혔다. 이번 개정안은 사회보장적 성격이 강한 연금저축 신탁보험 사고보험금 중소기업퇴직연금기금 각각에 대해서도 일반 예금과 분리해 별도로 5000만원의 예금보호한도를 적용하는 내용을 담았다. 이번 시행령 개정안은 이달 중 공포 즉시 시행될 예정이며 연금저축공제 및 일반 공제상품을 취급하는 상호금융권에 대해서도 같은 내용을 담은 개별법 시행령 개정이 조만간 완료될 전망이다.</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -5416,22 +5416,22 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002756409?sid=101</t>
+          <t>https://n.news.naver.com/mnews/article/119/0002756357?sid=101</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 국내 은행이 최근 6년간 9조 6047억원의 희망퇴직금을 지급한 것으로 나타났다.10일 국회 정무위원회 소속 강민국 의원실이 금융감독원으로부터 받은 국내 은행권 희망퇴직 현황 자료에 따르면 2018년부터 올해 7월까지 희망퇴직제도를 실시하고 있는 국내 14개 은행 국민하나농협신한우리씨티SC부산대구경남수협광주전북제주의 희망퇴직자는 1만7402명이며 지급된 퇴직금은 9조 60047억원에 달했다.이는 동일기간 희망퇴직제 운영 중인 은행 전체 퇴직자 2만6852명의 64.8를 차지하는 비율이다. 퇴직금액 비중은 전체 퇴직금 10조 1234억원의 94.8로 절대적이었다.연도별로 살펴보면 희망퇴직자는 2018년 2573명 1조 1314억원 2019년 2651명 1조 4045억원 2020년 2473명 1조 2743억원 2021년 3511명 1조 9407억원 2022년 4312명 2조 8283억원 2023년 7월 1882명 1조 212억원을 기록했다.같은 기간 희망퇴직자가 가장 많은 은행은 국민은행 3671명이었다. 이어 하나은행 2464명 농협 2349명은행이 뒤를 이었다. 희망퇴직금이 가장 많은 곳은 2021년 소매금융 철수를 진행한 씨티은행 1조7953억원이었다.다만 희망퇴직이라 하면 일반적으로 은행 업무의 디지털 전환에 따른 점포 폐쇄 등의 내부 구조조정을 위한 인력 감축에 따른 결과로 이해하지만 최근에는 퇴직 은행원들의 제2의 인생 출발을 위한 자발적 선택 또는 복지 의 개념으로 변질됐다는 분석이다.실제 지난 6년여간 은행권 전체 퇴직자의 평균 퇴직금은 3억5600만원인 것에 반해 같은 기간 희망퇴직자의 평균 퇴직금은 5억5200만원으로 전체 퇴직자 평균 퇴직금의 154.9에 달했다. 가장 많은 평균 희망퇴직금이 지급된 은행은 씨티은행 8억 2600만원으로 집계됐다.또한 희망퇴직금에서 법정퇴직금 외에 노사 간 협의에 따라 지급되는 특별퇴직금 23 년치 평균 연봉에 전직 지원금 등도 지난 6년여간 총 6조9402억원 72.29이 지급됐다.강 의원은 국민들은 계속된 천문학적 수준의 은행권 횡령과 배임 등의 금융사고로 인해 은행산업 전반에 대한 불신이 극에 달하고 있다며 공공재 성격을 가진 은행은 위화감을 조성할 수 있을 정도의 과도한 복지지원금 성격을 가진 희망퇴직금 지급에 대해 숙고해야 한다고 지적했다.이어 금융 당국은 은행산업에 대한 국민 신뢰 제고 차원에서라도 희망퇴직금을 자율경영사항이라 외면치 말고 전체 퇴직금 규모를 과도하게 넘는 수준의 희망퇴직금 지급 은행에 대해서는 운영 현황에 대한 점검을 실시해야 한다며 은행업권은 역대급 실적에 따른 돈 잔치로 보이지 않게 국민의 눈높이에 맞는 수준에서의 희망퇴직금 운영방안을 마련하는 것이 필요하다고 덧붙였다.</t>
+          <t xml:space="preserve"> 금융위원회는 연금저축 사고보험금 중소기업퇴직연금기금에 대해 별도로 5000만원의 예금보호한도를 적용하는 예금자보호법 시행령 개정안이 국무회의에서 의결됐다고 10일 밝혔다.지난 2015년 2월 이후 확정기여형 DC형 및 개인형 IRP 퇴직연금의 예금에 대해서는 동일 금융회사에 예금자가 보유한 일반 예금과 별도로 5000만원의 보호한도를 적용해 왔다.이번 개정안은 사회보장적 성격이 강한 연금저축 신탁보험 사고보험금 중소기업퇴직연금기금 각각에 대해서도 일반 예금과 분리해 별도로 5000만원의 예금보호한도를 적용하는 내용을 담았다.금융위는 이를 통해 연금저축 신탁보험 및 중소기업퇴직연금기금의 경우 국민들이 더욱 안전하게 노후를 준비할 수 있고 사고보험금에 대해서는 보험사 부실시에도 불의의 사고를 겪은 예금자를 보다 두텁게 보호하게 됨에 따라 금융산업에 대한 신뢰도 한층 더 강화될 것이라는 기대다.이번 시행령 개정안은 이달 중 공포 즉시 시행될 예정이며 연금저축공제 및 일반 공제상품을 취급하는 상호금융권에 대해서도 같은 내용을 담은 개별법 시행령 개정이 조만간 완료될 전망이다.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>['퇴직금 제도', '희망퇴직 퇴직금']</t>
+          <t>['퇴직연금 DC', '퇴직연금 IRP', '확정기여형', '개인형퇴직연금', '퇴직연금 예금']</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>[{'퇴직금 제도': 2}, {'희망퇴직 퇴직금': 6}]</t>
+          <t>[{'퇴직연금 DC': 35}, {'퇴직연금 IRP': 32}, {'확정기여형': 34}, {'개인형퇴직연금': 32}, {'퇴직연금 예금': 29}]</t>
         </is>
       </c>
       <c r="K47" t="n">
@@ -5439,23 +5439,23 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>은행들이 희망퇴직금을 지급하고 있으며, 지급된 금액이 많음</t>
+          <t>금융위원회가 연금저축 사고보험금 중소기업퇴직연금기금에 대해 별도로 5000만원의 예금보호한도를 적용하는 예금자보호법 시행령 개정안을 의결했다. 이로써 국민들이 안전하게 노후를 준비할 수 있고 예금자를 보다 두텁게 보호할 수 있게 될 것으로 기대된다.</t>
         </is>
       </c>
       <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>해당 기사에는 산업 경쟁 동향에 대한 내용이 없다.</t>
+        </is>
+      </c>
+      <c r="O47" t="n">
         <v>2</v>
       </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>희망퇴직자가 가장 많은 은행은 국민은행</t>
-        </is>
-      </c>
-      <c r="O47" t="n">
-        <v>0</v>
-      </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>해당 기사에는 금융시장의 변동이나 투자자산의 변동에 대한 내용이 없음</t>
+          <t>이번 개정안은 사회보장적 성격이 강한 연금저축 신탁보험 사고보험금 중소기업퇴직연금기금 각각에 대해서도 일반 예금과 분리해 별도로 5000만원의 예금보호한도를 적용하는 내용을 담았다. 이로 인해 금융산업에 대한 신뢰도가 강화될 것으로 예상된다.</t>
         </is>
       </c>
       <c r="Q47" t="n">
@@ -5463,7 +5463,7 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>해당 기사에는 법률 및 규제 변화에 대한 내용이 없음</t>
+          <t>해당 기사에는 법률 및 규제 변화에 대한 내용이 없다.</t>
         </is>
       </c>
       <c r="S47" t="n">
@@ -5471,7 +5471,7 @@
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>해당 기사에는 인구 변화와 연금 기금의 장기적인 지속 가능성에 대한 내용이 없음</t>
+          <t>해당 기사에는 인구 변화에 대한 내용이 없다.</t>
         </is>
       </c>
       <c r="U47" t="n">
@@ -5479,7 +5479,7 @@
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>해당 기사에는 기술과 디지털화에 대한 내용이 없음</t>
+          <t>해당 기사에는 기술 및 디지털화에 대한 내용이 없다.</t>
         </is>
       </c>
       <c r="W47" t="n">
@@ -5487,7 +5487,7 @@
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>해당 기사에는 소비 행동 및 요구사항에 대한 내용이 없음</t>
+          <t>해당 기사에는 소비 행동 및 요구사항에 대한 내용이 없다.</t>
         </is>
       </c>
     </row>
@@ -5499,22 +5499,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>퇴직연금 상품</t>
+          <t>퇴직연금 제도</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>교보생명</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>교보생명, 퇴직연금·대출 등 서비스 한 곳서…디지털 채널 통합</t>
+          <t>국내 은행, 6년간 희망퇴직금 약 10조 지급[2023국감]</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>교보생명은 디지털 기술을 적용해 보험 사업의 핵심 업무 프로세스를 혁신하고 있으며, 보험 가입 프로세스를 디지털화한 청약 전 답변조회 서비스 KPASS를 운영하고 있다. 또한, 교보생명은 고객민원 대응 프로세스를 개선하여 민원 처리 시간을 단축하였다.</t>
+          <t>국내 은행이 최근 6년간 9조 6047억원의 희망퇴직금을 지급한 것으로 나타났다. 국내 14개 은행의 희망퇴직자는 1만7402명이며 지급된 퇴직금은 9조 60047억원에 달했다. 희망퇴직자가 가장 많은 은행은 국민은행 3671명이었다.</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -5522,22 +5522,22 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004900402?sid=101</t>
+          <t>https://n.news.naver.com/mnews/article/119/0002756409?sid=101</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>교보생명은 보험 상품 가입 유지 지급 서비스 품질을 높이는 데 집중하면서 경영 혁신을 이어가고 있다.교보생명은 디지털 기술을 적용해 보험 가입 보험금 지급 고객 민원 대응 등 보험 사업의 핵심 업무 프로세스를 혁신하는 데 집중했다. 고객이 금융 및 비금융 서비스를 모바일 앱과 웹 어디서나 이용할 수 있도록 디지털 채널을 통합했다. 고객은 보험과 퇴직연금 대출 펀드 신탁 등 모든 서비스를 모바일 채널 한 곳에서 경험할 수 있게 됐다.교보생명은 보험 가입 프로세스를 디지털화한 청약 전 답변조회 서비스 KPASS를 운영한다. 가입 시 고객이 질병 정보를 작성하면 보험 심사자가 일정 기간 심사 후 결과를 제공하던 기존 방식에서 질병별 시나리오 기반 전자 매뉴얼을 통해 자동 심사 후 즉시 심사 결과를 제공하는 방식으로 탈바꿈했다.신속하고 정확한 보험금 지급을 위해 기존의 광확문자인식 OCR 시스템을 딥러닝 기반으로 고도화했다. OCR 접수 서류 대상을 확대하고 사고보험금 접수 업무를 자동화하는 등 사고보험금 지급 심사 업무의 신속성과 정확성을 높였다.고객민원 대응 프로세스도 개선했다. 교보생명은 시스템을 개선해 영업 현장과 콜센터에서 즉시 처리할 수 있는 신속처리 대상 민원 건을 식별하고 부서 간 협의 프로세스를 단순화해 고객 요청을 신속하게 처리할 수 있도록 했다. 민원 처리 시간을 기존 5일에서 1일 이내로 단축했다는 설명이다.교보생명은 가입고객에 대한 유지서비스인 평생든든서비스를 운영하고 있다. 이 서비스를 통해 설계사는 정기적으로 고객을 만나 고객이 가입한 계약에 대해 보험금 접수 보장 내역 점검 건강관리 안내 등의 다양한 유지서비스를 제공한다.고객 정보를 기반한 미래행동 예측 시스템도 구축했다. 교보생명이 작년 개발한 데이터 기반 맞춤 진단 서비스를 통해 설계사는 고객의 특성을 규정한 90개의 모델을 기반으로 고객의 관심사항을 사전에 파악하고 필요한 정보를 제공하고 있다.소비자 권익보호에도 앞장서고 있다. 교보생명은 고객 중심의 업무 수행을 위해 대표이사 직속 금융소비자보호 총괄책임자로 소비자보호실장 CCO을 선임하는 등 소비자보호체계를 구축했다. 전국 7개 지역에 소비자보호센터를 둬 전담 고객만족 CS 매니저들이 고객을 직접 만나 의견을 듣도록 했다.교보생명은 고객 요청을 체계적으로 접수해 처리하고 분석 및 관리하기 위해 기존 시스템을 개선한 고객의소리 VOC경영지원시스템을 운영 중이다. VOC경영지원시스템은 VOC 접수 처리 등 프로세스를 자동화하고 다양한 분석 툴을 기반으로 현황 정보를 제공하는 등 신속한 처리에 필요한 기능을 갖추고 있다.</t>
+          <t xml:space="preserve"> 국내 은행이 최근 6년간 9조 6047억원의 희망퇴직금을 지급한 것으로 나타났다.10일 국회 정무위원회 소속 강민국 의원실이 금융감독원으로부터 받은 국내 은행권 희망퇴직 현황 자료에 따르면 2018년부터 올해 7월까지 희망퇴직제도를 실시하고 있는 국내 14개 은행 국민하나농협신한우리씨티SC부산대구경남수협광주전북제주의 희망퇴직자는 1만7402명이며 지급된 퇴직금은 9조 60047억원에 달했다.이는 동일기간 희망퇴직제 운영 중인 은행 전체 퇴직자 2만6852명의 64.8를 차지하는 비율이다. 퇴직금액 비중은 전체 퇴직금 10조 1234억원의 94.8로 절대적이었다.연도별로 살펴보면 희망퇴직자는 2018년 2573명 1조 1314억원 2019년 2651명 1조 4045억원 2020년 2473명 1조 2743억원 2021년 3511명 1조 9407억원 2022년 4312명 2조 8283억원 2023년 7월 1882명 1조 212억원을 기록했다.같은 기간 희망퇴직자가 가장 많은 은행은 국민은행 3671명이었다. 이어 하나은행 2464명 농협 2349명은행이 뒤를 이었다. 희망퇴직금이 가장 많은 곳은 2021년 소매금융 철수를 진행한 씨티은행 1조7953억원이었다.다만 희망퇴직이라 하면 일반적으로 은행 업무의 디지털 전환에 따른 점포 폐쇄 등의 내부 구조조정을 위한 인력 감축에 따른 결과로 이해하지만 최근에는 퇴직 은행원들의 제2의 인생 출발을 위한 자발적 선택 또는 복지 의 개념으로 변질됐다는 분석이다.실제 지난 6년여간 은행권 전체 퇴직자의 평균 퇴직금은 3억5600만원인 것에 반해 같은 기간 희망퇴직자의 평균 퇴직금은 5억5200만원으로 전체 퇴직자 평균 퇴직금의 154.9에 달했다. 가장 많은 평균 희망퇴직금이 지급된 은행은 씨티은행 8억 2600만원으로 집계됐다.또한 희망퇴직금에서 법정퇴직금 외에 노사 간 협의에 따라 지급되는 특별퇴직금 23 년치 평균 연봉에 전직 지원금 등도 지난 6년여간 총 6조9402억원 72.29이 지급됐다.강 의원은 국민들은 계속된 천문학적 수준의 은행권 횡령과 배임 등의 금융사고로 인해 은행산업 전반에 대한 불신이 극에 달하고 있다며 공공재 성격을 가진 은행은 위화감을 조성할 수 있을 정도의 과도한 복지지원금 성격을 가진 희망퇴직금 지급에 대해 숙고해야 한다고 지적했다.이어 금융 당국은 은행산업에 대한 국민 신뢰 제고 차원에서라도 희망퇴직금을 자율경영사항이라 외면치 말고 전체 퇴직금 규모를 과도하게 넘는 수준의 희망퇴직금 지급 은행에 대해서는 운영 현황에 대한 점검을 실시해야 한다며 은행업권은 역대급 실적에 따른 돈 잔치로 보이지 않게 국민의 눈높이에 맞는 수준에서의 희망퇴직금 운영방안을 마련하는 것이 필요하다고 덧붙였다.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>['퇴직연금 서비스 ', '퇴직연금 가입', '퇴직연금 펀드']</t>
+          <t>['퇴직금 제도', '희망퇴직 퇴직금']</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>[{'퇴직연금 서비스 ': 1}, {'퇴직연금 가입': 7}, {'퇴직연금 펀드': 1}]</t>
+          <t>[{'퇴직금 제도': 2}, {'희망퇴직 퇴직금': 6}]</t>
         </is>
       </c>
       <c r="K48" t="n">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>교보생명은 디지털 기술을 적용하여 보험 사업의 핵심 업무 프로세스를 혁신하고 있으며, 보험 가입 프로세스를 디지털화한 청약 전 답변조회 서비스 KPASS를 운영하고 있다.</t>
+          <t>은행들이 희망퇴직금을 지급하고 있으며, 지급된 금액이 많음</t>
         </is>
       </c>
       <c r="M48" t="n">
@@ -5553,7 +5553,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>교보생명은 고객민원 대응 프로세스를 개선하여 민원 처리 시간을 단축하였다.</t>
+          <t>희망퇴직자가 가장 많은 은행은 국민은행</t>
         </is>
       </c>
       <c r="O48" t="n">
@@ -5561,7 +5561,7 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>해당 기사에는 금융 시장의 변동이나 투자 자산의 변동에 대한 내용이 없다.</t>
+          <t>해당 기사에는 금융시장의 변동이나 투자자산의 변동에 대한 내용이 없음</t>
         </is>
       </c>
       <c r="Q48" t="n">
@@ -5569,7 +5569,7 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>해당 기사에는 법률 및 규제 변화에 대한 내용이 없다.</t>
+          <t>해당 기사에는 법률 및 규제 변화에 대한 내용이 없음</t>
         </is>
       </c>
       <c r="S48" t="n">
@@ -5577,7 +5577,7 @@
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>해당 기사에는 인구 통계 변화나 연금 기금의 장기적인 지속 가능성에 대한 내용이 없다.</t>
+          <t>해당 기사에는 인구 변화와 연금 기금의 장기적인 지속 가능성에 대한 내용이 없음</t>
         </is>
       </c>
       <c r="U48" t="n">
@@ -5585,7 +5585,7 @@
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>해당 기사에는 기술과 디지털화에 대한 내용이 있지만, 연금 관리 및 제공 서비스에 대한 영향에 대한 내용은 없다.</t>
+          <t>해당 기사에는 기술과 디지털화에 대한 내용이 없음</t>
         </is>
       </c>
       <c r="W48" t="n">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>해당 기사에는 고객의 소비 행동 및 요구사항에 대한 내용이 없다.</t>
+          <t>해당 기사에는 소비 행동 및 요구사항에 대한 내용이 없음</t>
         </is>
       </c>
     </row>
@@ -5605,22 +5605,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>타사 동향 및 이벤트</t>
+          <t>퇴직연금 상품</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>교보생명</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>연금이나 받으며 팔자 좋게 사는 꿈, 와장창 깨졌다</t>
+          <t>교보생명, 퇴직연금·대출 등 서비스 한 곳서…디지털 채널 통합</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>국민연금 운용방식을 부과식으로 바꾸는 방안이 거론되고 있다. 퇴직공무원과 퇴직교사의 노후와 국민연금의 차이로 인해 격차가 벌어지고 있음.</t>
+          <t>교보생명은 디지털 기술을 적용해 보험 사업의 핵심 업무 프로세스를 혁신하고 있으며, 보험 가입 프로세스를 디지털화한 청약 전 답변조회 서비스 KPASS를 운영하고 있다. 또한, 교보생명은 고객민원 대응 프로세스를 개선하여 민원 처리 시간을 단축하였다.</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -5628,22 +5628,22 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/047/0002408776?sid=103</t>
+          <t>https://n.news.naver.com/mnews/article/015/0004900402?sid=101</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 노후 필수요소 돈건강여가관계 어떻게 지킬까주산 주판의 마지막 세대이자 컴맹 제1세대 부모에게 복종한 마지막 세대이자 아이에게 순종한 첫 세대 부모를 부양했지만 부모로서 부양 못 받는 첫 세대 뼈 빠지게 일하고 구조조정 된 세대인 베이비부머의 이야기를 전합니다. 기자말 연금이나 받으면서 팔자 좋게 살려는 꿈은 와장창 깨졌다. 픽사베이도대체 돈이 얼마나 있어야 제대로 살 수 있을까.최근 언급되는 평균 수명을 고려하면 건강만 유지한다면 90세까지도 살고 현재 30대들은 100세 시대 주인공이 된다. 오래 사는 데 필요한 건 결국 돈이다. 짧고 굵게가 아닌 길고 가느다랗게 재테크하지 않으면 은퇴 이후 쪽박 찰 공산이 크다는 뜻이다.더구나 2050년께 우리나라 65세 이상 고령인구가 40를 넘을 거라는 예상에 따르면 노후대책은 발등의 불이다. 하지만 주변에 노후준비 잘하고 있느냐고 물으면 대다수가 손사래를 치거나 고개를 가로젓는다.노후에 중요한 재건여대언젠가 국민연금공단에서 한 강좌를 들은 적이 있다. 강사는 노후에 재건여대 네 가지를 잘해야 한다고 강조했다. 재는 돈 건은 건강 여는 여가나 취미 대는 대인관계를 뜻한다. 말을 참 잘도 지어냈다는 생각이 들었다. 그는 국민연금 건강보험 고용보험 기초연금 잘 타 먹는 방법도 귀띔했다. 거기까진 좋았다. 그런데 잘 나가다가 뒤통수 때리는 소릴 했다.낼 사람은 적은데 받을 사람만 많아요. 그게 걱정입니다.중산층 기준으로 노후를 위해 준비해야 하는 자금은 시간이 지날수록 많아지고 있습니다. 국가에서 운영하는 국민연금 생명보험사나 은행 등에서 판매하는 개인연금 퇴직 시 일시금으로 받거나 연금형으로 받을 수 있는 퇴직연금 등 연금3총사로도 힘듭니다. 30년 정도 납입해야 겨우 퇴직 후 월 100만 원 조금 넘는 금액을 받아요.강사의 말을 듣고 그럼 어쩌라고라는 말이 튀어나올 뻔했다. 나는 어떡하지 머릿속의 계산기를 두드렸다.내가 지금까지 납입한 국민연금은 모두 301개월 대략 26년 동안 5000만 원이 조금 넘는다. 가입기간 소득 평균액은 약 340만 원. 현재 가치로 본 예상연금액 2034년 4월은 세후 월 104만 6760원이고 미래가치로 본 예상연금액은 최저 149만 1510원 최고 179만 60원쯤 된다. 아내는 14년 정도 적립했으니 30만40만 원을 받을 수 있다. 둘이 합하면 월 150만 원 헉 큰일이다.강의가 끝나고 집으로 오자마자 지난 2022년 11월 가계부를 확인했다.식비 79만 8000원 문화생활비 영화 책 구입 등 10만 원 의료비 8만 7900원 통신비 20만 원 의류미용 16만 8000원 차량유지비 교통비 25만 원 보험 보장성보험건보의료보험 실비 50만 원 주거비 가스비전기세관리비 43만 3000원 사회생활비 부모님 용돈의료비 경조사 이자비용 주택담보대출 70만 원원금 70만 원 각종 세금 30만 원 연360만 원언뜻 계산해보니 423만 원이다. 이 정도면 대략난감이다. 연금을 받아도 한 달에 200만 원이 넘게 부족하다. 위 목록 중 뺄 것 빼고 허리띠 조일 것 조이더라도 턱없이 모자란 금액이다.아예 식음 전폐를 해야 하나 부모님 용돈을 끊어야 하나 대출비용 주거비를 안낼 수 있나. 그렇다고 스마트폰 끊고 자동차를 팔 수는 없잖나.조용히 한숨이 쉬어졌다. 결국 늙어서도 벌지 않으면 파산 파탄 황혼이혼에 이를 수도 있다는 결론이 내려졌다.아 망했다.머리가 하얘졌다. 이러니 연금을 받아봤자 목돈이 아닌 용돈 수준이라는 자조가 나오는 것이다. 누구 탓을 하는 게 아니다. 그냥 답답하다. 게다가 통장 잔고는 바닥이다.자식들 키우고 생활비로 쓰고 빚잔치를 하다 보니 30년 직장생활 동안 플러스 잔고를 본 기억이 없다. 심지어 마이너스 통장들을 굴리며 아등바등 살았다. 당연히 저축은 엄두도 내지 못했다. 카드로 돌려막고 대출로 당겨쓰고 담보로 끌어 쓴 것 투성이다. 이는 빚 내서 빚 갚는 구조다. 연금이나 받으면서 팔자 좋게 살려는 꿈은 와장창 깨졌다.국민연금 정답 있을까 100세시대 연금만으로 노후를 대비할 수 없다. 픽사베이청년층이든 노년층이든 연금에 대한 충성도는 약하다. 이러다가 국민연금 못 받게 되는 것 아냐 정작 우리가 받을 시기엔 빈 깡통 받는 거 아냐는 볼멘소리가 터져 나온다. 연금은 고갈되는 게 아니라 소진된다. 기금이 줄어드는 건 맞지만 다른 자금으로 메꿀 수 있고 국가재정에서 돈을 끌어와 지급할 수 있다. 그런데 이 또한 결국 세금을 투입한다는 뜻이니 국민들이 좋아할 리 없다.국민연금 운용방식을 현재의 적립식에서 부과식으로 바꾸는 방안도 거론된다. 적립식은 일하는 동안 일정금액을 차곡차곡 쌓아 은퇴 후에 받는 것이고 부과식은 현재의 근로세대가 납부하는 연금보험료를 현재 퇴직세대의 연금지급에 필요한 재원으로 운용하는 방식이다.부과식의 경우 노인부양률이 낮고 생산성이 높아 근로자의 실질임금이 높은 사회에서 유리하다. 장점은 세대 간 유대를 강화할 수 있다는 점이지만 노령화율이 높아질수록 유지하기 쉽지 않다.현재 청년들은 국민연금을 기울어진 운동장으로 인식한다. 지금은 덜 내고 더 받는 구조인데 뒤로 갈수록 더 내고 덜 받는 현상이 심화된다는 것이다. 개인적으로 더 내고 덜 받는 방식 덜 내고 더 받는 방식 아니면 내는 쪽 따로 받는 쪽 따로 있는 방안들은 복지의 허점이자 어딘가 손해 보는 장사 같다. 본전 생각도 나고 내 돈 돌리도라는 푸념도 나올 수 있다.얼마 전 퇴직한 공무원 지인과 퇴직교사를 우연히 만났다. 골프를 치고 오는 것 같았다. 내 행색은 막노동을 끝내고 난 뒤라 말이 아니었다. 피할까 망설이다가 맞닥뜨리니 더 어색했다. 길게 붙잡을 것 같은 포즈를 취하기에 안부만 묻고 도망치듯 돌아섰다.솔직히 그들이 부러웠다. 둘은 골프채를 들고 그라운드 가고 나는 삽 들고 일하러 가는 모습이 겹쳤기 때문이다. 국민연금공무원사학연금의 차이였을까. 꽤 근사한 그들의 노후와 나의 노년은 벌써 큰 격차가 벌어지고 있었다. 물론 우린 월급에서 많이 떼였으니 그만큼 받을만하다고 항변하면 할 말은 없다. 그러니 부러울 뿐이다. 결국 탄식이 새어 나왔다.아 연금 도대체 너를 믿어도 되니</t>
+          <t>교보생명은 보험 상품 가입 유지 지급 서비스 품질을 높이는 데 집중하면서 경영 혁신을 이어가고 있다.교보생명은 디지털 기술을 적용해 보험 가입 보험금 지급 고객 민원 대응 등 보험 사업의 핵심 업무 프로세스를 혁신하는 데 집중했다. 고객이 금융 및 비금융 서비스를 모바일 앱과 웹 어디서나 이용할 수 있도록 디지털 채널을 통합했다. 고객은 보험과 퇴직연금 대출 펀드 신탁 등 모든 서비스를 모바일 채널 한 곳에서 경험할 수 있게 됐다.교보생명은 보험 가입 프로세스를 디지털화한 청약 전 답변조회 서비스 KPASS를 운영한다. 가입 시 고객이 질병 정보를 작성하면 보험 심사자가 일정 기간 심사 후 결과를 제공하던 기존 방식에서 질병별 시나리오 기반 전자 매뉴얼을 통해 자동 심사 후 즉시 심사 결과를 제공하는 방식으로 탈바꿈했다.신속하고 정확한 보험금 지급을 위해 기존의 광확문자인식 OCR 시스템을 딥러닝 기반으로 고도화했다. OCR 접수 서류 대상을 확대하고 사고보험금 접수 업무를 자동화하는 등 사고보험금 지급 심사 업무의 신속성과 정확성을 높였다.고객민원 대응 프로세스도 개선했다. 교보생명은 시스템을 개선해 영업 현장과 콜센터에서 즉시 처리할 수 있는 신속처리 대상 민원 건을 식별하고 부서 간 협의 프로세스를 단순화해 고객 요청을 신속하게 처리할 수 있도록 했다. 민원 처리 시간을 기존 5일에서 1일 이내로 단축했다는 설명이다.교보생명은 가입고객에 대한 유지서비스인 평생든든서비스를 운영하고 있다. 이 서비스를 통해 설계사는 정기적으로 고객을 만나 고객이 가입한 계약에 대해 보험금 접수 보장 내역 점검 건강관리 안내 등의 다양한 유지서비스를 제공한다.고객 정보를 기반한 미래행동 예측 시스템도 구축했다. 교보생명이 작년 개발한 데이터 기반 맞춤 진단 서비스를 통해 설계사는 고객의 특성을 규정한 90개의 모델을 기반으로 고객의 관심사항을 사전에 파악하고 필요한 정보를 제공하고 있다.소비자 권익보호에도 앞장서고 있다. 교보생명은 고객 중심의 업무 수행을 위해 대표이사 직속 금융소비자보호 총괄책임자로 소비자보호실장 CCO을 선임하는 등 소비자보호체계를 구축했다. 전국 7개 지역에 소비자보호센터를 둬 전담 고객만족 CS 매니저들이 고객을 직접 만나 의견을 듣도록 했다.교보생명은 고객 요청을 체계적으로 접수해 처리하고 분석 및 관리하기 위해 기존 시스템을 개선한 고객의소리 VOC경영지원시스템을 운영 중이다. VOC경영지원시스템은 VOC 접수 처리 등 프로세스를 자동화하고 다양한 분석 툴을 기반으로 현황 정보를 제공하는 등 신속한 처리에 필요한 기능을 갖추고 있다.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>['하나 퇴직연금', '퇴직연금 가입']</t>
+          <t>['퇴직연금 서비스 ', '퇴직연금 가입', '퇴직연금 펀드']</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>[{'하나 퇴직연금': 1}, {'퇴직연금 가입': 2}]</t>
+          <t>[{'퇴직연금 서비스 ': 1}, {'퇴직연금 가입': 7}, {'퇴직연금 펀드': 1}]</t>
         </is>
       </c>
       <c r="K49" t="n">
@@ -5651,15 +5651,15 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>국민연금 운용방식을 부과식으로 바꾸는 방안이 거론되고 있어서.</t>
+          <t>교보생명은 디지털 기술을 적용하여 보험 사업의 핵심 업무 프로세스를 혁신하고 있으며, 보험 가입 프로세스를 디지털화한 청약 전 답변조회 서비스 KPASS를 운영하고 있다.</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>No relevant information in the article.</t>
+          <t>교보생명은 고객민원 대응 프로세스를 개선하여 민원 처리 시간을 단축하였다.</t>
         </is>
       </c>
       <c r="O49" t="n">
@@ -5667,7 +5667,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>No relevant information in the article.</t>
+          <t>해당 기사에는 금융 시장의 변동이나 투자 자산의 변동에 대한 내용이 없다.</t>
         </is>
       </c>
       <c r="Q49" t="n">
@@ -5675,15 +5675,15 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>No relevant information in the article.</t>
+          <t>해당 기사에는 법률 및 규제 변화에 대한 내용이 없다.</t>
         </is>
       </c>
       <c r="S49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>퇴직공무원과 퇴직교사의 노후와 국민연금의 차이로 인해 격차가 벌어지고 있음.</t>
+          <t>해당 기사에는 인구 통계 변화나 연금 기금의 장기적인 지속 가능성에 대한 내용이 없다.</t>
         </is>
       </c>
       <c r="U49" t="n">
@@ -5691,7 +5691,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>No relevant information in the article.</t>
+          <t>해당 기사에는 기술과 디지털화에 대한 내용이 있지만, 연금 관리 및 제공 서비스에 대한 영향에 대한 내용은 없다.</t>
         </is>
       </c>
       <c r="W49" t="n">
@@ -5699,7 +5699,7 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>No relevant information in the article.</t>
+          <t>해당 기사에는 고객의 소비 행동 및 요구사항에 대한 내용이 없다.</t>
         </is>
       </c>
     </row>
@@ -5711,22 +5711,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>사회 동향</t>
+          <t>타사 동향 및 이벤트</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>은행권</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>은행권, 희망퇴직자에 1인당 5.5억…6년 간 10조 쐈다</t>
+          <t>연금이나 받으며 팔자 좋게 사는 꿈, 와장창 깨졌다</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>은행권 임금피크제 신청 직원 수는 감소하는 반면 희망퇴직자는 매년 증가하고 이들에게 지급된 퇴직금 역시 천문학적 수준으로 늘어남. 국내 은행권 희망퇴직 현황을 살펴보면 같은 기간 희망퇴직자는 1만7402명이며 이에 지급된 퇴직금은 9조6047억원에 달함. 희망퇴직자가 가장 많은 은행은 국민은행 3671명이었으며 이어 하나은행 2464명 농협은행 2349명 등의 순으로 집계됨.</t>
+          <t>국민연금 운용방식을 부과식으로 바꾸는 방안이 거론되고 있다. 퇴직공무원과 퇴직교사의 노후와 국민연금의 차이로 인해 격차가 벌어지고 있음.</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -5734,22 +5734,22 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/003/0012137899?sid=101</t>
+          <t>https://n.news.naver.com/mnews/article/047/0002408776?sid=103</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 최홍 기자 은행권 임금피크제 신청 직원 수는 감소하는 반면 희망퇴직자는 매년 증가하고 이들에게 지급된 퇴직금 역시 천문학적 수준으로 늘어난 것으로 나타났다.10일 강민국 국민의힘 의원실이 금융감독원으로 받은 국내 은행권 임금피크 신청 현황 자료에 따르면 지난 2018년2023년 7월까지 6년 간 인터넷은행 3개사를 제외한 17개사의 임금피크제 신청건수는 총 1만1247건이었다.연도별로 살펴보면 2018년 1365건 2019년 1536건 2020년 1756건 2021년 2219건 지난해 2190건으로 최근 들어 감소하고 있다. 이에 반해 희망퇴직자는 급증하는 중이다.국내 은행권 희망퇴직 현황을 살펴보면 같은 기간 희망퇴직자는 1만7402명이며 이에 지급된 퇴직금은 9조6047억원에 달했다. 이는 같은 기간 희망퇴직제 운영 중인 은행 전체 퇴직자 2만6852명의 64.8 퇴직금액으로는 전체 퇴직금 10조1243억원의 94.8로 절대적 수준을 차지하고 있다.연도별로 희망퇴직자는 2018년 2573명 1조1314억원 2019년 2651명 1조4045억원 2020년 2473명 1조2743억원 2021년 3511명 1조9407억원 지난해 4312명 2조8283억원으로 급증하는 추세다.특히 희망퇴직자가 가장 많은 은행은 국민은행 3671명이었으며 이어 하나은행 2464명 농협은행 2349명 등의 순으로 집계됐다. 또 희망퇴직금이 가장 많은 은행은 씨티은행 1조7593억원이었다.통상 희망퇴직이라 하면 일반적으로 은행 업무의 디지털 전환에 따른 점포 폐쇄 등 구조조정 차원의 인력 감축에 따른 결과로 알고 있지만 최근에는 희망퇴직 조건과 특별퇴직금 규모가 좋다 보니 은행원들에게 제2의 인생을 위한 자발적 선택으로 받아들여지고 있다.실제 지난 6년여간 은행권 전체 퇴직자의 평균 퇴직금은 3억5600만원이었지만 같은 기간 희망퇴직자의 평균 퇴직금은 5억5200만원으로 전체 퇴직자 평균 퇴직금의 154.9에 달하는 수준이다. 가장 많은 평균 희망퇴직금이 지급된 은행은 씨티은행 8억2600만원이었다.또 희망퇴직금이 복지로 취급되기도 하는데 이는 법정퇴직금 외에 노사 간 협의에 따라 지급되는 특별퇴직금 23년치 평균 연봉에 전직 지원금 등 때문이다. 지난 6년여간 총 6조9402억원이 지급돼 전체 9조6004억원의 72.3나 된다.강민국 의원은 지난한 코로나 시기를 겪으며 경제적 어려움을 겪고 있는 국민들은 계속된 천문학적 수준의 은행권 횡령과 배임 등의 금융사고로 인해 은행산업 전반에 대한 불신이 극에 달하고 있다며 그런 만큼 공공재 성격을 가진 은행은 위화감을 조성할 수 있을 정도의 과도한 복지지원금 성격을 가진 희망퇴직금 지급에 대해 숙고해야 한다고 지적했다.이어 금융당국은 은행산업에 대한 국민 신뢰 제고 차원에서라도 희망퇴직금을 자율경영사항이라 외면치 말고 전체 퇴직금 규모를 과도하게 넘는 수준의 희망퇴직금 지급 은행에 대해서는 운영 현황에 대한 점검을 실시해야 한다며 은행권은 역대급 실적에 따른 돈 잔치로 보이지 않게 국민의 눈높이에 맞는 수준에서의 희망퇴직금 운영방안을 마련하는 것이 필요하다고 밝혔다</t>
+          <t xml:space="preserve"> 노후 필수요소 돈건강여가관계 어떻게 지킬까주산 주판의 마지막 세대이자 컴맹 제1세대 부모에게 복종한 마지막 세대이자 아이에게 순종한 첫 세대 부모를 부양했지만 부모로서 부양 못 받는 첫 세대 뼈 빠지게 일하고 구조조정 된 세대인 베이비부머의 이야기를 전합니다. 기자말 연금이나 받으면서 팔자 좋게 살려는 꿈은 와장창 깨졌다. 픽사베이도대체 돈이 얼마나 있어야 제대로 살 수 있을까.최근 언급되는 평균 수명을 고려하면 건강만 유지한다면 90세까지도 살고 현재 30대들은 100세 시대 주인공이 된다. 오래 사는 데 필요한 건 결국 돈이다. 짧고 굵게가 아닌 길고 가느다랗게 재테크하지 않으면 은퇴 이후 쪽박 찰 공산이 크다는 뜻이다.더구나 2050년께 우리나라 65세 이상 고령인구가 40를 넘을 거라는 예상에 따르면 노후대책은 발등의 불이다. 하지만 주변에 노후준비 잘하고 있느냐고 물으면 대다수가 손사래를 치거나 고개를 가로젓는다.노후에 중요한 재건여대언젠가 국민연금공단에서 한 강좌를 들은 적이 있다. 강사는 노후에 재건여대 네 가지를 잘해야 한다고 강조했다. 재는 돈 건은 건강 여는 여가나 취미 대는 대인관계를 뜻한다. 말을 참 잘도 지어냈다는 생각이 들었다. 그는 국민연금 건강보험 고용보험 기초연금 잘 타 먹는 방법도 귀띔했다. 거기까진 좋았다. 그런데 잘 나가다가 뒤통수 때리는 소릴 했다.낼 사람은 적은데 받을 사람만 많아요. 그게 걱정입니다.중산층 기준으로 노후를 위해 준비해야 하는 자금은 시간이 지날수록 많아지고 있습니다. 국가에서 운영하는 국민연금 생명보험사나 은행 등에서 판매하는 개인연금 퇴직 시 일시금으로 받거나 연금형으로 받을 수 있는 퇴직연금 등 연금3총사로도 힘듭니다. 30년 정도 납입해야 겨우 퇴직 후 월 100만 원 조금 넘는 금액을 받아요.강사의 말을 듣고 그럼 어쩌라고라는 말이 튀어나올 뻔했다. 나는 어떡하지 머릿속의 계산기를 두드렸다.내가 지금까지 납입한 국민연금은 모두 301개월 대략 26년 동안 5000만 원이 조금 넘는다. 가입기간 소득 평균액은 약 340만 원. 현재 가치로 본 예상연금액 2034년 4월은 세후 월 104만 6760원이고 미래가치로 본 예상연금액은 최저 149만 1510원 최고 179만 60원쯤 된다. 아내는 14년 정도 적립했으니 30만40만 원을 받을 수 있다. 둘이 합하면 월 150만 원 헉 큰일이다.강의가 끝나고 집으로 오자마자 지난 2022년 11월 가계부를 확인했다.식비 79만 8000원 문화생활비 영화 책 구입 등 10만 원 의료비 8만 7900원 통신비 20만 원 의류미용 16만 8000원 차량유지비 교통비 25만 원 보험 보장성보험건보의료보험 실비 50만 원 주거비 가스비전기세관리비 43만 3000원 사회생활비 부모님 용돈의료비 경조사 이자비용 주택담보대출 70만 원원금 70만 원 각종 세금 30만 원 연360만 원언뜻 계산해보니 423만 원이다. 이 정도면 대략난감이다. 연금을 받아도 한 달에 200만 원이 넘게 부족하다. 위 목록 중 뺄 것 빼고 허리띠 조일 것 조이더라도 턱없이 모자란 금액이다.아예 식음 전폐를 해야 하나 부모님 용돈을 끊어야 하나 대출비용 주거비를 안낼 수 있나. 그렇다고 스마트폰 끊고 자동차를 팔 수는 없잖나.조용히 한숨이 쉬어졌다. 결국 늙어서도 벌지 않으면 파산 파탄 황혼이혼에 이를 수도 있다는 결론이 내려졌다.아 망했다.머리가 하얘졌다. 이러니 연금을 받아봤자 목돈이 아닌 용돈 수준이라는 자조가 나오는 것이다. 누구 탓을 하는 게 아니다. 그냥 답답하다. 게다가 통장 잔고는 바닥이다.자식들 키우고 생활비로 쓰고 빚잔치를 하다 보니 30년 직장생활 동안 플러스 잔고를 본 기억이 없다. 심지어 마이너스 통장들을 굴리며 아등바등 살았다. 당연히 저축은 엄두도 내지 못했다. 카드로 돌려막고 대출로 당겨쓰고 담보로 끌어 쓴 것 투성이다. 이는 빚 내서 빚 갚는 구조다. 연금이나 받으면서 팔자 좋게 살려는 꿈은 와장창 깨졌다.국민연금 정답 있을까 100세시대 연금만으로 노후를 대비할 수 없다. 픽사베이청년층이든 노년층이든 연금에 대한 충성도는 약하다. 이러다가 국민연금 못 받게 되는 것 아냐 정작 우리가 받을 시기엔 빈 깡통 받는 거 아냐는 볼멘소리가 터져 나온다. 연금은 고갈되는 게 아니라 소진된다. 기금이 줄어드는 건 맞지만 다른 자금으로 메꿀 수 있고 국가재정에서 돈을 끌어와 지급할 수 있다. 그런데 이 또한 결국 세금을 투입한다는 뜻이니 국민들이 좋아할 리 없다.국민연금 운용방식을 현재의 적립식에서 부과식으로 바꾸는 방안도 거론된다. 적립식은 일하는 동안 일정금액을 차곡차곡 쌓아 은퇴 후에 받는 것이고 부과식은 현재의 근로세대가 납부하는 연금보험료를 현재 퇴직세대의 연금지급에 필요한 재원으로 운용하는 방식이다.부과식의 경우 노인부양률이 낮고 생산성이 높아 근로자의 실질임금이 높은 사회에서 유리하다. 장점은 세대 간 유대를 강화할 수 있다는 점이지만 노령화율이 높아질수록 유지하기 쉽지 않다.현재 청년들은 국민연금을 기울어진 운동장으로 인식한다. 지금은 덜 내고 더 받는 구조인데 뒤로 갈수록 더 내고 덜 받는 현상이 심화된다는 것이다. 개인적으로 더 내고 덜 받는 방식 덜 내고 더 받는 방식 아니면 내는 쪽 따로 받는 쪽 따로 있는 방안들은 복지의 허점이자 어딘가 손해 보는 장사 같다. 본전 생각도 나고 내 돈 돌리도라는 푸념도 나올 수 있다.얼마 전 퇴직한 공무원 지인과 퇴직교사를 우연히 만났다. 골프를 치고 오는 것 같았다. 내 행색은 막노동을 끝내고 난 뒤라 말이 아니었다. 피할까 망설이다가 맞닥뜨리니 더 어색했다. 길게 붙잡을 것 같은 포즈를 취하기에 안부만 묻고 도망치듯 돌아섰다.솔직히 그들이 부러웠다. 둘은 골프채를 들고 그라운드 가고 나는 삽 들고 일하러 가는 모습이 겹쳤기 때문이다. 국민연금공무원사학연금의 차이였을까. 꽤 근사한 그들의 노후와 나의 노년은 벌써 큰 격차가 벌어지고 있었다. 물론 우린 월급에서 많이 떼였으니 그만큼 받을만하다고 항변하면 할 말은 없다. 그러니 부러울 뿐이다. 결국 탄식이 새어 나왔다.아 연금 도대체 너를 믿어도 되니</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>['희망퇴직 퇴직금', '임금피크제']</t>
+          <t>['하나 퇴직연금', '퇴직연금 가입']</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>[{'희망퇴직 퇴직금': 1}, {'임금피크제': 11}]</t>
+          <t>[{'하나 퇴직연금': 1}, {'퇴직연금 가입': 2}]</t>
         </is>
       </c>
       <c r="K50" t="n">
@@ -5757,39 +5757,39 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>은행권 임금피크제 신청 직원 수와 퇴직금 증가에 대한 정보가 포함되어 있음.</t>
+          <t>국민연금 운용방식을 부과식으로 바꾸는 방안이 거론되고 있어서.</t>
         </is>
       </c>
       <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>No relevant information in the article.</t>
+        </is>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>No relevant information in the article.</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>No relevant information in the article.</t>
+        </is>
+      </c>
+      <c r="S50" t="n">
         <v>2</v>
       </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>은행별 희망퇴직자 수와 퇴직금 지급액에 대한 정보가 포함되어 있음.</t>
-        </is>
-      </c>
-      <c r="O50" t="n">
-        <v>0</v>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>금융시장 변동성에 대한 정보가 없음.</t>
-        </is>
-      </c>
-      <c r="Q50" t="n">
-        <v>0</v>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>법률 및 규제 변경에 대한 정보가 없음.</t>
-        </is>
-      </c>
-      <c r="S50" t="n">
-        <v>0</v>
-      </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>고령화에 대한 정보가 없음.</t>
+          <t>퇴직공무원과 퇴직교사의 노후와 국민연금의 차이로 인해 격차가 벌어지고 있음.</t>
         </is>
       </c>
       <c r="U50" t="n">
@@ -5797,7 +5797,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>기술 및 디지털화에 대한 정보가 없음.</t>
+          <t>No relevant information in the article.</t>
         </is>
       </c>
       <c r="W50" t="n">
@@ -5805,7 +5805,7 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>소비 행태 및 요구사항에 대한 정보가 없음.</t>
+          <t>No relevant information in the article.</t>
         </is>
       </c>
     </row>
@@ -5827,12 +5827,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>5.5억 준대 1만7400명 짐 쌌다…희망퇴직금 10조 쓴 은행권</t>
+          <t>은행권, 희망퇴직자에 1인당 5.5억…6년 간 10조 쐈다</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2018년 이후 희망퇴직으로 직장을 떠난 은행원이 1만7400여명에 이르는 것으로 나타났다. 이들에게 지급된 희망퇴직금은 1인당 평균 5억5200만원씩 총 9조6000억원에 이른다.</t>
+          <t>은행권 임금피크제 신청 직원 수는 감소하는 반면 희망퇴직자는 매년 증가하고 이들에게 지급된 퇴직금 역시 천문학적 수준으로 늘어남. 국내 은행권 희망퇴직 현황을 살펴보면 같은 기간 희망퇴직자는 1만7402명이며 이에 지급된 퇴직금은 9조6047억원에 달함. 희망퇴직자가 가장 많은 은행은 국민은행 3671명이었으며 이어 하나은행 2464명 농협은행 2349명 등의 순으로 집계됨.</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -5840,12 +5840,12 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004946850?sid=101</t>
+          <t>https://n.news.naver.com/mnews/article/003/0012137899?sid=101</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t xml:space="preserve">2018년 이후 희망퇴직으로 직장을 떠난 은행원이 1만7400여명에 이르는 것으로 나타났다. 이들에게 지급된 희망퇴직금은 1인당 평균 5억5200만원씩 총 9조6000억원에 이른다.10일 강민국 국민의힘 의원실이 금융감독원에서 받은 국내 은행권 희망퇴직 현황에 따르면 국내 14개 시중은행에서 2018년부터 지난 7월까지 희망퇴직자는 1만7402명으로 지급된 퇴직금은 총 9조6004억원으로 집계됐다. 은행 전체 퇴직자 중 희망퇴직자가 64.8 희망퇴직제 운영 은행 기준를 차지했다. 희망퇴직자는 2018년 2573명에서 지난해 4312명으로 증가 추세를 보인다. 올해 17월에만 1882명이 희망퇴직으로 회사를 떠났다. 2018년 이후 은행권 희망퇴직자 1인당 평균 퇴직금은 5억5200만원으로 전체 퇴직자 평균 퇴직금보다 약 2억원 많았다. 지난해에만 2조8283억원이 희망퇴직금으로 사용됐고 1인당 평균 6억5600만원 지급됐다. 최근 6년여간 희망퇴직자가 가장 많은 은행은 국민은행으로 3671명으로 집계됐다. 이어 하나은행 2464명 농협은행 2349명 등의 순이다. 1인당 희망퇴직금이 가장 많이 지급된 은행은 씨티은행으로 평균 8억2600만원 지급됐다.은행권에서 희망퇴직금이 많은 이유는 노사 간 협의에 따라 지급되는 특별퇴직금 23 년치 평균 연봉에 전직 지원금 등 때문이다. 지난 6년여간 총 6조9402억원 지급됐다. 일부에서는 희망퇴직을 복지의 하나로 봐야 한다는 지적도 나온다. 강민국 의원은 금융당국이 은행산업에 관한 국민 신뢰 제고 차원에서라도 희망퇴직금을 자율경영사항이라 외면치 말고 전체 퇴직금 규모를 과도하게 넘는 수준의 희망퇴직금 지급 은행은 운영 현황 점검을 실시해야 한다고 밝혔다. 한편 2018년부터 지난 7월까지 17개 은행 인터넷은행 제외의 임금피크제 신청건수는 총 1만1247건으로 집계됐다. </t>
+          <t xml:space="preserve"> 최홍 기자 은행권 임금피크제 신청 직원 수는 감소하는 반면 희망퇴직자는 매년 증가하고 이들에게 지급된 퇴직금 역시 천문학적 수준으로 늘어난 것으로 나타났다.10일 강민국 국민의힘 의원실이 금융감독원으로 받은 국내 은행권 임금피크 신청 현황 자료에 따르면 지난 2018년2023년 7월까지 6년 간 인터넷은행 3개사를 제외한 17개사의 임금피크제 신청건수는 총 1만1247건이었다.연도별로 살펴보면 2018년 1365건 2019년 1536건 2020년 1756건 2021년 2219건 지난해 2190건으로 최근 들어 감소하고 있다. 이에 반해 희망퇴직자는 급증하는 중이다.국내 은행권 희망퇴직 현황을 살펴보면 같은 기간 희망퇴직자는 1만7402명이며 이에 지급된 퇴직금은 9조6047억원에 달했다. 이는 같은 기간 희망퇴직제 운영 중인 은행 전체 퇴직자 2만6852명의 64.8 퇴직금액으로는 전체 퇴직금 10조1243억원의 94.8로 절대적 수준을 차지하고 있다.연도별로 희망퇴직자는 2018년 2573명 1조1314억원 2019년 2651명 1조4045억원 2020년 2473명 1조2743억원 2021년 3511명 1조9407억원 지난해 4312명 2조8283억원으로 급증하는 추세다.특히 희망퇴직자가 가장 많은 은행은 국민은행 3671명이었으며 이어 하나은행 2464명 농협은행 2349명 등의 순으로 집계됐다. 또 희망퇴직금이 가장 많은 은행은 씨티은행 1조7593억원이었다.통상 희망퇴직이라 하면 일반적으로 은행 업무의 디지털 전환에 따른 점포 폐쇄 등 구조조정 차원의 인력 감축에 따른 결과로 알고 있지만 최근에는 희망퇴직 조건과 특별퇴직금 규모가 좋다 보니 은행원들에게 제2의 인생을 위한 자발적 선택으로 받아들여지고 있다.실제 지난 6년여간 은행권 전체 퇴직자의 평균 퇴직금은 3억5600만원이었지만 같은 기간 희망퇴직자의 평균 퇴직금은 5억5200만원으로 전체 퇴직자 평균 퇴직금의 154.9에 달하는 수준이다. 가장 많은 평균 희망퇴직금이 지급된 은행은 씨티은행 8억2600만원이었다.또 희망퇴직금이 복지로 취급되기도 하는데 이는 법정퇴직금 외에 노사 간 협의에 따라 지급되는 특별퇴직금 23년치 평균 연봉에 전직 지원금 등 때문이다. 지난 6년여간 총 6조9402억원이 지급돼 전체 9조6004억원의 72.3나 된다.강민국 의원은 지난한 코로나 시기를 겪으며 경제적 어려움을 겪고 있는 국민들은 계속된 천문학적 수준의 은행권 횡령과 배임 등의 금융사고로 인해 은행산업 전반에 대한 불신이 극에 달하고 있다며 그런 만큼 공공재 성격을 가진 은행은 위화감을 조성할 수 있을 정도의 과도한 복지지원금 성격을 가진 희망퇴직금 지급에 대해 숙고해야 한다고 지적했다.이어 금융당국은 은행산업에 대한 국민 신뢰 제고 차원에서라도 희망퇴직금을 자율경영사항이라 외면치 말고 전체 퇴직금 규모를 과도하게 넘는 수준의 희망퇴직금 지급 은행에 대해서는 운영 현황에 대한 점검을 실시해야 한다며 은행권은 역대급 실적에 따른 돈 잔치로 보이지 않게 국민의 눈높이에 맞는 수준에서의 희망퇴직금 운영방안을 마련하는 것이 필요하다고 밝혔다</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -5855,7 +5855,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>[{'희망퇴직 퇴직금': 4}, {'임금피크제': 15}]</t>
+          <t>[{'희망퇴직 퇴직금': 1}, {'임금피크제': 11}]</t>
         </is>
       </c>
       <c r="K51" t="n">
@@ -5863,15 +5863,15 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>은행원들의 희망퇴직 현황과 퇴직금 지급액에 대한 정보가 제공되었음.</t>
+          <t>은행권 임금피크제 신청 직원 수와 퇴직금 증가에 대한 정보가 포함되어 있음.</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>산업 경쟁 동향에 대한 정보가 제공되지 않음.</t>
+          <t>은행별 희망퇴직자 수와 퇴직금 지급액에 대한 정보가 포함되어 있음.</t>
         </is>
       </c>
       <c r="O51" t="n">
@@ -5879,7 +5879,7 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>금융 시장 변동성에 대한 정보가 제공되지 않음.</t>
+          <t>금융시장 변동성에 대한 정보가 없음.</t>
         </is>
       </c>
       <c r="Q51" t="n">
@@ -5887,15 +5887,15 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>법률 및 규제 변화에 대한 정보가 제공되지 않음.</t>
+          <t>법률 및 규제 변경에 대한 정보가 없음.</t>
         </is>
       </c>
       <c r="S51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>은행원들의 희망퇴직 현황과 퇴직금 지급액이 장기적인 지속 가능성에 미치는 영향에 대한 정보가 제공되었음.</t>
+          <t>고령화에 대한 정보가 없음.</t>
         </is>
       </c>
       <c r="U51" t="n">
@@ -5903,7 +5903,7 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>기술과 디지털화에 대한 정보가 제공되지 않음.</t>
+          <t>기술 및 디지털화에 대한 정보가 없음.</t>
         </is>
       </c>
       <c r="W51" t="n">
@@ -5911,7 +5911,7 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>소비 행동 및 요구사항에 대한 정보가 제공되지 않음.</t>
+          <t>소비 행태 및 요구사항에 대한 정보가 없음.</t>
         </is>
       </c>
     </row>
@@ -5923,53 +5923,53 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>퇴직연금 제도</t>
+          <t>사회 동향</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>은행권</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>연금저축·사고보험금·중기연금도 5천만원까지 예금보호</t>
+          <t>5.5억 준대 1만7400명 짐 쌌다…희망퇴직금 10조 쓴 은행권</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>예금보험공사는 연금저축 사고보험금 중소기업퇴직연금기금에 대해 별도로 5000만원의 예금보호한도를 적용하는 예금자보호법 시행령 개정안이 국무회의에서 의결됐다. 이번 개정안은 사회보장적 성격이 강한 연금저축 신탁보험 사고보험금 중소기업퇴직연금기금 각각에 대해서도 일반 예금과 분리해 별도로 5000만원의 예금보호한도를 적용하는 내용을 담았다. 이번 시행령 개정안은 이달 중 공포 즉시 시행될 예정이다.</t>
+          <t>2018년 이후 희망퇴직으로 직장을 떠난 은행원이 1만7400여명에 이르는 것으로 나타났다. 이들에게 지급된 희망퇴직금은 1인당 평균 5억5200만원씩 총 9조6000억원에 이른다.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002158237?sid=101</t>
+          <t>https://n.news.naver.com/mnews/article/008/0004946850?sid=101</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 예금보험공사는 연금저축 사고보험금 중소기업퇴직연금기금에 대해 별도로 5000만원의 예금보호한도를 적용하는 예금자보호법 시행령 개정안이 10일 국무회의에서 의결됐다고 밝혔다.2015년 2월 이후 확정기여형 DC형 및 개인형 IRP 퇴직연금의 예금에 대해서는 동일 금융회사에 예금자가 보유한 일반 예금과 별도로 5000만원의 보호한도를 적용해 왔다.이번 개정안은 사회보장적 성격이 강한 연금저축 신탁보험 사고보험금 중소기업퇴직연금기금 각각에 대해서도 일반 예금과 분리해 별도로 5000만원의 예금보호한도를 적용하는 내용을 담았다.이번 시행령 개정안은 이달 중 공포 즉시 시행될 예정이다. 연금저축공제 및 일반 공제상품을 취급하는 상호금융권에 대해서도 같은 내용을 담은 개별법 시행령 개정이 조만간 완료될 전망이다.</t>
+          <t xml:space="preserve">2018년 이후 희망퇴직으로 직장을 떠난 은행원이 1만7400여명에 이르는 것으로 나타났다. 이들에게 지급된 희망퇴직금은 1인당 평균 5억5200만원씩 총 9조6000억원에 이른다.10일 강민국 국민의힘 의원실이 금융감독원에서 받은 국내 은행권 희망퇴직 현황에 따르면 국내 14개 시중은행에서 2018년부터 지난 7월까지 희망퇴직자는 1만7402명으로 지급된 퇴직금은 총 9조6004억원으로 집계됐다. 은행 전체 퇴직자 중 희망퇴직자가 64.8 희망퇴직제 운영 은행 기준를 차지했다. 희망퇴직자는 2018년 2573명에서 지난해 4312명으로 증가 추세를 보인다. 올해 17월에만 1882명이 희망퇴직으로 회사를 떠났다. 2018년 이후 은행권 희망퇴직자 1인당 평균 퇴직금은 5억5200만원으로 전체 퇴직자 평균 퇴직금보다 약 2억원 많았다. 지난해에만 2조8283억원이 희망퇴직금으로 사용됐고 1인당 평균 6억5600만원 지급됐다. 최근 6년여간 희망퇴직자가 가장 많은 은행은 국민은행으로 3671명으로 집계됐다. 이어 하나은행 2464명 농협은행 2349명 등의 순이다. 1인당 희망퇴직금이 가장 많이 지급된 은행은 씨티은행으로 평균 8억2600만원 지급됐다.은행권에서 희망퇴직금이 많은 이유는 노사 간 협의에 따라 지급되는 특별퇴직금 23 년치 평균 연봉에 전직 지원금 등 때문이다. 지난 6년여간 총 6조9402억원 지급됐다. 일부에서는 희망퇴직을 복지의 하나로 봐야 한다는 지적도 나온다. 강민국 의원은 금융당국이 은행산업에 관한 국민 신뢰 제고 차원에서라도 희망퇴직금을 자율경영사항이라 외면치 말고 전체 퇴직금 규모를 과도하게 넘는 수준의 희망퇴직금 지급 은행은 운영 현황 점검을 실시해야 한다고 밝혔다. 한편 2018년부터 지난 7월까지 17개 은행 인터넷은행 제외의 임금피크제 신청건수는 총 1만1247건으로 집계됐다. </t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>['퇴직연금 DC', '퇴직연금 IRP', '확정기여형', '개인형퇴직연금', '퇴직연금 예금']</t>
+          <t>['희망퇴직 퇴직금', '임금피크제']</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>[{'퇴직연금 DC': 47}, {'퇴직연금 IRP': 45}, {'확정기여형': 48}, {'개인형퇴직연금': 43}, {'퇴직연금 예금': 39}]</t>
+          <t>[{'희망퇴직 퇴직금': 4}, {'임금피크제': 15}]</t>
         </is>
       </c>
       <c r="K52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>연금저축 사고보험금 중소기업퇴직연금기금에 대해 별도로 5000만원의 예금보호한도를 적용하는 예금자보호법 시행령 개정안이 국무회의에서 의결됨</t>
+          <t>은행원들의 희망퇴직 현황과 퇴직금 지급액에 대한 정보가 제공되었음.</t>
         </is>
       </c>
       <c r="M52" t="n">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>No relevant information in the article</t>
+          <t>산업 경쟁 동향에 대한 정보가 제공되지 않음.</t>
         </is>
       </c>
       <c r="O52" t="n">
@@ -5985,7 +5985,7 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>No relevant information in the article</t>
+          <t>금융 시장 변동성에 대한 정보가 제공되지 않음.</t>
         </is>
       </c>
       <c r="Q52" t="n">
@@ -5993,15 +5993,15 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>No relevant information in the article</t>
+          <t>법률 및 규제 변화에 대한 정보가 제공되지 않음.</t>
         </is>
       </c>
       <c r="S52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>No relevant information in the article</t>
+          <t>은행원들의 희망퇴직 현황과 퇴직금 지급액이 장기적인 지속 가능성에 미치는 영향에 대한 정보가 제공되었음.</t>
         </is>
       </c>
       <c r="U52" t="n">
@@ -6009,7 +6009,7 @@
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>No relevant information in the article</t>
+          <t>기술과 디지털화에 대한 정보가 제공되지 않음.</t>
         </is>
       </c>
       <c r="W52" t="n">
@@ -6017,7 +6017,7 @@
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>No relevant information in the article</t>
+          <t>소비 행동 및 요구사항에 대한 정보가 제공되지 않음.</t>
         </is>
       </c>
     </row>
@@ -6039,25 +6039,25 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>연금저축·사고보험금도 5000만 원 예금보호한도 적용</t>
+          <t>연금저축·사고보험금·중기연금도 5천만원까지 예금보호</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>연금저축과 사고보험금 중소기업퇴직연금기금도 5000만 원까지 예금자 보호를 받게 된다. 예금자보호법 시행령 개정안이 국무회의에서 의결됐다. 연금저축 신탁보험 사고보험금 중소기업퇴직연금기금에도 5000만 원의 예금보호한도를 적용하기로 했다.</t>
+          <t>예금보험공사는 연금저축 사고보험금 중소기업퇴직연금기금에 대해 별도로 5000만원의 예금보호한도를 적용하는 예금자보호법 시행령 개정안이 국무회의에서 의결됐다. 이번 개정안은 사회보장적 성격이 강한 연금저축 신탁보험 사고보험금 중소기업퇴직연금기금 각각에 대해서도 일반 예금과 분리해 별도로 5000만원의 예금보호한도를 적용하는 내용을 담았다. 이번 시행령 개정안은 이달 중 공포 즉시 시행될 예정이다.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/082/0001236040?sid=101</t>
+          <t>https://n.news.naver.com/mnews/article/138/0002158237?sid=101</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>연금저축과 사고보험금 중소기업퇴직연금기금도 5000만 원까지 예금자 보호를 받게 된다. 이 같은 내용을 담은 예금자보호법 시행령 개정안이 10일 국무회의에서 의결됐다.정부는 2015년부터 확정기여형 DC형 및 개인형 IRP 퇴직연금의 예금에 대해 일반 예금과 별도로 5000만 원의 보호한도를 적용해왔다.개정안은 이에 더해 연금저축 신탁보험 사고보험금 중소기업퇴직연금기금에도 일반 예금과 분리해 별도로 5000만 원의 예금보호한도를 적용하기로 했다.이와 관련 금융위원회는 연금저축 및 중소기업퇴직연금기금의 경우 국민들이 더욱 안전하게 노후를 준비할 수 있게 됐다며 사고보험금에 대해서는 보험사 부실 시에도 불의의 사고를 겪은 예금자를 보다 두텁게 보호하려는 것이라고 설명했다.이번 개정안은 이달 중 공포 즉시 시행된다. 연금저축 및 일반 공제 상품을 취급하는 상호금융권에 대해서도 같은 내용을 담은 개별법 시행령 개정이 조만간 완료된다.</t>
+          <t xml:space="preserve"> 예금보험공사는 연금저축 사고보험금 중소기업퇴직연금기금에 대해 별도로 5000만원의 예금보호한도를 적용하는 예금자보호법 시행령 개정안이 10일 국무회의에서 의결됐다고 밝혔다.2015년 2월 이후 확정기여형 DC형 및 개인형 IRP 퇴직연금의 예금에 대해서는 동일 금융회사에 예금자가 보유한 일반 예금과 별도로 5000만원의 보호한도를 적용해 왔다.이번 개정안은 사회보장적 성격이 강한 연금저축 신탁보험 사고보험금 중소기업퇴직연금기금 각각에 대해서도 일반 예금과 분리해 별도로 5000만원의 예금보호한도를 적용하는 내용을 담았다.이번 시행령 개정안은 이달 중 공포 즉시 시행될 예정이다. 연금저축공제 및 일반 공제상품을 취급하는 상호금융권에 대해서도 같은 내용을 담은 개별법 시행령 개정이 조만간 완료될 전망이다.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -6067,15 +6067,15 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>[{'퇴직연금 DC': 13}, {'퇴직연금 IRP': 12}, {'확정기여형': 16}, {'개인형퇴직연금': 12}, {'퇴직연금 예금': 12}]</t>
+          <t>[{'퇴직연금 DC': 47}, {'퇴직연금 IRP': 45}, {'확정기여형': 48}, {'개인형퇴직연금': 43}, {'퇴직연금 예금': 39}]</t>
         </is>
       </c>
       <c r="K53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>연금저축과 사고보험금 중소기업퇴직연금기금에도 5000만 원의 예금보호한도를 적용하기로 함</t>
+          <t>연금저축 사고보험금 중소기업퇴직연금기금에 대해 별도로 5000만원의 예금보호한도를 적용하는 예금자보호법 시행령 개정안이 국무회의에서 의결됨</t>
         </is>
       </c>
       <c r="M53" t="n">
@@ -6145,12 +6145,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>연금저축·사고보험금도 5000만원 예금보호</t>
+          <t>연금저축·사고보험금도 5000만 원 예금보호한도 적용</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>연금저축과 사고보험금 중소기업퇴직연금기금도 일반 예금과 별개로 5000만원까지 예급보호를 받게된다. 금융위원회는 10일 이 같은 내용을 담은 예금자보호법 시행령 개정안이 국무회의에서 의결됐다고 밝혔다. 이번 개정안은 이달 중 공포 즉시 시행된다.</t>
+          <t>연금저축과 사고보험금 중소기업퇴직연금기금도 5000만 원까지 예금자 보호를 받게 된다. 예금자보호법 시행령 개정안이 국무회의에서 의결됐다. 연금저축 신탁보험 사고보험금 중소기업퇴직연금기금에도 5000만 원의 예금보호한도를 적용하기로 했다.</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -6158,22 +6158,22 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002829370?sid=101</t>
+          <t>https://n.news.naver.com/mnews/article/082/0001236040?sid=101</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>그동안 예금자 보호 대상에서 빠졌던 연금저축과 사고보험금 중소기업퇴직연금기금도 일반 예금과 별개로 5000만원까지 예급보호를 받게된다. 금융위원회는 10일 이 같은 내용을 담은 예금자보호법 시행령 개정안이 국무회의에서 의결됐다고 밝혔다. 정부는 지난 2015년부터 확정기여형 DC형 및 개인형 IRP 퇴직연금의 예금에 대해 일반 예금과 별도로 5000만원의 보호한도를 적용해왔다.이번에는 이에 더해 사회 보장적 성격이 강한 연금저축 신탁보험 사고보험금 중소기업퇴직연금기금에도 일반 예금과 분리해 별도로 5000만원의 예금보호한도를 적용하기로 했다. 이번 개정안은 이달 중 공포 즉시 시행된다. 연금저축 및 일반 공제 상품을 취급하는 상호금융권에 대해서도 같은 내용을 담은 개별법 시행령 개정이 조만간 완료된다. 한편 이날 국무회의에서는 자산 1000억원 이상인 신용협동조합 신협의 이사장을 뽑을 때는 선거관리위원회에서 선거 관리를 의무적으로 위탁하도록 하는 신용조합법 시행령 개정안도 함께 의결했다. 지금은 재량 위탁으로 돼 있어 이사장 선거의 공정성과 투명성을 높일 필요가 있다는 지적이 나왔다. 다만 소규모 지역 신협의 부담 등을 고려해 자산 기준은 1000억원 이상으로 정했다. 개정안은 오는 19일부터 시행된다.</t>
+          <t>연금저축과 사고보험금 중소기업퇴직연금기금도 5000만 원까지 예금자 보호를 받게 된다. 이 같은 내용을 담은 예금자보호법 시행령 개정안이 10일 국무회의에서 의결됐다.정부는 2015년부터 확정기여형 DC형 및 개인형 IRP 퇴직연금의 예금에 대해 일반 예금과 별도로 5000만 원의 보호한도를 적용해왔다.개정안은 이에 더해 연금저축 신탁보험 사고보험금 중소기업퇴직연금기금에도 일반 예금과 분리해 별도로 5000만 원의 예금보호한도를 적용하기로 했다.이와 관련 금융위원회는 연금저축 및 중소기업퇴직연금기금의 경우 국민들이 더욱 안전하게 노후를 준비할 수 있게 됐다며 사고보험금에 대해서는 보험사 부실 시에도 불의의 사고를 겪은 예금자를 보다 두텁게 보호하려는 것이라고 설명했다.이번 개정안은 이달 중 공포 즉시 시행된다. 연금저축 및 일반 공제 상품을 취급하는 상호금융권에 대해서도 같은 내용을 담은 개별법 시행령 개정이 조만간 완료된다.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>['퇴직연금 DC', '퇴직연금 IRP', '확정기여형', '개인형퇴직연금', '퇴직연금 규모', '퇴직연금 예금']</t>
+          <t>['퇴직연금 DC', '퇴직연금 IRP', '확정기여형', '개인형퇴직연금', '퇴직연금 예금']</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>[{'퇴직연금 DC': 16}, {'퇴직연금 IRP': 14}, {'확정기여형': 18}, {'개인형퇴직연금': 15}, {'퇴직연금 규모': 3}, {'퇴직연금 예금': 13}]</t>
+          <t>[{'퇴직연금 DC': 13}, {'퇴직연금 IRP': 12}, {'확정기여형': 16}, {'개인형퇴직연금': 12}, {'퇴직연금 예금': 12}]</t>
         </is>
       </c>
       <c r="K54" t="n">
@@ -6181,7 +6181,7 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>연금저축과 사고보험금 중소기업퇴직연금기금에 5000만원까지 예금보호를 적용하는 예금자보호법 시행령 개정안이 국무회의에서 의결됨</t>
+          <t>연금저축과 사고보험금 중소기업퇴직연금기금에도 5000만 원의 예금보호한도를 적용하기로 함</t>
         </is>
       </c>
       <c r="M54" t="n">
@@ -6251,12 +6251,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>연금저축도 5000만원 예금보호한도 적용</t>
+          <t>연금저축·사고보험금도 5000만원 예금보호</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10월부터 사고보험금 등 포함연금저축 사고보험금 중소기업퇴직연금기금에도 별도로 5000만원의 예금보호한도가 적용된다. 금융위원회와 예금보험공사는 10일 이런 내용을 담은 예금자보호법 시행령 개정안이 국무회의에서 의결됐다고 밝혔다. 개정안은 이달 내 공포 즉시 시행될 예정이다.</t>
+          <t>연금저축과 사고보험금 중소기업퇴직연금기금도 일반 예금과 별개로 5000만원까지 예급보호를 받게된다. 금융위원회는 10일 이 같은 내용을 담은 예금자보호법 시행령 개정안이 국무회의에서 의결됐다고 밝혔다. 이번 개정안은 이달 중 공포 즉시 시행된다.</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -6264,22 +6264,22 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003863205?sid=101</t>
+          <t>https://n.news.naver.com/mnews/article/029/0002829370?sid=101</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>10월부터 사고보험금 등 포함연금저축 사고보험금 중소기업퇴직연금기금에도 별도로 5000만원의 예금보호한도가 적용된다. 금융위원회와 예금보험공사는 10일 이런 내용을 담은 예금자보호법 시행령 개정안이 국무회의에서 의결됐다고 밝혔다. 개정안은 이달 내 공포 즉시 시행될 예정이다.  사진뉴스1 정부는 2015년 2월 이후 확정기여형 및 개인형 퇴직연금에 대해서는 동일 금융회사에 예금자가 보유한 일반 예금과 별도로 5000만원의 보호 한도를 적용해 왔다. 개정안은 이에 더해 사회보장적 성격이 강한 연금저축 신탁보험 사고보험금 중소기업퇴직연금기금에 대해서도 일반 예금과 분리해 별도로 5000만원의 예금보호 한도를 적용하는 내용을 담았다. 금융위 관계자는 신탁과 보험을 포함한 연금저축 및 중소기업퇴직연금기금의 경우 국민이 더욱 안전하게 노후를 준비할 수 있게 됐다며 사고보험금에 대해서는 보험사 부실 때에도 불의의 사고를 겪은 예금자를 보다 두텁게 보호하게 됨에 따라 금융산업에 대한 신뢰도 한층 더 강화될 것으로 기대된다고 설명했다. 금융위는 연금저축공제 및 일반 공제상품을 취급하는 상호금융권에 대해서도 같은 내용을 담은 개별법 시행령 개정을 조만간 완료하겠다고 설명했다. 이날 국무회의에서는 총자산 1000억원 이상인 지역 신협에서 이사장을 선출할 경우 선거관리위원회 선관위가 해당 선거관리를 도맡게 하는 내용의 신용협동조합법 시행령 개정안도 의결했다.</t>
+          <t>그동안 예금자 보호 대상에서 빠졌던 연금저축과 사고보험금 중소기업퇴직연금기금도 일반 예금과 별개로 5000만원까지 예급보호를 받게된다. 금융위원회는 10일 이 같은 내용을 담은 예금자보호법 시행령 개정안이 국무회의에서 의결됐다고 밝혔다. 정부는 지난 2015년부터 확정기여형 DC형 및 개인형 IRP 퇴직연금의 예금에 대해 일반 예금과 별도로 5000만원의 보호한도를 적용해왔다.이번에는 이에 더해 사회 보장적 성격이 강한 연금저축 신탁보험 사고보험금 중소기업퇴직연금기금에도 일반 예금과 분리해 별도로 5000만원의 예금보호한도를 적용하기로 했다. 이번 개정안은 이달 중 공포 즉시 시행된다. 연금저축 및 일반 공제 상품을 취급하는 상호금융권에 대해서도 같은 내용을 담은 개별법 시행령 개정이 조만간 완료된다. 한편 이날 국무회의에서는 자산 1000억원 이상인 신용협동조합 신협의 이사장을 뽑을 때는 선거관리위원회에서 선거 관리를 의무적으로 위탁하도록 하는 신용조합법 시행령 개정안도 함께 의결했다. 지금은 재량 위탁으로 돼 있어 이사장 선거의 공정성과 투명성을 높일 필요가 있다는 지적이 나왔다. 다만 소규모 지역 신협의 부담 등을 고려해 자산 기준은 1000억원 이상으로 정했다. 개정안은 오는 19일부터 시행된다.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>['확정기여형', '개인형퇴직연금', '퇴직연금 예금']</t>
+          <t>['퇴직연금 DC', '퇴직연금 IRP', '확정기여형', '개인형퇴직연금', '퇴직연금 규모', '퇴직연금 예금']</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>[{'확정기여형': 2}, {'개인형퇴직연금': 1}, {'퇴직연금 예금': 2}]</t>
+          <t>[{'퇴직연금 DC': 16}, {'퇴직연금 IRP': 14}, {'확정기여형': 18}, {'개인형퇴직연금': 15}, {'퇴직연금 규모': 3}, {'퇴직연금 예금': 13}]</t>
         </is>
       </c>
       <c r="K55" t="n">
@@ -6287,7 +6287,7 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>금융위원회와 예금보험공사가 예금자보호법 시행령 개정안을 의결하여 연금저축과 중소기업퇴직연금기금에 예금보호한도를 적용하는 내용이 포함되어 있음.</t>
+          <t>연금저축과 사고보험금 중소기업퇴직연금기금에 5000만원까지 예금보호를 적용하는 예금자보호법 시행령 개정안이 국무회의에서 의결됨</t>
         </is>
       </c>
       <c r="M55" t="n">
@@ -6295,7 +6295,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>기사에는 산업 경쟁 동향에 대한 내용이 없음.</t>
+          <t>No relevant information in the article</t>
         </is>
       </c>
       <c r="O55" t="n">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>기사에는 금융 시장 변동성에 대한 내용이 없음.</t>
+          <t>No relevant information in the article</t>
         </is>
       </c>
       <c r="Q55" t="n">
@@ -6311,7 +6311,7 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>기사에는 법률 및 규제 변경에 대한 내용이 없음.</t>
+          <t>No relevant information in the article</t>
         </is>
       </c>
       <c r="S55" t="n">
@@ -6319,7 +6319,7 @@
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>기사에는 인구 통계 변화에 대한 내용이 없음.</t>
+          <t>No relevant information in the article</t>
         </is>
       </c>
       <c r="U55" t="n">
@@ -6327,7 +6327,7 @@
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>기사에는 기술 및 디지털화에 대한 내용이 없음.</t>
+          <t>No relevant information in the article</t>
         </is>
       </c>
       <c r="W55" t="n">
@@ -6335,7 +6335,7 @@
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>기사에는 소비 행동 및 요구사항에 대한 내용이 없음.</t>
+          <t>No relevant information in the article</t>
         </is>
       </c>
     </row>
@@ -6352,17 +6352,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>중기보험</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>연금저축·보험금·中企연금도 이달부터 5000만원까지 보호</t>
+          <t>연금저축도 5000만원 예금보호한도 적용</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>연금저축 신탁보험과 사고보험금 중소기업퇴직연금기금도 이달부터 일반 예금처럼 5000만원의 예금보호한도를 각각 적용받는다. 금융위원회는 10일 이같은 내용을 담은 예금자보호법 시행령 개정안이 국무회의에서 의결돼 이달 중 공포 즉시 시행될 예정이라고 밝혔다.</t>
+          <t>10월부터 사고보험금 등 포함연금저축 사고보험금 중소기업퇴직연금기금에도 별도로 5000만원의 예금보호한도가 적용된다. 금융위원회와 예금보험공사는 10일 이런 내용을 담은 예금자보호법 시행령 개정안이 국무회의에서 의결됐다고 밝혔다. 개정안은 이달 내 공포 즉시 시행될 예정이다.</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -6370,22 +6370,22 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/003/0012136976?sid=101</t>
+          <t>https://n.news.naver.com/mnews/article/022/0003863205?sid=101</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 김형섭 기자 연금저축 신탁보험과 사고보험금 중소기업퇴직연금기금도 이달부터 일반 예금처럼 5000만원의 예금보호한도를 각각 적용받는다.금융위원회는 10일 이같은 내용을 담은 예금자보호법 시행령 개정안이 국무회의에서 의결돼 이달 중 공포 즉시 시행될 예정이라고 밝혔다.개정안은 은행에서 판매하는 연금저축신탁 및 보험사의 연금저축보험 보험약관에서 정한 지급사유가 발생했을 때 지급되는 사고보험금 30인 이하 중소기업의 사업주가 납부한 부담금으로 기금을 운영해 근로자에게 퇴직급여를 지급하는 중소기업퇴직연금기금도 일반 예금과 분리해 각각 5000만원의 예금보호한도를 적용하는 내용을 담았다. 현재는 예금보호한도가 일반 예금이나 보험에 합산해 적용되거나 아예 보호되지 않고 있는데 별도의 예금보호한도를 적용받게 되는 것이다. 이들 상품에 국민의 노후소득보장과 사회보장적 성격이 있다는 점을 고려한 조치다.앞서 정부는 확정기여형 DC형 및 개인형 IRP 퇴직연금의 예금에 대해서도 별도로 5000만원의 보호한도를 적용한 바 있으며 예금자보호 강화를 위해 보호한도 적용 확대를 추진해 왔다.금융위는 이번 시행령 의결에 대해 연금저축 및 중소기업퇴직연금기금의 경우 국민들이 더욱 안전하게 노후를 준비할 수 있고 사고보험금에 대해서는 보험사 부실시에도 불의의 사고를 겪은 예금자를 보다 두텁게 보호하게 됨에 따라 금융산업에 대한 신뢰도 한층 더 강화될 것으로 기대된다고 전했다.한편 별도의 예금자보호제도를 운영 중인 신협 수협 새마을금고 등 상호금융권도 연금저축공제와 사고보험금 공제금에 대해 이번 시행령 개정안처럼 별도의 예금보호한도가 적용될 예정이다.이를 위해 개정된 새마을금고법 시행령은 오는 12일 시행 예정이며 신협법 시행령은 이날 국무회의에서 의결돼 공포 후 시행 예정이다. 수협구조개선법 시행령은 입법예고가 종료돼 조만간 국무회의에 오른다</t>
+          <t>10월부터 사고보험금 등 포함연금저축 사고보험금 중소기업퇴직연금기금에도 별도로 5000만원의 예금보호한도가 적용된다. 금융위원회와 예금보험공사는 10일 이런 내용을 담은 예금자보호법 시행령 개정안이 국무회의에서 의결됐다고 밝혔다. 개정안은 이달 내 공포 즉시 시행될 예정이다.  사진뉴스1 정부는 2015년 2월 이후 확정기여형 및 개인형 퇴직연금에 대해서는 동일 금융회사에 예금자가 보유한 일반 예금과 별도로 5000만원의 보호 한도를 적용해 왔다. 개정안은 이에 더해 사회보장적 성격이 강한 연금저축 신탁보험 사고보험금 중소기업퇴직연금기금에 대해서도 일반 예금과 분리해 별도로 5000만원의 예금보호 한도를 적용하는 내용을 담았다. 금융위 관계자는 신탁과 보험을 포함한 연금저축 및 중소기업퇴직연금기금의 경우 국민이 더욱 안전하게 노후를 준비할 수 있게 됐다며 사고보험금에 대해서는 보험사 부실 때에도 불의의 사고를 겪은 예금자를 보다 두텁게 보호하게 됨에 따라 금융산업에 대한 신뢰도 한층 더 강화될 것으로 기대된다고 설명했다. 금융위는 연금저축공제 및 일반 공제상품을 취급하는 상호금융권에 대해서도 같은 내용을 담은 개별법 시행령 개정을 조만간 완료하겠다고 설명했다. 이날 국무회의에서는 총자산 1000억원 이상인 지역 신협에서 이사장을 선출할 경우 선거관리위원회 선관위가 해당 선거관리를 도맡게 하는 내용의 신용협동조합법 시행령 개정안도 의결했다.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>['퇴직연금 DC', '퇴직연금 IRP', '확정기여형', '개인형퇴직연금', '퇴직연금 예금']</t>
+          <t>['확정기여형', '개인형퇴직연금', '퇴직연금 예금']</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>[{'퇴직연금 DC': 1}, {'퇴직연금 IRP': 1}, {'확정기여형': 2}, {'개인형퇴직연금': 1}, {'퇴직연금 예금': 1}]</t>
+          <t>[{'확정기여형': 2}, {'개인형퇴직연금': 1}, {'퇴직연금 예금': 2}]</t>
         </is>
       </c>
       <c r="K56" t="n">
@@ -6393,7 +6393,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>연금저축 신탁보험과 사고보험금 중소기업퇴직연금기금에 5000만원의 예금보호한도가 적용될 예정</t>
+          <t>금융위원회와 예금보험공사가 예금자보호법 시행령 개정안을 의결하여 연금저축과 중소기업퇴직연금기금에 예금보호한도를 적용하는 내용이 포함되어 있음.</t>
         </is>
       </c>
       <c r="M56" t="n">
@@ -6401,7 +6401,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>No relevant information in the article</t>
+          <t>기사에는 산업 경쟁 동향에 대한 내용이 없음.</t>
         </is>
       </c>
       <c r="O56" t="n">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>No relevant information in the article</t>
+          <t>기사에는 금융 시장 변동성에 대한 내용이 없음.</t>
         </is>
       </c>
       <c r="Q56" t="n">
@@ -6417,7 +6417,7 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>No relevant information in the article</t>
+          <t>기사에는 법률 및 규제 변경에 대한 내용이 없음.</t>
         </is>
       </c>
       <c r="S56" t="n">
@@ -6425,7 +6425,7 @@
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>No relevant information in the article</t>
+          <t>기사에는 인구 통계 변화에 대한 내용이 없음.</t>
         </is>
       </c>
       <c r="U56" t="n">
@@ -6433,7 +6433,7 @@
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>No relevant information in the article</t>
+          <t>기사에는 기술 및 디지털화에 대한 내용이 없음.</t>
         </is>
       </c>
       <c r="W56" t="n">
@@ -6441,7 +6441,7 @@
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>No relevant information in the article</t>
+          <t>기사에는 소비 행동 및 요구사항에 대한 내용이 없음.</t>
         </is>
       </c>
     </row>
@@ -6458,17 +6458,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>중기보험</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>연금저축·사고보험금·중기퇴직연금도 5천만원 보호한도 적용</t>
+          <t>연금저축·보험금·中企연금도 이달부터 5000만원까지 보호</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>금융위원회와 예금보험공사는 연금저축 사고보험금 중소기업퇴직연금기금에 대해 별도로 5000만원의 예금보호한도를 적용하는 예금자보호법 시행령 개정안이 국무회의에서 의결됐다.</t>
+          <t>연금저축 신탁보험과 사고보험금 중소기업퇴직연금기금도 이달부터 일반 예금처럼 5000만원의 예금보호한도를 각각 적용받는다. 금융위원회는 10일 이같은 내용을 담은 예금자보호법 시행령 개정안이 국무회의에서 의결돼 이달 중 공포 즉시 시행될 예정이라고 밝혔다.</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -6476,12 +6476,12 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002317526?sid=101</t>
+          <t>https://n.news.naver.com/mnews/article/003/0012136976?sid=101</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 금융위원회와 예금보험공사는 연금저축 사고보험금 중소기업퇴직연금기금에 대해 별도로 5000만원의 예금보호한도를 적용하는 예금자보호법 시행령 개정안이 10일 국무회의에서 의결됐다고 밝혔다. 2015년 2월 이후 확정기여형 이하 DC형 및 개인형 이하 IRP 퇴직연금의 예금에 대해서는 동일 금융회사에 예금자가 보유한 일반 예금과 별도로 5000만원의 보호한도를 적용해 왔다. 이번 개정안은 사회보장적 성격이 강한 연금저축 신탁보험 사고보험금 중소기업퇴직연금기금 각각에 대해서도 일반 예금과 분리해 별도로 5000만원의 예금보호한도를 적용하는 내용을 담았다. 금융위예보는 연금저축 신탁보험 및 중소기업퇴직연금기금의 경우 국민들이 더욱 안전하게 노후를 준비할 수 있고 사고보험금에 대해서는 보험사 부실시에도 불의의 사고를 겪은 예금자를 보다 두텁게 보호하게 됨에 따라 금융산업에 대한 신뢰도 한층 더 강화될 것으로 기대된다고 말했다. 금번 시행령 개정안은 10월중 공포 즉시 시행될 예정이며 연금저축공제 및 일반 공제상품을 취급하는 상호금융권에 대해서도 같은 내용을 담은 개별법 시행령 개정이 조만간 완료될 전망이다. </t>
+          <t xml:space="preserve"> 김형섭 기자 연금저축 신탁보험과 사고보험금 중소기업퇴직연금기금도 이달부터 일반 예금처럼 5000만원의 예금보호한도를 각각 적용받는다.금융위원회는 10일 이같은 내용을 담은 예금자보호법 시행령 개정안이 국무회의에서 의결돼 이달 중 공포 즉시 시행될 예정이라고 밝혔다.개정안은 은행에서 판매하는 연금저축신탁 및 보험사의 연금저축보험 보험약관에서 정한 지급사유가 발생했을 때 지급되는 사고보험금 30인 이하 중소기업의 사업주가 납부한 부담금으로 기금을 운영해 근로자에게 퇴직급여를 지급하는 중소기업퇴직연금기금도 일반 예금과 분리해 각각 5000만원의 예금보호한도를 적용하는 내용을 담았다. 현재는 예금보호한도가 일반 예금이나 보험에 합산해 적용되거나 아예 보호되지 않고 있는데 별도의 예금보호한도를 적용받게 되는 것이다. 이들 상품에 국민의 노후소득보장과 사회보장적 성격이 있다는 점을 고려한 조치다.앞서 정부는 확정기여형 DC형 및 개인형 IRP 퇴직연금의 예금에 대해서도 별도로 5000만원의 보호한도를 적용한 바 있으며 예금자보호 강화를 위해 보호한도 적용 확대를 추진해 왔다.금융위는 이번 시행령 의결에 대해 연금저축 및 중소기업퇴직연금기금의 경우 국민들이 더욱 안전하게 노후를 준비할 수 있고 사고보험금에 대해서는 보험사 부실시에도 불의의 사고를 겪은 예금자를 보다 두텁게 보호하게 됨에 따라 금융산업에 대한 신뢰도 한층 더 강화될 것으로 기대된다고 전했다.한편 별도의 예금자보호제도를 운영 중인 신협 수협 새마을금고 등 상호금융권도 연금저축공제와 사고보험금 공제금에 대해 이번 시행령 개정안처럼 별도의 예금보호한도가 적용될 예정이다.이를 위해 개정된 새마을금고법 시행령은 오는 12일 시행 예정이며 신협법 시행령은 이날 국무회의에서 의결돼 공포 후 시행 예정이다. 수협구조개선법 시행령은 입법예고가 종료돼 조만간 국무회의에 오른다</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -6491,7 +6491,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>[{'퇴직연금 DC': 26}, {'퇴직연금 IRP': 21}, {'확정기여형': 37}, {'개인형퇴직연금': 23}, {'퇴직연금 예금': 31}]</t>
+          <t>[{'퇴직연금 DC': 1}, {'퇴직연금 IRP': 1}, {'확정기여형': 2}, {'개인형퇴직연금': 1}, {'퇴직연금 예금': 1}]</t>
         </is>
       </c>
       <c r="K57" t="n">
@@ -6499,7 +6499,7 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>연금저축 신탁보험 및 중소기업퇴직연금기금의 안전성 강화</t>
+          <t>연금저축 신탁보험과 사고보험금 중소기업퇴직연금기금에 5000만원의 예금보호한도가 적용될 예정</t>
         </is>
       </c>
       <c r="M57" t="n">
@@ -6569,12 +6569,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>연금저축·사고보험금·중기퇴직연금기금도 5천만 원까지 보호, 이달 시행</t>
+          <t>연금저축·사고보험금·중기퇴직연금도 5천만원 보호한도 적용</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>연금저축 사고보험금 중소기업퇴직연금기금에 대해 별도로 5천만 원의 예금보호한도를 적용하는 예금자보호법 시행령 개정안이 국무회의에서 의결됐다. 금융위원회</t>
+          <t>금융위원회와 예금보험공사는 연금저축 사고보험금 중소기업퇴직연금기금에 대해 별도로 5000만원의 예금보호한도를 적용하는 예금자보호법 시행령 개정안이 국무회의에서 의결됐다.</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -6582,10 +6582,116 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
+          <t>https://n.news.naver.com/mnews/article/123/0002317526?sid=101</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 금융위원회와 예금보험공사는 연금저축 사고보험금 중소기업퇴직연금기금에 대해 별도로 5000만원의 예금보호한도를 적용하는 예금자보호법 시행령 개정안이 10일 국무회의에서 의결됐다고 밝혔다. 2015년 2월 이후 확정기여형 이하 DC형 및 개인형 이하 IRP 퇴직연금의 예금에 대해서는 동일 금융회사에 예금자가 보유한 일반 예금과 별도로 5000만원의 보호한도를 적용해 왔다. 이번 개정안은 사회보장적 성격이 강한 연금저축 신탁보험 사고보험금 중소기업퇴직연금기금 각각에 대해서도 일반 예금과 분리해 별도로 5000만원의 예금보호한도를 적용하는 내용을 담았다. 금융위예보는 연금저축 신탁보험 및 중소기업퇴직연금기금의 경우 국민들이 더욱 안전하게 노후를 준비할 수 있고 사고보험금에 대해서는 보험사 부실시에도 불의의 사고를 겪은 예금자를 보다 두텁게 보호하게 됨에 따라 금융산업에 대한 신뢰도 한층 더 강화될 것으로 기대된다고 말했다. 금번 시행령 개정안은 10월중 공포 즉시 시행될 예정이며 연금저축공제 및 일반 공제상품을 취급하는 상호금융권에 대해서도 같은 내용을 담은 개별법 시행령 개정이 조만간 완료될 전망이다. </t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['퇴직연금 DC', '퇴직연금 IRP', '확정기여형', '개인형퇴직연금', '퇴직연금 예금']</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>[{'퇴직연금 DC': 26}, {'퇴직연금 IRP': 21}, {'확정기여형': 37}, {'개인형퇴직연금': 23}, {'퇴직연금 예금': 31}]</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>3</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>연금저축 신탁보험 및 중소기업퇴직연금기금의 안전성 강화</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>No relevant information in the article</t>
+        </is>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>No relevant information in the article</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>No relevant information in the article</t>
+        </is>
+      </c>
+      <c r="S58" t="n">
+        <v>0</v>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>No relevant information in the article</t>
+        </is>
+      </c>
+      <c r="U58" t="n">
+        <v>0</v>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>No relevant information in the article</t>
+        </is>
+      </c>
+      <c r="W58" t="n">
+        <v>0</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>No relevant information in the article</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2023-10-10</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>퇴직연금 제도</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>연금저축·사고보험금·중기퇴직연금기금도 5천만 원까지 보호, 이달 시행</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>연금저축 사고보험금 중소기업퇴직연금기금에 대해 별도로 5천만 원의 예금보호한도를 적용하는 예금자보호법 시행령 개정안이 국무회의에서 의결됐다. 금융위원회</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>3</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
           <t>https://www.businesspost.co.kr/BP?command=article_view&amp;num=329400</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t xml:space="preserve">
  연금저축 사고보험금 중소기업퇴직연금기금에 대해 별도로 5천만 원의 예금보호한도를 적용하는 예금자보호법 시행령 개정안이 10일 국무회의에서 의결됐다. 금융위원회
@@ -6599,120 +6705,14 @@
 </t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>['퇴직연금 DC', '퇴직연금 IRP', '확정기여형', '개인형퇴직연금', '퇴직연금 예금']</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>[{'퇴직연금 DC': 37}, {'퇴직연금 IRP': 34}, {'확정기여형': 50}, {'개인형퇴직연금': 35}, {'퇴직연금 예금': 41}]</t>
-        </is>
-      </c>
-      <c r="K58" t="n">
-        <v>3</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>연금저축 사고보험금 중소기업퇴직연금기금에 대한 예금보호한도 개정안이 국무회의에서 의결됨</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>No information related to industry competition trends</t>
-        </is>
-      </c>
-      <c r="O58" t="n">
-        <v>0</v>
-      </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>No information related to financial market impact</t>
-        </is>
-      </c>
-      <c r="Q58" t="n">
-        <v>0</v>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>No information related to legal and regulatory changes</t>
-        </is>
-      </c>
-      <c r="S58" t="n">
-        <v>0</v>
-      </c>
-      <c r="T58" t="inlineStr">
-        <is>
-          <t>No information related to demographic change</t>
-        </is>
-      </c>
-      <c r="U58" t="n">
-        <v>0</v>
-      </c>
-      <c r="V58" t="inlineStr">
-        <is>
-          <t>No information related to technology and digitalization</t>
-        </is>
-      </c>
-      <c r="W58" t="n">
-        <v>0</v>
-      </c>
-      <c r="X58" t="inlineStr">
-        <is>
-          <t>No information related to consumption behavior and requirements</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>2023-10-09</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>퇴직연금 상품</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>퇴직연금도 커스터마이징… 실적배당형으로 다변화해야</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>KB손해보험은 퇴직연금 상품 시장의 질적 개선을 위해 자산배분컨설팅을 제공하고 비대면으로 연금 수령 시스템을 구축했다. KB손해보험이 고용노동부 퇴직연금사업자 평가에서 우수사업자로 선정되어 고용노동부 장관상을 수상했다.</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>10</v>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005083075?sid=101</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 이제는 퇴직연금도 커스터마이징이 필요하다. KB손해보험은 서류 작성 없이 비대면으로 원하는 시점에 연금을 수령할 수 있는 시스템을 구축했고 고객의 성향에 맞는 자산배분컨설팅을 실질적으로 제공하는 점이 좋은 평가를 받았다. 앞으로는 원리금보장형 상품에 매몰돼 있는 상품 구조를 실적배당형으로 다변화를 추구해 퇴직연금 상품 시장의 질적 개선을 이루겠다. KB손해보험 김유홍 연금사업본부장 전무사진은 9일 파이낸셜뉴스와 인터뷰에서 KB손해보험이 2023년 고용노동부 퇴직연금사업자 평가에서 보험 부문 우수사업자로 고용노동부 장관상을 수상하게 된 이유와 향후 포부를 이같이 밝혔다. KB손해보험은 고용노동부의 2023년 우수 퇴직연금사업자 평가에서 상품운용역량 조직서비스역량 교육 정보제공 역량에서 높은 점수을 받아 보험 부문 장관상을 거머쥐었다. 김유홍 본부장은 정성적인 부문에서 압도적으로 높은 점수를 받았다면서 숫자 실적 등 사업자가 가장 관심 있는 양적 성장보다 고객이 원하는 상품 추천 은퇴 시점에서 고객에게 맞는 연금 설계 시스템 환경 등 정성적이고 질적 서비스를 업그레이드하는 데 가장 중점을 뒀다고 강조했다. 실제 KB손해보험이 지난해 말 김기환 대표이사 판단으로 보험사 중 선도적으로 신설한 연금자산컨설팅파트는 질적 서비스 개선을 최우선 목표로 세웠다. 또 장기적 관점에서 고객에게 우수한 서비스를 제공하기 위해 인프라 투자를 단행했다. 약 300조원 규모의 퇴직연금 시장은 이미 레드오션으로 경쟁이 치열하고 금리 싸움만으로는 오프라인 판매 채널을 갖춘 은행이나 퇴직연금 상품만 1000개에 달하는 증권사를 이길 수 없다는 판단에서다. 우선 총 2년에 거쳐 모바일과 웹을 전면 개편해 퇴직연금을 이용하는 비대면 고객의 편의성을 높였다. 지점 방문이 어려운 바쁜 직장인을 위해서 논스톱 연금상담 서비스도 도입했다. 여기에 연금자산컨설팅파트는 자산배분컨설팅을 강화하기 위해 연금상품을 개발하고 관리할 수 외부 전문인력 뿐만 아니라 은퇴 생활자에게 꼭 필요한 건강보험료 절세 정보 등을 종합적으로 제공하기 위해 세무사 등 분야별 전문가로만 구성됐다. 상품 라인업도 12개에서 국내 해외 채권형 주식형 리츠 TDF 등 핵심 상품만 105개까지 확대됐다. 김 본부장은 라인업을 더 확대하지 않고 좋은 상품 중에서 지속적으로 성과 평가를 하고 고객 투자 성향에 맞게 상품을 제시하고 있다면서 고객 수익률은 한 번에 갑자기 올라가는 것이 아니지만 최소한 물가상승률 이상으로 최소한 연 56 수익률을 낼 수 있도록 포트폴리오 구축을 하고 있다고 설명했다. KB손해보험이 질적 서비스 개선을 위해 노력한 결실은 숫자로도 입증됐다. 지난 7월 고용노동부에서 발표한 디폴트옵션 수익률 6개월 부문에서 KB손해보험 디폴트옵션 중위험 TDF1이 9.33의 수익률을 기록 중위험 상품 중 1위를 차지한 것이다. 디폴트옵션 가입률 역시 현재 73로 전 업권 통틀어 1위를 기록하고 있다. 김 본부장은 정부에서 디폴트옵션 시행하기 전 유예기간을 줄 때부터 전 단계를 준비해서 올해 초에 디폴트옵션을 고객에게 발빠르게 선보였고 마케팅도 빨리 진행했다면서 이 역시 질적 서비스를 신경쓴 결과라고 말했다. 앞으로도 KB손해보험은 차별화된 자산 배분 컨설팅을 제공하기 위해 AI 로보어드바이저 등 최신 디지털 기술을 접목하는 한편 고객 수요가 많은 채권 상품도 라인업할 계획이다. 또 디지털 취약 계층을 위한 대면과 비대면의 중간 채널인 하이브리드 채널 신설도 검토하고 있다. 김 본부장은 보험사는 비대면 채널을 강화할 수 밖에 없지만 디지털 취약 계층을 고려한 하이브리드 채널도 검토하고 있다면서 올해 채권을 투자하기 좋은 시기인 만큼 국채 회사채 지방채 등 채권 상품 라인업을 통해 고객에게 제공하기 위해 준비 중이라고 말했다. gogosingfnnews.com 박소현 김예지 기자</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>['디폴트옵션', '퇴직연금 사업자', '퇴직연금 은퇴설계', '퇴직연금 규모', '퇴직연금 수상', '퇴직연금 고용노동부', 'KB 퇴직연금', '퇴직연금 서비스 ', '퇴직연금 AI', '퇴직연금 경쟁', '퇴직연금 로보어드바이저', '퇴직연금 수익률', '퇴직연금 포트폴리오', '퇴직연금 TDF', '퇴직연금 자산배분', '퇴직연금 가입', '퇴직연금 채권', '퇴직연금 라인업', '퇴직연금 리츠']</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>[{'디폴트옵션': 2}, {'퇴직연금 사업자': 1}, {'퇴직연금 은퇴설계': 2}, {'퇴직연금 규모': 3}, {'퇴직연금 수상': 1}, {'퇴직연금 고용노동부': 8}, {'KB 퇴직연금': 2}, {'퇴직연금 서비스 ': 5}, {'퇴직연금 AI': 1}, {'퇴직연금 경쟁': 4}, {'퇴직연금 로보어드바이저': 3}, {'퇴직연금 수익률': 5}, {'퇴직연금 포트폴리오': 2}, {'퇴직연금 TDF': 3}, {'퇴직연금 자산배분': 6}, {'퇴직연금 가입': 14}, {'퇴직연금 채권': 2}, {'퇴직연금 라인업': 1}, {'퇴직연금 리츠': 2}]</t>
         </is>
       </c>
       <c r="K59" t="n">
@@ -6720,23 +6720,23 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>KB손해보험이 자산배분컨설팅을 제공하고 퇴직연금 상품 시장의 질적 개선을 추구하고 있다.</t>
+          <t>연금저축 사고보험금 중소기업퇴직연금기금에 대한 예금보호한도 개정안이 국무회의에서 의결됨</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>KB손해보험이 고용노동부 퇴직연금사업자 평가에서 우수사업자로 선정되어 고용노동부 장관상을 수상했다.</t>
+          <t>No information related to industry competition trends</t>
         </is>
       </c>
       <c r="O59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>No information related to financial market impact in the article.</t>
+          <t>No information related to financial market impact</t>
         </is>
       </c>
       <c r="Q59" t="n">
@@ -6744,31 +6744,31 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>No information related to legal and regulatory changes in the article.</t>
+          <t>No information related to legal and regulatory changes</t>
         </is>
       </c>
       <c r="S59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>The article mentions the importance of pension funds for long-term sustainability.</t>
+          <t>No information related to demographic change</t>
         </is>
       </c>
       <c r="U59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>KB손해보험이 디지털 기술을 활용하여 자산 배분 컨설팅을 제공하고 비대면 서비스를 개선하고 있다.</t>
+          <t>No information related to technology and digitalization</t>
         </is>
       </c>
       <c r="W59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>No specific information related to consumption behavior and requirements in the article.</t>
+          <t>No information related to consumption behavior and requirements</t>
         </is>
       </c>
     </row>
@@ -6785,30 +6785,30 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>KB손보</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>[인터뷰] KB손보가 퇴직연금으로 고용노동부 장관상을 받은 이유</t>
+          <t>퇴직연금도 커스터마이징… 실적배당형으로 다변화해야</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>KB손해보험은 퇴직연금 상품 시장의 질적 개선을 위해 자산배분컨설팅을 제공하고, 비대면으로 연금을 수령할 수 있는 시스템을 구축했다. 또한, KB손해보험이 고용노동부 퇴직연금사업자 평가에서 보험 부문 우수사업자로 선정되어 고용노동부 장관상을 수상했다.</t>
+          <t>KB손해보험은 퇴직연금 상품 시장의 질적 개선을 위해 자산배분컨설팅을 제공하고 비대면으로 연금 수령 시스템을 구축했다. KB손해보험이 고용노동부 퇴직연금사업자 평가에서 우수사업자로 선정되어 고용노동부 장관상을 수상했다.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005082968?sid=101</t>
+          <t>https://n.news.naver.com/mnews/article/014/0005083075?sid=101</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 이제는 퇴직연금도 커스터마이징이 필요하다. KB손해보험은 서류 작성 없이 비대면으로 원하는 시점에 연금을 수령할 수 있는 시스템을 구축했고 고객의 성향에 맞는 자산배분컨설팅을 실질적으로 제공하는 점이 좋은 평가를 받았다. 앞으로는 원리금보장형 상품에 매몰돼 있는 상품 구조를 실적배당형으로 다변화를 추구해 퇴직연금 상품 시장의 질적 개선을 이루겠다. KB손해보험 김유홍 연금사업본부장 전무은 9일 파이낸셜뉴스와 인터뷰에서 KB손해보험이 2023년 고용노동부 퇴직연금사업자 평가에서 보험 부문 우수사업자로 고용노동부 장관상을 수상하게 된 이유와 향후 포부를 이같이 밝혔다. KB손해보험은 고용노동부의 2023년 우수 퇴직연금사업자 평가에서 상품운용역량 조직서비스역량 교육 정보제공 역량에서 높은 점수을 받으면서 보험 부문에서 장관상을 거머쥐었다. 김유홍 본부장은 정성적인 부문에서 압도적으로 높은 점수를 받았다면서 숫자 실적 등 사업자가 가장 관심 있는 양적 성장보다 고객이 원하는 상품 추천 은퇴 시점에서 고객에게 맞는 연금 설계 시스템 환경 등 정성적이고 질적 서비스를 업그레이드하는 데 가장 중점을 뒀다고 강조했다. 실제 KB손해보험이 지난해 말 김기환 대표이사 판단으로 보험사 중 선도적으로 신설한 연금자산컨설팅파트는 질적 서비스 개선을 최우선 목표로 세웠다. 또 장기적 관점에서 고객에게 우수한 서비스를 제공하기 위해 인프라 투자를 단행했다. 약 300조원 규모의 퇴직연금 시장은 이미 레드오션으로 경쟁이 치열하고 금리 싸움만으로는 오프라인 판매 채널을 갖춘 은행이나 퇴직연금 상품만 1000개에 달하는 증권사를 이길 수 없다는 판단에서다. 우선 총 2년에 거쳐 모바일과 웹을 전면 개편해 퇴직연금을 이용하는 비대면 고객의 편의성을 높였다. 지점 방문이 어려운 바쁜 직장인을 위해서 논스톱 연금상담 서비스도 도입했다. 여기에 연금자산컨설팅파트는 자산배분컨설팅을 강화하기 위해 연금상품을 개발하고 관리할 수 외부 전문인력 뿐만 아니라 은퇴 생활자에게 꼭 필요한 건강보험료 절세 정보 등을 종합적으로 제공하기 위해 세무사 등 분야별 전문가로만 구성됐다. 상품 라인업도 12개에서 국내 해외 채권형 주식형 리츠 TDF 등 핵심 상품만 105개까지 확대됐다. 김 본부장은 라인업을 더 확대하지 않고 좋은 상품 중에서 지속적으로 성과 평가를 하고 고객 투자 성향에 맞게 상품을 제시하고 있다면서 고객 수익률은 한 번에 갑자기 올라가는 것이 아니지만 최소한 물가상승률 이상으로 최소한 연 56 수익률을 낼 수 있도록 포트폴리오 구축을 하고 있다고 설명했다. KB손해보험이 질적 서비스 개선을 위해 노력한 결실은 숫자로도 입증됐다. 지난 7월 고용노동부에서 발표한 디폴트옵션 수익률 6개월 부문에서 KB손해보험 디폴트옵션 중위험 TDF1이 9.33의 수익률을 기록 중위험 상품 중 1위를 차지한 것이다. 디폴트옵션 가입률 역시 현재 73로 전 업권 통틀어 1위를 기록하고 있다. 김 본부장은 정부에서 디폴트옵션 시행하기 전 유예기간을 줄 때부터 전 단계를 준비해서 올해 초에 디폴트옵션을 고객에게 발빠르게 선보였고 마케팅도 빨리 진행했다면서 이 역시 질적 서비스를 신경쓴 결과라고 말했다. 앞으로도 KB손해보험은 차별화된 자산 배분 컨설팅을 제공하기 위해 AI 로보어드바이저 등 최신 디지털 기술을 접목하는 한편 고객 수요가 많은 채권 상품도 라인업할 계획이다. 또 디지털 취약 계층을 위한 대면과 비대면의 중간 채널인 하이브리드 채널 신설도 검토하고 있다. 김 본부장은 보험사는 비대면 채널을 강화할 수 밖에 없지만 디지털 취약 계층을 고려한 하이브리드 채널도 검토하고 있다면서 올해 채권을 투자하기 좋은 시기인 만큼 국채 회사채 지방채 등 채권 상품 라인업을 통해 고객에게 제공하기 위해 준비 중이라고 말했다.</t>
+          <t xml:space="preserve"> 이제는 퇴직연금도 커스터마이징이 필요하다. KB손해보험은 서류 작성 없이 비대면으로 원하는 시점에 연금을 수령할 수 있는 시스템을 구축했고 고객의 성향에 맞는 자산배분컨설팅을 실질적으로 제공하는 점이 좋은 평가를 받았다. 앞으로는 원리금보장형 상품에 매몰돼 있는 상품 구조를 실적배당형으로 다변화를 추구해 퇴직연금 상품 시장의 질적 개선을 이루겠다. KB손해보험 김유홍 연금사업본부장 전무사진은 9일 파이낸셜뉴스와 인터뷰에서 KB손해보험이 2023년 고용노동부 퇴직연금사업자 평가에서 보험 부문 우수사업자로 고용노동부 장관상을 수상하게 된 이유와 향후 포부를 이같이 밝혔다. KB손해보험은 고용노동부의 2023년 우수 퇴직연금사업자 평가에서 상품운용역량 조직서비스역량 교육 정보제공 역량에서 높은 점수을 받아 보험 부문 장관상을 거머쥐었다. 김유홍 본부장은 정성적인 부문에서 압도적으로 높은 점수를 받았다면서 숫자 실적 등 사업자가 가장 관심 있는 양적 성장보다 고객이 원하는 상품 추천 은퇴 시점에서 고객에게 맞는 연금 설계 시스템 환경 등 정성적이고 질적 서비스를 업그레이드하는 데 가장 중점을 뒀다고 강조했다. 실제 KB손해보험이 지난해 말 김기환 대표이사 판단으로 보험사 중 선도적으로 신설한 연금자산컨설팅파트는 질적 서비스 개선을 최우선 목표로 세웠다. 또 장기적 관점에서 고객에게 우수한 서비스를 제공하기 위해 인프라 투자를 단행했다. 약 300조원 규모의 퇴직연금 시장은 이미 레드오션으로 경쟁이 치열하고 금리 싸움만으로는 오프라인 판매 채널을 갖춘 은행이나 퇴직연금 상품만 1000개에 달하는 증권사를 이길 수 없다는 판단에서다. 우선 총 2년에 거쳐 모바일과 웹을 전면 개편해 퇴직연금을 이용하는 비대면 고객의 편의성을 높였다. 지점 방문이 어려운 바쁜 직장인을 위해서 논스톱 연금상담 서비스도 도입했다. 여기에 연금자산컨설팅파트는 자산배분컨설팅을 강화하기 위해 연금상품을 개발하고 관리할 수 외부 전문인력 뿐만 아니라 은퇴 생활자에게 꼭 필요한 건강보험료 절세 정보 등을 종합적으로 제공하기 위해 세무사 등 분야별 전문가로만 구성됐다. 상품 라인업도 12개에서 국내 해외 채권형 주식형 리츠 TDF 등 핵심 상품만 105개까지 확대됐다. 김 본부장은 라인업을 더 확대하지 않고 좋은 상품 중에서 지속적으로 성과 평가를 하고 고객 투자 성향에 맞게 상품을 제시하고 있다면서 고객 수익률은 한 번에 갑자기 올라가는 것이 아니지만 최소한 물가상승률 이상으로 최소한 연 56 수익률을 낼 수 있도록 포트폴리오 구축을 하고 있다고 설명했다. KB손해보험이 질적 서비스 개선을 위해 노력한 결실은 숫자로도 입증됐다. 지난 7월 고용노동부에서 발표한 디폴트옵션 수익률 6개월 부문에서 KB손해보험 디폴트옵션 중위험 TDF1이 9.33의 수익률을 기록 중위험 상품 중 1위를 차지한 것이다. 디폴트옵션 가입률 역시 현재 73로 전 업권 통틀어 1위를 기록하고 있다. 김 본부장은 정부에서 디폴트옵션 시행하기 전 유예기간을 줄 때부터 전 단계를 준비해서 올해 초에 디폴트옵션을 고객에게 발빠르게 선보였고 마케팅도 빨리 진행했다면서 이 역시 질적 서비스를 신경쓴 결과라고 말했다. 앞으로도 KB손해보험은 차별화된 자산 배분 컨설팅을 제공하기 위해 AI 로보어드바이저 등 최신 디지털 기술을 접목하는 한편 고객 수요가 많은 채권 상품도 라인업할 계획이다. 또 디지털 취약 계층을 위한 대면과 비대면의 중간 채널인 하이브리드 채널 신설도 검토하고 있다. 김 본부장은 보험사는 비대면 채널을 강화할 수 밖에 없지만 디지털 취약 계층을 고려한 하이브리드 채널도 검토하고 있다면서 올해 채권을 투자하기 좋은 시기인 만큼 국채 회사채 지방채 등 채권 상품 라인업을 통해 고객에게 제공하기 위해 준비 중이라고 말했다. gogosingfnnews.com 박소현 김예지 기자</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -6818,7 +6818,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>[{'디폴트옵션': 8}, {'퇴직연금 사업자': 8}, {'퇴직연금 은퇴설계': 9}, {'퇴직연금 규모': 10}, {'퇴직연금 수상': 9}, {'퇴직연금 고용노동부': 1}, {'KB 퇴직연금': 8}, {'퇴직연금 서비스 ': 14}, {'퇴직연금 AI': 9}, {'퇴직연금 경쟁': 8}, {'퇴직연금 로보어드바이저': 9}, {'퇴직연금 수익률': 11}, {'퇴직연금 포트폴리오': 9}, {'퇴직연금 TDF': 8}, {'퇴직연금 자산배분': 12}, {'퇴직연금 가입': 17}, {'퇴직연금 채권': 10}, {'퇴직연금 라인업': 9}, {'퇴직연금 리츠': 8}]</t>
+          <t>[{'디폴트옵션': 2}, {'퇴직연금 사업자': 1}, {'퇴직연금 은퇴설계': 2}, {'퇴직연금 규모': 3}, {'퇴직연금 수상': 1}, {'퇴직연금 고용노동부': 8}, {'KB 퇴직연금': 2}, {'퇴직연금 서비스 ': 5}, {'퇴직연금 AI': 1}, {'퇴직연금 경쟁': 4}, {'퇴직연금 로보어드바이저': 3}, {'퇴직연금 수익률': 5}, {'퇴직연금 포트폴리오': 2}, {'퇴직연금 TDF': 3}, {'퇴직연금 자산배분': 6}, {'퇴직연금 가입': 14}, {'퇴직연금 채권': 2}, {'퇴직연금 라인업': 1}, {'퇴직연금 리츠': 2}]</t>
         </is>
       </c>
       <c r="K60" t="n">
@@ -6826,7 +6826,7 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>KB손해보험은 자산배분컨설팅을 제공하고 퇴직연금 상품 시장의 질적 개선을 추구하고 있다.</t>
+          <t>KB손해보험이 자산배분컨설팅을 제공하고 퇴직연금 상품 시장의 질적 개선을 추구하고 있다.</t>
         </is>
       </c>
       <c r="M60" t="n">
@@ -6834,7 +6834,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>KB손해보험은 고용노동부 퇴직연금사업자 평가에서 보험 부문 우수사업자로 선정되어 경쟁력을 갖추고 있다.</t>
+          <t>KB손해보험이 고용노동부 퇴직연금사업자 평가에서 우수사업자로 선정되어 고용노동부 장관상을 수상했다.</t>
         </is>
       </c>
       <c r="O60" t="n">
@@ -6842,7 +6842,7 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>KB손해보험은 비대면으로 연금을 수령할 수 있는 시스템을 구축하여 퇴직연금 시장의 디지털화에 기여하고 있다.</t>
+          <t>No information related to financial market impact in the article.</t>
         </is>
       </c>
       <c r="Q60" t="n">
@@ -6850,15 +6850,15 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>No information provided in the article about legal and regulatory changes.</t>
+          <t>No information related to legal and regulatory changes in the article.</t>
         </is>
       </c>
       <c r="S60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>No information provided in the article about demographic changes.</t>
+          <t>The article mentions the importance of pension funds for long-term sustainability.</t>
         </is>
       </c>
       <c r="U60" t="n">
@@ -6866,7 +6866,7 @@
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>KB손해보험은 디지털 기술을 활용하여 자산 배분 컨설팅을 제공하고 비대면 서비스를 개선하고 있다.</t>
+          <t>KB손해보험이 디지털 기술을 활용하여 자산 배분 컨설팅을 제공하고 비대면 서비스를 개선하고 있다.</t>
         </is>
       </c>
       <c r="W60" t="n">
@@ -6874,7 +6874,7 @@
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>KB손해보험은 고객의 투자 성향에 맞게 상품을 제시하고 고객 요구에 맞춰 서비스를 개선하고 있다.</t>
+          <t>No specific information related to consumption behavior and requirements in the article.</t>
         </is>
       </c>
     </row>
@@ -6886,22 +6886,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>퇴직연금 제도</t>
+          <t>퇴직연금 상품</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>KB손보</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>“아프니까 사장이다”…녹다운 자영업자 [벼랑 끝에 선 자영업]</t>
+          <t>[인터뷰] KB손보가 퇴직연금으로 고용노동부 장관상을 받은 이유</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>자영업자들 사이에선 폐업밖에 답이 없다는 말이 나돈다. 한국의 자영업자 비율은 높으며, 경쟁이 심화되고 경영난을 겪고 있다. 고령층의 자영업 진출 증가 경향이 지속 확대될 것으로 보인다.</t>
+          <t>KB손해보험은 퇴직연금 상품 시장의 질적 개선을 위해 자산배분컨설팅을 제공하고, 비대면으로 연금을 수령할 수 있는 시스템을 구축했다. 또한, KB손해보험이 고용노동부 퇴직연금사업자 평가에서 보험 부문 우수사업자로 선정되어 고용노동부 장관상을 수상했다.</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -6909,22 +6909,22 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/050/0000068692?sid=101</t>
+          <t>https://n.news.naver.com/mnews/article/014/0005082968?sid=101</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 코로나19 사태 때도 이 정도는 아니었어요. 밤 10시 시간 제한 때보다 상황이 심각해요. 지금 다 녹다운이에요. 경기도 고양시에서 식당을 하는 장은영 42 씨는 하루하루 피가 마를 지경이라고 했다. 요식업 10년 차 잔뼈가 굵은 베테랑이지만 최근 가게 사정은 최악이다. 그는 적자를 감수하고 문을 여는데 언제까지 버틸 수 있을지 모르겠다고 말했다. PART1 9월 위기설 끝난 게 아니다 자영업자들이 벼랑 끝에 몰렸다. 정부가 나서 9월 자영업자 대란설은 전혀 근거가 없다고 못 박았지만 체감은 다르다. 자영업자 140만여 명이 활동하는 온라인 커뮤니티 아프니까 사장이다에는 하루에도 몇 건씩 폐업 관련 글이 올라온다. 이제 장사 그만하게 되었습니다 이번 주 고비입니다 6년 카페 폐업합니다 매출이 점점 더 떨어집니다. 무섭습니다.지난 9월 자영업자 대란설 이른바 9월 위기설은 정부가 코로나19 지원 대책으로 각종 대출에 만기 연장과 상환 유예를 해준 조치들이 9월이면 종료돼 잠재된 부실이 한꺼번에 폭발할 것이라는 우려에서 불거졌다.정부는 우려를 일축했다. 한덕수 국무총리는 6월 13일 국회에서 열린 경제 분야 대정부 질문에서 상환 유예 차주의 98가 상환 계획서 작성을 끝냈다며 이에 속하지 않는 일부 부실 가능성이 있는 차주는 30조원 정도의 기금을 통해 재무 조정을 해 나갈 예정이라고 설명했다. 추경호 경제부총리 겸 기획재정부 장관 또한 코로나19 피해 자영업자소상공인 대출의 경우 전체 대상 채무가 당초 100조원에서 76조원으로 감소하는 등 연착륙이 순조롭게 진행 중이라며 9월 자영업자 대란설은 전혀 근거가 없다고 강조했다.현장의 분위기는 다르다. 자영업자들 사이에선 폐업밖에 답이 없다는 말이 나돈다. 9월 위기설이 끝난 게 아니라 9월부터 터져나가기 시작한다는 의미였단 자조도 나온다. 수치도 심상치 않다. 자영업자 비율은 통계를 작성한 이후 처음으로 20 선을 밑돌았다. 통계청에 따르면 지난 2분기 전체 취업자 중 자영업자가 차지하는 비율은 19.9를 기록했다. 1963년 37를 넘은 뒤 차츰 줄어들면서 지난해 말 20.1대로 내려왔고 분기 기준 20대 아래는 이번이 처음이다.문제는 자영업자의 질이다. 직원 한 명도 없는 나 홀로 자영업자가 늘고 있다. 자영업자는 통상 독자적으로 사업하는 개인 사업자 또는 소규모 사업자를 지칭하는데 통계에서도 고용원이 있나 없나로 자영업자를 세분화한다.이 중 고용원이 없는 자영업자의 비율이 높아지고 있다. 올해 8월 기준 578만4000명의 자영업자 중 고용원이 없는 1인 자영업자는 437만 명으로 전체의 75.6를 차지했다. 코로나19 발발 이전까지는 70 초반대를 기록했지만 코로나19 사태가 발발한 2020년부터 75를 넘긴 이후 나 홀로 자영업자의 비율은 좀처럼 낮아지지 않고 있다.고용원 없는 자영업자 수의 증가는 자영업의 위기를 보여주는 지표다. 자영업자가 경영난에 처하면 인건비를 가장 먼저 줄인다. 이 때문에 고용원이 없는 자영업자가 늘어나고 이마저도 버티지 못하면 폐업에 이르는 수순이다. 마지현 파이터치연구원 수석연구원은 고용원이 있는 자영업자들이 늘어난 인건비를 감당하기 어려워 직원을 해고하게 됨에 따라 상당수의 고용원이 있는 자영업자가 고용원이 없는 자영업자가 된다고 말했다.경기도 광명시에서 분식점을 운영하는 최영균 52가명 씨도 최근 나 홀로 자영업자가 됐다. 코로나19 시간 제한과 최저임금 인상으로 2022년부터 경영난에 처했던 최 씨는 고금리고물가 폭탄에 지난 6월 직원에 이어 알바생마저 정리했다. 최 씨는 버티고 버티다 물가 폭등에 더는 버틸 수 없어 혼자 하게 됐다며 나 홀로 하다가 조금 바빠지면 아내 더 바빠지면 자녀들을 불러 일을 분담하고 있다고 말했다.최 씨를 항복시킨 것은 고금리고물가다. 올해 3월 임대 계약 만료를 앞두고 건물주는 월세 10 인상을 통보했다. 코로나19 위기 때 월세를 올리지 않는 등 주변 시세보다 싸게 받았지만 금리인상으로 더는 버틸 수 없다는 게 건물주의 말이다. 더 큰 난관은 물가다. 전기료가스비재료비 모두 턱없이 올라 임대료와 공과금 여기에 인건비를 주고나면 마이너스 신세다. 최 씨는 분식점 특성상 음식 값을 올릴 수도 없어 하루 10만원의 매출 올리기도 어려운 날이 많았다며 재료비를 마련하려고 장사하는 기분이었다고 토로했다. PART2 과당 경쟁 후진국 규모위기의 자영업 자영업의 추락과 같은 표현들은 업계를 묘사해 온 단골 소재였다. 그만큼 자영업자의 위기는 어제오늘의 일이 아니다. 한국개발연구원 KDI에 따르면 1997년 외환 위기와 2003년 신용카드 대란 2008년 글로벌 금융 위기 등 굵직한 거시 경제 충격과 소비 침체가 닥칠 때마다 자영업은 큰 폭으로 출렁였다. 이진국 KDI 연구위원은 국내 자영업의 위기는 코로나19 사태가 발생하기 훨씬 이전부터 존재해 현재까지 지속되는 추세적 현상으로 바라보는 것이 합당할 것이라고 설명했다.자영업계의 경영난은 왜 이렇게 오래도록 지속되고 있는 것일까. 우리 경제의 체질이나 구조와 연관돼 있는 것은 아닐까.경기도 화성시에서 마라탕 음식점을 운영하던 김영미 56가명 씨는 지난 7월 탕후루로 업종을 변경했다. 탕후루 프랜차이즈의 마진율이 좋다는 소식에 유행이 식기 전 빠르게 손님 잡기에 나서겠다는 판단이었다. 그가 개점할 때만 해도 반경 5km 내에 동일 업종이 없었지만 지금은 2km 이내에 탕후루 매장만 3개가 들어섰다. 매출도 반 토막이다. 오픈 초창기에는 줄 서서 구매할 정도로 인기를 끌었지만 지금은 방과 후에나 시끌벅적하다.A 씨의 사례는 한국 자영업의 문제를 그대로 보여준다. 과당 경쟁이다. 공정거래위원회 가맹 사업 거래에 등록된 탕후루 프랜차이즈는 모두 6곳이다. 이 중 가장 큰 규모를 자랑하는 곳은 달콤나라앨리스가 운영하는 왕가탕후루다. 이곳은 지난해 43곳에 불과했지만 올 들어 가맹점을 크게 늘리며 현재 420곳의 매장을 운영하고 있다.인근 유사 점포의 난립과 경쟁 심화는 자영업자의 경영난을 가져오는 근본적인 요인이다. 한국의 자영업자 규모는 장기적으로 보면 지속 감소 추세다. 하지만 타국과 비교하면 한국의 자영업자 비율은 이례적으로 높다. 2022년 경제협력개발기구 OECD의 자영업자 selfemployment자영업자무급 가족 종사자를 기준으로 한국의 자영업자 비율은 23.5다. OECD 국가 35개국 중 여덟째로 높았다.미국 6.6 2021년 기준 독일 8.7 일본 9.6 등 주요국과 비교하면 차이가 큰 편이다. 반면 한국보다 자영업 비율이 높은 국가는 콜롬비아 53.1 2021년 기준 브라질 32.1 멕시코 31.8 그리스 30.3 튀르키예 30.2 코스타리카 26.5 칠레 24.8로 중남미 국가가 많다. 제조업이 제대로 발전하지 못했거나 관광 산업이 높은 비율을 차지해 자영업자가 많을 수밖에 없는 나라다. 높은 비율의 자영업자는 정체되거나 쇠락하는 경제의 상징이다. 많은 연구에서 산업화의 정도가 미흡하거나 노동 시장이 유연하지 못하거나 개인 소득세나 사회 보장 분담금이 많다거나 실업급여 수준이 낮다거나 조세 회피 가능성이 높으면 자영업자 비율이 높은 것으로 보고하고 있다.실제 중남미는 인플레이션 속에 쇠락의 길을 걷으면서 빈곤층의 자영업 비율이 높다. 그리스 또한 2009년 경제 위기를 겪은 후 구제 금융 프로그램을 받을 정도로 경제 상황이 최악으로 치달았다.반면 한국은 선진국이다. 2021년 국제 사회에서 선진국 지위를 공인받았다. 그해 7월 개최된 제68차 유엔무역개발협의회 UNCTAD 무역개발이사회는 대한민국의 지위를 그룹 A 아시아아프리카에서 그룹 B 선진국로 변경하는 것을 만장일치로 가결했다. 작년 1인당 국민소득이 3만2886달러 약 4248만원인데 경제가 쇠락하거나 산업화의 정도가 미흡해 자영업자의 비율이 높다는 주장은 어불성설이다.그래서 전문가들은 노동 시장 경직과 사회적 자본 사회 안전망이 취약하다는 점을 한국의 자영업자 비율이 높은 이유로 제시한다. 홍성국 더불어민주당 의원은 그의 저서 수축사회에서 이같이 지적했다.지금의 한국을 만든 소득 주도 성장 정책은 사회적 자본이 빈약한 상태에서 경제를 성장시키려는 고육지책으로 나왔다. 60여 년 동안 수출 주도 성장에 매진하면서 한국이 이룬 성장은 가히 역대급이다. 하지만 시야가 좁았다. 성장에만 주력한 결과 경제를 떠받치는 사회적 자본 축적에는 관심을 두지 못했다. 내수 경제 중소기업과 자영업자와 수출 대기업 경기 간에 간극이 벌어지고 있다. 특히 한국은 자영업과 중소기업의 고용 비율이 높기 때문에 양극화의 직격탄을 맞을 수밖에 없는 구조다.수출 주도 성장에만 주력한 결과 한국 경제는 고용 인구를 모두 흡수하지 못했다. 임금 노동자에 흡수되지 못한 고용 인구는 내수 시장에서 중소기업과 자영업으로 분산됐다. 한국의 높은 자영업자 비율은 지연된 산업화의 결과라고 봐도 무방하다. 선진국의 자영업자 비율이 상대적으로 낮은 것도 한국의 대표 산업 도시인 울산 지역의 자영업자 비율이 전국에서 둘째로 낮은 것 1위는 세종시도 이를 보여주는 대목이다. PART3 고령화 시대 뇌관은 자영업자영업자 비율이 높은 것은 국가 전체적으로 보면 위험성이 크다. 자영업이 어려워지면 다시 일자리가 줄어들고 소비가 줄어드는 악순환에 빠진다.중소벤처기업부에 따르면 소상공인을 위한 퇴직금으로 통하는 노란우산 공제의 폐업 공제금은 올해 1월부터 7월까지 7만4191건 지급된 것으로 나타났다. 역대 최고치였던 2021년 지급 건수가 9만9388건이라는 점을 감안하면 올해 지급 건수는 이를 넘어설 가능성이 높다. 노란우산 공제는 소상공인이 매달 일정 금액을 납부하다가 폐업할 때 기존에 납입한 돈에 이자를 더해 돌려받는 제도다. 즉 지급 건수가 많을수록 폐업한 업체가 많다는 의미다. 노란우산 공제에 가입하지 않은 자영업자도 있는 점을 고려하면 실제 소상공인 폐업 건수는 이보다 더 많을 것으로 추산된다.더 큰 뇌관은 고령화다. 은퇴 이후 재취업이 안 되는 고령자들은 생계를 이어 가기 위해 창업 전선에 뛰어드는 경향이 짙다. 하지만 고령 자영업자의 고용의 질은 형편없었다.한국경제인협회에 따르며 최근 5개년간 20172021년 15세 이상 전체 자영업자 수는 3.2 감소한 반면 60세 이상 자영업자는 21.4나 증가했다. 특히 2021년 60세 이상 자영업자 10명 중 9명 87.2은 고용원이 없는 나 홀로 자영업자였다.대부분의 고령 자영업자들은 부족한 창업 자금을 가지고 철저한 시장 조사 없이 급박하게 사업을 시작했고 무한 경쟁의 자영업 시장에서 최저임금 수준도 벌지 못했던 것으로 나타났다. 2021년 8월 기준으로 1년 이내 사업을 시작한 60세 이상 자영업자 10명 중 4명 43.0은 500만원 미만으로 창업했으며 64.5는 창업 준비 기간이 13개월 미만이었다 통계청 비임금 근로 부가 조사.월평균 영업이익 또한 세대 중 가장 낮았다. 2019년 기준 월평균 영업이익이 최저임금 주40시간 기준 174.5만원보다 낮은 소상공인 비율은 60세 이상이 53.6로 가장 높았고 다음은 50대 37.3다.고령화로 노동 시장에 머무르는 기간이 길어지면서 고령층의 자영업 진출 증가 경향이 지속 확대될 것으로 보인다. 세계에서 손꼽히는 초고령 국가 일본은 이미 고령층에서 자영업자 비율이 최고치를 찍었다. 2016년에 이미 전체 자영업자의 35.9 가족 종사자까지 포함하면 41.6가 고령자다.하지만 고령층의 열악한 고용 여건을 개선하기 위한 장기간의 정책적 노력에도 불구하고 일본은 여전히 당면 과제를 해결하지 못하고 있는 상황이다.전문가들은 고령화 시대 자영업자 문제는 사회 구조적 문제임을 지적한다. 한국은행은 일본 고령층 고용의 3대 특징과 시사점 보고서를 발표하며 한국 노인 세대의 경제 여건은 일본에 비해서도 매우 열악하고 생계 유지를 위한 노동이 불가피하다는 점을 고려할 때 1020년의 중장기적인 시각에서 종합적인 대책을 마련해 일관성 있게 지속적으로 추진하는 것이 중요하다고 밝혔다다.우리는 어떠한 방안이 있을까. 2018년 국회 산업통상자원 중소벤처기업위원회는 골목 상권 활성화 방안을 듣기 위해 외식 전문가인 백종원 더본코리아 대표를 국회로 불렀다. 5년이 지난 지금도 백종원 매직은 그칠 줄 모른다. 자영업자의 구원투수가 정부가 아닌 백종원 대표란 우스갯소리도 나온다. TV과 유튜브에서는 자영업자를 살리는 제2의 백종원 프로그램이 화제다. 손대면 핫플 동네멋집 장사의 신 등등이다.홍성국 의원은 그의 저서에서 자영업자의 쇠퇴는 사회적 변화가 원인이지 아이디어 차원의 문제가 아니다며 더 큰 변화의 필요성을 강조한다. 전문가들 또한 장기적 관점에서 자영업의 부작용을 막기 위해 질적 성장과 부작용을 줄이는 방안을 모색해야 한다고 조언한다. 위기의 자영업자를 위한 진짜 구원투수가 필요한 시기다. 아프니까 사장이다녹다운 자영업자순수익 1000만원에서 마이너스 됐다자영업자 위기유동성 스쳐간 자리엔 공실뿐자영업자 쓰러지자 텅 빈 상권아파트 이어 상가 거래도 뚝 공인중개사 10개월간 1만2500개 폐업</t>
+          <t xml:space="preserve"> 이제는 퇴직연금도 커스터마이징이 필요하다. KB손해보험은 서류 작성 없이 비대면으로 원하는 시점에 연금을 수령할 수 있는 시스템을 구축했고 고객의 성향에 맞는 자산배분컨설팅을 실질적으로 제공하는 점이 좋은 평가를 받았다. 앞으로는 원리금보장형 상품에 매몰돼 있는 상품 구조를 실적배당형으로 다변화를 추구해 퇴직연금 상품 시장의 질적 개선을 이루겠다. KB손해보험 김유홍 연금사업본부장 전무은 9일 파이낸셜뉴스와 인터뷰에서 KB손해보험이 2023년 고용노동부 퇴직연금사업자 평가에서 보험 부문 우수사업자로 고용노동부 장관상을 수상하게 된 이유와 향후 포부를 이같이 밝혔다. KB손해보험은 고용노동부의 2023년 우수 퇴직연금사업자 평가에서 상품운용역량 조직서비스역량 교육 정보제공 역량에서 높은 점수을 받으면서 보험 부문에서 장관상을 거머쥐었다. 김유홍 본부장은 정성적인 부문에서 압도적으로 높은 점수를 받았다면서 숫자 실적 등 사업자가 가장 관심 있는 양적 성장보다 고객이 원하는 상품 추천 은퇴 시점에서 고객에게 맞는 연금 설계 시스템 환경 등 정성적이고 질적 서비스를 업그레이드하는 데 가장 중점을 뒀다고 강조했다. 실제 KB손해보험이 지난해 말 김기환 대표이사 판단으로 보험사 중 선도적으로 신설한 연금자산컨설팅파트는 질적 서비스 개선을 최우선 목표로 세웠다. 또 장기적 관점에서 고객에게 우수한 서비스를 제공하기 위해 인프라 투자를 단행했다. 약 300조원 규모의 퇴직연금 시장은 이미 레드오션으로 경쟁이 치열하고 금리 싸움만으로는 오프라인 판매 채널을 갖춘 은행이나 퇴직연금 상품만 1000개에 달하는 증권사를 이길 수 없다는 판단에서다. 우선 총 2년에 거쳐 모바일과 웹을 전면 개편해 퇴직연금을 이용하는 비대면 고객의 편의성을 높였다. 지점 방문이 어려운 바쁜 직장인을 위해서 논스톱 연금상담 서비스도 도입했다. 여기에 연금자산컨설팅파트는 자산배분컨설팅을 강화하기 위해 연금상품을 개발하고 관리할 수 외부 전문인력 뿐만 아니라 은퇴 생활자에게 꼭 필요한 건강보험료 절세 정보 등을 종합적으로 제공하기 위해 세무사 등 분야별 전문가로만 구성됐다. 상품 라인업도 12개에서 국내 해외 채권형 주식형 리츠 TDF 등 핵심 상품만 105개까지 확대됐다. 김 본부장은 라인업을 더 확대하지 않고 좋은 상품 중에서 지속적으로 성과 평가를 하고 고객 투자 성향에 맞게 상품을 제시하고 있다면서 고객 수익률은 한 번에 갑자기 올라가는 것이 아니지만 최소한 물가상승률 이상으로 최소한 연 56 수익률을 낼 수 있도록 포트폴리오 구축을 하고 있다고 설명했다. KB손해보험이 질적 서비스 개선을 위해 노력한 결실은 숫자로도 입증됐다. 지난 7월 고용노동부에서 발표한 디폴트옵션 수익률 6개월 부문에서 KB손해보험 디폴트옵션 중위험 TDF1이 9.33의 수익률을 기록 중위험 상품 중 1위를 차지한 것이다. 디폴트옵션 가입률 역시 현재 73로 전 업권 통틀어 1위를 기록하고 있다. 김 본부장은 정부에서 디폴트옵션 시행하기 전 유예기간을 줄 때부터 전 단계를 준비해서 올해 초에 디폴트옵션을 고객에게 발빠르게 선보였고 마케팅도 빨리 진행했다면서 이 역시 질적 서비스를 신경쓴 결과라고 말했다. 앞으로도 KB손해보험은 차별화된 자산 배분 컨설팅을 제공하기 위해 AI 로보어드바이저 등 최신 디지털 기술을 접목하는 한편 고객 수요가 많은 채권 상품도 라인업할 계획이다. 또 디지털 취약 계층을 위한 대면과 비대면의 중간 채널인 하이브리드 채널 신설도 검토하고 있다. 김 본부장은 보험사는 비대면 채널을 강화할 수 밖에 없지만 디지털 취약 계층을 고려한 하이브리드 채널도 검토하고 있다면서 올해 채권을 투자하기 좋은 시기인 만큼 국채 회사채 지방채 등 채권 상품 라인업을 통해 고객에게 제공하기 위해 준비 중이라고 말했다.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>['퇴직금 제도', '퇴직소득세']</t>
+          <t>['디폴트옵션', '퇴직연금 사업자', '퇴직연금 은퇴설계', '퇴직연금 규모', '퇴직연금 수상', '퇴직연금 고용노동부', 'KB 퇴직연금', '퇴직연금 서비스 ', '퇴직연금 AI', '퇴직연금 경쟁', '퇴직연금 로보어드바이저', '퇴직연금 수익률', '퇴직연금 포트폴리오', '퇴직연금 TDF', '퇴직연금 자산배분', '퇴직연금 가입', '퇴직연금 채권', '퇴직연금 라인업', '퇴직연금 리츠']</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>[{'퇴직금 제도': 32}, {'퇴직소득세': 46}]</t>
+          <t>[{'디폴트옵션': 8}, {'퇴직연금 사업자': 8}, {'퇴직연금 은퇴설계': 9}, {'퇴직연금 규모': 10}, {'퇴직연금 수상': 9}, {'퇴직연금 고용노동부': 1}, {'KB 퇴직연금': 8}, {'퇴직연금 서비스 ': 14}, {'퇴직연금 AI': 9}, {'퇴직연금 경쟁': 8}, {'퇴직연금 로보어드바이저': 9}, {'퇴직연금 수익률': 11}, {'퇴직연금 포트폴리오': 9}, {'퇴직연금 TDF': 8}, {'퇴직연금 자산배분': 12}, {'퇴직연금 가입': 17}, {'퇴직연금 채권': 10}, {'퇴직연금 라인업': 9}, {'퇴직연금 리츠': 8}]</t>
         </is>
       </c>
       <c r="K61" t="n">
@@ -6932,7 +6932,7 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>자영업자들의 경영난과 경쟁 심화에 대한 언급이 있으며, 이는 연금 기금 관리 전략과 금융 시장 변동의 영향을 분석하는 데 도움이 될 수 있다.</t>
+          <t>KB손해보험은 자산배분컨설팅을 제공하고 퇴직연금 상품 시장의 질적 개선을 추구하고 있다.</t>
         </is>
       </c>
       <c r="M61" t="n">
@@ -6940,7 +6940,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>자영업자의 폐업과 경쟁 심화에 대한 언급이 있으며, 이는 연금 기업 간의 경쟁 동향을 파악하는 데 도움이 될 수 있다.</t>
+          <t>KB손해보험은 고용노동부 퇴직연금사업자 평가에서 보험 부문 우수사업자로 선정되어 경쟁력을 갖추고 있다.</t>
         </is>
       </c>
       <c r="O61" t="n">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>금융 시장 변동이 자영업자에게 미치는 영향에 대한 언급이 있으나, 자세한 분석은 제공되지 않았다.</t>
+          <t>KB손해보험은 비대면으로 연금을 수령할 수 있는 시스템을 구축하여 퇴직연금 시장의 디지털화에 기여하고 있다.</t>
         </is>
       </c>
       <c r="Q61" t="n">
@@ -6956,31 +6956,31 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>법률 및 규제 변경에 대한 언급이 없다.</t>
+          <t>No information provided in the article about legal and regulatory changes.</t>
         </is>
       </c>
       <c r="S61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>고령화 시대에 자영업자의 비율이 높아질수록 경제의 위험성이 커지고, 소상공인 폐업 건수도 증가한다는 언급이 있다.</t>
+          <t>No information provided in the article about demographic changes.</t>
         </is>
       </c>
       <c r="U61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>기술과 디지털화에 대한 언급이 없다.</t>
+          <t>KB손해보험은 디지털 기술을 활용하여 자산 배분 컨설팅을 제공하고 비대면 서비스를 개선하고 있다.</t>
         </is>
       </c>
       <c r="W61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>소비 행동 및 요구사항에 대한 언급이 없다.</t>
+          <t>KB손해보험은 고객의 투자 성향에 맞게 상품을 제시하고 고객 요구에 맞춰 서비스를 개선하고 있다.</t>
         </is>
       </c>
     </row>
@@ -7002,75 +7002,75 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>예금자보호한도 5000만원 유지 가닥…금융위 시장상황 등 고려</t>
+          <t>“아프니까 사장이다”…녹다운 자영업자 [벼랑 끝에 선 자영업]</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>예금자 보호 한도 상향 조정이 불발될 전망. 금융위원회는 상향 여부를 검토할 필요가 있다고 밝혔다. 예금자 보호 한도 상향 개정안은 다양한 내용을 포함하고 있다.</t>
+          <t>자영업자들 사이에선 폐업밖에 답이 없다는 말이 나돈다. 한국의 자영업자 비율은 높으며, 경쟁이 심화되고 경영난을 겪고 있다. 고령층의 자영업 진출 증가 경향이 지속 확대될 것으로 보인다.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004246798?sid=101</t>
+          <t>https://n.news.naver.com/mnews/article/050/0000068692?sid=101</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1인당 5000만원인 예금자 보호 한도 상향 조정이 이번에도 불발될 전망이다. 미국 실리콘밸리은행 SVB 사태 이후 예금자보호한도를 높여야 한다는 논의가 제기됐지만 결국 현행을 유지하는 것으로 가닥이 잡혔다. 9일 국회 정무위원회 소속 김희곤 의원실에 따르면 금융위원회는 이달 5일 정무위에 보고한 예금보험제도 개선 검토안에서 향후 찬반 논의 시장 상황 등을 종합 고려해 상향 여부 등을 검토할 필요가 있다고 밝혔다. 당장 급하게 추진할 사안이 아니라는 것이다. 현재 여야 의원들이 발의한 예금자 보호 한도 상향 개정안은 총 11건으로 보호 한도를 1억원 또는 2억원으로 높이는 내용 등 다양하다. 우리나라는 2001년 2000만원이던 예금자 보호 한도를 5000만원으로 올린 후 지금까지 23년째 한도가 그대로다. 국내 은행에서 계좌당 5000만원을 넘는 예금은 작년 6월 기준 전체 예금의 65.7인 1152조7000억 원으로 집계됐다.보호 한도를 높이자는 의견과 2금융권으로의 자금 쏠림이나 예보료 인상에 따른 소비자 부담 증가를 우려하는 목소리도 함께 고려한 것으로 보인다. 금융위가 공개한 연구 용역 결과에 따르면 보호 한도를 1억 원으로 올리면 은행에서 저축은행으로 자금 이동이 나타나고 이로 인해 저축은행 예금은 1625 가량이 증가할 것으로 추산됐다. 이동 자금은 은행 예금의 1 수준으로 전체 시장 영향은 크지 않을 수 있지만 저축은행 업권 내 과도한 수신 경쟁이 벌어질 경우 일부 소형사에는 충격이 될 수 있다는 내용도 포함됐다. 한도 상향 시 보호 한도 내 예금자 비율은 98.1에서 99.3로 1.2포인트 증가하는 데 그치는 등 실익도 크지 않은 것으로 나타났다. 보호 한도가 5000만 원으로 유지되더라도 사회보장적 상품 등에 대한 별도 한도 적용은 지속적으로 확대되는 추세다. 금융위는 2015년부터 확정기여형 DC형 및 개인형 IRP 퇴직연금의 예금에 대해 일반 예금과 별도로 5000만 원의 보호 한도를 적용해왔으며 연금저축 신탁보험 사고보험금 중소기업퇴직연금기금 등에 대한 별도 보호도 시행을 앞두고 있다. </t>
+          <t xml:space="preserve"> 코로나19 사태 때도 이 정도는 아니었어요. 밤 10시 시간 제한 때보다 상황이 심각해요. 지금 다 녹다운이에요. 경기도 고양시에서 식당을 하는 장은영 42 씨는 하루하루 피가 마를 지경이라고 했다. 요식업 10년 차 잔뼈가 굵은 베테랑이지만 최근 가게 사정은 최악이다. 그는 적자를 감수하고 문을 여는데 언제까지 버틸 수 있을지 모르겠다고 말했다. PART1 9월 위기설 끝난 게 아니다 자영업자들이 벼랑 끝에 몰렸다. 정부가 나서 9월 자영업자 대란설은 전혀 근거가 없다고 못 박았지만 체감은 다르다. 자영업자 140만여 명이 활동하는 온라인 커뮤니티 아프니까 사장이다에는 하루에도 몇 건씩 폐업 관련 글이 올라온다. 이제 장사 그만하게 되었습니다 이번 주 고비입니다 6년 카페 폐업합니다 매출이 점점 더 떨어집니다. 무섭습니다.지난 9월 자영업자 대란설 이른바 9월 위기설은 정부가 코로나19 지원 대책으로 각종 대출에 만기 연장과 상환 유예를 해준 조치들이 9월이면 종료돼 잠재된 부실이 한꺼번에 폭발할 것이라는 우려에서 불거졌다.정부는 우려를 일축했다. 한덕수 국무총리는 6월 13일 국회에서 열린 경제 분야 대정부 질문에서 상환 유예 차주의 98가 상환 계획서 작성을 끝냈다며 이에 속하지 않는 일부 부실 가능성이 있는 차주는 30조원 정도의 기금을 통해 재무 조정을 해 나갈 예정이라고 설명했다. 추경호 경제부총리 겸 기획재정부 장관 또한 코로나19 피해 자영업자소상공인 대출의 경우 전체 대상 채무가 당초 100조원에서 76조원으로 감소하는 등 연착륙이 순조롭게 진행 중이라며 9월 자영업자 대란설은 전혀 근거가 없다고 강조했다.현장의 분위기는 다르다. 자영업자들 사이에선 폐업밖에 답이 없다는 말이 나돈다. 9월 위기설이 끝난 게 아니라 9월부터 터져나가기 시작한다는 의미였단 자조도 나온다. 수치도 심상치 않다. 자영업자 비율은 통계를 작성한 이후 처음으로 20 선을 밑돌았다. 통계청에 따르면 지난 2분기 전체 취업자 중 자영업자가 차지하는 비율은 19.9를 기록했다. 1963년 37를 넘은 뒤 차츰 줄어들면서 지난해 말 20.1대로 내려왔고 분기 기준 20대 아래는 이번이 처음이다.문제는 자영업자의 질이다. 직원 한 명도 없는 나 홀로 자영업자가 늘고 있다. 자영업자는 통상 독자적으로 사업하는 개인 사업자 또는 소규모 사업자를 지칭하는데 통계에서도 고용원이 있나 없나로 자영업자를 세분화한다.이 중 고용원이 없는 자영업자의 비율이 높아지고 있다. 올해 8월 기준 578만4000명의 자영업자 중 고용원이 없는 1인 자영업자는 437만 명으로 전체의 75.6를 차지했다. 코로나19 발발 이전까지는 70 초반대를 기록했지만 코로나19 사태가 발발한 2020년부터 75를 넘긴 이후 나 홀로 자영업자의 비율은 좀처럼 낮아지지 않고 있다.고용원 없는 자영업자 수의 증가는 자영업의 위기를 보여주는 지표다. 자영업자가 경영난에 처하면 인건비를 가장 먼저 줄인다. 이 때문에 고용원이 없는 자영업자가 늘어나고 이마저도 버티지 못하면 폐업에 이르는 수순이다. 마지현 파이터치연구원 수석연구원은 고용원이 있는 자영업자들이 늘어난 인건비를 감당하기 어려워 직원을 해고하게 됨에 따라 상당수의 고용원이 있는 자영업자가 고용원이 없는 자영업자가 된다고 말했다.경기도 광명시에서 분식점을 운영하는 최영균 52가명 씨도 최근 나 홀로 자영업자가 됐다. 코로나19 시간 제한과 최저임금 인상으로 2022년부터 경영난에 처했던 최 씨는 고금리고물가 폭탄에 지난 6월 직원에 이어 알바생마저 정리했다. 최 씨는 버티고 버티다 물가 폭등에 더는 버틸 수 없어 혼자 하게 됐다며 나 홀로 하다가 조금 바빠지면 아내 더 바빠지면 자녀들을 불러 일을 분담하고 있다고 말했다.최 씨를 항복시킨 것은 고금리고물가다. 올해 3월 임대 계약 만료를 앞두고 건물주는 월세 10 인상을 통보했다. 코로나19 위기 때 월세를 올리지 않는 등 주변 시세보다 싸게 받았지만 금리인상으로 더는 버틸 수 없다는 게 건물주의 말이다. 더 큰 난관은 물가다. 전기료가스비재료비 모두 턱없이 올라 임대료와 공과금 여기에 인건비를 주고나면 마이너스 신세다. 최 씨는 분식점 특성상 음식 값을 올릴 수도 없어 하루 10만원의 매출 올리기도 어려운 날이 많았다며 재료비를 마련하려고 장사하는 기분이었다고 토로했다. PART2 과당 경쟁 후진국 규모위기의 자영업 자영업의 추락과 같은 표현들은 업계를 묘사해 온 단골 소재였다. 그만큼 자영업자의 위기는 어제오늘의 일이 아니다. 한국개발연구원 KDI에 따르면 1997년 외환 위기와 2003년 신용카드 대란 2008년 글로벌 금융 위기 등 굵직한 거시 경제 충격과 소비 침체가 닥칠 때마다 자영업은 큰 폭으로 출렁였다. 이진국 KDI 연구위원은 국내 자영업의 위기는 코로나19 사태가 발생하기 훨씬 이전부터 존재해 현재까지 지속되는 추세적 현상으로 바라보는 것이 합당할 것이라고 설명했다.자영업계의 경영난은 왜 이렇게 오래도록 지속되고 있는 것일까. 우리 경제의 체질이나 구조와 연관돼 있는 것은 아닐까.경기도 화성시에서 마라탕 음식점을 운영하던 김영미 56가명 씨는 지난 7월 탕후루로 업종을 변경했다. 탕후루 프랜차이즈의 마진율이 좋다는 소식에 유행이 식기 전 빠르게 손님 잡기에 나서겠다는 판단이었다. 그가 개점할 때만 해도 반경 5km 내에 동일 업종이 없었지만 지금은 2km 이내에 탕후루 매장만 3개가 들어섰다. 매출도 반 토막이다. 오픈 초창기에는 줄 서서 구매할 정도로 인기를 끌었지만 지금은 방과 후에나 시끌벅적하다.A 씨의 사례는 한국 자영업의 문제를 그대로 보여준다. 과당 경쟁이다. 공정거래위원회 가맹 사업 거래에 등록된 탕후루 프랜차이즈는 모두 6곳이다. 이 중 가장 큰 규모를 자랑하는 곳은 달콤나라앨리스가 운영하는 왕가탕후루다. 이곳은 지난해 43곳에 불과했지만 올 들어 가맹점을 크게 늘리며 현재 420곳의 매장을 운영하고 있다.인근 유사 점포의 난립과 경쟁 심화는 자영업자의 경영난을 가져오는 근본적인 요인이다. 한국의 자영업자 규모는 장기적으로 보면 지속 감소 추세다. 하지만 타국과 비교하면 한국의 자영업자 비율은 이례적으로 높다. 2022년 경제협력개발기구 OECD의 자영업자 selfemployment자영업자무급 가족 종사자를 기준으로 한국의 자영업자 비율은 23.5다. OECD 국가 35개국 중 여덟째로 높았다.미국 6.6 2021년 기준 독일 8.7 일본 9.6 등 주요국과 비교하면 차이가 큰 편이다. 반면 한국보다 자영업 비율이 높은 국가는 콜롬비아 53.1 2021년 기준 브라질 32.1 멕시코 31.8 그리스 30.3 튀르키예 30.2 코스타리카 26.5 칠레 24.8로 중남미 국가가 많다. 제조업이 제대로 발전하지 못했거나 관광 산업이 높은 비율을 차지해 자영업자가 많을 수밖에 없는 나라다. 높은 비율의 자영업자는 정체되거나 쇠락하는 경제의 상징이다. 많은 연구에서 산업화의 정도가 미흡하거나 노동 시장이 유연하지 못하거나 개인 소득세나 사회 보장 분담금이 많다거나 실업급여 수준이 낮다거나 조세 회피 가능성이 높으면 자영업자 비율이 높은 것으로 보고하고 있다.실제 중남미는 인플레이션 속에 쇠락의 길을 걷으면서 빈곤층의 자영업 비율이 높다. 그리스 또한 2009년 경제 위기를 겪은 후 구제 금융 프로그램을 받을 정도로 경제 상황이 최악으로 치달았다.반면 한국은 선진국이다. 2021년 국제 사회에서 선진국 지위를 공인받았다. 그해 7월 개최된 제68차 유엔무역개발협의회 UNCTAD 무역개발이사회는 대한민국의 지위를 그룹 A 아시아아프리카에서 그룹 B 선진국로 변경하는 것을 만장일치로 가결했다. 작년 1인당 국민소득이 3만2886달러 약 4248만원인데 경제가 쇠락하거나 산업화의 정도가 미흡해 자영업자의 비율이 높다는 주장은 어불성설이다.그래서 전문가들은 노동 시장 경직과 사회적 자본 사회 안전망이 취약하다는 점을 한국의 자영업자 비율이 높은 이유로 제시한다. 홍성국 더불어민주당 의원은 그의 저서 수축사회에서 이같이 지적했다.지금의 한국을 만든 소득 주도 성장 정책은 사회적 자본이 빈약한 상태에서 경제를 성장시키려는 고육지책으로 나왔다. 60여 년 동안 수출 주도 성장에 매진하면서 한국이 이룬 성장은 가히 역대급이다. 하지만 시야가 좁았다. 성장에만 주력한 결과 경제를 떠받치는 사회적 자본 축적에는 관심을 두지 못했다. 내수 경제 중소기업과 자영업자와 수출 대기업 경기 간에 간극이 벌어지고 있다. 특히 한국은 자영업과 중소기업의 고용 비율이 높기 때문에 양극화의 직격탄을 맞을 수밖에 없는 구조다.수출 주도 성장에만 주력한 결과 한국 경제는 고용 인구를 모두 흡수하지 못했다. 임금 노동자에 흡수되지 못한 고용 인구는 내수 시장에서 중소기업과 자영업으로 분산됐다. 한국의 높은 자영업자 비율은 지연된 산업화의 결과라고 봐도 무방하다. 선진국의 자영업자 비율이 상대적으로 낮은 것도 한국의 대표 산업 도시인 울산 지역의 자영업자 비율이 전국에서 둘째로 낮은 것 1위는 세종시도 이를 보여주는 대목이다. PART3 고령화 시대 뇌관은 자영업자영업자 비율이 높은 것은 국가 전체적으로 보면 위험성이 크다. 자영업이 어려워지면 다시 일자리가 줄어들고 소비가 줄어드는 악순환에 빠진다.중소벤처기업부에 따르면 소상공인을 위한 퇴직금으로 통하는 노란우산 공제의 폐업 공제금은 올해 1월부터 7월까지 7만4191건 지급된 것으로 나타났다. 역대 최고치였던 2021년 지급 건수가 9만9388건이라는 점을 감안하면 올해 지급 건수는 이를 넘어설 가능성이 높다. 노란우산 공제는 소상공인이 매달 일정 금액을 납부하다가 폐업할 때 기존에 납입한 돈에 이자를 더해 돌려받는 제도다. 즉 지급 건수가 많을수록 폐업한 업체가 많다는 의미다. 노란우산 공제에 가입하지 않은 자영업자도 있는 점을 고려하면 실제 소상공인 폐업 건수는 이보다 더 많을 것으로 추산된다.더 큰 뇌관은 고령화다. 은퇴 이후 재취업이 안 되는 고령자들은 생계를 이어 가기 위해 창업 전선에 뛰어드는 경향이 짙다. 하지만 고령 자영업자의 고용의 질은 형편없었다.한국경제인협회에 따르며 최근 5개년간 20172021년 15세 이상 전체 자영업자 수는 3.2 감소한 반면 60세 이상 자영업자는 21.4나 증가했다. 특히 2021년 60세 이상 자영업자 10명 중 9명 87.2은 고용원이 없는 나 홀로 자영업자였다.대부분의 고령 자영업자들은 부족한 창업 자금을 가지고 철저한 시장 조사 없이 급박하게 사업을 시작했고 무한 경쟁의 자영업 시장에서 최저임금 수준도 벌지 못했던 것으로 나타났다. 2021년 8월 기준으로 1년 이내 사업을 시작한 60세 이상 자영업자 10명 중 4명 43.0은 500만원 미만으로 창업했으며 64.5는 창업 준비 기간이 13개월 미만이었다 통계청 비임금 근로 부가 조사.월평균 영업이익 또한 세대 중 가장 낮았다. 2019년 기준 월평균 영업이익이 최저임금 주40시간 기준 174.5만원보다 낮은 소상공인 비율은 60세 이상이 53.6로 가장 높았고 다음은 50대 37.3다.고령화로 노동 시장에 머무르는 기간이 길어지면서 고령층의 자영업 진출 증가 경향이 지속 확대될 것으로 보인다. 세계에서 손꼽히는 초고령 국가 일본은 이미 고령층에서 자영업자 비율이 최고치를 찍었다. 2016년에 이미 전체 자영업자의 35.9 가족 종사자까지 포함하면 41.6가 고령자다.하지만 고령층의 열악한 고용 여건을 개선하기 위한 장기간의 정책적 노력에도 불구하고 일본은 여전히 당면 과제를 해결하지 못하고 있는 상황이다.전문가들은 고령화 시대 자영업자 문제는 사회 구조적 문제임을 지적한다. 한국은행은 일본 고령층 고용의 3대 특징과 시사점 보고서를 발표하며 한국 노인 세대의 경제 여건은 일본에 비해서도 매우 열악하고 생계 유지를 위한 노동이 불가피하다는 점을 고려할 때 1020년의 중장기적인 시각에서 종합적인 대책을 마련해 일관성 있게 지속적으로 추진하는 것이 중요하다고 밝혔다다.우리는 어떠한 방안이 있을까. 2018년 국회 산업통상자원 중소벤처기업위원회는 골목 상권 활성화 방안을 듣기 위해 외식 전문가인 백종원 더본코리아 대표를 국회로 불렀다. 5년이 지난 지금도 백종원 매직은 그칠 줄 모른다. 자영업자의 구원투수가 정부가 아닌 백종원 대표란 우스갯소리도 나온다. TV과 유튜브에서는 자영업자를 살리는 제2의 백종원 프로그램이 화제다. 손대면 핫플 동네멋집 장사의 신 등등이다.홍성국 의원은 그의 저서에서 자영업자의 쇠퇴는 사회적 변화가 원인이지 아이디어 차원의 문제가 아니다며 더 큰 변화의 필요성을 강조한다. 전문가들 또한 장기적 관점에서 자영업의 부작용을 막기 위해 질적 성장과 부작용을 줄이는 방안을 모색해야 한다고 조언한다. 위기의 자영업자를 위한 진짜 구원투수가 필요한 시기다. 아프니까 사장이다녹다운 자영업자순수익 1000만원에서 마이너스 됐다자영업자 위기유동성 스쳐간 자리엔 공실뿐자영업자 쓰러지자 텅 빈 상권아파트 이어 상가 거래도 뚝 공인중개사 10개월간 1만2500개 폐업</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>['확정기여형', '퇴직연금 저축은행']</t>
+          <t>['퇴직금 제도', '퇴직소득세']</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>[{'확정기여형': 10}, {'확정기여형': 49}, {'퇴직연금 저축은행': 39}]</t>
+          <t>[{'퇴직금 제도': 32}, {'퇴직소득세': 46}]</t>
         </is>
       </c>
       <c r="K62" t="n">
+        <v>3</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>자영업자들의 경영난과 경쟁 심화에 대한 언급이 있으며, 이는 연금 기금 관리 전략과 금융 시장 변동의 영향을 분석하는 데 도움이 될 수 있다.</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>2</v>
       </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>금융위원회가 상향 여부를 검토할 필요가 있다고 밝혔기 때문에, pension fund management에 영향을 줄 수 있는 내용이다.</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>자영업자의 폐업과 경쟁 심화에 대한 언급이 있으며, 이는 연금 기업 간의 경쟁 동향을 파악하는 데 도움이 될 수 있다.</t>
+        </is>
+      </c>
+      <c r="O62" t="n">
         <v>1</v>
       </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>이 기사에는 industry competition trends에 대한 내용이 없다.</t>
-        </is>
-      </c>
-      <c r="O62" t="n">
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>금융 시장 변동이 자영업자에게 미치는 영향에 대한 언급이 있으나, 자세한 분석은 제공되지 않았다.</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>법률 및 규제 변경에 대한 언급이 없다.</t>
+        </is>
+      </c>
+      <c r="S62" t="n">
         <v>3</v>
       </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>예금자 보호 한도 상향 조정이 불발될 전망이라는 내용이 있으므로, financial market impact에 대한 내용이 포함되어 있다.</t>
-        </is>
-      </c>
-      <c r="Q62" t="n">
-        <v>2</v>
-      </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>이 기사에는 legal and regulatory changes에 대한 내용이 없다.</t>
-        </is>
-      </c>
-      <c r="S62" t="n">
-        <v>0</v>
-      </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>이 기사에는 demographic change에 대한 내용이 없다.</t>
+          <t>고령화 시대에 자영업자의 비율이 높아질수록 경제의 위험성이 커지고, 소상공인 폐업 건수도 증가한다는 언급이 있다.</t>
         </is>
       </c>
       <c r="U62" t="n">
@@ -7078,7 +7078,7 @@
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>이 기사에는 technology and digitalization에 대한 내용이 없다.</t>
+          <t>기술과 디지털화에 대한 언급이 없다.</t>
         </is>
       </c>
       <c r="W62" t="n">
@@ -7086,7 +7086,7 @@
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>이 기사에는 consumption behavior and requirements에 대한 내용이 없다.</t>
+          <t>소비 행동 및 요구사항에 대한 언급이 없다.</t>
         </is>
       </c>
     </row>
@@ -7103,17 +7103,17 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>국민연금공단</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>“미래세대 부담? 공포 수준 아니다” vs “감당할 인구가 너무 적다”[국민연...</t>
+          <t>예금자보호한도 5000만원 유지 가닥…금융위 시장상황 등 고려</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>국회 연금개혁특별위원회가 활동기한을 내년 5월까지 연장하기로 했기 때문에 국민연금 개혁이 미뤄질 조짐이다. 국민연금 가입기간이 긴 노동시장 중심부의 노동자들이 대체율 인상의 혜택을 가장 크게 입을 것이기 때문에 재정을 투입하더라도 그 돈이 소득대체율 인상에 우선적으로 쓰이는 것에는 찬성하지 않는다. 가입기간이 짧은 불안정 노동자 저소득층에게 가입기간을 늘려주는 조치 크레딧 제도를 의미.</t>
+          <t>예금자 보호 한도 상향 조정이 불발될 전망. 금융위원회는 상향 여부를 검토할 필요가 있다고 밝혔다. 예금자 보호 한도 상향 개정안은 다양한 내용을 포함하고 있다.</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -7121,62 +7121,62 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003253584?sid=101</t>
+          <t>https://n.news.naver.com/mnews/article/011/0004246798?sid=101</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 국민연금 개혁은 올해에도 물 건너가는 것일까. 연금개혁의 시간표가 다시 미뤄질 조짐이다. 국회 연금개혁특별위원회가 활동기한을 내년 5월까지 연장하기로 했기 때문이다. 인기 없는 연금개혁 속성을 감안할 때 내년 4월 총선 이후에나 본격 논의될 가능성이 높아졌다.국민연금 개혁은 2007년 이후 번번이 무산돼왔다. 지난 16년간 정부와 정당들은 전문가들의 논쟁 뒤에 숨은 채 뒷짐만 져왔다. 정부와 정당이 각자의 입장을 내놓고 여론을 수렴하는 과정을 회피하는 동안 전문가들의 열띤 논쟁은 대중에게 제대로 소개되지 못했다.주간경향은 국민연금을 두고 이어져 온 소득대체율 인상론과 재정안정론의 끝장토론 자리를 마련했다. 소득대체율 인상론 측의 주은선 경기대 사회복지학과 교수와 재정안정론 측의 오건호 내가만드는복지국가 정책위원장이 지난 10월 4일 경향신문사 여적향에서 논쟁을 벌였다. 국민연금 개혁해야 하는 이유는국민연금 개혁이 필요한 이유에 대한 생각부터 양측이 다른 것으로 안다. 왜 개혁이 필요한지를 각자 말해달라.오건호 내가만드는복지국가 정책위원장 이하 오 국민연금이 지속가능성을 가지기 위해서는 고강도 재정안정화가 필요하다는 것이 최근 5차 재정계산서도 확인됐다. 현재 젊은 세대들이 국민연금을 불신하는 이유는 지속가능성에 대한 불안 때문이라고 생각한다. 청년들에게 비전을 보여줄 필요가 있다. 물론 공적연금의 존재 목적이 노후소득 보장인 만큼 노후소득 보장을 강화하는 제도개혁 또한 필요하다. 하지만 어떤 방식이 적절할지는 서로 이견이 있다. 서로 잘 논의해 앞으로 조정이 되길 바란다. 재정계산은 현 보험료와 연금액을 유지할 때 기금이 언제 소진되는지 등을 보여주는 계산으로 국민연금법에 따라 5년마다 하도록 돼 있다. 올해 5차 계산에선 현 제도를 그대로 유지할 경우 기금이 2055년 소진되고 그해 걷어서 그해 연금액을 충당할 경우 미래 청년세대 보험료율은 최대 35까지 오른다는 결과가 나왔다편집자 주주은선 경기대 사회복지학과 교수 이하 주 국민연금이 도입된 지 30년이 지났지만 노후소득 보장 기능이 너무 심하게 부족하다. 평균급여액이 약 60만원이다. 초고령화 국면에서 노후빈곤을 어떻게 예방할 것인가에 대한 논의는 그간 소극적이었다고 생각한다. 초고령사회에선 노후소득을 획기적으로 보장해야만 살 만한 사회가 된다. 게다가 2030년에서 2050년 사이 국민연금을 받게 되는 사람들의 보장수준은 보험료를 내는 기간은 더 늘어나는 데도 오히려 더 떨어질 것으로 예상된다. 2007년 급여삭감 때문이다. 그런 의미에서 저는 소득대체율 인상이 꼭 필요하다고 본다. 소득대체율은 은퇴 후 받게 될 연금액 수준을 보여주는 지표다. 현재 국민연금 소득대체율은 42.5다. 일하던 시기 100만원을 벌었다면 은퇴 후 연금액으로 42.5만원을 받는 것을 의미한다. 40년 가입 기준이다. 보험료 납입기간이 40년보다 짧으면 실제 대체율 수준은 더 낮아진다. 대략 1년당 1씩 낮아진다고 보면 된다. 현 소득대체율 42.5는 조금씩 줄어 2028년 40에 도달하게끔 돼 있다. 이번 토론에서는 편의상 소득대체율을 40로 놓고 대화했다편집자 주재정계산 결과를 보면 미래 청장년 세대의 보험료 부담이 커지는 것은 사실로 여겨진다.주 재정계산은 팩트가 아니라 추정일 뿐이다. 현재 시점에서 미래라는 과녁에 화살을 던지는 것과 같은데 성장 고용 소득 인구 등의 변수에 따라 과녁은 계속 움직인다. 그런 의미에서 언론이 자주 쓰는 2055년 기금 고갈된다는 등의 표현은 타당하지 않다. 추정을 팩트로 표현하는 것이기 때문이다. 다만 재정계산 결과로 흐름은 볼 수 있다. 미래 생산세대의 부담이 늘어나는 것은 맞다. 그런데 노인이 인구 40를 넘는 사회에서 국민연금 지출이 GDP의 약 11가 되는 것이 비상식적인가 싶다. 그 시기 노인들이 받아갈 연금액을 온전히 청장년 개인들이 보험료로 부담해야 한다는 생각에서 벗어나야 한다. 분담 구조를 어떻게 짤 것인가를 고민하면서 풀어야 할 문제다.오 재정계산이 미래의 수치를 알아맞히는 작업이 아닌 것은 맞다. 그 대신 구조를 보는 것이다. 특정 시점에서의 지출과 수입의 구조를 봐서 재정이 균형을 이루고 있는지 아닌지를 보는 것이다. 불균형이라면 불균형의 규모를 보는 것이다. 미래의 국민연금 재정이 매우 불안정해지기 때문에 현세대와 달리 미래세대의 재정부담이 무척 커진다는 계산 결과의 메시지는 명확하다. 주 교수가 말한 고용 소득 인구 등의 변수를 다양하게 넣어도 이 메시지는 변하지 않는다.미래세대 개인이 모두 부담한다는 생각에서 벗어나야 한다. 국민연금의 소득재분배 성격을 고려하면 조세 투입을 못 할 이유가 없다. 현재 부과 대상이 GDP의 30를 안 넘는다. 플랫폼 기업 등에도 부담을 지워야 한다. 미래세대 부담 심각하다 vs 과장이다미래세대 부담이 심각하냐 아니냐에 대한 입장이 갈리는 것 같다.주 현재의 소득대체율 40를 유지했을 때 70년 후 국내총생산 GDP의 9가량이 연금액으로 지출될 것으로 보인다. 만약 소득대체율을 50로 올리면 70년 후 GDP의 약 11를 지출하게 된다. 지금도 노인 세대를 위한 공적연금에 GDP 11 이상을 지출하는 나라들이 꽤 있다. 이 정도를 그리 공포스러워 해야 하나. 시장에서 일하지 못하는 인구에 적정 소득을 보장해 소비할 수 있게 해서 경제균형을 이뤄나가는 것 그게 복지국가고 복지 자본주의다. 미래세대에게 감당하기 어려운 부담을 떠넘긴다고 얘기하는 것은 과장이다.오 먼저 소득대체율을 40에서 더 낮추자는 입장은 아니라는 점을 말하고 싶다. 지금의 소득대체율을 유지하자는 입장이고 그럴 경우 말한 대로 70년 후 미래세대가 GDP 9 지출을 감당해야 한다. 그런데 그들이 처할 환경이 무척 어려울 거다. 연금액 지출에 GDP 11 이상 지출하는 서구 국가들 얘기를 했는데 20세기 중후반의 서구와 비교할 때 한국의 노인부양비는 매우 높아지는 구조다. 초저출생 때문이다. 서구 국가들의 GDP 10와 미래 한국사회의 GDP 10를 감당하는 인구 규모가 완전히 다르다. 우리가 훨씬 적을 것이다. 게다가 그 세대는 그해 걷어서 그해 지출해야 하는 건강보험과 기초연금 등의 부담도 훨씬 커질 전망이다. 미래세대가 GDP 9 지출을 감당할 수 있도록 지금 우리가 도와줘야 한다고 본다. 현재 우리의 연금액 지출은 GDP 2다. 지금부터 단계적으로 올려야 한다.주 보험료 인상에 반대하는 것은 아니다. 소득대체율 인상이 필요하다는 입장에서는 더욱 그렇다. 다만 지나친 연기금 적립 역시 문제이므로 그 속도와 폭을 조정해야 한다. 70년 후 GDP 911 지출이 큰 부담이냐 아니냐에 대한 얘기를 이어나가겠다. 공적연금 지출을 줄여주는 것이 과연 미래세대의 부담을 덜어주는 일일까. 부모가 국민연금만으로 노후를 보내기 어려워지면 자녀의 사적이전 생활비를 드리는 것 부담이 늘어난다. 은퇴 이후가 불안해 사적연금 시장에 기대는 이들도 많아질 거다. 아울러 연금액이 낮아 노후빈곤에 처하는 사람이 많아질수록 기초연금과 국민기초생활보장제도와 같은 공공부조 부담도 늘어난다. 사회연대의 원리에 입각한 국민연금이 더 많은 사람의 노후를 제대로 보장하게 하는 것이 결과적으로 모두의 부담을 더는 길이다. 그리고 앞서 말했듯 개인들이 GDP 11를 전부 부담해야 한다는 생각에서 벗어나 새로운 연금재정 패러다임에 대해 고민해 볼 필요도 있다. 새로운 재정 패러다임 가능할까미래의 청장년 세대 개인이 모두 부담해야 한다는 생각에서 벗어나야 한다고 했는데 구체적으로 어떻게 가능할까.주 장기적으로 조세가 역할을 할 수 있다고 본다. 우리의 국민연금엔 소득재분배 성격이 있다 국민연금은 보험료를 낸 만큼 연금액을 받는 구조가 아니다. 평균소득보다 적게 번 이들에게 상대적으로 더 얹어주는 하후상박 구조다. 물론 절대적인 연금액은 고소득층이 높지만 낸 보험료 대비 연금액의 비율은 저소득층이 더 높다편집자 주. 국민연금의 소득재분배 성격을 고려하면 조세 투입을 못 할 이유가 없다고 본다. 자본의 역할을 강화하는 방식도 있다. 지금은 기업과 개인이 보험료를 55 부담하는데 기업 부담을 6570로 올릴 수도 있다. OECD 평균이 대략 그 정도다. 아울러 보험료 부과 대상소득이 GDP의 30 이하로 26 수준인 것으로 추정된다. 이를테면 사실상 사용자 역할을 하고 있는 플랫폼 기업에 보험료 부담을 지워야 한다. 프랑스는 자산소득을 비롯한 모든 종류의 개인소득과 대기업 법인세에 사회보장세를 부과한다. 장기 미래에 가능한 재정 패러다임 변화를 지금 구체적으로 얘기하긴 어렵다. 미래에 부가 어떤 방식으로 창출될지 그 변화를 미리 예단하기가 어렵기 때문이다.오 국민연금에 보험료 이외 재원 투입될 수 있다고 본다. 문제는 미래세대의 지출 부담은 지금 명확하게 수치로 확인이 되는데 소득대체율 인상론 측이 말하는 충당 방안은 아직 범주 수준이다. 저는 소득대체율 인상은 어렵다는 입장이지만 소득대체율 유지 역시 미래세대 부담이 크기 때문에 개인적으로 가늠을 해봤다. 현재 보험료 부과대상이 GDP의 30가 채 되지 않는다고 했다. 마치 70라는 미지의 영역이 남아 있는 것처럼 여겨지지만 국민계정에 분배 GDP 구성을 들여다보면 추가 부과대상으로 삼을 만한 것이 그리 많지 않다. 부과대상을 현 30 수준에서 40 수준으로 높이고 보험료율 15로 인상해도 재원은 여전히 매우 모자라다. 결국은 법인과 자본에다 과세하자는 주장인데 부족액을 충당할 만큼 확보할 수 있느냐의 문제가 있다. 우리는 이미 기업과 자본소득에 대해서 과세를 하고 있다. 자동차든 로봇이든 부동산이든 결국은 재산세와 종합부동산세로 거둬질 거다. 여기에 횡재세 정도가 추가될 수 있다. 과세를 강력히 한다고 해도 여전히 부족할 것이다. 나아가 혹시 충분한 재원이 나온들 그걸 소득대체율 인상에 따른 부족액을 메우는 데 쓰는 게 맞느냐는 또 다른 논점이 있다.무슨 뜻인가.오 현재 가입자들은 보험료가 너무 낮다 보니 낸 것에 비해 과하게 많이 받게 돼 있다. 낸 것보다 더 받는 만큼을 미래세대에 빚지고 있는 거다. 이걸 현세대가 보험료 인상으로 어느 정도 책임을 져야 그다음 조세 투입도 얘기할 수 있다고 본다. 그래서 저는 보험료율 15까지는 점진적으로 인상하되 그 이후에도 재정이 어렵다면 그때는 국고 투입이 가능하다고 본다. 하지만 재정을 투입하더라도 그 돈이 소득대체율 인상에 우선적으로 쓰이는 것에는 찬성하지 않는다. 국민연금 가입기간이 긴 노동시장 중심부의 노동자들이 대체율 인상의 혜택을 가장 크게 입을 것이기 때문이다. 가입기간이 짧아 소득대체율이 실질적으로 낮은 불안정 노동자들을 위해 재정이 우선적으로 쓰여야 한다고 본다.국민연금 보험료가 너무 낮다 보니 계층 간 역진성 문제가 생긴다. 고소득자가 덜 받는 만큼 저소득자가 더 받아가는 게 아니다. 모두가 낸 것보다 더 받아가며 그 돈이 미래세대에서 온다. 기간이 길고 임금이 높을수록 순혜택이 크다. 소득대체율 인상 고소득층에 더 유리 vs 사회보험 특성 이해해야소득대체율 인상이 어떤 효과를 낼 것이냐에 대한 논의로 이어가자. 재정안정론 측에서는 소득대체율 인상이 실질적인 소득대체율 인상으로 이어지지 않을 것이라고 주장하는 것으로 안다.오 국민연금 급여는 결국 소득비례 가입기간 비례다. 연금액을 일제히 높이는 소득대체율 인상의 효과는 높은 임금을 받으면서 장기간 고용된 노동시장 중심부에 집중될 것이다.주 그 주장은 사회보험이 정의롭지 않다고 얘기하는 것과 같다. 고용보험의 실업급여 역시 소득비례다 더 많이 벌던 사람이 더 많은 실업급여를 받는다는 뜻이다편집자 주. 실업급여의 소득대체율을 50에서 60로 올리는 것은 임금이 높을수록 혜택이 크니 정의롭지 않은 것인가. 국민연금의 급여나 고용보험의 실업급여나 본질적으로 기존 소득의 대체 기능을 하도록 돼 있는 것이다. 그게 그 제도의 목적이다. 게다가 다른 사회보험과 달리 국민연금에는 강력한 재분배 요소가 들어가 있다.오 사회보험의 특성과 국민연금의 재분배 요소를 무시하는 것이 아니다. 지금의 국민연금엔 보험료가 너무 낮다 보니 생기는 계층 간 역진성의 문제가 있다 저소득층보다 고소득층에 더 유리하다는 뜻편집자 주. 무슨 얘기냐면 지금 국민연금에 소득재분배 기능이 있긴 하지만 고소득자가 덜 받는 만큼을 저소득자가 더 받아가는 구조가 아니다. 모두가 낸 것보다 더 받아가는데 그 돈은 미래세대에서 오는 것이다. 낸 보험료보다 더 돌려받는 만큼을 순혜택이라고 하는데 가입기간 길고 임금 높을수록 순혜택 절대액이 커진다. 즉 미래세대 부담으로 귀결되는 순혜택의 이득이 노동시장 중심부 고소득자들에게 집중된다는 얘기다. 이것이 옳으냐 하는 문제 제기다.주 국민연금에서 각자 낸 보험료와 급여의 수익을 따지며 계층 간 역진성 고소득층에 유리한 성격 얘기하는 자체가 이상하다고 생각한다. 국민연금제도는 각자 계정에 돈을 쌓고 자기가 낸 돈에 상응해 급여를 받는 제도가 아니다. 총량적으로 수입 보험료과 지출 연금액을 맞춰가는 제도이며 장수에 대응하는 제도이므로 수명에 따라 보장 총량이 달라진다. 개별 수익을 중심으로 연금제도를 보는 것은 공적연금의 본질과 어긋난 접근이란 생각이다. 하지만 계층별 수익을 따진다고 하더라도 오 위원장의 문제 제기는 일정 수준 이상의 보험료 인상으로 해소된다. 이것은 소득대체율 인상을 가로막을 근거가 되지 않는다. 오히려 소득대체율도 인상하되 거기에 필요한 재원을 어떻게 재분배성이 강하게 설계할 것이냐에 대한 얘기를 해야 하지 않을까.오 보험료 인상과 더불어 소득대체율을 인상하면 보험료 인상의 효과가 상쇄된다. 미래세대의 부담을 덜어주지 못한다는 얘기다. 그 세대의 부담으로 귀결되는 혜택이 노동시장 중심부에 집중되는 문제를 풀지는 못한다. 국고지원을 적극 얘기하고 있다. 앞서 말했듯 저도 반대하지 않는다. 그런데 입장을 명확하게 하기 위해 이렇게 나눠서 얘기했으면 좋겠다. 국민연금 부족액을 위한 국고지원 크레딧 제도와 보험료 지원사업을 위한 국고지원으로 말이다.국고를 투입하더라도 무엇에 우선적으로 지원할 것이냐에 대한 얘기인 것 같다.주 뭘 먼저 하고 뭘 나중에 한다는 식으로 접근할 문제는 아니라고 본다. 우리나라 국민연금 보장 수준은 그냥 무슨 짓이든 다 해야 하는 수준이다. 소득대체율 인상과 가입기간을 늘려주는 조치가 같이 가야 하는 것이지 우선을 따질 일이 아니라고 본다. 크레딧 제도는 군복무 출산 등 사회적 공헌을 한 이들에게 가입기간을 늘려주는 것이다. 소득대체율은 급여산식을 바꿔서 적용하는 폭넓은 조치인 반면 크레딧 제도는 일정한 공헌을 한 사람을 타켓팅한 제도다. 그리고 질병이나 장애 등 여러 사정으로 인해 사회적 공헌을 못 하는 이들도 많다. 두 기제는 대체 가능한 것이 아니다. 아울러 취약계층 보험료 지원사업은 당연히 해야 하는 것이다. 그런 과제를 뒤로 미루자는 얘기가 아니다. 오히려 소득대체율 인상과 결합할 때 이런 조치의 보장성 강화 효과는 더 커진다. 또 중심부 노동자들 얘기를 하셨는데 그렇다면 그들은 은퇴 이후 소득절벽이란 위험에서 벗어나 있나. 소득대체율 인상하면 이 사람들만 혜택 봐요라고 하면서 마치 이들이 기득권을 형성하고 있는 것처럼 말하고 있다. 실질적으로는 별 기득권도 없는데. 퇴직연금은 연금으로서 역할을 할 수 있나오 중간계층 중산층의 연금액도 충분치 않은 것은 사실이다. 그런데 결국은 한정된 자원의 배분 문제 아닌가. 우선순위로 무엇을 둘 것인가의 문제라고 생각한다. 소득대체 인상도 미래세대 부담이 될 재원 문제 때문에 다른 대안을 찾자는 것이다. 가입기간이 짧은 불안정 노동자 저소득층에게 가입기간을 늘려주는 조치 크레딧 제도를 의미. 가입기간을 1년 늘려줄 때 소득대체율 1씩 늘어난다편집자 주를 통해 그들의 실질적인 소득대체율을 올려줄 수 있다고 본다. 중상위 계층에게도 소득대체율 인상 대신 다른 대안이 있다. 기업이 매년 임금의 8.34씩을 퇴직금으로 쌓아두고 있다. 지난해 한해간 쌓인 퇴직금 적립액이 그해 국민연금 보험료 총액을 넘어섰다. 든든한 연금으로 기능케 할 잠재력이 퇴직금에 충분히 있다는 뜻이다.주 현 제도는 퇴직급여 제도이고 퇴직금과 퇴직연금 중 선택할 수 있게 돼 있다. 퇴직연금 가입률은 가입대상 노동자의 절반을 약간 넘는다. 퇴직연금은 금융시장을 통해 돌아가는 사적연금으로 재분배 기능이 없고 유족급여 장애급여도 없다. 국민연금처럼 죽을 때까지 물가연동으로 실질가치를 보장해주는 그런 질 좋은 연금이 아니다. 퇴직연금에 대해 제대로 된 노후소득보장 기능을 기대하기는 힘들다.오 퇴직연금은 사적연금인 건 맞다. 여러 한계가 있지만 그럼에도 사용자가 전액 기여 매해 각 노동자의 임금 8.34를 적립하는 제도다. 저는 두 가지의 정책 과제를 더하면 퇴직연금도 중상위층이 기댈만한 연금이 될 수 있다고 본다. 한가지는 1년 미만 고용된 노동자에게도 퇴직금 제도를 적용하는 것 또 다른 과제는 비자발적 실업기간에도 실업급여를 보장해줘 퇴직금의 중간해지를 엄격히 규제하는 것이다. 네덜란드나 덴마크 등에선 퇴직연금이 노후소득원의 한 축으로 작동한다.주 네덜란드 덴마크는 산별협약에 의해 작동하는 퇴직연금으로 성격이 다르다. 한국에는 그런 기반이 없다. 퇴직금을 제대로 된 연금으로 작동하도록 제도를 개혁하는 데 시간이 매우 많이 걸릴 것이다. 가능할지도 불확실하다.오 국민연금 소득대체율을 인상해도 효과가 나타나려면 지금부터 20년 있어야 한다. 20년이면 퇴직연금의 개혁도 할 수 있는 시간이다. 다층연금체계로 노후소득보장 효과를 충분히 볼 수 있다고 본다. 중상위계층에겐 국민연금퇴직연금 중간계층은 국민연금 하위계층에겐 국민연금기초연금의 체계가 적용되게끔 하자는 것이다.주 공적 노후보장제도에 대해 이렇게 계층별로 나눠서 접근하는 것은 맞지 않다. 우리는 국민연금 보험료를 냄으로써 미래의 연금 청구권을 쌓아간다. 기여를 했으니 나중에 생산되는 부의 일정한 몫을 받아갈 권리가 생긴다는 얘기다. 그런데 기초연금은 그런 제도가 아니다. 국민연금의 역할과 사회 상황에 따라 앞으로 어떻게 변해갈지 모르는 제도이다 이것을 미래 노후소득보장 한축으로 확정적으로 얘기하는 것은 맞지 않다. 국민연금에 10년 납입해서 받는 연금액은 기초연금을 합쳐도 기초생활보장제도의 내년 생계급여 71만원에 미치지 못한다. 기초연금이나 국민기초생활보장급여를 통해 보장받는 최저수준보다 국민연금 보장수준이 훨씬 높아야만 공적연금이 제대로 돌아간다.각자가 생각하는 개혁안은. 간단히 말해서 얼마의 보험료와 소득대체율이 적절하다고 보나.오 지난 9월 1일 재정계산위원회가 제시한 안을 기본축으로 해서 사회적 논의가 이뤄졌으면 좋겠다. 앞으로 10년 동안 매해 보험료율을 0.6포인트씩 올려 15에 도달케 하자는 방안이다. 여기에 연금수급개시 연령을 2048년에 최장 68세까지 상향하는 안과 기금수익률을 높이는 안을 조합했다.주 2007년 소득대체율을 50에서 40로 떨어뜨리는 제도 변화가 있었다. 이것을 50로 다시 회복시켜야 한다. 보험료율은 13 선을 생각했다. 그러나 어느 정도의 속도로 그 선에 도달하느냐는 열어놓고 생각해볼 필요가 있다. 재정계산위 사퇴 뒤 우리의 비전을 보여주는 대안보고서를 준비 중이다 지난 8월 31일 주은선 교수와 남찬섭 동아대 사회복지학과 교수는 복지부 산하 재정계산위원회가 소득대체율 인상론을 제대로 다루지 않는다는 이유로 재정계산위의 민간위원직을 사퇴한 바 있다. 재정계산위는 국민연금의 장기적인 수입지출 기금 규모를 계산해 정부에 보험료연금액 조정안을 제안하기로 한 보건복지부 산하 민관 합동위원회다. 두 교수는 재정계산위와 별도로 대안 보고서를 준비 중이다.편집자 주.좋은 연금개혁을 위한 조건이 있다면.오 정치권에는 연금이 부담스러운 주제일 것이다. 하지만 책임 있는 정치를 하겠다고 한다면 자기의 안을 제시해야 한다고 본다. 이 중요한 의제에 대해 논의가 시작됐음에도 아직 안이 없는 것으로 안다. 게다가 국회 연금특위를 내년 5월까지 연장한다고 한다. 총선 전에 연금개혁에 대한 입장을 안 낼 수도 있다는 메시지로 읽힌다. 미래를 좌우할 정책에 대해 안을 내고 국민에게 선택을 받는 것이 선거에 임하는 정당의 책임 있는 자세 아닐까.주 연금개혁은 정부가 중심이 되어 끌어갈 수도 있고 정당이 사회적 합의를 이끌어갈 수도 있다. 어떤 방식이 됐든 책임을 더 많이 져야 하는 주체들에게 의견을 묻고 제대로 책임을 부여하는 쪽으로 나아가야 한다고 생각한다.</t>
+          <t xml:space="preserve"> 1인당 5000만원인 예금자 보호 한도 상향 조정이 이번에도 불발될 전망이다. 미국 실리콘밸리은행 SVB 사태 이후 예금자보호한도를 높여야 한다는 논의가 제기됐지만 결국 현행을 유지하는 것으로 가닥이 잡혔다. 9일 국회 정무위원회 소속 김희곤 의원실에 따르면 금융위원회는 이달 5일 정무위에 보고한 예금보험제도 개선 검토안에서 향후 찬반 논의 시장 상황 등을 종합 고려해 상향 여부 등을 검토할 필요가 있다고 밝혔다. 당장 급하게 추진할 사안이 아니라는 것이다. 현재 여야 의원들이 발의한 예금자 보호 한도 상향 개정안은 총 11건으로 보호 한도를 1억원 또는 2억원으로 높이는 내용 등 다양하다. 우리나라는 2001년 2000만원이던 예금자 보호 한도를 5000만원으로 올린 후 지금까지 23년째 한도가 그대로다. 국내 은행에서 계좌당 5000만원을 넘는 예금은 작년 6월 기준 전체 예금의 65.7인 1152조7000억 원으로 집계됐다.보호 한도를 높이자는 의견과 2금융권으로의 자금 쏠림이나 예보료 인상에 따른 소비자 부담 증가를 우려하는 목소리도 함께 고려한 것으로 보인다. 금융위가 공개한 연구 용역 결과에 따르면 보호 한도를 1억 원으로 올리면 은행에서 저축은행으로 자금 이동이 나타나고 이로 인해 저축은행 예금은 1625 가량이 증가할 것으로 추산됐다. 이동 자금은 은행 예금의 1 수준으로 전체 시장 영향은 크지 않을 수 있지만 저축은행 업권 내 과도한 수신 경쟁이 벌어질 경우 일부 소형사에는 충격이 될 수 있다는 내용도 포함됐다. 한도 상향 시 보호 한도 내 예금자 비율은 98.1에서 99.3로 1.2포인트 증가하는 데 그치는 등 실익도 크지 않은 것으로 나타났다. 보호 한도가 5000만 원으로 유지되더라도 사회보장적 상품 등에 대한 별도 한도 적용은 지속적으로 확대되는 추세다. 금융위는 2015년부터 확정기여형 DC형 및 개인형 IRP 퇴직연금의 예금에 대해 일반 예금과 별도로 5000만 원의 보호 한도를 적용해왔으며 연금저축 신탁보험 사고보험금 중소기업퇴직연금기금 등에 대한 별도 보호도 시행을 앞두고 있다. </t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>['퇴직금 제도', '퇴직연금 제도 도입', '퇴직연금 은퇴설계', '퇴직연금 규모', '하나 퇴직연금', '퇴직연금 수익률', '퇴직연금 가입']</t>
+          <t>['확정기여형', '퇴직연금 저축은행']</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>[{'퇴직금 제도': 17}, {'퇴직연금 제도 도입': 2}, {'퇴직연금 은퇴설계': 1}, {'퇴직연금 규모': 3}, {'하나 퇴직연금': 2}, {'퇴직연금 수익률': 3}, {'퇴직연금 가입': 2}]</t>
+          <t>[{'확정기여형': 10}, {'확정기여형': 49}, {'퇴직연금 저축은행': 39}]</t>
         </is>
       </c>
       <c r="K63" t="n">
+        <v>2</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>금융위원회가 상향 여부를 검토할 필요가 있다고 밝혔기 때문에, pension fund management에 영향을 줄 수 있는 내용이다.</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>이 기사에는 industry competition trends에 대한 내용이 없다.</t>
+        </is>
+      </c>
+      <c r="O63" t="n">
         <v>3</v>
       </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>국회 연금개혁특별위원회가 활동기한을 연장하여 국민연금 개혁이 미뤄질 조짐이 보여짐</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>예금자 보호 한도 상향 조정이 불발될 전망이라는 내용이 있으므로, financial market impact에 대한 내용이 포함되어 있다.</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
         <v>2</v>
       </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>국민연금 가입기간이 긴 노동시장 중심부의 노동자들이 대체율 인상의 혜택을 가장 크게 받을 것이라는 언급이 있음</t>
-        </is>
-      </c>
-      <c r="O63" t="n">
-        <v>1</v>
-      </c>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t>미래세대가 GDP 9 지출을 감당할 수 있도록 도움이 필요하다는 언급이 있음</t>
-        </is>
-      </c>
-      <c r="Q63" t="n">
-        <v>0</v>
-      </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>본문에는 법률 및 규제 변경에 대한 내용이 없음</t>
+          <t>이 기사에는 legal and regulatory changes에 대한 내용이 없다.</t>
         </is>
       </c>
       <c r="S63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>가입기간이 짧은 불안정 노동자 저소득층에게 가입기간을 늘려주는 조치 크레딧 제도를 언급하여 노동자들의 노후소득에 대한 영향을 다룸</t>
+          <t>이 기사에는 demographic change에 대한 내용이 없다.</t>
         </is>
       </c>
       <c r="U63" t="n">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>본문에는 기술과 디지털화에 대한 내용이 없음</t>
+          <t>이 기사에는 technology and digitalization에 대한 내용이 없다.</t>
         </is>
       </c>
       <c r="W63" t="n">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>본문에는 소비 행동 및 요구사항에 대한 내용이 없음</t>
+          <t>이 기사에는 consumption behavior and requirements에 대한 내용이 없다.</t>
         </is>
       </c>
     </row>
@@ -7204,85 +7204,85 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>퇴직연금 상품</t>
+          <t>퇴직연금 제도</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>국민연금공단</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>예금자보호한도 현행 유지될듯…금융위 시장상황 등 종합 고려</t>
+          <t>“미래세대 부담? 공포 수준 아니다” vs “감당할 인구가 너무 적다”[국민연...</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>국회에 예보 제도 개선안 보고상향 논의 향후 검토한도 상향 시 저축은행으로 자금 이동일부 소형사 충격 가능성</t>
+          <t>국회 연금개혁특별위원회가 활동기한을 내년 5월까지 연장하기로 했기 때문에 국민연금 개혁이 미뤄질 조짐이다. 국민연금 가입기간이 긴 노동시장 중심부의 노동자들이 대체율 인상의 혜택을 가장 크게 입을 것이기 때문에 재정을 투입하더라도 그 돈이 소득대체율 인상에 우선적으로 쓰이는 것에는 찬성하지 않는다. 가입기간이 짧은 불안정 노동자 저소득층에게 가입기간을 늘려주는 조치 크레딧 제도를 의미.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/001/0014249167?sid=101</t>
+          <t>https://n.news.naver.com/mnews/article/032/0003253584?sid=101</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>국회에 예보 제도 개선안 보고상향 논의 향후 검토한도 상향 시 저축은행으로 자금 이동일부 소형사 충격 가능성  서울연합뉴스 임수정 기자 올해 미국 실리콘밸리은행 SVB 사태 이후 예금자보호한도를 1억원으로 높여야 한다는 논의가 탄력을 받았지만 결국 현행 5천만원으로 유지될 전망이다. 금융당국은 최근 국회 보고에서 예금자보호한도 상향과 관련해 향후 검토가 필요한 사안이라며 논의 시점을 뒤로 미뤘다. 9일 국회 정무위원회 소속 김희곤 의원실에 따르면 금융위원회는 지난 5일 정무위에 보고한 예금보험제도 개선 검토안에서 향후 찬반 논의 시장 상황 등을 종합 고려해 상향 여부 등을 검토할 필요가 있다고 밝혔다. 당장 급하게 추진할 사안이 아니라는 취지로 해석된다. 보호 한도를 높여 금융 제도 신뢰를 강화해야 한다는 의견도 있지만 2금융권으로의 자금 쏠림이나 예보료 인상에 따른 소비자 부담 증가를 우려하는 목소리도 함께 고려한 것으로 보인다. 이는 금융위가 작년 3월부터 예보 금융업권 민간 전문가 등으로 구성된 민관 합동 태스크포스 TF를 통해 예금보험제도 전반을 논의한 결과다.  금융위가 공개한 연구 용역 결과에 따르면 보호 한도를 1억원으로 상향 시 은행에서 저축은행으로 자금 이동이 나타나고 이로 인해 저축은행 예금은 1625가량이 증가할 것으로 추산됐다.  이동 자금은 은행 예금의 1 수준으로 전체 시장 영향은 크지 않을 수 있지만 저축은행 업권 내 과도한 수신 경쟁이 벌어질 경우 일부 소형사에는 충격이 될 수 있다는 내용도 포함됐다. 한도 상향 시 보호 한도 내 예금자 비율은 98.1에서 99.3로 1.2포인트 p 증가하는 데 그치는 등 실익도 그리 크지 않은 것으로 나타났다.  다만 예금을 분산 예치하고 있는 금융소비자의 편의를 제고하는 효과는 있다고 분석됐다. 6차에 걸친 민관 합동 TF 회의 주요 논의 사항도 공개됐다.  금융업권은 현재도 예금자 대부분이 보호되고 있어 한도 상향의 소비자 보호 강화 효과는 크지 않으면서 업권 부담은 늘어날 우려가 있다는 의견을 주로 개진한 것으로 나타났다. 아울러 연금저축 사고보험금 등에 대한 별도 한도 적용을 추진 중이기 때문에 제도 개선의 효과를 지켜본 뒤 전체 한도 조정을 검토할 필요가 있다고 주장했다. 민간 전문가들 사이에서는 금융소비자 신뢰 제고 등 측면에서 한도 상향을 고려할 필요가 있다는 의견이 나왔다.  다만 최근 미국 사례 등을 보면 한도를 높여도 뱅크런 방지 효과가 제한적일 수 있기 때문에 위기 시에는 한도 상향보다는 전액 보호 조치가 필요할 수 있다는 주장도 나왔다. 결국 금융위는 이러한 다양한 찬반 논의가 이어지는 데다가 시장 불안도 가라앉지 않은 상황을 종합 고려해 신중론을 고수한 것으로 보인다. 또한 보호 한도가 5천만원으로 유지되더라도 사회보장적 상품 등에 대한 별도 한도 적용은 지속적으로 확대되는 추세다.  금융위는 2015년부터 확정기여형 DC형 및 개인형 IRP 퇴직연금의 예금에 대해 일반 예금과 별도로 5천만원의 보호 한도를 적용해왔으며 연금저축 신탁보험 사고보험금 중소기업퇴직연금기금 등에 대한 별도 보호도 시행을 앞두고 있다. 다만 국회 논의 과정이 변수가 될 수 있다. 정치권에서는 예금자 보호 한도가 2001년 이후 23년째 5천만원에 머물러 있어 경제 규모에 맞게 현실화해야 한다는 의견이 우세하다.  sj9974yna.co.kr</t>
+          <t xml:space="preserve"> 국민연금 개혁은 올해에도 물 건너가는 것일까. 연금개혁의 시간표가 다시 미뤄질 조짐이다. 국회 연금개혁특별위원회가 활동기한을 내년 5월까지 연장하기로 했기 때문이다. 인기 없는 연금개혁 속성을 감안할 때 내년 4월 총선 이후에나 본격 논의될 가능성이 높아졌다.국민연금 개혁은 2007년 이후 번번이 무산돼왔다. 지난 16년간 정부와 정당들은 전문가들의 논쟁 뒤에 숨은 채 뒷짐만 져왔다. 정부와 정당이 각자의 입장을 내놓고 여론을 수렴하는 과정을 회피하는 동안 전문가들의 열띤 논쟁은 대중에게 제대로 소개되지 못했다.주간경향은 국민연금을 두고 이어져 온 소득대체율 인상론과 재정안정론의 끝장토론 자리를 마련했다. 소득대체율 인상론 측의 주은선 경기대 사회복지학과 교수와 재정안정론 측의 오건호 내가만드는복지국가 정책위원장이 지난 10월 4일 경향신문사 여적향에서 논쟁을 벌였다. 국민연금 개혁해야 하는 이유는국민연금 개혁이 필요한 이유에 대한 생각부터 양측이 다른 것으로 안다. 왜 개혁이 필요한지를 각자 말해달라.오건호 내가만드는복지국가 정책위원장 이하 오 국민연금이 지속가능성을 가지기 위해서는 고강도 재정안정화가 필요하다는 것이 최근 5차 재정계산서도 확인됐다. 현재 젊은 세대들이 국민연금을 불신하는 이유는 지속가능성에 대한 불안 때문이라고 생각한다. 청년들에게 비전을 보여줄 필요가 있다. 물론 공적연금의 존재 목적이 노후소득 보장인 만큼 노후소득 보장을 강화하는 제도개혁 또한 필요하다. 하지만 어떤 방식이 적절할지는 서로 이견이 있다. 서로 잘 논의해 앞으로 조정이 되길 바란다. 재정계산은 현 보험료와 연금액을 유지할 때 기금이 언제 소진되는지 등을 보여주는 계산으로 국민연금법에 따라 5년마다 하도록 돼 있다. 올해 5차 계산에선 현 제도를 그대로 유지할 경우 기금이 2055년 소진되고 그해 걷어서 그해 연금액을 충당할 경우 미래 청년세대 보험료율은 최대 35까지 오른다는 결과가 나왔다편집자 주주은선 경기대 사회복지학과 교수 이하 주 국민연금이 도입된 지 30년이 지났지만 노후소득 보장 기능이 너무 심하게 부족하다. 평균급여액이 약 60만원이다. 초고령화 국면에서 노후빈곤을 어떻게 예방할 것인가에 대한 논의는 그간 소극적이었다고 생각한다. 초고령사회에선 노후소득을 획기적으로 보장해야만 살 만한 사회가 된다. 게다가 2030년에서 2050년 사이 국민연금을 받게 되는 사람들의 보장수준은 보험료를 내는 기간은 더 늘어나는 데도 오히려 더 떨어질 것으로 예상된다. 2007년 급여삭감 때문이다. 그런 의미에서 저는 소득대체율 인상이 꼭 필요하다고 본다. 소득대체율은 은퇴 후 받게 될 연금액 수준을 보여주는 지표다. 현재 국민연금 소득대체율은 42.5다. 일하던 시기 100만원을 벌었다면 은퇴 후 연금액으로 42.5만원을 받는 것을 의미한다. 40년 가입 기준이다. 보험료 납입기간이 40년보다 짧으면 실제 대체율 수준은 더 낮아진다. 대략 1년당 1씩 낮아진다고 보면 된다. 현 소득대체율 42.5는 조금씩 줄어 2028년 40에 도달하게끔 돼 있다. 이번 토론에서는 편의상 소득대체율을 40로 놓고 대화했다편집자 주재정계산 결과를 보면 미래 청장년 세대의 보험료 부담이 커지는 것은 사실로 여겨진다.주 재정계산은 팩트가 아니라 추정일 뿐이다. 현재 시점에서 미래라는 과녁에 화살을 던지는 것과 같은데 성장 고용 소득 인구 등의 변수에 따라 과녁은 계속 움직인다. 그런 의미에서 언론이 자주 쓰는 2055년 기금 고갈된다는 등의 표현은 타당하지 않다. 추정을 팩트로 표현하는 것이기 때문이다. 다만 재정계산 결과로 흐름은 볼 수 있다. 미래 생산세대의 부담이 늘어나는 것은 맞다. 그런데 노인이 인구 40를 넘는 사회에서 국민연금 지출이 GDP의 약 11가 되는 것이 비상식적인가 싶다. 그 시기 노인들이 받아갈 연금액을 온전히 청장년 개인들이 보험료로 부담해야 한다는 생각에서 벗어나야 한다. 분담 구조를 어떻게 짤 것인가를 고민하면서 풀어야 할 문제다.오 재정계산이 미래의 수치를 알아맞히는 작업이 아닌 것은 맞다. 그 대신 구조를 보는 것이다. 특정 시점에서의 지출과 수입의 구조를 봐서 재정이 균형을 이루고 있는지 아닌지를 보는 것이다. 불균형이라면 불균형의 규모를 보는 것이다. 미래의 국민연금 재정이 매우 불안정해지기 때문에 현세대와 달리 미래세대의 재정부담이 무척 커진다는 계산 결과의 메시지는 명확하다. 주 교수가 말한 고용 소득 인구 등의 변수를 다양하게 넣어도 이 메시지는 변하지 않는다.미래세대 개인이 모두 부담한다는 생각에서 벗어나야 한다. 국민연금의 소득재분배 성격을 고려하면 조세 투입을 못 할 이유가 없다. 현재 부과 대상이 GDP의 30를 안 넘는다. 플랫폼 기업 등에도 부담을 지워야 한다. 미래세대 부담 심각하다 vs 과장이다미래세대 부담이 심각하냐 아니냐에 대한 입장이 갈리는 것 같다.주 현재의 소득대체율 40를 유지했을 때 70년 후 국내총생산 GDP의 9가량이 연금액으로 지출될 것으로 보인다. 만약 소득대체율을 50로 올리면 70년 후 GDP의 약 11를 지출하게 된다. 지금도 노인 세대를 위한 공적연금에 GDP 11 이상을 지출하는 나라들이 꽤 있다. 이 정도를 그리 공포스러워 해야 하나. 시장에서 일하지 못하는 인구에 적정 소득을 보장해 소비할 수 있게 해서 경제균형을 이뤄나가는 것 그게 복지국가고 복지 자본주의다. 미래세대에게 감당하기 어려운 부담을 떠넘긴다고 얘기하는 것은 과장이다.오 먼저 소득대체율을 40에서 더 낮추자는 입장은 아니라는 점을 말하고 싶다. 지금의 소득대체율을 유지하자는 입장이고 그럴 경우 말한 대로 70년 후 미래세대가 GDP 9 지출을 감당해야 한다. 그런데 그들이 처할 환경이 무척 어려울 거다. 연금액 지출에 GDP 11 이상 지출하는 서구 국가들 얘기를 했는데 20세기 중후반의 서구와 비교할 때 한국의 노인부양비는 매우 높아지는 구조다. 초저출생 때문이다. 서구 국가들의 GDP 10와 미래 한국사회의 GDP 10를 감당하는 인구 규모가 완전히 다르다. 우리가 훨씬 적을 것이다. 게다가 그 세대는 그해 걷어서 그해 지출해야 하는 건강보험과 기초연금 등의 부담도 훨씬 커질 전망이다. 미래세대가 GDP 9 지출을 감당할 수 있도록 지금 우리가 도와줘야 한다고 본다. 현재 우리의 연금액 지출은 GDP 2다. 지금부터 단계적으로 올려야 한다.주 보험료 인상에 반대하는 것은 아니다. 소득대체율 인상이 필요하다는 입장에서는 더욱 그렇다. 다만 지나친 연기금 적립 역시 문제이므로 그 속도와 폭을 조정해야 한다. 70년 후 GDP 911 지출이 큰 부담이냐 아니냐에 대한 얘기를 이어나가겠다. 공적연금 지출을 줄여주는 것이 과연 미래세대의 부담을 덜어주는 일일까. 부모가 국민연금만으로 노후를 보내기 어려워지면 자녀의 사적이전 생활비를 드리는 것 부담이 늘어난다. 은퇴 이후가 불안해 사적연금 시장에 기대는 이들도 많아질 거다. 아울러 연금액이 낮아 노후빈곤에 처하는 사람이 많아질수록 기초연금과 국민기초생활보장제도와 같은 공공부조 부담도 늘어난다. 사회연대의 원리에 입각한 국민연금이 더 많은 사람의 노후를 제대로 보장하게 하는 것이 결과적으로 모두의 부담을 더는 길이다. 그리고 앞서 말했듯 개인들이 GDP 11를 전부 부담해야 한다는 생각에서 벗어나 새로운 연금재정 패러다임에 대해 고민해 볼 필요도 있다. 새로운 재정 패러다임 가능할까미래의 청장년 세대 개인이 모두 부담해야 한다는 생각에서 벗어나야 한다고 했는데 구체적으로 어떻게 가능할까.주 장기적으로 조세가 역할을 할 수 있다고 본다. 우리의 국민연금엔 소득재분배 성격이 있다 국민연금은 보험료를 낸 만큼 연금액을 받는 구조가 아니다. 평균소득보다 적게 번 이들에게 상대적으로 더 얹어주는 하후상박 구조다. 물론 절대적인 연금액은 고소득층이 높지만 낸 보험료 대비 연금액의 비율은 저소득층이 더 높다편집자 주. 국민연금의 소득재분배 성격을 고려하면 조세 투입을 못 할 이유가 없다고 본다. 자본의 역할을 강화하는 방식도 있다. 지금은 기업과 개인이 보험료를 55 부담하는데 기업 부담을 6570로 올릴 수도 있다. OECD 평균이 대략 그 정도다. 아울러 보험료 부과 대상소득이 GDP의 30 이하로 26 수준인 것으로 추정된다. 이를테면 사실상 사용자 역할을 하고 있는 플랫폼 기업에 보험료 부담을 지워야 한다. 프랑스는 자산소득을 비롯한 모든 종류의 개인소득과 대기업 법인세에 사회보장세를 부과한다. 장기 미래에 가능한 재정 패러다임 변화를 지금 구체적으로 얘기하긴 어렵다. 미래에 부가 어떤 방식으로 창출될지 그 변화를 미리 예단하기가 어렵기 때문이다.오 국민연금에 보험료 이외 재원 투입될 수 있다고 본다. 문제는 미래세대의 지출 부담은 지금 명확하게 수치로 확인이 되는데 소득대체율 인상론 측이 말하는 충당 방안은 아직 범주 수준이다. 저는 소득대체율 인상은 어렵다는 입장이지만 소득대체율 유지 역시 미래세대 부담이 크기 때문에 개인적으로 가늠을 해봤다. 현재 보험료 부과대상이 GDP의 30가 채 되지 않는다고 했다. 마치 70라는 미지의 영역이 남아 있는 것처럼 여겨지지만 국민계정에 분배 GDP 구성을 들여다보면 추가 부과대상으로 삼을 만한 것이 그리 많지 않다. 부과대상을 현 30 수준에서 40 수준으로 높이고 보험료율 15로 인상해도 재원은 여전히 매우 모자라다. 결국은 법인과 자본에다 과세하자는 주장인데 부족액을 충당할 만큼 확보할 수 있느냐의 문제가 있다. 우리는 이미 기업과 자본소득에 대해서 과세를 하고 있다. 자동차든 로봇이든 부동산이든 결국은 재산세와 종합부동산세로 거둬질 거다. 여기에 횡재세 정도가 추가될 수 있다. 과세를 강력히 한다고 해도 여전히 부족할 것이다. 나아가 혹시 충분한 재원이 나온들 그걸 소득대체율 인상에 따른 부족액을 메우는 데 쓰는 게 맞느냐는 또 다른 논점이 있다.무슨 뜻인가.오 현재 가입자들은 보험료가 너무 낮다 보니 낸 것에 비해 과하게 많이 받게 돼 있다. 낸 것보다 더 받는 만큼을 미래세대에 빚지고 있는 거다. 이걸 현세대가 보험료 인상으로 어느 정도 책임을 져야 그다음 조세 투입도 얘기할 수 있다고 본다. 그래서 저는 보험료율 15까지는 점진적으로 인상하되 그 이후에도 재정이 어렵다면 그때는 국고 투입이 가능하다고 본다. 하지만 재정을 투입하더라도 그 돈이 소득대체율 인상에 우선적으로 쓰이는 것에는 찬성하지 않는다. 국민연금 가입기간이 긴 노동시장 중심부의 노동자들이 대체율 인상의 혜택을 가장 크게 입을 것이기 때문이다. 가입기간이 짧아 소득대체율이 실질적으로 낮은 불안정 노동자들을 위해 재정이 우선적으로 쓰여야 한다고 본다.국민연금 보험료가 너무 낮다 보니 계층 간 역진성 문제가 생긴다. 고소득자가 덜 받는 만큼 저소득자가 더 받아가는 게 아니다. 모두가 낸 것보다 더 받아가며 그 돈이 미래세대에서 온다. 기간이 길고 임금이 높을수록 순혜택이 크다. 소득대체율 인상 고소득층에 더 유리 vs 사회보험 특성 이해해야소득대체율 인상이 어떤 효과를 낼 것이냐에 대한 논의로 이어가자. 재정안정론 측에서는 소득대체율 인상이 실질적인 소득대체율 인상으로 이어지지 않을 것이라고 주장하는 것으로 안다.오 국민연금 급여는 결국 소득비례 가입기간 비례다. 연금액을 일제히 높이는 소득대체율 인상의 효과는 높은 임금을 받으면서 장기간 고용된 노동시장 중심부에 집중될 것이다.주 그 주장은 사회보험이 정의롭지 않다고 얘기하는 것과 같다. 고용보험의 실업급여 역시 소득비례다 더 많이 벌던 사람이 더 많은 실업급여를 받는다는 뜻이다편집자 주. 실업급여의 소득대체율을 50에서 60로 올리는 것은 임금이 높을수록 혜택이 크니 정의롭지 않은 것인가. 국민연금의 급여나 고용보험의 실업급여나 본질적으로 기존 소득의 대체 기능을 하도록 돼 있는 것이다. 그게 그 제도의 목적이다. 게다가 다른 사회보험과 달리 국민연금에는 강력한 재분배 요소가 들어가 있다.오 사회보험의 특성과 국민연금의 재분배 요소를 무시하는 것이 아니다. 지금의 국민연금엔 보험료가 너무 낮다 보니 생기는 계층 간 역진성의 문제가 있다 저소득층보다 고소득층에 더 유리하다는 뜻편집자 주. 무슨 얘기냐면 지금 국민연금에 소득재분배 기능이 있긴 하지만 고소득자가 덜 받는 만큼을 저소득자가 더 받아가는 구조가 아니다. 모두가 낸 것보다 더 받아가는데 그 돈은 미래세대에서 오는 것이다. 낸 보험료보다 더 돌려받는 만큼을 순혜택이라고 하는데 가입기간 길고 임금 높을수록 순혜택 절대액이 커진다. 즉 미래세대 부담으로 귀결되는 순혜택의 이득이 노동시장 중심부 고소득자들에게 집중된다는 얘기다. 이것이 옳으냐 하는 문제 제기다.주 국민연금에서 각자 낸 보험료와 급여의 수익을 따지며 계층 간 역진성 고소득층에 유리한 성격 얘기하는 자체가 이상하다고 생각한다. 국민연금제도는 각자 계정에 돈을 쌓고 자기가 낸 돈에 상응해 급여를 받는 제도가 아니다. 총량적으로 수입 보험료과 지출 연금액을 맞춰가는 제도이며 장수에 대응하는 제도이므로 수명에 따라 보장 총량이 달라진다. 개별 수익을 중심으로 연금제도를 보는 것은 공적연금의 본질과 어긋난 접근이란 생각이다. 하지만 계층별 수익을 따진다고 하더라도 오 위원장의 문제 제기는 일정 수준 이상의 보험료 인상으로 해소된다. 이것은 소득대체율 인상을 가로막을 근거가 되지 않는다. 오히려 소득대체율도 인상하되 거기에 필요한 재원을 어떻게 재분배성이 강하게 설계할 것이냐에 대한 얘기를 해야 하지 않을까.오 보험료 인상과 더불어 소득대체율을 인상하면 보험료 인상의 효과가 상쇄된다. 미래세대의 부담을 덜어주지 못한다는 얘기다. 그 세대의 부담으로 귀결되는 혜택이 노동시장 중심부에 집중되는 문제를 풀지는 못한다. 국고지원을 적극 얘기하고 있다. 앞서 말했듯 저도 반대하지 않는다. 그런데 입장을 명확하게 하기 위해 이렇게 나눠서 얘기했으면 좋겠다. 국민연금 부족액을 위한 국고지원 크레딧 제도와 보험료 지원사업을 위한 국고지원으로 말이다.국고를 투입하더라도 무엇에 우선적으로 지원할 것이냐에 대한 얘기인 것 같다.주 뭘 먼저 하고 뭘 나중에 한다는 식으로 접근할 문제는 아니라고 본다. 우리나라 국민연금 보장 수준은 그냥 무슨 짓이든 다 해야 하는 수준이다. 소득대체율 인상과 가입기간을 늘려주는 조치가 같이 가야 하는 것이지 우선을 따질 일이 아니라고 본다. 크레딧 제도는 군복무 출산 등 사회적 공헌을 한 이들에게 가입기간을 늘려주는 것이다. 소득대체율은 급여산식을 바꿔서 적용하는 폭넓은 조치인 반면 크레딧 제도는 일정한 공헌을 한 사람을 타켓팅한 제도다. 그리고 질병이나 장애 등 여러 사정으로 인해 사회적 공헌을 못 하는 이들도 많다. 두 기제는 대체 가능한 것이 아니다. 아울러 취약계층 보험료 지원사업은 당연히 해야 하는 것이다. 그런 과제를 뒤로 미루자는 얘기가 아니다. 오히려 소득대체율 인상과 결합할 때 이런 조치의 보장성 강화 효과는 더 커진다. 또 중심부 노동자들 얘기를 하셨는데 그렇다면 그들은 은퇴 이후 소득절벽이란 위험에서 벗어나 있나. 소득대체율 인상하면 이 사람들만 혜택 봐요라고 하면서 마치 이들이 기득권을 형성하고 있는 것처럼 말하고 있다. 실질적으로는 별 기득권도 없는데. 퇴직연금은 연금으로서 역할을 할 수 있나오 중간계층 중산층의 연금액도 충분치 않은 것은 사실이다. 그런데 결국은 한정된 자원의 배분 문제 아닌가. 우선순위로 무엇을 둘 것인가의 문제라고 생각한다. 소득대체 인상도 미래세대 부담이 될 재원 문제 때문에 다른 대안을 찾자는 것이다. 가입기간이 짧은 불안정 노동자 저소득층에게 가입기간을 늘려주는 조치 크레딧 제도를 의미. 가입기간을 1년 늘려줄 때 소득대체율 1씩 늘어난다편집자 주를 통해 그들의 실질적인 소득대체율을 올려줄 수 있다고 본다. 중상위 계층에게도 소득대체율 인상 대신 다른 대안이 있다. 기업이 매년 임금의 8.34씩을 퇴직금으로 쌓아두고 있다. 지난해 한해간 쌓인 퇴직금 적립액이 그해 국민연금 보험료 총액을 넘어섰다. 든든한 연금으로 기능케 할 잠재력이 퇴직금에 충분히 있다는 뜻이다.주 현 제도는 퇴직급여 제도이고 퇴직금과 퇴직연금 중 선택할 수 있게 돼 있다. 퇴직연금 가입률은 가입대상 노동자의 절반을 약간 넘는다. 퇴직연금은 금융시장을 통해 돌아가는 사적연금으로 재분배 기능이 없고 유족급여 장애급여도 없다. 국민연금처럼 죽을 때까지 물가연동으로 실질가치를 보장해주는 그런 질 좋은 연금이 아니다. 퇴직연금에 대해 제대로 된 노후소득보장 기능을 기대하기는 힘들다.오 퇴직연금은 사적연금인 건 맞다. 여러 한계가 있지만 그럼에도 사용자가 전액 기여 매해 각 노동자의 임금 8.34를 적립하는 제도다. 저는 두 가지의 정책 과제를 더하면 퇴직연금도 중상위층이 기댈만한 연금이 될 수 있다고 본다. 한가지는 1년 미만 고용된 노동자에게도 퇴직금 제도를 적용하는 것 또 다른 과제는 비자발적 실업기간에도 실업급여를 보장해줘 퇴직금의 중간해지를 엄격히 규제하는 것이다. 네덜란드나 덴마크 등에선 퇴직연금이 노후소득원의 한 축으로 작동한다.주 네덜란드 덴마크는 산별협약에 의해 작동하는 퇴직연금으로 성격이 다르다. 한국에는 그런 기반이 없다. 퇴직금을 제대로 된 연금으로 작동하도록 제도를 개혁하는 데 시간이 매우 많이 걸릴 것이다. 가능할지도 불확실하다.오 국민연금 소득대체율을 인상해도 효과가 나타나려면 지금부터 20년 있어야 한다. 20년이면 퇴직연금의 개혁도 할 수 있는 시간이다. 다층연금체계로 노후소득보장 효과를 충분히 볼 수 있다고 본다. 중상위계층에겐 국민연금퇴직연금 중간계층은 국민연금 하위계층에겐 국민연금기초연금의 체계가 적용되게끔 하자는 것이다.주 공적 노후보장제도에 대해 이렇게 계층별로 나눠서 접근하는 것은 맞지 않다. 우리는 국민연금 보험료를 냄으로써 미래의 연금 청구권을 쌓아간다. 기여를 했으니 나중에 생산되는 부의 일정한 몫을 받아갈 권리가 생긴다는 얘기다. 그런데 기초연금은 그런 제도가 아니다. 국민연금의 역할과 사회 상황에 따라 앞으로 어떻게 변해갈지 모르는 제도이다 이것을 미래 노후소득보장 한축으로 확정적으로 얘기하는 것은 맞지 않다. 국민연금에 10년 납입해서 받는 연금액은 기초연금을 합쳐도 기초생활보장제도의 내년 생계급여 71만원에 미치지 못한다. 기초연금이나 국민기초생활보장급여를 통해 보장받는 최저수준보다 국민연금 보장수준이 훨씬 높아야만 공적연금이 제대로 돌아간다.각자가 생각하는 개혁안은. 간단히 말해서 얼마의 보험료와 소득대체율이 적절하다고 보나.오 지난 9월 1일 재정계산위원회가 제시한 안을 기본축으로 해서 사회적 논의가 이뤄졌으면 좋겠다. 앞으로 10년 동안 매해 보험료율을 0.6포인트씩 올려 15에 도달케 하자는 방안이다. 여기에 연금수급개시 연령을 2048년에 최장 68세까지 상향하는 안과 기금수익률을 높이는 안을 조합했다.주 2007년 소득대체율을 50에서 40로 떨어뜨리는 제도 변화가 있었다. 이것을 50로 다시 회복시켜야 한다. 보험료율은 13 선을 생각했다. 그러나 어느 정도의 속도로 그 선에 도달하느냐는 열어놓고 생각해볼 필요가 있다. 재정계산위 사퇴 뒤 우리의 비전을 보여주는 대안보고서를 준비 중이다 지난 8월 31일 주은선 교수와 남찬섭 동아대 사회복지학과 교수는 복지부 산하 재정계산위원회가 소득대체율 인상론을 제대로 다루지 않는다는 이유로 재정계산위의 민간위원직을 사퇴한 바 있다. 재정계산위는 국민연금의 장기적인 수입지출 기금 규모를 계산해 정부에 보험료연금액 조정안을 제안하기로 한 보건복지부 산하 민관 합동위원회다. 두 교수는 재정계산위와 별도로 대안 보고서를 준비 중이다.편집자 주.좋은 연금개혁을 위한 조건이 있다면.오 정치권에는 연금이 부담스러운 주제일 것이다. 하지만 책임 있는 정치를 하겠다고 한다면 자기의 안을 제시해야 한다고 본다. 이 중요한 의제에 대해 논의가 시작됐음에도 아직 안이 없는 것으로 안다. 게다가 국회 연금특위를 내년 5월까지 연장한다고 한다. 총선 전에 연금개혁에 대한 입장을 안 낼 수도 있다는 메시지로 읽힌다. 미래를 좌우할 정책에 대해 안을 내고 국민에게 선택을 받는 것이 선거에 임하는 정당의 책임 있는 자세 아닐까.주 연금개혁은 정부가 중심이 되어 끌어갈 수도 있고 정당이 사회적 합의를 이끌어갈 수도 있다. 어떤 방식이 됐든 책임을 더 많이 져야 하는 주체들에게 의견을 묻고 제대로 책임을 부여하는 쪽으로 나아가야 한다고 생각한다.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>['확정기여형', '퇴직연금 저축은행', '퇴직연금 예금']</t>
+          <t>['퇴직금 제도', '퇴직연금 제도 도입', '퇴직연금 은퇴설계', '퇴직연금 규모', '하나 퇴직연금', '퇴직연금 수익률', '퇴직연금 가입']</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>[{'확정기여형': 2}, {'퇴직연금 저축은행': 10}, {'퇴직연금 예금': 37}]</t>
+          <t>[{'퇴직금 제도': 17}, {'퇴직연금 제도 도입': 2}, {'퇴직연금 은퇴설계': 1}, {'퇴직연금 규모': 3}, {'하나 퇴직연금': 2}, {'퇴직연금 수익률': 3}, {'퇴직연금 가입': 2}]</t>
         </is>
       </c>
       <c r="K64" t="n">
+        <v>3</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>국회 연금개혁특별위원회가 활동기한을 연장하여 국민연금 개혁이 미뤄질 조짐이 보여짐</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>2</v>
       </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>금융위원회는 예금보험제도 개선 검토안에서 향후 찬반 논의 시장 상황 등을 종합 고려해 상향 여부 등을 검토할 필요가 있다고 밝혔다.</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>국민연금 가입기간이 긴 노동시장 중심부의 노동자들이 대체율 인상의 혜택을 가장 크게 받을 것이라는 언급이 있음</t>
+        </is>
+      </c>
+      <c r="O64" t="n">
         <v>1</v>
       </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>한도 상향 시 저축은행 업권 내 과도한 수신 경쟁이 벌어질 경우 일부 소형사에는 충격이 될 수 있다는 내용도 포함됐다.</t>
-        </is>
-      </c>
-      <c r="O64" t="n">
-        <v>0</v>
-      </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>No information related to financial market impact.</t>
+          <t>미래세대가 GDP 9 지출을 감당할 수 있도록 도움이 필요하다는 언급이 있음</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>금융소비자의 편의를 제고하는 효과는 있다고 분석됐다.</t>
+          <t>본문에는 법률 및 규제 변경에 대한 내용이 없음</t>
         </is>
       </c>
       <c r="S64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>No information related to demographic change.</t>
+          <t>가입기간이 짧은 불안정 노동자 저소득층에게 가입기간을 늘려주는 조치 크레딧 제도를 언급하여 노동자들의 노후소득에 대한 영향을 다룸</t>
         </is>
       </c>
       <c r="U64" t="n">
@@ -7290,7 +7290,7 @@
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>No information related to technology and digitalization.</t>
+          <t>본문에는 기술과 디지털화에 대한 내용이 없음</t>
         </is>
       </c>
       <c r="W64" t="n">
@@ -7298,7 +7298,7 @@
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>No information related to consumption behavior and requirements.</t>
+          <t>본문에는 소비 행동 및 요구사항에 대한 내용이 없음</t>
         </is>
       </c>
     </row>
@@ -7310,7 +7310,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>퇴직연금 제도</t>
+          <t>퇴직연금 상품</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -7320,75 +7320,75 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>“연금 수령액 늘릴 재원 불투명” vs “노후소득 보장이 본래의 목적”[인사...</t>
+          <t>예금자보호한도 현행 유지될듯…금융위 시장상황 등 종합 고려</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>국민연금의 소득대체율을 현행 40에서 50으로 인상해야 노후 최소 생활비를 보장할 수 있다. 청년세대의 형평성을 제고하기 위해서도 소득대체율을 인상해야 한다. 국민연금으로는 5년 후에도 그리고 10년 후에도 노인 빈곤을 해소하지 못하게 될 것이다.</t>
+          <t>국회에 예보 제도 개선안 보고상향 논의 향후 검토한도 상향 시 저축은행으로 자금 이동일부 소형사 충격 가능성</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003524381?sid=110</t>
+          <t>https://n.news.naver.com/mnews/article/001/0014249167?sid=101</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t xml:space="preserve">1988년생 국민연금이 올해로 서른다섯 살이다. 지난달 적립금은 1000조 원을 넘었다. 하지만 2055년에는 지갑이 텅 빌 것으로 전망된다. 보험료를 낼 청년과 장년이 줄고 연금을 받을 노인은 늘고 있다. 연금이 제 기능을 하려면 내는 돈 보험료율 인상을 포함한 대수술이 불가피하다. 그런데 받는 돈 소득대체율을 두고는 의견이 갈린다. 재정 안정을 위해 현행 40를 유지해야 한다는 주장과 노후소득 보장을 위해 4550로 올려야 한다는 주장이 맞선다. 정부 자문기구인 국민연금 재정계산위원회도 둘로 쪼개졌다. 동아일보는 소득대체율에 대해 정반대 견해를 지닌 두 학자의 글을 싣는다. 소득대체율 인상 반대오건호 내가 만드는 복지국가 정책위원장연금 개혁에서 보장성 강화는 중요한 과제다. 그 방안의 하나로 국민연금 명목 소득대체율 인상이 주장된다. 나는 이 방안이 우리나라 연금체계에서 적절하지 않다고 판단한다. 추가 재원이 수반되면서도 빈곤 노인에게 효과가 크지 않고 보장성의 시야를 협소하게 가두기 때문이다. 첫째 소득대체율을 올려도 소득이 적고 가입 기간이 짧은 불안정 취업자에게 연금액 인상 효과는 약하다. 국민연금의 급여액은 노동시장의 지위를 반영해 소득이 높고 가입 기간이 길수록 많으므로 소득대체율을 40에서 50로 올려도 정작 노인 빈곤 위험이 큰 가입자의 인상액은 그리 많지 않다. 노인 빈곤이 심하니 소득대체율을 올려야 한다는 주장이 설득력이 약한 이유이다. 둘째 경제협력개발기구 OECD 연금보고서에 한국 공적연금의 소득대체율이 회원국 평균보다 낮게 제시된 것을 인용하는데 이것이 국민연금 명목 소득대체율과 같은 개념은 아니다. OECD의 소득대체율은 국민연금의 지급률 1년 가입당 소득대체율에 의무가입기간 기초연금을 종합해 산정된다. 무엇이 한국 공적연금의 소득대체율을 낮게 만들었을까. 우선 국민연금 급여는 회원국 대다수 소득비례 연금과 달리 하후상박 구조를 지닌다. OECD 연금 산식에서 평균소득이 국민연금 내부에서는 가입자 평균 소득의 1.6배에 해당하기에 상대적으로 낮은 지급률이 적용되는 중상위 소득 가입자가 국민연금을 대표하고 있다. 또한 국민연금은 의무가입 기간이 OECD 평균보다 6.1년이 짧아 OECD 산식에서 그만큼 소득대체율이 낮게 계산된다. 노인 70가 받는 기초연금이 한국 소득대체율 산정에서 제외된 것도 유념할 이유이다. 국민연금의 하후상박 구조는 그대로 유지한다면 필요한 건 의무가입 연령을 올리고 한국 소득대체율 산정에 기초연금을 포함하도록 OECD와 협의하는 일이다. 셋째 소득대체율 인상론의 재정 안정화 방안이 불명확하다. 국민연금을 장기 추계하면 미래에 당해 수지 적자가 국내총생산 GDP의 7에 이르고 소득대체율을 50로 올리면 9로 커진다. 인상론은 보험료 외에 자본과 이윤에 세금을 더 부과하고 보험료 부과 대상도 확대하자고 제안한다. 현행 소득대체율에서도 다양한 재원을 마련해야 하기에 이는 어떤 입장에서든 필요한 일이다. 그런데 내용이 당위적 방향에 머문다. 구체적으로 어디에서 얼마를 더 거두어 재정 부족분의 얼마를 충당하는지를 제시해야 재정 안정화 방안이다. 보장성 확대를 반대하는 게 아니다. 시야를 국민연금 명목 소득대체율에 한정하지 말자는 비판이다. 이미 법정 의무 제도로 기초연금 국민연금 퇴직연금이 운영되고 있다. 이 현실을 직시해야 노후소득 보장을 위한 실질적 계획도 세울 수 있다. 우선 기초연금은 2022년 급여 지출액이 20조 원으로 국민연금 34조 원의 절반을 넘는 제도로 성장했다. 앞으로 노인 수가 대폭 늘어나므로 대상은 줄이되 저소득일수록 금액을 더 지급하는 최저보장 소득 방식으로 전환해 노인 빈곤에 대응하자. 국민연금은 지속가능성을 위해 단계적으로 보험료율을 올려가자. 보장성에서는 가입 기간을 늘리는 게 과제다. 출산 실업 군 복무 등으로 연금 가입이 불리한 사람들에게 연금 크레디트를 대폭 확대하고 도시의 지역 가입자에게 국가가 보험료를 절반 지원해 가입을 독려하자. 현재 만 59세인 의무가입 연령도 64세로 상향하면 명목 소득대체율 5포인트 인상 효과가 생긴다. 퇴직연금은 지난해 기업이 납부한 기여금 총액이 57조 원이었다. 국민연금 보험료 수입 56조 원보다 많다. 이제부터 1년 미만 고용 노동자에게도 적용하고 중간 해지를 엄격히 관리해 연금으로 자리 잡게 하자. 시야를 기초연금 국민연금 퇴직연금의 연금 삼총사로 확장하자. 그래야 적정 노후소득 보장을 설계하고 지속가능성도 확보하며 청년들과 연금 개혁 비전을 이야기할 수 있다. 소득대체율 인상 찬성지난달 1일 국민연금 제도개선 방향에 관한 공청회에서 국민연금 재정계산위원회는 이른바 더 내고 더 늦게 받고 그대로 받는 연금개혁안을 제안했다. 당연히 반발이 나왔고 그에 대해 정부는 소득대체율을 올리는 방안도 고려할 것이라고 했다. 국민연금 소득대체율을 올려야 하는 이유는 많다. 첫째 모든 제도는 그것의 본래 목적을 달성할 수 있어야 지속 가능하다. 국민연금도 신뢰를 얻고 지속 가능하려면 본래 목적인 노후소득 보장을 실현해야 한다. 국민연금은 그간의 개혁으로 소득대체율을 너무 급격히 인하한 관계로 급여 수준이 매우 낮아지게 됐다. 우선 국제 기준으로도 낮다. 소득대체율이 현 상태를 유지하면 국민연금 소득대체율은 경제협력개발기구 OECD 기준으로 31.2가 되는데 이는 OECD 평균 42.2의 74 수준에 불과한 것이다. 그런데 여기서 주의할 것은 이 31.2라는 소득대체율은 가입 기간을 38년으로 즉 최대 가입 기간으로 가정했을 때의 수치라는 점이다. 이번 재정계산에 따르면 국민연금 실제 가입 기간은 2030년부터 새로 국민연금을 받는 수급자의 경우 20년 2060년대 이후 신규 수급자는 27년 정도일 것으로 각각 전망됐다. 따라서 실가입 기간을 27년으로 가정하면 소득대체율은 31.2가 아니라 22가 된다. 이러니 실가입 기간을 반영한 국민연금의 급여 수준은 노후 최소 생활비 월 113만 원의 60 정도에 불과하고 여기에 기초연금을 합해도 80 정도에 그친다. 따라서 기초연금을 합해 국민연금이 적어도 노후 최소 생활비만큼을 보장하기 위해서는 소득대체율을 현행 40에서 50로 인상해야 한다. 둘째 소득대체율 인상은 청년세대의 형평성 제고에 기여한다. 현 청년세대는 대략 2050년대 이후 연금을 받게 되는데 이들의 실가입 기간은 지금보다 58년이 더 길지만 급여 수준은 오히려 더 낮아지거나 별 변동이 없다. 우리는 흔히 청년을 비롯한 후세대가 보험료 부담으로 불공평을 경험한다는 이야기를 많이 하지만 노후소득 보장이 국민연금의 본래 목적임을 감안한다면 지금보다 더 오래 가입하고도 급여는 더 적게 받는 문제가 더 심각한 사안이라 할 수 있다. 셋째 일각에서는 국민연금의 소득대체율 인상은 현세대 노인 빈곤에는 효과가 없다고 말한다. 하지만 소득대체율을 2025년에 인상한다고 가정하면 그해에 연금을 신규 수급하는 사람은 그 인상분을 거의 못 받지만 2026년 신규 수급자는 1년분의 인상분을 받는다. 따라서 2030년 정도 이후 신규 수급자는 5년치 이상의 인상분을 받으므로 제법 인상 효과를 볼 수 있다. 국민연금 급여 인상이 당장 노인 빈곤에 효과가 없다고 소득대체율을 계속 올리지 않으면 국민연금으로는 5년 후에도 그리고 10년 후에도 노인 빈곤을 해소하지 못하게 될 것이다. 빈곤은 생각보다 복잡한 사안이어서 1년 혹은 2년 내 해결이 어렵다. 지금 당장 노인 빈곤에 효과가 없다고 국민연금 급여를 인상하지 않는 것은 실제로는 510년의 기간을 두고 해결해야 할 노인 빈곤에 접근하는 방책으로는 비효율적이다. 넷째 일각에서는 크레디트나 보험료 지원 강화로 가입 기간을 늘려 이른바 실질 소득대체율을 올리면 된다고 말한다. 하지만 크레디트나 보험료 지원 강화로는 가입 기간을 제도적 상한 이상으로 늘릴 수 없다. 즉 OECD의 계산에서 가정된 최대 가입 기간 38년을 넘지 못한다. 따라서 이미 최대 가입 기간인 38년을 가정해 계산된 31.2를 넘지 못하게 되는 것이다. 이른바 실질 소득대체율은 법정 소득대체율 인상 자체를 대체할 수 없다. 우리 사회는 빠른 고령화로 2060년대 이후는 65세 이상 인구가 전체 인구의 절반에 가까운 45 이상이 되리라 전망된다. 이럴수록 이들에게 안정적인 소득을 보장하고 이들의 소비가 청장년 세대와 선순환할 수 있는 경제구조를 만들어야 하며 여기에 국민연금은 노후 소득 보장의 확보로 기여해야 할 것이다. 소득대체율국민연금 가입자의 은퇴 전 평균소득과 비교했을 때 노후연금 수령액이 차지하는 비중. 60세까지 월 평균소득이 100만 원이고 65세 이후 국민연금으로 40만 원을 받으면 소득대체율은 40.보험료율 소득 대비 국민연금 보험료를 부과하는 비율. 1999년부터 현재까지 소득의 9로 동결. 직장가입자는 9에 해당하는 금액을 본인과 회사가 각각 절반 4.5씩 부담. 지역가입자는 본인 전액 부담. </t>
+          <t>국회에 예보 제도 개선안 보고상향 논의 향후 검토한도 상향 시 저축은행으로 자금 이동일부 소형사 충격 가능성  서울연합뉴스 임수정 기자 올해 미국 실리콘밸리은행 SVB 사태 이후 예금자보호한도를 1억원으로 높여야 한다는 논의가 탄력을 받았지만 결국 현행 5천만원으로 유지될 전망이다. 금융당국은 최근 국회 보고에서 예금자보호한도 상향과 관련해 향후 검토가 필요한 사안이라며 논의 시점을 뒤로 미뤘다. 9일 국회 정무위원회 소속 김희곤 의원실에 따르면 금융위원회는 지난 5일 정무위에 보고한 예금보험제도 개선 검토안에서 향후 찬반 논의 시장 상황 등을 종합 고려해 상향 여부 등을 검토할 필요가 있다고 밝혔다. 당장 급하게 추진할 사안이 아니라는 취지로 해석된다. 보호 한도를 높여 금융 제도 신뢰를 강화해야 한다는 의견도 있지만 2금융권으로의 자금 쏠림이나 예보료 인상에 따른 소비자 부담 증가를 우려하는 목소리도 함께 고려한 것으로 보인다. 이는 금융위가 작년 3월부터 예보 금융업권 민간 전문가 등으로 구성된 민관 합동 태스크포스 TF를 통해 예금보험제도 전반을 논의한 결과다.  금융위가 공개한 연구 용역 결과에 따르면 보호 한도를 1억원으로 상향 시 은행에서 저축은행으로 자금 이동이 나타나고 이로 인해 저축은행 예금은 1625가량이 증가할 것으로 추산됐다.  이동 자금은 은행 예금의 1 수준으로 전체 시장 영향은 크지 않을 수 있지만 저축은행 업권 내 과도한 수신 경쟁이 벌어질 경우 일부 소형사에는 충격이 될 수 있다는 내용도 포함됐다. 한도 상향 시 보호 한도 내 예금자 비율은 98.1에서 99.3로 1.2포인트 p 증가하는 데 그치는 등 실익도 그리 크지 않은 것으로 나타났다.  다만 예금을 분산 예치하고 있는 금융소비자의 편의를 제고하는 효과는 있다고 분석됐다. 6차에 걸친 민관 합동 TF 회의 주요 논의 사항도 공개됐다.  금융업권은 현재도 예금자 대부분이 보호되고 있어 한도 상향의 소비자 보호 강화 효과는 크지 않으면서 업권 부담은 늘어날 우려가 있다는 의견을 주로 개진한 것으로 나타났다. 아울러 연금저축 사고보험금 등에 대한 별도 한도 적용을 추진 중이기 때문에 제도 개선의 효과를 지켜본 뒤 전체 한도 조정을 검토할 필요가 있다고 주장했다. 민간 전문가들 사이에서는 금융소비자 신뢰 제고 등 측면에서 한도 상향을 고려할 필요가 있다는 의견이 나왔다.  다만 최근 미국 사례 등을 보면 한도를 높여도 뱅크런 방지 효과가 제한적일 수 있기 때문에 위기 시에는 한도 상향보다는 전액 보호 조치가 필요할 수 있다는 주장도 나왔다. 결국 금융위는 이러한 다양한 찬반 논의가 이어지는 데다가 시장 불안도 가라앉지 않은 상황을 종합 고려해 신중론을 고수한 것으로 보인다. 또한 보호 한도가 5천만원으로 유지되더라도 사회보장적 상품 등에 대한 별도 한도 적용은 지속적으로 확대되는 추세다.  금융위는 2015년부터 확정기여형 DC형 및 개인형 IRP 퇴직연금의 예금에 대해 일반 예금과 별도로 5천만원의 보호 한도를 적용해왔으며 연금저축 신탁보험 사고보험금 중소기업퇴직연금기금 등에 대한 별도 보호도 시행을 앞두고 있다. 다만 국회 논의 과정이 변수가 될 수 있다. 정치권에서는 예금자 보호 한도가 2001년 이후 23년째 5천만원에 머물러 있어 경제 규모에 맞게 현실화해야 한다는 의견이 우세하다.  sj9974yna.co.kr</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>['퇴직연금 적립금', '퇴직연금 은퇴설계', '하나 퇴직연금', '퇴직연금 가입']</t>
+          <t>['확정기여형', '퇴직연금 저축은행', '퇴직연금 예금']</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>[{'퇴직연금 적립금': 1}, {'퇴직연금 은퇴설계': 1}, {'하나 퇴직연금': 2}, {'퇴직연금 가입': 3}]</t>
+          <t>[{'확정기여형': 2}, {'퇴직연금 저축은행': 10}, {'퇴직연금 예금': 37}]</t>
         </is>
       </c>
       <c r="K65" t="n">
+        <v>2</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>금융위원회는 예금보험제도 개선 검토안에서 향후 찬반 논의 시장 상황 등을 종합 고려해 상향 여부 등을 검토할 필요가 있다고 밝혔다.</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>한도 상향 시 저축은행 업권 내 과도한 수신 경쟁이 벌어질 경우 일부 소형사에는 충격이 될 수 있다는 내용도 포함됐다.</t>
+        </is>
+      </c>
+      <c r="O65" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>No information related to financial market impact.</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
         <v>3</v>
       </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>국민연금의 소득대체율을 인상해야 노후 최소 생활비를 보장할 수 있으므로 3점을 줍니다.</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>0</v>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>이 기사에는 산업 경쟁 동향에 대한 내용이 없으므로 0점을 줍니다.</t>
-        </is>
-      </c>
-      <c r="O65" t="n">
-        <v>0</v>
-      </c>
-      <c r="P65" t="inlineStr">
-        <is>
-          <t>이 기사에는 금융 시장의 영향에 대한 내용이 없으므로 0점을 줍니다.</t>
-        </is>
-      </c>
-      <c r="Q65" t="n">
-        <v>0</v>
-      </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>이 기사에는 법적 및 규제 변화에 대한 내용이 없으므로 0점을 줍니다.</t>
+          <t>금융소비자의 편의를 제고하는 효과는 있다고 분석됐다.</t>
         </is>
       </c>
       <c r="S65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>이 기사는 국민연금과 노후 지속 가능성에 관한 내용을 다루고 있으므로 2점을 줍니다.</t>
+          <t>No information related to demographic change.</t>
         </is>
       </c>
       <c r="U65" t="n">
@@ -7396,7 +7396,7 @@
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>이 기사에는 기술과 디지털화에 관한 내용이 없으므로 0점을 줍니다.</t>
+          <t>No information related to technology and digitalization.</t>
         </is>
       </c>
       <c r="W65" t="n">
@@ -7404,7 +7404,7 @@
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>이 기사에는 소비 행태 및 요구사항에 관한 내용이 없으므로 0점을 줍니다.</t>
+          <t>No information related to consumption behavior and requirements.</t>
         </is>
       </c>
     </row>
@@ -7426,75 +7426,75 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>23년째 ‘5000만원’ 예금자보호한도···이번에도 현행 유지될 듯</t>
+          <t>“연금 수령액 늘릴 재원 불투명” vs “노후소득 보장이 본래의 목적”[인사...</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>올해 미국 실리콘밸리은행 SVB 사태 이후 예금자보호한도를 1억원으로 높여야 한다는 논의가 나왔지만 현행 5000만원으로 유지될 전망이다. 금융당국은 최근 국회에 예금자보호한도 상향과 관련해 향후 검토가 필요한 사안이라고 보고한 것으로 알려졌다.</t>
+          <t>국민연금의 소득대체율을 현행 40에서 50으로 인상해야 노후 최소 생활비를 보장할 수 있다. 청년세대의 형평성을 제고하기 위해서도 소득대체율을 인상해야 한다. 국민연금으로는 5년 후에도 그리고 10년 후에도 노인 빈곤을 해소하지 못하게 될 것이다.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002207232?sid=101</t>
+          <t>https://n.news.naver.com/mnews/article/020/0003524381?sid=110</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 올해 미국 실리콘밸리은행 SVB 사태 이후 예금자보호한도를 1억원으로 높여야 한다는 논의가 나왔지만 현행 5000만원으로 유지될 전망이다. 금융당국은 최근 국회에 예금자보호한도 상향과 관련해 향후 검토가 필요한 사안이라고 보고한 것으로 알려졌다.9일 국회 정무위원회 소속 김희곤 의원실에 따르면 금융위원회는 지난 5일 정무위에 보고한 예금보험제도 개선 검토안에서 향후 찬반 논의 시장 상황 등을 종합 고려해 상향 여부 등을 검토할 필요가 있다고 밝혔다.당장 급하게 추진할 사안이 아니라는 취지로 해석된다. 보호 한도를 높여 금융 제도 신뢰를 강화해야 한다는 의견도 있지만 2금융권으로의 자금 쏠림이나 예보료 인상에 따른 소비자 부담 증가를 우려하는 지적도 함께 고려한 것으로 보인다.이는 금융위가 작년 3월부터 예보 금융업권 민간 전문가 등으로 구성된 민관 합동 태스크포스 TF를 통해 예금보험제도 전반을 논의한 결과다. 금융위가 공개한 연구 용역 결과에 따르면 보호 한도를 1억원으로 상향 시 은행에서 저축은행으로 자금 이동이 나타나고 이로 인해 저축은행 예금은 1625가량이 증가할 것으로 추산됐다.이동 자금은 은행 예금의 1 수준으로 전체 시장 영향은 크지 않을 수 있지만 저축은행 업권 내 과도한 수신 경쟁이 벌어질 경우 일부 소형사에는 충격이 될 수 있다는 내용도 포함됐다. 한도 상향 시 보호 한도 내 예금자 비율은 98.1에서 99.3로 1.2포인트 증가하는 데 그치는 등 실익도 그리 크지 않은 것으로 나타났다.다만 예금을 분산 예치하고 있는 금융소비자의 편의를 제고하는 효과는 있다고 분석됐다.6차에 걸친 민관 합동 TF 회의 주요 논의 사항도 공개됐다. 금융업권은 현재도 예금자 대부분이 보호되고 있어 한도 상향의 소비자 보호 강화 효과는 크지 않으면서 업권 부담은 늘어날 우려가 있다는 의견을 주로 개진한 것으로 나타났다.이와 함께 연금저축 사고보험금 등에 대한 별도 한도 적용을 추진 중이기 때문에 제도 개선의 효과를 지켜본 뒤 전체 한도 조정을 검토할 필요가 있다고 주장했다.민간 전문가들 사이에서는 금융소비자 신뢰 제고 등 측면에서 한도 상향을 고려할 필요가 있다는 의견이 나왔다.다만 최근 미국 사례 등을 보면 한도를 높여도 뱅크런 방지 효과가 제한적일 수 있기 때문에 위기 시에는 한도 상향보다는 전액 보호 조치가 필요할 수 있다는 주장도 나왔다.결국 금융위는 이러한 다양한 찬반 논의가 이어지는 데다가 시장 불안도 가라앉지 않은 상황을 종합 고려해 신중론을 고수한 것으로 보인다.또한 보호 한도가 5000만원으로 유지되더라도 사회보장적 상품 등에 대한 별도 한도 적용은 지속적으로 확대되는 추세다.금융위는 2015년부터 확정기여형 DC형 및 개인형 IRP 퇴직연금의 예금에 대해 일반 예금과 별도로 5000만원의 보호 한도를 적용해왔으며 연금저축 신탁보험 사고보험금 중소기업퇴직연금기금 등에 대한 별도 보호도 시행을 앞두고 있다.다만 국회 논의 과정이 변수가 될 수 있다. 정치권에서는 예금자 보호 한도가 2001년 이후 23년째 5000만원에 머물러 있어 경제 규모에 맞게 현실화해야 한다는 의견이 우세한 상황이다.</t>
+          <t xml:space="preserve">1988년생 국민연금이 올해로 서른다섯 살이다. 지난달 적립금은 1000조 원을 넘었다. 하지만 2055년에는 지갑이 텅 빌 것으로 전망된다. 보험료를 낼 청년과 장년이 줄고 연금을 받을 노인은 늘고 있다. 연금이 제 기능을 하려면 내는 돈 보험료율 인상을 포함한 대수술이 불가피하다. 그런데 받는 돈 소득대체율을 두고는 의견이 갈린다. 재정 안정을 위해 현행 40를 유지해야 한다는 주장과 노후소득 보장을 위해 4550로 올려야 한다는 주장이 맞선다. 정부 자문기구인 국민연금 재정계산위원회도 둘로 쪼개졌다. 동아일보는 소득대체율에 대해 정반대 견해를 지닌 두 학자의 글을 싣는다. 소득대체율 인상 반대오건호 내가 만드는 복지국가 정책위원장연금 개혁에서 보장성 강화는 중요한 과제다. 그 방안의 하나로 국민연금 명목 소득대체율 인상이 주장된다. 나는 이 방안이 우리나라 연금체계에서 적절하지 않다고 판단한다. 추가 재원이 수반되면서도 빈곤 노인에게 효과가 크지 않고 보장성의 시야를 협소하게 가두기 때문이다. 첫째 소득대체율을 올려도 소득이 적고 가입 기간이 짧은 불안정 취업자에게 연금액 인상 효과는 약하다. 국민연금의 급여액은 노동시장의 지위를 반영해 소득이 높고 가입 기간이 길수록 많으므로 소득대체율을 40에서 50로 올려도 정작 노인 빈곤 위험이 큰 가입자의 인상액은 그리 많지 않다. 노인 빈곤이 심하니 소득대체율을 올려야 한다는 주장이 설득력이 약한 이유이다. 둘째 경제협력개발기구 OECD 연금보고서에 한국 공적연금의 소득대체율이 회원국 평균보다 낮게 제시된 것을 인용하는데 이것이 국민연금 명목 소득대체율과 같은 개념은 아니다. OECD의 소득대체율은 국민연금의 지급률 1년 가입당 소득대체율에 의무가입기간 기초연금을 종합해 산정된다. 무엇이 한국 공적연금의 소득대체율을 낮게 만들었을까. 우선 국민연금 급여는 회원국 대다수 소득비례 연금과 달리 하후상박 구조를 지닌다. OECD 연금 산식에서 평균소득이 국민연금 내부에서는 가입자 평균 소득의 1.6배에 해당하기에 상대적으로 낮은 지급률이 적용되는 중상위 소득 가입자가 국민연금을 대표하고 있다. 또한 국민연금은 의무가입 기간이 OECD 평균보다 6.1년이 짧아 OECD 산식에서 그만큼 소득대체율이 낮게 계산된다. 노인 70가 받는 기초연금이 한국 소득대체율 산정에서 제외된 것도 유념할 이유이다. 국민연금의 하후상박 구조는 그대로 유지한다면 필요한 건 의무가입 연령을 올리고 한국 소득대체율 산정에 기초연금을 포함하도록 OECD와 협의하는 일이다. 셋째 소득대체율 인상론의 재정 안정화 방안이 불명확하다. 국민연금을 장기 추계하면 미래에 당해 수지 적자가 국내총생산 GDP의 7에 이르고 소득대체율을 50로 올리면 9로 커진다. 인상론은 보험료 외에 자본과 이윤에 세금을 더 부과하고 보험료 부과 대상도 확대하자고 제안한다. 현행 소득대체율에서도 다양한 재원을 마련해야 하기에 이는 어떤 입장에서든 필요한 일이다. 그런데 내용이 당위적 방향에 머문다. 구체적으로 어디에서 얼마를 더 거두어 재정 부족분의 얼마를 충당하는지를 제시해야 재정 안정화 방안이다. 보장성 확대를 반대하는 게 아니다. 시야를 국민연금 명목 소득대체율에 한정하지 말자는 비판이다. 이미 법정 의무 제도로 기초연금 국민연금 퇴직연금이 운영되고 있다. 이 현실을 직시해야 노후소득 보장을 위한 실질적 계획도 세울 수 있다. 우선 기초연금은 2022년 급여 지출액이 20조 원으로 국민연금 34조 원의 절반을 넘는 제도로 성장했다. 앞으로 노인 수가 대폭 늘어나므로 대상은 줄이되 저소득일수록 금액을 더 지급하는 최저보장 소득 방식으로 전환해 노인 빈곤에 대응하자. 국민연금은 지속가능성을 위해 단계적으로 보험료율을 올려가자. 보장성에서는 가입 기간을 늘리는 게 과제다. 출산 실업 군 복무 등으로 연금 가입이 불리한 사람들에게 연금 크레디트를 대폭 확대하고 도시의 지역 가입자에게 국가가 보험료를 절반 지원해 가입을 독려하자. 현재 만 59세인 의무가입 연령도 64세로 상향하면 명목 소득대체율 5포인트 인상 효과가 생긴다. 퇴직연금은 지난해 기업이 납부한 기여금 총액이 57조 원이었다. 국민연금 보험료 수입 56조 원보다 많다. 이제부터 1년 미만 고용 노동자에게도 적용하고 중간 해지를 엄격히 관리해 연금으로 자리 잡게 하자. 시야를 기초연금 국민연금 퇴직연금의 연금 삼총사로 확장하자. 그래야 적정 노후소득 보장을 설계하고 지속가능성도 확보하며 청년들과 연금 개혁 비전을 이야기할 수 있다. 소득대체율 인상 찬성지난달 1일 국민연금 제도개선 방향에 관한 공청회에서 국민연금 재정계산위원회는 이른바 더 내고 더 늦게 받고 그대로 받는 연금개혁안을 제안했다. 당연히 반발이 나왔고 그에 대해 정부는 소득대체율을 올리는 방안도 고려할 것이라고 했다. 국민연금 소득대체율을 올려야 하는 이유는 많다. 첫째 모든 제도는 그것의 본래 목적을 달성할 수 있어야 지속 가능하다. 국민연금도 신뢰를 얻고 지속 가능하려면 본래 목적인 노후소득 보장을 실현해야 한다. 국민연금은 그간의 개혁으로 소득대체율을 너무 급격히 인하한 관계로 급여 수준이 매우 낮아지게 됐다. 우선 국제 기준으로도 낮다. 소득대체율이 현 상태를 유지하면 국민연금 소득대체율은 경제협력개발기구 OECD 기준으로 31.2가 되는데 이는 OECD 평균 42.2의 74 수준에 불과한 것이다. 그런데 여기서 주의할 것은 이 31.2라는 소득대체율은 가입 기간을 38년으로 즉 최대 가입 기간으로 가정했을 때의 수치라는 점이다. 이번 재정계산에 따르면 국민연금 실제 가입 기간은 2030년부터 새로 국민연금을 받는 수급자의 경우 20년 2060년대 이후 신규 수급자는 27년 정도일 것으로 각각 전망됐다. 따라서 실가입 기간을 27년으로 가정하면 소득대체율은 31.2가 아니라 22가 된다. 이러니 실가입 기간을 반영한 국민연금의 급여 수준은 노후 최소 생활비 월 113만 원의 60 정도에 불과하고 여기에 기초연금을 합해도 80 정도에 그친다. 따라서 기초연금을 합해 국민연금이 적어도 노후 최소 생활비만큼을 보장하기 위해서는 소득대체율을 현행 40에서 50로 인상해야 한다. 둘째 소득대체율 인상은 청년세대의 형평성 제고에 기여한다. 현 청년세대는 대략 2050년대 이후 연금을 받게 되는데 이들의 실가입 기간은 지금보다 58년이 더 길지만 급여 수준은 오히려 더 낮아지거나 별 변동이 없다. 우리는 흔히 청년을 비롯한 후세대가 보험료 부담으로 불공평을 경험한다는 이야기를 많이 하지만 노후소득 보장이 국민연금의 본래 목적임을 감안한다면 지금보다 더 오래 가입하고도 급여는 더 적게 받는 문제가 더 심각한 사안이라 할 수 있다. 셋째 일각에서는 국민연금의 소득대체율 인상은 현세대 노인 빈곤에는 효과가 없다고 말한다. 하지만 소득대체율을 2025년에 인상한다고 가정하면 그해에 연금을 신규 수급하는 사람은 그 인상분을 거의 못 받지만 2026년 신규 수급자는 1년분의 인상분을 받는다. 따라서 2030년 정도 이후 신규 수급자는 5년치 이상의 인상분을 받으므로 제법 인상 효과를 볼 수 있다. 국민연금 급여 인상이 당장 노인 빈곤에 효과가 없다고 소득대체율을 계속 올리지 않으면 국민연금으로는 5년 후에도 그리고 10년 후에도 노인 빈곤을 해소하지 못하게 될 것이다. 빈곤은 생각보다 복잡한 사안이어서 1년 혹은 2년 내 해결이 어렵다. 지금 당장 노인 빈곤에 효과가 없다고 국민연금 급여를 인상하지 않는 것은 실제로는 510년의 기간을 두고 해결해야 할 노인 빈곤에 접근하는 방책으로는 비효율적이다. 넷째 일각에서는 크레디트나 보험료 지원 강화로 가입 기간을 늘려 이른바 실질 소득대체율을 올리면 된다고 말한다. 하지만 크레디트나 보험료 지원 강화로는 가입 기간을 제도적 상한 이상으로 늘릴 수 없다. 즉 OECD의 계산에서 가정된 최대 가입 기간 38년을 넘지 못한다. 따라서 이미 최대 가입 기간인 38년을 가정해 계산된 31.2를 넘지 못하게 되는 것이다. 이른바 실질 소득대체율은 법정 소득대체율 인상 자체를 대체할 수 없다. 우리 사회는 빠른 고령화로 2060년대 이후는 65세 이상 인구가 전체 인구의 절반에 가까운 45 이상이 되리라 전망된다. 이럴수록 이들에게 안정적인 소득을 보장하고 이들의 소비가 청장년 세대와 선순환할 수 있는 경제구조를 만들어야 하며 여기에 국민연금은 노후 소득 보장의 확보로 기여해야 할 것이다. 소득대체율국민연금 가입자의 은퇴 전 평균소득과 비교했을 때 노후연금 수령액이 차지하는 비중. 60세까지 월 평균소득이 100만 원이고 65세 이후 국민연금으로 40만 원을 받으면 소득대체율은 40.보험료율 소득 대비 국민연금 보험료를 부과하는 비율. 1999년부터 현재까지 소득의 9로 동결. 직장가입자는 9에 해당하는 금액을 본인과 회사가 각각 절반 4.5씩 부담. 지역가입자는 본인 전액 부담. </t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>['확정기여형', '퇴직연금 저축은행']</t>
+          <t>['퇴직연금 적립금', '퇴직연금 은퇴설계', '하나 퇴직연금', '퇴직연금 가입']</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>[{'확정기여형': 6}, {'퇴직연금 저축은행': 39}]</t>
+          <t>[{'퇴직연금 적립금': 1}, {'퇴직연금 은퇴설계': 1}, {'하나 퇴직연금': 2}, {'퇴직연금 가입': 3}]</t>
         </is>
       </c>
       <c r="K66" t="n">
+        <v>3</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>국민연금의 소득대체율을 인상해야 노후 최소 생활비를 보장할 수 있으므로 3점을 줍니다.</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>이 기사에는 산업 경쟁 동향에 대한 내용이 없으므로 0점을 줍니다.</t>
+        </is>
+      </c>
+      <c r="O66" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>이 기사에는 금융 시장의 영향에 대한 내용이 없으므로 0점을 줍니다.</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>이 기사에는 법적 및 규제 변화에 대한 내용이 없으므로 0점을 줍니다.</t>
+        </is>
+      </c>
+      <c r="S66" t="n">
         <v>2</v>
       </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>금융위원회는 예금보험제도 개선 검토안에서 향후 찬반 논의 시장 상황 등을 종합 고려해 상향 여부 등을 검토할 필요가 있다고 밝혔다.</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>한도 상향 시 은행에서 저축은행으로 자금 이동이 나타나고 이로 인해 저축은행 예금은 1625가량이 증가할 것으로 추산됐다.</t>
-        </is>
-      </c>
-      <c r="O66" t="n">
-        <v>0</v>
-      </c>
-      <c r="P66" t="inlineStr">
-        <is>
-          <t>No relevant information in the article.</t>
-        </is>
-      </c>
-      <c r="Q66" t="n">
-        <v>1</v>
-      </c>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>금융소비자의 편의를 제고하는 효과는 있다고 분석됐다.</t>
-        </is>
-      </c>
-      <c r="S66" t="n">
-        <v>0</v>
-      </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>No relevant information in the article.</t>
+          <t>이 기사는 국민연금과 노후 지속 가능성에 관한 내용을 다루고 있으므로 2점을 줍니다.</t>
         </is>
       </c>
       <c r="U66" t="n">
@@ -7502,7 +7502,7 @@
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>No relevant information in the article.</t>
+          <t>이 기사에는 기술과 디지털화에 관한 내용이 없으므로 0점을 줍니다.</t>
         </is>
       </c>
       <c r="W66" t="n">
@@ -7510,14 +7510,14 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>No relevant information in the article.</t>
+          <t>이 기사에는 소비 행태 및 요구사항에 관한 내용이 없으므로 0점을 줍니다.</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2023-10-08</t>
+          <t>2023-10-09</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -7532,35 +7532,35 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>대법, 계약서에 '근로자 아님' 명시한 '고용 의사' 근로자성 인정</t>
+          <t>23년째 ‘5000만원’ 예금자보호한도···이번에도 현행 유지될 듯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>대법원은 근로자성을 인정한 판결이 나왔다. 계약의 형식이 아니라 실질적인 근로 내용을 기준으로 판단해야 한다고 밝혔다.</t>
+          <t>올해 미국 실리콘밸리은행 SVB 사태 이후 예금자보호한도를 1억원으로 높여야 한다는 논의가 나왔지만 현행 5000만원으로 유지될 전망이다. 금융당국은 최근 국회에 예금자보호한도 상향과 관련해 향후 검토가 필요한 사안이라고 보고한 것으로 알려졌다.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005323390?sid=102</t>
+          <t>https://n.news.naver.com/mnews/article/016/0002207232?sid=101</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>근로자가 아니기 때문에 노동관계법과 관련한 부당한 청구를 하지 않겠다고 명시된 계약서에 서명한 고용 의사의 근로자성을 인정한 대법원 판결이 나왔다.근로기준법상 근로자에 해당하는지 여부는 계약의 형식이 아니라 실질적인 근로 내용을 기준으로 판단해야 한다는 취지의 판결이다.8일 법조계에 따르면 대법원 1부 주심 서경환 대법관는 모 의료소비자 생활협동조합이 운영하는 서울 중랑구 소재 한 의원의 대표 이모씨가 근로자퇴직급여보장법 위반 혐의로 기소된 사건의 상고심에서 무죄를 선고한 원심을 파기하고 사건을 서울북부지법으로 돌려보냈다.재판부는 원심은 그 판시와 같은 이유만으로 오씨가 근로기준법상의 근로자에 해당하지 않는다고 봐 이 사건 공소사실에 대해 무죄로 판단했는바 이러한 원심의 판단에는 근로자성에 대한 법리를 오해해 판결에 영향을 미친 잘못이 있다고 파기환송의 이유를 밝혔다.이씨는 자신이 운영하는 병원에서 2019년 7월 31일까지 근무하다 퇴직한 의사 오모씨의 퇴직금 1400여만원을 퇴직일로부터 14일 이내에 지급하지 않은 혐의로 재판에 넘겨졌다.재판에서는 오씨를 근로기준법상 근로자로 볼 수 있는지가 쟁점이 됐다.이씨는 오씨가 근로기준법상 근로자가 아니기 때문에 자신에게는 퇴직금 지급의무가 없고 퇴직금 미지급에 대한 고의도 없다고 주장했다.오씨는 이씨와 근로계약서가 아닌 위탁계약을 체결했다. 오씨가 이씨로부터 위탁받은 진료업무를 이행하고 그 대가로 보수를 받는 내용이었다. 그런데 계약서에는 오씨는 근로자가 아니므로 노동관계법과 관련한 부당한 청구를 하지 않는다는 내용이 명시돼 있었다.하지만 1심은 이씨의 혐의를 유죄로 판단했다.비록 계약서상 근로자가 아니라고 명시돼 있지만 근로자성 여부는 계약의 형식이 아니라 실질적인 근로 내용으로 판단해야 한다는 대법원의 입장에 따라 따져볼 때 오씨를 충분히 근로자로 인정할 수 있다는 이유였다. 오씨가 퇴직하기 직전년도인 2018년 오씨에 대해 근로소득세 원천징수를 한 점이나 오씨가 이씨가 운영하는 의원을 사업장으로 건강보험에 가입돼 있는 점 등이 근거가 됐다.그런데 2심의 판단은 달랐다.2심 재판부는 이씨에게 유죄를 선고한 1심 판결을 파기하고 이씨에게 무죄를 선고했다.재판부는 검사가 제출한 증거들만으로는 오씨가 근로기준법상 근로자에 해당한다고 보기 어렵고 달리 이를 인정할 증거가 없다라며 이 사건 공소사실은 범죄의 증명이 없는 때에 해당하므로 형사소송법 제325조 후단에 따라 피고인에게 무죄를 선고한다고 밝혔다.재판부는 두 사람 사이에 체결한 위탁계약서에 오씨가 근로자가 아니라는 점이 명시돼 있는 점 오씨에 대한 취업규칙이나 복무규정이 마련돼 있지 않았던 점 실제 오씨가 자신의 진료업무 수행과 관련해 이씨로부터 어떠한 지시나 감독을 받은 사실이 없는 점 계약서에는 오씨는 진료업무에 대해 본인의 재량에 따라 성심성의껏 처리하고 이씨는 오씨의 업무수행에 대해 선량한 관리자로서의 주의의무 보고의무 등에 대한 요청 외에 별도의 직접적 구체적인 지시명령을 행하지 아니한다는 내용이 포함돼 있었음 오씨는 병원의 다른 직원들과 달리 지문인식기를 통해 출퇴근시간을 기록하지 않았고 직원회의에도 참석하지 않았던 점 오씨에 대한 연차 등 휴가규정은 따로 없었고 오씨가 휴가로 진료업무를 수행하지 못하는 경우 이씨가 직접 대체의사를 구해 그로 하여금 진료업무를 대행하게 했던 점 계약서에는 오씨가 이씨로부터 매월 600만원의 보수를 지급받도록 돼 있지만 영업이익에 적자가 발생해 보수를 지급하는 것이 현저히 어려울 경우 양측이 협의해 보수를 조정하거나 지급기일을 연기할 수 있도록 정하고 있는 점 등을 이 같은 판단의 근거로 들었다.대법원에서 다시 결론이 뒤집혔다.재판부는 먼저 근로자성 판단 기준에 대한 종래 대법원의 입장을 확인했다.앞서 대법원은 근로기준법상의 근로자에 해당하는지 여부는 계약의 형식이 고용계약인지 도급계약인지보다 그 실질에 비춰 근로자가 사업 또는 사업장에 임금을 목적으로 종속적인 관계에서 사용자에게 근로를 제공했는지 여부에 따라 판단해야 하고 여기에서 종속적인 관계가 있는지 여부는 업무 내용을 사용자가 정하고 취업규칙 또는 복무 인사규정 등의 적용을 받으며 업무 수행 과정에서 사용자가 상당한 지휘감독을 하는지 사용자가 근무시간과 근무장소를 지정하고 근로자가 이에 구속을 받는지 노무제공자가 스스로 비품원자재나 작업도구 등을 소유하거나 제3자를 고용해 업무를 대행케 하는 등 독립해 자신의 계산으로 사업을 영위할 수 있는지 노무 제공을 통한 이윤의 창출과 손실의 초래 등 위험을 스스로 안고 있는지 보수의 성격이 근로 자체의 대상적 성격인지 기본급이나 고정급이 정해졌는지 및 근로소득세의 원천징수 여부 등 보수에 관한 사항 근로 제공 관계의 계속성과 사용자에 대한 전속성의 유무와 그 정도 사회보장제도에 관한 법령에서 근로자로서 지위를 인정받는지 등의 경제적사회적 여러 조건을 종합해 판단해야 한다고 밝힌 바 있다.또 다만 기본급이나 고정급이 정해졌는지 근로소득세를 원천징수했는지 사회보장제도에 관해 근로자로 인정받는지 등의 사정은 사용자가 경제적으로 우월한 지위를 이용해 임의로 정할 여지가 크기 때문에 그러한 점들이 인정되지 않는다는 것만으로 근로자성을 쉽게 부정해서는 안 된다고도 밝혔다.그리고 대법원은 이씨가 오씨와 위와 같은 내용의 위탁계약을 체결하게 된 배경을 짚었다.조합 대표자였던 이씨는 2012년 4월부터 이 사건 의원을 개설해 운영하다가 당시 근무하던 의사 A씨게 임금을 제때 지급하지 않아 2013년 4월 근로기준법위반죄로 벌금 200만원의 약식명령을 받은 적이 있었다. 당시에도 이씨는 A씨가 근로자가 아니라고 주장하면서 정식재판을 청구했지만 결국 대법원에서 벌금 200만원 형을 확정받았다.이후 이씨는 공인노무사의 도움을 받아 위탁진료계약 형식의 계약서를 제공받아 노무관계를 해결해 왔고 2017년 8월 1일 오씨와도 위탁계약을 체결한 것이었다. 계약 내용은 오씨가 이씨의 의원에서 진료업무를 수행하고 매월 600만원 및 현금 135만원을 받는 내용이었다.재판부는 오씨는 이 사건 의원의 유일한 의사로 근무시간이 일정하게 정해져 있었고 근무 장소도 진료실 원장실로 특정돼 있었다라며 이 사건 계약의 형식이 위탁진료계약이라고 하더라도 이 사건 계약 내용의 가장 중요한 부분은 오씨가 정해진 시간 동안 이 사건 의원에서 진료업무를 수행하고 이씨는 오씨에게 그 대가를 고정적으로 지급하는 것이다라고 지적했다.또 재판부는 오씨는 주중 및 토요일 대부분을 이 사건 의원에서 근무하면서 매월 진료업무 수행의 현황이나 실적을 이씨에게 보고해야 했으므로 이씨는 오씨의 근무시간 및 근무장소를 관리하고 오씨의 업무에 대해 상당한 지휘감독을 했다고 봄이 타당하다고 밝혔다.실제 두 사람이 체결한 계약서에는 오씨가 매월 한 차례 상호 조정 하에 진료업무 수행의 현황 및 실적을 이씨에게 통지해야 했고 오씨가 보고의무를 게을리하거나 불성실하게 행한 경우 이씨가 이 사건 계약을 해지할 수 있다는 내용이 포함돼 있었다.재판부는 오씨는 이씨가 제공하는 의료장비나 사무기기를 활용해 진료업무를 수행했고 이씨로부터는 환자 치료실적에 따른 급여의 변동 없이 매월 고정적으로 돈을 받았으므로 오씨가 지급받은 돈은 근로 자체의 대상적 성격으로 보는 것이 타당하다고 판단했다.이밖에도 재판부는 이씨의 의원을 사업장으로 오씨의 건강보험 가입신고가 돼 있었던 점도 오씨를 근로자로 봐야 할 근거로 들었다.재판부는 이와 같은 사정들을 종합하면 오씨는 임금을 목적으로 종속적인 관계에서 사용자에게 근로를 제공한 근로기준법상의 근로자에 해당한다고 보인다고 결론 내렸다.한편 재판부는 오씨가 이씨로부터 구체적인 업무지시를 받지 않았던 것과 관련해 오씨가 비록 진료업무 수행 과정에서 이씨로부터 구체적 개별적인 지휘감독을 받지는 않은 것으로 보이나 이는 의사의 진료업무특성에 따른 것이어서 오씨의 근로자성을 판단할 결정적인 기준이 될 수는 없다고 밝혔다.</t>
+          <t xml:space="preserve"> 올해 미국 실리콘밸리은행 SVB 사태 이후 예금자보호한도를 1억원으로 높여야 한다는 논의가 나왔지만 현행 5000만원으로 유지될 전망이다. 금융당국은 최근 국회에 예금자보호한도 상향과 관련해 향후 검토가 필요한 사안이라고 보고한 것으로 알려졌다.9일 국회 정무위원회 소속 김희곤 의원실에 따르면 금융위원회는 지난 5일 정무위에 보고한 예금보험제도 개선 검토안에서 향후 찬반 논의 시장 상황 등을 종합 고려해 상향 여부 등을 검토할 필요가 있다고 밝혔다.당장 급하게 추진할 사안이 아니라는 취지로 해석된다. 보호 한도를 높여 금융 제도 신뢰를 강화해야 한다는 의견도 있지만 2금융권으로의 자금 쏠림이나 예보료 인상에 따른 소비자 부담 증가를 우려하는 지적도 함께 고려한 것으로 보인다.이는 금융위가 작년 3월부터 예보 금융업권 민간 전문가 등으로 구성된 민관 합동 태스크포스 TF를 통해 예금보험제도 전반을 논의한 결과다. 금융위가 공개한 연구 용역 결과에 따르면 보호 한도를 1억원으로 상향 시 은행에서 저축은행으로 자금 이동이 나타나고 이로 인해 저축은행 예금은 1625가량이 증가할 것으로 추산됐다.이동 자금은 은행 예금의 1 수준으로 전체 시장 영향은 크지 않을 수 있지만 저축은행 업권 내 과도한 수신 경쟁이 벌어질 경우 일부 소형사에는 충격이 될 수 있다는 내용도 포함됐다. 한도 상향 시 보호 한도 내 예금자 비율은 98.1에서 99.3로 1.2포인트 증가하는 데 그치는 등 실익도 그리 크지 않은 것으로 나타났다.다만 예금을 분산 예치하고 있는 금융소비자의 편의를 제고하는 효과는 있다고 분석됐다.6차에 걸친 민관 합동 TF 회의 주요 논의 사항도 공개됐다. 금융업권은 현재도 예금자 대부분이 보호되고 있어 한도 상향의 소비자 보호 강화 효과는 크지 않으면서 업권 부담은 늘어날 우려가 있다는 의견을 주로 개진한 것으로 나타났다.이와 함께 연금저축 사고보험금 등에 대한 별도 한도 적용을 추진 중이기 때문에 제도 개선의 효과를 지켜본 뒤 전체 한도 조정을 검토할 필요가 있다고 주장했다.민간 전문가들 사이에서는 금융소비자 신뢰 제고 등 측면에서 한도 상향을 고려할 필요가 있다는 의견이 나왔다.다만 최근 미국 사례 등을 보면 한도를 높여도 뱅크런 방지 효과가 제한적일 수 있기 때문에 위기 시에는 한도 상향보다는 전액 보호 조치가 필요할 수 있다는 주장도 나왔다.결국 금융위는 이러한 다양한 찬반 논의가 이어지는 데다가 시장 불안도 가라앉지 않은 상황을 종합 고려해 신중론을 고수한 것으로 보인다.또한 보호 한도가 5000만원으로 유지되더라도 사회보장적 상품 등에 대한 별도 한도 적용은 지속적으로 확대되는 추세다.금융위는 2015년부터 확정기여형 DC형 및 개인형 IRP 퇴직연금의 예금에 대해 일반 예금과 별도로 5000만원의 보호 한도를 적용해왔으며 연금저축 신탁보험 사고보험금 중소기업퇴직연금기금 등에 대한 별도 보호도 시행을 앞두고 있다.다만 국회 논의 과정이 변수가 될 수 있다. 정치권에서는 예금자 보호 한도가 2001년 이후 23년째 5000만원에 머물러 있어 경제 규모에 맞게 현실화해야 한다는 의견이 우세한 상황이다.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>['퇴직금 제도', '퇴직소득세']</t>
+          <t>['확정기여형', '퇴직연금 저축은행']</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>[{'퇴직금 제도': 22}, {'퇴직소득세': 29}]</t>
+          <t>[{'확정기여형': 6}, {'퇴직연금 저축은행': 39}]</t>
         </is>
       </c>
       <c r="K67" t="n">
@@ -7568,15 +7568,15 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>근로자성을 인정한 판결이 있으므로, 이 기사는 연금 기금 관리와 관련이 있다.</t>
+          <t>금융위원회는 예금보험제도 개선 검토안에서 향후 찬반 논의 시장 상황 등을 종합 고려해 상향 여부 등을 검토할 필요가 있다고 밝혔다.</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>이 기사는 산업 경쟁 동향에 대한 정보를 제공하지 않는다.</t>
+          <t>한도 상향 시 은행에서 저축은행으로 자금 이동이 나타나고 이로 인해 저축은행 예금은 1625가량이 증가할 것으로 추산됐다.</t>
         </is>
       </c>
       <c r="O67" t="n">
@@ -7584,15 +7584,15 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>이 기사는 금융 시장의 영향에 대한 정보를 제공하지 않는다.</t>
+          <t>No relevant information in the article.</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>대법원의 판결은 법률 및 규제 변화와 관련이 있다.</t>
+          <t>금융소비자의 편의를 제고하는 효과는 있다고 분석됐다.</t>
         </is>
       </c>
       <c r="S67" t="n">
@@ -7600,7 +7600,7 @@
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>이 기사는 인구 통계 변화에 대한 정보를 제공하지 않는다.</t>
+          <t>No relevant information in the article.</t>
         </is>
       </c>
       <c r="U67" t="n">
@@ -7608,7 +7608,7 @@
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>이 기사는 기술과 디지털화에 대한 정보를 제공하지 않는다.</t>
+          <t>No relevant information in the article.</t>
         </is>
       </c>
       <c r="W67" t="n">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>이 기사는 소비 행동 및 요구사항에 대한 정보를 제공하지 않는다.</t>
+          <t>No relevant information in the article.</t>
         </is>
       </c>
     </row>
@@ -7628,7 +7628,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>타사 동향 및 이벤트</t>
+          <t>퇴직연금 제도</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -7638,12 +7638,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>벌려놓은 판 '330조'…근로자 무관심만 탓하기엔 구멍 '숭숭' [빈수레 디폴트...</t>
+          <t>대법, 계약서에 '근로자 아님' 명시한 '고용 의사' 근로자성 인정</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>퇴직연금 적립금이 큰 규모로 성장하고 있으며, 한국형 디폴트옵션에 대한 관심이 낮음. 전문가들은 퇴직연금 수익률 높이기에 대한 홍보와 상품 차별화가 필요하다고 조언.</t>
+          <t>대법원은 근로자성을 인정한 판결이 나왔다. 계약의 형식이 아니라 실질적인 근로 내용을 기준으로 판단해야 한다고 밝혔다.</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -7651,38 +7651,38 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004899681?sid=101</t>
+          <t>https://n.news.naver.com/mnews/article/277/0005323390?sid=102</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2005년 도입된 퇴직연금은 2023년 적립금이 330조원에 달할 만큼 큰 규모로 성장했다. 근로자 노후에 필수적인 제도로 자리잡고 있다. 노후에 도움을 더하겠다고 한국형 디폴트옵션가 시작됐지만 대다수 근로자들은 무관심한 게 현실이다. 그렇다고 근로자들만 탓할 수는 없는 문제다. 사업자들도 백점짜리 안내 서비스를 제공한다고는 볼 수 없기 때문이다.정부에서는 회사별 디폴트옵션 지정 현황을 취합하고 있다. 은행과 증권사들로선 지정률 자체가 성과지표가 된다. 사업자들로선 원금 보장형이든 실적 배당형이든 관계없이 일단 지정률을 높이는 게 관건인 셈이다. 때문에 단순 사정지정에만 열을 올리고 있다는 비판이 나온다. 소비자들이 계속되는 전화문자 등 안내에 심리적 압박을 느껴 위험 부담이 적은 원금 보장형을 택하게끔 유도하는 측면이 있다는 지적이다.디폴트옵션은 유예기간을 포함해 1년 넘는 시간을 벌었는데도 취지를 살리지 못한 만큼 정부가 얻은 성과는 낙제점에 가깝다. 전문가들은 정부와 기업이 퇴직연금 수익률 높이기에 비상을 걸고 홍보 활동과 상품 차별화에 힘을 줘야 한다고 입을 모은다. 더불어 구멍 많은 제도를 개편하는 게 궁극적인 대안이 될 것이라 조언한다.시작부터 구멍 뚫린 제도실패한 日사례 답습 우려 한국의 디폴트옵션이 근로자에게 전적으로 운용지시 선택권을 주는 옵트 인 선택적 진입opt in 방식을 취했다는 게 가장 큰 결함으로 꼽힌다. 옵트 인은 사전에 동의한 사람에게만 조치를 취하는 정책이라면 옵트 아웃 선택적 탈퇴opt out는 조치를 모두에게 적용하되 사전에 동의하지 않은 사람만 제외시키는 것을 말한다.오래 전부터 디폴트옵션을 도입운영해 온 미국과 호주 등은 옵트 아웃 방식을 취했다. 회사가 최선의 조건으로 디폴트옵션을 제시하면 근로자는 이를 거부하지 않는 한 해당 상품에 자동 가입되는 식이다. 일단 상품에 강제로 가입하게 하는 게 기본값인 셈이다. 미 정부는 디폴트옵션 상품 운용 과정에서 손실이 나더라도 회사가 소송 등 법적 책임을 지지 않을 수 있도록 하는 면책 조항도 뒀다. 미국에선 디폴트옵션이 회사 주요 복지수단으로 여겨지는 만큼 이런 조항이 생기자 그간 도입을 망설여온 많은 회사들이 인력 유치를 위해 디폴트옵션을 적극 들이기 시작했다.반면 한국형 디폴트옵션은 기본값 자체가 제도 밖이다. 퇴직연금을 굴릴 상품을 미리 지정하는 건 똑같지만 운용할 상품을 누가 정하는가가 다르다. 회사가 디폴트옵션을 설정해주지 않고 근로자가 직접 금융사가 제시한 상품들 중 선택하도록 한 것이다.한국도 퇴직연금 사업자와 사용자 회사 근로자 중 누가 설정 권한을 질 것인가를 두고 국내에서 뜨거운 논의를 이어갔지만 그 결론은 근로자였다. 개별 기업들은 금융기관이 아닌 만큼 디폴트옵션을 설정할 역량이 없고 사업자는 면책도 안 되는 상황에서 근로자로부터 소송당할 위험을 감수할 필요가 없단 이유에서다. 아무도 책임을 지려 하지 않는 가운데 근로자가 가장 무거운 짐을 떠안게 된 셈이다. 물론 근로자가 상품을 직접 선택할 수 있단 점에서 선택권이 넓어졌다고 볼 수 있지만 그만큼 신경써서 골라야 하기에 신중한 선택이 요구된다. 전문가들은 현행 우리 디폴트옵션의 옵트 인 방식은 스스로 운용지시가 없는 경우 강제적으로 운용지시권을 행사한다는 제도의 취지를 거스르는 것이라고 지적한다.남재우 자본시장연구원 연구위원은 개인이 아무런 행동을 취하지 않았을 때 상태가 제도 안이냐 밖이냐는 완전히 다른 결과를 부른다고 말했다. 그는 판매사들로부터 지정을 권유 받는 전화 세례에 시달리는 근로자들은 자기 선택으로 손실을 냈을 때의 부담감 고금리 상황 등을 생각해 원리금 보장형을 택하는 것으로 보인다며 은행 증권사들은 빠른 지정을 위해 유선으로 은근히 원리금 보장형 가입을 권하는 경우도 있다고 말했다.경제협력개발기구 OECD 국가 중 디폴트옵션에 원리금 보장형을 포함시킨 곳은 한국과 일본 두 곳 뿐이다. 우리나라보다 45년 먼저 빨랐던 일본은 저수익률을 극복하지 못하면서 답보 상태에 빠졌다. 일본은 적립금을 방치하는 문제점을 고치기 위해 2018년 5월 디폴트옵션을 도입했다. 하지만 증권 업계가 취합한 자료에 따르면 여전히 수익률은 1 안팎으로 매우 낮고 원리금 보장형에 머물러 있는 가입자는 80대에 달하는 상황이다.한국과 일본은 자산운용에 대한 국민의 저위험 선호도가 다른 나라 대비 크게 높은 편이라는 분석이 나온다. 이규성 미래에셋투자와연금센터 연구원은 2020년까지의 자료를 보면 일본의 운용 수익률은 미국의 절반에도 못미치는 등 격차가 확실히 크다고 말했다.한국이 일본과 같은 전철을 밟지 않기 위해선 어떤 노력들이 필요할까. 원리금 보장형을 제외시키는 게 대안이겠지만 이는 제도 변경이 필요해서 현실적으로 어렵다. 우리나라가 일본을 벤치마크하기로 결정한 것은 이미 치열한 업권 간 경쟁의 결과이기 때문이다. 당장은 정부와 업계가 대국민 홍보에 열을 올리는 방안이 최선책으로 거론된다.가입자 맞춤교육규약변경 절차부터 개선해야업계 관계자들 또한 디폴트옵션 안내 과정에서 사업자들이 근로자의 이익을 최우선으로 두고 적극적인 홍보와 교육을 진행해야 한다는 데 의견을 모았다. 박종원 서울시립대 교수는 논문 국내 퇴직연금의 운용성과 제고를 위한 제도 개혁방안에서 제도의 정착과 활성화를 위해선 연금사업자가 디폴트옵션 상품군에 대한 충분한 사전 설명과 교육을 제공하는 게 가장 중요하다고 강조했다. 그는 사업자들은 관련 서비스를 제공하기에 앞서 위험수용도나 재무상태 연령대 등 가입자 집단과 개인의 특성을 충분히 파악해야 한다며 한 번의 교육에서 끝나지 않고 주기적으로 모니터링을 하면서 운용성과와 위험 요인을 점검해야 할 것이라고 밝혔다.주효근 신한투자증권 OCIO센터 부서장은 일부 기업들은 퇴직연금 의무 가입 대상인 300인 이상의 사업장에만 적극적인 교육을 벌이는 등 선별적인 안내 활동을 벌이고 있다며 교육과 안내가 필요한데도 외면받는 사각지대 기업들이 많은 상황이라고 지적했다. 그러면서 퇴직연금 사업자들의 교육을 개개인이 빠짐 없이 들을 수 있도록 독려하고 눈높이에 맞게 추가 안내를 해주는 게 중요하다고 강조했다.업계가 디폴트옵션 상품군을 확대해야 한다는 목소리도 크다. 민주영 신영증권 연금사업본부장은 기업들은 혼합형펀드가 아닌 타깃데이트펀드 TDF 조합으로 포트폴리오를 짜고 있다묘며 TDF 조합만이 디폴트옵션의 주요 상품으로 인식되는 기조에서 벗어날 필요가 있다고 진단했다. 이어 위험성향뿐 아니라 연령과 납입방법 등 기준을 다양화한 구성상품들을 넣어서 상품군 범위를 넓혀야 한다고 말했다.한편 사업자들은 디폴트옵션 상품이나 포트폴리오를 쉽게 조정 변경할 수 있도록 절차를 개선해 달라는 의견을 내놓았다. 지금은 사업자들이 포트폴리오 내 구성 상품을 바꾸려면 고용노동부의 승인과 근로자 대표의 동의를 받아야 한다. 경제 상황이나 수익률 추이를 봐가면서 금융사가 상품의 운용 전략에 변화를 주고자 할 때 이를 즉시 반영하게끔 해 달라는 주장이다.김하종 한화자산운용 채널연금마케팅본부 이사는 수익률 제고를 위해 금융회사가 포트폴리오나 상품을 바꾸려고 해도 절차가 복잡해 한계가 있다며 이런 허들은 결국 수익자인 가입자들에게 악영향을 미칠 수밖에 없다. 자산운용에 있어 융통성이 주어지면 좋을 것 같다고 밝혔다.하지만 제한된 환경 안에서 사업자와 당국이 취할 수 있는 행동은 한계가 있다. 특히 적립금 340조원 규모의 퇴직연금 시장은 제도적 뒷받침 없이는 성장하기 어렵다. 결국 시간이 걸리더라도 제도의 결함을 메우는 것부터 시작해야 한다는 의견이 많다.즉 적격상품 유형에서 원리금 보장형을 빼야 앞으로 나아갈 수 있단 얘기다. 이는 제도를 바꿔야 하는 문제다. 이 방법이 어렵다면 미국처럼 사전지전운용 상품으로 원리금보장상품을 지정하는 경우 그 기간을 짧게 한정하는 조치라도 취해야 한다는 의견이 나온다. 미국의 기업연금 디폴트옵션 적격상품 QDIA은 투자결정 기간인 120일 동안만 원리금 보장형을 운용하게 했다. 근로자들이 제때 참고할 수 있도록 공시 체계를 보다 촘촘하게 설계해야 한다는 주장도 있다. 남재우 연구위원은 기존 퇴직연금 사업자의 경쟁이 가입자 유치 경쟁이었다면 이를 적격상품 효율성에 대한 운용경쟁으로 유도해야 한다며 공시 주기는 분기 단위 등 가능한 짧게 수익률 산출 기간은 가능한 장기로 설정돼야 할 것이라고 말했다. 끝</t>
+          <t>근로자가 아니기 때문에 노동관계법과 관련한 부당한 청구를 하지 않겠다고 명시된 계약서에 서명한 고용 의사의 근로자성을 인정한 대법원 판결이 나왔다.근로기준법상 근로자에 해당하는지 여부는 계약의 형식이 아니라 실질적인 근로 내용을 기준으로 판단해야 한다는 취지의 판결이다.8일 법조계에 따르면 대법원 1부 주심 서경환 대법관는 모 의료소비자 생활협동조합이 운영하는 서울 중랑구 소재 한 의원의 대표 이모씨가 근로자퇴직급여보장법 위반 혐의로 기소된 사건의 상고심에서 무죄를 선고한 원심을 파기하고 사건을 서울북부지법으로 돌려보냈다.재판부는 원심은 그 판시와 같은 이유만으로 오씨가 근로기준법상의 근로자에 해당하지 않는다고 봐 이 사건 공소사실에 대해 무죄로 판단했는바 이러한 원심의 판단에는 근로자성에 대한 법리를 오해해 판결에 영향을 미친 잘못이 있다고 파기환송의 이유를 밝혔다.이씨는 자신이 운영하는 병원에서 2019년 7월 31일까지 근무하다 퇴직한 의사 오모씨의 퇴직금 1400여만원을 퇴직일로부터 14일 이내에 지급하지 않은 혐의로 재판에 넘겨졌다.재판에서는 오씨를 근로기준법상 근로자로 볼 수 있는지가 쟁점이 됐다.이씨는 오씨가 근로기준법상 근로자가 아니기 때문에 자신에게는 퇴직금 지급의무가 없고 퇴직금 미지급에 대한 고의도 없다고 주장했다.오씨는 이씨와 근로계약서가 아닌 위탁계약을 체결했다. 오씨가 이씨로부터 위탁받은 진료업무를 이행하고 그 대가로 보수를 받는 내용이었다. 그런데 계약서에는 오씨는 근로자가 아니므로 노동관계법과 관련한 부당한 청구를 하지 않는다는 내용이 명시돼 있었다.하지만 1심은 이씨의 혐의를 유죄로 판단했다.비록 계약서상 근로자가 아니라고 명시돼 있지만 근로자성 여부는 계약의 형식이 아니라 실질적인 근로 내용으로 판단해야 한다는 대법원의 입장에 따라 따져볼 때 오씨를 충분히 근로자로 인정할 수 있다는 이유였다. 오씨가 퇴직하기 직전년도인 2018년 오씨에 대해 근로소득세 원천징수를 한 점이나 오씨가 이씨가 운영하는 의원을 사업장으로 건강보험에 가입돼 있는 점 등이 근거가 됐다.그런데 2심의 판단은 달랐다.2심 재판부는 이씨에게 유죄를 선고한 1심 판결을 파기하고 이씨에게 무죄를 선고했다.재판부는 검사가 제출한 증거들만으로는 오씨가 근로기준법상 근로자에 해당한다고 보기 어렵고 달리 이를 인정할 증거가 없다라며 이 사건 공소사실은 범죄의 증명이 없는 때에 해당하므로 형사소송법 제325조 후단에 따라 피고인에게 무죄를 선고한다고 밝혔다.재판부는 두 사람 사이에 체결한 위탁계약서에 오씨가 근로자가 아니라는 점이 명시돼 있는 점 오씨에 대한 취업규칙이나 복무규정이 마련돼 있지 않았던 점 실제 오씨가 자신의 진료업무 수행과 관련해 이씨로부터 어떠한 지시나 감독을 받은 사실이 없는 점 계약서에는 오씨는 진료업무에 대해 본인의 재량에 따라 성심성의껏 처리하고 이씨는 오씨의 업무수행에 대해 선량한 관리자로서의 주의의무 보고의무 등에 대한 요청 외에 별도의 직접적 구체적인 지시명령을 행하지 아니한다는 내용이 포함돼 있었음 오씨는 병원의 다른 직원들과 달리 지문인식기를 통해 출퇴근시간을 기록하지 않았고 직원회의에도 참석하지 않았던 점 오씨에 대한 연차 등 휴가규정은 따로 없었고 오씨가 휴가로 진료업무를 수행하지 못하는 경우 이씨가 직접 대체의사를 구해 그로 하여금 진료업무를 대행하게 했던 점 계약서에는 오씨가 이씨로부터 매월 600만원의 보수를 지급받도록 돼 있지만 영업이익에 적자가 발생해 보수를 지급하는 것이 현저히 어려울 경우 양측이 협의해 보수를 조정하거나 지급기일을 연기할 수 있도록 정하고 있는 점 등을 이 같은 판단의 근거로 들었다.대법원에서 다시 결론이 뒤집혔다.재판부는 먼저 근로자성 판단 기준에 대한 종래 대법원의 입장을 확인했다.앞서 대법원은 근로기준법상의 근로자에 해당하는지 여부는 계약의 형식이 고용계약인지 도급계약인지보다 그 실질에 비춰 근로자가 사업 또는 사업장에 임금을 목적으로 종속적인 관계에서 사용자에게 근로를 제공했는지 여부에 따라 판단해야 하고 여기에서 종속적인 관계가 있는지 여부는 업무 내용을 사용자가 정하고 취업규칙 또는 복무 인사규정 등의 적용을 받으며 업무 수행 과정에서 사용자가 상당한 지휘감독을 하는지 사용자가 근무시간과 근무장소를 지정하고 근로자가 이에 구속을 받는지 노무제공자가 스스로 비품원자재나 작업도구 등을 소유하거나 제3자를 고용해 업무를 대행케 하는 등 독립해 자신의 계산으로 사업을 영위할 수 있는지 노무 제공을 통한 이윤의 창출과 손실의 초래 등 위험을 스스로 안고 있는지 보수의 성격이 근로 자체의 대상적 성격인지 기본급이나 고정급이 정해졌는지 및 근로소득세의 원천징수 여부 등 보수에 관한 사항 근로 제공 관계의 계속성과 사용자에 대한 전속성의 유무와 그 정도 사회보장제도에 관한 법령에서 근로자로서 지위를 인정받는지 등의 경제적사회적 여러 조건을 종합해 판단해야 한다고 밝힌 바 있다.또 다만 기본급이나 고정급이 정해졌는지 근로소득세를 원천징수했는지 사회보장제도에 관해 근로자로 인정받는지 등의 사정은 사용자가 경제적으로 우월한 지위를 이용해 임의로 정할 여지가 크기 때문에 그러한 점들이 인정되지 않는다는 것만으로 근로자성을 쉽게 부정해서는 안 된다고도 밝혔다.그리고 대법원은 이씨가 오씨와 위와 같은 내용의 위탁계약을 체결하게 된 배경을 짚었다.조합 대표자였던 이씨는 2012년 4월부터 이 사건 의원을 개설해 운영하다가 당시 근무하던 의사 A씨게 임금을 제때 지급하지 않아 2013년 4월 근로기준법위반죄로 벌금 200만원의 약식명령을 받은 적이 있었다. 당시에도 이씨는 A씨가 근로자가 아니라고 주장하면서 정식재판을 청구했지만 결국 대법원에서 벌금 200만원 형을 확정받았다.이후 이씨는 공인노무사의 도움을 받아 위탁진료계약 형식의 계약서를 제공받아 노무관계를 해결해 왔고 2017년 8월 1일 오씨와도 위탁계약을 체결한 것이었다. 계약 내용은 오씨가 이씨의 의원에서 진료업무를 수행하고 매월 600만원 및 현금 135만원을 받는 내용이었다.재판부는 오씨는 이 사건 의원의 유일한 의사로 근무시간이 일정하게 정해져 있었고 근무 장소도 진료실 원장실로 특정돼 있었다라며 이 사건 계약의 형식이 위탁진료계약이라고 하더라도 이 사건 계약 내용의 가장 중요한 부분은 오씨가 정해진 시간 동안 이 사건 의원에서 진료업무를 수행하고 이씨는 오씨에게 그 대가를 고정적으로 지급하는 것이다라고 지적했다.또 재판부는 오씨는 주중 및 토요일 대부분을 이 사건 의원에서 근무하면서 매월 진료업무 수행의 현황이나 실적을 이씨에게 보고해야 했으므로 이씨는 오씨의 근무시간 및 근무장소를 관리하고 오씨의 업무에 대해 상당한 지휘감독을 했다고 봄이 타당하다고 밝혔다.실제 두 사람이 체결한 계약서에는 오씨가 매월 한 차례 상호 조정 하에 진료업무 수행의 현황 및 실적을 이씨에게 통지해야 했고 오씨가 보고의무를 게을리하거나 불성실하게 행한 경우 이씨가 이 사건 계약을 해지할 수 있다는 내용이 포함돼 있었다.재판부는 오씨는 이씨가 제공하는 의료장비나 사무기기를 활용해 진료업무를 수행했고 이씨로부터는 환자 치료실적에 따른 급여의 변동 없이 매월 고정적으로 돈을 받았으므로 오씨가 지급받은 돈은 근로 자체의 대상적 성격으로 보는 것이 타당하다고 판단했다.이밖에도 재판부는 이씨의 의원을 사업장으로 오씨의 건강보험 가입신고가 돼 있었던 점도 오씨를 근로자로 봐야 할 근거로 들었다.재판부는 이와 같은 사정들을 종합하면 오씨는 임금을 목적으로 종속적인 관계에서 사용자에게 근로를 제공한 근로기준법상의 근로자에 해당한다고 보인다고 결론 내렸다.한편 재판부는 오씨가 이씨로부터 구체적인 업무지시를 받지 않았던 것과 관련해 오씨가 비록 진료업무 수행 과정에서 이씨로부터 구체적 개별적인 지휘감독을 받지는 않은 것으로 보이나 이는 의사의 진료업무특성에 따른 것이어서 오씨의 근로자성을 판단할 결정적인 기준이 될 수는 없다고 밝혔다.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>['디폴트옵션', '퇴직연금 사업자', '퇴직연금 적립금', '퇴직연금 제도 도입', '옵트아웃', '퇴직연금 규모', '퇴직연금ocio', '퇴직연금 고용노동부', '미래에셋 퇴직연금', '신한 퇴직연금', '한화 퇴직연금', '신영 퇴직연금', '퇴직연금 서비스 ', '퇴직연금 경쟁', '퇴직연금 수익률', '퇴직연금 포트폴리오', '퇴직연금 TDF', '퇴직연금 가입', '퇴직연금 펀드', '디폴트옵션 포트폴리오']</t>
+          <t>['퇴직금 제도', '퇴직소득세']</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>[{'디폴트옵션': 1}, {'퇴직연금 사업자': 1}, {'퇴직연금 적립금': 1}, {'퇴직연금 제도 도입': 1}, {'옵트아웃': 1}, {'퇴직연금 규모': 1}, {'퇴직연금ocio': 1}, {'퇴직연금 고용노동부': 8}, {'미래에셋 퇴직연금': 1}, {'신한 퇴직연금': 1}, {'한화 퇴직연금': 1}, {'신영 퇴직연금': 1}, {'퇴직연금 서비스 ': 1}, {'퇴직연금 경쟁': 1}, {'퇴직연금 수익률': 1}, {'퇴직연금 포트폴리오': 1}, {'퇴직연금 TDF': 1}, {'퇴직연금 가입': 1}, {'퇴직연금 펀드': 3}, {'디폴트옵션 포트폴리오': 1}]</t>
+          <t>[{'퇴직금 제도': 22}, {'퇴직소득세': 29}]</t>
         </is>
       </c>
       <c r="K68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>퇴직연금 적립금의 성장과 디폴트옵션에 대한 관심 부족에 대한 정보가 포함되어 있음.</t>
+          <t>근로자성을 인정한 판결이 있으므로, 이 기사는 연금 기금 관리와 관련이 있다.</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>퇴직연금 수익률 높이기와 상품 차별화에 대한 조언이 포함되어 있음.</t>
+          <t>이 기사는 산업 경쟁 동향에 대한 정보를 제공하지 않는다.</t>
         </is>
       </c>
       <c r="O68" t="n">
@@ -7690,15 +7690,15 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>금융 시장의 변동성이나 투자 자산의 영향에 대한 정보가 없음.</t>
+          <t>이 기사는 금융 시장의 영향에 대한 정보를 제공하지 않는다.</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>디폴트옵션 지정 현황을 취합 중인 정부의 동향에 대한 정보가 포함되어 있음.</t>
+          <t>대법원의 판결은 법률 및 규제 변화와 관련이 있다.</t>
         </is>
       </c>
       <c r="S68" t="n">
@@ -7706,7 +7706,7 @@
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>노령화와 퇴직연금의 장기적인 지속 가능성에 대한 정보가 없음.</t>
+          <t>이 기사는 인구 통계 변화에 대한 정보를 제공하지 않는다.</t>
         </is>
       </c>
       <c r="U68" t="n">
@@ -7714,7 +7714,7 @@
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>기술과 디지털화에 대한 정보가 없음.</t>
+          <t>이 기사는 기술과 디지털화에 대한 정보를 제공하지 않는다.</t>
         </is>
       </c>
       <c r="W68" t="n">
@@ -7722,7 +7722,7 @@
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>소비 행동과 요구사항에 대한 정보가 없음.</t>
+          <t>이 기사는 소비 행동 및 요구사항에 대한 정보를 제공하지 않는다.</t>
         </is>
       </c>
     </row>
@@ -7734,7 +7734,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>퇴직연금 제도</t>
+          <t>타사 동향 및 이벤트</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -7744,35 +7744,35 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>매달 75만원씩 연금 부은 50세... 10년 후 퇴직하면 얼마 받나 보니 [왕개미연...</t>
+          <t>벌려놓은 판 '330조'…근로자 무관심만 탓하기엔 구멍 '숭숭' [빈수레 디폴트...</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>세액공제 한도 올해부터 연 900만원매년 최대 118만148만원 돌려받아50대 퇴준생의 연금 공식 알려드려요. 연금 세액공제 한도가 1년에 900만원이니까 매달 75만원씩 연금 계좌에 붓는 것이다. 50대 퇴준생 퇴직준비생이 연금을 준비할 때 가장 먼저 할 일은 월 75만원 연금 자동이체를 세팅하는 것이다.</t>
+          <t>퇴직연금 적립금이 큰 규모로 성장하고 있으며, 한국형 디폴트옵션에 대한 관심이 낮음. 전문가들은 퇴직연금 수익률 높이기에 대한 홍보와 상품 차별화가 필요하다고 조언.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003792066?sid=101</t>
+          <t>https://n.news.naver.com/mnews/article/015/0004899681?sid=101</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>세액공제 한도 올해부터 연 900만원매년 최대 118만148만원 돌려받아50대 퇴준생의 연금 공식 알려드려요회사 업무량과 상사 잔소리가 급격하게 줄어들면 비로소 관심을 갖게 되는 연금. 젊을 땐 집 사서 은행 빚부터 갚아야 하니 우선 순위에서 밀리지만 자리가 위태로워지는 중년 회사원이 되면 연금 통장부터 들춰보게 된다. 부부가 계산기를 꺼내 예상 연금액을 따져보는 시기도 바로 이때다. 50대 직장인이 꼭 알아야 할 연금 굴리기 공식을 알아 봤다. 1월 75만원 납입 세팅하기연금 연금저축IRP은 국가가 밀어주고 시간이 불려주는 금융상품이다. 국가가 밀어준다는 의미는 1년 900만원 한도로 주어지는 연금 세액공제 13.216.5 혜택을 의미한다. 환급액은 연 소득에 따라 달라지는데 5500만원 이하면 최대 148만5000원 5500만원 초과면 최대 118만8000원까지 돌려받을 수 있다. 또 연금은 55세까지는 돈을 자유롭게 인출하지 못해서 강제 저축의 성격을 갖기 때문에 자동적으로 복리 효과를 누린다.은행빚과 사교육비에서 자유로워진 50대 퇴준생 퇴직준비생이 연금을 준비할 때 가장 먼저 할 일은 월 75만원 연금 자동이체를 세팅하는 것이다. 연금 세액공제 한도가 1년에 900만원이니까 매달 75만원씩 연금 계좌에 붓는 것이다. 운동은 남이 시켜야 한다는 말이 있는데 연금도 마찬가지다. 자동 이체를 해둬야 목표를 달성하기 쉽다.연금 세액공제 한도는 작년까진 700만원이었지만 올해부터 900만원으로 늘어났다. 작년까지 700만원을 붓고 있었다면 연말까지 추가로 200만원을 더 넣어 추가 절세 혜택을 챙기도록 하자. 2정년 후 연금액 계산하기뒤늦게 정신이 번쩍 든 50세 퇴준생이 퇴직 때까지 매달 75만원씩 붓는다면 10년 후 연금을 얼마나 받을 수 있을까. 조선일보 가 연금 솔루션 개발업체 에 의뢰해 연봉 1억인 50세 박 부장의 사례를 시뮬레이션 해봤다.박 부장이 10년간 매년 900만원씩 착실히 납입한다면 연금 계좌엔 원금 9000만원이 쌓인다. 연평균 4씩 꾸준히 수익을 냈다고 가정하면 10년 동안의 운용 수익은 약 1745만원. 여기에다 세액 공제 환급금 1188만원과 세액 공제 환급금 운용 수익 230만원을 더하면 60세 퇴직 시점에 약 1억2200만원의 연금 자산이 생긴다.이 돈을 자식에게 물려주지 않고 전부 다 쓰고 죽을 생각이라면 박 부장은 60세부터 82세 남성 평균수명까지 매달 48만원씩 인출해서 쓰면 된다. 만약 연금 자산의 운용 수익률을 연 6까지 높인다면 연금액은 매달 53만원으로 늘어난다.65세 국민연금을 받기 전까지 즉 6064세까지는 연금에서 150만원 넘게 뽑아쓰고 65세부터는 소액을 받는 식으로 수령 방식을 설계할 수도 있다. 하지만 월 100만원 넘게 연금을 받으면 1200만원 한도 내년부터 1500만원 예정에 걸려서 종합과세 16.5 대상이 되어 세금을 더 내야 하니 주의해야 한다. 3빨리 시작할수록 승률 높아져10년 전에 알았으면 좋았을 텐데... 세상일이 그렇지만 연금도 발등에 불 떨어졌을 때보다는 미리 준비하는 것이 훨씬 이득이다. 만약 50세 박 부장이 10년 전에 4150세 노후를 준비했다면 어땠을까. 분석에 따르면 4150세에 9000만원을 연금에 넣은 박 부장은 60세 퇴직 시점에 1억8000만원 가량의 노후 자산을 손에 쥔다. 연금 계좌에 불입한 원금 9000만원은 똑같지만 50대에 시작했을 때에 비해 6000만원 가량 더 많다.배현기 웰스가이드 대표는 노후 준비는 젊어서 할수록 유리하고 인플레이션 헤지가 가능한 투자 자산으로 준비해 수익률을 높이는 전략이 바람직하다면서 투자 자산은 단기적으론 손실이 날 수도 있지만 기간을 늘려 운용하면 충분히 변동성을 이겨낼 수 있다고 말했다. 4연금 성과 높이는 꿀팁그렇다면 연금 계좌는 어떻게 운용해야 유리할까. 요즘 트렌드는 증권사에서 연금 계좌를 만들고 상장지수펀드 ETF를 사모으는 것이다. ETF는 코스피반도체 등 기초자산 추이에 따라 성과가 달라지는 펀드인데 올해 자산 규모가 최초로 100조원을 돌파할 정도로 급성장하고 있다.조상준 타임폴리오자산운용 ETF본부장은 연금은 일단 한번 입금하면 빼기도 어려운 데다 미래 노후 자금을 만들기 위해 길게는 20년까지도 운용해야 한다면서 일반적인 투자와는 결을 다르게 가져가는 것이 좋다고 말했다. 조 본부장은 특히 연금 계좌에서 테마성 ETF 투자는 꼭 피해야 한다고 강조했다.테마는 사이클이 있고 상승 사이클이 끝나면 언제 다시 돌아올 지 모를 긴 하락기에 갇힐 수 있습니다. 차이나2차전지 테마가 대표적이죠. 연금은 장기적으로 우상향하는 대표 지수에 투자하는 것이 적합합니다. 강력한 경제를 바탕으로 다양한 성장 산업을 보유하고 있는 미국 대표지수인 SP500이나 나스닥100 같은 것입니다.운용 성과에 플러스알파를 더하고 싶다면 액티브ETF를 선택하는 것도 방법이다. 액티브ETF는 기계적으로 기초지수를 추종하는 ETF 속성에 펀드매니저의 감각을 30 정도 가미한 상품이다. 상품명에 액티브라는 단어가 들어간다. 똑같은 지수를 추종한다고 해도 액티브ETF는 펀드매니저 재량에 따라 초과 성과를 올릴 수 있다표 참고. 5만약 불의의 사고가 생긴다면이렇게 차곡차곡 모아서 만든 연금자산 죽기 전에 다 쓸 생각이지만 만약 다 쓰지 못한 상태에서 불의의 사고가 생겼다면 어떻게 될까. 결론부터 말하면 사적연금도 부동산처럼 상속 대상이며 상속세 부과 대상이다.그런데 연금은 절세 혜택을 받은 상품이기 때문에 한꺼번에 다 인출하면 불이익 기타소득세 16.5 분리과세이 있다. 하지만 가입자 사망 같은 부득이한 사유가 발생해서 상속이 발생하는 경우엔 예외다. 연금을 일시금으로 인출한다고 해도 페널티를 내는 일은 없고 연금소득세 3.35.5만 내고 해지하면 된다. 단 사망일로부터 6개월 이내에 처리해야 한다. 상속세는 연금소득세를 다 내고 받은 금액을 기준으로 계산한다.그런데 배우자가 만 55세 이상이라면 연금계좌를 승계하는 것도 가능하다. 즉 연금 소유권을 배우자가 넘겨 받는 것이다 자녀는 불가능. 금융회사에 6개월 내에 신청해야 하고 배우자는 연금소득세 3.35.5만 내고 연금을 받을 수 있다. 상속세는 연금계좌 가액 세금 부과 전이 기준이다.우리 집 노후 준비는 자산수명 간편 계산기로 확인해 보세요. 누구나 무료로 이용할 수 있어요. 조선닷컴에선 여기를 클릭하고 네이버다음 등 포털사이트에선 www.chosun.com service lifespan를 복사해서 주소창에 넣어보세요.</t>
+          <t>2005년 도입된 퇴직연금은 2023년 적립금이 330조원에 달할 만큼 큰 규모로 성장했다. 근로자 노후에 필수적인 제도로 자리잡고 있다. 노후에 도움을 더하겠다고 한국형 디폴트옵션가 시작됐지만 대다수 근로자들은 무관심한 게 현실이다. 그렇다고 근로자들만 탓할 수는 없는 문제다. 사업자들도 백점짜리 안내 서비스를 제공한다고는 볼 수 없기 때문이다.정부에서는 회사별 디폴트옵션 지정 현황을 취합하고 있다. 은행과 증권사들로선 지정률 자체가 성과지표가 된다. 사업자들로선 원금 보장형이든 실적 배당형이든 관계없이 일단 지정률을 높이는 게 관건인 셈이다. 때문에 단순 사정지정에만 열을 올리고 있다는 비판이 나온다. 소비자들이 계속되는 전화문자 등 안내에 심리적 압박을 느껴 위험 부담이 적은 원금 보장형을 택하게끔 유도하는 측면이 있다는 지적이다.디폴트옵션은 유예기간을 포함해 1년 넘는 시간을 벌었는데도 취지를 살리지 못한 만큼 정부가 얻은 성과는 낙제점에 가깝다. 전문가들은 정부와 기업이 퇴직연금 수익률 높이기에 비상을 걸고 홍보 활동과 상품 차별화에 힘을 줘야 한다고 입을 모은다. 더불어 구멍 많은 제도를 개편하는 게 궁극적인 대안이 될 것이라 조언한다.시작부터 구멍 뚫린 제도실패한 日사례 답습 우려 한국의 디폴트옵션이 근로자에게 전적으로 운용지시 선택권을 주는 옵트 인 선택적 진입opt in 방식을 취했다는 게 가장 큰 결함으로 꼽힌다. 옵트 인은 사전에 동의한 사람에게만 조치를 취하는 정책이라면 옵트 아웃 선택적 탈퇴opt out는 조치를 모두에게 적용하되 사전에 동의하지 않은 사람만 제외시키는 것을 말한다.오래 전부터 디폴트옵션을 도입운영해 온 미국과 호주 등은 옵트 아웃 방식을 취했다. 회사가 최선의 조건으로 디폴트옵션을 제시하면 근로자는 이를 거부하지 않는 한 해당 상품에 자동 가입되는 식이다. 일단 상품에 강제로 가입하게 하는 게 기본값인 셈이다. 미 정부는 디폴트옵션 상품 운용 과정에서 손실이 나더라도 회사가 소송 등 법적 책임을 지지 않을 수 있도록 하는 면책 조항도 뒀다. 미국에선 디폴트옵션이 회사 주요 복지수단으로 여겨지는 만큼 이런 조항이 생기자 그간 도입을 망설여온 많은 회사들이 인력 유치를 위해 디폴트옵션을 적극 들이기 시작했다.반면 한국형 디폴트옵션은 기본값 자체가 제도 밖이다. 퇴직연금을 굴릴 상품을 미리 지정하는 건 똑같지만 운용할 상품을 누가 정하는가가 다르다. 회사가 디폴트옵션을 설정해주지 않고 근로자가 직접 금융사가 제시한 상품들 중 선택하도록 한 것이다.한국도 퇴직연금 사업자와 사용자 회사 근로자 중 누가 설정 권한을 질 것인가를 두고 국내에서 뜨거운 논의를 이어갔지만 그 결론은 근로자였다. 개별 기업들은 금융기관이 아닌 만큼 디폴트옵션을 설정할 역량이 없고 사업자는 면책도 안 되는 상황에서 근로자로부터 소송당할 위험을 감수할 필요가 없단 이유에서다. 아무도 책임을 지려 하지 않는 가운데 근로자가 가장 무거운 짐을 떠안게 된 셈이다. 물론 근로자가 상품을 직접 선택할 수 있단 점에서 선택권이 넓어졌다고 볼 수 있지만 그만큼 신경써서 골라야 하기에 신중한 선택이 요구된다. 전문가들은 현행 우리 디폴트옵션의 옵트 인 방식은 스스로 운용지시가 없는 경우 강제적으로 운용지시권을 행사한다는 제도의 취지를 거스르는 것이라고 지적한다.남재우 자본시장연구원 연구위원은 개인이 아무런 행동을 취하지 않았을 때 상태가 제도 안이냐 밖이냐는 완전히 다른 결과를 부른다고 말했다. 그는 판매사들로부터 지정을 권유 받는 전화 세례에 시달리는 근로자들은 자기 선택으로 손실을 냈을 때의 부담감 고금리 상황 등을 생각해 원리금 보장형을 택하는 것으로 보인다며 은행 증권사들은 빠른 지정을 위해 유선으로 은근히 원리금 보장형 가입을 권하는 경우도 있다고 말했다.경제협력개발기구 OECD 국가 중 디폴트옵션에 원리금 보장형을 포함시킨 곳은 한국과 일본 두 곳 뿐이다. 우리나라보다 45년 먼저 빨랐던 일본은 저수익률을 극복하지 못하면서 답보 상태에 빠졌다. 일본은 적립금을 방치하는 문제점을 고치기 위해 2018년 5월 디폴트옵션을 도입했다. 하지만 증권 업계가 취합한 자료에 따르면 여전히 수익률은 1 안팎으로 매우 낮고 원리금 보장형에 머물러 있는 가입자는 80대에 달하는 상황이다.한국과 일본은 자산운용에 대한 국민의 저위험 선호도가 다른 나라 대비 크게 높은 편이라는 분석이 나온다. 이규성 미래에셋투자와연금센터 연구원은 2020년까지의 자료를 보면 일본의 운용 수익률은 미국의 절반에도 못미치는 등 격차가 확실히 크다고 말했다.한국이 일본과 같은 전철을 밟지 않기 위해선 어떤 노력들이 필요할까. 원리금 보장형을 제외시키는 게 대안이겠지만 이는 제도 변경이 필요해서 현실적으로 어렵다. 우리나라가 일본을 벤치마크하기로 결정한 것은 이미 치열한 업권 간 경쟁의 결과이기 때문이다. 당장은 정부와 업계가 대국민 홍보에 열을 올리는 방안이 최선책으로 거론된다.가입자 맞춤교육규약변경 절차부터 개선해야업계 관계자들 또한 디폴트옵션 안내 과정에서 사업자들이 근로자의 이익을 최우선으로 두고 적극적인 홍보와 교육을 진행해야 한다는 데 의견을 모았다. 박종원 서울시립대 교수는 논문 국내 퇴직연금의 운용성과 제고를 위한 제도 개혁방안에서 제도의 정착과 활성화를 위해선 연금사업자가 디폴트옵션 상품군에 대한 충분한 사전 설명과 교육을 제공하는 게 가장 중요하다고 강조했다. 그는 사업자들은 관련 서비스를 제공하기에 앞서 위험수용도나 재무상태 연령대 등 가입자 집단과 개인의 특성을 충분히 파악해야 한다며 한 번의 교육에서 끝나지 않고 주기적으로 모니터링을 하면서 운용성과와 위험 요인을 점검해야 할 것이라고 밝혔다.주효근 신한투자증권 OCIO센터 부서장은 일부 기업들은 퇴직연금 의무 가입 대상인 300인 이상의 사업장에만 적극적인 교육을 벌이는 등 선별적인 안내 활동을 벌이고 있다며 교육과 안내가 필요한데도 외면받는 사각지대 기업들이 많은 상황이라고 지적했다. 그러면서 퇴직연금 사업자들의 교육을 개개인이 빠짐 없이 들을 수 있도록 독려하고 눈높이에 맞게 추가 안내를 해주는 게 중요하다고 강조했다.업계가 디폴트옵션 상품군을 확대해야 한다는 목소리도 크다. 민주영 신영증권 연금사업본부장은 기업들은 혼합형펀드가 아닌 타깃데이트펀드 TDF 조합으로 포트폴리오를 짜고 있다묘며 TDF 조합만이 디폴트옵션의 주요 상품으로 인식되는 기조에서 벗어날 필요가 있다고 진단했다. 이어 위험성향뿐 아니라 연령과 납입방법 등 기준을 다양화한 구성상품들을 넣어서 상품군 범위를 넓혀야 한다고 말했다.한편 사업자들은 디폴트옵션 상품이나 포트폴리오를 쉽게 조정 변경할 수 있도록 절차를 개선해 달라는 의견을 내놓았다. 지금은 사업자들이 포트폴리오 내 구성 상품을 바꾸려면 고용노동부의 승인과 근로자 대표의 동의를 받아야 한다. 경제 상황이나 수익률 추이를 봐가면서 금융사가 상품의 운용 전략에 변화를 주고자 할 때 이를 즉시 반영하게끔 해 달라는 주장이다.김하종 한화자산운용 채널연금마케팅본부 이사는 수익률 제고를 위해 금융회사가 포트폴리오나 상품을 바꾸려고 해도 절차가 복잡해 한계가 있다며 이런 허들은 결국 수익자인 가입자들에게 악영향을 미칠 수밖에 없다. 자산운용에 있어 융통성이 주어지면 좋을 것 같다고 밝혔다.하지만 제한된 환경 안에서 사업자와 당국이 취할 수 있는 행동은 한계가 있다. 특히 적립금 340조원 규모의 퇴직연금 시장은 제도적 뒷받침 없이는 성장하기 어렵다. 결국 시간이 걸리더라도 제도의 결함을 메우는 것부터 시작해야 한다는 의견이 많다.즉 적격상품 유형에서 원리금 보장형을 빼야 앞으로 나아갈 수 있단 얘기다. 이는 제도를 바꿔야 하는 문제다. 이 방법이 어렵다면 미국처럼 사전지전운용 상품으로 원리금보장상품을 지정하는 경우 그 기간을 짧게 한정하는 조치라도 취해야 한다는 의견이 나온다. 미국의 기업연금 디폴트옵션 적격상품 QDIA은 투자결정 기간인 120일 동안만 원리금 보장형을 운용하게 했다. 근로자들이 제때 참고할 수 있도록 공시 체계를 보다 촘촘하게 설계해야 한다는 주장도 있다. 남재우 연구위원은 기존 퇴직연금 사업자의 경쟁이 가입자 유치 경쟁이었다면 이를 적격상품 효율성에 대한 운용경쟁으로 유도해야 한다며 공시 주기는 분기 단위 등 가능한 짧게 수익률 산출 기간은 가능한 장기로 설정돼야 할 것이라고 말했다. 끝</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>['퇴직연금 IRP', 'IRP 연금수령', '퇴직소득세', '퇴직연금 규모', '퇴직연금 절세혜택', '퇴직연금 세액공제', '퇴직연금 수익률', '퇴직연금 ETF', '퇴직연금 가입', '퇴직연금 펀드']</t>
+          <t>['디폴트옵션', '퇴직연금 사업자', '퇴직연금 적립금', '퇴직연금 제도 도입', '옵트아웃', '퇴직연금 규모', '퇴직연금ocio', '퇴직연금 고용노동부', '미래에셋 퇴직연금', '신한 퇴직연금', '한화 퇴직연금', '신영 퇴직연금', '퇴직연금 서비스 ', '퇴직연금 경쟁', '퇴직연금 수익률', '퇴직연금 포트폴리오', '퇴직연금 TDF', '퇴직연금 가입', '퇴직연금 펀드', '디폴트옵션 포트폴리오']</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>[{'퇴직연금 IRP': 2}, {'IRP 연금수령': 1}, {'퇴직소득세': 1}, {'퇴직연금 규모': 2}, {'퇴직연금 절세혜택': 1}, {'퇴직연금 세액공제': 1}, {'퇴직연금 수익률': 2}, {'퇴직연금 ETF': 1}, {'퇴직연금 가입': 2}, {'퇴직연금 펀드': 1}]</t>
+          <t>[{'디폴트옵션': 1}, {'퇴직연금 사업자': 1}, {'퇴직연금 적립금': 1}, {'퇴직연금 제도 도입': 1}, {'옵트아웃': 1}, {'퇴직연금 규모': 1}, {'퇴직연금ocio': 1}, {'퇴직연금 고용노동부': 8}, {'미래에셋 퇴직연금': 1}, {'신한 퇴직연금': 1}, {'한화 퇴직연금': 1}, {'신영 퇴직연금': 1}, {'퇴직연금 서비스 ': 1}, {'퇴직연금 경쟁': 1}, {'퇴직연금 수익률': 1}, {'퇴직연금 포트폴리오': 1}, {'퇴직연금 TDF': 1}, {'퇴직연금 가입': 1}, {'퇴직연금 펀드': 3}, {'디폴트옵션 포트폴리오': 1}]</t>
         </is>
       </c>
       <c r="K69" t="n">
@@ -7780,15 +7780,15 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>연금 공식과 세액공제 한도에 대한 설명이 포함되어 있음.</t>
+          <t>퇴직연금 적립금의 성장과 디폴트옵션에 대한 관심 부족에 대한 정보가 포함되어 있음.</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>경쟁 동향에 대한 내용이 없음.</t>
+          <t>퇴직연금 수익률 높이기와 상품 차별화에 대한 조언이 포함되어 있음.</t>
         </is>
       </c>
       <c r="O69" t="n">
@@ -7796,23 +7796,23 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>금융 시장의 영향에 대한 내용이 없음.</t>
+          <t>금융 시장의 변동성이나 투자 자산의 영향에 대한 정보가 없음.</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>법적 및 규제 변화에 대한 내용이 없음.</t>
+          <t>디폴트옵션 지정 현황을 취합 중인 정부의 동향에 대한 정보가 포함되어 있음.</t>
         </is>
       </c>
       <c r="S69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>퇴직 준비생과 연금 자동이체에 대한 내용이 포함되어 있음.</t>
+          <t>노령화와 퇴직연금의 장기적인 지속 가능성에 대한 정보가 없음.</t>
         </is>
       </c>
       <c r="U69" t="n">
@@ -7820,7 +7820,7 @@
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>기술과 디지털화에 대한 내용이 없음.</t>
+          <t>기술과 디지털화에 대한 정보가 없음.</t>
         </is>
       </c>
       <c r="W69" t="n">
@@ -7828,19 +7828,19 @@
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>소비 행동 및 요구사항에 대한 내용이 없음.</t>
+          <t>소비 행동과 요구사항에 대한 정보가 없음.</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2023-10-07</t>
+          <t>2023-10-08</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>퇴직연금 상품</t>
+          <t>퇴직연금 제도</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -7850,35 +7850,35 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>아빠 부자인 아들…美 MZ세대의 빵빵한 연금 통장[돈글돈글]</t>
+          <t>매달 75만원씩 연금 부은 50세... 10년 후 퇴직하면 얼마 받나 보니 [왕개미연...</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>MZ세대는 은퇴 준비에 있어서 더 나은 길을 걷고 있으며, MZ세대가 향후 직장을 다닐 때 벌던 월급의 평균 60 수준을 연금으로 받게 될 것으로 분석됩니다. MZ세대는 다른 세대보다 빠르게 401K에 가입하여 은퇴자금을 축적할 수 있었습니다.</t>
+          <t>세액공제 한도 올해부터 연 900만원매년 최대 118만148만원 돌려받아50대 퇴준생의 연금 공식 알려드려요. 연금 세액공제 한도가 1년에 900만원이니까 매달 75만원씩 연금 계좌에 붓는 것이다. 50대 퇴준생 퇴직준비생이 연금을 준비할 때 가장 먼저 할 일은 월 75만원 연금 자동이체를 세팅하는 것이다.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005323230?sid=104</t>
+          <t>https://n.news.naver.com/mnews/article/023/0003792066?sid=101</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>최근 미국은 빈곤층으로 전락한 베이비붐 세대 19461964년생가 큰 사회문제로 대두되고 있습니다. 연금이 집값이 상승하는 속도를 따라잡지 못하면서 플로리다주와 뉴욕시 등 대도시를 중심으로 중장년층 노숙자 비중이 급격히 늘어나게 된 것입니다.미국의 베이비부머들은 다른 연령층에 비해 자산축적에서 상대적으로 뒤떨어진 세대로 평가받습니다. 이들은 유년 시절인 1970년대에는 석유파동을 겪었고 30대에 들어서는 된 2000년대에는 닷컴 버블이 붕괴하면서 나스닥지수 폭락사태를 겪었습니다. 40대에 접어드니 2008년 세계 금융위기가 터졌습니다. 60대가 된 이후에는 코로나19로 인해 은퇴 후 취업한 아르바이트에서 해고됐죠.반면 이들의 생활고를 옆에서 지켜보고 자란 MZ세대 1980년대 초2000년대 초 출생자는 은퇴 준비에 있어서 더 나은 길을 걷고 있습니다. 미국의 주요 외신들은 이들이 은퇴 이후에도 직장을 다닐 때와 엇비슷한 수준으로 연금을 받게 될 것이라 전망합니다. 오늘은 미국의 MZ세대가 얼마나 효율적인 방식으로 은퇴 준비를 하고 있는지 알아보겠습니다.MZ세대 연금 소득대체율 60베이비붐X세대 앞질러미국의 대형 자산운용사 뱅가드는 미국의 MZ세대가 향후 직장을 다닐 때 벌던 월급의 평균 60 수준을 연금으로 받게 될 것이라고 분석했습니다.소득별로 보면 월 평균 소득이 17만3000달러에 속하는 소득 상위 5의 MZ세대는 연금 소득대체율이 85에 달하는 것으로 나타났습니다. 이는 연금에 가입한 기간에 벌던 평균소득의 85까지 연금이 나온다는 소리입니다. 직장을 다닐 때 벌던 월급과 비슷하게 생활비를 충당할 수 있다는 것이죠. 반면 앞선 세대인 X세대 1970년대 초1980년대 초 출생와 베이비붐세대는 연금 소득 대체율이 75와 63에 불과했습니다.소득 상위 40와 50의 구간에서도 MZ세대의 소득 대체율은 66 58에 달하는 것으로 나타났습니다. 해당 구간의 X세대와 베이비붐세대는 연금 소득대체율이 50에 그칩니다.401K 조기 가입이 비결은퇴자금 지식 부족해 회사 권유 따라MZ세대들은 어떤 이유로 다른 세대보다 은퇴자금을 더 많이 그리고 더 빠르게 준비할 수 있었던 걸까요 금융권에서는 MZ세대가 다른 세대보다 빠르게 401K에 가입했던 것이 효율적으로 은퇴자금을 축적할 수 있었던 원인이라고 분석합니다.401K는 한국의 확정기여 DC형 퇴직연금 상품 중 디폴트 옵션처럼 개인의 투자성향에 맞게 운용하는 연금상품을 일컫습니다. 401K는 근로자와 고용주가 일정한도 내에서 소득공제 혜택을 누리면서 퇴직 계좌에 매달 일정액의 연금을 적립하고 근로자가 이를 직접 운용해 투자 결과를 책임지는 방식입니다. 미국인들의 대다수는 이 자산을 주식형 펀드나 주식과 채권의 비중을 조정해주는 타킷데이트펀드 TDF 등에 투자합니다. 근로자는 은퇴 이후 낮은 소득세율로 은퇴자금을 인출할 수 있습니다.미국인들이 은퇴자금을 충당하는 또 다른 방식에는 소셜시큐리티 연금이 있습니다. 소셜시큐리티는 한국의 국민연금과 비슷한 제도로 소득에 대한 세금을 10년간 납부할 경우 조기 은퇴 시 62세부터 연금 수령이 가능합니다. 그러나 사회 보장 연금만으로 생활비를 충당하기 어려운 실정이라 미국인들은 401K 제도를 적극 활용하는 편입니다.MZ세대는 취업과 동시에 회사에서 권유하는 대로 401K에 가입하는 경우가 많은 것으로 나타났습니다. 미국은 2006년 연금보호법이 개정된 후로 모든 근로자가 자동으로 401K에 가입하도록 강제하고 있습니다. 근로자들이 가입 해지를 원할 경우 탈퇴할 수 있지만 해지 의사를 밝히는 MZ세대가 적어 401K 를 그대로 유지하는 사례가 많았다고 합니다.월스트리트저널 WSJ은 MZ세대들은 세대에 비해 상대적으로 퇴직금 제도에 대한 이해가 부족해 이들이 401k 플랜을 지속하게 된 것으로 분석했습니다. 대학교 졸업까지 제대로 된 금융교육을 충분히 받지 못해 MZ세대들이 다양한 은퇴자금 마련 선택지를 따져보는 데 어려움을 느낀다는 것이죠. 오히려 이들은 회사가 권유하는 대로 401K로 퇴직금을 굴리는 것을 만족해한다고 합니다.디폴트옵션과 자동적립제도 연금 불려주는 장치 마련돼401K에 조기 가입은 먼 훗날 MZ세대에게 큰 혜택을 가져다줄 것으로 보입니다. 특히 2006년 연금보호법 개정 이후 도입된 디폴트옵션 사전지정운용제도과 근로자의 인금이 인상될 경우 적립률이 올라가는 자동인상 제도는 MZ세대가 적립한 은퇴자금을 불려주는 역할을 해줄 것으로 보입니다. 자동인상 제도는 근로자의 임금이 올라갈수록 적립률도 높아지는 플랜을 일컫습니다. 디폴트옵션은 가입자가 일정 기간 퇴직연금을 운용하지 않을 경우 고용주인 기업이 제공하는 금융상품에 투자가 되는 제도입니다. 즉 임금이 인상되면 퇴직금 적립률도 함께 늘어나고 이 자산이 방치되지 않고 몸집을 불릴 수 있도록 도와주는 장치가 함께 마련된 것입니다.반면 401K에 자동 가입되는 제도가 도입되기 이전에 직장에 취업한 베이비붐세대와 X세대는 상대적으로 가입률이 적은 경우가 많다고 WSJ은 설명합니다.아직 아직 주택 등 부동산 분야에서는 MZ세대가 베이비붐과 X세대에 비해 자산 보유량이 많지 않은 상황입니다. 갚아나가야 할 학자금 부채가 많아 자산을 축적하는 데 타 세대와 비해 어려움을 겪고 있다는 목소리도 많이 나옵니다.그렇지만 연금이 부족해 임대료 등을 충당하지 못하는 베이비붐 세대가 늘고 있다는 보도가 나오는 만큼 MZ세대의 높은 연금 소득대체율은 눈여겨볼 만 합니다. 한국의 MZ세대들도 미국의 상황을 잘 살펴볼 필요가 있지 않을까요</t>
+          <t>세액공제 한도 올해부터 연 900만원매년 최대 118만148만원 돌려받아50대 퇴준생의 연금 공식 알려드려요회사 업무량과 상사 잔소리가 급격하게 줄어들면 비로소 관심을 갖게 되는 연금. 젊을 땐 집 사서 은행 빚부터 갚아야 하니 우선 순위에서 밀리지만 자리가 위태로워지는 중년 회사원이 되면 연금 통장부터 들춰보게 된다. 부부가 계산기를 꺼내 예상 연금액을 따져보는 시기도 바로 이때다. 50대 직장인이 꼭 알아야 할 연금 굴리기 공식을 알아 봤다. 1월 75만원 납입 세팅하기연금 연금저축IRP은 국가가 밀어주고 시간이 불려주는 금융상품이다. 국가가 밀어준다는 의미는 1년 900만원 한도로 주어지는 연금 세액공제 13.216.5 혜택을 의미한다. 환급액은 연 소득에 따라 달라지는데 5500만원 이하면 최대 148만5000원 5500만원 초과면 최대 118만8000원까지 돌려받을 수 있다. 또 연금은 55세까지는 돈을 자유롭게 인출하지 못해서 강제 저축의 성격을 갖기 때문에 자동적으로 복리 효과를 누린다.은행빚과 사교육비에서 자유로워진 50대 퇴준생 퇴직준비생이 연금을 준비할 때 가장 먼저 할 일은 월 75만원 연금 자동이체를 세팅하는 것이다. 연금 세액공제 한도가 1년에 900만원이니까 매달 75만원씩 연금 계좌에 붓는 것이다. 운동은 남이 시켜야 한다는 말이 있는데 연금도 마찬가지다. 자동 이체를 해둬야 목표를 달성하기 쉽다.연금 세액공제 한도는 작년까진 700만원이었지만 올해부터 900만원으로 늘어났다. 작년까지 700만원을 붓고 있었다면 연말까지 추가로 200만원을 더 넣어 추가 절세 혜택을 챙기도록 하자. 2정년 후 연금액 계산하기뒤늦게 정신이 번쩍 든 50세 퇴준생이 퇴직 때까지 매달 75만원씩 붓는다면 10년 후 연금을 얼마나 받을 수 있을까. 조선일보 가 연금 솔루션 개발업체 에 의뢰해 연봉 1억인 50세 박 부장의 사례를 시뮬레이션 해봤다.박 부장이 10년간 매년 900만원씩 착실히 납입한다면 연금 계좌엔 원금 9000만원이 쌓인다. 연평균 4씩 꾸준히 수익을 냈다고 가정하면 10년 동안의 운용 수익은 약 1745만원. 여기에다 세액 공제 환급금 1188만원과 세액 공제 환급금 운용 수익 230만원을 더하면 60세 퇴직 시점에 약 1억2200만원의 연금 자산이 생긴다.이 돈을 자식에게 물려주지 않고 전부 다 쓰고 죽을 생각이라면 박 부장은 60세부터 82세 남성 평균수명까지 매달 48만원씩 인출해서 쓰면 된다. 만약 연금 자산의 운용 수익률을 연 6까지 높인다면 연금액은 매달 53만원으로 늘어난다.65세 국민연금을 받기 전까지 즉 6064세까지는 연금에서 150만원 넘게 뽑아쓰고 65세부터는 소액을 받는 식으로 수령 방식을 설계할 수도 있다. 하지만 월 100만원 넘게 연금을 받으면 1200만원 한도 내년부터 1500만원 예정에 걸려서 종합과세 16.5 대상이 되어 세금을 더 내야 하니 주의해야 한다. 3빨리 시작할수록 승률 높아져10년 전에 알았으면 좋았을 텐데... 세상일이 그렇지만 연금도 발등에 불 떨어졌을 때보다는 미리 준비하는 것이 훨씬 이득이다. 만약 50세 박 부장이 10년 전에 4150세 노후를 준비했다면 어땠을까. 분석에 따르면 4150세에 9000만원을 연금에 넣은 박 부장은 60세 퇴직 시점에 1억8000만원 가량의 노후 자산을 손에 쥔다. 연금 계좌에 불입한 원금 9000만원은 똑같지만 50대에 시작했을 때에 비해 6000만원 가량 더 많다.배현기 웰스가이드 대표는 노후 준비는 젊어서 할수록 유리하고 인플레이션 헤지가 가능한 투자 자산으로 준비해 수익률을 높이는 전략이 바람직하다면서 투자 자산은 단기적으론 손실이 날 수도 있지만 기간을 늘려 운용하면 충분히 변동성을 이겨낼 수 있다고 말했다. 4연금 성과 높이는 꿀팁그렇다면 연금 계좌는 어떻게 운용해야 유리할까. 요즘 트렌드는 증권사에서 연금 계좌를 만들고 상장지수펀드 ETF를 사모으는 것이다. ETF는 코스피반도체 등 기초자산 추이에 따라 성과가 달라지는 펀드인데 올해 자산 규모가 최초로 100조원을 돌파할 정도로 급성장하고 있다.조상준 타임폴리오자산운용 ETF본부장은 연금은 일단 한번 입금하면 빼기도 어려운 데다 미래 노후 자금을 만들기 위해 길게는 20년까지도 운용해야 한다면서 일반적인 투자와는 결을 다르게 가져가는 것이 좋다고 말했다. 조 본부장은 특히 연금 계좌에서 테마성 ETF 투자는 꼭 피해야 한다고 강조했다.테마는 사이클이 있고 상승 사이클이 끝나면 언제 다시 돌아올 지 모를 긴 하락기에 갇힐 수 있습니다. 차이나2차전지 테마가 대표적이죠. 연금은 장기적으로 우상향하는 대표 지수에 투자하는 것이 적합합니다. 강력한 경제를 바탕으로 다양한 성장 산업을 보유하고 있는 미국 대표지수인 SP500이나 나스닥100 같은 것입니다.운용 성과에 플러스알파를 더하고 싶다면 액티브ETF를 선택하는 것도 방법이다. 액티브ETF는 기계적으로 기초지수를 추종하는 ETF 속성에 펀드매니저의 감각을 30 정도 가미한 상품이다. 상품명에 액티브라는 단어가 들어간다. 똑같은 지수를 추종한다고 해도 액티브ETF는 펀드매니저 재량에 따라 초과 성과를 올릴 수 있다표 참고. 5만약 불의의 사고가 생긴다면이렇게 차곡차곡 모아서 만든 연금자산 죽기 전에 다 쓸 생각이지만 만약 다 쓰지 못한 상태에서 불의의 사고가 생겼다면 어떻게 될까. 결론부터 말하면 사적연금도 부동산처럼 상속 대상이며 상속세 부과 대상이다.그런데 연금은 절세 혜택을 받은 상품이기 때문에 한꺼번에 다 인출하면 불이익 기타소득세 16.5 분리과세이 있다. 하지만 가입자 사망 같은 부득이한 사유가 발생해서 상속이 발생하는 경우엔 예외다. 연금을 일시금으로 인출한다고 해도 페널티를 내는 일은 없고 연금소득세 3.35.5만 내고 해지하면 된다. 단 사망일로부터 6개월 이내에 처리해야 한다. 상속세는 연금소득세를 다 내고 받은 금액을 기준으로 계산한다.그런데 배우자가 만 55세 이상이라면 연금계좌를 승계하는 것도 가능하다. 즉 연금 소유권을 배우자가 넘겨 받는 것이다 자녀는 불가능. 금융회사에 6개월 내에 신청해야 하고 배우자는 연금소득세 3.35.5만 내고 연금을 받을 수 있다. 상속세는 연금계좌 가액 세금 부과 전이 기준이다.우리 집 노후 준비는 자산수명 간편 계산기로 확인해 보세요. 누구나 무료로 이용할 수 있어요. 조선닷컴에선 여기를 클릭하고 네이버다음 등 포털사이트에선 www.chosun.com service lifespan를 복사해서 주소창에 넣어보세요.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>['퇴직연금 DC', '퇴직금 제도', '디폴트옵션', '퇴직연금 제도 도입', '퇴직연금 운용사', '퇴직연금 TDF', '퇴직연금 가입', '퇴직연금 펀드', '퇴직연금 채권']</t>
+          <t>['퇴직연금 IRP', 'IRP 연금수령', '퇴직소득세', '퇴직연금 규모', '퇴직연금 절세혜택', '퇴직연금 세액공제', '퇴직연금 수익률', '퇴직연금 ETF', '퇴직연금 가입', '퇴직연금 펀드']</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>[{'퇴직연금 DC': 1}, {'퇴직금 제도': 17}, {'디폴트옵션': 1}, {'퇴직연금 제도 도입': 1}, {'퇴직연금 운용사': 2}, {'퇴직연금 TDF': 1}, {'퇴직연금 가입': 2}, {'퇴직연금 펀드': 28}, {'퇴직연금 채권': 4}]</t>
+          <t>[{'퇴직연금 IRP': 2}, {'IRP 연금수령': 1}, {'퇴직소득세': 1}, {'퇴직연금 규모': 2}, {'퇴직연금 절세혜택': 1}, {'퇴직연금 세액공제': 1}, {'퇴직연금 수익률': 2}, {'퇴직연금 ETF': 1}, {'퇴직연금 가입': 2}, {'퇴직연금 펀드': 1}]</t>
         </is>
       </c>
       <c r="K70" t="n">
@@ -7886,39 +7886,39 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>MZ세대는 401K에 가입하여 은퇴자금을 축적하고 있으며, 연금 소득대체율이 높아서 미래의 연금 관리 전략에 대한 관심이 높을 것으로 예상됩니다.</t>
+          <t>연금 공식과 세액공제 한도에 대한 설명이 포함되어 있음.</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>기사에는 새로운 제품 및 서비스 출시와 같은 경쟁 동향에 대한 언급이 없습니다.</t>
+          <t>경쟁 동향에 대한 내용이 없음.</t>
         </is>
       </c>
       <c r="O70" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>금융 시장의 영향에 대한 내용이 없음.</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>법적 및 규제 변화에 대한 내용이 없음.</t>
+        </is>
+      </c>
+      <c r="S70" t="n">
         <v>2</v>
       </c>
-      <c r="P70" t="inlineStr">
-        <is>
-          <t>기사에는 금융 시장의 변동성이나 투자 자산의 변화에 대한 언급이 없습니다.</t>
-        </is>
-      </c>
-      <c r="Q70" t="n">
-        <v>0</v>
-      </c>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>기사에는 법률 및 규제 변경에 대한 언급이 없습니다.</t>
-        </is>
-      </c>
-      <c r="S70" t="n">
-        <v>3</v>
-      </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>MZ세대의 은퇴 준비와 연금 소득대체율에 대한 언급으로 인해 인구 통계 변화와 연금 기금의 장기적인 지속 가능성에 대한 관심이 높아질 것으로 예상됩니다.</t>
+          <t>퇴직 준비생과 연금 자동이체에 대한 내용이 포함되어 있음.</t>
         </is>
       </c>
       <c r="U70" t="n">
@@ -7926,15 +7926,15 @@
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>기사에는 기술과 디지털화에 대한 언급이 없습니다.</t>
+          <t>기술과 디지털화에 대한 내용이 없음.</t>
         </is>
       </c>
       <c r="W70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>MZ세대의 학자금 부채와 자산 축적에 대한 언급으로 인해 은퇴 연금 수령자의 소비 행태와 요구 사항에 대한 관심이 높아질 것으로 예상됩니다.</t>
+          <t>소비 행동 및 요구사항에 대한 내용이 없음.</t>
         </is>
       </c>
     </row>
@@ -7946,7 +7946,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>퇴직연금 제도</t>
+          <t>퇴직연금 상품</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -7956,35 +7956,35 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>퇴직연금 효용가치? 수령옵션에 달렸다 [신용훈의 일확연금]</t>
+          <t>아빠 부자인 아들…美 MZ세대의 빵빵한 연금 통장[돈글돈글]</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>퇴직금을 연금으로 받는 사람들이 늘고 있으며, 퇴직금을 연금으로 수령할 때 필요한 준비와 수령 옵션에 대해 알아보자. 개인형 퇴직연금은 노후 생활비를 채우기 위한 필수적인 가입이다.</t>
+          <t>MZ세대는 은퇴 준비에 있어서 더 나은 길을 걷고 있으며, MZ세대가 향후 직장을 다닐 때 벌던 월급의 평균 60 수준을 연금으로 받게 될 것으로 분석됩니다. MZ세대는 다른 세대보다 빠르게 401K에 가입하여 은퇴자금을 축적할 수 있었습니다.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001128286?sid=101</t>
+          <t>https://n.news.naver.com/mnews/article/277/0005323230?sid=104</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>퇴직금을 일시금으로 받으면 목돈을 굴릴 수 있는 기회가 생긴다.하지만 한 번에 많은 세금을 내야 하기 때문에 절세를 위해서 연금 형태로 받는 것을 선택하는 사람들이 늘고 있다.국민연금 만으로는 부족한 노후 생활비를 채우기 위한 대안으로 퇴직연금의 역할이 커지고 있는 셈이다.오늘은 퇴직금을 연금으로 수령하고자 할 때 어떤 준비가 필요한지 수령 옵션은 어떤 것들이 있는지 또 수익률을 극대화하기 위한 운용 전략은 무엇인지 알아보자.퇴직금 받으려면 IRP 개인형 퇴직연금 계좌 만들어야퇴직금을 일시금으로 받든 연금형태로 받든 무조건 IRP 계좌는 만들어야 한다.퇴직금 지급 방법은 근로자 퇴직급여 보장 법에서 법으로 정하고 있기 때문이다.IRP 계좌로 이전된 퇴직금을 일시금으로 찾고 싶다면 일단 IRP 계좌를 만들어 퇴직금을 받은 뒤 계좌를 해지하면 된다.다만 일시금으로 퇴직금을 받게 되면 퇴직 소득세가 부과된다.반대로 연금으로 수령하게 될 경우 소득세법 시행령 제40조의 2에 따라 연금수령 한도 내에서 세제혜택을 보게 된다.IRP 계좌를 만드는 시점은 퇴직 시점으로 회사에서 퇴직금을 받을 IRP 계좌를 만들라는 안내가 오면 자신이 원하는 은행이나 증권사 보험사에 방문하거나 온라인으로 계좌를 만들면 된다.이후 회사에 IRP 계좌 사본을 제출하면 퇴직금이 입금된다.기간과 액수 퇴직연금 수령옵션퇴직금을 연금으로 받고자 하는 경우 통상 연금 개시 시점 수령 완료일 수령 금액 수령 주기 등을 가입자가 자유로이 선택할 수 있다.퇴직연금의 효용가치를 극대화하기 위해서는 이들 옵션의 선택도 중요한데. 다양한 옵션의 활용법을 NH농협은행 김형리 퇴직연금 수익률 관리 센터장과 함께 알아보자.통계청 자료에 의하면 우리나라는 현재 고령사회이며 2024년 말2025년 초반에 초고령 사회로 도달할 것으로 전망되고 있다. 노인인구 증가는 평균수명에 대한 리스크를 고려하게 되고 최근에는 퇴직자들의 퇴직금에 대한 활용방법 또한 일시금 수령보다는 연금수령으로 선호도가 변화되고 있다.개인형 퇴직연금의 연금수령 방법에는 기간지정형 조기 수령액 편중 가능 금액지정형 정액형 체증형 체감형등 다양한 방법이 있다. 통상적으로 가장 많은 퇴직자들이 기간지정형을 선택하여 연금을 수령하고 있다.기간지정형을 많이 선호하는 이유는 퇴직 소득세를 30 절세하고 최소 5년 조건 충족시만 가능의 수령기간으로 연금을 수령한 후 다른 투자처를 찾아 자금을 이동하는 플랜이 주종을 이루었기 때문이다. 하지만 농협은행의 경우 2023년 6월말 기준으로 연금 등록계좌가 2022년 연말 대비 2배가량 증가했고 연금에 대한 고객 상담건수 또한 늘었다. 가입자들의 연금에 대한 관심도와 니즈가 늘어남을 알 수 있는 대목이다.기간지정형은 최대 50년까지 지정이 가능해 자신의 퇴직금 금액에 따라 생활비 플랜을 연령별로 계획하는 것이 현명하다. 만약 플랜에 의해 월 수령액을 변경하고자 한다면 거래은행 영업점에 방문하여 상담 후 변경하는 것을 추천한다.노후에 필요한 생활비 314만 원통계청 가계금융복지 조사에 따르면 2022년 3월 말 가구주의 예상 은퇴 연령은 68.0세 실제 은퇴 연령은 62.9세로 조사되었다.또한 은퇴 후 부부의 월평균 적정생활비는 314만 원으로 전년대비 8만 원 증가하였고 지속적으로 생활비는 물가 상승에 따라 증가할 것으로 예상된다.314만 원이라면 국민연금만으로는 턱없이 부족하다.통상 20년 이상 국민연금 납입자들의 월평균 수령액은 93만 원 수준이기 때문에 개 인형 퇴직연금은 이제 필수적으로 가입해야 함을 알 수 있다.은퇴 후 개인형 퇴직연금를 활용한 연금수령방법을 고민한다면중소기업을 퇴사한 K씨는 퇴직금 3억원으로 노후생활을 유지하고 싶은데 어떻게 연금을 수령해야 될까퇴직금 3억 원을 60세부터 수령한다면 부부 월평균 적정생활비 314만 원의 70인 220만 원 통계청 최소생활비 2022년 기준 216만원을 초년도 연금수령액으로 설정하여 20년 동안 개인형 퇴직연금을 금액을 수령하도록 하고 80세 이후에는 국민연금만으로 생활할 수 있도록 설계하였다.여유로운 노후생활은 누구나 꿈꾸는 것이지만 실제 노후준비상황이 잘 되어 있는 가구는 8.7에 불과한데 반해 잘 되어 있지 않은 가구는 52.6나 된다.자신의 상황에 맞는 노후 생활비를 책정하는 것이 필요하다. K씨의 경우 퇴직금 3억 원으로 최소 생활비를 산정하여 계획한다면 100세까지의 장수 리스크에 불안감을 해결할 수 있을 것이다.개인형 퇴직연금 활용은 이렇게개인형 퇴직연금의 세액공제용을 가입하는 고객은 연말정산 혜택과 불입한 금액의 운용수익을 퇴직금 수령용으로 가입하는 고객은 퇴직소득세 절세와 운용수익 등을 고려하는 것이 대부분의 관심사항이다.하지만 추가적으로 챙겨야하는 부분은 개인형 퇴직연금계좌에 누적되어 있는 잔액을 연간 연금수령한도 1200만원내에서 가입자의 자산 규모에 따라 적정하게 나눠 생활비를 산출하는 것이다.또 수령 기간을 정해 효과적으로 연금을 활용하는 것도 중요하다. 운용에만 집중되어 있는 관심을 퇴직 후 연금수령에도 분산하여 관심을 가지고 노후준비를 한다면 두 마리의 토끼를 잡을 수 있는 현명한 연금수령자가 될 수 있을 것이다.</t>
+          <t>최근 미국은 빈곤층으로 전락한 베이비붐 세대 19461964년생가 큰 사회문제로 대두되고 있습니다. 연금이 집값이 상승하는 속도를 따라잡지 못하면서 플로리다주와 뉴욕시 등 대도시를 중심으로 중장년층 노숙자 비중이 급격히 늘어나게 된 것입니다.미국의 베이비부머들은 다른 연령층에 비해 자산축적에서 상대적으로 뒤떨어진 세대로 평가받습니다. 이들은 유년 시절인 1970년대에는 석유파동을 겪었고 30대에 들어서는 된 2000년대에는 닷컴 버블이 붕괴하면서 나스닥지수 폭락사태를 겪었습니다. 40대에 접어드니 2008년 세계 금융위기가 터졌습니다. 60대가 된 이후에는 코로나19로 인해 은퇴 후 취업한 아르바이트에서 해고됐죠.반면 이들의 생활고를 옆에서 지켜보고 자란 MZ세대 1980년대 초2000년대 초 출생자는 은퇴 준비에 있어서 더 나은 길을 걷고 있습니다. 미국의 주요 외신들은 이들이 은퇴 이후에도 직장을 다닐 때와 엇비슷한 수준으로 연금을 받게 될 것이라 전망합니다. 오늘은 미국의 MZ세대가 얼마나 효율적인 방식으로 은퇴 준비를 하고 있는지 알아보겠습니다.MZ세대 연금 소득대체율 60베이비붐X세대 앞질러미국의 대형 자산운용사 뱅가드는 미국의 MZ세대가 향후 직장을 다닐 때 벌던 월급의 평균 60 수준을 연금으로 받게 될 것이라고 분석했습니다.소득별로 보면 월 평균 소득이 17만3000달러에 속하는 소득 상위 5의 MZ세대는 연금 소득대체율이 85에 달하는 것으로 나타났습니다. 이는 연금에 가입한 기간에 벌던 평균소득의 85까지 연금이 나온다는 소리입니다. 직장을 다닐 때 벌던 월급과 비슷하게 생활비를 충당할 수 있다는 것이죠. 반면 앞선 세대인 X세대 1970년대 초1980년대 초 출생와 베이비붐세대는 연금 소득 대체율이 75와 63에 불과했습니다.소득 상위 40와 50의 구간에서도 MZ세대의 소득 대체율은 66 58에 달하는 것으로 나타났습니다. 해당 구간의 X세대와 베이비붐세대는 연금 소득대체율이 50에 그칩니다.401K 조기 가입이 비결은퇴자금 지식 부족해 회사 권유 따라MZ세대들은 어떤 이유로 다른 세대보다 은퇴자금을 더 많이 그리고 더 빠르게 준비할 수 있었던 걸까요 금융권에서는 MZ세대가 다른 세대보다 빠르게 401K에 가입했던 것이 효율적으로 은퇴자금을 축적할 수 있었던 원인이라고 분석합니다.401K는 한국의 확정기여 DC형 퇴직연금 상품 중 디폴트 옵션처럼 개인의 투자성향에 맞게 운용하는 연금상품을 일컫습니다. 401K는 근로자와 고용주가 일정한도 내에서 소득공제 혜택을 누리면서 퇴직 계좌에 매달 일정액의 연금을 적립하고 근로자가 이를 직접 운용해 투자 결과를 책임지는 방식입니다. 미국인들의 대다수는 이 자산을 주식형 펀드나 주식과 채권의 비중을 조정해주는 타킷데이트펀드 TDF 등에 투자합니다. 근로자는 은퇴 이후 낮은 소득세율로 은퇴자금을 인출할 수 있습니다.미국인들이 은퇴자금을 충당하는 또 다른 방식에는 소셜시큐리티 연금이 있습니다. 소셜시큐리티는 한국의 국민연금과 비슷한 제도로 소득에 대한 세금을 10년간 납부할 경우 조기 은퇴 시 62세부터 연금 수령이 가능합니다. 그러나 사회 보장 연금만으로 생활비를 충당하기 어려운 실정이라 미국인들은 401K 제도를 적극 활용하는 편입니다.MZ세대는 취업과 동시에 회사에서 권유하는 대로 401K에 가입하는 경우가 많은 것으로 나타났습니다. 미국은 2006년 연금보호법이 개정된 후로 모든 근로자가 자동으로 401K에 가입하도록 강제하고 있습니다. 근로자들이 가입 해지를 원할 경우 탈퇴할 수 있지만 해지 의사를 밝히는 MZ세대가 적어 401K 를 그대로 유지하는 사례가 많았다고 합니다.월스트리트저널 WSJ은 MZ세대들은 세대에 비해 상대적으로 퇴직금 제도에 대한 이해가 부족해 이들이 401k 플랜을 지속하게 된 것으로 분석했습니다. 대학교 졸업까지 제대로 된 금융교육을 충분히 받지 못해 MZ세대들이 다양한 은퇴자금 마련 선택지를 따져보는 데 어려움을 느낀다는 것이죠. 오히려 이들은 회사가 권유하는 대로 401K로 퇴직금을 굴리는 것을 만족해한다고 합니다.디폴트옵션과 자동적립제도 연금 불려주는 장치 마련돼401K에 조기 가입은 먼 훗날 MZ세대에게 큰 혜택을 가져다줄 것으로 보입니다. 특히 2006년 연금보호법 개정 이후 도입된 디폴트옵션 사전지정운용제도과 근로자의 인금이 인상될 경우 적립률이 올라가는 자동인상 제도는 MZ세대가 적립한 은퇴자금을 불려주는 역할을 해줄 것으로 보입니다. 자동인상 제도는 근로자의 임금이 올라갈수록 적립률도 높아지는 플랜을 일컫습니다. 디폴트옵션은 가입자가 일정 기간 퇴직연금을 운용하지 않을 경우 고용주인 기업이 제공하는 금융상품에 투자가 되는 제도입니다. 즉 임금이 인상되면 퇴직금 적립률도 함께 늘어나고 이 자산이 방치되지 않고 몸집을 불릴 수 있도록 도와주는 장치가 함께 마련된 것입니다.반면 401K에 자동 가입되는 제도가 도입되기 이전에 직장에 취업한 베이비붐세대와 X세대는 상대적으로 가입률이 적은 경우가 많다고 WSJ은 설명합니다.아직 아직 주택 등 부동산 분야에서는 MZ세대가 베이비붐과 X세대에 비해 자산 보유량이 많지 않은 상황입니다. 갚아나가야 할 학자금 부채가 많아 자산을 축적하는 데 타 세대와 비해 어려움을 겪고 있다는 목소리도 많이 나옵니다.그렇지만 연금이 부족해 임대료 등을 충당하지 못하는 베이비붐 세대가 늘고 있다는 보도가 나오는 만큼 MZ세대의 높은 연금 소득대체율은 눈여겨볼 만 합니다. 한국의 MZ세대들도 미국의 상황을 잘 살펴볼 필요가 있지 않을까요</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>['퇴직연금 IRP', '개인형퇴직연금', 'IRP 연금수령', 'IRP 연금개시', '퇴직연금 연말정산', '퇴직소득세', '퇴직연금 은퇴설계', '퇴직연금 규모', '퇴직연금 절세혜택', '퇴직연금 세액공제', 'NH 퇴직연금', '퇴직연금 수익률', '퇴직연금 가입']</t>
+          <t>['퇴직연금 DC', '퇴직금 제도', '디폴트옵션', '퇴직연금 제도 도입', '퇴직연금 운용사', '퇴직연금 TDF', '퇴직연금 가입', '퇴직연금 펀드', '퇴직연금 채권']</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>[{'퇴직연금 IRP': 8}, {'개인형퇴직연금': 7}, {'IRP 연금수령': 1}, {'IRP 연금개시': 1}, {'퇴직연금 연말정산': 1}, {'퇴직소득세': 1}, {'퇴직연금 은퇴설계': 1}, {'퇴직연금 규모': 2}, {'퇴직연금 절세혜택': 1}, {'퇴직연금 세액공제': 1}, {'NH 퇴직연금': 1}, {'퇴직연금 수익률': 4}, {'퇴직연금 가입': 3}]</t>
+          <t>[{'퇴직연금 DC': 1}, {'퇴직금 제도': 17}, {'디폴트옵션': 1}, {'퇴직연금 제도 도입': 1}, {'퇴직연금 운용사': 2}, {'퇴직연금 TDF': 1}, {'퇴직연금 가입': 2}, {'퇴직연금 펀드': 28}, {'퇴직연금 채권': 4}]</t>
         </is>
       </c>
       <c r="K71" t="n">
@@ -7992,23 +7992,23 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>퇴직금을 연금으로 수령할 때 필요한 준비와 수령 옵션에 대해 알아보는 내용이 포함되어 있음.</t>
+          <t>MZ세대는 401K에 가입하여 은퇴자금을 축적하고 있으며, 연금 소득대체율이 높아서 미래의 연금 관리 전략에 대한 관심이 높을 것으로 예상됩니다.</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>경쟁 동향에 대한 내용이 포함되어 있지 않음.</t>
+          <t>기사에는 새로운 제품 및 서비스 출시와 같은 경쟁 동향에 대한 언급이 없습니다.</t>
         </is>
       </c>
       <c r="O71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>금융 시장의 변동성이나 투자 자산의 영향에 대한 내용이 포함되어 있지 않음.</t>
+          <t>기사에는 금융 시장의 변동성이나 투자 자산의 변화에 대한 언급이 없습니다.</t>
         </is>
       </c>
       <c r="Q71" t="n">
@@ -8016,31 +8016,31 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>법률 및 규제 변경에 대한 내용이 포함되어 있지 않음.</t>
+          <t>기사에는 법률 및 규제 변경에 대한 언급이 없습니다.</t>
         </is>
       </c>
       <c r="S71" t="n">
+        <v>3</v>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>MZ세대의 은퇴 준비와 연금 소득대체율에 대한 언급으로 인해 인구 통계 변화와 연금 기금의 장기적인 지속 가능성에 대한 관심이 높아질 것으로 예상됩니다.</t>
+        </is>
+      </c>
+      <c r="U71" t="n">
+        <v>0</v>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>기사에는 기술과 디지털화에 대한 언급이 없습니다.</t>
+        </is>
+      </c>
+      <c r="W71" t="n">
         <v>2</v>
       </c>
-      <c r="T71" t="inlineStr">
-        <is>
-          <t>퇴직금을 연금으로 받는 사람들이 늘고 있으며, 노후 생활비를 채우기 위한 필수적인 가입에 대한 내용이 포함되어 있음.</t>
-        </is>
-      </c>
-      <c r="U71" t="n">
-        <v>0</v>
-      </c>
-      <c r="V71" t="inlineStr">
-        <is>
-          <t>기술과 디지털화에 대한 내용이 포함되어 있지 않음.</t>
-        </is>
-      </c>
-      <c r="W71" t="n">
-        <v>0</v>
-      </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>소비 행동 및 요구사항에 대한 내용이 포함되어 있지 않음.</t>
+          <t>MZ세대의 학자금 부채와 자산 축적에 대한 언급으로 인해 은퇴 연금 수령자의 소비 행태와 요구 사항에 대한 관심이 높아질 것으로 예상됩니다.</t>
         </is>
       </c>
     </row>
@@ -8052,7 +8052,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>타사 동향 및 이벤트</t>
+          <t>퇴직연금 제도</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -8062,12 +8062,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>20년 수익률 1300%…가치투자와 노후 준비 궁합 잘 맞아</t>
+          <t>퇴직연금 효용가치? 수령옵션에 달렸다 [신용훈의 일확연금]</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>한국의 리틀 버핏 최준철 VIP자산운용 대표의 20년간 누적 수익률은 1300으로, 가치투자에 대한 회의적인 시선에도 최 대표는 핫한 기업에 주목하지 않는다고 밝혔다. 최 대표는 가치투자 대상은 좋은 기업이 주가 하락으로 좋은 가격이란 요건을 갖추는 순간이라며 비슷한 사업모델을 가진 그룹 중 결국 미래의 승자가 되는 것은 최고경영자의 경영능력에 달렸다고 강조했다.</t>
+          <t>퇴직금을 연금으로 받는 사람들이 늘고 있으며, 퇴직금을 연금으로 수령할 때 필요한 준비와 수령 옵션에 대해 알아보자. 개인형 퇴직연금은 노후 생활비를 채우기 위한 필수적인 가입이다.</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -8075,22 +8075,22 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/353/0000046035?sid=102</t>
+          <t>https://n.news.naver.com/mnews/article/215/0001128286?sid=101</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t xml:space="preserve">  한국의 리틀 버핏 최준철 VIP자산운용 대표     20년간 누적 수익률 1300 9월 30일 기준. 20년 전에 1억원을 투자했다면 무려 14억원이라는 어마어마한 수익을 손에 쥘 수 있었으리라. 이는 한국의 리틀 워런 버핏으로 불리는 최준철 VIP자산운용 대표가 지난 20년간 거둔 성적표다.  최근 국내 증시의 테마주 광풍이 이어지면서 가치투자에 대한 회의적인 시선이 커지고 있다. 워런 버핏도 한국서 주식했으면 노숙자 됐다거나 가치투자하려면 은행에 적금하지 뭐하러 주식하나는 등의 부정적 목소리가 상당하다. 그럼에도 최 대표는 핫한 기업엔 눈길도 주지 않는다고 했다. 달리는 버스에서 벽에 부딪히기 전 뛰어내릴 수 있을 정도의 감각을 가진 능력자가 아니라면 가치투자가 조금 더디게 가더라도 부자로 가는 지름길이라고 믿어서다.  가치투자는 저평가 된 좋은 기업을 치밀한 분석을 통해 발굴하고 기업가치가 인정받을 때까지 장기 투자한다. VIP가 보유한 주식은 짧게는 3년 길면 10년 이상 장기투자를 하는 경우가 상당수다. 그만큼 믿음을 주는 주식을 선택하는 것이 관건이다. 매일 참치 어가와 태평양 수온을 확인하고 아이돌 관리법을 알려주는 학원도 다니고 사람들이 어떤 신발을 신고 다니는지 알기 위해 발만 보고 다니는 등 이 정도까지 기업을 살펴야 하나 할 정도로 치밀함이 따라야하는 작업이다. 워런 버핏이 가치투자는 모두가 할 수 있는 일이지만 여러분 중 일부만 할 것이라고 장담한 이유다. 그는 능력 있는 구성원들이 충분한 연구를 통해 좋은 기업을 발굴할 수 있도록 하는 환경을 조성하는 것이 경쟁력이라고 말한다. 최 대표는 매 회의 때마다 동료들 앞에서 더 나은 실력을 보여주기 위해 긴장하게 되며 매일 성장하는 느낌이라고 했다. 버핏벤저민 그레이엄 책 읽고 감명  제가 태어나고 자란 부산에는 사업체를 가진 부자들이 많았어요. 저희 집은 크게 부유하거나 가난하지 않았는데 사립학교에 들어가면서 딴 세상을 만났어요. 친구들 집에는 공장 창고 선박 등이 있는데 우리 집엔 왜 없을까 어린 마음에 스트레스가 쌓였고 병이 나 입원하기에 이르렀죠.  최 대표는 상대적 빈곤감은 어린 초등학생에게도 큰 상처였다고 떠올렸다. 기업 생산수단을 가진 자와 기업을 갖지 못한 근로자의 괴리감을 일찌감치 절감했다. 중고등학교 시절 고 이병철 회장의 호암자전 고 정주영 회장의 시련은 있어도 실패는 없다 등의 자서전을 읽고 부자가 되는 길을 찾고자 했다. 하지만 위대한 경영자의 궤적에 큰 감명을 받았음에도 사업의 벽은 높게 느껴졌다.  철강 화학 자동차 조선 등 중후장대 산업은 현실적으로 접근이 어려웠습니다. 그러다 대학 입학 직후 우연히 서점에서 버핏의 생애를 다룬 마이더스의 손 가치투자의 창시자인 벤저민 그레이엄의 현명한 투자자를 읽었는데 그 책들이 마치 복음처럼 다가왔어요. 라면 회사를 설립하긴 어려워도 농심 주식을 사면 라면 사업에 동참하는 것이구나. 이 개념에 매료됐죠.  그는 가치투자는 어린 시절 최준철이 가진 한 恨을 평생 풀어나가는 길이 됐다고 말했다. 하지만 당시 주식 투자는 곧 패가망신으로 받아들여졌다. 주식 투자에 대한 인식과 개념을 바꾸기 위해 대학생 신분으로 친구인 김민국과 함께 쌈짓돈을 모아 VIP펀드를 만들어 운용했다. 진짜 가치투자가 통한다는 걸 보여줘야 했거든요. 상장기업 편람을 ㄱㅎ까지 샅샅이 훑었어요. 그러다 눈에 번쩍 뜨는 종목을 찾았는데 그게 동서였어요. 커피믹스라는 탁월한 사업을 보유했고 당시 정수기 보급으로 커피 수요가 늘어날 것이 보였죠. 그럼에도 주가수익비율 PER은 4배 배당수익률은 7로 저평가 상태였어요. 동서는 2015년 매도할 때까지 15배가 넘는 수익을 안겨줬습니다.  누구보다 절실했던 그는 결국 2001년부터 2003년까지 수익률 117를 달성했다. 같은 기간 코스피 상승률은 15에 그쳤다. 당시 포트폴리오에는 동서 외에도 한섬 오리온 등 워런 버핏이 말한 코카콜라 같은 소비재기업을 주로 담았는데 주가가 매우 쌌던 시기라 보상이 크게 돌아왔다. 이후 이름을 서서히 알려가며 한국형 가치투자 전략이라는 책을 냈고 방송에도 출연했다. 그러다 대학 졸업을 앞둔 2003년 고 김정주 넥슨 창업주로부터 무려 100억원을 투자 받았다.     당시 넥슨이 갖고 있던 현금을 다 긁어서 펀드에 100억원을 맡겨주셨어요. 인터넷회사 분석 글을 보고 처음 연락을 주셨는데 이후로도 저희 활동을 지켜보시며 얼마나 가치투자에 진심인가를 확인하고 밀어주셨던 거죠.  VIP투자자문이 탄생된 순간이다. 이채원 라이프자산운용 의장 허남권 신영자산운용 대표 등이 1세대 가치투자가로 현업에서 일하면서 가치투자 철학으로 명성을 날렸다면 2세대 가치투자가인 최 대표는 벤저민 그레이엄과 그의 제자인 워런 버핏의 책을 읽으며 직장생활 경험 없이 바로 가치투자를 시작했다.  가치투자 1세대인 이채원 의장이 한 투신사에서 펀드 매니저로 근무할 당시 IT 버블 사태를 맞았어요. 그때 이 의장은 새롬기술 등이 몇십배 몇 백배 올라가는 상황에서 롯데칠성 태평양 등의 주식을 들고 버티고 있었는데 고객으로부터 너희 사무실 몇층이야 거기서 뛰어내려 같은 협박전화가 오고 칼도 배달돼 오고했다고 합니다. 결국 압박에 못 이겨 회사를 그만두셨어요. 그 모습을 보면서 가치투자의 고집을 꺾지 않기 위해선 스스로 운명을 결정할 수 있는 오너가 돼야 한다고 다짐하게 됐습니다.  창업 후 가장 큰 어려움을 겪은 건 2008년 금융위기 직후였다. 당시 투자자문사였던 VIP는 처음으로 고객 돈을 잃고 문을 닫을 위기까지 몰렸다. 최 대표는 금융위기 직전만 해도 대한민국에서 우리 수익률이 제일 좋았기 때문에 회의하고 있는 동안 투자 대상 주식이 상한가를 치는 걸 보면서 우리 사무실에 도청장치가 있나 생각할 정도로 교만했다고 되돌아본다. 왜 금융위기를 맞아 이 고생을 하나 싶었지만 지나보니 금융위기를 버텨낼 만큼 탄탄한 종목으로 포트폴리오를 구성하지 못한 과오가 보였다. 예컨대 당시 리조트사업을 하는 회사에 크게 투자했는데 지정학적 리스크를 고려해 보수적으로 비중을 작게 가져가야 했음에도 과감하게 베팅한 대가를 혹독하게 치러야했다.  최 대표가 주목하는 가치투자 대상은 좋은 기업이 주가 하락으로 좋은 가격이란 요건을 갖추는 순간이다. 그런 종목을 발굴할 때 도파민이 치솟는다. 그는 경쟁력 있는 기업이 해외 진출 등으로 성장세를 보이기 시작한 초반을 매력적 투자 시점으로 꼽았다. 가치투자자는 비관론자로부터 사서 낙관론자에게 팔기 때문에 비관론이 많은 곳도 주 사냥터다. 현재는 중국 관련주가 대표적이다. 중국인들의 한국 관광 관련 산업이나 중국 소비재 등을 주시한다. 중국에 대한 감정이 좋지 않고 경기도 부진하다고 하니까 다들 쳐다도 안보는 분위기다. 주가가 성장에 대한 기대를 반영하지 않고 있다는 것이다. 이외에 현대차 SK도 최고경영자의 능력이나 가치에 비해 현재 주가가 저평가된 상태라는 분석이다. 비관론 많은 중국 소비재 등 지켜봐야  코로나 이후 최근 3년 이상 보유하며 성과를 거둔 분야는 K팝 피부미용 방산 식품 라면 등이다. 그는 이 분야에 대해 모두 해외시장을 개척해가는 분야라고 귀띔했다. 현재 편입 종목 중 비중이 가장 높은 종목은 메리츠금융지주다. 최 대표는 메리츠의 최고경영자는 적극적 주주환원과 혁신적 비전을 제시하고 있기 때문이라며 비슷한 사업모델을 가진 그룹 중 결국 미래의 승자가 되는 것은 최고경영자의 경영능력에 달렸다고 강조했다. 이들 종목은 올해 2차전지 열풍 속에서도 꾸준한 주가 상승을 보여주고 있다.  이는 공모시장의 성공적 데뷔로도 이어졌다. 올해 2월 300억원 한정판매로 선보인 VIP The First 증권투자신탁 1호는 판매를 시작하자마자 오픈런 Open run개점 질주 속에 당일 완판 됐다. 4월에 선보인 VIP한국형가치투자 이하 한가투의 반응도 뜨겁다. 이 펀드는 VIP자산운용의 첫 개방형 펀드로 순자산 규모는 9월 30일 기준 1836억원에 이른다. 최근 2년간 설정된 국내 주식형 액티브 펀드 중 설정액이 500억원을 넘어선 것은 이 펀드가 유일하다. 이 공모펀드의 책임운용역은 최 대표다. 그는 대표라기보다 펀드매니저라며 직접 이름을 걸고 운용을 책임진다. 설정일 이후 누적 수익률은 9월 30일 기준 VIP The First 증권투자신탁 1호가 13.11다. 이 기간 벤치마크 대상인 코스피 수익률은 1.37다. 변동성이 큰 하락장에서 VIP의 공모펀드가 저력을 보여주고 있는 셈이다.  최 대표는 VIP자산운용이 그동안 부자들의 하우스로 일반 투자자에게는 접근이 어려웠던 점에 부채의식을 가졌다. 그래서 이제는 직장인도 노후를 위한 투자를 전문가에게 맡기고 본업에 집중하면 좋겠다고 말했다. 병이 나면 네이버 지식인을 찾아보기보다 의료진에 진료를 받는 것이 현명한 것처럼 투자에도 전문가의 도움이 필요하다는 생각이다. 그는 단기성과에 일희일비하지않고 장기 투자할 수 있는 가치투자와 퇴직연금은 궁합이 잘 맞는다. 대중들이 마켓타이밍을 맞추려 하기보다 가치투자를 통해 안정적인 노후를 준비할 수 있었으면 좋겠다고 강조했다. </t>
+          <t>퇴직금을 일시금으로 받으면 목돈을 굴릴 수 있는 기회가 생긴다.하지만 한 번에 많은 세금을 내야 하기 때문에 절세를 위해서 연금 형태로 받는 것을 선택하는 사람들이 늘고 있다.국민연금 만으로는 부족한 노후 생활비를 채우기 위한 대안으로 퇴직연금의 역할이 커지고 있는 셈이다.오늘은 퇴직금을 연금으로 수령하고자 할 때 어떤 준비가 필요한지 수령 옵션은 어떤 것들이 있는지 또 수익률을 극대화하기 위한 운용 전략은 무엇인지 알아보자.퇴직금 받으려면 IRP 개인형 퇴직연금 계좌 만들어야퇴직금을 일시금으로 받든 연금형태로 받든 무조건 IRP 계좌는 만들어야 한다.퇴직금 지급 방법은 근로자 퇴직급여 보장 법에서 법으로 정하고 있기 때문이다.IRP 계좌로 이전된 퇴직금을 일시금으로 찾고 싶다면 일단 IRP 계좌를 만들어 퇴직금을 받은 뒤 계좌를 해지하면 된다.다만 일시금으로 퇴직금을 받게 되면 퇴직 소득세가 부과된다.반대로 연금으로 수령하게 될 경우 소득세법 시행령 제40조의 2에 따라 연금수령 한도 내에서 세제혜택을 보게 된다.IRP 계좌를 만드는 시점은 퇴직 시점으로 회사에서 퇴직금을 받을 IRP 계좌를 만들라는 안내가 오면 자신이 원하는 은행이나 증권사 보험사에 방문하거나 온라인으로 계좌를 만들면 된다.이후 회사에 IRP 계좌 사본을 제출하면 퇴직금이 입금된다.기간과 액수 퇴직연금 수령옵션퇴직금을 연금으로 받고자 하는 경우 통상 연금 개시 시점 수령 완료일 수령 금액 수령 주기 등을 가입자가 자유로이 선택할 수 있다.퇴직연금의 효용가치를 극대화하기 위해서는 이들 옵션의 선택도 중요한데. 다양한 옵션의 활용법을 NH농협은행 김형리 퇴직연금 수익률 관리 센터장과 함께 알아보자.통계청 자료에 의하면 우리나라는 현재 고령사회이며 2024년 말2025년 초반에 초고령 사회로 도달할 것으로 전망되고 있다. 노인인구 증가는 평균수명에 대한 리스크를 고려하게 되고 최근에는 퇴직자들의 퇴직금에 대한 활용방법 또한 일시금 수령보다는 연금수령으로 선호도가 변화되고 있다.개인형 퇴직연금의 연금수령 방법에는 기간지정형 조기 수령액 편중 가능 금액지정형 정액형 체증형 체감형등 다양한 방법이 있다. 통상적으로 가장 많은 퇴직자들이 기간지정형을 선택하여 연금을 수령하고 있다.기간지정형을 많이 선호하는 이유는 퇴직 소득세를 30 절세하고 최소 5년 조건 충족시만 가능의 수령기간으로 연금을 수령한 후 다른 투자처를 찾아 자금을 이동하는 플랜이 주종을 이루었기 때문이다. 하지만 농협은행의 경우 2023년 6월말 기준으로 연금 등록계좌가 2022년 연말 대비 2배가량 증가했고 연금에 대한 고객 상담건수 또한 늘었다. 가입자들의 연금에 대한 관심도와 니즈가 늘어남을 알 수 있는 대목이다.기간지정형은 최대 50년까지 지정이 가능해 자신의 퇴직금 금액에 따라 생활비 플랜을 연령별로 계획하는 것이 현명하다. 만약 플랜에 의해 월 수령액을 변경하고자 한다면 거래은행 영업점에 방문하여 상담 후 변경하는 것을 추천한다.노후에 필요한 생활비 314만 원통계청 가계금융복지 조사에 따르면 2022년 3월 말 가구주의 예상 은퇴 연령은 68.0세 실제 은퇴 연령은 62.9세로 조사되었다.또한 은퇴 후 부부의 월평균 적정생활비는 314만 원으로 전년대비 8만 원 증가하였고 지속적으로 생활비는 물가 상승에 따라 증가할 것으로 예상된다.314만 원이라면 국민연금만으로는 턱없이 부족하다.통상 20년 이상 국민연금 납입자들의 월평균 수령액은 93만 원 수준이기 때문에 개 인형 퇴직연금은 이제 필수적으로 가입해야 함을 알 수 있다.은퇴 후 개인형 퇴직연금를 활용한 연금수령방법을 고민한다면중소기업을 퇴사한 K씨는 퇴직금 3억원으로 노후생활을 유지하고 싶은데 어떻게 연금을 수령해야 될까퇴직금 3억 원을 60세부터 수령한다면 부부 월평균 적정생활비 314만 원의 70인 220만 원 통계청 최소생활비 2022년 기준 216만원을 초년도 연금수령액으로 설정하여 20년 동안 개인형 퇴직연금을 금액을 수령하도록 하고 80세 이후에는 국민연금만으로 생활할 수 있도록 설계하였다.여유로운 노후생활은 누구나 꿈꾸는 것이지만 실제 노후준비상황이 잘 되어 있는 가구는 8.7에 불과한데 반해 잘 되어 있지 않은 가구는 52.6나 된다.자신의 상황에 맞는 노후 생활비를 책정하는 것이 필요하다. K씨의 경우 퇴직금 3억 원으로 최소 생활비를 산정하여 계획한다면 100세까지의 장수 리스크에 불안감을 해결할 수 있을 것이다.개인형 퇴직연금 활용은 이렇게개인형 퇴직연금의 세액공제용을 가입하는 고객은 연말정산 혜택과 불입한 금액의 운용수익을 퇴직금 수령용으로 가입하는 고객은 퇴직소득세 절세와 운용수익 등을 고려하는 것이 대부분의 관심사항이다.하지만 추가적으로 챙겨야하는 부분은 개인형 퇴직연금계좌에 누적되어 있는 잔액을 연간 연금수령한도 1200만원내에서 가입자의 자산 규모에 따라 적정하게 나눠 생활비를 산출하는 것이다.또 수령 기간을 정해 효과적으로 연금을 활용하는 것도 중요하다. 운용에만 집중되어 있는 관심을 퇴직 후 연금수령에도 분산하여 관심을 가지고 노후준비를 한다면 두 마리의 토끼를 잡을 수 있는 현명한 연금수령자가 될 수 있을 것이다.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>['현대차 퇴직연금', '신영 퇴직연금', '퇴직연금 수익률', '퇴직연금 설정액']</t>
+          <t>['퇴직연금 IRP', '개인형퇴직연금', 'IRP 연금수령', 'IRP 연금개시', '퇴직연금 연말정산', '퇴직소득세', '퇴직연금 은퇴설계', '퇴직연금 규모', '퇴직연금 절세혜택', '퇴직연금 세액공제', 'NH 퇴직연금', '퇴직연금 수익률', '퇴직연금 가입']</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>[{'현대차 퇴직연금': 20}, {'신영 퇴직연금': 51}, {'퇴직연금 수익률': 54}, {'퇴직연금 설정액': 19}]</t>
+          <t>[{'퇴직연금 IRP': 8}, {'개인형퇴직연금': 7}, {'IRP 연금수령': 1}, {'IRP 연금개시': 1}, {'퇴직연금 연말정산': 1}, {'퇴직소득세': 1}, {'퇴직연금 은퇴설계': 1}, {'퇴직연금 규모': 2}, {'퇴직연금 절세혜택': 1}, {'퇴직연금 세액공제': 1}, {'NH 퇴직연금': 1}, {'퇴직연금 수익률': 4}, {'퇴직연금 가입': 3}]</t>
         </is>
       </c>
       <c r="K72" t="n">
@@ -8098,39 +8098,39 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>리틀 버핏 최준철 VIP자산운용 대표의 20년간 누적 수익률은 1300으로, 가치투자에 대한 회의적인 시선에도 최 대표는 핫한 기업에 주목하지 않는다고 밝혔다.</t>
+          <t>퇴직금을 연금으로 수령할 때 필요한 준비와 수령 옵션에 대해 알아보는 내용이 포함되어 있음.</t>
         </is>
       </c>
       <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>경쟁 동향에 대한 내용이 포함되어 있지 않음.</t>
+        </is>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>금융 시장의 변동성이나 투자 자산의 영향에 대한 내용이 포함되어 있지 않음.</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>법률 및 규제 변경에 대한 내용이 포함되어 있지 않음.</t>
+        </is>
+      </c>
+      <c r="S72" t="n">
         <v>2</v>
       </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>최 대표는 가치투자 대상은 좋은 기업이 주가 하락으로 좋은 가격이란 요건을 갖추는 순간이라며 비슷한 사업모델을 가진 그룹 중 결국 미래의 승자가 되는 것은 최고경영자의 경영능력에 달렸다고 강조했다.</t>
-        </is>
-      </c>
-      <c r="O72" t="n">
-        <v>0</v>
-      </c>
-      <c r="P72" t="inlineStr">
-        <is>
-          <t>No relevant information in the article.</t>
-        </is>
-      </c>
-      <c r="Q72" t="n">
-        <v>0</v>
-      </c>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>No relevant information in the article.</t>
-        </is>
-      </c>
-      <c r="S72" t="n">
-        <v>0</v>
-      </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>No relevant information in the article.</t>
+          <t>퇴직금을 연금으로 받는 사람들이 늘고 있으며, 노후 생활비를 채우기 위한 필수적인 가입에 대한 내용이 포함되어 있음.</t>
         </is>
       </c>
       <c r="U72" t="n">
@@ -8138,7 +8138,7 @@
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>No relevant information in the article.</t>
+          <t>기술과 디지털화에 대한 내용이 포함되어 있지 않음.</t>
         </is>
       </c>
       <c r="W72" t="n">
@@ -8146,81 +8146,81 @@
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>No relevant information in the article.</t>
+          <t>소비 행동 및 요구사항에 대한 내용이 포함되어 있지 않음.</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2023-10-06</t>
+          <t>2023-10-07</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>사회 동향</t>
+          <t>타사 동향 및 이벤트</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>기업은행</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>기업은행, 큰 위기 직면… 국책금융기관 자부심 나날이 위축 금융노조</t>
+          <t>20년 수익률 1300%…가치투자와 노후 준비 궁합 잘 맞아</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>IBK기업은행 노조위원장은 국책금융기관 노동자의 자부심이 위축되고 있다고 말했다. 기업은행 노동조합의 투쟁은 기업은행 노동자의 자부심을 지키고 조직의 미래를 사수하는 투쟁이라고 강조했다. 기업은행이 노조 창립 기념식에는 현 정부의 정책에 대해 비판하고 나섰다.</t>
+          <t>한국의 리틀 버핏 최준철 VIP자산운용 대표의 20년간 누적 수익률은 1300으로, 가치투자에 대한 회의적인 시선에도 최 대표는 핫한 기업에 주목하지 않는다고 밝혔다. 최 대표는 가치투자 대상은 좋은 기업이 주가 하락으로 좋은 가격이란 요건을 갖추는 순간이라며 비슷한 사업모델을 가진 그룹 중 결국 미래의 승자가 되는 것은 최고경영자의 경영능력에 달렸다고 강조했다.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002158066?sid=101</t>
+          <t>https://n.news.naver.com/mnews/article/353/0000046035?sid=102</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>김형선 노조위원장 관치와 금융정책 국책은행 흔들어 본점 건물마저 정치와 선거에 이용정치권 인사들도 축사자로 참여 野 인사들 정부 정책 비판 지금 기업은행은 큰 위기에 직면해 있다. 자부심의 위기이고 미래의 위기다.김형선 IBK기업은행 노조위원장은 6일 서울 중구 IBK기업은행 본사에서 개최된 에서 국책금융기관 노동자의 자부심이 나날이 위축되고 있다며 이같이 말했다.김 위원장은 금융을 휘두르는 관치와 국책은행을 흔드는 정치는 금융정책은 물론 물리적 공간인 본점 건물마저 정치와 선거에 이용되고 있다면서 따라서 지금 기업은행 노동조합의 투쟁은 기업은행 노동자의 자부심을 지키고 조직의 미래를 사수하는 투쟁이라고 강조했다.이날 기업은행이 4년만에 재개한 대면행사인 노조 창립 기념식에는 박홍배 금융노조위원장 정의당 이정미 대표 더불어민주당 김주영 의원 김동명 한국노총 위원장 등이 참여해 현 정부의 정책에 대해 비판하고 나섰다.격려사에 나선 박홍배 금융노조위원장은 금융노조도 올해 쉽지 않은 한 해라며 연초부터 사용자들이 어떠한 합의도 없이 일방적으로 은행 영업 시간을 복원했고 대통령과 정부가 나서서 은행 노동자들을 돈 잔치 성과급 잔치 희망 퇴직금 잔치 등의 말로 공격을 했다고 꼬집었다.이어 박 위원장은 역사는 때로는 더디기도 하고 후퇴하기도 하지만 결국 진보한다고 다들 얘기한다며 윤석열 정부가 아무리 노동의 시계를 거꾸로 돌리려 해도 결국 역사의 거대한 흐름까지는 바꾸지 못할 것이라고 덧붙였다.정의당 이정미 대표도 축사를 통해 지금 정치 민주주의가 마구 흔들리고 있다면서 이럴 때 각각의 우리 사회 권력들이 민주주의 구조물을 더 탄탄하게 받칠 수 있도록 노력해야 정치가 부끄러움을 알 것이라고 말했다.최근 이복현 금융감독원장이 금융사들에게 강조하고 있는 상생금융에 대한 비판도 제기됐다.김동명 한국노총 위원장은 조합원의 노동조건과 고용안정이 크게 위협을 받고 있다면서 국민을 상대로 노동조합과 금융권을 이기적인 집단으로 매도하며 관치적인 사회공헌인 상생금융을 강요하고 있다. 기재부 지침으로 금융산업 노사관계를 좌지우지하고 있다고 지적했다.한편 이날 행사에서 김성태 기업은행장은 축사를 통해 덕담을 건넸다.김 행장은 오랜 세월 함께 걸어온 길이 순탄치 만은 않다고 생각한다며 그동안 많은 도전에 직면하며 긴장 속에서 갈등을 겪기도 했고 때론 위기의 순간도 있다고 생각한다고 말했다.이어 김 행장은 하지만 지난 50년간 노사협력의 정신을 바탕으로 IBK를 자산 500조원을 바라보는 은행으로 잘 키워왔는데 새로운 50년도 이러한 정신을 계속 발전시켜 우리 직원 모두가 행복하게 근무하는 더 나은 IBK를 함께 만들었으면 좋겠다고 당부했다.</t>
+          <t xml:space="preserve">  한국의 리틀 버핏 최준철 VIP자산운용 대표     20년간 누적 수익률 1300 9월 30일 기준. 20년 전에 1억원을 투자했다면 무려 14억원이라는 어마어마한 수익을 손에 쥘 수 있었으리라. 이는 한국의 리틀 워런 버핏으로 불리는 최준철 VIP자산운용 대표가 지난 20년간 거둔 성적표다.  최근 국내 증시의 테마주 광풍이 이어지면서 가치투자에 대한 회의적인 시선이 커지고 있다. 워런 버핏도 한국서 주식했으면 노숙자 됐다거나 가치투자하려면 은행에 적금하지 뭐하러 주식하나는 등의 부정적 목소리가 상당하다. 그럼에도 최 대표는 핫한 기업엔 눈길도 주지 않는다고 했다. 달리는 버스에서 벽에 부딪히기 전 뛰어내릴 수 있을 정도의 감각을 가진 능력자가 아니라면 가치투자가 조금 더디게 가더라도 부자로 가는 지름길이라고 믿어서다.  가치투자는 저평가 된 좋은 기업을 치밀한 분석을 통해 발굴하고 기업가치가 인정받을 때까지 장기 투자한다. VIP가 보유한 주식은 짧게는 3년 길면 10년 이상 장기투자를 하는 경우가 상당수다. 그만큼 믿음을 주는 주식을 선택하는 것이 관건이다. 매일 참치 어가와 태평양 수온을 확인하고 아이돌 관리법을 알려주는 학원도 다니고 사람들이 어떤 신발을 신고 다니는지 알기 위해 발만 보고 다니는 등 이 정도까지 기업을 살펴야 하나 할 정도로 치밀함이 따라야하는 작업이다. 워런 버핏이 가치투자는 모두가 할 수 있는 일이지만 여러분 중 일부만 할 것이라고 장담한 이유다. 그는 능력 있는 구성원들이 충분한 연구를 통해 좋은 기업을 발굴할 수 있도록 하는 환경을 조성하는 것이 경쟁력이라고 말한다. 최 대표는 매 회의 때마다 동료들 앞에서 더 나은 실력을 보여주기 위해 긴장하게 되며 매일 성장하는 느낌이라고 했다. 버핏벤저민 그레이엄 책 읽고 감명  제가 태어나고 자란 부산에는 사업체를 가진 부자들이 많았어요. 저희 집은 크게 부유하거나 가난하지 않았는데 사립학교에 들어가면서 딴 세상을 만났어요. 친구들 집에는 공장 창고 선박 등이 있는데 우리 집엔 왜 없을까 어린 마음에 스트레스가 쌓였고 병이 나 입원하기에 이르렀죠.  최 대표는 상대적 빈곤감은 어린 초등학생에게도 큰 상처였다고 떠올렸다. 기업 생산수단을 가진 자와 기업을 갖지 못한 근로자의 괴리감을 일찌감치 절감했다. 중고등학교 시절 고 이병철 회장의 호암자전 고 정주영 회장의 시련은 있어도 실패는 없다 등의 자서전을 읽고 부자가 되는 길을 찾고자 했다. 하지만 위대한 경영자의 궤적에 큰 감명을 받았음에도 사업의 벽은 높게 느껴졌다.  철강 화학 자동차 조선 등 중후장대 산업은 현실적으로 접근이 어려웠습니다. 그러다 대학 입학 직후 우연히 서점에서 버핏의 생애를 다룬 마이더스의 손 가치투자의 창시자인 벤저민 그레이엄의 현명한 투자자를 읽었는데 그 책들이 마치 복음처럼 다가왔어요. 라면 회사를 설립하긴 어려워도 농심 주식을 사면 라면 사업에 동참하는 것이구나. 이 개념에 매료됐죠.  그는 가치투자는 어린 시절 최준철이 가진 한 恨을 평생 풀어나가는 길이 됐다고 말했다. 하지만 당시 주식 투자는 곧 패가망신으로 받아들여졌다. 주식 투자에 대한 인식과 개념을 바꾸기 위해 대학생 신분으로 친구인 김민국과 함께 쌈짓돈을 모아 VIP펀드를 만들어 운용했다. 진짜 가치투자가 통한다는 걸 보여줘야 했거든요. 상장기업 편람을 ㄱㅎ까지 샅샅이 훑었어요. 그러다 눈에 번쩍 뜨는 종목을 찾았는데 그게 동서였어요. 커피믹스라는 탁월한 사업을 보유했고 당시 정수기 보급으로 커피 수요가 늘어날 것이 보였죠. 그럼에도 주가수익비율 PER은 4배 배당수익률은 7로 저평가 상태였어요. 동서는 2015년 매도할 때까지 15배가 넘는 수익을 안겨줬습니다.  누구보다 절실했던 그는 결국 2001년부터 2003년까지 수익률 117를 달성했다. 같은 기간 코스피 상승률은 15에 그쳤다. 당시 포트폴리오에는 동서 외에도 한섬 오리온 등 워런 버핏이 말한 코카콜라 같은 소비재기업을 주로 담았는데 주가가 매우 쌌던 시기라 보상이 크게 돌아왔다. 이후 이름을 서서히 알려가며 한국형 가치투자 전략이라는 책을 냈고 방송에도 출연했다. 그러다 대학 졸업을 앞둔 2003년 고 김정주 넥슨 창업주로부터 무려 100억원을 투자 받았다.     당시 넥슨이 갖고 있던 현금을 다 긁어서 펀드에 100억원을 맡겨주셨어요. 인터넷회사 분석 글을 보고 처음 연락을 주셨는데 이후로도 저희 활동을 지켜보시며 얼마나 가치투자에 진심인가를 확인하고 밀어주셨던 거죠.  VIP투자자문이 탄생된 순간이다. 이채원 라이프자산운용 의장 허남권 신영자산운용 대표 등이 1세대 가치투자가로 현업에서 일하면서 가치투자 철학으로 명성을 날렸다면 2세대 가치투자가인 최 대표는 벤저민 그레이엄과 그의 제자인 워런 버핏의 책을 읽으며 직장생활 경험 없이 바로 가치투자를 시작했다.  가치투자 1세대인 이채원 의장이 한 투신사에서 펀드 매니저로 근무할 당시 IT 버블 사태를 맞았어요. 그때 이 의장은 새롬기술 등이 몇십배 몇 백배 올라가는 상황에서 롯데칠성 태평양 등의 주식을 들고 버티고 있었는데 고객으로부터 너희 사무실 몇층이야 거기서 뛰어내려 같은 협박전화가 오고 칼도 배달돼 오고했다고 합니다. 결국 압박에 못 이겨 회사를 그만두셨어요. 그 모습을 보면서 가치투자의 고집을 꺾지 않기 위해선 스스로 운명을 결정할 수 있는 오너가 돼야 한다고 다짐하게 됐습니다.  창업 후 가장 큰 어려움을 겪은 건 2008년 금융위기 직후였다. 당시 투자자문사였던 VIP는 처음으로 고객 돈을 잃고 문을 닫을 위기까지 몰렸다. 최 대표는 금융위기 직전만 해도 대한민국에서 우리 수익률이 제일 좋았기 때문에 회의하고 있는 동안 투자 대상 주식이 상한가를 치는 걸 보면서 우리 사무실에 도청장치가 있나 생각할 정도로 교만했다고 되돌아본다. 왜 금융위기를 맞아 이 고생을 하나 싶었지만 지나보니 금융위기를 버텨낼 만큼 탄탄한 종목으로 포트폴리오를 구성하지 못한 과오가 보였다. 예컨대 당시 리조트사업을 하는 회사에 크게 투자했는데 지정학적 리스크를 고려해 보수적으로 비중을 작게 가져가야 했음에도 과감하게 베팅한 대가를 혹독하게 치러야했다.  최 대표가 주목하는 가치투자 대상은 좋은 기업이 주가 하락으로 좋은 가격이란 요건을 갖추는 순간이다. 그런 종목을 발굴할 때 도파민이 치솟는다. 그는 경쟁력 있는 기업이 해외 진출 등으로 성장세를 보이기 시작한 초반을 매력적 투자 시점으로 꼽았다. 가치투자자는 비관론자로부터 사서 낙관론자에게 팔기 때문에 비관론이 많은 곳도 주 사냥터다. 현재는 중국 관련주가 대표적이다. 중국인들의 한국 관광 관련 산업이나 중국 소비재 등을 주시한다. 중국에 대한 감정이 좋지 않고 경기도 부진하다고 하니까 다들 쳐다도 안보는 분위기다. 주가가 성장에 대한 기대를 반영하지 않고 있다는 것이다. 이외에 현대차 SK도 최고경영자의 능력이나 가치에 비해 현재 주가가 저평가된 상태라는 분석이다. 비관론 많은 중국 소비재 등 지켜봐야  코로나 이후 최근 3년 이상 보유하며 성과를 거둔 분야는 K팝 피부미용 방산 식품 라면 등이다. 그는 이 분야에 대해 모두 해외시장을 개척해가는 분야라고 귀띔했다. 현재 편입 종목 중 비중이 가장 높은 종목은 메리츠금융지주다. 최 대표는 메리츠의 최고경영자는 적극적 주주환원과 혁신적 비전을 제시하고 있기 때문이라며 비슷한 사업모델을 가진 그룹 중 결국 미래의 승자가 되는 것은 최고경영자의 경영능력에 달렸다고 강조했다. 이들 종목은 올해 2차전지 열풍 속에서도 꾸준한 주가 상승을 보여주고 있다.  이는 공모시장의 성공적 데뷔로도 이어졌다. 올해 2월 300억원 한정판매로 선보인 VIP The First 증권투자신탁 1호는 판매를 시작하자마자 오픈런 Open run개점 질주 속에 당일 완판 됐다. 4월에 선보인 VIP한국형가치투자 이하 한가투의 반응도 뜨겁다. 이 펀드는 VIP자산운용의 첫 개방형 펀드로 순자산 규모는 9월 30일 기준 1836억원에 이른다. 최근 2년간 설정된 국내 주식형 액티브 펀드 중 설정액이 500억원을 넘어선 것은 이 펀드가 유일하다. 이 공모펀드의 책임운용역은 최 대표다. 그는 대표라기보다 펀드매니저라며 직접 이름을 걸고 운용을 책임진다. 설정일 이후 누적 수익률은 9월 30일 기준 VIP The First 증권투자신탁 1호가 13.11다. 이 기간 벤치마크 대상인 코스피 수익률은 1.37다. 변동성이 큰 하락장에서 VIP의 공모펀드가 저력을 보여주고 있는 셈이다.  최 대표는 VIP자산운용이 그동안 부자들의 하우스로 일반 투자자에게는 접근이 어려웠던 점에 부채의식을 가졌다. 그래서 이제는 직장인도 노후를 위한 투자를 전문가에게 맡기고 본업에 집중하면 좋겠다고 말했다. 병이 나면 네이버 지식인을 찾아보기보다 의료진에 진료를 받는 것이 현명한 것처럼 투자에도 전문가의 도움이 필요하다는 생각이다. 그는 단기성과에 일희일비하지않고 장기 투자할 수 있는 가치투자와 퇴직연금은 궁합이 잘 맞는다. 대중들이 마켓타이밍을 맞추려 하기보다 가치투자를 통해 안정적인 노후를 준비할 수 있었으면 좋겠다고 강조했다. </t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>['희망퇴직 퇴직금', '금융권 희망퇴직']</t>
+          <t>['현대차 퇴직연금', '신영 퇴직연금', '퇴직연금 수익률', '퇴직연금 설정액']</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>[{'희망퇴직 퇴직금': 52}, {'금융권 희망퇴직': 37}]</t>
+          <t>[{'현대차 퇴직연금': 20}, {'신영 퇴직연금': 51}, {'퇴직연금 수익률': 54}, {'퇴직연금 설정액': 19}]</t>
         </is>
       </c>
       <c r="K73" t="n">
+        <v>3</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>리틀 버핏 최준철 VIP자산운용 대표의 20년간 누적 수익률은 1300으로, 가치투자에 대한 회의적인 시선에도 최 대표는 핫한 기업에 주목하지 않는다고 밝혔다.</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>2</v>
       </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>기사에는 pension fund management에 대한 내용이 없음</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>3</v>
-      </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>기사에는 retirement pension companies의 competition trends와 market share에 대한 내용이 있음</t>
+          <t>최 대표는 가치투자 대상은 좋은 기업이 주가 하락으로 좋은 가격이란 요건을 갖추는 순간이라며 비슷한 사업모델을 가진 그룹 중 결국 미래의 승자가 되는 것은 최고경영자의 경영능력에 달렸다고 강조했다.</t>
         </is>
       </c>
       <c r="O73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>기사에는 financial market impact에 대한 내용이 없음</t>
+          <t>No relevant information in the article.</t>
         </is>
       </c>
       <c r="Q73" t="n">
@@ -8228,7 +8228,7 @@
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>기사에는 legal and regulatory changes에 대한 내용이 없음</t>
+          <t>No relevant information in the article.</t>
         </is>
       </c>
       <c r="S73" t="n">
@@ -8236,7 +8236,7 @@
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>기사에는 demographic change에 대한 내용이 없음</t>
+          <t>No relevant information in the article.</t>
         </is>
       </c>
       <c r="U73" t="n">
@@ -8244,111 +8244,17 @@
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>기사에는 technology and digitalization에 대한 내용이 없음</t>
+          <t>No relevant information in the article.</t>
         </is>
       </c>
       <c r="W73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>기사에는 retirement pension recipients의 consumption behavior와 investment preferences에 대한 내용이 있음</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>2023-10-06</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>퇴직연금 제도</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>한화운용</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>한화운용, 퇴직연금 격전지 TDF '약진'…장기성과 최상위권</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>한화자산운용의 TDF 시리즈 Lifeplus TDF의 대표펀드 기준 운용 중인 모든 빈티지 202520302035204020452050 상품은 최근 3년 수익률 지난달 27일 펀드스퀘어 기준에서 3위 내 성과를 달성 중이다. 한화운용은 JP모간과 협업해 한국인의 소득 근로 기간 공적 연금 제도 등을 종합적으로 고려한 글라이드 패스를 설계했다. 최영진 한화운용 전략사업부문장은 지난해 말 기준 퇴직연금 전체 적립금은 335조9000억원으로 이 중 88.7인 298조원이 원리금 보장형에 쏠려 있다면서 하지만 20262027년쯤 되면 중위험 고위험 디폴트옵션 사전지정운용제도을 선택한 사람들과의 수익 격차가 커지고 연금 투자 인식이 달라질 것이라고 말했다.</t>
-        </is>
-      </c>
-      <c r="F74" t="n">
-        <v>8</v>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000019993?sid=101</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>생애주기에 따라 자산을 배분해주는 타깃데이트펀드 Target Date fundTDF운용연금자산이 10조원을 돌파하면서 자산운용사들의 상품 경쟁이 갈수록 치열해지고 있다. 이 가운데 한화자산운용이 펀드 규모 대비 우수한 성과를 나타내고 있다.액티브패시브 전략을 함께 곁들인 하이브리드 운용과 자산별로 환 전략을 다르게 적용하는 환 전략 차별화가 한화운용약진의 원동력으로 꼽힌다.6일 금융투자업계에 따르면 한화운용의 TDF 시리즈 Lifeplus TDF의 대표펀드 기준 운용 중인 모든 빈티지 202520302035204020452050 상품은 최근 3년 수익률 지난달 27일 펀드스퀘어 기준에서 3위 내 성과를 달성 중이다. 2050 2045 2040 2035 빈티지가 각각 21.98 3위 21.68 2위 20.33 1위 17.34 1위를 기록하고 있다.비교 조건과 기간에 따라 수익률 순위가 뒤바뀌는 등 TDF를 둘러싼 운용사들의 성과 경쟁 속에서 한화운용의 성과는 돋보인다. 특히 대내외 시장 환경 변화에도 장기적으로 양호한 수익률을 내고 있는 점을 주목할만하다.이는 Lifeplus TDF의 글라이드 패스 Glide path가 제대로 작동하고 있다는 방증이된다. 글라이드 패스는 생애주기에 맞게 안전자산과 위험자산의 비중을 조절하는 장치로 TDF의 성과를 가르는 핵심 척도다. 한화운용은 JP모간과 협업해 한국인의 소득 근로 기간 공적 연금 제도 등을 종합적으로 고려한 글라이드 패스를 설계했다.한화운용은 TDF의 성과 배경으로 액티브와 패시브 운용 방식을 함께 활용하는 하이브리드 운용 전략을 들었다. 신흥국 주식이나 회사채와 같이 정보의 비대칭성으로 상대적으로 추가 수익을 창출하기 좋은 자산에 대해서는 액티브 운용전략을 적용해 수익을 극대화하는 반면 미국 대형주나 국채와 같이 지수 복제가 용이하고 종목 선택의 영향이 크지 않은 자산군에 대해서는 패시브 운용전략으로 비용을 최소화해 투자효율을 극대화하는 방식이다.투자자산별로 환 전략을 다르게 적용하는 점 역시 성과에 크게 기여하고 있다고 자평한다. 주식 부분에서는 고수익을 추구하되 언헤지를 통해 시장 충격 TailRisk에 대비하고 채권 부분에서는 헤지를 통해 일드 Yield 수익을 확보하면서 포트폴리오 위험 관리를 추구하고 있다는 설명이다.실제 지난 8월 한 달간 한화 LIFEPLUS TDF2045의 운용성과를 보면 미국 인플레이션 상방 압력 우려로 긴축 기조가 강해지자 주식 부분에서 1.7의 손실이 났다. 그러나 동시에 달러 가치 상승으로 2.2의 환차익이 발생하며 전체적으로는 플러스 수익률을 기록했다.최영진 한화운용 전략사업부문장은 지난해 말 기준 퇴직연금 전체 적립금은 335조9000억원으로 이 중 88.7인 298조원이 원리금 보장형에 쏠려 있다면서 하지만 20262027년쯤 되면 중위험 고위험 디폴트옵션 사전지정운용제도을 선택한 사람들과의 수익 격차가 커지고 연금 투자 인식이 달라질 것이라고 말했다.</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>['퇴직연금 적립금', '퇴직연금 규모', '한화 퇴직연금', '퇴직연금 경쟁', '퇴직연금 TDF']</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>[{'퇴직연금 적립금': 38}, {'퇴직연금 규모': 4}, {'한화 퇴직연금': 2}, {'퇴직연금 경쟁': 3}, {'퇴직연금 TDF': 1}]</t>
-        </is>
-      </c>
-      <c r="K74" t="n">
-        <v>3</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>한화자산운용의 TDF 시리즈 Lifeplus TDF의 대표펀드 기준 운용 중인 모든 빈티지 202520302035204020452050 상품은 최근 3년 수익률 지난달 27일 펀드스퀘어 기준에서 3위 내 성과를 달성 중이다.</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>2</v>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>한화운용은 JP모간과 협업해 한국인의 소득 근로 기간 공적 연금 제도 등을 종합적으로 고려한 글라이드 패스를 설계했다.</t>
-        </is>
-      </c>
-      <c r="O74" t="n">
-        <v>1</v>
-      </c>
-      <c r="P74" t="inlineStr">
-        <is>
-          <t>실제 지난 8월 한 달간 한화 LIFEPLUS TDF2045의 운용성과를 보면 미국 인플레이션 상방 압력 우려로 긴축 기조가 강해지자 주식 부분에서 1.7의 손실이 났다. 그러나 동시에 달러 가치 상승으로 2.2의 환차익이 발생하며 전체적으로는 플러스 수익률을 기록했다.</t>
-        </is>
-      </c>
-      <c r="Q74" t="n">
-        <v>0</v>
-      </c>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
-        <v>2</v>
-      </c>
-      <c r="T74" t="inlineStr">
-        <is>
-          <t>최영진 한화운용 전략사업부문장은 지난해 말 기준 퇴직연금 전체 적립금은 335조9000억원으로 이 중 88.7인 298조원이 원리금 보장형에 쏠려 있다면서 하지만 20262027년쯤 되면 중위험 고위험 디폴트옵션 사전지정운용제도을 선택한 사람들과의 수익 격차가 커지고 연금 투자 인식이 달라질 것이라고 말했다.</t>
-        </is>
-      </c>
-      <c r="U74" t="n">
-        <v>0</v>
-      </c>
-      <c r="V74" t="inlineStr"/>
-      <c r="W74" t="n">
-        <v>0</v>
-      </c>
-      <c r="X74" t="inlineStr"/>
+          <t>No relevant information in the article.</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/resource/04_UPLOAD.xlsx
+++ b/resource/04_UPLOAD.xlsx
@@ -3333,8 +3333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3572,7 +3572,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
         <v>55</v>
@@ -3646,7 +3646,7 @@
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
         <v>26</v>
@@ -3720,7 +3720,7 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
         <v>26</v>

--- a/resource/04_UPLOAD.xlsx
+++ b/resource/04_UPLOAD.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="952">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="848">
   <si>
     <t>날짜</t>
   </si>
@@ -144,6 +144,45 @@
     <t>타사 동향 및 이벤트</t>
   </si>
   <si>
+    <t>안정적인데 수익까지?… 역대급 고금리에 채권 투자 급증</t>
+  </si>
+  <si>
+    <t>미국 주식시장의 불안으로 인해 채권으로의 투자가 증가하고 있다. 3분기에는 7조200억원의 자금이 채권형 펀드에 순유입되었으며, 주식형 펀드는 자금이 감소한 반면 채권 순매수는 증가세다. 금리가 고점을 찍고 하락할 경우 채권 투자자는 높은 매매 차익을 얻을 수 있고 금리가 횡보하더라도 안정적인 수익을 거둘 수 있다.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/029/0002830742?sid=101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">미국이 역대급 고금리 국면에 진입하면서 불안해진 주식시장 대신 채권으로 투자 자금이 이동하고 있다. 금리가 높을 때 채권을 사면 많은 이자를 기대할 수 있는데다 채권 가격은 금리와 반대로 움직이기 때문에 금리 하락 시 매매차익도 얻을 수 있다.16일 금융투자협회가 이날 공개한 3분기 펀드시장 동향에 따르면 채권형 펀드에는 3분기에만 자금 7조200억원이 순유입됐다. 채권형 펀드 운용자산 AUM은 전 분기 대비 7조7000억원 6.2 증가한 132조원을 기록했다.같은 기간 주식형 펀드에 1조5000억원의 자금이 순유입되고 운용자산은 전 분기 대비 1조9000억원 1.8 감소한 것과 상반되는 흐름이다.개인 투자자의 채권 순매수도 증가세다. 개인은 최근 한 달 9월 16일10월 16일 장외 시장에서 채권 2조1625억원어치를 순매수했다. 주식시장에서는 한 달간 9월 12일10월 12일 증시 대기자금 성격의 투자자예탁금이 1조원 넘게 줄어든 것과는 대조된다. 투자자가 다시 채권 상품으로 눈을 돌리는 배경에는 현재 금리가 고점이라는 판단이 깔려 있다. 고금리 채권을 매수할 경우 많은 이자를 받을 수 있는데다 향후 금리 하락시 채권 매매이익도 기대할 수 있기 때문이다. 채권 가격은 금리와 반대로 움직인다. 금리가 고점을 찍고 하락할 경우 채권 투자자는 높은 매매 차익을 얻을 수 있고 금리가 횡보하더라도 상대적으로 안정적인 수익을 거둘 수 있다.이에 따라 금융투자업계에서도 채권 관련 상품 출시에 분주하다.대신자산운용은 이날 미국 장기국채 상장지수펀드 ETF에 액티브 방식으로 투자해 7의 목표수익률을 추구하는 대신 미국 장기국채 액티브 목표전환형 펀드를 출시한다고 밝혔다. 미국의 긴축 종료 시점이 다가오면서 성과가 우수할 것으로 예상되는 장기국채의 ETF에 투자한다는 게 대신자산운용 측 설명이다.채권을 담은 상장지수펀드 ETF도 인기다. 분산 투자가 가능한데다가 채권을 직접 사는 것보다 손쉬운 매매가 가능하고 퇴직연금으로도 투자 할 수 있어서다. 이날 키움투자자산운용은 채권형 ETF 중에서도 현재의 높은 만기수익률 YTM을 향후 몇년간 안정적으로 추구할 수 있는 만기매칭형 채권 ETF인 히어로즈 2509 미국채권 AA이상액티브를 국내 첫 출시했다.이 상품을 매수한 뒤 만기까지 보유했을 때 기대할 수 있는 YTM은 지난 9월 말 기준 5.35다 기준일 예상포트폴리오 기준. 매수 이후 금리가 상승 채권가격 하락하더라도 만기채권형 ETF의 특성 상 만기까지 보유하면 당초 투자 시점에 예상한 수익률 실현을 기대할 수 있다. 정성인 키움투자자산운용 ETF마케팅사업부장은 미국발 금리 급등으로 글로벌 주식시장 변동성이 커진 가운데 안전한 동시에 비교적 높은 이자수익을 제공할 수 있는 미국채권의 매력이 커졌다고 설명했다. 한편 금리가 높은 수준을 유지하면서 위험자산에 부담으로 작용하는 금융 환경은 당분간 이어질 전망이다. 박준우 KB증권 연구원은 10월 채권 투자 전략에 대해 듀레이션을 중립에 가깝게 유지하고 크레딧 비중은 축소하는 전략을 추천한다면서 연말로 갈수록 금리 하향 안정이 시작될 가능성이 높으므로 듀레이션 확대를 고려해야 한다고 조언했다. </t>
+  </si>
+  <si>
+    <t>['퇴직연금 금융투자협회', '퇴직연금 채권']</t>
+  </si>
+  <si>
+    <t>[{'퇴직연금 금융투자협회': 10}, {'퇴직연금 채권': 5}]</t>
+  </si>
+  <si>
+    <t>채권형 펀드에 자금이 순유입되고 운용자산이 증가한 것은 효과적인 펀드 관리를 보여줌</t>
+  </si>
+  <si>
+    <t>주식형 펀드에 자금이 감소한 반면 채권 순매수가 증가한 것은 시장 경쟁 동향을 나타냄</t>
+  </si>
+  <si>
+    <t>금리 변동에 따른 채권 투자의 이익과 안정성을 강조함</t>
+  </si>
+  <si>
+    <t>기사에는 법률 및 규제 변화에 대한 언급이 없음</t>
+  </si>
+  <si>
+    <t>노령화와 연금 기금의 장기적인 지속 가능성에 대한 언급이 없음</t>
+  </si>
+  <si>
+    <t>기사에는 기술과 디지털화에 관련된 내용이 없음</t>
+  </si>
+  <si>
+    <t>기사에는 소비 행동 및 요구사항에 대한 언급이 없음</t>
+  </si>
+  <si>
     <t>세액공제 한도 200만원 오른 연금저축·IRP 활용해야</t>
   </si>
   <si>
@@ -480,45 +519,6 @@
     <t>2023-10-15</t>
   </si>
   <si>
-    <t>앞만 봤더니 40대 중반 “노후 준비되면 당장 은퇴···가능할까요” [재테크...</t>
-  </si>
-  <si>
-    <t>40대 중반 직장인 A씨는 노후준비에 대한 방향성이 잘 설정되지 않았다. 현재 예적금 위주 현금자산을 쌓고 있지만 주변의 임대료 소득이나 배당 소득을 올려야 한다는 제안에 흔들리고 있다. A씨는 총 은퇴생활비를 계산하고 향후 저축가능 금액을 검토해야 한다.</t>
-  </si>
-  <si>
-    <t>https://n.news.naver.com/mnews/article/014/0005085745?sid=101</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 40대 중반 직장인 A씨는 근무 중에 멈칫할 때가 잦다. 그동안 너무 일에만 몰두하면서 살아온 터라 정작 재무관리에는 힘쓰지 못한 것 같다. 인생을 제대로 돌아볼 기회가 없어 이제야 이 사실을 알아챘다. 정년은 60세라지만 현 직장에 언제까지 있을 지는 확신할 수 없다. 10년 정도는 더 일할 수 있을 듯한데 그 후에 필요한 노후생활비를 마련할 수 있을지 의문이다. 노후준비만 어느 정도 되면 그 전에라도 은퇴하고 싶다. 일단은 방향성이 잘 설정돼 있지 않다. 소득 중 일부는 청약과 연금에 넣고 있고 나머지는 파킹통장에 예치해뒀다가 지금은 정기예금으로 묶어두고 있다. 주변에선 부동산을 구매해 월세를 받으라거나 주식 투자로 배당을 취하라는 얘기들을 한다. 하지만 어디에 집중할지 감은 안 잡힌다. 45세 A씨 월 수입은 580만원이다. 이와 별도로 연간 비정기 상여로 2000만원이 들어온다. 월 지출은 361만원이다. 고정비로 61만원이 나간다. 보험료 42만원 통신비 8만8000원 정수기 등 정기결제 5만2000원 기부금 5만원 등 합산액이다. 변동비는 관리공과금 30만원 식비생활비 80만원 교통비 30만원 용돈 40만원을 합쳐 180만원이다. 저축은 청약저축 10만원 연금저축 60만원 적금 50만원 등 120만원씩하고 있다. 연간비용은 1800만원이 든다. 자산은 8억5000만원이 조금 넘는다. 전세금 5억5000만원에 청약 570만원 적금 1810만원 정기예금 2억3000만원 파킹통장 4900만원 등이 있다. 부채는 없다. 은퇴 후 65세부터 국민연금은 월 120만원 정도 받을 것으로 예상된다. 퇴직연금 4800만원 연금저축 1570만원도 있다. 금융감독원에 따르면 40대는 생애주기상 이전 발자취를 돌아보고 향후 일과 생의 마무리를 어떻게 준비할지 점검하는 시기다. 억대 연봉이라도 은퇴가 빠른 직업이 있고 당장 월급은 적지만 노후 준비가 잘 돼 있는 경우도 있다. 공통점은 죽을 때까지 돈에 대한 고민은 멈추지 않는다는 점이다. 하지만 결국 돈 관리법은 본인 상황마다 다르다. 재무뿐만 아니라 비재무적 사항도 함께 고려해야 하기 때문이다. A씨는 현재 예적금 위주 현금자산을 쌓고 있다. 그래서 주변의 임대료 소득이나 배당 소득을 올려야 한다는 제안에 흔들리고 있다. 하지만 금감원 관계자는 자본소득만으로 하는 은퇴 준비는 현실적이지 않다고 지적했다. 월 500만원을 만들고자 한다면 연 5 금리 가정시 12억원이 필요하다. 하지만 이는 이론적 주장일 뿐 부동산 소유주는 건물 감가 유지보수 세금 보유세양도세 등 공실률 등 여러 고민에 에너지를 투입해야 한다. 실제 한국부동산원에 따르면 지난해 전국 집합상가 투자수익률은 14분기 1.55에서 44분기 1.07로 떨어졌다. 60억원 정도는 있어야 500만원을 만들어낼 수 있다는 뜻이다. 매도 전까지 유동자금을 활용하지 못하고 다른 소득과 합산할 경우 종합소득과세표준이 증가한다는 맹점도 있다. 주식이나 상장지수펀드 ETF 배당도 만능은 아니다. 배당금액이 커도 종목 자체 수익률이 하락하면 꾸준한 현금흐름을 창출하기는 어렵다. 배당소득 2000만원 초과시 종합과세 해외주식의 경우 양도세 22 부담을 고려해야 한다. 현금이나 연금자산이 무조건적으로 적합한 것도 아니다. 전자는 유동성이 크고 후자는 절세 혜택에 더해 꾸준한 생활비 지급이 가능하지만 반대로 각각 복리나 자본성장성을 기대하기 어렵고 일시금 형태로 수령시 불이익 가능성이 있다. 금감원 관계자는 자산을 어느 한 수단에 전부 투자하기보다 목적에 맞게 나눠 활용하는 게 합리적이라며 재무설계 목적은 원하는 때 원하는 만큼 적절한 형태로 돈을 사용할 수 있는 것이라고 짚었다. A씨는 먼저 총 은퇴생활비를 계산하고 향후 저축가능 금액을 검토해 봐야 한다. 노후기간이 30년이라면 월 300만원씩 은퇴생활비는 10억8000만원이 된다. 의료비도 2억원 추가된다. 60세 은퇴 전 저축 가능액은 6억4020만원이다. 총수입은 580122000로 8960만원이고 총지출은 241121800에 따라 4692만원이다. 이들 차액 4268만원을 15년 동안 모은 결과다. 부동산을 제외한 현금성 자산 3억1852만원까지 감안하면 9억5872만원까지 마련할 수 있다. 나머지는 국민연금 일시금 3억6000만원 퇴직연금 은퇴시점 2억원으로 채우면 여유있게 마련할 수 있다. 금감원 관계자는 향후 9년 정도 소득활동을 하면 은퇴생활비 마련이 가능한 상황이라며 주택 구입으로 주택연금까지 활용하면 이 시점을 더 단축할 수도 있을 것이라고 설명했다. 금융감독원이 운영하는 금융소비자포털 파인을 인터넷 검색창에 입력하거나 금감원콜센터 1332 7번 금융자문서비스로 전화하시면 무료 맞춤형 금융소비자 상담을 받을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>['퇴직연금 은퇴설계', '퇴직연금 절세혜택']</t>
-  </si>
-  <si>
-    <t>[{'퇴직연금 은퇴설계': 1}, {'퇴직연금 절세혜택': 44}]</t>
-  </si>
-  <si>
-    <t>A씨는 현재 예적금 위주 현금자산을 쌓고 있으며, 주변의 임대료 소득이나 배당 소득을 고려하고 있다. 그러나 방향성이 명확하지 않아 점수는 3점으로 준다.</t>
-  </si>
-  <si>
-    <t>기사에는 산업 경쟁 동향에 대한 정보가 없으므로 점수는 2점으로 준다.</t>
-  </si>
-  <si>
-    <t>금융시장의 변동성에 대한 정보가 없으므로 점수는 1점으로 준다.</t>
-  </si>
-  <si>
-    <t>기사에는 법률 및 규제 변화에 대한 정보가 없으므로 점수는 2점으로 준다.</t>
-  </si>
-  <si>
-    <t>기사에는 노후준비와 관련된 정보가 상세히 나와 있으며, A씨의 노후생활비 계산과 관련된 내용도 포함되어 있어 점수는 4점으로 준다.</t>
-  </si>
-  <si>
-    <t>기사에는 기술과 디지털화에 관련된 정보가 없으므로 점수는 0점으로 준다.</t>
-  </si>
-  <si>
-    <t>A씨의 소비 패턴과 투자 선호도에 대한 정보가 제시되어 있으며, 서비스 개발 및 개선에 대한 고려도 나와 있어 점수는 3점으로 준다.</t>
-  </si>
-  <si>
     <t>'더받는' 시나리오도 추가…백화점식 연금 보고서에 개혁 안갯속</t>
   </si>
   <si>
@@ -592,33 +592,6 @@
   </si>
   <si>
     <t>기사에서는 소비 행태와 요구사항에 대한 정보가 없으므로 0점을 줍니다.</t>
-  </si>
-  <si>
-    <t>은퇴생활비와 저축가능 금액 파악하는게 첫단계 [재테크 Q&amp;amp;A]</t>
-  </si>
-  <si>
-    <t>40대 중반 직장인 A씨는 재무관리에 힘쓰지 못하고 있으며, 노후생활비를 마련하는 것에 대해 의문을 가지고 있다. A씨는 현재 예적금 위주 현금자산을 쌓고 있지만 주변의 제안에 흔들리고 있다. 금감원은 자본소득만으로 은퇴 준비하는 것은 현실적이지 않다고 지적하고 있다.</t>
-  </si>
-  <si>
-    <t>https://n.news.naver.com/mnews/article/014/0005085929?sid=101</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Q. 40대 중반 직장인 A씨는 근무 중에 멈칫할 때가 잦다. 그동안 너무 일에만 몰두하면서 살아온 터라 정작 재무관리에는 힘쓰지 못한 것 같다. 정년은 60세라지만 현 직장에 언제까지 있을 지는 확신할 수 없다. 10년 정도는 더 일할 수 있을 듯한데 그 후에 필요한 노후생활비를 마련할 수 있을지 의문이다. 노후준비만 어느 정도 되면 그 전에라도 은퇴하고 싶다. 일단은 방향성이 잘 설정돼 있지 않다. 소득 중 일부는 청약과 연금에 넣고 있고 나머지는 파킹통장에 예치해뒀다가 지금은 정기예금으로 묶어두고 있다. 주변에선 부동산을 구매해 월세를 받으라거나 주식 투자로 배당을 취하라는 얘기들을 한다. 하지만 어디에 집중할지 감은 안 잡힌다. A. 45세 A씨 월 수입은 580만원이다. 이와 별도로 연간 비정기 상여로 2000만원이 들어온다. 월 지출은 361만원이다. 고정비로 61만원이 나간다. 보험료 42만원 통신비 8만8000원 정수기 등 정기결제 5만2000원 기부금 5만원 등 합산액이다. 변동비는 관리공과금 30만원 식비생활비 80만원 교통비 30만원 용돈 40만원을 합쳐 180만원이다. 저축은 청약저축 10만원 연금저축 60만원 적금 50만원 등 120만원씩하고 있다. 연간비용은 1800만원이 든다. 자산은 8억5000만원이 조금 넘는다. 전세금 5억5000만원에 청약 570만원 적금 1810만원 정기예금 2억3000만원 파킹통장 4900만원 등이 있다. 부채는 없다. 은퇴 후 65세부터 국민연금은 월 120만원 정도 받을 것으로 예상된다. 퇴직연금 4800만원 연금저축 1570만원도 있다. 금융감독원에 따르면 A씨는 현재 예적금 위주 현금자산을 쌓고 있다. 그래서 주변의 임대료 소득이나 배당 소득을 올려야 한다는 제안에 흔들리고 있다. 하지만 금감원 관계자는 자본소득만으로 하는 은퇴 준비는 현실적이지 않다고 지적했다. 월 500만원을 만들고자 한다면 연 5 금리 가정시 12억원이 필요하다. 하지만 이는 이론적 주장일 뿐 부동산 소유주는 건물 감가 유지보수 세금 보유세양도세 등 공실률 등 여러 고민에 에너지를 투입해야 한다. 실제 한국부동산원에 따르면 지난해 전국 집합상가 투자수익률은 14분기 1.55에서 44분기 1.07로 떨어졌다. 60억원 정도는 있어야 500만원을 만들어낼 수 있다는 뜻이다. 매도 전까지 유동자금을 활용하지 못하고 다른 소득과 합산할 경우 종합소득과세표준이 증가한다는 맹점도 있다. 주식이나 상장지수펀드 ETF 배당도 만능은 아니다. 배당금액이 커도 종목 자체 수익률이 하락하면 꾸준한 현금흐름을 창출하기는 어렵다. 배당소득 2000만원 초과시 종합과세 해외주식의 경우 양도세 22 부담을 고려해야 한다. 현금이나 연금자산이 무조건적으로 적합한 것도 아니다. 전자는 유동성이 크고 후자는 절세 혜택에 더해 꾸준한 생활비 지급이 가능하지만 반대로 각각 복리나 자본성장성을 기대하기 어렵고 일시금 형태로 수령시 불이익 가능성이 있다. 금감원 관계자는 자산을 어느 한 수단에 전부 투자하기보다 목적에 맞게 나눠 활용하는 게 합리적이라며 재무설계 목적은 원하는 때 원하는 만큼 적절한 형태로 돈을 사용할 수 있는 것이라고 짚었다. A씨는 먼저 총 은퇴생활비를 계산하고 향후 저축가능 금액을 검토해 봐야 한다. 노후기간이 30년이라면 월 300만원씩 은퇴생활비는 10억8000만원이 된다. 의료비도 2억원 추가된다. 60세 은퇴 전 저축 가능액은 6억4020만원이다. 총수입은 580122000로 8960만원이고 총지출은 241121800에 따라 4692만원이다. 이들 차액 4268만원을 15년 동안 모은 결과다. 부동산을 제외한 현금성 자산 3억1852만원까지 감안하면 9억5872만원까지 마련할 수 있다. 나머지는 국민연금 일시금 3억6000만원 퇴직연금 은퇴시점 2억원으로 채우면 여유있게 마련할 수 있다. 금감원 관계자는 향후 9년 정도 소득활동을 하면 은퇴생활비 마련이 가능한 상황이라며 주택 구입으로 주택연금까지 활용하면 이 시점을 더 단축할 수도 있을 것이라고 설명했다. 금융감독원이 운영하는 금융소비자포털 파인을 인터넷 검색창에 입력하거나 금감원콜센터 1332 7번 금융자문서비스로 전화하시면 무료 맞춤형 금융소비자 상담을 받을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>[{'퇴직연금 은퇴설계': 10}, {'퇴직연금 절세혜택': 45}]</t>
-  </si>
-  <si>
-    <t>A씨는 현재 예적금 위주 현금자산을 쌓고 있으며, 금감원은 자본소득만으로 은퇴 준비하는 것은 현실적이지 않다고 지적하고 있다.</t>
-  </si>
-  <si>
-    <t>A씨는 주변의 제안에 흔들리고 있으며, 노후생활비를 마련하는 것에 대해 의문을 가지고 있다.</t>
-  </si>
-  <si>
-    <t>A씨는 재무관리에 힘쓰지 못하고 있으며, 노후생활비를 마련하는 것에 대해 의문을 가지고 있다.</t>
-  </si>
-  <si>
-    <t>A씨는 노후생활비를 마련하는 것에 대해 의문을 가지고 있다.</t>
   </si>
   <si>
     <t>월 0.5% 배당 지급…하락장엔 필수재株 담아 안정적 수익 [이런 펀드 어때요?...</t>
@@ -2675,291 +2648,6 @@
   </si>
   <si>
     <t>연금저축 사고보험금 중소기업퇴직연금기금에 대한 예금보호한도 개정안이 국무회의에서 의결됨</t>
-  </si>
-  <si>
-    <t>2023-10-09</t>
-  </si>
-  <si>
-    <t>퇴직연금도 커스터마이징… 실적배당형으로 다변화해야</t>
-  </si>
-  <si>
-    <t>KB손해보험은 퇴직연금 상품 시장의 질적 개선을 위해 자산배분컨설팅을 제공하고 비대면으로 연금 수령 시스템을 구축했다. KB손해보험이 고용노동부 퇴직연금사업자 평가에서 우수사업자로 선정되어 고용노동부 장관상을 수상했다.</t>
-  </si>
-  <si>
-    <t>https://n.news.naver.com/mnews/article/014/0005083075?sid=101</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 이제는 퇴직연금도 커스터마이징이 필요하다. KB손해보험은 서류 작성 없이 비대면으로 원하는 시점에 연금을 수령할 수 있는 시스템을 구축했고 고객의 성향에 맞는 자산배분컨설팅을 실질적으로 제공하는 점이 좋은 평가를 받았다. 앞으로는 원리금보장형 상품에 매몰돼 있는 상품 구조를 실적배당형으로 다변화를 추구해 퇴직연금 상품 시장의 질적 개선을 이루겠다. KB손해보험 김유홍 연금사업본부장 전무사진은 9일 파이낸셜뉴스와 인터뷰에서 KB손해보험이 2023년 고용노동부 퇴직연금사업자 평가에서 보험 부문 우수사업자로 고용노동부 장관상을 수상하게 된 이유와 향후 포부를 이같이 밝혔다. KB손해보험은 고용노동부의 2023년 우수 퇴직연금사업자 평가에서 상품운용역량 조직서비스역량 교육 정보제공 역량에서 높은 점수을 받아 보험 부문 장관상을 거머쥐었다. 김유홍 본부장은 정성적인 부문에서 압도적으로 높은 점수를 받았다면서 숫자 실적 등 사업자가 가장 관심 있는 양적 성장보다 고객이 원하는 상품 추천 은퇴 시점에서 고객에게 맞는 연금 설계 시스템 환경 등 정성적이고 질적 서비스를 업그레이드하는 데 가장 중점을 뒀다고 강조했다. 실제 KB손해보험이 지난해 말 김기환 대표이사 판단으로 보험사 중 선도적으로 신설한 연금자산컨설팅파트는 질적 서비스 개선을 최우선 목표로 세웠다. 또 장기적 관점에서 고객에게 우수한 서비스를 제공하기 위해 인프라 투자를 단행했다. 약 300조원 규모의 퇴직연금 시장은 이미 레드오션으로 경쟁이 치열하고 금리 싸움만으로는 오프라인 판매 채널을 갖춘 은행이나 퇴직연금 상품만 1000개에 달하는 증권사를 이길 수 없다는 판단에서다. 우선 총 2년에 거쳐 모바일과 웹을 전면 개편해 퇴직연금을 이용하는 비대면 고객의 편의성을 높였다. 지점 방문이 어려운 바쁜 직장인을 위해서 논스톱 연금상담 서비스도 도입했다. 여기에 연금자산컨설팅파트는 자산배분컨설팅을 강화하기 위해 연금상품을 개발하고 관리할 수 외부 전문인력 뿐만 아니라 은퇴 생활자에게 꼭 필요한 건강보험료 절세 정보 등을 종합적으로 제공하기 위해 세무사 등 분야별 전문가로만 구성됐다. 상품 라인업도 12개에서 국내 해외 채권형 주식형 리츠 TDF 등 핵심 상품만 105개까지 확대됐다. 김 본부장은 라인업을 더 확대하지 않고 좋은 상품 중에서 지속적으로 성과 평가를 하고 고객 투자 성향에 맞게 상품을 제시하고 있다면서 고객 수익률은 한 번에 갑자기 올라가는 것이 아니지만 최소한 물가상승률 이상으로 최소한 연 56 수익률을 낼 수 있도록 포트폴리오 구축을 하고 있다고 설명했다. KB손해보험이 질적 서비스 개선을 위해 노력한 결실은 숫자로도 입증됐다. 지난 7월 고용노동부에서 발표한 디폴트옵션 수익률 6개월 부문에서 KB손해보험 디폴트옵션 중위험 TDF1이 9.33의 수익률을 기록 중위험 상품 중 1위를 차지한 것이다. 디폴트옵션 가입률 역시 현재 73로 전 업권 통틀어 1위를 기록하고 있다. 김 본부장은 정부에서 디폴트옵션 시행하기 전 유예기간을 줄 때부터 전 단계를 준비해서 올해 초에 디폴트옵션을 고객에게 발빠르게 선보였고 마케팅도 빨리 진행했다면서 이 역시 질적 서비스를 신경쓴 결과라고 말했다. 앞으로도 KB손해보험은 차별화된 자산 배분 컨설팅을 제공하기 위해 AI 로보어드바이저 등 최신 디지털 기술을 접목하는 한편 고객 수요가 많은 채권 상품도 라인업할 계획이다. 또 디지털 취약 계층을 위한 대면과 비대면의 중간 채널인 하이브리드 채널 신설도 검토하고 있다. 김 본부장은 보험사는 비대면 채널을 강화할 수 밖에 없지만 디지털 취약 계층을 고려한 하이브리드 채널도 검토하고 있다면서 올해 채권을 투자하기 좋은 시기인 만큼 국채 회사채 지방채 등 채권 상품 라인업을 통해 고객에게 제공하기 위해 준비 중이라고 말했다. gogosingfnnews.com 박소현 김예지 기자</t>
-  </si>
-  <si>
-    <t>['디폴트옵션', '퇴직연금 사업자', '퇴직연금 은퇴설계', '퇴직연금 규모', '퇴직연금 수상', '퇴직연금 고용노동부', 'KB 퇴직연금', '퇴직연금 서비스 ', '퇴직연금 AI', '퇴직연금 경쟁', '퇴직연금 로보어드바이저', '퇴직연금 수익률', '퇴직연금 포트폴리오', '퇴직연금 TDF', '퇴직연금 자산배분', '퇴직연금 가입', '퇴직연금 채권', '퇴직연금 라인업', '퇴직연금 리츠']</t>
-  </si>
-  <si>
-    <t>[{'디폴트옵션': 2}, {'퇴직연금 사업자': 1}, {'퇴직연금 은퇴설계': 2}, {'퇴직연금 규모': 3}, {'퇴직연금 수상': 1}, {'퇴직연금 고용노동부': 8}, {'KB 퇴직연금': 2}, {'퇴직연금 서비스 ': 5}, {'퇴직연금 AI': 1}, {'퇴직연금 경쟁': 4}, {'퇴직연금 로보어드바이저': 3}, {'퇴직연금 수익률': 5}, {'퇴직연금 포트폴리오': 2}, {'퇴직연금 TDF': 3}, {'퇴직연금 자산배분': 6}, {'퇴직연금 가입': 14}, {'퇴직연금 채권': 2}, {'퇴직연금 라인업': 1}, {'퇴직연금 리츠': 2}]</t>
-  </si>
-  <si>
-    <t>KB손해보험이 자산배분컨설팅을 제공하고 퇴직연금 상품 시장의 질적 개선을 추구하고 있다.</t>
-  </si>
-  <si>
-    <t>KB손해보험이 고용노동부 퇴직연금사업자 평가에서 우수사업자로 선정되어 고용노동부 장관상을 수상했다.</t>
-  </si>
-  <si>
-    <t>No information related to financial market impact in the article.</t>
-  </si>
-  <si>
-    <t>No information related to legal and regulatory changes in the article.</t>
-  </si>
-  <si>
-    <t>The article mentions the importance of pension funds for long-term sustainability.</t>
-  </si>
-  <si>
-    <t>KB손해보험이 디지털 기술을 활용하여 자산 배분 컨설팅을 제공하고 비대면 서비스를 개선하고 있다.</t>
-  </si>
-  <si>
-    <t>No specific information related to consumption behavior and requirements in the article.</t>
-  </si>
-  <si>
-    <t>KB손보</t>
-  </si>
-  <si>
-    <t>[인터뷰] KB손보가 퇴직연금으로 고용노동부 장관상을 받은 이유</t>
-  </si>
-  <si>
-    <t>KB손해보험은 퇴직연금 상품 시장의 질적 개선을 위해 자산배분컨설팅을 제공하고, 비대면으로 연금을 수령할 수 있는 시스템을 구축했다. 또한, KB손해보험이 고용노동부 퇴직연금사업자 평가에서 보험 부문 우수사업자로 선정되어 고용노동부 장관상을 수상했다.</t>
-  </si>
-  <si>
-    <t>https://n.news.naver.com/mnews/article/014/0005082968?sid=101</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 이제는 퇴직연금도 커스터마이징이 필요하다. KB손해보험은 서류 작성 없이 비대면으로 원하는 시점에 연금을 수령할 수 있는 시스템을 구축했고 고객의 성향에 맞는 자산배분컨설팅을 실질적으로 제공하는 점이 좋은 평가를 받았다. 앞으로는 원리금보장형 상품에 매몰돼 있는 상품 구조를 실적배당형으로 다변화를 추구해 퇴직연금 상품 시장의 질적 개선을 이루겠다. KB손해보험 김유홍 연금사업본부장 전무은 9일 파이낸셜뉴스와 인터뷰에서 KB손해보험이 2023년 고용노동부 퇴직연금사업자 평가에서 보험 부문 우수사업자로 고용노동부 장관상을 수상하게 된 이유와 향후 포부를 이같이 밝혔다. KB손해보험은 고용노동부의 2023년 우수 퇴직연금사업자 평가에서 상품운용역량 조직서비스역량 교육 정보제공 역량에서 높은 점수을 받으면서 보험 부문에서 장관상을 거머쥐었다. 김유홍 본부장은 정성적인 부문에서 압도적으로 높은 점수를 받았다면서 숫자 실적 등 사업자가 가장 관심 있는 양적 성장보다 고객이 원하는 상품 추천 은퇴 시점에서 고객에게 맞는 연금 설계 시스템 환경 등 정성적이고 질적 서비스를 업그레이드하는 데 가장 중점을 뒀다고 강조했다. 실제 KB손해보험이 지난해 말 김기환 대표이사 판단으로 보험사 중 선도적으로 신설한 연금자산컨설팅파트는 질적 서비스 개선을 최우선 목표로 세웠다. 또 장기적 관점에서 고객에게 우수한 서비스를 제공하기 위해 인프라 투자를 단행했다. 약 300조원 규모의 퇴직연금 시장은 이미 레드오션으로 경쟁이 치열하고 금리 싸움만으로는 오프라인 판매 채널을 갖춘 은행이나 퇴직연금 상품만 1000개에 달하는 증권사를 이길 수 없다는 판단에서다. 우선 총 2년에 거쳐 모바일과 웹을 전면 개편해 퇴직연금을 이용하는 비대면 고객의 편의성을 높였다. 지점 방문이 어려운 바쁜 직장인을 위해서 논스톱 연금상담 서비스도 도입했다. 여기에 연금자산컨설팅파트는 자산배분컨설팅을 강화하기 위해 연금상품을 개발하고 관리할 수 외부 전문인력 뿐만 아니라 은퇴 생활자에게 꼭 필요한 건강보험료 절세 정보 등을 종합적으로 제공하기 위해 세무사 등 분야별 전문가로만 구성됐다. 상품 라인업도 12개에서 국내 해외 채권형 주식형 리츠 TDF 등 핵심 상품만 105개까지 확대됐다. 김 본부장은 라인업을 더 확대하지 않고 좋은 상품 중에서 지속적으로 성과 평가를 하고 고객 투자 성향에 맞게 상품을 제시하고 있다면서 고객 수익률은 한 번에 갑자기 올라가는 것이 아니지만 최소한 물가상승률 이상으로 최소한 연 56 수익률을 낼 수 있도록 포트폴리오 구축을 하고 있다고 설명했다. KB손해보험이 질적 서비스 개선을 위해 노력한 결실은 숫자로도 입증됐다. 지난 7월 고용노동부에서 발표한 디폴트옵션 수익률 6개월 부문에서 KB손해보험 디폴트옵션 중위험 TDF1이 9.33의 수익률을 기록 중위험 상품 중 1위를 차지한 것이다. 디폴트옵션 가입률 역시 현재 73로 전 업권 통틀어 1위를 기록하고 있다. 김 본부장은 정부에서 디폴트옵션 시행하기 전 유예기간을 줄 때부터 전 단계를 준비해서 올해 초에 디폴트옵션을 고객에게 발빠르게 선보였고 마케팅도 빨리 진행했다면서 이 역시 질적 서비스를 신경쓴 결과라고 말했다. 앞으로도 KB손해보험은 차별화된 자산 배분 컨설팅을 제공하기 위해 AI 로보어드바이저 등 최신 디지털 기술을 접목하는 한편 고객 수요가 많은 채권 상품도 라인업할 계획이다. 또 디지털 취약 계층을 위한 대면과 비대면의 중간 채널인 하이브리드 채널 신설도 검토하고 있다. 김 본부장은 보험사는 비대면 채널을 강화할 수 밖에 없지만 디지털 취약 계층을 고려한 하이브리드 채널도 검토하고 있다면서 올해 채권을 투자하기 좋은 시기인 만큼 국채 회사채 지방채 등 채권 상품 라인업을 통해 고객에게 제공하기 위해 준비 중이라고 말했다.</t>
-  </si>
-  <si>
-    <t>[{'디폴트옵션': 8}, {'퇴직연금 사업자': 8}, {'퇴직연금 은퇴설계': 9}, {'퇴직연금 규모': 10}, {'퇴직연금 수상': 9}, {'퇴직연금 고용노동부': 1}, {'KB 퇴직연금': 8}, {'퇴직연금 서비스 ': 14}, {'퇴직연금 AI': 9}, {'퇴직연금 경쟁': 8}, {'퇴직연금 로보어드바이저': 9}, {'퇴직연금 수익률': 11}, {'퇴직연금 포트폴리오': 9}, {'퇴직연금 TDF': 8}, {'퇴직연금 자산배분': 12}, {'퇴직연금 가입': 17}, {'퇴직연금 채권': 10}, {'퇴직연금 라인업': 9}, {'퇴직연금 리츠': 8}]</t>
-  </si>
-  <si>
-    <t>KB손해보험은 자산배분컨설팅을 제공하고 퇴직연금 상품 시장의 질적 개선을 추구하고 있다.</t>
-  </si>
-  <si>
-    <t>KB손해보험은 고용노동부 퇴직연금사업자 평가에서 보험 부문 우수사업자로 선정되어 경쟁력을 갖추고 있다.</t>
-  </si>
-  <si>
-    <t>KB손해보험은 비대면으로 연금을 수령할 수 있는 시스템을 구축하여 퇴직연금 시장의 디지털화에 기여하고 있다.</t>
-  </si>
-  <si>
-    <t>No information provided in the article about legal and regulatory changes.</t>
-  </si>
-  <si>
-    <t>No information provided in the article about demographic changes.</t>
-  </si>
-  <si>
-    <t>KB손해보험은 디지털 기술을 활용하여 자산 배분 컨설팅을 제공하고 비대면 서비스를 개선하고 있다.</t>
-  </si>
-  <si>
-    <t>KB손해보험은 고객의 투자 성향에 맞게 상품을 제시하고 고객 요구에 맞춰 서비스를 개선하고 있다.</t>
-  </si>
-  <si>
-    <t>“아프니까 사장이다”…녹다운 자영업자 [벼랑 끝에 선 자영업]</t>
-  </si>
-  <si>
-    <t>자영업자들 사이에선 폐업밖에 답이 없다는 말이 나돈다. 한국의 자영업자 비율은 높으며, 경쟁이 심화되고 경영난을 겪고 있다. 고령층의 자영업 진출 증가 경향이 지속 확대될 것으로 보인다.</t>
-  </si>
-  <si>
-    <t>https://n.news.naver.com/mnews/article/050/0000068692?sid=101</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 코로나19 사태 때도 이 정도는 아니었어요. 밤 10시 시간 제한 때보다 상황이 심각해요. 지금 다 녹다운이에요. 경기도 고양시에서 식당을 하는 장은영 42 씨는 하루하루 피가 마를 지경이라고 했다. 요식업 10년 차 잔뼈가 굵은 베테랑이지만 최근 가게 사정은 최악이다. 그는 적자를 감수하고 문을 여는데 언제까지 버틸 수 있을지 모르겠다고 말했다. PART1 9월 위기설 끝난 게 아니다 자영업자들이 벼랑 끝에 몰렸다. 정부가 나서 9월 자영업자 대란설은 전혀 근거가 없다고 못 박았지만 체감은 다르다. 자영업자 140만여 명이 활동하는 온라인 커뮤니티 아프니까 사장이다에는 하루에도 몇 건씩 폐업 관련 글이 올라온다. 이제 장사 그만하게 되었습니다 이번 주 고비입니다 6년 카페 폐업합니다 매출이 점점 더 떨어집니다. 무섭습니다.지난 9월 자영업자 대란설 이른바 9월 위기설은 정부가 코로나19 지원 대책으로 각종 대출에 만기 연장과 상환 유예를 해준 조치들이 9월이면 종료돼 잠재된 부실이 한꺼번에 폭발할 것이라는 우려에서 불거졌다.정부는 우려를 일축했다. 한덕수 국무총리는 6월 13일 국회에서 열린 경제 분야 대정부 질문에서 상환 유예 차주의 98가 상환 계획서 작성을 끝냈다며 이에 속하지 않는 일부 부실 가능성이 있는 차주는 30조원 정도의 기금을 통해 재무 조정을 해 나갈 예정이라고 설명했다. 추경호 경제부총리 겸 기획재정부 장관 또한 코로나19 피해 자영업자소상공인 대출의 경우 전체 대상 채무가 당초 100조원에서 76조원으로 감소하는 등 연착륙이 순조롭게 진행 중이라며 9월 자영업자 대란설은 전혀 근거가 없다고 강조했다.현장의 분위기는 다르다. 자영업자들 사이에선 폐업밖에 답이 없다는 말이 나돈다. 9월 위기설이 끝난 게 아니라 9월부터 터져나가기 시작한다는 의미였단 자조도 나온다. 수치도 심상치 않다. 자영업자 비율은 통계를 작성한 이후 처음으로 20 선을 밑돌았다. 통계청에 따르면 지난 2분기 전체 취업자 중 자영업자가 차지하는 비율은 19.9를 기록했다. 1963년 37를 넘은 뒤 차츰 줄어들면서 지난해 말 20.1대로 내려왔고 분기 기준 20대 아래는 이번이 처음이다.문제는 자영업자의 질이다. 직원 한 명도 없는 나 홀로 자영업자가 늘고 있다. 자영업자는 통상 독자적으로 사업하는 개인 사업자 또는 소규모 사업자를 지칭하는데 통계에서도 고용원이 있나 없나로 자영업자를 세분화한다.이 중 고용원이 없는 자영업자의 비율이 높아지고 있다. 올해 8월 기준 578만4000명의 자영업자 중 고용원이 없는 1인 자영업자는 437만 명으로 전체의 75.6를 차지했다. 코로나19 발발 이전까지는 70 초반대를 기록했지만 코로나19 사태가 발발한 2020년부터 75를 넘긴 이후 나 홀로 자영업자의 비율은 좀처럼 낮아지지 않고 있다.고용원 없는 자영업자 수의 증가는 자영업의 위기를 보여주는 지표다. 자영업자가 경영난에 처하면 인건비를 가장 먼저 줄인다. 이 때문에 고용원이 없는 자영업자가 늘어나고 이마저도 버티지 못하면 폐업에 이르는 수순이다. 마지현 파이터치연구원 수석연구원은 고용원이 있는 자영업자들이 늘어난 인건비를 감당하기 어려워 직원을 해고하게 됨에 따라 상당수의 고용원이 있는 자영업자가 고용원이 없는 자영업자가 된다고 말했다.경기도 광명시에서 분식점을 운영하는 최영균 52가명 씨도 최근 나 홀로 자영업자가 됐다. 코로나19 시간 제한과 최저임금 인상으로 2022년부터 경영난에 처했던 최 씨는 고금리고물가 폭탄에 지난 6월 직원에 이어 알바생마저 정리했다. 최 씨는 버티고 버티다 물가 폭등에 더는 버틸 수 없어 혼자 하게 됐다며 나 홀로 하다가 조금 바빠지면 아내 더 바빠지면 자녀들을 불러 일을 분담하고 있다고 말했다.최 씨를 항복시킨 것은 고금리고물가다. 올해 3월 임대 계약 만료를 앞두고 건물주는 월세 10 인상을 통보했다. 코로나19 위기 때 월세를 올리지 않는 등 주변 시세보다 싸게 받았지만 금리인상으로 더는 버틸 수 없다는 게 건물주의 말이다. 더 큰 난관은 물가다. 전기료가스비재료비 모두 턱없이 올라 임대료와 공과금 여기에 인건비를 주고나면 마이너스 신세다. 최 씨는 분식점 특성상 음식 값을 올릴 수도 없어 하루 10만원의 매출 올리기도 어려운 날이 많았다며 재료비를 마련하려고 장사하는 기분이었다고 토로했다. PART2 과당 경쟁 후진국 규모위기의 자영업 자영업의 추락과 같은 표현들은 업계를 묘사해 온 단골 소재였다. 그만큼 자영업자의 위기는 어제오늘의 일이 아니다. 한국개발연구원 KDI에 따르면 1997년 외환 위기와 2003년 신용카드 대란 2008년 글로벌 금융 위기 등 굵직한 거시 경제 충격과 소비 침체가 닥칠 때마다 자영업은 큰 폭으로 출렁였다. 이진국 KDI 연구위원은 국내 자영업의 위기는 코로나19 사태가 발생하기 훨씬 이전부터 존재해 현재까지 지속되는 추세적 현상으로 바라보는 것이 합당할 것이라고 설명했다.자영업계의 경영난은 왜 이렇게 오래도록 지속되고 있는 것일까. 우리 경제의 체질이나 구조와 연관돼 있는 것은 아닐까.경기도 화성시에서 마라탕 음식점을 운영하던 김영미 56가명 씨는 지난 7월 탕후루로 업종을 변경했다. 탕후루 프랜차이즈의 마진율이 좋다는 소식에 유행이 식기 전 빠르게 손님 잡기에 나서겠다는 판단이었다. 그가 개점할 때만 해도 반경 5km 내에 동일 업종이 없었지만 지금은 2km 이내에 탕후루 매장만 3개가 들어섰다. 매출도 반 토막이다. 오픈 초창기에는 줄 서서 구매할 정도로 인기를 끌었지만 지금은 방과 후에나 시끌벅적하다.A 씨의 사례는 한국 자영업의 문제를 그대로 보여준다. 과당 경쟁이다. 공정거래위원회 가맹 사업 거래에 등록된 탕후루 프랜차이즈는 모두 6곳이다. 이 중 가장 큰 규모를 자랑하는 곳은 달콤나라앨리스가 운영하는 왕가탕후루다. 이곳은 지난해 43곳에 불과했지만 올 들어 가맹점을 크게 늘리며 현재 420곳의 매장을 운영하고 있다.인근 유사 점포의 난립과 경쟁 심화는 자영업자의 경영난을 가져오는 근본적인 요인이다. 한국의 자영업자 규모는 장기적으로 보면 지속 감소 추세다. 하지만 타국과 비교하면 한국의 자영업자 비율은 이례적으로 높다. 2022년 경제협력개발기구 OECD의 자영업자 selfemployment자영업자무급 가족 종사자를 기준으로 한국의 자영업자 비율은 23.5다. OECD 국가 35개국 중 여덟째로 높았다.미국 6.6 2021년 기준 독일 8.7 일본 9.6 등 주요국과 비교하면 차이가 큰 편이다. 반면 한국보다 자영업 비율이 높은 국가는 콜롬비아 53.1 2021년 기준 브라질 32.1 멕시코 31.8 그리스 30.3 튀르키예 30.2 코스타리카 26.5 칠레 24.8로 중남미 국가가 많다. 제조업이 제대로 발전하지 못했거나 관광 산업이 높은 비율을 차지해 자영업자가 많을 수밖에 없는 나라다. 높은 비율의 자영업자는 정체되거나 쇠락하는 경제의 상징이다. 많은 연구에서 산업화의 정도가 미흡하거나 노동 시장이 유연하지 못하거나 개인 소득세나 사회 보장 분담금이 많다거나 실업급여 수준이 낮다거나 조세 회피 가능성이 높으면 자영업자 비율이 높은 것으로 보고하고 있다.실제 중남미는 인플레이션 속에 쇠락의 길을 걷으면서 빈곤층의 자영업 비율이 높다. 그리스 또한 2009년 경제 위기를 겪은 후 구제 금융 프로그램을 받을 정도로 경제 상황이 최악으로 치달았다.반면 한국은 선진국이다. 2021년 국제 사회에서 선진국 지위를 공인받았다. 그해 7월 개최된 제68차 유엔무역개발협의회 UNCTAD 무역개발이사회는 대한민국의 지위를 그룹 A 아시아아프리카에서 그룹 B 선진국로 변경하는 것을 만장일치로 가결했다. 작년 1인당 국민소득이 3만2886달러 약 4248만원인데 경제가 쇠락하거나 산업화의 정도가 미흡해 자영업자의 비율이 높다는 주장은 어불성설이다.그래서 전문가들은 노동 시장 경직과 사회적 자본 사회 안전망이 취약하다는 점을 한국의 자영업자 비율이 높은 이유로 제시한다. 홍성국 더불어민주당 의원은 그의 저서 수축사회에서 이같이 지적했다.지금의 한국을 만든 소득 주도 성장 정책은 사회적 자본이 빈약한 상태에서 경제를 성장시키려는 고육지책으로 나왔다. 60여 년 동안 수출 주도 성장에 매진하면서 한국이 이룬 성장은 가히 역대급이다. 하지만 시야가 좁았다. 성장에만 주력한 결과 경제를 떠받치는 사회적 자본 축적에는 관심을 두지 못했다. 내수 경제 중소기업과 자영업자와 수출 대기업 경기 간에 간극이 벌어지고 있다. 특히 한국은 자영업과 중소기업의 고용 비율이 높기 때문에 양극화의 직격탄을 맞을 수밖에 없는 구조다.수출 주도 성장에만 주력한 결과 한국 경제는 고용 인구를 모두 흡수하지 못했다. 임금 노동자에 흡수되지 못한 고용 인구는 내수 시장에서 중소기업과 자영업으로 분산됐다. 한국의 높은 자영업자 비율은 지연된 산업화의 결과라고 봐도 무방하다. 선진국의 자영업자 비율이 상대적으로 낮은 것도 한국의 대표 산업 도시인 울산 지역의 자영업자 비율이 전국에서 둘째로 낮은 것 1위는 세종시도 이를 보여주는 대목이다. PART3 고령화 시대 뇌관은 자영업자영업자 비율이 높은 것은 국가 전체적으로 보면 위험성이 크다. 자영업이 어려워지면 다시 일자리가 줄어들고 소비가 줄어드는 악순환에 빠진다.중소벤처기업부에 따르면 소상공인을 위한 퇴직금으로 통하는 노란우산 공제의 폐업 공제금은 올해 1월부터 7월까지 7만4191건 지급된 것으로 나타났다. 역대 최고치였던 2021년 지급 건수가 9만9388건이라는 점을 감안하면 올해 지급 건수는 이를 넘어설 가능성이 높다. 노란우산 공제는 소상공인이 매달 일정 금액을 납부하다가 폐업할 때 기존에 납입한 돈에 이자를 더해 돌려받는 제도다. 즉 지급 건수가 많을수록 폐업한 업체가 많다는 의미다. 노란우산 공제에 가입하지 않은 자영업자도 있는 점을 고려하면 실제 소상공인 폐업 건수는 이보다 더 많을 것으로 추산된다.더 큰 뇌관은 고령화다. 은퇴 이후 재취업이 안 되는 고령자들은 생계를 이어 가기 위해 창업 전선에 뛰어드는 경향이 짙다. 하지만 고령 자영업자의 고용의 질은 형편없었다.한국경제인협회에 따르며 최근 5개년간 20172021년 15세 이상 전체 자영업자 수는 3.2 감소한 반면 60세 이상 자영업자는 21.4나 증가했다. 특히 2021년 60세 이상 자영업자 10명 중 9명 87.2은 고용원이 없는 나 홀로 자영업자였다.대부분의 고령 자영업자들은 부족한 창업 자금을 가지고 철저한 시장 조사 없이 급박하게 사업을 시작했고 무한 경쟁의 자영업 시장에서 최저임금 수준도 벌지 못했던 것으로 나타났다. 2021년 8월 기준으로 1년 이내 사업을 시작한 60세 이상 자영업자 10명 중 4명 43.0은 500만원 미만으로 창업했으며 64.5는 창업 준비 기간이 13개월 미만이었다 통계청 비임금 근로 부가 조사.월평균 영업이익 또한 세대 중 가장 낮았다. 2019년 기준 월평균 영업이익이 최저임금 주40시간 기준 174.5만원보다 낮은 소상공인 비율은 60세 이상이 53.6로 가장 높았고 다음은 50대 37.3다.고령화로 노동 시장에 머무르는 기간이 길어지면서 고령층의 자영업 진출 증가 경향이 지속 확대될 것으로 보인다. 세계에서 손꼽히는 초고령 국가 일본은 이미 고령층에서 자영업자 비율이 최고치를 찍었다. 2016년에 이미 전체 자영업자의 35.9 가족 종사자까지 포함하면 41.6가 고령자다.하지만 고령층의 열악한 고용 여건을 개선하기 위한 장기간의 정책적 노력에도 불구하고 일본은 여전히 당면 과제를 해결하지 못하고 있는 상황이다.전문가들은 고령화 시대 자영업자 문제는 사회 구조적 문제임을 지적한다. 한국은행은 일본 고령층 고용의 3대 특징과 시사점 보고서를 발표하며 한국 노인 세대의 경제 여건은 일본에 비해서도 매우 열악하고 생계 유지를 위한 노동이 불가피하다는 점을 고려할 때 1020년의 중장기적인 시각에서 종합적인 대책을 마련해 일관성 있게 지속적으로 추진하는 것이 중요하다고 밝혔다다.우리는 어떠한 방안이 있을까. 2018년 국회 산업통상자원 중소벤처기업위원회는 골목 상권 활성화 방안을 듣기 위해 외식 전문가인 백종원 더본코리아 대표를 국회로 불렀다. 5년이 지난 지금도 백종원 매직은 그칠 줄 모른다. 자영업자의 구원투수가 정부가 아닌 백종원 대표란 우스갯소리도 나온다. TV과 유튜브에서는 자영업자를 살리는 제2의 백종원 프로그램이 화제다. 손대면 핫플 동네멋집 장사의 신 등등이다.홍성국 의원은 그의 저서에서 자영업자의 쇠퇴는 사회적 변화가 원인이지 아이디어 차원의 문제가 아니다며 더 큰 변화의 필요성을 강조한다. 전문가들 또한 장기적 관점에서 자영업의 부작용을 막기 위해 질적 성장과 부작용을 줄이는 방안을 모색해야 한다고 조언한다. 위기의 자영업자를 위한 진짜 구원투수가 필요한 시기다. 아프니까 사장이다녹다운 자영업자순수익 1000만원에서 마이너스 됐다자영업자 위기유동성 스쳐간 자리엔 공실뿐자영업자 쓰러지자 텅 빈 상권아파트 이어 상가 거래도 뚝 공인중개사 10개월간 1만2500개 폐업</t>
-  </si>
-  <si>
-    <t>['퇴직금 제도', '퇴직소득세']</t>
-  </si>
-  <si>
-    <t>[{'퇴직금 제도': 32}, {'퇴직소득세': 46}]</t>
-  </si>
-  <si>
-    <t>자영업자들의 경영난과 경쟁 심화에 대한 언급이 있으며, 이는 연금 기금 관리 전략과 금융 시장 변동의 영향을 분석하는 데 도움이 될 수 있다.</t>
-  </si>
-  <si>
-    <t>자영업자의 폐업과 경쟁 심화에 대한 언급이 있으며, 이는 연금 기업 간의 경쟁 동향을 파악하는 데 도움이 될 수 있다.</t>
-  </si>
-  <si>
-    <t>금융 시장 변동이 자영업자에게 미치는 영향에 대한 언급이 있으나, 자세한 분석은 제공되지 않았다.</t>
-  </si>
-  <si>
-    <t>법률 및 규제 변경에 대한 언급이 없다.</t>
-  </si>
-  <si>
-    <t>고령화 시대에 자영업자의 비율이 높아질수록 경제의 위험성이 커지고, 소상공인 폐업 건수도 증가한다는 언급이 있다.</t>
-  </si>
-  <si>
-    <t>기술과 디지털화에 대한 언급이 없다.</t>
-  </si>
-  <si>
-    <t>소비 행동 및 요구사항에 대한 언급이 없다.</t>
-  </si>
-  <si>
-    <t>예금자보호한도 5000만원 유지 가닥…금융위 시장상황 등 고려</t>
-  </si>
-  <si>
-    <t>예금자 보호 한도 상향 조정이 불발될 전망. 금융위원회는 상향 여부를 검토할 필요가 있다고 밝혔다. 예금자 보호 한도 상향 개정안은 다양한 내용을 포함하고 있다.</t>
-  </si>
-  <si>
-    <t>https://n.news.naver.com/mnews/article/011/0004246798?sid=101</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1인당 5000만원인 예금자 보호 한도 상향 조정이 이번에도 불발될 전망이다. 미국 실리콘밸리은행 SVB 사태 이후 예금자보호한도를 높여야 한다는 논의가 제기됐지만 결국 현행을 유지하는 것으로 가닥이 잡혔다. 9일 국회 정무위원회 소속 김희곤 의원실에 따르면 금융위원회는 이달 5일 정무위에 보고한 예금보험제도 개선 검토안에서 향후 찬반 논의 시장 상황 등을 종합 고려해 상향 여부 등을 검토할 필요가 있다고 밝혔다. 당장 급하게 추진할 사안이 아니라는 것이다. 현재 여야 의원들이 발의한 예금자 보호 한도 상향 개정안은 총 11건으로 보호 한도를 1억원 또는 2억원으로 높이는 내용 등 다양하다. 우리나라는 2001년 2000만원이던 예금자 보호 한도를 5000만원으로 올린 후 지금까지 23년째 한도가 그대로다. 국내 은행에서 계좌당 5000만원을 넘는 예금은 작년 6월 기준 전체 예금의 65.7인 1152조7000억 원으로 집계됐다.보호 한도를 높이자는 의견과 2금융권으로의 자금 쏠림이나 예보료 인상에 따른 소비자 부담 증가를 우려하는 목소리도 함께 고려한 것으로 보인다. 금융위가 공개한 연구 용역 결과에 따르면 보호 한도를 1억 원으로 올리면 은행에서 저축은행으로 자금 이동이 나타나고 이로 인해 저축은행 예금은 1625 가량이 증가할 것으로 추산됐다. 이동 자금은 은행 예금의 1 수준으로 전체 시장 영향은 크지 않을 수 있지만 저축은행 업권 내 과도한 수신 경쟁이 벌어질 경우 일부 소형사에는 충격이 될 수 있다는 내용도 포함됐다. 한도 상향 시 보호 한도 내 예금자 비율은 98.1에서 99.3로 1.2포인트 증가하는 데 그치는 등 실익도 크지 않은 것으로 나타났다. 보호 한도가 5000만 원으로 유지되더라도 사회보장적 상품 등에 대한 별도 한도 적용은 지속적으로 확대되는 추세다. 금융위는 2015년부터 확정기여형 DC형 및 개인형 IRP 퇴직연금의 예금에 대해 일반 예금과 별도로 5000만 원의 보호 한도를 적용해왔으며 연금저축 신탁보험 사고보험금 중소기업퇴직연금기금 등에 대한 별도 보호도 시행을 앞두고 있다. </t>
-  </si>
-  <si>
-    <t>['확정기여형', '퇴직연금 저축은행']</t>
-  </si>
-  <si>
-    <t>[{'확정기여형': 10}, {'확정기여형': 49}, {'퇴직연금 저축은행': 39}]</t>
-  </si>
-  <si>
-    <t>금융위원회가 상향 여부를 검토할 필요가 있다고 밝혔기 때문에, pension fund management에 영향을 줄 수 있는 내용이다.</t>
-  </si>
-  <si>
-    <t>이 기사에는 industry competition trends에 대한 내용이 없다.</t>
-  </si>
-  <si>
-    <t>예금자 보호 한도 상향 조정이 불발될 전망이라는 내용이 있으므로, financial market impact에 대한 내용이 포함되어 있다.</t>
-  </si>
-  <si>
-    <t>이 기사에는 legal and regulatory changes에 대한 내용이 없다.</t>
-  </si>
-  <si>
-    <t>이 기사에는 demographic change에 대한 내용이 없다.</t>
-  </si>
-  <si>
-    <t>이 기사에는 technology and digitalization에 대한 내용이 없다.</t>
-  </si>
-  <si>
-    <t>이 기사에는 consumption behavior and requirements에 대한 내용이 없다.</t>
-  </si>
-  <si>
-    <t>국민연금공단</t>
-  </si>
-  <si>
-    <t>“미래세대 부담? 공포 수준 아니다” vs “감당할 인구가 너무 적다”[국민연...</t>
-  </si>
-  <si>
-    <t>국회 연금개혁특별위원회가 활동기한을 내년 5월까지 연장하기로 했기 때문에 국민연금 개혁이 미뤄질 조짐이다. 국민연금 가입기간이 긴 노동시장 중심부의 노동자들이 대체율 인상의 혜택을 가장 크게 입을 것이기 때문에 재정을 투입하더라도 그 돈이 소득대체율 인상에 우선적으로 쓰이는 것에는 찬성하지 않는다. 가입기간이 짧은 불안정 노동자 저소득층에게 가입기간을 늘려주는 조치 크레딧 제도를 의미.</t>
-  </si>
-  <si>
-    <t>https://n.news.naver.com/mnews/article/032/0003253584?sid=101</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 국민연금 개혁은 올해에도 물 건너가는 것일까. 연금개혁의 시간표가 다시 미뤄질 조짐이다. 국회 연금개혁특별위원회가 활동기한을 내년 5월까지 연장하기로 했기 때문이다. 인기 없는 연금개혁 속성을 감안할 때 내년 4월 총선 이후에나 본격 논의될 가능성이 높아졌다.국민연금 개혁은 2007년 이후 번번이 무산돼왔다. 지난 16년간 정부와 정당들은 전문가들의 논쟁 뒤에 숨은 채 뒷짐만 져왔다. 정부와 정당이 각자의 입장을 내놓고 여론을 수렴하는 과정을 회피하는 동안 전문가들의 열띤 논쟁은 대중에게 제대로 소개되지 못했다.주간경향은 국민연금을 두고 이어져 온 소득대체율 인상론과 재정안정론의 끝장토론 자리를 마련했다. 소득대체율 인상론 측의 주은선 경기대 사회복지학과 교수와 재정안정론 측의 오건호 내가만드는복지국가 정책위원장이 지난 10월 4일 경향신문사 여적향에서 논쟁을 벌였다. 국민연금 개혁해야 하는 이유는국민연금 개혁이 필요한 이유에 대한 생각부터 양측이 다른 것으로 안다. 왜 개혁이 필요한지를 각자 말해달라.오건호 내가만드는복지국가 정책위원장 이하 오 국민연금이 지속가능성을 가지기 위해서는 고강도 재정안정화가 필요하다는 것이 최근 5차 재정계산서도 확인됐다. 현재 젊은 세대들이 국민연금을 불신하는 이유는 지속가능성에 대한 불안 때문이라고 생각한다. 청년들에게 비전을 보여줄 필요가 있다. 물론 공적연금의 존재 목적이 노후소득 보장인 만큼 노후소득 보장을 강화하는 제도개혁 또한 필요하다. 하지만 어떤 방식이 적절할지는 서로 이견이 있다. 서로 잘 논의해 앞으로 조정이 되길 바란다. 재정계산은 현 보험료와 연금액을 유지할 때 기금이 언제 소진되는지 등을 보여주는 계산으로 국민연금법에 따라 5년마다 하도록 돼 있다. 올해 5차 계산에선 현 제도를 그대로 유지할 경우 기금이 2055년 소진되고 그해 걷어서 그해 연금액을 충당할 경우 미래 청년세대 보험료율은 최대 35까지 오른다는 결과가 나왔다편집자 주주은선 경기대 사회복지학과 교수 이하 주 국민연금이 도입된 지 30년이 지났지만 노후소득 보장 기능이 너무 심하게 부족하다. 평균급여액이 약 60만원이다. 초고령화 국면에서 노후빈곤을 어떻게 예방할 것인가에 대한 논의는 그간 소극적이었다고 생각한다. 초고령사회에선 노후소득을 획기적으로 보장해야만 살 만한 사회가 된다. 게다가 2030년에서 2050년 사이 국민연금을 받게 되는 사람들의 보장수준은 보험료를 내는 기간은 더 늘어나는 데도 오히려 더 떨어질 것으로 예상된다. 2007년 급여삭감 때문이다. 그런 의미에서 저는 소득대체율 인상이 꼭 필요하다고 본다. 소득대체율은 은퇴 후 받게 될 연금액 수준을 보여주는 지표다. 현재 국민연금 소득대체율은 42.5다. 일하던 시기 100만원을 벌었다면 은퇴 후 연금액으로 42.5만원을 받는 것을 의미한다. 40년 가입 기준이다. 보험료 납입기간이 40년보다 짧으면 실제 대체율 수준은 더 낮아진다. 대략 1년당 1씩 낮아진다고 보면 된다. 현 소득대체율 42.5는 조금씩 줄어 2028년 40에 도달하게끔 돼 있다. 이번 토론에서는 편의상 소득대체율을 40로 놓고 대화했다편집자 주재정계산 결과를 보면 미래 청장년 세대의 보험료 부담이 커지는 것은 사실로 여겨진다.주 재정계산은 팩트가 아니라 추정일 뿐이다. 현재 시점에서 미래라는 과녁에 화살을 던지는 것과 같은데 성장 고용 소득 인구 등의 변수에 따라 과녁은 계속 움직인다. 그런 의미에서 언론이 자주 쓰는 2055년 기금 고갈된다는 등의 표현은 타당하지 않다. 추정을 팩트로 표현하는 것이기 때문이다. 다만 재정계산 결과로 흐름은 볼 수 있다. 미래 생산세대의 부담이 늘어나는 것은 맞다. 그런데 노인이 인구 40를 넘는 사회에서 국민연금 지출이 GDP의 약 11가 되는 것이 비상식적인가 싶다. 그 시기 노인들이 받아갈 연금액을 온전히 청장년 개인들이 보험료로 부담해야 한다는 생각에서 벗어나야 한다. 분담 구조를 어떻게 짤 것인가를 고민하면서 풀어야 할 문제다.오 재정계산이 미래의 수치를 알아맞히는 작업이 아닌 것은 맞다. 그 대신 구조를 보는 것이다. 특정 시점에서의 지출과 수입의 구조를 봐서 재정이 균형을 이루고 있는지 아닌지를 보는 것이다. 불균형이라면 불균형의 규모를 보는 것이다. 미래의 국민연금 재정이 매우 불안정해지기 때문에 현세대와 달리 미래세대의 재정부담이 무척 커진다는 계산 결과의 메시지는 명확하다. 주 교수가 말한 고용 소득 인구 등의 변수를 다양하게 넣어도 이 메시지는 변하지 않는다.미래세대 개인이 모두 부담한다는 생각에서 벗어나야 한다. 국민연금의 소득재분배 성격을 고려하면 조세 투입을 못 할 이유가 없다. 현재 부과 대상이 GDP의 30를 안 넘는다. 플랫폼 기업 등에도 부담을 지워야 한다. 미래세대 부담 심각하다 vs 과장이다미래세대 부담이 심각하냐 아니냐에 대한 입장이 갈리는 것 같다.주 현재의 소득대체율 40를 유지했을 때 70년 후 국내총생산 GDP의 9가량이 연금액으로 지출될 것으로 보인다. 만약 소득대체율을 50로 올리면 70년 후 GDP의 약 11를 지출하게 된다. 지금도 노인 세대를 위한 공적연금에 GDP 11 이상을 지출하는 나라들이 꽤 있다. 이 정도를 그리 공포스러워 해야 하나. 시장에서 일하지 못하는 인구에 적정 소득을 보장해 소비할 수 있게 해서 경제균형을 이뤄나가는 것 그게 복지국가고 복지 자본주의다. 미래세대에게 감당하기 어려운 부담을 떠넘긴다고 얘기하는 것은 과장이다.오 먼저 소득대체율을 40에서 더 낮추자는 입장은 아니라는 점을 말하고 싶다. 지금의 소득대체율을 유지하자는 입장이고 그럴 경우 말한 대로 70년 후 미래세대가 GDP 9 지출을 감당해야 한다. 그런데 그들이 처할 환경이 무척 어려울 거다. 연금액 지출에 GDP 11 이상 지출하는 서구 국가들 얘기를 했는데 20세기 중후반의 서구와 비교할 때 한국의 노인부양비는 매우 높아지는 구조다. 초저출생 때문이다. 서구 국가들의 GDP 10와 미래 한국사회의 GDP 10를 감당하는 인구 규모가 완전히 다르다. 우리가 훨씬 적을 것이다. 게다가 그 세대는 그해 걷어서 그해 지출해야 하는 건강보험과 기초연금 등의 부담도 훨씬 커질 전망이다. 미래세대가 GDP 9 지출을 감당할 수 있도록 지금 우리가 도와줘야 한다고 본다. 현재 우리의 연금액 지출은 GDP 2다. 지금부터 단계적으로 올려야 한다.주 보험료 인상에 반대하는 것은 아니다. 소득대체율 인상이 필요하다는 입장에서는 더욱 그렇다. 다만 지나친 연기금 적립 역시 문제이므로 그 속도와 폭을 조정해야 한다. 70년 후 GDP 911 지출이 큰 부담이냐 아니냐에 대한 얘기를 이어나가겠다. 공적연금 지출을 줄여주는 것이 과연 미래세대의 부담을 덜어주는 일일까. 부모가 국민연금만으로 노후를 보내기 어려워지면 자녀의 사적이전 생활비를 드리는 것 부담이 늘어난다. 은퇴 이후가 불안해 사적연금 시장에 기대는 이들도 많아질 거다. 아울러 연금액이 낮아 노후빈곤에 처하는 사람이 많아질수록 기초연금과 국민기초생활보장제도와 같은 공공부조 부담도 늘어난다. 사회연대의 원리에 입각한 국민연금이 더 많은 사람의 노후를 제대로 보장하게 하는 것이 결과적으로 모두의 부담을 더는 길이다. 그리고 앞서 말했듯 개인들이 GDP 11를 전부 부담해야 한다는 생각에서 벗어나 새로운 연금재정 패러다임에 대해 고민해 볼 필요도 있다. 새로운 재정 패러다임 가능할까미래의 청장년 세대 개인이 모두 부담해야 한다는 생각에서 벗어나야 한다고 했는데 구체적으로 어떻게 가능할까.주 장기적으로 조세가 역할을 할 수 있다고 본다. 우리의 국민연금엔 소득재분배 성격이 있다 국민연금은 보험료를 낸 만큼 연금액을 받는 구조가 아니다. 평균소득보다 적게 번 이들에게 상대적으로 더 얹어주는 하후상박 구조다. 물론 절대적인 연금액은 고소득층이 높지만 낸 보험료 대비 연금액의 비율은 저소득층이 더 높다편집자 주. 국민연금의 소득재분배 성격을 고려하면 조세 투입을 못 할 이유가 없다고 본다. 자본의 역할을 강화하는 방식도 있다. 지금은 기업과 개인이 보험료를 55 부담하는데 기업 부담을 6570로 올릴 수도 있다. OECD 평균이 대략 그 정도다. 아울러 보험료 부과 대상소득이 GDP의 30 이하로 26 수준인 것으로 추정된다. 이를테면 사실상 사용자 역할을 하고 있는 플랫폼 기업에 보험료 부담을 지워야 한다. 프랑스는 자산소득을 비롯한 모든 종류의 개인소득과 대기업 법인세에 사회보장세를 부과한다. 장기 미래에 가능한 재정 패러다임 변화를 지금 구체적으로 얘기하긴 어렵다. 미래에 부가 어떤 방식으로 창출될지 그 변화를 미리 예단하기가 어렵기 때문이다.오 국민연금에 보험료 이외 재원 투입될 수 있다고 본다. 문제는 미래세대의 지출 부담은 지금 명확하게 수치로 확인이 되는데 소득대체율 인상론 측이 말하는 충당 방안은 아직 범주 수준이다. 저는 소득대체율 인상은 어렵다는 입장이지만 소득대체율 유지 역시 미래세대 부담이 크기 때문에 개인적으로 가늠을 해봤다. 현재 보험료 부과대상이 GDP의 30가 채 되지 않는다고 했다. 마치 70라는 미지의 영역이 남아 있는 것처럼 여겨지지만 국민계정에 분배 GDP 구성을 들여다보면 추가 부과대상으로 삼을 만한 것이 그리 많지 않다. 부과대상을 현 30 수준에서 40 수준으로 높이고 보험료율 15로 인상해도 재원은 여전히 매우 모자라다. 결국은 법인과 자본에다 과세하자는 주장인데 부족액을 충당할 만큼 확보할 수 있느냐의 문제가 있다. 우리는 이미 기업과 자본소득에 대해서 과세를 하고 있다. 자동차든 로봇이든 부동산이든 결국은 재산세와 종합부동산세로 거둬질 거다. 여기에 횡재세 정도가 추가될 수 있다. 과세를 강력히 한다고 해도 여전히 부족할 것이다. 나아가 혹시 충분한 재원이 나온들 그걸 소득대체율 인상에 따른 부족액을 메우는 데 쓰는 게 맞느냐는 또 다른 논점이 있다.무슨 뜻인가.오 현재 가입자들은 보험료가 너무 낮다 보니 낸 것에 비해 과하게 많이 받게 돼 있다. 낸 것보다 더 받는 만큼을 미래세대에 빚지고 있는 거다. 이걸 현세대가 보험료 인상으로 어느 정도 책임을 져야 그다음 조세 투입도 얘기할 수 있다고 본다. 그래서 저는 보험료율 15까지는 점진적으로 인상하되 그 이후에도 재정이 어렵다면 그때는 국고 투입이 가능하다고 본다. 하지만 재정을 투입하더라도 그 돈이 소득대체율 인상에 우선적으로 쓰이는 것에는 찬성하지 않는다. 국민연금 가입기간이 긴 노동시장 중심부의 노동자들이 대체율 인상의 혜택을 가장 크게 입을 것이기 때문이다. 가입기간이 짧아 소득대체율이 실질적으로 낮은 불안정 노동자들을 위해 재정이 우선적으로 쓰여야 한다고 본다.국민연금 보험료가 너무 낮다 보니 계층 간 역진성 문제가 생긴다. 고소득자가 덜 받는 만큼 저소득자가 더 받아가는 게 아니다. 모두가 낸 것보다 더 받아가며 그 돈이 미래세대에서 온다. 기간이 길고 임금이 높을수록 순혜택이 크다. 소득대체율 인상 고소득층에 더 유리 vs 사회보험 특성 이해해야소득대체율 인상이 어떤 효과를 낼 것이냐에 대한 논의로 이어가자. 재정안정론 측에서는 소득대체율 인상이 실질적인 소득대체율 인상으로 이어지지 않을 것이라고 주장하는 것으로 안다.오 국민연금 급여는 결국 소득비례 가입기간 비례다. 연금액을 일제히 높이는 소득대체율 인상의 효과는 높은 임금을 받으면서 장기간 고용된 노동시장 중심부에 집중될 것이다.주 그 주장은 사회보험이 정의롭지 않다고 얘기하는 것과 같다. 고용보험의 실업급여 역시 소득비례다 더 많이 벌던 사람이 더 많은 실업급여를 받는다는 뜻이다편집자 주. 실업급여의 소득대체율을 50에서 60로 올리는 것은 임금이 높을수록 혜택이 크니 정의롭지 않은 것인가. 국민연금의 급여나 고용보험의 실업급여나 본질적으로 기존 소득의 대체 기능을 하도록 돼 있는 것이다. 그게 그 제도의 목적이다. 게다가 다른 사회보험과 달리 국민연금에는 강력한 재분배 요소가 들어가 있다.오 사회보험의 특성과 국민연금의 재분배 요소를 무시하는 것이 아니다. 지금의 국민연금엔 보험료가 너무 낮다 보니 생기는 계층 간 역진성의 문제가 있다 저소득층보다 고소득층에 더 유리하다는 뜻편집자 주. 무슨 얘기냐면 지금 국민연금에 소득재분배 기능이 있긴 하지만 고소득자가 덜 받는 만큼을 저소득자가 더 받아가는 구조가 아니다. 모두가 낸 것보다 더 받아가는데 그 돈은 미래세대에서 오는 것이다. 낸 보험료보다 더 돌려받는 만큼을 순혜택이라고 하는데 가입기간 길고 임금 높을수록 순혜택 절대액이 커진다. 즉 미래세대 부담으로 귀결되는 순혜택의 이득이 노동시장 중심부 고소득자들에게 집중된다는 얘기다. 이것이 옳으냐 하는 문제 제기다.주 국민연금에서 각자 낸 보험료와 급여의 수익을 따지며 계층 간 역진성 고소득층에 유리한 성격 얘기하는 자체가 이상하다고 생각한다. 국민연금제도는 각자 계정에 돈을 쌓고 자기가 낸 돈에 상응해 급여를 받는 제도가 아니다. 총량적으로 수입 보험료과 지출 연금액을 맞춰가는 제도이며 장수에 대응하는 제도이므로 수명에 따라 보장 총량이 달라진다. 개별 수익을 중심으로 연금제도를 보는 것은 공적연금의 본질과 어긋난 접근이란 생각이다. 하지만 계층별 수익을 따진다고 하더라도 오 위원장의 문제 제기는 일정 수준 이상의 보험료 인상으로 해소된다. 이것은 소득대체율 인상을 가로막을 근거가 되지 않는다. 오히려 소득대체율도 인상하되 거기에 필요한 재원을 어떻게 재분배성이 강하게 설계할 것이냐에 대한 얘기를 해야 하지 않을까.오 보험료 인상과 더불어 소득대체율을 인상하면 보험료 인상의 효과가 상쇄된다. 미래세대의 부담을 덜어주지 못한다는 얘기다. 그 세대의 부담으로 귀결되는 혜택이 노동시장 중심부에 집중되는 문제를 풀지는 못한다. 국고지원을 적극 얘기하고 있다. 앞서 말했듯 저도 반대하지 않는다. 그런데 입장을 명확하게 하기 위해 이렇게 나눠서 얘기했으면 좋겠다. 국민연금 부족액을 위한 국고지원 크레딧 제도와 보험료 지원사업을 위한 국고지원으로 말이다.국고를 투입하더라도 무엇에 우선적으로 지원할 것이냐에 대한 얘기인 것 같다.주 뭘 먼저 하고 뭘 나중에 한다는 식으로 접근할 문제는 아니라고 본다. 우리나라 국민연금 보장 수준은 그냥 무슨 짓이든 다 해야 하는 수준이다. 소득대체율 인상과 가입기간을 늘려주는 조치가 같이 가야 하는 것이지 우선을 따질 일이 아니라고 본다. 크레딧 제도는 군복무 출산 등 사회적 공헌을 한 이들에게 가입기간을 늘려주는 것이다. 소득대체율은 급여산식을 바꿔서 적용하는 폭넓은 조치인 반면 크레딧 제도는 일정한 공헌을 한 사람을 타켓팅한 제도다. 그리고 질병이나 장애 등 여러 사정으로 인해 사회적 공헌을 못 하는 이들도 많다. 두 기제는 대체 가능한 것이 아니다. 아울러 취약계층 보험료 지원사업은 당연히 해야 하는 것이다. 그런 과제를 뒤로 미루자는 얘기가 아니다. 오히려 소득대체율 인상과 결합할 때 이런 조치의 보장성 강화 효과는 더 커진다. 또 중심부 노동자들 얘기를 하셨는데 그렇다면 그들은 은퇴 이후 소득절벽이란 위험에서 벗어나 있나. 소득대체율 인상하면 이 사람들만 혜택 봐요라고 하면서 마치 이들이 기득권을 형성하고 있는 것처럼 말하고 있다. 실질적으로는 별 기득권도 없는데. 퇴직연금은 연금으로서 역할을 할 수 있나오 중간계층 중산층의 연금액도 충분치 않은 것은 사실이다. 그런데 결국은 한정된 자원의 배분 문제 아닌가. 우선순위로 무엇을 둘 것인가의 문제라고 생각한다. 소득대체 인상도 미래세대 부담이 될 재원 문제 때문에 다른 대안을 찾자는 것이다. 가입기간이 짧은 불안정 노동자 저소득층에게 가입기간을 늘려주는 조치 크레딧 제도를 의미. 가입기간을 1년 늘려줄 때 소득대체율 1씩 늘어난다편집자 주를 통해 그들의 실질적인 소득대체율을 올려줄 수 있다고 본다. 중상위 계층에게도 소득대체율 인상 대신 다른 대안이 있다. 기업이 매년 임금의 8.34씩을 퇴직금으로 쌓아두고 있다. 지난해 한해간 쌓인 퇴직금 적립액이 그해 국민연금 보험료 총액을 넘어섰다. 든든한 연금으로 기능케 할 잠재력이 퇴직금에 충분히 있다는 뜻이다.주 현 제도는 퇴직급여 제도이고 퇴직금과 퇴직연금 중 선택할 수 있게 돼 있다. 퇴직연금 가입률은 가입대상 노동자의 절반을 약간 넘는다. 퇴직연금은 금융시장을 통해 돌아가는 사적연금으로 재분배 기능이 없고 유족급여 장애급여도 없다. 국민연금처럼 죽을 때까지 물가연동으로 실질가치를 보장해주는 그런 질 좋은 연금이 아니다. 퇴직연금에 대해 제대로 된 노후소득보장 기능을 기대하기는 힘들다.오 퇴직연금은 사적연금인 건 맞다. 여러 한계가 있지만 그럼에도 사용자가 전액 기여 매해 각 노동자의 임금 8.34를 적립하는 제도다. 저는 두 가지의 정책 과제를 더하면 퇴직연금도 중상위층이 기댈만한 연금이 될 수 있다고 본다. 한가지는 1년 미만 고용된 노동자에게도 퇴직금 제도를 적용하는 것 또 다른 과제는 비자발적 실업기간에도 실업급여를 보장해줘 퇴직금의 중간해지를 엄격히 규제하는 것이다. 네덜란드나 덴마크 등에선 퇴직연금이 노후소득원의 한 축으로 작동한다.주 네덜란드 덴마크는 산별협약에 의해 작동하는 퇴직연금으로 성격이 다르다. 한국에는 그런 기반이 없다. 퇴직금을 제대로 된 연금으로 작동하도록 제도를 개혁하는 데 시간이 매우 많이 걸릴 것이다. 가능할지도 불확실하다.오 국민연금 소득대체율을 인상해도 효과가 나타나려면 지금부터 20년 있어야 한다. 20년이면 퇴직연금의 개혁도 할 수 있는 시간이다. 다층연금체계로 노후소득보장 효과를 충분히 볼 수 있다고 본다. 중상위계층에겐 국민연금퇴직연금 중간계층은 국민연금 하위계층에겐 국민연금기초연금의 체계가 적용되게끔 하자는 것이다.주 공적 노후보장제도에 대해 이렇게 계층별로 나눠서 접근하는 것은 맞지 않다. 우리는 국민연금 보험료를 냄으로써 미래의 연금 청구권을 쌓아간다. 기여를 했으니 나중에 생산되는 부의 일정한 몫을 받아갈 권리가 생긴다는 얘기다. 그런데 기초연금은 그런 제도가 아니다. 국민연금의 역할과 사회 상황에 따라 앞으로 어떻게 변해갈지 모르는 제도이다 이것을 미래 노후소득보장 한축으로 확정적으로 얘기하는 것은 맞지 않다. 국민연금에 10년 납입해서 받는 연금액은 기초연금을 합쳐도 기초생활보장제도의 내년 생계급여 71만원에 미치지 못한다. 기초연금이나 국민기초생활보장급여를 통해 보장받는 최저수준보다 국민연금 보장수준이 훨씬 높아야만 공적연금이 제대로 돌아간다.각자가 생각하는 개혁안은. 간단히 말해서 얼마의 보험료와 소득대체율이 적절하다고 보나.오 지난 9월 1일 재정계산위원회가 제시한 안을 기본축으로 해서 사회적 논의가 이뤄졌으면 좋겠다. 앞으로 10년 동안 매해 보험료율을 0.6포인트씩 올려 15에 도달케 하자는 방안이다. 여기에 연금수급개시 연령을 2048년에 최장 68세까지 상향하는 안과 기금수익률을 높이는 안을 조합했다.주 2007년 소득대체율을 50에서 40로 떨어뜨리는 제도 변화가 있었다. 이것을 50로 다시 회복시켜야 한다. 보험료율은 13 선을 생각했다. 그러나 어느 정도의 속도로 그 선에 도달하느냐는 열어놓고 생각해볼 필요가 있다. 재정계산위 사퇴 뒤 우리의 비전을 보여주는 대안보고서를 준비 중이다 지난 8월 31일 주은선 교수와 남찬섭 동아대 사회복지학과 교수는 복지부 산하 재정계산위원회가 소득대체율 인상론을 제대로 다루지 않는다는 이유로 재정계산위의 민간위원직을 사퇴한 바 있다. 재정계산위는 국민연금의 장기적인 수입지출 기금 규모를 계산해 정부에 보험료연금액 조정안을 제안하기로 한 보건복지부 산하 민관 합동위원회다. 두 교수는 재정계산위와 별도로 대안 보고서를 준비 중이다.편집자 주.좋은 연금개혁을 위한 조건이 있다면.오 정치권에는 연금이 부담스러운 주제일 것이다. 하지만 책임 있는 정치를 하겠다고 한다면 자기의 안을 제시해야 한다고 본다. 이 중요한 의제에 대해 논의가 시작됐음에도 아직 안이 없는 것으로 안다. 게다가 국회 연금특위를 내년 5월까지 연장한다고 한다. 총선 전에 연금개혁에 대한 입장을 안 낼 수도 있다는 메시지로 읽힌다. 미래를 좌우할 정책에 대해 안을 내고 국민에게 선택을 받는 것이 선거에 임하는 정당의 책임 있는 자세 아닐까.주 연금개혁은 정부가 중심이 되어 끌어갈 수도 있고 정당이 사회적 합의를 이끌어갈 수도 있다. 어떤 방식이 됐든 책임을 더 많이 져야 하는 주체들에게 의견을 묻고 제대로 책임을 부여하는 쪽으로 나아가야 한다고 생각한다.</t>
-  </si>
-  <si>
-    <t>['퇴직금 제도', '퇴직연금 제도 도입', '퇴직연금 은퇴설계', '퇴직연금 규모', '하나 퇴직연금', '퇴직연금 수익률', '퇴직연금 가입']</t>
-  </si>
-  <si>
-    <t>[{'퇴직금 제도': 17}, {'퇴직연금 제도 도입': 2}, {'퇴직연금 은퇴설계': 1}, {'퇴직연금 규모': 3}, {'하나 퇴직연금': 2}, {'퇴직연금 수익률': 3}, {'퇴직연금 가입': 2}]</t>
-  </si>
-  <si>
-    <t>국회 연금개혁특별위원회가 활동기한을 연장하여 국민연금 개혁이 미뤄질 조짐이 보여짐</t>
-  </si>
-  <si>
-    <t>국민연금 가입기간이 긴 노동시장 중심부의 노동자들이 대체율 인상의 혜택을 가장 크게 받을 것이라는 언급이 있음</t>
-  </si>
-  <si>
-    <t>미래세대가 GDP 9 지출을 감당할 수 있도록 도움이 필요하다는 언급이 있음</t>
-  </si>
-  <si>
-    <t>본문에는 법률 및 규제 변경에 대한 내용이 없음</t>
-  </si>
-  <si>
-    <t>가입기간이 짧은 불안정 노동자 저소득층에게 가입기간을 늘려주는 조치 크레딧 제도를 언급하여 노동자들의 노후소득에 대한 영향을 다룸</t>
-  </si>
-  <si>
-    <t>본문에는 기술과 디지털화에 대한 내용이 없음</t>
-  </si>
-  <si>
-    <t>본문에는 소비 행동 및 요구사항에 대한 내용이 없음</t>
-  </si>
-  <si>
-    <t>예금자보호한도 현행 유지될듯…금융위 시장상황 등 종합 고려</t>
-  </si>
-  <si>
-    <t>국회에 예보 제도 개선안 보고상향 논의 향후 검토한도 상향 시 저축은행으로 자금 이동일부 소형사 충격 가능성</t>
-  </si>
-  <si>
-    <t>https://n.news.naver.com/mnews/article/001/0014249167?sid=101</t>
-  </si>
-  <si>
-    <t>국회에 예보 제도 개선안 보고상향 논의 향후 검토한도 상향 시 저축은행으로 자금 이동일부 소형사 충격 가능성  서울연합뉴스 임수정 기자 올해 미국 실리콘밸리은행 SVB 사태 이후 예금자보호한도를 1억원으로 높여야 한다는 논의가 탄력을 받았지만 결국 현행 5천만원으로 유지될 전망이다. 금융당국은 최근 국회 보고에서 예금자보호한도 상향과 관련해 향후 검토가 필요한 사안이라며 논의 시점을 뒤로 미뤘다. 9일 국회 정무위원회 소속 김희곤 의원실에 따르면 금융위원회는 지난 5일 정무위에 보고한 예금보험제도 개선 검토안에서 향후 찬반 논의 시장 상황 등을 종합 고려해 상향 여부 등을 검토할 필요가 있다고 밝혔다. 당장 급하게 추진할 사안이 아니라는 취지로 해석된다. 보호 한도를 높여 금융 제도 신뢰를 강화해야 한다는 의견도 있지만 2금융권으로의 자금 쏠림이나 예보료 인상에 따른 소비자 부담 증가를 우려하는 목소리도 함께 고려한 것으로 보인다. 이는 금융위가 작년 3월부터 예보 금융업권 민간 전문가 등으로 구성된 민관 합동 태스크포스 TF를 통해 예금보험제도 전반을 논의한 결과다.  금융위가 공개한 연구 용역 결과에 따르면 보호 한도를 1억원으로 상향 시 은행에서 저축은행으로 자금 이동이 나타나고 이로 인해 저축은행 예금은 1625가량이 증가할 것으로 추산됐다.  이동 자금은 은행 예금의 1 수준으로 전체 시장 영향은 크지 않을 수 있지만 저축은행 업권 내 과도한 수신 경쟁이 벌어질 경우 일부 소형사에는 충격이 될 수 있다는 내용도 포함됐다. 한도 상향 시 보호 한도 내 예금자 비율은 98.1에서 99.3로 1.2포인트 p 증가하는 데 그치는 등 실익도 그리 크지 않은 것으로 나타났다.  다만 예금을 분산 예치하고 있는 금융소비자의 편의를 제고하는 효과는 있다고 분석됐다. 6차에 걸친 민관 합동 TF 회의 주요 논의 사항도 공개됐다.  금융업권은 현재도 예금자 대부분이 보호되고 있어 한도 상향의 소비자 보호 강화 효과는 크지 않으면서 업권 부담은 늘어날 우려가 있다는 의견을 주로 개진한 것으로 나타났다. 아울러 연금저축 사고보험금 등에 대한 별도 한도 적용을 추진 중이기 때문에 제도 개선의 효과를 지켜본 뒤 전체 한도 조정을 검토할 필요가 있다고 주장했다. 민간 전문가들 사이에서는 금융소비자 신뢰 제고 등 측면에서 한도 상향을 고려할 필요가 있다는 의견이 나왔다.  다만 최근 미국 사례 등을 보면 한도를 높여도 뱅크런 방지 효과가 제한적일 수 있기 때문에 위기 시에는 한도 상향보다는 전액 보호 조치가 필요할 수 있다는 주장도 나왔다. 결국 금융위는 이러한 다양한 찬반 논의가 이어지는 데다가 시장 불안도 가라앉지 않은 상황을 종합 고려해 신중론을 고수한 것으로 보인다. 또한 보호 한도가 5천만원으로 유지되더라도 사회보장적 상품 등에 대한 별도 한도 적용은 지속적으로 확대되는 추세다.  금융위는 2015년부터 확정기여형 DC형 및 개인형 IRP 퇴직연금의 예금에 대해 일반 예금과 별도로 5천만원의 보호 한도를 적용해왔으며 연금저축 신탁보험 사고보험금 중소기업퇴직연금기금 등에 대한 별도 보호도 시행을 앞두고 있다. 다만 국회 논의 과정이 변수가 될 수 있다. 정치권에서는 예금자 보호 한도가 2001년 이후 23년째 5천만원에 머물러 있어 경제 규모에 맞게 현실화해야 한다는 의견이 우세하다.  sj9974yna.co.kr</t>
-  </si>
-  <si>
-    <t>['확정기여형', '퇴직연금 저축은행', '퇴직연금 예금']</t>
-  </si>
-  <si>
-    <t>[{'확정기여형': 2}, {'퇴직연금 저축은행': 10}, {'퇴직연금 예금': 37}]</t>
-  </si>
-  <si>
-    <t>금융위원회는 예금보험제도 개선 검토안에서 향후 찬반 논의 시장 상황 등을 종합 고려해 상향 여부 등을 검토할 필요가 있다고 밝혔다.</t>
-  </si>
-  <si>
-    <t>한도 상향 시 저축은행 업권 내 과도한 수신 경쟁이 벌어질 경우 일부 소형사에는 충격이 될 수 있다는 내용도 포함됐다.</t>
-  </si>
-  <si>
-    <t>금융소비자의 편의를 제고하는 효과는 있다고 분석됐다.</t>
-  </si>
-  <si>
-    <t>“연금 수령액 늘릴 재원 불투명” vs “노후소득 보장이 본래의 목적”[인사...</t>
-  </si>
-  <si>
-    <t>국민연금의 소득대체율을 현행 40에서 50으로 인상해야 노후 최소 생활비를 보장할 수 있다. 청년세대의 형평성을 제고하기 위해서도 소득대체율을 인상해야 한다. 국민연금으로는 5년 후에도 그리고 10년 후에도 노인 빈곤을 해소하지 못하게 될 것이다.</t>
-  </si>
-  <si>
-    <t>https://n.news.naver.com/mnews/article/020/0003524381?sid=110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1988년생 국민연금이 올해로 서른다섯 살이다. 지난달 적립금은 1000조 원을 넘었다. 하지만 2055년에는 지갑이 텅 빌 것으로 전망된다. 보험료를 낼 청년과 장년이 줄고 연금을 받을 노인은 늘고 있다. 연금이 제 기능을 하려면 내는 돈 보험료율 인상을 포함한 대수술이 불가피하다. 그런데 받는 돈 소득대체율을 두고는 의견이 갈린다. 재정 안정을 위해 현행 40를 유지해야 한다는 주장과 노후소득 보장을 위해 4550로 올려야 한다는 주장이 맞선다. 정부 자문기구인 국민연금 재정계산위원회도 둘로 쪼개졌다. 동아일보는 소득대체율에 대해 정반대 견해를 지닌 두 학자의 글을 싣는다. 소득대체율 인상 반대오건호 내가 만드는 복지국가 정책위원장연금 개혁에서 보장성 강화는 중요한 과제다. 그 방안의 하나로 국민연금 명목 소득대체율 인상이 주장된다. 나는 이 방안이 우리나라 연금체계에서 적절하지 않다고 판단한다. 추가 재원이 수반되면서도 빈곤 노인에게 효과가 크지 않고 보장성의 시야를 협소하게 가두기 때문이다. 첫째 소득대체율을 올려도 소득이 적고 가입 기간이 짧은 불안정 취업자에게 연금액 인상 효과는 약하다. 국민연금의 급여액은 노동시장의 지위를 반영해 소득이 높고 가입 기간이 길수록 많으므로 소득대체율을 40에서 50로 올려도 정작 노인 빈곤 위험이 큰 가입자의 인상액은 그리 많지 않다. 노인 빈곤이 심하니 소득대체율을 올려야 한다는 주장이 설득력이 약한 이유이다. 둘째 경제협력개발기구 OECD 연금보고서에 한국 공적연금의 소득대체율이 회원국 평균보다 낮게 제시된 것을 인용하는데 이것이 국민연금 명목 소득대체율과 같은 개념은 아니다. OECD의 소득대체율은 국민연금의 지급률 1년 가입당 소득대체율에 의무가입기간 기초연금을 종합해 산정된다. 무엇이 한국 공적연금의 소득대체율을 낮게 만들었을까. 우선 국민연금 급여는 회원국 대다수 소득비례 연금과 달리 하후상박 구조를 지닌다. OECD 연금 산식에서 평균소득이 국민연금 내부에서는 가입자 평균 소득의 1.6배에 해당하기에 상대적으로 낮은 지급률이 적용되는 중상위 소득 가입자가 국민연금을 대표하고 있다. 또한 국민연금은 의무가입 기간이 OECD 평균보다 6.1년이 짧아 OECD 산식에서 그만큼 소득대체율이 낮게 계산된다. 노인 70가 받는 기초연금이 한국 소득대체율 산정에서 제외된 것도 유념할 이유이다. 국민연금의 하후상박 구조는 그대로 유지한다면 필요한 건 의무가입 연령을 올리고 한국 소득대체율 산정에 기초연금을 포함하도록 OECD와 협의하는 일이다. 셋째 소득대체율 인상론의 재정 안정화 방안이 불명확하다. 국민연금을 장기 추계하면 미래에 당해 수지 적자가 국내총생산 GDP의 7에 이르고 소득대체율을 50로 올리면 9로 커진다. 인상론은 보험료 외에 자본과 이윤에 세금을 더 부과하고 보험료 부과 대상도 확대하자고 제안한다. 현행 소득대체율에서도 다양한 재원을 마련해야 하기에 이는 어떤 입장에서든 필요한 일이다. 그런데 내용이 당위적 방향에 머문다. 구체적으로 어디에서 얼마를 더 거두어 재정 부족분의 얼마를 충당하는지를 제시해야 재정 안정화 방안이다. 보장성 확대를 반대하는 게 아니다. 시야를 국민연금 명목 소득대체율에 한정하지 말자는 비판이다. 이미 법정 의무 제도로 기초연금 국민연금 퇴직연금이 운영되고 있다. 이 현실을 직시해야 노후소득 보장을 위한 실질적 계획도 세울 수 있다. 우선 기초연금은 2022년 급여 지출액이 20조 원으로 국민연금 34조 원의 절반을 넘는 제도로 성장했다. 앞으로 노인 수가 대폭 늘어나므로 대상은 줄이되 저소득일수록 금액을 더 지급하는 최저보장 소득 방식으로 전환해 노인 빈곤에 대응하자. 국민연금은 지속가능성을 위해 단계적으로 보험료율을 올려가자. 보장성에서는 가입 기간을 늘리는 게 과제다. 출산 실업 군 복무 등으로 연금 가입이 불리한 사람들에게 연금 크레디트를 대폭 확대하고 도시의 지역 가입자에게 국가가 보험료를 절반 지원해 가입을 독려하자. 현재 만 59세인 의무가입 연령도 64세로 상향하면 명목 소득대체율 5포인트 인상 효과가 생긴다. 퇴직연금은 지난해 기업이 납부한 기여금 총액이 57조 원이었다. 국민연금 보험료 수입 56조 원보다 많다. 이제부터 1년 미만 고용 노동자에게도 적용하고 중간 해지를 엄격히 관리해 연금으로 자리 잡게 하자. 시야를 기초연금 국민연금 퇴직연금의 연금 삼총사로 확장하자. 그래야 적정 노후소득 보장을 설계하고 지속가능성도 확보하며 청년들과 연금 개혁 비전을 이야기할 수 있다. 소득대체율 인상 찬성지난달 1일 국민연금 제도개선 방향에 관한 공청회에서 국민연금 재정계산위원회는 이른바 더 내고 더 늦게 받고 그대로 받는 연금개혁안을 제안했다. 당연히 반발이 나왔고 그에 대해 정부는 소득대체율을 올리는 방안도 고려할 것이라고 했다. 국민연금 소득대체율을 올려야 하는 이유는 많다. 첫째 모든 제도는 그것의 본래 목적을 달성할 수 있어야 지속 가능하다. 국민연금도 신뢰를 얻고 지속 가능하려면 본래 목적인 노후소득 보장을 실현해야 한다. 국민연금은 그간의 개혁으로 소득대체율을 너무 급격히 인하한 관계로 급여 수준이 매우 낮아지게 됐다. 우선 국제 기준으로도 낮다. 소득대체율이 현 상태를 유지하면 국민연금 소득대체율은 경제협력개발기구 OECD 기준으로 31.2가 되는데 이는 OECD 평균 42.2의 74 수준에 불과한 것이다. 그런데 여기서 주의할 것은 이 31.2라는 소득대체율은 가입 기간을 38년으로 즉 최대 가입 기간으로 가정했을 때의 수치라는 점이다. 이번 재정계산에 따르면 국민연금 실제 가입 기간은 2030년부터 새로 국민연금을 받는 수급자의 경우 20년 2060년대 이후 신규 수급자는 27년 정도일 것으로 각각 전망됐다. 따라서 실가입 기간을 27년으로 가정하면 소득대체율은 31.2가 아니라 22가 된다. 이러니 실가입 기간을 반영한 국민연금의 급여 수준은 노후 최소 생활비 월 113만 원의 60 정도에 불과하고 여기에 기초연금을 합해도 80 정도에 그친다. 따라서 기초연금을 합해 국민연금이 적어도 노후 최소 생활비만큼을 보장하기 위해서는 소득대체율을 현행 40에서 50로 인상해야 한다. 둘째 소득대체율 인상은 청년세대의 형평성 제고에 기여한다. 현 청년세대는 대략 2050년대 이후 연금을 받게 되는데 이들의 실가입 기간은 지금보다 58년이 더 길지만 급여 수준은 오히려 더 낮아지거나 별 변동이 없다. 우리는 흔히 청년을 비롯한 후세대가 보험료 부담으로 불공평을 경험한다는 이야기를 많이 하지만 노후소득 보장이 국민연금의 본래 목적임을 감안한다면 지금보다 더 오래 가입하고도 급여는 더 적게 받는 문제가 더 심각한 사안이라 할 수 있다. 셋째 일각에서는 국민연금의 소득대체율 인상은 현세대 노인 빈곤에는 효과가 없다고 말한다. 하지만 소득대체율을 2025년에 인상한다고 가정하면 그해에 연금을 신규 수급하는 사람은 그 인상분을 거의 못 받지만 2026년 신규 수급자는 1년분의 인상분을 받는다. 따라서 2030년 정도 이후 신규 수급자는 5년치 이상의 인상분을 받으므로 제법 인상 효과를 볼 수 있다. 국민연금 급여 인상이 당장 노인 빈곤에 효과가 없다고 소득대체율을 계속 올리지 않으면 국민연금으로는 5년 후에도 그리고 10년 후에도 노인 빈곤을 해소하지 못하게 될 것이다. 빈곤은 생각보다 복잡한 사안이어서 1년 혹은 2년 내 해결이 어렵다. 지금 당장 노인 빈곤에 효과가 없다고 국민연금 급여를 인상하지 않는 것은 실제로는 510년의 기간을 두고 해결해야 할 노인 빈곤에 접근하는 방책으로는 비효율적이다. 넷째 일각에서는 크레디트나 보험료 지원 강화로 가입 기간을 늘려 이른바 실질 소득대체율을 올리면 된다고 말한다. 하지만 크레디트나 보험료 지원 강화로는 가입 기간을 제도적 상한 이상으로 늘릴 수 없다. 즉 OECD의 계산에서 가정된 최대 가입 기간 38년을 넘지 못한다. 따라서 이미 최대 가입 기간인 38년을 가정해 계산된 31.2를 넘지 못하게 되는 것이다. 이른바 실질 소득대체율은 법정 소득대체율 인상 자체를 대체할 수 없다. 우리 사회는 빠른 고령화로 2060년대 이후는 65세 이상 인구가 전체 인구의 절반에 가까운 45 이상이 되리라 전망된다. 이럴수록 이들에게 안정적인 소득을 보장하고 이들의 소비가 청장년 세대와 선순환할 수 있는 경제구조를 만들어야 하며 여기에 국민연금은 노후 소득 보장의 확보로 기여해야 할 것이다. 소득대체율국민연금 가입자의 은퇴 전 평균소득과 비교했을 때 노후연금 수령액이 차지하는 비중. 60세까지 월 평균소득이 100만 원이고 65세 이후 국민연금으로 40만 원을 받으면 소득대체율은 40.보험료율 소득 대비 국민연금 보험료를 부과하는 비율. 1999년부터 현재까지 소득의 9로 동결. 직장가입자는 9에 해당하는 금액을 본인과 회사가 각각 절반 4.5씩 부담. 지역가입자는 본인 전액 부담. </t>
-  </si>
-  <si>
-    <t>['퇴직연금 적립금', '퇴직연금 은퇴설계', '하나 퇴직연금', '퇴직연금 가입']</t>
-  </si>
-  <si>
-    <t>[{'퇴직연금 적립금': 1}, {'퇴직연금 은퇴설계': 1}, {'하나 퇴직연금': 2}, {'퇴직연금 가입': 3}]</t>
-  </si>
-  <si>
-    <t>국민연금의 소득대체율을 인상해야 노후 최소 생활비를 보장할 수 있으므로 3점을 줍니다.</t>
-  </si>
-  <si>
-    <t>이 기사에는 산업 경쟁 동향에 대한 내용이 없으므로 0점을 줍니다.</t>
-  </si>
-  <si>
-    <t>이 기사에는 금융 시장의 영향에 대한 내용이 없으므로 0점을 줍니다.</t>
-  </si>
-  <si>
-    <t>이 기사에는 법적 및 규제 변화에 대한 내용이 없으므로 0점을 줍니다.</t>
-  </si>
-  <si>
-    <t>이 기사는 국민연금과 노후 지속 가능성에 관한 내용을 다루고 있으므로 2점을 줍니다.</t>
-  </si>
-  <si>
-    <t>이 기사에는 기술과 디지털화에 관한 내용이 없으므로 0점을 줍니다.</t>
-  </si>
-  <si>
-    <t>이 기사에는 소비 행태 및 요구사항에 관한 내용이 없으므로 0점을 줍니다.</t>
-  </si>
-  <si>
-    <t>23년째 ‘5000만원’ 예금자보호한도···이번에도 현행 유지될 듯</t>
-  </si>
-  <si>
-    <t>올해 미국 실리콘밸리은행 SVB 사태 이후 예금자보호한도를 1억원으로 높여야 한다는 논의가 나왔지만 현행 5000만원으로 유지될 전망이다. 금융당국은 최근 국회에 예금자보호한도 상향과 관련해 향후 검토가 필요한 사안이라고 보고한 것으로 알려졌다.</t>
-  </si>
-  <si>
-    <t>https://n.news.naver.com/mnews/article/016/0002207232?sid=101</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 올해 미국 실리콘밸리은행 SVB 사태 이후 예금자보호한도를 1억원으로 높여야 한다는 논의가 나왔지만 현행 5000만원으로 유지될 전망이다. 금융당국은 최근 국회에 예금자보호한도 상향과 관련해 향후 검토가 필요한 사안이라고 보고한 것으로 알려졌다.9일 국회 정무위원회 소속 김희곤 의원실에 따르면 금융위원회는 지난 5일 정무위에 보고한 예금보험제도 개선 검토안에서 향후 찬반 논의 시장 상황 등을 종합 고려해 상향 여부 등을 검토할 필요가 있다고 밝혔다.당장 급하게 추진할 사안이 아니라는 취지로 해석된다. 보호 한도를 높여 금융 제도 신뢰를 강화해야 한다는 의견도 있지만 2금융권으로의 자금 쏠림이나 예보료 인상에 따른 소비자 부담 증가를 우려하는 지적도 함께 고려한 것으로 보인다.이는 금융위가 작년 3월부터 예보 금융업권 민간 전문가 등으로 구성된 민관 합동 태스크포스 TF를 통해 예금보험제도 전반을 논의한 결과다. 금융위가 공개한 연구 용역 결과에 따르면 보호 한도를 1억원으로 상향 시 은행에서 저축은행으로 자금 이동이 나타나고 이로 인해 저축은행 예금은 1625가량이 증가할 것으로 추산됐다.이동 자금은 은행 예금의 1 수준으로 전체 시장 영향은 크지 않을 수 있지만 저축은행 업권 내 과도한 수신 경쟁이 벌어질 경우 일부 소형사에는 충격이 될 수 있다는 내용도 포함됐다. 한도 상향 시 보호 한도 내 예금자 비율은 98.1에서 99.3로 1.2포인트 증가하는 데 그치는 등 실익도 그리 크지 않은 것으로 나타났다.다만 예금을 분산 예치하고 있는 금융소비자의 편의를 제고하는 효과는 있다고 분석됐다.6차에 걸친 민관 합동 TF 회의 주요 논의 사항도 공개됐다. 금융업권은 현재도 예금자 대부분이 보호되고 있어 한도 상향의 소비자 보호 강화 효과는 크지 않으면서 업권 부담은 늘어날 우려가 있다는 의견을 주로 개진한 것으로 나타났다.이와 함께 연금저축 사고보험금 등에 대한 별도 한도 적용을 추진 중이기 때문에 제도 개선의 효과를 지켜본 뒤 전체 한도 조정을 검토할 필요가 있다고 주장했다.민간 전문가들 사이에서는 금융소비자 신뢰 제고 등 측면에서 한도 상향을 고려할 필요가 있다는 의견이 나왔다.다만 최근 미국 사례 등을 보면 한도를 높여도 뱅크런 방지 효과가 제한적일 수 있기 때문에 위기 시에는 한도 상향보다는 전액 보호 조치가 필요할 수 있다는 주장도 나왔다.결국 금융위는 이러한 다양한 찬반 논의가 이어지는 데다가 시장 불안도 가라앉지 않은 상황을 종합 고려해 신중론을 고수한 것으로 보인다.또한 보호 한도가 5000만원으로 유지되더라도 사회보장적 상품 등에 대한 별도 한도 적용은 지속적으로 확대되는 추세다.금융위는 2015년부터 확정기여형 DC형 및 개인형 IRP 퇴직연금의 예금에 대해 일반 예금과 별도로 5000만원의 보호 한도를 적용해왔으며 연금저축 신탁보험 사고보험금 중소기업퇴직연금기금 등에 대한 별도 보호도 시행을 앞두고 있다.다만 국회 논의 과정이 변수가 될 수 있다. 정치권에서는 예금자 보호 한도가 2001년 이후 23년째 5000만원에 머물러 있어 경제 규모에 맞게 현실화해야 한다는 의견이 우세한 상황이다.</t>
-  </si>
-  <si>
-    <t>[{'확정기여형': 6}, {'퇴직연금 저축은행': 39}]</t>
-  </si>
-  <si>
-    <t>한도 상향 시 은행에서 저축은행으로 자금 이동이 나타나고 이로 인해 저축은행 예금은 1625가량이 증가할 것으로 추산됐다.</t>
   </si>
 </sst>
 </file>
@@ -3331,18 +3019,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X83"/>
+  <dimension ref="A1:X74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="46" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="9" max="9" width="49.25" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="4" max="4" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
@@ -3498,7 +3185,7 @@
         <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
@@ -3537,7 +3224,7 @@
         <v>48</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P3" t="s">
         <v>49</v>
@@ -3549,7 +3236,7 @@
         <v>50</v>
       </c>
       <c r="S3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T3" t="s">
         <v>51</v>
@@ -3575,70 +3262,70 @@
         <v>40</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" t="s">
         <v>55</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
         <v>56</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>57</v>
       </c>
-      <c r="F4">
-        <v>7</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>58</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>59</v>
-      </c>
-      <c r="I4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J4" t="s">
-        <v>61</v>
       </c>
       <c r="K4">
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M4">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O4">
         <v>1</v>
       </c>
       <c r="P4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4" t="s">
+        <v>63</v>
+      </c>
+      <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="T4" t="s">
         <v>64</v>
       </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4" t="s">
         <v>65</v>
       </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4" t="s">
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4" t="s">
         <v>66</v>
-      </c>
-      <c r="U4">
-        <v>1</v>
-      </c>
-      <c r="V4" t="s">
-        <v>67</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
@@ -3649,7 +3336,7 @@
         <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
         <v>69</v>
@@ -3658,7 +3345,7 @@
         <v>70</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G5" t="s">
         <v>71</v>
@@ -3673,19 +3360,19 @@
         <v>74</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5" t="s">
         <v>75</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N5" t="s">
         <v>76</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="s">
         <v>77</v>
@@ -3697,13 +3384,13 @@
         <v>78</v>
       </c>
       <c r="S5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T5" t="s">
         <v>79</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" t="s">
         <v>80</v>
@@ -3720,7 +3407,7 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
         <v>26</v>
@@ -3747,7 +3434,7 @@
         <v>87</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6" t="s">
         <v>88</v>
@@ -3765,13 +3452,13 @@
         <v>90</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R6" t="s">
         <v>91</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T6" t="s">
         <v>92</v>
@@ -3797,7 +3484,7 @@
         <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>95</v>
@@ -3815,52 +3502,52 @@
         <v>98</v>
       </c>
       <c r="I7" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="J7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K7">
         <v>3</v>
       </c>
       <c r="L7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>102</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q7">
         <v>2</v>
       </c>
-      <c r="N7" t="s">
-        <v>101</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
       <c r="R7" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
@@ -3871,70 +3558,70 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E8" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F8">
         <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H8" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I8" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="J8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K8">
         <v>3</v>
       </c>
       <c r="L8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M8">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O8">
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
@@ -3963,52 +3650,52 @@
         <v>121</v>
       </c>
       <c r="I9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" t="s">
         <v>122</v>
-      </c>
-      <c r="J9" t="s">
-        <v>123</v>
       </c>
       <c r="K9">
         <v>3</v>
       </c>
       <c r="L9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M9">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O9">
         <v>1</v>
       </c>
       <c r="P9" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9" t="s">
         <v>126</v>
       </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9" t="s">
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9" t="s">
         <v>127</v>
       </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9" t="s">
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9" t="s">
         <v>128</v>
       </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9" t="s">
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9" t="s">
         <v>129</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
@@ -4016,55 +3703,55 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" t="s">
         <v>131</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>132</v>
-      </c>
-      <c r="E10" t="s">
-        <v>133</v>
       </c>
       <c r="F10">
         <v>6</v>
       </c>
       <c r="G10" t="s">
+        <v>133</v>
+      </c>
+      <c r="H10" t="s">
         <v>134</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>135</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>136</v>
-      </c>
-      <c r="J10" t="s">
-        <v>137</v>
       </c>
       <c r="K10">
         <v>3</v>
       </c>
       <c r="L10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M10">
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O10">
         <v>1</v>
       </c>
       <c r="P10" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10" t="s">
         <v>140</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10" t="s">
-        <v>141</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -4076,13 +3763,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
@@ -4090,140 +3777,140 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F11">
         <v>6</v>
       </c>
       <c r="G11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K11">
         <v>3</v>
       </c>
       <c r="L11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M11">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O11">
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
+      <c r="R11" t="s">
+        <v>154</v>
+      </c>
       <c r="S11">
         <v>0</v>
       </c>
+      <c r="T11" t="s">
+        <v>154</v>
+      </c>
       <c r="U11">
         <v>0</v>
       </c>
+      <c r="V11" t="s">
+        <v>154</v>
+      </c>
       <c r="W11">
         <v>0</v>
+      </c>
+      <c r="X11" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="D12" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E12" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F12">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H12" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I12" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="J12" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K12">
         <v>3</v>
       </c>
       <c r="L12" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M12">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O12">
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q12">
-        <v>2</v>
-      </c>
-      <c r="R12" t="s">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>4</v>
-      </c>
-      <c r="T12" t="s">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="U12">
         <v>0</v>
       </c>
-      <c r="V12" t="s">
-        <v>164</v>
-      </c>
       <c r="W12">
-        <v>3</v>
-      </c>
-      <c r="X12" t="s">
-        <v>165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -4297,7 +3984,7 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -4371,10 +4058,10 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
@@ -4386,7 +4073,7 @@
         <v>192</v>
       </c>
       <c r="F15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G15" t="s">
         <v>193</v>
@@ -4395,60 +4082,60 @@
         <v>194</v>
       </c>
       <c r="I15" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="J15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K15">
         <v>3</v>
       </c>
       <c r="L15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M15">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="S15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="U15">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
         <v>26</v>
@@ -4460,7 +4147,7 @@
         <v>201</v>
       </c>
       <c r="F16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G16" t="s">
         <v>202</v>
@@ -4481,13 +4168,13 @@
         <v>206</v>
       </c>
       <c r="M16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N16" t="s">
         <v>207</v>
       </c>
       <c r="O16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P16" t="s">
         <v>208</v>
@@ -4496,258 +4183,246 @@
         <v>0</v>
       </c>
       <c r="R16" t="s">
-        <v>141</v>
+        <v>209</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T16" t="s">
-        <v>141</v>
+        <v>210</v>
       </c>
       <c r="U16">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>141</v>
+        <v>211</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16" t="s">
-        <v>141</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E17" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G17" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="H17" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="I17" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="J17" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="K17">
         <v>3</v>
       </c>
       <c r="L17" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="O17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P17" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="S17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="U17">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>228</v>
       </c>
       <c r="D18" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="E18" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G18" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="H18" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="I18" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="J18" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="K18">
         <v>3</v>
       </c>
       <c r="L18" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="O18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="U18">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>237</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="E19" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F19">
         <v>6</v>
       </c>
       <c r="G19" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H19" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I19" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="J19" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="K19">
         <v>3</v>
       </c>
       <c r="L19" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="M19">
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="O19">
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-      <c r="R19" t="s">
-        <v>247</v>
-      </c>
       <c r="S19">
         <v>0</v>
       </c>
-      <c r="T19" t="s">
-        <v>248</v>
-      </c>
       <c r="U19">
         <v>0</v>
       </c>
-      <c r="V19" t="s">
-        <v>249</v>
-      </c>
       <c r="W19">
         <v>0</v>
-      </c>
-      <c r="X19" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="D20" t="s">
         <v>251</v>
@@ -4756,7 +4431,7 @@
         <v>252</v>
       </c>
       <c r="F20">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G20" t="s">
         <v>253</v>
@@ -4771,445 +4446,457 @@
         <v>256</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L20" t="s">
         <v>257</v>
       </c>
       <c r="M20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N20" t="s">
         <v>258</v>
       </c>
       <c r="O20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
+      <c r="R20" t="s">
+        <v>260</v>
+      </c>
       <c r="S20">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="T20" t="s">
+        <v>261</v>
       </c>
       <c r="U20">
         <v>0</v>
       </c>
+      <c r="V20" t="s">
+        <v>262</v>
+      </c>
       <c r="W20">
         <v>0</v>
+      </c>
+      <c r="X20" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B21" t="s">
-        <v>259</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>264</v>
       </c>
       <c r="D21" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="E21" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G21" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="H21" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="I21" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="J21" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L21" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
       <c r="R21" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="S21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="U21">
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>236</v>
+        <v>278</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>273</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="E22" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
+        <v>281</v>
+      </c>
+      <c r="H22" t="s">
+        <v>282</v>
+      </c>
+      <c r="I22" t="s">
+        <v>283</v>
+      </c>
+      <c r="J22" t="s">
+        <v>284</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22" t="s">
+        <v>285</v>
+      </c>
+      <c r="M22">
         <v>2</v>
       </c>
-      <c r="G22" t="s">
-        <v>276</v>
-      </c>
-      <c r="H22" t="s">
-        <v>277</v>
-      </c>
-      <c r="I22" t="s">
-        <v>278</v>
-      </c>
-      <c r="J22" t="s">
-        <v>279</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22" t="s">
-        <v>280</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
       <c r="N22" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P22" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
       <c r="R22" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="U22">
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>285</v>
+        <v>211</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22" t="s">
-        <v>286</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>290</v>
       </c>
       <c r="D23" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E23" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F23">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G23" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="H23" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="I23" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="J23" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="K23">
         <v>3</v>
       </c>
       <c r="L23" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="M23">
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="O23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
       <c r="R23" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="S23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T23" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="U23">
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>220</v>
+        <v>302</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23" t="s">
-        <v>221</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>299</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="E24" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F24">
         <v>8</v>
       </c>
       <c r="G24" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="H24" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="I24" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="J24" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="K24">
         <v>3</v>
       </c>
       <c r="L24" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="M24">
         <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="O24">
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
       <c r="R24" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="S24">
         <v>2</v>
       </c>
       <c r="T24" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="U24">
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>317</v>
       </c>
       <c r="D25" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="E25" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="F25">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G25" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="H25" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="I25" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="J25" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K25">
         <v>3</v>
       </c>
       <c r="L25" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="M25">
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="O25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q25">
         <v>0</v>
       </c>
       <c r="R25" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="S25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="U25">
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="C26" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D26" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E26" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G26" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H26" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I26" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J26" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K26">
         <v>3</v>
       </c>
       <c r="L26" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="M26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N26" t="s">
         <v>334</v>
@@ -5247,40 +4934,40 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B27" t="s">
         <v>40</v>
       </c>
       <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
         <v>336</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>337</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27" t="s">
         <v>338</v>
       </c>
-      <c r="F27">
-        <v>4</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>339</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>340</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>341</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27" t="s">
         <v>342</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27" t="s">
-        <v>333</v>
       </c>
       <c r="M27">
         <v>1</v>
@@ -5298,36 +4985,36 @@
         <v>0</v>
       </c>
       <c r="R27" t="s">
-        <v>344</v>
+        <v>78</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>344</v>
+        <v>79</v>
       </c>
       <c r="U27">
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>344</v>
+        <v>116</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27" t="s">
-        <v>344</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>317</v>
       </c>
       <c r="D28" t="s">
         <v>345</v>
@@ -5336,7 +5023,7 @@
         <v>346</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G28" t="s">
         <v>347</v>
@@ -5354,350 +5041,350 @@
         <v>2</v>
       </c>
       <c r="L28" t="s">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c r="M28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" t="s">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="O28">
         <v>0</v>
       </c>
       <c r="P28" t="s">
-        <v>353</v>
+        <v>326</v>
       </c>
       <c r="Q28">
         <v>0</v>
       </c>
       <c r="R28" t="s">
-        <v>65</v>
+        <v>326</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28" t="s">
-        <v>66</v>
+        <v>326</v>
       </c>
       <c r="U28">
         <v>0</v>
       </c>
       <c r="V28" t="s">
-        <v>103</v>
+        <v>326</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28" t="s">
-        <v>68</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>287</v>
+        <v>351</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="C29" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="D29" t="s">
+        <v>353</v>
+      </c>
+      <c r="E29" t="s">
         <v>354</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29">
+        <v>8</v>
+      </c>
+      <c r="G29" t="s">
         <v>355</v>
       </c>
-      <c r="F29">
+      <c r="H29" t="s">
+        <v>356</v>
+      </c>
+      <c r="I29" t="s">
+        <v>357</v>
+      </c>
+      <c r="J29" t="s">
+        <v>358</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29" t="s">
+        <v>359</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>360</v>
+      </c>
+      <c r="O29">
         <v>2</v>
       </c>
-      <c r="G29" t="s">
-        <v>356</v>
-      </c>
-      <c r="H29" t="s">
-        <v>357</v>
-      </c>
-      <c r="I29" t="s">
-        <v>358</v>
-      </c>
-      <c r="J29" t="s">
-        <v>359</v>
-      </c>
-      <c r="K29">
+      <c r="P29" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29" t="s">
+        <v>362</v>
+      </c>
+      <c r="S29">
         <v>2</v>
       </c>
-      <c r="L29" t="s">
-        <v>333</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29" t="s">
-        <v>335</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29" t="s">
-        <v>335</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
       <c r="T29" t="s">
-        <v>335</v>
+        <v>363</v>
       </c>
       <c r="U29">
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>335</v>
+        <v>364</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29" t="s">
-        <v>335</v>
+        <v>365</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="B30" t="s">
-        <v>259</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>361</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E30" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="F30">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G30" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="H30" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="I30" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="J30" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="K30">
         <v>3</v>
       </c>
       <c r="L30" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="M30">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>373</v>
+      </c>
+      <c r="O30">
         <v>1</v>
       </c>
-      <c r="N30" t="s">
-        <v>369</v>
-      </c>
-      <c r="O30">
-        <v>2</v>
-      </c>
       <c r="P30" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="Q30">
         <v>0</v>
       </c>
       <c r="R30" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="S30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T30" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="U30">
         <v>0</v>
       </c>
       <c r="V30" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>376</v>
       </c>
       <c r="D31" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E31" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F31">
         <v>6</v>
       </c>
       <c r="G31" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="H31" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="I31" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J31" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K31">
         <v>3</v>
       </c>
       <c r="L31" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="M31">
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="O31">
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q31">
         <v>0</v>
       </c>
       <c r="R31" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="U31">
         <v>0</v>
       </c>
       <c r="V31" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="D32" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E32" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="F32">
         <v>6</v>
       </c>
       <c r="G32" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="H32" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="I32" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="J32" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="K32">
         <v>3</v>
       </c>
       <c r="L32" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="M32">
         <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="O32">
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="Q32">
         <v>0</v>
       </c>
       <c r="R32" t="s">
-        <v>395</v>
+        <v>78</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32" t="s">
-        <v>396</v>
+        <v>79</v>
       </c>
       <c r="U32">
         <v>0</v>
       </c>
       <c r="V32" t="s">
-        <v>397</v>
+        <v>116</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32" t="s">
-        <v>398</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="B33" t="s">
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="D33" t="s">
         <v>399</v>
@@ -5742,184 +5429,184 @@
         <v>0</v>
       </c>
       <c r="R33" t="s">
-        <v>65</v>
+        <v>408</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33" t="s">
-        <v>66</v>
+        <v>409</v>
       </c>
       <c r="U33">
         <v>0</v>
       </c>
       <c r="V33" t="s">
-        <v>103</v>
+        <v>410</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33" t="s">
-        <v>68</v>
+        <v>411</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C34" t="s">
-        <v>385</v>
+        <v>228</v>
       </c>
       <c r="D34" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="E34" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="F34">
         <v>6</v>
       </c>
       <c r="G34" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="H34" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="I34" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="J34" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="K34">
         <v>3</v>
       </c>
       <c r="L34" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="M34">
         <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="O34">
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="Q34">
         <v>0</v>
       </c>
       <c r="R34" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="T34" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="U34">
         <v>0</v>
       </c>
       <c r="V34" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="B35" t="s">
         <v>25</v>
       </c>
       <c r="C35" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="D35" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="E35" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="F35">
         <v>6</v>
       </c>
       <c r="G35" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="H35" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="I35" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="J35" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="K35">
         <v>3</v>
       </c>
       <c r="L35" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="M35">
         <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="O35">
         <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="Q35">
         <v>0</v>
       </c>
       <c r="R35" t="s">
-        <v>430</v>
+        <v>154</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35" t="s">
-        <v>431</v>
+        <v>154</v>
       </c>
       <c r="U35">
         <v>0</v>
       </c>
       <c r="V35" t="s">
-        <v>432</v>
+        <v>154</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35" t="s">
-        <v>433</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="C36" t="s">
-        <v>237</v>
+        <v>352</v>
       </c>
       <c r="D36" t="s">
         <v>434</v>
@@ -5928,7 +5615,7 @@
         <v>435</v>
       </c>
       <c r="F36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G36" t="s">
         <v>436</v>
@@ -5937,948 +5624,948 @@
         <v>437</v>
       </c>
       <c r="I36" t="s">
+        <v>357</v>
+      </c>
+      <c r="J36" t="s">
         <v>438</v>
-      </c>
-      <c r="J36" t="s">
-        <v>439</v>
       </c>
       <c r="K36">
         <v>3</v>
       </c>
       <c r="L36" t="s">
+        <v>439</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36" t="s">
         <v>440</v>
       </c>
-      <c r="M36">
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36" t="s">
+        <v>442</v>
+      </c>
+      <c r="S36">
         <v>2</v>
       </c>
-      <c r="N36" t="s">
-        <v>441</v>
-      </c>
-      <c r="O36">
-        <v>1</v>
-      </c>
-      <c r="P36" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36" t="s">
-        <v>141</v>
-      </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
       <c r="T36" t="s">
-        <v>141</v>
+        <v>443</v>
       </c>
       <c r="U36">
         <v>0</v>
       </c>
       <c r="V36" t="s">
-        <v>141</v>
+        <v>444</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36" t="s">
-        <v>141</v>
+        <v>445</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="B37" t="s">
-        <v>259</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>361</v>
+        <v>446</v>
       </c>
       <c r="D37" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="E37" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="F37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G37" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="H37" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="I37" t="s">
-        <v>366</v>
+        <v>451</v>
       </c>
       <c r="J37" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="M37">
         <v>0</v>
       </c>
       <c r="N37" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="O37">
         <v>0</v>
       </c>
       <c r="P37" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R37" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="S37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T37" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="U37">
         <v>0</v>
       </c>
       <c r="V37" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="B38" t="s">
         <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="D38" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="E38" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="F38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G38" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="H38" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="I38" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="J38" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L38" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="M38">
         <v>0</v>
       </c>
       <c r="N38" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="O38">
         <v>0</v>
       </c>
       <c r="P38" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="Q38">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R38" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="U38">
         <v>0</v>
       </c>
       <c r="V38" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>360</v>
+        <v>474</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C39" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="D39" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="E39" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="F39">
+        <v>10</v>
+      </c>
+      <c r="G39" t="s">
+        <v>478</v>
+      </c>
+      <c r="H39" t="s">
+        <v>479</v>
+      </c>
+      <c r="I39" t="s">
+        <v>480</v>
+      </c>
+      <c r="J39" t="s">
+        <v>481</v>
+      </c>
+      <c r="K39">
+        <v>4</v>
+      </c>
+      <c r="L39" t="s">
+        <v>482</v>
+      </c>
+      <c r="M39">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>483</v>
+      </c>
+      <c r="O39">
         <v>2</v>
       </c>
-      <c r="G39" t="s">
-        <v>472</v>
-      </c>
-      <c r="H39" t="s">
-        <v>473</v>
-      </c>
-      <c r="I39" t="s">
-        <v>474</v>
-      </c>
-      <c r="J39" t="s">
-        <v>475</v>
-      </c>
-      <c r="K39">
-        <v>2</v>
-      </c>
-      <c r="L39" t="s">
-        <v>476</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39" t="s">
-        <v>477</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
       <c r="P39" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="Q39">
         <v>0</v>
       </c>
       <c r="R39" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="U39">
         <v>0</v>
       </c>
       <c r="V39" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="C40" t="s">
-        <v>484</v>
+        <v>26</v>
       </c>
       <c r="D40" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="E40" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="F40">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G40" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H40" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="I40" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="J40" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L40" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="M40">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>494</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40" t="s">
+        <v>496</v>
+      </c>
+      <c r="S40">
         <v>3</v>
       </c>
-      <c r="N40" t="s">
-        <v>492</v>
-      </c>
-      <c r="O40">
-        <v>2</v>
-      </c>
-      <c r="P40" t="s">
-        <v>493</v>
-      </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
-      <c r="R40" t="s">
-        <v>494</v>
-      </c>
-      <c r="S40">
-        <v>1</v>
-      </c>
       <c r="T40" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="U40">
         <v>0</v>
       </c>
       <c r="V40" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C41" t="s">
         <v>26</v>
       </c>
       <c r="D41" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="E41" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="F41">
         <v>9</v>
       </c>
       <c r="G41" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="H41" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="I41" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="J41" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="K41">
         <v>3</v>
       </c>
       <c r="L41" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="M41">
         <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="O41">
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="Q41">
         <v>0</v>
       </c>
       <c r="R41" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="S41">
         <v>3</v>
       </c>
       <c r="T41" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="U41">
         <v>0</v>
       </c>
       <c r="V41" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C42" t="s">
         <v>26</v>
       </c>
       <c r="D42" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="E42" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="F42">
         <v>9</v>
       </c>
       <c r="G42" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="H42" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="I42" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="J42" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="K42">
         <v>3</v>
       </c>
       <c r="L42" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="M42">
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="O42">
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="Q42">
         <v>0</v>
       </c>
       <c r="R42" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="S42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T42" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="U42">
         <v>0</v>
       </c>
       <c r="V42" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="W42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X42" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C43" t="s">
         <v>26</v>
       </c>
       <c r="D43" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E43" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="F43">
         <v>9</v>
       </c>
       <c r="G43" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="H43" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="I43" t="s">
-        <v>513</v>
+        <v>529</v>
       </c>
       <c r="J43" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="K43">
         <v>3</v>
       </c>
       <c r="L43" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>532</v>
+      </c>
+      <c r="O43">
         <v>2</v>
       </c>
-      <c r="N43" t="s">
-        <v>528</v>
-      </c>
-      <c r="O43">
-        <v>1</v>
-      </c>
       <c r="P43" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="Q43">
         <v>0</v>
       </c>
       <c r="R43" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="S43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T43" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="U43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V43" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="W43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X43" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="C44" t="s">
-        <v>26</v>
+        <v>352</v>
       </c>
       <c r="D44" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="E44" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="F44">
         <v>9</v>
       </c>
       <c r="G44" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="H44" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="I44" t="s">
-        <v>538</v>
+        <v>357</v>
       </c>
       <c r="J44" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="K44">
         <v>3</v>
       </c>
       <c r="L44" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="M44">
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="O44">
         <v>2</v>
       </c>
       <c r="P44" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="Q44">
         <v>0</v>
       </c>
       <c r="R44" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="S44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T44" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="U44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V44" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="W44">
         <v>0</v>
       </c>
       <c r="X44" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B45" t="s">
-        <v>259</v>
+        <v>67</v>
       </c>
       <c r="C45" t="s">
-        <v>361</v>
+        <v>26</v>
       </c>
       <c r="D45" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="E45" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="F45">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G45" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="H45" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="I45" t="s">
-        <v>366</v>
+        <v>554</v>
       </c>
       <c r="J45" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="K45">
         <v>3</v>
       </c>
       <c r="L45" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="M45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N45" t="s">
-        <v>553</v>
+        <v>207</v>
       </c>
       <c r="O45">
         <v>2</v>
       </c>
       <c r="P45" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R45" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="S45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T45" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="U45">
         <v>0</v>
       </c>
       <c r="V45" t="s">
-        <v>557</v>
+        <v>211</v>
       </c>
       <c r="W45">
         <v>0</v>
       </c>
       <c r="X45" t="s">
-        <v>558</v>
+        <v>212</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="C46" t="s">
-        <v>26</v>
+        <v>560</v>
       </c>
       <c r="D46" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="E46" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="F46">
         <v>8</v>
       </c>
       <c r="G46" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="H46" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="I46" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="J46" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K46">
         <v>3</v>
       </c>
       <c r="L46" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="M46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N46" t="s">
-        <v>216</v>
+        <v>568</v>
       </c>
       <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="P46" t="s">
+        <v>569</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46" t="s">
+        <v>570</v>
+      </c>
+      <c r="S46">
         <v>2</v>
       </c>
-      <c r="P46" t="s">
-        <v>566</v>
-      </c>
-      <c r="Q46">
-        <v>3</v>
-      </c>
-      <c r="R46" t="s">
-        <v>567</v>
-      </c>
-      <c r="S46">
-        <v>0</v>
-      </c>
       <c r="T46" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="U46">
         <v>0</v>
       </c>
       <c r="V46" t="s">
-        <v>220</v>
+        <v>572</v>
       </c>
       <c r="W46">
         <v>0</v>
       </c>
       <c r="X46" t="s">
-        <v>221</v>
+        <v>537</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B47" t="s">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="C47" t="s">
-        <v>569</v>
+        <v>26</v>
       </c>
       <c r="D47" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="E47" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="F47">
         <v>8</v>
       </c>
       <c r="G47" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="H47" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="I47" t="s">
-        <v>574</v>
+        <v>357</v>
       </c>
       <c r="J47" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="K47">
         <v>3</v>
       </c>
       <c r="L47" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="M47">
         <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="O47">
         <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="Q47">
         <v>0</v>
       </c>
       <c r="R47" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="S47">
         <v>2</v>
       </c>
       <c r="T47" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="U47">
         <v>0</v>
       </c>
       <c r="V47" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="W47">
         <v>0</v>
       </c>
       <c r="X47" t="s">
-        <v>546</v>
+        <v>584</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B48" t="s">
-        <v>259</v>
+        <v>67</v>
       </c>
       <c r="C48" t="s">
         <v>26</v>
       </c>
       <c r="D48" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="E48" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="F48">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G48" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="H48" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="I48" t="s">
-        <v>366</v>
+        <v>589</v>
       </c>
       <c r="J48" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="K48">
         <v>3</v>
       </c>
       <c r="L48" t="s">
-        <v>587</v>
+        <v>493</v>
       </c>
       <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48" t="s">
+        <v>591</v>
+      </c>
+      <c r="O48">
         <v>2</v>
       </c>
-      <c r="N48" t="s">
-        <v>588</v>
-      </c>
-      <c r="O48">
-        <v>1</v>
-      </c>
       <c r="P48" t="s">
-        <v>589</v>
+        <v>495</v>
       </c>
       <c r="Q48">
         <v>0</v>
       </c>
       <c r="R48" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="S48">
         <v>2</v>
       </c>
       <c r="T48" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="U48">
         <v>0</v>
       </c>
       <c r="V48" t="s">
-        <v>592</v>
+        <v>106</v>
       </c>
       <c r="W48">
         <v>0</v>
       </c>
       <c r="X48" t="s">
-        <v>593</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="C49" t="s">
         <v>26</v>
@@ -6908,199 +6595,199 @@
         <v>3</v>
       </c>
       <c r="L49" t="s">
-        <v>502</v>
+        <v>600</v>
       </c>
       <c r="M49">
         <v>0</v>
       </c>
       <c r="N49" t="s">
-        <v>600</v>
+        <v>468</v>
       </c>
       <c r="O49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P49" t="s">
-        <v>504</v>
+        <v>601</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R49" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="S49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T49" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="U49">
         <v>0</v>
       </c>
       <c r="V49" t="s">
-        <v>93</v>
+        <v>604</v>
       </c>
       <c r="W49">
         <v>0</v>
       </c>
       <c r="X49" t="s">
-        <v>94</v>
+        <v>605</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B50" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="C50" t="s">
         <v>26</v>
       </c>
       <c r="D50" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="E50" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="F50">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G50" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="H50" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="I50" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="J50" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="K50">
         <v>3</v>
       </c>
       <c r="L50" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="M50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N50" t="s">
-        <v>477</v>
+        <v>613</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="Q50">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R50" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="S50">
         <v>0</v>
       </c>
       <c r="T50" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="U50">
         <v>0</v>
       </c>
       <c r="V50" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="W50">
         <v>0</v>
       </c>
       <c r="X50" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C51" t="s">
         <v>26</v>
       </c>
       <c r="D51" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="E51" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="F51">
         <v>6</v>
       </c>
       <c r="G51" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="H51" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="I51" t="s">
-        <v>619</v>
+        <v>504</v>
       </c>
       <c r="J51" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="K51">
         <v>3</v>
       </c>
       <c r="L51" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>625</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="s">
+        <v>626</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51" t="s">
+        <v>63</v>
+      </c>
+      <c r="S51">
         <v>2</v>
       </c>
-      <c r="N51" t="s">
-        <v>622</v>
-      </c>
-      <c r="O51">
-        <v>1</v>
-      </c>
-      <c r="P51" t="s">
-        <v>623</v>
-      </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
-      <c r="R51" t="s">
-        <v>624</v>
-      </c>
-      <c r="S51">
-        <v>0</v>
-      </c>
       <c r="T51" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="U51">
         <v>0</v>
       </c>
       <c r="V51" t="s">
-        <v>626</v>
+        <v>65</v>
       </c>
       <c r="W51">
         <v>0</v>
       </c>
       <c r="X51" t="s">
-        <v>627</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C52" t="s">
         <v>26</v>
@@ -7121,60 +6808,60 @@
         <v>631</v>
       </c>
       <c r="I52" t="s">
-        <v>513</v>
+        <v>632</v>
       </c>
       <c r="J52" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="K52">
         <v>3</v>
       </c>
       <c r="L52" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="M52">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>635</v>
+      </c>
+      <c r="O52">
         <v>1</v>
       </c>
-      <c r="N52" t="s">
-        <v>634</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
       <c r="P52" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="Q52">
         <v>0</v>
       </c>
       <c r="R52" t="s">
-        <v>50</v>
+        <v>592</v>
       </c>
       <c r="S52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T52" t="s">
-        <v>636</v>
+        <v>105</v>
       </c>
       <c r="U52">
         <v>0</v>
       </c>
       <c r="V52" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="W52">
         <v>0</v>
       </c>
       <c r="X52" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C53" t="s">
         <v>26</v>
@@ -7222,54 +6909,54 @@
         <v>0</v>
       </c>
       <c r="R53" t="s">
-        <v>601</v>
+        <v>154</v>
       </c>
       <c r="S53">
         <v>0</v>
       </c>
       <c r="T53" t="s">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="U53">
         <v>0</v>
       </c>
       <c r="V53" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="W53">
         <v>0</v>
       </c>
       <c r="X53" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
+        <v>250</v>
       </c>
       <c r="C54" t="s">
-        <v>26</v>
+        <v>646</v>
       </c>
       <c r="D54" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E54" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F54">
         <v>6</v>
       </c>
       <c r="G54" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H54" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="I54" t="s">
-        <v>650</v>
+        <v>357</v>
       </c>
       <c r="J54" t="s">
         <v>651</v>
@@ -7281,13 +6968,13 @@
         <v>652</v>
       </c>
       <c r="M54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N54" t="s">
         <v>653</v>
       </c>
       <c r="O54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P54" t="s">
         <v>654</v>
@@ -7296,2171 +6983,1505 @@
         <v>0</v>
       </c>
       <c r="R54" t="s">
-        <v>141</v>
+        <v>655</v>
       </c>
       <c r="S54">
         <v>0</v>
       </c>
       <c r="T54" t="s">
-        <v>141</v>
+        <v>656</v>
       </c>
       <c r="U54">
         <v>0</v>
       </c>
       <c r="V54" t="s">
-        <v>141</v>
+        <v>657</v>
       </c>
       <c r="W54">
         <v>0</v>
       </c>
       <c r="X54" t="s">
-        <v>141</v>
+        <v>658</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B55" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C55" t="s">
-        <v>655</v>
+        <v>26</v>
       </c>
       <c r="D55" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="E55" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="F55">
         <v>6</v>
       </c>
       <c r="G55" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="H55" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="I55" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="J55" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="K55">
         <v>3</v>
       </c>
       <c r="L55" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="M55">
         <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="O55">
         <v>2</v>
       </c>
       <c r="P55" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="Q55">
         <v>0</v>
       </c>
       <c r="R55" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="S55">
         <v>0</v>
       </c>
       <c r="T55" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="U55">
         <v>0</v>
       </c>
       <c r="V55" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="W55">
         <v>0</v>
       </c>
       <c r="X55" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B56" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C56" t="s">
         <v>26</v>
       </c>
       <c r="D56" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="E56" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="F56">
         <v>6</v>
       </c>
       <c r="G56" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="H56" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="I56" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="J56" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="K56">
         <v>3</v>
       </c>
       <c r="L56" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="M56">
+        <v>2</v>
+      </c>
+      <c r="N56" t="s">
+        <v>677</v>
+      </c>
+      <c r="O56">
         <v>1</v>
       </c>
-      <c r="N56" t="s">
-        <v>674</v>
-      </c>
-      <c r="O56">
-        <v>2</v>
-      </c>
       <c r="P56" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="Q56">
         <v>0</v>
       </c>
       <c r="R56" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="S56">
         <v>0</v>
       </c>
       <c r="T56" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="U56">
         <v>0</v>
       </c>
       <c r="V56" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="W56">
         <v>0</v>
       </c>
       <c r="X56" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B57" t="s">
-        <v>259</v>
+        <v>67</v>
       </c>
       <c r="C57" t="s">
         <v>26</v>
       </c>
       <c r="D57" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="E57" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="F57">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G57" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="H57" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="I57" t="s">
-        <v>366</v>
+        <v>687</v>
       </c>
       <c r="J57" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="K57">
         <v>3</v>
       </c>
       <c r="L57" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57" t="s">
+        <v>690</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="s">
+        <v>691</v>
+      </c>
+      <c r="Q57">
         <v>2</v>
       </c>
-      <c r="N57" t="s">
-        <v>686</v>
-      </c>
-      <c r="O57">
-        <v>1</v>
-      </c>
-      <c r="P57" t="s">
-        <v>687</v>
-      </c>
-      <c r="Q57">
-        <v>0</v>
-      </c>
       <c r="R57" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="S57">
         <v>0</v>
       </c>
       <c r="T57" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="U57">
         <v>0</v>
       </c>
       <c r="V57" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="W57">
         <v>0</v>
       </c>
       <c r="X57" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B58" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C58" t="s">
         <v>26</v>
       </c>
       <c r="D58" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="E58" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="F58">
         <v>5</v>
       </c>
       <c r="G58" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="H58" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="I58" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="J58" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="K58">
         <v>3</v>
       </c>
       <c r="L58" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="M58">
         <v>0</v>
       </c>
       <c r="N58" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P58" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="Q58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R58" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="S58">
         <v>0</v>
       </c>
       <c r="T58" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="U58">
         <v>0</v>
       </c>
       <c r="V58" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="W58">
         <v>0</v>
       </c>
       <c r="X58" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B59" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C59" t="s">
         <v>26</v>
       </c>
       <c r="D59" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="E59" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="F59">
         <v>5</v>
       </c>
       <c r="G59" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="H59" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="I59" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="J59" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="K59">
         <v>3</v>
       </c>
       <c r="L59" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="M59">
         <v>0</v>
       </c>
       <c r="N59" t="s">
-        <v>711</v>
+        <v>468</v>
       </c>
       <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" t="s">
+        <v>714</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59" t="s">
+        <v>715</v>
+      </c>
+      <c r="S59">
         <v>2</v>
       </c>
-      <c r="P59" t="s">
-        <v>712</v>
-      </c>
-      <c r="Q59">
-        <v>0</v>
-      </c>
-      <c r="R59" t="s">
-        <v>713</v>
-      </c>
-      <c r="S59">
-        <v>0</v>
-      </c>
       <c r="T59" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="U59">
         <v>0</v>
       </c>
       <c r="V59" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="W59">
         <v>0</v>
       </c>
       <c r="X59" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B60" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C60" t="s">
         <v>26</v>
       </c>
       <c r="D60" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="E60" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="F60">
         <v>5</v>
       </c>
       <c r="G60" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="H60" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="I60" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="J60" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="K60">
         <v>3</v>
       </c>
       <c r="L60" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="M60">
         <v>0</v>
       </c>
       <c r="N60" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="O60">
         <v>0</v>
       </c>
       <c r="P60" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="Q60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R60" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="S60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T60" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="U60">
         <v>0</v>
       </c>
       <c r="V60" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="W60">
         <v>0</v>
       </c>
       <c r="X60" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B61" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C61" t="s">
         <v>26</v>
       </c>
       <c r="D61" t="s">
+        <v>727</v>
+      </c>
+      <c r="E61" t="s">
         <v>728</v>
-      </c>
-      <c r="E61" t="s">
-        <v>729</v>
       </c>
       <c r="F61">
         <v>5</v>
       </c>
       <c r="G61" t="s">
+        <v>729</v>
+      </c>
+      <c r="H61" t="s">
         <v>730</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
+        <v>687</v>
+      </c>
+      <c r="J61" t="s">
         <v>731</v>
-      </c>
-      <c r="I61" t="s">
-        <v>696</v>
-      </c>
-      <c r="J61" t="s">
-        <v>732</v>
       </c>
       <c r="K61">
         <v>3</v>
       </c>
       <c r="L61" t="s">
+        <v>732</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61" t="s">
+        <v>591</v>
+      </c>
+      <c r="O61">
+        <v>2</v>
+      </c>
+      <c r="P61" t="s">
         <v>733</v>
       </c>
-      <c r="M61">
-        <v>0</v>
-      </c>
-      <c r="N61" t="s">
-        <v>477</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="P61" t="s">
-        <v>723</v>
-      </c>
       <c r="Q61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R61" t="s">
-        <v>734</v>
+        <v>592</v>
       </c>
       <c r="S61">
         <v>0</v>
       </c>
       <c r="T61" t="s">
-        <v>735</v>
+        <v>105</v>
       </c>
       <c r="U61">
         <v>0</v>
       </c>
       <c r="V61" t="s">
-        <v>726</v>
+        <v>106</v>
       </c>
       <c r="W61">
         <v>0</v>
       </c>
       <c r="X61" t="s">
-        <v>727</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B62" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C62" t="s">
         <v>26</v>
       </c>
       <c r="D62" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E62" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F62">
         <v>5</v>
       </c>
       <c r="G62" t="s">
+        <v>736</v>
+      </c>
+      <c r="H62" t="s">
+        <v>737</v>
+      </c>
+      <c r="I62" t="s">
+        <v>687</v>
+      </c>
+      <c r="J62" t="s">
         <v>738</v>
-      </c>
-      <c r="H62" t="s">
-        <v>739</v>
-      </c>
-      <c r="I62" t="s">
-        <v>696</v>
-      </c>
-      <c r="J62" t="s">
-        <v>740</v>
       </c>
       <c r="K62">
         <v>3</v>
       </c>
       <c r="L62" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="M62">
         <v>0</v>
       </c>
       <c r="N62" t="s">
-        <v>600</v>
+        <v>740</v>
       </c>
       <c r="O62">
         <v>2</v>
       </c>
       <c r="P62" t="s">
+        <v>741</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62" t="s">
         <v>742</v>
       </c>
-      <c r="Q62">
-        <v>0</v>
-      </c>
-      <c r="R62" t="s">
-        <v>601</v>
-      </c>
       <c r="S62">
         <v>0</v>
       </c>
       <c r="T62" t="s">
-        <v>92</v>
+        <v>743</v>
       </c>
       <c r="U62">
         <v>0</v>
       </c>
       <c r="V62" t="s">
-        <v>93</v>
+        <v>744</v>
       </c>
       <c r="W62">
         <v>0</v>
       </c>
       <c r="X62" t="s">
-        <v>94</v>
+        <v>745</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B63" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C63" t="s">
         <v>26</v>
       </c>
       <c r="D63" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="E63" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="F63">
         <v>5</v>
       </c>
       <c r="G63" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="H63" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="I63" t="s">
-        <v>696</v>
+        <v>504</v>
       </c>
       <c r="J63" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="K63">
         <v>3</v>
       </c>
       <c r="L63" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="M63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N63" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="O63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P63" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="Q63">
         <v>0</v>
       </c>
       <c r="R63" t="s">
-        <v>751</v>
+        <v>715</v>
       </c>
       <c r="S63">
         <v>0</v>
       </c>
       <c r="T63" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="U63">
         <v>0</v>
       </c>
       <c r="V63" t="s">
-        <v>753</v>
+        <v>717</v>
       </c>
       <c r="W63">
         <v>0</v>
       </c>
       <c r="X63" t="s">
-        <v>754</v>
+        <v>718</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B64" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="C64" t="s">
-        <v>26</v>
+        <v>755</v>
       </c>
       <c r="D64" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E64" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="F64">
         <v>5</v>
       </c>
       <c r="G64" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H64" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="I64" t="s">
-        <v>513</v>
+        <v>760</v>
       </c>
       <c r="J64" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="K64">
         <v>3</v>
       </c>
       <c r="L64" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="M64">
         <v>2</v>
       </c>
       <c r="N64" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="O64">
         <v>0</v>
       </c>
       <c r="P64" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="Q64">
         <v>0</v>
       </c>
       <c r="R64" t="s">
-        <v>724</v>
+        <v>742</v>
       </c>
       <c r="S64">
         <v>0</v>
       </c>
       <c r="T64" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="U64">
         <v>0</v>
       </c>
       <c r="V64" t="s">
-        <v>726</v>
+        <v>766</v>
       </c>
       <c r="W64">
         <v>0</v>
       </c>
       <c r="X64" t="s">
-        <v>727</v>
+        <v>767</v>
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B65" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C65" t="s">
-        <v>764</v>
+        <v>26</v>
       </c>
       <c r="D65" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="E65" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="F65">
         <v>5</v>
       </c>
       <c r="G65" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="H65" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="I65" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="J65" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="K65">
         <v>3</v>
       </c>
       <c r="L65" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65" t="s">
+        <v>154</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65" t="s">
+        <v>154</v>
+      </c>
+      <c r="S65">
         <v>2</v>
       </c>
-      <c r="N65" t="s">
-        <v>772</v>
-      </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-      <c r="P65" t="s">
-        <v>773</v>
-      </c>
-      <c r="Q65">
-        <v>0</v>
-      </c>
-      <c r="R65" t="s">
-        <v>751</v>
-      </c>
-      <c r="S65">
-        <v>0</v>
-      </c>
       <c r="T65" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="U65">
         <v>0</v>
       </c>
       <c r="V65" t="s">
-        <v>775</v>
+        <v>154</v>
       </c>
       <c r="W65">
         <v>0</v>
       </c>
       <c r="X65" t="s">
-        <v>776</v>
+        <v>154</v>
       </c>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B66" t="s">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="C66" t="s">
-        <v>26</v>
+        <v>352</v>
       </c>
       <c r="D66" t="s">
+        <v>776</v>
+      </c>
+      <c r="E66" t="s">
         <v>777</v>
-      </c>
-      <c r="E66" t="s">
-        <v>778</v>
       </c>
       <c r="F66">
         <v>5</v>
       </c>
       <c r="G66" t="s">
+        <v>778</v>
+      </c>
+      <c r="H66" t="s">
         <v>779</v>
       </c>
-      <c r="H66" t="s">
+      <c r="I66" t="s">
+        <v>357</v>
+      </c>
+      <c r="J66" t="s">
         <v>780</v>
-      </c>
-      <c r="I66" t="s">
-        <v>781</v>
-      </c>
-      <c r="J66" t="s">
-        <v>782</v>
       </c>
       <c r="K66">
         <v>3</v>
       </c>
       <c r="L66" t="s">
+        <v>781</v>
+      </c>
+      <c r="M66">
+        <v>2</v>
+      </c>
+      <c r="N66" t="s">
+        <v>782</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66" t="s">
         <v>783</v>
       </c>
-      <c r="M66">
-        <v>0</v>
-      </c>
-      <c r="N66" t="s">
-        <v>141</v>
-      </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-      <c r="P66" t="s">
-        <v>141</v>
-      </c>
       <c r="Q66">
         <v>0</v>
       </c>
       <c r="R66" t="s">
-        <v>141</v>
+        <v>784</v>
       </c>
       <c r="S66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T66" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="U66">
         <v>0</v>
       </c>
       <c r="V66" t="s">
-        <v>141</v>
+        <v>786</v>
       </c>
       <c r="W66">
         <v>0</v>
       </c>
       <c r="X66" t="s">
-        <v>141</v>
+        <v>787</v>
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B67" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C67" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="D67" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="E67" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="F67">
         <v>5</v>
       </c>
       <c r="G67" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="H67" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="I67" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="J67" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="K67">
         <v>3</v>
       </c>
       <c r="L67" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67" t="s">
+        <v>794</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67" t="s">
+        <v>795</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67" t="s">
+        <v>521</v>
+      </c>
+      <c r="S67">
         <v>2</v>
       </c>
-      <c r="N67" t="s">
-        <v>791</v>
-      </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-      <c r="P67" t="s">
-        <v>792</v>
-      </c>
-      <c r="Q67">
-        <v>0</v>
-      </c>
-      <c r="R67" t="s">
-        <v>793</v>
-      </c>
-      <c r="S67">
-        <v>0</v>
-      </c>
       <c r="T67" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="U67">
         <v>0</v>
       </c>
       <c r="V67" t="s">
-        <v>795</v>
+        <v>523</v>
       </c>
       <c r="W67">
         <v>0</v>
       </c>
       <c r="X67" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B68" t="s">
-        <v>259</v>
+        <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>361</v>
+        <v>26</v>
       </c>
       <c r="D68" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="E68" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="F68">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G68" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H68" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="I68" t="s">
-        <v>366</v>
+        <v>687</v>
       </c>
       <c r="J68" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="K68">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L68" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="M68">
         <v>0</v>
       </c>
       <c r="N68" t="s">
-        <v>803</v>
+        <v>335</v>
       </c>
       <c r="O68">
         <v>0</v>
       </c>
       <c r="P68" t="s">
-        <v>804</v>
+        <v>335</v>
       </c>
       <c r="Q68">
         <v>0</v>
       </c>
       <c r="R68" t="s">
-        <v>530</v>
+        <v>335</v>
       </c>
       <c r="S68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T68" t="s">
-        <v>805</v>
+        <v>335</v>
       </c>
       <c r="U68">
         <v>0</v>
       </c>
       <c r="V68" t="s">
-        <v>532</v>
+        <v>335</v>
       </c>
       <c r="W68">
         <v>0</v>
       </c>
       <c r="X68" t="s">
-        <v>806</v>
+        <v>335</v>
       </c>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B69" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C69" t="s">
         <v>26</v>
       </c>
       <c r="D69" t="s">
+        <v>804</v>
+      </c>
+      <c r="E69" t="s">
+        <v>805</v>
+      </c>
+      <c r="F69">
+        <v>3</v>
+      </c>
+      <c r="G69" t="s">
+        <v>806</v>
+      </c>
+      <c r="H69" t="s">
         <v>807</v>
       </c>
-      <c r="E69" t="s">
+      <c r="I69" t="s">
+        <v>687</v>
+      </c>
+      <c r="J69" t="s">
         <v>808</v>
       </c>
-      <c r="F69">
-        <v>4</v>
-      </c>
-      <c r="G69" t="s">
+      <c r="K69">
+        <v>3</v>
+      </c>
+      <c r="L69" t="s">
         <v>809</v>
       </c>
-      <c r="H69" t="s">
-        <v>810</v>
-      </c>
-      <c r="I69" t="s">
-        <v>696</v>
-      </c>
-      <c r="J69" t="s">
-        <v>811</v>
-      </c>
-      <c r="K69">
-        <v>4</v>
-      </c>
-      <c r="L69" t="s">
-        <v>812</v>
-      </c>
       <c r="M69">
         <v>0</v>
       </c>
       <c r="N69" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="O69">
         <v>0</v>
       </c>
       <c r="P69" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="Q69">
         <v>0</v>
       </c>
       <c r="R69" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="S69">
         <v>0</v>
       </c>
       <c r="T69" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="U69">
         <v>0</v>
       </c>
       <c r="V69" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="W69">
         <v>0</v>
       </c>
       <c r="X69" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B70" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C70" t="s">
         <v>26</v>
       </c>
       <c r="D70" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E70" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="F70">
         <v>3</v>
       </c>
       <c r="G70" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="H70" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="I70" t="s">
-        <v>696</v>
+        <v>554</v>
       </c>
       <c r="J70" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="K70">
         <v>3</v>
       </c>
       <c r="L70" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="M70">
         <v>0</v>
       </c>
       <c r="N70" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="O70">
         <v>0</v>
       </c>
       <c r="P70" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="Q70">
         <v>0</v>
       </c>
       <c r="R70" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="S70">
         <v>0</v>
       </c>
       <c r="T70" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="U70">
         <v>0</v>
       </c>
       <c r="V70" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="W70">
         <v>0</v>
       </c>
       <c r="X70" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B71" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C71" t="s">
         <v>26</v>
       </c>
       <c r="D71" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="E71" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="F71">
         <v>3</v>
       </c>
       <c r="G71" t="s">
+        <v>818</v>
+      </c>
+      <c r="H71" t="s">
+        <v>819</v>
+      </c>
+      <c r="I71" t="s">
+        <v>820</v>
+      </c>
+      <c r="J71" t="s">
         <v>821</v>
-      </c>
-      <c r="H71" t="s">
-        <v>822</v>
-      </c>
-      <c r="I71" t="s">
-        <v>563</v>
-      </c>
-      <c r="J71" t="s">
-        <v>823</v>
       </c>
       <c r="K71">
         <v>3</v>
       </c>
       <c r="L71" t="s">
+        <v>822</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71" t="s">
+        <v>823</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71" t="s">
         <v>824</v>
       </c>
-      <c r="M71">
-        <v>0</v>
-      </c>
-      <c r="N71" t="s">
-        <v>344</v>
-      </c>
-      <c r="O71">
-        <v>0</v>
-      </c>
-      <c r="P71" t="s">
-        <v>344</v>
-      </c>
       <c r="Q71">
         <v>0</v>
       </c>
       <c r="R71" t="s">
-        <v>344</v>
+        <v>825</v>
       </c>
       <c r="S71">
         <v>0</v>
       </c>
       <c r="T71" t="s">
-        <v>344</v>
+        <v>826</v>
       </c>
       <c r="U71">
         <v>0</v>
       </c>
       <c r="V71" t="s">
-        <v>344</v>
+        <v>827</v>
       </c>
       <c r="W71">
         <v>0</v>
       </c>
       <c r="X71" t="s">
-        <v>344</v>
+        <v>828</v>
       </c>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B72" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C72" t="s">
-        <v>26</v>
+        <v>829</v>
       </c>
       <c r="D72" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="E72" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="F72">
         <v>3</v>
       </c>
       <c r="G72" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="H72" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="I72" t="s">
-        <v>829</v>
+        <v>687</v>
       </c>
       <c r="J72" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="K72">
         <v>3</v>
       </c>
       <c r="L72" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="M72">
         <v>0</v>
       </c>
       <c r="N72" t="s">
-        <v>832</v>
+        <v>335</v>
       </c>
       <c r="O72">
         <v>0</v>
       </c>
       <c r="P72" t="s">
-        <v>833</v>
+        <v>335</v>
       </c>
       <c r="Q72">
         <v>0</v>
       </c>
       <c r="R72" t="s">
-        <v>834</v>
+        <v>335</v>
       </c>
       <c r="S72">
         <v>0</v>
       </c>
       <c r="T72" t="s">
-        <v>835</v>
+        <v>335</v>
       </c>
       <c r="U72">
         <v>0</v>
       </c>
       <c r="V72" t="s">
-        <v>836</v>
+        <v>335</v>
       </c>
       <c r="W72">
         <v>0</v>
       </c>
       <c r="X72" t="s">
-        <v>837</v>
+        <v>335</v>
       </c>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B73" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C73" t="s">
-        <v>838</v>
+        <v>26</v>
       </c>
       <c r="D73" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="E73" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="F73">
         <v>3</v>
       </c>
       <c r="G73" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="H73" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="I73" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="J73" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="K73">
         <v>3</v>
       </c>
       <c r="L73" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="M73">
         <v>0</v>
       </c>
       <c r="N73" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="O73">
         <v>0</v>
       </c>
       <c r="P73" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="Q73">
         <v>0</v>
       </c>
       <c r="R73" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="S73">
         <v>0</v>
       </c>
       <c r="T73" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="U73">
         <v>0</v>
       </c>
       <c r="V73" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="W73">
         <v>0</v>
       </c>
       <c r="X73" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B74" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C74" t="s">
         <v>26</v>
       </c>
       <c r="D74" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E74" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="F74">
         <v>3</v>
       </c>
       <c r="G74" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="H74" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="I74" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="J74" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="K74">
         <v>3</v>
       </c>
       <c r="L74" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="M74">
         <v>0</v>
       </c>
       <c r="N74" t="s">
-        <v>344</v>
+        <v>591</v>
       </c>
       <c r="O74">
         <v>0</v>
       </c>
       <c r="P74" t="s">
-        <v>344</v>
+        <v>103</v>
       </c>
       <c r="Q74">
         <v>0</v>
       </c>
       <c r="R74" t="s">
-        <v>344</v>
+        <v>592</v>
       </c>
       <c r="S74">
         <v>0</v>
       </c>
       <c r="T74" t="s">
-        <v>344</v>
+        <v>105</v>
       </c>
       <c r="U74">
         <v>0</v>
       </c>
       <c r="V74" t="s">
-        <v>344</v>
+        <v>106</v>
       </c>
       <c r="W74">
         <v>0</v>
       </c>
       <c r="X74" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>483</v>
-      </c>
-      <c r="B75" t="s">
-        <v>54</v>
-      </c>
-      <c r="C75" t="s">
-        <v>26</v>
-      </c>
-      <c r="D75" t="s">
-        <v>851</v>
-      </c>
-      <c r="E75" t="s">
-        <v>852</v>
-      </c>
-      <c r="F75">
-        <v>3</v>
-      </c>
-      <c r="G75" t="s">
-        <v>853</v>
-      </c>
-      <c r="H75" t="s">
-        <v>854</v>
-      </c>
-      <c r="I75" t="s">
-        <v>696</v>
-      </c>
-      <c r="J75" t="s">
-        <v>855</v>
-      </c>
-      <c r="K75">
-        <v>3</v>
-      </c>
-      <c r="L75" t="s">
-        <v>856</v>
-      </c>
-      <c r="M75">
-        <v>0</v>
-      </c>
-      <c r="N75" t="s">
-        <v>600</v>
-      </c>
-      <c r="O75">
-        <v>0</v>
-      </c>
-      <c r="P75" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q75">
-        <v>0</v>
-      </c>
-      <c r="R75" t="s">
-        <v>601</v>
-      </c>
-      <c r="S75">
-        <v>0</v>
-      </c>
-      <c r="T75" t="s">
-        <v>92</v>
-      </c>
-      <c r="U75">
-        <v>0</v>
-      </c>
-      <c r="V75" t="s">
-        <v>93</v>
-      </c>
-      <c r="W75">
-        <v>0</v>
-      </c>
-      <c r="X75" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>857</v>
-      </c>
-      <c r="B76" t="s">
-        <v>25</v>
-      </c>
-      <c r="C76" t="s">
-        <v>26</v>
-      </c>
-      <c r="D76" t="s">
-        <v>858</v>
-      </c>
-      <c r="E76" t="s">
-        <v>859</v>
-      </c>
-      <c r="F76">
-        <v>10</v>
-      </c>
-      <c r="G76" t="s">
-        <v>860</v>
-      </c>
-      <c r="H76" t="s">
-        <v>861</v>
-      </c>
-      <c r="I76" t="s">
-        <v>862</v>
-      </c>
-      <c r="J76" t="s">
-        <v>863</v>
-      </c>
-      <c r="K76">
-        <v>3</v>
-      </c>
-      <c r="L76" t="s">
-        <v>864</v>
-      </c>
-      <c r="M76">
-        <v>2</v>
-      </c>
-      <c r="N76" t="s">
-        <v>865</v>
-      </c>
-      <c r="O76">
-        <v>1</v>
-      </c>
-      <c r="P76" t="s">
-        <v>866</v>
-      </c>
-      <c r="Q76">
-        <v>0</v>
-      </c>
-      <c r="R76" t="s">
-        <v>867</v>
-      </c>
-      <c r="S76">
-        <v>1</v>
-      </c>
-      <c r="T76" t="s">
-        <v>868</v>
-      </c>
-      <c r="U76">
-        <v>2</v>
-      </c>
-      <c r="V76" t="s">
-        <v>869</v>
-      </c>
-      <c r="W76">
-        <v>1</v>
-      </c>
-      <c r="X76" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>857</v>
-      </c>
-      <c r="B77" t="s">
-        <v>25</v>
-      </c>
-      <c r="C77" t="s">
-        <v>871</v>
-      </c>
-      <c r="D77" t="s">
-        <v>872</v>
-      </c>
-      <c r="E77" t="s">
-        <v>873</v>
-      </c>
-      <c r="F77">
-        <v>9</v>
-      </c>
-      <c r="G77" t="s">
-        <v>874</v>
-      </c>
-      <c r="H77" t="s">
-        <v>875</v>
-      </c>
-      <c r="I77" t="s">
-        <v>862</v>
-      </c>
-      <c r="J77" t="s">
-        <v>876</v>
-      </c>
-      <c r="K77">
-        <v>3</v>
-      </c>
-      <c r="L77" t="s">
-        <v>877</v>
-      </c>
-      <c r="M77">
-        <v>2</v>
-      </c>
-      <c r="N77" t="s">
-        <v>878</v>
-      </c>
-      <c r="O77">
-        <v>1</v>
-      </c>
-      <c r="P77" t="s">
-        <v>879</v>
-      </c>
-      <c r="Q77">
-        <v>0</v>
-      </c>
-      <c r="R77" t="s">
-        <v>880</v>
-      </c>
-      <c r="S77">
-        <v>0</v>
-      </c>
-      <c r="T77" t="s">
-        <v>881</v>
-      </c>
-      <c r="U77">
-        <v>2</v>
-      </c>
-      <c r="V77" t="s">
-        <v>882</v>
-      </c>
-      <c r="W77">
-        <v>1</v>
-      </c>
-      <c r="X77" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>857</v>
-      </c>
-      <c r="B78" t="s">
-        <v>54</v>
-      </c>
-      <c r="C78" t="s">
-        <v>26</v>
-      </c>
-      <c r="D78" t="s">
-        <v>884</v>
-      </c>
-      <c r="E78" t="s">
-        <v>885</v>
-      </c>
-      <c r="F78">
-        <v>9</v>
-      </c>
-      <c r="G78" t="s">
-        <v>886</v>
-      </c>
-      <c r="H78" t="s">
-        <v>887</v>
-      </c>
-      <c r="I78" t="s">
-        <v>888</v>
-      </c>
-      <c r="J78" t="s">
-        <v>889</v>
-      </c>
-      <c r="K78">
-        <v>3</v>
-      </c>
-      <c r="L78" t="s">
-        <v>890</v>
-      </c>
-      <c r="M78">
-        <v>2</v>
-      </c>
-      <c r="N78" t="s">
-        <v>891</v>
-      </c>
-      <c r="O78">
-        <v>1</v>
-      </c>
-      <c r="P78" t="s">
-        <v>892</v>
-      </c>
-      <c r="Q78">
-        <v>0</v>
-      </c>
-      <c r="R78" t="s">
-        <v>893</v>
-      </c>
-      <c r="S78">
-        <v>3</v>
-      </c>
-      <c r="T78" t="s">
-        <v>894</v>
-      </c>
-      <c r="U78">
-        <v>0</v>
-      </c>
-      <c r="V78" t="s">
-        <v>895</v>
-      </c>
-      <c r="W78">
-        <v>0</v>
-      </c>
-      <c r="X78" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>857</v>
-      </c>
-      <c r="B79" t="s">
-        <v>54</v>
-      </c>
-      <c r="C79" t="s">
-        <v>26</v>
-      </c>
-      <c r="D79" t="s">
-        <v>897</v>
-      </c>
-      <c r="E79" t="s">
-        <v>898</v>
-      </c>
-      <c r="F79">
-        <v>8</v>
-      </c>
-      <c r="G79" t="s">
-        <v>899</v>
-      </c>
-      <c r="H79" t="s">
-        <v>900</v>
-      </c>
-      <c r="I79" t="s">
-        <v>901</v>
-      </c>
-      <c r="J79" t="s">
-        <v>902</v>
-      </c>
-      <c r="K79">
-        <v>2</v>
-      </c>
-      <c r="L79" t="s">
-        <v>903</v>
-      </c>
-      <c r="M79">
-        <v>1</v>
-      </c>
-      <c r="N79" t="s">
-        <v>904</v>
-      </c>
-      <c r="O79">
-        <v>3</v>
-      </c>
-      <c r="P79" t="s">
-        <v>905</v>
-      </c>
-      <c r="Q79">
-        <v>2</v>
-      </c>
-      <c r="R79" t="s">
-        <v>906</v>
-      </c>
-      <c r="S79">
-        <v>0</v>
-      </c>
-      <c r="T79" t="s">
-        <v>907</v>
-      </c>
-      <c r="U79">
-        <v>0</v>
-      </c>
-      <c r="V79" t="s">
-        <v>908</v>
-      </c>
-      <c r="W79">
-        <v>0</v>
-      </c>
-      <c r="X79" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>857</v>
-      </c>
-      <c r="B80" t="s">
-        <v>54</v>
-      </c>
-      <c r="C80" t="s">
-        <v>910</v>
-      </c>
-      <c r="D80" t="s">
-        <v>911</v>
-      </c>
-      <c r="E80" t="s">
-        <v>912</v>
-      </c>
-      <c r="F80">
-        <v>8</v>
-      </c>
-      <c r="G80" t="s">
-        <v>913</v>
-      </c>
-      <c r="H80" t="s">
-        <v>914</v>
-      </c>
-      <c r="I80" t="s">
-        <v>915</v>
-      </c>
-      <c r="J80" t="s">
-        <v>916</v>
-      </c>
-      <c r="K80">
-        <v>3</v>
-      </c>
-      <c r="L80" t="s">
-        <v>917</v>
-      </c>
-      <c r="M80">
-        <v>2</v>
-      </c>
-      <c r="N80" t="s">
-        <v>918</v>
-      </c>
-      <c r="O80">
-        <v>1</v>
-      </c>
-      <c r="P80" t="s">
-        <v>919</v>
-      </c>
-      <c r="Q80">
-        <v>0</v>
-      </c>
-      <c r="R80" t="s">
-        <v>920</v>
-      </c>
-      <c r="S80">
-        <v>2</v>
-      </c>
-      <c r="T80" t="s">
-        <v>921</v>
-      </c>
-      <c r="U80">
-        <v>0</v>
-      </c>
-      <c r="V80" t="s">
-        <v>922</v>
-      </c>
-      <c r="W80">
-        <v>0</v>
-      </c>
-      <c r="X80" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>857</v>
-      </c>
-      <c r="B81" t="s">
-        <v>25</v>
-      </c>
-      <c r="C81" t="s">
-        <v>26</v>
-      </c>
-      <c r="D81" t="s">
-        <v>924</v>
-      </c>
-      <c r="E81" t="s">
-        <v>925</v>
-      </c>
-      <c r="F81">
-        <v>6</v>
-      </c>
-      <c r="G81" t="s">
-        <v>926</v>
-      </c>
-      <c r="H81" t="s">
-        <v>927</v>
-      </c>
-      <c r="I81" t="s">
-        <v>928</v>
-      </c>
-      <c r="J81" t="s">
-        <v>929</v>
-      </c>
-      <c r="K81">
-        <v>2</v>
-      </c>
-      <c r="L81" t="s">
-        <v>930</v>
-      </c>
-      <c r="M81">
-        <v>1</v>
-      </c>
-      <c r="N81" t="s">
-        <v>931</v>
-      </c>
-      <c r="O81">
-        <v>0</v>
-      </c>
-      <c r="P81" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q81">
-        <v>3</v>
-      </c>
-      <c r="R81" t="s">
-        <v>932</v>
-      </c>
-      <c r="S81">
-        <v>0</v>
-      </c>
-      <c r="T81" t="s">
-        <v>66</v>
-      </c>
-      <c r="U81">
-        <v>0</v>
-      </c>
-      <c r="V81" t="s">
-        <v>103</v>
-      </c>
-      <c r="W81">
-        <v>0</v>
-      </c>
-      <c r="X81" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>857</v>
-      </c>
-      <c r="B82" t="s">
-        <v>54</v>
-      </c>
-      <c r="C82" t="s">
-        <v>26</v>
-      </c>
-      <c r="D82" t="s">
-        <v>933</v>
-      </c>
-      <c r="E82" t="s">
-        <v>934</v>
-      </c>
-      <c r="F82">
-        <v>5</v>
-      </c>
-      <c r="G82" t="s">
-        <v>935</v>
-      </c>
-      <c r="H82" t="s">
-        <v>936</v>
-      </c>
-      <c r="I82" t="s">
-        <v>937</v>
-      </c>
-      <c r="J82" t="s">
-        <v>938</v>
-      </c>
-      <c r="K82">
-        <v>3</v>
-      </c>
-      <c r="L82" t="s">
-        <v>939</v>
-      </c>
-      <c r="M82">
-        <v>0</v>
-      </c>
-      <c r="N82" t="s">
-        <v>940</v>
-      </c>
-      <c r="O82">
-        <v>0</v>
-      </c>
-      <c r="P82" t="s">
-        <v>941</v>
-      </c>
-      <c r="Q82">
-        <v>0</v>
-      </c>
-      <c r="R82" t="s">
-        <v>942</v>
-      </c>
-      <c r="S82">
-        <v>2</v>
-      </c>
-      <c r="T82" t="s">
-        <v>943</v>
-      </c>
-      <c r="U82">
-        <v>0</v>
-      </c>
-      <c r="V82" t="s">
-        <v>944</v>
-      </c>
-      <c r="W82">
-        <v>0</v>
-      </c>
-      <c r="X82" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>857</v>
-      </c>
-      <c r="B83" t="s">
-        <v>54</v>
-      </c>
-      <c r="C83" t="s">
-        <v>26</v>
-      </c>
-      <c r="D83" t="s">
-        <v>946</v>
-      </c>
-      <c r="E83" t="s">
-        <v>947</v>
-      </c>
-      <c r="F83">
-        <v>4</v>
-      </c>
-      <c r="G83" t="s">
-        <v>948</v>
-      </c>
-      <c r="H83" t="s">
-        <v>949</v>
-      </c>
-      <c r="I83" t="s">
-        <v>901</v>
-      </c>
-      <c r="J83" t="s">
-        <v>950</v>
-      </c>
-      <c r="K83">
-        <v>2</v>
-      </c>
-      <c r="L83" t="s">
-        <v>930</v>
-      </c>
-      <c r="M83">
-        <v>1</v>
-      </c>
-      <c r="N83" t="s">
-        <v>951</v>
-      </c>
-      <c r="O83">
-        <v>0</v>
-      </c>
-      <c r="P83" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q83">
-        <v>1</v>
-      </c>
-      <c r="R83" t="s">
-        <v>932</v>
-      </c>
-      <c r="S83">
-        <v>0</v>
-      </c>
-      <c r="T83" t="s">
-        <v>141</v>
-      </c>
-      <c r="U83">
-        <v>0</v>
-      </c>
-      <c r="V83" t="s">
-        <v>141</v>
-      </c>
-      <c r="W83">
-        <v>0</v>
-      </c>
-      <c r="X83" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/resource/04_UPLOAD.xlsx
+++ b/resource/04_UPLOAD.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="533">
   <si>
     <t>날짜</t>
   </si>
@@ -228,147 +228,9 @@
     <t>이 기사에서는 퇴직연금 수령자의 소비 패턴과 요구사항에 대한 내용이 언급되었으므로 2점을 주었다.</t>
   </si>
   <si>
-    <t>한국투자증권</t>
-  </si>
-  <si>
-    <t>한국투자증권, 증권사 최초 토스뱅크와 IRP 계좌개설 제휴</t>
-  </si>
-  <si>
-    <t>한국투자증권은 토스뱅크 모바일 앱에서 개인형 퇴직연금 IRP 계좌개설 서비스를 제공한다고 밝혔다. 이번 제휴를 통해 토스뱅크 고객은 앱 내 목돈굴리기 메뉴에서 간편하게 IRP계좌를 개설할 수 있게 됐다. 한국투자증권은 인터넷은행과의 협업을 통해 자산관리 시너지 제고에 힘쓰고 있다.</t>
-  </si>
-  <si>
-    <t>https://n.news.naver.com/mnews/article/018/0005598133?sid=101</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 한국금융지주 071050의 자회사 한국투자증권은 토스뱅크 모바일 앱에서 개인형 퇴직연금 IRP 계좌개설 서비스를 제공한다고 17일 밝혔다. 토스뱅크를 통한 증권사 퇴직연금 제휴 서비스는 이번이 처음이다.이번 제휴를 통해 토스뱅크 고객은 앱 내 목돈굴리기 메뉴에서 간편하게 IRP계좌를 개설할 수 있게 됐다. IRP는 퇴직금이나 여유자금을 납입해 개인이 직접 운용할 수 있는 퇴직연금 계좌다. 연간 900만원까지 최대 16.5 세액 공제가 가능하며 운용수익 과세 이연 및 퇴직소득세 절세 효과가 있어 활용도가 높다.또한 토스뱅크를 통해 계좌를 만든 후 납입 한도까지 설정한 선착순 3천명에게는 백화점상품권 1만원도 지급한다. 납입 한도 설정은 한국투자증권 퇴직연금 전용 앱 마이 my연금에서 할 수 있다.한편 한국투자증권은 인터넷은행과의 협업을 통해 자산관리 시너지 제고에 힘쓰고 있다. 카카오뱅크 토스뱅크 K뱅크까지 인터넷은행 3사와 모두 증권계좌 개설 제휴를 맺었고 토스뱅크 앱을 통해 채권 발행어음 등 다양한 금융상품을 소개하고 있다.홍덕규 퇴직연금본부장은 증권사 IRP계좌는 상장지수펀드 ETF 실시간 거래가 가능하며 비대면 개설 시 운용 및 자산관리 수수료도 없다면서 이번 제휴를 계기로 토스뱅크 고객들이 퇴직연금자산을 효과적으로 운용할 수 있도록 다양한 이벤트를 준비하겠다고 말했다. </t>
-  </si>
-  <si>
-    <t>['퇴직연금 IRP', 'IRP 수수료', '퇴직소득세', 'IRP 이벤트', '한국투자 퇴직연금']</t>
-  </si>
-  <si>
-    <t>한국투자증권은 퇴직연금 IRP 계좌개설 서비스를 제공하고 있으며, 이는 pension fund management와 관련된 내용이다.</t>
-  </si>
-  <si>
-    <t>이번 제휴를 통해 토스뱅크 고객은 퇴직연금 IRP 계좌를 개설할 수 있게 되었으며, 이는 retirement pension companies의 competition trends와 관련된 내용이다.</t>
-  </si>
-  <si>
-    <t>한국투자증권은 인터넷은행과의 협업을 통해 자산관리 시너지 제고에 힘쓰고 있으며, 이는 financial market impact와 관련된 내용이다.</t>
-  </si>
-  <si>
-    <t>본문에는 legal and regulatory changes에 관련된 내용이 없다.</t>
-  </si>
-  <si>
-    <t>본문에는 demographic change에 관련된 내용이 없다.</t>
-  </si>
-  <si>
-    <t>본문에는 technology and digitalization에 관련된 내용이 없다.</t>
-  </si>
-  <si>
-    <t>본문에는 consumption behavior and requirements에 관련된 내용이 없다.</t>
-  </si>
-  <si>
     <t>타사 동향 및 이벤트</t>
   </si>
   <si>
-    <t>한국투자증권 “토스뱅크와 퇴직연금 서비스 제휴”</t>
-  </si>
-  <si>
-    <t>한국투자증권이 토스뱅크 모바일 앱에서 개인형 퇴직연금 IRP 계좌개설 서비스를 제공한다고 밝혔다. 토스뱅크 고객은 모바일 앱에서 간편하게 IRP 계좌를 개설할 수 있다. 한국투자증권은 계좌를 만든 후 납입 한도까지 설정한 선착순 3000명에게 백화점상품권 1만원을 지급할 예정이다.</t>
-  </si>
-  <si>
-    <t>https://n.news.naver.com/mnews/article/366/0000940013?sid=101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  한국투자증권이 토스뱅크 모바일 앱에서 개인형 퇴직연금 IRP 계좌개설 서비스를 제공한다고 17일 밝혔다.  이번 제휴를 통해 토스뱅크 고객은 모바일 앱의 목돈 굴리기 메뉴에서 간편하게 IRP 계좌를 개설할 수 있다. IRP는 퇴직금이나 여유자금을 납입해 개인이 직접 운용할 수 있는 퇴직연금 계좌다. 연간 900만원까지 최대 16.5 세액 공제가 가능하다. 또 운용수익 과세 이연 및 퇴직소득세 절세 효과가 있다.한국투자증권은 토스뱅크를 통해 계좌를 만든 후 납입 한도까지 설정한 선착순 3000명에게 백화점상품권 1만원을 지급할 예정이다.홍덕규 퇴직연금본부장은 이번 제휴를 계기로 토스뱅크 고객들이 퇴직연금 자산을 효과적으로 운용할 수 있도록 다양한 이벤트를 준비하겠다고 말했다.</t>
-  </si>
-  <si>
-    <t>['퇴직연금 IRP', '개인형퇴직연금', '퇴직소득세', '퇴직연금 이벤트', '퇴직연금 세액공제', '한국투자 퇴직연금', '퇴직연금 서비스 ']</t>
-  </si>
-  <si>
-    <t>[{'퇴직연금 IRP': 3}, {'개인형퇴직연금': 1}, {'퇴직소득세': 1}, {'퇴직연금 이벤트': 1}, {'퇴직연금 세액공제': 1}, {'한국투자 퇴직연금': 7}, {'퇴직연금 서비스 ': 1}]</t>
-  </si>
-  <si>
-    <t>한국투자증권이 토스뱅크 모바일 앱에서 개인형 퇴직연금 IRP 계좌개설 서비스를 제공한다는 내용이 있으나, 자세한 펀드 관리 전략이나 수익률 등에 대한 정보는 제공되지 않았다.</t>
-  </si>
-  <si>
-    <t>이 기사에서는 토스뱅크와 한국투자증권의 제휴를 통해 개인형 퇴직연금 IRP 계좌개설 서비스를 제공한다는 내용이 주요하게 다루어졌다. 이는 새로운 제품 및 서비스를 출시하고 시장 점유율을 확보하기 위한 경쟁 동향을 나타낸다.</t>
-  </si>
-  <si>
-    <t>금융 시장의 변동성이나 투자 자산의 변화에 대한 내용은 제공되지 않았다.</t>
-  </si>
-  <si>
-    <t>법률 및 규제 변화에 대한 내용은 제공되지 않았다.</t>
-  </si>
-  <si>
-    <t>노령화와 관련된 내용이나 퇴직연금이 장기적인 지속 가능성에 미치는 영향에 대한 내용은 제공되지 않았다.</t>
-  </si>
-  <si>
-    <t>기사에서는 기술과 디지털화에 대한 내용이 다루어지지 않았다.</t>
-  </si>
-  <si>
-    <t>소비 행동 및 요구사항에 대한 내용은 제공되지 않았다.</t>
-  </si>
-  <si>
-    <t>한국투자증권, 토스뱅크서 IRP 계좌 개설 가능</t>
-  </si>
-  <si>
-    <t>한국투자증권이 토스뱅크 모바일 앱에서 IRP 개인형 퇴직연금 계좌개설 서비스를 제공한다고 밝혔다. 이번 제휴를 통해 토스뱅크 고객은 앱 내 목돈굴리기 메뉴에서 간편하게 IRP계좌를 개설할 수 있게 됐다. IRP는 퇴직금이나 여유자금을 납입해 개인이 직접 운용할 수 있는 퇴직연금 계좌다.</t>
-  </si>
-  <si>
-    <t>https://n.news.naver.com/mnews/article/468/0000990734?sid=101</t>
-  </si>
-  <si>
-    <t>사진한국투자증권 한국투자증권이 토스뱅크 모바일 앱에서 IRP 개인형 퇴직연금 계좌개설 서비스를 제공한다고 17일 밝혔다.이번 제휴를 통해 토스뱅크 고객은 앱 내 목돈굴리기 메뉴에서 간편하게 IRP계좌를 개설할 수 있게 됐다. IRP는 퇴직금이나 여유자금을 납입해 개인이 직접 운용할 수 있는 퇴직연금 계좌다. 연간 900만원까지 최대 16.5 세액 공제가 가능하며 운용수익 과세 이연 및 퇴직소득세 절세 효과가 있어 활용도가 높다.또한 토스뱅크를 통해 계좌를 만든 후 납입 한도까지 설정한 선착순 3000명에게는 백화점상품권 1만원도 지급한다. 납입 한도 설정은 한국투자증권 퇴직연금 전용 앱 my연금에서 할 수 있다.홍덕규 퇴직연금본부장은 증권사 IRP계좌는 ETF 실시간 거래가 가능하며 비대면 개설 시 운용 및 자산관리 수수료도 없다며 이번 제휴를 계기로 토스뱅크 고객들이 퇴직연금자산을 효과적으로 운용할 수 있도록 다양한 이벤트를 준비하겠다고 말했다.shhong0820sportsseoul.com</t>
-  </si>
-  <si>
-    <t>[{'퇴직연금 IRP': 4}, {'IRP 수수료': 2}, {'퇴직소득세': 18}, {'IRP 이벤트': 2}, {'한국투자 퇴직연금': 2}]</t>
-  </si>
-  <si>
-    <t>한국투자증권이 토스뱅크와 제휴하여 IRP 개인형 퇴직연금 계좌개설 서비스를 제공하는 것은 퇴직연금 기금 운용에 대한 관리 전략과 투자 자산 할당 모니터링에 관련되어 있습니다.</t>
-  </si>
-  <si>
-    <t>이 기사에서는 토스뱅크와 한국투자증권의 제휴와 IRP 계좌 개설 서비스에 대해 언급하고 있으므로, 퇴직연금 기업 간의 경쟁 동향과 새로운 제품 및 서비스 출시에 관련되어 있습니다.</t>
-  </si>
-  <si>
-    <t>이 기사에서는 금융 시장의 움직임, 이자율 변동 및 투자 자산의 변동성이 퇴직연금 산업에 미치는 영향에 대해 언급하고 있습니다.</t>
-  </si>
-  <si>
-    <t>이 기사에서는 법률 및 규제 변경에 대한 언급이 없습니다.</t>
-  </si>
-  <si>
-    <t>이 기사에서는 인구 통계 변화에 대한 언급이 없습니다.</t>
-  </si>
-  <si>
-    <t>이 기사에서는 기술과 디지털화에 대한 언급이 없습니다.</t>
-  </si>
-  <si>
-    <t>이 기사에서는 소비 행동 및 요구사항에 대한 언급이 없습니다.</t>
-  </si>
-  <si>
-    <t>한국투자증권, 토스뱅크와 IRP 계좌개설 제휴…'증권사 최초'</t>
-  </si>
-  <si>
-    <t>한국투자증권은 토스뱅크 모바일 앱에서 IRP 개인형 퇴직연금 계좌개설 서비스를 제공한다고 밝혔다. 이번 제휴로 토스뱅크 고객은 앱 내 목돈굴리기 메뉴에서 간편하게 IRP계좌를 개설할 수 있게 됐다. 한국투자증권은 인터넷은행과의 협업을 통해 자산관리 시너지 제고에 힘쓰고 있다.</t>
-  </si>
-  <si>
-    <t>https://n.news.naver.com/mnews/article/421/0007115614?sid=101</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 서울뉴스1 이기림 기자 한국금융지주 071050 자회사 한국투자증권은 토스뱅크 모바일 앱에서 IRP 개인형 퇴직연금 계좌개설 서비스를 제공한다고 17일 밝혔다. 토스뱅크를 통한 증권사 퇴직연금 제휴 서비스는 이번이 처음이다.이번 제휴로 토스뱅크 고객은 앱 내 목돈굴리기 메뉴에서 간편하게 IRP계좌를 개설할 수 있게 됐다. IRP는 퇴직금이나 여유자금을 납입해 개인이 직접 운용할 수 있는 퇴직연금 계좌다. 연간 900만원까지 최대 16.5 세액 공제가 가능하며 운용수익 과세 이연 및 퇴직소득세 절세 효과가 있어 활용도가 높다.또한 토스뱅크를 통해 계좌를 만든 후 납입 한도까지 설정한 선착순 3천명에게는 백화점상품권 1만원도 지급한다. 납입 한도 설정은 한국투자증권 퇴직연금 전용 앱 my연금에서 할 수 있다.한국투자증권은 인터넷은행과의 협업을 통해 자산관리 시너지 제고에 힘쓰고 있다. 카카오뱅크 토스뱅크 K뱅크까지 인터넷은행 3사와 모두 증권계좌 개설 제휴를 맺었고 토스뱅크 앱을 통해 채권 발행어음 등 다양한 금융상품을 소개하고 있다.홍덕규 한국투자증권 퇴직연금본부장은 증권사 IRP계좌는 ETF 실시간 거래가 가능하며 비대면 개설 시 운용 및 자산관리 수수료도 없다면서 이번 제휴를 계기로 토스뱅크 고객들이 퇴직연금자산을 효과적으로 운용할 수 있도록 다양한 이벤트를 준비하겠다고 말했다.</t>
-  </si>
-  <si>
-    <t>[{'퇴직연금 IRP': 5}, {'퇴직연금 IRP': 32}, {'IRP 수수료': 3}, {'IRP 수수료': 25}, {'퇴직소득세': 19}, {'퇴직소득세': 45}, {'IRP 이벤트': 3}, {'IRP 이벤트': 24}, {'한국투자 퇴직연금': 3}, {'한국투자 퇴직연금': 27}]</t>
-  </si>
-  <si>
-    <t>한국투자증권은 토스뱅크와의 제휴를 통해 IRP 개인형 퇴직연금 계좌개설 서비스를 제공하고 있다.</t>
-  </si>
-  <si>
-    <t>이번 제휴로 토스뱅크 고객은 앱 내 목돈굴리기 메뉴에서 간편하게 IRP계좌를 개설할 수 있게 되었다.</t>
-  </si>
-  <si>
-    <t>한국투자증권은 인터넷은행과의 협업을 통해 자산관리 시너지 제고에 힘쓰고 있다.</t>
-  </si>
-  <si>
     <t>No relevant information in the article.</t>
   </si>
   <si>
@@ -906,45 +768,6 @@
     <t>2023-10-15</t>
   </si>
   <si>
-    <t>앞만 봤더니 40대 중반 “노후 준비되면 당장 은퇴···가능할까요” [재테크...</t>
-  </si>
-  <si>
-    <t>40대 중반 직장인 A씨는 노후준비에 대한 방향성이 잘 설정되지 않았다. 현재 예적금 위주 현금자산을 쌓고 있지만 주변의 임대료 소득이나 배당 소득을 올려야 한다는 제안에 흔들리고 있다. A씨는 총 은퇴생활비를 계산하고 향후 저축가능 금액을 검토해야 한다.</t>
-  </si>
-  <si>
-    <t>https://n.news.naver.com/mnews/article/014/0005085745?sid=101</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 40대 중반 직장인 A씨는 근무 중에 멈칫할 때가 잦다. 그동안 너무 일에만 몰두하면서 살아온 터라 정작 재무관리에는 힘쓰지 못한 것 같다. 인생을 제대로 돌아볼 기회가 없어 이제야 이 사실을 알아챘다. 정년은 60세라지만 현 직장에 언제까지 있을 지는 확신할 수 없다. 10년 정도는 더 일할 수 있을 듯한데 그 후에 필요한 노후생활비를 마련할 수 있을지 의문이다. 노후준비만 어느 정도 되면 그 전에라도 은퇴하고 싶다. 일단은 방향성이 잘 설정돼 있지 않다. 소득 중 일부는 청약과 연금에 넣고 있고 나머지는 파킹통장에 예치해뒀다가 지금은 정기예금으로 묶어두고 있다. 주변에선 부동산을 구매해 월세를 받으라거나 주식 투자로 배당을 취하라는 얘기들을 한다. 하지만 어디에 집중할지 감은 안 잡힌다. 45세 A씨 월 수입은 580만원이다. 이와 별도로 연간 비정기 상여로 2000만원이 들어온다. 월 지출은 361만원이다. 고정비로 61만원이 나간다. 보험료 42만원 통신비 8만8000원 정수기 등 정기결제 5만2000원 기부금 5만원 등 합산액이다. 변동비는 관리공과금 30만원 식비생활비 80만원 교통비 30만원 용돈 40만원을 합쳐 180만원이다. 저축은 청약저축 10만원 연금저축 60만원 적금 50만원 등 120만원씩하고 있다. 연간비용은 1800만원이 든다. 자산은 8억5000만원이 조금 넘는다. 전세금 5억5000만원에 청약 570만원 적금 1810만원 정기예금 2억3000만원 파킹통장 4900만원 등이 있다. 부채는 없다. 은퇴 후 65세부터 국민연금은 월 120만원 정도 받을 것으로 예상된다. 퇴직연금 4800만원 연금저축 1570만원도 있다. 금융감독원에 따르면 40대는 생애주기상 이전 발자취를 돌아보고 향후 일과 생의 마무리를 어떻게 준비할지 점검하는 시기다. 억대 연봉이라도 은퇴가 빠른 직업이 있고 당장 월급은 적지만 노후 준비가 잘 돼 있는 경우도 있다. 공통점은 죽을 때까지 돈에 대한 고민은 멈추지 않는다는 점이다. 하지만 결국 돈 관리법은 본인 상황마다 다르다. 재무뿐만 아니라 비재무적 사항도 함께 고려해야 하기 때문이다. A씨는 현재 예적금 위주 현금자산을 쌓고 있다. 그래서 주변의 임대료 소득이나 배당 소득을 올려야 한다는 제안에 흔들리고 있다. 하지만 금감원 관계자는 자본소득만으로 하는 은퇴 준비는 현실적이지 않다고 지적했다. 월 500만원을 만들고자 한다면 연 5 금리 가정시 12억원이 필요하다. 하지만 이는 이론적 주장일 뿐 부동산 소유주는 건물 감가 유지보수 세금 보유세양도세 등 공실률 등 여러 고민에 에너지를 투입해야 한다. 실제 한국부동산원에 따르면 지난해 전국 집합상가 투자수익률은 14분기 1.55에서 44분기 1.07로 떨어졌다. 60억원 정도는 있어야 500만원을 만들어낼 수 있다는 뜻이다. 매도 전까지 유동자금을 활용하지 못하고 다른 소득과 합산할 경우 종합소득과세표준이 증가한다는 맹점도 있다. 주식이나 상장지수펀드 ETF 배당도 만능은 아니다. 배당금액이 커도 종목 자체 수익률이 하락하면 꾸준한 현금흐름을 창출하기는 어렵다. 배당소득 2000만원 초과시 종합과세 해외주식의 경우 양도세 22 부담을 고려해야 한다. 현금이나 연금자산이 무조건적으로 적합한 것도 아니다. 전자는 유동성이 크고 후자는 절세 혜택에 더해 꾸준한 생활비 지급이 가능하지만 반대로 각각 복리나 자본성장성을 기대하기 어렵고 일시금 형태로 수령시 불이익 가능성이 있다. 금감원 관계자는 자산을 어느 한 수단에 전부 투자하기보다 목적에 맞게 나눠 활용하는 게 합리적이라며 재무설계 목적은 원하는 때 원하는 만큼 적절한 형태로 돈을 사용할 수 있는 것이라고 짚었다. A씨는 먼저 총 은퇴생활비를 계산하고 향후 저축가능 금액을 검토해 봐야 한다. 노후기간이 30년이라면 월 300만원씩 은퇴생활비는 10억8000만원이 된다. 의료비도 2억원 추가된다. 60세 은퇴 전 저축 가능액은 6억4020만원이다. 총수입은 580122000로 8960만원이고 총지출은 241121800에 따라 4692만원이다. 이들 차액 4268만원을 15년 동안 모은 결과다. 부동산을 제외한 현금성 자산 3억1852만원까지 감안하면 9억5872만원까지 마련할 수 있다. 나머지는 국민연금 일시금 3억6000만원 퇴직연금 은퇴시점 2억원으로 채우면 여유있게 마련할 수 있다. 금감원 관계자는 향후 9년 정도 소득활동을 하면 은퇴생활비 마련이 가능한 상황이라며 주택 구입으로 주택연금까지 활용하면 이 시점을 더 단축할 수도 있을 것이라고 설명했다. 금융감독원이 운영하는 금융소비자포털 파인을 인터넷 검색창에 입력하거나 금감원콜센터 1332 7번 금융자문서비스로 전화하시면 무료 맞춤형 금융소비자 상담을 받을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>['퇴직연금 은퇴설계', '퇴직연금 절세혜택']</t>
-  </si>
-  <si>
-    <t>[{'퇴직연금 은퇴설계': 1}, {'퇴직연금 절세혜택': 44}]</t>
-  </si>
-  <si>
-    <t>A씨는 현재 예적금 위주 현금자산을 쌓고 있으며, 주변의 임대료 소득이나 배당 소득을 고려하고 있다. 그러나 방향성이 명확하지 않아 점수는 3점으로 준다.</t>
-  </si>
-  <si>
-    <t>기사에는 산업 경쟁 동향에 대한 정보가 없으므로 점수는 2점으로 준다.</t>
-  </si>
-  <si>
-    <t>금융시장의 변동성에 대한 정보가 없으므로 점수는 1점으로 준다.</t>
-  </si>
-  <si>
-    <t>기사에는 법률 및 규제 변화에 대한 정보가 없으므로 점수는 2점으로 준다.</t>
-  </si>
-  <si>
-    <t>기사에는 노후준비와 관련된 정보가 상세히 나와 있으며, A씨의 노후생활비 계산과 관련된 내용도 포함되어 있어 점수는 4점으로 준다.</t>
-  </si>
-  <si>
-    <t>기사에는 기술과 디지털화에 관련된 정보가 없으므로 점수는 0점으로 준다.</t>
-  </si>
-  <si>
-    <t>A씨의 소비 패턴과 투자 선호도에 대한 정보가 제시되어 있으며, 서비스 개발 및 개선에 대한 고려도 나와 있어 점수는 3점으로 준다.</t>
-  </si>
-  <si>
     <t>'더받는' 시나리오도 추가…백화점식 연금 보고서에 개혁 안갯속</t>
   </si>
   <si>
@@ -1020,33 +843,6 @@
     <t>기사에서는 소비 행태와 요구사항에 대한 정보가 없으므로 0점을 줍니다.</t>
   </si>
   <si>
-    <t>은퇴생활비와 저축가능 금액 파악하는게 첫단계 [재테크 Q&amp;amp;A]</t>
-  </si>
-  <si>
-    <t>40대 중반 직장인 A씨는 재무관리에 힘쓰지 못하고 있으며, 노후생활비를 마련하는 것에 대해 의문을 가지고 있다. A씨는 현재 예적금 위주 현금자산을 쌓고 있지만 주변의 제안에 흔들리고 있다. 금감원은 자본소득만으로 은퇴 준비하는 것은 현실적이지 않다고 지적하고 있다.</t>
-  </si>
-  <si>
-    <t>https://n.news.naver.com/mnews/article/014/0005085929?sid=101</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Q. 40대 중반 직장인 A씨는 근무 중에 멈칫할 때가 잦다. 그동안 너무 일에만 몰두하면서 살아온 터라 정작 재무관리에는 힘쓰지 못한 것 같다. 정년은 60세라지만 현 직장에 언제까지 있을 지는 확신할 수 없다. 10년 정도는 더 일할 수 있을 듯한데 그 후에 필요한 노후생활비를 마련할 수 있을지 의문이다. 노후준비만 어느 정도 되면 그 전에라도 은퇴하고 싶다. 일단은 방향성이 잘 설정돼 있지 않다. 소득 중 일부는 청약과 연금에 넣고 있고 나머지는 파킹통장에 예치해뒀다가 지금은 정기예금으로 묶어두고 있다. 주변에선 부동산을 구매해 월세를 받으라거나 주식 투자로 배당을 취하라는 얘기들을 한다. 하지만 어디에 집중할지 감은 안 잡힌다. A. 45세 A씨 월 수입은 580만원이다. 이와 별도로 연간 비정기 상여로 2000만원이 들어온다. 월 지출은 361만원이다. 고정비로 61만원이 나간다. 보험료 42만원 통신비 8만8000원 정수기 등 정기결제 5만2000원 기부금 5만원 등 합산액이다. 변동비는 관리공과금 30만원 식비생활비 80만원 교통비 30만원 용돈 40만원을 합쳐 180만원이다. 저축은 청약저축 10만원 연금저축 60만원 적금 50만원 등 120만원씩하고 있다. 연간비용은 1800만원이 든다. 자산은 8억5000만원이 조금 넘는다. 전세금 5억5000만원에 청약 570만원 적금 1810만원 정기예금 2억3000만원 파킹통장 4900만원 등이 있다. 부채는 없다. 은퇴 후 65세부터 국민연금은 월 120만원 정도 받을 것으로 예상된다. 퇴직연금 4800만원 연금저축 1570만원도 있다. 금융감독원에 따르면 A씨는 현재 예적금 위주 현금자산을 쌓고 있다. 그래서 주변의 임대료 소득이나 배당 소득을 올려야 한다는 제안에 흔들리고 있다. 하지만 금감원 관계자는 자본소득만으로 하는 은퇴 준비는 현실적이지 않다고 지적했다. 월 500만원을 만들고자 한다면 연 5 금리 가정시 12억원이 필요하다. 하지만 이는 이론적 주장일 뿐 부동산 소유주는 건물 감가 유지보수 세금 보유세양도세 등 공실률 등 여러 고민에 에너지를 투입해야 한다. 실제 한국부동산원에 따르면 지난해 전국 집합상가 투자수익률은 14분기 1.55에서 44분기 1.07로 떨어졌다. 60억원 정도는 있어야 500만원을 만들어낼 수 있다는 뜻이다. 매도 전까지 유동자금을 활용하지 못하고 다른 소득과 합산할 경우 종합소득과세표준이 증가한다는 맹점도 있다. 주식이나 상장지수펀드 ETF 배당도 만능은 아니다. 배당금액이 커도 종목 자체 수익률이 하락하면 꾸준한 현금흐름을 창출하기는 어렵다. 배당소득 2000만원 초과시 종합과세 해외주식의 경우 양도세 22 부담을 고려해야 한다. 현금이나 연금자산이 무조건적으로 적합한 것도 아니다. 전자는 유동성이 크고 후자는 절세 혜택에 더해 꾸준한 생활비 지급이 가능하지만 반대로 각각 복리나 자본성장성을 기대하기 어렵고 일시금 형태로 수령시 불이익 가능성이 있다. 금감원 관계자는 자산을 어느 한 수단에 전부 투자하기보다 목적에 맞게 나눠 활용하는 게 합리적이라며 재무설계 목적은 원하는 때 원하는 만큼 적절한 형태로 돈을 사용할 수 있는 것이라고 짚었다. A씨는 먼저 총 은퇴생활비를 계산하고 향후 저축가능 금액을 검토해 봐야 한다. 노후기간이 30년이라면 월 300만원씩 은퇴생활비는 10억8000만원이 된다. 의료비도 2억원 추가된다. 60세 은퇴 전 저축 가능액은 6억4020만원이다. 총수입은 580122000로 8960만원이고 총지출은 241121800에 따라 4692만원이다. 이들 차액 4268만원을 15년 동안 모은 결과다. 부동산을 제외한 현금성 자산 3억1852만원까지 감안하면 9억5872만원까지 마련할 수 있다. 나머지는 국민연금 일시금 3억6000만원 퇴직연금 은퇴시점 2억원으로 채우면 여유있게 마련할 수 있다. 금감원 관계자는 향후 9년 정도 소득활동을 하면 은퇴생활비 마련이 가능한 상황이라며 주택 구입으로 주택연금까지 활용하면 이 시점을 더 단축할 수도 있을 것이라고 설명했다. 금융감독원이 운영하는 금융소비자포털 파인을 인터넷 검색창에 입력하거나 금감원콜센터 1332 7번 금융자문서비스로 전화하시면 무료 맞춤형 금융소비자 상담을 받을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>[{'퇴직연금 은퇴설계': 10}, {'퇴직연금 절세혜택': 45}]</t>
-  </si>
-  <si>
-    <t>A씨는 현재 예적금 위주 현금자산을 쌓고 있으며, 금감원은 자본소득만으로 은퇴 준비하는 것은 현실적이지 않다고 지적하고 있다.</t>
-  </si>
-  <si>
-    <t>A씨는 주변의 제안에 흔들리고 있으며, 노후생활비를 마련하는 것에 대해 의문을 가지고 있다.</t>
-  </si>
-  <si>
-    <t>A씨는 재무관리에 힘쓰지 못하고 있으며, 노후생활비를 마련하는 것에 대해 의문을 가지고 있다.</t>
-  </si>
-  <si>
-    <t>A씨는 노후생활비를 마련하는 것에 대해 의문을 가지고 있다.</t>
-  </si>
-  <si>
     <t>월 0.5% 배당 지급…하락장엔 필수재株 담아 안정적 수익 [이런 펀드 어때요?...</t>
   </si>
   <si>
@@ -1074,85 +870,10 @@
     <t>해당 ETF는 힘들었던 9월에 오히려 2.5 이상 상승 하락기에 시장 대비 안정적인 방어를 하는 모습을 보였다.</t>
   </si>
   <si>
-    <t>퇴직연금 갈아탔더니... “여보, 5년치 이자로 30% 준대” [왕개미연구소]</t>
-  </si>
-  <si>
-    <t>퇴직금을 최대한 많이 쌓을 수 있는 방법을 고민해야 한다. DC 전환을 결심했다면 회사 내 퇴직연금 사업자에게 연락해서 따로 물어봐야 한다. 인플레이션이 이렇게 심한데 노후 생활비 이 정도면 충분할까 은퇴 준비가 궁금하면 왕개미연구소에 방문해 주세요.</t>
-  </si>
-  <si>
-    <t>https://n.news.naver.com/mnews/article/023/0003793353?sid=101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">변칙 특판 규제로 내달 꿀금리 상품 사라져50대 부장님 DB에서 DC 전환 서두르세요앞으로 내 급여가 오르긴 힘들 텐데...50대 만년 부장인데 문득 회사에서 이런 생각이 들었다면 이때가 바로 퇴직연금을 점검할 타이밍이다. 급여가 싹둑 잘리는 임금피크제 진입이 코앞인 장기 근속자라면 더욱 그렇다. 퇴직연금을 어떻게 관리하느냐에 따라 은퇴 후 받는 돈은 확연히 차이 나고 삶의 질도 달라진다.황명하 NH투자증권 100세시대연구소 연구위원은 은퇴에 임박해서 퇴직금을 보며 후회해봤자 시간을 돌이킬 순 없다면서 나중에 어떻게 사용하든 현역에 있을 때 퇴직금을 최대한 많이 쌓을 수 있는 방법을 고민해야 한다고 조언했다. 인생의 절반을 산 50대가 꼭 알아야 할 퇴직금 리터러시 문해력에 대해 알아봤다. 퇴직금 각자도생 시대 열린다퇴직연금 난 아무 것도 몰라...내 퇴직연금이 어떤 것인지 어떻게 운용되고 있는지 잘 모르는 직장인들이 수두룩하다. 퇴직연금은 크게 두 가지 유형이 있다. 회사가 알아서 굴려주는 확정급여형 DB과 내가 직접 운용하는 확정기여형 DC이 그것이다. 회사 다니면서 퇴직금 운용 때문에 고민해 본 적이 없다면 DB일 가능성이 높다.승진 기회가 많고 임금 상승률도 높으면서 장기 근속까지 가능하다면 DB가 압도적으로 유리하다. 하지만 회사 다닐 날보다 다닌 날이 길어진 50대 만년 부장이라면 계산기를 두드리고 득실을 따져봐야 한다. DB에 그대로 머물러 있기보다는 DC로 갈아타는 것이 더 유리할 수 있기 때문이다.퇴직금은 퇴직 이전 30일 평균임금에 계속근로기간을 곱한 값이다. 가령 만 55세인 김 부장이 현 직장에서 20년간 계속 일했고 최근 30일 평균임금 퇴직 직전 3개월 급여를 근무일수로 나눈 값이 500만원인 경우를 가정해 보자. 지금 당장 김 부장이 회사를 떠나면 받게 될 퇴직금은 1억원 500만원ⅹ20년이다.그런데 만약 김 부장이 임금피크제에 들어갔고 만 60세 시점의 30일 평균임금이 250만원이라면 퇴직금은 6250만원 250만원ⅹ25년으로 쪼그라든다. 더 오래 일했는데도 퇴직금은 줄어드는 비참한 상황이 발생하는 것이다.김 부장이 미래의 불행을 피하려면 퇴직금 운용 체계 갈아타기가 필수다. 마치 퇴직금 중간정산을 하는 것처럼 임금이 정점에 달했다고 생각될 때 DB에서 DC로 전환하는 것이다. 이렇게 DB에서 DC로 전환하면 퇴직금이 중간정산 김 부장 경우엔 1억원되어서 본인 명의 계좌에 입금된다. 내 이름으로 된 계좌이지만 퇴직금이기 때문에 몇 가지 예외 사항을 빼면 중도 인출은 불가능하다. DC 고금리 특판 내달 사라질 듯회사가 책임을 지는 DB는 전체 퇴직연금 시장에서 차지하는 비중이 60로 아직은 DC 26보다 훨씬 높다. 평생 퇴직금 운용은 신경 쓰지 않고 살아왔는데 DC 가입자가 되어 직접 퇴직금을 운용해야 한다고 하면 두려운 것도 사실이다.과거와 같은 1대 초저금리 시대엔 DB를 유지하는 것이 현명한 선택이기도 했다. 하지만 지금 같은 고금리 시대엔 생각을 바꿔야 한다. 임금상승률이 정체된 50대 부장이라면 DC가 오히려 더 기회일 수 있다. 투자에 대해 전혀 몰라도 DC에서 굴릴 수 있는 원금 보장형 상품 금리가 부쩍 높아졌기 때문이다.중소기업에 다니는 50대 이모씨는 지난 주 퇴직연금을 DB에서 DC로 갈아탔는데 상품 리스트에 나와 있는 금리를 보고 깜짝 놀랐다. 이씨는 원금 보장형 상품인데 금리가 연 6이고 5년 장기로 가입하는 것도 가능해서 따져보니 총 30였다면서 DB에 그냥 있었으면 연 2 임금상승률만 적용되었을 텐데 DC로 바꿔서 퇴직금 운용 수익이 3배 높아질 것 같다고 말했다.대형 금융회사의 퇴직연금 담당자는 퇴직연금 시장이 커지면서 DC 유치 경쟁도 치열해지고 있다면서 신규고객 유치를 위해 손해를 감수하고 특판 금리를 제공하는 상품을 팔고 있다고 말했다. 이 회사는 DB에서 DC로 갈아탄 고객에게 3년 5년 만기 원금보장형 상품 금리로 각각 연 5.85 연 6를 제공하고 있다. 우리나라 퇴직연금의 5년 장기 수익률이 연환산 1.5이니까 연 6면 상당하다.하지만 이런 꿀금리 상품은 다음 달부터는 사라질 전망이다. 금융당국이 퇴직연금 가입자를 늘리기 위해 마진을 포기하면서 고금리 특판 상품을 파는 것은 과하다고 보고 다음 달부터 규제할 방침이기 때문이다. 금융당국 관계자는 일부 금융회사들이 웃돈 수수료 11.5을 주고 고금리 상품을 떼어 와서 판매하는 관행이 있다면서 퇴직연금 시장 정상화를 위해 이런 관행이 없어지도록 조만간 손볼 방침이라고 밝혔다.보험사 퇴직연금 담당 관계자는 내가 퇴직연금 업무만 10년을 해왔는데 원금보장형이면서 이런 높은 금리는 처음 봤다면서 규제가 시행되면 지금과 같은 연 6 고금리 상품은 보기 힘들 것이라고 예상했다. 사실상 이달 나온 고금리 특판 상품들이 막차라는 얘기다.우리나라는 가계부채가 많아서 금리를 미국처럼 대폭 올리긴 어렵잖아요. 현재 금리가 고점 근처라고 볼 수 있는데 지금 판매하는 고금리 특판은 심지어 회사들이 손해 보면서 판매하는 것이니 소비자 입장에선 여러모로 유리하죠. 지금 시점엔 가급적 장기 고금리로 묶어두는 걸 추천합니다.다만 DB에서 DC로 일단 갈아타면 다시 DB로 돌아가는 것은 불가능하니 신중히 결정해야 한다. 예금 만기가 긴데 만기 전에 퇴사하는 경우 중도해지 손해는 없고 퇴사일까지 일할 계산해서 약속된 금리로 상환된다.참고로 고금리 특판 상품은 금융회사 퇴직연금 앱에 공개되지 않는다. DC 전환을 결심했다면 회사 내 퇴직연금 사업자에게 연락해서 따로 물어봐야 한다. 이미 DC에 가입 중이라고 해도 사업자를 갈아타면 신규 가입자가 되기 때문에 특판 고금리를 챙길 수 있다. DC 가입자는 이 참에 퇴직연금 성과를 확인해 보고 부실하다면 사업자 갈아타기를 고려해 보자.인플레이션이 이렇게 심한데 노후 생활비 이 정도면 충분할까 은퇴 준비가 궁금하면 왕개미연구소에 방문해 주세요 입장료는 무료. 조선닷컴에선 여기를 누르시고 네이버다음 등 포털에서는 주소 designlab.chosun.com giantAnt user html를 복사해서 주소창에 입력하시면 됩니다. </t>
-  </si>
-  <si>
-    <t>['퇴직연금 DB', '퇴직연금 DC', '확정기여형', '확정급여형', '퇴직연금 사업자', '퇴직연금 중간정산', 'NH 퇴직연금', '퇴직연금 경쟁', '퇴직연금 수익률', '퇴직연금 가입', '퇴직연금 예금', '임금피크제']</t>
-  </si>
-  <si>
-    <t>[{'퇴직연금 DB': 1}, {'퇴직연금 DC': 1}, {'확정기여형': 5}, {'확정급여형': 4}, {'퇴직연금 사업자': 1}, {'퇴직연금 중간정산': 1}, {'NH 퇴직연금': 1}, {'퇴직연금 경쟁': 1}, {'퇴직연금 수익률': 1}, {'퇴직연금 가입': 1}, {'퇴직연금 예금': 1}, {'임금피크제': 8}]</t>
-  </si>
-  <si>
-    <t>퇴직금을 최대한 많이 쌓을 수 있는 방법을 고민하고 DC 전환을 고려하는 내용이 포함되어 있음.</t>
-  </si>
-  <si>
-    <t>경쟁 동향에 대한 내용이 없음.</t>
-  </si>
-  <si>
-    <t>인플레이션에 대한 언급이 있으나, 퇴직연금 산업에 대한 영향에 대한 분석은 없음.</t>
-  </si>
-  <si>
-    <t>법적 및 규제 변화에 대한 내용이 없음.</t>
-  </si>
-  <si>
-    <t>퇴직금을 최대한 많이 쌓을 수 있는 방법과 노후 생활비에 대한 충분성에 대한 고민이 포함되어 있음.</t>
-  </si>
-  <si>
     <t>기술과 디지털화에 대한 내용이 없음.</t>
   </si>
   <si>
     <t>소비 행동 및 요구사항에 대한 내용이 없음.</t>
-  </si>
-  <si>
-    <t>2023-10-14</t>
-  </si>
-  <si>
-    <t>“65세 이후 보릿고개? 배당주 ETF로 넘겨요”[기똥찬 재테크]</t>
-  </si>
-  <si>
-    <t>고배당 ETF는 배당 수익률이 높은 종목들을 편입한 ETF로 분산투자 효과와 장기적인 수익을 기대할 수 있다. ARIRANG 고배당주 ETF는 최근 3개월 수익률이 9.19로 가장 높았으며, 주로 은행주와 통신주로 구성되어 있다.</t>
-  </si>
-  <si>
-    <t>https://n.news.naver.com/mnews/article/014/0005085641?sid=101</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 어느 때보다 투자하기 어려운 환경이라는 이야기가 들리는 요즘입니다. 물가를 잡기 위해 전세계의 고금리 기조가 장기화하면서 경기 침체가 지속되고 최근에는 지정학적 리스크도 불거졌는데요. 국내 증시도 2차전지 초전도체 등 테마주 랠리로 올해 급등락을 반복하며 변동성이 커지고 있습니다. 이럴 때일수록 주기적인 배당을 실시하는 상장지수펀드 ETF에 대한 관심이 커지고 있는데요. 개별 종목에 대한 리스크를 분산할 수 있고 장기 연금투자자라면 꾸준한 주가 상승과 함께 배당금 재투자를 통한 복리 효과를 기대할 수도 있습니다. 오늘은 불확실성이 커질수록 주목받는 고배당 ETF에 대해 알아보겠습니다.  수익 높은 고배당 ETF 은행통신주 품었다 고배당 ETF란 대형주를 중심으로 배당 수익률이 높은 고배당 종목들을 편입한 ETF입니다. 가장 큰 장점은 분산투자 효과입니다. 개별 종목의 실적 저하 유상증자 배당컷 등의 이슈가 발생했을 때 주가 하락으로 인한 손실을 줄일 수 있습니다. 또 지수를 추종하는 상품인 만큼 장기적으로 수익을 올리는 데 적합합니다. 현금 흐름을 챙기면서 안정적인 투자를 하고 싶은 장기 투자자 연금 생활자라면 눈여겨봐야 할 상품인 거죠. 에프엔 가이드에 따르면 최근 3개월 7월11일10월11일 사이에 가장 높은 수익률을 기록한 고배당 ETF는 ARIRANG 고배당주 ETF입니다. 국내 증시에 상장된 고배당주 ETF 중 자산 규모가 1919억원으로 가장 큰 ARIRANG 고배당주 ETF의 최근 3개월 수익률은 9.19를 기록했습니다. ARIRANG 고배당주 ETF는 코스피 시가총액 상위 200개 종목 가운데 예상 배당수익률이 가장 높은 상위 30개 종목으로 구성된 에프앤가이드 고배당주 지수를 따릅니다. 수익률이 높은 배당주 ETF의 세부 종목을 살펴보면 우량기업 은행주 통신주 등이 많은데요. 금리 환율 등 변수에 영향을 상대적으로 덜 받기 때문입니다. 특히 은행보험 등 금융주는 배당수익률은 높은데 주가 수준은 저점에 머물러 주가 상승 가능성도 남아 있죠. ARIRANG 고배당주 ETF의 비중 상위 종목도 기업은행 KB금융 우리금융지주 JB금융지주 하나금융지주 등 은행주로 이뤄져 있고 TIMEFOLIO Korea플러스배당액티브도 삼성전자 4대 은행지주 KB신한하나우리 HANARO고배당 KOSEF고배당도 은행지주 통신주를 집중적으로 담고 있죠.  시황 맞춰 포트폴리오 조정하고 커버드콜로 배당률 높이는 ETF도 불안한 시장에 방어력이 돋보이는 상품도 있습니다. 시황 및 투자 트렌드에 따라 편입 종목을 조정하는 타임폴리오 ETF인데요. 예를 들어 미국발 금융 불안이 야기돼 금융주가 떨어지면 비중을 줄여 리스크를 최소화하는 방식입니다. 그중에서도 TIMEFOLIO Korea플러스배당액티브 ETF는 배당 ETF지만 금융주보다 삼성전자 SK하이닉스 농심 등 올해 주가가 뛴 종목들을 주로 편입 중입니다. 자사주 매입으로 주주가치를 제고 중인 메리츠금융지주의 비중도 높은데요. 해당 ETF의 최근 3개월 수익률은 8.41로 ARIRANG 고배당주 다음으로 높았습니다. 고배당주를 담으면서도 커버드콜 전략을 활용하는 하이브리드형 ETF도 있습니다. 커버드콜 전략은 주가지수를 매수하고 콜옵션을 매도해 주가지수가 상승할 때는 수익이 제한되지만 횡보하거나 하락할 때 추가 수익을 얻을 수 있는 전략인데요. 국내 상장 옵션의 매도 프리미엄의 경우 비과세 수익에 해당해 분배금으로 지급 시 세금이 부과되지 않고 콜옵션 매도 비중을 조정하면 주가지수 상승을 따라가면서 옵션 프리미엄을 얻을 수도 있습니다. KBSTAR 200고배당커버드콜ATM은 최근 3개월 동안 8.12의 수익률을 기록하는 등 하이브리드형 ETF에서 좋은 성과를 내고 있는 상품입니다. 제일기획 KT HD현대 GS 등에 투자하면서 코스피200콜옵션을 매도해 배당과 함께 콜옵션 매도로부터 생기는 수익금을 투자자에게 배분하고 있는 것이 특징입니다.  연간 분배율구성 종목 면밀히 확인해야 고배당 ETF에 투자할 때는 연간 분배율도 따져봐야 합니다. 분배율이란 주식의 배당수익률과 비슷하게 주당분배금을 ETF의 현재 가격으로 나눈 비율을 뜻하는데요. 현재 국내 배당주 ETF 중 연간 분배율이 가장 높은 상품은 TIGER 미국나스닥100커버드콜 합성로 11.66입니다. 주의할 점은 같은 고배당주 ETF여도 구성 종목 등에 따라 수익률 차이가 크기 때문에 단순히 수익률 배당률만 보고 투자하는 것이 아니라 투자하는 기업이 어떤 걸 포함하는지 확인해야 한다는 겁니다. 예를 들어 KB스타 고배당 ETF의 경우 삼성전자의 비중이 매우 큰데요. 그 때문에 삼성전자에 직접 투자하고 있는 투자자보다는 국내 투자상품이 하나도 없다는 분들이 KB스타 고배당에 투자하는 것이 합리적이겠죠. 배당주 ETF는 연금계좌를 통해 투자하는 것이 좋습니다. 분배금에 부과되는 배당소득세를 절감할 수 있기 때문인데요. 주식 등에 투자해 배당금을 받을 때는 15.4의 세율을 부과하지만 연금계좌에서 발생한 배당은 당장 세금을 부과하지 않고 인출할 때 과세하게 됩니다. 따라서 만 55세 이후 연금을 수령하는 연금저축과 개인형 퇴직연금 IRP 가입자는 이때 3.35.5의 저율의 세금만 내면 되기 때문에 효율적입니다.</t>
-  </si>
-  <si>
-    <t>['IRP 연금수령', '퇴직소득세', '퇴직연금 ETF']</t>
-  </si>
-  <si>
-    <t>[{'IRP 연금수령': 41}, {'퇴직소득세': 43}, {'퇴직연금 ETF': 1}]</t>
-  </si>
-  <si>
-    <t>고배당 ETF의 수익률과 구성 종목에 대한 정보가 제공되어 있어서 3점을 주었습니다.</t>
-  </si>
-  <si>
-    <t>고배당 ETF에 대한 경쟁 동향이나 시장 점유율, 신제품 및 서비스 출시에 대한 정보가 제공되지 않아 0점을 주었습니다.</t>
-  </si>
-  <si>
-    <t>금융시장의 불확실성에 대한 언급이 있지만, 투자자들에게 어떤 영향을 미칠지에 대한 구체적인 분석이 제공되지 않아 2점을 주었습니다.</t>
-  </si>
-  <si>
-    <t>법률 및 규제 변경에 대한 언급이 없어 0점을 주었습니다.</t>
-  </si>
-  <si>
-    <t>노령화와 관련된 뉴스나 연금 기금의 장기적인 지속 가능성에 대한 언급이 없어 0점을 주었습니다.</t>
-  </si>
-  <si>
-    <t>기술과 디지털화에 대한 언급이 없어 0점을 주었습니다.</t>
-  </si>
-  <si>
-    <t>소비 행동 및 요구사항에 대한 정보가 제공되지 않아 0점을 주었습니다.</t>
   </si>
   <si>
     <t>2023-10-13</t>
@@ -1939,11 +1660,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>삼성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{'퇴직연금 IRP': 6}, {'퇴직연금 IRP': 10}, {'퇴직연금 IRP': 11}, {'퇴직연금 IRP': 13}, {'퇴직연금 IRP': 19}, {'퇴직연금 IRP': 21}, {'퇴직연금 IRP': 22}, {'퇴직연금 IRP': 23}, {'퇴직연금 IRP': 30}, {'퇴직연금 IRP': 34}, {'퇴직연금 IRP': 36}, {'퇴직연금 IRP': 37}, {'퇴직연금 IRP': 39}, {'퇴직연금 IRP': 43}, {'퇴직연금 IRP': 45}, {'퇴직연금 IRP': 47}, {'퇴직연금 IRP': 49}, {'퇴직연금 IRP': 50}, {'퇴직연금 IRP': 52}, {'IRP 수수료': 4}, {'IRP 수수료': 8}, {'IRP 수수료': 10}, {'IRP 수수료': 15}, {'IRP 수수료': 17}, {'IRP 수수료': 18}, {'IRP 수수료': 19}, {'IRP 수수료': 23}, {'IRP 수수료': 26}, {'IRP 수수료': 27}, {'IRP 수수료': 28}, {'IRP 수수료': 31}, {'IRP 수수료': 34}, {'IRP 수수료': 36}, {'IRP 수수료': 37}, {'IRP 수수료': 39}, {'IRP 수수료': 40}, {'IRP 수수료': 42}, {'퇴직소득세': 20}, {'퇴직소득세': 24}, {'퇴직소득세': 25}, {'퇴직소득세': 27}, {'퇴직소득세': 34}, {'퇴직소득세': 37}, {'퇴직소득세': 38}, {'퇴직소득세': 44}, {'퇴직소득세': 48}, {'퇴직소득세': 49}, {'퇴직소득세': 50}, {'퇴직소득세': 52}, {'퇴직소득세': 56}, {'IRP 이벤트': 4}, {'IRP 이벤트': 8}, {'IRP 이벤트': 14}, {'IRP 이벤트': 16}, {'IRP 이벤트': 17}, {'IRP 이벤트': 18}, {'IRP 이벤트': 22}, {'IRP 이벤트': 25}, {'IRP 이벤트': 26}, {'IRP 이벤트': 27}, {'IRP 이벤트': 30}, {'IRP 이벤트': 33}, {'IRP 이벤트': 36}, {'IRP 이벤트': 37}, {'IRP 이벤트': 39}, {'IRP 이벤트': 40}, {'IRP 이벤트': 42}, {'한국투자 퇴직연금': 4}, {'한국투자 퇴직연금': 9}, {'한국투자 퇴직연금': 10}, {'한국투자 퇴직연금': 11}, {'한국투자 퇴직연금': 15}, {'한국투자 퇴직연금': 19}, {'한국투자 퇴직연금': 20}, {'한국투자 퇴직연금': 21}, {'한국투자 퇴직연금': 25}, {'한국투자 퇴직연금': 28}, {'한국투자 퇴직연금': 29}, {'한국투자 퇴직연금': 30}, {'한국투자 퇴직연금': 32}, {'한국투자 퇴직연금': 35}, {'한국투자 퇴직연금': 37}, {'한국투자 퇴직연금': 38}, {'한국투자 퇴직연금': 39}, {'한국투자 퇴직연금': 40}, {'한국투자 퇴직연금': 43}]</t>
+    <t>삼성증권</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2317,13 +2034,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X50"/>
+  <dimension ref="A1:X42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.875" customWidth="1"/>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="68.5" customWidth="1"/>
+    <col min="5" max="5" width="24.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -2407,7 +2130,7 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>625</v>
+        <v>532</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -2478,7 +2201,7 @@
         <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
         <v>42</v>
@@ -2552,7 +2275,7 @@
         <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
         <v>56</v>
@@ -2626,73 +2349,73 @@
         <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F5">
         <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>626</v>
+        <v>77</v>
       </c>
       <c r="K5">
         <v>3</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M5">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O5">
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
@@ -2700,73 +2423,73 @@
         <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" t="s">
-        <v>69</v>
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>531</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F6">
         <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6" t="s">
+        <v>91</v>
+      </c>
+      <c r="M6">
         <v>2</v>
       </c>
-      <c r="L6" t="s">
-        <v>89</v>
-      </c>
-      <c r="M6">
-        <v>3</v>
-      </c>
       <c r="N6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O6">
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
@@ -2777,987 +2500,975 @@
         <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I7" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="J7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K7">
         <v>3</v>
       </c>
       <c r="L7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>106</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7" t="s">
+        <v>108</v>
+      </c>
+      <c r="S7">
         <v>2</v>
       </c>
-      <c r="N7" t="s">
-        <v>102</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7" t="s">
-        <v>104</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
       <c r="T7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E8" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H8" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I8" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="J8" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M8">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="O8">
+        <v>3</v>
+      </c>
+      <c r="P8" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q8">
         <v>1</v>
       </c>
-      <c r="P8" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
       <c r="R8" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T8" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="E9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="F9">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="H9" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="I9" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="J9" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="K9">
         <v>3</v>
       </c>
       <c r="L9" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="M9">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="O9">
+        <v>4</v>
+      </c>
+      <c r="P9" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9" t="s">
+        <v>135</v>
+      </c>
+      <c r="S9">
         <v>1</v>
       </c>
-      <c r="P9" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9" t="s">
-        <v>127</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
       <c r="T9" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="U9">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X9" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>624</v>
+        <v>69</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E10" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="H10" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="I10" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="J10" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="K10">
         <v>3</v>
       </c>
       <c r="L10" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="M10">
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="O10">
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T10" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="U10">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="B11" t="s">
         <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D11" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E11" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="H11" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="I11" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="J11" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="K11">
         <v>3</v>
       </c>
       <c r="L11" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="S11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
         <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E12" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="F12">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="H12" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="I12" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="J12" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="K12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L12" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="M12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12" t="s">
+        <v>175</v>
+      </c>
+      <c r="S12">
         <v>3</v>
       </c>
-      <c r="P12" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-      <c r="R12" t="s">
-        <v>168</v>
-      </c>
-      <c r="S12">
-        <v>4</v>
-      </c>
       <c r="T12" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="U12">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
         <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E13" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="F13">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G13" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="H13" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="I13" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="J13" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="K13">
         <v>3</v>
       </c>
       <c r="L13" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>186</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q13">
         <v>2</v>
       </c>
-      <c r="N13" t="s">
-        <v>179</v>
-      </c>
-      <c r="O13">
-        <v>4</v>
-      </c>
-      <c r="P13" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
       <c r="R13" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="S13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="U13">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="W13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X13" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="D14" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="E14" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="F14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G14" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="H14" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="I14" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="J14" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="K14">
         <v>3</v>
       </c>
       <c r="L14" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="M14">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="O14">
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="S14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="U14">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="B15" t="s">
         <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D15" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E15" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G15" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H15" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I15" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="J15" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K15">
         <v>3</v>
       </c>
       <c r="L15" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M15">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O15">
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="U15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>214</v>
       </c>
       <c r="D16" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E16" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F16">
         <v>6</v>
       </c>
       <c r="G16" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H16" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="I16" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="J16" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16" t="s">
+        <v>221</v>
+      </c>
+      <c r="M16">
         <v>2</v>
       </c>
-      <c r="L16" t="s">
-        <v>218</v>
-      </c>
-      <c r="M16">
+      <c r="N16" t="s">
+        <v>222</v>
+      </c>
+      <c r="O16">
         <v>1</v>
       </c>
-      <c r="N16" t="s">
-        <v>219</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
       <c r="P16" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
       <c r="R16" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="S16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="U16">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>228</v>
       </c>
       <c r="D17" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E17" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F17">
         <v>6</v>
       </c>
       <c r="G17" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="H17" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="I17" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="J17" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K17">
         <v>3</v>
       </c>
       <c r="L17" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>236</v>
+      </c>
+      <c r="O17">
         <v>1</v>
       </c>
-      <c r="N17" t="s">
-        <v>232</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
       <c r="P17" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R17" t="s">
-        <v>234</v>
+        <v>70</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="U17">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>236</v>
+        <v>70</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17" t="s">
-        <v>237</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="D18" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E18" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F18">
         <v>6</v>
       </c>
       <c r="G18" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H18" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I18" t="s">
-        <v>203</v>
+        <v>243</v>
       </c>
       <c r="J18" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K18">
         <v>3</v>
       </c>
       <c r="L18" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M18">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="O18">
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-      <c r="R18" t="s">
-        <v>208</v>
-      </c>
       <c r="S18">
         <v>0</v>
       </c>
-      <c r="T18" t="s">
-        <v>209</v>
-      </c>
       <c r="U18">
         <v>0</v>
       </c>
-      <c r="V18" t="s">
-        <v>246</v>
-      </c>
       <c r="W18">
         <v>0</v>
-      </c>
-      <c r="X18" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>158</v>
+        <v>248</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>247</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E19" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F19">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H19" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I19" t="s">
-        <v>203</v>
+        <v>253</v>
       </c>
       <c r="J19" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K19">
         <v>3</v>
       </c>
       <c r="L19" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>256</v>
+      </c>
+      <c r="O19">
         <v>2</v>
       </c>
-      <c r="N19" t="s">
-        <v>254</v>
-      </c>
-      <c r="O19">
-        <v>1</v>
-      </c>
       <c r="P19" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R19" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T19" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="U19">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>158</v>
+        <v>248</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>260</v>
+        <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E20" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F20">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H20" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I20" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="J20" t="s">
         <v>266</v>
@@ -3769,31 +3480,31 @@
         <v>267</v>
       </c>
       <c r="M20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s">
         <v>268</v>
       </c>
       <c r="O20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P20" t="s">
         <v>269</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R20" t="s">
         <v>270</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T20" t="s">
         <v>271</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" t="s">
         <v>272</v>
@@ -3807,365 +3518,365 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>158</v>
+        <v>248</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
         <v>274</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>275</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21">
+        <v>7</v>
+      </c>
+      <c r="G21" t="s">
         <v>276</v>
       </c>
-      <c r="F21">
-        <v>6</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>277</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>278</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>279</v>
-      </c>
-      <c r="J21" t="s">
-        <v>280</v>
       </c>
       <c r="K21">
         <v>3</v>
       </c>
       <c r="L21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M21">
         <v>2</v>
       </c>
       <c r="N21" t="s">
+        <v>281</v>
+      </c>
+      <c r="O21">
+        <v>2</v>
+      </c>
+      <c r="P21" t="s">
         <v>282</v>
       </c>
-      <c r="O21">
-        <v>1</v>
-      </c>
-      <c r="P21" t="s">
-        <v>283</v>
-      </c>
       <c r="Q21">
         <v>0</v>
       </c>
       <c r="R21" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="U21">
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>158</v>
+        <v>285</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D22" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E22" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F22">
         <v>6</v>
       </c>
       <c r="G22" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H22" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="I22" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="J22" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K22">
         <v>3</v>
       </c>
       <c r="L22" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M22">
         <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="O22">
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
+      <c r="R22" t="s">
+        <v>296</v>
+      </c>
       <c r="S22">
         <v>0</v>
       </c>
+      <c r="T22" t="s">
+        <v>297</v>
+      </c>
       <c r="U22">
         <v>0</v>
       </c>
+      <c r="V22" t="s">
+        <v>298</v>
+      </c>
       <c r="W22">
         <v>0</v>
+      </c>
+      <c r="X22" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
         <v>39</v>
       </c>
       <c r="D23" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E23" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="F23">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G23" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="H23" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="I23" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="J23" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="K23">
         <v>3</v>
       </c>
       <c r="L23" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="M23">
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="O23">
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q23">
-        <v>2</v>
-      </c>
-      <c r="R23" t="s">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="S23">
-        <v>4</v>
-      </c>
-      <c r="T23" t="s">
-        <v>305</v>
+        <v>0</v>
       </c>
       <c r="U23">
         <v>0</v>
       </c>
-      <c r="V23" t="s">
-        <v>306</v>
-      </c>
       <c r="W23">
-        <v>3</v>
-      </c>
-      <c r="X23" t="s">
-        <v>307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>308</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>201</v>
       </c>
       <c r="D24" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E24" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F24">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G24" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H24" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I24" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="J24" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24" t="s">
+        <v>315</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24" t="s">
+        <v>316</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24" t="s">
+        <v>318</v>
+      </c>
+      <c r="S24">
         <v>3</v>
       </c>
-      <c r="L24" t="s">
-        <v>314</v>
-      </c>
-      <c r="M24">
-        <v>1</v>
-      </c>
-      <c r="N24" t="s">
-        <v>315</v>
-      </c>
-      <c r="O24">
-        <v>2</v>
-      </c>
-      <c r="P24" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q24">
-        <v>3</v>
-      </c>
-      <c r="R24" t="s">
-        <v>317</v>
-      </c>
-      <c r="S24">
-        <v>4</v>
-      </c>
       <c r="T24" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="U24">
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>322</v>
       </c>
       <c r="D25" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E25" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F25">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G25" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H25" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="I25" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="J25" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="M25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="O25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P25" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R25" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="S25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="U25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>294</v>
+        <v>336</v>
       </c>
       <c r="B26" t="s">
         <v>41</v>
@@ -4174,357 +3885,357 @@
         <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E26" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="F26">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G26" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="H26" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="I26" t="s">
-        <v>299</v>
+        <v>341</v>
       </c>
       <c r="J26" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="K26">
         <v>3</v>
       </c>
       <c r="L26" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="M26">
         <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="O26">
+        <v>4</v>
+      </c>
+      <c r="P26" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26" t="s">
+        <v>346</v>
+      </c>
+      <c r="S26">
         <v>1</v>
       </c>
-      <c r="P26" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26" t="s">
-        <v>116</v>
-      </c>
-      <c r="S26">
-        <v>2</v>
-      </c>
       <c r="T26" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="U26">
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>116</v>
+        <v>283</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26" t="s">
-        <v>116</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>294</v>
+        <v>336</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="D27" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="E27" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G27" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="H27" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="I27" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="J27" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="K27">
         <v>3</v>
       </c>
       <c r="L27" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="M27">
         <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27" t="s">
+        <v>357</v>
+      </c>
+      <c r="S27">
         <v>2</v>
       </c>
-      <c r="P27" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27" t="s">
-        <v>116</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
       <c r="T27" t="s">
-        <v>116</v>
+        <v>358</v>
       </c>
       <c r="U27">
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>116</v>
+        <v>359</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27" t="s">
-        <v>116</v>
+        <v>360</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>294</v>
+        <v>336</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
         <v>39</v>
       </c>
       <c r="D28" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="E28" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="F28">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G28" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="H28" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="I28" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="J28" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="K28">
         <v>3</v>
       </c>
       <c r="L28" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="O28">
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="Q28">
         <v>0</v>
       </c>
       <c r="R28" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="S28">
         <v>2</v>
       </c>
       <c r="T28" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="U28">
         <v>0</v>
       </c>
       <c r="V28" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
       <c r="B29" t="s">
         <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>374</v>
       </c>
       <c r="D29" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="E29" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="F29">
         <v>5</v>
       </c>
       <c r="G29" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="H29" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="I29" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="J29" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="K29">
         <v>3</v>
       </c>
       <c r="L29" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="O29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P29" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="Q29">
         <v>0</v>
       </c>
       <c r="R29" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="U29">
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>378</v>
+        <v>336</v>
       </c>
       <c r="B30" t="s">
         <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="D30" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="E30" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="F30">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G30" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="H30" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="I30" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="J30" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="K30">
         <v>3</v>
       </c>
       <c r="L30" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="M30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="O30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="Q30">
         <v>0</v>
       </c>
       <c r="R30" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="U30">
         <v>0</v>
       </c>
       <c r="V30" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="W30">
         <v>0</v>
@@ -4535,10 +4246,10 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>378</v>
+        <v>336</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
         <v>39</v>
@@ -4550,7 +4261,7 @@
         <v>394</v>
       </c>
       <c r="F31">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G31" t="s">
         <v>395</v>
@@ -4565,45 +4276,57 @@
         <v>398</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L31" t="s">
         <v>399</v>
       </c>
       <c r="M31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N31" t="s">
         <v>400</v>
       </c>
       <c r="O31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q31">
         <v>0</v>
       </c>
+      <c r="R31" t="s">
+        <v>162</v>
+      </c>
       <c r="S31">
         <v>0</v>
       </c>
+      <c r="T31" t="s">
+        <v>163</v>
+      </c>
       <c r="U31">
         <v>0</v>
       </c>
+      <c r="V31" t="s">
+        <v>200</v>
+      </c>
       <c r="W31">
         <v>0</v>
+      </c>
+      <c r="X31" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>378</v>
+        <v>336</v>
       </c>
       <c r="B32" t="s">
-        <v>401</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>247</v>
+        <v>374</v>
       </c>
       <c r="D32" t="s">
         <v>402</v>
@@ -4612,7 +4335,7 @@
         <v>403</v>
       </c>
       <c r="F32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G32" t="s">
         <v>404</v>
@@ -4627,125 +4350,125 @@
         <v>407</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L32" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="M32">
         <v>0</v>
       </c>
       <c r="N32" t="s">
-        <v>409</v>
+        <v>383</v>
       </c>
       <c r="O32">
         <v>0</v>
       </c>
       <c r="P32" t="s">
-        <v>410</v>
+        <v>383</v>
       </c>
       <c r="Q32">
         <v>0</v>
       </c>
       <c r="R32" t="s">
-        <v>411</v>
+        <v>383</v>
       </c>
       <c r="S32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T32" t="s">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="U32">
         <v>0</v>
       </c>
       <c r="V32" t="s">
-        <v>413</v>
+        <v>383</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32" t="s">
-        <v>414</v>
+        <v>383</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>378</v>
+        <v>408</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>308</v>
       </c>
       <c r="C33" t="s">
+        <v>409</v>
+      </c>
+      <c r="D33" t="s">
+        <v>410</v>
+      </c>
+      <c r="E33" t="s">
+        <v>411</v>
+      </c>
+      <c r="F33">
+        <v>8</v>
+      </c>
+      <c r="G33" t="s">
+        <v>412</v>
+      </c>
+      <c r="H33" t="s">
+        <v>413</v>
+      </c>
+      <c r="I33" t="s">
+        <v>414</v>
+      </c>
+      <c r="J33" t="s">
         <v>415</v>
       </c>
-      <c r="D33" t="s">
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33" t="s">
         <v>416</v>
       </c>
-      <c r="E33" t="s">
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
         <v>417</v>
       </c>
-      <c r="F33">
+      <c r="O33">
         <v>2</v>
       </c>
-      <c r="G33" t="s">
+      <c r="P33" t="s">
         <v>418</v>
       </c>
-      <c r="H33" t="s">
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33" t="s">
         <v>419</v>
       </c>
-      <c r="I33" t="s">
+      <c r="S33">
+        <v>2</v>
+      </c>
+      <c r="T33" t="s">
         <v>420</v>
       </c>
-      <c r="J33" t="s">
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33" t="s">
         <v>421</v>
       </c>
-      <c r="K33">
-        <v>2</v>
-      </c>
-      <c r="L33" t="s">
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33" t="s">
         <v>422</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33" t="s">
-        <v>423</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33" t="s">
-        <v>425</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-      <c r="T33" t="s">
-        <v>426</v>
-      </c>
-      <c r="U33">
-        <v>0</v>
-      </c>
-      <c r="V33" t="s">
-        <v>427</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-      <c r="X33" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="B34" t="s">
         <v>41</v>
@@ -4754,1251 +4477,659 @@
         <v>39</v>
       </c>
       <c r="D34" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="E34" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="F34">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G34" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="H34" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="I34" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="J34" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="K34">
         <v>3</v>
       </c>
       <c r="L34" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="M34">
         <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="O34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="Q34">
         <v>0</v>
       </c>
       <c r="R34" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="S34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T34" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="U34">
         <v>0</v>
       </c>
       <c r="V34" t="s">
-        <v>362</v>
+        <v>432</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34" t="s">
-        <v>363</v>
+        <v>432</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>144</v>
+        <v>433</v>
       </c>
       <c r="D35" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="E35" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="F35">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G35" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="H35" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="I35" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="J35" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="K35">
         <v>3</v>
       </c>
       <c r="L35" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="M35">
         <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="O35">
         <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="Q35">
         <v>0</v>
       </c>
       <c r="R35" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="S35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T35" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="U35">
         <v>0</v>
       </c>
       <c r="V35" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>433</v>
       </c>
       <c r="D36" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="E36" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F36">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G36" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="H36" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="I36" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="J36" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="K36">
         <v>3</v>
       </c>
       <c r="L36" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="M36">
         <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="O36">
         <v>1</v>
       </c>
       <c r="P36" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="Q36">
         <v>0</v>
       </c>
       <c r="R36" t="s">
-        <v>463</v>
+        <v>162</v>
       </c>
       <c r="S36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T36" t="s">
-        <v>464</v>
+        <v>163</v>
       </c>
       <c r="U36">
         <v>0</v>
       </c>
       <c r="V36" t="s">
-        <v>465</v>
+        <v>200</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36" t="s">
-        <v>466</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="C37" t="s">
-        <v>467</v>
+        <v>433</v>
       </c>
       <c r="D37" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="E37" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="F37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G37" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="H37" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="I37" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="J37" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="K37">
         <v>3</v>
       </c>
       <c r="L37" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="M37">
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="Q37">
         <v>0</v>
       </c>
       <c r="R37" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="U37">
         <v>0</v>
       </c>
       <c r="V37" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C38" t="s">
-        <v>477</v>
+        <v>286</v>
       </c>
       <c r="D38" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="E38" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="F38">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G38" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H38" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="I38" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="J38" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="K38">
         <v>3</v>
       </c>
       <c r="L38" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M38">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>476</v>
+      </c>
+      <c r="O38">
         <v>1</v>
       </c>
-      <c r="N38" t="s">
-        <v>484</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
       <c r="P38" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="Q38">
         <v>0</v>
       </c>
       <c r="R38" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="U38">
         <v>0</v>
       </c>
       <c r="V38" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="C39" t="s">
-        <v>39</v>
+        <v>286</v>
       </c>
       <c r="D39" t="s">
+        <v>482</v>
+      </c>
+      <c r="E39" t="s">
+        <v>483</v>
+      </c>
+      <c r="F39">
+        <v>6</v>
+      </c>
+      <c r="G39" t="s">
+        <v>484</v>
+      </c>
+      <c r="H39" t="s">
+        <v>485</v>
+      </c>
+      <c r="I39" t="s">
         <v>486</v>
       </c>
-      <c r="E39" t="s">
+      <c r="J39" t="s">
         <v>487</v>
       </c>
-      <c r="F39">
+      <c r="K39">
         <v>3</v>
       </c>
-      <c r="G39" t="s">
+      <c r="L39" t="s">
         <v>488</v>
       </c>
-      <c r="H39" t="s">
+      <c r="M39">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
         <v>489</v>
       </c>
-      <c r="I39" t="s">
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39" t="s">
         <v>490</v>
       </c>
-      <c r="J39" t="s">
-        <v>491</v>
-      </c>
-      <c r="K39">
-        <v>2</v>
-      </c>
-      <c r="L39" t="s">
-        <v>492</v>
-      </c>
-      <c r="M39">
-        <v>1</v>
-      </c>
-      <c r="N39" t="s">
-        <v>493</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="s">
-        <v>494</v>
-      </c>
       <c r="Q39">
         <v>0</v>
       </c>
       <c r="R39" t="s">
-        <v>208</v>
+        <v>70</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39" t="s">
-        <v>209</v>
+        <v>70</v>
       </c>
       <c r="U39">
         <v>0</v>
       </c>
       <c r="V39" t="s">
-        <v>246</v>
+        <v>70</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39" t="s">
-        <v>211</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>308</v>
       </c>
       <c r="C40" t="s">
-        <v>467</v>
+        <v>409</v>
       </c>
       <c r="D40" t="s">
+        <v>491</v>
+      </c>
+      <c r="E40" t="s">
+        <v>492</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40" t="s">
+        <v>493</v>
+      </c>
+      <c r="H40" t="s">
+        <v>494</v>
+      </c>
+      <c r="I40" t="s">
+        <v>414</v>
+      </c>
+      <c r="J40" t="s">
         <v>495</v>
       </c>
-      <c r="E40" t="s">
+      <c r="K40">
+        <v>3</v>
+      </c>
+      <c r="L40" t="s">
         <v>496</v>
       </c>
-      <c r="F40">
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40" t="s">
+        <v>497</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="s">
+        <v>498</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40" t="s">
+        <v>499</v>
+      </c>
+      <c r="S40">
         <v>2</v>
       </c>
-      <c r="G40" t="s">
-        <v>497</v>
-      </c>
-      <c r="H40" t="s">
-        <v>498</v>
-      </c>
-      <c r="I40" t="s">
-        <v>499</v>
-      </c>
-      <c r="J40" t="s">
+      <c r="T40" t="s">
         <v>500</v>
       </c>
-      <c r="K40">
-        <v>2</v>
-      </c>
-      <c r="L40" t="s">
-        <v>474</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40" t="s">
-        <v>476</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
-      <c r="R40" t="s">
-        <v>476</v>
-      </c>
-      <c r="S40">
-        <v>0</v>
-      </c>
-      <c r="T40" t="s">
-        <v>476</v>
-      </c>
       <c r="U40">
         <v>0</v>
       </c>
       <c r="V40" t="s">
-        <v>476</v>
+        <v>501</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40" t="s">
-        <v>476</v>
+        <v>502</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>501</v>
+        <v>408</v>
       </c>
       <c r="B41" t="s">
-        <v>401</v>
+        <v>69</v>
       </c>
       <c r="C41" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D41" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E41" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F41">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G41" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H41" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="I41" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="J41" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="K41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L41" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P41" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R41" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="S41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T41" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="U41">
         <v>0</v>
       </c>
       <c r="V41" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>501</v>
+        <v>408</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="C42" t="s">
-        <v>39</v>
+        <v>517</v>
       </c>
       <c r="D42" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E42" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F42">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G42" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="H42" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="I42" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="J42" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="K42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L42" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="M42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N42" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="O42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P42" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="Q42">
         <v>0</v>
       </c>
       <c r="R42" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="S42">
         <v>0</v>
       </c>
       <c r="T42" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="U42">
         <v>0</v>
       </c>
       <c r="V42" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="W42">
         <v>0</v>
       </c>
       <c r="X42" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>501</v>
-      </c>
-      <c r="B43" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" t="s">
-        <v>526</v>
-      </c>
-      <c r="D43" t="s">
-        <v>527</v>
-      </c>
-      <c r="E43" t="s">
-        <v>528</v>
-      </c>
-      <c r="F43">
-        <v>6</v>
-      </c>
-      <c r="G43" t="s">
-        <v>529</v>
-      </c>
-      <c r="H43" t="s">
         <v>530</v>
-      </c>
-      <c r="I43" t="s">
-        <v>531</v>
-      </c>
-      <c r="J43" t="s">
-        <v>532</v>
-      </c>
-      <c r="K43">
-        <v>3</v>
-      </c>
-      <c r="L43" t="s">
-        <v>533</v>
-      </c>
-      <c r="M43">
-        <v>2</v>
-      </c>
-      <c r="N43" t="s">
-        <v>534</v>
-      </c>
-      <c r="O43">
-        <v>1</v>
-      </c>
-      <c r="P43" t="s">
-        <v>535</v>
-      </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-      <c r="R43" t="s">
-        <v>536</v>
-      </c>
-      <c r="S43">
-        <v>0</v>
-      </c>
-      <c r="T43" t="s">
-        <v>537</v>
-      </c>
-      <c r="U43">
-        <v>0</v>
-      </c>
-      <c r="V43" t="s">
-        <v>538</v>
-      </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
-      <c r="X43" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>501</v>
-      </c>
-      <c r="B44" t="s">
-        <v>41</v>
-      </c>
-      <c r="C44" t="s">
-        <v>526</v>
-      </c>
-      <c r="D44" t="s">
-        <v>540</v>
-      </c>
-      <c r="E44" t="s">
-        <v>541</v>
-      </c>
-      <c r="F44">
-        <v>6</v>
-      </c>
-      <c r="G44" t="s">
-        <v>542</v>
-      </c>
-      <c r="H44" t="s">
-        <v>543</v>
-      </c>
-      <c r="I44" t="s">
-        <v>544</v>
-      </c>
-      <c r="J44" t="s">
-        <v>545</v>
-      </c>
-      <c r="K44">
-        <v>3</v>
-      </c>
-      <c r="L44" t="s">
-        <v>546</v>
-      </c>
-      <c r="M44">
-        <v>2</v>
-      </c>
-      <c r="N44" t="s">
-        <v>547</v>
-      </c>
-      <c r="O44">
-        <v>1</v>
-      </c>
-      <c r="P44" t="s">
-        <v>548</v>
-      </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="R44" t="s">
-        <v>208</v>
-      </c>
-      <c r="S44">
-        <v>0</v>
-      </c>
-      <c r="T44" t="s">
-        <v>209</v>
-      </c>
-      <c r="U44">
-        <v>0</v>
-      </c>
-      <c r="V44" t="s">
-        <v>246</v>
-      </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
-      <c r="X44" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>501</v>
-      </c>
-      <c r="B45" t="s">
-        <v>82</v>
-      </c>
-      <c r="C45" t="s">
-        <v>526</v>
-      </c>
-      <c r="D45" t="s">
-        <v>549</v>
-      </c>
-      <c r="E45" t="s">
-        <v>550</v>
-      </c>
-      <c r="F45">
-        <v>6</v>
-      </c>
-      <c r="G45" t="s">
-        <v>551</v>
-      </c>
-      <c r="H45" t="s">
-        <v>552</v>
-      </c>
-      <c r="I45" t="s">
-        <v>553</v>
-      </c>
-      <c r="J45" t="s">
-        <v>554</v>
-      </c>
-      <c r="K45">
-        <v>3</v>
-      </c>
-      <c r="L45" t="s">
-        <v>555</v>
-      </c>
-      <c r="M45">
-        <v>2</v>
-      </c>
-      <c r="N45" t="s">
-        <v>556</v>
-      </c>
-      <c r="O45">
-        <v>1</v>
-      </c>
-      <c r="P45" t="s">
-        <v>557</v>
-      </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-      <c r="R45" t="s">
-        <v>558</v>
-      </c>
-      <c r="S45">
-        <v>0</v>
-      </c>
-      <c r="T45" t="s">
-        <v>559</v>
-      </c>
-      <c r="U45">
-        <v>0</v>
-      </c>
-      <c r="V45" t="s">
-        <v>560</v>
-      </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-      <c r="X45" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>501</v>
-      </c>
-      <c r="B46" t="s">
-        <v>25</v>
-      </c>
-      <c r="C46" t="s">
-        <v>379</v>
-      </c>
-      <c r="D46" t="s">
-        <v>562</v>
-      </c>
-      <c r="E46" t="s">
-        <v>563</v>
-      </c>
-      <c r="F46">
-        <v>6</v>
-      </c>
-      <c r="G46" t="s">
-        <v>564</v>
-      </c>
-      <c r="H46" t="s">
-        <v>565</v>
-      </c>
-      <c r="I46" t="s">
-        <v>566</v>
-      </c>
-      <c r="J46" t="s">
-        <v>567</v>
-      </c>
-      <c r="K46">
-        <v>3</v>
-      </c>
-      <c r="L46" t="s">
-        <v>568</v>
-      </c>
-      <c r="M46">
-        <v>2</v>
-      </c>
-      <c r="N46" t="s">
-        <v>569</v>
-      </c>
-      <c r="O46">
-        <v>1</v>
-      </c>
-      <c r="P46" t="s">
-        <v>570</v>
-      </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="R46" t="s">
-        <v>571</v>
-      </c>
-      <c r="S46">
-        <v>0</v>
-      </c>
-      <c r="T46" t="s">
-        <v>572</v>
-      </c>
-      <c r="U46">
-        <v>0</v>
-      </c>
-      <c r="V46" t="s">
-        <v>573</v>
-      </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
-      <c r="X46" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>501</v>
-      </c>
-      <c r="B47" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47" t="s">
-        <v>379</v>
-      </c>
-      <c r="D47" t="s">
-        <v>575</v>
-      </c>
-      <c r="E47" t="s">
-        <v>576</v>
-      </c>
-      <c r="F47">
-        <v>6</v>
-      </c>
-      <c r="G47" t="s">
-        <v>577</v>
-      </c>
-      <c r="H47" t="s">
-        <v>578</v>
-      </c>
-      <c r="I47" t="s">
-        <v>579</v>
-      </c>
-      <c r="J47" t="s">
-        <v>580</v>
-      </c>
-      <c r="K47">
-        <v>3</v>
-      </c>
-      <c r="L47" t="s">
-        <v>581</v>
-      </c>
-      <c r="M47">
-        <v>2</v>
-      </c>
-      <c r="N47" t="s">
-        <v>582</v>
-      </c>
-      <c r="O47">
-        <v>1</v>
-      </c>
-      <c r="P47" t="s">
-        <v>583</v>
-      </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
-      <c r="R47" t="s">
-        <v>116</v>
-      </c>
-      <c r="S47">
-        <v>0</v>
-      </c>
-      <c r="T47" t="s">
-        <v>116</v>
-      </c>
-      <c r="U47">
-        <v>0</v>
-      </c>
-      <c r="V47" t="s">
-        <v>116</v>
-      </c>
-      <c r="W47">
-        <v>0</v>
-      </c>
-      <c r="X47" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>501</v>
-      </c>
-      <c r="B48" t="s">
-        <v>401</v>
-      </c>
-      <c r="C48" t="s">
-        <v>502</v>
-      </c>
-      <c r="D48" t="s">
-        <v>584</v>
-      </c>
-      <c r="E48" t="s">
-        <v>585</v>
-      </c>
-      <c r="F48">
-        <v>5</v>
-      </c>
-      <c r="G48" t="s">
-        <v>586</v>
-      </c>
-      <c r="H48" t="s">
-        <v>587</v>
-      </c>
-      <c r="I48" t="s">
-        <v>507</v>
-      </c>
-      <c r="J48" t="s">
-        <v>588</v>
-      </c>
-      <c r="K48">
-        <v>3</v>
-      </c>
-      <c r="L48" t="s">
-        <v>589</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48" t="s">
-        <v>590</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48" t="s">
-        <v>591</v>
-      </c>
-      <c r="Q48">
-        <v>0</v>
-      </c>
-      <c r="R48" t="s">
-        <v>592</v>
-      </c>
-      <c r="S48">
-        <v>2</v>
-      </c>
-      <c r="T48" t="s">
-        <v>593</v>
-      </c>
-      <c r="U48">
-        <v>0</v>
-      </c>
-      <c r="V48" t="s">
-        <v>594</v>
-      </c>
-      <c r="W48">
-        <v>0</v>
-      </c>
-      <c r="X48" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>501</v>
-      </c>
-      <c r="B49" t="s">
-        <v>82</v>
-      </c>
-      <c r="C49" t="s">
-        <v>596</v>
-      </c>
-      <c r="D49" t="s">
-        <v>597</v>
-      </c>
-      <c r="E49" t="s">
-        <v>598</v>
-      </c>
-      <c r="F49">
-        <v>4</v>
-      </c>
-      <c r="G49" t="s">
-        <v>599</v>
-      </c>
-      <c r="H49" t="s">
-        <v>600</v>
-      </c>
-      <c r="I49" t="s">
-        <v>601</v>
-      </c>
-      <c r="J49" t="s">
-        <v>602</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49" t="s">
-        <v>603</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49" t="s">
-        <v>604</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49" t="s">
-        <v>605</v>
-      </c>
-      <c r="Q49">
-        <v>4</v>
-      </c>
-      <c r="R49" t="s">
-        <v>606</v>
-      </c>
-      <c r="S49">
-        <v>0</v>
-      </c>
-      <c r="T49" t="s">
-        <v>607</v>
-      </c>
-      <c r="U49">
-        <v>0</v>
-      </c>
-      <c r="V49" t="s">
-        <v>608</v>
-      </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
-      <c r="X49" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>501</v>
-      </c>
-      <c r="B50" t="s">
-        <v>82</v>
-      </c>
-      <c r="C50" t="s">
-        <v>610</v>
-      </c>
-      <c r="D50" t="s">
-        <v>611</v>
-      </c>
-      <c r="E50" t="s">
-        <v>612</v>
-      </c>
-      <c r="F50">
-        <v>2</v>
-      </c>
-      <c r="G50" t="s">
-        <v>613</v>
-      </c>
-      <c r="H50" t="s">
-        <v>614</v>
-      </c>
-      <c r="I50" t="s">
-        <v>615</v>
-      </c>
-      <c r="J50" t="s">
-        <v>616</v>
-      </c>
-      <c r="K50">
-        <v>2</v>
-      </c>
-      <c r="L50" t="s">
-        <v>617</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50" t="s">
-        <v>618</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50" t="s">
-        <v>619</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-      <c r="R50" t="s">
-        <v>620</v>
-      </c>
-      <c r="S50">
-        <v>0</v>
-      </c>
-      <c r="T50" t="s">
-        <v>621</v>
-      </c>
-      <c r="U50">
-        <v>0</v>
-      </c>
-      <c r="V50" t="s">
-        <v>622</v>
-      </c>
-      <c r="W50">
-        <v>0</v>
-      </c>
-      <c r="X50" t="s">
-        <v>623</v>
       </c>
     </row>
   </sheetData>

--- a/resource/04_UPLOAD.xlsx
+++ b/resource/04_UPLOAD.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="916">
   <si>
     <t>날짜</t>
   </si>
@@ -93,10 +93,1213 @@
     <t>cr_7_reason</t>
   </si>
   <si>
+    <t>2023-10-19</t>
+  </si>
+  <si>
+    <t>퇴직연금 상품</t>
+  </si>
+  <si>
+    <t>삼성 / 블랙록</t>
+  </si>
+  <si>
+    <t>韓美 1위 자산운용사 손잡았다…삼성·블랙록 고금리 오래갈 땐 채권 투자</t>
+  </si>
+  <si>
+    <t>삼성자산운용이 세계 1위 자산운용사 블랙록자산운용과 손잡고 미국 채권 상장지수펀드 ETF 3종 출시. 상품은 미국 채권에서 발생하는 이자 수익을 활용해 매월 분배금을 지급하는 월분배형 채권ETF. 환전 비용 없이 퇴직연금 및 연금저축 계좌에서도 최대 100까지 투자 가능.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/421/0007120662?sid=101</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 서울뉴스1 이기림 기자 국내 1위 자산운용사인 삼성자산운용이 세계 1위 자산운용사인 블랙록자산운용과 손잡고 미국 채권 상장지수펀드 ETF에 재간접 투자하는 상품 3종을 출시했다.삼성자산운용은 19일 서울 여의도 한국거래소에서 기자간담회를 열고 KODEX iShares 미국 하이일드 액티브 ETF KODEX iShares 미국 투자등급 회사채 액티브 ETF KODEX iShares 미국 인플레이션 국채 액티브 ETF를 상장했다고 밝혔다.이들 상품은 블랙록의 대표 미국 채권 ETF인 USHY LQD TIP 3종을 각각 1대 1 재간접 형태로 투자하는 상품으로 미국 채권에서 발생하는 이자 수익을 활용해 매월 분배금을 지급하는 월분배형 채권ETF다. 국내 상장 상품인 만큼 환전 비용 없이 퇴직연금 및 연금저축 계좌에서도 최대 100까지 투자할 수 있고 환노출형 구조로 환헤지 비용이 없어 더 많은 분배금을 지급할 수 있게 돼있다.대런 윌스 Darren Wills 블랙록 아시아태평양 ETF인덱스 상품부문 대표는 최근 채권시장에서 발생한 금리 레벨의 지각변동은 채권 자산의 매력도를 급격히 상승시켜 다양한 듀레이션 스펙트럼을 활용한 폭넓은 투자가 가능하게 만들었다며 특히 미국의 하이일드 채권자산의 수익률은 미국 고배당주나 리츠의 배당수익률 대비 높은 투자 매력도를 나타내고 있는데 연준의 고금리 기조가 기존 예상보다 오래 유지될 것으로 보여 이러한 채권 투자의 상대적 매력도는 당분간 지속될 것이라고 밝혔다.상품 운용을 담당하는 유아란 삼성자산운용 매니저는 새로운 시장 환경으로 채권투자의 효용성이 높아진 지금 안정적 투자를 선호하는 국내 투자자들에게 미국 대표 채권 상품인 iShares ETF 3종을 제시할 수 있게 된 것이 금번 신규 상장의 중요한 의의라며 연금 투자자들이 이 ETF들을 활용해 연금계좌에서 소중한 은퇴 자산을 안정적으로 운용하는데 도움이 될 수 있기를 기대한다고 말했다.임태혁 삼성자산운용 ETF운용본부 상무는 예상했던 수준보다 높은 금리가 더 오래 지속되고 있다는 더 높게 더 오래 Higher for longer라는 표현이 글로벌 채권시장을 지배하고 있다며 금리가 2008년 금융위기 이후 가장 높은 수준에 머무르고 있는데 이상품들은 월배당으로 설계돼 충분한 이자수익을 거둘 수 있다고 밝혔다.</t>
+  </si>
+  <si>
+    <t>['삼성 퇴직연금', '퇴직연금 운용사', '퇴직연금 채권', '퇴직연금 리츠']</t>
+  </si>
+  <si>
+    <t>[{'삼성 퇴직연금': 6}, {'퇴직연금 운용사': 1}, {'퇴직연금 채권': 8}, {'퇴직연금 리츠': 12}]</t>
+  </si>
+  <si>
+    <t>삼성자산운용이 블랙록자산운용과 손잡고 미국 채권 상장지수펀드 ETF 3종 출시하여 투자자에게 다양한 투자 기회를 제공하고 분배금을 지급함.</t>
+  </si>
+  <si>
+    <t>이 기사에서는 경쟁 동향에 대한 정보가 제공되지 않음.</t>
+  </si>
+  <si>
+    <t>기사에서는 금리 레벨의 지각변동이 채권 자산의 매력을 상승시키고, 미국의 하이일드 채권자산의 수익률이 높은 투자 매력을 가지고 있음을 언급함.</t>
+  </si>
+  <si>
+    <t>기사에서는 법적 및 규제 변화에 대한 정보가 제공되지 않음.</t>
+  </si>
+  <si>
+    <t>기사에서는 연령에 관련된 정보나 연금 기금의 장기 지속 가능성에 대한 언급이 없음.</t>
+  </si>
+  <si>
+    <t>기사에서는 기술과 디지털화에 관련된 정보나 영향에 대한 언급이 없음.</t>
+  </si>
+  <si>
+    <t>기사에서는 연금 투자자들이 안정적으로 은퇴 자산을 운용하는데 도움이 될 수 있는 상품을 제시한다고 언급함.</t>
+  </si>
+  <si>
+    <t>삼성운용</t>
+  </si>
+  <si>
+    <t>삼성운용 美 채권형 ETF 3종 상장</t>
+  </si>
+  <si>
+    <t>삼성자산운용과 블랙록이 콜라보하여 미국채권 ETF 3종을 출시했다. 이번 상품은 국내 월배당 ETF 시장의 새로운 대안으로 주목받고 있다. 블랙록의 대표 상품에 손쉽게 투자할 수 있으며, 환전 비용도 들지 않는다.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/016/0002212347?sid=101</t>
+  </si>
+  <si>
+    <t>대한민국 1등 ETF 상장지수펀드 운용사와 글로벌 1등 ETF 운용사의 역량과 노하우를 합쳤습니다. 삼성자산운용과 블랙록의 콜라보는 국내 투자자들에게 최고의 솔루션을 제공할 것입니다.임태혁 삼성자산운용 ETF운용본부장은 19일 서울 여의도 한국거래소 컨퍼런스홀에서 삼성자산운용의 ETF Kodex와 블랙록의 ETF iShares의 제휴로 출시한 Kodex iShares 미국채권 ETF 3종 상장 기념 기자간담회에서 이같이 밝혔다. 블랙록의 대표 미국채권ETF 3종이 11 재간접형태로 출시된 건 이번이 처음이다. 고금리에 채권 투자 매력이 높아지면서 이번 미국채권ETF 3종은 주식형 상품 위주였던 국내 월배당 ETF 시장의 새로운 대안으로 떠오를 것으로 전망된다.한국거래소에 따르면 이날 신규 상장한 미국채권 ETF는 KODEX iShares 미국 하이일드 액티브 ETF KODEX iShares 미국 투자등급 회사채 액티브 ETF KODEX iShares 미국 인플레이션 국채 액티브 ETF 등 3종이다. 해당 상품은 각각 블랙록의 대표 채권형 ETF인 USHY LQD TIP에 11 재간접 형태로 투자하며 미국 채권에서 발생하는 이자 수익을 활용해 매월 분배금을 지급하는 월분배형 채권ETF다.이번 상품들은 상장 전부터 투자자들 사이에서 입소문을 탔다. 합리적인 수수료로도 블랙록의 대표 상품에 손쉽게 투자할 수 있다는 점이 주목받았다. 국내 상장 상품인 만큼 따로 환전 비용도 들지 않는다. 환노출형 구조로 설계돼 달러에 투자하는 효과도 챙길 수 있다. 퇴직연금연금저축 계좌에서도 최대 100까지 투자할 수 있다.유아란 삼성자산운용 매니저는 새로운 시장 환경으로 채권투자의 효용성이 높아진 지금 안정적 투자를 선호하는 국내 투자자들에게 미국 대표 채권 상품인 iShares ETF 3종을 제시할 수 있게 된 것이 이번 신규 상장의 중요한 의의라며 특히 연금 투자자들이 이 ETF들을 활용해 연금계좌에서 소중한 은퇴 자산을 안정적으로 운용하는 데 도움이 될 수 있기를 기대한다고 밝혔다.블랙록도 현 시점에서 채권은 유망한 투자처라고 진단했다. 금리가 높을 때 채권을 사면 많은 이자를 기대할 수 있는 데다 채권 가격은 금리와 반대로 움직이기 때문에 금리 하락 시 매매차익도 얻을 수 있어서다. 대런 윌스 블랙록 아시아태평양 ETF 및 인덱스 상품부문 대표는 최근 채권시장에서 발생한 금리 레벨의 지각변동은 채권 자산의 매력도를 급격히 상승시켜 다양한 듀레이션 스펙트럼을 활용한 폭넓은 투자가 가능하게 만들었다고 평가했다.그는 또 특히 미국의 하이일드 채권자산의 수익률은 미국 고배당주나 리츠의 배당수익률 대비 높은 투자 매력도를 나타내고 있는데 연준의 고금리 기조가 기존 예상보다 오래 유지될 것으로 보인다며 이러한 채권 투자의 상대적 매력도는 당분간 지속될 것이라고 전망했다. 임태혁 삼성자산운용 ETF운용본부장도 이번 상장한 3종은 국내 월배당 ETF 시장에서 새로운 투자 대안이 될 것이라며 국내 투자자들에게 보다 새롭고 우수한 상품을 공급하겠다고 말했다. 유혜림 기자</t>
+  </si>
+  <si>
+    <t>['삼성 퇴직연금', '퇴직연금 ETF', '퇴직연금 채권', '퇴직연금 리츠']</t>
+  </si>
+  <si>
+    <t>[{'삼성 퇴직연금': 7}, {'퇴직연금 ETF': 9}, {'퇴직연금 채권': 9}, {'퇴직연금 리츠': 13}]</t>
+  </si>
+  <si>
+    <t>삼성자산운용과 블랙록의 콜라보로 출시된 미국채권 ETF 3종은 투자자들에게 최고의 솔루션을 제공할 것으로 기대되며, 이는 pension fund management에 영향을 줄 수 있다.</t>
+  </si>
+  <si>
+    <t>이번 출시로 국내 월배당 ETF 시장에 새로운 대안이 등장하였으며, 이는 industry competition trends에 영향을 줄 수 있다.</t>
+  </si>
+  <si>
+    <t>미국채권 ETF의 출시는 금리 변동과 투자 자산의 변동성이 retirement pension industry에 미치는 영향을 이해하는 데 도움이 될 수 있다.</t>
+  </si>
+  <si>
+    <t>기사에는 법적 및 규제 변화에 대한 언급이 없으므로, 해당 기준에 대한 점수는 낮게 부여된다.</t>
+  </si>
+  <si>
+    <t>기사에는 노령화와 관련된 내용이 없으므로, 해당 기준에 대한 점수는 부여되지 않는다.</t>
+  </si>
+  <si>
+    <t>기사에는 기술과 디지털화에 관련된 내용이 없으므로, 해당 기준에 대한 점수는 부여되지 않는다.</t>
+  </si>
+  <si>
+    <t>기사에는 소비 행동 및 요구사항에 관련된 내용이 없으므로, 해당 기준에 대한 점수는 부여되지 않는다.</t>
+  </si>
+  <si>
+    <t>삼성운용 / 블랙록</t>
+  </si>
+  <si>
+    <t>삼성운용, 블랙록과 맞손… 채권형 ETF 수익률 잡는다</t>
+  </si>
+  <si>
+    <t>삼성자산운용과 블랙록이 협력하여 신규 상장지수펀드 ETF 3종을 내놓았다. 금리 상승에 따라 채권 투자의 매력이 부각되고 있으며, 채권형 ETF는 투자자에게 안정적인 수익을 제공할 것으로 예상된다.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/119/0002759957?sid=101</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 고금리 장기화 기조가 예상되면서 채권 투자의 매력도가 부각되는 가운데 삼성자산운용이 다양하고 가치 있는 상품을 국내 투자자에 공급하고자 세계 최대 자산운용사 블랙록 BlackRock과 힘을 합쳐 신규 상장지수펀드 ETF 3종을 내놓았다.대런 윌스 블랙록 아시아태평양 ETF 및 인덱스 상품부문 대표는 19일 서울 여의도 한국거래소 컨퍼런스홀에서 진행된 Kodex iShares 미국채권 ETF 3종 상장 기념 기자간담회에서 고금리가 장기간 이어질 상황에 놓인 투자자들은 메가 트렌드를 활용해 투자기회를 모색해야 한다고 말했다.금융위기와 코로나19 팬데믹을 거치면서 새로운 시장 환경이 형성됐고 인플레이션 물가 상승이 지속되는 현 상황에서 채권형 상품의 매력도에 대해 언급했다. 윌스 대표는 금리가 높아지면 채권의 수익률이 올라가고 경제활동은 전반적으로 정체된다며 채권 시장과 채권 ETF에서 금리가 가장 중요한 만큼금리 인상도를 생각해 채권에 접근하는 것이 효율적이라고 전했다.그는 오는 2030년 채권형 ETF 시장이 6조달러 약 8150억원에 달하는 규모를 달성할 것이라면서 위험도가 낮아지고 적은 비용으로 투자가 가능해진 점도 투자자들의 관심을 끌고 있다고 설명했다. 고정수입을 가지고 주식처럼 월배당 형태로 분배가 이뤄지면서다.윌스 대표는 주식배당주에 투자해 수익을 얻으려던 투자자들이 채권으로 향하고 있다며 무위험 채권상품에 투자해도 일반 주식보다 높은 수익률을 얻을 수 있는 등 주식시장 대비 위험도가 낮기 때문이라고 말했다.이어 회사가 20년 전에 채권형 ETF를 뉴욕시장에 입성시킨 뒤 많은 수익을 거뒀다며 현재 채권형 ETF가 시장에서 차지하는 비중은 낮지만 고금리 기조를 고려하면 급성장이 기대된다고 덧붙였다.한국거래소에 따르면 KODEX iShares 미국 하이일드 액티브 ETF KODEX iShares 미국 투자등급 회사채 액티브 ETF KODEX iShares 미국 인플레이션 국채 액티브 ETF 등 3종은 이날 유가증권시장에 상장됐다.이들 상품은 삼성자산운용이 블랙록과 제휴해 선보이는 미국채권형 ETF이다. 월배분 방식으로 구성되며 국내 증시에 상장돼 퇴직연금연금저축에 투자할 수 있는 것이 특징이다. 월배분 ETF의 경우 제 2의 월급으로 여유자금을 만들 수 있으며 은퇴한 투자자에게 생활비를 마련해줄 수 있다는 장점이 있다.특히 해당 ETF는 투자자에게 유리하도록 설계된 미국 하이일드의 매력적인 분배율을 월 분배로 누릴 수 있고 글로벌 유수의 대기업이 제공하는 성장성에 채권으로 투자할 수 있는 상품이다. 임태혁 삼성자산운용 ETF운용본부 상무는 이날 신규 상장한 채권형 ETF 3종에 대해 현 채권시장 금리는 2008년 글로벌 금융위기 이후 가장 높은 수준이라며 채권형 ETF가 투자자들에게 충분한 이자수익을 안길 것이라고 강조했다. 이어 블랙록의 훌륭한 채권 운용 능력과 자사의 ETF 노하우를 접목해 안정적인 솔루션을 제공했다고 덧붙였다.</t>
+  </si>
+  <si>
+    <t>['삼성 퇴직연금', '퇴직연금 수익률', '퇴직연금 ETF', '퇴직연금 채권']</t>
+  </si>
+  <si>
+    <t>[{'삼성 퇴직연금': 20}, {'퇴직연금 수익률': 6}, {'퇴직연금 ETF': 21}, {'퇴직연금 채권': 22}]</t>
+  </si>
+  <si>
+    <t>삼성자산운용과 블랙록의 협력으로 신규 상장지수펀드 ETF 3종을 내놓았으며, 금리 상승에 따른 채권 투자의 매력을 언급하고 있다.</t>
+  </si>
+  <si>
+    <t>기사에서는 경쟁 동향이나 시장 점유율에 대한 언급이 없으므로 점수를 낮게 준다.</t>
+  </si>
+  <si>
+    <t>기사에서는 금리 상승과 채권 시장의 중요성을 강조하고 있다.</t>
+  </si>
+  <si>
+    <t>기사에서는 법적 및 규제 변화에 대한 언급이 없으므로 점수를 주지 않는다.</t>
+  </si>
+  <si>
+    <t>기사에서는 인구 변화와 관련된 내용에 대한 언급이 없으므로 점수를 주지 않는다.</t>
+  </si>
+  <si>
+    <t>기사에서는 기술과 디지털화에 대한 언급이 없으므로 점수를 주지 않는다.</t>
+  </si>
+  <si>
+    <t>기사에서는 소비 행태와 요구사항에 대한 언급이 없으므로 점수를 주지 않는다.</t>
+  </si>
+  <si>
+    <t>퇴직연금 제도</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>'개인형 퇴직연금(IRP)' 로보어드바이저 투자 허용...'연말 세액공제' 노려볼...</t>
+  </si>
+  <si>
+    <t>연말에 세액공제 상품을 찾는 30대 직장인 A씨는 개인형 IRP에 관심이 있다. 개인형 IRP는 다양한 금융상품에 투자할 수 있어 인기를 끌고 있다. 로보어드바이저 투자도 가능해지면서 IRP 가입자들의 선택지가 넓어지고 있다.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/243/0000051592?sid=101</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30대 직장인 A씨는 어느새 코 앞으로 다가온 연말에 세액공제 상품을 찾느라 정신이 없다. 연금저축과 개인형 퇴직연금 IRP을 살펴보던 중 직장 동료의 추천으로 개인형 IRP를 자세히 들여다보고 있는 중이다. 다양한 상품에 투자할 수 있는데다 세액공제 한도가 높은 개인형 IRP 쪽으로 A씨의 마음이 기울고 있다.다가오는 연말 직장인들 사이에서 세액공제 상품인 연금저축과 IRP가 인기를 끌고 있다. 특히 개인형 IRP가 다양한 금융상품에 투자할 수 있어 관심도가 높 받다. 연금저축은 연금펀드와 상장지수펀드 ETF 등으로 투자 가능 상품이 제한돼 있다. 앞으로 개인형 IRP에서 로보어드바이저 투자도 가능해질 것으로 예상되면서 IRP 가입자들의 투자 선택 범위는 더 넓어질 전망이다.개인형 IRP의 경우 연금저축 상품과 합산하거나 혹은 단독으로 최대 900만원까지 세액공제 혜택을 받을 수 있다. 연금저축은 세액공제 한도가 최대 600만원이다. 연간 납입 금액을 기준으로 세액공제율은 최대 16.5가 적용된다.만일 세액공제 한도를 초과해 납입했다면 다음 연도로 이월해 공제받는 것도 가능하다. 또 연금 수령 시점에 세금을 부과함에 따라 운용 기간 중 발생한 세금을 모두 재투자할 수 있다는 이점도 있다. 이에 연금저축과 개인형 IRP는 직장인 대표 세테크 금융상품으로 자리를 잡고 있다.이 가운데 최근 금융당국은 개인형 IRP 계좌에서 로보어드바이저 투자가 가능하도록 허용했다. 퇴직연금 가입자들의 투자 선택 범위를 넓혀준 것이다. 이에 각 로보어드바이저 전문 핀테크 기업들은 코스콤 테스트베드에 올릴 퇴직연금 전용 알고리즘 개발로 정신이 없다. 로보어드바이저 전문 기업 파운트 역시 그동안 쌓아온 금융 빅데이터 정제 및 분석 머신러닝 등의 노하우를 기반으로 퇴직연금 전용 알고리즘 개발에 집중하고 있다.금융감독원 공시 기준 올해 2분기 퇴직연금 적립금 규모는 약 341조3438억원이다. 이 중 90가량은 원리금 보장 상품에 집중돼 있다. 이에 퇴직연금은 낮은 수익률과 함께 사실상 방치돼 왔다는 지적을 받았다. 이로 인해 일각에서는 로보어드바이저의 퇴직연금 투자 일임을 허용해야 한다는 목소리가 꾸준히 흘러나왔다.금융투자업계 관계자는 저출산 고령화 등이 사회적 문제로 지적되고 있는 가운데 노후 대비 수단으로 퇴직연금에 대한 관심이 커지고 있다. 특히 연말이 다가오면서 세제혜택을 고려한 개인형 IRP 가입자들이 늘고 있는 것으로 보인다며 장기투자 손실방어에 강한 로보어드바이저 투자가 본격 퇴직연금 시장에서 가능해지면 IRP 가입자들의 선택지가 보다 넓어지는 것은 물론 안정적인 투자 전략 중 하나로 자리잡을 것이라고 내다봤다.</t>
+  </si>
+  <si>
+    <t>['퇴직연금 IRP', '개인형퇴직연금', 'IRP 연금수령', '퇴직연금 적립금', '퇴직연금 규모', '퇴직연금 세액공제', '퇴직연금 금융감독원', '하나 퇴직연금', '퇴직연금 로보어드바이저', '퇴직연금 수익률', '퇴직연금 ETF', '퇴직연금 가입', '퇴직연금 펀드', '퇴직연금 장기 투자']</t>
+  </si>
+  <si>
+    <t>[{'퇴직연금 IRP': 1}, {'개인형퇴직연금': 1}, {'IRP 연금수령': 1}, {'퇴직연금 적립금': 1}, {'퇴직연금 규모': 1}, {'퇴직연금 세액공제': 1}, {'퇴직연금 금융감독원': 2}, {'하나 퇴직연금': 1}, {'퇴직연금 로보어드바이저': 1}, {'퇴직연금 수익률': 1}, {'퇴직연금 ETF': 7}, {'퇴직연금 가입': 1}, {'퇴직연금 펀드': 1}, {'퇴직연금 장기 투자': 1}]</t>
+  </si>
+  <si>
+    <t>개인형 IRP에 대한 투자 가능성과 로보어드바이저의 영향</t>
+  </si>
+  <si>
+    <t>인기 있는 세액공제 상품으로서의 개인형 IRP</t>
+  </si>
+  <si>
+    <t>금융당국의 로보어드바이저 투자 허용으로 인한 영향</t>
+  </si>
+  <si>
+    <t>법적 및 규제 변화에 대한 언급이 없음</t>
+  </si>
+  <si>
+    <t>퇴직연금에 대한 관심과 저출산 고령화 문제</t>
+  </si>
+  <si>
+    <t>기술과 디지털화에 대한 언급이 없음</t>
+  </si>
+  <si>
+    <t>소비 행동 및 요구사항에 대한 언급이 없음</t>
+  </si>
+  <si>
+    <t>파운트, 퇴직연금 로보어드바이저 투자 시장에 집중</t>
+  </si>
+  <si>
+    <t>로보어드바이저 투자 허용으로 퇴직연금 시장 변화 예상. 금융당국이 로보어드바이저 투자 허용. 로보어드바이저 업체 파운트, 퇴직연금 전용 알고리즘 개발에 집중.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/009/0005201491?sid=101</t>
+  </si>
+  <si>
+    <t>IRP서 로보어드바이저 투자 허용머신러닝 기반 알고리즘 개발 나서최근 금융당국이 개인형퇴직연금 IRP 계좌에서 로보어드바이저 투자가 가능하도록 허용하면서 목돈을 굴리기 위한 투자자들의 관심이 높아지고 있다.19일 로보어드바이저 업체 파운트는 코스콤 테스트베드에 올릴 퇴직연금 전용 알고리즘 개발에 집중 중이라고 밝혔다. 파운트는 그동안 쌓아온 금융 빅데이터 정제 및 분석 머신러닝 등의 노하우를 기반으로 퇴직연금 전용 알고리즘 개발에 나서고 있다.금융감독원 공시 기준 올해 2분기 퇴직연금 적립금 규모는 약 341조3438억원이다. 이 중 90가량은 원리금 보장 상품에 집중돼 있는 실태다.퇴직연금의 낮은 수익률에 일각에서는 로보어드바이저의 퇴직연금 투자 일임을 허용해야 한다는 목소리가 꾸준히 흘러나왔다. 장기투자 손실방어에 강한 로보어드바이저 투자가 본격 퇴직연금 시장에서 가능해지면 IRP 가입자들의 선택지가 보다 넓어질 것으로 기대된다.한 금융투자업계 관계자는 저출산 고령화 등이 사회적 문제로 지적되고 있는 가운데 노후 대비 수단으로 퇴직연금에 대한 관심이 커지고 있다며 특히 세제혜택을 고려한 IRP 가입자들이 늘고 있는 것으로 보인다고 밝혔다.IRP의 경우 연금저축 상품과 합산하거나 단독으로 최대 900만원까지 세액공제 혜택을 받을 수 있다. 연금저축은 세액공제 한도가 최대 600만원이다. 연간 납입 금액을 기준으로 세액공제율은 최대 16.5가 적용된다.</t>
+  </si>
+  <si>
+    <t>['퇴직연금 IRP', '개인형퇴직연금', '퇴직연금 적립금', '퇴직연금 규모', '퇴직연금 세액공제', '퇴직연금 금융감독원', '퇴직연금 로보어드바이저', '퇴직연금 수익률', '퇴직연금 가입', '퇴직연금 장기 투자']</t>
+  </si>
+  <si>
+    <t>[{'퇴직연금 IRP': 2}, {'개인형퇴직연금': 2}, {'퇴직연금 적립금': 2}, {'퇴직연금 규모': 2}, {'퇴직연금 세액공제': 3}, {'퇴직연금 금융감독원': 4}, {'퇴직연금 로보어드바이저': 2}, {'퇴직연금 수익률': 2}, {'퇴직연금 가입': 3}, {'퇴직연금 장기 투자': 3}]</t>
+  </si>
+  <si>
+    <t>로보어드바이저 투자 허용으로 퇴직연금 시장 변화 예상</t>
+  </si>
+  <si>
+    <t>금융당국이 로보어드바이저 투자 허용</t>
+  </si>
+  <si>
+    <t>로보어드바이저 업체 파운트, 퇴직연금 전용 알고리즘 개발에 집중</t>
+  </si>
+  <si>
+    <t>No relevant information in the article</t>
+  </si>
+  <si>
+    <t>저출산 고령화로 퇴직연금에 대한 관심이 커지고 있음</t>
+  </si>
+  <si>
+    <t>삼성자산운용 / 블랙록</t>
+  </si>
+  <si>
+    <t>“1등의 노하우를 담았다”…삼성자산운용·블랙록 ‘Kodex iShares 미국채권...</t>
+  </si>
+  <si>
+    <t>삼성자산운용과 블랙록이 콜라보하여 미국채권 ETF 3종을 출시했다. 이번 상품은 주식형 상품 위주였던 국내 월배당 ETF 시장의 대안으로 주목받고 있다. 블랙록의 대표 채권형 ETF에 투자하며 매월 분배금을 지급하는 월분배형 채권ETF다.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/016/0002212212?sid=101</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 대한민국 1등 ETF 상장지수펀드 운용사와 글로벌 1등 ETF 운용사의 역량과 노하우를 합쳤습니다. 삼성자산운용과 블랙록의 콜라보는 국내 투자자들에게 최고의 솔루션을 제공할 것입니다.임태혁 삼성자산운용 ETF운용본부장은 19일 오전 서울 여의도 한국거래소 컨퍼런스홀에서 삼성자산운용의 ETF Kodex와 블랙록의 ETF iShares의 제휴로 출시한 Kodex iShares 미국채권 ETF 3종 상장 기념 기자간담회에서 이같이 밝혔다. 블랙록의 대표 미국채권ETF 3종이 11 재간접형태로 출시된 건 이번이 처음이다. 고금리에 채권 투자 매력이 높아지면서 이번 미국채권ETF 3종은 주식형 상품 위주였던 국내 월배당 ETF 시장의 새로운 대안으로 떠오를 것으로 전망된다.한국거래소에 따르면 이날 신규 상장한 미국채권 ETF는 KODEX iShares 미국 하이일드 액티브 ETF KODEX iShares 미국 투자등급 회사채 액티브 ETF KODEX iShares 미국 인플레이션 국채 액티브 ETF 등 3종이다. 해당 상품은 각각 블랙록의 대표 채권형 ETF인 USHY LQD TIP에 11 재간접 형태로 투자하며 미국 채권에서 발생하는 이자 수익을 활용해 매월 분배금을 지급하는 월분배형 채권ETF다.이번 상품들은 상장 전부터 투자자들 사이에서 입소문을 탔다. 합리적인 수수료로도 블랙록의 대표 상품에 손쉽게 투자할 수 있다는 점이 주목받았다. 국내 상장 상품인 만큼 따로 환전 비용도 들지 않는다. 환노출형 구조로 설계돼 달러에 투자하는 효과도 챙길 수 있다. 퇴직연금연금저축 계좌에서도 최대 100까지 투자할 수 있다.유아란 삼성자산운용 매니저는 새로운 시장 환경으로 채권투자의 효용성이 높아진 지금 안정적 투자를 선호하는 국내 투자자들에게 미국 대표 채권 상품인 iShares ETF 3종을 제시할 수 있게 됐다며 특히 연금 투자자들이 이 ETF들을 활용해 연금계좌에서 소중한 은퇴 자산을 안정적으로 운용하는 데 도움이 될 수 있기를 기대한다고 밝혔다.블랙록도 현 시점에서 채권은 유망한 투자처라고 진단했다. 금리가 높을 때 채권을 사면 많은 이자를 기대할 수 있는 데다 채권 가격은 금리와 반대로 움직이기 때문에 금리 하락 시 매매차익도 얻을 수 있어서다.대런 윌스 블랙록 아시아태평양 ETF 및 인덱스 상품부문 대표는 최근 채권시장에서 발생한 금리 레벨의 지각변동은 채권 자산의 매력도를 급격히 상승시켜 다양한 듀레이션 투자금 회수기간 스펙트럼을 활용한 폭넓은 투자가 가능하게 만들었다고 평가했다.그는 또 특히 미국의 하이일드 채권자산의 수익률은 미국 고배당주나 리츠의 배당수익률 대비 높은 투자 매력도를 나타내고 있는데 연준의 고금리 기조가 기존 예상보다 오래 유지될 것으로 보인다며 이러한 채권 투자의 상대적 매력도는 당분간 지속될 것이라고 전망했다. </t>
+  </si>
+  <si>
+    <t>[{'삼성 퇴직연금': 14}, {'퇴직연금 ETF': 15}, {'퇴직연금 채권': 15}, {'퇴직연금 리츠': 17}]</t>
+  </si>
+  <si>
+    <t>삼성자산운용과 블랙록의 콜라보로 새로운 상품 출시</t>
+  </si>
+  <si>
+    <t>주식형 상품 위주였던 국내 월배당 ETF 시장의 대안으로 주목받고 있다.</t>
+  </si>
+  <si>
+    <t>월분배형 채권ETF로 매월 분배금을 지급하는 상품</t>
+  </si>
+  <si>
+    <t>고금리 더 간다…삼성운용, 블랙록 대표 美채권 ETF 3종 상장</t>
+  </si>
+  <si>
+    <t>삼성자산운용과 블랙록이 합작한 3종의 ETF가 소개됐다. 이 ETF는 미국 채권에 투자하며 매월 분배금을 지급하는 월 분배형 채권 ETF다. 또한, KODEX iShares 미국 하이일드 액티브 ETF는 안정적이면서 고수익을 누릴 수 있는 상품으로 꼽힌다.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/015/0004904062?sid=101</t>
+  </si>
+  <si>
+    <t>지금은 예전처럼 고수익을 위해 더 높은 리스크를 짊어져야만 하는 상황이 아닙니다삼성자산운용은 글로벌 최대 자산운용사 블랙록과 19일 여의도 한국거래소 컨퍼런스홀에서 Kodex iShares 미국채권 상장지수펀드 ETF 3종 상장 기자 간담회에서를 개최했다. 이 자리에서 양사가 합작한 3종의 ETF가 소개됐다.이날 상장한 미국채권 ETF는 KODEX iShares 미국 하이일드 액티브 KODEX iShares 미국 투자등급 회사채 KODEX iShares 미국 인플레이션 국채 액티브 ETF 등 3종이다. 각각 블랙록의 기존 채권형 ETF인 USHY LQD TIP에 11 재간접 형태로 투자한다.미국 채권에서 발생하는 이자 수익을 활용해 매월 분배금을 지급하는 월 분배형 채권 ETF다. 국내 증시에 상장된 만큼 환전 없이 퇴직연금 연금저축 계좌에서도 투자할 수 있다. 또 환노출형 구조로 설계돼 달러 자산을 선호하는 투자자에게 적합하다는 설명이다.상대적으로 안정적이면서 고수익을 누릴 수 있는 상품으로는 KODEX iShares 미국 하이일드 액티브 ETF가 꼽힌다. 블랙록의 대표적인 하이일드 ETF인 USHY에 투자하는 이 상품은 다양한 만기의 회사채로 구성된 고수익 ETF다. 미국 신용등급 BBD 등급의 하이일드 채권에 투자하며 9월 말 기준 분배율은 연 6.92다. 하이일드는 저신용 등급의 기업이 발행한 고위험고수익 채권을 의미한다. 다만 미국의 경우 하이일드라고 해도 롤스로이스 포드 넥스트라에너지 등 유수의 대기업이 포진해 있다. KODEX iShares 미국채권 ETF 3종의 운용을 담당하는 유아란 삼성자산운용 매니저는 하이일드의 부도율을 감안할 때 운용사의 전문성과 분산투자가 중요하다며 16년의 하이일드 ETF 운용 경력과 규모의 경제로 부도 위험을 방지할 것이라고 말했다.블랙록도 현 시점에서 채권을 유망한 투자처로 진단했다. 금리가 높을 때 채권을 사면 많은 이자를 기대할 수 있다. 또 향후 금리 하락에도 대응할 수 있다. 채권 가격은 금리와 반대로 움직이기 때문에 환매를 통해 수익을 극대화할 수 있다. 대런 월스 블랙록 아시아태평양 ETF 및 인덱스 상품부문 대표는 연준의 고금리가 오래 유지될 것으로 보여 채권 투자의 상대적 매력도는 당분간 지속될 것이라며 채권에 투자하면서 인컴 수익을 거두면서 동시에 주식 시장의 리스크를 덜어낼 수 있다고 분석했다.임태혁 삼성자산운용 ETF운용본부 상무는 글로벌 1등 운용사의 전문적인 운용 노하우를 접목시켜 국내 투자자들에게 보다 새롭고 우수한 상품을 공급하게 됐다며 그간 주식형 위주로 구성됐던 월배당 ETF 시장에서 새로운 투자 대안이 될 것이라고 포부를 밝혔다.</t>
+  </si>
+  <si>
+    <t>['삼성 퇴직연금', '퇴직연금 ETF', '퇴직연금 채권']</t>
+  </si>
+  <si>
+    <t>[{'삼성 퇴직연금': 2}, {'퇴직연금 ETF': 2}, {'퇴직연금 채권': 2}]</t>
+  </si>
+  <si>
+    <t>삼성자산운용과 블랙록이 합작한 3종의 ETF가 소개되었으며, 이는 pension fund management에 관련된 내용이다.</t>
+  </si>
+  <si>
+    <t>이 ETF는 미국 채권에 투자하며 매월 분배금을 지급하는 월 분배형 채권 ETF로, retirement pension industry의 competition trends에 영향을 줄 수 있다.</t>
+  </si>
+  <si>
+    <t>이 ETF는 미국 채권에 투자하며, 금리와 반대로 움직이기 때문에 financial market movements에 영향을 줄 수 있다.</t>
+  </si>
+  <si>
+    <t>본문에는 legal and regulatory changes에 관련된 내용이 없다.</t>
+  </si>
+  <si>
+    <t>본문에는 demographic change에 관련된 내용이 없다.</t>
+  </si>
+  <si>
+    <t>본문에는 technology and digitalization에 관련된 내용이 없다.</t>
+  </si>
+  <si>
+    <t>본문에는 consumption behavior and requirements에 관련된 내용이 없다.</t>
+  </si>
+  <si>
+    <t>삼성운용·블랙록, '미 채권 ETF에 재간접 투자' 상품 3종 출시</t>
+  </si>
+  <si>
+    <t>삼성자산운용이 세계 최대 자산운용사인 블랙록과 손잡고 미국 채권 상장지수펀드 ETF에 재간접 투자하는 상품 3종을 출시했다. 이들 ETF는 각각 블랙록의 대표 채권형 ETF인 USHY LQD TIP에 일대일 재간접 형태로 투자하며 미국 채권에서 발생하는 이자 수익을 활용해 매달 분배금을 지급하는 월분배형 ETF다. 국내 상품인 만큼 환전 없이 퇴직연금연금저축 계좌에서도 투자할 수 있고 환노출형 구조를 택해 환헤지 비용 없이 더 많은 분배금을 지급하도록 설계됐다.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/001/0014273097?sid=101</t>
+  </si>
+  <si>
+    <t>KODEX iShares 미국 하이일드 ETF 등월배당 강점  서울연합뉴스 송은경 기자 삼성자산운용이 세계 최대 자산운용사인 블랙록과 손잡고 미국 채권 상장지수펀드 ETF에 재간접 투자하는 상품 3종을 출시했다. 삼성자산운용은 19일 여의도 한국거래소에서 기자간담회를 열고 KODEX iShares 미국 하이일드 액티브 ETF KODEX iShares 미국 투자등급 회사채 액티브 ETF KODEX iShares 미국 인플레이션 국채 액티브 ETF 3종을 신규 상장했다고 밝혔다. 이들 ETF는 각각 블랙록의 대표 채권형 ETF인 USHY LQD TIP에 일대일 재간접 형태로 투자하며 미국 채권에서 발생하는 이자 수익을 활용해 매달 분배금을 지급하는 월분배형 ETF다. 국내 상품인 만큼 환전 없이 퇴직연금연금저축 계좌에서도 투자할 수 있고 환노출형 구조를 택해 환헤지 비용 없이 더 많은 분배금을 지급하도록 설계됐다. 이 가운데 USHY는 블랙록의 대표적인 하이일드 신용등급이 낮은 회사가 발행한 고수익고위험 채권 ETF로 다양한 만기의 회사채로 구성됐다. 미국 신용등급 BBD 등급의 하이일드 채권에 투자하며 9월 말 기준 분배율은 연 6.92에 달한다. 대런 윌스 블랙록 아시아태평양 ETF인덱스 상품 부문 대표는 채권 관련해서 거의 한 세대에 한 번 있을 정도의 기회가 찾아왔다며 고금리로 인해 새로운 기회가 생길 것이고 이를 활용하기 위해서는 선별적으로 투자해야 한다고 말했다. 그는 주식 대비 상당히 많은 수익을 하이일드 채권에서 벌 수 있고 주식시장에서의 리스크를 덜어낼 수 있다고 강조했다. 그러면서 앞으로 중앙은행의 추가 금리 인상이 있을 수도 있지만 인상 사이클은 선진 시장의 경우 완료됐다고 생각한다며 다만 당장 금리 인하를 시작할 것 같진 않다고 덧붙였다. 유아란 삼성자산운용 매니저는 채권의 만기수익률 매력도가 주식의 배당수익률 매력도를 큰 폭으로 상회한다며 물론 하이일드도 금리 상승에 따른 자본차손이 있지만 이를 분배금에서 만회하고 있다고 설명했다. 이어 하이일드라고 해도 미국은 롤스로이스 포드 등 유수의 대기업들이 포진해 있는 반면 한국은 하이일드 기업이 거의 없다며 이번 상장 ETF를 통해 미국의 하이일드 채권시장에 투자할 수 있다고 강조했다. 임태혁 삼성자산운용 ETF운용본부 상무는 현재 금리는 2008년 금융위기 이후 가장 높은 수준에 머무르고 있다며 이번 상품은 월배당으로 설계했기 때문에 투자자들이 충분한 이자수익을 누릴 수 있다고 말했다. noraeyna.co.kr</t>
+  </si>
+  <si>
+    <t>[{'삼성 퇴직연금': 3}, {'퇴직연금 ETF': 3}, {'퇴직연금 채권': 3}]</t>
+  </si>
+  <si>
+    <t>삼성자산운용이 블랙록과 협력하여 미국 채권 상장지수펀드 ETF를 출시함으로써, 펀드 관리 전략과 금융 시장 변동의 영향을 분석하는데 기여함.</t>
+  </si>
+  <si>
+    <t>이번 상품 출시로 인해 삼성자산운용은 미국 채권시장에 대한 경쟁 동향을 파악하고 새로운 제품과 서비스를 출시함.</t>
+  </si>
+  <si>
+    <t>이번 상품 출시는 금융 시장의 변동성과 이자율 변화에 대한 영향을 이해하는 데 도움을 줄 수 있음.</t>
+  </si>
+  <si>
+    <t>이 기사에는 법적 및 규제 변화에 대한 언급이 없음.</t>
+  </si>
+  <si>
+    <t>이 기사에는 인구 통계 변화와 관련된 내용이 없음.</t>
+  </si>
+  <si>
+    <t>이 기사에는 기술과 디지털화에 관련된 내용이 없음.</t>
+  </si>
+  <si>
+    <t>이 기사에는 소비 행동 및 요구사항에 관련된 내용이 없음.</t>
+  </si>
+  <si>
+    <t>삼성자산운용</t>
+  </si>
+  <si>
+    <t>삼성자산운용, 미국 채권 ETF 3종 출격…“하이일드 ETF 강세 보일 것”</t>
+  </si>
+  <si>
+    <t>삼성자산운용이 블랙록자산운용과 협력하여 미국채권 상장지수펀드 ETF 3종을 출시했다. 이번 출시 상품은 월분배형 채권 ETF로서 장기투자에 적합하며 매매 비용과 환전 비용이 낮은 편이다. 또한 하이일드 채권 신용등급 BB 이하 ETF가 강세를 보일 것으로 예상된다.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/468/0000991792?sid=101</t>
+  </si>
+  <si>
+    <t>임태혁 삼성자산운용 ETF운용본부 상무 왼쪽와 박명제 블랙록자산운용 한국법인 대표가 간담회에서 발표를 진행하고 있다. 홍성효기자 shhong0820sportsseoul.com 삼성자산운용이 세계 최대 자산운용사인 블랙록자산운용과 손잡고 미국채권 상장지수펀드 ETF 3종을 출시했다.삼성자산운용은 19일 서울 여의도 한국거래소 컨퍼런스홀에서 Kodex iShares 미국채권 ETF 3종 상장을 기념해 기자간담회를 진행했다. 삼성자산운용이 이번에 상장한 ETF 3종은 KODEX iShares 미국 투자등급 회사채 액티브 ETF KODEX iShares 미국 하이일드 액티브 ETF KODEX iShares 미국 인플레이션 국채 액티브 ETF 등이다. 해당 상품은 각각 블랙록의 대표 채권형 ETF인 USHY LQD TIP를 11 재간접 형태로 투자해 미국 채권에서 발생하는 이자 수익으로 분배금을 매월 지급받는 월분배형 채권 ETF다.Kodex iShares 미국채권 ETF 3종의 운용을 담당하는 유아란 삼성자산운용 매니저는 3종 모두 월분배 상품 퇴직연금과 연금저축에서 높은 비율로 운용 가능 등을 이유로 장기투자에 적합한 상품이라고 소개했다. 또한 이번 3종 ETF의 매매 비용은 0.070.15 수준으로 해외 상장 ETF 상품 0.251.75보다 낮은 편이다. 이에 더해 환전 비용은 0에 가까운 수준이다.유 매니저는 3종 ETF 중에서도 하이일드 채권 신용등급 BB 이하 ETF가 강세를 보일 것으로 내다봤다. 그는 KODEX iShares 미국 하이일드 액티브 ETF의 경우 글로벌 유수의 대기업들이 많다며 분배율 수준이 기존 월분배형 채권ETF 대비 월등히 높은 연 7에 달하기에 이제는 주식이 아니라 채권으로 투자해봐도 좋을 것이라고 말했다.하지만 신용등급 BB 이하인 채권 상품이어서 디폴트 우려가 있기 마련이다. 이에 대해 유 매니저는 하이일드 ETF는 운용사의 전문성과 분산 투자 능력이 매우 중요하다며 우리가 출시한 하이일드 ETF는 규모의 경제를 토대로 블랙록의 채권 인덱스를 완전하다고 할 정도로 지수 복제 효과를 제공 과도한 익스포저로 부도가 나는 사태를 방지할 수 있을 것이라고 설명했다.대런 윌스 블랙록 아시아태평양 ETF 및 인덱스 상품부문 대표도 채권 투자를 강력 추천했다. 그는 현재 채권시장에 얼마없는 기회가 왔다며 고금리로 인해 새로운 기회가 생길 것이고 이를 활용하기 위해서는 선별적으로 투자해야 한다고 강조했다.이어 그는 금리가 적어도 2024년 상반기까지는 현재와 비슷한 수준으로 유지될 것이라고 본다며 더 거시적으로 보더라도 향후 금리는 과거 15년 대비 더 높은 수준을 유지할 것으로 본다고 전망했다.임태혁 삼성자산운용 ETF운용본부 상무는 현재 금리는 2008년 금융위기 이후 가장 높은 수준에 머무르고 있다며 이번 상품은 주식형 위주로 구성됐던 국내 월배당 ETF 시장에서 새로운 투자 대안이 될 것으로 예상한다고 전했다.shhong0820sportsseoul.com</t>
+  </si>
+  <si>
+    <t>['삼성 퇴직연금', '퇴직연금 ETF', '퇴직연금 채권', '퇴직연금 장기 투자']</t>
+  </si>
+  <si>
+    <t>[{'삼성 퇴직연금': 4}, {'퇴직연금 ETF': 6}, {'퇴직연금 채권': 6}, {'퇴직연금 장기 투자': 59}]</t>
+  </si>
+  <si>
+    <t>삼성자산운용이 블랙록자산운용과 협력하여 미국채권 상장지수펀드 ETF 3종을 출시했으며, 이는 투자자에게 장기투자에 적합한 상품을 제공하는 것으로 평가된다.</t>
+  </si>
+  <si>
+    <t>이번 출시로 삼성자산운용은 블랙록자산운용과의 협력을 통해 시장에서 경쟁력을 갖추고 새로운 제품과 서비스를 선보이는 추세를 보이고 있다.</t>
+  </si>
+  <si>
+    <t>이번 출시는 금리와 환율 등의 금융시장 변동에 영향을 받을 수 있으며, 이에 대한 이해와 대응이 필요하다.</t>
+  </si>
+  <si>
+    <t>본 기사에는 법률 및 규제 변화에 대한 내용이 포함되어 있지 않다.</t>
+  </si>
+  <si>
+    <t>본 기사에는 고령화와 관련된 내용이 포함되어 있지 않다.</t>
+  </si>
+  <si>
+    <t>본 기사에는 기술과 디지털화에 관련된 내용이 포함되어 있지 않다.</t>
+  </si>
+  <si>
+    <t>본 기사에는 소비 행태와 요구사항에 관련된 내용이 포함되어 있지 않다.</t>
+  </si>
+  <si>
+    <t>삼성자산운용X블랙록 만났다…美 채권 ETF 3종 출시</t>
+  </si>
+  <si>
+    <t>한 세대에 한 번 올 법한 기회로 주식 대비 많은 수익을 하이일드 채권에서 벌 수 있다. 삼성자산운용과 블랙록의 제휴로 KODEX iShares 미국 하이일드 액티브 ETF 등 3종이 국내에 상장되었다. 이들 ETF는 미국 채권에서 발생하는 이자 수익을 활용해 매달 배당을 지급하며, 환전 없이 퇴직연금연금저축 계좌에서도 투자할 수 있다.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/011/0004251015?sid=101</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 채권 투자와 관련해 한 세대에 한 번 올 법한 기회가 찾아왔습니다. 주식시장에서의 리스크를 덜어내면서도 주식 대비 상당히 많은 수익을 하이일드 채권에서 벌 수 있습니다.19일 대런 윌스 블랙록 아시아태평양 ETF인덱스 상품 부문 대표는 여의도 한국거래소에서 열린 삼성자산운용의 KODEX iShares 미국채권 3종 ETF 출시 기자간담회에 참석해 이같이 말했다.이날 기자간담회에서 삼성자산운용은 블랙록과의 제휴를 통해 KODEX iShares 미국 하이일드 액티브 KODEX iShares 미국 투자등급 회사채 액티브 ETF KODEX iShares 미국 인플레이션 국채 액티브 ETF 3종을 국내에 신규 상장했다고 밝혔다.이들 ETF는 각각 블랙록의 대표 채권형 ETF인 USHY LQD TIP에 일대일 재간접 형태로 투자한다. 미국 채권에서 발생하는 이자 수익을 활용해 매달 배당을 지급한다. 환전 없이 퇴직연금연금저축 계좌에서도 투자할 수 있고 환노출형 구조를 택해 환헤지 비용 없이 더 많은 분배금을 지급하도록 설계됐다.이 중 USHY는 블랙록의 대표적인 하이일드 신용등급이 낮은 회사가 발행한 고수익고위험 채권 ETF다. 미국 신용등급 BBD 등급의 하이일드 채권에 투자한다. 지난달 말 기준 분배율은 연 6.92에 달한다.유아란 삼성자산운용 매니저는 채권의 만기수익률 매력도가 주식의 배당수익률 매력도를 큰 폭으로 상회한다며 물론 하이일드도 금리 상승에 따른 자본차손이 있지만 이를 분배금에서 만회하고 있다고 설명했다. 이어 한국과 달리 미국에는 롤스로이스 포드 등 유수의 하이일드 대기업이 포진해 있다며 이번 상장 ETF를 통해 미국의 하이일드 채권시장에 투자할 수 있다고 강조했다.임태혁 삼성자산운용 ETF운용본부 상무는 현재 금리는 2008년 금융위기 이후 가장 높은 수준이라며 이번 상품은 월배당으로 설계했기 때문에 투자자들이 충분한 이자수익을 누릴 수 있다고 말했다.</t>
+  </si>
+  <si>
+    <t>[{'삼성 퇴직연금': 5}, {'퇴직연금 ETF': 8}, {'퇴직연금 채권': 7}]</t>
+  </si>
+  <si>
+    <t>주식 대비 많은 수익을 하이일드 채권에서 벌 수 있다는 내용이 포함되어 있음.</t>
+  </si>
+  <si>
+    <t>삼성자산운용과 블랙록의 제휴로 KODEX iShares 미국 하이일드 액티브 ETF 등 3종이 국내에 상장되었다는 경쟁 동향이 포함되어 있음.</t>
+  </si>
+  <si>
+    <t>미국 채권에서 발생하는 이자 수익을 활용해 매달 배당을 지급하는 내용이 포함되어 있음.</t>
+  </si>
+  <si>
+    <t>법적 및 규제 변화에 대한 내용이 포함되어 있지 않음.</t>
+  </si>
+  <si>
+    <t>노령화와 연금 기금의 장기적인 지속 가능성에 대한 내용이 포함되어 있지 않음.</t>
+  </si>
+  <si>
+    <t>기술과 디지털화에 대한 내용이 포함되어 있지 않음.</t>
+  </si>
+  <si>
+    <t>소비 행동 및 요구사항에 대한 내용이 포함되어 있지 않음.</t>
+  </si>
+  <si>
+    <t>한 세대에 있을까 말까한 기회…삼성운용·블랙록, 美채권 ETF 3종 출시</t>
+  </si>
+  <si>
+    <t>삼성자산운용이 세계 최대 자산운용사 블랙록과 손잡고 미국 채권 ETF에 재간접 투자하는 상품 3종을 출시했다. 이들 ETF는 블랙록의 대표 채권형 ETF에 일대일 재간접 형태로 투자하며 매달 분배금을 지급하는 월분배형 ETF다. 이번 상품은 월배당으로 설계했기 때문에 투자자들이 충분한 이자수익을 누릴 수 있다고 말했다.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/029/0002831530?sid=101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">예상치 못한 고금리 장기화로 불안정한 증시 상황에서 채권 투자가 주식의 리스크를 덜어내면서도 많은 수익을 얻을 수 있는 투자처로 부상했다. 상장지수펀드 ETF의 강자인 삼성자산운용이 세계 최대 자산운용사인 블랙록과 손잡고 미국 채권 ETF에 재간접 투자하는 상품 3종을 출시했다.삼성자산운용은 19일 서울 여의도 한국거래소에서 기자간담회를 열고 KODEX iShares 미국 하이일드 액티브 ETF KODEX iShares 미국 투자등급 회사채 액티브 ETF KODEX iShares 미국 인플레이션 국채 액티브 ETF 3종을 신규 상장했다고 밝혔다. 이들 ETF는 각각 블랙록의 대표 채권형 ETF인 USHY LQD TIP에 일대일 재간접 형태로 투자하며 미국 채권에서 발생하는 이자 수익을 활용해 매달 분배금을 지급하는 월분배형 ETF다. 국내 상품인 만큼 환전 없이 퇴직연금연금저축 계좌에서도 투자할 수 있고 환노출형 구조를 택해 환헤지 비용 없이 더 많은 분배금을 지급하도록 설계됐다.이 가운데 USHY는 블랙록의 대표적인 하이일드 ETF로 다양한 만기의 회사채로 구성됐다. 원래 하이일드는 저신용 등급의 기업이 발행한 고위험고수익 채권을 의미한다. 미국 신용등급 BBD 등급의 하이일드 채권에 투자하며 9월 말 기준 분배율은 연 6.92에 달한다.이 상품들의 운용을 담당하는 유아란 삼성자산운용 매니저는 채권의 만기수익률 매력도가 주식의 배당수익률 매력도를 큰 폭으로 상회한다며 물론 하이일드도 금리 상승에 따른 자본차손이 있지만 이를 분배금에서 만회하고 있다고 설명했다. 이어 하이일드라고 해도 미국의 경우 롤스로이스 포드 등 유수의 대기업들이 포진해 위험성이 크지 않다며 이번 상장 ETF를 통해 미국의 하이일드 채권시장에 투자할 수 있다고 전했다.임태혁 삼성자산운용 ETF운용본부 상무는 현재 금리는 2008년 금융위기 이후 가장 높은 수준에 머무르고 있다며 이번 상품은 월배당으로 설계했기 때문에 투자자들이 충분한 이자수익을 누릴 수 있다고 말했다. 이번 3종 ETF 매매 비용은 0.070.15 수준으로 여타 해외 상장 ETF 상품 0.251.75보다 낮은 편이다. 직접 미국 상장 ETF에 투자할 때와 달리 환전 비용도 거의 들지 않는다. 대런 윌스 블랙록 아시아태평양 ETF인덱스 상품 부문 대표는 2002년 LQD를 통해 첫 채권형 ETF를 시장에 선보인 이후 20년이 된 지난 해 글로벌 채권형 ETF시장은 1조7900억달러 규모로 성장했다며 밀레니얼 투자자들에게 채권 ETF투자의 편리성과 상품의 다양성 등이 긍정적으로 작용하고 있는 만큼 2030년에는 6조달러 규모로 성장할 것으로 전망하고 있다고 말했다. 그는 채권 관련해서 거의 한 세대에 한 번 있을 정도의 기회가 찾아왔다며 고금리로 인해 새로운 기회가 생길 것이고 이를 활용하기 위해서는 선별적으로 투자해야 한다고 말했다. 그러면서 앞으로 중앙은행의 추가 금리 인상이 있을 수도 있지만 인상 사이클은 선진 시장의 경우 완료됐다고 생각한다며 다만 당장 금리 인하를 시작할 것 같진 않다고 덧붙였다.그는 주식 대비 상당히 많은 수익을 하이일드 채권에서 벌 수 있고 주식시장에서의 리스크를 덜어낼 수 있다며특히 미국의 하이일드 채권자산의 수익률은 미국 고배당주나 리츠 REITs의 배당수익률 대비 높은 투자 매력도를 나타내고 있다고 전했다. 그러면서 앞으로 중앙은행의 추가 금리 인상이 있을 수도 있지만 인상 사이클은 선진 시장의 경우 완료됐다고 생각한다며 다만 당장 금리 인하를 시작할 것 같진 않아 채권 투자의 상대적 매력도는 당분간 지속될 것이라고 설명했다. </t>
+  </si>
+  <si>
+    <t>[{'삼성 퇴직연금': 12}, {'퇴직연금 ETF': 13}, {'퇴직연금 채권': 13}, {'퇴직연금 리츠': 16}]</t>
+  </si>
+  <si>
+    <t>삼성자산운용이 블랙록과 협력하여 미국 채권 ETF를 출시하였으며, 이는 채권 투자의 매력과 수익에 대한 설명이 포함되어 있음.</t>
+  </si>
+  <si>
+    <t>이 기사에서는 삼성자산운용의 새로운 상품 출시에 대한 내용만 언급되어 있으므로 경쟁 동향과 시장 점유율에 대한 정보는 제한적임.</t>
+  </si>
+  <si>
+    <t>금리 상승에 따른 자본차손이 있을 수 있지만, 분배금을 통해 이를 만회하고 있다고 설명되어 있음.</t>
+  </si>
+  <si>
+    <t>이 기사에서는 법적 및 규제 변화에 대한 내용이 언급되지 않음.</t>
+  </si>
+  <si>
+    <t>이 기사에서는 고령화와 연금 기금의 장기적인 지속 가능성에 대한 내용이 언급되지 않음.</t>
+  </si>
+  <si>
+    <t>이 기사에서는 기술과 디지털화에 대한 내용이 언급되지 않음.</t>
+  </si>
+  <si>
+    <t>이 기사에서는 소비 행동 및 요구사항에 대한 내용이 언급되지 않음.</t>
+  </si>
+  <si>
+    <t>블랙록</t>
+  </si>
+  <si>
+    <t>美 블랙록 고금리 장기화…채권 ETF, 2030년 3배 성장 전망</t>
+  </si>
+  <si>
+    <t>블랙록은 연준의 고금리 기조가 오래 지속될 것이라며 미국 하이일드 채권에서 추가 수익을 받을 수 있는 옵션이 생겼다고 밝혔다. 삼성자산운용과 블랙록이 선보인 미국채권 ETF는 퇴직연금이나 연금저축에서도 투자할 수 있는 상품이다.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/003/0012156759?sid=101</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 박은비 기자 글로벌 자산운용사 블랙록이 연방준비제도 Fed연준의 고금리 기조가 기존 예상보다 오래 지속될 것이라며 내년 중후반으로 갔을 때 완화로 돌아설 수 있을텐데 최소한으로 그렇게 보고 있고 내년 상반기는 현 상황이 유지될 것이라고 진단했다.대런 윌스 Darren Wills 블랙록 아시아태평양 ETF인덱스 상품부문 대표는 19일 서울 영등포구 한국거래소 컨퍼런스홀에서 삼성자산운용이 개최한 코덱스 Kodex 아이셰어즈 iShares 미국채권 상장지수펀드 ETF 3종 상장 기념 기자간담회에서 이같이 밝혔다.그는 그렇다고 해서 투자 기회가 없는 게 아니라 금리가 올라간 걸로 새로운 투자 기회가 있다며 주식 시장 대비 상당히 많은 추가 수익을 미국 하이일드 채권에서 받을 수 있는 옵션이 생겼고 주식시장 리스크를 덜어낼 수 있다고 말했다.이어 최근 채권시장에서 발생한 금리 레벨의 지각 변동은 채권자산 매력도를 급격히 상승시켜 다양한 듀레이션 스펙트럼을 활용한 폭넓은 투자가 가능하게 만들었다며 특히 미국 하이일드 채권자산 수익률은 미국 고배당주나 리츠 REITs 배당수익률 대비 높은 투자 매력도를 나타내고 있으며 고금리 기조 유지로 이러한 흐름이 당분간 지속될 것이라고 언급했다.그러면서 지난 2002년 처음 채권형 ETF를 시장에 선보인 이후 20년이 된 지난해 글로벌 채권형 ETF 시장은 1조7900억달러 규모로 성장했다며 2030년에는 6조달러 규모로 성장할 것으로 전망하고 있다고 설명했다.블랙록과 손잡은 삼성자산운용이 이번에 선보인 미국채권 ETF는 미국 투자등급 회사채 LQD 미국 하이일드 USHY 미국 인플레이션 국채 TIP 등에 투자하는 액티브 ETF다. 3종 모두 월분배식으로 국내에 상장돼 퇴직연금이나 연금저축에서도 투자할 수 있는 게 특징이다.유아란 삼성자산운용 매니저는 LQD는 지난 2002년 ETF 최초 상장 때 등장한 상품으로 총자산이 44조원 규모며 미국채권을 단 하나만 투자한다면 선택해야 하는 상품이라며 USHY는 만기수익률 YTM이 9.34로 굉장히 높아 상대적으로 낮은 듀레이션 3.82년으로 금리 변동성은 낮게 수익은 높게 가져갈 수 있다고 설명했다.유 매니저는 또 TIP은 투자자들이 물가에 대응할 수 있는 ETF로 현재 시장에서 물가에 투자할 수 있는 원자재 ETF나 주식 중에서 물가 민감 섹터에 투자하는 분들이 활용할 수 있다며 미 국채이기 때문에 안전자산을 선호하는 분들도 투자가 가능하다고 덧붙였다.</t>
+  </si>
+  <si>
+    <t>['퇴직연금 ETF', '퇴직연금 채권', '퇴직연금 리츠']</t>
+  </si>
+  <si>
+    <t>[{'퇴직연금 ETF': 4}, {'퇴직연금 채권': 4}, {'퇴직연금 리츠': 7}]</t>
+  </si>
+  <si>
+    <t>블랙록은 연준의 고금리 기조에 대한 전망을 제시하고, 미국 하이일드 채권에서 추가 수익을 얻을 수 있는 옵션을 언급했다.</t>
+  </si>
+  <si>
+    <t>이 기사에서는 삼성자산운용과 블랙록이 선보인 미국채권 ETF에 대해 언급하고 있다.</t>
+  </si>
+  <si>
+    <t>이 기사에서는 금리 변동성이 낮은 미국 하이일드 채권의 매력에 대해 언급하고 있다.</t>
+  </si>
+  <si>
+    <t>이 기사에서는 법적이나 규제적인 변화에 대한 언급이 없다.</t>
+  </si>
+  <si>
+    <t>이 기사에서는 인구 변화나 장기적인 지속 가능성에 대한 언급이 없다.</t>
+  </si>
+  <si>
+    <t>이 기사에서는 기술과 디지털화에 대한 언급이 없다.</t>
+  </si>
+  <si>
+    <t>이 기사에서는 소비 행동과 요구사항에 대한 언급이 없다.</t>
+  </si>
+  <si>
+    <t>고금리 장기화 시대…월배당 미국 채권 ETF 주목</t>
+  </si>
+  <si>
+    <t>코덱스 KODEX 아이셰어즈 iShares 채권 상장지수펀드 ETF는 투자자들이 충분한 이자 수익을 가져갈 수 있도록 월 배당으로 설계했습니다. 이번 상품 상장을 통해 강력하고 훌륭한 월 배당 ETF 상품이 되길 희망합니다. 삼성자산운용은 국내 상품으로 출시된 블랙록의 재간접ETF로 월 배분 인컴효과와 함께 연금 활용도도 높아질 것으로 내다봤다.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/031/0000780509?sid=101</t>
+  </si>
+  <si>
+    <t>높은 수준의 금리가 더 오래 지속될 것으로 예상되고 있는 상황에서 채권 시장의 금리는 지난 2008년 글로벌 금융위기 이후 가장 높은 수준을 지속하고 있습니다. 코덱스 KODEX 아이셰어즈 iShares 채권 상장지수펀드 ETF는 투자자들이 충분한 이자 수익을 가져갈 수 있도록 월 배당으로 설계했습니다. 이번 상품 상장을 통해 강력하고 훌륭한 월 배당 ETF 상품이 되길 희망합니다.임태혁 삼성자산운용 ETF운용본부 상무는 19일 서울 여의도 한국거래소 컨퍼런스홀에서 진행된 Kodex iShares 미국채권 ETF 3종 상장 기자간담회에서 이같이 설명했다. Kodex iShares 미국채권 ETF는 삼성자산운용의 ETF 코덱스 Kodex와 블랙록의 ETF 아이셰어즈 iShares가 콜라보레이션한 상품이다.이번에 출시된 상품은 블랙록의 대표 미국채권 ETF인 USHY LQD TIP 3종을 각각 1대 1 재간접 형태로 투자하는 KODEX iShares 미국 하이일드 액티브 ETF KODEX iShares 미국 투자등급 회사채 액티브 ETF KODEX iShares 미국 인플레이션 국채 액티브 ETF 등 3가지다.임 상무는 블랙록은 전 세계 1등 운용사로 높은 채권 운용 능력을 갖추고 있다며 국내 1위 운용사인 삼성운용과 블랙록이 ETF 노하우를 접목해 상품 운용의 안정성 편리성 비용 측면에서 투자자들에게 최고의 월 배당 솔루션을 제공하는 것을 목표로 하고 있다고 말했다.대런 월스 Darren Wills 블랙록 아시아태평양 ETF인덱스 상품부문 대표는 미국 연방준비제도 연준의 금리 인하 시기를 내년 하반기로 전망하며 배당이나 이자 수익을 기대할 수 있는 인컴형 투자 선호도가 높아질 것으로 전망했다. 고금리 기조가 기존 시장 예상보다 오래 지속되면서 채권 투자의 상대적 매력도가 높아졌다는 설명이다.대런 윌스 대표는 높은 채권금리는 채권자산 매력도를 급격히 상승시켜 다양한 기간 듀레이션을 활용한 폭넓은 투자가 가능하도록 만들었다며 미국 하이일드 채권자산 수익률은 미국 고배당주나 리츠 대비 높은 투자 매력도를 나타내고 있으며 고금리 기조가 지속돼 이러한 흐름이 당분간 지속될 것이라고 말했다.그러면서 그는 채권형 ETF 시장이 현재보다 2배 이상 성장할 것으로 전망했다. 그는 지난 2002년 처음 채권형 ETF를 미국 뉴욕 증시에 출시한 후 20년이 지난 지난해 글로벌 채권형 ETF 시장은 1조7900억달러 규모로 성장했다며 오는 2030년에는 6조달러의 규모로 커질 것으로 생각한다고 설명했다.삼성자산운용은 국내 상품으로 출시된 블랙록의 재간접ETF로 월 배분 인컴효과와 함께 연금 활용도도 높아질 것으로 내다봤다.임 상무는 미국 하이일드 ETF는 높은 분배율을 원하는 투자자가 주목하면 좋을만한 상품이다. 타 상품보다 신용 크래딧 리스크는 있는 편으로 이 점을 염두에 두고 고수익을 원한다면 투자에 적합할 것이다. 퇴직연금에서도 70 까지 투자가 가능하다. 과도한 주식 포지션을 채권으로 분산하고 싶다면 위험 자산에서 조정해 투자하면 좋을 만한 ETF라고 말했다.또한 그는 미국 투자등급 회사채 ETF는 미국 채권의 정석같은 ETF다. 자산 배분을 장기적으로 너무 많이 신경쓰지 않고 걱정없이 하고싶다고 했을 때 밸런스가 잘 맞춰진 상품이다. 퇴직연금 계좌에서 안전자산으로도 투자할 수 있다며 미국 인플레이션 국채 ETF는 투자등급과 함께 인플레이션 그 자체에 투자하고 싶다면 활용할 수 있다고 설명했다.</t>
+  </si>
+  <si>
+    <t>[{'퇴직연금 ETF': 5}, {'퇴직연금 채권': 5}, {'퇴직연금 리츠': 11}]</t>
+  </si>
+  <si>
+    <t>채권 시장의 금리가 높아지면서 채권 투자의 매력이 상승하고 있다.</t>
+  </si>
+  <si>
+    <t>KODEX 아이셰어즈 iShares 채권 상장지수펀드 ETF의 상장으로 채권형 ETF 시장이 성장할 것으로 전망된다.</t>
+  </si>
+  <si>
+    <t>미국 연방준비제도 연준의 금리 인하 시기를 내년 하반기로 전망하며 배당이나 이자 수익을 기대할 수 있는 인컴형 투자 선호도가 높아질 것으로 전망된다.</t>
+  </si>
+  <si>
+    <t>본문에는 법률 및 규제 변경에 대한 언급이 없다.</t>
+  </si>
+  <si>
+    <t>본문에는 노후연금에 대한 노력이나 노후연금의 장기 지속 가능성에 대한 언급이 없다.</t>
+  </si>
+  <si>
+    <t>본문에는 기술과 디지털화에 대한 언급이 없다.</t>
+  </si>
+  <si>
+    <t>본문에는 소비 행동 및 요구사항에 대한 언급이 없다.</t>
+  </si>
+  <si>
+    <t>['퇴직연금 ETF', '퇴직연금 채권']</t>
+  </si>
+  <si>
+    <t>기술과 디지털화에 대한 언급이 없음.</t>
+  </si>
+  <si>
+    <t>소비 행동 및 요구사항에 대한 언급이 없음.</t>
+  </si>
+  <si>
+    <t>삼성운용, 블랙록 손잡고 월배분 채권 ETF 출시… “美 ‘정크본드’ 투자로 ...</t>
+  </si>
+  <si>
+    <t>삼성자산운용이 출시한 하이일드 펀드는 정크본드로 불리는 투기 등급이 낮은 회사채에 투자하는 상품으로 높은 수익률과 분배금을 얻을 수 있다. 삼성자산운용은 19일 오전 서울 여의도 한국거래소 컨퍼런스홀에서 글로벌 최대 자산운용사 블랙록과 함께 출시한 Kodex iShares 미국채권 ETF 3종 상장 기념 기자간담회를 개최했다. 이날 신규 상장한 미국 채권 ETF는 KODEX iShares 미국 하이일드 액티브 ETF KODEX iShares 미국 투자등급 회사채 액티브 ETF KODEX iShares 미국 인플레이션 국채 액티브 ETF 등이다.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/366/0000940780?sid=101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  고금리 상황이 장기화할 것이라는 관측이 나오면서 채권 상장지수펀드 ETF가 투자처로 주목받고 있다. 삼성자산운용이 출시한 하이일드 펀드는 정크본드로 불리는 투기 등급이 낮은 회사채에 투자하는 상품으로 높은 수익률과 분배금을 얻을 수 있다.  삼성자산운용은 19일 오전 서울 여의도 한국거래소 컨퍼런스홀에서 글로벌 최대 자산운용사 블랙록과 함께 출시한 Kodex iShares 미국채권 ETF 3종 상장 기념 기자간담회를 개최했다. 이날 신규 상장한 미국 채권 ETF는 KODEX iShares 미국 하이일드 액티브 ETF KODEX iShares 미국 투자등급 회사채 액티브 ETF KODEX iShares 미국 인플레이션 국채 액티브 ETF 등이다. 각각 블랙록의 대표 채권형 ETF인 USHY LQD TIP에 1대 1 재간접 형태로 투자하는 형태다. 신규 ETF는 환노출형 상품인 만큼 별도의 환전 비용이 없이 투자할 수 있다.이들 상품은 모두 미국 채권에서 발생하는 이자 수익을 활용해 매달 분배금을 지급한다. 이날 간담회에서 임태혁 삼성자산운용 ETF운용본부장은 현재 금리는 2008년 금융위기 이후 가장 높은 수준에 머무르고 있다며 이번 상품은 월배당에 해당하기 때문에 투자자들이 충분한 이자수익을 누릴 수 있다고 했다.대런 윌스 블랙록 아시아태평양 ETF 및 인덱스 상품부문 대표는 글로벌 채권 시장의 투자 접근성이 좋아질 것이라고 봤다. 대런 블랙록 대표는 과거에는 포트폴리오 다변화가 어려웠지만 이젠 저비용으로 다양한 종목을 모아놓은 ETF에 투자할 수 있다며 미국 투자등급 회사채 액티브 상품은 1000개 이상 채권에 분산 투자할 수 있다고 말했다.삼성자산운용 측은 KODEX iShares 미국 하이일드 액티브 ETF에 주목했다. 하이일드는 고수익고위험 성격을 띠며 신용 등급이 낮은 회사가 발행한 채권이다. 이 상품의 투자 대상은 미국 신용등급 BBD 등급의 회사채다. 해당 상품에 간접 투자하는 블랙록의 LQD 펀드의 기대수익률 YTM은 지난달 말 기준 8.90다. 삼성자산운용 측은 하이일드 펀드의 위험성에 대한 우려에 대해선 미국 유수의 대기업이 저신용 등급이라고 설명했다.유아란 삼성자산운용 매니저는 우리나라에선 하이일드가 부도 위험이 높은 기업 채권인 정크본드라고 걱정할 수 있는데 미국은 대기업 다수가 하이일드에 속한다며 롤스로이스와 포드 아메리카에어라인 넥스트라에너지 등이 해당한다고 말했다. 삼성자산운용에 따르면 스탠더드앤드푸어스 SP500지수 편입 기업 143개 28.6와 나스닥100 지수 구성 기업 37개 37가 하이일드 등급이다.삼성자산운용 측은 하이일드 ETF가 투자자 입장에서 합리적인 비용에 투자할 수 있다는 점도 내세웠다. 이 펀드의 총보수비용비율 TER은 매매비용과 환전 비용 등을 포함해 0.290.42 수준이다. 유 매니저는 직접운용 방식을 택한 경쟁사 ETF 0.130.78보다 비용이 합리적이라며 투자자들은 DC 확정기여형 IRP 개인형 퇴직연금 등 퇴직연금과 연금저축 계좌를 통해서도 투자할 수 있다고 했다.</t>
+  </si>
+  <si>
+    <t>['확정기여형', '삼성 퇴직연금', '퇴직연금 ETF', '퇴직연금 채권']</t>
+  </si>
+  <si>
+    <t>[{'확정기여형': 7}, {'삼성 퇴직연금': 8}, {'퇴직연금 ETF': 11}, {'퇴직연금 채권': 10}]</t>
+  </si>
+  <si>
+    <t>삼성자산운용이 출시한 하이일드 펀드는 투기 등급이 낮은 회사채에 투자하는 상품으로 높은 수익률과 분배금을 얻을 수 있다.</t>
+  </si>
+  <si>
+    <t>삼성자산운용은 블랙록과 함께 출시한 미국채권 ETF 3종 상장 기념 기자간담회를 개최했다.</t>
+  </si>
+  <si>
+    <t>No information related to financial market impact.</t>
+  </si>
+  <si>
+    <t>No information related to legal and regulatory changes.</t>
+  </si>
+  <si>
+    <t>No information related to demographic change.</t>
+  </si>
+  <si>
+    <t>No information related to technology and digitalization.</t>
+  </si>
+  <si>
+    <t>No information related to consumption behavior and requirements.</t>
+  </si>
+  <si>
+    <t>'채권 ETF' 공들이는 삼성운용…블랙록과 손잡은 이유는</t>
+  </si>
+  <si>
+    <t>삼성자산운용이 블랙록과 협력해 상장한 미국 대표 채권형 상장지수펀드 ETF에 눈길이 쏠린다. 대런 윌스 블랙록 아시아태평양 ETF인덱스 상품부문 대표가 19일 삼성자산운용 기자간담회에서 발표하고 있다. 블랙록은 팬데믹 이후 높은 수준의 인플레이션과 금리 등 금융시장을 둘러싼 환경이 변화하면서 이에 맞는 새로운 투자전략이 필요하다고 진단했다.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/018/0005599880?sid=101</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 더 높게 더 오래 higher for longer. 예상보다 더 높은 금리 수준이 더 오래 유지될 가능성 커지면서 채권 투자 매력이 부각되고 있다. 이에 삼성자산운용이 글로벌 최대 자산운용사 블랙록과 협력해 상장한 미국 대표 채권형 상장지수펀드 ETF에 눈길이 쏠린다. 주식 대비 리스크를 덜면서 위험을 줄인 고수익 채권 높은 월배당을 변동성 국면 피난처로 삼을 수 있다는 판단이다.대런 윌스 블랙록 아시아태평양 ETF인덱스 상품부문 대표가 19일 삼성자산운용 기자간담회에서 발표하고 있다.삼성자산운용은 19일 서울 여의도 한국거래소 컨퍼런스홀에서 기자간담회를 열고 이날 상장한 KODEX iShares 미국 하이일드 액티브 KODEX iShares 미국 투자등급 회사채 액티브 KODEX iShares 미국 인플레이션 국채 액티브 ETF를 발표했다. 각각 블랙록의 대표 미국 채권형 ETF인 USHY 티커명 LQD TIP에 1대 1 재간접형으로 투자한다.블랙록은 팬데믹 이후 높은 수준의 인플레이션과 금리 등 금융시장을 둘러싼 환경이 변화하면서 이에 맞는 새로운 투자전략이 필요하다고 진단했다. 대런 윌스 블랙록 아시아태평양 ETF인덱스 상품부문 대표는 거시경제 변동성에 따라 개별 주식은 선별 접근 없이 높은 성과를 거두기 어려워졌고 현 금리 수준은 내년 상반기까지 유지될 전망이라며 내년 중후반 이후에나 중앙은행이 통화정책을 완화로 전환할 수 있을 것으로 보여 채권 투자의 상대적 매력은 당분간 지속될 것이라고 말했다.채권 투자 환경이 발전한 점도 주목했다. 블랙록이 2002년 세계 최초 채권 ETF인 LQD를 선보인 이후 글로벌 채권 ETF 시장은 1조7900억달러 규모로 성장했다. 2030년엔 6조달러로 성장할 것이란 전망이다. 특히 기관 중심이었던 채권 투자 시장이 개인에게도 매력적인 투자 수단이 됐다고 평가했다. 대런 윌스 대표는 과거엔 개인이 고수익 채권을 활용하기 어려웠지만 ETF로 접근성이 높아졌고 1000개 이상의 채권이 담긴 ETF 등을 통해 리스크가 분산됐다며 한때는 인컴을 위해 채권을 팔고 배당주로 옮겨갔지만 현재는 무위험 채권 상품에 투자해도 미국 대표지수와 맞먹는 인컴 성과를 거둘 수 있는 시점이라고 설명했다. LQD는 일명 미국 회사채 ETF의 정석으로 통한다. 총자산이 약 44조원에 육박하며 2600여 개 초우량 채권에 분산 투자한다. TIP은 28조원 규모의 미국 최대 인플레이션 국채 ETF로 저성장고인플레이션 국면에서 장기 투자에 유리하는 평이다. USHY의 연환산수익률 YTM은 8.90에 이른다. 높은 이자수익과 경기 호조 시 금리 하락 크레딧 스프레드 금리 차이 축소에 따른 3중 수혜가 반영된다.유아란 삼성자산운용 매니저는 하이일드의 부도율을 고려하면 운용사의 전문성과 분산투자가 중요한데 피투자 ETF는 운용 경력과 규모의 경제로 완전에 가까운 지수 복제 효과가 있다며 미국의 하이일드에는 대기업이 다수 포진해 있고 기업의 성장성에 주식이 아닌 채권을 통해 보다 안정적으로 투자할 수 있는 셈이라고 설명했다. 임태혁 삼성자산운용 ETF운용본부 상무와 박명제 블랙록자산운용 한국법인 대표이사가 19일 삼성자산운용 기자간담회에서 발표하고 있다.미국 ETF 직구족에도 비용거래 편의성 측면에서 긍정적인 대안이 될 것으로 기대했다. 이날 상장한 ETF 3종은 국내 상장 상품인 만큼 별도의 환전 비용 없이 퇴직연금연금저축 계좌에서도 최대 100까지 투자할 수 있다. 환노출형 구조로 환헤지 위험회피 비용이 없다. 유 매니저는 채권 매매 주체가 아이셰어즈로 국내 기관과 비교해 채권 매매 비용이 줄어든다고 설명했다.임태혁 삼성자산운용 ETF운용본부 상무는 이번 Kodex iShares 미국채권 ETF 3종은 주식형 위주로 구성돼 왔던 국내 월배당 ETF 시장에서 새로운 투자 대안이 될 것이라고 강조했다.</t>
+  </si>
+  <si>
+    <t>[{'삼성 퇴직연금': 1}, {'퇴직연금 ETF': 1}, {'퇴직연금 채권': 1}, {'퇴직연금 장기 투자': 56}]</t>
+  </si>
+  <si>
+    <t>삼성자산운용이 블랙록과 협력해 상장한 미국 대표 채권형 상장지수펀드 ETF에 대한 내용이 포함되어 있음.</t>
+  </si>
+  <si>
+    <t>경쟁 동향에 대한 내용이 없음.</t>
+  </si>
+  <si>
+    <t>블랙록이 팬데믹 이후 금융시장 환경 변화에 대한 새로운 투자전략 필요성을 진단함.</t>
+  </si>
+  <si>
+    <t>법적 및 규제 변화에 대한 내용이 없음.</t>
+  </si>
+  <si>
+    <t>노령화와 연관된 내용이 없음.</t>
+  </si>
+  <si>
+    <t>기술과 디지털화에 대한 내용이 없음.</t>
+  </si>
+  <si>
+    <t>소비 행동 및 요구사항에 대한 내용이 없음.</t>
+  </si>
+  <si>
     <t>2023-10-18</t>
   </si>
   <si>
-    <t>퇴직연금 상품</t>
+    <t>한국투자증권, 기업 대상 퇴직연금 세미나 25일 추가 개최</t>
+  </si>
+  <si>
+    <t>한국투자증권은 DB적립금의 효율적 운용전략에 대한 세미나를 개최했다. 이번 세미나는 DB형 퇴직연금 운용에 대한 기업 담당자들의 이해와 공감을 높이기 위해 마련되었다. 금리 변동성에 대응하는 DB 적립금의 효율적인 운용전략에 대해 살펴봤다.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/029/0002831115?sid=101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">한국투자증권은 지난 17일 서울 여의도 본사에서 퇴직연금 확정급여형 DB 운용 기업을 대상으로 DB적립금의 효율적 운용전략에 대한 세미나를 개최했다고 18일 밝혔다. 세미나는 DB형 퇴직연금 운용에 대한 기업 담당자들의 이해와 공감을 높이고자 마련됐다. 시장금리와 경제전망 적립금 투자전략과 적립금운용위원회 운영 경영성과급 DC제도 적립을 통한 절세전략을 주제로 최근 금리 변동성에 대응하는 DB 적립금의 효율적인 운용전략 전반에 대해 살펴봤다. 연말에 대부분의 자금이 집행되는 DB형 퇴직연금은 최근 고금리가 장기화로 금리 수혜를 적극 활용하면서 금리 하락에도 대비하려는 기업의 수요가 늘었다. 또한 지난해 도입된 연간 적립금 운용위원회 및 적립금 운용계획서 작성에 따라 실무적인 지원도 필요한 시점이다. 관심이 커진 만큼 기업의 참석 신청도 몰렸다. 한국투자증권은 이번에 참석하지 못한 기업을 위해 25일 추가 세미나를 개최할 예정이다. 홍덕규 한국투자증권 퇴직연금본부장은 한국투자증권의 전문화된 운용전략을 통해 금리 변동성이 커진 상황에서 기업에 다양한 상품을 제공하고 장기적인 관점에서 포트폴리오를 다변화하여 DB 적립금 운용목표를 달성할 수 있도록 지원할 계획이라고 말했다. </t>
+  </si>
+  <si>
+    <t>['퇴직연금 DB', '퇴직연금 DC', '확정급여형', '경영성과급 DC', '퇴직연금 적립금', '퇴직연금 제도 도입', '한국투자 퇴직연금', '퇴직연금 포트폴리오']</t>
+  </si>
+  <si>
+    <t>[{'퇴직연금 DB': 10}, {'퇴직연금 DC': 9}, {'확정급여형': 15}, {'경영성과급 DC': 9}, {'퇴직연금 적립금': 10}, {'퇴직연금 제도 도입': 12}, {'한국투자 퇴직연금': 7}, {'퇴직연금 포트폴리오': 10}]</t>
+  </si>
+  <si>
+    <t>한국투자증권은 DB적립금의 효율적 운용전략에 대한 세미나를 개최하여, 퇴직연금의 운용 전략과 적립금의 효율적인 운용에 대한 이해를 높였다.</t>
+  </si>
+  <si>
+    <t>이 기사에서는 경쟁 동향에 대한 정보가 제공되지 않았다.</t>
+  </si>
+  <si>
+    <t>기사에서는 금리 변동성에 대응하는 DB 적립금의 효율적인 운용전략에 대해 다루고 있다.</t>
+  </si>
+  <si>
+    <t>기사에서는 법적 및 규제 변화에 대한 언급이 없다.</t>
+  </si>
+  <si>
+    <t>기사에서는 인구 통계 변화에 대한 언급이 없다.</t>
+  </si>
+  <si>
+    <t>기사에서는 기술과 디지털화에 대한 언급이 없다.</t>
+  </si>
+  <si>
+    <t>기사에서는 퇴직연금 수령자의 소비 행태와 요구사항에 대한 정보가 제공되지 않았다.</t>
+  </si>
+  <si>
+    <t>세계 최대 펀드운용사도 손 뗐다… 줄줄이 무너지는 호텔 사업</t>
+  </si>
+  <si>
+    <t>세계 최대 채권펀드 운용사인 핌코가 2억4000만달러 규모의 호텔 포트폴리오를 포기했다. 호텔 사업 수익성 악화와 차입비용 증가로 인해 채무불이행 디폴트를 선언했다. 상업용 부동산과 호텔 업계는 금리 상승 여파를 버티지 못하는 추세다.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/015/0004903393?sid=104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이 기사는 국내 최대 해외 투자정보 플랫폼 한경 글로벌마켓에 게재된 기사입니다.세계 최대 채권펀드 운용사인 핌코가 2억4000만달러 약 3200억원 규모의 호텔 포트폴리오를 포기했다. 차입비용 증가와 호텔 사업 수익성 악화를 버티지 못하면서다.18일 블룸버그통신에 따르면 핌코 부동산 펀드는 지난달 미국 텍사스주 인디애나주 등의 호텔 20개로 구성된 포트폴리오에 대한 채무불이행 디폴트를 선언했다. 이 포트폴리오의 자산 가치는 부채가 발생한 2017년 3억2600만달러에서 지난해 12월 2억7280만달러로 16 감소했다. 전 세계적으로 상업용 부동산과 호텔 업계는 금리 상승 여파를 버티지 못하는 추세다. 미국 부동산 리츠 REITs 회사인 애쉬포드호스피탈리티는 지난 7월 19개 호텔에 대한 소유권을 포기했다. 파크호텔앤리조트는 지난 6월 샌프란시스코 최대 호텔인 힐튼샌프란시스코유니온스퀘어 파크55에 대한 대출 상환을 중단했다. 블랙스톤은 지난 4월 핀란드 사무용 부동산 포트폴리오 브룩필드자산관리는 워싱턴D.C 등 사무용 부동산 포트폴리오에 대한 채무불이행을 선언한 바 있다. 핌코는 올해 초에도 17억 달러 부채가 있는 오피스빌딩 포트폴리오를 포기한 바 있다. 채무자들과 회수를 극대화하기 위한 최선의 방법을 찾고 있다는 게 핌코의 입장이다. 다만 핌코는 상업용 부동산 위기를 활용하기 위한 방안도 찾고 있다. 바로 만기되는 상업용부동산 부채를 재융자해주는 핌코 상업용 부동산 부채 펀드2다. 핌코가 펜실베이니아주 공립학교 교직원 퇴직연금에 설명한 바에 따르면 향후 5년 간 2조 달러 약 2700조원 규모의 기존 상업용부동산대출이 만기된다. 이러한 만기 대출을 재융자하기 위한 자금으로 핌코는 30억달러를 모았고 지난 8월 신규 투자자를 대상으로 추가 모금을 했다고 한 관계자는 전했다. </t>
+  </si>
+  <si>
+    <t>['퇴직연금 운용사', '퇴직연금 펀드']</t>
+  </si>
+  <si>
+    <t>[{'퇴직연금 운용사': 4}, {'퇴직연금 펀드': 6}]</t>
+  </si>
+  <si>
+    <t>핌코가 채무불이행 디폴트를 선언하고 호텔 포트폴리오를 포기했기 때문에, 이는 연금 기금의 운용 전략과 금융 시장 변동의 영향을 분석하는데 중요한 정보입니다.</t>
+  </si>
+  <si>
+    <t>호텔 업계의 경쟁 동향과 새로운 제품 및 서비스 출시에 대한 정보가 제공되지만, 이 기사의 내용은 이러한 정보에 대한 자세한 내용을 제공하지 않습니다.</t>
+  </si>
+  <si>
+    <t>금리 상승과 금융 시장 변동이 상업용 부동산과 호텔 업계에 미치는 영향에 대한 정보가 제공되어 있습니다.</t>
+  </si>
+  <si>
+    <t>이 기사에는 법률 및 규제 변경에 대한 정보가 제공되지 않습니다.</t>
+  </si>
+  <si>
+    <t>이 기사에는 고령화와 연금 기금의 장기적인 지속 가능성에 대한 정보가 제공되지 않습니다.</t>
+  </si>
+  <si>
+    <t>이 기사에는 기술과 디지털화에 대한 정보가 제공되지 않습니다.</t>
+  </si>
+  <si>
+    <t>이 기사에는 소비 행동 및 요구사항에 대한 정보가 제공되지 않습니다.</t>
+  </si>
+  <si>
+    <t>타사 동향 및 이벤트</t>
+  </si>
+  <si>
+    <t>고금리 예금 만기 도래에…은행LCR규제 내년 상반기까지 유지</t>
+  </si>
+  <si>
+    <t>금융 당국은 유동성커버리지비율(LCR) 규제를 내년 6월까지 현 수준으로 유지하기로 했다. 은행채 발행도 은행의 여건에 따라 조절할 수 있도록 했다. 금융위원회는 금융시장 현안 점검소통회의를 개최해 LCR 규제를 현 수준으로 유지하기로 결정했다.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/011/0004250431?sid=101</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 금융 당국이 유동성커버리지비율 LCR 규제를 내년 6월까지 현 수준으로 유지하기로 했다. 은행채 발행도 은행의 여건에 따라 조절할 수 있도록 했다. 고금리 정기예금의 만기가 돌아오면서 수신 경쟁이 과열되자 은행의 현금 확보 부담을 덜어준 것이다.금융위원회는 18일 김소영 금융위 부위원장 주재로 금융시장 현안 점검소통회의를 개최했다고 밝혔다. 이날 회의에는 금융감독원과 주요 금융협회가 참석해 금융시장 상황과 위험요인 대응방안을 논의했다.당국은 우선 LCR 규제를 현 95 수준으로 내년 6월까지 유지하기로 했다. LCR은 은행이 보유한 고유동성 자산을 30일간 예상되는 순 현금 유출액으로 나눈 몫이다. 위기 상황이 발생했을 때 급격한 현금 유출에 대응할 수 있는 역량을 평가하는 지표로 비율이 높아질수록 은행은 예금을 비롯한 유동성 자산을 더 늘려야 한다. 당국은 LCR을 코로나19 사태 당시 85까지 낮췄으나 이후 단계적으로 비율을 높이기로 했는데 당분간 현 수준을 유지하면서 은행의 자금 조달 부담을 줄여주기로 한 것이다. 금융위는 2024년 7월부터 단계적 인상을 원칙으로 하되 최종 결정은 2024년 2분기 중 시장 상황을 보아가며 결정하기로 했다고 밝혔다.당국은 은행이 각사 여건에 따라 은행채를 발행하도록 허용하기로 했다. 당국은 은행채 발행한도를 3분기까지 만기가 된 물량의 125로 묶어뒀으나 4분기부터는 이를 풀기로 한 것이다. 은행은 자금을 조달하려면 은행채를 발행하거나 예금을 늘려야 하는데 은행채 발행이 자유로워지면 예금을 받을 필요성이 전보다 떨어진다. 다만 초우량채인 은행채 발행이 늘면 상대적으로 신용등급이 낮은 회사채 시장이 쪼그라들 수 있는 만큼 당국은 시장 상황에 따라 발행 규모와 시기를 탄력적으로 조절하기로 했다.당국이 규제 문턱을 낮춘 것은 최근 들어 은행권 수신 경쟁이 심화하고 있기 때문이다. 지난해 10월 레고랜드 사태로 시중에 자금이 마르자 은행권은 유동성을 확보하기 위해 연 45 금리의 1년 만기 특판 예적금을 내놨는데 이달부터 만기가 돌아오자 예금주를 붙잡기 위해 경쟁이 벌어진 것이다. 금융권에 따르면 작년 4분기에 늘어난 수신 규모는 100조 원 정도로 추산된다.실제 올 들어 정기예금 금리를 연 3대로 유지해 오던 주요 시중은행들은 이달 들어 연 4대로 금리를 높이고 있다. 이날 은행연합회 공시에 따르면 신한은행의 쏠편한 정기예금과 우리은행의 WON플러스예금의 최고금리는 각각 연 4.05를 기록했다. KB국민은행의 KB Star 정기예금과 하나은행 하나의 정기예금도 연 4의 최고금리를 제공한다. 문제는 시중은행간 경쟁이 과열될수록 은행권으로 예금이 쏠려 제 2금융권의 자금난이 커질 수 있다는 점이다. 실제 새마을금고와 신협은 이달 연 5대 금리를 내거는 등 급격한 자금 이탈을 막기 위해 고금리 상품을 잇달아 내놓고 있다. 수신 경쟁 여파로 은행의 조달 비용이 늘고 이에 맞물려 대출금리가 더 뛸 수 있다는 점도 우려스러운 대목이다. 은행채 발행 한도를 아예 없애면 은행의 자금 조달 창구가 트이는 만큼 수신 경쟁이 잦아들 것이라는 게 당국의 판단이다. 이와 함께 LCR 규제를 완화해 은행의 자금 수요 자체를 줄여둔 만큼 은행채 발행 물량이 조절돼 회사채 구축 효과도 크지 않을 것으로 당국은 보고 있다. 김 부위원장은 시장 전체적으로 금리 경쟁 행위가 지나치게 확산될 경우 자금 불균형에 따른 유동성 문제 심화 등 부정적 파급효과가 발생할 수 있다면서 과도한 자금 확보 경쟁 방지를 위해 추진하는 규제 유연화 조치들이 금융회사의 자산 외형확대 경쟁의 수단으로 활용돼선 안 될 것이라고 밝혔다.금융위는 이날 회의에서 퇴직연금 DB형의 연말 납입 집중 현상을 완화하기 위해 금융권과 공공기관 대기업의 부담금 분납과 만기 다변화를 유도하기로 했다. 공정경쟁을 위한 금리공시체계 정비 등을 내용으로 하는 퇴직연금 감독규정 개정도 조속히 마무리할 계획이다.</t>
+  </si>
+  <si>
+    <t>['우리은행 퇴직연금', '퇴직연금 예금']</t>
+  </si>
+  <si>
+    <t>[{'우리은행 퇴직연금': 10}, {'퇴직연금 예금': 11}]</t>
+  </si>
+  <si>
+    <t>금융 당국은 LCR 규제를 현 수준으로 유지하기로 결정하여, 은행의 자금 조달 부담을 줄여주는 조치를 취하였다.</t>
+  </si>
+  <si>
+    <t>이 기사에서는 은행채 발행에 대한 조절 가능성이 언급되었으나, 실질적인 경쟁 동향이나 신제품 및 서비스에 대한 언급은 없었다.</t>
+  </si>
+  <si>
+    <t>금융시장 현안 점검소통회의에서는 금융시장 상황과 위험요인 대응방안을 논의하였으나, 금융시장의 변동성이나 투자자산의 변화에 대한 구체적인 분석은 언급되지 않았다.</t>
+  </si>
+  <si>
+    <t>이 기사에서는 LCR 규제의 유지 결정과 은행채 발행 조절에 대한 내용이 언급되었으나, 법적인 변화에 대한 언급은 없었다.</t>
+  </si>
+  <si>
+    <t>이 기사에서는 노후화와 관련된 내용이 언급되지 않았다.</t>
+  </si>
+  <si>
+    <t>이 기사에서는 기술과 디지털화에 대한 내용이 언급되지 않았다.</t>
+  </si>
+  <si>
+    <t>이 기사에서는 소비 행태와 요구사항에 대한 내용이 언급되지 않았다.</t>
+  </si>
+  <si>
+    <t>한국투자증권</t>
+  </si>
+  <si>
+    <t>한국투자증권, 기업 대상 퇴직연금 운용전략 세미나 개최</t>
+  </si>
+  <si>
+    <t>한국투자증권은 DB적립금의 효율적 운용전략에 대한 세미나를 개최했다. 이번 세미나는 DB형 퇴직연금 운용에 대한 기업 담당자들의 이해와 공감을 높이고자 마련됐다. 최근 금리 변동성에 대응하는 DB적립금의 효율적인 운용전략 전반에 대해 살펴봤다.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/008/0004950215?sid=101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">한국금융지주의 자회사 한국투자증권 지난 17일 서울 여의도 본사에서 퇴직연금 확정급여형 DB 운용 기업을 대상으로 DB적립금의 효율적 운용전략에 대한 세미나를 개최했다고 18일 밝혔다. 이번 세미나는 DB형 퇴직연금 운용에 대한 기업 담당자들의 이해와 공감을 높이고자 마련됐다. 시장금리와 경제전망 적립금 투자전략과 적립금운용위원회 운영 경영성과급 DC제도 적립을 통한 절세전략을 주제로 최근 금리 변동성에 대응하는 DB적립금의 효율적인 운용전략 전반에 대해 살펴봤다. 연말 대부분의 자금이 집행되는 DB형 퇴직연금은 최근 고금리가 장기화로 금리 수혜를 적극 활용하면서 금리 하락에도 대비하려는 기업의 수요가 늘었다. 또한 지난해 도입된 연간 적립금 운용위원회 및 적립금 운용계획서 작성에 따라 실무적인 지원도 필요한 시점이다.홍덕규 한국투자증권 퇴직연금본부장은 한국투자증권의 전문화된 운용전략을 통해 금리 변동성이 커진 상황에서 기업에 다양한 상품을 제공하고 장기적인 관점에서 포트폴리오를 다변화해 DB 적립금 운용목표를 달성할 수 있도록 지원할 계획이라고 말했다.퇴직연금에 대한 관심이 커진 만큼 이번 세미나에 기업들의 참석 신청이 몰렸다. 한국투자증권은 참석하지 못한 기업을 위해 오는 24일 추가 세미나를 개최할 예정이다. </t>
+  </si>
+  <si>
+    <t>[{'퇴직연금 DB': 1}, {'퇴직연금 DB': 2}, {'퇴직연금 DB': 3}, {'퇴직연금 DB': 4}, {'퇴직연금 DB': 7}, {'퇴직연금 DB': 11}, {'퇴직연금 DB': 12}, {'퇴직연금 DB': 13}, {'퇴직연금 DB': 17}, {'퇴직연금 DB': 20}, {'퇴직연금 DB': 21}, {'퇴직연금 DB': 25}, {'퇴직연금 DB': 26}, {'퇴직연금 DB': 27}, {'퇴직연금 DB': 28}, {'퇴직연금 DB': 29}, {'퇴직연금 DB': 32}, {'퇴직연금 DB': 34}, {'퇴직연금 DB': 35}, {'퇴직연금 DB': 36}, {'퇴직연금 DB': 39}, {'퇴직연금 DB': 40}, {'퇴직연금 DB': 41}, {'퇴직연금 DB': 42}, {'퇴직연금 DB': 43}, {'퇴직연금 DB': 46}, {'퇴직연금 DB': 47}, {'퇴직연금 DB': 48}, {'퇴직연금 DB': 49}, {'퇴직연금 DB': 50}, {'퇴직연금 DC': 1}, {'퇴직연금 DC': 2}, {'퇴직연금 DC': 3}, {'퇴직연금 DC': 4}, {'퇴직연금 DC': 7}, {'퇴직연금 DC': 10}, {'퇴직연금 DC': 12}, {'퇴직연금 DC': 13}, {'퇴직연금 DC': 15}, {'퇴직연금 DC': 18}, {'퇴직연금 DC': 19}, {'퇴직연금 DC': 22}, {'퇴직연금 DC': 23}, {'퇴직연금 DC': 24}, {'퇴직연금 DC': 25}, {'퇴직연금 DC': 26}, {'퇴직연금 DC': 30}, {'퇴직연금 DC': 32}, {'퇴직연금 DC': 33}, {'퇴직연금 DC': 34}, {'퇴직연금 DC': 37}, {'퇴직연금 DC': 40}, {'퇴직연금 DC': 41}, {'퇴직연금 DC': 42}, {'퇴직연금 DC': 43}, {'퇴직연금 DC': 48}, {'퇴직연금 DC': 49}, {'퇴직연금 DC': 51}, {'퇴직연금 DC': 52}, {'확정급여형': 5}, {'확정급여형': 7}, {'확정급여형': 8}, {'확정급여형': 11}, {'확정급여형': 12}, {'확정급여형': 13}, {'확정급여형': 19}, {'확정급여형': 20}, {'확정급여형': 24}, {'확정급여형': 26}, {'확정급여형': 27}, {'확정급여형': 30}, {'확정급여형': 32}, {'확정급여형': 33}, {'확정급여형': 34}, {'확정급여형': 35}, {'확정급여형': 41}, {'확정급여형': 42}, {'확정급여형': 43}, {'확정급여형': 44}, {'확정급여형': 45}, {'확정급여형': 47}, {'확정급여형': 48}, {'확정급여형': 49}, {'확정급여형': 50}, {'확정급여형': 51}, {'확정급여형': 52}, {'확정급여형': 58}, {'확정급여형': 59}, {'확정급여형': 60}, {'경영성과급 DC': 1}, {'경영성과급 DC': 2}, {'경영성과급 DC': 3}, {'경영성과급 DC': 4}, {'경영성과급 DC': 7}, {'경영성과급 DC': 10}, {'경영성과급 DC': 13}, {'경영성과급 DC': 14}, {'경영성과급 DC': 16}, {'경영성과급 DC': 20}, {'경영성과급 DC': 21}, {'경영성과급 DC': 24}, {'경영성과급 DC': 25}, {'경영성과급 DC': 26}, {'경영성과급 DC': 27}, {'경영성과급 DC': 28}, {'경영성과급 DC': 33}, {'경영성과급 DC': 34}, {'경영성과급 DC': 35}, {'경영성과급 DC': 36}, {'경영성과급 DC': 39}, {'경영성과급 DC': 40}, {'경영성과급 DC': 41}, {'경영성과급 DC': 42}, {'경영성과급 DC': 43}, {'경영성과급 DC': 47}, {'경영성과급 DC': 48}, {'경영성과급 DC': 49}, {'경영성과급 DC': 50}, {'경영성과급 DC': 52}, {'퇴직연금 적립금': 3}, {'퇴직연금 적립금': 5}, {'퇴직연금 적립금': 8}, {'퇴직연금 적립금': 11}, {'퇴직연금 적립금': 12}, {'퇴직연금 적립금': 13}, {'퇴직연금 적립금': 16}, {'퇴직연금 적립금': 17}, {'퇴직연금 적립금': 21}, {'퇴직연금 적립금': 24}, {'퇴직연금 적립금': 25}, {'퇴직연금 적립금': 27}, {'퇴직연금 적립금': 28}, {'퇴직연금 적립금': 29}, {'퇴직연금 적립금': 30}, {'퇴직연금 적립금': 31}, {'퇴직연금 적립금': 35}, {'퇴직연금 적립금': 37}, {'퇴직연금 적립금': 38}, {'퇴직연금 적립금': 39}, {'퇴직연금 적립금': 42}, {'퇴직연금 적립금': 43}, {'퇴직연금 적립금': 44}, {'퇴직연금 적립금': 46}, {'퇴직연금 적립금': 47}, {'퇴직연금 적립금': 50}, {'퇴직연금 적립금': 51}, {'퇴직연금 적립금': 52}, {'퇴직연금 적립금': 53}, {'퇴직연금 적립금': 55}, {'퇴직연금 제도 도입': 3}, {'퇴직연금 제도 도입': 4}, {'퇴직연금 제도 도입': 5}, {'퇴직연금 제도 도입': 6}, {'퇴직연금 제도 도입': 9}, {'퇴직연금 제도 도입': 13}, {'퇴직연금 제도 도입': 16}, {'퇴직연금 제도 도입': 17}, {'퇴직연금 제도 도입': 19}, {'퇴직연금 제도 도입': 22}, {'퇴직연금 제도 도입': 23}, {'퇴직연금 제도 도입': 26}, {'퇴직연금 제도 도입': 27}, {'퇴직연금 제도 도입': 28}, {'퇴직연금 제도 도입': 29}, {'퇴직연금 제도 도입': 30}, {'퇴직연금 제도 도입': 34}, {'퇴직연금 제도 도입': 36}, {'퇴직연금 제도 도입': 37}, {'퇴직연금 제도 도입': 38}, {'퇴직연금 제도 도입': 41}, {'퇴직연금 제도 도입': 42}, {'퇴직연금 제도 도입': 43}, {'퇴직연금 제도 도입': 44}, {'퇴직연금 제도 도입': 47}, {'퇴직연금 제도 도입': 48}, {'퇴직연금 제도 도입': 49}, {'퇴직연금 제도 도입': 50}, {'퇴직연금 제도 도입': 51}, {'한국투자 퇴직연금': 1}, {'한국투자 퇴직연금': 2}, {'한국투자 퇴직연금': 3}, {'한국투자 퇴직연금': 4}, {'한국투자 퇴직연금': 6}, {'한국투자 퇴직연금': 8}, {'한국투자 퇴직연금': 13}, {'한국투자 퇴직연금': 14}, {'한국투자 퇴직연금': 16}, {'한국투자 퇴직연금': 18}, {'한국투자 퇴직연금': 19}, {'한국투자 퇴직연금': 22}, {'한국투자 퇴직연금': 23}, {'한국투자 퇴직연금': 25}, {'한국투자 퇴직연금': 26}, {'한국투자 퇴직연금': 27}, {'한국투자 퇴직연금': 31}, {'한국투자 퇴직연금': 34}, {'한국투자 퇴직연금': 35}, {'한국투자 퇴직연금': 40}, {'한국투자 퇴직연금': 42}, {'한국투자 퇴직연금': 43}, {'한국투자 퇴직연금': 44}, {'한국투자 퇴직연금': 46}, {'한국투자 퇴직연금': 53}, {'한국투자 퇴직연금': 54}, {'한국투자 퇴직연금': 59}, {'한국투자 퇴직연금': 60}, {'퇴직연금 포트폴리오': 2}, {'퇴직연금 포트폴리오': 3}, {'퇴직연금 포트폴리오': 4}, {'퇴직연금 포트폴리오': 5}, {'퇴직연금 포트폴리오': 8}, {'퇴직연금 포트폴리오': 11}, {'퇴직연금 포트폴리오': 13}, {'퇴직연금 포트폴리오': 14}, {'퇴직연금 포트폴리오': 16}, {'퇴직연금 포트폴리오': 19}, {'퇴직연금 포트폴리오': 20}, {'퇴직연금 포트폴리오': 23}, {'퇴직연금 포트폴리오': 24}, {'퇴직연금 포트폴리오': 25}, {'퇴직연금 포트폴리오': 26}, {'퇴직연금 포트폴리오': 27}, {'퇴직연금 포트폴리오': 31}, {'퇴직연금 포트폴리오': 33}, {'퇴직연금 포트폴리오': 36}, {'퇴직연금 포트폴리오': 37}, {'퇴직연금 포트폴리오': 38}, {'퇴직연금 포트폴리오': 39}, {'퇴직연금 포트폴리오': 42}, {'퇴직연금 포트폴리오': 43}, {'퇴직연금 포트폴리오': 44}, {'퇴직연금 포트폴리오': 45}, {'퇴직연금 포트폴리오': 47}]</t>
+  </si>
+  <si>
+    <t>세미나를 통해 DB적립금의 효율적 운용전략에 대해 다룸</t>
+  </si>
+  <si>
+    <t>세미나는 DB형 퇴직연금 운용에 대한 기업 담당자들의 이해와 공감을 높이기 위해 개최됨</t>
+  </si>
+  <si>
+    <t>세미나에서 최근 금리 변동성에 대응하는 DB적립금의 효율적인 운용전략에 대해 다룸</t>
+  </si>
+  <si>
+    <t>기사에는 법률 및 규제 변화에 대한 언급이 없음</t>
+  </si>
+  <si>
+    <t>기사에는 인구 변화와 관련된 내용이 없음</t>
+  </si>
+  <si>
+    <t>기사에는 기술과 디지털화에 관련된 내용이 없음</t>
+  </si>
+  <si>
+    <t>기사에는 소비 행동 및 요구사항에 관련된 내용이 없음</t>
+  </si>
+  <si>
+    <t>한국투자증권, 퇴직연금 확정급여형 적립금 운용전략 세미나</t>
+  </si>
+  <si>
+    <t>한국투자증권은 퇴직연금 확정급여형 DB 운용 전략에 대한 세미나를 개최했다. DB형 퇴직연금은 금리 변동성에 대비하려는 기업의 수요가 늘고 있다. 한국투자증권은 기업에 다양한 상품을 제공하고 포트폴리오를 다변화하여 DB 적립금 운용목표를 달성할 수 있도록 지원할 계획이다.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/014/0005087464?sid=101</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 한국금융지주의 자회사 한국투자증권은 17일 서울 여의도 본사에서 퇴직연금 확정급여형 DB 운용 기업을 대상으로 DB적립금의 효율적 운용전략에 대한 세미나를 개최했다고 18일 밝혔다. 시장금리와 경제전망 적립금 투자전략과 적립금운용위원회 운영 경영성과급 DC제도 적립을 통한 절세전략을 주제로 최근 금리 변동성에 대응하는 DB 적립금의 효율적인 운용전략 전반이 골자다. DB형 퇴직연금은 최근 고금리가 장기화로 금리 수혜를 적극 활용하면서 금리 하락에도 대비하려는 기업의 수요가 늘었다. 지난해 도입된 연간 적립금 운용위원회 및 적립금 운용계획서 작성에 따라 실무적인 지원도 필요한 시점이다. 한국투자증권은 이번에 참석하지 못한 기업을 위해 24일 추가 세미나를 개최할 예정이다. 홍덕규 퇴직연금본부장은 한국투자증권의 전문화된 운용전략을 통해 금리 변동성이 커진 상황에서 기업에 다양한 상품을 제공하고 장기적인 관점에서 포트폴리오를 다변화하여 DB 적립금 운용목표를 달성할 수 있도록 지원할 계획이라고 말했다.</t>
+  </si>
+  <si>
+    <t>[{'퇴직연금 DB': 24}, {'퇴직연금 DC': 21}, {'확정급여형': 1}, {'경영성과급 DC': 22}, {'퇴직연금 적립금': 4}, {'퇴직연금 제도 도입': 24}, {'한국투자 퇴직연금': 20}, {'퇴직연금 포트폴리오': 22}]</t>
+  </si>
+  <si>
+    <t>퇴직연금 확정급여형 DB 운용 전략에 대한 세미나 개최</t>
+  </si>
+  <si>
+    <t>DB형 퇴직연금의 수요가 늘고 있다</t>
+  </si>
+  <si>
+    <t>한국투자증권이 기업에 다양한 상품을 제공하고 포트폴리오를 다변화하여 DB 적립금 운용목표를 달성할 수 있도록 지원할 계획</t>
+  </si>
+  <si>
+    <t>변경된 법률 및 규정에 대한 언급이 없음</t>
+  </si>
+  <si>
+    <t>노인 인구와 연금 기금의 장기적인 지속 가능성에 대한 언급이 없음</t>
+  </si>
+  <si>
+    <t>퇴직연금 시장 발 벗고 나선 로보어드바이저 업계… 낮은 수익률 개선이 과제</t>
+  </si>
+  <si>
+    <t>퇴직연금 자산을 인공지능 AI 기반 로보어드바이저 RA로 운용할 수 있게 된다. 로보어드바이저 투자 관련 알고리즘이 잘 작동해 상품으로 출시되기에 문제가 없는지 심사한다. RA 투자에 대한 우려를 키운다.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/366/0000940422?sid=101</t>
+  </si>
+  <si>
+    <t>내년 상반기 이후 퇴직연금 RA 상품 출시 코스콤 운용 알고리즘 심사에 신청 줄이어 3분기 은행 RA 운용자금 70 안정성 우려 커져 저조한 수익률도 해결 과제  내년부터 퇴직연금 자산을 인공지능 AI 기반 로보어드바이저 RA로 운용할 수 있게 된다. 퇴직연금 일임 서비스를 제공 중인 증권사와 은행 로보어드바이저 회사들이 알고리즘 개발에 적극적으로 참여하며 새 먹거리를 찾는 모습이다. 다만 RA 운용 규모가 7월 이후 급감하는 등 저조한 수익률에 자금 이탈이 가속화하고 있다는 점이 우려 요인이다. RA 투자가 직접 투자보다 경쟁력이 있을지에 대한 우려의 목소리가 나오는 것이다.로보어드바이저는 로봇 Robot과 어드바이저 Advisor의 합성어다. AI가 알고리즘과 빅데이터 분석 등을 통해 개인의 투자 성향을 반영한 포트폴리오를 구성한 뒤 운용하는 자산 관리 서비스다.  18일 금융업계에 따르면 코스콤은 이달 27일까지 테스트베드 알고리즘 정기심사 신청을 받는다. 코스콤 테스트베드에서는 로보어드바이저 투자 관련 알고리즘이 잘 작동해 상품으로 출시되기에 문제가 없는지 심사한다. 현재까지 접수한 기업은 2곳으로 총 56개의 알고리즘에 대한 심사를 요청했다.향후 정기심사에 신청할 의사가 있는 기업들도 줄을 섰다. RA기업 콴텍과 파운트는 10개 이상의 알고리즘을 개발해 신청할 예정이다. 한국투자증권도 2개의 알고리즘을 신청할 것이라고 밝혔다. 그 외 KB증권과 신한은행은 검토 중인 것으로 알려졌다.금융위원회는 내년 상반기 이후 RA 퇴직연금 투자일임 서비스를 도입하겠다는 입장을 밝혔다. 현행 규정상 RA 서비스 사업자는 퇴직연금 시장에서 포트폴리오만 추천할 수 있다. 이번 코스콤의 정기심사가 통상 7개월 정도 걸리고 금융위의 퇴직연금 일임 운용에 대한 혁신 금융 서비스 금융규제 샌드박스 심사가 한 달 정도 걸리는 점을 감안하면 관련 상품 출시는 7월 이후 가능할 것으로 보인다.걸림돌은 RA 시장이 최근 크게 위축됐다는 것이다. 코스콤에 따르면 RA 자금은 지난달 7785억원으로 7월 1조9426억원보다 약 60 가까이 급감했다. 은행이 기존 1조6442억원 규모의 운용자금을 5183조원으로 70 가까이 줄인 영향이 컸다. 하나은행은 RA 하이로보 서비스 중 개인연금의 추천 서비스를 비롯해 목돈 투자 적립 투자 서비스를 7월 26일 이후 중지했다. 리밸런싱 부문 또한 8월 25일 이후로 추천 서비스 제공을 멈췄다. 한 은행 관계자는 RA 서비스를 고도화해 내년에 출시할 예정이라 기존에 제공했던 서비스를 줄인 것이라고 말했다.최근 디폴트옵션 사전지정운용제도 도입 등으로 퇴직연금 수익률에 대한 투자자들의 관심이 높아진 가운데 저조한 수익률도 RA 투자에 대한 우려를 키운다. 올해 초부터 9월까지 코스피 지수가 13.88 상승할 때 RA 알고리즘의 평균 수익률은 4.49에 그쳤다. 일각에서는 각종 운용 규제로 인해 RA는 운용 능력을 극대화할 수 없다고 설명한다.중장기적으로 RA 자산관리 성과가 안정적이라는 것이 입증돼야 새 먹거리인 퇴직연금 일임 투자에서도 투자자들의 선택을 받을 것으로 보인다. 금융투자업계 한 관계자는 로보어드바이저는 리스크 관리 특성상 장기 상품에 최적화돼 있다며 장기적으로 투자하는 퇴직연금 상품에서 운용 개선을 통해 더 나은 성과를 보여줄 필요가 있다고 말했다.</t>
+  </si>
+  <si>
+    <t>['퇴직연금 사업자', '퇴직연금 제도 도입', '퇴직연금 규모', 'KB 퇴직연금', '신한 퇴직연금', '한국투자 퇴직연금', '퇴직연금 서비스 ', '퇴직연금 AI', '퇴직연금 경쟁', '하나 퇴직연금', '퇴직연금 로보어드바이저', '퇴직연금 수익률', '퇴직연금 포트폴리오', '퇴직연금 장기 투자']</t>
+  </si>
+  <si>
+    <t>[{'퇴직연금 사업자': 1}, {'퇴직연금 제도 도입': 2}, {'퇴직연금 규모': 5}, {'KB 퇴직연금': 1}, {'신한 퇴직연금': 1}, {'한국투자 퇴직연금': 55}, {'퇴직연금 서비스 ': 11}, {'퇴직연금 AI': 1}, {'퇴직연금 경쟁': 11}, {'하나 퇴직연금': 2}, {'퇴직연금 로보어드바이저': 3}, {'퇴직연금 수익률': 3}, {'퇴직연금 포트폴리오': 1}, {'퇴직연금 장기 투자': 2}]</t>
+  </si>
+  <si>
+    <t>퇴직연금 자산을 인공지능 AI 기반 로보어드바이저 RA로 운용할 수 있게 된다.</t>
+  </si>
+  <si>
+    <t>로보어드바이저 투자 관련 알고리즘이 잘 작동해 상품으로 출시되기에 문제가 없는지 심사한다.</t>
+  </si>
+  <si>
+    <t>RA 투자에 대한 우려를 키운다.</t>
+  </si>
+  <si>
+    <t>국민연금공단</t>
+  </si>
+  <si>
+    <t>한국 연금 제도 47국 중 42위...연금 혜택은 ‘꼴찌’</t>
+  </si>
+  <si>
+    <t>한국의 연금 제도가 전 세계 47국 중 42위로 평가되었으며, 연금 혜택 수준은 47위로 꼴찌를 기록했다. 한국은 적정성 분야에서 39점으로 47위를 기록했고, 지속성은 52.7점으로 27위를 기록했다.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/023/0003794048?sid=104</t>
+  </si>
+  <si>
+    <t>국민연금기초연금퇴직연금개인연금 등 한국의 연금 제도가 연금 제도를 운영하는 전 세계 47국 가운데 최하위권인 42위라는 조사 결과가 나왔다. 연금 혜택 수준은 47위로 꼴찌를 기록했다.17일 현지 시각 글로벌 투자 전문가 협회 CFA미국 컨설팅업체 머서호주 모나시 대학이 함께 발표한 2023 글로벌 연금 지수 MCGPA 보고서에 따르면 한국은 올해 100점 만점에 51.2점을 받아 42위를 기록했다. 51.1점을 받은 작년 41위 대비 순위가 한 계단 내려갔다. 한국보다 나쁜 평가를 받은 나라는 태국 46.4점튀르키예 46.3점인도 45.9점필리핀 45.2점아르헨티나 42.3점 등 5국에 그쳤다. 1위는 네덜란드 85점였고 이어 아이슬란드 83.5점덴마크 81.3점 등의 순이었다.보고서는 연금 혜택제도 설계 수준 등 적정성 연금 보장 범위와 인구 구조 변화 정부 부채 등을 따지는 지속성 제도운영 분야 등 항목 3개를 평가해 각각 40 35 25의 가중치를 두고 총점을 매겼다. 한국은 적정성 분야에서 39점으로 47위를 기록했다. 작년엔 40.1점을 받아 인도인도네시아를 제치고 45위였는데 1년 새 연금 혜택 수준이 가장 형편없는 나라로 평가받았다. 공적연금강화국민행동에 따르면 대표적인 공적 연금인 국민연금의 경우 1985년생 이후 출생한 가입자의 예상 월 수급액이 66만원으로 올해 기준 1인 가구 최저 생계비 124만6735원의 절반 수준이다. 지속성 52.7점은 27위 제도운영 분야는 68.5점으로 34위를 각각 기록했다. 보고서는 한국에 대해 극빈층 연금 수급자에 대한 지원 수준과 기금 출연 수준을 높여야 한다고 했다.ABCDE로 구분된 등급 체계에서 한국은 브라질남아프리카공화국일본 등과 함께 3번째 등급인 C 등급을 받았다. 연금 혜택과 지속성 면에서 탄탄한 A 등급 국가는 네덜란드아이슬란드 등 4국이었고 일부 개선이 필요하다는 의미의 B 등급은 호주핀란드 등 15국이었다. 한국은 중대한 결점을 갖고 있다는 뜻의 C 등급을 받은 23국 가운데 꼴찌다. 특히 한국은 적정성 항목에서 D 등급을 받았다. 연금 제도 도입 초기 국가를 뜻하는 E 등급 국가가 없다는 점을 감안하면 최하위 등급이다. 지속성은 C 등급 제도운영 분야는 B 등급을 받았다.조선일보 국제부가 픽한 글로벌 이슈 뉴스레터 구독하기 https page.stibee.com subscriptions 275739국제퀴즈 풀고 선물도 받으세요 https www.chosun.com membersevent mecn_quiz</t>
+  </si>
+  <si>
+    <t>['퇴직연금 제도 도입', '퇴직연금 가입']</t>
+  </si>
+  <si>
+    <t>[{'퇴직연금 제도 도입': 1}, {'퇴직연금 가입': 2}]</t>
+  </si>
+  <si>
+    <t>연금 제도의 적정성 분야에서 39점을 받아 평가가 낮음</t>
+  </si>
+  <si>
+    <t>연금 혜택 수준이 47위로 꼴찌를 기록하여 경쟁 동향이 약함</t>
+  </si>
+  <si>
+    <t>지속성 분야에서 52.7점을 받아 평가가 상위에 위치함</t>
+  </si>
+  <si>
+    <t>노령화와 연금 기금의 장기적인 지속 가능성에 대한 언급이 없음</t>
+  </si>
+  <si>
+    <t>소비 행태 및 요구사항에 대한 언급이 없음</t>
+  </si>
+  <si>
+    <t>은행</t>
+  </si>
+  <si>
+    <t>은행 LCR 95% 유지·퇴직연금 분납..금융당국 '연말 자금쏠림' 막는다</t>
+  </si>
+  <si>
+    <t>금융당국이 규제 유연화를 통해 자금 쏠림현상을 방지하겠다고 밝혔다. 은행채 발행 확대를 허용하기로 했으며, 은행의 유동성커버리지비율 LCR 규제도 유지하기로 했다. 퇴직연금 납입과 관련해서도 다변화를 적극 유도할 계획이다.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/014/0005087636?sid=101</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 올해 44분기 정기예적금 만기 도래와 퇴직연금 납입으로 자금 쏠림현상 우려가 커지는 가운데 금융당국이 규제 유연화를 통해 쏠림현상을 방지하겠다고 18일 밝혔다. 금융당국은 규제 유연화 조치가 금융사의 수신경쟁 등 외형확대 경쟁에 악용돼서는 안 된다는 점도 분명히 했다. 이날 금융위원회는 김소영 부위원장 주재로 금융감독원각 업권 금융협회 등과 함께 금융시장 현안 점검소통회의를 개최해 현재 금융시장 상황과 향후 위험요인대응방안 등에 대해 논의했다. 우선 은행의 자금조달과 유동성 관리와 관련 현행 규제를 유지키로 했다. 은행권이 자금조달을 수신에 과도하게 의존하지 않도록 은행채 발행 확대를 허용하기로 했다. 지난해 10월말 이후 채권시장 안정을 위해 발행을 최소화했는데 은행이 각 여건에 맞게 유연하게 발행할 수 있도록 한 것이다. 금융위는 은행채 발행이 과도하게 증가해 회사채 발행을 구축하는 등 채권시장 부담요인으로 작용하지 않도록 시장 상황에 따라 발행규모와 시기를 탄력 조절할 것이라고 밝혔다. 은행의 유동성커버리지비율 LCR 규제 또한 내년 상반기까지 현행 95의 규제 비율을 계속 적용하기로 했다. 당초 금년 말에 규제 비율을 상향할 예정이었는데 자금 쏠림현상이라는 부작용이 나타날 수 있다는 판단에서다. 금융위는 규제 비율을 상향할 경우 규제 준수를 위한 자금 수요로 인해 은행채 발행이 과도하게 증가하거나 정기예금 유치 등 수신 경쟁이 심화될 수 있다는 점을 감안했다고 설명했다. 오는 1112월 금융위 의결을 통해 은행 LCR 규제를 내년 6월까지 95로 정하고 내년 7월부터 단계적 정상화를 재개하기로 했다. 다만 규제 비율 정상화를 언제 시작할지는 내년 24분기 시장 상황을 보면서 최종 결정할 예정이다. 퇴직연금 납입이 12월에 집중되는 현상과 관련해서도 금융권과 공공기관대기업에 분납과 만기 다변화를 적극 유도할 계획이다. 아울러 금융위는 퇴직연금 금리 베끼기 공시를 막기 위해 퇴직연금 감독규정 개정도 빠른 시일 내 마무리하기로 했다. 금융당국은 지난해에 비해서는 자금이동 우려가 경감됐다면서도 과도한 금리 경쟁으로 시장 교란이 발생하지 않도록 집중 모니터링한다는 방침이다. 연말 자금 쏠림현상을 막기 위한 이같은 규제 유연화 조치들이 금융사의 외형확대 경쟁 수단으로 악용돼서는 안 된다고 금융위는 분명히 했다. 김소영 부위원장은 과도한 자금 확보 경쟁 방지를 위해 추진하는 규제 유연화 조치들이 금융회사의 자산외형확대 경쟁의 수단으로 활용돼서는 안 된다며 과도한 외형 경쟁을 자제해달라고 당부했다. 아울러 김 부위원장은 적정수준의 금리경쟁은 필요하고 자금 확보를 위한 노력들이 개별 금융회사 차원에서는 합리적 결정일 수도 있지만 시장 전체적으로 이런 행위가 지나치게 확산될 경우 자금 불균형에 따른 유동성 문제 심화 등 부정적 파급효과가 발생할 수 있다면서 자금시장을 교란하는 이기적 행위에 대해서는 엄정히 대응할 것이라고 언급했다. 금융위는 지난해 44분기 저축성 예수금 증가 등으로 금년 44분기 중 만기가 도래하는 자금 규모가 예년에 비해 다소 큰 점을 감안 자금이동 상황을 주시할 계획이다. 금융위와 금감원은 지난 9월부터 10여 차례에 걸쳐 금융권과 만나 44분기 급격한 자금이동 발생 가능성과 대응방안을 논의한 후 이같은 방안을 마련했다. 금융감독원 금융위원회 머니무브 예적금만기 자금이동 자금쏠림현상 은행채발행 은행LCR규제 퇴직연금납입 </t>
+  </si>
+  <si>
+    <t>['퇴직연금 규모', '퇴직연금 금융감독원', '퇴직연금 경쟁', '퇴직연금 예금', '퇴직연금 채권']</t>
+  </si>
+  <si>
+    <t>[{'퇴직연금 규모': 3}, {'퇴직연금 금융감독원': 3}, {'퇴직연금 경쟁': 5}, {'퇴직연금 예금': 4}, {'퇴직연금 채권': 11}]</t>
+  </si>
+  <si>
+    <t>규제 유연화를 통한 자금 쏠림현상 방지</t>
+  </si>
+  <si>
+    <t>은행채 발행 확대와 유동성커버리지비율 LCR 규제 유지</t>
+  </si>
+  <si>
+    <t>퇴직연금 납입 다변화 유도 계획</t>
+  </si>
+  <si>
+    <t>은행채</t>
+  </si>
+  <si>
+    <t>수신경쟁 우려에 금융당국, 은행채 탄력 조절…LCR 정상화 유예</t>
+  </si>
+  <si>
+    <t>금융당국이 고금리 예적금 만기로 인한 수신경쟁 재발 우려에 대응하기 위해 은행채 발행 조절과 LCR 정상화 유예 조치를 취하기로 결정했다. 금융시장 안정을 유지하고 자금 확보 경쟁을 방지하기 위한 노력이 필요하다고 강조했다.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/003/0012153812?sid=101</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 김형섭 기자 지난해 10월부터 판매된 금융권의 고금리 예적금 상품 만기가 도래하면서 수신경쟁 재발이 우려되는 것과 관련해 금융당국이 시장 상황에 맞춘 은행채 발행 탄력 조절과 은행 유동성커버리지비율 LCR 정상화 유예 등의 조치를 취하기로 했다.금융위원회는 18일 김소영 부위원장 주재로 금융감독원 금융협회 등과 함께 금융시장 현안 점검소통회의를 열어 이같은 내용의 금융권 자금이동 리스크 관리 방안을 논의했다.금융위에 따르면 이날 회의에서 참석자들은 지난해 10월부터 금융권에서 자금 확보를 위해 발생한 경쟁적인 예금 금리 인상이 금융시장 불안요인으로 작용했다는데 의견을 같이 하고 올해에는 비슷한 상황이 벌어지지 않게 노력하기로 했다.김 부위원장은 시장이 다소 불안한 모습을 보였던 지난해와 달리 올해에는 금융시장 안정 기조가 유지되고 있는 만큼 과도한 자금 확보 경쟁이 재발하지는 않을 것으로 전망된다면서도 지난해 4분기 저축성 예수금 증가 등으로 올해 4분기 중 만기가 도래하는 자금 규모가 예년에 비해 다소 큰 점을 감안해 경각심을 갖고 자금이동 상황을 주시할 것이라고 말했다.금융위와 금감원은 지난 9월부터 10여 차례에 걸쳐 금융권과 회의를 갖고 4분기 급격한 자금이동 발생 가능성과 대응방안을 논의해 왔다. 그 결과 지난해에 비해서는 자금확보 경쟁 우려가 많이 완화됐지만 과도한 수신경쟁을 방지하기 위해 필요한 조치들을 취하기로 했다.이를 위해 우선 금융당국은 지난해 10월말 이후 채권시장 안정을 위해 내렸던 은행채 발행 자제 조치를 풀고 은행이 각자의 여건에 따라 보다 유연하게 발행할 수 있게 허용했다. 은행들이 필요 자금을 조달하기 위해 예적금에 과도하게 의존하지 않도록 하기 위한 조치다.다만 은행권의 은행채 발행이 지나치게 증가해 회사채 발행에 악영향을 주는 등 채권시장 부담요인으로 작용하지 않도록 시장 상황에 따라 발행규모와 시기를 탄력적으로 조절토록 했다.올해 말까지 95 비율이 적용되고 있는 LCR 규제에 대해서는 2024년 6월까지 현행 비율을 계속 적용하고 2024년 7월부터 단계적으로 정상화하되 최종적인 정상화 개시 여부는 2024년 2분기 중 시장 상황을 살펴 결정하기로 했다.이는 당초 계획대로 올해 말에 규제 비율을 상향할 경우 은행들이 규제 비율을 맞추기 위해 은행채를 과도하게 찍어내거나 고금리 정기예금을 유치하는 등의 수신 경쟁이 심화될 수 있다는 점을 감안한 것이라고 금융당국은 설명했다. 당초 금융당국은 12월까지 현행 비율을 유지하고 올해 말 단계적 정상화의 속도와 폭을 결정한다는 방침이었다.퇴직연금 DB형에 대해서도 연말 납입 집중현상을 완화하기 위해 금융권 공공기관 대기업의 부담금 분납과 만기 다변화를 적극 유도하기로 했다. 공정경쟁을 위한 베끼기 공시 방지 등을 내용으로 하는 퇴직연금 감독규정 개정도 조속히 마무리할 계획이다. 퇴직연금 시장의 급격한 머니무브 대규모 자금 이동 우려는 지난해에 비해 많이 줄어든 상황이지만 지나친 고금리 상품 등 경쟁 질서를 왜곡하는 행위로 인해 시장 교란이 발생하지 않도록 집중적인 모니터링이 필요하다는 게 금융당국의 설명이다.김 부위원장은 적정수준의 금리경쟁은 필요하고 자금 확보를 위한 노력들이 개별 금융회사 차원에서는 합리적 결정일 수도 있지만 시장 전체적으로 이런 행위가 지나치게 확산될 경우 자금 불균형에 따른 유동성 문제 심화 등 부정적 파급효과가 발생할 수 있다면서 시장 안정차원에서 금융권의 이해와 노력을 당부했다.그러면서 과도한 자금 확보 경쟁 방지를 위해 추진하는 규제 유연화 조치들이 금융회사의 자산 및 외형확대 경쟁의 수단으로 활용돼서는 안 된다면서 자금시장을 교란하는 이기적 행위에 대해서는 엄정히 대응할 것이라고 말했다</t>
+  </si>
+  <si>
+    <t>['퇴직연금 금융감독원', '퇴직연금 경쟁']</t>
+  </si>
+  <si>
+    <t>[{'퇴직연금 금융감독원': 1}, {'퇴직연금 경쟁': 1}]</t>
+  </si>
+  <si>
+    <t>금융당국이 자금 확보 경쟁을 방지하기 위해 적절한 조치를 취하고 있다.</t>
+  </si>
+  <si>
+    <t>자금 확보 경쟁으로 인한 금융시장 불안요인을 고려하여 올해에는 비슷한 상황이 벌어지지 않도록 노력할 것이다.</t>
+  </si>
+  <si>
+    <t>금융시장 안정을 위해 은행채 발행 조절과 LCR 정상화 유예 조치를 취하고 있다.</t>
+  </si>
+  <si>
+    <t>해당 기사에는 법률 및 규제 변경에 대한 내용이 없다.</t>
+  </si>
+  <si>
+    <t>해당 기사에는 고령화와 연관된 내용이 없다.</t>
+  </si>
+  <si>
+    <t>해당 기사에는 기술과 디지털화에 대한 내용이 없다.</t>
+  </si>
+  <si>
+    <t>해당 기사에는 소비 행태 및 요구사항에 대한 내용이 없다.</t>
+  </si>
+  <si>
+    <t>고금리 예금 만기 도래에…은행 자금조달 숨통 터준다</t>
+  </si>
+  <si>
+    <t>금융 당국이 은행에 대한 유동성커버리지비율 LCR 규제를 내년 상반기까지 현 수준으로 유지하기로 했다. 은행채 발행도 은행의 여건에 따라 조절할 수 있도록 했다. 금융위원회는 18일 정부서울청사에서 김소영 금융위 부위원장 주재로 금융시장 현안 점검소통회의를 개최했다고 밝혔다.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/011/0004250627?sid=101</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 금융 당국이 은행에 대한 유동성커버리지비율 LCR 규제를 내년 상반기까지 현 수준으로 유지하기로 했다. 은행채 발행도 은행의 여건에 따라 조절할 수 있도록 했다. 지난해 4분기 은행들이 경쟁적으로 출시했던 고금리 정기예금의 만기가 돌아오면서 또다시 수신 경쟁 과열 우려가 제기되자 은행의 현금 확보에 대한 부담을 덜어준 것이다.금융위원회는 18일 정부서울청사에서 김소영 금융위 부위원장 주재로 금융시장 현안 점검소통회의를 개최했다고 밝혔다. 이날 회의에는 금융감독원과 주요 금융협회가 참석해 금융시장 상황과 위험 요인 대응 방안을 논의했다.당국은 우선 LCR 규제를 현 95 수준으로 내년 6월까지 유지하기로 했다. LCR은 은행이 보유한 고유동성 자산을 30일간 예상되는 순 현금 유출액으로 나눈 값이다. 위기 상황이 발생했을 때 급격한 현금 유출에 대응할 수 있는 역량을 평가하는 지표다. 이 수치가 커질수록 은행은 예금을 비롯한 유동성 자산을 더 늘려야 한다. 당국은 코로나19 사태 당시 85까지 낮췄던 LCR을 단계적으로 높일 계획이었는데 당분간 현 수준을 유지하면서 은행의 자금 조달 부담을 줄이기로 했다. 금융위는 2024년 7월부터 단계적 정상화를 재개하는 것을 원칙으로 하되 최종 결정은 2024년 2분기 중 시장 상황을 봐가며 결정하기로 했다고 밝혔다.당국은 은행이 각 사 여건에 따라 은행채를 발행하는 것도 허용하기로 했다. 은행채 발행 한도를 만기가 된 물량의 125로 묶어둔 것을 4분기부터는 풀기로 한 것이다. 은행이 자금을 조달하려면 은행채를 발행하거나 예금을 늘려야 하는데 은행채 발행이 자유로워지면 높은 금리를 부담하면서까지 예금을 끌어올 필요성이 전보다 낮아진다. 다만 초우량채인 은행채 발행이 늘면 상대적으로 신용등급이 낮은 회사채 시장이 쪼그라들 수 있는 만큼 은행권은 시장 상황에 따라 발행 규모와 시기를 탄력적으로 조절하기로 했다.당국이 규제 문턱을 낮춘 것은 최근 들어 은행권 수신 경쟁이 심화하고 있기 때문이다. 지난해 10월 레고랜드 사태로 시중에 자금이 마르자 은행권은 유동성을 확보하기 위해 연 45 금리의 1년 만기 특판 예적금을 내놓았는데 이달부터 만기가 돌아오자 예금주를 붙잡기 위해 경쟁이 벌어진 것이다. 금융권에 따르면 지난해 4분기에 늘어난 수신 규모는 100조 원 정도로 추산된다.실제 올 들어 정기예금 금리를 연 3대로 유지해 오던 주요 시중은행들이 이달 들어 연 4대로 금리를 높이고 있다. 이날 은행연합회 공시에 따르면 신한은행의 쏠편한 정기예금과 우리은행의 WON플러스예금의 최고금리는 각각 연 4.05를 기록했다. KB국민은행의 KB Star 정기예금과 하나은행 하나의 정기예금도 연 4의 최고 금리를 제공한다.문제는 시중은행 간 경쟁이 과열될수록 은행권으로 예금이 쏠려 제2금융권의 자금난이 커질 수 있다는 점이다. 실제 새마을금고와 신협은 이달 연 5대 금리를 내거는 등 급격한 자금 이탈을 막기 위해 고금리 상품을 잇달아 내놓고 있다. 김 부위원장은 시장 전체적으로 금리 경쟁 행위가 지나치게 확산될 경우 자금 불균형에 따른 유동성 문제 심화 등 부정적 파급효과가 발생할 수 있다면서 지난해 4분기 저축성 예수금 증가 등으로 올 4분기 중 만기가 도래하는 자금 규모가 예년에 비해 다소 큰 점을 감안해 경각심을 가지고 자금 이동 상황을 주시할 것이라고 밝혔다.수신 경쟁 여파로 은행의 조달 비용이 늘고 이에 맞물려 대출금리가 더 뛸 수 있다는 점도 우려스러운 대목이다. 은행의 주요 자금 조달원인 예적금 금리가 오르면서 변동형 대출금리의 기준이 되는 자금조달비용지수 COFIX코픽스는 9월 전달보다 0.16포인트 올랐다.이에 수신 경쟁 열기를 식히기 위해 당국이 은행채 발행 한도를 아예 없애 은행의 자금 조달 창구를 틔우기로 한 것이다. 이와 함께 완화된 LCR 규제를 유지해 은행의 자금 수요 자체를 줄임으로써 은행채 발행 물량이 조절돼 회사채 구축 효과도 크지 않게끔 하겠다는 것이 당국의 의도다. 시중은행의 한 여신 담당 임원은 지난달 수신 경쟁이 과열될 조짐이 보이자 당국이 금리 인상을 자제할 것을 주문했다면서 은행 입장에서는 자금 수요가 큰 상황에서 금리만 낮추기는 어려워 조달 규제를 완화해줄 것을 요청했는데 이번에 반영된 것이라고 말했다.금융위는 또 이날 회의에서 퇴직연금 DB형의 연말 납입 집중 현상을 완화하기 위해 금융권과 공공기관 대기업의 부담금 분납과 만기 다변화를 유도하기로 했다. 공정 경쟁을 위한 금리 공시 체계 정비 등이 담긴 퇴직연금 감독규정 개정도 조속히 마무리할 계획이다. 김 부위원장은 과도한 자금 확보 경쟁 방지를 위해 추진하는 규제 유연화 조치들이 금융회사의 자산 외형 확대 경쟁의 수단으로 활용돼서는 안 될 것이라고 밝혔다.</t>
+  </si>
+  <si>
+    <t>[{'우리은행 퇴직연금': 1}, {'퇴직연금 예금': 8}]</t>
+  </si>
+  <si>
+    <t>은행에 대한 유동성커버리지비율 LCR 규제를 유지하고 은행채 발행 조절 가능성에 대한 내용이 포함되어 있음.</t>
+  </si>
+  <si>
+    <t>경쟁적인 수신 경쟁과 관련된 내용이 제한적으로 포함되어 있음.</t>
+  </si>
+  <si>
+    <t>금융시장 현안 점검소통회의를 개최하고 금융시장 상황과 위험 요인 대응 방안을 논의하는 내용이 포함되어 있음.</t>
+  </si>
+  <si>
+    <t>노후화와 관련된 내용이 포함되어 있지 않음.</t>
+  </si>
+  <si>
+    <t>삼성자산운용, 블랙록과 맞손…미국채권 3종 ETF 상장</t>
+  </si>
+  <si>
+    <t>삼성자산운용은 글로벌 1위 자산운용사 블랙록과 제휴하여 미국채권 ETF 3종을 국내 시장에 선보인다. 이 ETF는 블랙록의 대표 채권형 ETF에 투자하며 매월 분배금을 지급하는 월분배형 채권 ETF이다. 특히 하이일드 ETF에 대한 관심이 높아질 것으로 예상된다.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/009/0005200960?sid=101</t>
+  </si>
+  <si>
+    <t>삼성자산운용은 글로벌 1위 자산운용사 블랙록 BlackRock의 대표 채권 채권 상장지수펀드 ETF인 아이셰어즈 iShares ETF 3종을 국내 시장에 선보인다고 18일 밝혔다.삼성자산운용이 블랙록과 제휴해 오는 19일 신규 상장하는 미국채권 ETF는 KODEX iShares 미국 하이일드 액티브 ETF KODEX iShares 미국 투자등급 회사채 액티브 ETF KODEX iShares 미국 인플레이션 국채 액티브 ETF 3종이다.이 ETF 3종은 각각 블랙록의 대표 채권형 ETF인 USHY LQD TIP에 11 재간접 형태로 투자한다. 미국 채권에서 발생하는 이자 수익을 활용해 매월 분배금을 지급하는 월분배형 채권ETF다.이번 KODEX iShares ETF를 통해 국내 투자자들은 글로벌 최대 ETF 운용사 블랙록의 우수한 투자상품에 합리적인 비용으로 편리한 투자를 할 수 있다는 게 회사 측 설명이다.특히 국내 상장 상품인 만큼 별도의 환전 비용없이 퇴직연금 및 연금저축 계좌에서도 최대 100까지 투자가 가능하다. 또한 환노출형 구조로 달러 자산에 대한 투자를 선호하는 투자자들에게 더욱 적합하며 환헤지 비용이 없어 더 많은 분배금을 지급할 수 있게 됐다.3가지 상품 중 시장의 관심은 하이일드 ETF에 보다 집중될 것으로 예상된다. 분배율 수준이 기존 월분배형 채권ETF 대비 월등히 높은 연 7 수준에 육박해 월분배형 상품에 관심이 높은 투자자들에게 새로운 투자 대안이 될 수 있기 때문이다.KODEX iShares 미국 하이일드 액티브 ETF는 블랙록의 대표적인 하이일드 ETF인 USHY에 투자하는 재간접 상품으로 다양한 만기의 회사채로 구성된 고수익 채권 ETF이다. 블랙록의 USHY는 상품 규모가 88억달러로 약 1884개에 달하는 상품에 분산투자함으로써 안정성을 높였다. 이를 토대로 최근 5년간 연 5.07.5 수준의 분배율을 지켜왔다. USHY의 지난달 말 기준 연간 분배율은 약 6.92이며 수정 듀레이션은 3.82년이다.국내에는 글로벌 등급 기준으로 하이일드 채권을 발행하는 기업이 제한적이지만 미국의 경우 포드와 롤스로이스 아메리칸 에어라인 넥스트에라 에너지 윈덤 호텔 앤 리조트 등 다수의 대기업이 포진해 있다.이 ETF에 투자하면 미국 하이일드의 매력적인 분배율을 그대로 적용받으면서도 채권 자산의 특성상 이자수입을 바탕으로 분배금 규모가 결정되는 만큼 일부 주식형 월배당 상품들과 달리 본 자산을 훼손하지 않고도 분배금의 변동성을 낮게 가져갈 수 있다.임태혁 삼성자산운용 ETF운용본부장은 Kodex iShares 미국채권형 ETF 3종은 주식형 상품 위주로 구성됐던 기존의 국내 월배당 ETF 시장에서 안정 선호형 투자자들에게 새로운 좋은 대안이 될 것이라고 밝혔다.</t>
+  </si>
+  <si>
+    <t>[{'삼성 퇴직연금': 13}, {'퇴직연금 ETF': 14}, {'퇴직연금 채권': 14}]</t>
+  </si>
+  <si>
+    <t>삼성자산운용이 블랙록과 제휴하여 미국채권 ETF를 국내 시장에 선보이는 것은 자산운용 전략과 금융시장 변동의 영향을 분석하는데 중요한 정보이다.</t>
+  </si>
+  <si>
+    <t>이 기사에서는 블랙록과의 제휴를 통해 새로운 투자 상품을 선보인다는 내용이 언급되었지만, 산업 경쟁 동향에 대한 구체적인 정보는 제공되지 않았다.</t>
+  </si>
+  <si>
+    <t>금융시장의 변동성과 이자율 변화에 대한 언급은 있었지만, 이에 대한 분석이나 영향에 대한 구체적인 내용은 제공되지 않았다.</t>
+  </si>
+  <si>
+    <t>법률 및 규제 변화에 대한 언급이 없었다.</t>
+  </si>
+  <si>
+    <t>노령화와 연금 기금의 장기적인 지속 가능성에 대한 언급이 없었다.</t>
+  </si>
+  <si>
+    <t>기사에서는 기술과 디지털화에 대한 언급이 없었다.</t>
+  </si>
+  <si>
+    <t>소비 행동 및 요구사항에 대한 언급이 없었다.</t>
+  </si>
+  <si>
+    <t>블랙록과 손잡은 삼성운용…'KODEX iShares' 미국채권 3종 ETF 상장</t>
+  </si>
+  <si>
+    <t>삼성자산운용이 블랙록과 함께 미국채권 ETF 3종 출시. 국내 투자자들은 블랙록의 투자상품에 합리적인 비용으로 투자 가능. KODEX iShares 미국 하이일드 액티브 ETF는 블랙록의 대표적인 하이일드 ETF에 투자하는 상품.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/015/0004903446?sid=101</t>
+  </si>
+  <si>
+    <t>삼성자산운용이 글로벌 1위 자산운용사 블랙록 BlackRock과 함께 채권 상장지수펀드 ETF 3종을 출시한다. 18일 삼성운용측에 따르면 신규 상장하는 미국채권 ETF는 KODEX iShares 미국 하이일드 액티브 ETF KODEX iShares 미국 투자등급 회사채 액티브 ETF KODEX iShares 미국 인플레이션 국채 액티브 ETF다. 이 ETF 3종은 각각 블랙록의 대표 채권형 ETF인 USHY LQD TIP에 11 재간접 형태로 투자하며 미국 채권에서 발생하는 이자 수익을 활용해 매월 분배금을 지급하는 월분배형 채권ETF다.이번 KODEX iShares ETF를 통해 국내 투자자들은 글로벌 최대 ETF 운용사 블랙록의 투자상품에 합리적인 비용으로 투자할 수 있게 됐다는 설명이다. 특히 국내 상장 상품인 만큼 별도의 환전 비용없이 퇴직연금 및 연금저축 계좌에서도 최대 100까지 투자할 수 있다. 또한 환노출형 구조로 달러 자산에 대한 투자를 선호하는 투자자들에게 더욱 적합하며 환헤지 비용이 없어 더 많은 분배금을 지급할 수 있게 됐다.특히 KODEX iShares 미국 하이일드 액티브 ETF는 블랙록의 대표적인 하이일드 ETF인 USHY 아이셰어즈 브로드 하이일드 코퍼레이트 본드에 투자하는 재간접 상품이다. 다양한 만기의 회사채로 구성된 고수익 채권 ETF다. 블랙록의 USHY는 상품 규모가 88억 달러로 약 1884개에 달하는 상품에 분산투자함으로써 안정성을 높였으며 이를 토대로 최근 5년간 연 5.07.5 수준의 분배율을 지켜왔다. USHY의 9월말 기준 연간 분배율은 약 6.92이며 수정 듀레이션 평균회수기간은 3.82년이다.국내에는 글로벌 등급 기준으로 하이일드 채권을 발행하는 기업이 제한적이지만 미국의 경우 포드 Ford 롤스로이스 Rolls Royce 아메리칸 에어라인 American Airlines 넥스트에라 에너지 Nextera Energy 윈덤 호텔 앤 리조트 WYNDHAM Hotels resorts 등 다수의 대기업이 포진해 있다.임태혁 삼성자산운용 ETF운용본부장은 삼성자산운용과 블랙록의 이번 콜라보레이션은 대한민국 1등 ETF 운용사와 글로벌 1등 ETF 운용사의 역량을 합쳐 한국 투자자 분들에게 다양하고 선진적인 투자상품을 공급하는 것을 목표로 이뤄졌다고 설명했다.</t>
+  </si>
+  <si>
+    <t>[{'삼성 퇴직연금': 15}, {'퇴직연금 ETF': 16}, {'퇴직연금 채권': 17}]</t>
+  </si>
+  <si>
+    <t>삼성자산운용이 블랙록과 함께 미국채권 ETF 3종 출시</t>
+  </si>
+  <si>
+    <t>국내 투자자들은 블랙록의 투자상품에 합리적인 비용으로 투자 가능</t>
+  </si>
+  <si>
+    <t>KODEX iShares 미국 하이일드 액티브 ETF는 블랙록의 대표적인 하이일드 ETF에 투자하는 상품</t>
+  </si>
+  <si>
+    <t>No information related to legal and regulatory changes</t>
+  </si>
+  <si>
+    <t>No information related to demographic change</t>
+  </si>
+  <si>
+    <t>No information related to technology and digitalization</t>
+  </si>
+  <si>
+    <t>No information related to consumption behavior and requirements</t>
+  </si>
+  <si>
+    <t>삼성운용-블랙록의 만남…‘KODEX iShares’ 미국채권 3종 ETF 국내 상장</t>
+  </si>
+  <si>
+    <t>삼성자산운용이 글로벌 1위 자산운용사 블랙록과 제휴하여 미국채권 ETF 3종을 국내 시장에 선보인다. 이 ETF는 블랙록의 대표 채권형 ETF에 투자하며 매월 분배금을 지급하는 월분배형 채권ETF다. 국내 투자자들은 블랙록의 우수한 투자상품에 합리적인 비용으로 투자할 수 있게 되었다.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/016/0002211434?sid=101</t>
+  </si>
+  <si>
+    <t>삼성자산운용이 글로벌 1위 자산운용사 블랙록 BlackRock의 대표 채권 상장지수펀드 ETF인 iShares ETF 3종을 국내 시장에 선보인다.삼성자산운용이 블랙록과 제휴해 19일 신규 상장하는 미국채권 ETF는 KODEX iShares 미국 하이일드 액티브 ETF KODEX iShares 미국 투자등급 회사채 액티브 ETF KODEX iShares 미국 인플레이션 국채 액티브 ETF 3종이다. 이 ETF 3종은 각각 블랙록의 대표 채권형 ETF인 USHY LQD TIP에 11 재간접 형태로 투자하며 미국 채권에서 발생하는 이자 수익을 활용해 매월 분배금을 지급하는 월분배형 채권ETF다.이번 KODEX iShares ETF를 통해 국내 투자자들은 글로벌 최대 ETF 운용사 블랙록의 우수한 투자상품에 합리적인 비용으로 투자할 수 있게 됐다. 특히 국내 상장 상품인 만큼 별도의 환전 비용없이 퇴직연금 및 연금저축 계좌에서도 최대 100까지 투자할 수 있다. 또한 환노출형 구조로 달러 자산에 대한 투자를 선호하는 투자자들에게 더욱 적합하며 환헤지 비용이 없어 더 많은 분배금을 지급할 수 있게 됐다.3가지 상품 중 시장의 관심은 하이일드 ETF에 보다 집중될 것으로 예상된다. 분배율 수준이 기존 월분배형 채권ETF 대비 월등히 높은 연 7 수준에 육박 새로운 투자 대안이 될 수 있기 때문이다.KODEX iShares 미국 하이일드 액티브 ETF는 블랙록의 대표적인 하이일드 ETF인 USHY iShares Broad High Yield Corporate Bond ETF에 투자하는 재간접 상품으로 다양한 만기의 회사채로 구성된 고수익 채권 ETF다. 블랙록의 USHY는 상품 규모가 88억 달러로 약 1884개에 달하는 상품에 분산투자함으로써 안정성을 높였으며 이를 토대로 최근 5년간 연 5.07.5 수준의 분배율을 지켜왔다. USHY의 9월말 기준 연간 분배율은 약 6.92이며 수정 듀레이션 평균회수기간은 3.82년이다.국내에는 글로벌 등급 기준으로 하이일드 채권을 발행하는 기업이 제한적이지만 미국의 경우 포드 Ford 롤스로이스 Rolls Royce 아메리칸 에어라인 American Airlines 넥스트에라 에너지 Nextera Energy 윈덤 호텔 앤 리조트 WYNDHAM Hotels resorts 등 다수의 대기업이 포진해 있다.이 ETF에 투자하면 미국 하이일드의 매력적인 분배율을 그대로 적용받으면서도 채권 자산의 특성상 이자수입을 바탕으로 분배금 규모가 결정되는 만큼 일부 주식형 월배당 상품들과 달리 본 자산을 훼손하지 않고도 분배금의 변동성을 낮게 가져갈 수 있다.임태혁 삼성자산운용 ETF운용본부장은 삼성자산운용과 블랙록의 이번 콜라보레이션은 대한민국 1등 ETF 운용사와 글로벌 1등 ETF 운용사의 역량을 합쳐 한국 투자자 분들에게 다양하고 선진적인 투자상품을 공급하는 것을 목표로 이뤄졌다고 설명했다.</t>
+  </si>
+  <si>
+    <t>[{'삼성 퇴직연금': 22}, {'퇴직연금 ETF': 25}, {'퇴직연금 채권': 26}]</t>
+  </si>
+  <si>
+    <t>삼성자산운용이 블랙록과 제휴하여 미국채권 ETF 3종을 국내 시장에 선보이는 것은 pension fund management에 관련된 내용이다.</t>
+  </si>
+  <si>
+    <t>이번 제휴를 통해 국내 투자자들은 블랙록의 우수한 투자상품에 합리적인 비용으로 투자할 수 있게 되었다. 이는 industry competition trends에 관련된 내용이다.</t>
+  </si>
+  <si>
+    <t>이 ETF는 블랙록의 대표 채권형 ETF에 투자하며 매월 분배금을 지급하는 월분배형 채권ETF로, financial market impact에 관련된 내용이다.</t>
+  </si>
+  <si>
+    <t>본 기사에는 legal and regulatory changes에 관련된 내용이 없다.</t>
+  </si>
+  <si>
+    <t>본 기사에는 demographic change에 관련된 내용이 없다.</t>
+  </si>
+  <si>
+    <t>본 기사에는 technology and digitalization에 관련된 내용이 없다.</t>
+  </si>
+  <si>
+    <t>본 기사에는 consumption behavior and requirements에 관련된 내용이 없다.</t>
+  </si>
+  <si>
+    <t>삼성운용, 美 블랙록 대표 채권 ETF 3종 국내 상장</t>
+  </si>
+  <si>
+    <t>삼성자산운용이 글로벌 1위 자산운용사 블랙록의 대표 채권 ETF인 아이쉐어즈 iShares 상장지수펀드 ETF 3종을 국내 시장에 출시한다고 밝혔다. 해당 ETF 3종은 블랙록의 대표 채권형 ETF인 USHY LQD TIP에 투자하며 매월 분배금을 지급하는 월분배형 채권ETF다. KODEX iShares 미국 하이일드 액티브 ETF는 블랙록의 대표적인 하이일드 ETF인 USHY iShares Broad High Yield Corporate Bond ETF에 투자하는 재간접 상품으로 다양한 만기의 회사채로 구성된 고수익 채권 ETF이다.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/119/0002759275?sid=101</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 삼성자산운용이 글로벌 1위 자산운용사 블랙록 BlackRock의 대표 채권 ETF인 아이쉐어즈 iShares 상장지수펀드 ETF 3종을 국내 시장에 출시한다고 18일 밝혔다.삼성자산운용이 블랙록과 제휴해 19일 신규 상장하는 미국채권 ETF는 KODEX iShares 미국 하이일드 액티브 ETF KODEX iShares 미국 투자등급 회사채 액티브 ETF KODEX iShares 미국 인플레이션 국채 액티브 ETF 3종이다.해당 ETF 3종은 각각 블랙록의 대표 채권형 ETF인 USHY LQD TIP에 11 재간접 형태로 투자하며 미국 채권에서 발생하는 이자 수익을 활용해 매월 분배금을 지급하는 월분배형 채권ETF다.이번 KODEX iShares ETF를 통해 국내 투자자들은 글로벌 최대 ETF 운용사 블랙록의 우수한 투자상품에 합리적인 비용으로 편리한 투자를 할 수 있게 됐다. 특히 국내 상장 상품인 만큼 별도의 환전 비용없이 퇴직연금 및 연금저축 계좌에서도 최대 100까지 투자가 가능하다.또한 환노출형 구조로 달러 자산에 대한 투자를 선호하는 투자자들에게 더욱 적합하며 환헤지 비용이 없어 더 많은 분배금을 지급할 수 있게 됐다.3가지 상품 중 시장의 관심은 하이일드 ETF에 보다 집중될 것으로 예상된다. 분배율 수준이 기존 월분배형 채권ETF 대비 월등히 높은 연 7 수준에 육박해 월분배형 상품에 관심이 높은 투자자들에게 새로운 투자 대안이 될 수 있기 때문이다.KODEX iShares 미국 하이일드 액티브 ETF는 블랙록의 대표적인 하이일드 ETF인 USHY iShares Broad High Yield Corporate Bond ETF에 투자하는 재간접 상품으로 다양한 만기의 회사채로 구성된 고수익 채권 ETF이다.블랙록의 USHY는 상품 규모가 88억 달러로 약 1884개에 달하는 상품에 분산투자함으로써 안정성을 높였으며 이를 토대로 최근 5년간 연 5.07.5 수준의 분배율을 지켜왔다. USHY의 9월말 기준 연간 분배율은 약 6.92이며 수정 듀레이션은 3.82년이다.국내에는 글로벌 등급 기준으로 하이일드 채권을 발행하는 기업이 제한적이지만 미국의 경우 포드 Ford 롤스로이스 Rolls Royce 아메리칸 에어라인 American Airlines 넥스트에라 에너지 Nextera Energy 윈덤 호텔 앤 리조트 WYNDHAM Hotels resorts 등 다수의 대기업이 포진해 있다.이 ETF에 투자하면 미국 하이일드의 매력적인 분배율을 그대로 적용받으면서도 채권 자산의 특성상 이자수입을 바탕으로 분배금 규모가 결정되는 만큼 일부 주식형 월배당 상품들과 달리 본 자산을 훼손하지 않고도 분배금의 변동성을 낮게 가져갈 수 있다.KODEX iShares 미국 투자등급 회사채 액티브 ETF는 2002년 7월 상장한 세계 최초의 채권형 ETF이자 일명 미국 회사채 ETF의 정석으로 통하는 LQD iShares iBoxx Investment Grade Corporate Bond ETF에 투자한다. 미국 최대 규모의 종합 회사채 ETF인 만큼 매우 풍부한 유동성이 장점이며 글로벌 초우량 회사채 시장에 편리하게 투자할 수 있다.KODEX iShares 미국 인플레이션 국채 액티브 ETF는 미국 최대 규모의 인플레이션 국채 ETF인 TIP iShares TIPS Bond ETF에 투자한다. 미국 인플레이션 국채 ETF는 미국 소비자물가지수의 영향을 받아 변동되므로 물가상승 위험에 대응할 수 있다.임태혁 삼성자산운용 ETF운용본부장은 삼성자산운용과 블랙록의 이번 콜라보레이션은 대한민국 1등 ETF 운용사와 글로벌 1등 ETF 운용사의 역량을 합쳐 한국 투자자분들을 위한 다양하고 선진적인 투자상품 공급은 물론 투자의 편리함과 비용 효율 측면에서 최고의 솔루션을 제공하는 것을 목표로 이루어졌다며 Kodex iShares 미국채권형 ETF 3종은 주식형 상품 위주로 구성됐던 기존의 국내 월배당 ETF 시장에서 안정 선호형 투자자들에게 새로운 좋은 대안이 될 것이라고 밝혔다.</t>
+  </si>
+  <si>
+    <t>[{'삼성 퇴직연금': 31}, {'퇴직연금 ETF': 37}, {'퇴직연금 채권': 37}]</t>
+  </si>
+  <si>
+    <t>삼성자산운용이 블랙록의 대표 채권 ETF를 국내 시장에 출시한다는 내용이 포함되어 있음.</t>
+  </si>
+  <si>
+    <t>해당 ETF 3종은 블랙록의 대표 채권형 ETF에 투자하며 매월 분배금을 지급하는 월분배형 채권ETF로, 투자자들에게 새로운 투자 대안이 될 수 있음.</t>
+  </si>
+  <si>
+    <t>KODEX iShares 미국 하이일드 액티브 ETF는 블랙록의 대표적인 하이일드 ETF에 투자하는 재간접 상품으로 고수익 채권 ETF임.</t>
+  </si>
+  <si>
+    <t>해당 기사에는 법적 및 규제 변화에 대한 내용이 포함되어 있지 않음.</t>
+  </si>
+  <si>
+    <t>해당 기사에는 노령화와 연금 기금의 장기적인 지속 가능성에 대한 내용이 포함되어 있지 않음.</t>
+  </si>
+  <si>
+    <t>해당 기사에는 기술과 디지털화에 대한 내용이 포함되어 있지 않음.</t>
+  </si>
+  <si>
+    <t>해당 기사에는 소비 행동 및 요구사항에 대한 내용이 포함되어 있지 않음.</t>
+  </si>
+  <si>
+    <t>금융위, 과도한 예금 경쟁 방지…LCR 규제 정상화 내년 하반기로</t>
+  </si>
+  <si>
+    <t>금융 당국이 금융권의 과도한 자금 확보 경쟁을 방지하기 위해 유동성 규제의 정상화 시점을 내년 하반기 이후로 미루고 은행채 발행 한도 제한을 풀기로 했다. 또한 은행채 발행이 과도하게 증가하거나 정기예금 유치 등 수신 경쟁이 심화될 수 있어 정상화 시점을 연기하기로 했다.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/366/0000940279?sid=101</t>
+  </si>
+  <si>
+    <t>은행채 발행 한도 제한 풀어올 4분기 만기 도래 자금 규모 커김소영 부위원장 과도한 외형 경쟁 자제  금융 당국이 금융권의 과도한 자금 확보 경쟁을 방지하기 위해 유동성 규제의 정상화 시점을 내년 하반기 이후로 미룬다. 또 은행채 발행 한도 제한을 풀어 은행이 필요자금을 확보하기 위해 예금 확보에 지나치게 의존하지 않도록 한다.금융위원회는 18일 서울 종로구 정부서울청사에서 김소영 부위원장 주재로 금융감독원 금융협회 등과 함께 금융시장 현안 점검소통회의에서 금융시장 상황과 향후 위험요인 대응방안 등에 대해 논의했다.금융 당국은 지난해처럼 금융권의 자금 확보를 위한 경쟁적인 예금 금리 인상이 금융시장의 불안요인으로 작용하지 않도록 유동성커버리지비율 LCR 규제 수준을 내년 6월까지 유지하기로 했다. LCR은 30일간 예상되는 순 현금 유출액 대비 고유동성 자산의 비율을 뜻한다. LCR 규제 비율은 현행 95다.금융 당국은 당초에는 내년 초 100로 정상화할 방침이었다. 하지만 계획대로 올해 말 LCR 규제 비율을 상향할 경우 규제 비율 준수를 위한 자금 수요로 인해 은행채 발행이 과도하게 증가하거나 정기예금 유치 등 수신 경쟁이 심화될 수 있어 정상화 시점을 연기하기로 했다. 최종적인 정상화 개시 여부는 내년 2분기 중 시장 상황을 고려해 결정할 예정이다.또한 금융 당국은 지난해 10월 말 이후 채권시장 안정을 위해 발행을 제한했던 은행채를 각 은행의 여건에 따라 유연화하기로 했다. 단 은행권은 은행채 발행이 과도하게 증가해 회사채 발행을 구축하는 등 채권시장 부담요인으로 작용하지 않도록 시장 상황에 따라 발행규모와 시기를 탄력적으로 조절해 나가야 한다.이날 금융시장 현안 점검소통회의에서는 퇴직연금 감독규정 개정을 조속히 마무리해야 한다는 논의도 이뤄졌다. 퇴직연금 감독규정 개정안은 퇴직연금 DB형에 대해서는 연말 12월 납입 집중현상을 완화하기 위해 금융권공공기관대기업의 부담금 분납과 만기 다변화를 적극 유도하고 공정경쟁을 위한 금리공시체계 정비 등을 골자로 한다.금융 당국은 퇴직연금 시장의 급격한 자금 이동과 지나친 고금리 상품 제시 등 경쟁 질서를 왜곡하는 행위로 인해 시장 교란이 발생하지 않도록 집중적인 모니터링을 할 방침이다.김 부위원장은 시장이 다소 불안한 모습을 보였던 지난해와 달리 금년에는 금융시장 안정 기조가 유지되고 있는 만큼 과도한 자금 확보 경쟁이 재발하지는 않을 것으로 전망된다라면서도 지난해 4분기 저축성 예수금 증가 등으로 올해 4분기 중 만기가 도래하는 자금 규모가 예년에 비해 다소 큰 점을 감안해 경각심을 가지고 자금이동 상황을 주시할 것이라고 했다.그러면서 김 부위원장은 과도한 자금 확보 경쟁 방지를 위해 추진하는 규제 유연화 조치들이 금융회사의 자산외형확대 경쟁의 수단으로 활용돼서는 안 된다라며 자금시장을 교란하는 이기적 행위에 대해서는 엄정히 대응할 것이라고 강조했다.</t>
+  </si>
+  <si>
+    <t>['퇴직연금 경쟁', '퇴직연금 예금']</t>
+  </si>
+  <si>
+    <t>[{'퇴직연금 경쟁': 2}, {'퇴직연금 예금': 1}]</t>
+  </si>
+  <si>
+    <t>금융 당국이 자금 확보 경쟁을 방지하기 위해 유동성 규제를 조정하고 은행채 발행 한도를 조정하는 조치를 취했다.</t>
+  </si>
+  <si>
+    <t>은행채 발행과 수신 경쟁에 대한 조치가 이루어지고 있다.</t>
+  </si>
+  <si>
+    <t>금융시장 안정을 유지하기 위해 자금 확보 경쟁을 조절하는 조치를 취했다.</t>
+  </si>
+  <si>
+    <t>변경된 법률 및 규제에 대한 언급이 없음.</t>
+  </si>
+  <si>
+    <t>노후화와 연금 기금의 장기적인 지속 가능성에 대한 언급이 없음.</t>
+  </si>
+  <si>
+    <t>금융위, 과도한 예금 경쟁 방지…은행 LCR규제 내년 상반기까지 95% 유지</t>
+  </si>
+  <si>
+    <t>금융시장 현안 점검소통회의 개최. 금융당국, LCR 규제를 내년 6월까지 현 수준인 95로 유지하기로 결정. 금융시장 상황과 위험요인 대응방안 논의.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/629/0000244321?sid=101</t>
+  </si>
+  <si>
+    <t>금융시장 현안 점검소통회의 개최금융위 자금시장 교란 이기적 행위는 엄정히 대응금융당국이 유동성커버리지비율 LCR 규제를 내년 6월까지 현 수준인 95로 유지하기로 했다. 고금리 정기예금의 만기가 돌아오면서 수신 경쟁이 과열되자 은행의 현금 확보 부담을 덜어준 것으로 풀이된다.금융위원회는 18일 김소영 금융위 부위원장 주재로 금융시장 현안 점검소통회의를 개최했다고 밝혔다. 이날 회의에는 금융감독원과 주요 금융협회가 참석해 금융시장 상황과 위험요인 대응방안을 논의했다.금융당국은 우선 LCR 규제를 현 95 수준으로 내년 6월까지 유지하기로 했다. LCR은 30일간 예상되는 순 현금 유출액 대비 고유동성 자산의 비율을 뜻한다.금융당국은 당초에는 내년 초 100로 정상화할 방침이었다. 하지만 계획대로 올해 말 LCR 규제 비율을 상향할 경우 규제 비율 준수를 위한 자금 수요로 인해 은행채 발행이 과도하게 증가하거나 정기예금 유치 등 수신 경쟁이 심화될 수 있어 정상화 시점을 연기하기로 했다. 금융위는 2024년 7월부터 단계적 인상을 원칙으로 하되 최종 결정은 2024년 2분기 중 시장 상황을 보아가며 결정하기로 했다고 말했다.또 금융당국은 지난해 10월 말 이후 채권시장 안정을 위해 발행을 제한했던 은행채를 각 은행의 여건에 따라 유연화하기로 했다. 다만 은행권은 은행채 발행이 과도하게 증가해 회사채 발행을 구축하는 등 채권시장 부담요인으로 작용하지 않도록 시장 상황에 따라 발행규모와 시기를 탄력적으로 조절하기로 했다.금융위는 이날 회의에서 퇴직연금 DB형의 연말 납입 집중 현상을 완화하기 위해 금융권과 공공기관 대기업의 부담금 분납과 만기 다변화를 유도하기로 했다. 공정경쟁을 위한 금리공시체계 정비 등을 내용으로 하는 퇴직연금 감독규정 개정도 조속히 마무리할 계획이다.금융당국은 퇴직연금 시장의 급격한 자금 이동과 지나친 고금리 상품 제시 등 경쟁 질서를 왜곡하는 행위로 인해 시장 교란이 발생하지 않도록 집중적인 모니터링을 할 방침이다.김소영 부위원장은 과도한 자금 확보 경쟁 방지를 위해 추진하는 규제 유연화 조치들이 금융회사의 자산외형확대 경쟁의 수단으로 활용돼서는 안 된다며 자금시장을 교란하는 이기적 행위에 대해서는 엄정히 대응할 것이라고 강조했다.발로 뛰는 더팩트는 24시간 여러분의 제보를 기다립니다.카카오톡 더팩트제보 검색이메일 jebotf.co.kr뉴스 홈페이지 http talk.tf.co.kr bbs report write</t>
+  </si>
+  <si>
+    <t>[{'퇴직연금 경쟁': 3}, {'퇴직연금 예금': 2}]</t>
+  </si>
+  <si>
+    <t>금융시장 현안 점검소통회의 개최 및 LCR 규제 결정</t>
+  </si>
+  <si>
+    <t>금융시장 상황과 위험요인 대응방안 논의</t>
+  </si>
+  <si>
+    <t>LCR 규제를 내년 6월까지 현 수준인 95로 유지하기로 결정</t>
+  </si>
+  <si>
+    <t>과도한 금리경쟁, 엄정대응..은행채 규제폐지·LCR 내년 6월까지 유지</t>
+  </si>
+  <si>
+    <t>정부가 은행채 발행한도 규제를 폐지하고 내년 6월까지 LCR 유동성 커버리지비율 규제를 현 수준으로 유지키로 했다. 금융당국은 은행을 시작으로 과도한 머니무브가 일어나지 않도록 은행채 발행 유연화 LCR 규제 유연화 연장 및 연말 퇴직연금 시장 모니터링 강화 등의 방안을 내놨다. 금융위는 내년 7월 이후 단계적으로 상향하되 최종적인 정상화 100 개시 여부는 내년 2분기쯤 결정할 방침이다.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/008/0004950223?sid=101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">정부가 은행채 발행한도 규제를 폐지하고 내년 6월까지 LCR 유동성 커버리지비율 규제를 현 수준으로 유지키로 했다. 지난해 레고랜드 사태 이후 예치한 100조원 이상의 고금리 예금 만기를 앞두고 금융권 수신경쟁을 막기 위한 조치다. 정부는 과도한 외형경쟁 자제를 주문하면서 필요시 엄정 대응하겠다고 밝혔다. 금융위원회는 18일 김소영 금융위원회 부위원장 주재로 금융감독원 금융협회 등과 함께 금융시장 현안 점검소통회의를 개최하고 금융시장 상황과 향후 위험요인 대응방안 등에 대해 논의했다고 밝혔다. 이달 들어 은행권에서 정기예금 재예치를 위해 연 4대 금리를 주는 상품을 속속 출시한 가운데 저축은행 업계도 이에 대응해 연 4.6 예금이 8개월여 만에 재등장했다. 금융당국은 은행을 시작으로 과도한 머니무브가 일어나지 않도록 은행채 발행 유연화 LCR 규제 유연화 연장 및 연말 퇴직연금 시장 모니터링 강화 등의 방안을 내놨다. 지난해 10월말 이후 채권시장 안정을 위해 발행을 최소화했던 은행채를 각 은행의 여건에 따라 유연하게 발행하기로 했다. 금융당국은 지난해 연말 만기도래 채권 이외의 추가적인 은행채 발행을 제한해 왔다. 하지만 이로 인해 수신을 통한 자금조달에 지나치게 의존할 가능성이 높아져 한도 규제를 풀기로 한 것이다. 다만 우량채인 은행채로 자금이 쏠리지 않도록 발행규모와 시기를 탄력 조절키로 했다. 아울러 올해 연말까지 95 비율이 적용되는 은행 LCR 규제는 내년 6월까지 현행 비율이 유지된다. LCR은 30일간 예상되는 순현금 유출액 대비 고유동성 자산 비율을 뜻한다. 이 비율을 올리면 고유동성 자산 확보를 위해 은행채 발행을 늘리거나 예금을 더 확보해야 한다. 금융위는 내년 7월 이후 단계적으로 상향하되 최종적인 정상화 100 개시 여부는 내년 2분기쯤 결정할 방침이다. 연말 퇴직연금 DB형 시장 모니터링은 강화한다. 금융당국은 연말 납입 집중현상을 막기 위해 그간 금융권공공기관대기업의 부담금 분납과 만기 다변화를 유도해 왔다. 금리공시체계 정비 베끼기 공시 방지 등을 내용으로 하는 퇴직연금 감독규정개정도 조속히 마무리하겠다는 계획이다. 김 부위원장은 시장이 다소 불안한 모습을 보였던 지난해와 달리 올해는 금융시장 안정 기조가 유지되고 있는 만큼 과도한 자금 확보 경쟁이 재발하지는 않을 것이라면서도 지난해 4분기 저축성 예수금 증가 등으로 올해 4분기 중 만기가 도래하는 자금 규모가 예년에 비해 다소 큰 점을 감안해 경각심을 가지고 자금이동 상황을 주시할 것이라고 말했다. 그는 과도한 자금 확보 경쟁 방지를 위해 추진하는 규제 유연화 조치들이 금융회사의 자산 외형확대 경쟁의 수단으로 활용돼서는 안된다며 자금시장을 교란하는 이기적 행위에 대해서는 엄정히 대응할 것이라고 강조했다. </t>
+  </si>
+  <si>
+    <t>['퇴직연금 경쟁', '퇴직연금 저축은행']</t>
+  </si>
+  <si>
+    <t>[{'퇴직연금 경쟁': 10}, {'퇴직연금 저축은행': 40}]</t>
+  </si>
+  <si>
+    <t>은행채 발행한도 규제 폐지 및 LCR 유동성 커버리지비율 규제 유지 결정</t>
+  </si>
+  <si>
+    <t>금융시장 상황과 향후 위험요인 대응방안에 대한 논의</t>
+  </si>
+  <si>
+    <t>은행채 발행 유연화 및 LCR 규제 유연화 방안</t>
+  </si>
+  <si>
+    <t>2금융권 고금리 예금 만기 도래… 과도한 재유치 경쟁 경계</t>
+  </si>
+  <si>
+    <t>금융당국이 과도한 재유치 경쟁을 막기 위한 비상 점검 체계를 가동했다. 저축은행과 상호금융권의 고금리 예금 상품들의 만기 도래가 본격 시작됐다. 금융당국은 모니터링 시스템을 가동하고 나섰다.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/021/0002599828?sid=101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">수신금리 인상 경쟁 다시 격화대출금리 상승머니무브우려금융당국 비상 점검 체계 가동저축은행상호금융 등 제2금융권 고금리 예적금 상품들의 만기 도래가 이번 주 본격화된다. 최근 시장 금리가 계속 오르는 상황에서 금융권이 과도한 재유치 경쟁을 벌일 경우 금융시장 유동성 불안이 커질 수 있다는 점에서 금융당국이 과도한 재유치 경쟁을 막기 위한 비상 점검 체계를 가동했다.18일 금융권에 따르면 이번 주부터 저축은행의 56대 고금리 예금 상품들의 만기 도래가 본격 시작됐다. 저축은행권의 고금리 예금들의 만기 도래는 올해 말까지 집중적으로 몰려 있다. 상호금융권의 56대 고금리 상품 만기는 다음 달부터 돌아오기 시작해 내년 1월까지 이어진다. 금융권은 지난해 4분기에 늘어난 수신 규모를 100조 원 정도로 추산하고 있다. 대규모 예금이 만기를 한꺼번에 맞는 만큼 재유치를 위한 수신 경쟁이 다시 격화되는 것 아니냐는 우려가 나온다. 수신금리는 뚜렷한 상승세다. 저축은행권에서는 이달 들어 연 4대 중반 금리를 제공하는 1년 만기 정기예금이 대거 등장했고 1금융권에서도 예금 금리를 연 4대로 높이고 있다. 금융권의 지나친 수신금리 인상 경쟁은 조달 비용 상승 등으로 인한 대출금리 상승으로 이어지고 시중 유동성을 빨아들이는 머니 무브를 촉발할 수 있는 요인이 된다.이에 금융당국도 모니터링 시스템을 가동하고 나섰다. 이날 김소영 금융위원회 부위원장은 정부서울청사에서 금융감독원 금융협회 등과 함께 금융시장 현안 점검소통회의를 개최하고과도한 자금 확보 경쟁이 재발하지는 않을 것으로 전망하나 경각심을 가지고 자금이동 상황을 주시할 것이라고 밝혔다. 금융위는 은행들이 필요자금 조달을 수신에 과도하게 의존하지 않도록 은행채 발행 한도를 이달부터 폐지한다고 밝혔다. 유동성 규제 비율인 유동성커버리지비율 LCR과 관련해선 내년 6월까지 현행 비율 95을 계속 적용한다고 밝혔다. 금융위는 또 퇴직연금 DB형에 대해서는 연말 12월 납입 집중현상을 완화하기 위해 퇴직연금 감독규정 개정도 조속히 마무리하겠다는 방침이다. </t>
+  </si>
+  <si>
+    <t>[{'퇴직연금 경쟁': 15}, {'퇴직연금 예금': 9}]</t>
+  </si>
+  <si>
+    <t>금융당국이 과도한 재유치 경쟁을 막기 위한 비상 점검 체계를 가동했기 때문에 높은 점수를 부여합니다.</t>
+  </si>
+  <si>
+    <t>저축은행과 상호금융권의 고금리 예금 상품들의 만기 도래가 본격 시작되었기 때문에 중간 정도의 점수를 부여합니다.</t>
+  </si>
+  <si>
+    <t>금융당국이 모니터링 시스템을 가동하고 나섰다는데서 금융시장의 상황을 파악하고 대응할 수 있는 능력을 보여주었기 때문에 낮은 점수를 부여합니다.</t>
+  </si>
+  <si>
+    <t>기사에는 법률 및 규제 변경에 대한 내용이 언급되지 않았기 때문에 점수를 부여하지 않습니다.</t>
+  </si>
+  <si>
+    <t>기사에는 노후에 대한 데모그래픽 요소나 연금 기금의 장기적인 지속 가능성에 대한 내용이 언급되지 않았기 때문에 점수를 부여하지 않습니다.</t>
+  </si>
+  <si>
+    <t>기사에는 기술과 디지털화에 대한 내용이 언급되지 않았기 때문에 점수를 부여하지 않습니다.</t>
+  </si>
+  <si>
+    <t>기사에는 소비 행동 및 요구사항에 대한 내용이 언급되지 않았기 때문에 점수를 부여하지 않습니다.</t>
+  </si>
+  <si>
+    <t>삼성</t>
   </si>
   <si>
     <t>‘삼성 ETF를 담은 TDF 2040’ 연금투자 상품 인기</t>
@@ -138,15 +1341,120 @@
     <t>기사에는 소비 행동 및 요구사항에 대한 언급이 없다.</t>
   </si>
   <si>
-    <t>-</t>
+    <t>한국투자증권, 퇴직연금 DB형 운용 세미나 개최</t>
+  </si>
+  <si>
+    <t>한국투자증권은 DB적립금의 효율적 운용전략에 대한 세미나를 개최했다. 세미나는 DB형 퇴직연금 운용에 대한 기업 담당자들의 이해와 공감을 높이고자 마련됐다. 전문가 강연을 통해 DB 적립금의 효율적인 운용전략에 대해 논의되었다.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/011/0004250509?sid=101</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 한국금융지주 071050 자회사 한국투자증권은 지난 17일 서울 여의도 본사에서 퇴직연금 확정급여형 DB 운용 기업을 대상으로 DB적립금의 효율적 운용전략에 대한 세미나를 개최했다고 18일 밝혔다.세미나는 DB형 퇴직연금 운용에 대한 기업 담당자들의 이해와 공감을 높이고자 마련됐다. 시장금리와 경제전망 적립금 투자전략과 적립금운용위원회 운영 경영성과급 DC제도 적립을 통한 절세전략을 주제로 최근 금리 변동성에 대응하는 DB 적립금의 효율적인 운용전략 전반에 대해 전문가 강연이 이어졌다.연말에 대부분의 자금이 집행되는 DB형 퇴직연금은 최근 고금리가 장기화되면서 금리 수혜를 적극 활용하는 한편 금리 하락도 대비하려는 기업의 수요가 늘었다. 지난해 도입된 연간 적립금 운용위원회와 적립금 운용계획서 작성에 따라 실무적인 지원도 필요한 시점이다. 관심이 커진 만큼 기업의 참석 신청도 몰렸다. 한국투자증권은 이번에 참석하지 못한 기업을 위해 24일 추가 세미나를 개최할 예정이다.홍덕규 퇴직연금본부장은 한국투자증권의 전문화된 운용전략을 통해 금리 변동성이 커진 상황에서 기업에 다양한 상품을 제공하고 장기적인 관점에서 포트폴리오를 다변화해 DB 적립금 운용목표를 달성할 수 있도록 지원할 계획이라고 말했다.</t>
+  </si>
+  <si>
+    <t>[{'퇴직연금 DB': 8}, {'퇴직연금 DC': 11}, {'확정급여형': 16}, {'경영성과급 DC': 12}, {'퇴직연금 적립금': 15}, {'퇴직연금 제도 도입': 15}, {'한국투자 퇴직연금': 12}, {'퇴직연금 포트폴리오': 12}]</t>
+  </si>
+  <si>
+    <t>한국투자증권은 DB적립금의 효율적 운용전략에 대한 세미나를 개최하여 퇴직연금의 운용 전략과 관련된 내용을 다루었다.</t>
+  </si>
+  <si>
+    <t>기사에는 경쟁 동향에 대한 내용이 없다.</t>
+  </si>
+  <si>
+    <t>기사에서는 금리 변동성에 대응하는 DB 적립금의 효율적인 운용전략에 대해 언급하였다.</t>
+  </si>
+  <si>
+    <t>기사에는 법적 및 규제 변화에 대한 내용이 없다.</t>
+  </si>
+  <si>
+    <t>기사에는 인구 변화에 대한 내용이 없다.</t>
+  </si>
+  <si>
+    <t>기사에는 기술 및 디지털화에 대한 내용이 없다.</t>
+  </si>
+  <si>
+    <t>기사에는 소비 행동 및 요구사항에 대한 내용이 없다.</t>
+  </si>
+  <si>
+    <t>No relevant information</t>
+  </si>
+  <si>
+    <t>삼성자산운용, 美 채권형 ETF 3종 상장…블랙록 '맞손'</t>
+  </si>
+  <si>
+    <t>삼성자산운용이 글로벌 1위 자산운용사 블랙록의 대표 채권 상장지수펀드 ETF인 iShares ETF 3종을 국내 시장에 선보인다. 이번 KODEX iShares ETF를 통해 국내 투자자들은 글로벌 최대 ETF 운용사 블랙록의 우수한 투자상품에 합리적인 비용으로 편리한 투자를 할 수 있게 됐으며 특히 국내 상장 상품인 만큼 별도의 환전 비용없이 퇴직연금 및 연금저축 계좌에서도 최대 100까지 투자가 가능하다.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/018/0005598393?sid=101</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 삼성자산운용이 글로벌 1위 자산운용사 블랙록 BlackRock의 대표 채권 상장지수펀드 ETF인 iShares ETF 3종을 국내 시장에 선보인다. 삼성자산운용이 블랙록과 제휴해 19일 신규 상장하는 미국채권 ETF는 KODEX iShares 미국 하이일드 액티브 ETF KODEX iShares 미국 투자등급 회사채 액티브 ETF KODEX iShares 미국 인플레이션 국채 액티브 ETF 3종이다. 이 ETF 3종은 각각 블랙록의 대표 채권형 ETF인 USHY LQD TIP에 1대 1 재간접 형태로 투자하며 미국 채권에서 발생하는 이자 수익을 활용해 매월 분배금을 지급하는 월분배형 채권ETF다.이번 KODEX iShares ETF를 통해 국내 투자자들은 글로벌 최대 ETF 운용사 블랙록의 우수한 투자상품에 합리적인 비용으로 편리한 투자를 할 수 있게 됐으며 특히 국내 상장 상품인 만큼 별도의 환전 비용없이 퇴직연금 및 연금저축 계좌에서도 최대 100까지 투자가 가능하다. 또한 환노출형 구조로 달러 자산에 대한 투자를 선호하는 투자자들에게 더욱 적합하며 환헤지 비용이 없어 더 많은 분배금을 지급할 수 있게 됐다. 3가지 상품 중 시장의 관심은 하이일드 ETF에 보다 집중될 것으로 예상된다. 분배율 수준이 기존 월분배형 채권ETF 대비 월등히 높은 연 7 수준에 육박해 월분배형 상품에 관심이 높은 투자자들에게 새로운 투자 대안이 될 수 있기 때문이다.KODEX iShares 미국 하이일드 액티브 ETF는 블랙록의 대표적인 하이일드 ETF인 USHY iShares Broad High Yield Corporate Bond ETF에 투자하는 재간접 상품으로 다양한 만기의 회사채로 구성된 고수익 채권 ETF이다. 블랙록의 USHY는 상품 규모가 88억 달러로 약 1884개에 달하는 상품에 분산투자함으로써 안정성을 높였으며 이를 토대로 최근 5년간 연 5.07.5 수준의 분배율을 지켜왔다. USHY의 9월말 기준 연간 분배율은 약 6.92이며 수정 듀레이션은 3.82년이다. 국내에는 글로벌 등급 기준으로 하이일드 채권을 발행하는 기업이 제한적이지만 미국의 경우 포드 Ford 롤스로이스 Rolls Royce 아메리칸 에어라인 American Airlines 넥스트에라 에너지 Nextera Energy 윈덤 호텔 앤 리조트 WYNDHAM Hotels resorts 등 다수의 대기업이 포진해 있다.이 ETF에 투자하면 미국 하이일드의 매력적인 분배율을 그대로 적용받으면서도 채권 자산의 특성상 이자수입을 바탕으로 분배금 규모가 결정되는 만큼 일부 주식형 월배당 상품들과 달리 본 자산을 훼손하지 않고도 분배금의 변동성을 낮게 가져갈 수 있다. 한편 미국 투자등급 회사채 ETF는 말 그대로 정통 미국 대표 채권형 상품에 투자하기 원하는 개인과 기관투자자들의 주목을 받을 것으로 전망된다. KODEX iShares 미국 투자등급 회사채 액티브 ETF는 2002년 7월 상장한 세계 최초의 채권형 ETF이자 일명 미국 회사채 ETF의 정석으로 통하는 LQD iShares iBoxx Investment Grade Corporate Bond ETF에 투자한다. 미국 최대 규모의 종합 회사채 ETF인 만큼 매우 풍부한 유동성이 장점이며 글로벌 초우량 회사채 시장에 편리하게 투자할 수 있다. 마이크로소프트 존슨앤존슨 등 안정적 투자처인 464개 기업 2668 종목 채권에 투자한다. 주식 위주의 포트폴리오에서 분산 투자 목적으로 자산 일부를 채권으로 배분할 때 효과적이다. LQD의 연간 분배율은 약 4.75 수정 듀레이션은 8.42년이다.이외에 KODEX iShares 미국 인플레이션 국채 액티브 ETF는 미국 최대 규모의 인플레이션 국채 ETF인 TIP iShares TIPS Bond ETF에 투자한다. 미국 인플레이션 국채 ETF는 미국 소비자물가지수의 영향을 받아 변동되므로 물가상승 위험에 대응할 수 있다. 이 ETF에 투자하면 장기 투자에 최적화된 인플레이션 국채 투자도 ETF로 편리하게 접근할 수 있으며 저성장 고인플레이션 예상 국면에서 가장 유리한 투자 수단이 될 수 있다. TIP의 연간 분배율은 약 2.0 수정 듀레이션은 6.53년이다. 임태혁 삼성자산운용 ETF운용본부장은 삼성자산운용과 블랙록의 이번 콜라보레이션은 대한민국 1등 ETF 운용사와 글로벌 1등 ETF 운용사의 역량을 합쳐 한국 투자자분들을 위한 다양하고 선진적인 투자상품 공급은 물론 투자의 편리함과 비용 효율 측면에서 최고의 솔루션을 제공하는 것을 목표로 이루어졌다고 말했다. 이어 그는 Kodex iShares 미국채권형 ETF 3종은 주식형 상품 위주로 구성됐던 기존의 국내 월배당 ETF 시장에서 안정 선호형 투자자들에게 새로운 좋은 대안이 될 것이라고 말했다.</t>
+  </si>
+  <si>
+    <t>[{'삼성 퇴직연금': 16}, {'퇴직연금 ETF': 17}, {'퇴직연금 채권': 18}]</t>
+  </si>
+  <si>
+    <t>삼성자산운용이 블랙록과 제휴해 글로벌 최대 ETF 운용사의 우수한 투자상품을 국내 투자자들에게 제공하고 있다.</t>
+  </si>
+  <si>
+    <t>KODEX iShares ETF는 국내 상장 상품으로 별도의 환전 비용 없이 퇴직연금 및 연금저축 계좌에서도 투자가 가능하다.</t>
+  </si>
+  <si>
+    <t>해당 기사에는 금융 시장의 변동성이나 투자 자산의 변화에 대한 내용이 없다.</t>
+  </si>
+  <si>
+    <t>해당 기사에는 법적이나 규제적인 변화에 대한 내용이 없다.</t>
+  </si>
+  <si>
+    <t>해당 기사에는 인구 변화나 연금 기금의 장기적인 지속 가능성에 대한 내용이 없다.</t>
+  </si>
+  <si>
+    <t>해당 기사에는 소비 행동 및 요구사항에 대한 내용이 없다.</t>
+  </si>
+  <si>
+    <t>방치했더니 수익률 3배 차이! 디폴트옵션 모르는 당신은 ‘연금 바보’</t>
+  </si>
+  <si>
+    <t>퇴직연금 적립금은 매우 떨어지고 있다. 디폴트옵션 상품의 수익률은 퇴직연금 10년 평균 수익률인 1.92와 비교하면 약 3배에 달한다. 디폴트옵션은 가입자가 적립금 운용을 지시하지 않을 때 대비하기 위한 제도이다.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/009/0005201069?sid=004</t>
+  </si>
+  <si>
+    <t>내일 당장 은퇴해야 한다면 공포감을 느꼈다면 원인은 부족한 노후 준비일 것이다. 노동인구 부족자금 고갈 등의 문제로 국민연금 지급 시기는 점차 늦춰질 것으로 예상된다. 은퇴 이후 연금을 받을 때까지 소득이 없는 기간을 의미하는 소득 크레바스는 갈수록 길어지고 있다. 이를 헤쳐나갈 대안 중 하나인 퇴직연금의 중요성은 당장 체감이 어렵지만 은퇴를 앞둔 이들에게는 생존의 문제로 다가온다.마주한 현실은 참담한 수준이다. 우리나라의 퇴직연금 적립금은 지난해 말 기준으로 332조원에 이르지만 적립금의 수익률은 연금 선진국 대비 매우 떨어진다. 우리나라의 퇴직연금 5년간 평균 수익률은 2.4 수준으로 미국 호주 영국의 79대에 비해 낮은 수준이다. 원인은 적립금 대부분이 비교적 낮은 금리의 예금 상품에 편중돼 운용한 결과로 꼽힌다.디폴트옵션 상품 수익률 차이커지난 7월 12일 디폴트옵션 Default Option이 전면 시행됐다. 확정기여형 퇴직연금 DC이나 개인형퇴직연금 IRP 가입 고객은 근로자 퇴직연금보장법에 따라 반드시 하나의 디폴트옵션 상품에 가입해야 한다. 디폴트옵션 시행 이전 가입자의 퇴직연금 상품 만기 도래 시 만기 전 영업일까지 별도의 의사표시가 없으면 같은 상품으로 자동 재예치가 되었다. 7월 12일 이후 만기가 도래하는 상품은 대기성 계정인 고유계정으로 입금되어 운용된다.이전과 같이 관성적인 운용을 지속하면 퇴직연금의 운용수익률이 낮아질 수 있는 만큼 별도의 운용을 지시하도록 유도하는 제도가 바로 디폴트옵션 사전지정운용이라 할 수 있다. 이 제도가 도입된 취지는 퇴직연금 수익률이 낮아 노후 소득 보장 효과가 미미했기 때문에 퇴직연금 적립금을 주식 펀드 등에 투자해 수익률을 높여보자는 것이다.시작은 나쁘지 않다. 고용노동부와 금융감독원은 디폴트옵션 상품의 수익률을 공시하고 있다. 올 1분기와 2분기 디폴트옵션 상품의 성적을 살펴보면 296개 승인상품 중 223개가 판매 운용 중이며 상품의 6개월 평균 수익률은 약 5.8로 퇴직연금 10년 평균 수익률인 1.92와 비교하면 약 3배에 달한다. 6개월 기준 가장 높은 수익률을 기록한 상품은 KB국민은행 디폴트옵션 고위험 포트폴리오 1로 무려 14.16의 수익률을 거두기도 했다.2023년 6월 말 기준 디폴트옵션 상품 적립금은 총 1조1018억원 DC 3006억원 IRP 8012억원으로 1조원을 달성하기도 했다.모르면 6주간 방치되는 퇴직연금퇴직연금 가입 근로자가 디폴트옵션을 지정해도 당장 기존 운용 상품이 변경되지는 않는다. 디폴트옵션은 퇴직연금 가입자가 가입한 금융 상품이 만기가 도래했는데도 운용 지시를 하지 않았을 때 비로소 적용된다. 펀드처럼 만기가 없는 실적배당 상품에는 디폴트옵션이 적용되지 않는다. 정기예금 이율보증보험 ELB 등 만기가 있는 원리금 보장 상품에 디폴트옵션이 적용된다. 실적 배당 상품 중에도 만기가 정해져 있는 자산은 디폴트옵션 적용 대상이다. 따라서 만기가 있는 금융 상품에 가입하고 있다면 만기가 언제 도래하는지 확인해봐야 한다.가입자가 만기 상환 금액에 대해 운용 지시하지 않으면 디폴트옵션이 적용될 때까지 현금성 자산으로 남아 낮은 금리로 운용된다.기존 상품의 만기가 도래했는데도 가입자가 별도로 운용 지시하지 않은 상태에서 자금이 방치되는 시간은 총 6주다. 상품 만기 도래 후 4주간의 운용 지시가 없으면 금융회사가 디폴트옵션 적용 예정임을 가입자에게 통지하고 그 이후에도 2주 안에 운용 지시가 없으면 디폴트옵션이 적용되는 방식이기 때문이다. 가입자가 자신의 연금 운용 방향을 설정했다면 이러한 공백 기간을 최대한 줄이는 게 유리할 수 있다.디폴트옵션 운용 대상 상품은 투자 위험에 따라 초저위험 원금 보존 중시 저위험 투자 손실 민감 중위험 우수한 장기성과 중시 고위험 높은 수익률 추구 및 장기투자 등 4가지 그룹으로 나뉜다.고용노동부와 금감원은 가입자의 합리적인 상품 선택을 돕기 위해 디폴트옵션 상품의 가입 규모 수익률 등 운용 실적을 공시하고 있으니 이를 적극적으로 활용하여 본인의 투자성향을 고려해 디폴트옵션을 지정하면 된다.앱으로 옵트인옵트아웃을 활용상품의 만기가 끝난 후 대기 기간에도 가입자는 가입한 금융사의 모바일 앱이나 웹을 통해 언제든지 운용 지시를 할 수 있다. 디폴트옵션 상품에도 먼저 가입이 가능하다. 이때 가입자는 부담금과 만기 상환 금액 중 일부에 대해서만도 운용 지시를 할 수 있다. 이러면 운용 지시하고 남은 금액에만 디폴트옵션이 적용된다. 예를 들어 만기 상환 금액 900만원 중에서 200만원에 대해서만 운용 지시했다면 나머지 700만원에 디폴트옵션이 적용된다. 가입자가 희망하면 디폴트옵션 적용 예정인 자금을 추후 운용을 위해 계속해서 현금성 자산으로 남겨둘 수도 있다.만약 DC IRP 가입자가 법적 의무인 디폴트옵션 지정을 미룬다고 하여 처벌이나 과태료를 부과받는 것은 아니다.한편 고객이 거래 금융기관이 제시하는 디폴트옵션 상품의 우수성을 인지하여 직접 운용하는 것도 가능하다. 이를 옵트인 Optin이라고 한다. 또한 이미 운용 중인 디폴트옵션 상품을 다른 상품으로 변경할 수도 있다. 디폴트옵션은 어디까지나 가입자가 적립금 운용을 지시하지 않을 때 대비하기 위한 제도이므로 가입자가 원하면 언제든지 운용 중인 디폴트옵션 상품을 다른 상품으로 바꿀 수 있다. 이렇게 상품을 바꾸는 것을 옵트아웃 Optout이라 하는데 별도로 의사표시를 할 필요는 없다. 운용 중인 디폴트옵션 상품을 매도하고 다른 상품을 매수하면 된다.디폴트옵션 상품의 운용과 관련된 정보는 고용노동부와 금감원 홈페이지에서 개별 상품의 적립 금액 운용 현황 수익률 등을 확인할 수 있다. 수익률은 원리금 보장 상품은 공시 시점에 적용되는 적용 이율로 공시하고 펀드 상품은 과거 기간 수익률을 공시한다. 펀드로 구성된 포트폴리오는 개별 펀드의 과거 기간 수익률을 가중평균해 공시하고 원리금 보장 상품과 펀드가 혼합된 포트폴리오는 원리금 보장 상품의 과거 공시 금리를 기준으로 펀드의 과거 기간 수익률과 가중평균해 공시한다. 장기간 운용하는 퇴직연금인 만큼 장기 수익률과 운용보수를 비교해 살펴보는 것이 좋다.디폴트옵션으로 펀드 투자하는 법디폴트옵션 관련법에서는 타깃데이트펀드 TDF 밸런스드펀드 BF 스테이블밸류펀드 SVF SOC펀드만 디폴트옵션이 될 수 있다고 정하고 있다. 하지만 스테이블밸류펀드와 SOC펀드는 단독으로 디폴트옵션 상품이 될 수 없다. 따라서 단독으로 디폴트옵션 상품이 될 수 있는 펀드는 TDF와 밸런스드펀드라고 봐도 무방하다.먼저 TDF는 Target Date Fund의 영문 머리글자를 조합해서 만든 말이다. 우리말로 하면 목표시점 펀드라고 할 수 있다. TDF는 적립금을 다양한 국가와 자산에 분산해서 투자하고 목표시점에 맞춰 펀드 내 자산 편입 비중을 자동으로 조정해준다. 자산 비중 조절은 미리 정한 경로에 따라 진행된다. 목표시점까지 기간이 많이 남았을 때는 주식과 같이 변동성이 큰 자산의 비중을 높게 유지하다가 시간이 지나면서 차츰 그 비중을 낮춰나가는 경우가 많다. 이렇게 시간 흐름에 따라 주식 등 위험자산 비중이 차츰 줄어드는 모습이 비행기가 착륙하는 경로를 닮았다고 해서 글라이드패스 Glide Path라고도 부른다.TDF를 디폴트옵션 상품으로 선택할 때는 반드시 목표시점을 확인해야 한다. TDF 상품 이름에 네 자리 숫자가 들어 있는데 TDF의 목표시점을 나타낸다. 2030 2040 등이 붙은 상품 이름은 해당 시점 무렵에 은퇴할 예정인 투자자를 위한 상품이라고 할 수 있다. 목표시점을 표시하는 네 자리 숫자를 TDF에서는 빈티지 Vintage라 부르기도 한다.다음으로 밸런스드펀드 BF는 투자위험이 다른 다양한 자산에 분산 투자하고 금융 시장 상황과 펀드 내 자산가치 변동 등을 고려해 주기적으로 자산 비중을 조절하는 펀드다. TDF와 밸런스드펀드는 모두 주식과 채권 등 다양한 자산에 분산 투자하는 자산배분펀드라는 점에서는 같지만 밸런스드펀드는 가입자의 투자성향이 변하지 않는다고 가정한다. 그래서 시간의 경과와 무관하게 정해진 자산 배분 비중을 일정하게 유지한다. 따라서 밸런스드펀드를 선택할 때는 주식 등 위험자산을 최대 얼마까지 편입할 수 있는지 점검해야 한다. 그리고 자산 비중을 재조정하는 시기와 방법도 확인해야 한다.이외에 펀드와 원리금 보장 상품을 혼합한 포트폴리오 형태의 디폴트옵션 상품도 있다. 다양한 포트폴리오 상품 중 구성하는 상품을 살펴야 한다. 디폴트옵션 상품에는 최대 3개까지 상품을 편입할 수 있다. 포트폴리오는 구성 상품에 따라 펀드형 원리금 보장형 혼합형으로 구분할 수 있다. 단일 상품과 마찬가지로 포트폴리오 상품의 위험 등급도 초저위험 저위험 중위험 고위험의 4단계로 구분한다. 위험 등급은 포트폴리오 내에 포함된 개별 상품의 위험도를 가중평균해서 산출하므로 투자성향에 따라 고를 수 있다.QA로 보는 디폴트옵션Q. 디폴트옵션 가입 유형은퇴직연금은 기업 사용자이 적립금을 운용하는 확정급여형 DB 가입자가 직접 적립금을 운용하는 확정기여형 DC 개인형퇴직연금 IRP 총 3종류가 있다. 확정급여형은 디폴트옵션 대상이 아니며 나머지 2가지 유형은 의무다.Q. DC형 퇴직연금과 IRP의 디폴트옵션 상품을 다르게 선택할 수 있을까DC형 퇴직연금 가입자는 연말정산 세액공제 등을 목적으로 IRP에 가입할 수 있다. DC형 퇴직연금과 IRP 계좌 모두를 가지고 있는 경우에는 각각 디폴트옵션 상품을 선정해야 한다. 이때 디폴트옵션 상품은 다른 것을 선택할 수 있다.Q. 디폴트옵션 상품을 여러 개 선택할 수 있을까가입자는 퇴직연금 사업자가 제시하는 디폴트옵션 상품 중에서 하나만 선택할 수 있다. 이미 퇴직연금 적립금을 디폴트옵션 상품에 투자하고 있는 경우에는 다른 디폴트옵션 상품에는 적립금을 투자할 수 없다. 하지만 운용 중인 디폴트옵션 상품이 하나일 때 해당 상품을 추가로 매수할 수는 있다.Q. 이미 디폴트옵션이 적용되고 있는데 디폴트옵션 상품을 변경할 수 있을까가능하다. 디폴트옵션이 적용된 이후에도 언제든지 디폴트옵션 상품을 변경할 수 있다. 이 경우 기존에 운용 중이던 디폴트옵션 상품은 그대로 운용되고 이후 새로이 납부되는 금액부터는 디폴트옵션 절차에 따라 새로 지정한 디폴트옵션 상품으로 운용된다.박지훈 기자</t>
+  </si>
+  <si>
+    <t>['퇴직연금 DB', '퇴직연금 DC', '퇴직연금 IRP', '확정기여형', '확정급여형', '개인형퇴직연금', '디폴트옵션', '옵트인', '퇴직연금 연말정산', '퇴직연금 사업자', '퇴직연금 적립금', '퇴직연금 제도 도입', '옵트아웃', '퇴직연금 규모', '퇴직연금 세액공제', '퇴직연금 고용노동부', '퇴직연금 금융감독원', 'KB 퇴직연금', '하나 퇴직연금', '퇴직연금 수익률', '퇴직연금 포트폴리오', '퇴직연금 TDF', '퇴직연금 자산배분', '퇴직연금 가입', '퇴직연금 펀드', '퇴직연금 예금', '퇴직연금 채권', '퇴직연금 장기 투자', '디폴트옵션 포트폴리오']</t>
+  </si>
+  <si>
+    <t>[{'퇴직연금 DB': 54}, {'퇴직연금 DC': 38}, {'퇴직연금 IRP': 48}, {'확정기여형': 4}, {'확정급여형': 2}, {'개인형퇴직연금': 11}, {'디폴트옵션': 2}, {'옵트인': 1}, {'퇴직연금 연말정산': 1}, {'퇴직연금 사업자': 3}, {'퇴직연금 적립금': 45}, {'퇴직연금 제도 도입': 40}, {'옵트아웃': 3}, {'퇴직연금 규모': 14}, {'퇴직연금 세액공제': 11}, {'퇴직연금 고용노동부': 1}, {'퇴직연금 금융감독원': 10}, {'KB 퇴직연금': 3}, {'하나 퇴직연금': 5}, {'퇴직연금 수익률': 11}, {'퇴직연금 포트폴리오': 48}, {'퇴직연금 TDF': 4}, {'퇴직연금 자산배분': 1}, {'퇴직연금 가입': 11}, {'퇴직연금 펀드': 3}, {'퇴직연금 예금': 20}, {'퇴직연금 채권': 44}, {'퇴직연금 장기 투자': 9}, {'디폴트옵션 포트폴리오': 2}]</t>
+  </si>
+  <si>
+    <t>퇴직연금 적립금의 수익률이 매우 떨어지고 있어서</t>
+  </si>
+  <si>
+    <t>경쟁 동향에 대한 정보가 없음</t>
+  </si>
+  <si>
+    <t>금융 시장의 변동이나 투자 자산의 변동성에 대한 정보가 없음</t>
+  </si>
+  <si>
+    <t>법률 및 규제 변경에 대한 정보가 없음</t>
+  </si>
+  <si>
+    <t>노령화와 관련된 정보가 없음</t>
+  </si>
+  <si>
+    <t>기술과 디지털화에 대한 정보가 없음</t>
+  </si>
+  <si>
+    <t>소비 행동 및 요구사항에 대한 정보가 없음</t>
   </si>
   <si>
     <t>2023-10-17</t>
   </si>
   <si>
-    <t>퇴직연금 제도</t>
-  </si>
-  <si>
     <t>한투 / 토스뱅크</t>
   </si>
   <si>
@@ -228,7 +1536,130 @@
     <t>이 기사에서는 퇴직연금 수령자의 소비 패턴과 요구사항에 대한 내용이 언급되었으므로 2점을 주었다.</t>
   </si>
   <si>
-    <t>타사 동향 및 이벤트</t>
+    <t>한국투자증권, 증권사 최초 토스뱅크와 IRP 계좌개설 제휴</t>
+  </si>
+  <si>
+    <t>한국투자증권은 토스뱅크 모바일 앱에서 개인형 퇴직연금 IRP 계좌개설 서비스를 제공한다고 밝혔다. 이번 제휴를 통해 토스뱅크 고객은 앱 내 목돈굴리기 메뉴에서 간편하게 IRP계좌를 개설할 수 있게 됐다. 한국투자증권은 인터넷은행과의 협업을 통해 자산관리 시너지 제고에 힘쓰고 있다.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/018/0005598133?sid=101</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 한국금융지주 071050의 자회사 한국투자증권은 토스뱅크 모바일 앱에서 개인형 퇴직연금 IRP 계좌개설 서비스를 제공한다고 17일 밝혔다. 토스뱅크를 통한 증권사 퇴직연금 제휴 서비스는 이번이 처음이다.이번 제휴를 통해 토스뱅크 고객은 앱 내 목돈굴리기 메뉴에서 간편하게 IRP계좌를 개설할 수 있게 됐다. IRP는 퇴직금이나 여유자금을 납입해 개인이 직접 운용할 수 있는 퇴직연금 계좌다. 연간 900만원까지 최대 16.5 세액 공제가 가능하며 운용수익 과세 이연 및 퇴직소득세 절세 효과가 있어 활용도가 높다.또한 토스뱅크를 통해 계좌를 만든 후 납입 한도까지 설정한 선착순 3천명에게는 백화점상품권 1만원도 지급한다. 납입 한도 설정은 한국투자증권 퇴직연금 전용 앱 마이 my연금에서 할 수 있다.한편 한국투자증권은 인터넷은행과의 협업을 통해 자산관리 시너지 제고에 힘쓰고 있다. 카카오뱅크 토스뱅크 K뱅크까지 인터넷은행 3사와 모두 증권계좌 개설 제휴를 맺었고 토스뱅크 앱을 통해 채권 발행어음 등 다양한 금융상품을 소개하고 있다.홍덕규 퇴직연금본부장은 증권사 IRP계좌는 상장지수펀드 ETF 실시간 거래가 가능하며 비대면 개설 시 운용 및 자산관리 수수료도 없다면서 이번 제휴를 계기로 토스뱅크 고객들이 퇴직연금자산을 효과적으로 운용할 수 있도록 다양한 이벤트를 준비하겠다고 말했다. </t>
+  </si>
+  <si>
+    <t>['퇴직연금 IRP', 'IRP 수수료', '퇴직소득세', 'IRP 이벤트', '한국투자 퇴직연금']</t>
+  </si>
+  <si>
+    <t>[{'퇴직연금 IRP': 6}, {'퇴직연금 IRP': 10}, {'퇴직연금 IRP': 11}, {'퇴직연금 IRP': 13}, {'퇴직연금 IRP': 19}, {'퇴직연금 IRP': 21}, {'퇴직연금 IRP': 22}, {'퇴직연금 IRP': 23}, {'퇴직연금 IRP': 30}, {'퇴직연금 IRP': 34}, {'퇴직연금 IRP': 36}, {'퇴직연금 IRP': 37}, {'퇴직연금 IRP': 39}, {'퇴직연금 IRP': 43}, {'퇴직연금 IRP': 45}, {'퇴직연금 IRP': 47}, {'퇴직연금 IRP': 49}, {'퇴직연금 IRP': 50}, {'퇴직연금 IRP': 52}, {'IRP 수수료': 4}, {'IRP 수수료': 8}, {'IRP 수수료': 10}, {'IRP 수수료': 15}, {'IRP 수수료': 17}, {'IRP 수수료': 18}, {'IRP 수수료': 19}, {'IRP 수수료': 23}, {'IRP 수수료': 26}, {'IRP 수수료': 27}, {'IRP 수수료': 28}, {'IRP 수수료': 31}, {'IRP 수수료': 34}, {'IRP 수수료': 36}, {'IRP 수수료': 37}, {'IRP 수수료': 39}, {'IRP 수수료': 40}, {'IRP 수수료': 42}, {'퇴직소득세': 20}, {'퇴직소득세': 24}, {'퇴직소득세': 25}, {'퇴직소득세': 27}, {'퇴직소득세': 34}, {'퇴직소득세': 37}, {'퇴직소득세': 38}, {'퇴직소득세': 44}, {'퇴직소득세': 48}, {'퇴직소득세': 49}, {'퇴직소득세': 50}, {'퇴직소득세': 52}, {'퇴직소득세': 56}, {'IRP 이벤트': 4}, {'IRP 이벤트': 8}, {'IRP 이벤트': 14}, {'IRP 이벤트': 16}, {'IRP 이벤트': 17}, {'IRP 이벤트': 18}, {'IRP 이벤트': 22}, {'IRP 이벤트': 25}, {'IRP 이벤트': 26}, {'IRP 이벤트': 27}, {'IRP 이벤트': 30}, {'IRP 이벤트': 33}, {'IRP 이벤트': 36}, {'IRP 이벤트': 37}, {'IRP 이벤트': 39}, {'IRP 이벤트': 40}, {'IRP 이벤트': 42}, {'한국투자 퇴직연금': 4}, {'한국투자 퇴직연금': 9}, {'한국투자 퇴직연금': 10}, {'한국투자 퇴직연금': 11}, {'한국투자 퇴직연금': 15}, {'한국투자 퇴직연금': 19}, {'한국투자 퇴직연금': 20}, {'한국투자 퇴직연금': 21}, {'한국투자 퇴직연금': 25}, {'한국투자 퇴직연금': 28}, {'한국투자 퇴직연금': 29}, {'한국투자 퇴직연금': 30}, {'한국투자 퇴직연금': 32}, {'한국투자 퇴직연금': 35}, {'한국투자 퇴직연금': 37}, {'한국투자 퇴직연금': 38}, {'한국투자 퇴직연금': 39}, {'한국투자 퇴직연금': 40}, {'한국투자 퇴직연금': 43}]</t>
+  </si>
+  <si>
+    <t>한국투자증권은 퇴직연금 IRP 계좌개설 서비스를 제공하고 있으며, 이는 pension fund management와 관련된 내용이다.</t>
+  </si>
+  <si>
+    <t>이번 제휴를 통해 토스뱅크 고객은 퇴직연금 IRP 계좌를 개설할 수 있게 되었으며, 이는 retirement pension companies의 competition trends와 관련된 내용이다.</t>
+  </si>
+  <si>
+    <t>한국투자증권은 인터넷은행과의 협업을 통해 자산관리 시너지 제고에 힘쓰고 있으며, 이는 financial market impact와 관련된 내용이다.</t>
+  </si>
+  <si>
+    <t>한국투자증권 “토스뱅크와 퇴직연금 서비스 제휴”</t>
+  </si>
+  <si>
+    <t>한국투자증권이 토스뱅크 모바일 앱에서 개인형 퇴직연금 IRP 계좌개설 서비스를 제공한다고 밝혔다. 토스뱅크 고객은 모바일 앱에서 간편하게 IRP 계좌를 개설할 수 있다. 한국투자증권은 계좌를 만든 후 납입 한도까지 설정한 선착순 3000명에게 백화점상품권 1만원을 지급할 예정이다.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/366/0000940013?sid=101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  한국투자증권이 토스뱅크 모바일 앱에서 개인형 퇴직연금 IRP 계좌개설 서비스를 제공한다고 17일 밝혔다.  이번 제휴를 통해 토스뱅크 고객은 모바일 앱의 목돈 굴리기 메뉴에서 간편하게 IRP 계좌를 개설할 수 있다. IRP는 퇴직금이나 여유자금을 납입해 개인이 직접 운용할 수 있는 퇴직연금 계좌다. 연간 900만원까지 최대 16.5 세액 공제가 가능하다. 또 운용수익 과세 이연 및 퇴직소득세 절세 효과가 있다.한국투자증권은 토스뱅크를 통해 계좌를 만든 후 납입 한도까지 설정한 선착순 3000명에게 백화점상품권 1만원을 지급할 예정이다.홍덕규 퇴직연금본부장은 이번 제휴를 계기로 토스뱅크 고객들이 퇴직연금 자산을 효과적으로 운용할 수 있도록 다양한 이벤트를 준비하겠다고 말했다.</t>
+  </si>
+  <si>
+    <t>['퇴직연금 IRP', '개인형퇴직연금', '퇴직소득세', '퇴직연금 이벤트', '퇴직연금 세액공제', '한국투자 퇴직연금', '퇴직연금 서비스 ']</t>
+  </si>
+  <si>
+    <t>[{'퇴직연금 IRP': 3}, {'개인형퇴직연금': 1}, {'퇴직소득세': 1}, {'퇴직연금 이벤트': 1}, {'퇴직연금 세액공제': 1}, {'한국투자 퇴직연금': 7}, {'퇴직연금 서비스 ': 1}]</t>
+  </si>
+  <si>
+    <t>한국투자증권이 토스뱅크 모바일 앱에서 개인형 퇴직연금 IRP 계좌개설 서비스를 제공한다는 내용이 있으나, 자세한 펀드 관리 전략이나 수익률 등에 대한 정보는 제공되지 않았다.</t>
+  </si>
+  <si>
+    <t>이 기사에서는 토스뱅크와 한국투자증권의 제휴를 통해 개인형 퇴직연금 IRP 계좌개설 서비스를 제공한다는 내용이 주요하게 다루어졌다. 이는 새로운 제품 및 서비스를 출시하고 시장 점유율을 확보하기 위한 경쟁 동향을 나타낸다.</t>
+  </si>
+  <si>
+    <t>금융 시장의 변동성이나 투자 자산의 변화에 대한 내용은 제공되지 않았다.</t>
+  </si>
+  <si>
+    <t>법률 및 규제 변화에 대한 내용은 제공되지 않았다.</t>
+  </si>
+  <si>
+    <t>노령화와 관련된 내용이나 퇴직연금이 장기적인 지속 가능성에 미치는 영향에 대한 내용은 제공되지 않았다.</t>
+  </si>
+  <si>
+    <t>기사에서는 기술과 디지털화에 대한 내용이 다루어지지 않았다.</t>
+  </si>
+  <si>
+    <t>소비 행동 및 요구사항에 대한 내용은 제공되지 않았다.</t>
+  </si>
+  <si>
+    <t>한국투자증권, 토스뱅크서 IRP 계좌 개설 가능</t>
+  </si>
+  <si>
+    <t>한국투자증권이 토스뱅크 모바일 앱에서 IRP 개인형 퇴직연금 계좌개설 서비스를 제공한다고 밝혔다. 이번 제휴를 통해 토스뱅크 고객은 앱 내 목돈굴리기 메뉴에서 간편하게 IRP계좌를 개설할 수 있게 됐다. IRP는 퇴직금이나 여유자금을 납입해 개인이 직접 운용할 수 있는 퇴직연금 계좌다.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/468/0000990734?sid=101</t>
+  </si>
+  <si>
+    <t>사진한국투자증권 한국투자증권이 토스뱅크 모바일 앱에서 IRP 개인형 퇴직연금 계좌개설 서비스를 제공한다고 17일 밝혔다.이번 제휴를 통해 토스뱅크 고객은 앱 내 목돈굴리기 메뉴에서 간편하게 IRP계좌를 개설할 수 있게 됐다. IRP는 퇴직금이나 여유자금을 납입해 개인이 직접 운용할 수 있는 퇴직연금 계좌다. 연간 900만원까지 최대 16.5 세액 공제가 가능하며 운용수익 과세 이연 및 퇴직소득세 절세 효과가 있어 활용도가 높다.또한 토스뱅크를 통해 계좌를 만든 후 납입 한도까지 설정한 선착순 3000명에게는 백화점상품권 1만원도 지급한다. 납입 한도 설정은 한국투자증권 퇴직연금 전용 앱 my연금에서 할 수 있다.홍덕규 퇴직연금본부장은 증권사 IRP계좌는 ETF 실시간 거래가 가능하며 비대면 개설 시 운용 및 자산관리 수수료도 없다며 이번 제휴를 계기로 토스뱅크 고객들이 퇴직연금자산을 효과적으로 운용할 수 있도록 다양한 이벤트를 준비하겠다고 말했다.shhong0820sportsseoul.com</t>
+  </si>
+  <si>
+    <t>[{'퇴직연금 IRP': 4}, {'IRP 수수료': 2}, {'퇴직소득세': 18}, {'IRP 이벤트': 2}, {'한국투자 퇴직연금': 2}]</t>
+  </si>
+  <si>
+    <t>한국투자증권이 토스뱅크와 제휴하여 IRP 개인형 퇴직연금 계좌개설 서비스를 제공하는 것은 퇴직연금 기금 운용에 대한 관리 전략과 투자 자산 할당 모니터링에 관련되어 있습니다.</t>
+  </si>
+  <si>
+    <t>이 기사에서는 토스뱅크와 한국투자증권의 제휴와 IRP 계좌 개설 서비스에 대해 언급하고 있으므로, 퇴직연금 기업 간의 경쟁 동향과 새로운 제품 및 서비스 출시에 관련되어 있습니다.</t>
+  </si>
+  <si>
+    <t>이 기사에서는 금융 시장의 움직임, 이자율 변동 및 투자 자산의 변동성이 퇴직연금 산업에 미치는 영향에 대해 언급하고 있습니다.</t>
+  </si>
+  <si>
+    <t>이 기사에서는 법률 및 규제 변경에 대한 언급이 없습니다.</t>
+  </si>
+  <si>
+    <t>이 기사에서는 인구 통계 변화에 대한 언급이 없습니다.</t>
+  </si>
+  <si>
+    <t>이 기사에서는 기술과 디지털화에 대한 언급이 없습니다.</t>
+  </si>
+  <si>
+    <t>이 기사에서는 소비 행동 및 요구사항에 대한 언급이 없습니다.</t>
+  </si>
+  <si>
+    <t>한국투자증권, 토스뱅크와 IRP 계좌개설 제휴…'증권사 최초'</t>
+  </si>
+  <si>
+    <t>한국투자증권은 토스뱅크 모바일 앱에서 IRP 개인형 퇴직연금 계좌개설 서비스를 제공한다고 밝혔다. 이번 제휴로 토스뱅크 고객은 앱 내 목돈굴리기 메뉴에서 간편하게 IRP계좌를 개설할 수 있게 됐다. 한국투자증권은 인터넷은행과의 협업을 통해 자산관리 시너지 제고에 힘쓰고 있다.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/421/0007115614?sid=101</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 서울뉴스1 이기림 기자 한국금융지주 071050 자회사 한국투자증권은 토스뱅크 모바일 앱에서 IRP 개인형 퇴직연금 계좌개설 서비스를 제공한다고 17일 밝혔다. 토스뱅크를 통한 증권사 퇴직연금 제휴 서비스는 이번이 처음이다.이번 제휴로 토스뱅크 고객은 앱 내 목돈굴리기 메뉴에서 간편하게 IRP계좌를 개설할 수 있게 됐다. IRP는 퇴직금이나 여유자금을 납입해 개인이 직접 운용할 수 있는 퇴직연금 계좌다. 연간 900만원까지 최대 16.5 세액 공제가 가능하며 운용수익 과세 이연 및 퇴직소득세 절세 효과가 있어 활용도가 높다.또한 토스뱅크를 통해 계좌를 만든 후 납입 한도까지 설정한 선착순 3천명에게는 백화점상품권 1만원도 지급한다. 납입 한도 설정은 한국투자증권 퇴직연금 전용 앱 my연금에서 할 수 있다.한국투자증권은 인터넷은행과의 협업을 통해 자산관리 시너지 제고에 힘쓰고 있다. 카카오뱅크 토스뱅크 K뱅크까지 인터넷은행 3사와 모두 증권계좌 개설 제휴를 맺었고 토스뱅크 앱을 통해 채권 발행어음 등 다양한 금융상품을 소개하고 있다.홍덕규 한국투자증권 퇴직연금본부장은 증권사 IRP계좌는 ETF 실시간 거래가 가능하며 비대면 개설 시 운용 및 자산관리 수수료도 없다면서 이번 제휴를 계기로 토스뱅크 고객들이 퇴직연금자산을 효과적으로 운용할 수 있도록 다양한 이벤트를 준비하겠다고 말했다.</t>
+  </si>
+  <si>
+    <t>[{'퇴직연금 IRP': 5}, {'퇴직연금 IRP': 32}, {'IRP 수수료': 3}, {'IRP 수수료': 25}, {'퇴직소득세': 19}, {'퇴직소득세': 45}, {'IRP 이벤트': 3}, {'IRP 이벤트': 24}, {'한국투자 퇴직연금': 3}, {'한국투자 퇴직연금': 27}]</t>
+  </si>
+  <si>
+    <t>한국투자증권은 토스뱅크와의 제휴를 통해 IRP 개인형 퇴직연금 계좌개설 서비스를 제공하고 있다.</t>
+  </si>
+  <si>
+    <t>이번 제휴로 토스뱅크 고객은 앱 내 목돈굴리기 메뉴에서 간편하게 IRP계좌를 개설할 수 있게 되었다.</t>
+  </si>
+  <si>
+    <t>한국투자증권은 인터넷은행과의 협업을 통해 자산관리 시너지 제고에 힘쓰고 있다.</t>
   </si>
   <si>
     <t>No relevant information in the article.</t>
@@ -270,10 +1701,7 @@
     <t>노령화와 관련된 정보나 연금 기금의 장기적인 지속 가능성에 대한 언급이 없음</t>
   </si>
   <si>
-    <t>기술과 디지털화에 대한 언급이 없음</t>
-  </si>
-  <si>
-    <t>소비 행동 및 요구사항에 대한 언급이 없음</t>
+    <t>SOL KEDI 메가테크</t>
   </si>
   <si>
     <t>'SOL KEDI 메가테크' 수익률 코스피 앞섰다</t>
@@ -354,9 +1782,6 @@
     <t>기사에는 기술과 디지털화에 관련된 내용이 없다.</t>
   </si>
   <si>
-    <t>기사에는 소비 행동 및 요구사항에 대한 내용이 없다.</t>
-  </si>
-  <si>
     <t>2023-10-16</t>
   </si>
   <si>
@@ -507,18 +1932,9 @@
     <t>광주금융센터는 고객 편의성을 극대화하기 위해 다양한 기술과 서비스를 도입하였다.</t>
   </si>
   <si>
-    <t>No information related to legal and regulatory changes.</t>
-  </si>
-  <si>
-    <t>No information related to demographic change.</t>
-  </si>
-  <si>
     <t>광주금융센터는 다양한 기술과 디지털화를 도입하여 편의성을 제공한다.</t>
   </si>
   <si>
-    <t>No information related to consumption behavior and requirements.</t>
-  </si>
-  <si>
     <t>[단독] 집 사려고 퇴직금 깨는 과학기술인, 해마다 증가</t>
   </si>
   <si>
@@ -588,15 +2004,6 @@
     <t>국민연금 개혁안의 법적 및 규제적 변화 가능성</t>
   </si>
   <si>
-    <t>No information related to demographic change</t>
-  </si>
-  <si>
-    <t>No information related to technology and digitalization</t>
-  </si>
-  <si>
-    <t>No information related to consumption behavior and requirements</t>
-  </si>
-  <si>
     <t>광주·전라권 최대규모…NH투자증권, 광주금융센터 오픈</t>
   </si>
   <si>
@@ -621,9 +2028,6 @@
     <t>광주금융센터에는 30여명의 자산관리 전문가 Advisor를 통해 프라이빗 자산관리서비스를 지원한다.</t>
   </si>
   <si>
-    <t>No information related to technology and digitalization.</t>
-  </si>
-  <si>
     <t>농협</t>
   </si>
   <si>
@@ -750,9 +2154,6 @@
     <t xml:space="preserve"> 미국의 고금리 기조가 이어지면서 미국채권의 이자수익 매력이 커진 가운데 키움투자자산운용이 미국채권에 투자하는 만기매칭형 상장지수펀드 ETF를 국내 최초로 선보인다.키움투자자산운용은 오는 17일 히어로즈 2509 미국채권 AA이상액티브를 유가증권시장에 상장한다고 16일 밝혔다. 만기인 2025년 9월 말까지 보유하면 연 5 안팎의 만기수익률 YTM 실현을 기대할 수 있는 상품이다. 히어로즈 2509 미국채권 AA이상액티브는 만기가 2025년 9월 전후 도래하는 미국 국채와 공사채 회사채 달러표시채권 KP Korean Paper 등에 투자한다. 국제신용등급 AA이상 시가총액 3억달러 이상의 우량 종목만 담는다. 국제신용등급 AA이상 채권은 국내신용등급 기준으로 환산 시 일반적으로 AA이상으로 분류되는 우량등급 채권이다.이 상품을 매수한 뒤 만기까지 보유했을 때 기대할 수 있는 YTM은 지난 9월 말 기준 5.35다 기준일 예상포트폴리오 기준. 매수 이후 금리가 상승 채권가격 하락하더라도 만기채권형 ETF의 특성 상 만기까지 보유하면 당초 투자 시점에 예상한 수익률 실현을 기대할 수 있다. 더 높아진 YTM으로 추가매수할 수도 있다. 반대로 금리가 하락 채권가격 상승할 경우엔 만기 이전에 매도해 자본차익을 얻을 수 있다. 단 YTM은 확정수익률이 아니며 투자 시점별로 상이할 수 있다. YTM은 상품 상장 이후 자산운용사 ETF 홈페이지를 통해 매일 공개된다.이 상품은 환헤지를 하지 않는 환노출형이므로 미국 달러화 가치 변동을 ETF 성과에 반영한다. 원달러환율 상승 달러 강세 시 긍정적 영향을 하락 달러 약세 시 부정적 영향을 받는다.이 상품은 액티브 ETF로 블룸버그가 산출하는 비교지수 Bloomberg USD AA3 Above Select September 2025 Maturity Index 대비 초과성과 달성을 목표로 한다. 저평가된 채권 발굴 금리전망에 따른 듀레이션 조정 등의 전략으로 수익률 향상을 추구할 계획이다.투자 대상 자산이 미국채권인 만기매칭형 ETF가 국내 시장에 나오는 건 이번이 처음이다. 현재 국내 시장에 출시된 만기매칭형 채권 ETF는 총 24개 종목인데 모두 국내 국고채 은행채 회사채 등에 투자하는 상품이다. 키움투자자산운용은 국내채권보다 미국채권의 이자수익 매력이 더 높은 데에 주목해 히어로즈 2509 미국채권 AA이상액티브를 준비했다. 현재 미국 기준금리는 5.255.50로 한국 기준금리보다 최대 2.0포인트 높다. 기준금리를 민감하게 반영하는 단기채권 시장에서도 미국채권의 금리 매력이 두드러진다. 히어로즈 2509 미국채권 AA이상액티브는 연금투자 ETF로도 주목할 만하다. 안전자산으로 분류되는 채권 ETF여서 퇴직연금 및 개인연금 계좌에서 모두 100까지 투자할 수 있다. 연금 계좌를 통한 투자 시 예측가능한 안정적 수익률을 추구하며 마음 편히 연금 자금을 운용하는 동시에 세제혜택까지 누릴 수 있다.정성인 키움투자자산운용 ETF마케팅사업부장은 미국발 금리 급등으로 글로벌 주식시장 변동성이 커진 가운데 안전한 동시에 비교적 높은 이자수익을 제공할 수 있는 미국채권의 매력이 크다며 안정성과 수익률 예측가능성이 높다는 강점을 가진 만기채권형 ETF는 변동성 높아진 시장에서 안정적인 수익을 추구하는 투자자들이 주목해야 할 대안이라고 말했다.</t>
   </si>
   <si>
-    <t>['퇴직연금 ETF', '퇴직연금 채권']</t>
-  </si>
-  <si>
     <t>[{'퇴직연금 ETF': 1}, {'퇴직연금 채권': 1}]</t>
   </si>
   <si>
@@ -768,6 +2169,45 @@
     <t>2023-10-15</t>
   </si>
   <si>
+    <t>앞만 봤더니 40대 중반 “노후 준비되면 당장 은퇴···가능할까요” [재테크...</t>
+  </si>
+  <si>
+    <t>40대 중반 직장인 A씨는 노후준비에 대한 방향성이 잘 설정되지 않았다. 현재 예적금 위주 현금자산을 쌓고 있지만 주변의 임대료 소득이나 배당 소득을 올려야 한다는 제안에 흔들리고 있다. A씨는 총 은퇴생활비를 계산하고 향후 저축가능 금액을 검토해야 한다.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/014/0005085745?sid=101</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 40대 중반 직장인 A씨는 근무 중에 멈칫할 때가 잦다. 그동안 너무 일에만 몰두하면서 살아온 터라 정작 재무관리에는 힘쓰지 못한 것 같다. 인생을 제대로 돌아볼 기회가 없어 이제야 이 사실을 알아챘다. 정년은 60세라지만 현 직장에 언제까지 있을 지는 확신할 수 없다. 10년 정도는 더 일할 수 있을 듯한데 그 후에 필요한 노후생활비를 마련할 수 있을지 의문이다. 노후준비만 어느 정도 되면 그 전에라도 은퇴하고 싶다. 일단은 방향성이 잘 설정돼 있지 않다. 소득 중 일부는 청약과 연금에 넣고 있고 나머지는 파킹통장에 예치해뒀다가 지금은 정기예금으로 묶어두고 있다. 주변에선 부동산을 구매해 월세를 받으라거나 주식 투자로 배당을 취하라는 얘기들을 한다. 하지만 어디에 집중할지 감은 안 잡힌다. 45세 A씨 월 수입은 580만원이다. 이와 별도로 연간 비정기 상여로 2000만원이 들어온다. 월 지출은 361만원이다. 고정비로 61만원이 나간다. 보험료 42만원 통신비 8만8000원 정수기 등 정기결제 5만2000원 기부금 5만원 등 합산액이다. 변동비는 관리공과금 30만원 식비생활비 80만원 교통비 30만원 용돈 40만원을 합쳐 180만원이다. 저축은 청약저축 10만원 연금저축 60만원 적금 50만원 등 120만원씩하고 있다. 연간비용은 1800만원이 든다. 자산은 8억5000만원이 조금 넘는다. 전세금 5억5000만원에 청약 570만원 적금 1810만원 정기예금 2억3000만원 파킹통장 4900만원 등이 있다. 부채는 없다. 은퇴 후 65세부터 국민연금은 월 120만원 정도 받을 것으로 예상된다. 퇴직연금 4800만원 연금저축 1570만원도 있다. 금융감독원에 따르면 40대는 생애주기상 이전 발자취를 돌아보고 향후 일과 생의 마무리를 어떻게 준비할지 점검하는 시기다. 억대 연봉이라도 은퇴가 빠른 직업이 있고 당장 월급은 적지만 노후 준비가 잘 돼 있는 경우도 있다. 공통점은 죽을 때까지 돈에 대한 고민은 멈추지 않는다는 점이다. 하지만 결국 돈 관리법은 본인 상황마다 다르다. 재무뿐만 아니라 비재무적 사항도 함께 고려해야 하기 때문이다. A씨는 현재 예적금 위주 현금자산을 쌓고 있다. 그래서 주변의 임대료 소득이나 배당 소득을 올려야 한다는 제안에 흔들리고 있다. 하지만 금감원 관계자는 자본소득만으로 하는 은퇴 준비는 현실적이지 않다고 지적했다. 월 500만원을 만들고자 한다면 연 5 금리 가정시 12억원이 필요하다. 하지만 이는 이론적 주장일 뿐 부동산 소유주는 건물 감가 유지보수 세금 보유세양도세 등 공실률 등 여러 고민에 에너지를 투입해야 한다. 실제 한국부동산원에 따르면 지난해 전국 집합상가 투자수익률은 14분기 1.55에서 44분기 1.07로 떨어졌다. 60억원 정도는 있어야 500만원을 만들어낼 수 있다는 뜻이다. 매도 전까지 유동자금을 활용하지 못하고 다른 소득과 합산할 경우 종합소득과세표준이 증가한다는 맹점도 있다. 주식이나 상장지수펀드 ETF 배당도 만능은 아니다. 배당금액이 커도 종목 자체 수익률이 하락하면 꾸준한 현금흐름을 창출하기는 어렵다. 배당소득 2000만원 초과시 종합과세 해외주식의 경우 양도세 22 부담을 고려해야 한다. 현금이나 연금자산이 무조건적으로 적합한 것도 아니다. 전자는 유동성이 크고 후자는 절세 혜택에 더해 꾸준한 생활비 지급이 가능하지만 반대로 각각 복리나 자본성장성을 기대하기 어렵고 일시금 형태로 수령시 불이익 가능성이 있다. 금감원 관계자는 자산을 어느 한 수단에 전부 투자하기보다 목적에 맞게 나눠 활용하는 게 합리적이라며 재무설계 목적은 원하는 때 원하는 만큼 적절한 형태로 돈을 사용할 수 있는 것이라고 짚었다. A씨는 먼저 총 은퇴생활비를 계산하고 향후 저축가능 금액을 검토해 봐야 한다. 노후기간이 30년이라면 월 300만원씩 은퇴생활비는 10억8000만원이 된다. 의료비도 2억원 추가된다. 60세 은퇴 전 저축 가능액은 6억4020만원이다. 총수입은 580122000로 8960만원이고 총지출은 241121800에 따라 4692만원이다. 이들 차액 4268만원을 15년 동안 모은 결과다. 부동산을 제외한 현금성 자산 3억1852만원까지 감안하면 9억5872만원까지 마련할 수 있다. 나머지는 국민연금 일시금 3억6000만원 퇴직연금 은퇴시점 2억원으로 채우면 여유있게 마련할 수 있다. 금감원 관계자는 향후 9년 정도 소득활동을 하면 은퇴생활비 마련이 가능한 상황이라며 주택 구입으로 주택연금까지 활용하면 이 시점을 더 단축할 수도 있을 것이라고 설명했다. 금융감독원이 운영하는 금융소비자포털 파인을 인터넷 검색창에 입력하거나 금감원콜센터 1332 7번 금융자문서비스로 전화하시면 무료 맞춤형 금융소비자 상담을 받을 수 있습니다.</t>
+  </si>
+  <si>
+    <t>['퇴직연금 은퇴설계', '퇴직연금 절세혜택']</t>
+  </si>
+  <si>
+    <t>[{'퇴직연금 은퇴설계': 1}, {'퇴직연금 절세혜택': 44}]</t>
+  </si>
+  <si>
+    <t>A씨는 현재 예적금 위주 현금자산을 쌓고 있으며, 주변의 임대료 소득이나 배당 소득을 고려하고 있다. 그러나 방향성이 명확하지 않아 점수는 3점으로 준다.</t>
+  </si>
+  <si>
+    <t>기사에는 산업 경쟁 동향에 대한 정보가 없으므로 점수는 2점으로 준다.</t>
+  </si>
+  <si>
+    <t>금융시장의 변동성에 대한 정보가 없으므로 점수는 1점으로 준다.</t>
+  </si>
+  <si>
+    <t>기사에는 법률 및 규제 변화에 대한 정보가 없으므로 점수는 2점으로 준다.</t>
+  </si>
+  <si>
+    <t>기사에는 노후준비와 관련된 정보가 상세히 나와 있으며, A씨의 노후생활비 계산과 관련된 내용도 포함되어 있어 점수는 4점으로 준다.</t>
+  </si>
+  <si>
+    <t>기사에는 기술과 디지털화에 관련된 정보가 없으므로 점수는 0점으로 준다.</t>
+  </si>
+  <si>
+    <t>A씨의 소비 패턴과 투자 선호도에 대한 정보가 제시되어 있으며, 서비스 개발 및 개선에 대한 고려도 나와 있어 점수는 3점으로 준다.</t>
+  </si>
+  <si>
     <t>'더받는' 시나리오도 추가…백화점식 연금 보고서에 개혁 안갯속</t>
   </si>
   <si>
@@ -843,6 +2283,33 @@
     <t>기사에서는 소비 행태와 요구사항에 대한 정보가 없으므로 0점을 줍니다.</t>
   </si>
   <si>
+    <t>은퇴생활비와 저축가능 금액 파악하는게 첫단계 [재테크 Q&amp;amp;A]</t>
+  </si>
+  <si>
+    <t>40대 중반 직장인 A씨는 재무관리에 힘쓰지 못하고 있으며, 노후생활비를 마련하는 것에 대해 의문을 가지고 있다. A씨는 현재 예적금 위주 현금자산을 쌓고 있지만 주변의 제안에 흔들리고 있다. 금감원은 자본소득만으로 은퇴 준비하는 것은 현실적이지 않다고 지적하고 있다.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/014/0005085929?sid=101</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Q. 40대 중반 직장인 A씨는 근무 중에 멈칫할 때가 잦다. 그동안 너무 일에만 몰두하면서 살아온 터라 정작 재무관리에는 힘쓰지 못한 것 같다. 정년은 60세라지만 현 직장에 언제까지 있을 지는 확신할 수 없다. 10년 정도는 더 일할 수 있을 듯한데 그 후에 필요한 노후생활비를 마련할 수 있을지 의문이다. 노후준비만 어느 정도 되면 그 전에라도 은퇴하고 싶다. 일단은 방향성이 잘 설정돼 있지 않다. 소득 중 일부는 청약과 연금에 넣고 있고 나머지는 파킹통장에 예치해뒀다가 지금은 정기예금으로 묶어두고 있다. 주변에선 부동산을 구매해 월세를 받으라거나 주식 투자로 배당을 취하라는 얘기들을 한다. 하지만 어디에 집중할지 감은 안 잡힌다. A. 45세 A씨 월 수입은 580만원이다. 이와 별도로 연간 비정기 상여로 2000만원이 들어온다. 월 지출은 361만원이다. 고정비로 61만원이 나간다. 보험료 42만원 통신비 8만8000원 정수기 등 정기결제 5만2000원 기부금 5만원 등 합산액이다. 변동비는 관리공과금 30만원 식비생활비 80만원 교통비 30만원 용돈 40만원을 합쳐 180만원이다. 저축은 청약저축 10만원 연금저축 60만원 적금 50만원 등 120만원씩하고 있다. 연간비용은 1800만원이 든다. 자산은 8억5000만원이 조금 넘는다. 전세금 5억5000만원에 청약 570만원 적금 1810만원 정기예금 2억3000만원 파킹통장 4900만원 등이 있다. 부채는 없다. 은퇴 후 65세부터 국민연금은 월 120만원 정도 받을 것으로 예상된다. 퇴직연금 4800만원 연금저축 1570만원도 있다. 금융감독원에 따르면 A씨는 현재 예적금 위주 현금자산을 쌓고 있다. 그래서 주변의 임대료 소득이나 배당 소득을 올려야 한다는 제안에 흔들리고 있다. 하지만 금감원 관계자는 자본소득만으로 하는 은퇴 준비는 현실적이지 않다고 지적했다. 월 500만원을 만들고자 한다면 연 5 금리 가정시 12억원이 필요하다. 하지만 이는 이론적 주장일 뿐 부동산 소유주는 건물 감가 유지보수 세금 보유세양도세 등 공실률 등 여러 고민에 에너지를 투입해야 한다. 실제 한국부동산원에 따르면 지난해 전국 집합상가 투자수익률은 14분기 1.55에서 44분기 1.07로 떨어졌다. 60억원 정도는 있어야 500만원을 만들어낼 수 있다는 뜻이다. 매도 전까지 유동자금을 활용하지 못하고 다른 소득과 합산할 경우 종합소득과세표준이 증가한다는 맹점도 있다. 주식이나 상장지수펀드 ETF 배당도 만능은 아니다. 배당금액이 커도 종목 자체 수익률이 하락하면 꾸준한 현금흐름을 창출하기는 어렵다. 배당소득 2000만원 초과시 종합과세 해외주식의 경우 양도세 22 부담을 고려해야 한다. 현금이나 연금자산이 무조건적으로 적합한 것도 아니다. 전자는 유동성이 크고 후자는 절세 혜택에 더해 꾸준한 생활비 지급이 가능하지만 반대로 각각 복리나 자본성장성을 기대하기 어렵고 일시금 형태로 수령시 불이익 가능성이 있다. 금감원 관계자는 자산을 어느 한 수단에 전부 투자하기보다 목적에 맞게 나눠 활용하는 게 합리적이라며 재무설계 목적은 원하는 때 원하는 만큼 적절한 형태로 돈을 사용할 수 있는 것이라고 짚었다. A씨는 먼저 총 은퇴생활비를 계산하고 향후 저축가능 금액을 검토해 봐야 한다. 노후기간이 30년이라면 월 300만원씩 은퇴생활비는 10억8000만원이 된다. 의료비도 2억원 추가된다. 60세 은퇴 전 저축 가능액은 6억4020만원이다. 총수입은 580122000로 8960만원이고 총지출은 241121800에 따라 4692만원이다. 이들 차액 4268만원을 15년 동안 모은 결과다. 부동산을 제외한 현금성 자산 3억1852만원까지 감안하면 9억5872만원까지 마련할 수 있다. 나머지는 국민연금 일시금 3억6000만원 퇴직연금 은퇴시점 2억원으로 채우면 여유있게 마련할 수 있다. 금감원 관계자는 향후 9년 정도 소득활동을 하면 은퇴생활비 마련이 가능한 상황이라며 주택 구입으로 주택연금까지 활용하면 이 시점을 더 단축할 수도 있을 것이라고 설명했다. 금융감독원이 운영하는 금융소비자포털 파인을 인터넷 검색창에 입력하거나 금감원콜센터 1332 7번 금융자문서비스로 전화하시면 무료 맞춤형 금융소비자 상담을 받을 수 있습니다.</t>
+  </si>
+  <si>
+    <t>[{'퇴직연금 은퇴설계': 10}, {'퇴직연금 절세혜택': 45}]</t>
+  </si>
+  <si>
+    <t>A씨는 현재 예적금 위주 현금자산을 쌓고 있으며, 금감원은 자본소득만으로 은퇴 준비하는 것은 현실적이지 않다고 지적하고 있다.</t>
+  </si>
+  <si>
+    <t>A씨는 주변의 제안에 흔들리고 있으며, 노후생활비를 마련하는 것에 대해 의문을 가지고 있다.</t>
+  </si>
+  <si>
+    <t>A씨는 재무관리에 힘쓰지 못하고 있으며, 노후생활비를 마련하는 것에 대해 의문을 가지고 있다.</t>
+  </si>
+  <si>
+    <t>A씨는 노후생활비를 마련하는 것에 대해 의문을 가지고 있다.</t>
+  </si>
+  <si>
     <t>월 0.5% 배당 지급…하락장엔 필수재株 담아 안정적 수익 [이런 펀드 어때요?...</t>
   </si>
   <si>
@@ -870,16 +2337,76 @@
     <t>해당 ETF는 힘들었던 9월에 오히려 2.5 이상 상승 하락기에 시장 대비 안정적인 방어를 하는 모습을 보였다.</t>
   </si>
   <si>
-    <t>기술과 디지털화에 대한 내용이 없음.</t>
-  </si>
-  <si>
-    <t>소비 행동 및 요구사항에 대한 내용이 없음.</t>
+    <t>퇴직연금 갈아탔더니... “여보, 5년치 이자로 30% 준대” [왕개미연구소]</t>
+  </si>
+  <si>
+    <t>퇴직금을 최대한 많이 쌓을 수 있는 방법을 고민해야 한다. DC 전환을 결심했다면 회사 내 퇴직연금 사업자에게 연락해서 따로 물어봐야 한다. 인플레이션이 이렇게 심한데 노후 생활비 이 정도면 충분할까 은퇴 준비가 궁금하면 왕개미연구소에 방문해 주세요.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/023/0003793353?sid=101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">변칙 특판 규제로 내달 꿀금리 상품 사라져50대 부장님 DB에서 DC 전환 서두르세요앞으로 내 급여가 오르긴 힘들 텐데...50대 만년 부장인데 문득 회사에서 이런 생각이 들었다면 이때가 바로 퇴직연금을 점검할 타이밍이다. 급여가 싹둑 잘리는 임금피크제 진입이 코앞인 장기 근속자라면 더욱 그렇다. 퇴직연금을 어떻게 관리하느냐에 따라 은퇴 후 받는 돈은 확연히 차이 나고 삶의 질도 달라진다.황명하 NH투자증권 100세시대연구소 연구위원은 은퇴에 임박해서 퇴직금을 보며 후회해봤자 시간을 돌이킬 순 없다면서 나중에 어떻게 사용하든 현역에 있을 때 퇴직금을 최대한 많이 쌓을 수 있는 방법을 고민해야 한다고 조언했다. 인생의 절반을 산 50대가 꼭 알아야 할 퇴직금 리터러시 문해력에 대해 알아봤다. 퇴직금 각자도생 시대 열린다퇴직연금 난 아무 것도 몰라...내 퇴직연금이 어떤 것인지 어떻게 운용되고 있는지 잘 모르는 직장인들이 수두룩하다. 퇴직연금은 크게 두 가지 유형이 있다. 회사가 알아서 굴려주는 확정급여형 DB과 내가 직접 운용하는 확정기여형 DC이 그것이다. 회사 다니면서 퇴직금 운용 때문에 고민해 본 적이 없다면 DB일 가능성이 높다.승진 기회가 많고 임금 상승률도 높으면서 장기 근속까지 가능하다면 DB가 압도적으로 유리하다. 하지만 회사 다닐 날보다 다닌 날이 길어진 50대 만년 부장이라면 계산기를 두드리고 득실을 따져봐야 한다. DB에 그대로 머물러 있기보다는 DC로 갈아타는 것이 더 유리할 수 있기 때문이다.퇴직금은 퇴직 이전 30일 평균임금에 계속근로기간을 곱한 값이다. 가령 만 55세인 김 부장이 현 직장에서 20년간 계속 일했고 최근 30일 평균임금 퇴직 직전 3개월 급여를 근무일수로 나눈 값이 500만원인 경우를 가정해 보자. 지금 당장 김 부장이 회사를 떠나면 받게 될 퇴직금은 1억원 500만원ⅹ20년이다.그런데 만약 김 부장이 임금피크제에 들어갔고 만 60세 시점의 30일 평균임금이 250만원이라면 퇴직금은 6250만원 250만원ⅹ25년으로 쪼그라든다. 더 오래 일했는데도 퇴직금은 줄어드는 비참한 상황이 발생하는 것이다.김 부장이 미래의 불행을 피하려면 퇴직금 운용 체계 갈아타기가 필수다. 마치 퇴직금 중간정산을 하는 것처럼 임금이 정점에 달했다고 생각될 때 DB에서 DC로 전환하는 것이다. 이렇게 DB에서 DC로 전환하면 퇴직금이 중간정산 김 부장 경우엔 1억원되어서 본인 명의 계좌에 입금된다. 내 이름으로 된 계좌이지만 퇴직금이기 때문에 몇 가지 예외 사항을 빼면 중도 인출은 불가능하다. DC 고금리 특판 내달 사라질 듯회사가 책임을 지는 DB는 전체 퇴직연금 시장에서 차지하는 비중이 60로 아직은 DC 26보다 훨씬 높다. 평생 퇴직금 운용은 신경 쓰지 않고 살아왔는데 DC 가입자가 되어 직접 퇴직금을 운용해야 한다고 하면 두려운 것도 사실이다.과거와 같은 1대 초저금리 시대엔 DB를 유지하는 것이 현명한 선택이기도 했다. 하지만 지금 같은 고금리 시대엔 생각을 바꿔야 한다. 임금상승률이 정체된 50대 부장이라면 DC가 오히려 더 기회일 수 있다. 투자에 대해 전혀 몰라도 DC에서 굴릴 수 있는 원금 보장형 상품 금리가 부쩍 높아졌기 때문이다.중소기업에 다니는 50대 이모씨는 지난 주 퇴직연금을 DB에서 DC로 갈아탔는데 상품 리스트에 나와 있는 금리를 보고 깜짝 놀랐다. 이씨는 원금 보장형 상품인데 금리가 연 6이고 5년 장기로 가입하는 것도 가능해서 따져보니 총 30였다면서 DB에 그냥 있었으면 연 2 임금상승률만 적용되었을 텐데 DC로 바꿔서 퇴직금 운용 수익이 3배 높아질 것 같다고 말했다.대형 금융회사의 퇴직연금 담당자는 퇴직연금 시장이 커지면서 DC 유치 경쟁도 치열해지고 있다면서 신규고객 유치를 위해 손해를 감수하고 특판 금리를 제공하는 상품을 팔고 있다고 말했다. 이 회사는 DB에서 DC로 갈아탄 고객에게 3년 5년 만기 원금보장형 상품 금리로 각각 연 5.85 연 6를 제공하고 있다. 우리나라 퇴직연금의 5년 장기 수익률이 연환산 1.5이니까 연 6면 상당하다.하지만 이런 꿀금리 상품은 다음 달부터는 사라질 전망이다. 금융당국이 퇴직연금 가입자를 늘리기 위해 마진을 포기하면서 고금리 특판 상품을 파는 것은 과하다고 보고 다음 달부터 규제할 방침이기 때문이다. 금융당국 관계자는 일부 금융회사들이 웃돈 수수료 11.5을 주고 고금리 상품을 떼어 와서 판매하는 관행이 있다면서 퇴직연금 시장 정상화를 위해 이런 관행이 없어지도록 조만간 손볼 방침이라고 밝혔다.보험사 퇴직연금 담당 관계자는 내가 퇴직연금 업무만 10년을 해왔는데 원금보장형이면서 이런 높은 금리는 처음 봤다면서 규제가 시행되면 지금과 같은 연 6 고금리 상품은 보기 힘들 것이라고 예상했다. 사실상 이달 나온 고금리 특판 상품들이 막차라는 얘기다.우리나라는 가계부채가 많아서 금리를 미국처럼 대폭 올리긴 어렵잖아요. 현재 금리가 고점 근처라고 볼 수 있는데 지금 판매하는 고금리 특판은 심지어 회사들이 손해 보면서 판매하는 것이니 소비자 입장에선 여러모로 유리하죠. 지금 시점엔 가급적 장기 고금리로 묶어두는 걸 추천합니다.다만 DB에서 DC로 일단 갈아타면 다시 DB로 돌아가는 것은 불가능하니 신중히 결정해야 한다. 예금 만기가 긴데 만기 전에 퇴사하는 경우 중도해지 손해는 없고 퇴사일까지 일할 계산해서 약속된 금리로 상환된다.참고로 고금리 특판 상품은 금융회사 퇴직연금 앱에 공개되지 않는다. DC 전환을 결심했다면 회사 내 퇴직연금 사업자에게 연락해서 따로 물어봐야 한다. 이미 DC에 가입 중이라고 해도 사업자를 갈아타면 신규 가입자가 되기 때문에 특판 고금리를 챙길 수 있다. DC 가입자는 이 참에 퇴직연금 성과를 확인해 보고 부실하다면 사업자 갈아타기를 고려해 보자.인플레이션이 이렇게 심한데 노후 생활비 이 정도면 충분할까 은퇴 준비가 궁금하면 왕개미연구소에 방문해 주세요 입장료는 무료. 조선닷컴에선 여기를 누르시고 네이버다음 등 포털에서는 주소 designlab.chosun.com giantAnt user html를 복사해서 주소창에 입력하시면 됩니다. </t>
+  </si>
+  <si>
+    <t>['퇴직연금 DB', '퇴직연금 DC', '확정기여형', '확정급여형', '퇴직연금 사업자', '퇴직연금 중간정산', 'NH 퇴직연금', '퇴직연금 경쟁', '퇴직연금 수익률', '퇴직연금 가입', '퇴직연금 예금', '임금피크제']</t>
+  </si>
+  <si>
+    <t>[{'퇴직연금 DB': 1}, {'퇴직연금 DC': 1}, {'확정기여형': 5}, {'확정급여형': 4}, {'퇴직연금 사업자': 1}, {'퇴직연금 중간정산': 1}, {'NH 퇴직연금': 1}, {'퇴직연금 경쟁': 1}, {'퇴직연금 수익률': 1}, {'퇴직연금 가입': 1}, {'퇴직연금 예금': 1}, {'임금피크제': 8}]</t>
+  </si>
+  <si>
+    <t>퇴직금을 최대한 많이 쌓을 수 있는 방법을 고민하고 DC 전환을 고려하는 내용이 포함되어 있음.</t>
+  </si>
+  <si>
+    <t>인플레이션에 대한 언급이 있으나, 퇴직연금 산업에 대한 영향에 대한 분석은 없음.</t>
+  </si>
+  <si>
+    <t>퇴직금을 최대한 많이 쌓을 수 있는 방법과 노후 생활비에 대한 충분성에 대한 고민이 포함되어 있음.</t>
+  </si>
+  <si>
+    <t>2023-10-14</t>
+  </si>
+  <si>
+    <t>“65세 이후 보릿고개? 배당주 ETF로 넘겨요”[기똥찬 재테크]</t>
+  </si>
+  <si>
+    <t>고배당 ETF는 배당 수익률이 높은 종목들을 편입한 ETF로 분산투자 효과와 장기적인 수익을 기대할 수 있다. ARIRANG 고배당주 ETF는 최근 3개월 수익률이 9.19로 가장 높았으며, 주로 은행주와 통신주로 구성되어 있다.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/014/0005085641?sid=101</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 어느 때보다 투자하기 어려운 환경이라는 이야기가 들리는 요즘입니다. 물가를 잡기 위해 전세계의 고금리 기조가 장기화하면서 경기 침체가 지속되고 최근에는 지정학적 리스크도 불거졌는데요. 국내 증시도 2차전지 초전도체 등 테마주 랠리로 올해 급등락을 반복하며 변동성이 커지고 있습니다. 이럴 때일수록 주기적인 배당을 실시하는 상장지수펀드 ETF에 대한 관심이 커지고 있는데요. 개별 종목에 대한 리스크를 분산할 수 있고 장기 연금투자자라면 꾸준한 주가 상승과 함께 배당금 재투자를 통한 복리 효과를 기대할 수도 있습니다. 오늘은 불확실성이 커질수록 주목받는 고배당 ETF에 대해 알아보겠습니다.  수익 높은 고배당 ETF 은행통신주 품었다 고배당 ETF란 대형주를 중심으로 배당 수익률이 높은 고배당 종목들을 편입한 ETF입니다. 가장 큰 장점은 분산투자 효과입니다. 개별 종목의 실적 저하 유상증자 배당컷 등의 이슈가 발생했을 때 주가 하락으로 인한 손실을 줄일 수 있습니다. 또 지수를 추종하는 상품인 만큼 장기적으로 수익을 올리는 데 적합합니다. 현금 흐름을 챙기면서 안정적인 투자를 하고 싶은 장기 투자자 연금 생활자라면 눈여겨봐야 할 상품인 거죠. 에프엔 가이드에 따르면 최근 3개월 7월11일10월11일 사이에 가장 높은 수익률을 기록한 고배당 ETF는 ARIRANG 고배당주 ETF입니다. 국내 증시에 상장된 고배당주 ETF 중 자산 규모가 1919억원으로 가장 큰 ARIRANG 고배당주 ETF의 최근 3개월 수익률은 9.19를 기록했습니다. ARIRANG 고배당주 ETF는 코스피 시가총액 상위 200개 종목 가운데 예상 배당수익률이 가장 높은 상위 30개 종목으로 구성된 에프앤가이드 고배당주 지수를 따릅니다. 수익률이 높은 배당주 ETF의 세부 종목을 살펴보면 우량기업 은행주 통신주 등이 많은데요. 금리 환율 등 변수에 영향을 상대적으로 덜 받기 때문입니다. 특히 은행보험 등 금융주는 배당수익률은 높은데 주가 수준은 저점에 머물러 주가 상승 가능성도 남아 있죠. ARIRANG 고배당주 ETF의 비중 상위 종목도 기업은행 KB금융 우리금융지주 JB금융지주 하나금융지주 등 은행주로 이뤄져 있고 TIMEFOLIO Korea플러스배당액티브도 삼성전자 4대 은행지주 KB신한하나우리 HANARO고배당 KOSEF고배당도 은행지주 통신주를 집중적으로 담고 있죠.  시황 맞춰 포트폴리오 조정하고 커버드콜로 배당률 높이는 ETF도 불안한 시장에 방어력이 돋보이는 상품도 있습니다. 시황 및 투자 트렌드에 따라 편입 종목을 조정하는 타임폴리오 ETF인데요. 예를 들어 미국발 금융 불안이 야기돼 금융주가 떨어지면 비중을 줄여 리스크를 최소화하는 방식입니다. 그중에서도 TIMEFOLIO Korea플러스배당액티브 ETF는 배당 ETF지만 금융주보다 삼성전자 SK하이닉스 농심 등 올해 주가가 뛴 종목들을 주로 편입 중입니다. 자사주 매입으로 주주가치를 제고 중인 메리츠금융지주의 비중도 높은데요. 해당 ETF의 최근 3개월 수익률은 8.41로 ARIRANG 고배당주 다음으로 높았습니다. 고배당주를 담으면서도 커버드콜 전략을 활용하는 하이브리드형 ETF도 있습니다. 커버드콜 전략은 주가지수를 매수하고 콜옵션을 매도해 주가지수가 상승할 때는 수익이 제한되지만 횡보하거나 하락할 때 추가 수익을 얻을 수 있는 전략인데요. 국내 상장 옵션의 매도 프리미엄의 경우 비과세 수익에 해당해 분배금으로 지급 시 세금이 부과되지 않고 콜옵션 매도 비중을 조정하면 주가지수 상승을 따라가면서 옵션 프리미엄을 얻을 수도 있습니다. KBSTAR 200고배당커버드콜ATM은 최근 3개월 동안 8.12의 수익률을 기록하는 등 하이브리드형 ETF에서 좋은 성과를 내고 있는 상품입니다. 제일기획 KT HD현대 GS 등에 투자하면서 코스피200콜옵션을 매도해 배당과 함께 콜옵션 매도로부터 생기는 수익금을 투자자에게 배분하고 있는 것이 특징입니다.  연간 분배율구성 종목 면밀히 확인해야 고배당 ETF에 투자할 때는 연간 분배율도 따져봐야 합니다. 분배율이란 주식의 배당수익률과 비슷하게 주당분배금을 ETF의 현재 가격으로 나눈 비율을 뜻하는데요. 현재 국내 배당주 ETF 중 연간 분배율이 가장 높은 상품은 TIGER 미국나스닥100커버드콜 합성로 11.66입니다. 주의할 점은 같은 고배당주 ETF여도 구성 종목 등에 따라 수익률 차이가 크기 때문에 단순히 수익률 배당률만 보고 투자하는 것이 아니라 투자하는 기업이 어떤 걸 포함하는지 확인해야 한다는 겁니다. 예를 들어 KB스타 고배당 ETF의 경우 삼성전자의 비중이 매우 큰데요. 그 때문에 삼성전자에 직접 투자하고 있는 투자자보다는 국내 투자상품이 하나도 없다는 분들이 KB스타 고배당에 투자하는 것이 합리적이겠죠. 배당주 ETF는 연금계좌를 통해 투자하는 것이 좋습니다. 분배금에 부과되는 배당소득세를 절감할 수 있기 때문인데요. 주식 등에 투자해 배당금을 받을 때는 15.4의 세율을 부과하지만 연금계좌에서 발생한 배당은 당장 세금을 부과하지 않고 인출할 때 과세하게 됩니다. 따라서 만 55세 이후 연금을 수령하는 연금저축과 개인형 퇴직연금 IRP 가입자는 이때 3.35.5의 저율의 세금만 내면 되기 때문에 효율적입니다.</t>
+  </si>
+  <si>
+    <t>['IRP 연금수령', '퇴직소득세', '퇴직연금 ETF']</t>
+  </si>
+  <si>
+    <t>[{'IRP 연금수령': 41}, {'퇴직소득세': 43}, {'퇴직연금 ETF': 1}]</t>
+  </si>
+  <si>
+    <t>고배당 ETF의 수익률과 구성 종목에 대한 정보가 제공되어 있어서 3점을 주었습니다.</t>
+  </si>
+  <si>
+    <t>고배당 ETF에 대한 경쟁 동향이나 시장 점유율, 신제품 및 서비스 출시에 대한 정보가 제공되지 않아 0점을 주었습니다.</t>
+  </si>
+  <si>
+    <t>금융시장의 불확실성에 대한 언급이 있지만, 투자자들에게 어떤 영향을 미칠지에 대한 구체적인 분석이 제공되지 않아 2점을 주었습니다.</t>
+  </si>
+  <si>
+    <t>법률 및 규제 변경에 대한 언급이 없어 0점을 주었습니다.</t>
+  </si>
+  <si>
+    <t>노령화와 관련된 뉴스나 연금 기금의 장기적인 지속 가능성에 대한 언급이 없어 0점을 주었습니다.</t>
+  </si>
+  <si>
+    <t>기술과 디지털화에 대한 언급이 없어 0점을 주었습니다.</t>
+  </si>
+  <si>
+    <t>소비 행동 및 요구사항에 대한 정보가 제공되지 않아 0점을 주었습니다.</t>
   </si>
   <si>
     <t>2023-10-13</t>
-  </si>
-  <si>
-    <t>삼성운용</t>
   </si>
   <si>
     <t>삼성운용, 월배당 'KODEX 미국배당프리미엄 액티브' 보수 인하</t>
@@ -1180,9 +2707,6 @@
     <t>퇴직연금 개별 가입 고객과 개인형 퇴직연금 고객을 대상으로 진행</t>
   </si>
   <si>
-    <t>No relevant information</t>
-  </si>
-  <si>
     <t>신한증권</t>
   </si>
   <si>
@@ -1205,9 +2729,6 @@
   </si>
   <si>
     <t>이벤트 대상 고객에게 스타벅스 쿠폰 제공</t>
-  </si>
-  <si>
-    <t>No relevant information in the article</t>
   </si>
   <si>
     <t>고금리 장기화로 주춤 OCIO 공모펀드…디딤펀드로 부활할까</t>
@@ -1257,9 +2778,6 @@
     <t>OCIO 공모펀드의 부진은 고금리 환경과 무관하지 않다.</t>
   </si>
   <si>
-    <t>No information related to financial market impact.</t>
-  </si>
-  <si>
     <t>신한투자증권, 퇴직연금 디폴트옵션 이벤트 커피 쿠폰 쏜다</t>
   </si>
   <si>
@@ -1278,389 +2796,11 @@
     <t>[{'퇴직연금 DC': 35}, {'퇴직연금 IRP': 48}, {'개인형퇴직연금': 47}, {'디폴트옵션': 44}, {'퇴직연금 적립금': 41}, {'퇴직연금 이벤트': 44}, {'디폴트옵션 이벤트': 43}, {'DC 이벤트': 41}, {'IRP 이벤트': 41}, {'신한 퇴직연금': 44}, {'퇴직연금 수익률': 52}, {'퇴직연금 가입': 49}]</t>
   </si>
   <si>
-    <t>2023-10-11</t>
-  </si>
-  <si>
-    <t>은행권</t>
-  </si>
-  <si>
-    <t>'진짜 억대 퇴직금' 은행권, 희망퇴직자에 1인당 5.5억…6년 간 10조 지급</t>
-  </si>
-  <si>
-    <t>2018년 이후 6년간 은행에서 희망퇴직한 은행원은 17400여명이며, 퇴직금은 1인당 평균 5억5200만원으로 총 9조6000억원에 달한다. 희망퇴직자는 2018년부터 올해 7월까지 17402명이며, 퇴직금은 총 9조6004억원으로 집계되었다.</t>
-  </si>
-  <si>
-    <t>https://n.news.naver.com/mnews/article/014/0005083884?sid=101</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 지난 2018년 이후 6년간 희망퇴직으로 은행을 떠난 은행원이 17400여명에 달하는 것으로 조사됐다. 이들에게 지급된 희망퇴직금은 1인당 평균 5억5200만원으로 총 9조6000억원에 달했다. 10일 금융감독원이 강민국 국민의힘 의원실에 제출한 국내 은행권 희망퇴직 현황에 따르면 14개 시중은행의 2018년부터 올해 7월까지 희망퇴직자는 17402명이다. 지급된 퇴직금은 총 9조6004억원으로 집계됐다. 은행 전체 퇴직자 중 희망퇴직자 비중은 64.8 희망퇴직제 운영 은행 기준였다. 퇴직금액은 전체 퇴직금의 94.8를 차지했다. 특히 연도별 희망퇴직자는 2018년 2573명에서 지난해 4312명으로 최근 급증하고 있는 것으로 나타났다. 올해도 7월까지 1882명이 희망퇴직으로 은행을 떠났다. 지난 5년간 은행권 희망퇴직자의 1인당 평균 퇴직금은 5억5200만원으로 조사됐다. 이는 전체 퇴직자 평균 퇴직금 3억5600만원보다 약 2억원 많은 것으로 은행권 희망퇴직금이 많은 이유는 노사 간 협의에 따라 지급되는 특별퇴직금 23년치 평균 연봉에 전직 지원금 등 때문이다. 지난 6년간 총 6조9402억원의 특별퇴직금이 지급됐다. 전체 희망퇴직금 9조6004억원의 72.3를 차지한다.  최근 6년간 희망퇴직자가 가장 많은 은행은 국민은행 3671명이었으며 하나은행 2464명 농협은행 2349명 등이 뒤를 이었다. 1인당 희망퇴직금이 가장 많은 은행은 씨티은행으로 평균 8억2600만원이 지급됐다. 2018년부터 올해 7월까지 국내 17개 은행 인터넷은행 제외의 임금피크제 신청건수는 총 1만1247건 수준인 것으로 집계됐다. 2018년 1365건에서 2021년 2219건으로 늘다가 지난해 2190건으로 감소했다. 강 의원은 공공재 성격을 가진 은행은 위화감을 조성할 수 있는 과도한 복지지원금 성격을 가진 희망퇴직금 지급에 대해 숙고해야 한다며 금융당국은 은행산업에 대한 국민 신뢰 제고 차원에서라도 전체 퇴직금 규모를 과도하게 넘는 수준의 희망퇴직금 지급 은행에 대해서는 운영 현황 점검을 실시해야 한다고 밝혔다.</t>
-  </si>
-  <si>
-    <t>['희망퇴직 퇴직금', '임금피크제']</t>
-  </si>
-  <si>
-    <t>[{'희망퇴직 퇴직금': 9}, {'임금피크제': 20}]</t>
-  </si>
-  <si>
-    <t>퇴직금액이 전체 퇴직금의 94.8%를 차지하고 있으며, 은행권 희망퇴직자의 1인당 평균 퇴직금은 5억5200만원으로 조사되었다.</t>
-  </si>
-  <si>
-    <t>희망퇴직자가 가장 많은 은행은 국민은행이며, 1인당 희망퇴직금이 가장 많은 은행은 씨티은행으로 조사되었다.</t>
-  </si>
-  <si>
-    <t>은행산업에 대한 국민 신뢰 제고 차원에서라도 전체 퇴직금 규모를 과도하게 넘는 수준의 희망퇴직금 지급 은행에 대해서는 운영 현황 점검을 실시해야 한다고 밝혔다.</t>
-  </si>
-  <si>
-    <t>본문에는 법률 및 규제 변경에 대한 내용이 포함되어 있지 않다.</t>
-  </si>
-  <si>
-    <t>희망퇴직자가 최근 급증하고 있으며, 은행권 희망퇴직금이 많은 이유는 노사 간 협의에 따라 지급되는 특별퇴직금 때문이다.</t>
-  </si>
-  <si>
-    <t>본문에는 기술과 디지털화에 관련된 내용이 포함되어 있지 않다.</t>
-  </si>
-  <si>
-    <t>본문에는 소비 행태 및 요구사항에 관련된 내용이 포함되어 있지 않다.</t>
-  </si>
-  <si>
-    <t>[하우머니] '쥐꼬리' 퇴직연금 수익률…알아서 '척척' 불려주는 상품은?</t>
-  </si>
-  <si>
-    <t>은퇴 후 부부 생활비 평균 통계치 200-300만 원, 은퇴자들의 소득 공백기 대처법은 퇴직자 실업급여 이후 재취업 도전, 퇴직연금의 종류와 특징은 연금의 종류 공적연금, 퇴직연금은 DB형, DC형, IRP 형태로 운영, TDF는 Target Date Fund의 줄임말로 은퇴연령에 맞춰 자산을 배분하는 특징</t>
-  </si>
-  <si>
-    <t>https://n.news.naver.com/mnews/article/374/0000353965?sid=101</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 재테크 노하우 100분 머니쇼 하우머니 오상열 오원트금융연구소 소장Q.최근 은퇴 준비에 관심들 많으시거든요. 보통 은퇴한 부부 기준으로 한 달에 얼마나 정도가 있어야 생활이 가능한가요 은퇴 후 부부 생활비 얼마나 들까 은퇴 후 부부 생활비 평균 통계치 200300만 원Q.은퇴 앞두신 분들 가장 큰 걱정이 매달 월급을 꼬박꼬박 받다가 이제는 다른 길을 찾거나 모아 둔 돈으로만 살아가야 한다는 점인데요. 보통 어떻게들 대비하고 계신가요 은퇴자들의 소득 공백기 대처법은 퇴직자 실업급여 이후 재취업 도전하지만 쉽지 않아 라이프사이클 55세 퇴직65세 연금개시75세 은퇴 퇴직과 은퇴의 개념 달라...지금의 은퇴는 퇴직 의미Q.소득 공백을 메우기 위해 재취업이나 창업을 할 수 있다면 좋겠지만 쉽지 않거든요. 그래서 기대게 되는 것이 연금인데 연금도 종류가 다양하지 않습니까 은퇴 후 소득공백 메워주는 연금...종류와 특징은 연금의 종류 공적연금퇴직연금개인연금담보연금 국가가 운영하는 공적연금 국민공무원사학군인 기업이 주체가 되는 퇴직연금 DBDCIRP 개인이 주체가 되는 개인연금 연금저축펀드연금저축보험 등 담보연금인 주택농지연금과 기타 기초연금Q.국민연금만으로는 충분치 않다 보니 직장인들에겐 퇴직연금도 중요한 노후대비 자산이죠. DB DC 등 퇴직연금이 생각보다 복잡하고 어렵더라고요. 어떤 방식으로 운용되는건지부터 설명을 해주신다면요 노후 대비 퇴직연금 운용방식과 차이점은 퇴직연금은 본인의 노후 최후의 보루 자금 퇴직연금은 DB형 DC형 IRP 형태로 운영 DB형은 가입자 의사와 무관하게 회사가 운용 DC나 IRP는 가입자가 직접 챙겨야Q.사실 퇴직연금을 잘 운용하고 싶지만 너무 복잡하고 다양해서 일단 어떤 걸 골라야 할지 어떻게 운용하는 게 더 좋을지 잘 모르겠거든요. 들어보니 TDF 얘기가 많이 나오던데 TDF는 뭔가요 퇴직연금 어떻게 굴릴까아직도 마음 못 정했다면 퇴직연금 관리하기는 귀찮은데 수익은 내고 싶을 때는 디폴트옵션 도입으로 TDF 시장 주목 TDF는 Target Date Fund의 줄임말 본인의 은퇴연령에 맞춰 자동으로 자산을 배분하는 특징 금융에 관심과 경험이 낮은 사람들도 쉽게 투자 가능 TDF 이름 뒤에 붙는 숫자인 빈티지가 본인의 예상 은퇴 연령 통상 태어난 연도에 60을 더하여 빈티지 선택 1980년생이라면 TDF2040 전후가 은퇴 시기 부합 자산의 이동은 자유로우며 선택한 디폴트옵션도 언제든 변경 가능 TDF만으로 퇴직연금을 운용한다면 디폴트옵션 활용 추천 시장하락 예상 시 현금성자산 유지신청 통해 대기자금Q.퇴직연금 가지고 계신 분들의 가장 큰 고민은 수익률을 높이는 방법일 텐데요. 같은 퇴직금이라도 운용기간 안에서 얼마의 수익을 내느냐가 노후에 쓸 수 있는 자금을 결정하다 보니 신경이 많이 쓰이죠. 퇴직연금 운용 전략을 세워주신다면요 연금 고수들의 디폴트옵션 활용법은 디폴트옵션 도입 퇴직연금 수익률 극대화 방법은 디폴트옵션 의무사항이지만 강제조항은 아님 투자 위험도에 따라 초저위험고위험까지 4가지로 구분 초저위험 원리금보장형으로만 구성 저위험 원리금보장형 상품과 실적배당형 상품에도 투자 중위험 및 고위험 실적배당형 상품 위주의 포트폴리오 투자성향별로 13개의 포트폴리오 제공 610개 선택지 30년간 근속하며 퇴직연금과 동등한 수준의 개인연금 납부 6 이상의 수익률로 운용할 수 있다면 노후 준비 해결 수수료 낮추면서 수익률 높이는 방법 직접 TDF펀드 사는 것 직접 운용 시 수수료 1 10정도...수익률은 비슷한 효과 퇴직까지 남은 기간을 고려하여 TDF펀드 선택하는 방법 1년에 한 번 연금 수익률과 포트폴리오 점검 필수Q.오늘 11일 살펴본 연금도 그렇고 재테크를 잘해서 노후도 잘 준비할 수 있으면 좋을 것 같은데요. 소장님께선 재테크의 기본을 금융 집짓기라고 부르신다고요. 시청자분들을 위해 설명 좀 해주시죠. 재테크 답은 금융 집짓기...방법과 필요성은 언제 은퇴하고 언제까지 살지를 대략 정하는 것이 중요 한 달 생활비 고려해 은퇴할 때까지 저축하는 방법 금융 집짓기 은퇴 시기와 자금 준비 과정 한눈에 파악 은퇴할 때까지 부채상환 부족한 금액은 투자로 불려야 보험 기초공사 저축 기둥 실적배당 지붕 처마보에 현재 나이 은퇴 나이 사망 나이 기록 은퇴 설계 부채 저축투자절세부동산보험 분석 가장 균형 잡힌 금융상품 포트폴리오를 구성하여 시공 퇴직연금의 디폴트옵션 금융집짓기 후 선택 유리 자세한 내용은 동영상을 시청하시기 바랍니다.당신의 제보가 뉴스로 만들어집니다.SBS Biz는 여러분의 제보를 기다리고 있습니다.홈페이지 https url.kr 9pghjn</t>
-  </si>
-  <si>
-    <t>['퇴직연금 DB', '퇴직연금 DC', '퇴직연금 IRP', '디폴트옵션', 'IRP 연금개시', 'IRP 수수료', '퇴직연금 은퇴설계', '퇴직연금 수익률', '퇴직연금 포트폴리오', '퇴직연금 TDF', '퇴직연금 자산배분', '퇴직연금 가입', '퇴직연금 펀드']</t>
-  </si>
-  <si>
-    <t>[{'퇴직연금 DB': 2}, {'퇴직연금 DC': 12}, {'퇴직연금 IRP': 36}, {'디폴트옵션': 49}, {'IRP 연금개시': 1}, {'IRP 수수료': 5}, {'퇴직연금 은퇴설계': 1}, {'퇴직연금 수익률': 1}, {'퇴직연금 포트폴리오': 11}, {'퇴직연금 TDF': 1}, {'퇴직연금 자산배분': 1}, {'퇴직연금 가입': 37}, {'퇴직연금 펀드': 12}]</t>
-  </si>
-  <si>
-    <t>은퇴 후 부부 생활비 평균 통계치와 퇴직자들의 소득 공백기 대처법에 대한 내용이 포함되어 있음</t>
-  </si>
-  <si>
-    <t>퇴직연금의 종류와 특징에 대한 내용이 포함되어 있음</t>
-  </si>
-  <si>
-    <t>TDF에 대한 설명이 포함되어 있음</t>
-  </si>
-  <si>
-    <t>해당 기준에 해당하는 내용이 없음</t>
-  </si>
-  <si>
-    <t>우리은행</t>
-  </si>
-  <si>
-    <t>퇴직연금 체계적 관리… 우리銀, 전문가 167명 배치</t>
-  </si>
-  <si>
-    <t>우리은행은 전국 주요 167개 금융센터에 167명의 연금전문가를 선발배치한다고 밝혔다. 퇴직연금 시장규모는 2022년말 기준 336조원으로 2021년 말 대비 40조원 13.6% 증가했다. 국민연금 고갈 우려로 민간 퇴직연금사업자의 사회적 역할이 확대되고 있어 2032년말에는 860조원 규모로 성장할 것으로 예상되고 있다.</t>
-  </si>
-  <si>
-    <t>https://n.news.naver.com/mnews/article/029/0002829709?sid=101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">우리은행은 전문적이고 체계적인 퇴직연금 자산관리를 위해 전국 주요 167개 금융센터에 167명의 연금전문가를 선발배치한다고 11일 밝혔다.퇴직연금 시장규모는 2022년말 기준 336조원으로 2021년 말 대비 40조원 13.6이 증가했다. 국민연금 고갈 우려로 민간 퇴직연금사업자의 사회적 역할이 확대되고 있어 2032년말에는 860조원 규모로 성장할 것으로 예상되고 있다.퇴직연금은 전년대비 DB 확정급여형는 21조원 12.2 DC 확정기여형는 8.3조원 10.8 개인형IRP는 11조원 23.9이 증가하는 등 높은 성장률을 보이고 있다.특히 시장환경 변화로 개인고객을 대상으로 하는 연금자산 관리의 중요성이 커지며 높은 수준의 전문상담 능력과 체계적인 수익률 관리가 필요해졌다.우리은행은 지난해 4월 비대면 연금고객 전담관리 조직인 연금고객관리센터를 신설했다. 이번에 대면 업무를 선호하는 고객을 위해 영업점에서 퇴직연금을 전담 관리할 연금전문가를 선발하게 됐다.이번에 선발된 연금전문가는 주요 금융센터에서 자산관리 업무를 수행 중인 직원을 위주로 선발해 고객별 맞춤형 포트폴리오와 은퇴설계 등 전문적인 밀착형 고객관리 업무로 고객의 금융자산 증식에 도움이 될 것을 목표로 삼고 있다. 우리은행 관계자는 비대면 고객은 연금고객관리센터로 대면 고객은 주요 금융센터의 연금전문가로 체계적인 맞춤형 관리 체계를 구축했다며 연금사업자의 역량 기준이 수익률관리 능력인 만큼 연금전문가의 고객 은퇴자산 관리 역량을 강화해 나갈 것이라고 말했다. </t>
-  </si>
-  <si>
-    <t>['퇴직연금 DB', '퇴직연금 DC', '확정기여형', '확정급여형', '개인형퇴직연금', '퇴직연금 사업자', '퇴직연금 은퇴설계', '퇴직연금 규모', '우리은행 퇴직연금', '퇴직연금 수익률', '퇴직연금 포트폴리오']</t>
-  </si>
-  <si>
-    <t>[{'퇴직연금 DB': 3}, {'퇴직연금 DC': 48}, {'확정기여형': 37}, {'확정급여형': 9}, {'개인형퇴직연금': 60}, {'퇴직연금 사업자': 2}, {'퇴직연금 은퇴설계': 2}, {'퇴직연금 규모': 2}, {'우리은행 퇴직연금': 19}, {'퇴직연금 수익률': 25}, {'퇴직연금 포트폴리오': 19}]</t>
-  </si>
-  <si>
-    <t>우리은행은 전국 주요 금융센터에 연금전문가를 선발배치하여 퇴직연금 자산관리를 전문적으로 수행하고 있다.</t>
-  </si>
-  <si>
-    <t>퇴직연금 시장규모가 증가하고 국민연금 고갈 우려로 민간 퇴직연금사업자의 사회적 역할이 확대되고 있다.</t>
-  </si>
-  <si>
-    <t>퇴직연금 시장규모의 증가와 국민연금 고갈 우려로 인해 퇴직연금 자산의 관리와 수익률 관리가 중요해지고 있다.</t>
-  </si>
-  <si>
-    <t>본문에는 법률 및 규제 변경에 대한 내용이 언급되지 않았다.</t>
-  </si>
-  <si>
-    <t>본문에는 인구 통계 변화와 퇴직연금의 장기적인 지속 가능성에 대한 내용이 언급되지 않았다.</t>
-  </si>
-  <si>
-    <t>본문에는 기술과 디지털화에 대한 내용이 언급되지 않았다.</t>
-  </si>
-  <si>
-    <t>본문에는 소비 행동 및 요구사항에 대한 내용이 언급되지 않았다.</t>
-  </si>
-  <si>
-    <t>우리은행, 연금전문가 167명 주요 금융센터에 배치</t>
-  </si>
-  <si>
-    <t>우리은행은 전국 주요 167개 금융센터에 167명의 연금전문가를 선발해 배치한다고 밝혔다. 이번에 대면 업무를 선호하는 고객을 위해 영업점에서 퇴직연금을 전담 관리할 연금전문가를 선발하게 됐다는 설명이다. 퇴직연금 시장규모는 2022년 말 기준 336조원으로 2021년 말 대비 40조원 13.6이 증가했다.</t>
-  </si>
-  <si>
-    <t>https://www.viva100.com/main/view.php?key=20231011010002168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- 우리은행은 전문적이고 체계적인 퇴직연금 자산관리를 위해 전국 주요 167개 금융센터에 167명의 연금전문가를 선발해 배치한다고 11일 밝혔다.우리은행은 지난해 4월 비대면 연금고객 전담관리 조직인 연금고객관리센터를 신설했다. 이번에 대면 업무를 선호하는 고객을 위해 영업점에서 퇴직연금을 전담 관리할 연금전문가를 선발하게 됐다는 설명이다.선발된 연금전문가는 주요 금융센터에서 자산관리 업무를 수행 중인 직원을 위주로 선발했다. 고객별 맞춤형 포트폴리오와 은퇴설계 등 전문적인 밀착형 고객관리 업무로 고객의 금융자산 증식에 도움이 될 것을 목표로 삼고 있다.퇴직연금 시장규모는 2022년 말 기준 336조원으로 2021년 말 대비 40조원 13.6이 증가했다. 국민연금 고갈 우려로 민간 퇴직연금사업자의 사회적 역할이 확대되고 있어 2032년 말에는 860조원 규모로 성장할 것으로 예상된다.퇴직연금 성장률 전년대비은 확정급여형 DB이 21조원 12.2 확정기여형 DC이 8.3조원 10.8 개인형IRP가 11조원 23.9 증가하는 등 높은 성장률을 기록하고 있다. 최근 시장 패러다임이 DB에서 DC와 개인형IRP로 급격히 전환되는 추세다.특히 시장환경 변화로 개인고객을 대상으로 하는 연금자산 관리의 중요성이 커지며 높은 수준의 전문상담 능력과 체계적인 수익률 관리가 필요해졌다.우리은행 관계자는 연금사업자의 역량 기준이 수익률관리 능력인 만큼 연금전문가의 고객 은퇴자산 관리 역량을 강화해 나갈 것이라며 비대면 고객은 연금고객관리센터로 대면 고객은 주요 금융센터의 연금전문가로 체계적인 맞춤형 관리 체계를 구축했다고 말했다.김수환 기자 kshviva100.com 
-</t>
-  </si>
-  <si>
-    <t>['퇴직연금 DB', '퇴직연금 DC', '확정기여형', '확정급여형', 'IRP 연금수령', '퇴직연금 사업자', '퇴직연금 은퇴설계', '퇴직연금 규모', '우리은행 퇴직연금', '퇴직연금 서비스 ', '하나 퇴직연금', '퇴직연금 수익률', '퇴직연금 포트폴리오']</t>
-  </si>
-  <si>
-    <t>[{'퇴직연금 DB': 5}, {'퇴직연금 DB': 7}, {'퇴직연금 DB': 12}, {'퇴직연금 DB': 16}, {'퇴직연금 DB': 23}, {'퇴직연금 DB': 24}, {'퇴직연금 DB': 25}, {'퇴직연금 DB': 26}, {'퇴직연금 DB': 27}, {'퇴직연금 DB': 29}, {'퇴직연금 DB': 31}, {'퇴직연금 DB': 32}, {'퇴직연금 DB': 33}, {'퇴직연금 DB': 34}, {'퇴직연금 DB': 35}, {'퇴직연금 DB': 36}, {'퇴직연금 DB': 37}, {'퇴직연금 DB': 39}, {'퇴직연금 DB': 42}, {'퇴직연금 DB': 45}, {'퇴직연금 DB': 46}, {'퇴직연금 DB': 48}, {'퇴직연금 DB': 50}, {'퇴직연금 DB': 51}, {'퇴직연금 DB': 55}, {'퇴직연금 DB': 57}, {'퇴직연금 DB': 58}, {'퇴직연금 DB': 59}, {'퇴직연금 DC': 57}, {'확정기여형': 2}, {'확정기여형': 33}, {'확정급여형': 1}, {'확정급여형': 8}, {'확정급여형': 15}, {'확정급여형': 19}, {'확정급여형': 20}, {'확정급여형': 24}, {'확정급여형': 25}, {'확정급여형': 26}, {'확정급여형': 28}, {'확정급여형': 29}, {'확정급여형': 31}, {'확정급여형': 32}, {'확정급여형': 34}, {'확정급여형': 35}, {'확정급여형': 36}, {'확정급여형': 37}, {'확정급여형': 38}, {'확정급여형': 39}, {'확정급여형': 41}, {'확정급여형': 46}, {'확정급여형': 51}, {'확정급여형': 54}, {'확정급여형': 55}, {'확정급여형': 56}, {'확정급여형': 60}, {'IRP 연금수령': 1}, {'퇴직연금 사업자': 6}, {'퇴직연금 사업자': 12}, {'퇴직연금 사업자': 16}, {'퇴직연금 사업자': 17}, {'퇴직연금 사업자': 19}, {'퇴직연금 사업자': 27}, {'퇴직연금 사업자': 29}, {'퇴직연금 사업자': 31}, {'퇴직연금 사업자': 33}, {'퇴직연금 사업자': 35}, {'퇴직연금 사업자': 36}, {'퇴직연금 사업자': 37}, {'퇴직연금 사업자': 39}, {'퇴직연금 사업자': 42}, {'퇴직연금 사업자': 43}, {'퇴직연금 사업자': 44}, {'퇴직연금 사업자': 45}, {'퇴직연금 사업자': 46}, {'퇴직연금 사업자': 47}, {'퇴직연금 사업자': 48}, {'퇴직연금 사업자': 51}, {'퇴직연금 사업자': 55}, {'퇴직연금 사업자': 56}, {'퇴직연금 사업자': 58}, {'퇴직연금 은퇴설계': 7}, {'퇴직연금 은퇴설계': 13}, {'퇴직연금 은퇴설계': 19}, {'퇴직연금 은퇴설계': 20}, {'퇴직연금 은퇴설계': 22}, {'퇴직연금 은퇴설계': 29}, {'퇴직연금 은퇴설계': 30}, {'퇴직연금 은퇴설계': 32}, {'퇴직연금 은퇴설계': 34}, {'퇴직연금 은퇴설계': 35}, {'퇴직연금 은퇴설계': 37}, {'퇴직연금 은퇴설계': 39}, {'퇴직연금 은퇴설계': 43}, {'퇴직연금 은퇴설계': 44}, {'퇴직연금 은퇴설계': 45}, {'퇴직연금 은퇴설계': 46}, {'퇴직연금 은퇴설계': 48}, {'퇴직연금 은퇴설계': 49}, {'퇴직연금 은퇴설계': 50}, {'퇴직연금 은퇴설계': 53}, {'퇴직연금 은퇴설계': 59}, {'퇴직연금 은퇴설계': 60}, {'퇴직연금 규모': 4}, {'퇴직연금 규모': 8}, {'퇴직연금 규모': 14}, {'퇴직연금 규모': 19}, {'퇴직연금 규모': 21}, {'퇴직연금 규모': 24}, {'퇴직연금 규모': 31}, {'퇴직연금 규모': 32}, {'퇴직연금 규모': 35}, {'퇴직연금 규모': 37}, {'퇴직연금 규모': 39}, {'퇴직연금 규모': 41}, {'퇴직연금 규모': 43}, {'퇴직연금 규모': 45}, {'퇴직연금 규모': 46}, {'퇴직연금 규모': 47}, {'퇴직연금 규모': 48}, {'퇴직연금 규모': 49}, {'퇴직연금 규모': 50}, {'퇴직연금 규모': 51}, {'퇴직연금 규모': 55}, {'퇴직연금 규모': 60}, {'우리은행 퇴직연금': 2}, {'우리은행 퇴직연금': 7}, {'우리은행 퇴직연금': 10}, {'우리은행 퇴직연금': 17}, {'우리은행 퇴직연금': 24}, {'우리은행 퇴직연금': 26}, {'우리은행 퇴직연금': 28}, {'우리은행 퇴직연금': 29}, {'우리은행 퇴직연금': 33}, {'우리은행 퇴직연금': 35}, {'우리은행 퇴직연금': 36}, {'우리은행 퇴직연금': 46}, {'우리은행 퇴직연금': 52}, {'우리은행 퇴직연금': 54}, {'우리은행 퇴직연금': 56}, {'우리은행 퇴직연금': 57}, {'우리은행 퇴직연금': 58}, {'퇴직연금 서비스 ': 2}, {'퇴직연금 서비스 ': 11}, {'퇴직연금 서비스 ': 20}, {'퇴직연금 서비스 ': 28}, {'하나 퇴직연금': 2}, {'퇴직연금 수익률': 40}, {'퇴직연금 수익률': 49}, {'퇴직연금 포트폴리오': 38}, {'퇴직연금 포트폴리오': 47}, {'퇴직연금 포트폴리오': 54}, {'퇴직연금 포트폴리오': 55}, {'퇴직연금 포트폴리오': 58}]</t>
-  </si>
-  <si>
-    <t>우리은행은 전국 주요 167개 금융센터에 167명의 연금전문가를 선발해 배치하여 퇴직연금 자산관리를 강화하고 있다.</t>
-  </si>
-  <si>
-    <t>이번에 대면 업무를 선호하는 고객을 위해 영업점에서 퇴직연금을 전담 관리할 연금전문가를 선발하게 됐다는 설명이 있다.</t>
-  </si>
-  <si>
-    <t>퇴직연금 시장규모는 2022년 말 기준 336조원으로 2021년 말 대비 40조원 13.6이 증가했다.</t>
-  </si>
-  <si>
-    <t>우리은행 연금전문가 167개 금융센터에 배치, 대면 자산관리 역량 강화</t>
-  </si>
-  <si>
-    <t>우리은행이 연금전문가를 주요 금융센터에 배치해 퇴직연금 서비스 역량을 강화한다.</t>
-  </si>
-  <si>
-    <t>https://www.businesspost.co.kr/BP?command=article_view&amp;num=329550</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- 우리은행이 연금전문가를 주요 금융센터에 배치해 퇴직연금 서비스 역량을 강화한다.
-우리은행은 전문적이고 체계적 퇴직연금 자산관리를 위해 연금전문가를 뽑아 전국 금융센터 167곳에 배치한다고 11일 밝혔다.
-연금전문가로는 주요 금융센터에서 자산관리 업무를 수행하고 있는 직원이 선발된다.
-우리은행은 이번 배치는 대면 업무를 선호하는 고객을 위해 영업점에서 퇴직연금을 전담할 연금전문가를 선발하게 됐다고 설명했다.
-지난해 4월에는 비대면 연금고객 전담관리 조직 연금고객관리센터를 새로 만든 바 있다.
-우리은행 관계자는 비대면 고객은 연금고객관리센터로 대면 고객은 주요 금융센터 연금전문가로 체계적 맞춤형 관리 체계를 구축했다며 연금사업자 역량 기준이 수익률관리능력인만큼 연금전문가의 고객 은퇴자산 관리 역량을 강화해 나가겠다고 말했다. 김환 기자
-</t>
-  </si>
-  <si>
-    <t>['우리은행 퇴직연금', '퇴직연금 서비스 ']</t>
-  </si>
-  <si>
-    <t>[{'우리은행 퇴직연금': 45}, {'퇴직연금 서비스 ': 7}]</t>
-  </si>
-  <si>
-    <t>우리은행이 연금전문가를 전국 금융센터에 배치하여 퇴직연금 자산관리를 강화하고 있다.</t>
-  </si>
-  <si>
-    <t>기사에는 경쟁 동향에 대한 정보가 없으므로 점수를 낮게 준다.</t>
-  </si>
-  <si>
-    <t>기사에는 금융시장의 영향에 대한 정보가 없으므로 점수를 낮게 준다.</t>
-  </si>
-  <si>
-    <t>기사에는 법적 및 규제 변화에 대한 정보가 없으므로 점수를 주지 않는다.</t>
-  </si>
-  <si>
-    <t>기사에는 인구 변화에 대한 정보가 없으므로 점수를 주지 않는다.</t>
-  </si>
-  <si>
-    <t>기사에는 기술 및 디지털화에 대한 정보가 없으므로 점수를 주지 않는다.</t>
-  </si>
-  <si>
-    <t>기사에는 소비 행동 및 요구사항에 대한 정보가 없으므로 점수를 주지 않는다.</t>
-  </si>
-  <si>
-    <t>삼성운용, 만기 채권형 ETF 신규 상장</t>
-  </si>
-  <si>
-    <t>삼성자산운용이 KODEX 2511 회사채 A 이상 액티브 ETF를 신규 상장한다고 밝혔다. 이 ETF는 우량 등급 회사채에 투자해 높은 수익을 목표로 한다. 만기는 2025년 11월이며, 만기 기대수익률은 연 4.8이다.</t>
-  </si>
-  <si>
-    <t>https://n.news.naver.com/mnews/article/011/0004247558?sid=101</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 삼성자산운용이 만기채권형 상장지수펀드 ETF인 KODEX 2511 회사채 A 이상 액티브 ETF를 신규 상장한다고 11일 밝혔다.KODEX 2511 회사채 A 이상 액티브 ETF는 우량 등급 회사채 중심으로 투자해 국공채나 은행채 대비 높은 수익을 목표로 하는 상품이다. 만기는 2025년 11월이다. 만기 기대수익률 YTM은 11일 기준 연 4.8이며 총 보수는 연 0.09다.삼성운용은 고금리 상황에서 비교적 높은 수준의 만기 기대수익률을 확정적으로 얻을 수 있는 것이 신규 상품의 강점이라고 설명했다. 특히 KODEX 2511 회사채 A 이상 액티브 ETF는 AAA 등급부터 A 등급까지 다양한 등급의 회사채에 투자해 동종 회사채 ETF 중 더 높은 수익을 기대할 수 있다.만기 매칭형 채권 ETF는 정기예금과 유사한 성격을 갖고 있어 안정적인 투자처로 꼽힌다. 만기매칭형 채권 ETF는 투자 금액에 제한이 없으며 중도 환매를 해도 해지 수수료 없이 그간 쌓은 수익을 온전히 받을 수 있다. 아울러 개인투자자들은 연금저축계좌와 퇴직연금계좌 DCIRP에서도 100 투자할 수 있다.임태혁 삼성자산운용 ETF운용본부 상무는 KODEX 2511 회사채 A 이상 액티브 ETF는 국고채나 은행채 대비 매력적인 금리 수준을 제공하는 만큼 상대적으로 고금리 상품을 찾고 있는 투자자들의 선호도가 높을 것으로 예상된다고 말했다.</t>
-  </si>
-  <si>
-    <t>['삼성 퇴직연금', '퇴직연금 ETF', '퇴직연금 채권']</t>
-  </si>
-  <si>
-    <t>[{'삼성 퇴직연금': 3}, {'퇴직연금 ETF': 5}, {'퇴직연금 채권': 2}]</t>
-  </si>
-  <si>
-    <t>삼성운용이 고금리 상황에서 높은 수준의 만기 기대수익률을 제공하는 강점이 있다.</t>
-  </si>
-  <si>
-    <t>신규 상장된 ETF로서, 시장에서의 경쟁 동향과 새로운 제품 및 서비스 출시에 대한 정보를 파악할 수 있다.</t>
-  </si>
-  <si>
-    <t>금융 시장의 움직임, 이자율 변동 및 투자 자산의 변동성이 연금연금업계에 미치는 영향을 이해할 수 있다.</t>
-  </si>
-  <si>
-    <t>변경된 법률 및 규정에 대한 정보가 제공되지 않았다.</t>
-  </si>
-  <si>
-    <t>노령화와 관련된 인구 통계적 요인 및 연금 기금이 장기적인 지속 가능성에 미치는 영향에 대한 정보가 제공되지 않았다.</t>
-  </si>
-  <si>
-    <t>연금 관리 및 제공 서비스에 대한 디지털화 및 기술 혁신의 영향에 대한 정보가 제공되지 않았다.</t>
-  </si>
-  <si>
-    <t>연금 수령자의 소비 패턴, 투자 선호도 및 요구 사항에 대한 정보가 제공되지 않았다.</t>
-  </si>
-  <si>
-    <t>삼성운용, 'KODEX 25-11 회사채 액티브 ETF' 신규 상장</t>
-  </si>
-  <si>
-    <t>삼성자산운용이 새로운 만기매칭형 회사채 ETF를 선보였다. KODEX 2511 회사채 A이상 액티브 ETF는 우량등급 회사채에 투자해 높은 이자수익을 실현할 수 있는 상품이다. 만기매칭형 ETF는 고금리 상황에서 투자하기에 유리하다.</t>
-  </si>
-  <si>
-    <t>https://n.news.naver.com/mnews/article/014/0005083935?sid=101</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 채권 펀드의 명가 삼성자산운용이 새로운 만기매칭형 회사채 ETF를 선보인다. 11일 삼성자산운용에 따르면 이날 KODEX 2511 회사채 A이상 액티브 ETF가 신규 상장했다. KODEX 2511 회사채 A이상 액티브 ETF는 개별 채권처럼 만기가 있는 ETF로 존속기한이 2025년 11월까지다. 이 상품은 우량등급 회사채 중심으로 투자해 국공채나 은행채 대비 높은 이자수익을 실현할 수 있는 상품이다. 만기 기대 수익률 YTM은 연 4.80 2023.10.11 기준에 달하며 총 보수는 연 0.09다. 만기매칭형 ETF는 고금리 상황에서 투자하면 비교적 높은 수준의 만기 기대 수익률 YTM을 얻을 수 있기 때문에 당분간 미국을 필두로 시장 금리가 고공 행진을 유지할 것으로 예상되는 현 시점에서 투자하기에 유리하다. 특히 KODEX 2511 회사채 액티브는 AAA등급부터 A등급까지 다양한 등급 회사채에 투자하므로 업계 동종 회사채 ETF 가운데 비교적 더 높은 수익을 기대할 수 있다. 삼성자산운용은 철저한 신용 분석을 통한 사전 위험 관리 및 분산투자를 통해 신용 리스크를 최소화할 계획이다. 만기매칭형 ETF는 일반적으로 정기예금과 유사한 특징을 갖고 있다. 따라서 변동성이 높은 시장에서 최대한 안정적인 투자를 원하는 투자자 고금리 상황에서 채권 투자에 관심이 높은 투자자에게 적합하다. 게다가 정기예금에 비해 투자금액에 제한이 없고 중도 환매를 하더라도 별도의 해지수수료 없이 그 시점까지 쌓인 수익을 온전히 받을 수 있는 차별점도 있다. 개인 투자자들은 연금저축계좌는 물론 퇴직연금 DC IRP 자산관리 계좌에서도 100 투자할 수 있다. 연금계좌에서 투자하면 안정적인 수익은 물론 세액공제 혜택과 과세이연 후 저율 과세 등 다양한 효과를 누릴 수 있다. 임태혁 삼성자산운용 ETF운용본부 상무는 KODEX 2511 회사채 A이상 액티브 ETF는 업계 최대 168조원의 채권형 상품을 운용하고 있는 최고 수준의 채권 전문가 삼성자산운용의 채권운용본부가 직접 엄선하는 우량 등급 회사채에 분산투자하는 상품으로 국고채나 은행채 대비 매력적인 금리 수준을 제공하는 만큼 상대적으로 고금리 상품을 찾고 있는 투자자들의 선호도가 높을 것으로 예상된다며 연초 대비 금리 수준이 높아진 현 상황에서 새로 상장하는 2511 회사채 ETF에 투자하면 비교적 높은 만기 기대 수익률을 얻을 수 있기 때문에 현 시점에서 투자하기에 적합한 ETF라고 전했다. 한편 삼성자산운용은 현재 국고채 만기채권 ETF 3종 KODEX 2312 국고채 액티브 KODEX 3306 국고채 액티브 KODEX 5309 국고채 액티브와 은행채 만기채권 ETF 2종 KODEX 2312 은행채 액티브 KODEX 2412 은행채 액티브 등 다양한 만기매칭형 ETF 라인업을 구축해 업계에서 제일 많은 총 3조 2천억 원의 순자산을 보유하고 있다. 삼성자산운용 회사채액티브ETF </t>
-  </si>
-  <si>
-    <t>['삼성 퇴직연금', '퇴직연금 ETF', '퇴직연금 라인업']</t>
-  </si>
-  <si>
-    <t>[{'삼성 퇴직연금': 1}, {'삼성 퇴직연금': 5}, {'삼성 퇴직연금': 6}, {'삼성 퇴직연금': 9}, {'삼성 퇴직연금': 15}, {'삼성 퇴직연금': 16}, {'삼성 퇴직연금': 19}, {'퇴직연금 ETF': 3}, {'퇴직연금 ETF': 7}, {'퇴직연금 ETF': 8}, {'퇴직연금 ETF': 10}, {'퇴직연금 ETF': 15}, {'퇴직연금 ETF': 17}, {'퇴직연금 ETF': 20}, {'퇴직연금 라인업': 32}]</t>
-  </si>
-  <si>
-    <t>삼성자산운용은 철저한 신용 분석을 통한 사전 위험 관리 및 분산투자를 통해 신용 리스크를 최소화할 계획이다.</t>
-  </si>
-  <si>
-    <t>KODEX 2511 회사채 액티브는 AAA등급부터 A등급까지 다양한 등급 회사채에 투자하므로 업계 동종 회사채 ETF 가운데 비교적 더 높은 수익을 기대할 수 있다.</t>
-  </si>
-  <si>
-    <t>만기매칭형 ETF는 고금리 상황에서 투자하면 비교적 높은 수준의 만기 기대 수익률 YTM을 얻을 수 있기 때문에 당분간 미국을 필두로 시장 금리가 고공 행진을 유지할 것으로 예상되는 현 시점에서 투자하기에 유리하다.</t>
-  </si>
-  <si>
-    <t>‘억’ 소리 나는 은행권 희망 퇴직금…6년간 10조 쐈다</t>
-  </si>
-  <si>
-    <t>국내 은행이 최근 6년간 9조 6047억 원의 희망 퇴직금을 지급한 것으로 나타났다. 희망퇴직자는 매년 증가하고 이들에게 지급된 퇴직금 역시 천문학적 수준으로 늘어났다. 은행권 희망 퇴직 현황을 살펴보면 같은 기간 희망퇴직자는 1만7402명이며 이에 지급된 퇴직금은 9조6047억원에 달했다.</t>
-  </si>
-  <si>
-    <t>https://n.news.naver.com/mnews/article/011/0004247529?sid=101</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 지난 2018년 이후 국내 은행이 최근 6년간 9조 6047억 원의 희망 퇴직금을 지급한 것으로 나타났다.은행권 임금피크제 신청 직원 수는 감소하는 반면 희망퇴직자는 매년 증가하고 이들에게 지급된 퇴직금 역시 천문학적 수준으로 늘어났다.10일 강민국 국민의힘 의원실이 금융감독원으로 받은 국내 은행권 임금피크 신청 현황 자료에 따르면 지난 2018년2023년 7월까지 6년간 인터넷은행 3개 사를 제외한 17개 사의 임금피크제 신청건수는 총 1만1247건이었다.연도별로 살펴보면 2018년 1365건 2019년 1536건 2020년 1756건 2021년 2219건 지난해 2190건으로 최근 들어 감소하고 있다.이에 반해 희망퇴직자는 급증하는 중이다.국내 은행권 희망 퇴직 현황을 살펴보면 같은 기간 희망퇴직자는 1만7402명이며 이에 지급된 퇴직금은 9조6047억원에 달했다. 이는 같은 기간 희망 퇴직제 운영 중인 은행 전체 퇴직자 2만6852명의 64.8 퇴직금액으로는 전체 퇴직금 10조1243억원의 94.8로 절대적 수준을 차지하고 있다.연도별로 희망퇴직자는 2018년 2573명 1조1314억원 2019년 2651명 1조4045억원 2020년 2473명 1조2743억원 2021년 3511명 1조9407억원 지난해 4312명 2조8283억원으로 급증하는 추세다.특히 희망 퇴직자가 가장 많은 은행은 국민은행 3671명이었으며 이어 하나은행 2464명 농협은행 2349명 등의 순으로 집계됐다. 또 희망 퇴직금이 가장 많은 은행은 씨티은행 1조7593억원이었다.강민국 의원은 지난한 코로나 시기를 겪으며 경제적 어려움을 겪고 있는 국민들은 계속된 천문학적 수준의 은행권 횡령과 배임 등의 금융사고로 인해 은행산업 전반에 대한 불신이 극에 달하고 있다며 그런 만큼 공공재 성격을 가진 은행은 위화감을 조성할 수 있을 정도의 과도한 복지지원금 성격을 가진 희망 퇴직금 지급에 대해 숙고해야 한다고 지적했다.이어 은행권은 역대급 실적에 따른 돈 잔치로 보이지 않게 국민의 눈높이에 맞는 수준에서의 희망퇴직금 운영방안을 마련하는 것이 필요하다고 전했다.</t>
-  </si>
-  <si>
-    <t>[{'희망퇴직 퇴직금': 2}, {'임금피크제': 17}]</t>
-  </si>
-  <si>
-    <t>은행이 희망 퇴직금을 천문학적 수준으로 지급하고 있다는 사실을 언급하였다.</t>
-  </si>
-  <si>
-    <t>경쟁 동향에 대한 정보가 없다.</t>
-  </si>
-  <si>
-    <t>금융 시장의 변동성에 대한 언급이 없다.</t>
-  </si>
-  <si>
-    <t>법적 및 규제 변화에 대한 정보가 없다.</t>
-  </si>
-  <si>
-    <t>희망퇴직자의 증가와 퇴직금 지급에 대한 정보가 있다.</t>
-  </si>
-  <si>
-    <t>기술과 디지털화에 대한 정보가 없다.</t>
-  </si>
-  <si>
-    <t>소비 행동 및 요구사항에 대한 정보가 없다.</t>
-  </si>
-  <si>
-    <t>기아</t>
-  </si>
-  <si>
-    <t>기아 노조 12일부터 파업… 정년연장·고용세습 요구</t>
-  </si>
-  <si>
-    <t>기아 노동조합이 파업에 돌입한다. 사측이 정년연장과 단체협약상 고용세습 우선채용 조항 유지 요구를 들어주지 않은 것이다. 노조는 임금 및 단체협약 임단협 교섭 결렬로 파업을 벌이는 건 3년 만이다.</t>
-  </si>
-  <si>
-    <t>https://n.news.naver.com/mnews/article/366/0000938263?sid=103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  기아 노동조합이 12일부터 파업에 돌입한다. 사측이 정년연장과 단체협약상 고용세습 우선채용 조항 유지 요구를 들어주지 않은 데 따른 것이다. 기아 노조가 임금 및 단체협약 임단협 교섭 결렬로 파업을 벌이는 건 3년 만이다.전국민주노동조합총연맹 민주노총 전국금속노동조합 금속노조 기아차지부 기아 노조는 11일 노조 소식지를 통해 올해 임단협 교섭 최종 결렬을 선언하고 파업에 돌입한다고 밝혔다. 노조는 전날 사측과의 14차 본교섭 이후 진행한 지부쟁의대책위원회에서 이같은 결정을 내렸다.  노조는 소식지에서 사측 교섭위원들은 노조 요구를 무시한 채 현대차와 똑같은 제시안과 개악안을 끝까지 고집하여 그룹사 내 서열화를 고착시키려 했고 자주적인 교섭을 포기해 스스로 현대차의 하수인임을 인정했다며 현대차 교섭안을 베끼는 수준인 사측 만행에 노조는 더이상 교섭의 의미가 없다고 판단했다고 밝혔다.노조는 1213일 1719일 오전 4시간 오후 4시간 파업한다. 20일에는 오전 6시간 오후 6시간을 파업한다.기아 노조는 교섭을 진행하는 날은 정상적으로 근무한다. 파업 일정상 추후 교섭일은 16일이 유력하다. 파업 당일인 12일에도 노사간 긴급 교섭을 가질 가능성이 있다. 회사 관계자는 아직 교섭 일자가 나오지 않았다고 했다. 노조는 이와 함께 파워트레인 동력계PT 군수 지역출하를 포함한 생산 특별근무 특근도 거부하기로 했다.노사 교섭 쟁점은 정년연장과 단협상 고용세습 조항 개정이다. 사측은 현대차와 동일한 수준의 임금과 성과급 규모를 노조 측에 제시했으나 노조는 이도 부족하다는 입장이다.고용세습 조항은 기아 노사 단협 제27조에 담긴 것으로 재직 중 질병으로 사망한 조합원의 직계가족 1인 정년퇴직자 및 장기근속자 25년 이상 자녀를 우선 채용한다는 내용이다. 고용노동부는 이 조항이 균등한 취업 기회를 보장하는 헌법과 고용정책기본법을 위반할 여지가 있다고 본다. 반면 노조는 십수 년 전부터 실행하지 않아 개정할 필요가 없다고 주장한다.정년연장은 현재 60세인 정년을 국민연금 수령 전년인 64세까지 늘려달라는 것이다. 앞서 기아 노조는 평균 수명 100세를 앞둔 시점에서 60세에 퇴직하면 연금 수령 나이인 65세까지 경제적 어려움이 발생할 수밖에 없다며 사측은 동종사 현대차 핑계 대지 말고 정년연장 요구에 전향적인 안을 제시하라고 전했다.기아 노조는 사측이 제시한 기본급 11만1000원 인상 성과급 4001050만원 무분규 타결 격려금 250만원주식 34주 등도 거부했다. 각종 수당 개선을 요구하고 있는 것이다. 또 사측이 요구했던 성과 연동 임금 체계 개편안은 노조 반대로 이미 무산된 상태다.</t>
-  </si>
-  <si>
-    <t>['퇴직연금 고용노동부', '현대차 퇴직연금', '정년퇴직']</t>
-  </si>
-  <si>
-    <t>[{'퇴직연금 고용노동부': 1}, {'현대차 퇴직연금': 5}, {'정년퇴직': 1}]</t>
-  </si>
-  <si>
-    <t>해당 기사는 연금 관리 전략, 수익률, 투자 자산 할당 모니터링 및 금융 시장 변동의 영향 분석에 대한 내용이 없습니다.</t>
-  </si>
-  <si>
-    <t>해당 기사는 경쟁 동향, 시장 점유율 및 새로운 제품 및 서비스 출시에 대한 내용이 없습니다.</t>
-  </si>
-  <si>
-    <t>해당 기사는 금융 시장 움직임, 이자율 변동 및 투자 자산의 변동성이 연금 연금산업에 미치는 영향에 대한 내용이 없습니다.</t>
-  </si>
-  <si>
-    <t>해당 기사는 기아 노조와 사측 간의 단체협약상 고용세습 우선채용 조항 개정에 대한 내용을 다루고 있습니다. 이는 법률 및 규제 변화와 관련된 내용입니다.</t>
-  </si>
-  <si>
-    <t>해당 기사는 인구 통계 변화 및 연금 기금이 장기적인 지속 가능성에 미치는 영향에 대한 내용이 없습니다.</t>
-  </si>
-  <si>
-    <t>해당 기사는 기술과 디지털화에 대한 혁신과 연금 관리 및 서비스 제공에 미치는 영향에 대한 내용이 없습니다.</t>
-  </si>
-  <si>
-    <t>해당 기사는 연금 수령자의 소비 패턴, 투자 선호도 및 요구사항에 대한 내용이 없습니다.</t>
-  </si>
-  <si>
-    <t>BNK경남은행</t>
-  </si>
-  <si>
-    <t>BNK경남은행, '퇴직연금 가입자 정보 업데이트' 고객이벤트</t>
-  </si>
-  <si>
-    <t>BNK경남은행은 11월 30일까지 퇴직연금 가입자 정보 업데이트 대고객 이벤트를 진행한다. 이벤트 기간 동안 퇴직연금 가입자 정보 중 한가지 항목이라도 변경한 DCIRP 가입 고객을 대상으로 추첨을 통해 5천 명에게 모바일 커피 쿠폰 1매를 지급한다. 퇴직연금 개인정보 확인 및 이벤트 참여 방법은 인터넷뱅킹 또는 모바일뱅킹 App상품관리 메뉴에 접속해 가입자가 직접 변경하거나 영업점 방문을 통해서도 가능하다.</t>
-  </si>
-  <si>
-    <t>https://n.news.naver.com/mnews/article/079/0003821631?sid=102</t>
-  </si>
-  <si>
-    <t>BNK경남은행이 11월 30일까지 퇴직연금 가입자 정보 업데이트 대고객 이벤트 퇴직연금 관리 스마트하게바꾸면 쏜다를 진행한다.퇴직연금 가입자 정보는 DCIRP 퇴직연금 가입 시 고객이 입력한 전화번호 주소 이메일 통지 동의 등 고객정보이며 퇴직연금 가입자 정보에 등록된 연락처로 해당 고객의 DCIRP 퇴직연금 관련 정보와 가입자 교육 자료가 제공된다.이벤트 기간 동안 퇴직연금 가입자 정보 중 한가지 항목이라도 변경한 DCIRP 가입 고객을 대상으로 추첨을 통해 5천 명에게 모바일 커피 쿠폰 1매를 지급한다.퇴직연금 개인정보 확인 및 이벤트 참여 방법은 인터넷뱅킹 또는 모바일뱅킹 App상품관리 메뉴에 접속해 가입자가 직접 변경하거나 영업점 방문을 통해서도 가능하다.퇴직연금 가입자 정보변경 대고객 이벤트에 대한 자세한 사항은BNK경남은행 홈페이지 또는 모바일뱅킹에서 확인할 수 있다.신탁사업단 이정훈 단장은퇴직연금 가입자 정보 업데이트는 디폴트옵션 등 변경된 퇴직연금 제도 안내 및 고객 운용현황 보고서가입자 교육자료 등 퇴직연금 관련 중요한 안내자료를 놓치지 않고 받아볼 수 있다는 점에서 중요하다.이번 이벤트를 통해 고객들이 좀 더 퇴직연금 계좌에 관심을 갖고 관리를 하는데 도움이 됐으면 한다고 전했다.한편 BNK경남은행은 고객의 퇴직연금 자산을 전문적으로 관리하기 위해 퇴직연금 상담센터를 운영 중이다.퇴직연금 상담센터는 퇴직연금제도 신규관리지급 등 제도운영 상담을 비롯해 퇴직연금 운용상품 만기 퇴직연금 미운용자산 사전지정운용제도 디폴트옵션 등을 안내해준다.CBS노컷뉴스는 여러분의 제보로 함께 세상을 바꿉니다. 각종 비리와 부당대우 사건사고와 미담 등 모든 얘깃거리를 알려주세요.이메일 jebocbs.co.kr카카오톡 노컷뉴스사이트 https url.kr b71afn</t>
-  </si>
-  <si>
-    <t>['퇴직연금 DC', '퇴직연금 IRP', '퇴직연금 이벤트', '디폴트옵션 이벤트', 'DC 이벤트', 'IRP 이벤트', '퇴직연금 상담센터', '퇴직연금 가입']</t>
-  </si>
-  <si>
-    <t>[{'퇴직연금 DC': 29}, {'퇴직연금 IRP': 42}, {'퇴직연금 이벤트': 41}, {'디폴트옵션 이벤트': 56}, {'DC 이벤트': 36}, {'IRP 이벤트': 34}, {'퇴직연금 상담센터': 1}, {'퇴직연금 가입': 36}]</t>
-  </si>
-  <si>
-    <t>퇴직연금 가입자 정보 업데이트와 관련된 이벤트 진행</t>
-  </si>
-  <si>
-    <t>해당 기사에는 산업 경쟁 동향에 대한 내용이 없음</t>
-  </si>
-  <si>
-    <t>해당 기사에는 금융 시장의 영향에 대한 내용이 없음</t>
-  </si>
-  <si>
-    <t>해당 기사에는 법적 및 규제 변화에 대한 내용이 없음</t>
-  </si>
-  <si>
-    <t>해당 기사에는 인구 변화에 대한 내용이 없음</t>
-  </si>
-  <si>
-    <t>해당 기사에는 기술 및 디지털화에 대한 내용이 없음</t>
-  </si>
-  <si>
-    <t>해당 기사에는 소비 행태 및 요구사항에 대한 내용이 없음</t>
-  </si>
-  <si>
-    <t>-</t>
+    <t>한국투자증권</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>삼성증권</t>
+    <t>금융위</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1726,12 +2866,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2034,18 +3173,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X42"/>
+  <dimension ref="A1:X76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.875" customWidth="1"/>
-    <col min="2" max="2" width="16.375" customWidth="1"/>
-    <col min="4" max="4" width="68.5" customWidth="1"/>
-    <col min="5" max="5" width="24.375" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="72.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
@@ -2130,1327 +3269,1339 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>532</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K2">
         <v>3</v>
       </c>
       <c r="L2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M2">
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O2">
+        <v>3</v>
+      </c>
+      <c r="P2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2">
         <v>1</v>
       </c>
-      <c r="P2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
       <c r="R2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>40</v>
       </c>
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
         <v>42</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
         <v>43</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>44</v>
       </c>
-      <c r="F3">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>45</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>46</v>
-      </c>
-      <c r="I3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" t="s">
-        <v>48</v>
       </c>
       <c r="K3">
         <v>3</v>
       </c>
       <c r="L3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3">
+        <v>3</v>
+      </c>
+      <c r="P3" t="s">
         <v>49</v>
       </c>
-      <c r="M3">
+      <c r="Q3">
         <v>1</v>
       </c>
-      <c r="N3" t="s">
+      <c r="R3" t="s">
         <v>50</v>
       </c>
-      <c r="O3">
-        <v>2</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3" t="s">
         <v>51</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3" t="s">
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3" t="s">
         <v>52</v>
       </c>
-      <c r="S3">
-        <v>2</v>
-      </c>
-      <c r="T3" t="s">
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3" t="s">
         <v>53</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3" t="s">
-        <v>54</v>
-      </c>
-      <c r="W3">
-        <v>3</v>
-      </c>
-      <c r="X3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s">
         <v>56</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
         <v>57</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>58</v>
       </c>
-      <c r="F4">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>59</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>60</v>
-      </c>
-      <c r="I4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" t="s">
-        <v>62</v>
       </c>
       <c r="K4">
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4">
+        <v>4</v>
+      </c>
+      <c r="P4" t="s">
         <v>63</v>
       </c>
-      <c r="O4">
-        <v>2</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4" t="s">
         <v>64</v>
       </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4" t="s">
         <v>65</v>
       </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4" t="s">
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4" t="s">
         <v>66</v>
       </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4" t="s">
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4" t="s">
         <v>67</v>
-      </c>
-      <c r="W4">
-        <v>2</v>
-      </c>
-      <c r="X4" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" t="s">
         <v>71</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
         <v>72</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>73</v>
       </c>
-      <c r="F5">
-        <v>6</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>74</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>75</v>
-      </c>
-      <c r="I5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J5" t="s">
-        <v>77</v>
       </c>
       <c r="K5">
         <v>3</v>
       </c>
       <c r="L5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M5">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O5">
         <v>1</v>
       </c>
       <c r="P5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5" t="s">
+        <v>79</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s">
         <v>80</v>
       </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5" t="s">
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5" t="s">
         <v>81</v>
       </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5" t="s">
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5" t="s">
         <v>82</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5" t="s">
-        <v>83</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>531</v>
+      <c r="C6" t="s">
+        <v>69</v>
       </c>
       <c r="D6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
         <v>85</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6" t="s">
         <v>86</v>
       </c>
-      <c r="F6">
-        <v>6</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>87</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>88</v>
-      </c>
-      <c r="I6" t="s">
-        <v>89</v>
-      </c>
-      <c r="J6" t="s">
-        <v>90</v>
       </c>
       <c r="K6">
         <v>3</v>
       </c>
       <c r="L6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M6">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O6">
         <v>1</v>
       </c>
       <c r="P6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6" t="s">
+        <v>92</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s">
         <v>93</v>
       </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6" t="s">
-        <v>94</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6" t="s">
-        <v>95</v>
-      </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" t="s">
         <v>98</v>
       </c>
-      <c r="D7" t="s">
+      <c r="I7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" t="s">
         <v>99</v>
-      </c>
-      <c r="E7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I7" t="s">
-        <v>103</v>
-      </c>
-      <c r="J7" t="s">
-        <v>104</v>
       </c>
       <c r="K7">
         <v>3</v>
       </c>
       <c r="L7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="S7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" t="s">
+        <v>107</v>
+      </c>
+      <c r="J8" t="s">
+        <v>108</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8" t="s">
+        <v>109</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>110</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8" t="s">
+        <v>112</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8" t="s">
         <v>113</v>
       </c>
-      <c r="E8" t="s">
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8" t="s">
         <v>114</v>
       </c>
-      <c r="F8">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8" t="s">
         <v>115</v>
-      </c>
-      <c r="H8" t="s">
-        <v>116</v>
-      </c>
-      <c r="I8" t="s">
-        <v>117</v>
-      </c>
-      <c r="J8" t="s">
-        <v>118</v>
-      </c>
-      <c r="K8">
-        <v>4</v>
-      </c>
-      <c r="L8" t="s">
-        <v>119</v>
-      </c>
-      <c r="M8">
-        <v>2</v>
-      </c>
-      <c r="N8" t="s">
-        <v>120</v>
-      </c>
-      <c r="O8">
-        <v>3</v>
-      </c>
-      <c r="P8" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-      <c r="R8" t="s">
-        <v>122</v>
-      </c>
-      <c r="S8">
-        <v>4</v>
-      </c>
-      <c r="T8" t="s">
-        <v>123</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8" t="s">
-        <v>124</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E9" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F9">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G9" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="H9" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="I9" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="J9" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K9">
         <v>3</v>
       </c>
       <c r="L9" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="M9">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="O9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="U9">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="W9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X9" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E10" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="H10" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="I10" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="J10" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="K10">
         <v>3</v>
       </c>
       <c r="L10" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="M10">
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="O10">
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="S10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="U10">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>152</v>
+        <v>94</v>
       </c>
       <c r="D11" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="E11" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="F11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G11" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="H11" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="I11" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="J11" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="K11">
         <v>3</v>
       </c>
       <c r="L11" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="M11">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="O11">
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="U11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E12" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="F12">
         <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="H12" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="I12" t="s">
-        <v>170</v>
+        <v>45</v>
       </c>
       <c r="J12" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>160</v>
+      </c>
+      <c r="O12">
         <v>1</v>
       </c>
-      <c r="N12" t="s">
-        <v>173</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
       <c r="P12" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="S12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="U12">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>166</v>
       </c>
       <c r="D13" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E13" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="F13">
         <v>6</v>
       </c>
       <c r="G13" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H13" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="I13" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="J13" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="K13">
         <v>3</v>
       </c>
       <c r="L13" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>174</v>
+      </c>
+      <c r="O13">
         <v>1</v>
       </c>
-      <c r="N13" t="s">
-        <v>186</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
       <c r="P13" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R13" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="U13">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="D14" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="E14" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="F14">
         <v>6</v>
       </c>
       <c r="G14" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="H14" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="I14" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="J14" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="K14">
         <v>3</v>
       </c>
       <c r="L14" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="M14">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="O14">
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="U14">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>201</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E15" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G15" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="H15" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="I15" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="J15" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="K15">
         <v>3</v>
       </c>
       <c r="L15" t="s">
+        <v>201</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>202</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15" t="s">
+        <v>204</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15" t="s">
+        <v>205</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15" t="s">
+        <v>206</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15" t="s">
         <v>207</v>
-      </c>
-      <c r="M15">
-        <v>2</v>
-      </c>
-      <c r="N15" t="s">
-        <v>208</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15" t="s">
-        <v>210</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15" t="s">
-        <v>211</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15" t="s">
-        <v>212</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>214</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E16" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G16" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H16" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="I16" t="s">
-        <v>219</v>
+        <v>133</v>
       </c>
       <c r="J16" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="K16">
         <v>3</v>
       </c>
       <c r="L16" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="M16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N16" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="O16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
       <c r="R16" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="U16">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>228</v>
+        <v>914</v>
       </c>
       <c r="D17" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E17" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="F17">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="H17" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I17" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="J17" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="K17">
         <v>3</v>
       </c>
       <c r="L17" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="M17">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="O17">
+        <v>3</v>
+      </c>
+      <c r="P17" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q17">
         <v>1</v>
       </c>
-      <c r="P17" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
       <c r="R17" t="s">
-        <v>70</v>
+        <v>230</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" t="s">
-        <v>70</v>
+        <v>231</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" t="s">
-        <v>70</v>
+        <v>232</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X17" t="s">
-        <v>70</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
       </c>
       <c r="C18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" t="s">
+        <v>234</v>
+      </c>
+      <c r="E18" t="s">
+        <v>235</v>
+      </c>
+      <c r="F18">
+        <v>9</v>
+      </c>
+      <c r="G18" t="s">
+        <v>236</v>
+      </c>
+      <c r="H18" t="s">
+        <v>237</v>
+      </c>
+      <c r="I18" t="s">
         <v>238</v>
       </c>
-      <c r="D18" t="s">
+      <c r="J18" t="s">
         <v>239</v>
-      </c>
-      <c r="E18" t="s">
-        <v>240</v>
-      </c>
-      <c r="F18">
-        <v>6</v>
-      </c>
-      <c r="G18" t="s">
-        <v>241</v>
-      </c>
-      <c r="H18" t="s">
-        <v>242</v>
-      </c>
-      <c r="I18" t="s">
-        <v>243</v>
-      </c>
-      <c r="J18" t="s">
-        <v>244</v>
       </c>
       <c r="K18">
         <v>3</v>
       </c>
       <c r="L18" t="s">
+        <v>240</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>241</v>
+      </c>
+      <c r="O18">
+        <v>4</v>
+      </c>
+      <c r="P18" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18" t="s">
+        <v>243</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18" t="s">
+        <v>244</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18" t="s">
         <v>245</v>
       </c>
-      <c r="M18">
-        <v>2</v>
-      </c>
-      <c r="N18" t="s">
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18" t="s">
         <v>246</v>
-      </c>
-      <c r="O18">
-        <v>1</v>
-      </c>
-      <c r="P18" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B19" t="s">
+        <v>247</v>
+      </c>
+      <c r="C19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" t="s">
         <v>248</v>
       </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>249</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19">
+        <v>8</v>
+      </c>
+      <c r="G19" t="s">
         <v>250</v>
       </c>
-      <c r="F19">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>251</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>252</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>253</v>
-      </c>
-      <c r="J19" t="s">
-        <v>254</v>
       </c>
       <c r="K19">
         <v>3</v>
       </c>
       <c r="L19" t="s">
+        <v>254</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
         <v>255</v>
       </c>
-      <c r="M19">
+      <c r="O19">
         <v>1</v>
       </c>
-      <c r="N19" t="s">
+      <c r="P19" t="s">
         <v>256</v>
       </c>
-      <c r="O19">
-        <v>2</v>
-      </c>
-      <c r="P19" t="s">
+      <c r="Q19">
+        <v>2</v>
+      </c>
+      <c r="R19" t="s">
         <v>257</v>
       </c>
-      <c r="Q19">
-        <v>3</v>
-      </c>
-      <c r="R19" t="s">
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19" t="s">
         <v>258</v>
       </c>
-      <c r="S19">
-        <v>4</v>
-      </c>
-      <c r="T19" t="s">
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19" t="s">
         <v>259</v>
       </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19" t="s">
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19" t="s">
         <v>260</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>247</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>261</v>
       </c>
       <c r="D20" t="s">
         <v>262</v>
@@ -3459,7 +4610,7 @@
         <v>263</v>
       </c>
       <c r="F20">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G20" t="s">
         <v>264</v>
@@ -3468,7 +4619,7 @@
         <v>265</v>
       </c>
       <c r="I20" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="J20" t="s">
         <v>266</v>
@@ -3480,31 +4631,31 @@
         <v>267</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N20" t="s">
         <v>268</v>
       </c>
       <c r="O20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P20" t="s">
         <v>269</v>
       </c>
       <c r="Q20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R20" t="s">
         <v>270</v>
       </c>
       <c r="S20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T20" t="s">
         <v>271</v>
       </c>
       <c r="U20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" t="s">
         <v>272</v>
@@ -3518,13 +4669,13 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>247</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>261</v>
       </c>
       <c r="D21" t="s">
         <v>274</v>
@@ -3533,7 +4684,7 @@
         <v>275</v>
       </c>
       <c r="F21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G21" t="s">
         <v>276</v>
@@ -3542,1594 +4693,4086 @@
         <v>277</v>
       </c>
       <c r="I21" t="s">
+        <v>225</v>
+      </c>
+      <c r="J21" t="s">
         <v>278</v>
-      </c>
-      <c r="J21" t="s">
-        <v>279</v>
       </c>
       <c r="K21">
         <v>3</v>
       </c>
       <c r="L21" t="s">
+        <v>279</v>
+      </c>
+      <c r="M21">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
         <v>280</v>
       </c>
-      <c r="M21">
-        <v>2</v>
-      </c>
-      <c r="N21" t="s">
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21" t="s">
         <v>281</v>
       </c>
-      <c r="O21">
-        <v>2</v>
-      </c>
-      <c r="P21" t="s">
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21" t="s">
         <v>282</v>
       </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21" t="s">
-        <v>70</v>
-      </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>70</v>
+        <v>283</v>
       </c>
       <c r="U21">
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>220</v>
+      </c>
+      <c r="B22" t="s">
+        <v>247</v>
+      </c>
+      <c r="C22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" t="s">
+        <v>284</v>
+      </c>
+      <c r="E22" t="s">
         <v>285</v>
-      </c>
-      <c r="B22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" t="s">
-        <v>286</v>
-      </c>
-      <c r="D22" t="s">
-        <v>287</v>
-      </c>
-      <c r="E22" t="s">
-        <v>288</v>
       </c>
       <c r="F22">
         <v>6</v>
       </c>
       <c r="G22" t="s">
+        <v>286</v>
+      </c>
+      <c r="H22" t="s">
+        <v>287</v>
+      </c>
+      <c r="I22" t="s">
+        <v>288</v>
+      </c>
+      <c r="J22" t="s">
         <v>289</v>
-      </c>
-      <c r="H22" t="s">
-        <v>290</v>
-      </c>
-      <c r="I22" t="s">
-        <v>291</v>
-      </c>
-      <c r="J22" t="s">
-        <v>292</v>
       </c>
       <c r="K22">
         <v>3</v>
       </c>
       <c r="L22" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="M22">
         <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="O22">
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-      <c r="R22" t="s">
-        <v>296</v>
-      </c>
       <c r="S22">
         <v>0</v>
       </c>
-      <c r="T22" t="s">
-        <v>297</v>
-      </c>
       <c r="U22">
         <v>0</v>
       </c>
-      <c r="V22" t="s">
-        <v>298</v>
-      </c>
       <c r="W22">
         <v>0</v>
-      </c>
-      <c r="X22" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>285</v>
+        <v>220</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>293</v>
       </c>
       <c r="D23" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="E23" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F23">
         <v>6</v>
       </c>
       <c r="G23" t="s">
+        <v>296</v>
+      </c>
+      <c r="H23" t="s">
+        <v>297</v>
+      </c>
+      <c r="I23" t="s">
+        <v>298</v>
+      </c>
+      <c r="J23" t="s">
+        <v>299</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23" t="s">
+        <v>300</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>301</v>
+      </c>
+      <c r="O23">
+        <v>3</v>
+      </c>
+      <c r="P23" t="s">
         <v>302</v>
       </c>
-      <c r="H23" t="s">
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23" t="s">
+        <v>79</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23" t="s">
         <v>303</v>
       </c>
-      <c r="I23" t="s">
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23" t="s">
+        <v>81</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23" t="s">
         <v>304</v>
-      </c>
-      <c r="J23" t="s">
-        <v>305</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23" t="s">
-        <v>306</v>
-      </c>
-      <c r="M23">
-        <v>2</v>
-      </c>
-      <c r="N23" t="s">
-        <v>307</v>
-      </c>
-      <c r="O23">
-        <v>1</v>
-      </c>
-      <c r="P23" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>285</v>
+        <v>220</v>
       </c>
       <c r="B24" t="s">
+        <v>247</v>
+      </c>
+      <c r="C24" t="s">
+        <v>305</v>
+      </c>
+      <c r="D24" t="s">
+        <v>306</v>
+      </c>
+      <c r="E24" t="s">
+        <v>307</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+      <c r="G24" t="s">
         <v>308</v>
       </c>
-      <c r="C24" t="s">
-        <v>201</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="H24" t="s">
         <v>309</v>
       </c>
-      <c r="E24" t="s">
+      <c r="I24" t="s">
         <v>310</v>
       </c>
-      <c r="F24">
+      <c r="J24" t="s">
+        <v>311</v>
+      </c>
+      <c r="K24">
         <v>3</v>
       </c>
-      <c r="G24" t="s">
-        <v>311</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="L24" t="s">
         <v>312</v>
       </c>
-      <c r="I24" t="s">
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
         <v>313</v>
       </c>
-      <c r="J24" t="s">
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24" t="s">
         <v>314</v>
       </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24" t="s">
-        <v>315</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24" t="s">
-        <v>316</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="s">
-        <v>317</v>
-      </c>
       <c r="Q24">
         <v>0</v>
       </c>
       <c r="R24" t="s">
-        <v>318</v>
+        <v>92</v>
       </c>
       <c r="S24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>319</v>
+        <v>92</v>
       </c>
       <c r="U24">
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>320</v>
+        <v>92</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24" t="s">
-        <v>321</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>285</v>
+        <v>220</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>247</v>
       </c>
       <c r="C25" t="s">
+        <v>315</v>
+      </c>
+      <c r="D25" t="s">
+        <v>316</v>
+      </c>
+      <c r="E25" t="s">
+        <v>317</v>
+      </c>
+      <c r="F25">
+        <v>6</v>
+      </c>
+      <c r="G25" t="s">
+        <v>318</v>
+      </c>
+      <c r="H25" t="s">
+        <v>319</v>
+      </c>
+      <c r="I25" t="s">
+        <v>320</v>
+      </c>
+      <c r="J25" t="s">
+        <v>321</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25" t="s">
         <v>322</v>
       </c>
-      <c r="D25" t="s">
+      <c r="M25">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
         <v>323</v>
       </c>
-      <c r="E25" t="s">
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25" t="s">
         <v>324</v>
       </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25" t="s">
         <v>325</v>
       </c>
-      <c r="H25" t="s">
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25" t="s">
         <v>326</v>
       </c>
-      <c r="I25" t="s">
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25" t="s">
         <v>327</v>
       </c>
-      <c r="J25" t="s">
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25" t="s">
         <v>328</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25" t="s">
-        <v>329</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25" t="s">
-        <v>330</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25" t="s">
-        <v>332</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25" t="s">
-        <v>333</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25" t="s">
-        <v>334</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>336</v>
+        <v>220</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>247</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="D26" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="E26" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="F26">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G26" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="H26" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="I26" t="s">
-        <v>341</v>
+        <v>252</v>
       </c>
       <c r="J26" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="K26">
         <v>3</v>
       </c>
       <c r="L26" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="M26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="O26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P26" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="Q26">
         <v>0</v>
       </c>
       <c r="R26" t="s">
-        <v>346</v>
+        <v>150</v>
       </c>
       <c r="S26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="U26">
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>283</v>
+        <v>152</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26" t="s">
-        <v>284</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>336</v>
+        <v>220</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="D27" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="E27" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="F27">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G27" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="H27" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="I27" t="s">
-        <v>352</v>
+        <v>107</v>
       </c>
       <c r="J27" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="K27">
         <v>3</v>
       </c>
       <c r="L27" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="M27">
         <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="O27">
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="Q27">
         <v>0</v>
       </c>
       <c r="R27" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="S27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="U27">
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>336</v>
+        <v>220</v>
       </c>
       <c r="B28" t="s">
         <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="E28" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="F28">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G28" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="H28" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="I28" t="s">
-        <v>365</v>
+        <v>107</v>
       </c>
       <c r="J28" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="K28">
         <v>3</v>
       </c>
       <c r="L28" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="M28">
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="O28">
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="Q28">
         <v>0</v>
       </c>
       <c r="R28" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="S28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T28" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="U28">
         <v>0</v>
       </c>
       <c r="V28" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>336</v>
+        <v>220</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>374</v>
+        <v>54</v>
       </c>
       <c r="D29" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="E29" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="F29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G29" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="H29" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="I29" t="s">
-        <v>379</v>
+        <v>107</v>
       </c>
       <c r="J29" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="K29">
         <v>3</v>
       </c>
       <c r="L29" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="M29">
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="Q29">
         <v>0</v>
       </c>
       <c r="R29" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="U29">
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>336</v>
+        <v>220</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>384</v>
+        <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="E30" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="F30">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G30" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="H30" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="I30" t="s">
-        <v>389</v>
+        <v>107</v>
       </c>
       <c r="J30" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="K30">
         <v>3</v>
       </c>
       <c r="L30" t="s">
+        <v>379</v>
+      </c>
+      <c r="M30">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>380</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30" t="s">
         <v>381</v>
       </c>
-      <c r="M30">
-        <v>1</v>
-      </c>
-      <c r="N30" t="s">
-        <v>391</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="s">
-        <v>392</v>
-      </c>
       <c r="Q30">
         <v>0</v>
       </c>
       <c r="R30" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="U30">
         <v>0</v>
       </c>
       <c r="V30" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>336</v>
+        <v>220</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>247</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>915</v>
       </c>
       <c r="D31" t="s">
+        <v>386</v>
+      </c>
+      <c r="E31" t="s">
+        <v>387</v>
+      </c>
+      <c r="F31">
+        <v>6</v>
+      </c>
+      <c r="G31" t="s">
+        <v>388</v>
+      </c>
+      <c r="H31" t="s">
+        <v>389</v>
+      </c>
+      <c r="I31" t="s">
+        <v>390</v>
+      </c>
+      <c r="J31" t="s">
+        <v>391</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31" t="s">
+        <v>392</v>
+      </c>
+      <c r="M31">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
         <v>393</v>
       </c>
-      <c r="E31" t="s">
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31" t="s">
         <v>394</v>
       </c>
-      <c r="F31">
-        <v>3</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31" t="s">
         <v>395</v>
       </c>
-      <c r="H31" t="s">
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31" t="s">
         <v>396</v>
       </c>
-      <c r="I31" t="s">
-        <v>397</v>
-      </c>
-      <c r="J31" t="s">
-        <v>398</v>
-      </c>
-      <c r="K31">
-        <v>2</v>
-      </c>
-      <c r="L31" t="s">
-        <v>399</v>
-      </c>
-      <c r="M31">
-        <v>1</v>
-      </c>
-      <c r="N31" t="s">
-        <v>400</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31" t="s">
-        <v>162</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="T31" t="s">
-        <v>163</v>
-      </c>
       <c r="U31">
         <v>0</v>
       </c>
       <c r="V31" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>336</v>
+        <v>220</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>247</v>
       </c>
       <c r="C32" t="s">
-        <v>374</v>
+        <v>915</v>
       </c>
       <c r="D32" t="s">
+        <v>397</v>
+      </c>
+      <c r="E32" t="s">
+        <v>398</v>
+      </c>
+      <c r="F32">
+        <v>6</v>
+      </c>
+      <c r="G32" t="s">
+        <v>399</v>
+      </c>
+      <c r="H32" t="s">
+        <v>400</v>
+      </c>
+      <c r="I32" t="s">
+        <v>390</v>
+      </c>
+      <c r="J32" t="s">
+        <v>401</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32" t="s">
         <v>402</v>
       </c>
-      <c r="E32" t="s">
+      <c r="M32">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
         <v>403</v>
       </c>
-      <c r="F32">
-        <v>2</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32" t="s">
         <v>404</v>
       </c>
-      <c r="H32" t="s">
-        <v>405</v>
-      </c>
-      <c r="I32" t="s">
-        <v>406</v>
-      </c>
-      <c r="J32" t="s">
-        <v>407</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32" t="s">
-        <v>381</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32" t="s">
-        <v>383</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="s">
-        <v>383</v>
-      </c>
       <c r="Q32">
         <v>0</v>
       </c>
       <c r="R32" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="U32">
         <v>0</v>
       </c>
       <c r="V32" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32" t="s">
-        <v>383</v>
+        <v>361</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>220</v>
+      </c>
+      <c r="B33" t="s">
+        <v>247</v>
+      </c>
+      <c r="C33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" t="s">
+        <v>405</v>
+      </c>
+      <c r="E33" t="s">
+        <v>406</v>
+      </c>
+      <c r="F33">
+        <v>6</v>
+      </c>
+      <c r="G33" t="s">
+        <v>407</v>
+      </c>
+      <c r="H33" t="s">
         <v>408</v>
       </c>
-      <c r="B33" t="s">
-        <v>308</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="I33" t="s">
         <v>409</v>
       </c>
-      <c r="D33" t="s">
+      <c r="J33" t="s">
         <v>410</v>
-      </c>
-      <c r="E33" t="s">
-        <v>411</v>
-      </c>
-      <c r="F33">
-        <v>8</v>
-      </c>
-      <c r="G33" t="s">
-        <v>412</v>
-      </c>
-      <c r="H33" t="s">
-        <v>413</v>
-      </c>
-      <c r="I33" t="s">
-        <v>414</v>
-      </c>
-      <c r="J33" t="s">
-        <v>415</v>
       </c>
       <c r="K33">
         <v>3</v>
       </c>
       <c r="L33" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="M33">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>412</v>
+      </c>
+      <c r="O33">
         <v>1</v>
       </c>
-      <c r="N33" t="s">
-        <v>417</v>
-      </c>
-      <c r="O33">
-        <v>2</v>
-      </c>
       <c r="P33" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="Q33">
         <v>0</v>
       </c>
       <c r="R33" t="s">
-        <v>419</v>
+        <v>92</v>
       </c>
       <c r="S33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T33" t="s">
-        <v>420</v>
+        <v>92</v>
       </c>
       <c r="U33">
         <v>0</v>
       </c>
       <c r="V33" t="s">
-        <v>421</v>
+        <v>92</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33" t="s">
-        <v>422</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>408</v>
+        <v>220</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>247</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="D34" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="E34" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="F34">
         <v>6</v>
       </c>
       <c r="G34" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="H34" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="I34" t="s">
-        <v>427</v>
+        <v>390</v>
       </c>
       <c r="J34" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="K34">
         <v>3</v>
       </c>
       <c r="L34" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="M34">
         <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="O34">
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="Q34">
         <v>0</v>
       </c>
       <c r="R34" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="T34" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="U34">
         <v>0</v>
       </c>
       <c r="V34" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>408</v>
+        <v>220</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C35" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="D35" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="E35" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="F35">
         <v>6</v>
       </c>
       <c r="G35" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="H35" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="I35" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="J35" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="K35">
         <v>3</v>
       </c>
       <c r="L35" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="M35">
         <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="O35">
         <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="Q35">
         <v>0</v>
       </c>
       <c r="R35" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="U35">
         <v>0</v>
       </c>
       <c r="V35" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>408</v>
+        <v>220</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="C36" t="s">
-        <v>433</v>
+        <v>261</v>
       </c>
       <c r="D36" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="E36" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="F36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G36" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="H36" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="I36" t="s">
-        <v>451</v>
+        <v>225</v>
       </c>
       <c r="J36" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="K36">
         <v>3</v>
       </c>
       <c r="L36" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="M36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N36" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="O36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P36" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="Q36">
         <v>0</v>
       </c>
       <c r="R36" t="s">
-        <v>162</v>
+        <v>448</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36" t="s">
-        <v>163</v>
+        <v>449</v>
       </c>
       <c r="U36">
         <v>0</v>
       </c>
       <c r="V36" t="s">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36" t="s">
-        <v>165</v>
+        <v>451</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>408</v>
+        <v>220</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="C37" t="s">
-        <v>433</v>
+        <v>128</v>
       </c>
       <c r="D37" t="s">
+        <v>453</v>
+      </c>
+      <c r="E37" t="s">
+        <v>454</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37" t="s">
+        <v>455</v>
+      </c>
+      <c r="H37" t="s">
         <v>456</v>
       </c>
-      <c r="E37" t="s">
+      <c r="I37" t="s">
+        <v>107</v>
+      </c>
+      <c r="J37" t="s">
         <v>457</v>
-      </c>
-      <c r="F37">
-        <v>6</v>
-      </c>
-      <c r="G37" t="s">
-        <v>458</v>
-      </c>
-      <c r="H37" t="s">
-        <v>459</v>
-      </c>
-      <c r="I37" t="s">
-        <v>460</v>
-      </c>
-      <c r="J37" t="s">
-        <v>461</v>
       </c>
       <c r="K37">
         <v>3</v>
       </c>
       <c r="L37" t="s">
+        <v>458</v>
+      </c>
+      <c r="M37">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>459</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37" t="s">
+        <v>461</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37" t="s">
         <v>462</v>
       </c>
-      <c r="M37">
-        <v>2</v>
-      </c>
-      <c r="N37" t="s">
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37" t="s">
+        <v>327</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37" t="s">
         <v>463</v>
-      </c>
-      <c r="O37">
-        <v>1</v>
-      </c>
-      <c r="P37" t="s">
-        <v>464</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37" t="s">
-        <v>465</v>
-      </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-      <c r="T37" t="s">
-        <v>466</v>
-      </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
-      <c r="V37" t="s">
-        <v>467</v>
-      </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-      <c r="X37" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>408</v>
+        <v>220</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="C38" t="s">
-        <v>286</v>
+        <v>69</v>
       </c>
       <c r="D38" t="s">
+        <v>464</v>
+      </c>
+      <c r="E38" t="s">
+        <v>465</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38" t="s">
+        <v>466</v>
+      </c>
+      <c r="H38" t="s">
+        <v>467</v>
+      </c>
+      <c r="I38" t="s">
+        <v>468</v>
+      </c>
+      <c r="J38" t="s">
         <v>469</v>
-      </c>
-      <c r="E38" t="s">
-        <v>470</v>
-      </c>
-      <c r="F38">
-        <v>6</v>
-      </c>
-      <c r="G38" t="s">
-        <v>471</v>
-      </c>
-      <c r="H38" t="s">
-        <v>472</v>
-      </c>
-      <c r="I38" t="s">
-        <v>473</v>
-      </c>
-      <c r="J38" t="s">
-        <v>474</v>
       </c>
       <c r="K38">
         <v>3</v>
       </c>
       <c r="L38" t="s">
+        <v>470</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38" t="s">
+        <v>471</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38" t="s">
+        <v>473</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38" t="s">
+        <v>474</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38" t="s">
         <v>475</v>
       </c>
-      <c r="M38">
-        <v>2</v>
-      </c>
-      <c r="N38" t="s">
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38" t="s">
         <v>476</v>
-      </c>
-      <c r="O38">
-        <v>1</v>
-      </c>
-      <c r="P38" t="s">
-        <v>477</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38" t="s">
-        <v>478</v>
-      </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
-      <c r="T38" t="s">
-        <v>479</v>
-      </c>
-      <c r="U38">
-        <v>0</v>
-      </c>
-      <c r="V38" t="s">
-        <v>480</v>
-      </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-      <c r="X38" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>408</v>
+        <v>477</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="C39" t="s">
-        <v>286</v>
+        <v>478</v>
       </c>
       <c r="D39" t="s">
+        <v>479</v>
+      </c>
+      <c r="E39" t="s">
+        <v>480</v>
+      </c>
+      <c r="F39">
+        <v>11</v>
+      </c>
+      <c r="G39" t="s">
+        <v>481</v>
+      </c>
+      <c r="H39" t="s">
         <v>482</v>
       </c>
-      <c r="E39" t="s">
+      <c r="I39" t="s">
         <v>483</v>
       </c>
-      <c r="F39">
-        <v>6</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="J39" t="s">
         <v>484</v>
-      </c>
-      <c r="H39" t="s">
-        <v>485</v>
-      </c>
-      <c r="I39" t="s">
-        <v>486</v>
-      </c>
-      <c r="J39" t="s">
-        <v>487</v>
       </c>
       <c r="K39">
         <v>3</v>
       </c>
       <c r="L39" t="s">
+        <v>485</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>486</v>
+      </c>
+      <c r="O39">
+        <v>2</v>
+      </c>
+      <c r="P39" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39" t="s">
         <v>488</v>
       </c>
-      <c r="M39">
-        <v>2</v>
-      </c>
-      <c r="N39" t="s">
+      <c r="S39">
+        <v>2</v>
+      </c>
+      <c r="T39" t="s">
         <v>489</v>
       </c>
-      <c r="O39">
-        <v>1</v>
-      </c>
-      <c r="P39" t="s">
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39" t="s">
         <v>490</v>
       </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39" t="s">
-        <v>70</v>
-      </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
-      <c r="T39" t="s">
-        <v>70</v>
-      </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
-      <c r="V39" t="s">
-        <v>70</v>
-      </c>
       <c r="W39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X39" t="s">
-        <v>70</v>
+        <v>491</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>408</v>
+        <v>477</v>
       </c>
       <c r="B40" t="s">
-        <v>308</v>
+        <v>68</v>
       </c>
       <c r="C40" t="s">
-        <v>409</v>
+        <v>492</v>
       </c>
       <c r="D40" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="E40" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F40">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G40" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="H40" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="I40" t="s">
-        <v>414</v>
+        <v>497</v>
       </c>
       <c r="J40" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="K40">
         <v>3</v>
       </c>
       <c r="L40" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P40" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="Q40">
         <v>0</v>
       </c>
       <c r="R40" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="S40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T40" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="U40">
         <v>0</v>
       </c>
       <c r="V40" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="W40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X40" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>408</v>
+        <v>477</v>
       </c>
       <c r="B41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C41" t="s">
-        <v>503</v>
+        <v>261</v>
       </c>
       <c r="D41" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E41" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F41">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G41" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H41" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I41" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J41" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L41" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="Q41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R41" t="s">
-        <v>513</v>
+        <v>112</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41" t="s">
-        <v>514</v>
+        <v>113</v>
       </c>
       <c r="U41">
         <v>0</v>
       </c>
       <c r="V41" t="s">
-        <v>515</v>
+        <v>114</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41" t="s">
-        <v>516</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>408</v>
+        <v>477</v>
       </c>
       <c r="B42" t="s">
+        <v>247</v>
+      </c>
+      <c r="C42" t="s">
+        <v>261</v>
+      </c>
+      <c r="D42" t="s">
+        <v>514</v>
+      </c>
+      <c r="E42" t="s">
+        <v>515</v>
+      </c>
+      <c r="F42">
+        <v>6</v>
+      </c>
+      <c r="G42" t="s">
+        <v>516</v>
+      </c>
+      <c r="H42" t="s">
+        <v>517</v>
+      </c>
+      <c r="I42" t="s">
+        <v>518</v>
+      </c>
+      <c r="J42" t="s">
+        <v>519</v>
+      </c>
+      <c r="K42">
+        <v>2</v>
+      </c>
+      <c r="L42" t="s">
+        <v>520</v>
+      </c>
+      <c r="M42">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>521</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42" t="s">
+        <v>522</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42" t="s">
+        <v>523</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42" t="s">
+        <v>524</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42" t="s">
+        <v>525</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>477</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" t="s">
+        <v>261</v>
+      </c>
+      <c r="D43" t="s">
+        <v>527</v>
+      </c>
+      <c r="E43" t="s">
+        <v>528</v>
+      </c>
+      <c r="F43">
+        <v>6</v>
+      </c>
+      <c r="G43" t="s">
+        <v>529</v>
+      </c>
+      <c r="H43" t="s">
+        <v>530</v>
+      </c>
+      <c r="I43" t="s">
+        <v>509</v>
+      </c>
+      <c r="J43" t="s">
+        <v>531</v>
+      </c>
+      <c r="K43">
+        <v>3</v>
+      </c>
+      <c r="L43" t="s">
+        <v>532</v>
+      </c>
+      <c r="M43">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>533</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43" t="s">
+        <v>535</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43" t="s">
+        <v>536</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43" t="s">
+        <v>537</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>477</v>
+      </c>
+      <c r="B44" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" t="s">
+        <v>261</v>
+      </c>
+      <c r="D44" t="s">
+        <v>539</v>
+      </c>
+      <c r="E44" t="s">
+        <v>540</v>
+      </c>
+      <c r="F44">
+        <v>6</v>
+      </c>
+      <c r="G44" t="s">
+        <v>541</v>
+      </c>
+      <c r="H44" t="s">
+        <v>542</v>
+      </c>
+      <c r="I44" t="s">
+        <v>509</v>
+      </c>
+      <c r="J44" t="s">
+        <v>543</v>
+      </c>
+      <c r="K44">
+        <v>3</v>
+      </c>
+      <c r="L44" t="s">
+        <v>544</v>
+      </c>
+      <c r="M44">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s">
+        <v>545</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44" t="s">
+        <v>546</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44" t="s">
+        <v>547</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44" t="s">
+        <v>547</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44" t="s">
+        <v>547</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>477</v>
+      </c>
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" t="s">
+        <v>548</v>
+      </c>
+      <c r="D45" t="s">
+        <v>549</v>
+      </c>
+      <c r="E45" t="s">
+        <v>550</v>
+      </c>
+      <c r="F45">
+        <v>6</v>
+      </c>
+      <c r="G45" t="s">
+        <v>551</v>
+      </c>
+      <c r="H45" t="s">
+        <v>552</v>
+      </c>
+      <c r="I45" t="s">
+        <v>553</v>
+      </c>
+      <c r="J45" t="s">
+        <v>554</v>
+      </c>
+      <c r="K45">
+        <v>3</v>
+      </c>
+      <c r="L45" t="s">
+        <v>555</v>
+      </c>
+      <c r="M45">
+        <v>2</v>
+      </c>
+      <c r="N45" t="s">
+        <v>556</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45" t="s">
+        <v>557</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45" t="s">
+        <v>558</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45" t="s">
+        <v>559</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45" t="s">
+        <v>81</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>477</v>
+      </c>
+      <c r="B46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" t="s">
+        <v>560</v>
+      </c>
+      <c r="D46" t="s">
+        <v>561</v>
+      </c>
+      <c r="E46" t="s">
+        <v>562</v>
+      </c>
+      <c r="F46">
+        <v>6</v>
+      </c>
+      <c r="G46" t="s">
+        <v>563</v>
+      </c>
+      <c r="H46" t="s">
+        <v>564</v>
+      </c>
+      <c r="I46" t="s">
+        <v>565</v>
+      </c>
+      <c r="J46" t="s">
+        <v>566</v>
+      </c>
+      <c r="K46">
+        <v>3</v>
+      </c>
+      <c r="L46" t="s">
+        <v>567</v>
+      </c>
+      <c r="M46">
+        <v>2</v>
+      </c>
+      <c r="N46" t="s">
+        <v>568</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="P46" t="s">
+        <v>569</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46" t="s">
+        <v>570</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46" t="s">
+        <v>571</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46" t="s">
+        <v>572</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>477</v>
+      </c>
+      <c r="B47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" t="s">
+        <v>574</v>
+      </c>
+      <c r="D47" t="s">
+        <v>575</v>
+      </c>
+      <c r="E47" t="s">
+        <v>576</v>
+      </c>
+      <c r="F47">
+        <v>5</v>
+      </c>
+      <c r="G47" t="s">
+        <v>577</v>
+      </c>
+      <c r="H47" t="s">
+        <v>578</v>
+      </c>
+      <c r="I47" t="s">
+        <v>579</v>
+      </c>
+      <c r="J47" t="s">
+        <v>580</v>
+      </c>
+      <c r="K47">
+        <v>3</v>
+      </c>
+      <c r="L47" t="s">
+        <v>581</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47" t="s">
+        <v>582</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47" t="s">
+        <v>584</v>
+      </c>
+      <c r="S47">
+        <v>2</v>
+      </c>
+      <c r="T47" t="s">
+        <v>585</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47" t="s">
+        <v>586</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>587</v>
+      </c>
+      <c r="B48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" t="s">
         <v>69</v>
       </c>
-      <c r="C42" t="s">
-        <v>517</v>
-      </c>
-      <c r="D42" t="s">
-        <v>518</v>
-      </c>
-      <c r="E42" t="s">
-        <v>519</v>
-      </c>
-      <c r="F42">
-        <v>2</v>
-      </c>
-      <c r="G42" t="s">
-        <v>520</v>
-      </c>
-      <c r="H42" t="s">
-        <v>521</v>
-      </c>
-      <c r="I42" t="s">
-        <v>522</v>
-      </c>
-      <c r="J42" t="s">
-        <v>523</v>
-      </c>
-      <c r="K42">
-        <v>2</v>
-      </c>
-      <c r="L42" t="s">
-        <v>524</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42" t="s">
-        <v>525</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="s">
-        <v>526</v>
-      </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42" t="s">
-        <v>527</v>
-      </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42" t="s">
-        <v>528</v>
-      </c>
-      <c r="U42">
-        <v>0</v>
-      </c>
-      <c r="V42" t="s">
-        <v>529</v>
-      </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42" t="s">
-        <v>530</v>
+      <c r="D48" t="s">
+        <v>588</v>
+      </c>
+      <c r="E48" t="s">
+        <v>589</v>
+      </c>
+      <c r="F48">
+        <v>14</v>
+      </c>
+      <c r="G48" t="s">
+        <v>590</v>
+      </c>
+      <c r="H48" t="s">
+        <v>591</v>
+      </c>
+      <c r="I48" t="s">
+        <v>592</v>
+      </c>
+      <c r="J48" t="s">
+        <v>593</v>
+      </c>
+      <c r="K48">
+        <v>4</v>
+      </c>
+      <c r="L48" t="s">
+        <v>594</v>
+      </c>
+      <c r="M48">
+        <v>2</v>
+      </c>
+      <c r="N48" t="s">
+        <v>595</v>
+      </c>
+      <c r="O48">
+        <v>3</v>
+      </c>
+      <c r="P48" t="s">
+        <v>596</v>
+      </c>
+      <c r="Q48">
+        <v>1</v>
+      </c>
+      <c r="R48" t="s">
+        <v>597</v>
+      </c>
+      <c r="S48">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s">
+        <v>598</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48" t="s">
+        <v>599</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>587</v>
+      </c>
+      <c r="B49" t="s">
+        <v>247</v>
+      </c>
+      <c r="C49" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" t="s">
+        <v>601</v>
+      </c>
+      <c r="E49" t="s">
+        <v>602</v>
+      </c>
+      <c r="F49">
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>603</v>
+      </c>
+      <c r="H49" t="s">
+        <v>604</v>
+      </c>
+      <c r="I49" t="s">
+        <v>605</v>
+      </c>
+      <c r="J49" t="s">
+        <v>606</v>
+      </c>
+      <c r="K49">
+        <v>3</v>
+      </c>
+      <c r="L49" t="s">
+        <v>607</v>
+      </c>
+      <c r="M49">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>608</v>
+      </c>
+      <c r="O49">
+        <v>4</v>
+      </c>
+      <c r="P49" t="s">
+        <v>609</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49" t="s">
+        <v>610</v>
+      </c>
+      <c r="S49">
+        <v>1</v>
+      </c>
+      <c r="T49" t="s">
+        <v>611</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49" t="s">
+        <v>612</v>
+      </c>
+      <c r="W49">
+        <v>2</v>
+      </c>
+      <c r="X49" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>587</v>
+      </c>
+      <c r="B50" t="s">
+        <v>247</v>
+      </c>
+      <c r="C50" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" t="s">
+        <v>614</v>
+      </c>
+      <c r="E50" t="s">
+        <v>615</v>
+      </c>
+      <c r="F50">
+        <v>8</v>
+      </c>
+      <c r="G50" t="s">
+        <v>616</v>
+      </c>
+      <c r="H50" t="s">
+        <v>617</v>
+      </c>
+      <c r="I50" t="s">
+        <v>618</v>
+      </c>
+      <c r="J50" t="s">
+        <v>619</v>
+      </c>
+      <c r="K50">
+        <v>3</v>
+      </c>
+      <c r="L50" t="s">
+        <v>620</v>
+      </c>
+      <c r="M50">
+        <v>2</v>
+      </c>
+      <c r="N50" t="s">
+        <v>621</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
+      <c r="P50" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50" t="s">
+        <v>623</v>
+      </c>
+      <c r="S50">
+        <v>2</v>
+      </c>
+      <c r="T50" t="s">
+        <v>624</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50" t="s">
+        <v>625</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>587</v>
+      </c>
+      <c r="B51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" t="s">
+        <v>627</v>
+      </c>
+      <c r="D51" t="s">
+        <v>628</v>
+      </c>
+      <c r="E51" t="s">
+        <v>629</v>
+      </c>
+      <c r="F51">
+        <v>7</v>
+      </c>
+      <c r="G51" t="s">
+        <v>630</v>
+      </c>
+      <c r="H51" t="s">
+        <v>631</v>
+      </c>
+      <c r="I51" t="s">
+        <v>632</v>
+      </c>
+      <c r="J51" t="s">
+        <v>633</v>
+      </c>
+      <c r="K51">
+        <v>3</v>
+      </c>
+      <c r="L51" t="s">
+        <v>634</v>
+      </c>
+      <c r="M51">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s">
+        <v>635</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+      <c r="P51" t="s">
+        <v>636</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51" t="s">
+        <v>204</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51" t="s">
+        <v>205</v>
+      </c>
+      <c r="U51">
+        <v>1</v>
+      </c>
+      <c r="V51" t="s">
+        <v>637</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>587</v>
+      </c>
+      <c r="B52" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" t="s">
+        <v>638</v>
+      </c>
+      <c r="E52" t="s">
+        <v>639</v>
+      </c>
+      <c r="F52">
+        <v>6</v>
+      </c>
+      <c r="G52" t="s">
+        <v>640</v>
+      </c>
+      <c r="H52" t="s">
+        <v>641</v>
+      </c>
+      <c r="I52" t="s">
+        <v>642</v>
+      </c>
+      <c r="J52" t="s">
+        <v>643</v>
+      </c>
+      <c r="K52">
+        <v>2</v>
+      </c>
+      <c r="L52" t="s">
+        <v>644</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>645</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="s">
+        <v>646</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52" t="s">
+        <v>647</v>
+      </c>
+      <c r="S52">
+        <v>3</v>
+      </c>
+      <c r="T52" t="s">
+        <v>648</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52" t="s">
+        <v>649</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>587</v>
+      </c>
+      <c r="B53" t="s">
+        <v>247</v>
+      </c>
+      <c r="C53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" t="s">
+        <v>651</v>
+      </c>
+      <c r="E53" t="s">
+        <v>652</v>
+      </c>
+      <c r="F53">
+        <v>6</v>
+      </c>
+      <c r="G53" t="s">
+        <v>653</v>
+      </c>
+      <c r="H53" t="s">
+        <v>654</v>
+      </c>
+      <c r="I53" t="s">
+        <v>655</v>
+      </c>
+      <c r="J53" t="s">
+        <v>656</v>
+      </c>
+      <c r="K53">
+        <v>3</v>
+      </c>
+      <c r="L53" t="s">
+        <v>657</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>658</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="s">
+        <v>659</v>
+      </c>
+      <c r="Q53">
+        <v>2</v>
+      </c>
+      <c r="R53" t="s">
+        <v>660</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53" t="s">
+        <v>359</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53" t="s">
+        <v>360</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>587</v>
+      </c>
+      <c r="B54" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" t="s">
+        <v>627</v>
+      </c>
+      <c r="D54" t="s">
+        <v>661</v>
+      </c>
+      <c r="E54" t="s">
+        <v>662</v>
+      </c>
+      <c r="F54">
+        <v>6</v>
+      </c>
+      <c r="G54" t="s">
+        <v>663</v>
+      </c>
+      <c r="H54" t="s">
+        <v>664</v>
+      </c>
+      <c r="I54" t="s">
+        <v>632</v>
+      </c>
+      <c r="J54" t="s">
+        <v>665</v>
+      </c>
+      <c r="K54">
+        <v>3</v>
+      </c>
+      <c r="L54" t="s">
+        <v>666</v>
+      </c>
+      <c r="M54">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s">
+        <v>667</v>
+      </c>
+      <c r="O54">
+        <v>1</v>
+      </c>
+      <c r="P54" t="s">
+        <v>668</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54" t="s">
+        <v>204</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54" t="s">
+        <v>205</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54" t="s">
+        <v>206</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>587</v>
+      </c>
+      <c r="B55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" t="s">
+        <v>669</v>
+      </c>
+      <c r="D55" t="s">
+        <v>670</v>
+      </c>
+      <c r="E55" t="s">
+        <v>671</v>
+      </c>
+      <c r="F55">
+        <v>6</v>
+      </c>
+      <c r="G55" t="s">
+        <v>672</v>
+      </c>
+      <c r="H55" t="s">
+        <v>673</v>
+      </c>
+      <c r="I55" t="s">
+        <v>632</v>
+      </c>
+      <c r="J55" t="s">
+        <v>674</v>
+      </c>
+      <c r="K55">
+        <v>3</v>
+      </c>
+      <c r="L55" t="s">
+        <v>675</v>
+      </c>
+      <c r="M55">
+        <v>2</v>
+      </c>
+      <c r="N55" t="s">
+        <v>676</v>
+      </c>
+      <c r="O55">
+        <v>1</v>
+      </c>
+      <c r="P55" t="s">
+        <v>677</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55" t="s">
+        <v>678</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55" t="s">
+        <v>679</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="V55" t="s">
+        <v>680</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>587</v>
+      </c>
+      <c r="B56" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" t="s">
+        <v>682</v>
+      </c>
+      <c r="D56" t="s">
+        <v>683</v>
+      </c>
+      <c r="E56" t="s">
+        <v>684</v>
+      </c>
+      <c r="F56">
+        <v>6</v>
+      </c>
+      <c r="G56" t="s">
+        <v>685</v>
+      </c>
+      <c r="H56" t="s">
+        <v>686</v>
+      </c>
+      <c r="I56" t="s">
+        <v>687</v>
+      </c>
+      <c r="J56" t="s">
+        <v>688</v>
+      </c>
+      <c r="K56">
+        <v>3</v>
+      </c>
+      <c r="L56" t="s">
+        <v>689</v>
+      </c>
+      <c r="M56">
+        <v>2</v>
+      </c>
+      <c r="N56" t="s">
+        <v>690</v>
+      </c>
+      <c r="O56">
+        <v>1</v>
+      </c>
+      <c r="P56" t="s">
+        <v>691</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56" t="s">
+        <v>692</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56" t="s">
+        <v>693</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56" t="s">
+        <v>694</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>587</v>
+      </c>
+      <c r="B57" t="s">
+        <v>247</v>
+      </c>
+      <c r="C57" t="s">
+        <v>696</v>
+      </c>
+      <c r="D57" t="s">
+        <v>697</v>
+      </c>
+      <c r="E57" t="s">
+        <v>698</v>
+      </c>
+      <c r="F57">
+        <v>6</v>
+      </c>
+      <c r="G57" t="s">
+        <v>699</v>
+      </c>
+      <c r="H57" t="s">
+        <v>700</v>
+      </c>
+      <c r="I57" t="s">
+        <v>701</v>
+      </c>
+      <c r="J57" t="s">
+        <v>702</v>
+      </c>
+      <c r="K57">
+        <v>3</v>
+      </c>
+      <c r="L57" t="s">
+        <v>703</v>
+      </c>
+      <c r="M57">
+        <v>2</v>
+      </c>
+      <c r="N57" t="s">
+        <v>704</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
+      <c r="P57" t="s">
+        <v>705</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57" t="s">
+        <v>547</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57" t="s">
+        <v>547</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="V57" t="s">
+        <v>547</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>587</v>
+      </c>
+      <c r="B58" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" t="s">
+        <v>706</v>
+      </c>
+      <c r="D58" t="s">
+        <v>707</v>
+      </c>
+      <c r="E58" t="s">
+        <v>708</v>
+      </c>
+      <c r="F58">
+        <v>6</v>
+      </c>
+      <c r="G58" t="s">
+        <v>709</v>
+      </c>
+      <c r="H58" t="s">
+        <v>710</v>
+      </c>
+      <c r="I58" t="s">
+        <v>192</v>
+      </c>
+      <c r="J58" t="s">
+        <v>711</v>
+      </c>
+      <c r="K58">
+        <v>3</v>
+      </c>
+      <c r="L58" t="s">
+        <v>712</v>
+      </c>
+      <c r="M58">
+        <v>2</v>
+      </c>
+      <c r="N58" t="s">
+        <v>713</v>
+      </c>
+      <c r="O58">
+        <v>1</v>
+      </c>
+      <c r="P58" t="s">
+        <v>714</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>715</v>
+      </c>
+      <c r="B59" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" t="s">
+        <v>69</v>
+      </c>
+      <c r="D59" t="s">
+        <v>716</v>
+      </c>
+      <c r="E59" t="s">
+        <v>717</v>
+      </c>
+      <c r="F59">
+        <v>15</v>
+      </c>
+      <c r="G59" t="s">
+        <v>718</v>
+      </c>
+      <c r="H59" t="s">
+        <v>719</v>
+      </c>
+      <c r="I59" t="s">
+        <v>720</v>
+      </c>
+      <c r="J59" t="s">
+        <v>721</v>
+      </c>
+      <c r="K59">
+        <v>3</v>
+      </c>
+      <c r="L59" t="s">
+        <v>722</v>
+      </c>
+      <c r="M59">
+        <v>2</v>
+      </c>
+      <c r="N59" t="s">
+        <v>723</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
+      <c r="P59" t="s">
+        <v>724</v>
+      </c>
+      <c r="Q59">
+        <v>2</v>
+      </c>
+      <c r="R59" t="s">
+        <v>725</v>
+      </c>
+      <c r="S59">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s">
+        <v>726</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="V59" t="s">
+        <v>727</v>
+      </c>
+      <c r="W59">
+        <v>3</v>
+      </c>
+      <c r="X59" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>715</v>
+      </c>
+      <c r="B60" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" t="s">
+        <v>69</v>
+      </c>
+      <c r="D60" t="s">
+        <v>729</v>
+      </c>
+      <c r="E60" t="s">
+        <v>730</v>
+      </c>
+      <c r="F60">
+        <v>13</v>
+      </c>
+      <c r="G60" t="s">
+        <v>731</v>
+      </c>
+      <c r="H60" t="s">
+        <v>732</v>
+      </c>
+      <c r="I60" t="s">
+        <v>733</v>
+      </c>
+      <c r="J60" t="s">
+        <v>734</v>
+      </c>
+      <c r="K60">
+        <v>3</v>
+      </c>
+      <c r="L60" t="s">
+        <v>735</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>736</v>
+      </c>
+      <c r="O60">
+        <v>2</v>
+      </c>
+      <c r="P60" t="s">
+        <v>737</v>
+      </c>
+      <c r="Q60">
+        <v>3</v>
+      </c>
+      <c r="R60" t="s">
+        <v>738</v>
+      </c>
+      <c r="S60">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s">
+        <v>739</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="V60" t="s">
+        <v>740</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>715</v>
+      </c>
+      <c r="B61" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" t="s">
+        <v>69</v>
+      </c>
+      <c r="D61" t="s">
+        <v>742</v>
+      </c>
+      <c r="E61" t="s">
+        <v>743</v>
+      </c>
+      <c r="F61">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>744</v>
+      </c>
+      <c r="H61" t="s">
+        <v>745</v>
+      </c>
+      <c r="I61" t="s">
+        <v>733</v>
+      </c>
+      <c r="J61" t="s">
+        <v>746</v>
+      </c>
+      <c r="K61">
+        <v>3</v>
+      </c>
+      <c r="L61" t="s">
+        <v>747</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>748</v>
+      </c>
+      <c r="O61">
+        <v>2</v>
+      </c>
+      <c r="P61" t="s">
+        <v>749</v>
+      </c>
+      <c r="Q61">
+        <v>2</v>
+      </c>
+      <c r="R61" t="s">
+        <v>750</v>
+      </c>
+      <c r="S61">
+        <v>3</v>
+      </c>
+      <c r="T61" t="s">
+        <v>751</v>
+      </c>
+      <c r="U61">
+        <v>1</v>
+      </c>
+      <c r="V61" t="s">
+        <v>752</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>715</v>
+      </c>
+      <c r="B62" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" t="s">
+        <v>69</v>
+      </c>
+      <c r="D62" t="s">
+        <v>754</v>
+      </c>
+      <c r="E62" t="s">
+        <v>755</v>
+      </c>
+      <c r="F62">
+        <v>8</v>
+      </c>
+      <c r="G62" t="s">
+        <v>756</v>
+      </c>
+      <c r="H62" t="s">
+        <v>757</v>
+      </c>
+      <c r="I62" t="s">
+        <v>720</v>
+      </c>
+      <c r="J62" t="s">
+        <v>758</v>
+      </c>
+      <c r="K62">
+        <v>3</v>
+      </c>
+      <c r="L62" t="s">
+        <v>759</v>
+      </c>
+      <c r="M62">
+        <v>2</v>
+      </c>
+      <c r="N62" t="s">
+        <v>760</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+      <c r="P62" t="s">
+        <v>761</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62" t="s">
+        <v>547</v>
+      </c>
+      <c r="S62">
+        <v>2</v>
+      </c>
+      <c r="T62" t="s">
+        <v>762</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+      <c r="V62" t="s">
+        <v>547</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>715</v>
+      </c>
+      <c r="B63" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" t="s">
+        <v>69</v>
+      </c>
+      <c r="D63" t="s">
+        <v>763</v>
+      </c>
+      <c r="E63" t="s">
+        <v>764</v>
+      </c>
+      <c r="F63">
+        <v>7</v>
+      </c>
+      <c r="G63" t="s">
+        <v>765</v>
+      </c>
+      <c r="H63" t="s">
+        <v>766</v>
+      </c>
+      <c r="I63" t="s">
+        <v>767</v>
+      </c>
+      <c r="J63" t="s">
+        <v>768</v>
+      </c>
+      <c r="K63">
+        <v>3</v>
+      </c>
+      <c r="L63" t="s">
+        <v>769</v>
+      </c>
+      <c r="M63">
+        <v>2</v>
+      </c>
+      <c r="N63" t="s">
+        <v>770</v>
+      </c>
+      <c r="O63">
+        <v>2</v>
+      </c>
+      <c r="P63" t="s">
+        <v>771</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63" t="s">
+        <v>547</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63" t="s">
+        <v>547</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
+      <c r="V63" t="s">
+        <v>547</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>715</v>
+      </c>
+      <c r="B64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" t="s">
+        <v>69</v>
+      </c>
+      <c r="D64" t="s">
+        <v>772</v>
+      </c>
+      <c r="E64" t="s">
+        <v>773</v>
+      </c>
+      <c r="F64">
+        <v>6</v>
+      </c>
+      <c r="G64" t="s">
+        <v>774</v>
+      </c>
+      <c r="H64" t="s">
+        <v>775</v>
+      </c>
+      <c r="I64" t="s">
+        <v>776</v>
+      </c>
+      <c r="J64" t="s">
+        <v>777</v>
+      </c>
+      <c r="K64">
+        <v>3</v>
+      </c>
+      <c r="L64" t="s">
+        <v>778</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64" t="s">
+        <v>214</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
+      </c>
+      <c r="P64" t="s">
+        <v>779</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64" t="s">
+        <v>216</v>
+      </c>
+      <c r="S64">
+        <v>2</v>
+      </c>
+      <c r="T64" t="s">
+        <v>780</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+      <c r="V64" t="s">
+        <v>218</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>781</v>
+      </c>
+      <c r="B65" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" t="s">
+        <v>69</v>
+      </c>
+      <c r="D65" t="s">
+        <v>782</v>
+      </c>
+      <c r="E65" t="s">
+        <v>783</v>
+      </c>
+      <c r="F65">
+        <v>5</v>
+      </c>
+      <c r="G65" t="s">
+        <v>784</v>
+      </c>
+      <c r="H65" t="s">
+        <v>785</v>
+      </c>
+      <c r="I65" t="s">
+        <v>786</v>
+      </c>
+      <c r="J65" t="s">
+        <v>787</v>
+      </c>
+      <c r="K65">
+        <v>3</v>
+      </c>
+      <c r="L65" t="s">
+        <v>788</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65" t="s">
+        <v>789</v>
+      </c>
+      <c r="O65">
+        <v>2</v>
+      </c>
+      <c r="P65" t="s">
+        <v>790</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65" t="s">
+        <v>791</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65" t="s">
+        <v>792</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+      <c r="V65" t="s">
+        <v>793</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>795</v>
+      </c>
+      <c r="B66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" t="s">
+        <v>40</v>
+      </c>
+      <c r="D66" t="s">
+        <v>796</v>
+      </c>
+      <c r="E66" t="s">
+        <v>797</v>
+      </c>
+      <c r="F66">
+        <v>6</v>
+      </c>
+      <c r="G66" t="s">
+        <v>798</v>
+      </c>
+      <c r="H66" t="s">
+        <v>799</v>
+      </c>
+      <c r="I66" t="s">
+        <v>800</v>
+      </c>
+      <c r="J66" t="s">
+        <v>801</v>
+      </c>
+      <c r="K66">
+        <v>3</v>
+      </c>
+      <c r="L66" t="s">
+        <v>802</v>
+      </c>
+      <c r="M66">
+        <v>2</v>
+      </c>
+      <c r="N66" t="s">
+        <v>803</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
+      </c>
+      <c r="P66" t="s">
+        <v>804</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66" t="s">
+        <v>805</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66" t="s">
+        <v>806</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66" t="s">
+        <v>807</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>795</v>
+      </c>
+      <c r="B67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" t="s">
+        <v>69</v>
+      </c>
+      <c r="D67" t="s">
+        <v>809</v>
+      </c>
+      <c r="E67" t="s">
+        <v>810</v>
+      </c>
+      <c r="F67">
+        <v>6</v>
+      </c>
+      <c r="G67" t="s">
+        <v>811</v>
+      </c>
+      <c r="H67" t="s">
+        <v>812</v>
+      </c>
+      <c r="I67" t="s">
+        <v>813</v>
+      </c>
+      <c r="J67" t="s">
+        <v>814</v>
+      </c>
+      <c r="K67">
+        <v>3</v>
+      </c>
+      <c r="L67" t="s">
+        <v>815</v>
+      </c>
+      <c r="M67">
+        <v>2</v>
+      </c>
+      <c r="N67" t="s">
+        <v>816</v>
+      </c>
+      <c r="O67">
+        <v>1</v>
+      </c>
+      <c r="P67" t="s">
+        <v>816</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>795</v>
+      </c>
+      <c r="B68" t="s">
+        <v>817</v>
+      </c>
+      <c r="C68" t="s">
+        <v>669</v>
+      </c>
+      <c r="D68" t="s">
+        <v>818</v>
+      </c>
+      <c r="E68" t="s">
+        <v>819</v>
+      </c>
+      <c r="F68">
+        <v>3</v>
+      </c>
+      <c r="G68" t="s">
+        <v>820</v>
+      </c>
+      <c r="H68" t="s">
+        <v>821</v>
+      </c>
+      <c r="I68" t="s">
+        <v>822</v>
+      </c>
+      <c r="J68" t="s">
+        <v>823</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68" t="s">
+        <v>824</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68" t="s">
+        <v>825</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68" t="s">
+        <v>826</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68" t="s">
+        <v>827</v>
+      </c>
+      <c r="S68">
+        <v>3</v>
+      </c>
+      <c r="T68" t="s">
+        <v>828</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="V68" t="s">
+        <v>829</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>795</v>
+      </c>
+      <c r="B69" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" t="s">
+        <v>831</v>
+      </c>
+      <c r="D69" t="s">
+        <v>832</v>
+      </c>
+      <c r="E69" t="s">
+        <v>833</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69" t="s">
+        <v>834</v>
+      </c>
+      <c r="H69" t="s">
+        <v>835</v>
+      </c>
+      <c r="I69" t="s">
+        <v>836</v>
+      </c>
+      <c r="J69" t="s">
+        <v>837</v>
+      </c>
+      <c r="K69">
+        <v>2</v>
+      </c>
+      <c r="L69" t="s">
+        <v>838</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69" t="s">
+        <v>839</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69" t="s">
+        <v>840</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69" t="s">
+        <v>841</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69" t="s">
+        <v>842</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
+      </c>
+      <c r="V69" t="s">
+        <v>843</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>845</v>
+      </c>
+      <c r="B70" t="s">
+        <v>68</v>
+      </c>
+      <c r="C70" t="s">
+        <v>69</v>
+      </c>
+      <c r="D70" t="s">
+        <v>846</v>
+      </c>
+      <c r="E70" t="s">
+        <v>847</v>
+      </c>
+      <c r="F70">
+        <v>10</v>
+      </c>
+      <c r="G70" t="s">
+        <v>848</v>
+      </c>
+      <c r="H70" t="s">
+        <v>849</v>
+      </c>
+      <c r="I70" t="s">
+        <v>850</v>
+      </c>
+      <c r="J70" t="s">
+        <v>851</v>
+      </c>
+      <c r="K70">
+        <v>3</v>
+      </c>
+      <c r="L70" t="s">
+        <v>852</v>
+      </c>
+      <c r="M70">
+        <v>2</v>
+      </c>
+      <c r="N70" t="s">
+        <v>853</v>
+      </c>
+      <c r="O70">
+        <v>4</v>
+      </c>
+      <c r="P70" t="s">
+        <v>854</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70" t="s">
+        <v>855</v>
+      </c>
+      <c r="S70">
+        <v>1</v>
+      </c>
+      <c r="T70" t="s">
+        <v>856</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
+      <c r="V70" t="s">
+        <v>218</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>845</v>
+      </c>
+      <c r="B71" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71" t="s">
+        <v>574</v>
+      </c>
+      <c r="D71" t="s">
+        <v>857</v>
+      </c>
+      <c r="E71" t="s">
+        <v>858</v>
+      </c>
+      <c r="F71">
+        <v>8</v>
+      </c>
+      <c r="G71" t="s">
+        <v>859</v>
+      </c>
+      <c r="H71" t="s">
+        <v>860</v>
+      </c>
+      <c r="I71" t="s">
+        <v>861</v>
+      </c>
+      <c r="J71" t="s">
+        <v>862</v>
+      </c>
+      <c r="K71">
+        <v>3</v>
+      </c>
+      <c r="L71" t="s">
+        <v>863</v>
+      </c>
+      <c r="M71">
+        <v>2</v>
+      </c>
+      <c r="N71" t="s">
+        <v>864</v>
+      </c>
+      <c r="O71">
+        <v>1</v>
+      </c>
+      <c r="P71" t="s">
+        <v>865</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71" t="s">
+        <v>866</v>
+      </c>
+      <c r="S71">
+        <v>2</v>
+      </c>
+      <c r="T71" t="s">
+        <v>867</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71" t="s">
+        <v>868</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>845</v>
+      </c>
+      <c r="B72" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72" t="s">
+        <v>69</v>
+      </c>
+      <c r="D72" t="s">
+        <v>870</v>
+      </c>
+      <c r="E72" t="s">
+        <v>871</v>
+      </c>
+      <c r="F72">
+        <v>8</v>
+      </c>
+      <c r="G72" t="s">
+        <v>872</v>
+      </c>
+      <c r="H72" t="s">
+        <v>873</v>
+      </c>
+      <c r="I72" t="s">
+        <v>874</v>
+      </c>
+      <c r="J72" t="s">
+        <v>875</v>
+      </c>
+      <c r="K72">
+        <v>3</v>
+      </c>
+      <c r="L72" t="s">
+        <v>876</v>
+      </c>
+      <c r="M72">
+        <v>2</v>
+      </c>
+      <c r="N72" t="s">
+        <v>877</v>
+      </c>
+      <c r="O72">
+        <v>1</v>
+      </c>
+      <c r="P72" t="s">
+        <v>878</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72" t="s">
+        <v>879</v>
+      </c>
+      <c r="S72">
+        <v>2</v>
+      </c>
+      <c r="T72" t="s">
+        <v>880</v>
+      </c>
+      <c r="U72">
+        <v>0</v>
+      </c>
+      <c r="V72" t="s">
+        <v>881</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>845</v>
+      </c>
+      <c r="B73" t="s">
+        <v>68</v>
+      </c>
+      <c r="C73" t="s">
+        <v>883</v>
+      </c>
+      <c r="D73" t="s">
+        <v>884</v>
+      </c>
+      <c r="E73" t="s">
+        <v>885</v>
+      </c>
+      <c r="F73">
+        <v>5</v>
+      </c>
+      <c r="G73" t="s">
+        <v>886</v>
+      </c>
+      <c r="H73" t="s">
+        <v>887</v>
+      </c>
+      <c r="I73" t="s">
+        <v>888</v>
+      </c>
+      <c r="J73" t="s">
+        <v>889</v>
+      </c>
+      <c r="K73">
+        <v>3</v>
+      </c>
+      <c r="L73" t="s">
+        <v>890</v>
+      </c>
+      <c r="M73">
+        <v>2</v>
+      </c>
+      <c r="N73" t="s">
+        <v>891</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73" t="s">
+        <v>452</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73" t="s">
+        <v>452</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="V73" t="s">
+        <v>452</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>845</v>
+      </c>
+      <c r="B74" t="s">
+        <v>68</v>
+      </c>
+      <c r="C74" t="s">
+        <v>892</v>
+      </c>
+      <c r="D74" t="s">
+        <v>893</v>
+      </c>
+      <c r="E74" t="s">
+        <v>894</v>
+      </c>
+      <c r="F74">
+        <v>4</v>
+      </c>
+      <c r="G74" t="s">
+        <v>895</v>
+      </c>
+      <c r="H74" t="s">
+        <v>896</v>
+      </c>
+      <c r="I74" t="s">
+        <v>897</v>
+      </c>
+      <c r="J74" t="s">
+        <v>898</v>
+      </c>
+      <c r="K74">
+        <v>3</v>
+      </c>
+      <c r="L74" t="s">
+        <v>890</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
+        <v>899</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74" t="s">
+        <v>92</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74" t="s">
+        <v>92</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="V74" t="s">
+        <v>92</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>845</v>
+      </c>
+      <c r="B75" t="s">
+        <v>247</v>
+      </c>
+      <c r="C75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D75" t="s">
+        <v>900</v>
+      </c>
+      <c r="E75" t="s">
+        <v>901</v>
+      </c>
+      <c r="F75">
+        <v>3</v>
+      </c>
+      <c r="G75" t="s">
+        <v>902</v>
+      </c>
+      <c r="H75" t="s">
+        <v>903</v>
+      </c>
+      <c r="I75" t="s">
+        <v>904</v>
+      </c>
+      <c r="J75" t="s">
+        <v>905</v>
+      </c>
+      <c r="K75">
+        <v>2</v>
+      </c>
+      <c r="L75" t="s">
+        <v>906</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75" t="s">
+        <v>907</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75" t="s">
+        <v>204</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75" t="s">
+        <v>205</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75" t="s">
+        <v>206</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>845</v>
+      </c>
+      <c r="B76" t="s">
+        <v>68</v>
+      </c>
+      <c r="C76" t="s">
+        <v>883</v>
+      </c>
+      <c r="D76" t="s">
+        <v>908</v>
+      </c>
+      <c r="E76" t="s">
+        <v>909</v>
+      </c>
+      <c r="F76">
+        <v>2</v>
+      </c>
+      <c r="G76" t="s">
+        <v>910</v>
+      </c>
+      <c r="H76" t="s">
+        <v>911</v>
+      </c>
+      <c r="I76" t="s">
+        <v>912</v>
+      </c>
+      <c r="J76" t="s">
+        <v>913</v>
+      </c>
+      <c r="K76">
+        <v>2</v>
+      </c>
+      <c r="L76" t="s">
+        <v>890</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76" t="s">
+        <v>452</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76" t="s">
+        <v>452</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76" t="s">
+        <v>452</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76" t="s">
+        <v>452</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76" t="s">
+        <v>452</v>
       </c>
     </row>
   </sheetData>

--- a/resource/04_UPLOAD.xlsx
+++ b/resource/04_UPLOAD.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="1009">
   <si>
     <t>날짜</t>
   </si>
@@ -93,12 +93,485 @@
     <t>cr_7_reason</t>
   </si>
   <si>
+    <t>2023-10-20</t>
+  </si>
+  <si>
+    <t>퇴직연금 상품</t>
+  </si>
+  <si>
+    <t>국민연금</t>
+  </si>
+  <si>
+    <t>[단독] 국민연금 돈 더 걷어도…2068년 기금 고갈 못 피한다</t>
+  </si>
+  <si>
+    <t>국민연금 개혁안 보고서에는 소득대체율을 높이는 6가지 시나리오를 포함한 24개 시나리오가 담겨있다. 연금 가입 기간 내는 돈인 보험료율을 높여도 2068년에는 연금고갈이 피할 수 없는 것으로 확인됐다.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/009/0005202323?sid=101</t>
+  </si>
+  <si>
+    <t>재정계산위 최종보고서 입수보험료율 915 올려도소득대체율 45까지 상향땐45년안에 연금 바닥 불가피보건복지부 산하 재정계산위원회가 정부에 제출한 국민연금 개혁안 보고서에 퇴직 후 받는 연금인 소득대체율을 높이는 6가지 시나리오를 포함해 총 24개 시나리오가 담긴 것으로 나타났다.최근 중간보고서 발표 당시 소득보장 강화 방안이 빠진 뒤 여론의 비판이 이어지자 소득대체율을 올리는 방안을 시나리오를 포함한 것이다. 다만 소득대체율 인상 시나리오대로면 연금 가입 기간 내는 돈인 보험료율을 9에서 15로 높이더라도 2068년엔 연금고갈이 피할 수 없는 것으로 확인됐다.20일 복지부에 따르면 계산위는 19일 이 같은 내용을 담은 최종 보고서를 제출했다. 국회 보건복지위원회 소속 정춘숙 더불어민주당 의원이 복지부로부터 받은 보고서에 따르면 최종안엔 지난달 1일 계산위의 공청회 자료에서 빠진 소득대체율 인상시 국민연금 재정전망 시나리오가 담겼다. 구체적으로 보험료율을 현행 9에서 12 15로 상향한다는 가정 아래 소득대체율을 현행 40 2028년 기준에서 45 50로 높일시 연금수지 적자시점과 고갈시점 예상등 재정전망이 포함됐다.계산위 추산에 따르면 소득대체율을 현행보다 높일 경우 보험료율을 15까지 끌어올리더라도 연금이 바닥나는 것은 피할 수 없었다. 보험료율을 2025년부터 0.6씩 10년간 올려 15로 끌어올릴 경우 소득대체율이 45이면 2051년부터 적자가 시작돼 2068년이면 연금이 고갈된다. 소득대체율을 50로 올리면 각각 2050년 2065년으로 앞당겨진다. 보험료율 12 가정 아래선 소득대체율 45 상향시 적자 시점과 고갈시점은 2046년 2061년이다. 보험료율 12 소득대체율 45 경우엔 각각 1년씩 빨라진다.계산위는 이에 앞서 중간 발표에서 보험료율 인상 1215 18 65세인 연금수급연령 상향 66세67세68세 기금운용수익률 상향 0.5포인트 1포인트을 조합해 18개 재정안정 시나리오를 공개했다. 김용하 계산위원장은 기자 설명회에서 재정안정 필요성을 강조하면 보험료율을 15 수급 개시연령은 68세로 높이며 기금수익률을 1포인트 높일 경우 제5차 재정추계기간인 2093년까지 연금고갈을 피할 수 있을 것이라고 개혁안을 제시한 바 있다. 재정안정이 연금개혁 방향이 돼야 한다는 것을 시사한 것이다.소득대체율 인상안이 포함된 최종 보고서에서도 방점은 재정 안정에 찍혔다. 보고서는 현재 연금의 소득대체율이 경제개발협력기구 OECD 회원국과 비교할때 낮다는 입장을 담았다. 소득대체율 인상이 꼭 필요하지 않다는 계산위원들의 분위기를 읽을 수 있는 대목이다. 또 소득보장 강화 방안으로 소득대체율은 유지하되 기초연금 국민연금 퇴직연금을 포함하는 다층연금체계의 내실화가 필요하다는 분석을 넣기도 했다.복지부는 계산위 보고서를 토대로 다음주까지 국회에 정부의 연금 종합운영계획을 제출할 예정이다.</t>
+  </si>
+  <si>
+    <t>['퇴직연금 수익률', '퇴직연금 가입']</t>
+  </si>
+  <si>
+    <t>[{'퇴직연금 수익률': 1}, {'퇴직연금 가입': 1}]</t>
+  </si>
+  <si>
+    <t>국민연금 개혁안 보고서에는 연금 기금의 관리 전략, 수익률, 투자 자산 할당 모니터링 및 금융 시장 변동의 영향 분석에 대한 내용이 포함되어 있다.</t>
+  </si>
+  <si>
+    <t>보고서에는 국민연금 회사 간의 경쟁 동향, 시장 점유율 및 새로운 제품 및 서비스 출시에 대한 내용이 제공되지 않았다.</t>
+  </si>
+  <si>
+    <t>보고서에는 보험료율과 투자 자산의 변동성, 금리 변동 등 금융 시장 움직임이 연금업계에 미치는 영향에 대한 이해가 제공되었다.</t>
+  </si>
+  <si>
+    <t>보고서에는 국민연금 관련 법률 및 규정의 변경 사항과 그것이 기업과 개인에 미치는 영향에 대한 내용이 포함되어 있다.</t>
+  </si>
+  <si>
+    <t>보고서에는 인구 통계학적 요인, 특히 노령화와 관련된 뉴스 및 연금 기금이 장기적인 지속 가능성에 미치는 영향에 대한 내용이 포함되어 있다.</t>
+  </si>
+  <si>
+    <t>보고서에는 디지털 변환, 인공지능, 블록체인 등과 같은 혁신이 연금 관리 및 제공 서비스에 미치는 영향에 대한 내용이 제공되지 않았다.</t>
+  </si>
+  <si>
+    <t>보고서에는 연금 수령자의 소비 패턴, 투자 선호도 및 요구 사항을 파악하고 서비스 개발 또는 개선을 고려하는 내용이 제공되지 않았다.</t>
+  </si>
+  <si>
+    <t>퇴직연금 제도</t>
+  </si>
+  <si>
+    <t>하나은행</t>
+  </si>
+  <si>
+    <t>은행권 퇴직연금 수익률 경쟁 ‘사활’… 하나銀 DC형 9.48% 1위</t>
+  </si>
+  <si>
+    <t>은행 퇴직연금 수익률 개선, 은행권 내 경쟁 치열, 퇴직연금 적립금 123조원</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/366/0000941019?sid=101</t>
+  </si>
+  <si>
+    <t>3분기 4대 은행 퇴직연금 수익률적립금 개선하나 원리금 비보장 DC형 9.48로 가장 높아3분기 4대 은행 퇴직연금 적립금 123조원 퇴직연금 시장 커지며 수익률 개선 중요  퇴직연금 시장에서 은행권 내 경쟁이 치열해지고 있다. 정부가 디폴트옵션 사전지정운용제도을 도입하고 금융사 간 퇴직연금 상품 이전이 가능하도록 제도 개선을 추진하면서 운용 수익률과 적립금이 고객 유치를 좌우할 핵심 역량이 됐기 때문이다.하나은행은 3분기 원리금 비보장 상품 중 확정기여 DC형과 개인형 퇴직연금 IRP에서 각각 9.48 8.37 수익률을 보이며 가장 높은 수익률을 기록했다. 하나은행의 원리금 비보장 DC형 수익률의 경우 전체 퇴직연금 수익률 중 가장 높은 수치다. 신한은행은 3분기 원리금 보장 상품 중 확정급여 DB형과 개인 IRP에서 각각 3.92 3.38를 보이며 높은 수익률을 기록했다. 신한은행은 3분기 퇴직연금 적립금 역시 37조원대로 가장 큰 규모를 보유했다.20일 금융감독원에 따르면 4대 시중은행 KB국민신한하나우리의 3분기 원리금 보장 평균 수익률은 DB형 3.86 DC형 3.56 개인형 IRP 3.32로 나타났다. 4대 은행의 원리금 비보장 평균 수익률은 DB형 5.90 DC형 8.53 개인 IRP 7.78로 집계됐다. 3분기 수익률은 최근 1년간 은행의 퇴직연금 운용 수익률을 의미한다.퇴직연금은 DB형 DC형 개인 IRP로 구분된다. DB형은 퇴직 전 3개월 평균 임금에 근속연수를 곱해 결정되고 기업이 적립금을 관리하기에 근로자가 따로 운용에 관여할 수 없다. DC형은 기업 부담금이 확정돼 있어 매년 연금임금총액의 12분의 1 이상을 근로자의 퇴직연금 계좌에 입금해 줘 근로자의 직접 운용이 가능하다. 개인 IRP는 근로자가 직접 계좌를 개설한 후 본인의 노후 준비를 위해 납부하고 운용하는 계좌다.  상품별로 살펴보면 원리금 보장 수익률은 DB형의 경우 신한 3.92 하나 3.91 우리 3.83 국민 3.78 순이었다. DC형의 경우 하나 3.76 국민 3.58 신한 3.52 우리 3.41 순이었다. 개인 IRP의 경우 신한 3.38 하나 3.35 국민 3.30 우리 3.25 순이었다.원리금 비보장 수익률은 DB형의 경우 국민 6.72 우리 6.42 하나 5.89 신한 4.59 순이었다. DC형의 경우 하나 9.48 우리 8.48 국민 8.11 신한 8.08 순이었다. 개인 IRP의 경우 하나 8.37 국민 7.91 신한 7.57 우리 7.30 순이었다.시중은행의 3분기 퇴직연금 수익률은 지난 2분기보다 개선됐다. 4대 은행의 2분기 원리금 보장 평균 수익률은 DB형 3.19 DC형 3.07 개인 IRP 2.86로 나타났다. 4대 은행의 원리금 비보장 평균 수익률은 DB형 4.69 DC형 6.49 개인 IRP 6.00로 집계됐다.퇴직연금 원리금 보장 상품의 경우 우량한 금융기관이 원리금 지급을 보장하는 금융상품이나 정부 공공기관이 원리금 지급을 보장하는 국채증권 통화안정증권 및 정부보증 채권 등으로 운용된다. 최근 시장금리 채권금리가 오르자 수익률이 개선된 것으로 보인다. 원리금 비보장 상품의 경우 지난 7월 디폴트옵션 시행으로 은행 증권사 보험사 간 퇴직연금 경쟁이 치열해지면서 수익률이 좋아진 것으로 해석된다.  4대 은행의 3분기 퇴직연금 적립금 규모 합계는 123조202억원으로 집계됐다. 이는 3분기 말 기준 은행의 적립금 운용금액을 의미한다. 적립금 총 규모로 살펴보면 신한은행이 37조2262억원으로 가장 많았으며 국민 34조1031억원 하나 30조1416억원 우리 21조5493억원 순이었다.상품별로 살펴보면 DB형의 경우 신한 14조5634억원 하나 13조3540억원 국민 10조4288억원 우리 9조1108억원 순이었다. DC형의 경우 국민 11조7902억원 신한 11조0423억원 하나 8조880억원 우리 5조8784억원 순이었다. 개인 IRP의 경우 국민 11조8841억원 신한 11조6205억원 하나 8조6996억원 우리 6조5601억원 순이었다.한편 은행권 DC형과 개인 IRP 퇴직연금 규모가 늘어나며 3분기 은행권 디폴트옵션 퇴직연금 규모가 2분기보다 늘어날 수 있다는 전망도 나온다. 디폴트옵션은 퇴직연금 중에서도 DC형과 개인 IRP를 대상으로 가입자의 운용 지시가 없으면 회사와 근로자가 사전에 정한 방식으로 투자상품을 운용하도록 하는 제도다. 지난해 7월 도입된 이후 1년간의 유예기간을 거쳐 지난 12일부터 본격 의무화됐다.은행권 관계자는 한국 사회가 점점 고령화되고 있는 만큼 퇴직연금 시장은 커질 전망인 만큼 금융권 내 고객 잡기 경쟁이 심화하고 있다며 특히 은행의 경우 비이자수익을 늘려야 하는데 퇴직연금의 경우 수수료로 수익을 내 비이자이익을 늘릴 수 있는 만큼 수익률과 적립금 규모 개선을 위해 노력하고 있다고 말했다.</t>
+  </si>
+  <si>
+    <t>['퇴직연금 DB', '퇴직연금 DC', '퇴직연금 IRP', '개인형퇴직연금', '디폴트옵션', '퇴직연금 적립금', 'IRP 수수료', '퇴직연금 제도 도입', '퇴직연금 규모', '퇴직연금 금융감독원', '신한 퇴직연금', '퇴직연금 경쟁', '하나 퇴직연금', '퇴직연금 수익률', '퇴직연금 가입', '퇴직연금 채권']</t>
+  </si>
+  <si>
+    <t>[{'퇴직연금 DB': 1}, {'퇴직연금 DC': 1}, {'퇴직연금 IRP': 50}, {'개인형퇴직연금': 16}, {'디폴트옵션': 9}, {'퇴직연금 적립금': 9}, {'IRP 수수료': 48}, {'퇴직연금 제도 도입': 2}, {'퇴직연금 규모': 3}, {'퇴직연금 금융감독원': 4}, {'신한 퇴직연금': 1}, {'퇴직연금 경쟁': 2}, {'하나 퇴직연금': 2}, {'퇴직연금 수익률': 11}, {'퇴직연금 가입': 26}, {'퇴직연금 채권': 11}]</t>
+  </si>
+  <si>
+    <t>은행 퇴직연금 수익률 개선으로 인한 경쟁 치열</t>
+  </si>
+  <si>
+    <t>은행권 내 경쟁이 치열해지고 있음</t>
+  </si>
+  <si>
+    <t>퇴직연금 적립금이 123조원으로 커지고 있음</t>
+  </si>
+  <si>
+    <t>No relevant information in the article</t>
+  </si>
+  <si>
+    <t>재정계산위 최종 보고서 보니…국민연금 개혁 시나리오 '24개'</t>
+  </si>
+  <si>
+    <t>국민연금 재정계산위원회가 국민연금 개혁 방안에 대한 최종 보고서를 보건복지부에 제출했다. 보고서에는 적립기금 소진을 막기 위한 시나리오와 소득대체율 인상 등의 개선 방안이 포함되어 있다.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/003/0012159365?sid=102</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 구무서 기자 정부의 국민연금 개혁 방안에 대해 자문하는 보건복지부 산하 국민연금 재정계산위원회가 총 24개의 시나리오가 담긴 최종 보고서를 복지부에 제출했다. 20일 복지부가 더불어민주당 최혜영 의원실에게 제출한 재정계산위원회 최종 보고서를 보면 재정계산위는 재정 계산 기간 중 적립기금이 소진되지 않도록 하는 방안을 목표로 제시했다. 구체적인 시나리오는 지난 9월 발표했던 것과 같이 보험료율 12 15 18 수급 개시 연령 66세 67세 68세 국민연금 기금 수익률 0.5포인트 p 1p 상향 등 변수를 조합한 18개가 포함됐다.또 당초 소득대체율 인상 시나리오는 다른 변수를 통제하고 45 50로 인상하는 안만 논의하는 것으로 알려졌으나 최종 보고서에는 보험료율 12 15 인상 변수를 조합해 6개의 시나리오가 추가됐다. 보험료율을 현행 9로 유지하고 소득대체율을 2025년 45 또는 50로 일시 인상하면 기금 소진 시점은 2054년이다. 보험료율을 12로 인상하고 소득대체율을 45로 올리면 기금 소진 시점은 2061년 소득대체율을 50로 올리면 기금 소진 시점은 2060년이다. 보험료율을 15로 인상하고 소득대체율을 40로 올리면 기금 소진 시점은 2068년 소득대체율을 50로 올리면 기금 소진 시점은 2065년이다.보고서에는 소득대체율 상향 시 재정부담을 완화하기 위해서는 추가적인 재정 안정화 조치가 필요하다고 기재됐다. 또 최종 보고서에는 기초연금의 수급 대상을 현행 65세 이상 노인 70라는 목표 수급률 방식에서 일정 기준에 따라 대상자를 선정하는 방식으로 전환하는 것을 검토할 필요가 있다고 했다. 기초연금 기준연금액 인상은 하위계층에 대해 우선적으로 검토하자고 제안했다. 이 밖에 최종 보고서에는 소득활동에 따른 노령연금 제도 개선 유족연금 및 장애연금 개선 국민연금 지급보장 법제화 가입제도 개선 크레딧 확대 보험료 지원 확대 기준소득월액 상하한 조정 등의 개선 방안이 담겼다. 또 보완과제로는 퇴직연금의 노후소득보장 기능 강화를 꼽았다. 복지부는 재정계산위 최종 보고서를 토대로 10월 말까지 국민연금 종합운용계획을 마련해 국회에 제출할 에정이다</t>
+  </si>
+  <si>
+    <t>[{'퇴직연금 수익률': 9}, {'퇴직연금 가입': 13}]</t>
+  </si>
+  <si>
+    <t>국민연금 재정계산위원회가 적립기금 소진을 막기 위한 방안을 제시하고 있다.</t>
+  </si>
+  <si>
+    <t>해당 기사에는 경쟁 동향에 대한 내용이 없다.</t>
+  </si>
+  <si>
+    <t>해당 기사에는 국민연금 개혁 방안이 금융 시장 변동에 어떤 영향을 미칠 수 있는지에 대한 내용이 포함되어 있다.</t>
+  </si>
+  <si>
+    <t>최종 보고서에는 국민연금 관련 법률 및 규제 변경에 대한 내용이 포함되어 있다.</t>
+  </si>
+  <si>
+    <t>해당 기사에는 고령화와 관련된 내용이 포함되어 있지만, 국민연금이 장기적인 지속 가능성에 어떤 영향을 미칠 수 있는지에 대한 구체적인 내용은 포함되어 있지 않다.</t>
+  </si>
+  <si>
+    <t>해당 기사에는 기술과 디지털화에 관련된 내용이 포함되어 있지 않다.</t>
+  </si>
+  <si>
+    <t>해당 기사에는 소비 행동 및 요구사항에 대한 내용이 포함되어 있지 않다.</t>
+  </si>
+  <si>
+    <t>타사 동향 및 이벤트</t>
+  </si>
+  <si>
+    <t>금융위</t>
+  </si>
+  <si>
+    <t>'금리 6% 퇴직연금 특판 상품' 없앤다는 금융위…왜?</t>
+  </si>
+  <si>
+    <t>퇴직연금 사업자 판매기관이 연말에 내놓는 원금리보장 고금리 특판 상품이 다음달 사라질 전망이다. 금융당국은 수수료를 금지하는 방침이기 때문이다. 이에 대해 소비자 선택권 침해와 과당경쟁으로 의견이 맞서고 있다.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/015/0004904429?sid=101</t>
+  </si>
+  <si>
+    <t>퇴직연금 사업자 판매기관가 연말에 주로 내놓는 원금리보장 고금리 특판 상품이 이르면 다음달 사라질 전망이다. 이런 상품은 판매기관이 상품 제공기관에게 수수료를 줘야 만들 수 있는데 금융당국이 시장 질서를 교란한다는 이유로 이 수수료를 금지할 방침이기 때문이다. 이에 대해 고금리 상품이 나오는 걸 막아 소비자 선택권을 침해한다는 주장과 과당경쟁으로 시장이 왜곡되는 걸 막기 위해 불가피하다는 의견이 맞서고 있다. 퇴직연금 연말 특판 상품 곧 사라질 듯관련 업계에 따르면 금융위원회는 퇴직연금 판매기관과 제공기관이 수수료를 주고 받는 걸 금지하는 내용의 퇴직연금 감독규정 개정안을 다음달 시행할 예정이다. 지난 6월 개정안을 입법예고했고 현재 이에 대해 규제개혁위원회와 법제처 심사를 거치는 중이다. 금융위는 다음달 중으로 개정 규정을 시행할 계획이다.금융위가 규정을 이렇게 바꾸는 건 퇴직연금 시장의 과당경쟁을 막겠다는 취지에서다. 판매기관이 제공기관에게 수수료를 주면 판매기관은 그 대가로 고금리 기초자산을 제공 받을 수 있고 이를 활용해 고금리 퇴직연금 상품을 만들 수 있다. 판매기관이 고율의 수수료를 주면 시장금리보다 훨씬 높은 퇴직연금 상품도 만들 수 있다. 이는 소비자를 끌어오기 위해 역마진을 감수하는 과당경쟁이라는 게 금융당국의 시각이다.퇴직연금 판매기관인 A은행은 이달 초부터 3년 만기 5.85 5년 만기 6짜리 퇴직연금 원리금 보장 상품을 판매 중이다. 이 상품의 기초자산은 B증권사에서 제공받는 파생결합사채 ELB다. A은행은 이 ELB를 제공받는 대가로 B증권사에게 수수료 1.2를 준다. 금융위 방침대로 사업자간 수수료가 금지되면 해당 ELB의 금리는 4대로 떨어지고 A은행의 이런 특판 상품은 자취를 감출 가능성이 높다.소비자 좋은 상품 제공받을 권리 침해A은행이 이 ELB를 활용해 고금리 퇴직연금 상품을 제공하는 건 당장 마진을 줄이더라도 이용자 수를 늘릴 필요가 있다는 판단에서다. 한국투자신탁운용에 따르면 퇴직연금 시장은 지난해 말 340조원에서 2032년 860조원 규모로 10년간 3배 가까이 커질 전망이다. 최근 A은행이 특판 상품을 낸 건 연말에 퇴직연금 납입 기관을 바꾸는 사람이 많기 때문이다.금융위는 이런 특판 상품이 시장 질서를 교란한다고 본다. 금융위 관계자는 판매기관은 이런 상품을 일부 대기업 근로자에게만 제공하고 모든 소비자에게 똑같이 제공하지 않는다며 판매제공기관간 수수료를 금지하면 시장 금리를 넘어서는 특판 상품을 낼 수 없게 되고 그러면 이같은 소비자 차별이 사라지는 효과가 있다고 말했다.A은행은 자사 홈페이지에 해당 상품 금리를 공시했고 구입 자격 제한도 두고 있지 않다고 설명했다. 한 개인 투자자는 대기업에 대한 차별적 제공이 문제라면 차별을 금지하는 식으로 핀셋 규제를 하면 될 일이라며 상품이 아예 나오지 못하게 막아 차별을 해소하겠다는 건 이해하기 어려운 발상이라고 했다. 금융위 건전한 경쟁 위해 규제 불가피금융위 관계자는 차별이 없다고 하지만 특판 상품은 실제로는 차별적으로 제공하는 경우가 많다고 했다. 이어 퇴직연금 사업에서 역마진이 나면 사업자로서는 다른 부문에서 얻은 이익을 끌어와 이를 만회해야 한다며 이런 문제가 생기는 걸 막는 건 규제의 정상적인 역할이라고 했다. 그는 퇴직연금 시장은 현재 300조원에서 향후 2000조원 규모로 커질 전망인데 이런 급성장에 대비해 당국은 시장 질서 확립에도 신경 써야 한다고 덧붙였다.배홍 금융소비자연맹 보험국장은 고금리 상품을 제공할 여력이 있는 일부 대형 금융사에 수요가 쏠리는 걸 막겠다는 의도가 있는 것으로 보인다며 경쟁력 있는 상품을 못내게 해 시장 균형을 맞추겠다는 건 이해하기 어렵다고 말했다. 그는 소비자들은 위험 리스크 편의성 등 다양한 측면을 보고 금융기관을 선택한다며 금리 하나만 보고 특정 기관으로 소비자가 몰린다는 것도 기우라고 했다.금융위 관계자는 대부분의 퇴직연금 사업자는 이번 조치에 찬성하는 입장이라며 기존대로라면 건전한 경쟁이 훼손된다고 판단했기 때문이라고 말했다. 실제로 금융위의 이번 조치에는 사업자들의 민원도 반영된 것으로 알려졌다. 배 국장은 경쟁없이 편하게 마진을 챙기고 싶다는 사업자의 바람에 금융당국이 응하는 건 잘못이라고 지적했다.</t>
+  </si>
+  <si>
+    <t>['퇴직연금 사업자', '퇴직연금 규모', '한국투자 퇴직연금', '퇴직연금 경쟁', '하나 퇴직연금']</t>
+  </si>
+  <si>
+    <t>[{'퇴직연금 사업자': 1}, {'퇴직연금 규모': 1}, {'한국투자 퇴직연금': 1}, {'퇴직연금 경쟁': 1}, {'하나 퇴직연금': 3}]</t>
+  </si>
+  <si>
+    <t>퇴직연금 사업자의 상품 제공과 수수료에 대한 금융당국의 규제 개정안에 대한 내용이 포함되어 있음.</t>
+  </si>
+  <si>
+    <t>퇴직연금 시장의 과당경쟁과 상품 제공의 차별에 대한 의견이 포함되어 있음.</t>
+  </si>
+  <si>
+    <t>금융당국의 규제 개정안이 퇴직연금 시장에 미치는 영향에 대한 내용이 포함되어 있음.</t>
+  </si>
+  <si>
+    <t>금융당국의 규제 개정안에 대한 내용이 포함되어 있음.</t>
+  </si>
+  <si>
+    <t>노인 인구와 퇴직연금의 장기적인 지속 가능성에 대한 내용이 포함되어 있지 않음.</t>
+  </si>
+  <si>
+    <t>기술과 디지털화에 대한 내용이 포함되어 있지 않음.</t>
+  </si>
+  <si>
+    <t>소비자의 소비 행동과 요구사항에 대한 내용이 포함되어 있지 않음.</t>
+  </si>
+  <si>
+    <t>국민연금공단</t>
+  </si>
+  <si>
+    <t>여야, 국민연금공단 연기금 부적절 사용·연금고갈 등 질타(종합)</t>
+  </si>
+  <si>
+    <t>국회 보건복지위원회에서 국민연금공단 국정감사가 진행되었고, 연금개혁과 공단의 연기금 운용에 대한 지적이 있었다. 연금개혁 방향성과 청년세대의 참여권 보장, 모수개혁의 한계 등이 논의되었다.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/003/0012159605?sid=100</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 임종명 구무서 정성원 권성근 신귀혜 기자 여야는 20일 국회 보건복지위원회가 진행한 국민연금공단 국정감사에서 김태현 공단 이사장을 향해 정부 국정과제인 연금개혁과 공단의 연기금 운용에 대한 지적이 쏟아졌다.김미애 국민의힘 의원은 젊은 세대들의 국민연금에 대한 인식이 좋지 않은 것을 언급하며 연금개혁 방향성을 주문했다.김 의원은 청년세대는 보험료율 높이는 개혁은 무조건 반대 최대한 현상유지를 원한다. 세대 간 계층 간 갈등이 이보다 심한 분야가 드물 것이라며 그래서 더더욱 힘들었고 지난 정부들에서 말만 개혁하겠다고 했지 개혁이 제대로 되지 않았다고 강조했다.김 의원은 개혁안에 청년세대의 의견이 반영되도록 참여권을 보장해야 한다고 했다.또 보험료율과 소득대체율을 조정하는 모수계획으로는 근본적 문제 해결에 문제가 있다며 모수개혁만으로 한계가 있는건 국회 연금개혁특위 논의에서도 여야 간 공감대를 이뤘다고 설명했다.이어 노후소득보장이란 연금 목적을 달성하기 위해서는 기초연금 퇴직연금을 포함한 구조적 개혁이 반드시 병행돼야 한다. 그래야 미래세대 부담을 줄이면서 지속가능한 제도를 운영할 수 있다고 부연했다.같은당 서정숙 의원은 연금고갈 문제로 국민 걱정이 크다며 2013년 3차 재정계산시 2060년에 기금 소진한다고 했고 2018년 4차 재정계산 시 2057년으로 3년 더 빨라진다고 했다. 올 3월 발표한 5차 재정계산 추계로는 2055년으로 2년 더 앞당겨진 엄혹한 현실이라고 지적했다.이어 그 당시 정부들은 아무 대책없이 연금개혁에 손 놓고 있었다며 김대중 정부가 1차 개혁했는데 소득대체율을 70에서 60로 낮추고 수급연령을 62세에서 65세로 상향했다. 2차 개혁 때인 노무현 정부는 소득대체율을 40로 점차 인하하고 기초노령연금제도를 도입했지만 보험료율 인상은 실패했다고 설명했다.이와 함께 박근혜 정부는 공무원연금을 과감하게 개혁했고 지난 정부는 현행 유지를 요구하는 사용자측과 소득보장 강화를 주장하는 노동자측 개혁안을 모두 포함한 4가지 방안을 제출하고 논의 진행조차 못하고 실패했다며 동료의원들 여러 질타를 새겨들어야 한다. 새겨들으면 약이 된다고 했다.조명희 국민의힘 의원은 의료든 연금이든 사각지대를 없애고 국민 모두에게 혜택이 가야한다. 국민세금이다라며 작년 국감 때 10인이라는 족쇄 때문에 기초임금 수급 못받는 사람들에 대해 개선하라고 말했는데도 아직도 연구 중이라고 한다고 꼬집었다.그러면서 이런 식으로 업무를 하면 국감을 왜 하나. 지금도 부정수급 받는 사람 수백만원의 부당혜택을 받는 사람이 있다며 이렇게 되면 국민연금에 대한 국민 신뢰도가 30인데 어떻게 할 것인가라고 질타했다.서영석 민주당 의원은 국민연금 재정계산위 보고서를 보면 노후소득보단 재정안정성에 주안점을 두고 있다는 생각을 지울 수가 없다며 소득대체율을 2028년 40 목표하고 있는데 연금 가입자들이 40년 채운 사람이 거의 없지 않나. 실질 소득대체율이 23 정도밖에 안된다는 게 전문가 보고인데 실질소득에 대한 판단을 하지 않는 게 말이 되나라고 강조했다.김 이사장은 통계는 계속 관리하고 있지만 실질 소득대체율을 정확히 산정하고 있진 않다고 답했다. 그러자 서 의원은 연금이 노후소득 보장을 주요 목표로 하고 있다면서 실질 소득대체율 파악이 안 되어 있으면 뭘 근거로 노후소득이 보장된다고 하는 건가라고 쏘아붙였다.서 의원은 기금고갈 타령만 하지말고 정부의 역할 연금공단이 그걸 시행할 수 있도록 구체적 로드맵을 만드는 게 필요하다고 지적했다.최혜영 민주당 의원은 국민연금 소득대체율이 매년 0.5씩 줄고 있다. 40년며 이렇게 볼 때 소득대체율이 드라마틱하게 높아지는 계획이 아니라면 가입기간을 늘리는 것이 최선이라고 생각한다고 제언했다.최 의원은 보험료 지원정책에 대해서도 보험료 지원정책에는 두루누리 농업인 지역가입자 세 개로 나누어 사업하고 있는데 5차 재정계산 제도상에선 지역가입자를 농업인 수준으로 조정한다고 하는데 저소득 지역가입자 보험료 지원을 키워야 한다고 했다.정춘숙 의원은 현재 위험자산 비율이 55.3 안전자산이 44.7다라며 수익률을 높이기 위해서는 위험자산 비용을 높여야 한다. 수익률을 높이려면 어떻게 변화시켜야 하는지 물어봤는데 논의한 바가 없다고 하더라라고 지적했다.정 의원은 이런 상황에서 위험자산의 비중을 높였을 때 얼마나 위험해지고 그에 대한 대책 이런 게 있어야 하는데 이런 것 없이 개혁방안이라고 발표하는 것은 굉장히 무책임하다고 생각한다며 구체적인 안들이 나와야 한다. 그냥 말만 하지 말고라고 보탰다.이외 연기금 운용에 대한 지적도 잇따랐다.고영인 의원은 연기금이 1000조원이 넘었다. 현세대가 마련한 전국민의 노후 종잣돈이라고 할 수 있다며 연기금을 부적절하게 사용하면 안 되고 부적절한 사용에는 책임을 져야 한다는데 동의하나라고 질의를 시작했다.김 이사장이 네라고 답하자 고 의원은 공단이 정부에서 해야할 사업을 수탁하는 게 있다. 장애정도 심사 활동지원 근로능력 평가 기초연금 지원 등이라고 언급했다.고 의원은 수탁사업을 살펴보니 1201명을 채용하는데 정부예산이어야 하는데 연기금에서 급여를 지급한다고 지적했다. 그러자 김 이사장은 그렇다. 모자란 부분을 그렇게 해왔다고 답했다.고 의원은 장애정도 심사는 약 67년 간 연기금 478억을 인건비로 썼다. 이 돈은 받았나라고 물었고 김 이사장은 아직 받지는 못했다. 기재부에 예산 반영할 때 충분한 예산을 달라고 얘기했다고 말했다.고 의원은 1년도 아니고 10년 동안 국민의 연기금을 정부에서 떼먹은 사건이라며 이래놓고 어떻게 연기금이 고갈된다고 하고 대책도 못 세우면서 국민들 불안에 떨게 하나라고 주장했다.신동근 위원장도 이에 대해 이건 명백한 배임행위라며 수사까지 의뢰할 상황이다. 허투루 듣지말고 정확히 이행해달라고 당부했다.김영주 의원은 국민연금은 숨지거나 다친 국민을 대신해 피해자에게 유족연금 장애연금을 우선 지급하고 추후에 기업으로부터 구상권을 청구해서 돌려받고 있다며 2011년 가습기살균제 피해 사례를 들었다.김 의원은 국민연금은 가습기살균제 가해기업으로부터 유족연금과 장애연금을 돌려받아야 할 책임과 역할이 있는데 지금 옥시 등 가해기업으로부터 돌려받은 구상액은 17억원 중 1억원이 조금 넘는 수준에 불과하다고 지적했다.이와 함께 10억 넘게 해소하지 못하고 있는데 소송은 4건 밖에 안 냈다. 왜 소송하지 않고 있나라며 절박함을 느끼지 못한 것 같다. 그게 문제다. 국민이 납부한 돈이다. 단돈 1원도 돌려받지 못하면 안 된다고 꼬집었다.김 의원은 또 정부는 산업재해나 중대재해 처벌을 받은 기업들이 국가의 여러 공사 등에 참여 못하게 하고 있다. 그런데 옥시에 구상금도 못 돌려받고 있는데 국민연금은 지금 옥시나 이런 데다가 700억이나 투자하고 있다고 일갈했다.남인순 민주당 의원은 국민연금의 탈석탄 정책 선언을 언급하며 2년 전 탈석탄 선언을 하고 석탄 채굴 발전 산업 투자 제한 전략도입 제한 등을 심의 의결했다. 2년이 지났는데 정책 수립을 했나라고 물었고 김태현 이사장은 아직 못했다고 말했다.남 의원은 김 이사장이 향후 탈석탄 정책 수립에 대해 노력해보겠다고 답하자 태도를 지적했다. 민주당 소속 신동근 복지위원장은 물론 다른 기관과의 협의가 필요하지만 이사장의 확고한 원칙과 철학이 필요한데 우물쭈물한다. 답변도 확실히 하라고 지적했다</t>
+  </si>
+  <si>
+    <t>['퇴직연금 제도 도입', '하나 퇴직연금', '퇴직연금 수익률', '퇴직연금 가입']</t>
+  </si>
+  <si>
+    <t>[{'퇴직연금 제도 도입': 1}, {'하나 퇴직연금': 1}, {'퇴직연금 수익률': 2}, {'퇴직연금 가입': 3}]</t>
+  </si>
+  <si>
+    <t>연금개혁과 공단의 연기금 운용에 대한 지적이 있었으나, 자세한 전략이나 수익률 등은 언급되지 않았다.</t>
+  </si>
+  <si>
+    <t>경쟁 동향이나 시장 점유율, 신제품 및 서비스 출시에 대한 정보는 언급되지 않았다.</t>
+  </si>
+  <si>
+    <t>금융 시장 변동성이나 이자율 변화에 대한 언급이 없다.</t>
+  </si>
+  <si>
+    <t>연금개혁 방향성과 모수개혁의 한계 등 법적 및 규제 변화에 대한 논의가 있었다.</t>
+  </si>
+  <si>
+    <t>노령화와 연금 기금의 장기적인 지속 가능성에 대한 언급이 있었다.</t>
+  </si>
+  <si>
+    <t>기술과 디지털화에 대한 언급이 없다.</t>
+  </si>
+  <si>
+    <t>소비 행동 및 요구사항에 대한 정보가 없다.</t>
+  </si>
+  <si>
+    <t>미래에셋운용</t>
+  </si>
+  <si>
+    <t>미래에셋운용 ‘TIGER CD금리투자KIS(합성) 순자산 7조 돌파</t>
+  </si>
+  <si>
+    <t>미래에셋자산운용의 TIGER CD금리투자KIS 합성 ETF 순자산이 7조원을 돌파해 이목을 끌고 있다. TIGER CD금리투자KIS 합성 ETF는 국내에서 순자산 7조원을 돌파한 유일한 ETF로, 주식형이 주도하는 국내 ETF 시장에서 금리형 ETF로 처음으로 1위에 올랐다.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/014/0005088633?sid=101</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 미래에셋자산운용은 TIGER CD금리투자KIS 합성 ETF 순자산이 7조원을 돌파해 이목을 끈다. 20일 한국거래소에 따르면 19일 종가 기준 TIGER CD금리투자KIS 합성 ETF 순자산은 7조 737억원이다. 현재 국내에서 순자산 7조원을 돌파한 ETF는 TIGER CD금리투자KIS 합성 ETF가 유일하다. TIGER CD금리투자KIS 합성 ETF는 9월 순자산 6조 3000억원을 넘어서며 한국거래소에 상장된 전체 ETF 중 순자산 1위에 올라섰다. 주식형이 주도하는 국내 ETF 시장에서 처음으로 금리형 ETF가 1위에 올라서며 당시 ETF 시장에 새로운 변화를 불러 일으켰다는 평가를 받았다. 이후 고금리 상황에서 CD금리가 매력적 수준을 유지하자 개인 매수세가 강화되며 약 1개월만에 7조원을 넘어섰다. TIGER CD금리투자KIS 합성 ETF는 금융투자협회가 매일 고시하는 CD 양도성예금증서 수익률을 추종하는 국내 최초의 금리형 ETF다. 매일 이자가 복리로 쌓이고 은행예금과 달리 쉽게 현금화가 가능해 은행 파킹통장을 대체하는 파킹형 ETF로 주목받고 있다. 또 ISA 중개형 개인연금 퇴직연금 DC IRP 계좌에서 거래 시 인출 시점까지 과세가 이연되고 세액공제까지 받을 수 있어 연금 투자자들에게 적합하다. 한편 미래에셋자산운용은 TIGER CD금리투자KIS 합성 ETF 순자산 7조원 돌파를 기념해 이벤트를 진행한다. 10월 20일부터 11월 3일까지 TIGER ETF 홈페이지 TIGER ETF 카카오 플러스친구 채널을 통해 퀴즈 정답자 중 추첨을 통해 700명에게 기프티콘을 제공한다. 미래에셋자산운용 ETF운용부문 정승호 매니저는 국내외 고금리 여건이 지속되고 있는 상황에서 금리형 ETF에 대한 관심이 지속될 것으로 보인다며 TIGER CD금리투자KIS 합성 ETF는 유휴 자금을 효과적으로 활용할 수 있는 투자 수단이라고 말했다. ETF 미래에셋 TIGERCD금리투자KIS 합성ETF </t>
+  </si>
+  <si>
+    <t>['미래에셋 퇴직연금', '퇴직연금 금융투자협회']</t>
+  </si>
+  <si>
+    <t>[{'미래에셋 퇴직연금': 6}, {'미래에셋 퇴직연금': 44}, {'퇴직연금 금융투자협회': 15}]</t>
+  </si>
+  <si>
+    <t>미래에셋자산운용의 TIGER CD금리투자KIS 합성 ETF는 금융투자협회가 매일 고시하는 CD 양도성예금증서 수익률을 추종하는 국내 최초의 금리형 ETF로, 금리형 ETF에 대한 관심이 지속될 것으로 예상되기 때문에 3점을 주었습니다.</t>
+  </si>
+  <si>
+    <t>이 기사에서는 경쟁 동향에 대한 정보가 제공되지 않았으므로 2점을 주었습니다.</t>
+  </si>
+  <si>
+    <t>이 기사에서는 금리 변동이나 투자 자산의 변동에 대한 정보가 제공되지 않았으므로 1점을 주었습니다.</t>
+  </si>
+  <si>
+    <t>이 기사에서는 법적 또는 규제적 변화에 대한 정보가 제공되지 않았으므로 0점을 주었습니다.</t>
+  </si>
+  <si>
+    <t>이 기사에서는 인구 통계 변화에 대한 정보가 제공되지 않았으므로 0점을 주었습니다.</t>
+  </si>
+  <si>
+    <t>이 기사에서는 기술과 디지털화에 대한 정보가 제공되지 않았으므로 0점을 주었습니다.</t>
+  </si>
+  <si>
+    <t>이 기사에서는 투자자들에게 적합한 투자 수단으로 평가되는 TIGER CD금리투자KIS 합성 ETF에 대한 정보가 제공되었으므로 2점을 주었습니다.</t>
+  </si>
+  <si>
+    <t>국민연금 개혁 시나리오 '24개'…개혁안 내주 확정</t>
+  </si>
+  <si>
+    <t>국민연금 개혁 방안에 대한 보건복지부 산하 국민연금 재정계산위원회의 최종 보고서가 제출되었다. 보고서에는 적립기금 소진 방지를 목표로 24개의 시나리오가 포함되어 있으며, 소득대체율 상향과 기초연금 개선 등의 개선 방안이 제안되었다.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/119/0002760424?sid=102</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 정부의 국민연금 개혁 방안에 대해 자문하는 보건복지부 산하 국민연금 재정계산위원회가 전날 총 24개의 시나리오가 담긴 최종 보고서를 복지부에 제출한 것으로 20일 확인됐다. 복지부는 다음 주 후반 국민연금 개혁안을 담은 종합운용계획을 확정할 예정이다.복지부가 더불어민주당 최혜영 의원실에게 제출한 재정계산위원회 최종 보고서를 보면 재정계산위는 재정 계산 기간 중 적립기금이 소진되지 않도록 하는 방안을 목표로 제시했다.구체적인 시나리오는 지난 9월 발표했던 것과 같이 보험료율 12 15 18 수급 개시 연령 66세 67세 68세 국민연금 기금 수익률 0.5포인트 p 1p 상향 등 변수를 조합한 18개가 포함됐다.또 당초 소득대체율 인상 시나리오는 다른 변수를 통제하고 45 50로 인상하는 안만 논의하는 것으로 알려졌으나 최종 보고서에는 보험료율 12 15 인상 변수를 조합해 6개의 시나리오가 추가됐다.보험료율을 현행 9로 유지하고 소득대체율을 2025년 45 또는 50로 일시 인상하면 기금 소진 시점은 2054년이다.보험료율을 12로 인상하고 소득대체율을 45로 올리면 기금 소진 시점은 2061년 소득대체율을 50로 올리면 기금 소진 시점은 2060년이다.보험료율을 15로 인상하고 소득대체율을 40로 올리면 기금 소진 시점은 2068년 소득대체율을 50로 올리면 기금 소진 시점은 2065년이다.보고서에는 소득대체율 상향 시 재정부담을 완화하기 위해서는 추가적인 재정 안정화 조치가 필요하다고 기재됐다.또 최종 보고서에는 기초연금의 수급 대상을 현행 65세 이상 노인 70라는 목표 수급률 방식에서 일정 기준에 따라 대상자를 선정하는 방식으로 전환하는 것을 검토할 필요가 있다고 했다. 기초연금 기준연금액 인상은 하위계층에 대해 우선적으로 검토하자고 제안했다.이 밖에 최종 보고서에는 소득활동에 따른 노령연금 제도 개선 유족연금 및 장애연금 개선 국민연금 지급보장 법제화 가입제도 개선 크레딧 확대 보험료 지원 확대 기준소득월액 상하한 조정 등의 개선 방안이 담겼다.또 보완과제로는 퇴직연금의 노후소득보장 기능 강화를 꼽았다.복지부는 재정계산위 최종 보고서를 토대로 10월 말까지 국민연금 종합운용계획을 마련해 국회에 제출해야 한다.복지부는 잠정적으로 오는 27일 국민연금 심의위원회를 열어 국민연금 종합운용계획을 확정해 발표할 예정이다. 구체적인 발표 시간과 발표자 등은 확정되지 않았다. 이후 국무회의 의결 절차를 거쳐 국회에 최종안을 제출한다는 계획이다.</t>
+  </si>
+  <si>
+    <t>[{'퇴직연금 수익률': 5}, {'퇴직연금 가입': 16}]</t>
+  </si>
+  <si>
+    <t>국민연금 재정계산위원회의 최종 보고서에는 적립기금 소진 방지를 목표로 한 시나리오가 포함되어 있으며, 이는 국민연금의 자산운용 전략과 금융시장 변동의 영향을 분석하는데 도움이 될 수 있다.</t>
+  </si>
+  <si>
+    <t>보고서에는 기초연금 개선과 소득대체율 상향 등의 개선 방안이 제안되었으며, 이는 국민연금 업계의 경쟁 동향과 새로운 제품 및 서비스 출시에 영향을 줄 수 있다.</t>
+  </si>
+  <si>
+    <t>보고서에는 금융시장 변동의 영향을 분석하는 내용이 포함되어 있으며, 이는 금융시장 변동이 국민연금 업계에 미치는 영향을 이해하는 데 도움이 될 수 있다.</t>
+  </si>
+  <si>
+    <t>보고서에는 국민연금 관련 법률 및 규제 변경에 대한 언급이 없으나, 국민연금 개혁 방안이 확정되면 관련 법률 및 규제에 변화가 있을 수 있다.</t>
+  </si>
+  <si>
+    <t>보고서에는 고령화와 관련된 내용이 언급되지 않았다.</t>
+  </si>
+  <si>
+    <t>보고서에는 기술과 디지털화에 관련된 내용이 언급되지 않았다.</t>
+  </si>
+  <si>
+    <t>보고서에는 소비 행태와 요구사항에 관련된 내용이 언급되지 않았다.</t>
+  </si>
+  <si>
+    <t>국민연금 개혁안 내주 확정…전문가 시나리오 '24개'(종합)</t>
+  </si>
+  <si>
+    <t>국민연금 개혁 방안에 대한 국민연금 재정계산위원회의 최종 보고서가 복지부에 제출되었다. 보고서에는 적립기금 소진 방지를 목표로 24개의 시나리오가 포함되어 있으며, 소득대체율 상향과 기초연금 개선 등의 개선 방안이 제안되었다.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/003/0012159507?sid=102</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 구무서 기자 정부의 국민연금 개혁 방안에 대해 자문하는 보건복지부 산하 국민연금 재정계산위원회가 전날 총 24개의 시나리오가 담긴 최종 보고서를 복지부에 제출한 것으로 20일 확인됐다. 복지부는 다음 주 후반 국민연금 개혁안을 담은 종합운용계획을 확정할 예정이다. 복지부가 더불어민주당 최혜영 의원실에게 제출한 재정계산위원회 최종 보고서를 보면 재정계산위는 재정 계산 기간 중 적립기금이 소진되지 않도록 하는 방안을 목표로 제시했다.구체적인 시나리오는 지난 9월 발표했던 것과 같이 보험료율 12 15 18 수급 개시 연령 66세 67세 68세 국민연금 기금 수익률 0.5포인트 p 1p 상향 등 변수를 조합한 18개가 포함됐다.또 당초 소득대체율 인상 시나리오는 다른 변수를 통제하고 45 50로 인상하는 안만 논의하는 것으로 알려졌으나 최종 보고서에는 보험료율 12 15 인상 변수를 조합해 6개의 시나리오가 추가됐다.보험료율을 현행 9로 유지하고 소득대체율을 2025년 45 또는 50로 일시 인상하면 기금 소진 시점은 2054년이다. 보험료율을 12로 인상하고 소득대체율을 45로 올리면 기금 소진 시점은 2061년 소득대체율을 50로 올리면 기금 소진 시점은 2060년이다. 보험료율을 15로 인상하고 소득대체율을 40로 올리면 기금 소진 시점은 2068년 소득대체율을 50로 올리면 기금 소진 시점은 2065년이다.보고서에는 소득대체율 상향 시 재정부담을 완화하기 위해서는 추가적인 재정 안정화 조치가 필요하다고 기재됐다.또 최종 보고서에는 기초연금의 수급 대상을 현행 65세 이상 노인 70라는 목표 수급률 방식에서 일정 기준에 따라 대상자를 선정하는 방식으로 전환하는 것을 검토할 필요가 있다고 했다. 기초연금 기준연금액 인상은 하위계층에 대해 우선적으로 검토하자고 제안했다.이 밖에 최종 보고서에는 소득활동에 따른 노령연금 제도 개선 유족연금 및 장애연금 개선 국민연금 지급보장 법제화 가입제도 개선 크레딧 확대 보험료 지원 확대 기준소득월액 상하한 조정 등의 개선 방안이 담겼다.또 보완과제로는 퇴직연금의 노후소득보장 기능 강화를 꼽았다.복지부는 재정계산위 최종 보고서를 토대로 10월 말까지 국민연금 종합운용계획을 마련해 국회에 제출해야 한다. 복지부는 잠정적으로 오는 27일 국민연금 심의위원회를 열어 국민연금 종합운용계획을 확정해 발표할 예정이다. 구체적인 발표 시간과 발표자 등은 확정되지 않았다. 이후 국무회의 의결 절차를 거쳐 국회에 최종안을 제출한다는 계획이다</t>
+  </si>
+  <si>
+    <t>[{'퇴직연금 수익률': 8}, {'퇴직연금 가입': 12}]</t>
+  </si>
+  <si>
+    <t>국민연금 재정계산위원회의 최종 보고서에는 적립기금 소진 방지를 위한 다양한 시나리오가 포함되어 있음.</t>
+  </si>
+  <si>
+    <t>보고서에는 기초연금 개선과 소득대체율 상향 등의 개선 방안이 제안되었으며, 이는 국민연금 서비스의 경쟁 동향에 영향을 줄 수 있음.</t>
+  </si>
+  <si>
+    <t>보고서에는 국민연금 서비스와 관련된 재정 안정화 조치가 필요하다는 내용이 포함되어 있음.</t>
+  </si>
+  <si>
+    <t>보고서에는 법적 또는 규제적 변화에 대한 언급이 없음.</t>
+  </si>
+  <si>
+    <t>보고서에는 기초연금 개선과 노후소득보장 기능 강화 등의 내용이 포함되어 있으며, 이는 국민연금의 장기적인 지속 가능성에 영향을 줄 수 있음.</t>
+  </si>
+  <si>
+    <t>보고서에는 기술과 디지털화에 대한 언급이 없음.</t>
+  </si>
+  <si>
+    <t>보고서에는 소비 행태와 요구사항에 대한 언급이 없음.</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>150조 ‘폭풍 성장’ 기대했던 퇴직연금 TDF 시장… 10조원대에서 벌써 시들</t>
+  </si>
+  <si>
+    <t>TDF 시장 성장세가 멈췄다. TDF 상품 수익률이 부진하고 자금 유출이 발생했다. TDF는 퇴직연금을 위한 장기 투자 상품이지만 안전자산 비중을 높이는 구조로 인해 증시의 영향을 크게 받는다.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/366/0000940840?sid=101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  타깃데이트펀드 TDF 시장 성장세가 멈췄다. 지난해 디폴트옵션 사전지정운용제도이 도입되며 대표 상품인 TDF 시장이 빠르게 성장할 것이란 기대가 컸지만 부진한 증시 여파로 인기가 줄어든 것이다. 알아서 운용하는 TDF 상품은 주식과 채권을 섞어 운용하는데 특히 주식 비중이 높은 젊은 연령층 가입자의 상품 수익률이 부진하다. 상대적으로 고금리 시대를 맞아 정기예금이나 보험사 상품은 양호한 수익률을 내고 있어 이쪽으로 투자자들이 다시 몰릴 수 있다는 관측도 나온다.  20일 금융투자협회에 따르면 국내 20개 자산운용사의 9월 말 기준 TDF 수탁고는 9조3060억원으로 연초 9조1501억원 이후 1.7 1558억원 늘어나는 데 그쳤다. 대형 운용사의 경우 TDF 수탁고가 오히려 줄어들기도 했다. 이 기간 미래에셋자산운용 3조9598억원3조8488억원 삼성자산운용 1조7823억원1조6707억원은 각각 1100억원 이상이 TDF에서 빠져나갔다.TDF 성장 정체는 예상하지 못한 일이다. TDF는 투자자의 은퇴 시점에 맞춰 위험자산과 안전자산의 비중을 유동적으로 조절해 주는 장기 투자 상품이다. TDF 시장 성장세는 2018년 퇴직연금 규제 완화를 기점으로 시작됐다. 지난 2017년 6780억원에 불과했던 TDF 수탁고는 지난 2021년 7조원대로 늘며 연평균 60 성장했다.특히 2022년 7월 도입된 디폴트옵션 제도로 TDF 시장 성장이 더 빨라질 것이란 기대가 컸다. 근로자가 자신의 퇴직연금 운용 방법을 미리 선택해 놓지 않으면 퇴직연금이 대기성 자금으로 분류돼 예적금 이자도 받지 못하게 된다. 이를 막기 위해 도입된 것이 디폴트옵션인데 디폴트옵션에 따라 퇴직연금 적립금이 늘어나면 대표 상품인 TDF 시장 규모도 커질 수밖에 없다는 기대가 많았다. 이에 2021년 7조6000억원 수준이었던 TDF 시장 규모가 2030년 154조원으로 늘어날 수 있다는 장밋빛 전망도 나왔다.하지만 올해 TDF 시장은 사실상 역성장했다. 디폴트옵션을 통해 TDF에 누적된 설정액은 2022년 말 23억원에서 올해 9월 말 2574억원으로 늘어났지만 TDF 시장 전체 수탁고는 연초 대비 1558억원 증가하는 데 그쳤기 때문이다. 디폴트옵션을 통해 가입하는 TDF가 아닌 일반 TDF 상품에서는 오히려 자금이 유출된 것이다.최근 TDF 수익률이 낮아지자 다른 퇴직연금 상품으로 갈아타는 투자자들이 많아진 것으로 풀이된다. TDF는 투자자의 은퇴 시점이 다가올수록 위험자산 비중을 낮추고 안전자산 비중을 높이는 구조인 만큼 원리금 보장형 퇴직연금 상품에 비해 부진한 증시의 영향을 크게 받는다. 올해 9월 말 기준으로 국내에 설정된 모든 TDF의 1년 평균 누적 수익률은 7.31에 이르지만 2년 평균 누적 수익률은 마이너스 8.18 수준이다. TDF가 많이 팔렸던 지난 20212022년 사이에 투자한 경우 여전히 손실을 보고 있는 것이다.김정혜 KB 골드앤와이즈 더 퍼스트 GOLDWISE the FIRST 부센터장은 TDF의 수익률이 부진한 상태에서 상대적으로 안전하게 운용해야 하는 퇴직연금을 펀드로 운용하는 데 고객들이 부담을 느끼는 것으로 보인다면서 또 높아진 시장 불확실성을 고려해 펀드보다는 채권이나 원리금보장상품에 들어가는 것을 선호하고 있다고 말했다.고금리 환경에 원리금보장형 퇴직연금 상품의 금리가 높아진 것도 TDF 자금 이탈을 가속했다. 키움투자자산운용에 따르면 올해 10월 기준 DC IRP형 원리금보장형 1년 만기 상품의 평균 금리는 4.05다. 이들 상품은 주로 예적금 주가연계채권 ELB 환매조건부채권 RP 등으로 구성된다.  업계에서는 TDF가 장기 투자용 상품이라는 점에서 여전히 투자 가치가 있다고 강조한다. 일찍이 TDF 시장을 개척해 온 미국에서 TDF의 우수한 운용 성과가 증명된 만큼 12년의 단기 성과에만 집중하는 것은 적절하지 않다는 지적이다. 미국 스탠더드앤드푸어스 SP TDF 지수의 올해 9월 말 기준 10년 연 환산 수익률을 보면 2025년을 은퇴 시점으로 상정한 TDF의 경우 5.56 2050년 TDF는 7.60를 기록하고 있다.김혜나 키움투자자산운용 마케팅본부 팀장은 미국 연방준비제도 연준Fed와 한국은행이 이르면 내년 상반기 금리 인하할 것으로 기대되는 상황이라며 퇴직연금을 분산 투자하는 차원에서 보면 TDF는 여전히 좋은 선택이라고 말했다.</t>
+  </si>
+  <si>
+    <t>['퇴직연금 DC', '퇴직연금 IRP', '디폴트옵션', '퇴직연금 적립금', '퇴직연금 제도 도입', '디폴트옵션 설정액', '퇴직연금 규모', '미래에셋 퇴직연금', 'KB 퇴직연금', '삼성 퇴직연금', '퇴직연금 금융투자협회', '퇴직연금 운용사', '퇴직연금 수익률', '퇴직연금 TDF', '퇴직연금 가입', '퇴직연금 펀드', '퇴직연금 예금', '퇴직연금 채권', '퇴직연금 설정액', '퇴직연금 장기 투자']</t>
+  </si>
+  <si>
+    <t>[{'퇴직연금 DC': 10}, {'퇴직연금 IRP': 60}, {'디폴트옵션': 3}, {'퇴직연금 적립금': 1}, {'퇴직연금 제도 도입': 9}, {'디폴트옵션 설정액': 2}, {'퇴직연금 규모': 10}, {'미래에셋 퇴직연금': 5}, {'KB 퇴직연금': 44}, {'삼성 퇴직연금': 1}, {'퇴직연금 금융투자협회': 1}, {'퇴직연금 운용사': 1}, {'퇴직연금 수익률': 3}, {'퇴직연금 TDF': 1}, {'퇴직연금 가입': 18}, {'퇴직연금 펀드': 1}, {'퇴직연금 예금': 2}, {'퇴직연금 채권': 1}, {'퇴직연금 설정액': 1}, {'퇴직연금 장기 투자': 1}]</t>
+  </si>
+  <si>
+    <t>TDF 상품 수익률이 부진하다.</t>
+  </si>
+  <si>
+    <t>자금이 유출되어 TDF 시장 성장세가 멈췄다.</t>
+  </si>
+  <si>
+    <t>TDF는 안전자산 비중을 높이는 구조로 인해 증시의 영향을 크게 받는다.</t>
+  </si>
+  <si>
+    <t>No information related to legal and regulatory changes.</t>
+  </si>
+  <si>
+    <t>No information related to demographic change.</t>
+  </si>
+  <si>
+    <t>No information related to technology and digitalization.</t>
+  </si>
+  <si>
+    <t>No information related to consumption behavior and requirements.</t>
+  </si>
+  <si>
+    <t>금리ETF 인기 지속...'TIGER CD금리투자KIS' 순자산 7조원 돌파</t>
+  </si>
+  <si>
+    <t>미래에셋자산운용은 TIGER CD금리투자KIS 합성 ETF의 순자산이 7조원을 돌파했다고 밝혔다. TIGER CD금리투자KIS 합성 ETF는 9월 순자산 6조 3000억원을 넘어서며 한국거래소에 상장된 전체 ETF 중 순자산 1위에 올라섰다. TIGER CD금리투자KIS 합성 ETF는 금융투자협회가 매일 고시하는 CD 양도성예금증서 수익률을 추종하는 국내 최초의 금리형 ETF다.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/008/0004951298?sid=101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">미래에셋자산운용은 TIGER CD금리투자KIS 합성 ETF의 순자산이 7조원을 돌파했다고 20일 밝혔다. 한국거래소에 따르면 19일 종가 기준 TIGER CD금리투자KIS 합성 ETF 순자산은 7조 737억원이다. 현재 국내에서 순자산 7조원을 돌파한 ETF는 TIGER CD금리투자KIS 합성 ETF가 유일하다.TIGER CD금리투자KIS 합성 ETF는 9월 순자산 6조 3000억원을 넘어서며 한국거래소에 상장된 전체 ETF 중 순자산 1위에 올라섰다. 주식형이 주도하는 국내 ETF 시장에서 처음으로 금리형 ETF가 1위에 올라서며 당시 ETF 시장에 새로운 변화를 불러 일으켰다는 평가를 받았다. 고금리 상황이 지속되면서 CD금리가 매력적 수준을 유지하자 개인 매수세가 강화되며 약 1개월만에 7조원을 넘어섰다.TIGER CD금리투자KIS 합성 ETF는 금융투자협회가 매일 고시하는 CD 양도성예금증서 수익률을 추종하는 국내 최초의 금리형 ETF다. 매일 이자가 복리로 쌓이고 은행예금과 달리 쉽게 현금화가 가능해 은행 파킹통장을 대체하는 파킹형 ETF로 주목받고 있다. 또 ISA 중개형 개인연금 퇴직연금 DC IRP 계좌에서 거래 시 인출 시점까지 과세가 이연되고 세액공제까지 받을 수 있어 연금 투자자들에게 적합하다. 미래에셋자산운용은 TIGER CD금리투자KIS 합성 ETF 순자산 7조원 돌파를 기념해 이벤트를 진행한다. 10월 20일부터 11월 3일까지 TIGER ETF 홈페이지 TIGER ETF 카카오 플러스친구 채널을 통해 퀴즈 정답자 중 추첨을 통해 700명에게 기프티콘을 제공한다.정승호 미래에셋자산운용 ETF운용부문 매니저는 국내외 고금리 여건이 지속되고 있는 상황에서 금리형 ETF에 대한 관심이 지속될 것으로 보인다며 유휴 자금을 효과적으로 활용할 수 있는 투자 수단이라고 말했다. </t>
+  </si>
+  <si>
+    <t>['퇴직연금 금융투자협회', '퇴직연금 ETF']</t>
+  </si>
+  <si>
+    <t>[{'퇴직연금 금융투자협회': 10}, {'퇴직연금 ETF': 2}]</t>
+  </si>
+  <si>
+    <t>미래에셋자산운용은 TIGER CD금리투자KIS 합성 ETF의 순자산 돌파를 발표하였으며, 이는 pension fund management에 관련된 정보이다.</t>
+  </si>
+  <si>
+    <t>TIGER CD금리투자KIS 합성 ETF가 국내 ETF 시장에서 금리형 ETF로 1위에 올라섰으며, 이는 industry competition trends에 관련된 정보이다.</t>
+  </si>
+  <si>
+    <t>TIGER CD금리투자KIS 합성 ETF는 금융투자협회가 매일 고시하는 CD 양도성예금증서 수익률을 추종하는 국내 최초의 금리형 ETF로, financial market impact에 관련된 정보이다.</t>
+  </si>
+  <si>
+    <t>본 기사에는 legal and regulatory changes에 관련된 정보가 포함되어 있지 않다.</t>
+  </si>
+  <si>
+    <t>본 기사에는 demographic change에 관련된 정보가 포함되어 있지 않다.</t>
+  </si>
+  <si>
+    <t>본 기사에는 technology and digitalization에 관련된 정보가 포함되어 있지 않다.</t>
+  </si>
+  <si>
+    <t>본 기사에는 consumption behavior and requirements에 관련된 정보가 포함되어 있지 않다.</t>
+  </si>
+  <si>
+    <t>금융당국, 수신경쟁에 '도끼눈'…만기 도래 예금 '100조원' 어디로</t>
+  </si>
+  <si>
+    <t>금융권에는 고금리 예금 상품이 만기를 앞두고 있다. 예금 상품의 최고금리는 연 4.004.05 수준이다. 예금 금리가 오르는 추세는 지난해 발생한 레고랜드 사태 때문이다.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/421/0007121625?sid=101</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 서울뉴스1 김정현 기자 지난해 10월 레고랜드 사태 이후 시중은행 등 1금융권은 물론 저축은행 등 2금융권에 몰린 100조원에 달하는 고금리 예금 상품이 만기를 앞두고 있다. 금융당국의 수신경쟁 과열 경계에도 불구하고 금융권에는 금리를 높인 예금 상품이 속속 등장하고 있다.20일 은행연합회 공시에 따르면 시중은행의 예금 상품 12개월 만기 37개 중 20개 상품이 우대금리를 포함해 연 4대 금리를 제공하고 있다. KB국민신한하나우리NH농협은행 등 5대 은행 예금 상품의 최고금리도 연 4.004.05 수준이다.2금융권의 예금 금리도 꿈틀거리고 있다. 저축은행중앙회 공시에 따르면 전체 299개 에금 상품 중 우대금리를 포함해 연 4.50 이상의 최고금리를 제공하는 상품은 64개에 달한다. 12개월 만기 예금 상품 평균 금리도 반년 사이 0.47포인트 p 오른 4.24를 기록했다.이처럼 예금 금리가 오르는 추세는 지난해 발생한 레고랜드 사태 때문이다. 당시 채권시장을 통한 자금 조달이 어려워지면서 금융권에서 자금 확보를 위해 앞다퉈 출시한 고금리 상품의 만기가 다가오고 있기 때문이다. 금융권에서는 올해 4분기 만기가 도래하는 예금 규모를 약 100조원대로 추산하고 있다. 다만 지난해 연 56 수준의 고금리 예금 상품이 출시됐던 것과 비교하면 최근 출시되는 예금 상품의 금리는 이에는 미치지 못하는 수준이다. 금융당국은 금융시장 불안요인으로 작용할 수 있는 수신경쟁을 경계하며 도끼눈을 뜨고 있다. 수신경쟁 과열이 발생할 경우 조달 비용이 늘고 결국 대출금리 인상으로 이어져 차주들의 부담이 커지기 때문이다.금융위원회와 금융감독원은 지난 9월부터 10여 차례에 걸쳐 시장 안정화 회의를 열고 자금 확보 경쟁을 자제해 쏠림 현상이 나타나지 않도록 해달라고 당부하는 등 선제적 대응에 나선 상태다.지난 18일에는 김소영 금융위 부위원장 주재로 금융시장 현안 점검소통회의를 열고 은행채 발행 유연화 유동성커버리지비율 LCR 95 유지 연장 퇴직연금 감독규정 개정 마무리 등과 함께 집중 모니터링에 나서겠다는 방침을 발표하기도 했다.김 부위원장은 4분기 중 만기가 도래하는 자금 규모가 예년에 비해 다소 큰 점을 감안해 경각심을 가지고 자금이동 상황을 주시할 것이라며 자금시장을 교란하는 이기적 행위에 대해서는 엄정히 대응할 것이라고 강조했다.그러나 지난달 5대 시중은행의 요구불예금이 직전달 대비 10조1698억원 늘어난 608조1349억원을 기록한 점을 고려할 때 소비자들은 여전히 더 높은 금리의 예금 상품에 대한 기대를 갖고 있는 것으로 분석된다. 요구불예금은 입출금이 자유로워 언제든 되찾을 수 있는 예금으로 소비자들은 고금리 예금 상품의 만기가 도래한 뒤 이를 현 정기 예적금 상품에 예치하지 않고 일종의 대기성 자금으로 두고 있는 셈이다.한 시중은행 관계자는 당국에서 수신경쟁 자제를 당부하고 자금 조달을 위한 규제 완화가 이뤄졌기 때문에 은행권에서 고금리 상품을 먼저 출시할 가능성은 높지 않을 것이라면서도 기존 예적금 상품 고객 이탈을 막기 위해 수신금리를 내리진 않을 것이라고 말했다.다른 은행 관계자도 이스라엘 가자 전쟁 등 대내외 위기로 주식시장 부진으로 투자처가 나올 때까지 예치하려는 수요가 있는 것으로 보인다며 일부 상호금융권을 중심으로 특판 상품이 속속 등장하는 만큼 은행권에서도 자금 이동을 예의주시할 수밖에 없을 것이라고 전망했다.</t>
+  </si>
+  <si>
+    <t>['퇴직연금 저축은행', '퇴직연금 예금']</t>
+  </si>
+  <si>
+    <t>[{'퇴직연금 저축은행': 10}, {'퇴직연금 예금': 1}]</t>
+  </si>
+  <si>
+    <t>금융권에는 고금리 예금 상품이 속속 등장하고 있다.</t>
+  </si>
+  <si>
+    <t>금융권에서는 예금 상품의 최고금리를 제공하고 있다.</t>
+  </si>
+  <si>
+    <t>예금 금리가 오르는 추세는 지난해 발생한 레고랜드 사태 때문이다.</t>
+  </si>
+  <si>
+    <t>No relevant information in the article.</t>
+  </si>
+  <si>
+    <t>KB국민은행</t>
+  </si>
+  <si>
+    <t>KB국민은행, ‘절세끝판왕, KB IRP로 무빙’ 이벤트 진행</t>
+  </si>
+  <si>
+    <t>KB국민은행은 연말정산 시즌을 맞아 오는 12월 29일까지 개인형 퇴직연금 IRP 절세끝판왕 KB IRP로 무빙 이벤트를 진행한다고 20일 밝혔다. 이번 이벤트는 KB퇴직연금 타깃데이트펀드 TDF 상품 전체 디폴트옵션 포트폴리오 상품 초저위험제외으로 퇴직연금을 신규 계좌이체 또는 추가 입금한 고객을 대상으로 진행한다.</t>
+  </si>
+  <si>
+    <t>https://www.viva100.com/main/view.php?key=20231020010005011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+KB국민은행은 연말정산 시즌을 맞아 오는 12월 29일까지 개인형 퇴직연금 IRP 절세끝판왕 KB IRP로 무빙 이벤트를 진행한다고 20일 밝혔다.이번 이벤트는 KB퇴직연금 타깃데이트펀드 TDF 상품 전체 디폴트옵션 포트폴리오 상품 초저위험제외으로 퇴직연금을 신규 계좌이체 또는 추가 입금한 고객을 대상으로 진행한다. 퇴직연금 개인형IRP를 신규 가입하거나 타 금융회사 퇴직연금을 KB국민은행으로 계좌 이체 시 2000명 개인형IRP를 기존에 보유한 고객이 추가 입금 시 1500명을 추첨해 CU 편의점 모바일 금액권을 제공한다. 또 경품 추첨을 통해 이벤트에 참여한 고객 중 148명에게 신세계 모바일 상품권도 증정한다. 신규 계좌 이체 고객은 최소 10만 원 이상의 금액으로 가입해야 하며 추가 입금 고객은 50만 원 이상 납입해야 이벤트에 참여할 수 있다.당첨된 경품은 내년 1월 22일 지급될 예정이며 이벤트에 관한 자세한 내용은 KB국민은행 홈페이지 또는 KB스타뱅킹에서 확인할 수 있다.국민은행 관계자는 올해 연금계좌 세액공제 납입한도가 900만원으로 확대됨에 따라 고객님들의 절세에 도움을 주고자 이번 이벤트를 마련했다며 연말정산을 준비하는 시기인 만큼 대표 세액공제 상품인 IRP에 더 많은 관심을 갖고 풍성한 이벤트 경품도 받을 수 있는 좋은 기회가 되길 바란다고 밝혔다.김수환 기자 kshviva100.com
+</t>
+  </si>
+  <si>
+    <t>['퇴직연금 IRP', '퇴직연금 연말정산', '퇴직연금 이벤트', '디폴트옵션 이벤트', 'IRP 이벤트', 'KB 퇴직연금']</t>
+  </si>
+  <si>
+    <t>[{'퇴직연금 IRP': 1}, {'퇴직연금 IRP': 7}, {'퇴직연금 IRP': 9}, {'퇴직연금 IRP': 12}, {'퇴직연금 IRP': 13}, {'퇴직연금 IRP': 17}, {'퇴직연금 IRP': 18}, {'퇴직연금 IRP': 19}, {'퇴직연금 IRP': 25}, {'퇴직연금 IRP': 28}, {'퇴직연금 IRP': 29}, {'퇴직연금 IRP': 30}, {'퇴직연금 IRP': 32}, {'퇴직연금 IRP': 33}, {'퇴직연금 IRP': 38}, {'퇴직연금 IRP': 39}, {'퇴직연금 IRP': 42}, {'퇴직연금 IRP': 43}, {'퇴직연금 IRP': 46}, {'퇴직연금 IRP': 47}, {'퇴직연금 IRP': 49}, {'퇴직연금 IRP': 53}, {'퇴직연금 IRP': 58}, {'퇴직연금 연말정산': 51}, {'퇴직연금 이벤트': 2}, {'퇴직연금 이벤트': 6}, {'퇴직연금 이벤트': 9}, {'퇴직연금 이벤트': 12}, {'퇴직연금 이벤트': 13}, {'퇴직연금 이벤트': 16}, {'퇴직연금 이벤트': 17}, {'퇴직연금 이벤트': 18}, {'퇴직연금 이벤트': 23}, {'퇴직연금 이벤트': 26}, {'퇴직연금 이벤트': 27}, {'퇴직연금 이벤트': 28}, {'퇴직연금 이벤트': 30}, {'퇴직연금 이벤트': 32}, {'퇴직연금 이벤트': 35}, {'퇴직연금 이벤트': 36}, {'퇴직연금 이벤트': 40}, {'퇴직연금 이벤트': 41}, {'퇴직연금 이벤트': 45}, {'퇴직연금 이벤트': 47}, {'퇴직연금 이벤트': 48}, {'퇴직연금 이벤트': 51}, {'퇴직연금 이벤트': 56}, {'디폴트옵션 이벤트': 2}, {'디폴트옵션 이벤트': 6}, {'디폴트옵션 이벤트': 8}, {'디폴트옵션 이벤트': 10}, {'디폴트옵션 이벤트': 11}, {'디폴트옵션 이벤트': 13}, {'디폴트옵션 이벤트': 14}, {'디폴트옵션 이벤트': 15}, {'디폴트옵션 이벤트': 19}, {'디폴트옵션 이벤트': 21}, {'디폴트옵션 이벤트': 22}, {'디폴트옵션 이벤트': 24}, {'디폴트옵션 이벤트': 26}, {'디폴트옵션 이벤트': 28}, {'디폴트옵션 이벤트': 31}, {'디폴트옵션 이벤트': 32}, {'디폴트옵션 이벤트': 34}, {'디폴트옵션 이벤트': 35}, {'디폴트옵션 이벤트': 38}, {'디폴트옵션 이벤트': 39}, {'디폴트옵션 이벤트': 40}, {'디폴트옵션 이벤트': 42}, {'디폴트옵션 이벤트': 51}, {'디폴트옵션 이벤트': 58}, {'디폴트옵션 이벤트': 60}, {'IRP 이벤트': 1}, {'IRP 이벤트': 4}, {'IRP 이벤트': 6}, {'IRP 이벤트': 9}, {'IRP 이벤트': 10}, {'IRP 이벤트': 11}, {'IRP 이벤트': 12}, {'IRP 이벤트': 14}, {'IRP 이벤트': 17}, {'IRP 이벤트': 19}, {'IRP 이벤트': 20}, {'IRP 이벤트': 22}, {'IRP 이벤트': 24}, {'IRP 이벤트': 25}, {'IRP 이벤트': 30}, {'IRP 이벤트': 31}, {'IRP 이벤트': 32}, {'IRP 이벤트': 33}, {'IRP 이벤트': 36}, {'IRP 이벤트': 37}, {'IRP 이벤트': 38}, {'IRP 이벤트': 41}, {'IRP 이벤트': 48}, {'IRP 이벤트': 56}, {'IRP 이벤트': 59}, {'KB 퇴직연금': 2}, {'KB 퇴직연금': 7}, {'KB 퇴직연금': 10}, {'KB 퇴직연금': 13}, {'KB 퇴직연금': 14}, {'KB 퇴직연금': 17}, {'KB 퇴직연금': 18}, {'KB 퇴직연금': 19}, {'KB 퇴직연금': 24}, {'KB 퇴직연금': 26}, {'KB 퇴직연금': 27}, {'KB 퇴직연금': 28}, {'KB 퇴직연금': 31}, {'KB 퇴직연금': 33}, {'KB 퇴직연금': 36}, {'KB 퇴직연금': 37}, {'KB 퇴직연금': 41}, {'KB 퇴직연금': 42}, {'KB 퇴직연금': 49}, {'KB 퇴직연금': 51}, {'KB 퇴직연금': 52}, {'KB 퇴직연금': 55}]</t>
+  </si>
+  <si>
+    <t>해당 기사는 퇴직연금 이벤트에 대한 내용이며, 펀드 관리 전략, 수익률, 투자 자산 배분 모니터링 및 금융 시장 변동의 영향 분석과 관련된 내용이 없습니다.</t>
+  </si>
+  <si>
+    <t>해당 기사는 KB국민은행의 퇴직연금 이벤트에 대한 내용을 다루고 있으며, 경쟁 동향과 새로운 제품 및 서비스 출시에 대한 정보를 제공합니다.</t>
+  </si>
+  <si>
+    <t>해당 기사는 금융 시장의 변동성이나 이자율 변화에 대한 내용을 다루고 있지 않습니다.</t>
+  </si>
+  <si>
+    <t>해당 기사는 법률 및 규제 변화에 대한 내용을 다루고 있지 않습니다.</t>
+  </si>
+  <si>
+    <t>해당 기사는 인구 통계 변화나 퇴직연금이 장기적인 지속 가능성에 미치는 영향에 대한 내용을 다루고 있지 않습니다.</t>
+  </si>
+  <si>
+    <t>해당 기사는 기술과 디지털화에 대한 내용을 다루고 있지 않습니다.</t>
+  </si>
+  <si>
+    <t>해당 기사는 퇴직연금 수령자의 소비 패턴, 투자 선호도 및 요구사항에 대한 내용을 다루고 있지 않습니다.</t>
+  </si>
+  <si>
     <t>2023-10-19</t>
   </si>
   <si>
-    <t>퇴직연금 상품</t>
-  </si>
-  <si>
     <t>삼성 / 블랙록</t>
   </si>
   <si>
@@ -225,12 +698,6 @@
     <t>기사에서는 소비 행태와 요구사항에 대한 언급이 없으므로 점수를 주지 않는다.</t>
   </si>
   <si>
-    <t>퇴직연금 제도</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>'개인형 퇴직연금(IRP)' 로보어드바이저 투자 허용...'연말 세액공제' 노려볼...</t>
   </si>
   <si>
@@ -297,9 +764,6 @@
     <t>로보어드바이저 업체 파운트, 퇴직연금 전용 알고리즘 개발에 집중</t>
   </si>
   <si>
-    <t>No relevant information in the article</t>
-  </si>
-  <si>
     <t>저출산 고령화로 퇴직연금에 대한 관심이 커지고 있음</t>
   </si>
   <si>
@@ -477,9 +941,6 @@
     <t>노령화와 연금 기금의 장기적인 지속 가능성에 대한 내용이 포함되어 있지 않음.</t>
   </si>
   <si>
-    <t>기술과 디지털화에 대한 내용이 포함되어 있지 않음.</t>
-  </si>
-  <si>
     <t>소비 행동 및 요구사항에 대한 내용이 포함되어 있지 않음.</t>
   </si>
   <si>
@@ -597,9 +1058,39 @@
     <t>본문에는 소비 행동 및 요구사항에 대한 언급이 없다.</t>
   </si>
   <si>
+    <t>들썩이는 금리…'변동성 피난처' 채권형 ETF 주목할 때[인터뷰]</t>
+  </si>
+  <si>
+    <t>미국채 발행 증가와 중동 전쟁에 따른 불확실성으로 금리 방향 예상. 퇴직연금 등 장기 운용 자금에 초장기채 ETF가 대안. 채권형 ETF 중 듀레이션이 긴 상품 선택지로 판단.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/018/0005598996?sid=101</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 금리 방향은 당분간 경제지표미국채 발행 증가중동 전쟁에 따른 불확실성이 예상됩니다. 채권형 상장지수펀드 ETF는 보유 자금의 장단기 투자 성격에 따라 구분해 접근할 필요가 있습니다. 퇴직연금 등 장기 운용 자금의 경우 향후 장기금리가 결국 우하향할 전망인 만큼 단기 금리 변동성을 피하면서 단기채 대비 높은 수익률을 기대할 수 있는 초장기채 ETF도 대안이 될 수 있습니다. 정승호 미래에셋자산운용 ETF운용부문 매니저가 서울 종로구 본사에서 이데일리와 인터뷰를 진행하고 있다.정승호 미래에셋자산운용 ETF운용부문 매니저는 최근 서울 종로구 본사에서 진행된 이데일리와의 인터뷰에서 이같이 말했다. 단기적으로 금리가 기대치를 상회하는 미국 경제지표가 지속 발표될 가능성 미국채 발행 증가에 따른 수급 우려 중동 지정학적 리스크에 따른 인플레이션 우려 등에 따라 불확실성이 큰 상황에서 자금 성격에 따라 신중한 접근 전략이 필요하다는 조언이다.실제 미국채 금리는 지난 17일 현지시간에도 견고한 실물경제지표에 따라 2007년 이후 최고치 수준에 근접했다. 10년물은 4.8대 30년물은 4.9대다. 예상을 웃돈 소매판매산업생산 지표가 미국 연방준비제도 Fed의 추가 긴축 우려를 자극한 영향이다. 정 매니저는 장기적 관점에서 현재 채권 금리는 매력적인 수준으로 단기 변동성을 피하고 싶다면 향후 금리 인하 하락의 수혜를 고려한 접근이 유효하다고 봤다. 정 매니저는 단기 운용 자금은 금리 인상 리스크가 상대적으로 낮고 높은 캐리 보유이익를 기대할 수 있는 단기채 ETF 투자가 적절하다면서 다만 금리 불확실성이 여전한 국면에선 단기 트레이딩으로 높은 수익률을 기대하기 어려울 것으로 보여 현시점에선 퇴직연금 등 장기 운용 자금을 활용한 장기채 ETF 접근을 고려할 수 있다고 본다고 말했다. 장기적으로 채권형 ETF 수익률을 극대화하고 싶은 투자자라면 듀레이션 투자 원금 회수에 걸리는 평균 기간이 긴 초장기채 ETF가 선택지가 될 수 있을 것으로 판단했다. 국내에 상장한 채권형 ETF 중 레버리지형을 제외한 가장 긴 듀레이션의 상품은 TIGER 국고채30년스트립액티브 TIGER 미국채30년스트립액티브 등이 있다. 스트립이란 원금과 이자가 붙어 있는 채권을 분리하고 만기가 긴 원금에만 투자해 채권의 평균 듀레이션을 늘리는 전략이다. 기존 30년물 채권 투자 ETF의 듀레이션은 1718년 수준인 반면 스트립 채권 30년물의 듀레이션은 2729년 수준으로 50가량 더 길다. 듀레이션이 긴 만큼 높은 변동성에 따라 금리 하락 시에 더 높은 수익률을 추구할 수 있다. 이어 그는 퇴직연금에서 투자 가능한 해당 스트립채권 ETF는 금리가 하락할 때 가장 높은 수익률을 기대할 수 있고 단기가 아닌 장기 보유 시 단기채 ETF보다 높은 수익률을 기대할 수 있다며 현 채권금리 수준을 매력적이라고 판단한 개인들이 유입되면서 최근 3개월간 미국채 금리의 가파른 상승 속 두 ETF 합산 순자산이 2000억원 중반 수준이라고 설명했다. 투자 시점에 따른 손실 가능성도 유의해야 한다는 조언이다. 정 매니저는 장기채권은 금과 함께 대표적인 자산배분 수단으로 위험자산인 주식과 낮은 상관계수 때문에 포트폴리오 변동성을 줄이고 최대손실폭 MDD을 낮춰주는 효과가 있다며 금리 불안이 여전한 상황에서 스트립채권 ETF를 단기 관점에서 투자하면 예상이 빗나갔을 때 다른 채권형 대비 더욱 큰 손실을 볼 우려가 있다고 전했다. 미래에셋운용은 자체 채권 운용 노하우를 기반으로 ETF 차별화를 강화할 전략이다. 정 매니저는 스트립채권형은 거래 네트워크 발행 프로세스를 비롯한 이해 국채 분석 역량 등 적지 않은 운용 노하우가 필요한 상품 중 하나라며 국내에 아직 없는 채권형 상품이 해외 증시에 다양하게 상장돼 있는 만큼 운용 역량을 활용해 차별화된 상품을 지속 출시할 것이라고 강조했다.</t>
+  </si>
+  <si>
     <t>['퇴직연금 ETF', '퇴직연금 채권']</t>
   </si>
   <si>
+    <t>[{'퇴직연금 ETF': 29}, {'퇴직연금 채권': 31}]</t>
+  </si>
+  <si>
+    <t>채권형 ETF에 대한 투자 전략과 금리 변동성에 대한 고려가 있음.</t>
+  </si>
+  <si>
+    <t>장기 운용 자금에 초장기채 ETF가 대안으로 고려됨.</t>
+  </si>
+  <si>
+    <t>금리 변동성에 따른 수익률 추구 가능성이 언급됨.</t>
+  </si>
+  <si>
+    <t>법적 및 규제 변화에 대한 언급이 없음.</t>
+  </si>
+  <si>
+    <t>노령화와 연금 기금의 장기 지속 가능성에 대한 언급이 없음.</t>
+  </si>
+  <si>
     <t>기술과 디지털화에 대한 언급이 없음.</t>
   </si>
   <si>
@@ -633,18 +1124,6 @@
     <t>No information related to financial market impact.</t>
   </si>
   <si>
-    <t>No information related to legal and regulatory changes.</t>
-  </si>
-  <si>
-    <t>No information related to demographic change.</t>
-  </si>
-  <si>
-    <t>No information related to technology and digitalization.</t>
-  </si>
-  <si>
-    <t>No information related to consumption behavior and requirements.</t>
-  </si>
-  <si>
     <t>'채권 ETF' 공들이는 삼성운용…블랙록과 손잡은 이유는</t>
   </si>
   <si>
@@ -762,7 +1241,34 @@
     <t>이 기사에는 소비 행동 및 요구사항에 대한 정보가 제공되지 않습니다.</t>
   </si>
   <si>
-    <t>타사 동향 및 이벤트</t>
+    <t>[PB수첩]세액공제에 세금감면까지…연금계좌 절세의 기술</t>
+  </si>
+  <si>
+    <t>연금계좌의 세제는 불입 때 세액공제 및 과세이연, 운용 시 비과세, 수령 시 과세하는 EET 과세 구조를 가지고 있다. 연금계좌는 불입 시 세액공제 및 과세이연 효과가 있으며, 퇴직금을 연금계좌에 불입 시 혜택은 과세이연이다. 연금계좌는 운용 시 비과세되며, 수령 시에는 과세하는 특징이 있다.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/277/0005327441?sid=101</t>
+  </si>
+  <si>
+    <t>연금계좌의 세제는 불입 때 세액공제 및 과세이연 Exempt 운용 시 비과세 Exempt 수령 시 과세 Tax하는 EET 과세 구조를 가지고 있다. 이 EET 과세 구조를 정확히 이해하고 있다면 세액공제 과세이연 그리고 세금감면까지 절세를 통해 노후를 준비해 나갈 수 있는 특징이 있다.연금계좌는 불입 시 세액공제 및 과세이연 효과가 있다. 보통 연금저축계좌 또는 개인형 IRP를 연금계좌라고 불리며 노후를 위해 개인적으로 불입하는 개인부담금의 경우 불입 시 세액공제가 가능하다. 연금저축계좌의 경우 불입 금액의 600만원 한도로 개인형IRP는 연금저축계좌를 포함해 900만원 한도로 세액공제가 가능하다. 세액공제율은 근로소득만 있는 경우 총급여 기준 5500만원 이하 그리고 종합소득금액 기준 4500만원 이하의 경우 15의 세액공제를 받을 수 있으며 초과의 경우 12의 세액공제를 받을 수 있다. 연말정산이나 종합소득 신고 시 세액공제를 활용하면 최대 135만원 900만원X15의 절세가 가능하며 지방소득세 절감 효과 세액공제분의 10까지 고려하면 148만5000원이 가능하다.개인적으로 불입하는 부담금뿐만 아니라 퇴직 시 받는 퇴직금을 연금계좌에 불입도 가능하다. 퇴직금을 연금계좌에 불입 시 혜택은 과세이연이다. 퇴직금을 받는다면 퇴직소득세를 원천징수 후 세후 퇴직금을 받아야 하지만 연금계좌에 불입 시에는 원천징수하지 않고 과세이연을 할 수 있으며 과세이연된 세금을 투자원금으로 삼아 운용이 가능하다.연금계좌는 운용 시 비과세된다. 가령 국내 상장 해외 ETF에 투자하여 수익이 발생했다면 배당소득 15.4 지방소득세 포함으로 과세되며 다른 이자 배당소득과 합산해 2000만원 초과 시 금융소득종합합산과세가 된다. 하지만 연금계좌에서는 운용 시에는 과세되지 않는 특징이 있다.연금계좌는 수령 시 과세하는 특징이 있으며 수령을 어떻게 하느냐에 따라서도 절세가 된다. 개인부담금의 세액공제 받은 원금과 운용수익의 경우 나이에 따라 5.53.3 지방소득세 포함의 연금소득세가 적용되며 70세 미만의 경우 5.5 70세 이상 80세 미만의 경우 4.4 80세 이상의 경우 3.3이다.퇴직금 원금의 경우 과세이연된 퇴직소득세율이 연금수령 시 30 감면이 되며 연금수령 기간이 10년 초과하게 되면 초과된 수령분부터 40 감면이 이루어진다.연금수령 시 주의해야 할 점은 세액공제 받은 원금과 운용수익의 경우 연금수령 시 1200만원 초과 시 종합소득신고를 해야 하며 종합소득세율 또는 기타소득세율 16.5 지방소득세 포함 중 낮은 세율을 적용하여 기존의 5.53.3의 원천징수세율보다 높아질 수 있음에 유의해야 한다.KB국민은행 WM스타자문단 유동현 세무사</t>
+  </si>
+  <si>
+    <t>['퇴직연금 IRP', '개인형퇴직연금', 'IRP 연금수령', '퇴직연금 연말정산', '퇴직소득세', '퇴직연금 절세혜택', '퇴직연금 세액공제', 'KB 퇴직연금', '퇴직연금 ETF']</t>
+  </si>
+  <si>
+    <t>[{'퇴직연금 IRP': 60}, {'개인형퇴직연금': 14}, {'IRP 연금수령': 4}, {'퇴직연금 연말정산': 2}, {'퇴직소득세': 37}, {'퇴직연금 절세혜택': 2}, {'퇴직연금 세액공제': 6}, {'KB 퇴직연금': 2}, {'퇴직연금 ETF': 40}]</t>
+  </si>
+  <si>
+    <t>연금계좌의 세제에 대한 설명이 상세하게 포함되어 있음.</t>
+  </si>
+  <si>
+    <t>산업 경쟁 동향에 대한 내용이 없음.</t>
+  </si>
+  <si>
+    <t>금융 시장의 변동성에 대한 영향에 대한 내용이 일부 포함되어 있음.</t>
+  </si>
+  <si>
+    <t>노후 지속 가능성과 연금 기금의 영향에 대한 내용이 포함되어 있음.</t>
   </si>
   <si>
     <t>고금리 예금 만기 도래에…은행LCR규제 내년 상반기까지 유지</t>
@@ -900,9 +1406,6 @@
     <t>RA 투자에 대한 우려를 키운다.</t>
   </si>
   <si>
-    <t>국민연금공단</t>
-  </si>
-  <si>
     <t>한국 연금 제도 47국 중 42위...연금 혜택은 ‘꼴찌’</t>
   </si>
   <si>
@@ -1377,9 +1880,6 @@
     <t>기사에는 소비 행동 및 요구사항에 대한 내용이 없다.</t>
   </si>
   <si>
-    <t>No relevant information</t>
-  </si>
-  <si>
     <t>삼성자산운용, 美 채권형 ETF 3종 상장…블랙록 '맞손'</t>
   </si>
   <si>
@@ -1662,9 +2162,6 @@
     <t>한국투자증권은 인터넷은행과의 협업을 통해 자산관리 시너지 제고에 힘쓰고 있다.</t>
   </si>
   <si>
-    <t>No relevant information in the article.</t>
-  </si>
-  <si>
     <t>금투협</t>
   </si>
   <si>
@@ -1743,9 +2240,6 @@
     <t>기사에는 소비 행동과 요구사항에 대한 언급이 없어서 0점을 주었습니다.</t>
   </si>
   <si>
-    <t>국민연금</t>
-  </si>
-  <si>
     <t>[이슈 In] 올해 국민연금 조기 신규수급자 급증…수급연령 1년뒤로 밀린탓?</t>
   </si>
   <si>
@@ -2218,9 +2712,6 @@
   </si>
   <si>
     <t>시나리오만 20개α전문가정부국회 폭탄 돌리기 우려정부 개혁안에 구체안 없을 가능성총선 앞두고 국회특위도 지지부진재정 고려 더 내자 vs 빈곤 우려 더 받자공론화 없이 대립만  서울연합뉴스 김병규 기자 국민연금 개혁을 논의하는 전문가위원회인 국민연금 재정계산위원회가 퇴직 후 국민연금을 더 받는 시나리오를 최종보고서에 넣기로 했다. 정부 개혁안의 국회 제출 시한을 코앞에 두고 전문가위원회의 개혁안이 마무리되는 것인데 구체적인 제안 대신 다양한 시나리오를 백화점식으로 나열하는 수준이어서 개혁의 향방은 여전히 안갯속이다.  전문가위원회의 개혁안에 이어 정부 개혁안에도 구체적인 제안이 담기지 않을 가능성이 나오는 가운데 국회 차원의 논의도 지지부진한 상황이다. 전문가와 정부 국회가 구체적인 개혁안을 두고 폭탄 돌리기를 하는 것 아니냐는 우려가 나온다. 더 많이 내자 무게 두면서 더 많이 받자도 언급 15일 정부와 국민연금 재정계산위 등에 따르면 재정계산위는 지난 13일 회의에서 초안에 없었던 소득대체율 45와 50 인상 시나리오를 각각 최종보고서에 넣기로 했다. 소득대체율은 연금 가입기간의 평균 소득 대비 받게 될 연금액의 비율로 보장성의 수준을 의미한다.  지난 2007년 연금개혁에 따라 2008년 50에서 매년 0.5 내려가 2028년 40까지 낮아지는데 현재는 42.5다.  소득대체율이 42.5라는 것은 40년 이상 국민연금에 가입한 사람이 평균 월 100만원을 벌었다면 노년이 돼서 월 42만5천원을 받는 것을 의미한다.  국민연금 개혁을 둘러싸고는 보험료율 인상 등을 통한 재정안정을 중시하는 재정안정론과 소득대체율을 올려 보장성을 강화하자는 보장성 강화론이 맞선다.  이번 재정계산위는 재정안정론을 주장하는 전문가들이 많이 포함됐는데 보장성 강화론을 주장하는 전문가 2인이 사퇴한 가운데 지난달 초 재정안정론에 힘을 실은 보고서 초안을 공개했다.  초안에는 9인 보험료율을 12 15 18로 올리는 3가지 안 수급개시연령 올해 63세을 66세 67세 68세로 늦추는 3가지 안 기금 수익률을 0.5 1 올리는 2가지 안을 조합한 18개 시나리오가 담겼다.  재정계산위는 여기에 보험료율과 수급개시연령 기금수익률을 현행대로 놓고 소득대체율을 2025년에 45와 50로 올릴 경우의 2가지 시나리오를 추가하기로 했다.  아울러 보험료율 수급개시연령 기금 수익률 변경과 소득대체율 상향을 조합한 안도 참고 자료로 제시할 것으로 알려졌다.  다만 소득대체율 부분은 소득대체율을 높일 경우 기금 소진이 이렇게 빨라진다는 식의 부정적인 톤으로 제시될 것으로 보인다.  재정계산위의 김용하 위원장은 소득대체율 상향 시 재정이 어떻게 될지를 보고서에서 명확히 보여주는 데 목표가 있다고 설명했다.  시나리오 최소 20개정부 보고서도 구체적 제안 못 내놓을 듯 소득대체율 상향 시나리오가 포함되면서 재정계산위의 보고서에는 최소 20개의 시나리오가 담기게 된다.  보험료율 수급연령 수익률에 소득대체율까지 4가지 변수를 놓고 사실상 모든 개혁안을 백화점식으로 나열하는 것이다.  재정계산위는 보고서에 여러 시나리오를 보여주며 재정추계기간인 2093년까지 국민연금 적립기금이 소멸되지 않도록 한다는 목표도 함께 제시할 계획이다. 그런데 이 목표를 충족하는 시나리오는 보험료율 18지급개시연령 68세 보험료율 18기금투자수익률 0.5 혹은 1 상향 등 2가지다.  재정계산위는 행간을 읽어주시길 바란다라면서 이들 안에 힘을 줬지만 구체적인 제안을 하지는 않았다.  이 위원회가 시나리오만 나열한 것은 국민연금 개혁을 두고 다양한 의견이 첨예하게 맞서는 상황에서 더 많이 내고 더 늦게 받자는 제안이 가져올 여론의 반발에 부담을 느꼈기 때문으로 보인다.  하지만 국민연금 개혁의 중요성을 고려할 때 보고서가 시나리오 나열 수준에 그친 것을 두고 전문가들이 무책임한 것 아니냐는 비판도 있다. 위원회가 너무 많은 시나리오를 제시한 까닭에 곧 나올 정부 차원의 국민연금 개혁안에도 재정계산위의 보고서와 마찬가지로 구체적인 제안이 담기지 않을 것이라는 예측이 나온다.  재정계산위의 보고서는 정부가 이달 말까지 국회에 제출할 국민연금 종합운영계획의 밑그림 역할을 하는데 여러 시나리오를 몇 가지 제안으로 좁히기에는 시간이 부족한 상황이다. 상황에 따라서는 제출이 다음 달 이후로 늦춰질 수도 있다. 정부는 법에 따라 5년에 한 번씩 종합운영계획을 국회에 내야 하는데 지난 문재인 정부는 보험료 인상 등 4개 방안을 개혁안에 담았다가 여론 때문에 입법을 추진하지 못했다.  정부가 국회에 종합운영계획을 제출하면 개혁의 공은 국회로 넘어가게 되지만 총선이 불과 6개월 앞으로 다가온 상황에서 동력을 얻기는 힘들 것으로 보인다.  국회는 작년 10월 연금개혁특위를 출범시켰지만 그동안 논란만 불러일으키고 뚜렷한 성과를 내지 못했다.  특위 활동 기한은 이달 말 종료되는데 여야는 이를 총선 후인 내년 5월 말까지로 연장할 계획인 것으로 알려졌다. 미래세대 책임전가 안돼 vs 지금도 용돈연금 수준 국민연금 개혁 방향을 놓고 계속 의견이 갈리는 것은 재정 안정과 보장성 강화 중 어느 쪽을 우선시해야 하는지에 대한 견해차가 크기 때문이다.  재정안정을 강조하는 쪽은 미래세대에 책임을 전가해서는 안 된다고 주장한다.  경제활동인구가 줄어들고 노인 인구는 늘어나는 급격한 고령화를 앞두고 지금이라도 더 많이 내는 보험료율 인상 개혁을 하지 않으면 기금이 고갈돼 미래세대가 더 많은 보험료를 부담해야 할 처지에 놓인다는 것이다.  지난 3월 발표된 제5차 국민연금 재정추계에 따르면 현행 제도대로면 국민연금 재정은 2041년부터 수지 적자가 발생해 2055년엔 기금이 바닥날 것으로 예상된다.  기금이 바닥을 드러내면 그해 보험료 수입만으로 수급자들에게 주는 지출을 감당해야 한다.  보험료 수입만으로 지출을 충당할 경우 필요한 보험료율을 뜻하는 부과방식 비용률은 올해 6 수준이지만 2078년에는 35로 증가할 것으로 예상된다.  한마디로 국민연금 보험료 납부자가 소득의 무려 35를 보험료로 내야 한다는 뜻이다. 보장성 강화에 무게를 두는 쪽은 국민연금이 용돈연금이라고 불릴 정도로 보장 수준이 낮은 상황에서 기금 소진 우려에만 집중하는 것은 과도한 공포 마케팅이라고 비판한다.  국민연금 가입자의 평균 가입기간이 짧아 실질 소득대체율이 24 수준이어서 본연의 역할인 노후소득 보장을 제대로 하지 못하는 상황에서 미래 세대만 우려할 상황이 아니라는 것이다.  한국의 노인빈곤율은 2020년 38.97로 경제협력개발기구 OECD 국가 중 최악이다.  보장성 강화론자들은 한국이 현재는 제한된 기간의 적립기금으로 연금지출을 충당하는 부분적립방식이지만 기금이 소진되면 그해 필요한 연금 재원을 당대의 젊은 세대에게 세금이나 보험료를 거둬 충당하는 부과식으로 변경하면 된다고 주장한다.  실제로 미국 독일 스웨덴 등 대부분의 서구 국가는 적립기금이 없어지면서 부과방식으로 전환한 상황이다.  전문가들이 개혁 방향에 대해 첨예하게 대립하고 있지만 국민연금 개혁 논의는 일반 대중들에게는 활발하게 공론화가 되지 못하고 있다. 정부는 개혁안 논의 과정을 투명하게 공개하겠다고 했지만 정부 전문가위원회의 회의록은 지난 5월 이후 비공개 상태다.  국회 연금개혁특위는 지난 2월 공론화위원회를 꾸릴 방침을 밝혔지만 실현되지 않고 있다.  bkkimyna.co.kr</t>
-  </si>
-  <si>
-    <t>['퇴직연금 수익률', '퇴직연금 가입']</t>
   </si>
   <si>
     <t>[{'퇴직연금 수익률': 2}, {'퇴직연금 가입': 2}]</t>
@@ -2566,241 +3057,7 @@
     <t>소비 행태와 요구사항과 관련된 내용이 없음</t>
   </si>
   <si>
-    <t>2023-10-12</t>
-  </si>
-  <si>
-    <t>고객님, 더 드릴게요…치열한 퇴직연금 금리경쟁, 왜?</t>
-  </si>
-  <si>
-    <t>퇴직연금 대규모 자산 이동 머니 무브 완화 전망. 금융회사들의 커닝 공시 사라질 전망. 퇴직연금 금리 올라가는 추세.</t>
-  </si>
-  <si>
-    <t>https://n.news.naver.com/mnews/article/018/0005593455?sid=101</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 매 연말이면 재현되던 퇴직연금 대규모 자산 이동 머니 무브이 올해 커닝 공시 퇴출로 완화될 전망이다. 그러나 보험사와 저축은행 등 제2금융권의 우려는 여전하다. 고금리 기조가 자금 조달 압력으로 이어질 가능성이 큰 데다 300조원이 넘는 퇴직연금 시장에서 자칫 금리 경쟁력을 잃어버리면 유동성 위기로 이어질 수 있어서다. 특히 중소형 금융사들 사이에선 뭉칫돈 이탈을 막기 위한 금리 눈치 싸움을 피하기 어렵다는 목소리도 나온다. 그래픽김일환 기자슬금슬금 퇴직연금 금리 올리는 사업자들10일 금융권에 따르면 금융회사들의 커닝 공시가 이르면 올해부터 사라질 전망이다. 금융위원회는 지난 4일까지 퇴직연금 상품을 판매 중인 모든 금융회사가 원리금 보장상품 금리를 공시해야 한다는 내용이 담긴 퇴직연금 감독 규정 일부 개정 규정안을 변경 예고한 바 있다. 퇴직연금 시장에서 퇴직사업자들은 원리금 보장 상품의 금리를 한달 전에 미리 공시해야 했다. 그러나 이 의무가 비 非퇴직연금사업자에게 적용되지 않으면서 비퇴직연금사업자들이 퇴직연금사업자들의 금리를 확인한 뒤 조금 더 높은 금리를 제시하는 이른바 커닝 공시가 횡횡했다. 퇴직연금 시장이 커지면서 금리에 따라 움직이는 규모도 커졌기 때문이다.퇴직연금은 기업이 근로자의 퇴직금 재원을 금융기관에 맡겨 운용시키고 퇴직 시 연금이나 일시금으로 지급하는 제도를 말한다. 퇴직연금 적립금 규모는 올해 6월 기준으로 345조8140억원까지 성장했다. 지난해 말 331조7240억원과 비교하면 6개월만에 14조 넘게 증가한 것이다. 이에 당국은 금리 과당 경쟁을 통한 대규모 자금 이탈을 막기 위해 감독 규정을 개정하기로 했다.하지만 퇴직연금 비중이 높고 자본조달 이슈에 취약한 2금융권의 속앓이는 여전한 상황이다. 추석 연휴 전후로 글로벌 경제 상황이 급변하면서 올해 말까지 고금리 기조가 지속될 전망이 나오고 있다. 금리가 오르면 조달 상황이 불확실해지고 안정성이 강점인 시중은행을 선호하는 현상이 두드러진다. 실제 올해 연말이 다가오면서 퇴직연금 금리도 슬금슬금 높아지는 추세다. 10일 금융감독원 통합연금포털에 따르면 지난달 보험사들의 확정급여형 DB형 1년 만기 퇴직연금 상품의 평균 금리는 연 3.818로 집계됐다. 지난 6월 평균금리인 약 3.60와 비교하면 0.20포인트 이상 높아진 셈이다. 9월 기준으로 롯데손해보험의 DB형 퇴직연금 금리가 4.30로 가장 높았고 이어 하나손해보험 4.20 흥국생명 4.16 순으로 나타났다. KB라이프 4.10와 메리츠화재하나생명 4.0도 4대 고금리를 제시했다.중대형 생명보험사들도 잇따라 금리 상단을 높였다. 교보생명은 지난 6월 3.60에서 9월 3.70로 올렸고 같은 기간 미래에셋생명은 3.85에서 3.90로 금리를 높여 잡았다. 보험업계 관계자는 퇴직연금 운용 비중이 높은 곳에서 자금 유출이 발생하면 대응 부담이 클 수밖에 없어 울며 겨자먹기로 금리를 올리는 일이 발생한다고 말했다.저축은행들도 마찬가지다. 은행채로 자금을 조달해야 하는 시중은행과 달리 수신으로 자금을 조달해야 하는 저축은행들 입장에선 퇴직연금 가입자 유지 혹은 모집이 절실하다. 저축은행 수신금액에서 퇴직연금이 차지하는 비중은 평균 33로 큰 편이라 고금리를 쉽게 포기하기 힘들다는 목소리가 나온다.저축은행업계 DB형 1년 만기 퇴직연금 상품의 평균금리는 4.37다. 푸른키움예수JT저축은행이 4.8라는 고금리를 제시했고 다올저축은행이 4.7로 뒤를 이었다. SBIOK웰컴페퍼저축은행 등 대형 저축은행의 퇴직연금 금리도 4.34.41로 형성됐다.디폴트옵션 제외 저축은행이탈 추세 커질라 전전긍긍 퇴직연금 사전지정운용제도 디폴트옵션에 저축은행 상품이 제외된 것도 하반기 수신자금 이탈 가능성을 높이는 변수다. 저축은행 퇴직연금 상품이 만기될 경우 가입자가 재가입을 따로 지시하지 않으면 다른 금융업권의 디폴트옵션 상품으로 이동할 가능성이 커서다.저축은행 관계자는 당국이 금리 과당경쟁 및 머니무브 리스크를 줄이기 위해 만기 분산 관리 계획 등을 제출하라고 주문한 만큼 최대한 금리가 튀지 않게 관리하고 있다며 당장 디폴트옵션 제외로 자금 이탈이 현실화되는 분위기는 아닌 것 같다고 전했다. 이어 그러나 미리 금리를 높여야 한다는 판단에 일부 저축은행들이 금리를 높인 것으로 보인다며 이제 퇴직연금 물량이 몰린 연말이 코앞으로 다가와서 수신 자금 조달 측면에서 고민이 깊다고 말했다.</t>
-  </si>
-  <si>
-    <t>['퇴직연금 DB', '확정급여형', '퇴직금 제도', '디폴트옵션', '퇴직연금 사업자', '퇴직연금 적립금', '퇴직연금 규모', '퇴직연금 금융감독원', '미래에셋 퇴직연금', 'KB 퇴직연금', '퇴직연금 경쟁', '하나 퇴직연금', '퇴직연금 저축은행', '퇴직연금 가입']</t>
-  </si>
-  <si>
-    <t>[{'퇴직연금 DB': 1}, {'확정급여형': 6}, {'퇴직금 제도': 38}, {'디폴트옵션': 38}, {'퇴직연금 사업자': 1}, {'퇴직연금 적립금': 1}, {'퇴직연금 규모': 1}, {'퇴직연금 금융감독원': 1}, {'미래에셋 퇴직연금': 1}, {'KB 퇴직연금': 1}, {'퇴직연금 경쟁': 1}, {'하나 퇴직연금': 1}, {'퇴직연금 저축은행': 1}, {'퇴직연금 가입': 11}]</t>
-  </si>
-  <si>
-    <t>퇴직연금 대규모 자산 이동과 금융회사들의 커닝 공시에 대한 내용이 포함되어 있음.</t>
-  </si>
-  <si>
-    <t>금융회사들의 커닝 공시에 대한 내용이 포함되어 있음.</t>
-  </si>
-  <si>
-    <t>퇴직연금 금리 올라가는 추세에 대한 내용이 포함되어 있음.</t>
-  </si>
-  <si>
-    <t>변경된 법률 및 규정에 대한 내용이 없음.</t>
-  </si>
-  <si>
-    <t>노인 인구 증가와 퇴직연금의 장기적인 지속 가능성에 대한 내용이 일부 포함되어 있음.</t>
-  </si>
-  <si>
-    <t>“국민연금 믿다간 노후 망해”…걱정과 한숨이 키운 ‘10조 이 상품’</t>
-  </si>
-  <si>
-    <t>라이프사이클 펀드 설정액이 10조원을 넘어선 것으로 나타났다. 설정액은 최근 5년 동안 약 5배 급증했으며, 고령화 추세에 따라 노후 준비용 장기 투자에 나서는 투자자들이 증가한 영향으로 분석된다.</t>
-  </si>
-  <si>
-    <t>https://n.news.naver.com/mnews/article/009/0005198274?sid=101</t>
-  </si>
-  <si>
-    <t>라이프사이클펀드 올해 설정액 10.3조노후준비 투자자 늘며 5년간 5배 급증생애주기에 맞춰 위험안전자산 조정고령화에 발 빠르게 노후를 준비하는 투자자들이 늘면서 생애주기에 맞춰 자동으로 포트폴리오를 조정해주는 라이프사이클 펀드로 뭉칫돈이 몰리고 있다.12일 금융정보업체 에프앤가이드에 따르면 국내 라이프사이클 테마 펀드의 설정액이 이달 12일 기준 10조3166억원을 기록한 것으로 나타났다.라이프사이클 펀드보다 설정액이 큰 테마형 펀드는 상장지수펀드 ETF 퇴직연금 연금저축뿐이다.라이프사이클 펀드의 설정액이 10조원을 넘어선 건 이번이 처음이다. 라이프사이클 펀드 설정액 규모는 최근 5년 동안 약 5배 급증했다. 지난 2019년 2조1951억원에 그쳤던 펀드 규모는 2020년 3조3065억원 2021년 6조4572억원 2022년 8조3133억원으로 꾸준히 증가하는 추세다.고령화 추이에 따라 노후 준비용 장기 투자에 나서는 투자자들이 증가한 영향으로 분석된다. 통계청에 따르면 2021년 기준 국내 65세인 사람의 기대 여명은 21.59년으로 추정됐다.반면 국민연금은 현재 추이로는 이르면 2055년 기금이 바닥날 것으로 전망돼 투자자들이 추가로 노후에 대비할 수 있는 상품에 주목하는 모습이다.나정환 NH투자증권 연구원은 고령화로 노후 자산관리에 관심이 높아지면 사적연금제도가 발전할 가능성이 크다며 2055년 은퇴 예정인 1990년대생이 아직 본격적으로 TDF에 가입하지 않아 향후 신규 가입자는 TDF 타깃데이트펀드와 같은 실적배당형 상품을 선택할 개연성이 높다고 말했다.라이프사이클 펀드는 투자자의 연령대에 맞춰 자산 구성 및 목표 수익률을 알맞게 조정해주는 상품이다. 주로 TDF 타켓데이트펀드 TIF 타킷인컴펀드 두 가지로 구분된다. TDF는 젊을 때는 주식 등 위험자산 비중을 늘렸다가 나이가 들면 채권과 같은 안전자산 비중을 더하는 구조다.TDF 상품은 투자자의 은퇴 시점에 따라 상품명 뒤에 적힌 숫자가 바뀐다. 예를 들어 해당 상품의 경우 은퇴 시기가 2050년 전후인 투자자가 대상이며 생애주기에 맞춰 투자 자산이 자동 재조정 된다. TIF는 위험자산과 안전자산 비중을 적절하게 유지하면서 일정한 현금흐름 배당이자을 창출하는 상품이다.현재 시장에 출시된 라이프사이클 펀드는 총 222개에 달한다. 이중 지난 1년 동안 수익률이 가장 높았던 상품은 KB자산운용의 KB온국민TDF2050 펀드로 약 15의 수익률을 기록했다.미국 스탠더드앤드푸어스 SP500지수를 추종하는 ETF 비중이 36로 높다. 지난 1년 동안 설정액이 가장 많이 늘어난 상품은 SP500지수와 채권형 ETF 비중이 높은 KB다이나믹TDF2030 펀드로 1352억원이 유입된 것으로 나타났다.이석희 KB자산운용 연금WM본부장은 성장주 비중을 높게 가져간 결과 변동성 장세에서도 탄탄한 성과를 유지했다고 밝혔다.그 밖에 미래에셋라이프사이클2030 펀드 및 신한마음편한TDF2050 펀드의 1년 수익률도 각 13로 높았다. 한국투자TDF알아서ETF포커스2060 펀드도 11의 수익률을 거뒀다. 상품 마다 편입 자산에 차이가 있어 투자자들은 해당 펀드의 자산 구성을 살펴본 후 투자를 결정하는 게 좋다.일부 상품은 세부 섹터 테마에 주목해 초과 수익을 노리는 반면 일부 상품은 원자재 리츠 비중을 늘려 포트폴리오 다각화에 나서는 경우도 있다.퇴직연금 디폴트옵션 사전지정운용제도의 본격적 시행에 따라 라이프사이클 펀드에 관한 관심도 덩달아 높아졌다. 확정기여 DC형 퇴직연금 및 개인형퇴직연금 IRP 가입자들은 디폴트옵션에 따라 특정 TDF 상품을 미리 지정해야 하기 때문이다.홍원구 자본시장연구원 펀드 및 연금실 연구위원은 보고서를 통해 미국의 경우 디폴트옵션 제도 시행을 계기로 TDF 규모가 급격한 성장을 보였다며 상대적으로 비용이 낮은 TDF가 관심을 끌 것으로 예상된다고 말했다.</t>
-  </si>
-  <si>
-    <t>['퇴직연금 DC', '퇴직연금 IRP', '개인형퇴직연금', '디폴트옵션 설정액', '퇴직연금 규모', '미래에셋 퇴직연금', 'KB 퇴직연금', 'NH 퇴직연금', '신한 퇴직연금', '한국투자 퇴직연금', '퇴직연금 수익률', '퇴직연금 ETF', '퇴직연금 포트폴리오', '퇴직연금 TDF', '퇴직연금 가입', '퇴직연금 펀드', '퇴직연금 채권', '퇴직연금 리츠', '퇴직연금 설정액', '퇴직연금 장기 투자']</t>
-  </si>
-  <si>
-    <t>[{'퇴직연금 DC': 30}, {'퇴직연금 IRP': 43}, {'개인형퇴직연금': 41}, {'디폴트옵션 설정액': 9}, {'퇴직연금 규모': 52}, {'미래에셋 퇴직연금': 2}, {'KB 퇴직연금': 2}, {'NH 퇴직연금': 2}, {'신한 퇴직연금': 56}, {'한국투자 퇴직연금': 1}, {'퇴직연금 수익률': 44}, {'퇴직연금 ETF': 1}, {'퇴직연금 포트폴리오': 34}, {'퇴직연금 TDF': 28}, {'퇴직연금 가입': 43}, {'퇴직연금 펀드': 13}, {'퇴직연금 채권': 1}, {'퇴직연금 리츠': 1}, {'퇴직연금 설정액': 1}, {'퇴직연금 장기 투자': 1}]</t>
-  </si>
-  <si>
-    <t>라이프사이클 펀드의 설정액이 최근 5년 동안 약 5배 급증하여 펀드 관리 전략과 수익률이 높은 것으로 평가됨.</t>
-  </si>
-  <si>
-    <t>라이프사이클 펀드는 노후 준비용 장기 투자에 관심이 있는 투자자들이 증가하면서 시장에서 경쟁력을 갖추고 있음.</t>
-  </si>
-  <si>
-    <t>라이프사이클 펀드는 투자자의 연령대에 맞춰 자산 구성 및 목표 수익률을 조정해주는 상품으로, 금융 시장의 변동성에 대한 영향을 분석하고 대응할 수 있는 능력을 갖추고 있음.</t>
-  </si>
-  <si>
-    <t>본문에는 법률 및 규제 변경에 대한 언급이 없음.</t>
-  </si>
-  <si>
-    <t>고령화 추세에 따라 노후 준비용 장기 투자에 나서는 투자자들이 증가하고 있으며, 이는 라이프사이클 펀드의 장기적인 지속 가능성에 영향을 미칠 수 있음.</t>
-  </si>
-  <si>
-    <t>본문에는 기술과 디지털화에 관한 내용이 없음.</t>
-  </si>
-  <si>
-    <t>본문에는 소비 행태 및 요구사항에 대한 내용이 없음.</t>
-  </si>
-  <si>
-    <t>노후 대비해야지…10조 몰린 '라이프사이클 펀드'</t>
-  </si>
-  <si>
-    <t>국내 라이프사이클 테마 펀드 설정액이 10조원을 넘어선 것으로 나타났다. 라이프사이클 펀드 설정액 규모는 최근 5년 동안 약 5배 급증했다. 투자자들이 노후에 대비할 수 있는 상품에 주목하는 모습이다.</t>
-  </si>
-  <si>
-    <t>https://n.news.naver.com/mnews/article/009/0005198462?sid=101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TDFTIF가 대표적 상품4년새 설정액 5배나 급증생애주기 맞춰 자산배분젊을땐 위험자산 늘리고나이들면 안전자산 늘려고령화에 발 빠르게 노후를 준비하는 투자자들이 늘면서 생애주기에 맞춰 자동으로 포트폴리오를 조정해주는 라이프사이클 펀드로 뭉칫돈이 몰리고 있다.12일 금융정보업체 에프앤가이드에 따르면 국내 라이프사이클 테마 펀드 설정액이 이달 12일 기준 10조3166억원을 기록한 것으로 나타났다.라이프사이클 펀드보다 설정액이 많은 테마형 펀드는 상장지수펀드 ETF 퇴직연금 연금저축뿐이다.라이프사이클 펀드 설정액이 10조원을 넘어선 건 이번이 처음이다. 라이프사이클 펀드 설정액 규모는 최근 5년 동안 약 5배 급증했다. 2019년 2조1951억원에 그쳤던 펀드 규모는 2020년 3조3065억원 2021년 6조4572억원 2022년 8조3133억원으로 꾸준히 증가하는 추세다.고령화 추이에 따라 노후 준비용 장기 투자에 나서는 투자자들이 증가한 영향으로 분석된다. 통계청에 따르면 2021년 기준 65세인 사람의 기대여명은 21.59년으로 추정됐다. 반면 국민연금은 현재 추이로는 이르면 2055년 기금이 바닥날 것으로 전망돼 투자자들이 추가로 노후에 대비할 수 있는 상품에 주목하는 모습이다.나정환 NH투자증권 연구원은 고령화로 노후 자산관리에 관심이 높아지면 사적연금제도가 발전할 가능성이 크다며 2055년 은퇴 예정인 1990년대생이 아직 본격적으로 타깃데이트펀드 TDF에 가입하지 않아 향후 신규 가입자는 TDF와 같은 실적배당형 상품을 선택할 개연성이 높다고 말했다.라이프사이클 펀드는 투자자의 연령대에 맞춰 자산 구성과 목표 수익률을 알맞게 조정해주는 상품이다. 주로 TDF와 타깃인컴펀드 TIF 두 가지로 구분된다. TDF는 젊을 때는 주식 등 위험자산 비중을 늘렸다가 나이가 들면 채권과 같은 안전자산 비중을 더하는 구조다. TDF 상품은 투자자의 은퇴 시점에 따라 상품명 뒤에 적힌 숫자가 바뀐다. 예를 들어 상품명에 2050이 들어가 있다면 해당 상품은 은퇴 시기가 2050년 전후인 투자자가 대상이며 생애주기에 맞춰 투자자산이 자동 재조정된다. TIF는 위험자산과 안전자산 비중을 적절하게 유지하면서 일정한 현금흐름 배당이자을 창출하는 상품이다.현재 시장에 출시된 라이프사이클 펀드는 총 222개에 달한다. 이 중 지난 1년 동안 수익률이 가장 높았던 상품은 KB자산운용의 KB온국민TDF2050 펀드로 약 15의 수익률을 기록했다. 미국 스탠더드앤드푸어스 SP500지수를 추종하는 ETF 비중이 36로 높다. 지난 1년 동안 설정액이 가장 많이 늘어난 상품은 SP500지수와 채권형 ETF 비중이 높은 KB다이나믹TDF2030 펀드로 1352억원이 유입된 것으로 나타났다. 그 밖에 미래에셋라이프사이클2030 펀드와 신한마음편한TDF2050 펀드의 1년 수익률도 각각 13로 높았다. 한국투자TDF알아서ETF포커스2060 펀드도 11의 수익을 거뒀다. 퇴직연금 디폴트옵션 사전지정운용제도이 본격적으로 시행됨에 따라 라이프사이클 펀드에 관한 관심도 덩달아 높아졌다. 확정기여 DC형 퇴직연금과 개인형퇴직연금 IRP 가입자들은 디폴트옵션에 따라 특정 TDF 상품을 미리 지정해야 하기 때문이다.홍원구 자본시장연구원 펀드연금실 연구위원은 보고서를 통해 미국에서는 디폴트옵션 시행을 계기로 TDF가 급격한 성장을 보였다며 상대적으로 비용이 낮은 TDF가 관심을 끌 것으로 예상된다고 말했다. </t>
-  </si>
-  <si>
-    <t>['디폴트옵션 설정액', '퇴직연금 TDF', '퇴직연금 펀드', '퇴직연금 설정액']</t>
-  </si>
-  <si>
-    <t>[{'디폴트옵션 설정액': 1}, {'퇴직연금 TDF': 26}, {'퇴직연금 펀드': 8}, {'퇴직연금 설정액': 11}]</t>
-  </si>
-  <si>
-    <t>라이프사이클 펀드 설정액이 최근 5년 동안 약 5배 급증하여 투자자들의 관심이 높아짐.</t>
-  </si>
-  <si>
-    <t>라이프사이클 펀드는 투자자의 연령대에 맞춰 자산 구성과 목표 수익률을 알맞게 조정해주는 상품이므로 투자자들의 노후 준비에 관련된 경쟁 동향을 파악할 수 있음.</t>
-  </si>
-  <si>
-    <t>라이프사이클 펀드의 수익률과 설정액 증가는 금융 시장의 변동성과 투자자들의 투자 성향에 영향을 받을 수 있음.</t>
-  </si>
-  <si>
-    <t>본문에는 법률 및 규제 변화에 대한 언급이 없음.</t>
-  </si>
-  <si>
-    <t>고령화 추세에 따라 노후 준비용 장기 투자에 나서는 투자자들이 증가하고 있으며, 국민연금의 예상 기금 고갈로 인해 추가로 노후에 대비할 수 있는 상품에 관심이 높아짐.</t>
-  </si>
-  <si>
-    <t>본문에는 기술과 디지털화에 관련된 내용이 없음.</t>
-  </si>
-  <si>
-    <t>본문에는 소비 행태 및 요구사항에 대한 언급이 없음.</t>
-  </si>
-  <si>
-    <t>신한투자증권</t>
-  </si>
-  <si>
-    <t>신한투자증권, 퇴직연금 디폴트옵션 이벤트</t>
-  </si>
-  <si>
-    <t>신한투자증권은 퇴직연금 사전지정운용제도 디폴트옵션 이벤트를 실시한다고 밝혔다. 디폴트옵션은 퇴직연금 가입자의 원리금 보장상품을 운용하는 제도다. 이번 이벤트는 신한투자증권의 퇴직연금 개별 가입 고객과 개인형 퇴직연금 고객을 대상으로 진행된다.</t>
-  </si>
-  <si>
-    <t>https://n.news.naver.com/mnews/article/031/0000778506?sid=101</t>
-  </si>
-  <si>
-    <t>신한투자증권은 퇴직연금 사전지정운용제도 디폴트옵션 시행을 기념해 퇴직연금 디폴트옵션 이벤트를 실시한다고 12일 밝혔다.디폴트옵션은 퇴직연금 가입자의 원리금 보장상품 만기 또는 신규 자금 입금 시 별도 운용지시가 없다면 사전에 지정한 상품으로 운용하는 제도다. 적립금이 방치되는 것을 방지해 수익률을 높이는 역할을 한다.이번 이벤트는 신한투자증권의 DC Defined Contribution 확정기여형 퇴직연금 개별 가입 고객과 IRP Individual Retirement Pension 개인형 퇴직연금 고객을 대상으로 오는 12월 31일까지 진행된다.이번 이벤트는 이벤트 신청 후 디폴트옵션 상품을 최초로 등록한 고객 대상으로 진행된다. 추첨을 통해 매월 500명에게 스타벅스 아메리카노 쿠폰 1매를 제공한다. 경품은 이벤트 신청을 완료한 다음 달 말일 경 추첨을 통해 발송할 예정이다.올해 퇴직연금 계좌로 이벤트 혜택을 지급받은 경우 퇴직연금감독규정 제16조 2항에 따라 연간 3만원 한도 내에서 제공되므로 본 이벤트 조건을 충족하더라도 당첨이 제한될 수 있다.한편 신한투자증권 디폴트옵션 상품은 투자성향 별로 총 10종이 구성됐다. 정기예금을 비롯해 TDF Target Date Fund BF Balance Fund 디폴트옵션 전용펀드 중심 포트폴리오를 제공해 고객의 다양한 니즈에 따라 상품 선택이 가능토록 했다.퇴직연금 디폴트옵션과 이벤트에 관한 자세한 사항은 신한투자증권 홈페이지와 신한알파 모바일트레이딩시스템 MTS 챗봇을 통해 확인할 수 있다.</t>
-  </si>
-  <si>
-    <t>['퇴직연금 DC', '퇴직연금 IRP', '확정기여형', '개인형퇴직연금', '디폴트옵션', '퇴직연금 적립금', '퇴직연금 이벤트', '디폴트옵션 이벤트', 'DC 이벤트', 'IRP 이벤트', '신한 퇴직연금', '삼성 퇴직연금', '한국투자 퇴직연금', '퇴직연금 서비스 ', '퇴직연금 수익률', '퇴직연금 ETF', '퇴직연금 포트폴리오', '퇴직연금 TDF', '퇴직연금 가입', '퇴직연금 펀드', '퇴직연금 예금', '디폴트옵션 포트폴리오']</t>
-  </si>
-  <si>
-    <t>[{'퇴직연금 DC': 1}, {'퇴직연금 DC': 2}, {'퇴직연금 DC': 3}, {'퇴직연금 DC': 4}, {'퇴직연금 DC': 6}, {'퇴직연금 DC': 7}, {'퇴직연금 DC': 8}, {'퇴직연금 DC': 9}, {'퇴직연금 DC': 10}, {'퇴직연금 DC': 13}, {'퇴직연금 DC': 15}, {'퇴직연금 DC': 16}, {'퇴직연금 DC': 17}, {'퇴직연금 DC': 18}, {'퇴직연금 DC': 20}, {'퇴직연금 DC': 21}, {'퇴직연금 DC': 22}, {'퇴직연금 DC': 23}, {'퇴직연금 DC': 24}, {'퇴직연금 DC': 27}, {'퇴직연금 DC': 28}, {'퇴직연금 DC': 31}, {'퇴직연금 DC': 32}, {'퇴직연금 DC': 34}, {'퇴직연금 DC': 35}, {'퇴직연금 DC': 36}, {'퇴직연금 DC': 37}, {'퇴직연금 DC': 38}, {'퇴직연금 DC': 39}, {'퇴직연금 DC': 40}, {'퇴직연금 DC': 41}, {'퇴직연금 DC': 45}, {'퇴직연금 DC': 47}, {'퇴직연금 DC': 52}, {'퇴직연금 DC': 55}, {'퇴직연금 IRP': 1}, {'퇴직연금 IRP': 2}, {'퇴직연금 IRP': 3}, {'퇴직연금 IRP': 4}, {'퇴직연금 IRP': 6}, {'퇴직연금 IRP': 7}, {'퇴직연금 IRP': 8}, {'퇴직연금 IRP': 9}, {'퇴직연금 IRP': 11}, {'퇴직연금 IRP': 12}, {'퇴직연금 IRP': 15}, {'퇴직연금 IRP': 17}, {'퇴직연금 IRP': 18}, {'퇴직연금 IRP': 20}, {'퇴직연금 IRP': 21}, {'퇴직연금 IRP': 22}, {'퇴직연금 IRP': 23}, {'퇴직연금 IRP': 25}, {'퇴직연금 IRP': 26}, {'퇴직연금 IRP': 27}, {'퇴직연금 IRP': 28}, {'퇴직연금 IRP': 29}, {'퇴직연금 IRP': 30}, {'퇴직연금 IRP': 31}, {'퇴직연금 IRP': 32}, {'퇴직연금 IRP': 35}, {'퇴직연금 IRP': 37}, {'퇴직연금 IRP': 38}, {'퇴직연금 IRP': 40}, {'퇴직연금 IRP': 44}, {'퇴직연금 IRP': 45}, {'퇴직연금 IRP': 46}, {'퇴직연금 IRP': 47}, {'퇴직연금 IRP': 48}, {'퇴직연금 IRP': 50}, {'퇴직연금 IRP': 52}, {'퇴직연금 IRP': 53}, {'퇴직연금 IRP': 55}, {'퇴직연금 IRP': 56}, {'확정기여형': 7}, {'확정기여형': 8}, {'확정기여형': 9}, {'확정기여형': 10}, {'확정기여형': 12}, {'확정기여형': 14}, {'확정기여형': 15}, {'확정기여형': 16}, {'확정기여형': 18}, {'확정기여형': 19}, {'확정기여형': 23}, {'확정기여형': 26}, {'확정기여형': 27}, {'확정기여형': 28}, {'확정기여형': 30}, {'확정기여형': 31}, {'확정기여형': 32}, {'확정기여형': 36}, {'확정기여형': 38}, {'확정기여형': 39}, {'확정기여형': 41}, {'확정기여형': 42}, {'확정기여형': 43}, {'확정기여형': 44}, {'확정기여형': 45}, {'확정기여형': 49}, {'확정기여형': 53}, {'확정기여형': 54}, {'확정기여형': 56}, {'개인형퇴직연금': 1}, {'개인형퇴직연금': 2}, {'개인형퇴직연금': 3}, {'개인형퇴직연금': 4}, {'개인형퇴직연금': 6}, {'개인형퇴직연금': 7}, {'개인형퇴직연금': 8}, {'개인형퇴직연금': 9}, {'개인형퇴직연금': 11}, {'개인형퇴직연금': 12}, {'개인형퇴직연금': 15}, {'개인형퇴직연금': 18}, {'개인형퇴직연금': 19}, {'개인형퇴직연금': 20}, {'개인형퇴직연금': 21}, {'개인형퇴직연금': 22}, {'개인형퇴직연금': 23}, {'개인형퇴직연금': 25}, {'개인형퇴직연금': 26}, {'개인형퇴직연금': 27}, {'개인형퇴직연금': 28}, {'개인형퇴직연금': 29}, {'개인형퇴직연금': 30}, {'개인형퇴직연금': 31}, {'개인형퇴직연금': 32}, {'개인형퇴직연금': 35}, {'개인형퇴직연금': 37}, {'개인형퇴직연금': 38}, {'개인형퇴직연금': 39}, {'개인형퇴직연금': 42}, {'개인형퇴직연금': 43}, {'개인형퇴직연금': 44}, {'개인형퇴직연금': 47}, {'개인형퇴직연금': 48}, {'개인형퇴직연금': 49}, {'개인형퇴직연금': 52}, {'개인형퇴직연금': 53}, {'개인형퇴직연금': 56}, {'개인형퇴직연금': 57}, {'디폴트옵션': 1}, {'디폴트옵션': 2}, {'디폴트옵션': 3}, {'디폴트옵션': 4}, {'디폴트옵션': 6}, {'디폴트옵션': 7}, {'디폴트옵션': 8}, {'디폴트옵션': 9}, {'디폴트옵션': 11}, {'디폴트옵션': 12}, {'디폴트옵션': 15}, {'디폴트옵션': 16}, {'디폴트옵션': 17}, {'디폴트옵션': 18}, {'디폴트옵션': 20}, {'디폴트옵션': 21}, {'디폴트옵션': 22}, {'디폴트옵션': 24}, {'디폴트옵션': 25}, {'디폴트옵션': 26}, {'디폴트옵션': 27}, {'디폴트옵션': 28}, {'디폴트옵션': 29}, {'디폴트옵션': 30}, {'디폴트옵션': 31}, {'디폴트옵션': 34}, {'디폴트옵션': 35}, {'디폴트옵션': 36}, {'디폴트옵션': 37}, {'디폴트옵션': 40}, {'디폴트옵션': 41}, {'디폴트옵션': 42}, {'디폴트옵션': 43}, {'디폴트옵션': 44}, {'디폴트옵션': 45}, {'디폴트옵션': 46}, {'디폴트옵션': 47}, {'디폴트옵션': 48}, {'디폴트옵션': 50}, {'디폴트옵션': 51}, {'디폴트옵션': 53}, {'디폴트옵션': 54}, {'디폴트옵션': 55}, {'디폴트옵션': 56}, {'디폴트옵션': 57}, {'퇴직연금 적립금': 2}, {'퇴직연금 적립금': 3}, {'퇴직연금 적립금': 4}, {'퇴직연금 적립금': 6}, {'퇴직연금 적립금': 7}, {'퇴직연금 적립금': 8}, {'퇴직연금 적립금': 10}, {'퇴직연금 적립금': 11}, {'퇴직연금 적립금': 12}, {'퇴직연금 적립금': 14}, {'퇴직연금 적립금': 17}, {'퇴직연금 적립금': 18}, {'퇴직연금 적립금': 19}, {'퇴직연금 적립금': 20}, {'퇴직연금 적립금': 21}, {'퇴직연금 적립금': 24}, {'퇴직연금 적립금': 25}, {'퇴직연금 적립금': 26}, {'퇴직연금 적립금': 27}, {'퇴직연금 적립금': 28}, {'퇴직연금 적립금': 29}, {'퇴직연금 적립금': 30}, {'퇴직연금 적립금': 31}, {'퇴직연금 적립금': 34}, {'퇴직연금 적립금': 35}, {'퇴직연금 적립금': 36}, {'퇴직연금 적립금': 37}, {'퇴직연금 적립금': 38}, {'퇴직연금 적립금': 39}, {'퇴직연금 적립금': 40}, {'퇴직연금 적립금': 41}, {'퇴직연금 적립금': 42}, {'퇴직연금 적립금': 43}, {'퇴직연금 적립금': 44}, {'퇴직연금 적립금': 45}, {'퇴직연금 적립금': 46}, {'퇴직연금 적립금': 47}, {'퇴직연금 적립금': 48}, {'퇴직연금 적립금': 49}, {'퇴직연금 적립금': 50}, {'퇴직연금 적립금': 52}, {'퇴직연금 적립금': 54}, {'퇴직연금 이벤트': 1}, {'퇴직연금 이벤트': 2}, {'퇴직연금 이벤트': 3}, {'퇴직연금 이벤트': 4}, {'퇴직연금 이벤트': 6}, {'퇴직연금 이벤트': 7}, {'퇴직연금 이벤트': 8}, {'퇴직연금 이벤트': 9}, {'퇴직연금 이벤트': 11}, {'퇴직연금 이벤트': 12}, {'퇴직연금 이벤트': 13}, {'퇴직연금 이벤트': 16}, {'퇴직연금 이벤트': 17}, {'퇴직연금 이벤트': 19}, {'퇴직연금 이벤트': 20}, {'퇴직연금 이벤트': 21}, {'퇴직연금 이벤트': 22}, {'퇴직연금 이벤트': 23}, {'퇴직연금 이벤트': 24}, {'퇴직연금 이벤트': 25}, {'퇴직연금 이벤트': 26}, {'퇴직연금 이벤트': 27}, {'퇴직연금 이벤트': 28}, {'퇴직연금 이벤트': 29}, {'퇴직연금 이벤트': 30}, {'퇴직연금 이벤트': 34}, {'퇴직연금 이벤트': 35}, {'퇴직연금 이벤트': 36}, {'퇴직연금 이벤트': 37}, {'퇴직연금 이벤트': 39}, {'퇴직연금 이벤트': 40}, {'퇴직연금 이벤트': 42}, {'퇴직연금 이벤트': 43}, {'퇴직연금 이벤트': 44}, {'퇴직연금 이벤트': 45}, {'퇴직연금 이벤트': 46}, {'퇴직연금 이벤트': 47}, {'퇴직연금 이벤트': 48}, {'퇴직연금 이벤트': 49}, {'퇴직연금 이벤트': 50}, {'퇴직연금 이벤트': 53}, {'퇴직연금 이벤트': 56}, {'퇴직연금 이벤트': 57}, {'디폴트옵션 이벤트': 1}, {'디폴트옵션 이벤트': 2}, {'디폴트옵션 이벤트': 3}, {'디폴트옵션 이벤트': 4}, {'디폴트옵션 이벤트': 6}, {'디폴트옵션 이벤트': 7}, {'디폴트옵션 이벤트': 8}, {'디폴트옵션 이벤트': 9}, {'디폴트옵션 이벤트': 11}, {'디폴트옵션 이벤트': 12}, {'디폴트옵션 이벤트': 14}, {'디폴트옵션 이벤트': 16}, {'디폴트옵션 이벤트': 17}, {'디폴트옵션 이벤트': 18}, {'디폴트옵션 이벤트': 20}, {'디폴트옵션 이벤트': 21}, {'디폴트옵션 이벤트': 22}, {'디폴트옵션 이벤트': 23}, {'디폴트옵션 이벤트': 24}, {'디폴트옵션 이벤트': 25}, {'디폴트옵션 이벤트': 26}, {'디폴트옵션 이벤트': 27}, {'디폴트옵션 이벤트': 28}, {'디폴트옵션 이벤트': 29}, {'디폴트옵션 이벤트': 30}, {'디폴트옵션 이벤트': 34}, {'디폴트옵션 이벤트': 35}, {'디폴트옵션 이벤트': 36}, {'디폴트옵션 이벤트': 37}, {'디폴트옵션 이벤트': 39}, {'디폴트옵션 이벤트': 40}, {'디폴트옵션 이벤트': 41}, {'디폴트옵션 이벤트': 42}, {'디폴트옵션 이벤트': 43}, {'디폴트옵션 이벤트': 44}, {'디폴트옵션 이벤트': 45}, {'디폴트옵션 이벤트': 46}, {'디폴트옵션 이벤트': 47}, {'디폴트옵션 이벤트': 48}, {'디폴트옵션 이벤트': 49}, {'디폴트옵션 이벤트': 51}, {'디폴트옵션 이벤트': 52}, {'디폴트옵션 이벤트': 53}, {'디폴트옵션 이벤트': 54}, {'디폴트옵션 이벤트': 55}, {'DC 이벤트': 1}, {'DC 이벤트': 2}, {'DC 이벤트': 3}, {'DC 이벤트': 4}, {'DC 이벤트': 5}, {'DC 이벤트': 7}, {'DC 이벤트': 8}, {'DC 이벤트': 9}, {'DC 이벤트': 10}, {'DC 이벤트': 11}, {'DC 이벤트': 13}, {'DC 이벤트': 14}, {'DC 이벤트': 16}, {'DC 이벤트': 18}, {'DC 이벤트': 19}, {'DC 이벤트': 20}, {'DC 이벤트': 21}, {'DC 이벤트': 22}, {'DC 이벤트': 23}, {'DC 이벤트': 24}, {'DC 이벤트': 25}, {'DC 이벤트': 26}, {'DC 이벤트': 27}, {'DC 이벤트': 28}, {'DC 이벤트': 29}, {'DC 이벤트': 31}, {'DC 이벤트': 32}, {'DC 이벤트': 33}, {'DC 이벤트': 34}, {'DC 이벤트': 37}, {'DC 이벤트': 38}, {'DC 이벤트': 39}, {'DC 이벤트': 40}, {'DC 이벤트': 41}, {'DC 이벤트': 42}, {'DC 이벤트': 44}, {'DC 이벤트': 45}, {'DC 이벤트': 46}, {'DC 이벤트': 47}, {'DC 이벤트': 51}, {'DC 이벤트': 52}, {'DC 이벤트': 53}, {'DC 이벤트': 57}, {'DC 이벤트': 59}, {'IRP 이벤트': 1}, {'IRP 이벤트': 2}, {'IRP 이벤트': 3}, {'IRP 이벤트': 4}, {'IRP 이벤트': 5}, {'IRP 이벤트': 7}, {'IRP 이벤트': 8}, {'IRP 이벤트': 9}, {'IRP 이벤트': 10}, {'IRP 이벤트': 12}, {'IRP 이벤트': 13}, {'IRP 이벤트': 15}, {'IRP 이벤트': 16}, {'IRP 이벤트': 17}, {'IRP 이벤트': 18}, {'IRP 이벤트': 19}, {'IRP 이벤트': 20}, {'IRP 이벤트': 21}, {'IRP 이벤트': 22}, {'IRP 이벤트': 23}, {'IRP 이벤트': 24}, {'IRP 이벤트': 25}, {'IRP 이벤트': 26}, {'IRP 이벤트': 27}, {'IRP 이벤트': 28}, {'IRP 이벤트': 31}, {'IRP 이벤트': 32}, {'IRP 이벤트': 33}, {'IRP 이벤트': 35}, {'IRP 이벤트': 37}, {'IRP 이벤트': 38}, {'IRP 이벤트': 39}, {'IRP 이벤트': 40}, {'IRP 이벤트': 41}, {'IRP 이벤트': 43}, {'IRP 이벤트': 44}, {'IRP 이벤트': 45}, {'IRP 이벤트': 46}, {'IRP 이벤트': 47}, {'IRP 이벤트': 52}, {'IRP 이벤트': 53}, {'IRP 이벤트': 55}, {'신한 퇴직연금': 1}, {'신한 퇴직연금': 2}, {'신한 퇴직연금': 3}, {'신한 퇴직연금': 4}, {'신한 퇴직연금': 5}, {'신한 퇴직연금': 6}, {'신한 퇴직연금': 7}, {'신한 퇴직연금': 8}, {'신한 퇴직연금': 10}, {'신한 퇴직연금': 11}, {'신한 퇴직연금': 14}, {'신한 퇴직연금': 16}, {'신한 퇴직연금': 17}, {'신한 퇴직연금': 19}, {'신한 퇴직연금': 20}, {'신한 퇴직연금': 21}, {'신한 퇴직연금': 22}, {'신한 퇴직연금': 23}, {'신한 퇴직연금': 25}, {'신한 퇴직연금': 26}, {'신한 퇴직연금': 27}, {'신한 퇴직연금': 28}, {'신한 퇴직연금': 29}, {'신한 퇴직연금': 30}, {'신한 퇴직연금': 31}, {'신한 퇴직연금': 34}, {'신한 퇴직연금': 35}, {'신한 퇴직연금': 36}, {'신한 퇴직연금': 37}, {'신한 퇴직연금': 39}, {'신한 퇴직연금': 40}, {'신한 퇴직연금': 41}, {'신한 퇴직연금': 42}, {'신한 퇴직연금': 43}, {'신한 퇴직연금': 44}, {'신한 퇴직연금': 45}, {'신한 퇴직연금': 46}, {'신한 퇴직연금': 47}, {'신한 퇴직연금': 48}, {'신한 퇴직연금': 49}, {'신한 퇴직연금': 51}, {'신한 퇴직연금': 52}, {'신한 퇴직연금': 53}, {'신한 퇴직연금': 54}, {'신한 퇴직연금': 55}, {'삼성 퇴직연금': 8}, {'한국투자 퇴직연금': 2}, {'퇴직연금 서비스 ': 17}, {'퇴직연금 수익률': 2}, {'퇴직연금 수익률': 3}, {'퇴직연금 수익률': 4}, {'퇴직연금 수익률': 5}, {'퇴직연금 수익률': 7}, {'퇴직연금 수익률': 8}, {'퇴직연금 수익률': 9}, {'퇴직연금 수익률': 11}, {'퇴직연금 수익률': 12}, {'퇴직연금 수익률': 14}, {'퇴직연금 수익률': 16}, {'퇴직연금 수익률': 17}, {'퇴직연금 수익률': 18}, {'퇴직연금 수익률': 19}, {'퇴직연금 수익률': 20}, {'퇴직연금 수익률': 23}, {'퇴직연금 수익률': 24}, {'퇴직연금 수익률': 27}, {'퇴직연금 수익률': 28}, {'퇴직연금 수익률': 29}, {'퇴직연금 수익률': 31}, {'퇴직연금 수익률': 32}, {'퇴직연금 수익률': 38}, {'퇴직연금 수익률': 39}, {'퇴직연금 수익률': 43}, {'퇴직연금 수익률': 45}, {'퇴직연금 수익률': 46}, {'퇴직연금 수익률': 47}, {'퇴직연금 수익률': 50}, {'퇴직연금 수익률': 52}, {'퇴직연금 수익률': 54}, {'퇴직연금 수익률': 56}, {'퇴직연금 수익률': 57}, {'퇴직연금 수익률': 58}, {'퇴직연금 수익률': 59}, {'퇴직연금 ETF': 16}, {'퇴직연금 포트폴리오': 1}, {'퇴직연금 포트폴리오': 2}, {'퇴직연금 포트폴리오': 3}, {'퇴직연금 포트폴리오': 4}, {'퇴직연금 포트폴리오': 6}, {'퇴직연금 포트폴리오': 7}, {'퇴직연금 포트폴리오': 9}, {'퇴직연금 포트폴리오': 10}, {'퇴직연금 포트폴리오': 13}, {'퇴직연금 포트폴리오': 14}, {'퇴직연금 포트폴리오': 15}, {'퇴직연금 포트폴리오': 16}, {'퇴직연금 포트폴리오': 17}, {'퇴직연금 포트폴리오': 18}, {'퇴직연금 포트폴리오': 20}, {'퇴직연금 포트폴리오': 21}, {'퇴직연금 포트폴리오': 22}, {'퇴직연금 포트폴리오': 23}, {'퇴직연금 포트폴리오': 24}, {'퇴직연금 포트폴리오': 27}, {'퇴직연금 포트폴리오': 29}, {'퇴직연금 포트폴리오': 30}, {'퇴직연금 포트폴리오': 35}, {'퇴직연금 포트폴리오': 36}, {'퇴직연금 포트폴리오': 37}, {'퇴직연금 포트폴리오': 41}, {'퇴직연금 포트폴리오': 42}, {'퇴직연금 포트폴리오': 43}, {'퇴직연금 포트폴리오': 60}, {'퇴직연금 TDF': 2}, {'퇴직연금 TDF': 3}, {'퇴직연금 TDF': 4}, {'퇴직연금 TDF': 6}, {'퇴직연금 TDF': 7}, {'퇴직연금 TDF': 8}, {'퇴직연금 TDF': 10}, {'퇴직연금 TDF': 11}, {'퇴직연금 TDF': 13}, {'퇴직연금 TDF': 14}, {'퇴직연금 TDF': 15}, {'퇴직연금 TDF': 16}, {'퇴직연금 TDF': 17}, {'퇴직연금 TDF': 18}, {'퇴직연금 TDF': 19}, {'퇴직연금 TDF': 20}, {'퇴직연금 TDF': 21}, {'퇴직연금 TDF': 22}, {'퇴직연금 TDF': 23}, {'퇴직연금 TDF': 25}, {'퇴직연금 TDF': 27}, {'퇴직연금 TDF': 29}, {'퇴직연금 TDF': 31}, {'퇴직연금 TDF': 32}, {'퇴직연금 TDF': 33}, {'퇴직연금 TDF': 34}, {'퇴직연금 TDF': 35}, {'퇴직연금 TDF': 36}, {'퇴직연금 TDF': 39}, {'퇴직연금 TDF': 40}, {'퇴직연금 가입': 1}, {'퇴직연금 가입': 2}, {'퇴직연금 가입': 3}, {'퇴직연금 가입': 4}, {'퇴직연금 가입': 6}, {'퇴직연금 가입': 7}, {'퇴직연금 가입': 8}, {'퇴직연금 가입': 9}, {'퇴직연금 가입': 13}, {'퇴직연금 가입': 14}, {'퇴직연금 가입': 16}, {'퇴직연금 가입': 18}, {'퇴직연금 가입': 19}, {'퇴직연금 가입': 20}, {'퇴직연금 가입': 21}, {'퇴직연금 가입': 22}, {'퇴직연금 가입': 23}, {'퇴직연금 가입': 25}, {'퇴직연금 가입': 26}, {'퇴직연금 가입': 27}, {'퇴직연금 가입': 28}, {'퇴직연금 가입': 29}, {'퇴직연금 가입': 30}, {'퇴직연금 가입': 32}, {'퇴직연금 가입': 33}, {'퇴직연금 가입': 35}, {'퇴직연금 가입': 38}, {'퇴직연금 가입': 39}, {'퇴직연금 가입': 41}, {'퇴직연금 가입': 44}, {'퇴직연금 가입': 45}, {'퇴직연금 가입': 47}, {'퇴직연금 가입': 48}, {'퇴직연금 가입': 49}, {'퇴직연금 가입': 50}, {'퇴직연금 가입': 51}, {'퇴직연금 가입': 52}, {'퇴직연금 가입': 53}, {'퇴직연금 가입': 55}, {'퇴직연금 가입': 56}, {'퇴직연금 펀드': 1}, {'퇴직연금 펀드': 2}, {'퇴직연금 펀드': 3}, {'퇴직연금 펀드': 4}, {'퇴직연금 펀드': 6}, {'퇴직연금 펀드': 7}, {'퇴직연금 펀드': 9}, {'퇴직연금 펀드': 11}, {'퇴직연금 펀드': 15}, {'퇴직연금 펀드': 16}, {'퇴직연금 펀드': 17}, {'퇴직연금 펀드': 18}, {'퇴직연금 펀드': 19}, {'퇴직연금 펀드': 20}, {'퇴직연금 펀드': 21}, {'퇴직연금 펀드': 22}, {'퇴직연금 펀드': 23}, {'퇴직연금 펀드': 24}, {'퇴직연금 펀드': 25}, {'퇴직연금 펀드': 27}, {'퇴직연금 펀드': 28}, {'퇴직연금 펀드': 29}, {'퇴직연금 펀드': 31}, {'퇴직연금 펀드': 32}, {'퇴직연금 펀드': 33}, {'퇴직연금 펀드': 34}, {'퇴직연금 펀드': 35}, {'퇴직연금 펀드': 36}, {'퇴직연금 펀드': 40}, {'퇴직연금 펀드': 41}, {'퇴직연금 예금': 1}, {'퇴직연금 예금': 2}, {'퇴직연금 예금': 4}, {'퇴직연금 예금': 6}, {'퇴직연금 예금': 8}, {'퇴직연금 예금': 9}, {'퇴직연금 예금': 11}, {'퇴직연금 예금': 12}, {'퇴직연금 예금': 18}, {'퇴직연금 예금': 20}, {'퇴직연금 예금': 22}, {'퇴직연금 예금': 23}, {'퇴직연금 예금': 28}, {'퇴직연금 예금': 30}, {'퇴직연금 예금': 31}, {'퇴직연금 예금': 32}, {'퇴직연금 예금': 33}, {'퇴직연금 예금': 36}, {'퇴직연금 예금': 37}, {'퇴직연금 예금': 44}, {'퇴직연금 예금': 45}, {'퇴직연금 예금': 49}, {'퇴직연금 예금': 56}, {'퇴직연금 예금': 59}, {'퇴직연금 예금': 60}, {'디폴트옵션 포트폴리오': 1}, {'디폴트옵션 포트폴리오': 2}, {'디폴트옵션 포트폴리오': 4}, {'디폴트옵션 포트폴리오': 5}, {'디폴트옵션 포트폴리오': 6}, {'디폴트옵션 포트폴리오': 8}, {'디폴트옵션 포트폴리오': 9}, {'디폴트옵션 포트폴리오': 11}, {'디폴트옵션 포트폴리오': 12}, {'디폴트옵션 포트폴리오': 13}, {'디폴트옵션 포트폴리오': 14}, {'디폴트옵션 포트폴리오': 15}, {'디폴트옵션 포트폴리오': 16}, {'디폴트옵션 포트폴리오': 17}, {'디폴트옵션 포트폴리오': 18}, {'디폴트옵션 포트폴리오': 19}, {'디폴트옵션 포트폴리오': 20}, {'디폴트옵션 포트폴리오': 21}, {'디폴트옵션 포트폴리오': 22}, {'디폴트옵션 포트폴리오': 24}, {'디폴트옵션 포트폴리오': 25}, {'디폴트옵션 포트폴리오': 26}, {'디폴트옵션 포트폴리오': 28}, {'디폴트옵션 포트폴리오': 29}, {'디폴트옵션 포트폴리오': 30}, {'디폴트옵션 포트폴리오': 31}, {'디폴트옵션 포트폴리오': 32}, {'디폴트옵션 포트폴리오': 34}, {'디폴트옵션 포트폴리오': 35}, {'디폴트옵션 포트폴리오': 36}]</t>
-  </si>
-  <si>
-    <t>퇴직연금 사전지정운용제도 디폴트옵션 이벤트 실시</t>
-  </si>
-  <si>
-    <t>퇴직연금 개별 가입 고객과 개인형 퇴직연금 고객을 대상으로 진행</t>
-  </si>
-  <si>
-    <t>신한증권</t>
-  </si>
-  <si>
-    <t>신한證 “퇴직연금 디폴트옵션 고객에 스벅 쿠폰 드려요”</t>
-  </si>
-  <si>
-    <t>신한투자증권이 퇴직연금 사전지정운용제도 디폴트옵션 이벤트를 실시한다고 밝혔다. 이벤트는 12월 31일까지 진행되며, 디폴트옵션 상품을 등록한 고객에게 스타벅스 쿠폰을 제공한다.</t>
-  </si>
-  <si>
-    <t>https://n.news.naver.com/mnews/article/016/0002208815?sid=101</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 신한투자증권이 퇴직연금 사전지정운용제도 디폴트옵션 본격 시행을 기념해 퇴직연금 디폴트옵션 이벤트를 실시한다고 12일 밝혔다.사전지정운용제도는 퇴직연금 가입자의 원리금 보장상품 만기신규 자금 입금 시 별도 운용지시가 없다면 사전에 지정한 상품으로 운용하는 제도로 적립금이 방치되는 것을 방지하여 수익률을 높이는 역할을 한다.이번 이벤트는 신한투자증권의 확정기여형 DCDefined Contribution 퇴직연금 개별 가입 고객 과 개인형 퇴직연금 IRPIndividual Retirement Pension 고객 대상으로 오는 12월 31일까지 진행된다.이번 이벤트는 이벤트 신청 후 디폴트옵션 상품을 최초로 등록한 고객 대상으로 진행되며 추첨을 통해 매월 500명에게 스타벅스 아메리카노 쿠폰 1매를 제공한다. 경품은 이벤트 신청을 완료한 다음 달 말일 경 추첨을 통해 발송할 예정이다.단 2023년에 퇴직연금 계좌로 이벤트 혜택을 지급받은 경우 퇴직연금감독규정 제16조 2항에 따라 연간 3만원 한도 내에서 제공되므로 본 이벤트 조건을 충족하더라도 당첨이 제한될 수 있다.퇴직연금 디폴트옵션 및 이벤트에 관한 자세한 사항은 신한투자증권 홈페이지와 신한알파 모바일트레이딩시스템 MTS 챗봇을 통해 확인할 수 있다.</t>
-  </si>
-  <si>
-    <t>['퇴직연금 DC', '퇴직연금 IRP', '확정기여형', '개인형퇴직연금', '디폴트옵션', '퇴직연금 적립금', '퇴직연금 이벤트', '디폴트옵션 이벤트', '신한 퇴직연금', '퇴직연금 수익률', '퇴직연금 가입']</t>
-  </si>
-  <si>
-    <t>[{'퇴직연금 DC': 11}, {'퇴직연금 IRP': 14}, {'확정기여형': 20}, {'개인형퇴직연금': 13}, {'디폴트옵션': 13}, {'퇴직연금 적립금': 13}, {'퇴직연금 이벤트': 14}, {'디폴트옵션 이벤트': 13}, {'신한 퇴직연금': 12}, {'퇴직연금 수익률': 13}, {'퇴직연금 가입': 15}]</t>
-  </si>
-  <si>
-    <t>이벤트 대상 고객에게 스타벅스 쿠폰 제공</t>
-  </si>
-  <si>
-    <t>고금리 장기화로 주춤 OCIO 공모펀드…디딤펀드로 부활할까</t>
-  </si>
-  <si>
-    <t>외부위탁운용관리 OCIO 공모펀드의 성장세가 둔화하고 있다. OCIO 공모펀드의 부진은 고금리 환경과 무관하지 않다. OCIO 공모펀드 역시 디딤펀드로 하우스 실력을 드러낼 기회가 될 수 있다.</t>
-  </si>
-  <si>
-    <t>https://news.einfomax.co.kr/news/articleView.html?idxno=4283753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- 서울연합인포맥스 정필중 기자 고금리 기조로 원리금보장형 선호 추세가 이어지면서 외부위탁운용관리 OCIO 공모펀드의 성장세가 둔화하고 있다.
-현재 금융투자협회에서 논의되고 있는 디딤펀드의 구조가 OCIO 펀드와 비슷해 마중물 역할을 할지 관심이 쏠린다.
-고금리 기조에 목표 수익률 강점 흐려진 OCIO 공모펀드
-12일 연합인포맥스 설정액증감 상위펀드 화면번호 5356에 따르면 국내 OCIO 공모펀드의 총설정액은 1조2천898억 원으로 전년 동월 6천689억 대비 약 6천209억 원 증가했다. 여기에는 일부 모펀드도 담겨 있어 중복되는 자펀드 설정액을 제외한다면 규모가 더 작을 것으로 추산된다.
-성장세가 가팔라 보이나 타깃데이트펀드 TDF 등에 비해 그 규모는 미미한 편이다.
-금융투자협회에 따르면 TDF의 누적 순자산은 올 1분기 기준 11조 원을 돌파했다. 지난 2018년 1조4천억 원에 불과했던 TDF 시장은 5년 만에 7배 이상 커진 셈이다.
-이런 OCIO 공모펀드의 부진은 고금리 환경과 무관하지 않다.
-OCIO 공모펀드는 자산운용 위탁 서비스를 공모펀드화한 상품이다. 원리금보장형보다 상대적으로 높은 목표 수익률 45을 제공하고자 다양한 자산에 투자하는 펀드로 위험에 적극 대응할 수 있다는 점은 OCIO 펀드의 강점이기도 하다.
-하지만 높은 기준금리로 정기예금 등 원리금보장형의 메리트는 한층 커졌다. 굳이 위험을 감수하지 않아도 45대의 이자를 받을 수 있기 때문이다.
-2019년 이후 국내 기준금리 추이출처 연합인포맥스 
-그 여파로 원리금보장형 선호는 여전히 유지되고 있다.
-자본시장연구원에 따르면 사전지정운용제도 디폴트옵션 상품을 지정한 가입자 중 원리금보장상품 비중은 88.5에 달한다. 중고위험 비중은 7밖에 불과하다.
-OCIO처럼 목표 수익률 제시디딤펀드 돌파구 마련할까
-이 같은 악재 속에서 디딤펀드가 돌파구로 작용할지 업계는 주목하고 있다.
-디딤펀드는 금투협이 현재 태스크포스 TF를 구성해 운용업계와 함께 추진하고 있는 퇴직연금 상품이다. 노후 보장을 위한 퇴직연금인 만큼 안정성 역시 중요하나 비교적 높은 수익이 뒷받침돼야 그 목적 역시 달성될 수 있다. 디폴트옵션 도입 취지기도 하다.
-퇴직연금 대표 상품인 TDF는 빈티지 은퇴시점에 따라 고위험으로도 분류되고 있다. 투자자 입장에서는 부담을 느낄 수 있으니 중위험 수준의 상품이라는 디딤돌을 마련해 실적배당형 투자를 활성화하자는 의도다.
-상품 구조는 아직 확정되진 않았으나 OCIO 펀드나 타깃리턴펀드 TRF 등 목표 수익률을 제공하는 중위험 상품을 구상하는 방향으로 논의되고 있다.
-금투협 관계자는 정해진 위험 혹은 수익 내에서 자산 배분이 이루어지는 등 상품 구조에 대한 논의를 이어가고 있다며 경우에 따라서는 새로운 펀드 형태로 낼지 업계와 계속 소통하고 있다고 말했다.
-디딤펀드로 목표 수익률 펀드에 대한 효용성을 느낄 경우 OCIO 공모펀드 역시 그 수혜를 입을 것으로 전망된다.
-자산운용사 다른 관계자는 OCIO라는 명칭이 일반 투자자 입장에서는 생소한 편인데 디딤펀드라는 이름이 각인된다면 기존 상품을 디딤펀드와 비슷하게 네이밍하는 걸 다들 고려하게 될 것이라며 OCIO 펀드의 경우 정해진 경로에 따라 운용하기보단 목표 수익률을 내기 위해 운용하고 있어 디딤펀드로 하우스 실력을 드러낼 기회가 될 수 있다고 말했다.
-자산운용사 다른 관계자는 OCIO 펀드가 TDF 대비 비교적 늦게 등장해 현재로서는 입증된 장기 수익률이 나온 것은 아니다며 그 인식을 바꿀만한 기회의 장이 마련되는 것도 중요하다고 했다.
-joongjpyna.co.kr
- 끝 </t>
-  </si>
-  <si>
-    <t>['디폴트옵션 설정액', '퇴직연금ocio', '퇴직연금 금융투자협회', '퇴직연금 펀드', '퇴직연금 설정액']</t>
-  </si>
-  <si>
-    <t>[{'디폴트옵션 설정액': 5}, {'퇴직연금ocio': 1}, {'퇴직연금 금융투자협회': 32}, {'퇴직연금 펀드': 58}, {'퇴직연금 설정액': 10}]</t>
-  </si>
-  <si>
-    <t>OCIO 공모펀드의 성장세가 둔화하고 있다.</t>
-  </si>
-  <si>
-    <t>OCIO 공모펀드의 부진은 고금리 환경과 무관하지 않다.</t>
-  </si>
-  <si>
-    <t>신한투자증권, 퇴직연금 디폴트옵션 이벤트 커피 쿠폰 쏜다</t>
-  </si>
-  <si>
-    <t>신한투자증권은 퇴직연금 사전지정운용제도 디폴트옵션 이벤트를 실시한다고 밝혔다. 이벤트는 신한투자증권의 퇴직연금 고객 대상으로 진행되며 추첨을 통해 스타벅스 아메리카노 쿠폰을 제공한다.</t>
-  </si>
-  <si>
-    <t>https://n.news.naver.com/mnews/article/417/0000954485?sid=101</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 신한투자증권은 퇴직연금 사전지정운용제도 디폴트옵션 본격 시행을 기념해 퇴직연금 디폴트옵션 이벤트를 실시한다고 12일 밝혔다.사전지정운용제도 디폴트옵션는 퇴직연금 가입자의 원리금 보장상품 만기 또는 신규 자금 입금 시 별도 운용지시가 없다면 사전에 지정한 상품으로 운용하는 제도로 적립금이 방치되는 것을 방지해 수익률을 높이는 역할을 한다. 이벤트는 신한투자증권의 DC 확정기여형 퇴직연금 개별 가입 고객 및 IRP 개인형 퇴직연금 고객 대상으로 오는 12월31일까지 진행된다.이벤트는 이벤트 신청 후 디폴트옵션 상품을 최초로 등록한 고객 대상으로 진행되며 추첨을 통해 매월 500명에게 스타벅스 아메리카노 쿠폰 1매를 제공한다. 경품은 이벤트 신청을 완료한 다음 달 말일 경 추첨을 통해 발송 예정이다.단 2023년에 퇴직연금 계좌로 이벤트 혜택을 지급받은 경우 퇴직연금감독규정 제 16조 2항에 따라 연간 3만원 한도 내에서 제공되므로 본 이벤트 조건을 충족하더라도 당첨이 제한될 수 있다.</t>
-  </si>
-  <si>
-    <t>['퇴직연금 DC', '퇴직연금 IRP', '개인형퇴직연금', '디폴트옵션', '퇴직연금 적립금', '퇴직연금 이벤트', '디폴트옵션 이벤트', 'DC 이벤트', 'IRP 이벤트', '신한 퇴직연금', '퇴직연금 수익률', '퇴직연금 가입']</t>
-  </si>
-  <si>
-    <t>[{'퇴직연금 DC': 35}, {'퇴직연금 IRP': 48}, {'개인형퇴직연금': 47}, {'디폴트옵션': 44}, {'퇴직연금 적립금': 41}, {'퇴직연금 이벤트': 44}, {'디폴트옵션 이벤트': 43}, {'DC 이벤트': 41}, {'IRP 이벤트': 41}, {'신한 퇴직연금': 44}, {'퇴직연금 수익률': 52}, {'퇴직연금 가입': 49}]</t>
-  </si>
-  <si>
-    <t>한국투자증권</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>금융위</t>
+    <t>-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3173,18 +3430,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X76"/>
+  <dimension ref="A1:X83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="15.375" customWidth="1"/>
-    <col min="3" max="3" width="16.25" customWidth="1"/>
-    <col min="4" max="4" width="72.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="41.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
@@ -3266,7 +3521,7 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
         <v>26</v>
@@ -3278,7 +3533,7 @@
         <v>28</v>
       </c>
       <c r="F2">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
         <v>29</v>
@@ -3305,25 +3560,25 @@
         <v>34</v>
       </c>
       <c r="O2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P2" t="s">
         <v>35</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R2" t="s">
         <v>36</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T2" t="s">
         <v>37</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" t="s">
         <v>38</v>
@@ -3340,58 +3595,58 @@
         <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K3">
         <v>3</v>
       </c>
       <c r="L3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S3">
         <v>1</v>
-      </c>
-      <c r="R3" t="s">
-        <v>50</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
       </c>
       <c r="T3" t="s">
         <v>51</v>
@@ -3400,13 +3655,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
@@ -3417,70 +3672,70 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F4">
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I4" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K4">
         <v>3</v>
       </c>
       <c r="L4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="R4" t="s">
+        <v>60</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s">
         <v>61</v>
       </c>
-      <c r="M4">
-        <v>2</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4" t="s">
         <v>62</v>
       </c>
-      <c r="O4">
-        <v>4</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4" t="s">
         <v>63</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4" t="s">
-        <v>64</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4" t="s">
-        <v>65</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4" t="s">
-        <v>66</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
@@ -3488,73 +3743,73 @@
         <v>24</v>
       </c>
       <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
         <v>68</v>
       </c>
-      <c r="C5" t="s">
+      <c r="H5" t="s">
         <v>69</v>
       </c>
-      <c r="D5" t="s">
+      <c r="I5" t="s">
         <v>70</v>
       </c>
-      <c r="E5" t="s">
+      <c r="J5" t="s">
         <v>71</v>
-      </c>
-      <c r="F5">
-        <v>7</v>
-      </c>
-      <c r="G5" t="s">
-        <v>72</v>
-      </c>
-      <c r="H5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I5" t="s">
-        <v>74</v>
-      </c>
-      <c r="J5" t="s">
-        <v>75</v>
       </c>
       <c r="K5">
         <v>3</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M5">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O5">
         <v>1</v>
       </c>
       <c r="P5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="R5" t="s">
+        <v>75</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5" t="s">
+        <v>77</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5" t="s">
         <v>78</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5" t="s">
-        <v>79</v>
-      </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
-      <c r="T5" t="s">
-        <v>80</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5" t="s">
-        <v>81</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
@@ -3565,64 +3820,64 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" t="s">
         <v>83</v>
       </c>
-      <c r="E6" t="s">
+      <c r="I6" t="s">
         <v>84</v>
       </c>
-      <c r="F6">
-        <v>7</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="J6" t="s">
         <v>85</v>
       </c>
-      <c r="H6" t="s">
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6" t="s">
         <v>86</v>
       </c>
-      <c r="I6" t="s">
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
         <v>87</v>
       </c>
-      <c r="J6" t="s">
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="s">
         <v>88</v>
       </c>
-      <c r="K6">
+      <c r="Q6">
         <v>3</v>
       </c>
-      <c r="L6" t="s">
+      <c r="R6" t="s">
         <v>89</v>
       </c>
-      <c r="M6">
-        <v>2</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="S6">
+        <v>2</v>
+      </c>
+      <c r="T6" t="s">
         <v>90</v>
       </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6" t="s">
         <v>91</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6" t="s">
-        <v>92</v>
-      </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
-      <c r="T6" t="s">
-        <v>93</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6" t="s">
-        <v>92</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -3636,28 +3891,28 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" t="s">
         <v>94</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>95</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
         <v>96</v>
       </c>
-      <c r="F7">
-        <v>7</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>97</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>98</v>
-      </c>
-      <c r="I7" t="s">
-        <v>45</v>
       </c>
       <c r="J7" t="s">
         <v>99</v>
@@ -3675,7 +3930,7 @@
         <v>101</v>
       </c>
       <c r="O7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P7" t="s">
         <v>102</v>
@@ -3684,25 +3939,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X7" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
@@ -3713,70 +3968,70 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E8" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H8" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="I8" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="J8" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K8">
         <v>3</v>
       </c>
       <c r="L8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M8">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="O8">
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R8" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
@@ -3787,70 +4042,70 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H9" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="I9" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="J9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K9">
         <v>3</v>
       </c>
       <c r="L9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M9">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="O9">
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T9" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="U9">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
@@ -3861,70 +4116,70 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E10" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F10">
         <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H10" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I10" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J10" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10" t="s">
+        <v>138</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>139</v>
+      </c>
+      <c r="O10">
         <v>3</v>
       </c>
-      <c r="L10" t="s">
-        <v>135</v>
-      </c>
-      <c r="M10">
-        <v>2</v>
-      </c>
-      <c r="N10" t="s">
-        <v>136</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
       <c r="P10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="U10">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
@@ -3932,73 +4187,73 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>1008</v>
       </c>
       <c r="D11" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E11" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F11">
         <v>6</v>
       </c>
       <c r="G11" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H11" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I11" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="J11" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="K11">
         <v>3</v>
       </c>
       <c r="L11" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M11">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="O11">
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="U11">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
@@ -4009,70 +4264,70 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="D12" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E12" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F12">
         <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H12" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="I12" t="s">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="J12" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="K12">
         <v>3</v>
       </c>
       <c r="L12" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="M12">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="O12">
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="U12">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
@@ -4080,472 +4335,472 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D13" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E13" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H13" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I13" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="J13" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>175</v>
+      </c>
+      <c r="M13">
         <v>3</v>
       </c>
-      <c r="L13" t="s">
-        <v>173</v>
-      </c>
-      <c r="M13">
-        <v>2</v>
-      </c>
       <c r="N13" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="U13">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>182</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>183</v>
       </c>
       <c r="D14" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E14" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F14">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H14" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="I14" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="J14" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="K14">
         <v>3</v>
       </c>
       <c r="L14" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="M14">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="O14">
+        <v>3</v>
+      </c>
+      <c r="P14" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q14">
         <v>1</v>
       </c>
-      <c r="P14" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
       <c r="R14" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="U14">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X14" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>182</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>197</v>
       </c>
       <c r="D15" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E15" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G15" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H15" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="I15" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="J15" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K15">
         <v>3</v>
       </c>
       <c r="L15" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M15">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P15" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="U15">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>211</v>
       </c>
       <c r="D16" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E16" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G16" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H16" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="I16" t="s">
-        <v>133</v>
+        <v>216</v>
       </c>
       <c r="J16" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="K16">
         <v>3</v>
       </c>
       <c r="L16" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="O16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P16" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
       <c r="R16" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="U16">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>914</v>
+        <v>131</v>
       </c>
       <c r="D17" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E17" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F17">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G17" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="H17" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="I17" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="J17" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K17">
         <v>3</v>
       </c>
       <c r="L17" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="M17">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="O17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="S17">
         <v>1</v>
       </c>
       <c r="T17" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="U17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="W17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X17" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="D18" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E18" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F18">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G18" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="H18" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="I18" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="J18" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="K18">
         <v>3</v>
       </c>
       <c r="L18" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="M18">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="O18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18" t="s">
-        <v>243</v>
+        <v>51</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="U18">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>245</v>
+        <v>51</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18" t="s">
-        <v>246</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="B19" t="s">
-        <v>247</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>248</v>
       </c>
       <c r="D19" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E19" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G19" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H19" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I19" t="s">
-        <v>252</v>
+        <v>202</v>
       </c>
       <c r="J19" t="s">
         <v>253</v>
@@ -4563,347 +4818,359 @@
         <v>255</v>
       </c>
       <c r="O19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P19" t="s">
         <v>256</v>
       </c>
       <c r="Q19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R19" t="s">
-        <v>257</v>
+        <v>51</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>258</v>
+        <v>51</v>
       </c>
       <c r="U19">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>259</v>
+        <v>51</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="B20" t="s">
-        <v>247</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="D20" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E20" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F20">
         <v>6</v>
       </c>
       <c r="G20" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H20" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="I20" t="s">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="J20" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K20">
         <v>3</v>
       </c>
       <c r="L20" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="M20">
         <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="O20">
         <v>1</v>
       </c>
       <c r="P20" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20" t="s">
+        <v>266</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20" t="s">
+        <v>267</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20" t="s">
+        <v>268</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20" t="s">
         <v>269</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20" t="s">
-        <v>270</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20" t="s">
-        <v>271</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20" t="s">
-        <v>272</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="B21" t="s">
-        <v>247</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="D21" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E21" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F21">
         <v>6</v>
       </c>
       <c r="G21" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H21" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="I21" t="s">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="J21" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="K21">
         <v>3</v>
       </c>
       <c r="L21" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="M21">
         <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="O21">
         <v>1</v>
       </c>
       <c r="P21" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21" t="s">
+        <v>278</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21" t="s">
+        <v>279</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21" t="s">
+        <v>280</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21" t="s">
         <v>281</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21" t="s">
-        <v>282</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21" t="s">
-        <v>283</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21" t="s">
-        <v>81</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="B22" t="s">
-        <v>247</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>282</v>
       </c>
       <c r="D22" t="s">
+        <v>283</v>
+      </c>
+      <c r="E22" t="s">
         <v>284</v>
-      </c>
-      <c r="E22" t="s">
-        <v>285</v>
       </c>
       <c r="F22">
         <v>6</v>
       </c>
       <c r="G22" t="s">
+        <v>285</v>
+      </c>
+      <c r="H22" t="s">
         <v>286</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>287</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>288</v>
-      </c>
-      <c r="J22" t="s">
-        <v>289</v>
       </c>
       <c r="K22">
         <v>3</v>
       </c>
       <c r="L22" t="s">
+        <v>289</v>
+      </c>
+      <c r="M22">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
         <v>290</v>
-      </c>
-      <c r="M22">
-        <v>2</v>
-      </c>
-      <c r="N22" t="s">
-        <v>291</v>
       </c>
       <c r="O22">
         <v>1</v>
       </c>
       <c r="P22" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22" t="s">
         <v>292</v>
       </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
       <c r="S22">
         <v>0</v>
       </c>
+      <c r="T22" t="s">
+        <v>293</v>
+      </c>
       <c r="U22">
         <v>0</v>
       </c>
+      <c r="V22" t="s">
+        <v>294</v>
+      </c>
       <c r="W22">
         <v>0</v>
+      </c>
+      <c r="X22" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>293</v>
+        <v>248</v>
       </c>
       <c r="D23" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E23" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F23">
         <v>6</v>
       </c>
       <c r="G23" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H23" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="I23" t="s">
-        <v>298</v>
+        <v>261</v>
       </c>
       <c r="J23" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>302</v>
+      </c>
+      <c r="O23">
         <v>1</v>
       </c>
-      <c r="N23" t="s">
-        <v>301</v>
-      </c>
-      <c r="O23">
-        <v>3</v>
-      </c>
       <c r="P23" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
       <c r="R23" t="s">
-        <v>79</v>
+        <v>304</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="U23">
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="B24" t="s">
-        <v>247</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>305</v>
+        <v>211</v>
       </c>
       <c r="D24" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E24" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F24">
         <v>6</v>
       </c>
       <c r="G24" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H24" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I24" t="s">
-        <v>310</v>
+        <v>202</v>
       </c>
       <c r="J24" t="s">
         <v>311</v>
@@ -4930,1220 +5197,1208 @@
         <v>0</v>
       </c>
       <c r="R24" t="s">
-        <v>92</v>
+        <v>315</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>92</v>
+        <v>316</v>
       </c>
       <c r="U24">
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>92</v>
+        <v>317</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24" t="s">
-        <v>92</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="B25" t="s">
-        <v>247</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D25" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="E25" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F25">
         <v>6</v>
       </c>
       <c r="G25" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="H25" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="I25" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="J25" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="K25">
         <v>3</v>
       </c>
       <c r="L25" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="M25">
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="O25">
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q25">
         <v>0</v>
       </c>
       <c r="R25" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="U25">
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="B26" t="s">
-        <v>247</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="D26" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E26" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F26">
         <v>6</v>
       </c>
       <c r="G26" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="H26" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="I26" t="s">
-        <v>252</v>
+        <v>324</v>
       </c>
       <c r="J26" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="K26">
         <v>3</v>
       </c>
       <c r="L26" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="M26">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>339</v>
+      </c>
+      <c r="O26">
         <v>1</v>
       </c>
-      <c r="N26" t="s">
-        <v>335</v>
-      </c>
-      <c r="O26">
-        <v>2</v>
-      </c>
       <c r="P26" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q26">
         <v>0</v>
       </c>
       <c r="R26" t="s">
-        <v>150</v>
+        <v>341</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="U26">
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>152</v>
+        <v>343</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26" t="s">
-        <v>153</v>
+        <v>344</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D27" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="E27" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="F27">
         <v>6</v>
       </c>
       <c r="G27" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="H27" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="I27" t="s">
-        <v>107</v>
+        <v>349</v>
       </c>
       <c r="J27" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="K27">
         <v>3</v>
       </c>
       <c r="L27" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="M27">
         <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="O27">
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="Q27">
         <v>0</v>
       </c>
       <c r="R27" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="U27">
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="B28" t="s">
         <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>211</v>
       </c>
       <c r="D28" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="E28" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="F28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G28" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="H28" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="I28" t="s">
-        <v>107</v>
+        <v>362</v>
       </c>
       <c r="J28" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="K28">
         <v>3</v>
       </c>
       <c r="L28" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="M28">
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="O28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="Q28">
         <v>0</v>
       </c>
       <c r="R28" t="s">
-        <v>358</v>
+        <v>141</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28" t="s">
-        <v>359</v>
+        <v>142</v>
       </c>
       <c r="U28">
         <v>0</v>
       </c>
       <c r="V28" t="s">
-        <v>360</v>
+        <v>143</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28" t="s">
-        <v>361</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="B29" t="s">
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>197</v>
       </c>
       <c r="D29" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="E29" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="F29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G29" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="H29" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="I29" t="s">
-        <v>107</v>
+        <v>287</v>
       </c>
       <c r="J29" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="K29">
         <v>3</v>
       </c>
       <c r="L29" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="M29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N29" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="O29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P29" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="Q29">
         <v>0</v>
       </c>
       <c r="R29" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="U29">
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>220</v>
+        <v>379</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>1008</v>
       </c>
       <c r="D30" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="E30" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="F30">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="H30" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="I30" t="s">
-        <v>107</v>
+        <v>384</v>
       </c>
       <c r="J30" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="K30">
         <v>3</v>
       </c>
       <c r="L30" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="M30">
         <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="O30">
+        <v>3</v>
+      </c>
+      <c r="P30" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q30">
         <v>1</v>
       </c>
-      <c r="P30" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
       <c r="R30" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="U30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V30" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X30" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>220</v>
+        <v>379</v>
       </c>
       <c r="B31" t="s">
-        <v>247</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>915</v>
+        <v>131</v>
       </c>
       <c r="D31" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="E31" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="F31">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G31" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="H31" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="I31" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="J31" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="K31">
         <v>3</v>
       </c>
       <c r="L31" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="M31">
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="O31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P31" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="Q31">
         <v>0</v>
       </c>
       <c r="R31" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="U31">
         <v>0</v>
       </c>
       <c r="V31" t="s">
-        <v>193</v>
+        <v>404</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31" t="s">
-        <v>194</v>
+        <v>405</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>220</v>
+        <v>379</v>
       </c>
       <c r="B32" t="s">
-        <v>247</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>915</v>
+        <v>131</v>
       </c>
       <c r="D32" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="E32" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="F32">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G32" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="H32" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="I32" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="J32" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="K32">
         <v>3</v>
       </c>
       <c r="L32" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="M32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="O32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P32" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="Q32">
         <v>0</v>
       </c>
       <c r="R32" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T32" t="s">
-        <v>359</v>
+        <v>415</v>
       </c>
       <c r="U32">
         <v>0</v>
       </c>
       <c r="V32" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>220</v>
+        <v>379</v>
       </c>
       <c r="B33" t="s">
-        <v>247</v>
+        <v>64</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="D33" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="E33" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="F33">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G33" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="H33" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="I33" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="J33" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="K33">
         <v>3</v>
       </c>
       <c r="L33" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="M33">
         <v>2</v>
       </c>
       <c r="N33" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="O33">
         <v>1</v>
       </c>
       <c r="P33" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R33" t="s">
-        <v>92</v>
+        <v>425</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33" t="s">
-        <v>92</v>
+        <v>426</v>
       </c>
       <c r="U33">
         <v>0</v>
       </c>
       <c r="V33" t="s">
-        <v>92</v>
+        <v>427</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33" t="s">
-        <v>92</v>
+        <v>428</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>220</v>
+        <v>379</v>
       </c>
       <c r="B34" t="s">
-        <v>247</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>429</v>
       </c>
       <c r="D34" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="E34" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="F34">
         <v>6</v>
       </c>
       <c r="G34" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="H34" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="I34" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="J34" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
       <c r="K34">
         <v>3</v>
       </c>
       <c r="L34" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="M34">
         <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="O34">
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="Q34">
         <v>0</v>
       </c>
       <c r="R34" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="T34" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="U34">
         <v>0</v>
       </c>
       <c r="V34" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>220</v>
+        <v>379</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="D35" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="E35" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="F35">
         <v>6</v>
       </c>
       <c r="G35" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="H35" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="I35" t="s">
-        <v>431</v>
+        <v>384</v>
       </c>
       <c r="J35" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="K35">
         <v>3</v>
       </c>
       <c r="L35" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="M35">
         <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="O35">
         <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="Q35">
         <v>0</v>
       </c>
       <c r="R35" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="U35">
         <v>0</v>
       </c>
       <c r="V35" t="s">
-        <v>438</v>
+        <v>236</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35" t="s">
-        <v>439</v>
+        <v>237</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>220</v>
+        <v>379</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>261</v>
+        <v>131</v>
       </c>
       <c r="D36" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="E36" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="F36">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G36" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="H36" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="I36" t="s">
-        <v>225</v>
+        <v>456</v>
       </c>
       <c r="J36" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="K36">
         <v>3</v>
       </c>
       <c r="L36" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="O36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P36" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="Q36">
         <v>0</v>
       </c>
-      <c r="R36" t="s">
-        <v>448</v>
-      </c>
       <c r="S36">
         <v>0</v>
       </c>
-      <c r="T36" t="s">
-        <v>449</v>
-      </c>
       <c r="U36">
         <v>0</v>
       </c>
-      <c r="V36" t="s">
-        <v>450</v>
-      </c>
       <c r="W36">
         <v>0</v>
-      </c>
-      <c r="X36" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>220</v>
+        <v>379</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="D37" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="E37" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="F37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G37" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="H37" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="I37" t="s">
-        <v>107</v>
+        <v>465</v>
       </c>
       <c r="J37" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37" t="s">
+        <v>467</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>468</v>
+      </c>
+      <c r="O37">
         <v>3</v>
       </c>
-      <c r="L37" t="s">
-        <v>458</v>
-      </c>
-      <c r="M37">
-        <v>2</v>
-      </c>
-      <c r="N37" t="s">
-        <v>459</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
       <c r="P37" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="Q37">
         <v>0</v>
       </c>
       <c r="R37" t="s">
-        <v>461</v>
+        <v>234</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="U37">
         <v>0</v>
       </c>
       <c r="V37" t="s">
-        <v>327</v>
+        <v>236</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>220</v>
+        <v>379</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C38" t="s">
-        <v>69</v>
+        <v>472</v>
       </c>
       <c r="D38" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="E38" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="F38">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G38" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="H38" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="I38" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="J38" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="K38">
         <v>3</v>
       </c>
       <c r="L38" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N38" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="Q38">
         <v>0</v>
       </c>
       <c r="R38" t="s">
-        <v>473</v>
+        <v>51</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38" t="s">
-        <v>474</v>
+        <v>51</v>
       </c>
       <c r="U38">
         <v>0</v>
       </c>
       <c r="V38" t="s">
-        <v>475</v>
+        <v>51</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38" t="s">
-        <v>476</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>477</v>
+        <v>379</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C39" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D39" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="E39" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="F39">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G39" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="H39" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="I39" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="J39" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="K39">
         <v>3</v>
       </c>
       <c r="L39" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="M39">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>490</v>
+      </c>
+      <c r="O39">
         <v>1</v>
       </c>
-      <c r="N39" t="s">
-        <v>486</v>
-      </c>
-      <c r="O39">
-        <v>2</v>
-      </c>
       <c r="P39" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="Q39">
         <v>0</v>
       </c>
       <c r="R39" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="S39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T39" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="U39">
         <v>0</v>
       </c>
       <c r="V39" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="W39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X39" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>477</v>
+        <v>379</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C40" t="s">
-        <v>492</v>
+        <v>131</v>
       </c>
       <c r="D40" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="E40" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="F40">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G40" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="H40" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="I40" t="s">
-        <v>497</v>
+        <v>420</v>
       </c>
       <c r="J40" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="K40">
         <v>3</v>
       </c>
       <c r="L40" t="s">
-        <v>485</v>
+        <v>501</v>
       </c>
       <c r="M40">
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="O40">
         <v>2</v>
       </c>
       <c r="P40" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="Q40">
         <v>0</v>
       </c>
       <c r="R40" t="s">
-        <v>501</v>
+        <v>304</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="U40">
         <v>0</v>
       </c>
       <c r="V40" t="s">
-        <v>503</v>
+        <v>77</v>
       </c>
       <c r="W40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X40" t="s">
-        <v>504</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>477</v>
+        <v>379</v>
       </c>
       <c r="B41" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="C41" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="D41" t="s">
         <v>505</v>
@@ -6161,1579 +6416,1591 @@
         <v>508</v>
       </c>
       <c r="I41" t="s">
+        <v>261</v>
+      </c>
+      <c r="J41" t="s">
         <v>509</v>
-      </c>
-      <c r="J41" t="s">
-        <v>510</v>
       </c>
       <c r="K41">
         <v>3</v>
       </c>
       <c r="L41" t="s">
+        <v>510</v>
+      </c>
+      <c r="M41">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s">
         <v>511</v>
-      </c>
-      <c r="M41">
-        <v>2</v>
-      </c>
-      <c r="N41" t="s">
-        <v>512</v>
       </c>
       <c r="O41">
         <v>1</v>
       </c>
       <c r="P41" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41" t="s">
         <v>513</v>
       </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-      <c r="R41" t="s">
-        <v>112</v>
-      </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41" t="s">
-        <v>113</v>
+        <v>514</v>
       </c>
       <c r="U41">
         <v>0</v>
       </c>
       <c r="V41" t="s">
-        <v>114</v>
+        <v>515</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41" t="s">
-        <v>115</v>
+        <v>516</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>477</v>
+        <v>379</v>
       </c>
       <c r="B42" t="s">
-        <v>247</v>
+        <v>25</v>
       </c>
       <c r="C42" t="s">
-        <v>261</v>
+        <v>197</v>
       </c>
       <c r="D42" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="E42" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="F42">
         <v>6</v>
       </c>
       <c r="G42" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="H42" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="I42" t="s">
-        <v>518</v>
+        <v>261</v>
       </c>
       <c r="J42" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="K42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L42" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="M42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="O42">
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="Q42">
         <v>0</v>
       </c>
       <c r="R42" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="S42">
         <v>0</v>
       </c>
       <c r="T42" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="U42">
         <v>0</v>
       </c>
       <c r="V42" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="W42">
         <v>0</v>
       </c>
       <c r="X42" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>477</v>
+        <v>379</v>
       </c>
       <c r="B43" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="C43" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="D43" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="E43" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="F43">
         <v>6</v>
       </c>
       <c r="G43" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="H43" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="I43" t="s">
-        <v>509</v>
+        <v>261</v>
       </c>
       <c r="J43" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="K43">
         <v>3</v>
       </c>
       <c r="L43" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="M43">
         <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="O43">
         <v>1</v>
       </c>
       <c r="P43" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="Q43">
         <v>0</v>
       </c>
       <c r="R43" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="S43">
         <v>0</v>
       </c>
       <c r="T43" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="U43">
         <v>0</v>
       </c>
       <c r="V43" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="W43">
         <v>0</v>
       </c>
       <c r="X43" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>477</v>
+        <v>379</v>
       </c>
       <c r="B44" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="C44" t="s">
-        <v>261</v>
+        <v>197</v>
       </c>
       <c r="D44" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="E44" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="F44">
         <v>6</v>
       </c>
       <c r="G44" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="H44" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="I44" t="s">
-        <v>509</v>
+        <v>261</v>
       </c>
       <c r="J44" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="K44">
         <v>3</v>
       </c>
       <c r="L44" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="M44">
         <v>2</v>
       </c>
       <c r="N44" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="O44">
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="Q44">
         <v>0</v>
       </c>
       <c r="R44" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="S44">
         <v>0</v>
       </c>
       <c r="T44" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="U44">
         <v>0</v>
       </c>
       <c r="V44" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="W44">
         <v>0</v>
       </c>
       <c r="X44" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>477</v>
+        <v>379</v>
       </c>
       <c r="B45" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="C45" t="s">
-        <v>548</v>
+        <v>131</v>
       </c>
       <c r="D45" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="E45" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="F45">
         <v>6</v>
       </c>
       <c r="G45" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="H45" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="I45" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="J45" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="K45">
         <v>3</v>
       </c>
       <c r="L45" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="M45">
         <v>2</v>
       </c>
       <c r="N45" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="O45">
         <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="Q45">
         <v>0</v>
       </c>
       <c r="R45" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="S45">
         <v>0</v>
       </c>
       <c r="T45" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="U45">
         <v>0</v>
       </c>
       <c r="V45" t="s">
-        <v>81</v>
+        <v>356</v>
       </c>
       <c r="W45">
         <v>0</v>
       </c>
       <c r="X45" t="s">
-        <v>82</v>
+        <v>357</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>477</v>
+        <v>379</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="C46" t="s">
-        <v>560</v>
+        <v>472</v>
       </c>
       <c r="D46" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="E46" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="F46">
         <v>6</v>
       </c>
       <c r="G46" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="H46" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="I46" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="J46" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="K46">
         <v>3</v>
       </c>
       <c r="L46" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="M46">
         <v>2</v>
       </c>
       <c r="N46" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="O46">
         <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="Q46">
         <v>0</v>
       </c>
       <c r="R46" t="s">
-        <v>570</v>
+        <v>525</v>
       </c>
       <c r="S46">
         <v>0</v>
       </c>
       <c r="T46" t="s">
-        <v>571</v>
+        <v>526</v>
       </c>
       <c r="U46">
         <v>0</v>
       </c>
       <c r="V46" t="s">
-        <v>572</v>
+        <v>527</v>
       </c>
       <c r="W46">
         <v>0</v>
       </c>
       <c r="X46" t="s">
-        <v>573</v>
+        <v>528</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>477</v>
+        <v>379</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C47" t="s">
+        <v>131</v>
+      </c>
+      <c r="D47" t="s">
+        <v>572</v>
+      </c>
+      <c r="E47" t="s">
+        <v>573</v>
+      </c>
+      <c r="F47">
+        <v>6</v>
+      </c>
+      <c r="G47" t="s">
         <v>574</v>
       </c>
-      <c r="D47" t="s">
+      <c r="H47" t="s">
         <v>575</v>
       </c>
-      <c r="E47" t="s">
+      <c r="I47" t="s">
         <v>576</v>
       </c>
-      <c r="F47">
-        <v>5</v>
-      </c>
-      <c r="G47" t="s">
+      <c r="J47" t="s">
         <v>577</v>
-      </c>
-      <c r="H47" t="s">
-        <v>578</v>
-      </c>
-      <c r="I47" t="s">
-        <v>579</v>
-      </c>
-      <c r="J47" t="s">
-        <v>580</v>
       </c>
       <c r="K47">
         <v>3</v>
       </c>
       <c r="L47" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="M47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="Q47">
         <v>0</v>
       </c>
       <c r="R47" t="s">
-        <v>584</v>
+        <v>51</v>
       </c>
       <c r="S47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T47" t="s">
-        <v>585</v>
+        <v>51</v>
       </c>
       <c r="U47">
         <v>0</v>
       </c>
       <c r="V47" t="s">
-        <v>586</v>
+        <v>51</v>
       </c>
       <c r="W47">
         <v>0</v>
       </c>
       <c r="X47" t="s">
-        <v>451</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>379</v>
+      </c>
+      <c r="B48" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" t="s">
+        <v>131</v>
+      </c>
+      <c r="D48" t="s">
+        <v>581</v>
+      </c>
+      <c r="E48" t="s">
+        <v>582</v>
+      </c>
+      <c r="F48">
+        <v>6</v>
+      </c>
+      <c r="G48" t="s">
+        <v>583</v>
+      </c>
+      <c r="H48" t="s">
+        <v>584</v>
+      </c>
+      <c r="I48" t="s">
+        <v>557</v>
+      </c>
+      <c r="J48" t="s">
+        <v>585</v>
+      </c>
+      <c r="K48">
+        <v>3</v>
+      </c>
+      <c r="L48" t="s">
+        <v>586</v>
+      </c>
+      <c r="M48">
+        <v>2</v>
+      </c>
+      <c r="N48" t="s">
         <v>587</v>
       </c>
-      <c r="B48" t="s">
-        <v>25</v>
-      </c>
-      <c r="C48" t="s">
-        <v>69</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="O48">
+        <v>1</v>
+      </c>
+      <c r="P48" t="s">
         <v>588</v>
       </c>
-      <c r="E48" t="s">
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48" t="s">
         <v>589</v>
       </c>
-      <c r="F48">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s">
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48" t="s">
         <v>590</v>
       </c>
-      <c r="H48" t="s">
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48" t="s">
         <v>591</v>
       </c>
-      <c r="I48" t="s">
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48" t="s">
         <v>592</v>
-      </c>
-      <c r="J48" t="s">
-        <v>593</v>
-      </c>
-      <c r="K48">
-        <v>4</v>
-      </c>
-      <c r="L48" t="s">
-        <v>594</v>
-      </c>
-      <c r="M48">
-        <v>2</v>
-      </c>
-      <c r="N48" t="s">
-        <v>595</v>
-      </c>
-      <c r="O48">
-        <v>3</v>
-      </c>
-      <c r="P48" t="s">
-        <v>596</v>
-      </c>
-      <c r="Q48">
-        <v>1</v>
-      </c>
-      <c r="R48" t="s">
-        <v>597</v>
-      </c>
-      <c r="S48">
-        <v>4</v>
-      </c>
-      <c r="T48" t="s">
-        <v>598</v>
-      </c>
-      <c r="U48">
-        <v>0</v>
-      </c>
-      <c r="V48" t="s">
-        <v>599</v>
-      </c>
-      <c r="W48">
-        <v>0</v>
-      </c>
-      <c r="X48" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>587</v>
+        <v>379</v>
       </c>
       <c r="B49" t="s">
-        <v>247</v>
+        <v>25</v>
       </c>
       <c r="C49" t="s">
-        <v>69</v>
+        <v>593</v>
       </c>
       <c r="D49" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="E49" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="F49">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G49" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="H49" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="I49" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="J49" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="K49">
         <v>3</v>
       </c>
       <c r="L49" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="M49">
         <v>2</v>
       </c>
       <c r="N49" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="O49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P49" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="Q49">
         <v>0</v>
       </c>
       <c r="R49" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="S49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T49" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="U49">
         <v>0</v>
       </c>
       <c r="V49" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="W49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X49" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>587</v>
+        <v>379</v>
       </c>
       <c r="B50" t="s">
-        <v>247</v>
+        <v>40</v>
       </c>
       <c r="C50" t="s">
-        <v>69</v>
+        <v>429</v>
       </c>
       <c r="D50" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="E50" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="F50">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G50" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="H50" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="I50" t="s">
-        <v>618</v>
+        <v>384</v>
       </c>
       <c r="J50" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="K50">
         <v>3</v>
       </c>
       <c r="L50" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="M50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N50" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="O50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P50" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="Q50">
         <v>0</v>
       </c>
       <c r="R50" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="S50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T50" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="U50">
         <v>0</v>
       </c>
       <c r="V50" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="W50">
         <v>0</v>
       </c>
       <c r="X50" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>587</v>
+        <v>379</v>
       </c>
       <c r="B51" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="C51" t="s">
-        <v>627</v>
+        <v>282</v>
       </c>
       <c r="D51" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="E51" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="F51">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G51" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="H51" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="I51" t="s">
-        <v>632</v>
+        <v>261</v>
       </c>
       <c r="J51" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="K51">
         <v>3</v>
       </c>
       <c r="L51" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="M51">
         <v>2</v>
       </c>
       <c r="N51" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="O51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P51" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="Q51">
         <v>0</v>
       </c>
       <c r="R51" t="s">
-        <v>204</v>
+        <v>627</v>
       </c>
       <c r="S51">
         <v>0</v>
       </c>
       <c r="T51" t="s">
-        <v>205</v>
+        <v>628</v>
       </c>
       <c r="U51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V51" t="s">
-        <v>637</v>
+        <v>494</v>
       </c>
       <c r="W51">
         <v>0</v>
       </c>
       <c r="X51" t="s">
-        <v>207</v>
+        <v>629</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>587</v>
+        <v>379</v>
       </c>
       <c r="B52" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C52" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="D52" t="s">
+        <v>630</v>
+      </c>
+      <c r="E52" t="s">
+        <v>631</v>
+      </c>
+      <c r="F52">
+        <v>3</v>
+      </c>
+      <c r="G52" t="s">
+        <v>632</v>
+      </c>
+      <c r="H52" t="s">
+        <v>633</v>
+      </c>
+      <c r="I52" t="s">
+        <v>634</v>
+      </c>
+      <c r="J52" t="s">
+        <v>635</v>
+      </c>
+      <c r="K52">
+        <v>3</v>
+      </c>
+      <c r="L52" t="s">
+        <v>636</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52" t="s">
+        <v>637</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="s">
         <v>638</v>
       </c>
-      <c r="E52" t="s">
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52" t="s">
         <v>639</v>
       </c>
-      <c r="F52">
-        <v>6</v>
-      </c>
-      <c r="G52" t="s">
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52" t="s">
         <v>640</v>
       </c>
-      <c r="H52" t="s">
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52" t="s">
         <v>641</v>
       </c>
-      <c r="I52" t="s">
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52" t="s">
         <v>642</v>
-      </c>
-      <c r="J52" t="s">
-        <v>643</v>
-      </c>
-      <c r="K52">
-        <v>2</v>
-      </c>
-      <c r="L52" t="s">
-        <v>644</v>
-      </c>
-      <c r="M52">
-        <v>1</v>
-      </c>
-      <c r="N52" t="s">
-        <v>645</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52" t="s">
-        <v>646</v>
-      </c>
-      <c r="Q52">
-        <v>0</v>
-      </c>
-      <c r="R52" t="s">
-        <v>647</v>
-      </c>
-      <c r="S52">
-        <v>3</v>
-      </c>
-      <c r="T52" t="s">
-        <v>648</v>
-      </c>
-      <c r="U52">
-        <v>0</v>
-      </c>
-      <c r="V52" t="s">
-        <v>649</v>
-      </c>
-      <c r="W52">
-        <v>0</v>
-      </c>
-      <c r="X52" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>587</v>
+        <v>643</v>
       </c>
       <c r="B53" t="s">
-        <v>247</v>
+        <v>40</v>
       </c>
       <c r="C53" t="s">
-        <v>69</v>
+        <v>644</v>
       </c>
       <c r="D53" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="E53" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="F53">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G53" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="H53" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="I53" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="J53" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="K53">
         <v>3</v>
       </c>
       <c r="L53" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="M53">
         <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P53" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="Q53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R53" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="S53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T53" t="s">
-        <v>359</v>
+        <v>655</v>
       </c>
       <c r="U53">
         <v>0</v>
       </c>
       <c r="V53" t="s">
-        <v>360</v>
+        <v>656</v>
       </c>
       <c r="W53">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X53" t="s">
-        <v>361</v>
+        <v>657</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>587</v>
+        <v>643</v>
       </c>
       <c r="B54" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C54" t="s">
-        <v>627</v>
+        <v>658</v>
       </c>
       <c r="D54" t="s">
+        <v>659</v>
+      </c>
+      <c r="E54" t="s">
+        <v>660</v>
+      </c>
+      <c r="F54">
+        <v>8</v>
+      </c>
+      <c r="G54" t="s">
         <v>661</v>
       </c>
-      <c r="E54" t="s">
+      <c r="H54" t="s">
         <v>662</v>
       </c>
-      <c r="F54">
-        <v>6</v>
-      </c>
-      <c r="G54" t="s">
+      <c r="I54" t="s">
         <v>663</v>
       </c>
-      <c r="H54" t="s">
+      <c r="J54" t="s">
         <v>664</v>
-      </c>
-      <c r="I54" t="s">
-        <v>632</v>
-      </c>
-      <c r="J54" t="s">
-        <v>665</v>
       </c>
       <c r="K54">
         <v>3</v>
       </c>
       <c r="L54" t="s">
+        <v>651</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>665</v>
+      </c>
+      <c r="O54">
+        <v>2</v>
+      </c>
+      <c r="P54" t="s">
         <v>666</v>
       </c>
-      <c r="M54">
-        <v>2</v>
-      </c>
-      <c r="N54" t="s">
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54" t="s">
         <v>667</v>
       </c>
-      <c r="O54">
-        <v>1</v>
-      </c>
-      <c r="P54" t="s">
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54" t="s">
         <v>668</v>
       </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
-      <c r="R54" t="s">
-        <v>204</v>
-      </c>
-      <c r="S54">
-        <v>0</v>
-      </c>
-      <c r="T54" t="s">
-        <v>205</v>
-      </c>
       <c r="U54">
         <v>0</v>
       </c>
       <c r="V54" t="s">
-        <v>206</v>
+        <v>669</v>
       </c>
       <c r="W54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X54" t="s">
-        <v>207</v>
+        <v>670</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>587</v>
+        <v>643</v>
       </c>
       <c r="B55" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C55" t="s">
-        <v>669</v>
+        <v>429</v>
       </c>
       <c r="D55" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E55" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="F55">
         <v>6</v>
       </c>
       <c r="G55" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H55" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="I55" t="s">
-        <v>632</v>
+        <v>675</v>
       </c>
       <c r="J55" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="K55">
         <v>3</v>
       </c>
       <c r="L55" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="M55">
         <v>2</v>
       </c>
       <c r="N55" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="O55">
         <v>1</v>
       </c>
       <c r="P55" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="Q55">
         <v>0</v>
       </c>
       <c r="R55" t="s">
-        <v>678</v>
+        <v>266</v>
       </c>
       <c r="S55">
         <v>0</v>
       </c>
       <c r="T55" t="s">
-        <v>679</v>
+        <v>267</v>
       </c>
       <c r="U55">
         <v>0</v>
       </c>
       <c r="V55" t="s">
-        <v>680</v>
+        <v>268</v>
       </c>
       <c r="W55">
         <v>0</v>
       </c>
       <c r="X55" t="s">
-        <v>681</v>
+        <v>269</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>587</v>
+        <v>643</v>
       </c>
       <c r="B56" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="C56" t="s">
-        <v>682</v>
+        <v>429</v>
       </c>
       <c r="D56" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="E56" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="F56">
         <v>6</v>
       </c>
       <c r="G56" t="s">
+        <v>682</v>
+      </c>
+      <c r="H56" t="s">
+        <v>683</v>
+      </c>
+      <c r="I56" t="s">
+        <v>684</v>
+      </c>
+      <c r="J56" t="s">
         <v>685</v>
       </c>
-      <c r="H56" t="s">
+      <c r="K56">
+        <v>2</v>
+      </c>
+      <c r="L56" t="s">
         <v>686</v>
       </c>
-      <c r="I56" t="s">
+      <c r="M56">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
         <v>687</v>
-      </c>
-      <c r="J56" t="s">
-        <v>688</v>
-      </c>
-      <c r="K56">
-        <v>3</v>
-      </c>
-      <c r="L56" t="s">
-        <v>689</v>
-      </c>
-      <c r="M56">
-        <v>2</v>
-      </c>
-      <c r="N56" t="s">
-        <v>690</v>
       </c>
       <c r="O56">
         <v>1</v>
       </c>
       <c r="P56" t="s">
+        <v>688</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56" t="s">
+        <v>689</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56" t="s">
+        <v>690</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56" t="s">
         <v>691</v>
       </c>
-      <c r="Q56">
-        <v>0</v>
-      </c>
-      <c r="R56" t="s">
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56" t="s">
         <v>692</v>
-      </c>
-      <c r="S56">
-        <v>0</v>
-      </c>
-      <c r="T56" t="s">
-        <v>693</v>
-      </c>
-      <c r="U56">
-        <v>0</v>
-      </c>
-      <c r="V56" t="s">
-        <v>694</v>
-      </c>
-      <c r="W56">
-        <v>0</v>
-      </c>
-      <c r="X56" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>587</v>
+        <v>643</v>
       </c>
       <c r="B57" t="s">
-        <v>247</v>
+        <v>40</v>
       </c>
       <c r="C57" t="s">
-        <v>696</v>
+        <v>429</v>
       </c>
       <c r="D57" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="E57" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="F57">
         <v>6</v>
       </c>
       <c r="G57" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="H57" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="I57" t="s">
-        <v>701</v>
+        <v>675</v>
       </c>
       <c r="J57" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="K57">
         <v>3</v>
       </c>
       <c r="L57" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="M57">
         <v>2</v>
       </c>
       <c r="N57" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="O57">
         <v>1</v>
       </c>
       <c r="P57" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="Q57">
         <v>0</v>
       </c>
       <c r="R57" t="s">
-        <v>547</v>
+        <v>701</v>
       </c>
       <c r="S57">
         <v>0</v>
       </c>
       <c r="T57" t="s">
-        <v>547</v>
+        <v>702</v>
       </c>
       <c r="U57">
         <v>0</v>
       </c>
       <c r="V57" t="s">
-        <v>547</v>
+        <v>703</v>
       </c>
       <c r="W57">
         <v>0</v>
       </c>
       <c r="X57" t="s">
-        <v>547</v>
+        <v>704</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>587</v>
+        <v>643</v>
       </c>
       <c r="B58" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C58" t="s">
+        <v>429</v>
+      </c>
+      <c r="D58" t="s">
+        <v>705</v>
+      </c>
+      <c r="E58" t="s">
         <v>706</v>
-      </c>
-      <c r="D58" t="s">
-        <v>707</v>
-      </c>
-      <c r="E58" t="s">
-        <v>708</v>
       </c>
       <c r="F58">
         <v>6</v>
       </c>
       <c r="G58" t="s">
+        <v>707</v>
+      </c>
+      <c r="H58" t="s">
+        <v>708</v>
+      </c>
+      <c r="I58" t="s">
+        <v>675</v>
+      </c>
+      <c r="J58" t="s">
         <v>709</v>
-      </c>
-      <c r="H58" t="s">
-        <v>710</v>
-      </c>
-      <c r="I58" t="s">
-        <v>192</v>
-      </c>
-      <c r="J58" t="s">
-        <v>711</v>
       </c>
       <c r="K58">
         <v>3</v>
       </c>
       <c r="L58" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="M58">
         <v>2</v>
       </c>
       <c r="N58" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="O58">
         <v>1</v>
       </c>
       <c r="P58" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q58">
         <v>0</v>
       </c>
+      <c r="R58" t="s">
+        <v>167</v>
+      </c>
       <c r="S58">
         <v>0</v>
       </c>
+      <c r="T58" t="s">
+        <v>167</v>
+      </c>
       <c r="U58">
         <v>0</v>
       </c>
+      <c r="V58" t="s">
+        <v>167</v>
+      </c>
       <c r="W58">
         <v>0</v>
+      </c>
+      <c r="X58" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>643</v>
+      </c>
+      <c r="B59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" t="s">
+        <v>713</v>
+      </c>
+      <c r="D59" t="s">
+        <v>714</v>
+      </c>
+      <c r="E59" t="s">
         <v>715</v>
       </c>
-      <c r="B59" t="s">
-        <v>68</v>
-      </c>
-      <c r="C59" t="s">
-        <v>69</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="F59">
+        <v>6</v>
+      </c>
+      <c r="G59" t="s">
         <v>716</v>
       </c>
-      <c r="E59" t="s">
+      <c r="H59" t="s">
         <v>717</v>
       </c>
-      <c r="F59">
-        <v>15</v>
-      </c>
-      <c r="G59" t="s">
+      <c r="I59" t="s">
         <v>718</v>
       </c>
-      <c r="H59" t="s">
+      <c r="J59" t="s">
         <v>719</v>
-      </c>
-      <c r="I59" t="s">
-        <v>720</v>
-      </c>
-      <c r="J59" t="s">
-        <v>721</v>
       </c>
       <c r="K59">
         <v>3</v>
       </c>
       <c r="L59" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="M59">
         <v>2</v>
       </c>
       <c r="N59" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="O59">
         <v>1</v>
       </c>
       <c r="P59" t="s">
+        <v>722</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59" t="s">
+        <v>723</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59" t="s">
         <v>724</v>
       </c>
-      <c r="Q59">
-        <v>2</v>
-      </c>
-      <c r="R59" t="s">
-        <v>725</v>
-      </c>
-      <c r="S59">
-        <v>4</v>
-      </c>
-      <c r="T59" t="s">
-        <v>726</v>
-      </c>
       <c r="U59">
         <v>0</v>
       </c>
       <c r="V59" t="s">
-        <v>727</v>
+        <v>236</v>
       </c>
       <c r="W59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X59" t="s">
-        <v>728</v>
+        <v>237</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>715</v>
+        <v>643</v>
       </c>
       <c r="B60" t="s">
         <v>25</v>
       </c>
       <c r="C60" t="s">
-        <v>69</v>
+        <v>725</v>
       </c>
       <c r="D60" t="s">
+        <v>726</v>
+      </c>
+      <c r="E60" t="s">
+        <v>727</v>
+      </c>
+      <c r="F60">
+        <v>6</v>
+      </c>
+      <c r="G60" t="s">
+        <v>728</v>
+      </c>
+      <c r="H60" t="s">
         <v>729</v>
       </c>
-      <c r="E60" t="s">
+      <c r="I60" t="s">
         <v>730</v>
       </c>
-      <c r="F60">
-        <v>13</v>
-      </c>
-      <c r="G60" t="s">
+      <c r="J60" t="s">
         <v>731</v>
-      </c>
-      <c r="H60" t="s">
-        <v>732</v>
-      </c>
-      <c r="I60" t="s">
-        <v>733</v>
-      </c>
-      <c r="J60" t="s">
-        <v>734</v>
       </c>
       <c r="K60">
         <v>3</v>
       </c>
       <c r="L60" t="s">
+        <v>732</v>
+      </c>
+      <c r="M60">
+        <v>2</v>
+      </c>
+      <c r="N60" t="s">
+        <v>733</v>
+      </c>
+      <c r="O60">
+        <v>1</v>
+      </c>
+      <c r="P60" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60" t="s">
         <v>735</v>
       </c>
-      <c r="M60">
-        <v>1</v>
-      </c>
-      <c r="N60" t="s">
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60" t="s">
         <v>736</v>
       </c>
-      <c r="O60">
-        <v>2</v>
-      </c>
-      <c r="P60" t="s">
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="V60" t="s">
         <v>737</v>
       </c>
-      <c r="Q60">
-        <v>3</v>
-      </c>
-      <c r="R60" t="s">
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60" t="s">
         <v>738</v>
-      </c>
-      <c r="S60">
-        <v>4</v>
-      </c>
-      <c r="T60" t="s">
-        <v>739</v>
-      </c>
-      <c r="U60">
-        <v>0</v>
-      </c>
-      <c r="V60" t="s">
-        <v>740</v>
-      </c>
-      <c r="W60">
-        <v>0</v>
-      </c>
-      <c r="X60" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>715</v>
+        <v>643</v>
       </c>
       <c r="B61" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C61" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="D61" t="s">
+        <v>739</v>
+      </c>
+      <c r="E61" t="s">
+        <v>740</v>
+      </c>
+      <c r="F61">
+        <v>5</v>
+      </c>
+      <c r="G61" t="s">
+        <v>741</v>
+      </c>
+      <c r="H61" t="s">
         <v>742</v>
       </c>
-      <c r="E61" t="s">
+      <c r="I61" t="s">
         <v>743</v>
       </c>
-      <c r="F61">
-        <v>12</v>
-      </c>
-      <c r="G61" t="s">
+      <c r="J61" t="s">
         <v>744</v>
-      </c>
-      <c r="H61" t="s">
-        <v>745</v>
-      </c>
-      <c r="I61" t="s">
-        <v>733</v>
-      </c>
-      <c r="J61" t="s">
-        <v>746</v>
       </c>
       <c r="K61">
         <v>3</v>
       </c>
       <c r="L61" t="s">
+        <v>745</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61" t="s">
+        <v>746</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61" t="s">
         <v>747</v>
       </c>
-      <c r="M61">
-        <v>1</v>
-      </c>
-      <c r="N61" t="s">
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61" t="s">
         <v>748</v>
       </c>
-      <c r="O61">
-        <v>2</v>
-      </c>
-      <c r="P61" t="s">
+      <c r="S61">
+        <v>2</v>
+      </c>
+      <c r="T61" t="s">
         <v>749</v>
       </c>
-      <c r="Q61">
-        <v>2</v>
-      </c>
-      <c r="R61" t="s">
+      <c r="U61">
+        <v>0</v>
+      </c>
+      <c r="V61" t="s">
         <v>750</v>
       </c>
-      <c r="S61">
-        <v>3</v>
-      </c>
-      <c r="T61" t="s">
-        <v>751</v>
-      </c>
-      <c r="U61">
-        <v>1</v>
-      </c>
-      <c r="V61" t="s">
-        <v>752</v>
-      </c>
       <c r="W61">
         <v>0</v>
       </c>
       <c r="X61" t="s">
-        <v>753</v>
+        <v>618</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>715</v>
+        <v>751</v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="C62" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="D62" t="s">
+        <v>752</v>
+      </c>
+      <c r="E62" t="s">
+        <v>753</v>
+      </c>
+      <c r="F62">
+        <v>14</v>
+      </c>
+      <c r="G62" t="s">
         <v>754</v>
       </c>
-      <c r="E62" t="s">
+      <c r="H62" t="s">
         <v>755</v>
       </c>
-      <c r="F62">
-        <v>8</v>
-      </c>
-      <c r="G62" t="s">
+      <c r="I62" t="s">
         <v>756</v>
       </c>
-      <c r="H62" t="s">
+      <c r="J62" t="s">
         <v>757</v>
       </c>
-      <c r="I62" t="s">
-        <v>720</v>
-      </c>
-      <c r="J62" t="s">
+      <c r="K62">
+        <v>4</v>
+      </c>
+      <c r="L62" t="s">
         <v>758</v>
       </c>
-      <c r="K62">
+      <c r="M62">
+        <v>2</v>
+      </c>
+      <c r="N62" t="s">
+        <v>759</v>
+      </c>
+      <c r="O62">
         <v>3</v>
       </c>
-      <c r="L62" t="s">
-        <v>759</v>
-      </c>
-      <c r="M62">
-        <v>2</v>
-      </c>
-      <c r="N62" t="s">
+      <c r="P62" t="s">
         <v>760</v>
       </c>
-      <c r="O62">
+      <c r="Q62">
         <v>1</v>
       </c>
-      <c r="P62" t="s">
+      <c r="R62" t="s">
         <v>761</v>
       </c>
-      <c r="Q62">
-        <v>0</v>
-      </c>
-      <c r="R62" t="s">
-        <v>547</v>
-      </c>
       <c r="S62">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T62" t="s">
         <v>762</v>
@@ -7742,696 +8009,708 @@
         <v>0</v>
       </c>
       <c r="V62" t="s">
-        <v>547</v>
+        <v>763</v>
       </c>
       <c r="W62">
         <v>0</v>
       </c>
       <c r="X62" t="s">
-        <v>547</v>
+        <v>764</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>715</v>
+        <v>751</v>
       </c>
       <c r="B63" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="D63" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="E63" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="F63">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G63" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="H63" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="I63" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="J63" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="K63">
         <v>3</v>
       </c>
       <c r="L63" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="M63">
         <v>2</v>
       </c>
       <c r="N63" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="O63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P63" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="Q63">
         <v>0</v>
       </c>
       <c r="R63" t="s">
-        <v>547</v>
+        <v>774</v>
       </c>
       <c r="S63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T63" t="s">
-        <v>547</v>
+        <v>775</v>
       </c>
       <c r="U63">
         <v>0</v>
       </c>
       <c r="V63" t="s">
-        <v>547</v>
+        <v>776</v>
       </c>
       <c r="W63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X63" t="s">
-        <v>547</v>
+        <v>777</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>715</v>
+        <v>751</v>
       </c>
       <c r="B64" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C64" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="D64" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="E64" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="F64">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G64" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="H64" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="I64" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="J64" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="K64">
         <v>3</v>
       </c>
       <c r="L64" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="M64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N64" t="s">
-        <v>214</v>
+        <v>785</v>
       </c>
       <c r="O64">
         <v>1</v>
       </c>
       <c r="P64" t="s">
-        <v>779</v>
+        <v>786</v>
       </c>
       <c r="Q64">
         <v>0</v>
       </c>
       <c r="R64" t="s">
-        <v>216</v>
+        <v>787</v>
       </c>
       <c r="S64">
         <v>2</v>
       </c>
       <c r="T64" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
       <c r="U64">
         <v>0</v>
       </c>
       <c r="V64" t="s">
-        <v>218</v>
+        <v>789</v>
       </c>
       <c r="W64">
         <v>0</v>
       </c>
       <c r="X64" t="s">
-        <v>219</v>
+        <v>790</v>
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>781</v>
+        <v>751</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C65" t="s">
-        <v>69</v>
+        <v>791</v>
       </c>
       <c r="D65" t="s">
-        <v>782</v>
+        <v>792</v>
       </c>
       <c r="E65" t="s">
-        <v>783</v>
+        <v>793</v>
       </c>
       <c r="F65">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G65" t="s">
-        <v>784</v>
+        <v>794</v>
       </c>
       <c r="H65" t="s">
-        <v>785</v>
+        <v>795</v>
       </c>
       <c r="I65" t="s">
-        <v>786</v>
+        <v>796</v>
       </c>
       <c r="J65" t="s">
-        <v>787</v>
+        <v>797</v>
       </c>
       <c r="K65">
         <v>3</v>
       </c>
       <c r="L65" t="s">
-        <v>788</v>
+        <v>798</v>
       </c>
       <c r="M65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N65" t="s">
-        <v>789</v>
+        <v>799</v>
       </c>
       <c r="O65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P65" t="s">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="Q65">
         <v>0</v>
       </c>
       <c r="R65" t="s">
-        <v>791</v>
+        <v>141</v>
       </c>
       <c r="S65">
         <v>0</v>
       </c>
       <c r="T65" t="s">
-        <v>792</v>
+        <v>142</v>
       </c>
       <c r="U65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V65" t="s">
-        <v>793</v>
+        <v>801</v>
       </c>
       <c r="W65">
         <v>0</v>
       </c>
       <c r="X65" t="s">
-        <v>794</v>
+        <v>144</v>
       </c>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>795</v>
+        <v>751</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C66" t="s">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="D66" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="E66" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="F66">
         <v>6</v>
       </c>
       <c r="G66" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="H66" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="I66" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="J66" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="K66">
+        <v>2</v>
+      </c>
+      <c r="L66" t="s">
+        <v>808</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s">
+        <v>809</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66" t="s">
+        <v>810</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66" t="s">
+        <v>811</v>
+      </c>
+      <c r="S66">
         <v>3</v>
       </c>
-      <c r="L66" t="s">
-        <v>802</v>
-      </c>
-      <c r="M66">
-        <v>2</v>
-      </c>
-      <c r="N66" t="s">
-        <v>803</v>
-      </c>
-      <c r="O66">
-        <v>1</v>
-      </c>
-      <c r="P66" t="s">
-        <v>804</v>
-      </c>
-      <c r="Q66">
-        <v>0</v>
-      </c>
-      <c r="R66" t="s">
-        <v>805</v>
-      </c>
-      <c r="S66">
-        <v>0</v>
-      </c>
       <c r="T66" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="U66">
         <v>0</v>
       </c>
       <c r="V66" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="W66">
         <v>0</v>
       </c>
       <c r="X66" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>795</v>
+        <v>751</v>
       </c>
       <c r="B67" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="C67" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="D67" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="E67" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="F67">
         <v>6</v>
       </c>
       <c r="G67" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="H67" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="I67" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
       <c r="J67" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
       <c r="K67">
         <v>3</v>
       </c>
       <c r="L67" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="M67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N67" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
       <c r="O67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P67" t="s">
-        <v>816</v>
+        <v>823</v>
       </c>
       <c r="Q67">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="R67" t="s">
+        <v>824</v>
       </c>
       <c r="S67">
         <v>0</v>
       </c>
+      <c r="T67" t="s">
+        <v>526</v>
+      </c>
       <c r="U67">
         <v>0</v>
       </c>
+      <c r="V67" t="s">
+        <v>527</v>
+      </c>
       <c r="W67">
         <v>0</v>
+      </c>
+      <c r="X67" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>795</v>
+        <v>751</v>
       </c>
       <c r="B68" t="s">
-        <v>817</v>
+        <v>40</v>
       </c>
       <c r="C68" t="s">
-        <v>669</v>
+        <v>791</v>
       </c>
       <c r="D68" t="s">
-        <v>818</v>
+        <v>825</v>
       </c>
       <c r="E68" t="s">
-        <v>819</v>
+        <v>826</v>
       </c>
       <c r="F68">
+        <v>6</v>
+      </c>
+      <c r="G68" t="s">
+        <v>827</v>
+      </c>
+      <c r="H68" t="s">
+        <v>828</v>
+      </c>
+      <c r="I68" t="s">
+        <v>796</v>
+      </c>
+      <c r="J68" t="s">
+        <v>829</v>
+      </c>
+      <c r="K68">
         <v>3</v>
       </c>
-      <c r="G68" t="s">
-        <v>820</v>
-      </c>
-      <c r="H68" t="s">
-        <v>821</v>
-      </c>
-      <c r="I68" t="s">
-        <v>822</v>
-      </c>
-      <c r="J68" t="s">
-        <v>823</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
       <c r="L68" t="s">
-        <v>824</v>
+        <v>830</v>
       </c>
       <c r="M68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N68" t="s">
-        <v>825</v>
+        <v>831</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P68" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="Q68">
         <v>0</v>
       </c>
       <c r="R68" t="s">
-        <v>827</v>
+        <v>141</v>
       </c>
       <c r="S68">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T68" t="s">
-        <v>828</v>
+        <v>142</v>
       </c>
       <c r="U68">
         <v>0</v>
       </c>
       <c r="V68" t="s">
-        <v>829</v>
+        <v>143</v>
       </c>
       <c r="W68">
         <v>0</v>
       </c>
       <c r="X68" t="s">
-        <v>830</v>
+        <v>144</v>
       </c>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>795</v>
+        <v>751</v>
       </c>
       <c r="B69" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C69" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="D69" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="E69" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="F69">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G69" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="H69" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="I69" t="s">
-        <v>836</v>
+        <v>796</v>
       </c>
       <c r="J69" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="K69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L69" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="M69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N69" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P69" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="Q69">
         <v>0</v>
       </c>
       <c r="R69" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="S69">
         <v>0</v>
       </c>
       <c r="T69" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="U69">
         <v>0</v>
       </c>
       <c r="V69" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="W69">
         <v>0</v>
       </c>
       <c r="X69" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>845</v>
+        <v>751</v>
       </c>
       <c r="B70" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="C70" t="s">
-        <v>69</v>
+        <v>846</v>
       </c>
       <c r="D70" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="E70" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="F70">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G70" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="H70" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="I70" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="J70" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="K70">
         <v>3</v>
       </c>
       <c r="L70" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="M70">
         <v>2</v>
       </c>
       <c r="N70" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="O70">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P70" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="Q70">
         <v>0</v>
       </c>
       <c r="R70" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="S70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T70" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="U70">
         <v>0</v>
       </c>
       <c r="V70" t="s">
-        <v>218</v>
+        <v>858</v>
       </c>
       <c r="W70">
         <v>0</v>
       </c>
       <c r="X70" t="s">
-        <v>219</v>
+        <v>859</v>
       </c>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>845</v>
+        <v>751</v>
       </c>
       <c r="B71" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="C71" t="s">
-        <v>574</v>
+        <v>860</v>
       </c>
       <c r="D71" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="E71" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="F71">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G71" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="H71" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="I71" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="J71" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="K71">
         <v>3</v>
       </c>
       <c r="L71" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="M71">
         <v>2</v>
       </c>
       <c r="N71" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="O71">
         <v>1</v>
       </c>
       <c r="P71" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="Q71">
         <v>0</v>
       </c>
       <c r="R71" t="s">
-        <v>866</v>
+        <v>167</v>
       </c>
       <c r="S71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T71" t="s">
-        <v>867</v>
+        <v>167</v>
       </c>
       <c r="U71">
         <v>0</v>
       </c>
       <c r="V71" t="s">
-        <v>868</v>
+        <v>167</v>
       </c>
       <c r="W71">
         <v>0</v>
       </c>
       <c r="X71" t="s">
-        <v>869</v>
+        <v>167</v>
       </c>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>845</v>
+        <v>751</v>
       </c>
       <c r="B72" t="s">
         <v>25</v>
       </c>
       <c r="C72" t="s">
-        <v>69</v>
+        <v>870</v>
       </c>
       <c r="D72" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="E72" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F72">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G72" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="H72" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="I72" t="s">
-        <v>874</v>
+        <v>349</v>
       </c>
       <c r="J72" t="s">
         <v>875</v>
@@ -8457,111 +8736,99 @@
       <c r="Q72">
         <v>0</v>
       </c>
-      <c r="R72" t="s">
-        <v>879</v>
-      </c>
       <c r="S72">
-        <v>2</v>
-      </c>
-      <c r="T72" t="s">
-        <v>880</v>
+        <v>0</v>
       </c>
       <c r="U72">
         <v>0</v>
       </c>
-      <c r="V72" t="s">
-        <v>881</v>
-      </c>
       <c r="W72">
         <v>0</v>
-      </c>
-      <c r="X72" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>845</v>
+        <v>879</v>
       </c>
       <c r="B73" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C73" t="s">
+        <v>131</v>
+      </c>
+      <c r="D73" t="s">
+        <v>880</v>
+      </c>
+      <c r="E73" t="s">
+        <v>881</v>
+      </c>
+      <c r="F73">
+        <v>15</v>
+      </c>
+      <c r="G73" t="s">
+        <v>882</v>
+      </c>
+      <c r="H73" t="s">
         <v>883</v>
       </c>
-      <c r="D73" t="s">
+      <c r="I73" t="s">
         <v>884</v>
       </c>
-      <c r="E73" t="s">
+      <c r="J73" t="s">
         <v>885</v>
-      </c>
-      <c r="F73">
-        <v>5</v>
-      </c>
-      <c r="G73" t="s">
-        <v>886</v>
-      </c>
-      <c r="H73" t="s">
-        <v>887</v>
-      </c>
-      <c r="I73" t="s">
-        <v>888</v>
-      </c>
-      <c r="J73" t="s">
-        <v>889</v>
       </c>
       <c r="K73">
         <v>3</v>
       </c>
       <c r="L73" t="s">
+        <v>886</v>
+      </c>
+      <c r="M73">
+        <v>2</v>
+      </c>
+      <c r="N73" t="s">
+        <v>887</v>
+      </c>
+      <c r="O73">
+        <v>1</v>
+      </c>
+      <c r="P73" t="s">
+        <v>888</v>
+      </c>
+      <c r="Q73">
+        <v>2</v>
+      </c>
+      <c r="R73" t="s">
+        <v>889</v>
+      </c>
+      <c r="S73">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s">
         <v>890</v>
       </c>
-      <c r="M73">
-        <v>2</v>
-      </c>
-      <c r="N73" t="s">
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="V73" t="s">
         <v>891</v>
       </c>
-      <c r="O73">
-        <v>0</v>
-      </c>
-      <c r="P73" t="s">
-        <v>452</v>
-      </c>
-      <c r="Q73">
-        <v>0</v>
-      </c>
-      <c r="R73" t="s">
-        <v>452</v>
-      </c>
-      <c r="S73">
-        <v>0</v>
-      </c>
-      <c r="T73" t="s">
-        <v>452</v>
-      </c>
-      <c r="U73">
-        <v>0</v>
-      </c>
-      <c r="V73" t="s">
-        <v>452</v>
-      </c>
       <c r="W73">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X73" t="s">
-        <v>452</v>
+        <v>892</v>
       </c>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>845</v>
+        <v>879</v>
       </c>
       <c r="B74" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="C74" t="s">
-        <v>892</v>
+        <v>131</v>
       </c>
       <c r="D74" t="s">
         <v>893</v>
@@ -8570,7 +8837,7 @@
         <v>894</v>
       </c>
       <c r="F74">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G74" t="s">
         <v>895</v>
@@ -8579,16 +8846,16 @@
         <v>896</v>
       </c>
       <c r="I74" t="s">
+        <v>31</v>
+      </c>
+      <c r="J74" t="s">
         <v>897</v>
-      </c>
-      <c r="J74" t="s">
-        <v>898</v>
       </c>
       <c r="K74">
         <v>3</v>
       </c>
       <c r="L74" t="s">
-        <v>890</v>
+        <v>898</v>
       </c>
       <c r="M74">
         <v>1</v>
@@ -8597,182 +8864,688 @@
         <v>899</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P74" t="s">
-        <v>92</v>
+        <v>900</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R74" t="s">
-        <v>92</v>
+        <v>901</v>
       </c>
       <c r="S74">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T74" t="s">
-        <v>92</v>
+        <v>902</v>
       </c>
       <c r="U74">
         <v>0</v>
       </c>
       <c r="V74" t="s">
-        <v>92</v>
+        <v>903</v>
       </c>
       <c r="W74">
         <v>0</v>
       </c>
       <c r="X74" t="s">
-        <v>92</v>
+        <v>904</v>
       </c>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>845</v>
+        <v>879</v>
       </c>
       <c r="B75" t="s">
-        <v>247</v>
+        <v>25</v>
       </c>
       <c r="C75" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="D75" t="s">
-        <v>900</v>
+        <v>905</v>
       </c>
       <c r="E75" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
       <c r="F75">
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>907</v>
+      </c>
+      <c r="H75" t="s">
+        <v>908</v>
+      </c>
+      <c r="I75" t="s">
+        <v>31</v>
+      </c>
+      <c r="J75" t="s">
+        <v>909</v>
+      </c>
+      <c r="K75">
         <v>3</v>
       </c>
-      <c r="G75" t="s">
-        <v>902</v>
-      </c>
-      <c r="H75" t="s">
-        <v>903</v>
-      </c>
-      <c r="I75" t="s">
-        <v>904</v>
-      </c>
-      <c r="J75" t="s">
-        <v>905</v>
-      </c>
-      <c r="K75">
-        <v>2</v>
-      </c>
       <c r="L75" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="M75">
         <v>1</v>
       </c>
       <c r="N75" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="O75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P75" t="s">
-        <v>203</v>
+        <v>912</v>
       </c>
       <c r="Q75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R75" t="s">
-        <v>204</v>
+        <v>913</v>
       </c>
       <c r="S75">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T75" t="s">
-        <v>205</v>
+        <v>914</v>
       </c>
       <c r="U75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V75" t="s">
-        <v>206</v>
+        <v>915</v>
       </c>
       <c r="W75">
         <v>0</v>
       </c>
       <c r="X75" t="s">
-        <v>207</v>
+        <v>916</v>
       </c>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>845</v>
+        <v>879</v>
       </c>
       <c r="B76" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C76" t="s">
-        <v>883</v>
+        <v>131</v>
       </c>
       <c r="D76" t="s">
-        <v>908</v>
+        <v>917</v>
       </c>
       <c r="E76" t="s">
-        <v>909</v>
+        <v>918</v>
       </c>
       <c r="F76">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G76" t="s">
-        <v>910</v>
+        <v>919</v>
       </c>
       <c r="H76" t="s">
-        <v>911</v>
+        <v>920</v>
       </c>
       <c r="I76" t="s">
-        <v>912</v>
+        <v>884</v>
       </c>
       <c r="J76" t="s">
-        <v>913</v>
+        <v>921</v>
       </c>
       <c r="K76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L76" t="s">
-        <v>890</v>
+        <v>922</v>
       </c>
       <c r="M76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N76" t="s">
-        <v>452</v>
+        <v>923</v>
       </c>
       <c r="O76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P76" t="s">
-        <v>452</v>
+        <v>924</v>
       </c>
       <c r="Q76">
         <v>0</v>
       </c>
       <c r="R76" t="s">
-        <v>452</v>
+        <v>167</v>
       </c>
       <c r="S76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T76" t="s">
-        <v>452</v>
+        <v>925</v>
       </c>
       <c r="U76">
         <v>0</v>
       </c>
       <c r="V76" t="s">
-        <v>452</v>
+        <v>167</v>
       </c>
       <c r="W76">
         <v>0</v>
       </c>
       <c r="X76" t="s">
-        <v>452</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>879</v>
+      </c>
+      <c r="B77" t="s">
+        <v>25</v>
+      </c>
+      <c r="C77" t="s">
+        <v>131</v>
+      </c>
+      <c r="D77" t="s">
+        <v>926</v>
+      </c>
+      <c r="E77" t="s">
+        <v>927</v>
+      </c>
+      <c r="F77">
+        <v>7</v>
+      </c>
+      <c r="G77" t="s">
+        <v>928</v>
+      </c>
+      <c r="H77" t="s">
+        <v>929</v>
+      </c>
+      <c r="I77" t="s">
+        <v>930</v>
+      </c>
+      <c r="J77" t="s">
+        <v>931</v>
+      </c>
+      <c r="K77">
+        <v>3</v>
+      </c>
+      <c r="L77" t="s">
+        <v>932</v>
+      </c>
+      <c r="M77">
+        <v>2</v>
+      </c>
+      <c r="N77" t="s">
+        <v>933</v>
+      </c>
+      <c r="O77">
+        <v>2</v>
+      </c>
+      <c r="P77" t="s">
+        <v>934</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77" t="s">
+        <v>167</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77" t="s">
+        <v>167</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
+      <c r="V77" t="s">
+        <v>167</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>879</v>
+      </c>
+      <c r="B78" t="s">
+        <v>40</v>
+      </c>
+      <c r="C78" t="s">
+        <v>131</v>
+      </c>
+      <c r="D78" t="s">
+        <v>935</v>
+      </c>
+      <c r="E78" t="s">
+        <v>936</v>
+      </c>
+      <c r="F78">
+        <v>6</v>
+      </c>
+      <c r="G78" t="s">
+        <v>937</v>
+      </c>
+      <c r="H78" t="s">
+        <v>938</v>
+      </c>
+      <c r="I78" t="s">
+        <v>939</v>
+      </c>
+      <c r="J78" t="s">
+        <v>940</v>
+      </c>
+      <c r="K78">
+        <v>3</v>
+      </c>
+      <c r="L78" t="s">
+        <v>941</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78" t="s">
+        <v>373</v>
+      </c>
+      <c r="O78">
+        <v>1</v>
+      </c>
+      <c r="P78" t="s">
+        <v>942</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78" t="s">
+        <v>375</v>
+      </c>
+      <c r="S78">
+        <v>2</v>
+      </c>
+      <c r="T78" t="s">
+        <v>943</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+      <c r="V78" t="s">
+        <v>377</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>944</v>
+      </c>
+      <c r="B79" t="s">
+        <v>40</v>
+      </c>
+      <c r="C79" t="s">
+        <v>131</v>
+      </c>
+      <c r="D79" t="s">
+        <v>945</v>
+      </c>
+      <c r="E79" t="s">
+        <v>946</v>
+      </c>
+      <c r="F79">
+        <v>5</v>
+      </c>
+      <c r="G79" t="s">
+        <v>947</v>
+      </c>
+      <c r="H79" t="s">
+        <v>948</v>
+      </c>
+      <c r="I79" t="s">
+        <v>949</v>
+      </c>
+      <c r="J79" t="s">
+        <v>950</v>
+      </c>
+      <c r="K79">
+        <v>3</v>
+      </c>
+      <c r="L79" t="s">
+        <v>951</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79" t="s">
+        <v>952</v>
+      </c>
+      <c r="O79">
+        <v>2</v>
+      </c>
+      <c r="P79" t="s">
+        <v>953</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79" t="s">
+        <v>954</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79" t="s">
+        <v>955</v>
+      </c>
+      <c r="U79">
+        <v>0</v>
+      </c>
+      <c r="V79" t="s">
+        <v>956</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>958</v>
+      </c>
+      <c r="B80" t="s">
+        <v>40</v>
+      </c>
+      <c r="C80" t="s">
+        <v>197</v>
+      </c>
+      <c r="D80" t="s">
+        <v>959</v>
+      </c>
+      <c r="E80" t="s">
+        <v>960</v>
+      </c>
+      <c r="F80">
+        <v>